--- a/premier-league wins/premier league wins.xlsx
+++ b/premier-league wins/premier league wins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOHD YOUSUF\youtube\data\premier-league wins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF692A4-B919-4A8F-A79A-77532E1C8CBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF86E532-1F7C-45D3-BFA3-C731B44E5401}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFDD3D1-0C19-49C9-A5D0-CF73A18EB609}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Ian Wright</t>
   </si>
   <si>
-    <t>Andy Cole</t>
-  </si>
-  <si>
     <t>Chris Sutton</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>Pierre-Emerick Aubameyang</t>
+  </si>
+  <si>
+    <t>Andrew Cole</t>
   </si>
 </sst>
 </file>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB8984-64DD-4DAA-B3B9-3474948017C5}">
   <dimension ref="A1:AB132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,6 +1150,84 @@
       <c r="B5">
         <v>17</v>
       </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>25</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
+        <v>25</v>
+      </c>
+      <c r="V5">
+        <v>25</v>
+      </c>
+      <c r="W5">
+        <v>25</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>25</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>25</v>
+      </c>
+      <c r="AB5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1161,6 +1239,81 @@
       <c r="C6">
         <v>47</v>
       </c>
+      <c r="D6">
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6">
+        <v>137</v>
+      </c>
+      <c r="G6">
+        <v>139</v>
+      </c>
+      <c r="H6">
+        <v>153</v>
+      </c>
+      <c r="I6">
+        <v>176</v>
+      </c>
+      <c r="J6">
+        <v>181</v>
+      </c>
+      <c r="K6">
+        <v>204</v>
+      </c>
+      <c r="L6">
+        <v>221</v>
+      </c>
+      <c r="M6">
+        <v>243</v>
+      </c>
+      <c r="N6">
+        <v>250</v>
+      </c>
+      <c r="O6">
+        <v>260</v>
+      </c>
+      <c r="P6">
+        <v>260</v>
+      </c>
+      <c r="Q6">
+        <v>260</v>
+      </c>
+      <c r="R6">
+        <v>260</v>
+      </c>
+      <c r="S6">
+        <v>260</v>
+      </c>
+      <c r="T6">
+        <v>260</v>
+      </c>
+      <c r="U6">
+        <v>260</v>
+      </c>
+      <c r="V6">
+        <v>260</v>
+      </c>
+      <c r="W6">
+        <v>260</v>
+      </c>
+      <c r="X6">
+        <v>260</v>
+      </c>
+      <c r="Y6">
+        <v>260</v>
+      </c>
+      <c r="Z6">
+        <v>260</v>
+      </c>
+      <c r="AA6">
+        <v>260</v>
+      </c>
+      <c r="AB6">
+        <v>260</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1169,6 +1322,84 @@
       <c r="B7">
         <v>16</v>
       </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>26</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>26</v>
+      </c>
+      <c r="R7">
+        <v>26</v>
+      </c>
+      <c r="S7">
+        <v>26</v>
+      </c>
+      <c r="T7">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <v>26</v>
+      </c>
+      <c r="V7">
+        <v>26</v>
+      </c>
+      <c r="W7">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>26</v>
+      </c>
+      <c r="Y7">
+        <v>26</v>
+      </c>
+      <c r="Z7">
+        <v>26</v>
+      </c>
+      <c r="AA7">
+        <v>26</v>
+      </c>
+      <c r="AB7">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1177,6 +1408,84 @@
       <c r="B8">
         <v>15</v>
       </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>71</v>
+      </c>
+      <c r="J8">
+        <v>71</v>
+      </c>
+      <c r="K8">
+        <v>71</v>
+      </c>
+      <c r="L8">
+        <v>71</v>
+      </c>
+      <c r="M8">
+        <v>71</v>
+      </c>
+      <c r="N8">
+        <v>71</v>
+      </c>
+      <c r="O8">
+        <v>71</v>
+      </c>
+      <c r="P8">
+        <v>71</v>
+      </c>
+      <c r="Q8">
+        <v>71</v>
+      </c>
+      <c r="R8">
+        <v>71</v>
+      </c>
+      <c r="S8">
+        <v>71</v>
+      </c>
+      <c r="T8">
+        <v>71</v>
+      </c>
+      <c r="U8">
+        <v>71</v>
+      </c>
+      <c r="V8">
+        <v>71</v>
+      </c>
+      <c r="W8">
+        <v>71</v>
+      </c>
+      <c r="X8">
+        <v>71</v>
+      </c>
+      <c r="Y8">
+        <v>71</v>
+      </c>
+      <c r="Z8">
+        <v>71</v>
+      </c>
+      <c r="AA8">
+        <v>71</v>
+      </c>
+      <c r="AB8">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1185,6 +1494,84 @@
       <c r="B9">
         <v>15</v>
       </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>70</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>70</v>
+      </c>
+      <c r="L9">
+        <v>70</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>70</v>
+      </c>
+      <c r="O9">
+        <v>70</v>
+      </c>
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9">
+        <v>70</v>
+      </c>
+      <c r="R9">
+        <v>70</v>
+      </c>
+      <c r="S9">
+        <v>70</v>
+      </c>
+      <c r="T9">
+        <v>70</v>
+      </c>
+      <c r="U9">
+        <v>70</v>
+      </c>
+      <c r="V9">
+        <v>70</v>
+      </c>
+      <c r="W9">
+        <v>70</v>
+      </c>
+      <c r="X9">
+        <v>70</v>
+      </c>
+      <c r="Y9">
+        <v>70</v>
+      </c>
+      <c r="Z9">
+        <v>70</v>
+      </c>
+      <c r="AA9">
+        <v>70</v>
+      </c>
+      <c r="AB9">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1193,6 +1580,84 @@
       <c r="B10">
         <v>15</v>
       </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>71</v>
+      </c>
+      <c r="L10">
+        <v>71</v>
+      </c>
+      <c r="M10">
+        <v>71</v>
+      </c>
+      <c r="N10">
+        <v>71</v>
+      </c>
+      <c r="O10">
+        <v>71</v>
+      </c>
+      <c r="P10">
+        <v>71</v>
+      </c>
+      <c r="Q10">
+        <v>71</v>
+      </c>
+      <c r="R10">
+        <v>71</v>
+      </c>
+      <c r="S10">
+        <v>71</v>
+      </c>
+      <c r="T10">
+        <v>71</v>
+      </c>
+      <c r="U10">
+        <v>71</v>
+      </c>
+      <c r="V10">
+        <v>71</v>
+      </c>
+      <c r="W10">
+        <v>71</v>
+      </c>
+      <c r="X10">
+        <v>71</v>
+      </c>
+      <c r="Y10">
+        <v>71</v>
+      </c>
+      <c r="Z10">
+        <v>71</v>
+      </c>
+      <c r="AA10">
+        <v>71</v>
+      </c>
+      <c r="AB10">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1201,6 +1666,84 @@
       <c r="B11">
         <v>15</v>
       </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>62</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>63</v>
+      </c>
+      <c r="M11">
+        <v>63</v>
+      </c>
+      <c r="N11">
+        <v>63</v>
+      </c>
+      <c r="O11">
+        <v>63</v>
+      </c>
+      <c r="P11">
+        <v>63</v>
+      </c>
+      <c r="Q11">
+        <v>63</v>
+      </c>
+      <c r="R11">
+        <v>63</v>
+      </c>
+      <c r="S11">
+        <v>63</v>
+      </c>
+      <c r="T11">
+        <v>63</v>
+      </c>
+      <c r="U11">
+        <v>63</v>
+      </c>
+      <c r="V11">
+        <v>63</v>
+      </c>
+      <c r="W11">
+        <v>63</v>
+      </c>
+      <c r="X11">
+        <v>63</v>
+      </c>
+      <c r="Y11">
+        <v>63</v>
+      </c>
+      <c r="Z11">
+        <v>63</v>
+      </c>
+      <c r="AA11">
+        <v>63</v>
+      </c>
+      <c r="AB11">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1212,13 +1755,166 @@
       <c r="C12">
         <v>40</v>
       </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <v>99</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>100</v>
+      </c>
+      <c r="Y12">
+        <v>100</v>
+      </c>
+      <c r="Z12">
+        <v>100</v>
+      </c>
+      <c r="AA12">
+        <v>100</v>
+      </c>
+      <c r="AB12">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
         <v>15</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>25</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13">
+        <v>25</v>
+      </c>
+      <c r="Q13">
+        <v>25</v>
+      </c>
+      <c r="R13">
+        <v>25</v>
+      </c>
+      <c r="S13">
+        <v>25</v>
+      </c>
+      <c r="T13">
+        <v>25</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>25</v>
+      </c>
+      <c r="W13">
+        <v>25</v>
+      </c>
+      <c r="X13">
+        <v>25</v>
+      </c>
+      <c r="Y13">
+        <v>25</v>
+      </c>
+      <c r="Z13">
+        <v>25</v>
+      </c>
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -1226,7 +1922,85 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+      <c r="Z14">
+        <v>13</v>
+      </c>
+      <c r="AA14">
+        <v>13</v>
+      </c>
+      <c r="AB14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -1236,593 +2010,1154 @@
       <c r="B15">
         <v>15</v>
       </c>
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>94</v>
+      </c>
+      <c r="G15">
+        <v>104</v>
+      </c>
+      <c r="H15">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <v>113</v>
+      </c>
+      <c r="J15">
+        <v>113</v>
+      </c>
+      <c r="K15">
+        <v>113</v>
+      </c>
+      <c r="L15">
+        <v>113</v>
+      </c>
+      <c r="M15">
+        <v>113</v>
+      </c>
+      <c r="N15">
+        <v>113</v>
+      </c>
+      <c r="O15">
+        <v>113</v>
+      </c>
+      <c r="P15">
+        <v>113</v>
+      </c>
+      <c r="Q15">
+        <v>113</v>
+      </c>
+      <c r="R15">
+        <v>113</v>
+      </c>
+      <c r="S15">
+        <v>113</v>
+      </c>
+      <c r="T15">
+        <v>113</v>
+      </c>
+      <c r="U15">
+        <v>113</v>
+      </c>
+      <c r="V15">
+        <v>113</v>
+      </c>
+      <c r="W15">
+        <v>113</v>
+      </c>
+      <c r="X15">
+        <v>113</v>
+      </c>
+      <c r="Y15">
+        <v>113</v>
+      </c>
+      <c r="Z15">
+        <v>113</v>
+      </c>
+      <c r="AA15">
+        <v>113</v>
+      </c>
+      <c r="AB15">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>66</v>
+      </c>
+      <c r="G16">
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>104</v>
+      </c>
+      <c r="J16">
+        <v>123</v>
+      </c>
+      <c r="K16">
+        <v>132</v>
+      </c>
+      <c r="L16">
+        <v>136</v>
+      </c>
+      <c r="M16">
+        <v>145</v>
+      </c>
+      <c r="N16">
+        <v>152</v>
+      </c>
+      <c r="O16">
+        <v>163</v>
+      </c>
+      <c r="P16">
+        <v>175</v>
+      </c>
+      <c r="Q16">
+        <v>184</v>
+      </c>
+      <c r="R16">
+        <v>187</v>
+      </c>
+      <c r="S16">
+        <v>187</v>
+      </c>
+      <c r="T16">
+        <v>187</v>
+      </c>
+      <c r="U16">
+        <v>187</v>
+      </c>
+      <c r="V16">
+        <v>187</v>
+      </c>
+      <c r="W16">
+        <v>187</v>
+      </c>
+      <c r="X16">
+        <v>187</v>
+      </c>
+      <c r="Y16">
+        <v>187</v>
+      </c>
+      <c r="Z16">
+        <v>187</v>
+      </c>
+      <c r="AA16">
+        <v>187</v>
+      </c>
+      <c r="AB16">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>77</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>81</v>
+      </c>
+      <c r="J17">
+        <v>81</v>
+      </c>
+      <c r="K17">
+        <v>81</v>
+      </c>
+      <c r="L17">
+        <v>81</v>
+      </c>
+      <c r="M17">
+        <v>81</v>
+      </c>
+      <c r="N17">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>82</v>
+      </c>
+      <c r="P17">
+        <v>83</v>
+      </c>
+      <c r="Q17">
+        <v>83</v>
+      </c>
+      <c r="R17">
+        <v>83</v>
+      </c>
+      <c r="S17">
+        <v>83</v>
+      </c>
+      <c r="T17">
+        <v>83</v>
+      </c>
+      <c r="U17">
+        <v>83</v>
+      </c>
+      <c r="V17">
+        <v>83</v>
+      </c>
+      <c r="W17">
+        <v>83</v>
+      </c>
+      <c r="X17">
+        <v>83</v>
+      </c>
+      <c r="Y17">
+        <v>83</v>
+      </c>
+      <c r="Z17">
+        <v>83</v>
+      </c>
+      <c r="AA17">
+        <v>83</v>
+      </c>
+      <c r="AB17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>51</v>
+      </c>
+      <c r="F18">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <v>58</v>
+      </c>
+      <c r="J18">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <v>58</v>
+      </c>
+      <c r="M18">
+        <v>58</v>
+      </c>
+      <c r="N18">
+        <v>58</v>
+      </c>
+      <c r="O18">
+        <v>58</v>
+      </c>
+      <c r="P18">
+        <v>58</v>
+      </c>
+      <c r="Q18">
+        <v>58</v>
+      </c>
+      <c r="R18">
+        <v>58</v>
+      </c>
+      <c r="S18">
+        <v>58</v>
+      </c>
+      <c r="T18">
+        <v>58</v>
+      </c>
+      <c r="U18">
+        <v>58</v>
+      </c>
+      <c r="V18">
+        <v>58</v>
+      </c>
+      <c r="W18">
+        <v>58</v>
+      </c>
+      <c r="X18">
+        <v>58</v>
+      </c>
+      <c r="Y18">
+        <v>58</v>
+      </c>
+      <c r="Z18">
+        <v>58</v>
+      </c>
+      <c r="AA18">
+        <v>58</v>
+      </c>
+      <c r="AB18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>50</v>
+      </c>
+      <c r="O19">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <v>50</v>
+      </c>
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>50</v>
+      </c>
+      <c r="U19">
+        <v>50</v>
+      </c>
+      <c r="V19">
+        <v>50</v>
+      </c>
+      <c r="W19">
+        <v>50</v>
+      </c>
+      <c r="X19">
+        <v>50</v>
+      </c>
+      <c r="Y19">
+        <v>50</v>
+      </c>
+      <c r="Z19">
+        <v>50</v>
+      </c>
+      <c r="AA19">
+        <v>50</v>
+      </c>
+      <c r="AB19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <v>45</v>
+      </c>
+      <c r="P20">
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <v>45</v>
+      </c>
+      <c r="R20">
+        <v>45</v>
+      </c>
+      <c r="S20">
+        <v>45</v>
+      </c>
+      <c r="T20">
+        <v>45</v>
+      </c>
+      <c r="U20">
+        <v>45</v>
+      </c>
+      <c r="V20">
+        <v>45</v>
+      </c>
+      <c r="W20">
+        <v>45</v>
+      </c>
+      <c r="X20">
+        <v>45</v>
+      </c>
+      <c r="Y20">
+        <v>45</v>
+      </c>
+      <c r="Z20">
+        <v>45</v>
+      </c>
+      <c r="AA20">
+        <v>45</v>
+      </c>
+      <c r="AB20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="F21">
+        <v>83</v>
+      </c>
+      <c r="G21">
+        <v>92</v>
+      </c>
+      <c r="H21">
+        <v>106</v>
+      </c>
+      <c r="I21">
+        <v>109</v>
+      </c>
+      <c r="J21">
+        <v>117</v>
+      </c>
+      <c r="K21">
+        <v>132</v>
+      </c>
+      <c r="L21">
+        <v>136</v>
+      </c>
+      <c r="M21">
+        <v>143</v>
+      </c>
+      <c r="N21">
+        <v>154</v>
+      </c>
+      <c r="O21">
+        <v>155</v>
+      </c>
+      <c r="P21">
+        <v>160</v>
+      </c>
+      <c r="Q21">
+        <v>163</v>
+      </c>
+      <c r="R21">
+        <v>163</v>
+      </c>
+      <c r="S21">
+        <v>163</v>
+      </c>
+      <c r="T21">
+        <v>163</v>
+      </c>
+      <c r="U21">
+        <v>163</v>
+      </c>
+      <c r="V21">
+        <v>163</v>
+      </c>
+      <c r="W21">
+        <v>163</v>
+      </c>
+      <c r="X21">
+        <v>163</v>
+      </c>
+      <c r="Y21">
+        <v>163</v>
+      </c>
+      <c r="Z21">
+        <v>163</v>
+      </c>
+      <c r="AA21">
+        <v>163</v>
+      </c>
+      <c r="AB21">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/premier-league wins/premier league wins.xlsx
+++ b/premier-league wins/premier league wins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOHD YOUSUF\youtube\data\premier-league wins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF86E532-1F7C-45D3-BFA3-C731B44E5401}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB6D94E-87FC-4D0C-9667-DC0399368E18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFDD3D1-0C19-49C9-A5D0-CF73A18EB609}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Goal Scorers Premier League</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Dennis Bergkamp</t>
   </si>
   <si>
-    <t>Steve Claridge</t>
-  </si>
-  <si>
     <t>Juninho</t>
   </si>
   <si>
@@ -140,57 +137,33 @@
     <t>John Hartson</t>
   </si>
   <si>
-    <t>Darren Huckerby</t>
-  </si>
-  <si>
     <t>Paulo Wanchope</t>
   </si>
   <si>
     <t>Nicolas Anelka</t>
   </si>
   <si>
-    <t>Hamilton Ricard</t>
-  </si>
-  <si>
     <t>Julian Joachim</t>
   </si>
   <si>
     <t>Kevin Phillips</t>
   </si>
   <si>
-    <t>Michael Bridges</t>
-  </si>
-  <si>
     <t>Thierry Henry</t>
   </si>
   <si>
     <t>Paolo Di Canio</t>
   </si>
   <si>
-    <t>Steffen Iversen</t>
-  </si>
-  <si>
-    <t>Niall Quinn</t>
-  </si>
-  <si>
-    <t>Marcus Stewart</t>
-  </si>
-  <si>
     <t>Mark Viduka</t>
   </si>
   <si>
     <t>Emile Heskey</t>
   </si>
   <si>
-    <t>Alen Bokšić</t>
-  </si>
-  <si>
     <t>James Beattie</t>
   </si>
   <si>
-    <t>Jonatan Johansson</t>
-  </si>
-  <si>
     <t>Frédéric Kanouté</t>
   </si>
   <si>
@@ -206,9 +179,6 @@
     <t>Eiður Guðjohnsen</t>
   </si>
   <si>
-    <t>Marians Pahars</t>
-  </si>
-  <si>
     <t>Gianfranco Zola</t>
   </si>
   <si>
@@ -224,16 +194,7 @@
     <t>Louis Saha</t>
   </si>
   <si>
-    <t>Mikael Forssell</t>
-  </si>
-  <si>
-    <t>Juan Pablo Ángel</t>
-  </si>
-  <si>
     <t>Yakubu</t>
-  </si>
-  <si>
-    <t>Andy Johnson</t>
   </si>
   <si>
     <t>Jermain Defoe</t>
@@ -787,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB8984-64DD-4DAA-B3B9-3474948017C5}">
-  <dimension ref="A1:AB132"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2091,7 +2052,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2609,213 +2570,3372 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <v>54</v>
+      </c>
+      <c r="H22">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <v>62</v>
+      </c>
+      <c r="L22">
+        <v>62</v>
+      </c>
+      <c r="M22">
+        <v>62</v>
+      </c>
+      <c r="N22">
+        <v>62</v>
+      </c>
+      <c r="O22">
+        <v>62</v>
+      </c>
+      <c r="P22">
+        <v>62</v>
+      </c>
+      <c r="Q22">
+        <v>62</v>
+      </c>
+      <c r="R22">
+        <v>62</v>
+      </c>
+      <c r="S22">
+        <v>62</v>
+      </c>
+      <c r="T22">
+        <v>62</v>
+      </c>
+      <c r="U22">
+        <v>62</v>
+      </c>
+      <c r="V22">
+        <v>62</v>
+      </c>
+      <c r="W22">
+        <v>62</v>
+      </c>
+      <c r="X22">
+        <v>62</v>
+      </c>
+      <c r="Y22">
+        <v>62</v>
+      </c>
+      <c r="Z22">
+        <v>62</v>
+      </c>
+      <c r="AA22">
+        <v>62</v>
+      </c>
+      <c r="AB22">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>29</v>
+      </c>
+      <c r="K23">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23">
+        <v>29</v>
+      </c>
+      <c r="O23">
+        <v>29</v>
+      </c>
+      <c r="P23">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>29</v>
+      </c>
+      <c r="R23">
+        <v>29</v>
+      </c>
+      <c r="S23">
+        <v>29</v>
+      </c>
+      <c r="T23">
+        <v>29</v>
+      </c>
+      <c r="U23">
+        <v>29</v>
+      </c>
+      <c r="V23">
+        <v>29</v>
+      </c>
+      <c r="W23">
+        <v>29</v>
+      </c>
+      <c r="X23">
+        <v>29</v>
+      </c>
+      <c r="Y23">
+        <v>29</v>
+      </c>
+      <c r="Z23">
+        <v>29</v>
+      </c>
+      <c r="AA23">
+        <v>29</v>
+      </c>
+      <c r="AB23">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>29</v>
+      </c>
+      <c r="J24">
+        <v>29</v>
+      </c>
+      <c r="K24">
+        <v>29</v>
+      </c>
+      <c r="L24">
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>29</v>
+      </c>
+      <c r="O24">
+        <v>29</v>
+      </c>
+      <c r="P24">
+        <v>29</v>
+      </c>
+      <c r="Q24">
+        <v>29</v>
+      </c>
+      <c r="R24">
+        <v>29</v>
+      </c>
+      <c r="S24">
+        <v>29</v>
+      </c>
+      <c r="T24">
+        <v>29</v>
+      </c>
+      <c r="U24">
+        <v>29</v>
+      </c>
+      <c r="V24">
+        <v>29</v>
+      </c>
+      <c r="W24">
+        <v>29</v>
+      </c>
+      <c r="X24">
+        <v>29</v>
+      </c>
+      <c r="Y24">
+        <v>29</v>
+      </c>
+      <c r="Z24">
+        <v>29</v>
+      </c>
+      <c r="AA24">
+        <v>29</v>
+      </c>
+      <c r="AB24">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>42</v>
+      </c>
+      <c r="G25">
+        <v>42</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
+      <c r="I25">
+        <v>45</v>
+      </c>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>45</v>
+      </c>
+      <c r="L25">
+        <v>45</v>
+      </c>
+      <c r="M25">
+        <v>45</v>
+      </c>
+      <c r="N25">
+        <v>45</v>
+      </c>
+      <c r="O25">
+        <v>45</v>
+      </c>
+      <c r="P25">
+        <v>45</v>
+      </c>
+      <c r="Q25">
+        <v>45</v>
+      </c>
+      <c r="R25">
+        <v>45</v>
+      </c>
+      <c r="S25">
+        <v>45</v>
+      </c>
+      <c r="T25">
+        <v>45</v>
+      </c>
+      <c r="U25">
+        <v>45</v>
+      </c>
+      <c r="V25">
+        <v>45</v>
+      </c>
+      <c r="W25">
+        <v>45</v>
+      </c>
+      <c r="X25">
+        <v>45</v>
+      </c>
+      <c r="Y25">
+        <v>45</v>
+      </c>
+      <c r="Z25">
+        <v>45</v>
+      </c>
+      <c r="AA25">
+        <v>45</v>
+      </c>
+      <c r="AB25">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>78</v>
+      </c>
+      <c r="I26">
+        <v>98</v>
+      </c>
+      <c r="J26">
+        <v>107</v>
+      </c>
+      <c r="K26">
+        <v>108</v>
+      </c>
+      <c r="L26">
+        <v>116</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
+      </c>
+      <c r="N26">
+        <v>122</v>
+      </c>
+      <c r="O26">
+        <v>122</v>
+      </c>
+      <c r="P26">
+        <v>122</v>
+      </c>
+      <c r="Q26">
+        <v>123</v>
+      </c>
+      <c r="R26">
+        <v>123</v>
+      </c>
+      <c r="S26">
+        <v>123</v>
+      </c>
+      <c r="T26">
+        <v>123</v>
+      </c>
+      <c r="U26">
+        <v>123</v>
+      </c>
+      <c r="V26">
+        <v>123</v>
+      </c>
+      <c r="W26">
+        <v>123</v>
+      </c>
+      <c r="X26">
+        <v>123</v>
+      </c>
+      <c r="Y26">
+        <v>123</v>
+      </c>
+      <c r="Z26">
+        <v>123</v>
+      </c>
+      <c r="AA26">
+        <v>123</v>
+      </c>
+      <c r="AB26">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <v>42</v>
+      </c>
+      <c r="H27">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>42</v>
+      </c>
+      <c r="J27">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>42</v>
+      </c>
+      <c r="L27">
+        <v>42</v>
+      </c>
+      <c r="M27">
+        <v>42</v>
+      </c>
+      <c r="N27">
+        <v>42</v>
+      </c>
+      <c r="O27">
+        <v>42</v>
+      </c>
+      <c r="P27">
+        <v>42</v>
+      </c>
+      <c r="Q27">
+        <v>42</v>
+      </c>
+      <c r="R27">
+        <v>42</v>
+      </c>
+      <c r="S27">
+        <v>42</v>
+      </c>
+      <c r="T27">
+        <v>42</v>
+      </c>
+      <c r="U27">
+        <v>42</v>
+      </c>
+      <c r="V27">
+        <v>42</v>
+      </c>
+      <c r="W27">
+        <v>42</v>
+      </c>
+      <c r="X27">
+        <v>42</v>
+      </c>
+      <c r="Y27">
+        <v>42</v>
+      </c>
+      <c r="Z27">
+        <v>42</v>
+      </c>
+      <c r="AA27">
+        <v>42</v>
+      </c>
+      <c r="AB27">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>74</v>
+      </c>
+      <c r="I28">
+        <v>86</v>
+      </c>
+      <c r="J28">
+        <v>94</v>
+      </c>
+      <c r="K28">
+        <v>98</v>
+      </c>
+      <c r="L28">
+        <v>108</v>
+      </c>
+      <c r="M28">
+        <v>111</v>
+      </c>
+      <c r="N28">
+        <v>111</v>
+      </c>
+      <c r="O28">
+        <v>111</v>
+      </c>
+      <c r="P28">
+        <v>111</v>
+      </c>
+      <c r="Q28">
+        <v>111</v>
+      </c>
+      <c r="R28">
+        <v>111</v>
+      </c>
+      <c r="S28">
+        <v>111</v>
+      </c>
+      <c r="T28">
+        <v>111</v>
+      </c>
+      <c r="U28">
+        <v>111</v>
+      </c>
+      <c r="V28">
+        <v>111</v>
+      </c>
+      <c r="W28">
+        <v>111</v>
+      </c>
+      <c r="X28">
+        <v>111</v>
+      </c>
+      <c r="Y28">
+        <v>111</v>
+      </c>
+      <c r="Z28">
+        <v>111</v>
+      </c>
+      <c r="AA28">
+        <v>111</v>
+      </c>
+      <c r="AB28">
+        <v>111</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>48</v>
+      </c>
+      <c r="J29">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <v>75</v>
+      </c>
+      <c r="L29">
+        <v>84</v>
+      </c>
+      <c r="M29">
+        <v>84</v>
+      </c>
+      <c r="N29">
+        <v>84</v>
+      </c>
+      <c r="O29">
+        <v>84</v>
+      </c>
+      <c r="P29">
+        <v>91</v>
+      </c>
+      <c r="Q29">
+        <v>91</v>
+      </c>
+      <c r="R29">
+        <v>91</v>
+      </c>
+      <c r="S29">
+        <v>91</v>
+      </c>
+      <c r="T29">
+        <v>91</v>
+      </c>
+      <c r="U29">
+        <v>91</v>
+      </c>
+      <c r="V29">
+        <v>91</v>
+      </c>
+      <c r="W29">
+        <v>91</v>
+      </c>
+      <c r="X29">
+        <v>91</v>
+      </c>
+      <c r="Y29">
+        <v>91</v>
+      </c>
+      <c r="Z29">
+        <v>91</v>
+      </c>
+      <c r="AA29">
+        <v>91</v>
+      </c>
+      <c r="AB29">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
+      <c r="Q30">
+        <v>25</v>
+      </c>
+      <c r="R30">
+        <v>25</v>
+      </c>
+      <c r="S30">
+        <v>25</v>
+      </c>
+      <c r="T30">
+        <v>25</v>
+      </c>
+      <c r="U30">
+        <v>25</v>
+      </c>
+      <c r="V30">
+        <v>25</v>
+      </c>
+      <c r="W30">
+        <v>25</v>
+      </c>
+      <c r="X30">
+        <v>25</v>
+      </c>
+      <c r="Y30">
+        <v>25</v>
+      </c>
+      <c r="Z30">
+        <v>25</v>
+      </c>
+      <c r="AA30">
+        <v>25</v>
+      </c>
+      <c r="AB30">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <v>51</v>
+      </c>
+      <c r="I31">
+        <v>57</v>
+      </c>
+      <c r="J31">
+        <v>60</v>
+      </c>
+      <c r="K31">
+        <v>69</v>
+      </c>
+      <c r="L31">
+        <v>73</v>
+      </c>
+      <c r="M31">
+        <v>77</v>
+      </c>
+      <c r="N31">
+        <v>85</v>
+      </c>
+      <c r="O31">
+        <v>87</v>
+      </c>
+      <c r="P31">
+        <v>87</v>
+      </c>
+      <c r="Q31">
+        <v>87</v>
+      </c>
+      <c r="R31">
+        <v>87</v>
+      </c>
+      <c r="S31">
+        <v>87</v>
+      </c>
+      <c r="T31">
+        <v>87</v>
+      </c>
+      <c r="U31">
+        <v>87</v>
+      </c>
+      <c r="V31">
+        <v>87</v>
+      </c>
+      <c r="W31">
+        <v>87</v>
+      </c>
+      <c r="X31">
+        <v>87</v>
+      </c>
+      <c r="Y31">
+        <v>87</v>
+      </c>
+      <c r="Z31">
+        <v>87</v>
+      </c>
+      <c r="AA31">
+        <v>87</v>
+      </c>
+      <c r="AB31">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>29</v>
+      </c>
+      <c r="O32">
+        <v>29</v>
+      </c>
+      <c r="P32">
+        <v>29</v>
+      </c>
+      <c r="Q32">
+        <v>29</v>
+      </c>
+      <c r="R32">
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <v>29</v>
+      </c>
+      <c r="T32">
+        <v>29</v>
+      </c>
+      <c r="U32">
+        <v>29</v>
+      </c>
+      <c r="V32">
+        <v>29</v>
+      </c>
+      <c r="W32">
+        <v>29</v>
+      </c>
+      <c r="X32">
+        <v>29</v>
+      </c>
+      <c r="Y32">
+        <v>29</v>
+      </c>
+      <c r="Z32">
+        <v>29</v>
+      </c>
+      <c r="AA32">
+        <v>29</v>
+      </c>
+      <c r="AB32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <v>37</v>
+      </c>
+      <c r="I33">
+        <v>48</v>
+      </c>
+      <c r="J33">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>83</v>
+      </c>
+      <c r="L33">
+        <v>102</v>
+      </c>
+      <c r="M33">
+        <v>118</v>
+      </c>
+      <c r="N33">
+        <v>125</v>
+      </c>
+      <c r="O33">
+        <v>125</v>
+      </c>
+      <c r="P33">
+        <v>125</v>
+      </c>
+      <c r="Q33">
+        <v>136</v>
+      </c>
+      <c r="R33">
+        <v>144</v>
+      </c>
+      <c r="S33">
+        <v>147</v>
+      </c>
+      <c r="T33">
+        <v>149</v>
+      </c>
+      <c r="U33">
+        <v>149</v>
+      </c>
+      <c r="V33">
+        <v>150</v>
+      </c>
+      <c r="W33">
+        <v>150</v>
+      </c>
+      <c r="X33">
+        <v>150</v>
+      </c>
+      <c r="Y33">
+        <v>150</v>
+      </c>
+      <c r="Z33">
+        <v>150</v>
+      </c>
+      <c r="AA33">
+        <v>150</v>
+      </c>
+      <c r="AB33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>47</v>
+      </c>
+      <c r="H34">
+        <v>52</v>
+      </c>
+      <c r="I34">
+        <v>54</v>
+      </c>
+      <c r="J34">
+        <v>56</v>
+      </c>
+      <c r="K34">
+        <v>56</v>
+      </c>
+      <c r="L34">
+        <v>56</v>
+      </c>
+      <c r="M34">
+        <v>56</v>
+      </c>
+      <c r="N34">
+        <v>56</v>
+      </c>
+      <c r="O34">
+        <v>56</v>
+      </c>
+      <c r="P34">
+        <v>56</v>
+      </c>
+      <c r="Q34">
+        <v>56</v>
+      </c>
+      <c r="R34">
+        <v>56</v>
+      </c>
+      <c r="S34">
+        <v>56</v>
+      </c>
+      <c r="T34">
+        <v>56</v>
+      </c>
+      <c r="U34">
+        <v>56</v>
+      </c>
+      <c r="V34">
+        <v>56</v>
+      </c>
+      <c r="W34">
+        <v>56</v>
+      </c>
+      <c r="X34">
+        <v>56</v>
+      </c>
+      <c r="Y34">
+        <v>56</v>
+      </c>
+      <c r="Z34">
+        <v>56</v>
+      </c>
+      <c r="AA34">
+        <v>56</v>
+      </c>
+      <c r="AB34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>57</v>
+      </c>
+      <c r="J35">
+        <v>80</v>
+      </c>
+      <c r="K35">
+        <v>91</v>
+      </c>
+      <c r="L35">
+        <v>103</v>
+      </c>
+      <c r="M35">
+        <v>116</v>
+      </c>
+      <c r="N35">
+        <v>125</v>
+      </c>
+      <c r="O35">
+        <v>127</v>
+      </c>
+      <c r="P35">
+        <v>127</v>
+      </c>
+      <c r="Q35">
+        <v>127</v>
+      </c>
+      <c r="R35">
+        <v>127</v>
+      </c>
+      <c r="S35">
+        <v>127</v>
+      </c>
+      <c r="T35">
+        <v>127</v>
+      </c>
+      <c r="U35">
+        <v>127</v>
+      </c>
+      <c r="V35">
+        <v>127</v>
+      </c>
+      <c r="W35">
+        <v>127</v>
+      </c>
+      <c r="X35">
+        <v>127</v>
+      </c>
+      <c r="Y35">
+        <v>127</v>
+      </c>
+      <c r="Z35">
+        <v>127</v>
+      </c>
+      <c r="AA35">
+        <v>127</v>
+      </c>
+      <c r="AB35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>49</v>
+      </c>
+      <c r="J36">
+        <v>55</v>
+      </c>
+      <c r="K36">
+        <v>55</v>
+      </c>
+      <c r="L36">
+        <v>55</v>
+      </c>
+      <c r="M36">
+        <v>55</v>
+      </c>
+      <c r="N36">
+        <v>55</v>
+      </c>
+      <c r="O36">
+        <v>55</v>
+      </c>
+      <c r="P36">
+        <v>55</v>
+      </c>
+      <c r="Q36">
+        <v>55</v>
+      </c>
+      <c r="R36">
+        <v>55</v>
+      </c>
+      <c r="S36">
+        <v>55</v>
+      </c>
+      <c r="T36">
+        <v>55</v>
+      </c>
+      <c r="U36">
+        <v>55</v>
+      </c>
+      <c r="V36">
+        <v>55</v>
+      </c>
+      <c r="W36">
+        <v>55</v>
+      </c>
+      <c r="X36">
+        <v>55</v>
+      </c>
+      <c r="Y36">
+        <v>55</v>
+      </c>
+      <c r="Z36">
+        <v>55</v>
+      </c>
+      <c r="AA36">
+        <v>55</v>
+      </c>
+      <c r="AB36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <v>44</v>
+      </c>
+      <c r="K37">
+        <v>44</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>50</v>
+      </c>
+      <c r="N37">
+        <v>50</v>
+      </c>
+      <c r="O37">
+        <v>50</v>
+      </c>
+      <c r="P37">
+        <v>50</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <v>50</v>
+      </c>
+      <c r="S37">
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <v>50</v>
+      </c>
+      <c r="U37">
+        <v>50</v>
+      </c>
+      <c r="V37">
+        <v>50</v>
+      </c>
+      <c r="W37">
+        <v>50</v>
+      </c>
+      <c r="X37">
+        <v>50</v>
+      </c>
+      <c r="Y37">
+        <v>50</v>
+      </c>
+      <c r="Z37">
+        <v>50</v>
+      </c>
+      <c r="AA37">
+        <v>50</v>
+      </c>
+      <c r="AB37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <v>23</v>
+      </c>
+      <c r="J38">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <v>27</v>
+      </c>
+      <c r="L38">
+        <v>41</v>
+      </c>
+      <c r="M38">
+        <v>57</v>
+      </c>
+      <c r="N38">
+        <v>64</v>
+      </c>
+      <c r="O38">
+        <v>64</v>
+      </c>
+      <c r="P38">
+        <v>75</v>
+      </c>
+      <c r="Q38">
+        <v>86</v>
+      </c>
+      <c r="R38">
+        <v>105</v>
+      </c>
+      <c r="S38">
+        <v>116</v>
+      </c>
+      <c r="T38">
+        <v>122</v>
+      </c>
+      <c r="U38">
+        <v>123</v>
+      </c>
+      <c r="V38">
+        <v>123</v>
+      </c>
+      <c r="W38">
+        <v>125</v>
+      </c>
+      <c r="X38">
+        <v>125</v>
+      </c>
+      <c r="Y38">
+        <v>125</v>
+      </c>
+      <c r="Z38">
+        <v>125</v>
+      </c>
+      <c r="AA38">
+        <v>125</v>
+      </c>
+      <c r="AB38">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>29</v>
+      </c>
+      <c r="I39">
+        <v>35</v>
+      </c>
+      <c r="J39">
+        <v>42</v>
+      </c>
+      <c r="K39">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39">
+        <v>42</v>
+      </c>
+      <c r="N39">
+        <v>42</v>
+      </c>
+      <c r="O39">
+        <v>42</v>
+      </c>
+      <c r="P39">
+        <v>42</v>
+      </c>
+      <c r="Q39">
+        <v>42</v>
+      </c>
+      <c r="R39">
+        <v>42</v>
+      </c>
+      <c r="S39">
+        <v>42</v>
+      </c>
+      <c r="T39">
+        <v>42</v>
+      </c>
+      <c r="U39">
+        <v>42</v>
+      </c>
+      <c r="V39">
+        <v>42</v>
+      </c>
+      <c r="W39">
+        <v>42</v>
+      </c>
+      <c r="X39">
+        <v>42</v>
+      </c>
+      <c r="Y39">
+        <v>42</v>
+      </c>
+      <c r="Z39">
+        <v>42</v>
+      </c>
+      <c r="AA39">
+        <v>42</v>
+      </c>
+      <c r="AB39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>55</v>
+      </c>
+      <c r="L40">
+        <v>61</v>
+      </c>
+      <c r="M40">
+        <v>73</v>
+      </c>
+      <c r="N40">
+        <v>83</v>
+      </c>
+      <c r="O40">
+        <v>87</v>
+      </c>
+      <c r="P40">
+        <v>87</v>
+      </c>
+      <c r="Q40">
+        <v>87</v>
+      </c>
+      <c r="R40">
+        <v>87</v>
+      </c>
+      <c r="S40">
+        <v>91</v>
+      </c>
+      <c r="T40">
+        <v>92</v>
+      </c>
+      <c r="U40">
+        <v>92</v>
+      </c>
+      <c r="V40">
+        <v>92</v>
+      </c>
+      <c r="W40">
+        <v>92</v>
+      </c>
+      <c r="X40">
+        <v>92</v>
+      </c>
+      <c r="Y40">
+        <v>92</v>
+      </c>
+      <c r="Z40">
+        <v>92</v>
+      </c>
+      <c r="AA40">
+        <v>92</v>
+      </c>
+      <c r="AB40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>34</v>
+      </c>
+      <c r="K41">
+        <v>58</v>
+      </c>
+      <c r="L41">
+        <v>82</v>
+      </c>
+      <c r="M41">
+        <v>112</v>
+      </c>
+      <c r="N41">
+        <v>137</v>
+      </c>
+      <c r="O41">
+        <v>164</v>
+      </c>
+      <c r="P41">
+        <v>174</v>
+      </c>
+      <c r="Q41">
+        <v>174</v>
+      </c>
+      <c r="R41">
+        <v>174</v>
+      </c>
+      <c r="S41">
+        <v>174</v>
+      </c>
+      <c r="T41">
+        <v>174</v>
+      </c>
+      <c r="U41">
+        <v>175</v>
+      </c>
+      <c r="V41">
+        <v>175</v>
+      </c>
+      <c r="W41">
+        <v>175</v>
+      </c>
+      <c r="X41">
+        <v>175</v>
+      </c>
+      <c r="Y41">
+        <v>175</v>
+      </c>
+      <c r="Z41">
+        <v>175</v>
+      </c>
+      <c r="AA41">
+        <v>175</v>
+      </c>
+      <c r="AB41">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="J42">
+        <v>44</v>
+      </c>
+      <c r="K42">
+        <v>53</v>
+      </c>
+      <c r="L42">
+        <v>62</v>
+      </c>
+      <c r="M42">
+        <v>66</v>
+      </c>
+      <c r="N42">
+        <v>66</v>
+      </c>
+      <c r="O42">
+        <v>66</v>
+      </c>
+      <c r="P42">
+        <v>66</v>
+      </c>
+      <c r="Q42">
+        <v>66</v>
+      </c>
+      <c r="R42">
+        <v>66</v>
+      </c>
+      <c r="S42">
+        <v>66</v>
+      </c>
+      <c r="T42">
+        <v>66</v>
+      </c>
+      <c r="U42">
+        <v>66</v>
+      </c>
+      <c r="V42">
+        <v>66</v>
+      </c>
+      <c r="W42">
+        <v>66</v>
+      </c>
+      <c r="X42">
+        <v>66</v>
+      </c>
+      <c r="Y42">
+        <v>66</v>
+      </c>
+      <c r="Z42">
+        <v>66</v>
+      </c>
+      <c r="AA42">
+        <v>66</v>
+      </c>
+      <c r="AB42">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>17</v>
+      </c>
+      <c r="K43">
+        <v>28</v>
+      </c>
+      <c r="L43">
+        <v>48</v>
+      </c>
+      <c r="M43">
+        <v>59</v>
+      </c>
+      <c r="N43">
+        <v>64</v>
+      </c>
+      <c r="O43">
+        <v>71</v>
+      </c>
+      <c r="P43">
+        <v>85</v>
+      </c>
+      <c r="Q43">
+        <v>92</v>
+      </c>
+      <c r="R43">
+        <v>92</v>
+      </c>
+      <c r="S43">
+        <v>92</v>
+      </c>
+      <c r="T43">
+        <v>92</v>
+      </c>
+      <c r="U43">
+        <v>92</v>
+      </c>
+      <c r="V43">
+        <v>92</v>
+      </c>
+      <c r="W43">
+        <v>92</v>
+      </c>
+      <c r="X43">
+        <v>92</v>
+      </c>
+      <c r="Y43">
+        <v>92</v>
+      </c>
+      <c r="Z43">
+        <v>92</v>
+      </c>
+      <c r="AA43">
+        <v>92</v>
+      </c>
+      <c r="AB43">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>26</v>
+      </c>
+      <c r="I44">
+        <v>36</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>59</v>
+      </c>
+      <c r="L44">
+        <v>65</v>
+      </c>
+      <c r="M44">
+        <v>72</v>
+      </c>
+      <c r="N44">
+        <v>82</v>
+      </c>
+      <c r="O44">
+        <v>86</v>
+      </c>
+      <c r="P44">
+        <v>94</v>
+      </c>
+      <c r="Q44">
+        <v>98</v>
+      </c>
+      <c r="R44">
+        <v>103</v>
+      </c>
+      <c r="S44">
+        <v>106</v>
+      </c>
+      <c r="T44">
+        <v>109</v>
+      </c>
+      <c r="U44">
+        <v>110</v>
+      </c>
+      <c r="V44">
+        <v>110</v>
+      </c>
+      <c r="W44">
+        <v>110</v>
+      </c>
+      <c r="X44">
+        <v>110</v>
+      </c>
+      <c r="Y44">
+        <v>110</v>
+      </c>
+      <c r="Z44">
+        <v>110</v>
+      </c>
+      <c r="AA44">
+        <v>110</v>
+      </c>
+      <c r="AB44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>16</v>
+      </c>
+      <c r="K45">
+        <v>28</v>
+      </c>
+      <c r="L45">
+        <v>51</v>
+      </c>
+      <c r="M45">
+        <v>65</v>
+      </c>
+      <c r="N45">
+        <v>69</v>
+      </c>
+      <c r="O45">
+        <v>79</v>
+      </c>
+      <c r="P45">
+        <v>79</v>
+      </c>
+      <c r="Q45">
+        <v>81</v>
+      </c>
+      <c r="R45">
+        <v>88</v>
+      </c>
+      <c r="S45">
+        <v>91</v>
+      </c>
+      <c r="T45">
+        <v>91</v>
+      </c>
+      <c r="U45">
+        <v>91</v>
+      </c>
+      <c r="V45">
+        <v>91</v>
+      </c>
+      <c r="W45">
+        <v>91</v>
+      </c>
+      <c r="X45">
+        <v>91</v>
+      </c>
+      <c r="Y45">
+        <v>91</v>
+      </c>
+      <c r="Z45">
+        <v>91</v>
+      </c>
+      <c r="AA45">
+        <v>91</v>
+      </c>
+      <c r="AB45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+      <c r="K46">
+        <v>24</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>36</v>
+      </c>
+      <c r="N46">
+        <v>43</v>
+      </c>
+      <c r="O46">
+        <v>43</v>
+      </c>
+      <c r="P46">
+        <v>43</v>
+      </c>
+      <c r="Q46">
+        <v>43</v>
+      </c>
+      <c r="R46">
+        <v>43</v>
+      </c>
+      <c r="S46">
+        <v>43</v>
+      </c>
+      <c r="T46">
+        <v>43</v>
+      </c>
+      <c r="U46">
+        <v>43</v>
+      </c>
+      <c r="V46">
+        <v>43</v>
+      </c>
+      <c r="W46">
+        <v>43</v>
+      </c>
+      <c r="X46">
+        <v>43</v>
+      </c>
+      <c r="Y46">
+        <v>43</v>
+      </c>
+      <c r="Z46">
+        <v>43</v>
+      </c>
+      <c r="AA46">
+        <v>43</v>
+      </c>
+      <c r="AB46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+      <c r="L47">
+        <v>51</v>
+      </c>
+      <c r="M47">
+        <v>54</v>
+      </c>
+      <c r="N47">
+        <v>54</v>
+      </c>
+      <c r="O47">
+        <v>54</v>
+      </c>
+      <c r="P47">
+        <v>54</v>
+      </c>
+      <c r="Q47">
+        <v>54</v>
+      </c>
+      <c r="R47">
+        <v>54</v>
+      </c>
+      <c r="S47">
+        <v>54</v>
+      </c>
+      <c r="T47">
+        <v>54</v>
+      </c>
+      <c r="U47">
+        <v>54</v>
+      </c>
+      <c r="V47">
+        <v>54</v>
+      </c>
+      <c r="W47">
+        <v>54</v>
+      </c>
+      <c r="X47">
+        <v>54</v>
+      </c>
+      <c r="Y47">
+        <v>54</v>
+      </c>
+      <c r="Z47">
+        <v>54</v>
+      </c>
+      <c r="AA47">
+        <v>54</v>
+      </c>
+      <c r="AB47">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>22</v>
+      </c>
+      <c r="K48">
+        <v>26</v>
+      </c>
+      <c r="L48">
+        <v>29</v>
+      </c>
+      <c r="M48">
+        <v>38</v>
+      </c>
+      <c r="N48">
+        <v>44</v>
+      </c>
+      <c r="O48">
+        <v>45</v>
+      </c>
+      <c r="P48">
+        <v>45</v>
+      </c>
+      <c r="Q48">
+        <v>45</v>
+      </c>
+      <c r="R48">
+        <v>45</v>
+      </c>
+      <c r="S48">
+        <v>45</v>
+      </c>
+      <c r="T48">
+        <v>45</v>
+      </c>
+      <c r="U48">
+        <v>45</v>
+      </c>
+      <c r="V48">
+        <v>45</v>
+      </c>
+      <c r="W48">
+        <v>45</v>
+      </c>
+      <c r="X48">
+        <v>45</v>
+      </c>
+      <c r="Y48">
+        <v>45</v>
+      </c>
+      <c r="Z48">
+        <v>45</v>
+      </c>
+      <c r="AA48">
+        <v>45</v>
+      </c>
+      <c r="AB48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>23</v>
+      </c>
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>68</v>
+      </c>
+      <c r="N49">
+        <v>74</v>
+      </c>
+      <c r="O49">
+        <v>95</v>
+      </c>
+      <c r="P49">
+        <v>95</v>
+      </c>
+      <c r="Q49">
+        <v>95</v>
+      </c>
+      <c r="R49">
+        <v>95</v>
+      </c>
+      <c r="S49">
+        <v>95</v>
+      </c>
+      <c r="T49">
+        <v>95</v>
+      </c>
+      <c r="U49">
+        <v>95</v>
+      </c>
+      <c r="V49">
+        <v>95</v>
+      </c>
+      <c r="W49">
+        <v>95</v>
+      </c>
+      <c r="X49">
+        <v>95</v>
+      </c>
+      <c r="Y49">
+        <v>95</v>
+      </c>
+      <c r="Z49">
+        <v>95</v>
+      </c>
+      <c r="AA49">
+        <v>95</v>
+      </c>
+      <c r="AB49">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>24</v>
+      </c>
+      <c r="L50">
+        <v>34</v>
+      </c>
+      <c r="M50">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>52</v>
+      </c>
+      <c r="O50">
+        <v>54</v>
+      </c>
+      <c r="P50">
+        <v>55</v>
+      </c>
+      <c r="Q50">
+        <v>55</v>
+      </c>
+      <c r="R50">
+        <v>55</v>
+      </c>
+      <c r="S50">
+        <v>55</v>
+      </c>
+      <c r="T50">
+        <v>55</v>
+      </c>
+      <c r="U50">
+        <v>55</v>
+      </c>
+      <c r="V50">
+        <v>55</v>
+      </c>
+      <c r="W50">
+        <v>55</v>
+      </c>
+      <c r="X50">
+        <v>55</v>
+      </c>
+      <c r="Y50">
+        <v>55</v>
+      </c>
+      <c r="Z50">
+        <v>55</v>
+      </c>
+      <c r="AA50">
+        <v>55</v>
+      </c>
+      <c r="AB50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <v>33</v>
+      </c>
+      <c r="J51">
+        <v>42</v>
+      </c>
+      <c r="K51">
+        <v>45</v>
+      </c>
+      <c r="L51">
+        <v>59</v>
+      </c>
+      <c r="M51">
+        <v>59</v>
+      </c>
+      <c r="N51">
+        <v>59</v>
+      </c>
+      <c r="O51">
+        <v>59</v>
+      </c>
+      <c r="P51">
+        <v>59</v>
+      </c>
+      <c r="Q51">
+        <v>59</v>
+      </c>
+      <c r="R51">
+        <v>59</v>
+      </c>
+      <c r="S51">
+        <v>59</v>
+      </c>
+      <c r="T51">
+        <v>59</v>
+      </c>
+      <c r="U51">
+        <v>59</v>
+      </c>
+      <c r="V51">
+        <v>59</v>
+      </c>
+      <c r="W51">
+        <v>59</v>
+      </c>
+      <c r="X51">
+        <v>59</v>
+      </c>
+      <c r="Y51">
+        <v>59</v>
+      </c>
+      <c r="Z51">
+        <v>59</v>
+      </c>
+      <c r="AA51">
+        <v>59</v>
+      </c>
+      <c r="AB51">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>13</v>
+      </c>
+      <c r="L52">
+        <v>27</v>
+      </c>
+      <c r="M52">
+        <v>41</v>
+      </c>
+      <c r="N52">
+        <v>55</v>
+      </c>
+      <c r="O52">
+        <v>62</v>
+      </c>
+      <c r="P52">
+        <v>62</v>
+      </c>
+      <c r="Q52">
+        <v>62</v>
+      </c>
+      <c r="R52">
+        <v>62</v>
+      </c>
+      <c r="S52">
+        <v>62</v>
+      </c>
+      <c r="T52">
+        <v>62</v>
+      </c>
+      <c r="U52">
+        <v>62</v>
+      </c>
+      <c r="V52">
+        <v>62</v>
+      </c>
+      <c r="W52">
+        <v>62</v>
+      </c>
+      <c r="X52">
+        <v>62</v>
+      </c>
+      <c r="Y52">
+        <v>62</v>
+      </c>
+      <c r="Z52">
+        <v>62</v>
+      </c>
+      <c r="AA52">
+        <v>62</v>
+      </c>
+      <c r="AB52">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>23</v>
+      </c>
+      <c r="K53">
+        <v>31</v>
+      </c>
+      <c r="L53">
+        <v>45</v>
+      </c>
+      <c r="M53">
+        <v>52</v>
+      </c>
+      <c r="N53">
+        <v>53</v>
+      </c>
+      <c r="O53">
+        <v>56</v>
+      </c>
+      <c r="P53">
+        <v>57</v>
+      </c>
+      <c r="Q53">
+        <v>57</v>
+      </c>
+      <c r="R53">
+        <v>57</v>
+      </c>
+      <c r="S53">
+        <v>57</v>
+      </c>
+      <c r="T53">
+        <v>57</v>
+      </c>
+      <c r="U53">
+        <v>57</v>
+      </c>
+      <c r="V53">
+        <v>57</v>
+      </c>
+      <c r="W53">
+        <v>57</v>
+      </c>
+      <c r="X53">
+        <v>57</v>
+      </c>
+      <c r="Y53">
+        <v>57</v>
+      </c>
+      <c r="Z53">
+        <v>57</v>
+      </c>
+      <c r="AA53">
+        <v>57</v>
+      </c>
+      <c r="AB53">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>32</v>
+      </c>
+      <c r="I54">
+        <v>41</v>
+      </c>
+      <c r="J54">
+        <v>47</v>
+      </c>
+      <c r="K54">
+        <v>55</v>
+      </c>
+      <c r="L54">
+        <v>69</v>
+      </c>
+      <c r="M54">
+        <v>78</v>
+      </c>
+      <c r="N54">
+        <v>87</v>
+      </c>
+      <c r="O54">
+        <v>89</v>
+      </c>
+      <c r="P54">
+        <v>95</v>
+      </c>
+      <c r="Q54">
+        <v>96</v>
+      </c>
+      <c r="R54">
+        <v>98</v>
+      </c>
+      <c r="S54">
+        <v>101</v>
+      </c>
+      <c r="T54">
+        <v>102</v>
+      </c>
+      <c r="U54">
+        <v>106</v>
+      </c>
+      <c r="V54">
+        <v>107</v>
+      </c>
+      <c r="W54">
+        <v>107</v>
+      </c>
+      <c r="X54">
+        <v>107</v>
+      </c>
+      <c r="Y54">
+        <v>107</v>
+      </c>
+      <c r="Z54">
+        <v>107</v>
+      </c>
+      <c r="AA54">
+        <v>107</v>
+      </c>
+      <c r="AB54">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>34</v>
+      </c>
+      <c r="N55">
+        <v>35</v>
+      </c>
+      <c r="O55">
+        <v>42</v>
+      </c>
+      <c r="P55">
+        <v>50</v>
+      </c>
+      <c r="Q55">
+        <v>55</v>
+      </c>
+      <c r="R55">
+        <v>61</v>
+      </c>
+      <c r="S55">
+        <v>74</v>
+      </c>
+      <c r="T55">
+        <v>81</v>
+      </c>
+      <c r="U55">
+        <v>85</v>
+      </c>
+      <c r="V55">
+        <v>85</v>
+      </c>
+      <c r="W55">
+        <v>85</v>
+      </c>
+      <c r="X55">
+        <v>85</v>
+      </c>
+      <c r="Y55">
+        <v>85</v>
+      </c>
+      <c r="Z55">
+        <v>85</v>
+      </c>
+      <c r="AA55">
+        <v>85</v>
+      </c>
+      <c r="AB55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>16</v>
+      </c>
+      <c r="N56">
+        <v>28</v>
+      </c>
+      <c r="O56">
+        <v>41</v>
+      </c>
+      <c r="P56">
+        <v>53</v>
+      </c>
+      <c r="Q56">
+        <v>68</v>
+      </c>
+      <c r="R56">
+        <v>72</v>
+      </c>
+      <c r="S56">
+        <v>77</v>
+      </c>
+      <c r="T56">
+        <v>78</v>
+      </c>
+      <c r="U56">
+        <v>95</v>
+      </c>
+      <c r="V56">
+        <v>95</v>
+      </c>
+      <c r="W56">
+        <v>95</v>
+      </c>
+      <c r="X56">
+        <v>95</v>
+      </c>
+      <c r="Y56">
+        <v>95</v>
+      </c>
+      <c r="Z56">
+        <v>95</v>
+      </c>
+      <c r="AA56">
+        <v>95</v>
+      </c>
+      <c r="AB56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>18</v>
+      </c>
+      <c r="M57">
+        <v>25</v>
+      </c>
+      <c r="N57">
+        <v>38</v>
+      </c>
+      <c r="O57">
+        <v>47</v>
+      </c>
+      <c r="P57">
+        <v>57</v>
+      </c>
+      <c r="Q57">
+        <v>69</v>
+      </c>
+      <c r="R57">
+        <v>79</v>
+      </c>
+      <c r="S57">
+        <v>97</v>
+      </c>
+      <c r="T57">
+        <v>101</v>
+      </c>
+      <c r="U57">
+        <v>112</v>
+      </c>
+      <c r="V57">
+        <v>123</v>
+      </c>
+      <c r="W57">
+        <v>124</v>
+      </c>
+      <c r="X57">
+        <v>128</v>
+      </c>
+      <c r="Y57">
+        <v>143</v>
+      </c>
+      <c r="Z57">
+        <v>158</v>
+      </c>
+      <c r="AA57">
+        <v>162</v>
+      </c>
+      <c r="AB57">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>24</v>
+      </c>
+      <c r="K58">
+        <v>29</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>45</v>
+      </c>
+      <c r="N58">
+        <v>58</v>
+      </c>
+      <c r="O58">
+        <v>74</v>
+      </c>
+      <c r="P58">
+        <v>85</v>
+      </c>
+      <c r="Q58">
+        <v>95</v>
+      </c>
+      <c r="R58">
+        <v>107</v>
+      </c>
+      <c r="S58">
+        <v>129</v>
+      </c>
+      <c r="T58">
+        <v>139</v>
+      </c>
+      <c r="U58">
+        <v>150</v>
+      </c>
+      <c r="V58">
+        <v>165</v>
+      </c>
+      <c r="W58">
+        <v>171</v>
+      </c>
+      <c r="X58">
+        <v>177</v>
+      </c>
+      <c r="Y58">
+        <v>177</v>
+      </c>
+      <c r="Z58">
+        <v>177</v>
+      </c>
+      <c r="AA58">
+        <v>177</v>
+      </c>
+      <c r="AB58">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>26</v>
+      </c>
+      <c r="P59">
+        <v>35</v>
+      </c>
+      <c r="Q59">
+        <v>40</v>
+      </c>
+      <c r="R59">
+        <v>51</v>
+      </c>
+      <c r="S59">
+        <v>59</v>
+      </c>
+      <c r="T59">
+        <v>63</v>
+      </c>
+      <c r="U59">
+        <v>73</v>
+      </c>
+      <c r="V59">
+        <v>80</v>
+      </c>
+      <c r="W59">
+        <v>88</v>
+      </c>
+      <c r="X59">
+        <v>96</v>
+      </c>
+      <c r="Y59">
+        <v>96</v>
+      </c>
+      <c r="Z59">
+        <v>103</v>
+      </c>
+      <c r="AA59">
+        <v>108</v>
+      </c>
+      <c r="AB59">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>19</v>
+      </c>
+      <c r="P60">
+        <v>32</v>
+      </c>
+      <c r="Q60">
+        <v>38</v>
+      </c>
+      <c r="R60">
+        <v>50</v>
+      </c>
+      <c r="S60">
+        <v>74</v>
+      </c>
+      <c r="T60">
+        <v>91</v>
+      </c>
+      <c r="U60">
+        <v>100</v>
+      </c>
+      <c r="V60">
+        <v>103</v>
+      </c>
+      <c r="W60">
+        <v>106</v>
+      </c>
+      <c r="X60">
+        <v>106</v>
+      </c>
+      <c r="Y60">
+        <v>106</v>
+      </c>
+      <c r="Z60">
+        <v>106</v>
+      </c>
+      <c r="AA60">
+        <v>106</v>
+      </c>
+      <c r="AB60">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -3093,71 +6213,6 @@
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/premier-league wins/premier league wins.xlsx
+++ b/premier-league wins/premier league wins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOHD YOUSUF\youtube\data\premier-league wins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOHD YOUSUF\youtube\youtube-chart\premier-league wins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FFE980-39BA-40BC-9EE4-9ED80BBC38BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2014814-4280-46E0-B31D-A87369AAE23C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFDD3D1-0C19-49C9-A5D0-CF73A18EB609}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Goal Scorers Premier League</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Chris Amstrong</t>
   </si>
   <si>
-    <t>Eric Cantana</t>
-  </si>
-  <si>
     <t>Brian Deane</t>
   </si>
   <si>
@@ -264,6 +261,243 @@
   </si>
   <si>
     <t>Andrew Cole</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/b/ba/Alan_Shearer_2008.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/60/Zarya-MU_%286%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8d/Andy_Cole_%28cropped%29.jpg/330px-Andy_Cole_%28cropped%29.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7b/Ag%C3%BCero_in_2018.jpg/330px-Ag%C3%BCero_in_2018.jpg</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGBcYFxcXGRoaFxcXFRcdFxoYFxoYHSggGB4lHRcXITEhJSkrLi4uHR8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS8tLS0tLS0tLi0tLS0tLS4tLS0tLS0tLS0tLS0uLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABNEAACAQIEAgcEBwUDCQcFAAABAgMAEQQSITEFQQYTIlFhcYEyQpGhBxRSscHR8CMzYnKCkpPhFRZDVKKywtPxJDRTVWNzgxdEo7PS/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EADARAAICAQQAAwcDBAMAAAAAAAABAhEDBBIhMRNBUSIyYXGBkaEUM7FSwdHwQmPh/9oADAMBAAIRAxEAPwCiRvUwkoWKiAKQpRxIaHaiWqBxQYaOAKmjWoga7Elcjie1DyNW3loSWSmONSPesRK4TWjYY66jrIwlby8qPkwZF7iw+0dBbkdfuqfD8MY9oa+BJUnT3QFYnztalaDYskwzBcxUhSSt7aXAuRfYGxvaoCtWzh+BkQMpJYWBcBm7Nri+XTa/dzW1FQYZezli0W2ZAWDFTcZlcC6lba8r5TrrRtCuyjM1r/q1R9fVtx6oUcSIWde0jH31OhGoupuCcrbMxA7OyqXgGqshEkT8xobkENlLewyEBijE6Hc60yaEdijr71Ihpnjui8kURmDZlQ5ZRlKvE4bKyODoCp9MpDAkXssWuaGibehXNEsaHcUBmS4c04wopNANab4VqJCXY0jjrp0qOOaseSuJkbihZqlkkoOaSlZogc31qZaDD1Mktchp9E+Wt1H1nlW6YlYDFJRIkpWslTCalRdh+ao5GqBJa08lBnWaZqwGuK7UUAGMaGdqnZagZaKZxLBTbDppsfu/6+lJoSb2BtfTe3xpzhJmFgMh0sO0L/Fjp6Wpro7aNYYljs1hcHds6Df2ixAt3C2t+Vakx6qxOYHbNcFtdrNkBU7L7wYcwDelXEMeIxsrORoOyym9iM17krbfUE3A2zXWxpNKTe7E9w28lUWtbwsPCl7O+RbYuPrlu7I9jYFQVy33GoGmuwLDwFdQ8SsS99jfuNz2rnw0IuNtOVqW4HoliGOsRAIOrBdfTNcU2j6FSKO0SRY6DU7bA7ep28aV0OoSChxmFmJbVrMbMBcFFYFbgdoHQd99d7EZjY1jaVIypBJCsbN2bHKw0Fiulu4gnS4AStgJIcxaG4Oh962gtroQedxaoMThptXhU6rZ1HadMujta11Bt8SeWg5CyVdlg/ykGxOfP7UikrGeyI9mGa4vZZZl1GnfbaudKOFCBzljKKG6se1llYBmaSO47CjsrkJJDZh7pC9cOxrOQrFtWOVQfePM89bWJ+fdaIleZWw4VsQGKOIQyKkzLH2UMjnMgVgnZTL/AKTm1OmT6POb1yVvW5Y2QlHBDLYMDa97c7Ei/eOR03FbjNFjoxBajYXqELU0a0ExZx4ClkrbS1BWnNVSM7MeaoGa9csa1XSiUgzAa7BrjLWqkVaJesrKirKIm0WZq2Hrk1wTQRafAYklYZKFS9ERYcmmojuJo2qdDXMeHtUgS1I0OmbYUNLRJFCy0EOagXMwHef0KawjLa/mADZR4m183PvpRGDcW/Kp53tt7R7IA28/w50WFukMuj3C/rLtNJqmawXvJ9kX7gLaemmteo8L4akagKtrd35CknR7AhI0QDRLepHP1IverVhzUpSstihSO48Nb7Q8A7gfI6eld/U1OhW/8xLH4sb1KK00ltw3koJPy289AO+lTKsX4rDgI97i9wDY7glbDkTcAW9KGn4LdjlAVwJXtvZyS5G3aHWPYeDE8qZLhs5DSRqoDFlTRmN2JUyNqLgEdkFhfXMbAKXGqIjMFVbXJHZGYAXawBubC+4p+ESk7VnmXGOHqZATYsxa7WYORuOyCATbnppUvCWkWwiYI1hoWYMV3BXKGKg62+PcaI6Rx/vgD7JDDXYpcAiw0uMvPkeRrvgWHR7M6qpkW4J1GhUEZW0tctfbUkXuKdmZrkrXT3hsiSrMUAV1RHZVdVMwQlhZ1UhsqgkXbW5LXawrkbVZ/pAxR/YRLKjIoZjHHIzIrE9ljGVHVdliFBLaZrWB7VSVqZjRi6DlkqZHpcr1KktBHOLYxVqyQUMktdNJerRZCWM4esWulS9SCKqN2IuDhRXeWtiOuwKyyNMSHIKypclbpQ0IGrgLc121EYKK5qkQZGT4TC04w+C0rvBwCnOGgFqqZhUcLUMmGp9JCLUJMlJJFIsQSJQ0kdMsSNaDkFSRUEC11w+EyYmJQN2HwBBPyBNSEUd0awubEuRyRj5Z+z+Jot8HdlzXjGHhFmkFxuP1qaY8M6ZYZrLmt/MLVScRg5rkGFygBKqpyhrb3IBZjtoLc9RbVenA8QWDJG65ibK1zZRsSTew9T61JQ4ss506PZJsaAhbe1V3F9OurNlhzcvasbjwtTXh2HvhI1kAzlEzn+KwuR63qq9IOi7hwwsytrc+woAOjAkEm/p391KrKSsfYHpisuphcf03/wB0VYMPjVkSy6akEEai435iqBw7g0zxtmgw8JGURtDZJSSCGbsEKwBA7LI181r3BNWjhHCJ0t11iR7y7febUZJoEWmuSu9IsO0UrIScsiHI38S3sDbwZv7PwV8M4iqsUN81rgDYtlNrW5sNLEEXtsTerf06itEkh90g+eu3qCRXnzYcqVKsc+tioNwTmy5QNTrbQVSLtGaaqXAN0pxCSENa0lyDZrgprawvcANmsdtdxtVfpz0hwciS/tIpI84zKJAQStztcagG4v8AnSgiiWg+DQrdbArq1Cym0xXouBb0Jlo7DU0WJNKhlhoKK+qVrBmm0SXFXRhl2KGwtCyR2p/NFSzEx0k4jwYv9aypctZUqK2VpxR2CoUiiYKe6ElyP8G9NcPLVew0tHpidKO8TaNZZ6AneoGxNQyTUHKzkqIpzQclTSPQzmkHs6ijzMq3tmYLfuzG1/S96v8Awzh8S4iUoixqp6nKL/6KRxdixJZvZ7R3rzabVSO8EfEV6rPiFusqezKqzDymGf8A4relLNvaUx02PDgkYAFb253I+43oHHYNcwVVAPgLb9/313g+IC1LeN4ybL1kVg4ZTqbac7flUlKzT0XTDYUdWVI5AX8bj8KjOBUjXl+tapfDuMcSIBWNCRe4kfKrj+EAHUnmbDQVcIJJGXO4VWIBZVNwDYA2POj0dd+YRhMIq6qig9+UfgL0TnA3NKnxxWovrmbWlcwOIN03nVsLLmsMozDzHl4X5GkfR3o/lkDEjrRYi+42DWB3YZraCwA8TTzERiRlVhdcy3B2OUhvw+VE8Y4Msp621pQQAb2UCwve+m4vca71zk6OhGO62Uj6RsKVhszF+rxmWMscxCT4brXQE+6GRPDavPDHXoP0m48NKmHXZLyvt7cihYweYIiUH/5fCqSQK0RVRJTlcmwURVsLROWuHFBoKmRBaIgqNBUgFFAbsaYSSm8GIFVlJCKJgxVVjIzziWRpL0vxIqBMXetST0zJojt41lc9d5VlJRSxAi1MgrlBUyJU7KtEq10HNYBWiKAGbMlYJajIqJjXCEjvUTPULvUZkpqAds1eh8Ix6SYKIKwzRoqMvNSjkD0ZMrf9DXmjyUVwbFZJ42J0zZT5MMuvxv6V0o2gxlTPScPJQvEOMwxtmlLEclWx0Ft7kAVvDy1rH8CglGaZWOumViuncbGxrNHh8muyaLp1ghs8puNbhABz1Oe5qxcM6RRSrmjcOOY2YelU9Oj3CQd5b/ZJY29RvVm4NwXhwN4YCpvfN1khJPK4LEW8LVSVeoVHgePDmF+VBRxG9NB2VsNRQOKxIX9etRoLbNZ8rHS9gxt5Kb+WlB8V6axQBo+rLyDQoSLAj3WbUC3hcjuovhWJGY3F73B/lIIYetx86ofS/DgY3E25yX/tKG/GqwimSnNror3EcW8sjyyG7uxZiNrnkByAFgByAAoS9EzpagpGtWgztk2ao3ah+trgyUKOsJDVKrUCrVOjUKHUghzUBltWFqicUUgSYVHia7GIvS+tl6pZLaxl9YrKWdaayhaDtYVGKIArhF1oqOOolmzlBW2WikircsVGhLACKHlFGSChZVrkFoAkNQs1ESrUBSnRJkTGsUVJ1dSLHTWBKyy8C4iSLNuttfPTX4fKrrwx0kFnNv1/hVA6NL+0ZftRn5Mp+69F4qSSJrqfL/rWeUE3waYSaVnoUHDMPcEqPC5t91OsOsSi2nx/M14w/SOa1vxo7BdIJ2OrKg77ksaGxj+MvI9XxONQaA0ixmJzXCC5+XxpVgMTntfX8fCncC2G1gP1+dCqBbkT8GgKnXU6X9OQ8OdVLpmwGMm2/wBGTpzaJG1796ueGfMaIn4TBjZpMLKiiTqUkgmXSRTlykMR7YzKxym4t8qYY7mwZuIo8gnN6XYiOrzgehrYlnTDv+0jALJKAATcqQHVibggj2e6k/Guh+PgBMmElyj3kAkXz/ZkkDzArTLHKLpmXcn0VLJWilToQSRcXG45jzFdmOpDg4WpkFdBalRK5HEYWsKUX1dRutNRydgbJUbCimFQtSNmrHCyG1bru1ZSbivhDCI3plhhSmCnGCWmRhkw6OCuZoKYYZNK3PHRFTK3iUtQbJTnEw0MuGpR7FZw9cNhaejC1i4FmJCKWI3t7vix2UeJphSv/V66jwxLBVUszGyqoLMx7lUak+Aq08L4HEy9dicRHBh9s6kSPI32IcmZXI5kZsulxrpaIsPHho+tTByqjHJFCcxxuNYi/wC2KgtBAACxjA7XvCxCtSOOTA5JFW4TwuKDtSzocSWyDDoQxiDA5mnYGysLWyC9mK35gScRwmYW8aYY/icr4mMz4RcP9XgnkEdrAqsLsulhYB4108DtWNa1t67U4/D2lMD3plKx3D7arqO6swPCpnI7GUd50vz0G5+FPsVh+1ptyorAcXRR1brryYd3jWfex/DVjjo7w4xp2reJ/Ib03AzWGwG369KAwOK2vzNv16U2hiH4Ul2VjAKwyADSoej7l+Lgj3EynySNif8Abmy+YofivElgjv7xvkHj3nwH+HOpeAXwOBlx0mk84ywBvas12DEd7G8h/hVeelbNLidOfrwvi3/ghqsi4j9SvwzYP67iDi0Z4usnyZb9ljObOcrKbAXGl99qvUWExYUScOxqzQm1o8R2smmwkyl/6WsR31ROiXSZsFntCsiy5Q1yQ5C3AAbUEasbEHUm9qfycS4RKc+bEYKU7mAyrfzEOZCPMCvUz4pp9OuPivt5GCDVDXiP1yRcuM4XBik5mNlzDxUOS1/EWqp43oXgZAbJxDBN3ywmWEHxKgm3jmFWTCE3theOX/8ATxOSRv8A8lmHwo94eMp2llw0o8AFJ8gVA/2qyyhF8Ol91/JVNooeH+id3XPHjoZE5NHG0l/6VfTyuagk+jWYA9XiIWIvcSrNA2nNVMbFvSrpiTC75sfgZsNPzxOHD5T4s0JOvnnt30ZwufD7QcXZ/wD08Q8co9VkCv8ABhU/CSX+191Yd9nk46NzscsXVTm17QSo7WH8BIkP9mkco3HcbEcwRuCORFe/v0VwjDM2FQ31MmFZkIP2gqMCD/KWNVj6QujKvhWxKt1rRC4msOsKJ7UU+UDOQL5WIDAjKd7kSjB+7+Qxk0+TxyU1CNalxArnDjWsbPShKkb6usom1ZQofeZEutOsEaCSGjYNK6zA4jzCkURImlAYVqOD11k6ApoK6w/C2K9aSkcQNjNMwjiv3Bm9s+CBjVj4LwZXQzzOscQNs76rvYmx0c+6q6i9yQbBX5xvH+HxPnjgfFzLYCXEmwW3/hh1IjHgkaCtOHTTydJsWU0iLgPC4pCGjw2IxSf+MQmHw/8ANGs/antruMvhTA/WWPVRLw2RQbBJEH7P+b6u7qT4WS9UXpJ0kxWMJWWZQh/0Ud1j8MwOr/1E+Fqrc8DcwG8wD99ejDQuPfH5JPJZ61xPi/UOpXAT4rFKMqzfVZEhU92H7LFUF9AgGbcuSc1JONccxuFUtIy/XZlueyrDDYcHsxRpqoZ2zMxOb2VBzGxFI4ZxebDn9jJJD/7bEL6oeyfUVFipZZXaQyvI51YnVjpub78hVIaanyr/AJA5eg44Xxtp8WjYuXOjq0EjZVUrHPHJEb5FA7JlzXty8KJVpMNMcLidHTRW5SL7rDvB+RuNxVYjjzH+LmvJvK+x8DV54Ni4MdCmDxpKuumHxBNmB2CMx97Ya6NoDrYntTp1KPXH8DY8rg7RFIAw0FLJcKA13uAdjrb1/wCtH8R4bjOHE9fH1kI0EyDS38fND4Np3E1NBiUYXRja2oPL9XrxsmlyQVrleqPQhmhP5k3DH5cu+m2N4ukCXJueS7X8zyHjVfE75wkALu+iqoJJPgNb/cBvVt4T0UiwqjG8UcFgbpD7QzbgED96+nsjsrvra4ph0le1l+i82Ll1SXsw79fJEXRvo/118fxA5IFGZUfQOAeySp1Ed9l3c94PbTdL+kbYybNYiNARGnMLzZuWZrC/ICw7yc6U9J5ca937EKarHfRf43PvP8hsOZNV6rru8R8gN3tzJ5Cvd0+naanNc+S8keZKdnc3FFByxgux0smp8i9tvBR61wDiCN44b9+/zuSaY4fB5RbRR9ldPidz61uXDk6LIU8tPnWyvUnYvGGltdsRKR/CAif2nsDRXDuKfVjePEvGfCdiD5qgyn50NLwItqzlvM3rcXBIx7Z+4fM0kopqqX1DZceG/SfiRYdbh5f5lZWP9SlR/s06HTXCz9nGYFD4jLJ6jMqn4EmvO34LAw0X1BBqBME8R7Lll5qe71rO9JjfNV8uBlkZ65guBxFTieET9W3vRFiY2I9x1ftIfA6d1t6YcJ4r9ZLDIIcYgtLC+iSqBqGB3FjvqVuPaU9rzHgXGZcPIHiazDe/ssCblWHMEn8q9HlROIxLicOeqxcVra6hhqEY+8p1s3idPaFYdRgcH7XK8n5r5+qKRlfRTOl30bCRWxHDxbWz4RrBo3G6xm9hysh01GU2sK8tylSQQQQSCCCCCDYgg6gg6WNfR3DOJ9ehnCWlj/Z4uCxuwW+oG+Yalf6l32qH0jdF4sQVlhYCdlzRtumLS1wubYSjSxPtAgHcFcMsTbrzNMM23vo8m6yt1xY/Zf8AsN+VbqfhS9DR4sfUbxVvNQ8ElTXrONQdh5qtHBOHK0ZxGIYph03I9qQ8kTncnTTXe21wk6LcHE7mSVsmHi1lfyscg58xtr2lAsWBE/SPpAJ3FjkhjFoor6KLWzNbQuRz2A0HMnbo9K80vgZM81HhGcX442JkAK5I0FoYh7MajT1YjdvTakuKkW7Ag6G1+/QV19bU86KQLu3O5+Jr6XFGMFtj0YG3dsRSwX9m9cIrDvqwNJHytQ7sKdxUg2Bx4bPuK4m4WRYodfCj+stWg+Y0vho6xRM2bSUFW5SAd32hz86IjlscslrnZvckHj3H76Mkjvpo38J3oX6rYFbBkO8bb+ankaG1roNl06OdNJsMBHIOviAtkc2dR3I+tx/C1x4gU+h4TwviQIw5bDzblEsjeJ6s3jYeKV5STJCNLyRdze2nhRMGJSTVGseasbEE93dWSemi3cPZf4Cm/menYnpDguHZosFEss3svKTcXB2eT2pLH3Fst7i4qkcV4lJiHMs8hZtQPAfZRdlH6NzQc0dl7Jsdr7W/l0pY+DnvdZz5Xt8qpi06x+1Vv1BusnlIkIDlVjHuZgSx73K6DyvTCKQDYr4ailHUYwe+D8K6yYnmEPmqn8Kvu+DA0Oy5A1BPlUbIT7JufhQnD8HiWNljjvYk27NgNyxBAUDmToO+mkGF2LSxkkhQYosRKpJfqwBIseVjn7PYLa6VLJqcWJ+0/wC7+yOWOT6AVlZTrWSQJKe2o15gkGmc2GOQvdZEAJYrmBUAlczpIquouCMxWwsdaBCLbQ6HUHcehqmPNjyq4uwSi49ifH8LMesbOB56HyoZZpQVHWFlb4+IqzxtcZWA/A+NK8RgFvoSNbADcEiucPQ5SFuIzlgSee3jVn6K9IJMLIrg3toQdnUnVT+B5GxqtxpGXCx3bKSXbUi+wFzvzqXiD5bKP1ekcVJNSDZ7XxWcRmPiuF7UZUDEIN3jvbNb7aEWPkNQAbl4+DMphjZOrxAMmFZhdBLbO0TD7Ljti2o7drECqH9F/SURy/U5tYp9Fzaqsns5T4ODl8wvfVu4ZgzE0vDGYiw+sYGQ3uArBgpPMxva45gnlXi5cbxyp+XXy/8ADQnaKb/2z/y5/wC9/wAKyrx/nbjf/LZPiKyq/qsn9KE8Jep4VDHRWHhd2WNBmdyFUd7MbDXl58tTXErqgu7WHxJ8gNTQrcXcAmGFxcFesfQhWBVggtZLgkE3JsSARc38/Hp5T58j0J5VH5lk4xxK0SYSBwYY/ak26+W5LSAckBJyDu7RuTpXpcMp3ak7Y6/tR6+DMD+XyrqPEj+MeYDfdl+6vcxZMUIqETz5KTdsmxMLJqpuKPw3G2C2IuPGgPrA+2p87qfgRb51kQ30/XpVFLm4sFeo3h4lE5sVKnw2+dTgI+ivbwOlIpIDuBTTh0qS9luy/I99Whll0xWl5Bqo6bi48Kkyg30uPOxFcIjqQBckkAAAkknQAAakk8hqa9S6E9G1w6x4qYK7McrKy/8AdjfKDrrnDdljpYHTQEsuo1UcUbfYIxcmeXPEGFtx3HRh5GgpVnT2bSr9lh2x8NT6Ve+n3R4YfEkqLRyXdO4a9tPQm48GA5VWIhbQ6/fTY8iywUkB8OmKYuNxkZXUr33NczYBZO0hP8yWLDzW4uPKmmN4ZHLuNftDf176STcIliN4mJt3b1zcl3yhk0dQ4adf3cwbwJsfg1TDHTL7cYPpUMPFvdmTXv2Px501w0oI/Ztm8Dv5a0YbX7raOfxBo+JjnHb40XHi1PIj/Cp4gre6A3dWLlVlYjRWDEeCm5+Qp3aQnDH3C4nfFLghESlgzyEWTr4WWR3JKkSpER1IQe8WNwWuHWN4pAkYkZGmn+tGARjEENmSW5JXD2CnMhKgqe1Y3Oa7QdC5XTGSJNOjFmxSQxXXOp68SlrWuQ6jML30tbehemHBZZZuyFeSSaVYEVEQdhPrB655CWm0YgKoC3vci9j87Cpzub75NU/Z4RL0r4W4VZcHfrYpYY3z6zQ3jypGsrgZ4j1kZNzrcFibm1S4zDJEwmiTLnB62DdRIjFJFXuIYXFt1Za9Bx+KjXh2IlctGmIdgoDOzRtNJlcqHA7Sydc4yi2VFte1z51xaRYYocjs6l8TICQVcxSPHGHIPMvh5CD+dV0rccqr5P7X+AS5gyThmLSYXjOg3U+0hP4fKpsQug01ufkpAHzNVl3KusqHK5PZcfupv4W+yx5g1ZMFjFmjzKbHmp3Vxy8ede1Gd8MzSVcixJo4wUJsygZr8yRew8daXAM7Zjz2A3t5VJjJoAzNIGd8x0LEbG2tra6UKeJyG4QLGp+yLE+bbmknNXTGSC4ZSrNnuumg5jx01U/A1b+JdPsTM2HIEatB2lkAu7MUysWubZSNStrXt3VR8JDe9/M0x4ZKFlRyMwRkJX7QVgxFvEC1vGklCM+WroN0Wj/PTiv+sTf3EX/JrKun+dmD/wBYX+9k/wD6rdef4v8A1L7FNq/qPMOm3FMOk3V4MghFy5gAdQ7H2veaxW5FxfnvVQkzvqzE0wTAZd9aliwRbRRW2GnaiovyFc1ditIlFddaopy3CwvtsF8/8KBn+rLu5c+AsKLx7V5I5SsCbFD3VrMPiipv37itYjFJsiEedCE1lnlafDseiw4biUTeBrMSgvmXQjUVXo1plh8UVFjqPuq2PUOS9oRwro9F6C4uDWeWfqpEJC2YBgpie8iKUbrWzEJk0tcm50FXNulGDGUNiSxDlnt1zrIM4F5Cka52MY9kjJfQ3AFeKYSaxuvrTWKW9CekjmlulJnb3HhHoWP4/gHjYMJZnyOIy4cshZQBcyyMM4IuWUAd3caQG3rhGFaDa1pw4I4k1Fv6iSlu7JbmuOtYG9r10GrtJRfWrigeKCvoyetKpMCU1Q2qzjKe6o5sKLaUrSZydCWDih0WVfJuYpmz51uGBH2h9xFQz4EHQihDgXjN0Nq5WviHhlgiaKR42lIjnjACuXZElQaLeRQTDInuyEFdgw0FWiHG4gM0j4dJXZOr618K8sjR2sVaXCM0bo3d2B3jv8/i4jbSRLeIF1Pp+VTpCjarkcfZbX4X1Hka8/LoFKVwlXw/x0VWTjlD3i+NUoFxgRMqlEw6CNerF/8A7aBC3UlgP30xDLqFU3sa1iMcJHLOoUEBQq+yiKAqot+SgAeO+5NFrHEByTwawFQzRJa6kEeenxq+n0kcT3N2xZZN3ApmwTJmMJVlb24W2Yd48fmKUjGmJiY8yg7q2pBHcba/fTrF+Gh5EUp4piGy9oLc6X512oiox3J0GLvgIxQWUCVeejeDd/rU+FwWnIDvJufRR95pJwzElSRyYW/KnnDMXpbY7UmHLHIk32CSa6DEgyqxtbYDv17/ABrMHHoT3kURL2gByGtu895qdo+xWxIjuI+qFZXfVVujR1hA4WVFmFifG9b6oRiy78zTDFTaLzuN6VzTc/Q04ltgc+FD6tqb0M8QGiqPhWsdxEDz++kWJ4u7XC/Ks2bNCHZWMZMlx4tvalMj3rmWQk3Jua4rx8+fe+FRpjGjsPRuHa43qF+HuqZm01GnPXv7qIhiUL499dp7crOkNeB8NmxEoihXO5ubXCgAbsSxAAH61tTbivCp8K4SdMhYEqQQysBYHKykjS4uNCLjTWheg3G1wmMSVj2CGjc/ZV7dqw10ZVPlerR08OJXDYZXyzYeMgpigxaR8ylVEpvbtAjtC4YqNQdK1xzyjkUfJiuNo74V0Ex2Iijmj6gJIodM8hBKsLg2VGtpSvo5wx8ViEgVgjOGN2vYZFLEEDnpXqnR3iAig4RFmH7XDrGLbZlwqSj/AHPnVL4Xh/q/SER65evmI8Vnw0kq28B1gX0pcesySU/gm0c8aVA3SfohLg+pzSpJ1z9WMqlcraWBuTmvc93smnPSHoAMLhpZ/rJkMYBy9WFB7Sg65idmvVm6QxDFKYwCWw3EMG/9DtC5PllmkH9Jqbj2K67C8VjAuY+sQDx+pxSj5t8qz/rcrrn5h8NFI6GdF48RBJisTK6QxlhZLXORQWZiVY21sABe4Nb6adHIsPh4cVhZXeGQqLPro6F1dTlB1y2IPeNtaz6OOk5hSSGWCWTDFixkjieRYiVGZZAqkFMoDHW4udCDoT086LQDCjG4OQmEZP2YYvFkdhGGhubx2LC67AXsBax0PLkWepSpX9KF2px4QN0l4PFDwrD4tCxklWIuS1x+0hZzYWsO0BXH0pdH4MGkJwylc4mzZnd7lRGU0diBa7bW3ozpEobozCb+ykA+DmH8am+mOxwuDcc2Yf24Q3/DU8WWe+Kcn2/7BaVMe8Q6CYNsK4hhtM0JaMl5GOcKCPaY8yAfOqlxDg+FHAYsXHCiznqby5f2hzThGu2+t7Vc8XxkQDhUpIyzMkDHu6/D5l/20Sl3T3B9RwfExAaLKrL4K+OSQAeAD29KhjzT3K2+0O0gPou2HwfCf8oPCksrM1y1r2OI6hVVmByDQE23N6SfSQMNiJIZsC0TMUYT9WVtfsmPMV0LWLjv0F9hRWCSZujsXURddIJMyx5S+cpxJnsVXUrZdfC+1LvpnkH/AGOHRWCySuq2Fi2RFIA2F1mA8jVsU349+dvzFa9kqv8Akedj7FhzLEACg8YI4AUBWRm9oWDD9ClowzObBnt507weCjUBcmU73JvfxJNepcpeVEXwU5t7jTWjMJPZr6b919KYdIeFBDnU2DcrfdSbD6tlAJJ2A1v6V5coyxTplk1JWW7CYi4HP5D4f40yWQdWf4msPxqr8PxFrA+lP8KhkcAC4XT47n8K9bFO0ZpxoO7P6FZTLJ4VlVJWJo+KIwyODGb7gErfyG296FlwUkmkbxsO8ONvEDtD4VbelfROOdfrPD2Uq1yY12J55PsN3oflsfM8RM6kxTXXKbFXGinyYdmscdYmuS+yh4OERRdrESoT9kkH4Lz/AKreRpZxLGYYrZSbcgBp8rD5UA+GQkkByv2lFl+6hZogNvnU8ueVcJUUjH1B5bE6U04Lw69pWHZHsjvPf5D7/Kt8N4MW7UlwvJdifPuHzNPm2/XKvJlIsK+JR3QjyPwINBQYW63v+hTeQa1mDRQpQDUG/mGvzrTo6lLaxMlpWK5Ettp3HfUd4O/lXpXD+I4WbCTjroooZITmwxKr1E4U5jCCblWYKQFFswuNSaopVSWuOz7N+82F6BkwFtcwC1pz6fdVCxl6l74hxxE4dwyWOSMz4aSBmjV1MgEUbqwZAcwB6tBt7wp30q4thP8AKeAxkWIiYBkSXK6nq0DjK72PZ7E0l7/Z8K8fOI1IXaioJ82jAjxqcMMbq/X8jNntcPTHCR8UnYzoYJcNCTIuZkE0LuAvZB1yNfTuFBcK6dYJJ+JGWRurnkVossbsWXqeqbS3Z9lfatvXkrxsK0kTGn/Qw+IN7Lp9HPTmDBJJBiVYxS2YlRmyvkCOGW/aVlCjTUW530L6S9OcCMCcBgEkWNjclwQFXrOtYLnZnYs2mtgATbkKof1K+4qN+GDlTT0rc9xykqovPRT6RcNDhTgsZh2niu2XKEYFWfrCrrIQDZySCD3aaXInTnp3HjjEsaGOGK5VWIzMxAW5y6KAoIABO58LUqXAsNQt/CuY5o1/eQn5g0ixbZ7nw/rQbtUW/jvTgYnB4bCGMRfV+qIlEhZmMULQg2yDL7Wbc2sKZ8e6eYvHQPAFw2RwubKH605WD6Fntuo92qQkeEfaVoz3Otx8RXY4JGdVxKeYtf8A3hVI4Y8Uk/qCx9wfpRxHBxmGLOEJJy9WHysdyuZTlJ3ttfW1BS4eeeQyz587as8pJkbuAUcuQFgB4UGuPljFkxpfll6vPfw7RNTjEY5h2j1anmEVCfPKLj41eChGV7efoK79Ri3VQDt2XwOrHxPdS2TEmS5jGgNCzcNK66lhrcm5vvemXCput7LWDAgk94219ba1e23T4JtUrNYhesgK321Hgw/OqnHK8Th42ZHU3VlJDKRzBG1Wx1aCSxHZPwIqv4rsSPzUNex2NuR8Kxa6FxTHxOgqDGZCVa1r727Q8qaQ8b0CRDKDpfdiT3eJpViUAkawFsxIB2sTcD4EU54T0kGEIaLCIH+3e3zC5vS4rHh1s0tvoaMumS9pdMO/yRi/9Xxf91L+VZUv/wBTMX9mD+7k/wCbWVb9XP4fcj4S9Bx9Gu+K/wDj+6h/pH/fxf8At/8AFW6yhH99i/8ABFJwvtt5t9wofC/v09furKyq6j9oMOx/UUlZWV5JYHeusJu3l+dZWVfR/voGT3AWb9038x/CluI9j1/KsrK9XJ0Sgc4KrI/sDy/GsrK7B7oZAQoqLasrK0xJnT7UIN6ysoy7OJE5frlRE/s+larKAUVjiO49fvofD+0PT76ysry5/ull7pbuB+0f5jT7Efu/SsrK9VdGeXZXRuKh4d/3hv5W/CsrKEvIZ9DvpB+6Sqhi9jWqys2r9wXF0Ez+1/TH/wDrWt4j2fWsrK+cfvs9p/tL6AlZWVlMQP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhIVFhUXFxgXFRcVFRcXFRcXFxcXFxcVFxcYHSggGB0lHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICUtLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABNEAACAQIDBAYECQYMBgMAAAABAgADEQQSIQUxQVEGEyJhcZEyUoGhBxQjQnKxwdHwM4KSorLhFzVDU1RiY3OUs8LSFRYkNPHyJVXT/8QAGwEAAgMBAQEAAAAAAAAAAAAAAAECAwQFBgf/xAA1EQACAgECAwUGBAYDAAAAAAAAAQIRAyExBBJBBRMyUWFxgaGxwdEzcpHhFCJCYvDxFTRS/9oADAMBAAIRAxEAPwDiQEVDAh2iGJtBDh2gAm0Fou0K0Q6EWhxQEEAQVoDBCMADhRdGkWIVRcndNNsvYqKAXsz9/ojw5nvgBQ4TZlWpqlNiOe5fMywo9GKzfOpjuJJPuE0bMR9R7rRVOtxvpADM1+i9ddRkbuDa+8Sor4d0NnUqe8WnRqGIBP3yScIjp21DKeYuNIWKjlUFpr9tdErXeh45Cf2T9h85lckYhFoLR0LFBIWMYIgtH8kIrFYDFoLRwrE2jEEBBaLAgyxDoRaC0cywZYBQ3lgi8kEYUGoirRYWGViGMkQ1EWRBaAhEIxZETaAwrQERYEMrAkMmFHCIqhTuwHMwIs0PRzZ+ma3aa3lNpT2Sco0/HjIXRbDAspPDWa6riRK5MuxwMridntqLcDIvxAg6jnNWXEbd15SvnZb3SZmUw+/8ezzEssEhA08pYUwnISXRC8hJKQniGKuAzJcDyE5/0w2RlPWqN5s/2N9nlO07Aoq7hDuN/wDxMv062MENRd6kae3T7PdJpmeapnGQsVaGFgtJkBJESRFtEGAhBESRFmJMBhARYWACLAgSCywiscEO0QxrJCj2WCA6CEFodoDGQEwWh2i1WADREILHysCpABoLAVknq4RpxDIhWPYNbMI4KUu26P2w6V1qZjvdAPQFud9SOOn702kNRb2LjZmMyWPdLiltcG+b2TK4ZGIG/SWFKgXG68yykasa0LhtoIToffCXGDnKc7PqcFMcXBuN+njK+YuLM4jkZJw2LF7EylfDvfQiCng6xN7WjUgNjs7bYpNddSBfXwjO09o9aljrobc/D3ygOFdLXueZhuxUMd+m/wAdJNZHdFE4KrOf4xctRxwDH6zI5lztnYtWmgxLFMlSoygBjnB1IzLbQEcQTKUzWmZGq3CiSIsCAiMKGmiDFsIm0AoUsWIgCLEBhiLiVioiSBeCFeHAlQcIxwpCKQKglEWIm0WIDDtFqsSseQQGgwkPqo8gjqpI2TojLSl5gcUlOkVYm9QHwtYJ9hPtkFaU0WzsMjUqTst+rdly2vckXUnuFx5SnN4S7Du0RtnUOyoPHeZE2ht803K0KZZV0LHiZY4JPkhbU5fsmVxmHrM7AXA1PL/zKo05OxStLQs6PTGrexpDv1lmcX1y5r5bcJgKPWNci+n18pa7LesWAsbHfJ5MaI48kupoqjPT1Q37jxkNOkmJQ2NMEd0jbWNZOBtbfKOtiqgsxuAdO/SLHG/IeSbTN9sPb9Q1AtekRTfTMLHKTz7pZ7XpBA261xr7d8xGzmrpUS5JVgCD3EX9h13Td7RoqyIrkgMRex15jXxEhPSRKGqMl0tcMEytdbk24KR/7DymZNOabb2E6oUaRFnVCzjvexF/YPfKN1mjF4UQ4jxsi5ITLJWWNOstspIbCJtHmWJCxgJAgjuSIKwEAQ7wssO0CSBBDtDgMsmw9ow6S3rqJXVYiJFKwjFtEGSIgUx9WkQmLVoqJJk+k0m0RK2i0n0GkaJ2TUSTsLVygrmIB5HUaWMg02kmmZGUeZUxqXK7RK2O4Ay3uAbA8xD2xh1YXB1HEb5DrVMhBHGJSvfSY5xakXwkmiLg9llmuzHKN5P3TU7GwCDUCVrHs2Ua7gOZmqwFEUksxBb3SLk5FqioogbUwK2FxpMptDZeU6WK8LgGb7GU+tSyEZhe33TMU7FdfLkY75dgqx7YmHAHasTeTNr2JW9sq6m+7Qe+U9HEZWAHOROkmIuyLf5pJ9psP2ffCEXKRXKXLqV+2cYa1Z6p+cdByAAVR5ASsaPuZHYzclRkb6hWjbxy8TJJERkrEhI9aLVIwRHywsklGnCCRE0iKUhBJM6uINOBPlI/VwR/Ke6CAUi2xBkCoJIrVZGZoFIwwjZjjxlzJCoQYCYdohxAZIpPJ2HqSoVpLoVIUCZeU3kqk8qKNeS6deIlZI2k2gPjEbOa++IxVTMpF9RrI+BfUTNlWpbB0azDYS4ve2lgeXfM9j61fDkhXaqp3HeR3eElYragD5GayKNbb5HfamHfs3cAceflKoQrcucnLRaDmy62JrMD1hpL6vzm+6aB8MRw04zOrtCg2isyMNxOoPjbdLfYG1M79WxBuD9UJw8gUmtHqRsUoFQWlVtxrVrclX6r/bLfFi1VvH9wjfSHozi1tiOpZqLojK6doAZQLOBqp0491ry3CtSGRN7GbdpFLRyo0jMZpozS0Hi0TeNBo4klRAdpiSqdOM0hJtIREkF1USaMlAQyIi2LIWSNOslvGXiomR8v4/AhR2/4sIIyIw9SJEK0WggQUbEEXiCkl5YWSKyxYrI3VRt6cnZI3USOxShRXMsNGj7pG8slZS1Q6lSXnRTZ5xeLoYe5AqOAxG8IoLORyOVWsedpnwJ134EthlRVxrrqbUaN/V7L1X9vyag9zc4JB0sb6W4JFwZp0qSU6dN1IVRqx9DMzHtObMdSTObq2Uzb9Ja9f41iaNVh1dN2Wmij0lIDo7E6k5WXTdeY3aFHlM2SS5jRGDUbIuMId+0d9te6FjNguCGpnOp3XNiO6Nv2t+8aQk2g9PQG4grWwRcP6yTs3o+7t8p8mgFyQdT4GWey1WlVTLv18pULtSo4y3t3SXSYJZt7kWH3xSt6MsvGvCX4fPU8Tc/YJ27oi18JTB10I9lzp5Th+yhaxOt9TO39F0y4Wlfiuf8ATJYe4iTweJlXEeFHN+lWEpU8XVpNRR1BBW6i4V1DWvyGa3slJU6O4Kr6Oamx5Nb3NcSz6d4gNj65B3FU9qIqn3gj2SlWufnayTnUmeuwcNjzcPB5IpvlW69CFjOg1QH5KqjDgHup89QZXV+jmKp76LEc07Q92vumooYtl9FvYd0m0dpcxb6P3bpJTRmydiYJeG17H97MCqkGxFjxB0PtB3SXTM3NZ6dYWqKrjvFmHgeEr63R2g3oOydxsw9+vvkjmZexcsPA7+Bm80O8vU6I1nIWk61GJsFsVJ8L3HvldtrY1fCNkxFJkJ0UnVG49hx2W04A3EDnZcGTDLlyKn7irqmMM0XVMis8CI7eCM54cAoSscRYlRHVEiycEKAhrCtDBkDUheWNOsWGhPGiE0mRKiwqNAsQoBJO4AXPkJd7N2E9XtP2KfMjtN9Efbu8ZpcNQp4dfk1yk8d7t4twEdl/Ddl5M/8AM9F8TP4Po7ks1ffwpg3/AEzy7hOwfB3iA+GenftJUv7HUW9l1bynNHcsbmXXRHbPxWuGb8m4yVO4XuG9h914oz/m1OtxXZkFwkseJa7+ron/AAmbPIr0a4GlRerbudDp7Sp/UnP8XT1PfO4dKtmfGsM6LYtYVaJHF11Wx/rC635OZxXGPnFwNLeEq4iNSvzPN4JXGn0KHEILkSrrrY6S2rrKyutzCDFNDdMkay1wAuwJlSqy82dh9I5uggrZquj2FNetTpD5zAE8l3ufYoY+ydk2rtRMLQeqbWUWRfWbciD3ewGc6+DJERa+LqsFRLUgx3XsGqEc9DTAtzMr+lO3mxlW4uKSaU1+t2/rH3DTnJ43yQvqzXwvBy4zNX9K3f09pT4pyzFmN2JLMebMbsfaSY3FGIYypns0klSFoY+jmQxUixUgmBPSpJNOvKjro4K2kkpgdD+DxM9d34U0sPpObfsh5v8AF4anWRqdVFdG0ZWFwf39/CYr4M0thnqevUPkgA+stNlTqTVDWJ4btbLz8XL00/T9zhPwidD2wFQMmZsNUPybHUod/VOefI8QDxBmHeerNp7Pp4qi9CsuanUXKw49xB4MDYg8CBPNXSfYFXBYh8PV1K6q+4VKZ9GoB37iOBBHCJozY5c2jKiFF5PxrBI2XcpYfF4XVSyNGJ6mRaK4SorzTiGWWBpSz2Tsa4FaoOxdgoI0cpa/5oLAeNxwMKNWGMs01CO7KbZ2yatb0FsvrNovnx9k0eD2PRpat8o/MjsjwX75Oq4gnw5SK7wdHpeG7Ox4tXq/UdrV/OQqhJMUzCJasBK27OikIKGINJuB84bYnujD43ukG0BrejHSx8OBSqgtTB7Nj2k+jzHdK3pRQo9catFgaVe79n5lT+UUjeLkhh9IgbpnXxzeqY0cUx+YYSnceVnMzdncPPL3mz611E4vZ97lTeUdTCNfRT5TQKWPAjxMNye4+2VrQzZOxscvDJr3f6KBNmOTut4y1w2HKjfcyUKZ5xxadpJtsv4fsnDjdvV+v2HBjHNJKN7U0LMFGgzMbljzO4dwA74FaEFiwkZ04QjFUkFaA04u0PrFHEDxMZMZdLRBqAbzJqlX0BB8CJHfBKQbb4mvITRHqmOX7F++RSSuhj1G7IVG/MAPbp90RGzs3Qmj1eCw49ZMx/PJf6mEvlMh4elkRUG5AqjwAAHuAkomdCKpHzrNPvMkp+bbJdNpnPhL2MMVgKgVA1ZLPRsLvmVgWRON2QMLd8uxUtu9+6Ku3VsyEmplNr+sBcKBwBNh7Y6K1Jp6Hl34wvrL+kIU7V/zGf8A6I/op90EO4f+NGj+L9P8/QwqUAYTYaTsMkcqJM4iswmzWrVUpJ6TsFHIXIFz3Dee4Gb3p7s5aFDDCkLU6QNLv1AYMe8lWJ72kLoFgwcSah/k0Yj6T9gfql5stu4EYig9I/OHZJ4MNVPmBJ1cS7heI7jiIzeyevv0fwOP1K8jVMVaMYsshIYEEEqwPAjQjziaRB0MyOTPepp7C22gIn/iKxDIvGNPhl4RWyL5ug+doryhHaC8pF+KQfE4rZG8hIOPHKNtjjwEQuEjqYeFgu8GczNvkmlTtuEWiR0CBJR8xAWKtFWhgRkxIEmbOwLVmsCqgWLMxsqgkAbtSSSAAN5MjSz2N6NXubDt7FxVImSirkkZeNzSw4JZI7pCq2Jw9BmRKIrOjFWeuexmU2OWkpsRcfOJjX/Gse35HMq2uBh6AVbDeewvDxmmxe3aKtkp4d3q0roG6tDrnVqh1BIN1qKDb5xPdFVdrbQYA0cEFF7jM+ujhwWVmXW41J5mLlV7nLeeTinLEr85yXwT+hT1a2LTDrWxIJC1hnWqoLNRfIhuCNCGenlI9duUpNo0Wp1aiDVkYi3rLvVh4qQfbNa1DHVw1PEGktJqdRCqDtAmm6oRa/oswbfw7hMz0roMlWmbjP1FItY3BYA0zY8fyYlk3DlXLuR7OyyjxUo2qkrqOyaKuqBUW43jeInYZ/6ikp3Gog/XUyP11znT0h6S8+8QqzggVaehBBPMEcZTep2sjUo6HoAVLi/cPdp9kX1n1CUmxtpith6dX11ufHQked5OqVrfjunRTtHzqcXGTi+hPWppH8PUsb8NL/YZWLU08h7v3xGPrOFOQZiFY5b5c727KFrHKDqLjiRujWuhBulZIz4/+cw3+Hrf/pBOYfwsbQ/oP+bBLu5l6C72Pl8f3IVGvHzWlPSqyVTeYTckdE6AUvkqr+s4X9Fb/wCuadjKHoQLYNT6zOfJin+iXbtLlsZp7s5l8JeyMlXr1HZq6N3VAND+cB+qecxFB9Z23b+zxiKD0jxFlPJhqh87TiDAq1iLEEgjkRoR5zLmjTs9X2PxbyYeR7x+XT7EmrHKdIcWjLNpEYdAbu2oG4Sk7l6lhZREmqsg07ud1hLHBbNaowRFZmO5VBZj7BrGrew+bS+gkG8UEltitkDDj5d1Wp/NIQ9QH+0YdlPC5PcJVvilEk41uKGSM1cXoAU4dpHbG8okVyYrRO0STCjStFgxAKljsYqXamzZRWRqWb1Sw7DexgplbeJJjTrUqzYllxyg9mqOh4DF1DUCihlDkvVa5GSoSeuV+bCpe3NSvCW1ava+VGa2W1gLHOSMwuQDlGp13eMx2y9tLXQ0a1Q03Iy575RUGlszfNcWAzG4I0IPCu2xgMRRGS9TIfRsWAa/9UG3kSO8yTevMl+x5tcApT7vK1GS9tS9bv4Fnjtq1KmNcUnLU6SsVVTZWqCnlQab71mRNb75R9I3RK3Vr2loolAEf2SgN+tmlpSA2fQztb4xUsaa8tCFdh6qXJHrNY7lBmTDHffXiTrfxhKWnKdHgsMe97yHhiuVPz82M1qKsc1NsrDhIbVLXYdlho620b7pOq2bfbxGhEhVhrZms1tG4MOTd8rNmZVqjoPQLaB+KKvDrGVfDQ/6jNV8ZzMBfS5J+iP3Cc/6HVCuHp3+aXI7mzEAfjlNpgdBfnYDwG775sg9KPDcS+bLKXmy4Src+G/xPCSm108/EyHhhYX4/N8eLHwkTbfSTD4JM1Zxf5qDV2PcN58ZYZy3yv636q/dBOdfwxr/AER/0l++CT52R7teRlqLSYjyvSPLUmZm+J2HokR8VogE607kEaZmYtoba7zffqDLFnuD3fUf3zGfB9jqzIy1EyqpU0DlsalMKyub/Oscq35WHATV4mpkIfeh3/RO/wApd0Mct2J6zW3Pd4jUfbOWfCDsw0q/WqOxW7XcHHpD27/OdLxiEag6HVT7wZVdJcEuKoNTbQtqh9SqN3sP3yGSPMqNXA8S+HyqXTZ+w5EanZEuNj7ONerRw4NusdQTyzEC/sGso1pkPkYWYMQRyMnptEoxZTYIRa3pF+Fjw5zEtHqe1hkUoNp7rRnWNr9EMJRZsRiMR1eHAULTC2bsoFCBrktfLewW+u+ZbbXTdaamjgqYw9I6Er+Wqd7vvHhcnv4TLYrF4iuwetVapU4GoxYUxyAPGHQwqjX0jzMteT/yqM/D8FPlXfS5q2vZe7q/VkYtVqcLCO08AeJk6CV0dJQXXUZTCgRwUgIuHljomIywiI5k74RWADRESRHCsbaIBJWT8B0hxOHGWnVOX1WAdfEBtxleWiYivJjhkVSVr1CxGINRy9RizsbszG5JjbDlFlBEGjyaxgFUqSGGQnhGzT0s6kiPu1QbiD7JHfHVOIgU5HFeKyVs/FtRdRqadxcncpO6/K5tNsOlGGoLmq1QLD0R2nPcFHEzm+KxFQ03GU5XAQ8t+b/TGejHR5MQe3UIANiqgZvM7vKX43Stnku0IReVuC0fz6mo2x8JlaqerwdMoToGIzVLckQaDxN/CNYDobUe2Jx9Vu0VYoDnqshOrO97U0C5m0ubKbbpp02XhsLhquVAilCruFz1CGGXjcsbncdJhK2DanTenjMUQqojUqKsKlSrmzZEuPRQBTcXsMwI4GWqVnMao65/yFs3+iL+nU/3wTC/wg4f+b2h/i0/2QR6gVwpxOWSLxOWQNkUbToztn5KjTYAdXmCtnsQoLuWdToFuzqTp+TB4TZBgey3ovqv9VuKzFbA6PUKmGTEM1QVA5QZWGVsr3CFSNQQ1iOIJmxRLrlOgbUW4G53fjhL9OVGCVqbQwt6R6txemfRPLwjOPw1gSO0h32/Ghk5KgYGnVGo48+REiVKLJubTcG3r9FxIgck6Y4PqKpqjXPfXgTuueTc+e8cZRYKsL3PAaDvPGdZ6QbMSsjIVAexORicrd6MAZyJqWSqUHC+/hbhfjM+SHU7vZ/FvSD6bFvQeSlqSpp1pJp1ZQenx5k0WKvF9YBvMhB4LAx2X2SmxiiMvtDlErhwZrtjdB0q0PjL4pFp2LNlQsVC+kDqLEW740m9ijiOIjgjzZHS9jfyMe2LYxPXnnNRi8HsumLpiK1Vl1ytTISoBqUuoBS+699JcdIuiGG6/DJhyKK1g4BcvUBdchUC5JuwY8bdnvj5GZpcfCMkp8yu9XFrbX2/A5/13fD63vljtzZpwldqNQA5bG66BkOuZb7uI7iDLHp5sKlg6lIUSxV1YnOQSCpAvcAbw3ukeV6+hb/F4+aEU75rr3GezwiZHNSDrJEv50SABxMS4XnGb90MHugPmFhuFyR+N8dBvwAja+EJnJ0gBO2hWBwBFtRVyg8N6t9rTMYDaBwtQuFLKRqAbajjNZWoX2cT6lfX2hB9omdwLlamYaFdQeRv+6Sw7tep5zjIJrJL+77FqdqbTx69Xh8O60yLEhbAjdZq1Syr7LTQ7C+DKjRHXbRrqQN6U2Kp+fVNmbwUDxMe6NbV60/LOSRzJIHgJm+kO1qleu9ywRGZUX1VBI3cCbXJ36zQ5qK2Obw3BPPOm9Df22F/R8P/AId/9sE5dlH4MEh37Or/AMRw/m/1X2LUvHKciqZJTdJs5cUb7oGFejUUi5SpcdwdRuHihmnyXW3lMb8HT9quO6n9b/fNsRa0tjsYM0ayMYZOsHJ1/HlI3aN7GzDeDuPiJLrofTTePf3RuoBUGZdGG+MrRT411K5aq5ddCb5QeBVx6B8Zy7p/gX6xTrnvbNwdCCQ1xoSLWPs5idZxblgbb7aqdxnM+l9bJ2PmMbqD8x1+b4H6iZXPQ0YK5lexl8LhXA11k6jTa12GUczpCo0wwvTYqbagGMV6Dk9osfeZlbvc9fjhyQTgm17SQ2MXcBDXFd0jU0QaHOPzb/UJKp0aZ31D7VIPviLoTyS6oHxszpvwU4g1aOIoNuzKbHcVqqUYeHY985wCi/k1zHmTLnobt18LWdnUlHTKQtiQQQym1/Ee2Sg6lZn7Rwzy8PKK1ejVDe29ppV7AwlGgVJBNPNm0uCrcG142vpNZ0iqGpsnCYhW7dJqRvxBUNS/aCTF7U2e9SrUrIrrSqOzAuthmYlmUMLqdSba38paYHadWnhGwjCk9Nr+mGuLnNpYjUN2geBkk97IT4Wc4YnCPhabTf6rU0nS3Z3x7DYbGU1u3ZWoBqcrsAR+Y9x4MTIvwt0v+oorypsfOoR/o90qOjm22wzohxTU6GbNUAGa4GpAABILWA0tvvI/TfpKmLxPWUgci01prcWJszsWtw1cj2RuScX5lGLhJ4OKhGWsI8zT9H0fqUZoCNkqN0T2m7pa0+j7/FTiiDl6xaaixJa4a7DuBVR3lu6VVZ1p5IxpvS3Wvmyq6wx+kGO4eckYXA1alQUqdJmqepls3iQdw1GplrtLonjaFM1atIBB6RV1fL3sFN7d+6CTYd/jhJRlNW9tSoNM8TEZbTZYbolh6dClUxuJem1a3VqqghbgHtaEmwKk7rXtMtWp5bg2JBIuNQbaXB4jTfJOLW5LDxGPM3ydOtOvc+pJJ/8Aja4/tk+un+6ZfDDU/jjNWAf+GYg8OuT9qj98zOHHatzBEhidN+05GbH3jyr1+iHlxD0+1TazDuuPIxhcW1Ry9SxYnU2A4AbhpwEPNI7rY3EvyI4uGdaFt1vhDlb10Eoo0UWtOSl3QQTUymJr/g59LEeFL66k3dThBBLY7HPz+NhU+MhYL8q3hCgkiogY38pOZfCJuH94PqaCCVyNGMzmF/kvoL9sv33QQTJI9j2V+EJXcfxzlPit8OCRNfE7CMNL3Z26FBGtw4bwnUekf8SU/oYf/MScpxUEEtzdDn9k/h5Pzy+hV1d8XhN8EEqZoXjJrbp3Pov/ANth/wC5T9mCCXYN2cvt/wAEPa/kUmwP44x/0KX7NKMbG/ivHeON/YaCCWL7nNy7e7H8g+n/AP2WG8af+S05rW3Q4JVl3PQdi/8AWf5mWafxXiP72n+3SmXw3pjxhQTPDr7RR/En+b6IQ28+P2mFV9EwQTW9jzK8YzBBBKDaf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhIVFRUVGBgXGBUXFxUXFRcXGBcXFxcXFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0mICUtLS0tLS0tLS0tLy4tLS0tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLv/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAQIEBQYABwj/xABHEAACAQIEAwUEBQkGBAcAAAABAgADEQQSITEFQVEGEyJhcTKBkaEUQlKxwQcjM2Jyc4LR8DRTkrLh8RUkQ6IWNVR0g7PS/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EADQRAAICAQIDBQYFBAMAAAAAAAABAhEDITEEEkEFEzJRgXGRobHB0SJSYeHwFBUzQjRTgv/aAAwDAQACEQMRAD8A8wxNY1GLMbk7n5QDrHmMMgbGBYQLEAj47EDIjTCNGskYhhaNvHFYrUrAawGCjqdFmNlBJ6CS8FgWqMFBA89/gOcvcJwpKYOrMbi7BbLysL3PUaX1ttJcilGyBhOEopHfBmv9nMQP4QNfW9pY1cNTbxeBb5tbIq2toQgbL8pGqGzEA947c73ZT5gf7RcJw4kF6neWUe0CvK1lBYixAt6abRIGkjqnDFyEqwJa2q+zpc3C6287EyKeGk6IjlVOptdmPlbSx5S/4VRp2FTunCC9wzi7Hk21vcN7nzk3H4sFl0sSoPtvoNDqNlNh8BsIagZNuEuNWyJtozWfXbwnWFwVPKj2JQEeJ8mc23sFOoG2ovvL2tiabp4qhO5N3UsQeQBI6chzj8LgkchSCS22ZVGU5dLZW10sLk+t9oMEYbEUbaq2Zb+1YjXprBBZpuM8ONMZGVjbxAkWHQDNbQAe7WUNVV0ygg+ZDD3EAaSkyWiPaFRZxWEpRgIViZYcCcyyQI7QeUwzCMN4xA4oilZ2WAzgIuWOprHBYAByTobLOhYUdFAnGIJJo0OnXiXjlEBcoigc/wCjEAjyIojsKBlYwrDGctO8CaLThICLmv7R5XueQFum590PVq2U06Q9r2jfbfnppvc+sfgaKBLsbDUD0Oml47OoAykKp+1vYbaHU/a87INpK1LemhFwmHyE2HhXS50ao7DUkjUItx4R1HM3mqwdA5VZhdRlG1lFzYXUabtbKOvMk3ruC4TvmZ9kpg2Hp+O9zzJmzoZQqlUZ6aEZbq6o9U2CszkWFNbs2ax1ItcjU5i447RmsTg6uYlyA3KmniCjqdLfdy2md4glao+Vl0W4BygkjqxI3039es9TwyqoandTUclnfnU/YHJRoAOQ89ZU8Twq1mGHp+EH9K66lV5oDbRm2tuAb6c05NF9yZXhVN2U90DY3sddSdBptYXMueHdn8QqikEGXfMTYjTW1tgZteH8MRAAqgW2lwqCTbZXIkjzjHYBqCA1aYYEkanxre50a23mCekxnHKZFqis3dk2tfML72sdF9DPccRgzVstUK1McgDqSCtzfawY++08o7S8IqYWoykHunuF0OVwDexHUXvfz02lpmWSBiKhuSbAXOw2HkI5ROqqASBt57+h840GaHOGvOYQWaOzRUAhEYRHmJaIBEYi9uYsfS4P3gRpEUxCYxiCPjRFvABZ0S8WFAOYRa9AoxRt1JBt5dPKPYCJlFhvfn+Ek3GKkeKceiwloCA5Y0iHYRhWIQzJC4be17X3PQc7RM3KcNLnpCxBcVic1Qqlwq6m+wFtB5n/AFg3sFJ0zG1ze5GYeFQOtr39JBrVCCfM36ed/wCusDRragt/XnBEWexdhcEFogttcG2mp8/LnNfi+JqbKBe+45Ced9luKWUAtYW58pp8LVV6llIYkaZTcWH3GZ3R3RqiTjMGlWwemrjcAqDb4ydw/CqgCrTVANgoA+QnVay0hdyF8iZS1e2FEG2dTG0i9zVIkLTHnM9he0FOoN5KXi4A/HaTaBxZeonnA8Z4emJoNRqDRho2l1YbFTM+nbCiGs1QCXtHFrWQmk4JGv8ArKTTMpo+eeNYBqNepSbdefIjYN75AvNb28YNirkXaxHrzt6gj5zLMJtB2jhmqdAo4GdaKRKJUhymNYxs4mKh2IYjGLGkQodiZooMYREvAVj806M1ixgTV3hAIICFpyDoTHgRZwnGIVjrRMnO0S8IleylesBgWgahsPh/KFM6oPC3ppExFRjqt2Jve4/r7pEU7QmJbU6W1nYZLn0ldDE1vZ1GcgcunUz0vD4pcHQNSwzsLDyHOUPYjhH5vOR7/OE7WKzWQKSFGvmfOczetnfDwpGf4rja+NewJt5SoxfDmonxD33v8ZNqpXANMHuxbcGx/wAULwvszVe5NTXS17sLa3vyPxi9Qdt7EvsqxZggO803aLBVaNK5Olt7wHAeDCg4bzB9Os3nHMEteiBa+x1+Rk8lpmvM0jxilws1Tcsq9CzWPwmh7P1q2DqKL3DbWNwR1FuUh8f7Ik6BmJve9jf5X+Qln2W7NVVX2syKQcrAjxW1K31+6Kq23I66rQz/AOUBLcQa2gClh5k62+czJWbv8qGAtiab/ap+/SwMx60xY9Z2w2PMzv8AEQ8k4pJyU9oTEYUKbXvLMOYrCkYUk7u4004BzkQJFCybT0BHW3ygikClIjNRgWpycwgmWBaZEyzpJ7udEVqOEkYiqpa6i1+UCFjTJNguaOpi5tABo9GgFhG0nO+m0Qa31gyYDQ4Q7Uwt+elh6mRxHCIpAsF2XxFcZqaqKdyveVHRFLDdULG7H0vJNTs7WwxHe5SD9lgw67+6XGLwrVDh6Q0UUkCgbC4zMfUkkmSaXDndkwwfOWzt4tl7s6g9dLfGYd63odUuEjCCd6tG77NOtOigP2R93OSqtOm+ptMxgqjhcraEafhB4nHldAZPMVGJeVeHpuoQ+oBMPSphRmNr+W0zuB4gzEay6q1vDtrb5wtFuItGkKj5c3O/pNnhFUplBB05Tx7ivaxsKO7SncsTnPPU8vdaG4d20qAh1BsNSACTb0/CUpJITV6Wek42gDtow2P4GPwGMGzAX6ym7PcXqYmkK9RMpcm3oDYe/wDlBcScpUuL23kOVaonk6Md+UCjhnFI1nqLclUZMuUNpcuCNRtoLTyvE0Sjsh3UkH1BtPSu1eGNaggG6kN/iuv4TAcb/tFT9tvvtN8U25NdDl4vDBYoyW7bshgR2WdeOE3PLaG5Ihpw9o9UvAKZFFKcaUkgRct7wGkVz04I05Z1wDawtpIrrEaIiZJ0kZYkCiPlg3EIakbJOgazC2g1iU4pWKBAkVhBmSKSX8zGVE1IMCkNR7Ai0cDGETlgVZrey+IFRkpn26eqX2YDXLf0vNFS4EKVUYgMylgSVZbWU7rcE3Nx90874exFRSpswNwfPlNPw/tPiMTVOHqPl8N7gDxAWFvLf5TnyQrU7MWe1ytl7VQZ/fKbiQJJ020tLVWNxfe0g4sjMSZiWdwmmF13l7g0DG7HQfOU9JvDA43iZpr0+/zjQy045wWjWNwoz23G9vOQ+znZY0aveG+nwmNxna5wSAT6D8YzD9snXd2IB9m7D4dJq4t9DPmgup7vTyMuUWBG3ulXxRAwHkZjOA9ru9YC+p21v7j1muxDEi/UyJNMKoPxCuqYOpUNr00v62vl+bTxl6tzcm5Opl7204pU7+pRDnuxlBXkTlB++ZjPOnGqRyZ3ehMDRwaRFqx4qTU5XEmq0JeQVrQy1Yg5SReJeCzxQYieUeWgzFvGExgNvOiRYwIAWOywhWJMzqaBWix+WdljJoWi+VlYfVIPwN4TF1c7FrWudoPLFMBoA0QGPYQbCxtAVhFaWnZ1/wDmqLc82X1DaGU4lhwKp/zFG2n5xP8AMIpK0CdM3WPqWe3rKavVufSWfaSmRUzCUi1SdDyv85wnpFlRrWFryNiMtRjmtYcjqDI+KY6WkYXJhYWGThOCGozL1GYGx8sw2kyhwDBNYNVZv1fCvxIlTU4TVY+HUesncP7LVyb5lHv1lOZS5fyl/h+B4WkLUaYUg3vux95mipuCnpKShw5kUXOoi8arMmFrFTqF39SB+MhNuWpnNpLQ8941iu9r1Kg2ZiR6bD5ASvaLOInoI8+R152aNvEvKJCqbwtNoGmYQRWFEtWjg0jI0erQBoMTFYiBzR6wIaF+MWNvFjsXKMZY3LDER1HLc5trfOQdFkfLGhYQnWIRAKGCc8RowmMQN420fFAgSMtJXB/7RS0/6if5hEoYZnYKguT8hzJ6CTeGYRhVDLlYIy5tQLa72axkyklpZvj4bLNc0Yto3XHqdyZmKoym01vGxqfOZPiVK1yN5x0drWhGxVbLI9PHgRKj3Gu8hVVEWxDRdjjVpIw3aBgdyBMsqnrD0qRMTZcbN8vGs62G5knilG+AxBO/d3+BBlV2ewm2mk03GKf/ACWI/dP8hf8ACOGskRkWjPGjOEFHqZ3nmiNOjiIqLCwFQf1ykk0SCQdCCQR0INj90GBDLeItIGRHKI60cohYUJaLmjgI1oJiaHWnQUSUQSmEE0eWjGkm1DY9joNNvieesaoj7QBsjvAkyRVWBCxkM5RJGDwrVGCILk/ADqTyHnEwtAuyourMbAf18ZtMNgKdBci+Jj7T9fIdFmeTJyo9Hs7gJcTPXwrcDhsElCmVU5mI8T9fJf1ZncA5OMRAuY1LCw8tz7rEzRYp4HgtRaeJDEDxAqG5gnl75xKVy/EfV58XdcPWJeE1HHKfi0mbxNO95p+IPcXmeri5mrPmK0KZ6Ou0g1qA+EtcYbcpWVAZLMmiIKJJtL/hHB7kFvh/OQeHWzAtrNJhqhvf4CZyLjFlvgKIWwAlziMooVSwBApuSDsRlNwZSYaob6yR2ixmTB1erLkH8RA+4mXF6GsINziv1R5z2o4aKdTvKYtTcC3kQoDD46++UoE9CwISpTFOooZSBofkQeRlJx3sm1IGpSJdBqVPtqOuntDznRizWtS+0uynjm54lp5GaiqYgF47LNzw6C0d4aprtIywgiGh14t4kSAx4MQmIJzCANDZ06dGQEVoZ7mwPLSCpDWSy14jYGlDQnpEIk/h/D6tdxSo02qOfqry82OyjzM2fBfyegn88zVmG9OgQtMHo+IbS/UKD6wBRb2PO6WHeowSmjVHOyoCzH3Ca/hX5NK2lTHV6eEpnXKSGrkdANlPx9J6VhezTUUyo9HBU/rdyPzhH69Z7EyBiOIcLwutjiqnNv0pJ82YhPhB6bm+Lh+80VyflFX73t8yHhqnDsPSehgMPWquylS6I5JJB1qVWsSvOw08pkgxOwAmn4h+UmrlK0MOiDkWJa38KhR85naCV6iCqlEBCL941Skied2ZgBObK1Nrl19iPo+zsf8ASQl3q5E9rkn9iDXocybyBi6Wn4yZi+JYan+lxlMkfUwymux/+Q5aSn0ZpV1e1GFv4MHiK361XEKn/bTp6fGZ9xLrodM+1cK0inL2L70XmC4h3qgE+MCxHXzEZWom97SpbG0q1Oo9PDVMNUpKHDd73lMjOqZWuoKk5tNTe0Zhe0zDSqubzGh9/WN6bnmzwLLcsSa/R6MsatIsNpDq4I2vylhhuMYdt2ynzHP1kmogYXRlYeRBks5J4Zx3RmqODJa95o8LTIsOc6hhgNbSbQpjMJFNiVssMFh5V9tKl+6oAEknNYak2BAHz+UsanFKNEeKovoPEfgJR4vj1VqbVcM7Ub1ClRwAKwplV7qz7ohPe7Ea78pdKtTo4fHljkjPl66Xor6akjBcIxQAthq9v3b/AMpaUKrpYOCpHJgVI+M8+qLjSxP0zEN5mtVvb3tNHwDiuMQZfplVx9isRWT/AA1b2HpaC7tbNnqXxs/HCNe1r7noGE4NguIqwrYWn3igZqtMhKp6NcAX25k+kx/H/wAk1dCWwlQVl/u3/N1R5a6N8oduP4hSCq0qbfaoIaZP7akkMPLbylzge3+IXw10p1R+yyt77XHynTHNB6NnjcR2Nnb58cVT/wBb1X0PI+IcOrUGyV6T0m6OpW/oTvAKZ7tU7b4SqmSthHZTuuVXT/C1hM/iezPBsVfuTUwdQ7E37u/QqSVA94miknszzp8DxOPWWN+48uVukaTNF2i7EYzBguyd7R5VqV2W3Vhuv3eczWa8Zyjg0UtBgxC0oLH3nQc6AiYgmj7JdmqmNq5FOSmmtWqdkXoOrHkPUyHwLhNTEVlo0hdn5nZV5s3kP5DnPZMLSw+CoGmNKGHF6raZq1Y65PM3sSP2RsDJSNlFydIXD4TC4LD2ANOgeX/WxB6u29j0006DSZjjHbSq/go2oUhoFTRiPNht6C3vmS7Q9pKuMxPeubKLhKYOiJr8SdCTILYg3tObJxGtRPqeA7KhCKllVy8ui+7/AFLSris73clj1JJPzhXAYW+Uqg2oi5iGt/tOfmb3PZil0HuLaHnKTifAsxzX35Cajh3Da1e5p0XdRu9stMac3PhHvMmHh1Kn+lxFMW+pR/P1D5XU5F/iaOMJvVHPnzcO/wAE3b8lq/cjA0eC21MvMDwpe776s64ehyqMCWqEcqFMa1T5jwjrLapiaa/oaAJ/vMRasw5+GkAKSkeYf1lZjUNR+9rO1R9szG9gNgBso8gLR6bydmCx5GqxR5F5um/Rbe9+hFx2LWondUKbU6AIbxEGrVYCweqRpoCbKNFudybyJQw4uCLGxBsfuIMsLDkIj0QdxeS5NuzfHjjjjyr1vr7SuxmDGdiospJIHQX0HwgVw7DYkSe1EjZmHlv98bkbqPh/KKy6j5AQ1X7bfExwoO3tMT6kyQqN1HuH84VKXUk+sLD8K2Q2hhQOV5Oos1PxIbEAjYFSDurKQQynoQYOkIURIckpKpErC4qiwzNRK33ai5GvnSq5h7g6iJ3OHFQZMWiX3WrTroQf4UZfg0q6Ld3UKnYyXiaeoMrmT3Rl3Ml4JtfFfG/gaWrwwlBVVkqINO8pMHS/QkaqfIgSvqqRreRMFinw9UVKbZSws3NWHR1OjDyMt34hhqjZao+jVD9bVsO3nfVqfvuPOVSexCyZMX+TVeaXzX1XwKp69vKOwlbXyPwk3iHC6lMAkAq2qsCGRh1VxofdKfC+BtRa/XYyXadM7IThkjcXaNHwnjFWg1qblR9k6oeoKnSO4xwPC48E0kTD4zkF0pVzvlI2VzyP3ymrPzW+kh4HGm4J5nfz5TSOZx0Z5/GdmYuITdVLz+/mZXFYZqbsjqVZSQykWII5EQOWek9ocB/xDDNiUF8VhrCqBvVpWur25sACD1t6TzsTuUrVo+NzYZYpvHPdA8k6FzeU6BlSPcuzfCPoGGFgDiq7BBt7Z+rf7FMXueZBPSYvt72iRn+hUSTTw+jN/eVfrseut/nNtxLioX6Vi1/R4NDh6PQ1msHYeYuovzvPCkqXLknUk6zDPOo0j6Dsrh0pc76fNr6L4tk7CPck9NJIDeKRuFU8xAva9z8Af5QppHOBYm+wAJJ6AAbmcTPpYPqy4o25f15f6S1fBJh17zFC7WumGvZmPJq5H6On+r7R8t5X4ziH0Id3Rt9IGlStoe6bnSodGGzVN73Ata8zpxDOdSTfU3+fvmmkN9zlc5Z9I6R+L+y+L/Qt8fxKriCDVcso9mmPDSQcglIeED5+cajyNRkhRIcnJ2zfHjjjXLBUhzVukEQTDCnH5IixipEIhI0iMTQEpEWnDkDTrC4bCtUbKgueZsbKObNYGyjcmFWRJpK2CoYRnNkVmNibKCTYbkgchG5J61wLhAwKgZg4qkB6lgMrnRbH+7O2uxIPM2ynbns/3L97TH5qodh9RuY9DuPeJtPA4xs8zh+08eXM8fTo/P8AnQyiiOZdDBrDTA9Yh45MyhxuIWlWzKI+mviZDsdRIqoVNvOAydifZUwmJp5qYbmIwi6Q9AXUiAAsDxCtSUmhUy39umQHpP8AtU28JPnv5yU3GMO1vpOHyFv+rhiwy+bUHJBH7JB8pWocpIJ0Mj4k3AHKX3jS1OfJwuOTclpLzTp/v6l7j8AUVaistSlUvkqpfK1uVt1Yc1OomeVtPQy64LxDubhxnoP+lpdQNnT7NReR8rHyreL4XuatRAbqGurDZlYBlYeRBB98mSW6KxZJp93k1e6fmvuupedguK9xiBmPhq+Bz0DEZWHmpCn4yu7d8C7qq1VFyozFXUbUqw9pfJW9tfI+UrMNUt8Z6VXQYvBjEgFvB3OLQaswT2Kyjm6aN6EidPD5NK8jxe2eFUpLKuunr09+3uPH8k6ar/weP/W4X/G3/wCZ06uZHgdzk/K/caDt25w3DsLhNnqE1qg533IP8VQD+CeUUn387/fN5+VDiXfY2pY+GlakvqpJf/uJHunnyn7zOPLrJry0PpuFTx4YOW8rk/X9i7wNvhNTg8uGo/S3P5xgRh15i3hauR5G4X9YX+rM52TwP0rEUqF7B28Z6IoLOfcqtLLtFxQV6zMAAgtlUbLTXSkgHIBQDM4rlXM/Q7smRZWsS2q5ezovXW/0X6lASzNmN/T+ck0KUKLGSqVMDWZbnTGNCU0khFjVEIIyh86cBOlANtGsY+0G5trEIbtqd56VwXD1MJSCU2Vgzm5ajrU/Nl8tFhUAqg5SBfz9J5qi2BYwBUH06cvhLx5FB3Rx8Zwr4iKjzUvZfs9x69WxRQLRXKaeQg0SFNRhakSnjcBQoqnS5IAtykLHY4OlWlUrqaYzqTnw4ChKtlSzguXNMZg99zPK2pLtlHwEIKajkPgJs+JvocEex0mnza+z9y87TUsOlQDDOrJlBNnV8rXIsWUkbAG1zv7pAXxJeRF2kjhxv4ZzN2z18UHCCi3ddWJVOiuNwbGFrU76jnERdSvXWWfAuFPiGKKQAouzHYDW2g1JJHKOKcnSKy5YYouc3SRApDS0JRHSafhvY584asyFBcFFLXJs2UB9t8p9CQbQ3aHsxqHwqjc5kzAai1igPvuCfSadxPlujzv7xwverGpevT+fAxmMw19ZX1+g2Es8c9WkF7ymyhwSuYEXANjKoG+vWYPc9OMlJWnZKptoITiRvhqTHenfDsf3fipH302UD92ZAqVspEucMBWWpRA8bpmUfr0gXT3le8X+OOOuhlm/DU/L5dfv6Gbp1NvWbj8nXaZcNX7uq1qVWyknZX1ysfI3Kk+Y6Tztani9IfDVLkDrHCThJSRObFHiMcsUup9I/wDA8J/cUv8ACs6fP+c/ab4t/OdOv+oh+U8T+xZf+z5/cq8ZjGc+LckknmSdyZUA6/GWmIXWVVMa/GYQ1tno8To4o1nZTEChh8VX+uyLh0PTvSTUI8wlMgftSErXF+bG/wAdvlaSuDYU1MCbfVxFieWtO1z8D8ZX4nEBW02GkWS9EPhOVKU/N/JJfz2ljRTKLmdSq3N5WLiGqEKJd4bB2Gszo74yvYVIW8FVqgaCC+kRjJoM68jLWjw0AC5usEBmM694VbKCTygAHGtsojQtolE5rt1i130iFYNes5jEG0bfWIoJTi0Gs0HTaO5wAsKvX3zTdhuKBHakRc1TcHT6qte5vcf7zK0n0tNH2MwC1HeoSwekPABbKxZHBvp0vNsLfOqOHtGMJcNJT2+vT4m5OORvFcMv2gRlt5gc/dEwtWkFzUiSrE6p4/VSQDYdbzl4OdGUC1jtY3uGvvrc5gSNrgRp4eyksFRc17+EprqQWAHjsTYC+2+09C2fGvh8D23KztzTRsI/2kKMBu1yVU3vqLgjpynl7LabDt1h6hpo6BnRWqXO+QMVKjc6DUX/AJzE4qrZBc6mefxLuZ9X2NiWPhqTvV+n83IlVrtNZ+T1QcZRB1OYj0GRvlpMnSQzS9mcWMMuJxPOnRZU/e1TkT4AOfRTMsXjR2cXfcTrqq9+n1MdjCBUqZdsxA9IXhq3N+kry1zJ+bIlh7Tf0ZTQsL6+RZfSk6zpT/RT1iSfU17yfkS+Je1KRN506aw2OLivEja9lf8Ay2v/AO5H/wBUymI9oxJ0qfiXsMeH/wAP/plnwL2ppMX7PunTpl1Z6ePwopamxgBvFnSUUyRhpISdOjRSCidjP0RnToACw3sCNrzp0T2BbjDGrznTpIxU3MeJ06MRLpTbfk/9h/3h/wAiTp00xeI4O1P+O/Q3/DP0Kfs/iYlT2qPo33rOnT1D43/Z+pm+1/8AZMX+8H3rPGOIbidOnncV40fU9i/4Je36IdQk9/7FX/eUf8ledOmENz0+J8C9q+ZlqPte+Tavtr6Tp0uW5jj8PqTp06dMzqP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxIQEhUQEhIVFRUVFRUVFRYWFRUVEBUVFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGy0lHR0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0rLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAECAwUGBwj/xAA/EAABAwIDBAcGAwcDBQAAAAABAAIDBBEFITESQVFhBhNxgZGhwRQiMkKx8DNS0QcVI2KC4fFjssIkNFNyov/EABsBAAIDAQEBAAAAAAAAAAAAAAABAgMEBgUH/8QAKhEAAgIBAwMDAwUBAAAAAAAAAAECEQMEEiEFMUETMmEiUZEjUnGBodH/2gAMAwEAAhEDEQA/AOvc9ISIR0ii6Vcs8h1qgXvmQ0k6pklQz5FnnlLIwLZZkO6RQc9VlyzttltDueokpk4CAEptCQarGtSsB2hWtCTWqxrUAO0KYSATgIASe6FxLEYqdu3I6w3DVx5Ab1w+LdK5pjaK8TOX4hHM/L3LXg0mXN7e338GXPq8eH3d/t5O1xDGIYB/EkAO5oN3nsaM1zdb04/8UWXF5/4j9VyAjLjck31vrf8AVO2O5sF7GLpuKHv5Z5OXqOWfs4X5ZuydLqo6OY3saPUlQHS6r/O09rP0WM5ihsrUtPh/avwZXqc37mdE3pfL87AeYJb5I2l6QRSZXLTwd+q44lRdn/ZWxhGKpIpnOUnbZ6D1++6YVHNcPS4hJFobjgcx3WWjHjAdyPBOiNnVNqOasFRzXKDFeaf9780wo6oz81H2jmuX/fHNWx1pKTCjojNzSbJzWM2c8UjUkIUkJxZumTmqnO5rClxAjehXYvzUrsVHS7XNOuW/fXNOgR6Q56pfKq3yKlz1x0pHZpE3SKsuUC5NdQJDkpklIBACAUwEmhTASATWq1rUzQrWhIB2hTCYKQTAeyzscxdtKy9tp5+BgOZ58gOKMq6gRML3aDcNSTkAOZKwKekMj+tl957u9rANGt5Dit2i0vqyuXtRj1mp9KNR7s5ergnncZZNpxPgAdzeACZuFuG7tzXaVTQG5Dl5LFLOJXvSltW2J4cYbnukZHsR4jwT+x8PsLW6jeFU6NVPJItWOJlvpPv70Q0tNY52t4Cy2thRMaccrFLCmc++H7sq3RgbsvBdE6nadQmbhYOmvNXxyJmeWJo51jLceaaSJu4lbc+EObuvxIz8lnzUxac789xtu1VqZS4ma5m+6g6JyPdGMrt37rjJEYYG7YY7f8JPHgUpdrRKHemU4dh7jqujpMOstWjw4AaIl0VljnkZrjjRmmkAQNRDZbj2oOaG6jCTbCcUjBlgusyrpCuqdAgauILSmzO6ORMbklrPiF0lPcxUj0Nz1AlQ2kgVyB1pJOFEKYQMcBTATBTAUQJNCm0JmhWNCQEmhWAJmhTCYCsnCSjI/ZBcdwJ8EIDFxWfbl2fljGfN7h6D/ciKFwtl4nTJZLHGxJ1ddx7Tmp01SWnl4LpdPFYoKJz2eTyTcjWnAsRr9/2QLmD8qKgrA7QHw9VGQ6nZPl+qvfJSuAAs5IKcZ2WnJNyWbNIb6KuSJxZUWpMjupCXkUdTlpUVGyblRTDQE5o6now03KfZI0NvopSVOyCDr2+CvjFIolJsvdEOCBrsPY4ZjPW+/vO9WxSE78knkG5vl58MlZZU0chVwBpIIvbL6hATU+n+Oa6TEIQXGwO7t8FjVDO8XN+PlzTTItHXdFMQ66Gzvij91x48D4LSlAXA4DVmGU8HixHMaeq6iKtus2THzwaMeT6eTRMSFnjsiaee6vkiuFGKolJ2Ykqz6kLaqIUHJT3Vm4q22c6+PNJar6PNJP1A9Nm4FMKICsAXKnUiAVjQmAU2hRYxwFY0JNCsaEgHaFNoSAUwEAOApJk6YCQeLOtC/mLeJt6oxB4v+C7uPmFPF71/KI5PY/4OcY8k23IiGDO7s+WninoIBa53+KunqI48yR6rp4R4OblLkMje0DhyScstmNNcbN07EdDVtdwHJNuhIaqZl95ICWE2WjNM0n1Koqmt1uq2ya4AOp5i+qvZHfXXlqhZK2NpzzF/vtRsDmSAEFTgRmxO2gLA3HmqtgPPvaohsZvZWuaraK7BTII267u0qls2+6qrHnJuRzKGleBkDfs+iTY0rJVE4J0twt6rOqR9FbJIqS76oTE0D0cd542/z25ZgrtI8LsVymFt/wCphP8AqBemBoUcjHjXDMyGjsjOrsFc4gISpqbKotoEnbmhZGppKnNIOBF0MUe5VshJVufmko0Wh4aptCQCsAXNnvia1WtaotVrAkMk1qsa1JoUwigEGp7J0roAVkkrpIASz8fmDIHk8APMLQCxulovBbi4eQKswK8kf5KszrHJ/BxFRjcg0uPTsWVUYg52ZN+9U1s4aS3UoTqpHNL9h+yHBm0GEt2zazb8cxlrmF1sE2jl5tJmjR1Tr3ufRdDQVt+5cdTh7SDx4gg2uRcd4I7it2lcRYqrNEtxM6Zk9/vNB19aRkq472us2vnOazpclzfAJW1Tib+WdlRT4lI03a4i3OwQtXMdUPFM78pIWyCdGSfc7jDukBcBt2vpcGy16XE2vv2Ht715zE8X4duS1aOQjMZ355obSBJm1iG0Ha5FBtlDcrZoiOXbbn/YId7M1S2XxEWkZqp5Utk5hVFSiRkE4T/3EfJ1/C679lQuAwf8YH8rT4nJdP16MgoNpGtNUrKqqi6pkqkDNUKvaSsm9+amyoWfJUKUTroaHF8hTpc0lBrUlGiyzomqxqg0K1oXMnREmhWtUWhWgIAcFTuogJIAe6SZOkA90rpk6AHBWL0rP8Gw1v6H9VsrKxKznhp3Aea06OO7Mvgz6uW3EzhMKwTYlbNI3aANw3W5v6eiji/RyV8jpIjZjiXAOeGuByJyvyGfZwXd1mF7bRskBZUuCv02xbkL+ZuujjOSZz8oRkYEdJHsMidtEtB94bJdtG5GrtLnPPRG+yNyA1sBa2p/ytamwIA3ttHi74VoYfh4Dy4+8QL33dyU22SikgWPDLMsdbLCqMLL7553tyXXElxKyXxkEt4qpPyTaOGxLDHNdYNL+AGmS2D0fMFJ7TK+QWewObDsgtY5wa+xOrtknU2Ww+m2srAOA0IFj470PM9zGmM+6DkRb3HDnbLyWhZCl47OLbMXu2WBzi99gJNk+6dBcC+1e+YTiV0bi1wLbag6jv3hdZhdFHE/bbG0u3HaabdgcVfVYO2dxc5mZ33JN+N7lSeSMvBBY5R8mPQyXzBRrwmjwR0Xw3VuwdCs/kvXYFeLZqhwz0zKNnFgoU4DPfJ7OParU6INWyFGx8O1I8tY3Lacc+4c81oU+Jxyi7HX8vJGvwsTQF7xmRdrToG7j2lcTTxGGVwGha4juzR3JbaR0E9ZZAS1ZKxpa8lXU0t1Zsoz7rNKJxJWrTNyQNJFdakbbBVTLoIVykoOlsUlXyWnVtCtaFFoVrQuYOiHAUwo2ToAldJME6BiSSTpAOmJTEpkMB7rncVqLSuHZ9AuhXKdJ2kS3/M0H09Fs0D/AFf6MmtX6f8AYXRYiTkM/E+QWxCwW2jn5Ad2q4+hk2c7/qtttXZpJy/Re5F0ePJX2D56vMN4oyOPYiLj8yxsKpXud10gyPwjlxPatfFCbNGVud05N02KK5ooLtlh5/RBB4B0z+q1OrsLEZWyWJiURHvMNiNySVIb5YdVwseBbI7ihXw5WIv2oSjxHayORHotEVYIshtWJJ0DRUbL6eGiPZG1oyCDnBGbTbkqH150KSdA+Qud+5YVa4Aq+etyKyaua6ndkaGkkvlzVlbh0jmsLdSbAbgSDZC0rruA538F0scocW5gNZZ7juAByHaU2EeTlcFxeeB/VyOcQDslrs7WySx8bJc4cCwdr3EnyUqge0VDyxvxPJ5AE7+Co6USguDBzee82HkPNWYlukLK9sTEhp7rRpqUgpYcAVtlgDbr3I6WOSFnl+q4yHoSjpH2CyGVFiimVAK8p6STybTes6UbGc3NJW3CS9RdNhRkeqZ2wUwoBTC+bnbEwU6gE4KQDlK6V0xSGPdK6inRYD3TqKe6QDrn+l0N2Mk4Gx7D/jzW/dBYzB1kL28rjuz9Fdp57MsWVZ4b8bRxMDkYJi4htt/0QsLLLRoIRqV0lHgpl8fSFxdsHJwOhGdvvetL97DYaDmQbn0WRiMcRsT8Q0Itccua5yuqJWHL3geCbhJ9gU4rud1U9J2GzXDThqe3wVX72pzmXZ8P7rz1zJJyBtbA/wDoq6Do5MTtdZlxJJ8lPZ92Q9RXwjeqZmia7NCLo32i6FpMKIAvnYd5UpYS3d3KuUeSaYXHX21VdXVtIWXUOIQTpkKIm0XzzZ8Pvchny3VEkqsp23U0iDYVRtsfveiSWkhjtraLrWGrr6AcTyQFZMY2OcNcgERhPSPqnue+MEvhdFc/FHtFpMjN21YFt+fjLZuZHftXAbVTNYzIbDLaDU9p4rlamUvcXHf5DcEdjWKuqX7RyGQAyGgAF7anJZxWnDj2q2ZsuXdwi6ifYo+WpJCyojYrVp47hevpG5Rox5FTMwzOvmiIqs6K2po7ZoItsVDJjcJWClao1PbOaSyusSV3rEdp7CpBQunXy878mnuoXT3QMldJRTqIDpJk4QBJJMnRQDJnC4I45KSSAOElGwSOBN/HP6Ko1bjkzy9Ud0lj6uR1tHZ+Ovndc8MWMQIY0k8bE25rqcD3wUl5ObzrZNxfg1fYpnm9rfZUBCWE7TScjbgsk4rMfeO32+9YItnSGXZzINt5aLrQ1IpSiXGl2fesbXujaWtsQDlnblb7sspvSQn4tkjhZFR4rTyZO9zfl8P9kndcofHhnQ01a0dnFNWhrhtBYksrWj3XAjlvUYa9zsuzsUaHfI1WcisiVyNnkWdKUIbE03KOp22CEiaiQ7JSIloiD8jpfNY1Y+7zbQGw7slrGXZaTwBKwSVfhXLZRlfCRYCkVAFTutBnGJWzhzr2WKVpYXJotejlU6K8q4NStbksKcZrbqn3Cx5Qr9W+aK8YEUlIpLBbLT2JOFG6e6+fndkk6hdPdICQTqF090ASunUAVMJASCdMFIIASVkkkwMHpfSbcO2BmzXsK5rDXtaL27efJd9UxB7XMOjgR4rzGQOicW6EEgjmDYr2+mZXKDh9jx+o41Gan9zqaWvZs9UbbDiCRYGxzHqdFXNhNOTezSMiNNOfmuTnnyyNigDiUzTbaXrK2YN8Y90dh+7qe9iG2ztZoJOWQy5ofEcEpXfhgtvbX3SOIsCufgxGVyLjlOrii2hScZ9iTsGYz4JHkjnl4KDXluV8+KlJW20QnXXN/okm33IOl2CpZEKSk4qqR1kJDbCmPAUi66B6xFUcZOZ0UlGiDnfBbWm0Z52WQFvYhRvMIqNn+GyVrHHm4Gw+niEbg3RwOIfmQBtcuSvxqkUZHbMMYY4C5Qj27JsV12IRhm0DuXHVMu04lTRAkr6F9ihmuU4jYq7C6mmRkuDXdLcIJ5UmvyTOjJC0Z5WyqKBCkk5uaSy2WUevXSLlXtJ7rgaO5sntJw5VpJBZaCnuqwU90AWAqbSqQVIOSoZeE4KqDlIORQFl0rqAKRcgCqsqmRMMj3bLQMyVwGMXc9tRs2jqA58fMNOw643G4v8A1IXpfjxqHlrT/CYbN/mI1cfRdfiWDOkwGkmaLuhb1h5seSXehXTdO6f6cHOXua/COd6hrvUnsj7V/rOJliac72+iEmpQd6HNYcwUwqvvct20w70wltJ+V3op9S7RDe0KftF+5G0e5EjEpdXb7ySM+XP70VDp9/8AlFNitIs6z73Kgy3OWaq2XPPpuRlPBbO332KfCIcsnS0+911q08DnubGxu05xDWtGpJ0VNBTPle2OJpe9xsAPiP6DmvY+g/Q1tGOtks+cjM/LGD8rOfEqWPG8j+AlNQXyU4j0XEeDy0trv2DISN8rSH3HhYcgvOOgeLFkr6WQ3GZYTqCNW9lvovdMWcGwyX0EbyewNK+ZJJnRTl7ci0378wtGWKVUZ4Ns6np1IBmPmXDSLTxPEnT22tyzJFUiwUble0oQK5jlOD5E+wbC5FSSiyz4ypzOyVuTkUJbSDpM06GJSVBLcevXUg5VAqQXCnaloKe6g1TCQDgp7prpgUhkwnBUUNV4hHELveB35+CcYuTpITaSthgKkZAMybDmuNxHpkBlC2/8zv0XNV2LTTfG8nkMh4L0sHSs0+ZfSv8ATz83U8MOI8v4/wCnold0kp4tX7R4NzXMYx0ufKx0cbdgO92/zWOvZkuYanfu7CfRetg6XgxtN8v5PLzdTzZE0uF8AFW+52RoMl9KdDKcHDaaJwu007GkbiC1fMpOZPavqDonlRUw/wBGP/aF6+Luzy5+Dxrpr0TNJUGMAhjrmF9vdc38hP5h5hcpPhsrc9m4HA3X01jOFRVcRilbtNPiDuIO4ryDpF0cmoT74LoibNk+gfwPPQqrLjlD6o9i3HKMuH3POXbQ1BCmJfv771p10FjcIVjFUpEnCmVRRudvRTafiiIYraK+io5J39XGwucdw3cydAOZUdzbpE1BLllAZZbvRvovPWkFg2Y75yO+H+kfMfLmut6OdAGttJUnbdr1Y/DHafm+i9Apog0AAAAaAZALVi0rfMymefxED6MdGYKJlo23cfikdnI7v3DkMl0bBZCxuVks7Y2l7jYAXJ7FrapUjLd9zgf2udJXU7G0kdtqZp6ziGXAAH/sb9wK8axH8U9gv2jXzW70oxr22skqj8DfgH8rbhg8yf6lzBcS4uKy5JWy6C4JFMRdOUygTKy1OwJ3i6ra8pJ0wCY1OU5IdspCkZbhWOaZDaVEp0xaUlAkewgKYCSS4c7Um0KdkkkmBEhOAkkkAFiziGGxI7Ml5zVOLnEk3z35pJL3+kJbWzxerN/SUbI4JNaOCSS9k8YsDRfRSlaLty3epSSQBPCaZjmuJY0m+paCV7F+zWZzoHBziQ0gNBJIA4AbgkkpYfewy+xHbRKjFImvje1zQ4FpuCAQct4KSS2IzHz7OwZ5DU7u1Bho4BJJeT5Z6T8FzRkvWuhdMxtNEWsaC5oLiGgEniTvKSS06T3Mo1PtR0zArgkkvQRkLGrnP2kPIon2JFxnZJJJ9gPC5Gjq9PnKFY0cEklgLywtHBR2RwSSTAYNHBVuaL6BMkkxoWyOCcNHBJJICYaOCSSSBH//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhIVFRUXFRcXFRgWFRcVFRcVFRgXFxcVFxUYHSggGBolHRcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAEBQIDBgEAB//EAEAQAAEDAgMFBgMGBAUEAwAAAAEAAgMEERIhMQVBUWFxBhMigZGhMrHBFFJictHwByOC4TRCssLxU3SzwxUkM//EABsBAAMBAQEBAQAAAAAAAAAAAAECAwQABQYH/8QANhEAAgIBBAADBgUCBQUAAAAAAAECEQMEEiExBUFREyJhcYGRMqGxwdEU8AYjM0JyNJKi4fH/2gAMAwEAAhEDEQA/AHgKwmuiYemEYLPIqInIGZMqkyE8q44HD0rGSJNU5FUi9gUxqOPCtESSAqlqtEhJC+RuacROi6FRmXgFMuf1OQUGWTKZXjPO5HD1OeiWzrAZqpo3kdV24BVkT8X6eu8c0d4KPPBHPomUkAEnkTpCNnaQ5rmNEfUb1NlUxtFKgGyT3pkK2LawZKsSUiqjzWiLM7GUMa5yOSCmxJbGK6mC4U5MZCp1KpMtEj3H7yUxhiKlCipYJ0UK0DTyqqJSQM2ZOiBVLKubCiLJEjZVBcOam2ViHMYlQTr41SIkkBTsVoshIobSkkAC5Ko3SI9snXBkAJJxEbrG1+HNZJZLNMY0uRDNXl9zIDr4W5YbW1NhxFslOxiiaQE6C27cfXO66gsp7x5yvi4Xvlv/AH0RZwTSykjxtBA5G4Pkkk0FBT4za7cxrv035a7lxwO5ocMxfpqOXNMpUK42cZHhtvG4hWTsRcMZ0kqBRMbRvShskXopCtg06pEnJkKNtiVRMlXI1hcEbHDWBLZxGYZJWFC6RqRlCuyWg2UkobTQiWNFIbaCVEqdMDgDByNmaUCWG6RsRRCIadI2VSGVNAlHQUGIo48QnQjB5GKsSMiMn8tmK4DjpnmB04pMk74R0I1yKZmd4cgfU+pz6KLKAM9ATqN2/T36+xXBF00Ftb26fRdZ1HI23Iy+i4I+pKW+TgeYyz3qbDQ1jortJDbE8vnc+XkuOoGq9l3BLWnXKwuRqN66wAIphYNsbHLMWs7jbVNGVcitWBElji12RBz/AFWhO1ZOxrSy3QYbDFyA2VkJkKyBGaawUE07ihuHURvT6JdwdpyZqFhoWTogB7rg2Dd6iehGBF0yBVYwKSS5QKPHwWtCFmScQqCJAzuNB8ECU5IaQQrjmenNguOBWSgpkxWQx5p0yTXIg2rtMF5J10A1HukGG2z2DBz1cplEg6GnaRxulGoqqNjscLEDNCjqQsh7OEPI3cf3+8kLZ1Gp2dsJm/Pz4plGwNj6HYoAFk3sxXIoraFrbggZg5+VkrjRxl6rZ7cReL4uuoJ1H16JQiftdR4RHKPyu9Lj6q+J80RyKuRZRTKrRNMZCdAJzvkQFrHIDJBtMxAqkNIAhYaJvCAKF1XEihGgHAmFE4kRPZiiMs2SVmqEbBGuJN0tjzSSD4ETBkGtI1BmVjWFiAoU3JcAD2k42yQAJoZTfNMKdnqbXPI/VEmzCOmLpASdD9UkmcjYUkxsM92ii2aIhcNU5p0QsYOFaTbJduOCoqo8DfzXKRwXHWvy8LvTJHcwJIf7OryQCbjrfVUjMSUSW2arw4uGaE5ASM9TyscNOXTLLpbJIcLO3TcNKzi6Vo9GvJV8K94jlfBj6Y2V2iSDWvS0MdMi44vgmQKRG9E4lBlUhvACkDRe9qYVgk0V0BGD/Y0bJ0YFtVdMe/sota6/RAdTUQiNiNEZ5QqIWQMsp2M6N6DItjaGRAVsIxrqFB5yjQLE9UV1AsAc5chWZIQETFn4rem9RmwJGuo4zlyU0iyG1I9l7OCakUG7KaMjI2PNdtByiMDGjU6FCgjelkiOnyT0hGmXQxDFpdp4a9bXzSVydZTtZl2nDnlpogxTI0tcGGxBvc5e3v8AUIxCQ7c1uJsEY/FIf9A/3LVhXmZ8noZQPsrE0XxzIUEk6fJdQEyVJLmlfBaJo9mypGVQ9geEgzCCURGdbGikSbJ90iKfIaeJcuT6HIxjC1MjFOdBkbETPKZc1pQZNyCqcIA3DOEIUDcEtKNAcimd6NCOQtqWXXNAsXzNAzdkBmTyGZU5OuR4R3NRQpmhaatrmfC5pIva+Qtu8lJtN8DyhtdBFdtF7TgjBy1KTfFcDoXu25I05+7gPqmTTQLaGmz+0D3EDCRw3qbyJOkOmETbYfEPEDnuCXfzyFsnRdrWg5sIPMZeqsqF3Gv2D2ujdk7Lgc7JlJCtWaSUNkGJp1GRCWSTAfP9rUjnVJDRne2XHf0Gil0GgXtFsqSKQd4212DAb4gWjLXjxHNa4uuCUomfqYFVSJtFDWqhNnX5LqOsvo9UsisR9ROUmXQ8pnpUgsNjeiIwuFyYk2X3RAfJsOaCPckw6miXWYcjGtPToWZ2FtpVwKL2UaZIRl8cVk9CWWYF1HWUTRrjgd8SRhQBX012uHFrh7FSyK4srie2aYi2dH/MA3MaQDzNv0WeJpzcuyralA9xNr216pdrTtE78hVBsh7S4hozyva1vJU3tqiezkZ7EoHRyMDjfxfNK0nIrA13bPY2KKMxixt9EMkOUDs+eDYUzXXOLXMi4OvJW3qidGj2XsOpccTAC37rzYkcnagqDXoOuD6d2Yp3Nis8EEbjuVMSfmc2Lq17YJZJXkgYg0EC58QvkOORSSag+SmODm6Ql2hTus/FI6Qd+50bnamOSON46WBA8lTE3yX1TjJQpVSp/MQ1MCujz5IVvbYrREzSKi1MDzCaVqSSKxY5pVFl0xrTvXUMGslTUI2FQzIpEmy/vkaAfMGvuQkPZmxxQhK2ZJjuBuSWydBsLEyYrD2RZKqRORW+NUSIsrc1c0AGmekYyB3OSWMkUvSvka6EzosBPO9xzBIBHIrPLo0t2rIirysVPeNRKPNdYKLtnUpe+9tCPVPFNnH0mroA6FrrXsN3RVnHiyafJjKi7XXGo9CFHc0U2jbZm2mgeIAFMpIVwH9NWh4uMk24DjRHaVIJWCKwBdIHFxF7YBr6ZeaE47lQ2KW17hDtwN8DGiwawa63IFvYBMlQW3Lkz9VCnROQmqYM1eDM00DGJVJEoxZLJDRYwp3KLNEWHQ3QHDWXRTEZLv7J0SZ37XzRoWzCQtsVE9aU7Hmz3pGRbNDS5hKKH04TRFkMYxktCISKpQqIkweXRcxRRVPzUZMpFEWC6nZVIuESKA0KdpbOdiL25jeCcxYajjkpTxu7RSOVVtYrcy5WSS5LJhUGQzTI4Uz7UljmNjZovuN/W9k25pHKSQ/2V2urTgbAwSAOAde98+AHvdGOZpcguLZo62nu4m2EnOw0F87LmFPgSTU5DtEh1mu7PxHDcqseScmRk2u1s7gXnwFoDd1w03Pq4+idPkpGPuWK6+q7yRz9MRv0Gg9rJhRXUlPFCMWyDNWiQkUSxqhJoHLEJAiG0zFJsvEa08amyoUGooDB5wnTJSQJdNYlCt1Eos17icTC0pGcmOqKVAYPhnzTRFl0Mo5sloiQkRfIqE2ipwulbOSFtTAoTZWKJQssp2UovCpEWRCpHhd0Kp5E/Myl8158kaokpJrIdBFz5Y8Xjub62t7cUydnbPU0PZOughcQHnPQuAA5C/6orjoXZwbaKqZL+ZuvRFtMHRXV0IyNkrRyYzoGgBUgKzCvrMT3O4uJ9SStGw5SJ9+htDuA6iRMoiuQEHZqiJNkXuTk5FYCDBEOpQoyLxG0LclIqi6yZHAtQEUyckB2Tky58Cmy5Q6BKwhFM2yAwWwIoDCQ5WiyMkdZInsSglhyStjJFUjbqLKpEDClCDuFiqRFZGof4HdD8lV9CVyZNslnWWBmlIhVtxeFRkrYRWzYcRdd0rgfxAOHlktUZquwbL7G1F2Tgdb/AO8GO4tZn6Xz6I/U7bRoKTZzqR7Hx1BmYbA4m4bjfkNFGXD4B8zZmpDmXRsWiivrMFPI4ahjj5nwt9z7KuJbpJCS4Vnz9si3uBBSOmpSuIymUvqVyic5FHfrqEsm0EoivkujgKRsKDKdhBUpMtEbQPyU2VRaXBE5gNTImQjAe8REHUzErLA5YlOOtZZA4taETmy8NToRnAzNNYtBkSRsdIsEaUY89q44CfE57g1jS5x0AVIr0ElJIXVLyHVEbrfyrMy3vcATbkL+aWcnyjTLFGOOEvOXPy8jI7RcWnGPMclmb5OOUzw43vqllEVsMk2MJMw610ix+Z1sO2T2PcTcz6Iyg2DlGhm2I9jAMdwOa7a12K2EwzEuELM3G2mjRvJPIXR+CO+LIdsHCKnEf33tHkwFxPrhW7RwufyIaiVRMc0r0nEx7qKah6RxG3ULppylaQbYTQtupsNj6lp0jYyGUNGkYyQQKNSZRFU0JCQomAy1BCdBsX1VUnSEbAftI4ptqJWzYSvUmjVYPjzSi2SL1wQqnamQrZdIE6QjZBpRo5MKjU2iiYWwLkjmwDbG0GQtxPOugGp4m3AIul2atJo8mplUevU2FHSRRtBizxAHHqXA5jPhyWqMUjy5pqTUuz5121pTDUPlt/LqMGe4SsABafzNFxzBWXNGpX6npYZe2wqPnC/qn/Blq1lwsrAIi4sNheyVM4Y0O0nbilbfkOopjGLbUrdAl3s54xrRbefIMDzhF8yNbcEfaWTcKNh2ep2gYw21+OqpjXmSkzPfxEmvNGz7kd/N5v8AJrfVepo1SbMmo5aRlg5bTKD1clgpyYwuDrlS7HQ72a1TY6RpKFmimyiQ6hiUw0XGNAYDqWoUFGd2mUaA5GZravcrRQspcAP2lUJWz6d3d1LYaXIg+BB4xN4L3DgeSnKLDvG9MzJNFAcicjVRIWypjUWFMnJKG5uIA4lSkuTRixzyvbBWxRX9qLeGFt/xO08m/qkeRLo+h0ngX+7O/ov3MxWTueS57i5x3k5/2WXJO+z3lCGKG2KpGy7AdqLAUcx5Qu/9R+npwWvTZ792XZ8t4xodzefGv+S/f+TV7YomTRujkbia4WI+RB3EGxBWmSUlTPAx5JQkpR7R8s21s+SmdglzYTaOW2Tvwu+6/wBjuWDJjaZ6SlHKt0O/NfwIq2K6zS4F7Ae7XbjqaDKaU6FJJlFIdbFY3vAXZ5roRJzs+sULxhaABotUWjO1yYHtoL1Up4YLjg3A2zhy+RW/Tzr3WV1Ph8/YRzx5T7+BmxItrZ5CQBXTKUhkiiE5hJ0NQ/2cVJseJptnOU2VQ/prJB6LZlwaFtXogAzO1Xp0TkYyvPiV4kmDpgH2NjFXYK8ha2Fc4C7yZplKUB1I6xllPbQ+4i9qJ1i6vrmxanPh+qSU0j1dD4Zl1PvPiJl9pbRMjg5xsAcgFncr8z6zDo8emhUEAkrNLJ6HoFTgpEciKXhFOuUZpI33ZPtiHgQVTrP0ZIdH8A87n89D119HDnU+H2fNeIeGON5MK4816fL4D7alI17XMe0Oa4WLSLg+StJWeJCTi7XZ84252Zliu6EOlj+5rIwcvvj36rFkxWboZoz/ABcP8hFTgO08+IPA8FklBplWmuw9lLbNJXoCwujhOIIrsaTVH0WgqxHC6R/wxsLj0aL+uS0RJwxPJkUF5uhB21pXRyxv0k+zwuf1ILXeV2nLmVucaSPo/CZxnilB9bml/f1MxU0GNveQC/3497T+D7w5aqsMtLnr1PH8R8FcJOWHr0/gzk5zT3fKPB2tcPstpm5oCMd0JSSHix7RyKTLxHlLUKTKoKdPdcEAq5ERWZjbD8iniRkzHzuuStCIlOJE4+5MhW1mTcEsiSsKZJzFJoqmL9o10cLcUjrcBq5x4NG9Z8k4w5Zu0eizaqe3Gvr5Iye0O0kjzaMd231eep0Hl6rDPUX0fYaTwLBhW7J7z/L7fyJXPJNySTxOZ9VCWRs9pJLoqlbcIQ7FmrRNK0OcISiTjZW5qJmlEpfGuJOJpOz3ax8Nop8UkWgdrIwf728teHBbMWpriR42t8LjluWPiX5M28UTJWiSJwew6FuY6cjyWppPlHzmTHPFLZNUxXtLszBMbvaWSf8AUZk7zGjh1ClLGn2Ux6iUOO16MVy9mp4gcu+Z96MHEPzRa+bb+SzzwNGmM8eTp0/R/wAiuCQB2XFZ6KSg49o2Gy4vtD4qUZgubJN+GGMh1jwxODR0utOGG5lsa9hilnfxUfm/P6Ij/Eo2qxw7hn+uVb3yej4Gr07/AOT/AERhgcD+XzG5QXuSp9H0FKcSe0KOOYAuOGTc8Dwv4CQceeqrtceY/Y8XXeFxz8x4f9/dCeejdE8sfa4ANxmCDoQeH6JoyUkfG6rTTwT2yX/sMpEJEoMc0rlJmiI4pipsvELQCCVC4WRntpsuCrRMszNT0hvoqKQEnRV9kPD5o2jqZ9wYV6LR5ykWYkrQ6kJNv9oWU4wiz5SMm7hfQv4DlqfdY9RnjjXxPd8M8KnqvfnxD9fkYGrrHyvMkjsTjv3AcANw5Lx55JTdyPt8OKGngoQVIrDlMr7Rkw8cR6rtrKKS9SMrxbX3TwTTBKSoku7HUl0eSPsY8QgJKJHu11knAjgRF9mHbG2pNSvxROtf4mnNj/zN48xYqmPNKHRl1Gjx51syL5PzR9C2N2xpZrNnHcP4uN4z0fu/qAW7HnhP4M+d1XgWfFzi95fn9v4NdDs9hAfG4EHMFpuD0IV6PFlCUXTVMzXbXZsJaG91eqkOGDBk9z+LuLBqSdAoZccXz5np+Hylbc3/AJa/Ff7fF+Q/7IbBZSQ4b4pHG8r97ncB+EaD13qmPGoIhrNW9RkuqiuEvRGC7ebQbLWPDSCGNbGTxc3E4+heR/SU7PpfCMEsemTl5tv6f2jKzsu2+9uvT9/NJkjuiexF0/gVwvuC3923/r68UuGdqmPKPNhtVC17GtccwwODt4BGd+IHyXV/uR4+t0UdVCSa+XwYHHTFpsVVcqz4aeOWKbhLtB8DbKckUgxnBJZSaNKCu8XBKpM0BWAT090yZKSsHds8cF1jxic/+OHBEO03i9o8MVdpdrinixCxe7wxj8W9x5AZ+g3rPqMyxQ3fY9TwrQ/1ean+Fcv+D5w55JLnElxNyTqSV89OTk7Z+hwShFUuuvgVvkt14IKNgcjgY4kYjbkEbS6Opt8k7NAuRdDcwpxStl7WA6aLt0kalGDSaPGKxvcoKb8wKHNkwU0lfJQ8kGPXXbTqPXR2nUccLoNUTyRtcHQUatWgp7lZfQ10sJvFI+PmxxbfqBkfNPDPOPTM+XFDJxlipfNDSl7V1TJTP3gfIWBmKRgdZgN7Nta2ettcrq0dQ29zIz8L008ax7ajd8Pz/Msre2FZKCDMWg692Az3GfutCzNi4vCdLidqF/PkStNlWL4PQova7xA7iP7EJkI1xRTI3C7LqFnnHZK0MnuXIXWSZskb90f8eoKpe0jij3Fk4HAi33dObDp5g5eiMHTo+a/xBpOtQl8H/JbGc07R83ELDgAoNGmLLI5whQ1lwegziNkoKLmRLrHol3Caw0O+9Xu0fPUfN+1O0e+qXZ+GM923q0+I+br+gXha3LvyNeSPv/B9MsGnjfb5f7fkKHy/2WJKz1HOyUTbEE6n26Lm76CvdZMyeMBLXAd/+Yjrf8wXB85I9s9+WE7ifTVGQdLkpbSVTLYG2ugSxGy5HGPBdE67QVTlq0aMct0U2SsiqkuCh5CqYTyajjqLVgI6Hr81KL2y5J/hl8w3Z+zXy4y0sayNodI+RwZG0ONm3dxJ0AG5M8TbdEtRqYYaUk230krY2PY2oy8cAxfCDI/xX+GxEdrnKwJBzCeOnn8Dzl45p062y+y/kKpuxDw7+fPE1jWudL3Ze+RrWg5taY7O8WEZX13q0MUl2SyePQcf8qDvpXSX15D6D+Hri6PvagYT4iGxPHhGHEC9xGBxxCwIvrlkbaIpojk8f91qGPn4u/8A6ZjblB3Ez4Q/HgIIIBtZ4DgM9bAtzCEfNeh7Oi1Dz4Y5Gqv9gR2benyKeStGjpl8YDmGMagXHXePWyk1ugyTuMlIqoX5gdR5HP5geqXDPckzN4thU9LkXwv7BbslrPz8rqKuw1UZLkrFkIaxK0VsMjrEjDQXBNcpR0htC7JAaid1xwHtXafdQvk3hvh/Mcm+5C9rNl2Qcjz9BpPbZow8vP5HzZvX/neV863fJ93dLgsgbc4ju06oN0h8a82TkfmEqQZS94orH2NxuTRRHNKnaCQ69z+FJRfddv4FNM+2fNNLkljlTs9WSroo7NOwygfdqpjXLRu0s90AiyDgjScS3R1HQqJpg+Z6yNUGzhUpqwSVqi5tU/uzFiOBzg5zcrFzRZpJ1NuGieM24USjji5rI17yVWFSbbqX2DqiU2II8ZyLdD1CSeSa8yX9Dp4u4419jjtt1N7mpmva1+8de2tr35IxzTvsZaLTpUscfsU/bZTe8shubm8jzc8TnmVqx5G+ynsca6ivsisOzzzvln7fRUupWPSS4L6O189Nf7J26VE8tpcEO8wvxDjdT/DIbbcaZ4WbJfdiB8rg/JZ4PZkcBJx9picX5pr9giqmsF6Fn5s0IKmru7VLRyZKGdK0OmGRVKm0VixjS1GaRlUO4KvJIMWfaxxRCZjtPV4mxxjeS4/0iw+Z9Fp1mS4qJs8Iw05S+hnz/Zece5XNFj5A2wS1Y0p0V1JzKMSeR8gzpsQz10KeqI79y5L6aXwu6BK1yVxy91nWvyz4rmBP1O17gBYZkoQTsbO4pUiezJLOtxTXTtFNJPbKvUaFLKTZ6x5MkwnkaRxIORUqFo4QEGk+jk/U4ClgmpfAHF2dTShYxwqO1pnWjwVY2jm0WgZXuPXP0WrcJfkTdJuGX1TJ82BR82QIuOYTZFujY3ROQXw8wP0+ix5f9ZMS6Tv4gdfMbLfZ+btCJ780whMTLmEvimUmhkxlTVCRo0RYyiq+aSh7L/tPNdQLEG0Jbu6C36pM8t0j6XQYdmK/XkGYLu6D3Kj0jSlyV1AyKESWRcFIcTrwT1RFNtclThZcK+CTJLB3l811chUqTIio8OeYuPqjtF9oqLICHG/IW5JXwPBqTPMdheu7R0XsnY+abi43pb4PfjJSVo53gvbeh7T0EeWKdElylZVHk6OPLqQDhaOCm00BxTPIqTDRwtGq5yBtR1cg0iQWiHRzJXVQHWlPF8gZ1x06fVZc/E4grsG2gywW5I/NZMRPYnolZApQnmvsg0FMvimSUWTDIZihQ1hPfFHaDcCk71gbs+3fCOU2hPE3Ql2JH1K5guRKZWxiYRIqmCKEmqBzm13S/oQUy7IvmLBZHeA9QnS5ISlUS+Co0NrWFut0riUhkfBc5+KyWqKt2NYJiGe3motcnoQyNRCKcjVKy2NrsJKU2RlZxVixzyc48i0A4pteYRxR9npHsbJI+KCN/wABlcccl9DHE0Fzva+66pDBKavpHnZvEYwk4Y4ubXddL5suk7OsxFja2AyA2LJWy05vwu8HPkbKn9M/JonDxLK4qbwvb6xal+gpq6V8T3RytLHtNnNNrjfuyItvGS6Frhm/FlhmgpwdplSr5FDyRulbOJH9E2SO9J/IBKth1WyJ+YyQiqWWKaS4Jp8gj2FTY6KSwpWE9HcLgph8D0VE5yCMZTbQbiqd1gV5S7Pu8ki6JuXQJJPkMVwVSIonI9G3Nc2dFEpIl1hlFC0N8RbxB+Sr5GKkpNC2c5EcwrRMWTzRYwJWOlQbSNOp0HzSSZpxRfbC3SWs3gM+pU6NG6qQRFJzStFoTDoJFNo145l5CCdGuLIq0XaGPJ0A8bb8xv6Jkr4Od1wfVodn05qZZ5fHI2Ud3ncRsDGGJoZewtfEMt62JLtnwebU6n2McONVFrn4u3fP5Bda2kqMQfFG9zgY3OAHeC9hbFa4cLC2eoRe1kdP/WYGnFtVz3x9j5vt4h0VJKCXYoHR4jqe4kc0E88LmLNPtM+y0NxyZsbXUk/+5X+woRTN5xSm+GEupxdzRxI9L3KfC/cRnz5NmGU/RP8AQLrRkVuifnMjO1LblVfRCuTjYVFtFVE79nSbkNsIGl4hFciNHWQ2KdC8hGEJjhe/Ow4kLyUfc3bCpHWyCnRaT8ishEQ60IHI7K9FIM5CyX4lVdGGfErF+G5vz/4VukY6t2GQREqTZpxwbDDqG7khp+AM95uU3kQbdl8L0rLQYdBKptGqExhC9TaNmORNzVyZoTI3VVIY8RuVFKmcfU9iUTZX94XOtNHTusALXbTsbe51vcg9Atkav5nxGpyzgnBL8Lkv/IcspoWl7Re8bSSb2AIAIyGW/wBk9Ixe0yNJt9mA7YUbGQRiMAMbUPDGi/hbNDHJbPP4mE9HBZcj91f38T6TwnNKeee523FfWnX6MyYSxZ75xSyS8gSdIL2Wy7hyF/a31VtN0eV4rk9no38aX5ndoSWW+J8PISuNyjJixQVGxZ5MvFFojU7KUSMSZMDimDzRqsZEpQIJ9wu0fVP8O6geKKaKXC7MEGM5bv8AML+YWeWnVcM9bF4w7W+P2FO0dnTwX72jlw73tAkHmYybedlmemmj1I+M6V8U18xcHMe3vIzduh5KVOLpm5Shkjvx8oqjkOYGeVxdFolGT5RS2UlGqJqTaA5syenzVI8GefLOtibvK62coRReyQAZBKWUklwca7Urjk/MqDLok1GyYNtEBugiJ1krLRdDCllzCnJGzFPlBQfmp0aFKmWWuusspECFdcpMY3+yK+JtPBLI5rW93FDck+GaB0gIsBkSwxuzOYz3LbjcaTfyPjvENNqJamePCrduXzi6NDVbdp24sUsbXOa0us9uIgb8N8zYKrlFds8yGk1eRVHG/QxXanaLZqeGwc0yPbI1rg0ERxsfGHWboHF5txwHdZY9TkTSo+j8H0k9PlmpO9q22vVtP8q5MrhWVZD6Gyqd1hbiuu2Qzy8hxsduTzyaPr+i2aNWmeF/iDJWLHD1d/Yo2xHcErdVHybYgiOaWTKQQ1oxdZ5MvFB4gUilEJW2RTDQDMqRYHEHsqbkLsNJs/te3F3BE2MzPYH4cbQ58r3NAwyNcHeNoPQL0MuLi16HlwlXY97Q9oGUMLAbvmLcmF5c4ut4nPfrhB379AvPnJLlm7Bp55XSPmB2s9z5ZZLOkkOJ1gGtuABkBusBzWPL/mOz6fRtaaGyPJHv2uOIZGxuPJJTRd5IzdoCdJYJqszuVI5SsublGToGKO52wp8KTcaHAp7veU1ktpC18t29EHZM8AgM/gSbFbVCwqFHiicF0PxBTn0aNPe9BJfmkou5chMTskrReL4JlVxcxaLwfAZs7aDog5oDXsfbvI3i8b7aXGocNzhYhCORw48vQz6nTRzU26kumu1/foS+0UrfGyKQu3RSua6Fp4lws6QfhNuZKp7SC5S+hmf9VJbJzVeqVSf7L6FNRUukeXyOLnOzJPsOQAyAGizyk5O2bcOKOOCjBUitKUAnm7vZP5GST3TNHsuL+UXcXn0AaPndelol7lnzX+Isl54x9I/q2VVrMitkj54zL2eI9VGRaAzoSs8zVAZ4slIqUSoIKF1Q5MOogveJrG9ma/aH/wCtD/3Df/OvRXUjwH5Gd/iH/jpfyR/Irz83aPpfDv8ARfzMzF8Sj5G2PZyl1P8AV8lzOx9kKhMhMgXTaKcjRDoISFimb4fNP5k5dFMOiLEh0XxoFY9kpUEdPsrRFQZQ/F++ClPo06f8RbvQH8wiLRKy8eixn6q2Dtl8f4TseqlIpLogdUplfZaFxddEhuQCAw/EOv1VGYofjRrtl/4dvV/+or1NJ/pI+V8e/wCrfyX6Am0NCtDPEMy/4z1+qlItEOplGXZoQexSZVEZECnmLqtEtEBRKn//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXFxcYGBcXGBcXGhcaFxgXFhcdGBcYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyYtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAADBAUGAAIHAQj/xABCEAABAwIDBQQIBAMIAgMBAAABAAIDBBEFEiEGMUFRYRMicYEHFDJCkaGxwSMzUtFicvAWQ1OCkqKy4URjJFTxFf/EABkBAAMBAQEAAAAAAAAAAAAAAAECAwAEBf/EACYRAAICAgIBBAIDAQAAAAAAAAABAhESIQMxQQQTUWEiMnGR8FL/2gAMAwEAAhEDEQA/AOXvYhOYn8i17JDIOIgGI0bUfsl6I1nsyVHjFuHLA1aOXPKIyYwyRNROUWHpqCVJ7ZRSJeEpuNqjoJU/DIqRiCUh6Ji3Ma0hcmAVSkSYpJGg+rkqT9X3Er24HBCwpEY7DR7zreASdRhAt3X+RCl5pNbbxa6HkB3hBMNFZno3t3jTmlnRK3MHDn03pOsw4HVg8v2Vo8nhiOJWhCmI4k32CKyBUn0LHsUEa9LU52aHI1QKpijwguNky9LvCZAbNmOTMT0iAitelkNEcJQJSFrnQnlLYWjPNYtbLFrQDcMW4YmhCt2wJ6ZrQg5i0DFKeqr0US1MW0RRYl5RZTbqVI1VOtgxXIiHORGSoVQ2xQQ5bEXImIKhSUE6rUcqegqFqoNlogmU3hVG+VwaxuZx3DT7qpUEuZzRzIVvgrOyeHh+Uss6xNs3Cw5njZS5ZVofjWTPa+KRriwscHDeCDok3tIR8T2ka912klztXE6anehxYhcc/MKWdHTHitAWRg7huWxiKkIqxp92x8k0WgtzEgX66/Dks5m9sh2xeOi1Nr2UkZBzv4KNnHe0RU7Fnx0I1cNjfmghqcqTcJZoXRGdojiDyIcjE1ZavYg2aiLlYlntUlMxKvYmTFYnZaE6o8jUrKswphA5aOegdovHSIUNkFzLxBusWxFyLeyFGZCmGxojGrpUSLkBbCscxNkIEqbEWxKUKPqWp6ZySmQpGbIOtjUa5qmq1qjHNSSNEE1qM02WzIkUQqNllEk9niXSDwJU6RfOS1ztNLcP6sk8Bw1hi7UPPaZi0ssLZdNeaZq8ZbTXY0Zndd3w4rk5dzpF+NYohnOaZNQW35aJtuXg2Q+F/wBkL+1Wa4fE033EtBsiQ1QcO6SBe9uHkpcicTohNPoO0j9Mw56H9luyfg2U+Dl7BiQjsXPcOm9PjaOkksHDXmR90iTe0M5JMVbKBqXa9Ew6YE3BvpyRHUsbxmisOnApJoey4tpyO8c0MmgPaPZZVo16BUzX6X+S0ZIu3i/U5X2OErZqVEiNG9OA2lYlJGJ86hLShMkKyPlYo6oapaVyjqkJ6J3RFuctC9ezIV0wLCZ1iGsWox00lYCgGRYZFeybQ1mS8zkF9QlpKlCUqDGJtKk5jZbPqEpPKp5lHAVqilGRJotuisgUpSsMYgGRIvZowZZEASFaG8I7uZ3JpFutwVC4tKC4nW/FWuggAhaT7zz8BYfVbYpQxyN7lrkcOPiuWUkpsrTcdHPBK65y8N+ifw2oLjYb067BHi+oAO9WnZPZJjTmk1JGi05xa0aEJWU+uq7aFuoQKaXPuYCfEX8gSrxtBsuJGnJa43dVTYcKcyXvxkkaWtoeCnxyi477GmpWO4fWPjdlG7iDvVgFR2g6jj+6Rg2e7uc5m9Lnd5ohYWGylKe9DxWthh2cTO1e3O4XGQ6jU2BKh5JRndYWFzpyUjUU8jS4gh0RaCeYNuPmoHOS4nmSV2enblZHmSVDwcmoXJBhR43q5OJJh+iXnchiVaSvRRmLzOSNSUzO5R00ioiDE5whLeRy0CZAPVi9usWAXh0h5rM6G4rAlzK4gpXJc6pwsWjYUkpWOo0BDEKSNSLWIUzE0TSQg1ibiYhuYjxbkzQiYGRiGAnyy6BJEpuI+SCeuO7MNJ0adPPetJK3KUJ/suCReS5unBcnJC2y0J1RYsGon1LwQQ1jS3MSefIcVfGTMDi0e60C44niuRTwStYC1xab30+6LBjs2uUuzfHX9lLDWi2avZfcZkcwE20vvSUFc1w71iRuJ3qCwfFqyUmOUXjI3kWt5r2qa6N1uC55xxl2UyTRNVeIG1gRayjXyXUfJUFO4azO8DhvKbjg5SSJynSD1Ev4Bbpc6G3G+/VVqSKxVyqabTcoOspl68OD240jgny5ysjoyirTJZFaEjVFIngctXuRHNQnBZMZxFZyo2oUnMFHVDU6eyM4iRK2YtXBbMCoToLkWLLFYiAt+VegI9PTvffI1zrC5ygmw5m25M4bhplkawubHf3nnKAudKUukdUnGPbE2tWFqs/9kJc+Vjs7f8QRzZf+Bv4hef2MqiSOzNraHK4A9NQE3tT+Bfdh8laCFIxWCt2aqIhd8bmt4uINh4kaBEfsjVZgBHnBAcHRkPBaeLSN6dQkvAj5IvyVXs03QUTpHhjBdx0AXSMN2GpnnK5tS021MrMrT4OabDwKPVejineMrJJW9QR+yvFJdkXJvogKHZhkJJqXMcbXDGuv43Co0mIRukc3LYBzgLG2gJ5rquJ7Nw0lMWRAuc2xdI/V5ubb+XRcOxlhZUSjm6/x1XRBQrqyLcshx9YTMGgHIbjdx6n+t6LSsyNeTwITOzOKuyGB2Usu5+rW5hpe2a17dErXuvEbcwvN9SlKTo7eG0lYqyua++d1gOAtcrKExA6SW194ftvQ6Sij7N2dgcXWsSbEeB3X14odLgrC6xc9o5WN/wBlzuMaOiMZPdFlFf2QuC1zebT9eSJJViVtwoSo2faDZrn25E3v8NwW+FBzGuaeF1zT441plFJp00eg95WLZuHVzvJQtHTF7tPPoFacMjDY9NRfXoeF+S6fR8X5qTOfnn+LQzM1QtdGpaSRRlY5elI5YkJM3Vaosx1S73Lmki0XRs4oLl7nWKbLWLyBJTMUm5iFJEmTFkiFfGiRRJx8KJDEmyJYi3YrFIdkvFsmNidPoqOOkYe27U9obNgjIEsn8+XVo6Kdw2irXi0FNDRR8HvaJJbefHxViwjBqWn1DbSHe95zO/1H7KVzcnXXVnSqKObBvbIWDZmQ6zVtTIf4XCJvwamY9l6cG9pCeZllJPj3lItmKIJgkc5/I+EfgjItn42OzROkjPEB5ex38zH3B8rFSNHSMibkjaGtuTYaAXNzYcNVv2wQnVHJK3KXYVFLoNI2/gvGW4IbZL71pUV0bPbcGoUwkbjNIZGvb+thHnwXz1ttS5ZWvtvBY7oW8/64L6RjxGB+54uuX+kvY6R7i+Kxjec1/wBD+R6Hn1XRxy8HPyKvyOUYbUZXeIt+ykGPBzN5gkeKj8Qw6SF2V7bH69QeKBDVlpHTd+xUfUcTvItxTT0N9t3A08EGKZwNr6eKGKkXNxcLIZGA3O5cLVHVGf2WGlq7N6ryliL9BvJUaa5trMFypullysDGnUjvO+wUY8dbkO55aQ7SOa3uN59487fZN7IOElS9rs2RzXXyi5sCLEDidFWq/EMvdZv5q+eiHDs8pkPC3+3U/Mher6OLjGU5dUcPqmm1FGlRhTzKYoszjbM0OaY3ObzDX2JUHidLJH7cb2+LSBfxK7fjmAR1Jje5z2SROzRvYQHNJ0O8G46IOIYXK5lrxzH3myMyiQdXNNg7kcqLcZfQEpRPnuRyA9y6ltFsTTuaXgSUjuOdueK/87L2HUrnmN7P1FOM7mh8Z9mWM52H/MN3gVKUWlY8Zpka1yK0pNr0cOUqLxYwsIQ2PRGlKMLvatoQtnBeMRAGyL1ZdYgE+hCA/wBohaihy6h3zVE9YINhIfO6dZXStF85suhTRzUXES23la+uBVB+LucDY+KPh05J1KdNALdE8uTLGc9FzPa70hGjPYU4D53eYZfdpxPRS2GYrL2LGvkL3EXkJ35jqfAdOiz0ay6SPcR3CPFRlRLM3RzQ4eCjWOf7THEdE7DisrdHNulsxFVkcZ1yGM8xu+CTGKyQ3a78SM6EbxbqCrR6zG8atSNXhkbt2i1PwYou0OGRyxl8X4jNSYz7cfVh4j5rlGKUpYdDdp3H9+q7LimAvjOaM/BUrHcGzXIbZ3vN4O8ORTPldVIn7dO4nP2SWKMJOq2q6MsPT6dCgsYouDb0VUtDMVTbcj+vutYaBbUWFSSey3TmdArns1sUHuGmc/6WDxPFUjwx7YkuZ9Ir+AYNJO4WFm8XftzK+hdiMCFNCNLEgWHIdep3rTZzZeOAAkB7xu0s1vgPurIAeJ+CpPktYoWEHeTNiViyywKBc1fGCLHUHeOCpmLbIyRF0uHvDCdXQPsYpOmU6Dz+IV1stXRg8E8ZuPQsoqRx3F9moKlwb2Roaw7o3fkzH+B24HoqJiWFTU73MljLS02Oml/Fdv8ASXgz5qJ5jBc+MiRlvaFvay+V/goSvmdVUMVbE1skjGZZ4nDMJWj8xjxxIPeB366Kj44zWS0TUpQdHI2rcOVlxDZpk0Jq6C7ox+bATmkgPG3F7Ou+3napZiueUGnTOhTtaDlyxoQQitSMawtuq8Xl1iUNl7iqmuHf0PP90xJUC4be6h5BxC1a+yDkydE9RFpa5oOt7pXHMa9UgdIPaOjB/Ed3wQaGaziehv8AX7Ki7eYt2s4jB7sQt4uOrj9Ar8bsSSomfRnhLqqqdUyd7szmJdudI7d8Br8F1aXDdcwGW+8BVv0eUghpI2n2n993i7X5Cyu8LgqPbFitC1JAQpOGmB3rxtlE4ztRFBJFAD+JPdsbxYsa72RmN/1ZQR1RSvoNpdk26gAQn0qgPR1tFLVxTNnt28UhDgBbQ7tOhDh5K2lizVOjKmrRDzUV1G1Wz+f9PmFZ3ho3lAL2cAXJWajnGP8Ao+u0yRFpeAbsto8cuhVRwHYwzPPZsOh1z+yzoV3Z77DUNYOu/wCCRY8XPZtGupNrC/Ow3rLQsoWyAwfYeJgBmdnI4DRoVuoaaNgtFGPG1gtIouLtT8vgno3LdjKKR76w0PEbngPcCQ3iQN9kyAojaKsEUTZDewc0ZgLlpdoDbiCbC3VBwXFKmV47SmMbNQSTvI4gHUA8iOK2Nqw5bonlhWLEgxXsV2g9UnYyf8iXRkv6HDe2TpqCHfHddWBrgQCDcHUEcVXdvsNE9FKBq5g7RvizU/FuYeapPox2vLZG0crrsdpET7ruDb/pPDkfFXXGpwyXaJZ4ypnWVDQbPxxSvlh7gk/Mj9x5/UB7juo0PJTKxRUmuijSZyfaTCJsKqvXqUfgPP4jNcrbnUOA90nceBUftFs1FWRGuoB1mgG9p3ktA3HjbjvHJdlmha9pa4BzXCxBFwQeYXMcZ2XqMOm9aoHExb3R6mw3lpHvs+Y+asmuVYy78Mk04O10crDFharttLQRVDDXUrcuv/yIeMbj7wH6Cfn52qEjVyzi4vFnTBqStC91iJ2ZWJLQ9FqWrrDfZAfOeGipm0eHTXL875GciScvlusgo32I00W0YpEHhokaXWOgOp6KhU0Rlna06l8gv5nX5XUcDY6K0bERB9RnJu5rXG38WliPIlVSxRKWzp+HynQDhoPJWOixYt0e0+KrdFh9hd8rWHkfvZT9I02AeB0I1DuoKeFgY5i2JZo8sFi4hws4C1+AcHEd063I13KpSYEC6xp/wgC9uXMBFKQCSAxxJu5oGYaaA2Vxjpxw+gR2sVVJoVqyr4NM2lqe27GTtJ22lGbTOXa3aW2BuCRY7ifFdH7O+82CiImO911uq9e+5td0rvg0ISdhiqJCR0LdSbpR1c52kbQ0cyhClG+Q3PIbvgjBvIWSDAPUxvkcXFMMdwaFuIgN69a/g0I0Y2a1bSyZGOfYnK0mw3mwvotg08UlikTpGZWPyG+t9Q4biCOSzdKwpW9lVx3aR1TRSDs8gLwwm4sW5jlLTzOTw0U1S7TuY+ngkhOZ7W3c3QAkNy2B8TcXuMp3oE2H1RaGkU7gLi9i24O8OGocDrw36os1HUuaGAQNsQQ8lz3X0PHqBbwCD5VjVMdQWbfj+S3LErQ5hG0OOZwAuTxPFeSmTghQod7bggt0Oi+bsepHUtTJG3R0UhynlY5mH4ZSu+vncN77LknpdpLTR1A3SNyOP8TNR8Wn/aujgljIjyq1Z2LZ7FG1NNFO332AkcnbnDyIIUiuQ+hDHszJ6Un2bSM8+68Dzyn/ADLp0UhupThUtFIu0SCHPEHtLTuP9adVo6pa2wJ15IhPEJKCchxGjcyrliiOSoaCS3c2eJw3gbjcHUc/iqZUw2JBFuh4cweq6r6VcJeY466DSWnOpG/szvvzAPDk5yrZgZidOaiFoE7BaaMbzYbwOPMcxcbwumUVy8e+1/v6Iwk+OX0UayxN+pHmF6uP2OX/AJOr3uP5HXBCcEw8Jd4QGsicQwSKQHuhrv1D7jcVAUYko52PO9p8nDcfkrq1qc2joG+oUseUZ5qgyXtqGtaRv5WHzRRPkVItmBSMNu42598628RwVijpi3eQQeFtPJUXCgdwv4JF229ZDiApi8OiLmCz23IaQL2cLHnvun4naJy0dTbGvSxUd3pMjZVGmfA498MDmOBvmtbQ25q34jjMEDc80jY283cegHEqtAVDDmX37uQW7ZCNBZg6C5KrtJt/h0jg0TgEmwL2uaP9RFlOYlijIInykXDW5i4a2HE9UHFoNoejDRqR5lees30YL9VWsF2uoqqTI2Zz35S62VzQALX3+IUhjW1cNMzMSGDgT9hvKFPo1kz2Fu9I5LSYq0d2Nt+qp9DtpRVDw11QcxNg1wLATyBOl03ie2FNSSCJ/wCGS3MCQTpcjgOiNM1os0crzq7RFa8KoN27onf+SzzuPqE7V7R08ZAfPG0uaHAFwByu1B15rYs1on557KIqap19Ag0u1+Hus10zLk2FnA3vuTlbj+GxvMUs7GPFrhxsRcXH1QcX8GsCMQqGNzjKG8bm/wAU2zG6nJnayOUDfkdr8ClcaxCloY2ySVBDHmzbNzhxtfcOiSif2b2VEWsUgaSLW0eL6t4XBukafYUyRi2vppO5M0xu3d4afFVn0l0QdRyOY4Oa20jSDf2Tr/tLl7tfRkZu4S292uHI9QqLjeIGOmkbmNnNLQL/AKtEi5GnRpK0KeijEhDikYJs2Rr4z5jMPm0Lulfj0UVhnBJ4jWw5r5y2Up3iZk+4RnMOp1H3V7jc55zvNhvufsnnyb0aKOuxR5gHM7wOt1I00ZA1VB2ex+QZY2NJBNsx3eQ4q5+qvfqZXeAsB8EbvoJIPYCCCAQdCDuIO9cnqtmajDsSjkoml0MpPcvYNbvc13IDeD5ePUYIAzUkkrx7mgkvGW/vHd4X4JuObi9CyjZFfif4MPwWKU7n62/EfusTZL4BicLcUMhb2XuVc50ACrZjlMM8EZ/uoQPAusD/AMVBYPT56iJh3F4v4DvH5BWOsOeeVx3ZreQA/wC0y6EmJw0jmuFr3Co23ZMVdFMRcEMd45DY+a6mxjWgB+73X8uhVM9JWAzSsjfGzPlLtW21BA+4TY7JXooprWvrmytvlMzHC+/e37qU9IuKPlqchJyxtFh1Op+oUTitG2GaEtaWhwjflO8G/eGvUJnbeEipLuD2NI8u6fomjLaA0Se2mBQ08FM+IEOeLPuSQ7ug36HUq04JijpcCqA43MbJI7n9IALfgHW8lXvSDUNdBSZXA6E6HhlaE3s6C3Basnc8vI8g1v2TXoFCforhzVUg/wDS/wD5MQfSZK/1trH3yNjbkHDW+YjzFkT0V1LY6l7nua0dk7UkD3mnj4K2bXS0FQWwTSAS5rNc3fGXczuA3aFBqpWgrqit0GFYbWOjET3QOA70Z3vOnsk3F9+7mpbbzAonU7py55fDGGtJde4B0zczqqFtDgz6Obsy8O0zNc3TS+lx7p0V4xase/CM8ntOYy5PHvAX8xqs/oBUtjNnm1skjHvcwNZmu2x1uBx4Jr0k6VjW/pgib8AVKeiJv4tQf/W35uP7KI9Ir74hIOQjH+wH7pvJizYP6PGWgn7d/wDdyZcrbX0da993BVn0jy3xGfpkH+xqn8E2RqmSwyPqGljXMdkD3m40NgDp5KFxOg9bxOpjBtcyEHqxot5XAQv7Ma4ljxqaCmp3G8kcrh4ty2YfnbyXVwXCHK0kGNoB6ssL/A/VcX2WpC+qhYR/eC45ZdT9F3CEtzE9DccxxW5NoMSoYltDJkfd5yAEnw6LluMYq6d99zR7I5dfFXfa6lyNma3cWlzf5Tr8tR5LmgK5od7KMseB4+IwGSAlo3Ebx4g71esCkiqAHsDpNbHUDKeoXJAVJYPi0kDszDobZmnc79j1T4pi2d+wmNrCOY3NBBIVxpZwNG+Z/riuRbM4817M8QFzvB1c0jeLq4Ybi+jQTa41TJroJeYwN+8oqi8OrrgA7ypMFBoKA+px/wCGz/SFiOsQs1I4OGLx7EaywsSF0P7Jw/jl36WuPmbN+5UpSNvcn3nOPxOi82YprRvf+o5R4NGvzPyUlDGAbcFSK0Qm9gYaktuxzM7OI+4Q3Rub3qZ+dvFnEeR3qTlp7AO+aTrsPH5zSWDi5muvMhFpior+IPhn7s1LG8jh7Dx4KI2jwmKoaG9nLGW+yT3rX3+IVwBe8atiqR4Br/3XsdQ5mjIJm/wkOe34OCnv5Ccwp9hnEi8jiOTWG/1sFc34VIaV1K2JzGFmQG27rqRdWtrZX62maP8AJGPmtxh8TvdkkPIyafEWR/J+TUjlrPRwONV5dnr/AMlZ9otgvXcr2BzJQ0NL7d14AsMwNtequkFPI38uGFniQSiSU1Y7fI1o6JrYMUUHCPQ8A4PqZ8wHugWv0JJ3Kx7V7JtqKY08U0cfs2vuAab2sPBNVOG2/NqT4XUTUSU7PZu483FZy+TYojdjtj5aB8jpJYnh4aBkJ4E7wfFV/anY981VLOaiFjXkEAlxcAGgagDorQ8vfuBA6afVZBBlN8jfmT8UvuPwHFFS2f2fdT1Mczpu0awk2ayTkQN/ipXB8GbDUSVLTLKZC/Ts8oGc333VvpKZz+Gieii7O7b3v8kbm/IKSKlhFFRNndP2bmzEk3LtGkixs3hfVS7ntznK4G7Tu8Fti+EMcS9t2uO+3FQtOwskAPNLlJaY1LwKYpTiRgPIFp8DqPuuPGldncwAktJHwNl1sVeUubwuR81TamJrZ5iN5df4gFLF7M0VNwI0tbxWMVomiY8WcL9eISEuBE6sd5H91TJeTOD8CNJVvjcHscWuHEcfEcQuh7L7YRyFrJWhsoPdN9HHp+y5xUQOjdleLH6rQFNpiu0fSGGVT2uu7dvvfeOitlFWggfJcJ2B2taSKepdr7jjud0PX6rrsE+gLdR0OvzRMi0Z1ih+3PM/BYtiNZywRojY77t6JkUns/T55m33Nu8+W752SuI9k3DB2bWRj3RY+J1PzJW8kdnIgjLnEjqUerZcNcOIVF8EXvYvS1TQTFIO67cUB8xpn2IvGd//AOLydjXCztDzQmYkWDJM0SM4OG8IMyCT4HHN+JTm/EtBsfJAbhku5s0jD+l9/qtQynvmhqDE7k4G3xTzamtt3ZI5RzBF/mp6GF/7P1DvaluPEn6pmDZwN1fLbzsgyCtdvsPBLPwSod7Tz5f9oaCTbaSID8PI4/qe/wCyFJQPf7VSLcmn/tRUWzh4gnxKbGBxD2u74FHbAb/2chPtSl3+a30R4Nn4m+xl8d5+JQW4Gx3s5vG5W76OGHV7yTyBP2WxQbGf/wCIeLgvBhUcernfRISYhLuijIbzcUr6nNJq8m3JawDlXi7R3Yhfql4y928WKKyisLNbqjCmPE6pkZmzWWbqq5XtHaX6qwTOsNVWa/2nHkClmZFYLLvJ5uP1VUrZb1E/QgfAWV1bHvPS6oWHjN2jz7zikhGghWuTcMiWIRIyixoug9dStlbld5Hkq3W0DozrqOBG4qytet5KYSNLTx+R4FKpYspKOSKe1dG2H9JToAIanVm4S2u4Dk7mOqoFdRPidZw8DwPgl3K6ZzVR9C/2+w7/AO4xYvnq/X5LExrO1qc2V3y/yj/ksWJfI/gsEf5b/wCR30Xv/js8AvViYTwRrUlF7SxYgzCmKIWB+0sWKS/YYuMO5ORrFioEHUblDM/MWLEAMnvcVSqfzSvFi0ujE9Teyjt3LFiyMIxe0UVixYiAj67iq/Xey/8ArisWJJdhIc+w7wP0KoGE/leZWLEEZBisKxYsx12FZvT1OsWKUi0RLaT8ofzD6FVR24+K9WKvH0R5v2MWLFiJA//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMWFRUXFxgXFxcWFxcXGBcXFRcXFxcdGhgYHSggGh0lHRcXITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUuLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAIFBgABB//EAEUQAAIBAgQDBQUEBwUHBQAAAAECAAMRBBIhMQVBURMiYXGBBjKRobFCwdHwBxQjUmJygjM0c7PhFRY1Y3Sy8SQ2Q4OS/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDAAQFBv/EADARAAICAQMBBQYGAwAAAAAAAAABAhEDEiExBAUiMkFREzNhcbHBFIGCkaHRNHLh/9oADAMBAAIRAxEAPwCnaCeTcwTtOQ62gDtCJUgWnqmMKNpVk+0iqtJFoDBjUnLUirNPUM1ALBHhM0TRoYNAdGNhheOJwysRcISDzGshwesBVUm3rY6+omzXGZBplXpa2Q+Gm1+hiSlRSWZrZGMxGEembOpHQ8j5HYx3hPDHco+QshYA/wCvSX1VadWnlK5VzFioOzd3vKeQNrEeN49w51pLZD3W1HO3h6H6za9icsraEvaXgtNqQqUVsy2zAfaB8Ou3zmOsQZ9Fw9e7eNr6G1+RB9bSu4nwJarFwbMR5XPU9T+M0ZepNSrkx4k7Q+OwD0TZ/GxGoNt9YANGKWdeSVpFpAGARjME5nqNPHhEaFKpidcx6qIs9OOmTcRHLGKCTw041RSZjRQamsYRZ4ixmjTi0Usjknsa7CdNQNRlqpi1SpC1zEmaMkMwl5wMgskJhGEBkrwYkhAGjpISaJC9nMajympO33ffLvh/BzVHeApnkykMG8CoOnmD6c5XYN0Qgumf+E7evWaejxlMqkIFHIALYcvzpEnJo1sS/wB3XQ3zggHW2/59ZMY0BiH2bS9j3T0ZTt6S0XiVNxqVHLUgHymY9pqnZjMt2W24Ga3gbG5Hz6Sd6jN+pYV+IGiwud9UYG4a24v1tr42h6HG1c5SwGbY6aN/55eMxvC61bEU2FVbUgdGJFyb6WPPz0lji8Iipkp0szuRdh4kczqSfTyEbSLqNZQ4oEqkPoCunjrtr0ljhMV2oJS52tbbTfWfPW4c7BkWtqD9qxOgsdevwjnDKb07K9dmQggBe6Qehvex+P3waTWbHilHtUCMbEHTUHKedzf00mXxlBqblGFiPmDsR4Sy4YCVLK6WB3JbT+ka39TBcexGdaRvmIzC/wAPlGRkyuLwbPBM8A9SPQ9ljTacTFaFSMZoAkDOCT0CMqk1goTajCU6cbFOSWnDYtEKaRygsGixqkIUK2HyzoS35vOhFs+f4iImWdVIq1KFFWwSwlp5knomNFWehYWmkgpjVIRWdCgTRIVUk6awwSLYHAWdIY4VQhFTW/2dreJPLaSRdZXcWxOu2l8o8SNNIGyMkBpU3aotOiAzMbAXa3x0NhLXD+zeesQ7llA+ySAWGrHXZRv8ILAsKGdgRmsU05bFzfmeXqJoPZ27qbj3h3iNLU7+7fq23kpivYWKsbwPCFKOz6BBoOmnIDntD4PgaFLtuACD48h8h8IdiChOgDHRRsBsLDwUQ6V7KevQcrbCJqKrGhGt7F0heopYNuTe9+ZvAp7NK1NW1u6g26nLcfgDuLiXdTGdqOzAIQ+8zAg5eYUHW52vy845XxAK2ttsPkI1g0GIxfDTRpdqneTRm5Fk0DBrbkbg+EDxSggF1JIIBXw258+X4zTuxCrlUMrM6ledmzgac7X5cuUzvGcD2StT+wp7jHc02N0152IZDz7t/PJ7iyjRQO0WqNC1xY2uD4iLPLom2NYd48JX4USyozNBTJ00jVOCRYwgiMdEgsmFnCTEAaPLQtNoOeMYyYjQ7eexTtZ0bcTSZdxBFJMtIEwjA3WLvGXMVrNMVgQzx3DvKtmjuFaBo6UXFIw14tRMOJMEiarM5xMlWFRvs3ygnnfu2HzJ8po1MxfthjCtVhyAFul2HXw6eJhStnLkY7SxhalTUHvMSG63LFjc+QE+g8GUJRVRzGvXp9NJ8t4dqKRG3aDw2Q7D87z6Rg30W21h8ImQOFFtTJzXAHhfl+esbTCs25t5C8Dg6qUlzv5W5kxDiftYQP2aqLfvGTovZpsNhlA978/GMth/GfNcL7YOzd5lsf3dppFxtTs+1sQg1J6Q2A0YwA3B1Gg8PjtK72hwXaUiDa9iL+OhF/h8CZlaft8Q2VWRutz980+H4zTxFJltlqZSVtqCQLkQk5Hy2o5BKn7Jtrp5fK0hngsdU/a1Bt3ifQ6j5SNHedMeDmbLTDNLKgZU0WlhhnmYUyxWHWKI0ZQybLRQVTCwCmFERlNJ4xnjSJMkYUK4nnrPZ7adDYukyzCQYR+rRi7JK2LpFHidVo9WWJVhChk6FWaPYKV8scINJpFVMsqbQ6GL0lhRJ0JKYxeBpYNjUJS2ZyoBKhsuQXJF+e3p5mETp+fjLjgo0ewuy6qOZvobeNhFnwbE05qzI8TwOSot1yEktYe73spNum3wmu4VTJAOU2tyUt9BB4fhXaJVarfPnuoO63Gl7+X1kqFcIAo1bobkeZHPykW7LOHe2GeI8Oera2igWDMco1/htc/naZzG+x9IkdpUxDP1QDLryysug9b+POayhxIWDm46dekt6ePRluw+MMWGUNtz583sut7jNbTQ2FvXX59ZueGYPtsHUw7XF0KXG+o3gsVi0JtdV567QfD/AGioU2y9srcu718xDe4FDumTX2FoK4LrXqD+EoBtbzml4P7Mdkwajmy2sEqN3l0sbHW/kfjLOvx6no6rmTZtPdPW/SWVDitNxpsdrTN3yyemlsj4djwe3qX5Nl9Be31t6Q9BYz7SU7Yuv/iE+p1PzJgqAnRF7I5a3DoI3hzAIIzSWZhoepxqmYlSaN0miM6IINaSvB3nFopdIKs9IgVeSLTCtBcs6DzToTaSucRaosuKuFVvd7p6cj+ErqtIgkEWMYObpp4nUkVtZYjVWWeIESKRkyLQmKMbw6w1OlGaVCaxGeUxDIJNaUKtKAmzwLDYSqqtZiQp0uN1O4I/POeinFq6wVewYtxdousdj6ls3a0yvMnRiOQP3SuQd4tzsbeoiVCkGJBG9vkf9Y5U7pI/NpCUadHdGamk6FauOIqqp6AD0hauOJIBJAvqAbfOBemGOYC5ElieGtXp5UqGm24NgbEeBgQZt0WmNp061LKQLTMpwcI/cRFAOpuF89YShwqpT0rUq1fW+amynQHoWU7crcpZ06mEsFGAxTPly60WGvUsxy+semRc/RMv8PjcOaPZLVplsvuAg+fnK3BVjSRuY+xz1JsB8TEa3sh+uV6VfsnwiU1IK6B3OYkWyk5Rqdd5Z42mKNPT7F2F+o935wSXAiexTe2+GK4xwyhTkpHTn+zUX87g/CVVEQtfEPVc1KjFmO5M9RJdbIlQWkIyogKYhwYGNRNTD06kWMJTgLY0Oq08cyKSNQwHVFI87ST7SJs2sIpmBOI1n8Z0HmnkJKiWBxgcdGGhjl0Y99b+tiPxmVrYrI/aDbZh1BlmuP8AH/xApH1EoQyLTIcxvDl+w3o1vrEH4bVUXNKoBuCUYC3naxjSYwHcy64F7V1MJp/aUT9m9spPNTrbyhs8zquzbjqw8+hmqNGMLTm4xfHcBiffSrTc7lcuvwNj52vMvjUSnUyGoGB1pvtmU9RyI2I3vM9jzl0OSS4al6NfR8P+BREh1pxn9XXkwPl+F56aVhe8xJ9DnW+kEEi1enHhBVRMjm0+TK4U9RI8QY2v6RtgBqfzeBqpfMp8R8PpFn6nRhXKKjCYsg33HOaHhhucvM6r+EzRpFCQRDYbiliOoOkk0dElatG2YeGsNSwVS+7DybSVOA9o6ZGrAdR48iJb0faCkBq49IUc7ZbYWiwBDdOcwftni+/2Y56ny5D7/Sa9OPU20VgxtoB5c5814gxeq7MbksfgDYfKPFWyEtzyiI0iRahGhKGSJXklMETJpMFoKBC0xIIIdRAykCQMFUeSaLsYDpiyLSdNp5lk0SGgSkGzTp72c6aieoxuLqafEfCTwmKJpg810Plygm1DjobwHDW7zKeY+cQ97U1JfEtqWNj1HEgzOFrG0IuIKmEeOauTRUX+wxvzU8xJ4wmouVveXUH8/nSUv65pfmNZYLiwyhhuPyYC8ZpksFjmbuE/tF90n7Q/dP3S/wCGcQDjXQ7HwmZ4lh+6KqaEaxvA184Wqu594desCtDbPZl41MpUOU6HW3K8MtZbagg8gdoq9UkKBv8Ajtr8/SKmmwNmNvKNZCfT45u5LcJ7XaYXD1qQGlV0qW51AVqUrnoVUgeRnv6wKjdouqv3vjr98YwgplalCsbUa62Y7mmym9Ooo6q3yJmbw2IbCVnwuJ7jA3U/ZYHZ1OxRhrfkb+jyWqO3kfP9Tj/DdQ78MuP6LnF4UOPGZjGYV0Oov4zZ4dwRqPXrK/iqjpIWK209jJHfW8ewOHLsFsxv8IyiqTYzT4DBrTsRqCLg2mIzk7GuF4AUabWW3M9dBMq6TdcYrhcO9RtAEufIDX75nsdwsrYr31YBlIG6sLggfmxBlYI0Yud0U9JIa0mqWkmSMZIXMJTM8ZZ7TEJmhqnDwWGqFSGG4II0B1BuNDDA3/NorNwRYQLJGSIGoIUhvaUeKsmokKbQiR6JvIHtOnt50ANRgMK93PiIopKVR4GSwr94fD7pPHpsw5yR9Ddxv0JcQFm+cG2q3h8QMyAxOm/KY09pfMkXNobhuLIVhAlokGKkwk9bg0zS08YWpBeWt4D2c4gKb5W90yuoYmyHwIMV7WzXHOLRZ56cZH0GriNiNNQPz8PnLH3vMTH8OxRekeZUg/AzRYbEswuQFHTczI7IyUtxhl+ydDygsdhqdekKWJUui/2dRCBVoE75CdCp50206EGEqsbA8wflPKmKym1tIU64EzYYZoaZq0Zt8FjsIC1IjGYcbtTBLIP+ZS9+l52y+JhsD7U4esMrtkP8W3x/GXinUMhKMNipKkeRGoi2Np0cQSMTRp1mG727GuP/ALKe/wDUrRm4y5R4uXszNj91K16MUfDg3y2NtiNb+ol3wNWZQHI05X1HnM8vssafewOLKf8AKxQAHjasl0P9QWecF43i6zijRpB6zckAawB94n3VUfvHSK8LfhZ52SUsbrJFpmy9oBfCVqf71NlFzzYEff8AKT4GL4JCfsVXRCeahULW8A5b1JlNVwOHpsDxDGGs/OjQNkv0NU6kfyKPOWmI9o6JCgAU0RctOmosFXoF3ueZO8oqgqs7Oi6fNLKsjVJfu7HcRhww1Av46g+p1ErK/DxzUr4jUfA/jC0vaDNslx4iWNHGI47ylT1GkFpnrSxJrvxv6mXxWFZfEcmG3+kEizV18JpcWYHfTfztp8pV1OGj7JseSnY+TdfCY87N0bXex7r+SvRYwonLSI0IsRyO8KqTHmydHlovWjDGLvHSJuQBYenIKsPTWMxFuEnQlvGdBsPpPlyd19eRliEzIRzUn6yuGqg8wbHyO0tKFu0bobH4gGQZ9LhIYYaWMWr0JaLRF5CvhgeUFlpY7VFMVi1YSzfD79RE61GMmck8boXo1OXXSQ2v1ntShYzw+HKE53a5LngVWzheoy+p2+c0OCr33MxmBqEMDf8AImgqVslQ9Gsw8m1/PlEZ6PT5O6aZqlxbwhHW4BlZhcSGFgpHVjzllh2JFuXKY6/IiKOYW2iNSpY5Klv4X6eo1tLQsF3NonxPDXF95gMqq4cP+yYpU3KE2DdCp2a/pHeHe0TCm+Ha1Es16hChe0IFv2hAvy22kKFIVaZpt7wByHmp8DFMPURz2eIHeGgfmPBuo+kCbRKcIyatFuOFXW6ZTfckBg3nAUsHWTVaVDzFxB0cNUoN+zfTex2I+hEsU4yNqqeqwj0I1+L4lNGRR5bQH+8FXmJf01pVB3WB8DvEcbwe2oEzTCgeC9p3Uy9wnE6Vbayt05GZN8DOo4cqbgmZSaA42bDEUbi/MfTp4+EVkOH406BjrHHoSqZ4HamJQmpLzEaggyIeqkhljnk2DCSaCe2k1WK2XxxJWnQtp0BbSfKqtNkdkYEEEqQeR/OscpPqp/hHy0+6az2m4Mtekai6VUF/5lHI/cZj6OqA9CQfr+Mmz0+jze0Vlspk2i1J9o240vAeohTEU7G8XqUgY+dRaLMtjALKJW1KdgRFmw1xcS0xKSvdShuNoyZyZILzEVJU6zUUVFWlTJNipIv4biUlWmHFxJ8P4h2YKVFzo1jvYgjmDC9xcMljdS4ZbnFm2SirOebBSb+Uu+Htjitv1Wq/Q9mw+6CwPGUqrlFUt/DUZlPo6kH43HhH6WMKGxp5bbHs0Y//ALFNwR/Qp8ZkkVlkyrdLb4borajO5IcFWG4IsR5x7hj3UoT5XlrieI0qgBY6jQhkqPp4Mwpsn9LBfCK4qlTRg1Naqk2JFTJbKealTf43gcaK48zltKLTK5UyvcQPHMCG/aLvzEssQLm4kHa4tAXe5WcKx+gp1bleXVfKXQ4Sri4fN9fUSirYcZriTFV79wn0gMWbcBZTcNbpyjtE16ejLnX4wPDTidMxFuYOt5adqVFufLwjIDbKrFKHBeluN1O4lOcVyIsZpKvDVds2Yh+ZGl5U8TpUad76t05+sDMpWtmD4c16ii+hI+s2lenMJwtm7VCBpnF/AXE+h4hI8Twe13vD8/sVFanFWWWVcRCpKWeOgZElTMheSUwUdMJDNp0jczodJTWQordSvUEfEWmCxNMKx/dqb+DjW/r+M32FMxfH6Fs68w5I9DcfL6yTOns105L5MRQywwLhhllZSe4B6z3tShBEQ9xSrcsXSxkKiXjSMKihh6xcixmKNCFU6wZAIsY26BriKuhG8JCSEWBpte1xDNhA4zIfTmIWoLixii5qZuhmIuKXPB4mE16GXnDOIVUGW+boNyIpTx9JxaopU/vL+EZoYDXNSrrfxNj85iuOKW8C5ou5F6rZV6RXE8bQEKASBB/7LdvfrA+oj9GjQpizsm3gT8oC+55/tdWXQWnuGRm1tpFu3wiG4ObwAv8AW0Lh+I1K7rSw1K7Mcq3sST4DYaa35AawrcDnGCuTCVeG1D7pBHr9bSwwmCCDW1+ZJEtsX7ErRpCpj8eUc7LTXML9BfVvQCVVT2VqrSGITtHw5FxUZezYKdi1PMSF2730jaGjlx9o4Juk/lfA0cUq7G5kaT5jrK9KFt4zR+MB1vc0LgMLWsABodDtfbmOcz+J4Ooe/wDrLbBYzuMpudFtfbRtvQGRrb6/OQxbScTkwXGbixfhGABqoANjmPkuv1tNLXWL+zuF7rVT9rRf5V/E/QRyuJ0ni9pZvaZqXC2/sqcQJW1RLWuIg6xkzgoSInoMOacEyyiDdBc06R9J0JtR5SMzHtmvfW32rfh9wmhVpSe1y3pq/wC6fqNPnOY7ujlpy/PYzKDuXHKHp2dfGC4XrdTzHzgrmm3rAe8n3UwuAxZpPY+7zmgemGFxsZncbTuMwh+DcRK9xtph8c9L0vgNWUqZ1ww1j1amGW4leVsYB5KgTJaDKjnDlusiyTE2gBoAwZoldgYUgjaeCtUHK4hJtIYw9BKmmYhvWEPB253t1i1HEOToAI/Sx7jQzDrS+TqXClE+j/oj4epNetbVctJf4QwzPbz7o9JgRWZtx902/wCiviYSrVw7GxqWdPFkBDDzy2P9Jj4/EcfacX+Hen4WUftpxFq2LrFj3UY00HIKhy/Mgn1m+/R37SNiUajWALU1WxsAHpnu6gaXG2mhBEpPbL2LrNWath07RahzFQVDI597RiAVJ106mXX6PfZmphQ9SsAtSoAoQEHKoN9SNLk201taUipKR5/U5Onl0sUvEqr1+JlfaDhy0MTUpDRQQU/lYBgPS9vSLrlAnvthj+1x1VkN1XKlxscgsbct7yuXGgbyT5Pa6VyeGLlzSLPD1CLm1x0vC62AG7tZb/xGVaccpjcaQ9ZTVC1WzKAQygXvpqLjnFUVdlNC1WuWb9FCKqDZQAPTSK1jB4LGdrTDjS/XS/j5T2oYzPkpxcZuMuRGvFXWM1zFXaZMyAuYGEqGBzSiZmgt50hmnsexaKztZV+09T/07DqVHzv9044jWJcbq5qVv4l++RaOjpneWJR0XykHpaP8UpA94c9YgBfN6ywwT56RB3X6RD6THutIlg6v2TF8VTKm4k8QmU3EJVcMt5iclap+Q3wTiP8A8b89j4yxxVCZVwQbiaXhGPFVcp94fMTFcOTV3JcilQQTNpLLGYfnK2otvKAaSo13tfwuitDA1cPRCvWUKwQEZ3KUyvdvYEktsBvBca9l3w70KdN+3xFUXNFEsVsO82fNbIDpcgc+k0/A+J4RcBh61V1Z8LTuFDAsr5eztl3zG9h/NeI+xeKq4gcRrLb9bdLU9fdGRsirflmAHmBeXpM+dh1GbHHu8Rf72zK8R4BVplswUsgzOtKolVqa9aiIbqOp2HWK0nAF95qf0X/rKYtlVXWnYmvmVhZh7ubMPfuTpvq14bg/A8IrY3GV1D4ahWqJSp7r3W10vZgCwVV208ouiztXXvFKUZ0+KrzvyKDhdCpXrJRQqGc2XN7osCbmwJtYQmNpvRrNTewqUmsXptoGFiCrWB59JtvY3H4LF1jUpYVcPWoAkFQqgo4KkkJYH1Fx1mb4d7MnG9tjsRXXD0Gq1CpIuX75F9SAq30ub3IOnObTtsBdoNzl7VVGqp+r/wCFzwz9KJQBK9PtT+9TOUnzWxF/K3lO4z+khmQqq9gG0uTmqEHpYWX5mVPGPY+pRw9TEUMRReiiZwwBV2A3AAzC+1u9Y35RwcNPDuHPWq4alXruT2jNkbske4QgsL6d3ugbt4Q97zOaT6NNSgrd8bpfyZqniGqaU+6vU7xpBh6WtSpfw3lDV4bjFpCo9CslLTvlGAsdtSNL+Mng6e1qSk9ara/DlJ00e3DPGa7u5eHj+DBFqZJ5aCNYzHdumRAaeoN+en0lW2HSmM7hQ1tAp06ff8YPh9cnZgT4mw+HOYvjVvc2Hs1WrDuVKmddluNRboeku6rTKcLxVWk2Z1V0tYsnvKD4dJf1q1vI7THh9rYdOVSSpP6kMQ8RqVZ5iK8rq1eE8xDbVou1eL9rBPUjIYf7edEc09h3FoqHi+O93+pZ5OmfBTpffRK2huPIxrg32/Izp0kfR4/EgWMitHb8+E6dCLPxA6nOH4P/AGq+f3zp0xOPjRqMVsfOU9X3TOnQI7shXUveT1+k3X6Lv743+G31WdOjrlHk9X7if5fY+xcV/s/Q/SfJuB/8DxX85/7qM6dKy5PFw8fqj9z39GPvYv8A6cfV53Hv+A4Lzp/SpOnRV4Try/5f6oh+Hf8At+r5t/nCWXF/7jhf58L/AJtOdOjLk483vH/szdcZ/sa/+FU/7DPm3sJ/dU/6wf5Qnk6MvEaPuJfOP3KHjnuYz/HX6mUFLcTp055n0XReH9vojXcE970l0P7FPWdOhXBbtP3D/IrsREK286dMj5ciYFp06MOezp06MA//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExMVFRUVFxUXGBgXFRcXFxoXFRcXFxcXFxUYHSggGB0lHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUtLS0tLS0tLS0tLS0tLTUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYBBwj/xABOEAABAwIDBAYECwQGCAcAAAABAAIDBBESITEFBkFREyJhcYGRBzKhsRQjQlJicnOSwdHwNbKz4RUzNEOT0hYXU2N0gqLCJCVUZIO08f/EABoBAAIDAQEAAAAAAAAAAAAAAAIDAAEEBQb/xAA2EQACAgECAwUFBwMFAAAAAAAAAQIRAwQhEjFBBRMiYXEyM1GBsVJykaHB0fAjNEMUFUJz8f/aAAwDAQACEQMRAD8AzEbVO1i7GxTALmTkdJRIQxSiNSNapA1I3GbAUkSibEjpGrkca1YmxORbCpoVZQwLlLErOGILfEwSB2U66+mR7I098eSIBFBUU6rp2NbcuIA7ckft/aTYW2GbzoPxKw9ZVucbvJOeg4d3JDQfFRcTbUY09UYuF75Xy9nvXY9uZZtF87ezhftVCA0YSdCRx9/JNlqRa4sL38D+grpC3ZqGbeGV2Djxtp5jW6Lg2zA7IktP0hl5rHNqNRlYWGmRJFh38VE2p5j6o5hU0i1Z6AY2uF2kEcwgKmnWb2dtV8PqnIkEt4XvmPJaykq2TNxDI8Ry/klyjQ6EipdAutgVq+BcEKiNCmVhhTDErN8YUL2q2hsclAQbZERrj2LsDUHDuE5JoJaE8hdDE1wRpCLQx9kNM5PluoQox0GR4iuKbCkgodxEwepYwoomo6KNIeOxLnQ1rE5wRLYkyRiHuSKdgjipIymSMULX2KKMaLkrRbwPVjA9UcMqsaeZaoswziWwcoK2pDWOdyBKiEyrt4JrQPz4W8zZMbE0Ymvq8RL3ZlxVd0meYv2ItlOXutlbs0/mtZsfdWMi7jc2SJZFHmNhjczCTuBOQsCosJtb9XXq8m6UD22tY8/5IWTcyC2RIKpZ0wngZ5oYja3aSfcPxXHMN1v5N0A0jrXRTt04i23FF3qK7qR51E0DXMo6gqHMcHDh2rXO3IuCQ5Ue1tjuhLSb28lFkT2KeNo0LJA5oPMXXVW7PlswNvpl4cEa2RWmEuQ4qJ7U8uUUj0YVkZYk3JcL0171aRTkFteE5AskRUTkVAcRyWNCFqsXNQczUDGxk0R2STv1ouoaGd4FU0SsYoUqeBHNjUigJvcGwJj40YWqGUK2ilIrJmqvk1R9S5Vkr1nmacZNG9GwzqpDlLHIpGQvJCy7bMq/eST/AMO/vb++1cilQ+3DeB3G1j5EFOUrMjiUez5bEj9Cy2myqo4RzWB2azFIBxdnbvK3mzqUtAGRWbO0aNP8S0bWkJ4qw5djiYPWOa63o72BsOfNKimaGRulunMltxTZ7DQLscbTqiKCoqq+QPeqHe54dGQNfwAKvI4WjRyzW97CIi8fJP8AI+9XG7AnVMo2y5Dt/IKeOdVTXmzQeAUrZVrozRZZmdRPmQXSpdJ2qbh0gkzJzX3QDnoilcmRFTLKCG6sIYFFRBWkTEbASBXRId0CtDEuGFAxqKv4N2JK06FJUWPicE8yIRsiYZUCYUohrpEPUSqAzIaaZW5AJA9VIq9zlNUPuoQ0rLN2zZj5HAU4PSwFIRoaYTVkkb0XHURhpZKzG2Tqd1wcx3oNrURStu5oPEjz4HzR70Kikp7lbsnZ+CrsM24XFvde3nmtNtqofFGCywPEofZmzXskEkh+WYg22ebS655DqgeK0NVQNlFnC4SpSumFwcNpHltVt6a5OM6p9HvDKXDE64Ws2rukDfCG2Ofd3WVaN2gNWjLyTeKNchXDO+YbBtRzmi1yqfbW23tNg4t7tVtd3Nntawi3FZ/be7OKRzg3iRyQRe42SdUjMU21pi4EyOzOp0Wp2nLI+jAda7nsZfmLgm6I2BuwAA17BhvfPO50Vrt3ZmCKJrB/ett4g3PgLlHKW+wuEHybMZtpkTejEeuE4zckF17C3K1iFW9IpKt2JxPDO3dcke9CuK1RT4dxGRrifDyJOlXelUAuuOUoqwlr1YUap4yragKZFC2zR0DVdwxqn2eVeQEIi0SCJNcxEtIQ8zkDGoiwpJmNJCXRRfCFwzIBr10yLMpGqcAl8yHkkTHOTbqm7AUBWupGhNaVI1UkOSFZOwqWKJEMp0XCU2kBtYuOCPNOoJYkVCW9y2dXNlbGOtjAZcjS7bm5PNTy1+HJVmxI+s/sYT/1NS2jm6wWacaYSkHGoccyckM97nOA1ubBMp3HQouTExvSMbic3MBUxiLjZsRbr2IbasrmPICzrN9JSQHxFpvpZXLKp1S3EWYMOl9SPBFWxXUfTzEZgpm8dfamcL9Z1mt55kYv+m48U2KF17Kn3pPWjbya4/eI/wAqLHuwJszErUO6NGPYoyxarM9A4YuGNEYV0sUsvhAwxWNEoOjRNOEakA4F7RyWVpDUKjp3I5j0XEUolw2pTZJ7qs6VcM6BsbGId0iSrunSQWHwFKHrvSIZz1G6VDwjHMLMqb0iExrocq4SlINY9GU2aq4bkgAEk5AAEknkANVttg7mVkpGKIwsOr5MrDsjvjJ7CAO0IoxsKWRRW4FBGFpdk7ryyAOcOiZzcOsfqs1PebDvWq2Ru9DT2LW43j+8fmb/AEW6N8M+0q26EnMp6x1zMOTU3yKWj3bpGixjx/Se4knwFgPJDVe5VLISWmaLsY5pF/8A5GuPtWkEXgnzydHG5/zWl3kLomkJjOV8zySSCKOqlhge+QRxuD3PDL9JiYMILAAQLnhqCgXkF3aP/wBQu6Mri97nG5exz3Hm4ua4nxJKjqn2mJvbkuZOXE2d3V6fuZKPkr9S1Fr3UbtqNvhbfv4IF85t4KpqIS7Jr8JOl9CeR5IVzMyvoW8oicbue3EP1krak2iGjIhw7NQO1eeu2ZVE369+AAuPA+avNh7PkaPjJLm2g0A4AniUxxpF8+htekBII0WR2xN0krncNB3D9FW/TG3IYdewC5NlV7q0vwuoEJl6PEzE3q4iTxFrjIIsa3pBY8KnCU5OlHysqyxROatJvBudtCCpbGxjqmN7QRIxjWDjcOu6zCO053FuIFZtTZcsD+jmYWOsHWNjcHQggkEZHTkU5xa5mZ8D9l2VmFdDVIY09jFCyMRp7I0SxilbEoShsJRLXpgjXcCriLUTr5UO6ZOkaojGqtjkkO6ZcS6NJVuFsV72odwRsjVqNztwZawNlkJipzmCB8ZIP92DkG/TN+wG9w6KswTlRkaCilmeI4Y3SPOjWC5tzPBo7TYdq3+yfRmWgSV9QyBnzGObi7nSu6re0AO7wrXbe9lHstjqWgiY6UZPOrWu5yv1lf2X8l5ntKsnqn9JUSOefpHIdjW6AK5OMeY7T6bNndQPVId5NjbPaRTYXu4mIF73fWndw8fBZHavpfrC49DFDG3hiBe7xNwPYsiYBpn+u5dNM0DJo8kp6hdDqQ7DlXiZom+ljaIytAT9kfwcnf60dpu06IDsh/MrLEHgnNY+2tvBU9Qx8ew8fV/kejbvek1hIFaOiPz2glniOBRW8PpcomgxxMlnuCCQA1uf1syvJXsLuq7rAqNuzmgEm5N7E3VrU7bmfJ2H47x8vM0+6spxYQP7t3sw/ki9rQXFxqNEPuw20rB9F/jZrx+Ct612RWFvcd2ov6q9EZv+kcQwkZptRs57hdpuh9rR2JI81FTbdLdddO9MUb3RyZOmOZT1Xq3IHer2goHsbdx/XMqnk26Dn7EVFtR0gsLhp1PPsCJpsrjvYL2nWfESEZXa4Dutr7FQ7sVjo5oJAesx7R/ykgEeRKI2zL8U4dlh4qs2dVshfG97MYa4HBe1yM8yjit0b9G0oTvlR9NxydJG13h5Ki3r3WFaIwJBHJGbB5aXgxnNzS3ELm9iDfLPmptzt44a2nxRAtLSA9h1aTpnxBzVw92VxqF0qtHnbcJbczz3a3o1cyPHBKZXt1Y5oaXfUIOvYdeazMe7NYRi+DTW+zcD905nyXuLX3seafZLcEMWol1Pn+OPMjiMiOIPaOCKawdi3+9G4PwirFVDN0JdYTNLMQeBbrMzGF1ss7jIHnfUw7Kg6LoeiZ0drYS0G/eTmT26oO7ND1MNqPHBAkY16JBuBTtJAlmwXJDbsJHZiLbkd+ar6z0eP6QOhqvi+LZY8R8HMIB8gheNhrNjvmYd8SgdEtTt/dySmcwf1okuA5jT6wscJbnmRcjnhOnGkq6ZzDZ7XNPJzS0+RQOLQ2M01syuwJKfCuIQ9y23G3ZbVSmSVt4IiMQOkj9RH3Wzd2Fo45bP0i7ckpqCV8RwucY4mEfJ6R4acNtCGB9uWSutj7LbTwRwNzwDrH5zzm93ib+Fl556adqj4ikaesHCeTssHMjae+7z4BP9mJgxrvcqXmece8olzrHDx1PZ2ISmfa7zw9p4KBsh1OpzXPlJt2z3OGEMMeGJZCUBSGW6qRIiY5FQ+M7CQFx9Q0ZJgeonwqFtvoPuNQux5kg6nX80O5pbmF0uDhcZEKEUugfTVj2Oa9vrMOnZ+r+au46sSjFx4jkstDLx8/zRTK1zSOSFox6zSx1EbXtL+UWlaLtPtWTnjz0WpqHAx4hxVOaUuIsEUNjzE4tbMr2U2mXFXjZmtaLm1ghZW4MuKEMZJuSj4jZp+z8uXd7IdWVOI5eH5ocMbliF8/0UT0SjlblbjqpxM7EdJHFGkjUbkbxN2dUY3guglbhdbMjO4NuNl6rs7fChmPxdSzP5LuqfavBqZwc0sdnbTu7EM6gPyXA9+q1YtRSpnH13ZLnLvMS59D6ipHXabEEagg3HmEUxy+Wtn7Xq6Y3jmlj7nG3lotfsr0sV0dhII5gPnNsfvBPWSLOJPSZIOme8FNaV57sn0s0klumY+F3P12+zMLY7N25S1AvDPG/sDgD5HNEhEoSjzRaBccUkgqKETZZre7d2SqwvY5uJjSA05Ys7+twWiB4rrjlfQDPwGZUqwoycXaPKP9E6z/YHzCS9au75p82/mkh4Ij/9TMo5NtCCOR84sImPkJHFrAXEDtyXzxtHaUlTUSVEp68ji4jgL5NYOxrQAO4L3XeGBz6eVkwD2Oje3G3Jwu0i72aW+k37q8Bp2G2E+sNdNdLJOeVRN/Y+JTzb9NySrNmtZ4nvKhJSnddxKY5yxJHp5S3bHgqVrkLjUjXqNEhkQY0Wz4IhuiDimw9yMaRa4zChqi0xuG6FmiLTcI18d8wuMJ4hQko2A4vlN8R+CIYA4XGnuSmpR6zUK2QsNwO8KC3Jw58i1onC+B5IYeIF7cjbiny1bWZA27fyVcZri7b29yGcwntKgieDE595w2/yDXVLP5lRCoBQL4HJuFwV0W9RO947FjJUAaDNQsbe5OpUUDhxNkZYWyzUGRfebgwOEghEzMbk7geXBRyxJU0mrToVCJU6OmW3aO1RgMdwsfJMnaWm3BcjgLsxkOZVp0KmlJ01fqSOphwJCjwPYbtJB5tJB9mae55ble/akH30RrLJGbLosE9qpmi2B6Ra+msOk6Vg+RJ1vJ2oXp+7fpNo6mzZT8HkPBxuwnsd+a8PsD6w8f5qGSnI0zHtTo6j4nI1HZTSuO/p+x9VYgQCCCDoQbg9xCpt6qmRkGNpcA17TJgF3mIXxhgsbnQ9wK8L3b33q6LKN+JnGN+bfDkvU93vSRSVIaZiIHNJuCbtJIIBbxtYnzC0xnZx8mGUeZlf9aUv/rmf4DVxep/DKT6P+E7/ACridxx+z/PwEV5mJ9KW3HRUzmRmxxRtcfpvBexg7msMh7oho5eNRWsDY9/Jbn0pTvBp6cg3YZZJDr0k0mA4zbiGObloMZAyAWYZQEAZ8PA87rn6h1seh7FwOTckAlQPREgsoSs8Ts5V0IwVY7H2dJUTMhj9Z5tc6AcXHkALlV9le7n7XbTVAkffAWuY4jUB1sx4gItr3M0nKMG47ugFpwuLdQCQLi2QNr24IqNhabt04hara1Rsp5L8Ie5xuSwPbcnUmxAvxVfDt2ijyjog/wC0keR5XUcFfNDdPrZyiv6cr+S+rRXRvaeNjyUhaEXVbwYvVpaWLlhp4y77xBKpundcm+ZJJ7zmgaR0seSbXijXzsklYW5tUbiHjk73qaOpByORXKilvmNUIx7rYrOjc05XaeXDuKniryMnt8VJ03yZG3+lxH5pCAHSzxyRWY1GSfhdeQVG5rhkU2Rlvk37kE6lt6pI7E/p5Wi3tVGhZHXiRIYWnUEd4U9JsuR2cYc4Djh6o73HqjzTKEOkc1hPrua37xA/FbH+i5qqIOiyDXvDG6BwkqX07Gg6AMbCHf8AOeatQlJOuhk1OrhhnGLpX1fQy52TIMzhv9pH/mQNbQvb6zS3lfQ9ztD5rSnc+qeGuHRWcLg9IbEYcRIOHOw/WRRUWw5qeBzpwLOfBdt79V0jISDfn0zjb/dA8lccc2IzdoY4RvijLyWz+rMYLnJw0Ucz8WWYA0ATp3Pic5uoaS0g82kg+5ROq8QsAB71VM2d7BqgG9k9kll2obndNbCSmbNHOqcZUi0hcC3tUVQ/gPFQwSYQeaic4pXDubJ5vCviPlcLZ5lRMj4jT3LrRzUtO+zuwpik48jFPDDK/FsWnT/+8l/wz/mSQ3St5LqLv/IV/tEPt/kT7T2w6rn6U5AXIHLFbhwyDR/yDjdNqKnJAUeTb8z7AlK9DmfFM2dnRWDTKuu5yRyhc5ca7NNKpIqeS9xwT2qNqlaoyQJAEr2SYU+yA1pWtgqlqBoUeI2lUlkRBVEaqDoZOjLCSnB1UOF7NMwpoq5p1UweDooOVPkDY2PyOqGko3NzYUe+Bp4JrYiOPmoU4XzAY6sg9cI1krXDJKWnDtQgpKVzc2qivFHzDKZ3RzRu4Nex33XA/gtVFHYRN6R7XAPja1r8Av8ACagF1+JIMZt2jmsV8KuLPHiFqtm1uOPG0AyMHHXFZjSQeGJrGjvb9JHF7NfE5HaUG5wyR816Xy5+ZdfAGZAOmDRlfpnggAYdPV1ytZAGQHGwukdYsY7FKX2HwiJoIFtcQHaBi5ISXektF+j+MvfFiIF8OG5bppw55qvllMEDnOPxszi4DjchzQT3CSQn6Tm8WlEpbWmc6WjzxTWR7vZL4/H5JFNXVQL3kNvie933nE/igDG4nTyRMETuGSKIDc3ZJS2PQrDcVfQFipbZkKCqmAGXsU0lS57hGxpJdkABcnwQz9bWN/ai9RM8kN4Y3uASTkqPGVrNj7uslaHyE2JyDbaA2Nz3grX7K3fpWWwwsvzcMR83XWqEbR57UZuCTTdnk7XnVPbIvcK3YsNREYpGDCcxbItPBzTwK8o3o3Wmo39YYonHqSAZH6Lvmu7OPC6uWOgcOq4nXJlV0v6ukobFcSuFG3vJFg24AHIKN5Rbmh2l79v8lDJTOHBKvc6ksTUUo7oGvxScrjZu7FVVN+Ja0NBsXOdhF+QyJPgE/bG6tTTNLpAxzR6xY7Fh7wQDbtR9LMLnFTcOpSBSsKiUjFTHY3uSgqdiHClY8cUtm3G65j3qEp5cmOF1C5u+Q0ypCqIWi3V3PNcJMEzWOjLbtLSbh97EEHmCNE+r3Glbfo56WUi/UbLZ5I4Brha/ZdMUNrOfPWxhNwcqaM+zabgp27ZPEXR7tzqj4GK1ro3REXIBdjb1+jNwW2yOuaozSlRpLmNxanJO+B3WzLJu1m/NT/6UZyKpjCQnskcNQhpD46nIva+hZvrYTzHglT1jGOxMkwnu17whWFjtciumjHehpDXKc10aL122aY2kLW9KONzgv84ttmfGyq6ivjc4ve8vd3ZdwHJDfB28BmnCM8mjtsowIYnB2kr+b/C3sOdtD5jbdpzQz3E5nVSjvv8ArgmkKrGNSa3YPRVPRVEcnzHsce4EEr0r0lSwwRBgY10st8JIBwsGr+/MAeJ4LzRlG+WVscYu+QhrRzc42HvV5v3V9JXSgOxNhwwNPZA0Rut2F4efFaXXAjzjxOWrf4ltsN2GGMfRv5kn8Vo6KdZTZ77Rs+q33BW9JMnQ2MOePifqbClmVi6FkjCyRoexws5rhcEdoWboqhXtJMnpmKSopv8AVvs7/Zv/AMV/5pLTdMuq+GPwL77J9p/ieGSbu1DPk4/qmx8itlu5udh61UQdCIw6+f0yMjbkCR2o+ad1yGMxOAJy7O1Usm2JYs3tLSfLvuuTF3zPQR1WThcYv9zVPgmjJbFGBER1cFgG9mHgD2IM7Nc8OD2uILS1xtlYix111Qezt6Afl594KsINvXdcH2o7Rl8XQ8ckjLSWnVpIPeDY+1OYtBvvs1kU/SMdds5e8j5ri67gOzrCyz7Fd7HUxPipkwXHBbGg3YgnpIZRL0EjyY+ubxve1zwBn6pIZfXwWa2ps+SCV8Mos9hs4eAIIPIggjsKFpodi1GPK3Fc10AgnYlyyVlQ09B9Eb5MVTgHCDPlnJb9dizW3qqmLn9HHJHMJHYryY2u6xxZWu3PPJGbj7ytonSl7XuEnR2w2yLC7W/1lnKtwdI8tvhLnEYrXsSSL2yumtrhRzoYJ/6uc3dbV8Gehw7StsEtAHqOHnVG6F2+6KXZdLUtjjEjSxkha1rSRZ7HYra9ZrDnzPNVtPt+AbMNG5r+kwvAcGgtuZTK25vca2Kg2FtWN1HLQynCXm8TsJcA4lpAIGfrNGnMorT28jIoZsUnkp7Tv1T5mmqNh0rdiieSJvTODXNeLh15JhgGufUPldeeOiHA3W19Im1GshpqZvqtzI7ImCNn7zvJY1mB/quAdyKXkXwOj2ZN5Mcpye7k38iBzAudJbipnUUnIeaY6iIze4BBsb2pLkiMz81Jme5MjjB9UeJRUTQO08+A/MqpB4lJ+0cwcFHIwotqabZk6DM+CFGiUVRr9w9nMgZNtGQXFNG/Bfi8NBce/NrB9crzwuJuXG5OZJ1JOpPitC/brm7K+DX61RVuefsY2ROI8ZMH3HLPFaJKkkef08u8zZMnnS9EaCkdk3uHuVtTPVJTuyB7B7lZU70/ocrI/E0/iX9LJZXlJULKxTI+nqiijIRKNmn+FJKj+FpIu8F92RVW346d2EtzcL+GmSY3eKF4zH3rWQFdJBKy87dD1DpYnX3DyVJNsqB3qykeK56ex0o3Wxrfh1O7+6jOXzW/khWbPp3XLGujv815HkDcexZf+hHD1J/NW+xtlyYetMcjoAPeVb5ETZR750hjlZ18bS27b2uLGxBt4G/5KhYiNp1bpJXkuxYXOY0/Ra44T4hDMKKqR0sD8KPQdm0rJ9lRxOkEbvhDxGXeq6TC8tY4/JBDnZ8CB3Ko2ds+baMzmSS4ZoogBib6zY3YML3DPEMQF88h2Jpf/wCVM7K138Ake8o30Zm9a7M5wyX+8w/gr5tIT4seLLki+UnXl/6CU25Fc9heIgLFwwueGuJaS04QeFwbHK6Aod3qqZz2xwPcYzZ4tbCfmkusL9i11HtKdu2pIuleY3ve0tJJFmxFzbA6WIGiL3k3nqKWujjjLejcInPaWjrF5wOJOt8LWgH6IV8ERS1up4uGotuPEuZ57Js6VsnQujc2QkNDHDCbuNm5HmdDxWy35NOymp4mUb4JhhzdFg6oYQ9pf/eEuLTx58Uf6XmfFwP+U18rcQyNrNd7xfxKsfSm4mjiJ16dntilui4aTItZ308Emqtvk+v7HmtZsyphAM0D42nQvYWg5XsHHK9kujdC5rnRvida7SWlp7xf3r1aTahi2TDO5glMcNM9odoXjo2sce4kHwWKqvSFNK6B8kEbnQSPe3WxLmFgBab6Eh2XzQglBLqaMGuzZrXdppNp7/uZraGNxD5GvN8muffMa5EqGOhkeQ1rG3cbADNxJ0AA1K9j3N2lW1Uco2hEDE4NDA+MNxXJxDAdW2tmRyss3uEWRbQqIGMZZhqMLyLygRyiMND+AI15q+75blLXpRnHgVxV0mq/GjF7Y2LLSymGWVoe1rC5oOhexr8PbYOC7szYks1zDDJNbUhpwAj6Ry8Fv94K6Sorjs7DGIpXQB78PxmDDHM/rX1s0gdyP29DKdoUFNT3ZFG1spay4aGCQh1wOGGPCL8X9qjgrYEe0ZqEU4q2m7btUl+p59sfd+oqKj4PhLHtzeHAtDGi13PvmfWFgNbjvRW29i00UbXwVQnOPA5oZgA6rnY25m7erbjqM1uf9LaeLab7kdH0LIHSDMCRkjpL5agYsOXEdiC333YphTmrpMLQ0tLmsN43Ne4Mu0fJILhkMrXyQygqdbjcWuyPNDvrimlW2zb+L/lHnZFgmOjxdTM3FzbXsHeVISBmdAr30d0bZa2PHn60oHbEMTQezFhPglxVtI7WpyrFilJ8kjEbSpnRTvifbFE90ZtmA5ji1wB7wU+yN3vjw19T9u933zj/AO5QtYn5tqOH2WuOMgyA2a3uCNhlQpb1W9w9yY2Sy0R3ijjal1mkvNlzHMjIZlRxTIyGRC0LUrLnp0lXdKuIQiPb39Q36zfxVINEklmhyHssqRXNF/VSfVd+6UklGHHkecU/FStSSTZ8zoab3cf51Nnsr9kVX2zfdEnejL+2n7GX/tXUkK5oXk9zn9f0QZT/ALfP2r/4DlH6RP2lF9SD996SSJ8n6iIe+h/1/oXfpe/qIftZP3Eb6UP7FH9vH/ClSSRy/wCRn0/+D7z+qItsfsJv/D0v78Kxu4P7Qh73fulcSQy5o16T+3z+rPX4/wC0yfZw++Reebp/teq76z+Okkjl09TnaT3eX7v6hA/b7O8f/UW5qfWqf+Fj/fqF1JSPX1JqP8X3F9WeFu0HcvQ9jfsCf7Q/xYF1JZ8fNnp+0vdY/vxPPar1B3laz0Xf29n/AA8/7zEklMXtob2t/bT9F9TK7+ftCo+tH/BiQx1SSTM/NHP7F9mXyDpPVHcPcg3JJLTj9lHC1nv5+r+pLAj40klUhMSZJJJAEf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUTExIVFRUXFRUXFRUXFRYWGBgYFhYWGBUWFRgYHSggGBomGxcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGismHx8tNzcrLS0tLSstLS8tKystLS0tLS0tLS0tLS0rLS0vLS0tLS0tLS8tLS0rLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABQEDBAYHAgj/xABFEAACAQIDBAcEBgcIAQUAAAABAgADEQQSIQUGMUEHEyJRYXGBMkKRoSNSYrHB0RQ0coKy4fAzU2NzkqLC8UMVNXSDs//EABoBAQADAQEBAAAAAAAAAAAAAAABAwQCBQb/xAAwEQEAAgIABAMFBwUAAAAAAAAAAQIDEQQSITEFMkE0UXGBsSIzNWGhwfATQnKR8f/aAAwDAQACEQMRAD8A7jERAREQEREBERAREQE0/fTfulgWFIAPWIBIJIVQeBawJJPdb1EzN/d5lwGFapmUVG7NIN9Y+9YcQBc+NrT5w2rtGpXdnqP1jE3PEBr8yCePDXiJzMuqw2HbPSbtSq5y4jqk5CkiKPiwLfOQ20N7do1QoqYyuQNNHKfHJa/rrIpqdjYeydfIn8JfOGuCPUf1/XGccyyKpbdvfnaGDcFMTUdb606rNVQj943X90idc2F0u4WpkTEU6lF20ZwA9IHgDcHMB5rp385xShgCSNL6i48Nb/dN02buzTsC5BBFzy04ad/EDzEicmkxj276rAi41ErNU3Nx4p0lovUDKo+jcsLleORr63W49CO4zalYHUaiWxO42pmNTpWIiSgiIgIiICIiAiIgIiICIiAiIgIiICIiAluvWVFZ2ICqCWJ4AAXJlyaZ0s4ytTwBWjxquKbHS4Qq7Nl8TlA9ZEzpMRtxHfLblTH4ypUYnIGPVg5brTGiqQvA8yCSbkyxgtnA2zTHwFIA5RxJF/jJ1aJU2PIkeolNpacdYXMLsGm/fJWhu2nf8ZmbLo9kaScp0NJTtr5IhAnYdMcjLi0MthfTW2veb6esnDhyeEw8bhSushMVhA7YoMFzITcakd/j5ibX0c74VS4w9c5qZA6uqTcqTYBHPMEmwJ5kDnLOzdniobX46H1F/wA/hNQpUhRqkP7AftC5HYYjh5cR4jnwNlZmGfLSJfQkTD2NVZqFJmN2KLmPebWJmZNUMMkREBERAREQEREBERAREQEREBERAREQE0jpcqKuDpuwNlrjUcQTSrKCPHXTxtN3nP8AppLfoVMD2TXGfyFOoVv6gfdzkT2TXu43sZM1UZtMzA38L6Tbdu4XJVccsxe/eCxsfXj6zU9kUDVrqqc7anllGp9JtO2sYOsBci2RQNLG1hofG4lNuzVj80JDZ1Swk1SqacJp1Pb1FbZRUqd+RCR8ec2fY+1aVUC1xys2hEp1MNMWiWatU3sBeWsU55ietoYs0hdVBMg//VMY5N8MjL3rUAPwJjW0zaIbTucgaqVIGna+AP5zWt4cOHrVSg4cO42Jax9AflJXc3aDGuFKlGIbQ89Dp3TztnCdTUqi9syK634HU/Agidx5We8/alvW5lcvg6RLBiAVuDcWViBr32H/AHxk3Nb6O0AwFIC/vlrixzF2J4+c2Saa9mO3eSIiSgiIgIiICIiAiIgIiICIiAiIgIiICct6c9pL1VLDW7Rbrj2rdlbrltzvm9LTqU5R04bMzNhq3ILURj+9TK/8vhObdlmKIm2paBua1qiknXqqg8rgWEksfs4uGqgZyB2ad9L/AJSxujg1YOwFsilV8b31+Zkng6hVrf1/X8pTeejRjr11LG2dRrEDrXIT+7UtTHK9slieftXmG1VqdZSDxNuFr2Oh/D0m6UMBn1NwOc1PbRBxNl0AIAHcBK97aIpFU7jcQzAXPG35SOO7yvYgZSBYldGOt7lr3B8R/KSVQiy+UmqFMOoYDlxB0kROpdZKRZGbCw1Wiyl3zhWurH2gByJ5+cnt9aQbJU4qaTrbv7Stp3aXmIV1Ak1tvDscFlUAuNbH6oF2+IsJ3X1UZa9YRPRvtiotUYZtVdXdQAoFMixtca2tedJmgbhYVWrdaBqlNh/qyAD0s3xm/wAux70o4qIi+o9xERLGciIgIiICIiAiIgIiICIiAiIgIiICan0obO67Z9Wwu1O1QD9nRv8AazTbJ4rUg6srC6sCpHeCLESJjbqs8sxL5w2Mz0m6s6ZQbMDo1zf4iTFGsPUvc+E3Gt0XIpqVP0hmARzTXIAQbHLma5v6AXmi4epd1N+MovExDXFqzbo20Yi1PjynOcRi8tWz63JJYak3PG02rG1ahpKF4HPmPPssBb1FpFbHwJrA1EpZgHZczXFmW2YWGotcSqrRKUr7Up5AAANLqSCTqNCRfhz5SW2XW7IZTe/tDlrztMVN26ygkUqVx2bFmPLNxPKYOFxLJVqJlKvTbK6i5Qk24Nw7jFoTzfm2uhWHWpce8JJbw1nCZUIDNoL3tYixPwBkNTbM6nxBm1YPZqYkHOWGULYqbcS3ffwk49zGleS0VtEz6K7j7O6pHObNcqL+OUFvLU29Js0sYLCLSQIg0HebnxJMvzVWNRphy357TYiInSsiIgIiICIiAiIgIiICIiAiIgIiICIiAnz5vXROGxlalbRXun7LgMh9AQPQz6DnGOmHA5sVnX2gifvDUEflOL9lmOZ2hNlbSD/R8e1mvfwsfnaXgtSm5VKjIpYnsm1yRlvroTbTUTVcDW6tlPEad/Lv5zaMPtGm62f2gR6mZ5jlno247xMalI0qFZj2sZXI5AOV5W1yWv5TNrUglMlu/jzJJ4k89ZFYDFCmSxBI/Hw8dJc2jtAVCFHf7Omp7pE7l3NqxHRIUcaM/Hut5/0Z0fdKkwoBm1Lkn04D7ifWcx2Hs44isq8ADdyOKrfh5nh/1Oy0UCqABYAAADkANBLsVdMWa23uIiXKCIiAiIgIiICIiAiIgIiICIiAiIgIiICIlGYDUmwgVnJ+ltfpgR9Rfxm9bZ3lSklQoC7KjN9nsg8+fpOVbYxNWvQpVazZqlRc5P7RJCgDgALD0nGTpC3DH2moV6OYdx+/8jMJKrqe7hx8OF5sf6ATqJ7o7HD6NKovHqvtjnfRabaV1W3Hv5el/X5zxs9WqVbKLmxtbS17anuAux9ZsOB3OoHtMSbcszW++SdLDpTGVFCjwHHxJ5znnj0df05num91KS07KOOmY954fhOgIbic+2CO3aSGK2s2Gxlr3puAXU+7f3x3d5E7x31HVxlx7nUNziY36XY2I9ZdWsp5iaNMi5ERICIiAiIgIiICIiAiIgIiICJQm3GYFfag4IMx7/d/nJiNiQMw6+0qa8DmPcuvz4SOrFn9pifDgPhPApzuKe9zterbTqN7KhfE6n8pg1KTORnYtrzOnoOAmSFlQs6iIhCC2/iKVDD16tX2EptmAtcluyqi/MsQB5zmeE2kKlGkv1Fyg8iATl+Vh6TcOmLZ1Z8Fnpk5KdValZRxKhSobxCkgkevuzk2wNodW2R/ZJ0PcfHwlWak2ruF2C8VnUugbOAImYlCx0kfgmtaTNjoZheiUiy3HIzIppznkVLy8x08ZCXmljDSYkDXlMXFYssXrVWsLEsTwCgfdaemGs0bfvbWY/o1M9lT9KRzbknkOJ8bd07x0m88sK8mSKRzO37ubZpYzDpXpG6sNQdGVh7SsORB+8HnM11F5y3oP2dXUVsQWK4dhkCcqlRSL1B3ZRdbjiWI92dUInoTGpeY8qxHBiJfp4xhx1+Rlm0SOgkKVdW4fCXZFS7SxRHHUTnlTtIRPFOoG4T3OUkREBERAREQExNoY4Uh3seC/ifCZNRwoLHgASfSaqtc1ahc8zoO4chOqxtEyyajPU1dr/Z4AekuItpQS6JY5JXNKgyoSB5XX84Ld3xlXN55tAoVuLEXB0IOoIPEEGcN6Rtx2wTmtRUnCudP8Fj7jfZv7Leh1sW7qBKVKaupR1DKwIZWAIIPEEHiJOx877vbfyWp1T2fdf6vg3h48vLh0rDaoLa3HH7pru/nRo1HNiMEpelqXoi7PT7ynN08OI8Rw1bdjemphSFP0lE+5fVfGmeXlw8uMz5cHN9qrVh4jl6WdKqKVmQhuokcdr0a9PrEdcnMnTL35r+yR4zUN4N8CwNLDEheBq8Ce8J3D7XHu75mpitedQ13y1rXcpLe/eZaOalRa9UixYain6/X8OXE+MHuFulU2hXscy0EN61T59WpPF2+Q1PK9jczdKttGrlS60lI62sRcLfWw+tUI4DxudOP0JsnZlHC0VoUEyIo0HEknizH3mJ1Jm6lIxxqO7zsmSck7lew2GSki06ahERQqKOAA0AE9XtKmeTJcPYYGLTwJ76y8ClotPVpW0geUYg6SRpPcSOMyMI8iYIZkRE4dEREBERAiN5cRlp5RxY/IcfwkFg9Bp3X87cZnbzVV62mGNgWCE3AAzWy3vzLFQPSYiqUJ71Nx45dSPVb/CW07OZSGbQMOBE9o3KY+BsRUp8lN1/ZfVbfMek9UzcW5iShlZYY90pTbSx48fy+UCB5vPQiVAgViUtKwPStNK3x6OcPjC1WkRQrnUsBem5/xEHAn6y694aboJ6kDh56Jdo6jPhiDa/0tQA24XHVayU2D0Q1esBxlamKY9yizMzeBZkAQeIufLjOtyok80mlnZ+CpUKa0qKLTpr7KqNO8nxJOpJ1MvxeUvISGUiWMPXLFgUKkEjUg3AtqLeBB9YF+AIE9CBcQaShM83lTxkAwlaDazy3P4QukCSQ6T1LVA6S7K3RERAREQOeb5MtWtXoZxc5DYe0pCKVYa8QSpB75n7Mx/6RQStb6RezVUcqiEq48iQw9Zpm8u1bbYxNPXsjNcAEC2FpXJ949rq9AZP7Fc0nrnioq2cDgyPSpVCy+INRj6md1cymMG+WoluBDUvQWekf9JtMs+358f68pHbQXq7MNVNnU9+U3+4sP3vCXKmMAN78Q1vkPxMsQks9zeXAZh4Z7i8yxA9rKgTmuzt8doriMTT/APTa1cms3VWz01RFGRFLlCuUhc2a41du+bRg12rV1qthcKv1ERsRV9XZhTB8gZA2O0WmJhcBl9utVqnvdlUf6KSqlvMGZchKsREBEpKwEREBOXVt5cZszH1RjA9TC1KlVqZAX2XYFTSawuVVVU0ydLeRPURIPfbEYZcHVXFMgR1ZFDe9UKnIE55ri4I4WvJiUSw9xnx1Trq+KsKVZhUw6EnOim9lKjsouTIQON7k6mbXLGBrK9NGVkcFRZkYMp5XUjQiX5GxSFaeXMtU6l4F9YHHz+6Lf13CY+079RWy6N1VTL55Dlt43tISlMC+ZQRzFx5Hh8rTJkds6td3W1gtreRANvCSMrdEREBERA43vjXw1PaFa7UUqOyo7E/SkOEGUIBd7jIL8NNeE2bYtMhCCMuZmfL9W+gHwC+t5mbx06X6QSy62HaAuQSBc+XlGGpZbagg6hhwIltY9XMr60RkNNtUPDvX+X/XDhrWPujBTrlFh4i9xebeF0mrbwJZpKGdsnGZhrxk5SeaLs3F5Wt/XnNuwda4kiTBlRLSNLgMgeoiVtISpBnqeTAoJWDKCBWIlRAqBNB6VMHWZEqU0qsqjVqJtUXjmt2SbHs3AIvbiLa79Kwhp/RpgylBmFevVpuVKiurKwYAhyobgp7OmuqnUzbzKkzwzQLOJqWErhFsPGYlc3IPLNb5E/hM/DrpJkXbfzmHtct1TZLkrlfTUt1bK5VRzJC2t4zMaeFWcpe9jujgVabBkqKCrA3VgQLNfncBfhJOYmGRVFlAUXvYCw1NyfxmXOJdQRESAlCZWRu8mINPCYh11ZaNUi3eENoGsY9+tZqg1VjfQ305fKXtmAjQcOY5Hx+y3jznE9kb24jBEZGzp/dsdLfZPFfmO8Gda3Q3swmOsKbCnWtrRewY95Ue+PFb+IE0TGle9toUaeE17eOlpebLktIPbw7JnKWn4dDdj5fjf8JPbGxnIyFwTZlc398geirofW8v4WpZv+oG50q0y1aQmDq375J0mkjMBnu05vvtvI/XHD02KqgGcqSCzEXsSOQBGnffumu4Tadeg4dXdTowBLZWB4XU6MpmS/E1rbWnr4fCcmTHF+aIme0O1RI/Ym01xNFKq6XHaF75WGjL8flaZ0vidxuHl3rNLTW3eFQImodIuIKU6JDMvbYdlit+yONuMw+jrFF6la7s1kT2mJ948Lyucsc/I2V4GZ4aeI38vnpvUreeZibUx64ek9VuCC9r8TwVR4kkD1lszqNsVazaYiO8s6eWM4vjtp4jEuWZmc2LZVzZVUcbKPZUd/xM2Po825U644d3LKyk08xuVZdSq35Fcxt9nxMzU4qLW1p62fwe+LFOTmiZjvDoeaWqr6T20tsJreOs11IS45Mp9CbH75m0ToJjVD2H/Zb5Ay5hXGTMxAFr3voPM8IGYBBmobd6ScBhgQtT9If6tGzL61PYHoSfCcq3r3+xeOuhbqqJ/wDDTJsR/iNxfy0HhEVmTbsW0d+sNSYpTPXONDkIyDwL8D6Xm17PxQq0kqDgyg+VxqPjPnncnY1fEi6AKgPttov7v1vSd63awbUcOlNnz2vY2toTe1rmRfk1qO6Yi3qlIiJU6JH7wVMuGqn7BHx0/GSEht73thKnjlH+4RKY7uA70bKWo5K2VuduB8T4+M1XEYGrRsWUqLghuV76EMOBm64171D5yewVMZQDqLAEceUojPastc8PW0e6Ws7D6S9oYcBTUFdBbs1gWNvBwQ3xJkltLpZeohBwSA24iubfDq/xmZjt1MJU16vIe+mcv+32flNV2lumisqI7sXZUUG3FiAOA7zNEcTSfiotw16tu3UxDvhUqOLGoXewGmUuwWw7rLJnD0rnn6C/yk1vNsxKBoU0ACLQWko4aU9B8iJEUFKtqPU3HzEsidwolLYMW7vgRJM1sil7XCgsfIC5mLh0uLjXyIaRu+uLajg6hVrM9qYHM5j2gP3M0Xty1mXeLHOTJFI9Zc+2YRjsSoOj1qhLa2tmJZyPIZvhOi9IGxw9BaqDWjpp/dmwt6Gx8rznO621KVDELVq0mbKGsFtcMwy31IvoW5906FU35wroVNKswYEFSqC4IsQe3MGLkmkxaesvo+MjPGfHbFXcV936x/pF9Hu0eqqmi3s1dV8HA/EC3os6NOHISjBlZtGupPEWN1PmNJ2XZGPFeilUe8uo7mGjD0YGWcLfccvuY/GeH5bxlj+7v8f+fRrfSUV6qlm/vD/CZHdGpXrauU/+Nf4v5yS6SzajS7N/pe77DSL6NXBr1QAR9F3fbX85zb2iP56LcX4Zb+eroc0TpHx9ymHU6D6R/M3CD4Zj6ib1VqBQWY2VQST3AC5PwvOPbUxr1ar1ToWYkeA90egsPSd8TfVde9n8Hwc+bnntX6y3Lo62UFpPWYXNQ5Bce4vtfFr/AOkTSiDgcbrp1Nb4pfj60z85uezd98LTpIhSsMihfZQ3IGpuG5m59ZpW+G1qeKr9bTR1BRVIfLclbjNZSeWUceUoyTSKV5Z6w9LhK57cRknLWeW8fTt+jsplpxI/dXF9dg6Dk3PVqrH7Sdhvmpkkwno1ncbfMZKTS01n0lH7XzdRWCAluqqZQOJORrAeN580/plSoqh6juNLB3ZvKwYm0+qMEt6i/H4Tk+0dmLhsdiKYUD6VnU2Hs1O2Phmt6Tm+Xk6px4+edND2fu/ia3s0yo+s/YHz1PoJtWA3Op0+1UbrG7rWQenP1+E2SiZdqcJjycRe35N9OHpXr3Zm7FQg2FgBy+HwnQ9lN9H6mcx2PVy1ROl7Jbsn0Pxk4ZVcTDPiImhkJBb6/qrftL98RInsmO7hb/2h85s2BiJht3epXskG4SFpfruF/wDk0f8A9FiJNPMjJ5ZdE6QeNH9//hIfD+zKxPSp2eVLLwHtTXek72cP+1U/hWViccR93LZ4b7VT+ektCfjJTB+zETy4fX3UbjOl9Hv6p/8Aa/3LES/hvO8zxj2b5x+7x0if2NP/ADf+DSI6Pf1h/wDJP8SxEst9/DLh/DbfP6tv3l/Va/8AlP8AdORtETnivNC7wT7q3x/Zj1Ji1JWJje7HZ1fo4/UU/bq/xmbG8RPXw+SPg+H432nJ/lP1e9n/ANoPIzne/wB/7i/+XS+4xE4z9nHD+ZZpcJePAxEwy9Jawf8Aar5idQ2PwPkPxiJdgZuK7JGIiamF/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUVFxcXFxcXFxcVGBUXFRcXFxcdFxcYHSggGholHRcVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHSYtLS0tLS0tLS0tLS0tLS0tLS0tLS8tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAECAwUGBwj/xABDEAACAQIDBQUECAUCBQUBAAABAgADEQQSIQUxQVFhBhNxgZEiMqGxBxQVQlJigvAzcpLB0UPhJFOissI0Y3OT8SP/xAAbAQABBQEBAAAAAAAAAAAAAAACAAEDBAUGB//EADIRAAIBAwMDAwIEBQUAAAAAAAABAgMRIQQSMRNBUQUyYXGRIjNCsRQVI6HRNFJT4fD/2gAMAwEAAhEDEQA/AOljxCPN85YjGkzI2iGZEiMRJyMcZkDGMkZGEANGjmA7W2rSw65qh36Ko1Zj0HLruibtljxi5OyQaBBMZtOjS/i1UU8iRm/pFz8J5/tXtPiK5IBNJOCobEj8zjU/ATFtbUcfXWVKmsivbk06XpreZs9AxHbXDqbItR+tgg9WN/hIUO3FE+9TqL/S1vK4nBLGA/f785Wetnct/wAvo24PWtm7XoV/4VRWP4fdcfoOsPE8YRDoRfQ3038t4nV9nu0GISyuHqpu1uXXwY6nwN/KWKerUsSRTrenWzBnfgyQlGHrh1zLu6ixHQg7jLhLXJQs07MnJCQEkILHQ8eIRxGHJKIQsoWELIpmn6f7iqrMzFCalWZmLlaR2+jMPGTPM0MXAJm1fcdJR4IW/ekeLKY8jJjs48iI4nTHhY8UaPaMIYiRk5ExwSBEiZYZXVcKCzEBVBLE7gALk+kJA28GdtvaqYamXbVjoicWP+BxM8yxdepWqF6hLseO4AcAo4AcoVtbaT4mqah0G5Fv7qDcPE7z1MqwyWIPG/pMzUaje7Lg3tJpVSjd8liYL9n03SQ2eOJ9OUsPjJUmlJsvqIyYFAeJ4ya0lB90ekvRSeEVSiRrBuPYq3bpfh8VY/sQapcShnhqVgXE7HAY0+8N40I/EOR/zw9Z0FCqGUMp0Pw5g8iOM862bjyrWO4/GdRsrHgPbcrkA/zHRT8gfEcpe01ez2vgzNbpty3Lk6K8kJWJMGaDRjplgMcStTJgwbBIsUwlYIphKSGZqen+4jV3TMxc0q0zMVK0+Dt9H2MXGQC0OxcDtM2rydHS9pXYx5LJ1ikViW51okgZXJKZ1DPCkTvHjCSEEIaNaTjERXFYgROf7dViuCqW++Upn+Vm9oeYBHnOhInN/SEv/BMeVSkf+q39xBqv8D+hNp1erH6nnVI9ZetTUGZ61Y/ezBcjpYo18w33EgCRqD+/2YClaEUTeC3cksb2BxCgDj0ltTEFtwt8BMjDq2+4A8YYcQANCpg2GK8YsCDSVbHKRcwCpjrC/G5hXGZoHQiaVKqSunEennOTfaUlQ246nTdyOsljIilE9mwdfOiP+NVbzI1+MvvMHsdjxWwqm1irMhHLXMPgwm4DN6nLdFSOYrR2VJR+SwGSErUyQMdoBMtUwpIGphSyGoavpvuI1Zm4maNSZ2KlSZ3Oj7GLi4IYbihBbTMq+46Cm/wleWKTtHkZJc6UCWKssAk1nTOZ4kqRWBJBZaI4gbgumVZY+Qy4R424PpA+SYfbXD5sDiPyoH/+t1b5Azo4Pj8IK1KpRO6qj0/61K3+MaUrpoeENskzwK8cNIC/EWPEcjxHrJgTCZ0aLEbnLHxVhYSgiQekeEEPsWMajAkHQcSbeEAqVG4kzRwtaoqsUKA2Otgz7r6X93xgQV294+unjpCQD5K0ZjprL6yNYXELGz8qqxNi1zboOP8Aaan1UVKAb7ykg+HCNuyFswcsq3ltLLzb+m484XToFT1HD+8hQwrZtFt5w7kdj0f6L3zUKy/hqKbcs6W+aGdoKU4b6OPYqVE/GgbzRrf+ZneTY00/6aMPWUf6zZHu5IU4944aTbiv0kSWnCUSDK0uV5DUbNLQxSY7pA69IQxng1UynUkdZppsy6+HEGOGE0qsqKiZ85ZNiFV2AvqoihuURQLhdZ+QsPJB4V9Tj/VDNzrxPNVQYOHjh4QMIZJcKYPWiF0WDZoi8LGFj/VY3XQ/RYFnmJ2p7TpglQsMzPfKN2i2uSfMTqRhJ5j9MGz2NbDN90o46XVsx+BWBU1Fo4JKenvLJyu0KSV2q4ilpnZqhS9wMxuQPMk+cy1llC4ayA5LqpPC7aD1sfQye0aGRjwmbe7yabjaOCKgTb2SFOht5znleE0MWVgTTDg0buM2DTY5rhet7f3lGD2fTV7IMzcW32g5xufTd5yVfEWXKp37zzgJsLauS/Flbkb2OlxuA5CF7GpXWovDLfzBmJglu373TpMLlw9Re9NlKXtpc6G1hyNxrHCXBi4rCnKWUaj3h0HGZ3fHeCfCa2K2wgbMptbhzmbisVSqDOmjX9tbeyQdzDrfQjrfxmTuiCS2s3uweKJxQvxR/l/tPSO+nlXY6qFxIJNrqwHiRoJ331yaGlnaFmZ2phulc1++jd9Mc4yN9d6yz1EV+kbQrSwYiYP17rHGP6wJ1EyeitrN44iVvWmMMeI314TPqyN/TVVY1GqSGeZhxo5xvrglF3bNNV4pGn3kUzPrvWPGsxfxET0CKUmpG7yWOocvtL4pR3kWeLexWCLxXg/eRZ4t7FYIvOU+knAipgzUtc0HWp+kkK4+K+k6PPKcSiujU3F1dSrDmrCx+Bjbx1h3PEcXTDBETKqk3Lb7sSddNTpa3j4zMx9Yk5W1K6X5+PWdPtjsTiKLnuqZrpf2WQjNb81MkEN/LccdNw5HGV7HuwCCGOYNvBFwQRwtGjHJYdRNFMYGSkGkjAL6TwhTeB02heHeRNEsWEY2iyIHXhvmPRo1KpJzeZJm8cSLa6iCE8RZRzOnpz8o8AahkvQbj84TQwZUX5yVQIPvk+C2+Zl9GopFs1/EWMmWSFl+zQMwJNgtj42O798p0DbXHOctVfKD4j+8o76K7XAzSZ1p2sOcgdrjnOU76MasW6QOxHUttkc432yOc5U1Yu9j3Y+1HU/bPWL7a6zl+9i72C1cJXXB0/211iO2us5nvou+jKIW5+TpPtrrFOa7/rFFtGu/J9F99G76c19tj9mMdtj9mQEZ03fRd/OXO2xI/bg5j1iEdX30Xfzkzt8cx6ywbWb8J8SCB6nSSRpyn7VcFyS5On7+RavOXbbPVf6h/ma+xcHXxHt6U6Qveo3T3so42110HWHLT1Y+6LQ0akXwwiviwoLHcoJPgouflPBsQuZ2qHe7Mx8WJY/Odd2s7YmvXOGwt0wyEhnv7dfLe5duCX3INJzWTWPKGxW7kkMgV5Ey3FUbboMGjcknBYBL6cHVpYakGwVyRdibAFugBN/ISmvQrXBZHF911KjyvJLUtqCQeBBsYZQ25UUFSbqd4IBBt47vKPnsNjuZ1TCVOX+YTQ2a4U1HsgsbA3u2nAcPGHJtoLqFQHpcWgGN2k1RiWPXp5QldjtQS+SvH1bkeAJ8SBBs0aobn0HoJGEREs0WaRiiHJZos0hFEMTzRZpCPHETzRZpCKMInmjSMUcRo/a9X8Rjfa1X8Rm+vZGnxqOfJR/Yy+l2Vw66szt0LAf9oB+M0F6PWfKX3KX8woLv/Y5kbVqnTMTfcOJ8BN3ZmzKrAPWc0wdQo98+N9F9Cek1aFClS/hU1U87XY/qOp9Ymqk7po6f0anHNTPx2K1XXyliCt8l9Jggsgy9dSx8WOp+UrepfefWVWMYp1mxGEYK0VZFBtt3kzW7ObJOKxFOlc2N2cjTLTX3j47gOrCdh9LmOqYTZmTDrkV2WiSugp0yDoPG1vXnOR7H7RGGxdOqTZDdH6I+hPkwVv0z1btTsYYzC1cK5Azr7DbwtRSGpt4BgL8xec/6vKaqx8Wx9TU0MY7H57nzXs/D5VtxMnfWG43CvTZkqKUdDkZTvVhoR18dxFjAbazCveJrWsxVxA6tCaGI0F4ITeCmKSAwLRMYRUWDOIaYA1pJcMTqTKiYu8MVmMJ6VjvjWtGLSSLCQxrdmdmri6hwxbJVcHuah90uNyVR+Ftwcag2vcbgtqbNq4eoaNemadRd6nkdxBGjKeY0nQ/Rlgi+0KRG5CXPQKL/APcUHnO8+lnZyVaVKoR7SOaebiA6lx6FTp1MuQ0/U2pcshlU2PPB4vGhWIwNRBdlNuY1HqN0FladOUHaSsyVNPKGMUUUEcUUUUQ48UaPEIaPGiiEeltWlLsTKc8led0cwoWJZY4kQY94rjtCJkZKMDHGsJhPWuwO3BiMOKTm9WiADfeybkbrb3T1A5zyaFbI2m+GrJWpn2lO47mB95T0I0+PCU9bpVqKdlyuCxp63Tnft3O7+knsecSv1mgP/wC9Me2gF+/RRpYf8xeH4hprZbeKVd8+m9lbSp4mktakfZO8cUYb1bkR/g8Zwn0hdgO/zYnCKBW1NSkLAVubJwFTmNzdDv4+cGm0+TfhP7HkFU3WUUl084VkIupBBBIIIIIINiCDqCDcEHdBqfESAm5HKXmfiKZB0mjTMpqpcwkwWjMLRhD69EWg1OiSwVQWZjYKASxPQDUyRO5G0MohGBwdStUFOkhdzuVfmeAHU2AnSbF7F1HIbEE0l/ALGo3jwT4noJ6FsfZ9OiuSjTCLxyjVurMdWPiZYhRbyyCVZR4LOwfZb6nRLPlas/vlDmCge6oPG1ySeZ6CZ/0m46yUqOurGqb/AJQUX4s3pNHanaWlhAQ7BqnCkpu36uCDxnnG2duVcXVNSr4Ko3IvAL66niTNfRUZOopvhFSbuiFKp18t/wAIPidk0n1F0PNdx/SdPS0uoIed/mISFmxOjCrG00mVt7g7xZzmK2LUXVbOPy+9/SdfS8zTO3TUXlOLwSVPfAJ/FuYfq/zMqv6PF5pO3wyzT1vaaOOimhtHZL07sPbT8Q3j+YcPGZ0w6tGdKW2asy/CSkrxHiiikYQ14orR4hHeJJ2kVkxO6OdHtEBEJK0QLZBryplMIiMQ9wXOYmcwhhINSisOmg/s32lq4OrnX2lawdD7tRRz5MNbHhfxE9m2Nteji6feUWuPvKdGQ8mHD5HhPAnoHxl+yto1sNUFWkxQjiNxHJvxL0MzdboI1/xLEv3+pcoajp47HrXa/sVRxl6mlOvbSqBcPYWAqqPeG4Zt46jSeKbd2FXwdXu8QmS/usDenUHNH3Hw0I4gT3jsl2mp41OC1lHt0/8AyS+9fluPAnbxWEp1FyVKaVFuDldVdbqbg2YEXB4zmKtGUJOMlZmrTqXV1wfMWA2XiMR/6ehVrdaaMy+bgZR5mdJgPo12i2rpTo//AC1V+VLOZ7xXdUW7sqIOLEKo8zoJzW0e2mAp6d6ah5U1LD+prKfIx6ennPEU2NOso8uxweH+jCmuuIxD1PyUKYpjwNSoSSPBROt7PbAFEZcNh0oAizOLtVcfmqH2iOl7dJk476RU/wBDDXPBqrZrfoTT/qnKbX7RYrEXFWsch+4CETzRdD+q806HpVZ+5JfUqVNVHzc7Pbu0sFh73qd7VH+nSs2v5m91fW/ScJtTtViat1pkUU5U/e86h19LTPyLxIklKc5sUdDTprLu/kqSrN5SM+nhDxhSYWFKy85YoXnLsYxRFKrIpShLAtuPrLQBzkgDCIXNg+Tl+/OV7jreGxFL6W/fhE0mJTBr26TF2jscNd6VgeKbgf5eXhum6+G5afEQZ1I3i3hqPhK+o00a0dslf9yejWcXeLOOdSCQQQRvB0IjTp8VhVqizb+DDeP8jpMLGYFqe/VeDDd58jOa1WgqUMrMfP8Ak1qVeM8dwSKPaKUCY75ZIGRUyYncnOskIjGEZjEDYlGvGJkC8Q9iy8iTKi0bPEPYszSBePeOLRCK8NiqlCotWkxVkNwRw/yOYncbR+lVmpKtGlkrMLMxswDce7Xj4tu5GcZllD4Jbk2tfeRoZXraWnVknJXaJ6ddwTVye0dqVqrZqzVHPNiXI8OC+UC74N7r5T1W59TCERl45hy4iTsrcPWTqFlZAuS5AnwtQ/6plJ2c34iZpilbcZYF5xnTj3H60kY42a3OI7ObnNm0jki6UBuvMxThGEQVxzmyynxjZBaLpLsEqz7mZTxbjfDaGLv4xPhwZUcNHSaGbjIOFWTFWA03toYQDDuROAUriM6hgQRBQZalWIDbbgFr4TKbrfTz/wD0SnMG5ciLb5q3vAsXgr6rofgfHlGeSWE+zM77Npf8v4t/mKS7ipz+IikH8PS/419kWN8/9xq02lyynAmnnVarFEJszKucqOYW4vO62bgMGSowy08SD7zVahNVfDCHugw8GO/pqFfUqispv9vuRQoufc40anKN/Lj6b5EjU8xv/wB56hWxK0VC0nVT96kWXZeXqqmkGYb9c585XjO5rIC2XFtY+yKVSvUBH3VxmGpi3iynqZQXqucwx9ckz0fiWTzJhK2E7ip2MWopZDUwhH3MWaWXwWoj5gPFSZyO0cIaNRqTNTZltcowddRfRhv3iaFHVU6uIvJXnSlDlATCVtL7SJWWAblOaOKkkySspEPgsFaSWtKLGVmIW1BytcyLUr67jARVIl1LF8DFcTg+wSCRvkwYlYGNljgEpo7O2Bia4z0qDun4rBV8nchT5GH7IwlKhRGNxKh85Iw9E+65X3qlT/2wdAOJ6WmltLZ1euUGLxtOlVqgNTw7h8oVjZQ1vYpk7gLHle8pVdVZ2jx5d3xzZLx3fBPGjjJjVuxeOAzLQLW35HpuR+lXJ+EwHZkYo6lHG8MCpB6g6idx2a2EqIrtRL1KjMtrtTFFab5WYlCGW4uQ+ouuUC5BMtu1KZrtgccSyADuMU1jWohwCudwBnphrg3/AA3kUNbLqOOJJeMf2u7huktqbwcCtXWx0Pzk3i2vs2pQqvh6uj0zYEbjxBB4qQQR4wSjiyDlffNFTUkmuCJw8FxMV7R3F9RKw0QyyW3iVpXeK8VxWCUeW5oGrSwPCTAcS7IvIR4N3keK4trIrHtFeJYIRr4PtFiqS5Ur1MvBWIqKPAOCB5QbGbdxVX+JiKzdDUYD+kED4TPqNIgyPo0732q/0D3StyORfXef3xkCvKWxXklgbkExHOEpUBgz0wZQwK7oh7JmiRIkymhiwdDvhLLeIBq3JCRyxm0iDxDiNEGD1cJyhYMdW8IhKTRnU6zIdZoUHz2UGxYgepsPnFVog74IjGmwPI3B6g3HxEFppYCupHZ9usQPrhpAexhwlJF0tlRQTpu1JM3Ns7LpYrEVMa1VDhilNlAfIx9kAqdCVIIPsgZiSALb5z/blQcQMSutPFU0rIeF8oWoviGGo4ZhNfYAYbNBBw2epiGFP6yEyFRYMqlwdSwc26mZNW8aFOcHZ+378/sWIe+SfHP+DWw+Nb3A1Om6AIUdwFJpVKwNJ6hB1TKHW/tMjMd4BHHdt2/4pkuD3dOlT0GUXWmpawP5mb1naUMYqKMQ4y1maphqYTMqu9LMpNib5M9M5c2q94wG+cH2upUUxDGi7FWzM4dgWRy7FgbbgQVYX1IYGRenq1bPh/8AYdfMCXak97g8FiDq+SpQc8W7h7ISeJyGcgTe6tqRuPMTr+0rClhcFhm0fJUruDoV+sPmQEcDlAnG42mRZhvX4iaNF2pXXF39rsD9Vn/52FQqlCNdDCWqC8BLBlzDzHIxu/uCDvG6SdRJfA7hc0c0leZnfS4YiEqqYDpsMB1ks8GpVryNerp4/KHvVgdl2N9Y6RSHex41/kPajSjyCNcx6php4IGs2KmbWOGkDGiCsXZ4s0rvEDFcaxcGjmVXj5o41iFXDX1EajiiujSxiRqImAcdYLXgJPyGIQwlNSnaAqxpnpNGjVDCOmBKO3K4K1MeNUS0irRxi1att8k9MMOcqYgyvMV1EQrG/wBn9qU+7OAxZIoMxajWAu2Gqnjb7yHivU87ja7T0K4w1GiuFvRpEmnXoVGr0nDXzFrLdSSSdSLajWcWStQHnyktnbUr0SRTr1KLfiRiob+YbieplOppvx74P5s+L+SxGpdWkdZs3EriMPSoF6lOvhqrVKbilUr5w7ZyCKYLBw+u7W3oTtmnTo1Rise18igUsOwprWxBW5DVkp6UqVySFNzlsp3EHlcT2t2jbK+KrMPyuVPqtpjK6uSbnMTc31JPUneZAtNNy/E7LOF882fyHuiljI+2MY+LqvXqPepUa54AcgOQAsPKZTs6b7kTSqJ6iD1dRaT1KKt+HDHhMAOICtcbjv6iVYirZtDcaSuulrjhwlF5h1dRNXi/JdjBchYq62lxr+sBpm2vpCsNSI9o7/l/vJaFWc8IacUg1dNPWRd+P7tGNlGZvIc+pg9JWqHSaMqrTUUs+CFR7lveRS/7NPOKHtreAd8PJp0d8d98UUurgpv3FTRooomOh13yQiijiHEXH984oohu5JZTT97ziijMSJ4zdIbOiijfqH/QaNXcYJFFDIoiiqRRRBohh/fi2lwiig9gv1otqbhM1v4giigTCp9wl95/fCB1Ioo1TgKBm4vfBDFFOY1f5jNKnwX4Xf5Q7gPEfOKKXtF+WRVeRtse/NDZHu+sUUuUP9TIhq/lILiiimkVT//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMVFRUXFxkXFxcVGBUXFRUXGBUYGBcXFRcYHSggGB0lGxcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYHAQj/xABHEAABAwIEAwQGCAMECQUAAAABAAIDBBEFEiExQVFxBhMiYQcygZGhsRQjQlJywdHwYoLhFjOSshUXNENTg6PC0jVzorO0/8QAGgEAAgMBAQAAAAAAAAAAAAAAAwQAAQIFBv/EADIRAAICAgEDAgQEBQUBAAAAAAABAhEDITEEEkEicQUTUWEyM6HBQkOBkeE0RHKx0SP/2gAMAwEAAhEDEQA/AMJBCizALIeKcWUoqQhJGoiiiARsTFXCpF0R/pALaNUHmyUr9FXfSiVBNWFaTM0Q4i5VIFyiqma6HastlqIRA1TSC6EZLZWVNBY5n7chq4/hHFEjNRRhq2DfRnO0aCemqPh7J1BbmdEWt3Be5kY/+R8+KsI8ZEbHPYwsc0A92QM8jSSAc1iI7EXIIJOXYDxIGfFryNdm0beQscDkBJzAC5OcgkNOgvl11ugtOTtmrS4Dqf0feICWqYL3OVjS4hoFySXEAacbW211CsaHA6CFrXZxJI03Fy0hzgNbi9rEm9ljqnHJMhjDvWJu4+ucxubnhcge4cgq6K41JKknouK2aWooKEasfIC8aDwnLckOGoFuqin7PuabtabE6XItltcG+xPRVFFUljsw9YbX4dFcVHaIvkzPaTcDZ3iFhtrp8EOXq0bSrYPJTlu4Q0z9FrImNrI7CwfY+Lwgg2uGkXF7kWusZicL4nmORpa8Wu07i4uPgQUPHBp7CSmqI+8XjyhmnVShM0Cs8eE6Fq8ap41GXFWS0o1VpA0WVZBJqjBOFcFZMjodVGyCNRrZPrKkGyCZe6uSMKRb070SXkBCU+yndJcWVpIpsX0gpKFJV2IgO02CT15dRySWUeiRTbG3KsKZg4qva7VWNMbq47LmqDWxaaBCz2G6MbKANVWV0g4LTVA0yuqHaqMlNlfqiKCnMjmsG7jYe1CkEix1DTlzm2LdTYAm3tJ4D9EydodnLiQQQWOzX4G4sOZsb/w+aIxdrY3d2LEZdbb5rHjr7vPmEMJLk36+3mfeVS+rK+yHxNOVo02uTx0zaknnmPvRsWESSHQH28OOvnxtwup8LguWk89um36roWHtYGCw15/En3oGTNWkN4cCfJhIOyR3d8d1b03ZhtvEtBPJrcIUTnqgOb8sejgjWkV8nZOI7Imk7GREWI1RUdQ7kjo5nAjQ+xEg0YyYqA6P0fG+aGQtdyvv71le1GA1MktzGbNGVziCCMo1BvuAbgeS61gFYcwuDvyKse2eDd9Hnj8Ljo63EHbN0P5o/G0c+ap0z5jMZabEKVi6FJ6O5XuJMkbGjWwuXFYzE8OdC8tcCLHS/FbUlIHVADgnRvTHJkY1V0X3UTmRRyTpxCgkbdWlRmTse0ko6CND00DuStIWW3CtmETQsU/chQMkUzJQiRomxuQL1LvQktaJTKdzHcE5tI8jZaqiwm52V9S4ILbJeg3elwc7joHngrGnw94XQY8FbyU4wpvJEjoFOdnPJMPeVVVtG8cF1k4YOSpcSwoHgrk7Bx0cuEJJWm7OUDQ2SZxN4xoBpfTnwU2IYYG7BEQPEdM+18ziWm3LKB8b/vRYlwai3ZjKhxc8nmVY0lGSoYoPEtFRssPIDU/DT98EtlnQ3hgNoorGzeHHjbitPQE5QRsgMPo7iw0/fFXDIwAGtGgSOSR0McSORpKj7o7nRGytaxuZ2lllMZ7R5SQz2KQ2G76RoxO1u/zRQxCIjiD1XMRis0h0k+StcP7076ork4A/TkOlYbjTGka8eK3tLWMni8JBuNRuvm7GsQc05b26bpvZvtVUU8gMcxte5af6pjHkbjsS6jHHuqJ2t2GMEjhnOa50PJYf0j4Do2Zt9NHE7eXRWdd2gjkq2NJyOnhjlaRwe4Ef9qvMCxRlYySnlAMrLtkaftW0uFSfbIA1aOCvYlHGrntBAI55IxHkAcRYjW19Pggg0WTKYOiGGnzFXGG4Bm3CWCUwJW5wqkACNjjewWSXgoo8EDeCDxOiAGi2dUwALH41UakIkoqjEWZSWUtKXfGybW6lDsJCXYZBHeHmko868ULs65htMFfQwhV1EFcQNVgbPXRhMsixAXbKQYc5V3JF02AaKur2ixVvU0pas7ic1rqXZKozWJi5QMLx9YziW+HqDupa6bVCYVEX1MTfvPAJ5NOjj52FzbyUlwXHkEFO1pGm/P8ARExu0t0/orzEKKB+kRcMhy3Jvc+ZsAT0QlThpaMw1H2lzcmSLdI6y6eeNWw7B3Xbf2K3jFtSgMDiHdfzFWEpFkvJbGce0UOP1LnaAHTYBZaswKRzC5185O1xlA997rePYPJV1VBfc2CkJuG0ayYlKNGKocPLXAOFum/wWywyIADTReQ0TGnb3qxjaBspkm5skMaiqKbtd2fuwVTRdotHIB9nNfI48hfTrZU3Zzsk6oeWtkbmALmtAJLrfZHLqun4LMxzjBNYxzDu3X4EnwuHmHWKDwajZTzEtYA9jiDzBBsbXT0dpUJZY1J2t+DD9u6V1PJTSkZX91HoBa2QuFjzOnxR9HjJjqhUN0c8NJtxuNQVaemvEWTR02VgBHean1tO7uOmvwXO8NrPDmO7S3TyCJKKaFL2dR9ImENmjFSwfWNbdw+8zy8wuZB1l0OjxYlrLeIEeIc2kcFz3GY+7le1vq3u3odQqxSvRc1Ww/B6mxWzo8Rs0armMUxB0VzQ4kRYFOwnWhWUbZrMQxI6rK1kpcSUXU1eYaKqfJbdVKTegscaSsgczVRyRqdjgpXxiyG0yk0ysypIvu0lWzfajrtIVdUyoqR2quqcraFi/pRojb6KmgqwN1JLi7ANSlckXYeElR5ibxYrmuP1fiIC0OP9oW2IbqVgqmYucSUTEmuTE2nwQyG6jp6ju5WSfdcCemx+BKkKEqBdak9FR50ackRROsMwEpt5gtBaUZhEhk0ktctNwNjtt7/gqrs5UiVpgfqQLC/2mjax+8PktBJRsja0jMHN3138lxpwcWel+bHNC/IK1pjJaBoDp53T2OuFNPrY+SiOjb7rXKF77WDPkJK8e6yjqZQweZKCrpSGX5ofkOmQ1VZrlbqVKMYEYDe7LnW12Ab1ug6BoF3E6lKpIN9vaipUTutBU+Nl9g0eK4sAdb8EXUdoy6qeTcG4BOxLmtDXOtwuQTbzWUpY8sgdnaLG6PxlwMjZRbxDxW4kcUxFVHTFJv11JE3pNrM7aX/nE/8ATF/msPSvLXEDir3t5UXlhb92EH2uJJ+SzbTxTcV6TmzfrNFQYq6IZeRuDyadwp+0Tc0jXAaFgKo6ysEjWWblIFiR9rXdX+GxmSNrjsPCPKwCqEPVZJT1RT9ybo1kRtsryKhHJSOphZNKDAuW9FAZLboGpnvoEZirLFVlljhm220EUytI2aKrp1tuzHY6qqcrshihOpmkFm25tbu+/C2h5hX3WZ7aKHuUl1T/AFdUf/HqP+l/4pKu5EqRWU0ttDoRoQeBHNWcFYtRi+Aw1Qc9v1c3Fw2cR99vHqNVj8RwWopQC8BzT9uO7mjyOgt7VpApINlrBZUWJVvmh56xVVXNdR0ZIaqe5Q1k8tXmVDlJIIkQvKHeiXRrwQpDNnQ1igDRXaQ5pII1BG4W2wmtM7TmPL2HYg/P2rLCBWnZ1+SW3Bwt7RqlY5U3TG4txaaL2oiIbbeyBmlsOqs53KjrhvbZaSGeWCVouQeZCjxx/hBTpWkhD1jczR5cFS5JdFSxkmYHK4s/hIzHyuUZLVtHq0ZsCdZHm59lij6Y2C8rZdNLIndvgIsafllPHHPKbRUQNzsCb++wSbhckTxHL63HW4BJ2RlJWlrgbDfnotPi+H973E4AFzZ1thbW/RMLcaQplShK/BzPthLmq5bbNLWj+VgB+N1TgqWtqO8kfJ997na+ZJA9xUKcS0ctu3Y5q1vZZxdEW8nH46rINW37PSARN0AO2gte32jzJUTpkq0XMbbDzQlY7KnuuUUOztZPGHRU0r2nZwAAPmC4i489k2mqAbTMZilRdVzCumdlvRVVSVDH10Yjp2uJewyNMkgANmt7omwJtclwNr2WvxH0e4VDJ9McxzYmauivenbsA8t3yjcgkt11FtECUW3oNGdHM+x1EyEitraaWSmaLxjIckr76FxdZpY0XOuhNhrqu3YB2spq5hML7kesx2j29W/nss/idY8yZjdtG0WFrHvcx2awaNZuS9/Da3Dm+P0T6SUVtDeKxu6MEHICfLdhG7eF1dJKi23LZ3D6E3mUlx//AFxz/wDBZ70lj+hruf1Ol0mIFr79FoKGvuDb9hYd0lg0+SssKq/FbmLIePLa2XKBoRBTuuDBFqdfAzW/PRZ7FewtNKC6Euieb2F80d77EHUDofYrGlqLlPZMbn8ZHyP6or7XyYUTAS9ha0PLREHAfbD2hjuhcQb+xZ2ogcxzmPBa5pIc07gjcFdriqXXIvxQ2N4bBUtMcrAHHaRoGdpPEHj0O6Xy9P3L0s1F09nGGtTmNW0xP0eSxsL4ZmzW1y5Cxxtvl8TgT5aLFMfquPmxZIP1obhKL4Ji1T4d/ex/iA95shZHaLWdlezD7iaqYWMABja7Rz3nUEtvcNFr2NrkjhdYw4pTlSLlKhtaFTzEq/xJtrrPVRumnpj0dojACGy2Nl531k7vQdllryYbE8CygLBxTpH2QNTNyK3EtTosqJsIcM1hryWq7U1UUOHSPjcD9WcpHBzhkb8XBcye9x2UGO4q8xNpgdA7PJ+ICzW+y5J87ck7i+lCfUyT2mZxJOLdzwG54C+1zwW37H+i+srQ17h9HgcMwkkF3OHAxxAhzgeZyi2t0yIGc7N9naiul7qmjL3DVx2Ywc3uOjR8+F11nCPRdV901sr4Y3N00c59xfU6N+HyXSOz2A09FTspoAQxupJIzvcfWe8jdx+AsBoEY8N4XW1jsruMtgHo/hgOaeTvyNm5MkfVwuS7pe3kVrXTW0G21uSGFQRof35qComRDKRNLUfJDSwNkikieLsewtI8nAg/NQyS6le99b23+AWHIIo6OOYXis2F1DqGrJdAT4XHYAmwe3+E8RwVhizMkjWN1Y7MYybEEOGrDxdodG313JAAtf8ApBwZtZAW6CSO7mHiTbVp8isT2HxouYaeT14vVvvl2I6jZByS13I1FeB39kWf8Bv+MfoktL3q9S3zZBOxFpL/AHYPIqWgd429VDFrG4L2hd4m9UNOghawTWkI/iPzRUMnif5OBVU59pnfiHyCKpX+N4/fBMqZii6idqeqUr/GfZ8lFEV493jd7PkiRkYcQ1svhHVe10UcjB3jGOvoWva0+640QdrgcBmuT5KKeUE3ubCwFtkS01sxWzzCezlLBKZ2MJd9gON2x8y0b38ze3BWWJR96xwB8W46g3F0oiLc1G99jrpyKpY4xVJEt3ZisV13BBG4O4I3BWaqAbldKxnCxMLts2TgeDvI/qsBiFM5ji17SCOH73C5fUY3F34Ox02RTjXkppfPdDyx8QbI2dgQ0trIEZB3D6gL5HdVExhcbbKwAHEKBjgHZrdEeEgGTEjSdksFjdUsa4ZxcakC1+JsdNFYV/oQjztdDVvEdzma+MPeByY4EDy8Q89dkN2AqT9KbfXX9hdPrJiLuaT4XEfFP4kmrObnTjJIiw2nhpoG09PGGRtFsuhvzL7+u48Sd0V9Ovo4lvmNvcghO1xu7Q/AptQ7y/RH7vKA9t6DpSd9xzChMqhp3OGye6UbEW8+C13WZ7aPJJOP7shquRSzDRAVT9G+5VJkQ6abU+z5Jr5vV/m+Srpp7vd1HyCdNL47fdZr1P7CWlIMkDVLiX2bvz4N81yvtdTGjrW1EfqPJPUiwk99/mumOluSAdTueQWe7cYc2ale46OYM0Y/Dv7LXQ4y2RrQB/aKH7yS5fnSW/kIx81n0BRnccwm0jvGOqa3wvXjdJPalBgKqH/XO9nyRFK/60+f6IOrP13UKeiP1i0mQvY36J0bczyoKcr2Sa12jc7nkOSKpGSWpmzHK31R8V6GeGyGaiozoixkZcSNlU8aBFOjLmm514IV7bFSwPN+a020ZSI6GtvdrtHBNxWBjxaVoI4OG46HgvK2IMeJOeh0uimSxubx/JAy9Rhh6ckkvdm4qSdxOfY12fkZd0f1jOY9YdR+iy5frYrrc9NbxRnTlxCqqvD4pT9ZE1x52sfeNUF4IvcHodh1j4kjm707D8OkmdaNhdztoB+J2wW/j7PUwN+5B/EXEe4mys44LANaA1o2AAAHsCkcL8lz6teEB9kcEEBBcQ6Q8R6rBxy8z5lX9TWCJ0Zf/dyu7t3k8i7T7bEdbLyhisgu1jc1I63rNkjeOejv6p+KUIaObOTnO2W4p23LTfqnsDQbF3vXpOocfuhRVAvqt/dGbJpZGgaIVxumFqcSpdkoi722h2PwQFe+3vRNXsqfE5rsv7PyWXwQGpJMzyTtclQir0e/7x0/L8kI6bKw/wAWns4/BMElmtuOjebjw6AWuk5MMEGUMF3cdSOJ8uirsSLpGPB0L2lo/hB02SqJQPFIdfmeAAU9E3NqeKJhxObvwDnOjFf2Lh+9L72/+KS6H9ECS6HyxfvCJ26gryZviBRJjuLKNzdB5Lij6PKweNp8vyU9CPGvJ26tU1MzxLSKLCE2uo9zdJrgQcvDdetUjOM1cWXQ5qlY+yY1PLboqIx8jha/L4dVQ4X2vgmmMDmugmB8DZMv1rdbOY5pIN7HS6tXjQg6g6EHUEcis7jnYimqA5zGCGe3gfHdgDh6pLW2BtYC+6NCa4YKSfKNXFJ9l+oPNWMLm5fUA9yxGAYpK0CmxAd3ONGSEju6gDi122a240PGymrsdcJe5jbLNlID3My93Fex8bnEC9jewubdRepwS21ZLs1EtGPWYfZzQbntB8Q0OnmCo6OocON0bUxte0vA/EPzCBBRx7hpeV+6/cuV+SFrAdjdPbEhPor22cw3CJbO4ixbY8eSaVcmT2U3FmnVNxNoFNJm+78fsj32TjZouvIbTHKdt/dr8/kl+oz/AC0vq9JfctRs8xCEkskD3CzfUBs11rHXzNrX4a81HSY1FJG90EjJcrc1mOBOrSWhwHqnSyMxHYAcD+S5niXYKqhndUYbOI81zlLi0i+pbexDm8gQno8bAtfQ23ZvH46yLvY+dnNO7HcQR+9FZlZz0dULoaPupWZJmySGS9ruLnktdcesC22vl5LROVPktcAtQbmyosU0aepWigZe5WcxZ17/AIih5JJInkpzHmIHAb9EFi+KRwNL3nyaPtHyaOKZ2pxB9PEMg8TtQ4jSwNtOfJcxq6l8ji+Rxc48T8hyHkEKGFy2+C5ZPCL7/TLppc79BwbwaPz6rd4JUggLlNO6y3HZ+Y2CfxKtAJm67xJU/wBKKSOCLXA8VZUxCRh8nDi13FpRz2fFcY7LY46knDtTG7SRvNvMeY/ou1U72vaHNILXAOaRsQRcEexcLLj7X9jowlZ44bL2SS2g3K8c6wUYF1x/iHWfLXZHl/oM44XtntNMWOv7xzCt3NFszdQVTkIyiny6H1Tv5eaT6DrflS7Jfhf6G8kL2gyyQKcAkQvSrfAueObdRg2UgKT23W+Sir7UYQ2spZIDYOIuwn7L26tPvFuhUHZiACjhbkaxzWhsjWgNyyjSQEDjmvfqrXZe0EMbDIQCDI/O7U2zZWtuBw0aPaiRlapmHGnaE1lkVTSWP71Xr4OI1CiboqcK4Lu0P7zu32+ydQf+1SzSMGt7eSZKA8Fp05Hkear5WOtYjUb/AK9ChYu7HLs/h8fb7f8An+Cmk9inqybuG23t4KSidkaZNdBpzP8AUleNpSWAD7R9ysO4Hh+63XqRt+qBPDLL1Sk+IrXu/wDBpNKFDHtNgDvbXqd1NE24smsZmKKLA0XXVSAMy2PdoY6aeAPDyXNkLi3IGtjbl8UjnuAaMxGt/Ib2NvBVMlYJInB7HC4c0gg+0LEelDBzIBM1jngANOU2LbEkE6HS55ckd6N5AYHsbFJGxpb6/ql5uXZDYXFgCTzduVutGL2a8izFQtpWyVDInPDcxNieJsTYDnYK+qxcWCqO0vZt08Ykp3GOphIkYRfK/iA7zvcf0SnZ8zqVFvSTf9y5PtjaG4hgLcQgkpJbMqqduVhGgPGN4HFrhcHzzLg82DSse5j2lrmktcDuCDYhfQ0cFVNPR1WRsJDXMqWOPjAI2BFw7xAEIDt7gIe/6Rks7RsltnH7Lx12TXUycI90fALGrezhUeEvutngdAQAriLCQSAG3J2A1JWlw7slNa5DWjzOvuCQw9bOb9KDTxJcmZ+iFJbf+ysn3m+4pJv52X6Au2J87/RXX2XU/RtWuMD4nbxEFv4H309jgfeFTDCByVv2aaIahoP+8Dme22YfFo965XVdU5YpdnNDkI09mmc3XVPY1PeNT7E9g3XjZTcts6CB3Bexr0pZVCB1I+4txb8kS0oGgdaQeeiOe2xXqvhmZ5MC+q0K5FUhEJl7J4Xjwul90DI3hQkKW9l48K6sgyOdzdiim1bT6wt5j9EIQoHq1NopxLYMB9V4PkdCiYIzsR8isxJUZdSQOuigdjTG7ytH8w/VEWSJhwkzZx0+Xh0sonxknXQeZAWNd2mZsJb/AIbu/wAt1B/psvOglP8AI/8AMBW80F5IsU34Ny6riYPWBPkg5K7vDpssvHVM3e2W3E5RYeZJctDTxgaDZahl7uDMsbjyFsbfokw3Omw2TJH6WHFPAsLIhhjoTcuJ5H4BaONgyjoPks7CLA9PmtLEPC3oPkgwf/1ft+5U+CA6L2rpxLG5htqLar2Zq8gkTT2gZV4RgzYBc2c/n+nII6SUoirGl1XSOKrFCMI1FEdt7JO9XiG70r1Esnac/wC5Cy2L4gGVtOODZo79M4C1hK5X2mmJneQdQdDyIXluhj3ykn9B2bo7bKPEerU4fbUFLN3jI5NPrGRP0Nx4mB2/tRDho9eXnFxk4vwPp2rB2BPISiTiFCz2HRwPmFbSBU7SriU6rvfBZamvYXzLaIUinuF9QmLvrQEieFHmspXqJysgioZWp17LxxV8lGb7UCzQ6wJayQtzAOAcG3BsfwrMNo68wtmYBldqGsZHny8HZQ25B8lse0EBLW25uH+KN4+ZCG7A0dVG1r5HAwSMzNaXEuadMpsdgRfQHiEBxuTR0enyKGFy1p+fPOkUlL2arJYi81JEg17oPNwLXAdlNmk8rIDC8BdI8tqJe53DQ9w7x5GhIDj6o58eCvMBweb6WJmi0THSxO11OR8jGi3HZiru1+FuZURmU3ZNM4ixNwy8QsTwOpVNeRzHmbm8cZJWrtLa+xVtw/uaprGvEgLCWvFwHB0brEfqusUkgyg8wD8Fhe2DMmJQG1gWxjytnc23ustThUv1TPIWPs0/JGwuptCHxBvJDHN+UXUJ1uVIx97lV7Xk6BWMQ2CcRyHyTv0Z1IC0VM7wjoPks5X6Mb1VtBKcthvbRJ4ZN9ZOP0jH9y5/hTD5AhDuudYl20qoaiRhYzK11g3xZi3gS6+pPRaPsz2uiqvD6sg3ad/ZzXYn004R7vApHNFujV2u0hU0pIVw06KrxBniuOKXDIG77ySTcrklLNUjEuXK+0UeWd487rqeey57i8ffSvNtbm3vXm/h77ZNj/ypTWjfejyYvoYLm5a5zOgbK/KP8JatHP6ruv6rE+imRwjmid9iVrx0e23zYfettWer7SuB8Qh29VNfe/77D4/wojpgnOT6UaKN51SfkIeFWsvDoqsBWj9m9F3Pgr9U17AM3gYHLyQcR7f1XiQcvQp0AInPCa9vEJ00F9W+0fooWm2y2UeEpilNjtvyULjZQgJip+qJHCzv8JB/JY7s3iD4q8xOcSxzjFYnQAXEdhwtZo6FbOr1Y4c2kfBYOMxtr2zSvDWDu5SdSScrSAAN/Fv5AoU36kdLoFGUckJK9MPxOtfFXANe4RiqOZocQ05u6c7MNj6z9+Si9IUZE8n/ACXjyu2Rht7WBV/aOWmzPFM97iZBIXuNw5xDs2TS+hI1J1PvRfaXtHDUxN+rImLAHOvoLPByjmD4jc7XtxNqbW0dDFhkpYpxi+Keq+m2HekN9zSTji0m/QscPmVf4UfARye//MSPgVjZO0+ej+jvia97QGsebENAFs1vvAaBanAJM0d+eU++Np+d1qEk52jn9binjwRjJcN/1XJe05VpSNueiq6VqLr8RbTtYDbO9zAATbR8rIy72F4NuNk/E4stbCcVdoPejIZdB0HyQOIC/wDhHzKe1+g6D5Ln49dfL7xX6Mt/lr3Mp6RqABzageTX9CdD7/msI+R0T2yRnK4G4I5rreN0zZ4XRvvY6HL6wB3LfPiiarsjT1FMIgxsbg3wloALbbXduTzuvSYOrjGCjI5+TA3K0SdjO0Aq4L/7wCzh523SwmsMvfMkFnRyaD+E7H3grn+GMlwusDZNWO0J4Ft/mF0adgZURzN9SYZHcrnVp/fNCzY4pvt4fBqE26vlck/djmkjPo6ST7WNdxylY5v9+/8AEfmUkl5rp/ws7XS8M0no8/2qo/BH/wDYVtq3YdSkkuP8U/1C9kZX4mPpvVQ0nH980klzlyaHs2/fmrQ+q3ovEl2vgv5k/YDm4QwpoSSXoxcczdCyes7qkktx4KXJBxHVPqtgvUlUeGWwKXYrmeP+uz/2Y/8AKkkgZeTq/CPzn7FfHutBhi9SQjpddwaak2RGHevL1H+UJJIuP8aPPZuGXtFwWP7e/wDqMX4IP/1NSSXVx+Tn5PBvqnf+T9VGdh0CSS5/+9X/ABf/AGjf8s9arzC0kl0gDMV6Xf8AddT8lfQ/7BT/AIo/8wSSTv8AJh7i38cvY0SSSSUDH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSEhMVFRUXFxUVFxUWFRUVFRUVFRUWFxUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQIDBgcBAAj/xABNEAABAwIEAgYFCAUJBwUBAAABAAIDBBEFEiExQVEGEyJhcYEUMpGhsQczQlJywdHwFTVikrIjQ3OCk6KzwuE0U1RkdIPxRFWEw9IW/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EADgRAAIBAgQCBgkDBAMBAAAAAAABAgMRBBIhMRNBIjJRYXGBBRQzkaGxwdHwIzRCQ1KC4RVi8XL/2gAMAwEAAhEDEQA/AD5GLEbBXWQkqkUTkxPU05VURbPoBZK0NFjOGSyk0XTLHVCSxRMCrKnRMkBsQVFRcqyRFs+hN1xyCmsU2USJ9SSuQGVtwx73BrGuc5xs1rQSSeQAV4EJm5wD5KJngPqpRCD/ADbAHyebvVaf3lbMkRcbmxpPk9w+IaxvkPN8j/g0ge5JKqwqmXy9FMPIsaZo72l7T7QbqfEK8Iz2L/JxE8Xppiw/Ul7bfAPHab55l2ZM6zRg8UwGekfaaMgHZ47THfZcPgbHuSlLpgxcmQkkSbMAnJlvpdkrRSLBZ6q/FSaLKQFNUIKIXIClqFRIjKQM6W6oiLZdC1MKENjXHHz6dccCyCyBxXdcE7G6kWRI0XKZaJOhGxdV0XcqomKZoLIMKYM6SyRxLJlL6hLlHUgKpnTKIrYAyMkqqRO41pKVBoaLGsFClyj3D6TCXPcGtbdzjYAcSioXA5WOndHcBiombB0xHafy/Zbyb8d+VmcrKyJJOTuMJKzXdQcy6poj6QV1w2RW+RA6xSTxBRAz2ZrJGlkjQ5rhYgi4PiEyYjRynptgApnF8VzEdwdTGeGvFveipa2OadrmNdVKxBnnpSDQyZS6dJYdMqfIusc5FDjdMkIyyGAlG4LDaGk0C652UsMFkbgaIlEWwHVs0XHACB1z9A9Qs9irZXLTpkK2LKyBOhTPV8SZBM7VuQaGTAHyIZRrlIN0yiBsLp2KiQtxtRxpWh0O6SJLYa5suizWxNdKbZvVBP0RYE+ZuFzdkK1mdgubFQ/1bn4Hw5rLOoaYU7E6UuJ1aR7LKcbseVki58w2vry4qlyYtnqdd/eg2OkRNdbVdmOylkeJXF9AuzCuBn+k1Q14INiCLHvHJSnLXQeMdLM49WxlkjmHgbeXD3LfGWaKZhkrSaIBMA9ShIlccXQRXRbOSG9LTKbZVIcU8OiCkM4n0tOmTEcRdPHYp0yUkLax2lkwgvXHH6MIUBiLmogFtcxMcZbFjYFOgmQrn7prHC5y6wS+njTJAGdHAiFIdU0FkjKJDNhytLuQJSSdlcZI0VDE5kLOsG/aNtT2iXX7t+XmpN2WoVqz6Z0be0CTrbz8L6LJOaNUIsMwyuaTlIHLXQpadTkzqkOaC3Qgi/O+yvmRGwnqoNdrd/8ArdK2UQrriW6k6fnikb0GQC+tAHG/uSZh8ovrpc3G+iDYDEY/H/K35tHuuFvoPoGGuumCNaqtk0iWRC5xAtRQAyjbqhIaJoaOJRkaYoYRR2SZh8p9M7RMpCuIixGayrFkJoz1XPdUIME61GwD9IueoDEHTJjrCrEapFHGSxee6rFHGcqmJzgTIgcH0sWgTBHNHCgx0hzDGpsokWSOs0qU5Wix8pjsQx+qiJyVBdve/Dw7lnjaSA5STJYJj7tQ99yVmrUuw00q19GPf05pvZQystmQmxLpVM0kRzEA8lqpx0M06muh5hmKMJBnnkc7e2bTzTSvyQsdeZq+vjkZZr78goOVjQhfiDA1vfyH4rrhFDdNAuFYkx1t3t8PvW/D9QxV+sAtYqEiRaijmVubqmQrD6Bi6QYmjowoSRqiHBRZZAVY9NEEjMYlJurxM0xBUOVkZmDZkQH6RkmWW5WwHNVJjrCHEKtUQGhFO+5VkKL6lELBmhccNqSPREKHFLGlkUQziapsoiuqju0+B+BUKj0HOeS1FLE09eyaR5P0A0Nb4lx1KnGMmtCbcVuLTH22ZA8B9i0OADiD4GxTNaagWr0OmVvQ53ozXHRxAWB3i7mxJPQ5vjVI6B4DmnW9uZtvZbKVpIzTTix3hOMUUkWQ0L7jQvbkfr7nLp05rZhjUg2X4YzK+8WcM5OaQR3arNPbUvFdhpRGC27uSkmVaF1PRh8oYDa53PBUEepXjzY4G9XHDHUPHzsrw8tYDtHEGuFjxLj3K0KtlZC8CLd5GbniynTYgEeBFwtMJZlcyThlk0VlqdE2VFuqqhGG0q5oMR1TOUJI0RYWZEjRRMW10qKQJMztcbq0UZpsUTBVSJMpyLrAP0BWy2Cw3NSQiqK3dMmNlE9XUK0SckAOmV0SYHM9E4jDuuONBQMXZjrjiBoUmxkw1iRsqpBNJEHOsdrH8PvUJsZSuC9I+hkc4bkflPK1wUma2w6jfcqwTogxkrM7zIWuboToAO4JU8xS1jbYwRla226hVWyHpbtmem6OwztId6x0I2JA2seBCNOVg1FqAwfJ/E12kr8u+UlWbuSWg7koIo25WgadyjJoeKZnMUc0bKC3KinCqOSbrOqPabcjW19Nrq8o6InGWrI4Dib5GmmmiADmEhwGp45ieaVvkti0Yq1+Yr6QUoD2tH0WAe0lw9zgt1FWiYcQ71GKHsV0Z5A53VYk2GUoRaOTHNOpOJVSLXOSZR1IWYg5conOQgqSqxRCTA3R3VLCHno55LjrHaMTevPsbEZioktdMkOKamoVokZMGa4lVTJBDILo5gBVPS9yRyOsNaaKyXMAPhFkLhQbGUkmOSM5bdw4WueVyBqs82Up7nj8WFtDqskpM3QSYd0bmLbzSlrWH1AXDM47F2W9wFSm8kbsE1mlZDTEpxK/sPaGjiXAad9yklJSejKQi4R1RnK2tfHJbMCNw4G49oUnpsUCv08CNU2dsm4JC6sxkWNne1Gwt0Ia6qzNJuqQjqTnLQL6LuIGXMW593DgLi5/8o1l0rBobXNbPQR9h0RacoLblwFmu9Z2m5tewHNLGN2rFMzSeYxOLjNI93AuNvC+nusvTS0PMcru4inanQGBStVYk2HYcLp7CjmNtkrQ1z14SZRri2sjRUQOQkmh1TpCNlkVIgwou9ESjm4xKpWdQKKRnamQm6oqYXMAMRKNrC3uG0lIlbOsNYaNI5Byl7KeyDYGgqJiAhc1GzOuel6VpguAYjVWY4XsN/YkyNhjUsJKaVxdYLPUgbaUyrpXTy0+WZslswDXMJ4jZzeRVqVNONmhatRqV0zOSVD6gZHTPaD9Fp3+0eKeNOMdUibqyluzoHRXAZG05EjrkeqNTYeJWerBPVGqnN2swHEw6O41CjFDSZnpq83sVdQM0ps9bXG1t1SMLCuWhfT18jHR9U4tIzXtxudiOK6cFfUanUa2Nq0SHtSSFxtsAGtFxrYDfzWqnhYx15mepipT02QsrmrQqZHMJKhmqZUznMGdBdOoiuQdQw2T5SeYZMjSuIykWZF2QOcGqoxYp1TEdQSuju5F0xVMLiiCm4FlIs6pDINmCKuqzLlSFzggcm4Z2cuYxRlErFjKkjWeSKoZxMUmhybo0UhWV7KiiRZAypsorZTLOjw7itiysJLSO4p+HoLcW9Hq/K1ziLujubfBYakOkjXTlZC6qq2zO62ozPudGA5RYczrbwCfVK0Qqz1kSjno2ut1Lxf6XW3I8BlA9qS8ylqQ2i6QugH8nIZGHUX9Zv7JCXrbndTZ3GkmICaPNbWyyyjZmhSzIxOKWuef4rXTRkqAbKggWH/lWUSd9B90fYH2P7SlNfqJFafUbNxM9exkPLUxbVaplAOYWvhTZDsxW6NFQA5htJEg4i5g1saFg5iWVMoiuQLWM0VIxEchS2HVUcBVMKiiUZQLxmXdUkyMpnAxCr5DPnJsg1QdMKmFxRLPOmaISGMEazSpmhSD4gouBRSLH2RUBXIEmVo0yTkCPF1eNIk5kRGqcMTMRfGEeEK5mRaww1ErCdHBxHeDqPZqvMxFNxlY10pXQEMIkn7LJGtO4D9AfPgoZkty0YOWwWOhta7sl8fj1jLW8tUueBb1aRAdHHQE55WvdsGMuR4lx3QnUXICpNbhWHPcwOab3OgCjNKVmNF5dBRiL7OI47/gtEFoRmxax19Bvsqkjb9H4CwMad+Kz0+nXXiaZLLSfgaORy+lyHgZgWQXTcM7OQ6grsqCpMj6OuygzBUESRxHTCQ1LkDciQqKAjkDzNunjARyBhTqlhLlghslcR1I+yIZB85AUxTWJ3PjAQhlCmXwxFTnAvCYfHGs0oGmMy0FT4ZRTIOcmjSElUKpGkq0aaISqMq6kqyiiLkyTYimyoGYkKe6FjriLpfhuWMTAasNj9l2ixYymnHMaMPJp2MtTYiLAcdl5LiegpA8mPVAOUOA8tVPhQ3K8eoEwYg4DM+57/8AVTdNN6B4jSuwWpxQk3BsqxppIlKpdgksmY33KolYRu5fhsNngnf4IVHoGC1NnhBu4KeGX60fEtVf6UvA0TILr6l2R87a5c2kSuQyiXsphyStjpHxpAeCGY6xE0tl17nWK3sTI4Fe1UihGVhtyqWsJuFRU6m5DKJN1MlzDZSHoaOc7KTFMlzBykm0l12ax2U+NLZC9w7FrIkjQ6kSfT6IJDZiuKnTNC5rhLaZLc6x62lTZgZT6SjXKZziew065yOSJ1OCmqY+Bo1e0jw/aJ4AKFVrK8xSCd9DhcsXVyEH6JI8bFeS0bkFMxJrSDkbfvClwymctr8VErQ3KB4BGMLaglO4pfYKiEJ0rCuZwyo4SSozZaCNn0fiLnNDQSSQAOJJNghQ0qJlKnUZsY6axIIsRoQRYg8iF9G5X1R4SVgplMkchkiTqRDOdY89GsjmOsUyxpkBgcrFZCsDnaqxQjPqOLiumzooaRwrO5FEizqEuYNiXUIXDY+dTrsx1i2KnSuR1iUlPohGQWgeOLVUbFsE9Qp5hrEfR0cx1iwQpcwT4R6o5gBsOESv2bYc3dn3b+5RdeEeZRU5MLo8A7dpLltrkg5R4cz7tkk8T0dNwxpPNZrQH6d14oaM9SAx80jIGkbgvuXuvvcMa8jvssc5ylqzXTgk7I4X0zowZnubpr5GyjGXIpKHMyMjDfYqhMiHkbrjiUZLtN0LnGkwqh2vuVKUisYjI09jYWAUWyqQ/wAAGU3HDXTgQmpvW40tjq2B1MdfA5z2t61hMbnWFwQAWnzDgbeK3U6rjaS27DFVpLVEv0A4DR7fAggfva39gWh4hN7GZUmlqwWXDpWbsJHNva+GqdVYvmK4SXIpDbprig88apGQGhZURrRFk2gKeMq0ZCNFtHElnIMUOYYtFklIqkXdUEmYNiXUoZjrHro9V1wlsceiVs4i+NFM4F6mzlTNoAIczRJcJbR0jpPVaSOew9pSSmo7saMW9hjDgnF5v3N0Hm4/cFJ1+wdUgpjIofqNPd2n+06penPtfyC5Rhu0vmQfWSnSKIn9p/4E/emVKmuvLyQnEm+pHzYRhkUwDuucHEm4tsBYabDvU60qba4asWpKaXTZhflmuWUbeHXuf+7G4f5is83ZGmnucw6RHMSVBPUtJGWl0KqmRaBphdNcRoJoYQCkkx4of0gNtFFsqhpC240U2yqQ3wttgU8djmbn5KmENqj9EyMA8Qzte4tWml7NeL+hnr9Y2dS2QHMwg6WLDx7weBV4OFrS95kmp3vH3A7Ktt7ODone78PcqOnK11qiKqxTtK8X8PsTnpWyC5DXftNNnfgUqll7ijTfY/ATVmGubct7Q5Ws4eLeI7wrwqJ7k5Q7BTIAtMWyTB3xhOmwWIsYi2ckG0zlGaGTCQVMJ7nQsE9zIgPjJYLrBue0kTpDlZw1JJsAO8rptRV2dFN7BceCyk3JaPMn4BSdeKKKk2GRYQ1pu9wd3EWHmL6+CXjNrRBdNLdh/a2aABzdoPJo+9S6PMbpvb4/YGqAwfOy/wBW4b/dGpVIOT6kRJRX9Sf0AXYrBH83GXHnt73a+5XWHqz68rfnuIqvRg+grkTiFXJ83FlHMj73WHuR4OHh1pX/ADuG4tefVjYY4TTzMzGZ+cm1tSbb34Du2WevOnK3DVi9KM1fO7mX+VmjzU0cg/m5Rf7MjXM/iLFjqdU1UuscfxE6KCZoaM1Us1VUyLQKQmTEaJwyEFczkaXDZLjVZpmiAyg3SFR9h47JRbsjktTqXQqh6qkZprJeU/19W/3co8luSyxUewxVJZpNhtfRvc8SRvs4C1jsRcn71ppVYqOSa0MtWnNvNB2ZSa57RaeLTmBcfh70/Bi9aciTrSWlWJ7E2FxvG8sdyuR7jv5ISdSOk1dAjGlLWnKz/OQSBK31gHjmNHKf6b20K/qrdKS+IJWYZFNe143+Fr+LfpeO/emjUnDvR1oT02Zmq+jkhOV48HDVrvA8+7dbadSM9iM4OO4I1yq0Ii1klkrQyL+u0U8pxV16bIdmRZ167IC4RT0csps1hA+s67W+07+V0kpwhuxlFy2Q9wukEYLQDISdXWs3TYC/ms1WebVu3zHhbZK/yCpXNb6zg39lm/md/gpxUnsr+IZZY9Z27kVMlcfmo7ftO/P3p3Ffzl5IWMn/AE4ebPXUUj/Xk8m7fcgqsI9WI3Bqy60vcex4PENwXeJ/Cy54mo9gxwtNb6hkUDW+q0DwACjKcpbsvGEY7IsSjHy44QdMayEUlQ2QOkAYA9kYDnsznsOtwsbG/C11SFGVRpLmK6ijr2HAKtxJIIII3BFiDx0XnypypyyyVmjdmU1eOwqmYnTEZX6NddmFsUvgITJgcRlhzTcKc2UgaenhFrqKLjSljc5mUW10JN7WOnDfwC14PDSr1Elst2Rr140YOT8jsGHYg05YnljJsgcYgdQDoNOG23BbatFq8o3cb7mCE7pKWj7BgoFD5ccCyYdE76AHhp8FVVprmRlQpy3RS3D3N9SRwHI6j8PcndZS60Saw8o9STPXGUesxrx3G3x/BBKm9m0F8VdZJnonjkBjkba/0Xjfwug6codKL80GNWMujLTuZmccwF0V5Iruj3I3cwf5m9+4481soYlS6MtydSk46x2M66t71uVMz5jw4iLWuu4LudnK/ThzTcIGY0XRjD3ykSvGWJpBFx84eAaOXfx4d2PFVIwWRb/IrSV9XsjV1NQGetqT6rBue9359qwQg5be8tKaiul5L7nzYZH6vdlH1W7+ZXOUI9VX7wqFSfWdl2IIipWN2HmdSpyqSluykKMIbIuSFSuWdrNXOa0d5A+KaMXLZAbS3Apscp2/zrT9m7vgrRwtaX8foSlXpx3YDP0piHqtc7xs0fj7lePo+o92kRljaa21F1T0plPqNawebj7dB7lph6Pgus2/gZ546X8UJ67F5ZBZ0rrch2R/dstdPC04vSK+ZCWJqS5iqjrXU8nWxkG9w9h2kB3Dua01aEasMrXh3Ap1pQlcoxfAoa276NwEn0qd7g2Qd0Tzo5v7JtbmNl5WJoZllrrwmvqehQrZXem9Ox/QweKYXJC7JKxzHfVe0sce8B3rDvFwvMlgJ702pLuNqxMHpLQohiOxBCx1KNSO8WXjKL2ZXWQ2SRUuwdouw5jtw0+wqnq9WfVixc8Y7s1eA4ZNUm0TS4bHLYgc80nqt8zfuK20vRqh0sRLKuzmyFTG8qSu/ga6J8VHZseWoqRsG6wwn6xd9N/f8OPsUqDnHKlkp/GX5+XPMq1rPNN5pfBFVJRvuZHkOkccznuOt+5ap1IWyx2XJGCU23djiHEpWf8AqD4XzD+9dZJUKcv4fT5FViKq5h0XShw3yu9rT+fJZ5ej09rovHHT5oNh6URn1mub4WcPuUZej5rZl442D3Vg+DGYH7SNHc7s/FQlhasd4/U0Rr05bMOBvss5UjLE1ws4A/ngmjJx2FlCMlZopbG5nqnM36p3Hg78UzlGW+jJqMobO67P9mI6Y9HrB1TAOzvJHaxYeLwOXEjzXp4PE7U6nkzLWpXvOPmjEElevYyks5XWBqdjqqoRtDranSNg+Nh5fkr5mFNzdvez0JTUVma/+V9SzD6Mt7cmsjtSeXcEKtVPox2Q9Kk1059ZhFVVMiaXyOaxo3LiAFKMZSdoq7LtpK7M5XdMoxpCA79pxyt8m7n3L0qXoyo9Z6GSpi1Hqq4kq+kkr95rdzSGj2jX3rdTwNOP8feZJ4mrLnbwFMla0m5cCeZNyfNalTsrIzvM9zz05g+kEeGwZWROJM+su4bOySKn4qzn7ijww5GUvxln5BRyHcNg8mMM5H2JloHhsCqK1jvouvz2IRbvyGUGibek9SxuQPMjP93M1sjfY66x1MJTk7217jRGpJK1yk45AfnMNpyeceeD/DKi8LLlJ/MdTXYj0YtRf+3Pv3VdRb4ocGqv5fBDZo/jZNmP049TDYb8DIXz2/tCUVh5PrSfyA5rkkGS9JJ5xlke5se3VxgMZblYcO5a6OGpw1S17XuQnOctLl1NWhoswFo8PieK0OGbcz5WXie+7j70MluQMrL2ZefxSPN2AysIa9g4hTal2HZWTEzeY9qXKzrM9DxzC6wLMtpqySM3je5vcDp5jYqc6UKnWVykKs4bMe0PS1wsJmZh9Zmh82nQ+RWGr6NT1pvyf3N1PG/3o01FWxzNzRuDh7x3EHUFeZUpTpu0lY3RnGSvFlkrOI3+I5H86JU+TBKN9Vucp6WYQKebsC0cl3MFrZbHtM7rHhyIX0WErcSnrutH9H5nl1YZZdwkstZG513C4jK70iQb/Nt+q3n+fHkvnK8lTjwoeZ6VKLnLiy8hrJIGgucQAASSdAANSSeSyWNVzj/S3pKayQgfMMcDENiTYgyH9o3NuQ8Svo8FhFRheXWfw7jzq1ZzlZbCD0sjit2YjY8NUhmOseCa665xYHpgEgicSDAjY4mIRyRsAkIAusdci6nXWOuVPpboWDcodSJcp1zwU67KG5fHThFIAbDCE2wGEtjQuKTCBx7dA4k2MlBuxxaIUuY4i5qKZxQ95GxTpLmApNW8cSi4R7A2TCMOxmSOVr2uIILQeRbfUEcQpVcPTqQcWh4ScHdHVsGxRlRHnbuDZw5EfcvlsRh5UZ5WepSqqpG6FnTDDethc0DtfOM+2wdpv9Zt/YtGCrZJp+T8H9mRxELr4+f+0cu05r39Tz9Dt4PAL5M9a5y75U+lYcTQROIaLde9p9Y7iG44DQu8h9YH08Dhk/1J+X3I1qjXRRzikqC1xFyRbj+e5epGVjK43CZJL6hO2ckQa8oJhtYLjVEIExhUQLhDGpkhS9saY4sAsuAVveuORQ+VC4SozFC7CfCQnddcBNq44mETiwOI2XHFkcp4rgMIa8INAGUVCbBzssbT6pkc1mb7IPad5AryqvpOjCTjFuTX9quaIYWpJXei7y4UTzpG6GQ8GtlbmPg11r+SivStH+pGUV2uOg3qc+TT8GKa6okYSHMcCNwRYjxB1C9ak6dSOaDujO4OLsxY/FiNwqaI7KeNxZp3XZohyFnpjCmUkDK0V1EzQN9bj2X3QlKx1h90Fxt0dXEwmzZgWW8AS0+0e9eb6Rgp0r81qWwzcZ2OqVgJYSN29oeLdbeeo814FN2lrz0N8tY+BnP0BQ93tW7j4kzZaBLph0jFFSPmFuscRHCDxkcDY24hoDnHuas0KeeaiWTsmzgb6km5JJJJJJ1JJNySeJJJPmvbUklZGW12UNm19vwSZ9RsuhfRz3dYnQ+5NTnrYEloaCPDx9b2BbFFGZ1H2BcVE3mfcnSQjqMMipGd/tTC52FR07OXxSuTBmYVT0mdwaxhc48ALnvPgpVKqgrydkGKlN2Q6xfo0IoGzRu6wDWQ5QBlOz2jcAcb33vpZYMP6QdSrkmrdhrq4TLDNF37TPuYOQ9i9O7MN2QyDkPYjc6551Q5D2Bdc4+6kch7F1w3JdSOQ9i67Bc9ELfqj2IZmHMfGJv1QuuwXZ8IW8guzMN2FU8bIozNlDn5skQIuA4DM6Rw4hot3XIXmYuc8RWWFUrK15vu2SXe/kbaCyQdVq75L6mqweEZWTWc3rnMGZ7OslLgLh2fNo0ube55gBoG/nVIqDdKFrRvtt/t/lzXGV0py5hnokBkdA1zXPszMx7bghrnSNbdttieN97cUrdVQU3tr8rDLI5ZVuIK4Azehy3L8oLJHADLIS49U2w1hIy23sSeIsGpxlhoetUere0ors018e33+KVLVJcKW9rp9/YZaaGN5LSMrxpZw1uN19LGbaT3TPMvJaCqowUk2bb2otRauMqlhXWQvh9bibDxUp9BFYtSLZI8oaxxu49p7uAHADuGqF+TA3zRTTYgRO2du7HNLByDTp7VN2ne/PQZXjY/RlJUB7GyDZ4a4eDhdfNTi4ycXyPQi9Li/wDQjFo9amR4KOG/Kd0i9Jq+qY68VPmjFjcOkuOsd36gN/qnmnodHUZrkY19QruqBRINm1SqpqGx4JjwXKbbOsa/CpnZAHntcuPdf88F6tFvLruYKqV7odUzrrVFEGHxIsQMpKd0jg1jS4ngOQ3KjUqRhHNJ6DRg5OyRvsComwnLG2QX0kMgAzbWLQDwLuAtqbm4XzuJrSq6yt3W5Hr0acaekfMujqw1r3dW7q3HtMcYgYy5pc5z7vs1p00Ot3ba6Scb2V9fPX4FM3doYzF8FfCHPyFsWfK27mlzQdgbE6X0B32uvcwuLjUtBvpWPMr4dxvJLQVZVuuZCLgimElGgziYaluA9cFyOQM4Eqishz1oIXOzAx5hgmywdQAezUB1xewzxl3nbL7F4EuEsViOL/0a9z+Fz16SqcOHD77+822LxXhaGxvfYsyiN/VlvAEOuLAfesVF9PV233VytVdHRXMpgsmWSpa6RvWOa25c9rzuA9pfbV4Gmml+dl6uKSlTptR6Kfh4adh5+HbUppvX8v5jDpk7qmxvbCJH5HMLjdxja3KQ+9r6E926wYaMamaMpWW/j3Hoybik4xv9DE9KI2uqJh+2435E6n33Xs+irywVNvsPLxWlaVhHS4vld1ch14O59xWrOk8sibp3V0U4pGf5SQEOHqlp4NcAQ5p4G6Wqtbj09rCCqqbi19SAD4ALNKXIuon1NKeG57LfEoxegGtTuXyfYkJKKNgNzATC483C2Wx4+t7l5OMglWduf4zRTk3BI1uYcwsNmWtE/JFYyxBGxC9StGzuiUHcEJWYcrdIluNYnTTWN+SeE7O4GtDU4fUQQxZ3uLpnkOsAScuvkvUo1adJXerZjqQnN2WyHNBiYIvYN7ibnz5LfCq5dxmlTsM4q1vP3Kj1J5GH0GMdWSWgEOaWOa5oc1zXbtcL6hRq0FVVn4+ZSm5Qd0NR0wmvm7ObYHq2XDdOyDy0Bssv/GUrW195f1ipvoRHSie1s/j2Y+1pbtdntac+QTf8dR7PmL6xU7fgD1nSOaRpY97ntJBI7IBIsRs0cQNFSngaVOWaKsxZ1ak1ZsXGr7vetWREchA1nd712Q7IWsrO73pXDvBkJ+m93vQ4fedkPhXj6vvXcPvO4Z56Y3kUeG+07hkG17eS50xuGxnh1cxwdEXuYHEOa+5GR9ra2PqkEg+K8rH4apCccTTWZx0kv7o/dbo14aXRdJu19n3myw+rfHE2KQkkAZZGjM5ttjkBJe3TQi9wNQF5TqU60nUp8+X5sbEpRioy95Q2spozFllLiwyPIbC/rZHPzFw7Ng1tzcgi3ZG1lVurLNeO9lvorbCKEI5ddr+OorxbFJhKaiV4jgDcvVAguJBu2JxsR1jjYuyk5QLE85y4bh6tSV6snvyS5vwXfuUUpqWdu0TE1VYHFzi4XcS4nvJuV9RSpxpU4047JJe48ibc5OT5mbxjcH8nvCjXsVpgU2NHq3xncAAHncg6+9Y5YnRpl40tUxQKjMVmVXMyzjYMbV5Rcb2s3uB3d4ngqurZaE8l2dm+SKUuoGNAALZZRpxJIJc7wB+C86r1rsp3G/yx81G8ynQPys9mZluIXrSWaJFO0hbILLFJWLIEcVJjkOsIKnmaYbDGhqBq5xG1hz8ByWuhUs3KRKcewb0dSbXtlb9Zx38F6dKo2rvRd5nlHWyGlPWg7G/fay0xqp7EXCwwgqSrKQjQbFMnuLYvEl0bgsTuicRsiEreFxxKMrjmWAIAPg1cdc8dGuOuUmNcNc8ykIHBtJjtRCA1rg5oNw14Dmg8xfbysvLxPoqhWlntaXatP9P3Ginipx03XeXz9Lpn2vHFcbEiR1tLaNc8t2JGyzR9CpacWVvL7FXi/wDqhHX1kkrs0jy6wsBoGtHJrRo0dwC9HDYKjhlamt93zfizPUrSqPpAMsi0tk0jP4hJl0v2Cf3TzavNxEsrs9n8DVBX8RFVzHMRe9tL87bLyak3maNMVoewvXQZzQYwG9rXdy5d571oSbem5Nuxo+jPSmro2vhge0NebuuwOIO12uOxXcLM0mK5WVxp+l6r/iJf3yvQ4EewycRmTc611BtI0pXF8yyzKoedC8Ha95mlbdrCMjTs541uRxA005nuXUaafSYKk2tEKuleGGCd1h2HkvYeGpuW9xF/ZZZ68MstB6croAo5bera9rWIB9i6lPK9AyQXE4l13Wd4krTCTbu9RGuwdUsp5M8rr0ac2+wzySGdO89y1RZJoNjcqJiF7JEbgsWiVNcFiwTFG5x86Mu3KJyLY2tHFEDLbjiQEAFT66Jv0gkc12hUWwc4xFdLxY9o3DZJmJxHZFVIvmc4NEnVLTsmzIFih8wQuGwLJIhcNih8qDkEAqZlGc7DxQgxio0tz2XlYyppY1Uo8xVEy51P3lYYxuWbGdNTk7WYOLjv7fwWqnT8kSlIPZEALNuG8XH1n/gFpUNLLRfMk3rqF4VQue9rGtu5xDWjmSbAXO3iqQgo6sSTb0Rvf/4t3/FUv9of/wAo+ux/sYnAfajlEsiySka0ieF4e6eQMG27jyHNZ5yS3GNzTUGRoa02AFgF3rCQMhnum0FhFck3L/IgNSSq5xowymRdEdwUmXsGuEU044qtOa5iyQ6pJWr0KdRGaaZ1fobhNCygdXVUfW+uS09rK1jstgy9ieNzz4ALLiMRVdXhwdhqcY2vIK6WYTSMgjqqaLK1xZcC4aWyC7XAHY3sLDn3K+AxVTiOlU1J4iEcuaGgf0KwWmkp5JpoWPs51i4Xs1rAT8Sl9I16kaqjBtaDYWCcG5K5Hpzg8ETIZIYmMaS5pytAuS0Obe3c13tTejK85TlGbb0FxdOMYpxVhh0Mw6ndSmSSGJxDn3c5jSbC2lyFH0jVmq9ot7LmUwsIundoqqMLj/SscQjZ1Zi60syNyEjrGEZbW3DSjHES9Tlrre31+5zpLjrTSwR01pYI6GWSOKJpDmAOaxoPzzWmxA8Qo4KpPjxu3+IpXhHhuyF3ROlibRuq3xddJaQtZlDjaO4DWgiwcSN+9Wx9ecq3DvZaEKMIxjm5iXpjWUNTQ9a0QMqf5MtjYWdaLyNa9hsAXDKXHUaWvwSUKdWFbLq49vIaWWUbl3R/AoP0PJUSQxOeIqmQPdG0uGQPyWcddMq6tOfrCinzSDGKy3YVgPRul/RRnkgY6URzvDyCHXbny6jwCetVmsVki9LpBjCPCcn3keh3RWmqWSOla7suAaWvc3hc7HXcLR6QxVSlNKDtoRw1NVE3IjXdC4fTo6Zpe2N8RffMC4EZwbEi1tG+0paeOn6vKb3TsNKiuIoraxn8b6L5K30SBznk5AC6wOZwzG9hawbY3Wmhis1B1amhOpBxnkWozxH5MHMic9tU10jWlxZ1dgbAm2bNcXsdbeSw/wDJty6uhZ0bLc5VV1ADb76Ej2XWirVsgQVzNSTF5uV5Dm5u7NiVkXwmypBisYQP5rXBkpDamdey203czyVja9EcHa9zZBZ8lzkZa7WFuW8jx9J13DK3bi7QAHPjsS6ayR07X9B6FPM8zHPpcn+5i/sv9Fk9apdr95bgvsOLwxOe4NaLkmwC6ckldjHQMGw5sEYaNXHVzuZ/ALyqmIzO5VRsMgpcUawl6Vx3jY4i9nW8nD/QLbgaic2n2E6y0MrJRtuC0WuV6apK90Z1N2F9ZQmN5FtCkqUHGRSM1JF8DrWFlSIrOj/Jzj80TXRGCSeC93dW3OYy4anLxaQNR3eSz4mnF2d7MVMedIOjtK+nNdRZQA3rHNb6jmfScziwjct20OgVcLipwnw6n+ydSkmro0uAPyYO9/OKd3ucB8AkxPTxdu9IrR6NH3nuPP67CWSDUtbC/wAwQx59hejh3w8Xbva+wtXp0PJH3RF5/Rkx/p/4F2O1xK8g4fSj7xzSwiSWnq/+WeCftmFw+Dlkk3FSp9/yuXjq1LuMv0jxEPwITH+cED7ce3UMd960UFkxVuy/yJVHemJOjeLVVHT9bJGHUjsrvXaHjO4NDmC/EkaH3K2KVOvUyx63wJU80Y67Bvyg4PC+lbXRizy6IkgW6xktgMw+sLg330ISYGpNVOG9tfgGpFWzDQs6vAbXtmgy/wBs+3+dL1sZ/l8h9qXkFEdXgoHOFrf7R4H+ZFdLG/5fID0oeR70NPV0E0nfK79xg/BN6Q6WIUfAGF0pN+I0jbnnpZ/+Wlv/AFuoI+JWSUskJw718Llt3GXd9jCYfiJkxWrqmmzIy5tztdrRF8I3FWr1XHDQpLn/AOkUr1HIT1WL1LI6qp62K1U3UFrnSZS0tYxjr2BDfgVOlOM5Kk09BpXWpzSpYXa3AA0H3rTUTbu2GGmgncyxssSLljCqIDC4XK8GTY1o3rdTZCSN70DxLqZ2jg7Tzta3mCR425JPSWG41G63R2HqZZWfM6v6XTfXZ+7/AKL5Phz7D0ro/N3RT58fZd8F6+M9mZ4bm3avILItagEW9JvmP6zVswHtUTq9UzPAea+jp7GF8y7pB9FaK+yFo7sUt3WTmWZ0j5JvXn/7f+ZYsb/EMBj0N/U9T9ip/wABq6r+4j5Crqs00f6i/wDju+JTT/ef5IK9j5EaP9SO/oJf4nrpfvP8kKvZeTLuhv6sl/7/APAmxv7leQcP7L3jjC/1cz/p/wDIVmxHt5eP1LUupHwML0i/UFP9il/xGrRH94/F/Uj/AE14IIn/AFNH/QRfxBQl+4fiH+A2+UT9XR/bh/gcrYD2/vOq+z9xHF/1Gz+jpv8AFiRp/vPNnT9j5BGM/qhn2Kf+ONHDfvPN/UFT2HkiWC/qmX+jqPg5HE/vF4r6Boew94bSf7PT/wDT/fEsOK9pLxfzHh1F4HMMD/2Kv8Zf4Cq1va0/IWOzFnTD5ml+x/8AShg/by8wy6phavYq2J5jQAJuHgFlRRHzFVBYTErQJsaUi20yEx7TfR8R8VtfUZCPWR2FfMm8/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExIWFRUXFxobGBgYGBkXFxUYGhcXFxgYGBUYHSggGBolHRcVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGi0lICUvLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHAQj/xABKEAACAQIEAwQGBgYFCwUAAAABAgADEQQSITEFQVEGImFxBxOBkaGxIzJCUsHwFCRicoLRCDNUotI1Q3N0kpOys8Lh8RU0U2Oj/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECAwQFBv/EADgRAAIBAgMDCwIGAgMBAQAAAAABAgMRBCExEkFRBRMiMmFxgZGh0fCxwRUjQlJT4TPxFGJykkP/2gAMAwEAAhEDEQA/AO4wBAEAQBAEAQBAEAQBAEAxvH+PYfB0jWxFQU15c2Y/dRRqx8BAOOdofTViXNsFQWkmveqjPUPQ5VOVPK7QLGv0vSvxZWzHEI4+61JMvsygN8YFjfOy3pro1CKeOpeoY6etS7Uv4h9ZP7w6kQDq1CsrqHRgysAVYG4YHUEEbiAVwBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBANb7d9rafDsP6xgHqt3aVO9i7cyTyQbk+Q3IgHznxvi+IxtY1sQ5dzoOSoPuouyr89zc6ytzRRLVPBQWsWsRh7coIsQqlKTcq0bh6P/AEg1+HOtNiauEJ71I6mmDu1En6p55djrsTeSUaPo3hfEaeIopXotnp1FDK21wfA6g8iDsYBKgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIB47AAkmwAuSdgOpgHzB237RNxDGvXufVDuUV5LTGx82N2PmByEhsvBbyHhKYWVNCaADsIuWsQsasi4aMdUklGR2WWKNHSfQd2oajiv0B2+hr3NMH7FUAsbdA6g3HVR1N5KHfIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAan6U+KHD8MxDqbMyimpG49awpkjxCsx9kA+caNgJVmqMphMMzWYqbe75ypou42LhmDVxtqB4wrFrkHiGDUSHkWWZrmNUA2AvEczOeW4gPobEEec0RiyqliHpMtambPTYOp6MpzD4iWKM+vcLXDojjZlDDyIBHzkAuwBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAOe+nJSeGi2wr0y3l3gL/xFfhAOH4ZAO8RtM5M6ILezLU+LqtMsaZawJvY2yhlQm9rEBmA35wo5CVRJ5F31pU3ytTINmRtCOYIB1sfyZSStmjaErrMidoccuhVidNfOWfSKtuKKOH8Kz0zUJLHTuorPlzbZsgOU+G8lRM3Oxh3rhtNCI2SHNMs1RZZojF6n1Z2QH6hhL7/AKNR/wCUsEGXgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAaD6WeJ4V8FiMI2IRa49W4TUtdaiVQthsWC21+8DtIuSkziuFN1tYG+8ykzqgifSw6lAjDOFvkBBsha2Yrc2BNhew1tJi8hKF2e8QWocpqsx3tcljra92OpO25lJtmkIoxPF1HdHhIp6ivaxXg8dU9Q2HJJondLnLe4IJUEBiCAbm5FprtWMFC5AqU9ACdFFl8ASSbeZJMKQcCy1HP3AQC1luxsBc2uTyGupl0YyPrfh9SmUC0nV1QBe6QbWAsDbbS0kqSYAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgHCPS1hgMdWYLbMKRZvvEoqjzNl+Amb6xvH/GzU+Hm1pDWZpB5G1YDDrox1lrC5j+JVGqYhkFFqgWwUIQAg01I3NyTr5eEzauaRla2Rie02LpMVCUWWwsRqT8oSzvoROV1Z5kThTfSGmRplvbfL4aecva5knZlnHUwGIkWJkyE2x8jNUc8jov9HetbF4qmB3Woo2m11cge3vn3GCp3iAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIBxn01cNr/pArqjtSNGzMqsyoyFic5A7twV1PSVazuaRl0WjmmGr8xDRaEjZcLj7Uz5StzVW1ZHopUqtfNl+ZH4CVjEtKTI/Fke2RjfLpcE2Ox5gcvCTsldttGEw9Uq3QiTYqpbmU4qtcyyRnJkOtV0OtvGXM2dl/o78MZaWKxBHddqaIbaH1ednynmL1APNT0kEHYIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgFnG0BUpvTOzKynyIIPzgHyNROViLg2NvDQ2vBKZncGvrABtcHXnptb4SiyZs7tIlcLwdNjlaoFI5s2W/hqZFzWKVszzi/D0VSxqXPS9/iPISbktQaNdpgd69zpproJJzsjV3lkUbN39COCWrxPvqGVKFRrEXF7oguDps5gqfRdNAoAUAAbACwHkIBVAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQD5V7dcN/RuI4ugNhWLD92oBVUeYFQCSCFgscVIudPASrReMrG2UcGlS4Op/N5VI3ckzG8T4QlO/dAh3IsjAYlgLgSUZyZjXeXMjsf9HOgM2NqW1AoqD4E1SR8B7pAO1wBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQD5t9KlEvxLGOBqHT3LRpKfleVTzNNm8UzSM0uZk/BcVencXteRYsmWsVxBn3Yn2xYNkBnvJILcgHcP6O47uM86PyrSSDsUgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIBA47xijhKD4iu+WmguTuSdgqjmxNgBAPnrHcU/TMRVxQTKKzZgt7kCwABI52A9szep1QXRRh+K8I1LJodyNhfnb885ZSKSp8DBVcO4+yfz+MtcycWiPkYbgwA94uLBEMXFjr/oE41TpVq2Gc5WrhDTvszUw+ZfOzXH7pghncoIEAQBAEAQBAEAQBAEAQBAEAQBAEAQBALWKxKU0apUdURRdmYhVUdSToIJSbyRzbtH6XaVO64WkahH+cqXSnfllT69TX90eMrtrdmdccFUS2qnRXbq+CS1bZz7tHxrF4/DVP0iozWfMtOyhUKrfuhR0LjUk67zJVLzWeR6k+TlHCTai1JZ52byztlxRiuDkZRbblLPU8uGhm7BhY9JBcgLhgDqtxCZDSsYzi4S9kGktczaMbTwt9TFyuyU1KVpKZDRbogl1Kkgoc1wbFSNQQRsb8/KTJ2iXw9J1KqXDN9y+WN44N6TeJ4cC9RcQnSsMzW52dbN7ST5GVU1vN6uDlbail55+R0fs76XMJWITEK2Gc8279In/SAd3+IAeMvc45UZKzWae9fNToNGqrqGRgykXDKQQQdiCNCJJkVwBAEAQBAEAQBAEAQBAEAQBALeIrqil3YKoFyzEAAdSTtBKTbsjnfaP0uYakSmGArN98kimD4ADM/wHjK7T3I64YaCzq1FHsXSfkvc5bx/tJWxr5sTXewPdQaWv9yiui/vNdvGZvbfb9PM9GEMNTdruL85vuir7Pe8+7Uh0eH5yLA0lHM61W/iP1fzpM3Vtrn9P7O2HJ7qO8U6a461H4u+yvNmR4bhgmdF2JvrrdhvfzFvcZlKbk8z0sNhaeHi409Hxd8yEKPqqmT7LXNM+G5XzHynQpbSv5nzWLwrw1XZ/S+r7eH0M1hhcSxysoq0bQSYjFURy+EFbFl6eVZAMZXbXTeXRR9hPXBCmljq7at+Cj87+yc857T7D6PC4LmKVpdZ6+3h9S+eFUyoupzW1IJ38BtKqtJaGtTkvD1FeS6XFN/69DFtR9W2rso+8Bf3jrN1LbWSXceTPDrDSbnOSX7lv/8AS3Pt3mc7PdqsVgWvh8UrJe5pMLo3W6X7p8VsfGWTa/TYwr0adTONaMn3Wfs33+h2Xsh6TcJjCtJz6iufsMe6x6I/XwNj0vLJ8ThqUdl9F3+q71qvp2m8SxiIAgCAIAgCAIAgCAIAgGg9tPSZSwpNKgor1RuxbLRpnozbs3gvtIlHNXsjrp4SUo7cso8W7L53JnI+PcfxGPbNWL1gNlBNOgp6ql/idZRya1dvVno0cNTmrUqUp9rezH1zfyyI+H4S3PJTH7GreWY7TKVTvff7Hp0cBJLNRh/4XS/+np4LxJ1DDpTF1UX6nVifFjrMpSctWd9DD0qP+ONuL3vverK6Y1/PnKmwpjvN56ecFkV4nDrUQqfYRurDYjxl4ycXdGOJw8MRTcJ6fR8UR+HV2V/VVPr/AGTycdR49ROqLTV0fI4ihUw8+bqeD3Ne/FbiczbgyjZVIi+pudpKZDRh+KVLEiWRnJ2Rf4Tw+30rjX7IPL9o+PTp8s6k/wBKPd5MwGz+dVWe5cO19r9F26Xyl2vyHz/7TBs9hLO5IXaQWII0qWI0I+V/5/CTuMFlU7y9XwNNh/Vr7AB8pKnJaMrUweHn1qcfL7mMqcO3VSLdHFx7G3E1VXe/Q86pyZls05ZcJK9u56r1N47G+kevggKOKSpWojY5s70/3WOrL+y23I20msJ33/Znl4nAuCu4uPaulHz6y8Udn4Jxmhi6S1sPUDoem4PRlOqnwM1PMasZCCBAEAQBAEAQBALWLxKU0apUYIiglmY2CgbkkwSk27I4z2v9IFfGZqWE+iw+xqNcNV8QN8vh/wCJjOol8+W+p7GD5PnLpJLvengv1d+Ue1mmU8DTU3bvt1bX3DYTB1JWssl2HuUsBSjLbn0pcZZ+S0XgiU9Wx8JmdtyRQcQWSKau4EgnceU94IQ5k+MEouK356wSUYvDLVXKdCDcEaFTyI6GXjJxd0YYnDU8RDYmvdPiu0iYbFsKgp19G5NycdfAzd2ktpHytajUw8+bqeD3NfNVuM5npqpbQAAkk7e2ImUtMzA0cKHf1rDS90U/BmHyHvlZztkj2MByfdqtVXcvu+3gt2rz0mVZjc9uxZAkEFVMSCSBitGU9CPcZZaGFTKSZkQNJU3ImIpXBYbgyxlKN1coBuLwRuKuFcRrYSqK2HqGm/O31H8HTZgfzqARtCo1kzysVyfTqPaSs/R/OPnc7t2J7ZUcfTsPo66j6SkdxyzIftIevK9jrOlNNXR85WoypScZI2eSZCAIAgCAIB47AAkmwGpJ0AHUmBqcQ7Z9pW4hUsptg0b6Nf8A52H+dfqt/qr7eYtz1ajWSPo+TOTo252or8Fx7e1cNz10sYE0iZzHv2LZp/WB5QLHtWlrY9IJ7Cmlp5WkEouDeCz0FMQQhbX2wCsCAXGF9diJIuWMbgRUXKxHgw3U9RLRm4u6OfE4eniKexPwe9Pii1RwT2UVHDBeQFszcmbrbp11l3UyyR5+G5LUJqVSW1bRWtnxefxkphaZXPYLQG8EaloDSCq0FMyCSLjVlkZVETMG1xbwkGsWeYZbs6H83gqtWiOaNiVPKCtixVpSyZnOIwGMqUaq1aTFKiG6sNxyI8QRoQdDeaRk45o4cRQhWjsz8+B37sL2qXH0MxAWsllqoNgeTL+y2tvIjledSaauj5evRlRm4SNkkmQgCAIAgGn+lDFWwbYcMVav3dN8gsXHkRZT4MZnUnso9Hk3CLEVHtaI5TTS2lttLdJxn2KVtC/TpwGyxjadiPE2+I/7wRcVKffHlIL7yOE38yJBJ4o0Hn/KBIqUQCoD5wD0CSCuCAYIPRAKam0ElpRofKCFoUHaBuKLSAWq9j+ffJKyTPMG1iB7IEWXmFqp8UB9x1+YjcRpMu4sbOeQN/z7DJDssyKq9xb7kX9+tvjJM1nFMh1qevnJRjKN2bD6P+LHDcRpnNZKrLScHYh7AHws2XXzm1KW48rlOgp7Ut608sz6DnQfPCAIAgCAco9IGO9Zi2X7NIBR52zMfebfwzlqu8j6vkmjsUFLfLP7GrHf5/z/AD+ExPXWhKVZJRsj49daf74hkoVl7xPhIZeJEqodR1Pw5ypdB0klb7y5isI9M5aiMhIDAMLHKb2Nj7Yaa1KU6sKivFp7smW7SC56IAPOSATBBcEAoqjQwSWl2MDcUP8AV/PWCHkjZsD2YAOaq4YADa4UkgaX3NiQOQsD5DndbLT588fv5c8c5Rulb627eF+Cu728ZtSpSv8A1LFe6FbICO7oAe6eRcbALmNttatPT59b+5ybCSta2u62vjfh2u2Zicf2VLEGgRe4Fj3Re19CdhvodeexE051JXl8+fN52RxihHpaeb8ePf4PO9tdxAIrUwQVbK6kHcMCtwfIgzdZo7OcUpxlHRp/Yqx7fq9T90/y/GTHUjEP8qXcett7JBYj1FsQT93QdSST8h8DJIeTuY3EMQoYHVqjEHmMotce3WaxPMxHVTe9v0yPpbsrxP8AScHQrnd6YLfvjR/7wM6U8j5qrDYm4mVkmYgCAW8TWCIznZVJPkBcw3YtCLlJRW84Ti8SajtUbd2LHzJv+M4W7s+6pQUIqK3ZFgtINkXaVbl7v5fn+V1yHHeHa5XwYSCUrI9Ya3O3WCUU+rOrEan4CBfcbb2a4BQQ+sxLrqhcMlUfq5XXM5U91rd5W1AKHnadFOmlmzwsfjqsuhRT1tZrrX3Ls3Nau/C5kO1lBMVhrsf1mkLgqjEVVuRfug5Q+UkA7MCNrk2qLaj2nLgKksPWy6kuLWT/AKvnxRzqtSZSVZSpBFwwII56g6zkasfTRkpK8XddjKJBY9Ekg8kkF0CCSmqNJALA2gFyhTVmRWbKpYBm+6OZlZXs7GdZtU3sq74fPjNo4xb9Jw9NKhekXpnT6rMagv3hobixsNBfynOpSdKUpKzs/oeRRblRqSn1knby+u677uN9grV7VThwABbLZbfayqLmxI7r22+c5Yx2qfPN+fi/qjnULw57fff2Xf1RgMFUf9MrYRD3Qz5STZlUNqFNje5toLWJJnS6lqUaslfTzNrqOHjWau23dbm7vP5qab2gQ0sUqtlurPfL9W5AOnQWO3LblOuk1KF0dlOomqTXBrPsyKcbphqh8D81lo6nRiP8MiukLyDRZkPE1PtdRZf3fve0/ACWMm7u/l87foY7EasF5U1t/EdW/AeyaRyRwVulOy0ireO87R6EMfnwdSiTrSqm3gtQBh/e9ZN4PI8LHRtUvxOiy5xCAIBr/bzFerwVW27WT/aYA/3c0pUdonfybDbxMezPy/s45UM42fYRLLtaQaIoerbX3/n87GCUX8E17635+YkIMuVHNxsSToOQ8T1tJIy3GQ4fX9W6uVz2N7HnpbmCARuNDqBoZaLs7mFenzkHBO1zM1O1lQXKU1U2A1JYaC2YrorP1a3IC1hNOee485ck03bak34W9c3bsv2kJu1NcWt6sZQQujErm+sQXckk/tX2Frc687I3/C6G++evbbuS9LGE4jjGquaj2zG2wtsAB4nQDUkk9ZnKTk7s7aFGNGChDQjmQaiCGUiSQi+m0EnjbSAWSNIJPOkEM2DhmNpsoWoxUqBbldltlZW+y1vEG+2hNqTvs2t/r56HnV6coq1rrjwT3P30trnrsLYog5iyNVGUCo1xYK1gzItu/wDSC+w027tpxKjlsq6jnl4aX4ZfLnnqjNw2Yt7PdfVaXv8A9cn7mv8AFcTTw4NRqmeq9yw0Ds565dFW5bYAd02B0v100mtm3d8+M3jGLg6aV7ZLel/e+2r7llofESb02/a38wbzpjvOqtk4NcTJcba2EbyHzBkR6yNMU7UJdxaovmCIPtAZvBefvHwv1Eg0j0kl5/PmRHfEAl63K9qY620B9+vuk2zsZupZOp4L53kYU7LrvufMy97s5djZhmdH9A9b6bFrfdKRt5NUH/UJvA8PH6Lx+x2OaHnCAIBgu2WB9dhiulgQTfkNswPLLfN4hSOcOG0rG+GxEqFRTXj3bzjFRTcgixBt5EcpwM+4i0yMdRbmNvEdJBoRncg/n4SCDzDMblb8ri34eEC5kKIsw8BJG4nI0kqVGAWWEgsWXSQLlsrBNylzBUAcpIvuJFEcrfjAKskC5aKRYXRQVkBspYwQXUx9QaCo456O3TL16aSHTg9UjmeFoN5wXkYHiFTvW5DWaIio87FHE9aSHoyxHUjEr8tPtRe7RVbYe3gJNPrIrj5Ww8ixgATTtci4s7c1W31B+22n7o9gkPUtRu6aj5v7d/08hmzkECyLooG2nTwEaB9N33LQY0WCp9pjc+CjaWjxMcRugtXn4G8+gs/rlf8A0B+FRJ0QPCx3VT7Tts0PNEAQCPjKQYZTsQQR1B0MtF2IZw/jSEVn6kq3tdFqH4tOKsrTa7T7Xk+bnhoN8PpkY7EU/tCZHcigoGFxvBJHNPKQfH3XgholK25ggkUHgEpTpJIKqVMsQqi5Ow66X+QJkpXdkUnUjTi5SdkjIjsziiLjDuR7P5y/NS4HJ+JYb+RevsUP2Vxn9mf3r/ijmp8CPxPC/wAno/YzPZng1SkSK2GW7MABVVSLEotwddrk+z2zelHYg3JHi8qYxVKkeZm7Wd7XXsbKvCqJOuFwx/gA/wCmV56D3HBz1df/AKS837k6lwPDgf8At6H+7EvePAj/AJFf+SXm/cxHazhWaiKdHDrnLA/Roq2UAg3OltSJE47UckdnJ+KcK96s3az1bfuaceymM/s7e9f8Uw5qfA938Twv7/R+xZfstjf7M/vX/FHNT4E/ieF/k9H7EbEdm8WoLNhnAG57th7c0jmp8B+JYX+RevsYKoCrFWFipII6EGxB9t5S2461JSSa0eaMBjKv0j+EulkcFWf5jMhjaf0IHQD3ykXmdlaN6SRB7R1roi9bTSkszh5Sn+XGPFl/CUzUUD6tJR/tddfGVeTOqktuKSyj9fnqTqdMAF20Rdumnh0lTd2itp6ItYXhWIrU2xYpEq7ZEN1ABAJtqbiy3YnbebqDdkjx54qnFynN9JrJZ6bjevRLwOvh8YGqKFV6Dje5vmpsARyNtfnaaxi1mzycTXpzhsxeaOxy5wiAIBC4ti1pUzUYgBQTrtfl7PwvJVt5aMZTkoxV2ziXEamdywvbQC++VQFW/jlAnFUltSbPtsLR5mlGnwX+/UiU23BlDpLTplNxtz8PGQX1KKx01gqW0a9tYIJGe2sAuU8RpdtBBJsfo54acQ9Wu9wqjKtjaxY3NjyIVbeVSdOGjduTPB5dr7NKNJb3d9y0839DomGwqUiVBYAAaZm31O973sRf2TStV2XY+bhC5dqherf7yr+DTnlXkjVUyIzAkcyDcXeo1j5MxmTxEnlctzaL1JvETOMsyWS1xI6zpU7lNg8Z1Op+bD5GWVVpEbBbcr1b2PUHyaJVmhzZArsD3VapmbRfpa2hPO2fYat5KYpVnUlZEShsq7Nb9ImCWjROJNV2YGyo+VgWINiptdbEBjrsDOyc9mNy+Cw/P1VF6LN9y99PE5eh7l+eX8J5m8+2/QmYFjerbqRf2azb9J5Le1Xt2mdxDd2YrU9ao+ia9jyXqqs6I5RbPDxLdSvGBtGEoXAH2RymDPdhHKxHx59a4pL9VbFz8llllmc9b82XNrRa+xuvZ5hVw64NWVWapVfvaAogpBkvyLDMvgCx5Tqo9Sx8/wAqK+Julkkr9mptvZjBKOJV661g61kGVb3ZSgyvccrG3lcg+N7Zt3OCpNunCDjbZvnxvmb3BiIAgGh+lRzlw63OUs5I5EgLa452JvMKzySPd5DitucrZ2Xqc+qLec59ERqgt3um/wCMguVXuIJIOI005QQyxw97jyYj8fxkmcHdEt+khl0WOIPZQvX/AMSGS9DpfYXjuDwuEWm9XLUJZmHq6hAJNhqq2PdC8510qkYxtc+b5TwWJr4hyjG6SSWa9+Nyc3H8BmLHGPcm57la1/LLpoAPZKzVGTu2ca5NxqVlD1j7lwdpcBlP61UP8Fb/AAyNmja1y34bjf2rzj7kAcao1L/o9R3IK5mZWVVvUprbvgEsQ5tbTTXlfKpQpbDnG+RhUpVqM1CqrX7n9DZKR8ZwplWi2lXfWdaRNiK3EaaBmrVGQCoyggFtrWFlBPPfwnVGnDYUpFKdOrVqc3TV384kLE9o8HY/rVQeVOr/AIYfMvedS5Nxv7fWPuReH9qMDTqFziHckW71KtcC99DlP58zJpyowd0VlyZjZax9Y+5qvpE46MUT6sn1SIQlwRckXZip1HIa8l8ZSrU25K2h7GAwTw1CW31nr2W0X3NVwhvTH7swep6dN3pLuMAp+lm76p48X+eZlj3ZitT15PomH4auevfpNpZRPGwq28U3wRteJqFFCr9ZtB4ePkJie3NtKy1IwApU78zffck9ZOpk7UoEXC0LKWYanXWS2ZUoOMXJ6s3j0OEfp7C2pwzn/wDSkB8jNqWp5HKzexFHapueGIAgHPPSnW7+HToHb3lQPkZz1nofQciRynLu+5oQvfz+E5z6JaBt/P5wQRmGXyPwgsQ8Y2hgrLQxXCcTY1B4g/C34S7WSOOhU6c13GXo1Lyh1plnEd6oB0lS6MmTpLAt85ALmJ0W3WSUZmeyXaBcKHVqHrSzZr58thlAtbKb7X9s2hUUY2aPKx3JzxM1JStZW07b/c2Q9u6O5wf98f4ZbnIftOH8Eqfyej9z2n23of2Vh5OP5Seej+0r+B1P5PRmM7Q9oExCBVolCDe5fNcbai3lrflIqVVKNkjswPJcsPV5xyvlbQ1Os2hnOewRKOpghHmN+ow8DJRWp1WQeFNekPKJ6lMK70UYN9Kx85t+k8eWWIMtWeyGZLU9WpK1Mjdlkuzudr+/wE0q7kcPJcbuc+02HJu7aE/AcgJkevbeyJVpl2udANhJMZR2ndlWI1sBsN4RE88jPeizF5eLJrpUp1KY9i5/nTm9I8LlLpJvu9jvU3PEEAQDTPSrg/1GpiERTVpZCCfuesUODbcZWY+YlJwUtTswmMq4eXQ04PQ47h+OE/WpH+FgfgbTF0XuPbp8tQfXg13Z+xNp41TujjzW/wDwkyjpSOyPKmGe+3gyqpXS2pH8Xd+dpVxa1R0QxNGXVmvMx2LIsdQR5j5yppJprUxHDcOwrKxUhXVip5OFbKbHnYi3sM0s9k86lODxTinuNgQW1mbPTRFwgu5Mqi5uRwWHp4OhiKqVKjVWqAhagphcjEC3cN9ptsxUU2eXz1epiZ0oNJRS3X18UScNwClVwtHEUyKbVK7IRUqgDKGcKqkgZnsF89ZZU04pozljatKvOlPpJRTyW+yzfYT8d2XwyI9Q3a1dqah66UFAUH7bKczXB06eWtnSilc5IcoV5zUf+t8o7Xpcgf8AoeHqUcQ1IFa1AKxArLXRqZFyQyqNQA+g+6OsjYi07bjdYutCtBVOrLLOOy7+fcSOH9naBUetzmoMM+IcKwWwzD1S6g2JXNe/hJjTjbMpXx1ZTexbZ2tlZX72S17L0Po0fPQqvUUCma1Ooz07XLrlUW56+HjJ5uJn+I1uk42lFLWzVn5kccIw1Q4umqVEbDpUIY1AwYoSBdcg0NusrsRd1wNXiq9NUpyaam1la2tt9zBdtuGU8MyLTzHNQWocxv3iX6DbuiUqRUXkdfJ+IniIOU/3NfQyGM4BhaD5MoeyKxL42nSqElbm1E0yfLXWaSpxi7fc4cNjK9ZbV2s90G153IuJ4ZgzgmxZp4gD1vq8grJ0vfMaXwtK7MdnaNZVsT/yOY2o6XvZ+5oPA2+jt4mZ1NTswMr0/MxON0rmbR6p5dfLEkvFVO77JnFZnbXqWh4F/spXVaezE35f+ZerFuRy8m42jSo7Mr37jM1sSPut/d/nKc2zslypQXHy/sx2I4kF/wA2T7RLKkznnyvSWkX6e5Cq8ZblSA/i/C0uqPacs+WP2w9f6OmehLgSV8+OqA56NUpSANlB9WMzH7xtUtbbz5aRgkedXxs6qs0kjskucYgCAYHt7TzcNxg/+iofcpb8IZK1PnbBGVNkZqjsIZdFnHHSZs1RrPErHkIQaRufHOGClhOEEbnCu3+261j/AM0yKuiOzklXqTlw/sh1G7pnMz6aJ5w9NCZCLvQz1Dj1anTFEerZFJKipTSoFJ3tmBteXVRpWOOpgqVSfOO6b4Nr6F2rxqq6opK2SoKiqqKqh7bgKALeEnnGxHB0oNtXzVndt5Bu1OIOdW9XUVnL5alJHAY7kAjTn7zHOyMvw6jdNXTStk2sijCcdrU6xrIKaMUyFVpqtMre+qDS/j4QptO5aeCpThzcrtXvm235he0Ff1tWpmGaqmR+6LZLWso+zoBtHOSu2R/wqOzGFsou67yRw/tDXRFQFStNs1PMoY0z+wx1A306EjaSqjWRFXA0qknN6vW2V+/52nuJ7T1iKqgUl9apV2Skiswa+a7AX1udfGHUZEeT6KcXm9nS7bWXYR8f2nq1APWU8PUIUKC9BHOUbC5G2p98Oo3rYiPJ9KC6MpLuk0RqPaes1vWLQqNYDM9CkzEAWF2K3MOo3qRTwFKPVcl3SaImK4nU/RThrj1WfPa2ua1r5vKVUnbZOipQhzrrfqtY1jgbaEeJk1NTnwD6LXaY7i2la81p9U83HdHEXKK9XunxiKzIrVLw7zJ9nFsgl5anm0lkZqoukIuzB4/eWRjIx7yxkz6A9B9MDhgP3q1Qnx+qvyUSSh0CAIAgGF7a/wCT8Z/q1b/ltBK1PnDAypsjPYbb89ZBoiNxHaUZojWOJ7GES9TqHbz+o4T/AKp/0YeVrbju5H60/D7mqV/qe2c0j6SGhf4f9X2wi7L7bwRuLqSSCNzMgF0SSGU8zJIJFLaAWm5+yQSRq2xgqyzQ5QyIleM+r7IRNTQwPBOfnNKh5vJ+jIHHf6389BNKWh5/KX+ZEeptLI56mhnOz/1B5RLU5qWhm631YRaRr+Ol0YSMe0uYs+g/Qn/kxf8AS1f+KCpvsAQD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSEhIVFRUXFxcXGRcXFxcXGBcXFxcXFxgaFxcYHSggGBolHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHR0tLS0tLS8tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAD4QAAEDAgQEAwQHBwMFAAAAAAEAAgMEEQUSITEGE0FRImFxMoGRsQcUQlKhwfAVIzNictHhNFOCFkOSovH/xAAaAQADAQEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAKhEAAgICAgICAgEDBQAAAAAAAAECEQMhEjEEQQVREzIiYeHxFBUzQlL/2gAMAwEAAhEDEQA/APLS5MXKkvTXSootzJi5QumuigLLpZlXdIFAFl0syrBSumBZmTZlC6ZICwuSzKAK6DhLhOoxCTJC3wj2pDo1o8z38kAYYKOpMOmk/hxPd6NK9wwb6NqOmaOY/O/qSARfyCPdwu0nwzEDoALD/CdMDwd+B1IFzBJ/4lATxOYbOaR6ghe71nDkzDeN2fc7j5HdY9ZQuAtURBw1uHi/wOwSHR41mTZl6NiHB1PKCYiYndt2n3HULjcX4enpyc7bj7zdR/hAjMzJZkxTIAe6QcmsmTAV0106iUAPdIFMU90APdNmSKZAD5kk/wCuqSAIJApkkCEUkrJIAdJIpIARSumKV0ASBThQupgoA6j6P+FTX1GVxLYIxmlf2b90H7x2+K9odjUNPGKekjbHG3QW+fmfMrleHqI0uGxNYCHzfvXk+Y8I9ALIGaqy7m6hs0jE6d+Kkn2roqmxe2hO64xspOyKp6d5OhSUi+J3LMSBClJWBws6xB3B1XEOrZYzZ7dPvD81oNqDbQ3v1uPVVyJ4mnU4bE/Vn7t3lt8Fg4owsJa8eG1htqrDigJ3BtvfusrEsR5lzfXa3S3oUWJo5fHeHWuu+DQ7lnQ/0+fkuSe2xIOll3n1stO362WNxBSB45rNx7XS47+qEyaOaKYhOUxVCEUxSumQA5SSTFAh0gmKSAFbySSukgBrJWRXJTiFKwBQ1PZEclLkosYNlT5UTykhCixAuVOGonlpctFgDZVscJ4a2eoY2Q5YmnPI7sxup+O3vWdy1tYTHaCY5rasDtbeGxOvlcJNjS2djxRxoyaTLCMsbRlaPIbLLixhhHiC4yW17tcHemn5aoyjgfICRsN1m/s2T9HTVWOD7NgFGi4vDDrquMrCQbEqqkc3N4nWHe10JA5HrtDxXTzDK8WuFHEKMQgOBzQuOjhqWFcC+Dw543tkHXLcPH/E7ra4Y4i5d45Dmjd0P60Tv7AKnmAcRzWm+oPc9j2KFfMeo/X9ltV+DwyEltmX1AGp17rArKZ8RyON2nY9kCZCacW3Ot9QoCe7S2wH53Qkr76dlXC45t9EyTIkhsSOyhy1p1EXid6qoxKrIATGo8tHmFMYkWADy0hEjhEnESLAA5SflI/lpGNFgBctJGZR+gnSsB8ifKrLJrJAQypixTTXQA2RMWJ7pFyYEcqgWqzMoPKAIELUwenMkc7bHKGBxt3BsPmVluK7LhqvjpabO8ZnSOJt5DQX990MqKtnLYfQF7uWyNxzabefcrv6Dh1kEYjdc31dfqbd0JR4pH/qXuaHa5ImiwF9Mzj1K1ncTU8keV8mQ91nZrxOUruHmuzlmQjpY6+8dFzcuGZdHROt5aj8F1OOVkDRzKaX9406i1s99791PDuII3i72DN1RYcTBwvDs5Fon6dc2TRa9TwyQDI17R/Le5+PVbbMajtlaLe4LNrKnXTYpWHGiyhqHNygnYb9QoYseY0Fx2PRAzSC+iqklOg3VITA54yDpt81KBmoJ66K2Orjb/HuewZYfiiYaylkY8RNfHI1pOVzszXgb2Nrh3VO0TRkyG5J81EhQL0xemZlllEhQzpcxAE0gFXnTZ0AXBMVUJExkQBamVXNSQAQHJi5V3SugYzioF6T1S5NCLM6bmKtK6YE86bMoXTIAmSj55SYmdgCPxKzgtGlbmiI7O+amXRUHsego3yNNjYAFCtwuaV1rH4LVwiinqnNp4NBuT690bW8H10dnMOa7i0W7j3+SizVoah4KLWZ3O1HS2nzWBM0xvIHdawxusgbllzFp0ufLfdAVbg9weNnJNh6KvrJGqLZVuNroAtsrYnhIRriMuCjQ0nNfYkho1J7KdLUeE+ipw+Ylzhfw/aAOtimBlNe2OUh7RI25sde++iPq4WtlY9gsCzUe4rVnpYjHZsMhubXFjtrr2Wfi8w9kWv1tsOlgmhvSMguUcyk4KBC0MBXSzKNk+VMBF6bMnLU2RACzpFyiApWQBHMmT2SQAfyj2TmM9l1/wCz29kPPRjsuRZ0zX8bOSewqpzVu1NMFmzRLaM7IcaASEytcFW4LQkgkApAIqlguUN0gKWQk9FoYdERmB6i/vCMihAREbNQsXkNFGgHBOI5KJ73RtvnaAD2I/8AqJqPpCrzaxaLEnVoJ1BGvxVmEYQZgwi3gnsbmwsV1NT9H4kdclrQf5hbXtZPSNEr9nGN4qlkjZG+JkhaDrY3JPVZs2YE5mZNtF6EMOjo4/3Yjz3cHF2rm20uPVcbjc2cl3fQHr6pWvQ5Rr2ZlZoh2SIir1CEsmjN9mzhhzaeSHfGc5IJGvRWYN9o9giqeHM5A6DjG9rB4j4hrqseeAhdXPDoB2CyKuFTzp0KSMMsUHBGyxaql0a1TM2DWUsqmY07QmIdkV1YIgpxqamxgckKpLUc8IeRqaYmUWSVnL9EyoR6dIxA1DFovQVQvLhFnYzGqmLKnjW3UhZsrF244mMjIfCqXQrWMKg6BbIzMpkS1KONR+roymalJAghrFaGK+nhLiA0EnsFu0mCxDwzPc15F7ACw9e5WFHViwTy/ojkxK6HMWn7Wby13VT+Kpjs7/C3+IKGKNoNyQQRc9/LsuMfRtvo5WkPJCWN8ZLZa/EnyHxuJVdVci/TormxsaNXIGqrL7bBCWzJspkcdlDNZUPm6ocvN1okTaRu0khaLgXB3W5gUGZwt3XO4XVPGlrjsuy4WY18oy6OFjbv3slQ7sPrI7OI7ErJqmLp5YBPWTU4OVzbObp7QLQf7rMxTBZYxmIDm3tduvxG4Wax0y+MpR5JaOZkjVRhR5jTGJbJHOzLfEqHR2WtLGgZmJiKWlWXQjn2Kk2ZQ0Mucq3JuYpRi6aQMhl8kkTyf1dJUSdmatEw4ZPL7MZAPV2g/Fb0EcMX8Jgv946k+87JnVrjuSsuMUe5i+NnJXJmKeFJje7o29vFv8Ev+jSBd87AelgT8dlqCcnQlQdUX0unySOhfFQvYNTcIRtGZ7+Z5N0t+au/YdLtyj8SmjqPsk+hVM9aR9q6PyI6IfHY4qqQWcNpPZMIA8t/igK7BaePxtY5zeozahMK8kdPep09Tfdyl5PRp/ocL24oIw7HIIhZjbD3fPdRrauKTxB1j5rGxPDi05meyddOizopy03Knm6pmyxwhuKo6Sqj5+H1MTReRuWVvchhOa3uK8mdVdLr0WLFCxwkjNiP18FzvFGANmzVFKLOPikhG4PV0fceXRXBrpnifJ4JKbyx2n3/AEOVklv1VBddV5yDYqe61qjx7LIou6KdTDcIaJxBRMchUjRoULdF0uCtOZrm7g3HuXPUrgPVdFg04Yc50AU2WkdBhkhOMMeNncr8TqD+K6HEKrlTSBouMzgB6ONlgcCN59eZ9mRXleewAIaPUk3WnUS53ueTu4n4m/5q5Nqj1PiocpTb6FyYpdJY269QACL9rLNrOGmA+CYEdA4f2RBqzmsNR3VxBJUqaPSzeBim7kjma/ApWAuAzN7t1t6jdYE8a9Sp32Pl2SrsHhqAQ6NrXEaPaLG/n3WiVo8nyPjlF3BnjdTAheXZd3WcFVIvZrXDpZzdR71kycL1I/7Lvw/uijzvw5P/ACzn2RoyJiLmwqWP243N9QU0cSDNxa7I5UyIyJIFR1Qri3RTbiAPVZn1xsov16hATy5VyH28siWzonVouNU8z9bhcxNUaArZilzMB6/mhhHJyHnqPFa+itdbosudul9boqllu1IOVuicncKoS2PmrQ7uh6pl9UFGlT1SqraRrxdunkgIJFYKsgoFaa2Z0jHM6XUDKfaaSCPctSR7X9bFCVdE46NsB5dUzCcLTrZkV9BHUayDJJ/uNGh/raPmFgV+ES05HMb4T7Lxqx3o4fJddHSyM81o0lWGgsc0OY72mOF2n3dD5haxyV2eTm+N5bhp/R52YuoUmFbWPYYGz5aeOTK/2We2b9Q0jUhaeHcBVLgHzGOkYdbynxkeTBqtNdnkuEoy4tbOfhkA1K2MGo561/Lgb4B7UjtI2Du52y1xw/QQG7nSVT/5v3cfwHiIWi/EXFgZZsUQ2YwZW/Dr6lQ5xj0d2D4/Nle9I3qZ8VLB9UpSXAm8sp0MrvyYOgQEzy7wjYblBQOc8WZoO53WrT0wAt+is7cj6TBgx4IKMf8AJOkhBGiNawDdD5wNlU6dWmkgalJh5kaOgVElQgXzqBcpcyo4V7CTOb7khFQeLYlBxMVriBtuhOhTiukakTwBY6+qFqMLpZfaiDT3Z4T+GiHE56/FLnLT8hyz8WM/2RR/0hT/AO5J/wCqSJ557pI/Ijn/ANtx/R5VDUlpuCjjUBzb9UBiFKWOPZU081ioqzJZJQfFhZnvpZbeGVR0aTosF56rQpJR0UtG+CbUts3Zs2x1CFp32dZXtku1APdYqDuk6dmtJFpe6pdJ0V9LIHNQ1RFlPkgt9WilzeoQkkpRMrroOUW6powmymSZyqFa8bEokO02Q1RAmjnny7TF+0HnqpCpJ3QZbZLKVRjzkdbw9irmHwPyOtYEb2O9lOsp3vcSXO8y43PuXLU8mU3uuqw6tDm6vHod1DOzC4T7W/sD/Z7vsk/1HVGUmGa3ecx81bLWMb1WfUYsTo3RI6KhE3hM1gVf7QB2WBG5zz1WrTxZQnbLjKw10ypMl0O+a6sg1t+SRomXRi6LjZ1UIo1KSUBUl9ik70iUkllBp6qppuq6iawRYqosnn0UedpfqgGuLjrsrZpLCykmwj6ye6Syuce6Sdi5HKMrszcrtUBM7XRJgUDutkj56U3JbC45NEVBLYoBiuY5S0aQm0dVQSBw81VXMKz8MqrGy3HszhZvR6uOX5IANDU2NlrOOYLnqmEsddaGHVV9ChlY50+LIStsVU4XKOq477KmJqQSjsHENtVU8XRk46BNBTnqnZDhugRtMmloOy1eUnY226LH+FM52SkcO6UVO70XQS5UFKS/RqdmTwJMCbf2d1o0WH31KIocODdTutEkNCTZvjxe5CiiawIWpqbmwVNTVkpUkBd0SNeV6QRSRF261oIQFSxoYFVJVPOzCB+vgk5xj2wlkjjVSYVPPbRDB190MZCTYgg+amX2Tu9mkZJq0XvlsEDK/MbJpJO6hBvdAnKw4MDQs+onzE+SesqLCyDprm/qgzlLdIlmSV/L8k6LFxZwwKk0KYYp5FvZ4CiQBV0ahlU2BIuJOOTVdBh1XcWXOgIqnmsbhTJHTgyODNytIOnVD0WFzvdaOJ7tegNvidFr4DjDobujykn77Q7btfZadTxO17g6Zr2kfcdmZ743KVRr5Est3GNr7/sSh4Tqst3CMH7pkbm+F1iV9LLCSJI3N9xt8dl1MfFsRA/fNAGlvGAfWO1j8VTPjkAOZjpD3awCNh9QSfknUTnx+X5EnXGzmqRgdqrpAGrQ4lxUujYWxwtzC92NGcW6ErAhJOrjopaPQw5uUdqmHZuqplcqs+Y6EIqmpe6RtdlDKcuRtPShuwVpLWjUgICqxMbNKB/xjths0waPNZc1SXFVNcXoyCnHVBPJz6I0lMSddlqZsg0VQdYIeSTNp0QWqijewvlGMvkc3OLkDrvYem36uiJYZHHNma3W3s9B6HUINlNE+mby2DmNNnHa51P/ACvZdNirGZYHNA8QGthYeHW5/uvHzOp37bffqjyZt8t+2znBEyVpva7bEE6foGyw53kOcLbEj4LsK2iYau2W8eRuYCwFyP8AGwXE44+NkjxF7Nza/wDldPiSt0umrNvHnUv6NWDyTXNgiGuyhB0vzSrZ7Cy76OtSpWyuaTMUdQRWCzaQXIJWzC02Ntj0Qwxbdsew7J0uUe6SR0ckcU1qmApBqmAtjwlEqypw1W2USEg4lbwkCpyNUCEwoPoagDdaL3BwWCEdSzdCpaOnFk1xYnN1U2TFSlAVeVBXXRNlU0HUXUnTl57DsothBRDGAdQkXFSfZfSQqysxIRiw1Kz56z7LN1o4BgbppWR7yPPuaOpPohK2VLNxi69dsz2U0050DtdgLk/AIuXhmpjGd1PNl7lhXqtYYMJp7sYC86A/ae625PQLmOH8b+s1QdXTkMAJazMWxl2wBA0I66rXilp9nkvypzTnCOl7ZyFJqOqMabdV6vjvD8FWwhrWslA8D2gC/YOtuF5LUtLHOY8Wc0lpHYjdRODid/h+ZHMq6aFJLdJpVIF9kXTwdSVmd0bbCcOqQwkPBLDa42II2I8wuoEbJAJGSjLe5FxppY6HY2XGT1AHZZNXiltG3XPl8ZZHadM5/JhB7bO04jxCKENAceY3UC99bbuPUrhw4yPu7ugw9znXJWnTtAWuLCsUa7MsSvXpBGfK1ZUkmYq2tn6BVUsdytUjTJK3xRoUjNFqwvAZ5oBtg1XPfYe5Szoj/FFvPSWX9Y806CPymWGpWTtIU8qs4aKkrKyyYtQFFZ3UsqZ+iZsiYlS7IOaUg5ENcD1sk+mJ2F/RFhw9osgmuLJSCxQZY5p2IRbHZh5pGkZN6ZLmnZRDS45WqUbVZJUhujQguvsvYxsAv7T12P0WDNPLIfaDBb3nX5Lz3OSbldNwLjwpqkFxsxwyuPa50PxTjqVs5vLfLC1E6b6VJDzYQdshPvvY/kuHJXtfEOBQ18IGazhqx41tfoe4K4mL6NajP4pYgy/tAkm3kLLSeNt2jn8Py8UMXGWmjpPo8mfJSNLrnI4tB8hY/hdcb9IUQFc+32g1x9SNV6XS0sdHCGg2jYLknr1JK8rxOqFTPJUOFmk+G/3RoEZdRS9k/Hxc/Ico9bAqSm0u5C4liQaMrUPi2MX8EayYYHOOqxS+z2Muev4YxSzPeVLkZd90YYwweapjaTqU7OfhvfZKlgRcpygp4mWQVZNc2S7NtQiDO1K0aRvZARNWjB2TZGJbsJAVWKVGVvuVhdayxMcnvopStmmfJwgwH60UkLfySW1Hkc2aEaMhSSWbOrGOVJMkg2KZ1Q/80kkzGXZEI2i3SSQx4+zal9lZH2kklPo7J9oIi2KCG6dJCIn0giFUy7pJJkT/AFPdeA/9NH/SPkt9+5SSXVD9UfNy7OW+kH/SO9W/Neb4t/BSSXPl/Y934r/imchFutuj2SSUyNvH7B6zdSb+vxSSSNf+zCH7LKk3TJIQs3ougWhTpJIY8ROZc9ivtD9dUyScDHy/1BEkkloecf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxQTEhUTExMWFhUXFxUVFxcYFxgXFxUXFxUXGBcXFxcdHSggGBolHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0mICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQIDBgEABwj/xABHEAACAQIEBAMEBgcGBQMFAAABAgMAEQQSITEFE0FRBiJhMnGBkRRCUqGx0RUjM2JykvAHJFOCweEWc6LS8TRDwoOjsrPD/8QAGgEAAgMBAQAAAAAAAAAAAAAAAgMAAQQFBv/EADsRAAIBAwMBBAkDAwMDBQAAAAABAgMRIQQSMUEFE1FhIjJxgZGhscHwFNHhI0JSFTNiNHLxBnOCkqL/2gAMAwEAAhEDEQA/APjtUQ8pqiBHMqrBXYPLqasorvVlHRUIWBKhWSQSqLDY00qmGiGIgqkRxO4aKruUomj8M8JjnmySKzC2gXNr3vl83bbuTrbK1qbLcEj6FL4XwyRCPllArq2qjOHVlYHNazXC2voSCNLC1JlWaDVNMGx/AIcSXQC2SJUzWAJ8zsAHsQhIuTvbNHpZQCEa0rhOmrCfiHgHDiJhGc0l1kypIC4UKRkUOczFr6ab208uVmKq28oF07IwDcIxCAl4JUAvctG62IF9iL9vnTBSuFLwSYxtKI2aNbguouAQbEdzbW5GgtvQ3V7DFF2uLWgqXKcAN1saMW0N+HPpQsidgySK9C2NikyiWDSopXDlBWFjYY3plzM4oNw+HsKq5aRa5sKhaZPDmhY1NBDQXqJlNEUw4FMTFMnyRRg2M3agLRE1CyamoWTCVVyWKpYqlymiKCoyBcdUEkcY1aBLoGqmFFBzR0u5o2mx4T/Z080AcOVkYbMLKp6erabgDfroavchTTGvCf7P8PGlsdKjym36oNlC7gXIuz77jKPS4oHPwDSY7xLYSEhZJlVRYIgEpUKNtHJj3FibH3dgvEPJVi/FeFXKLczUC12z7geU3A3O2hudR5heKT6E235Bz4tw0xyGzLcNYi+ZW0IBP75UWvYhzfqDW9opRQfhMRFOvLjkzeQjIxzJcWCve2dD7fs2uL3AJo1KILUijiXC2nh5RkVMwsURUyODcooLrdb3ubAMCS1yTaqjFJ3Lcj5ZjsBkcodwSCo1ykHa/Xp63vcC1MYyMbq4mxeEO9EmKnAtwJtpViGh5El6BoKLJS4W9VYbcFbDW3o1cQyl2A0qyIqZaq4zbZFZlsaao3FuVglMVU2EU7kHxGtBwTk9zzV3JtEWarKPVCE1FUEExRm1Uy0iqarQLKbVZRME1ViXK3Y1ZTCcI1BI0UI3GUWpUG9ri4FrkX2F9PnpSuptcFtZ9exXEzhcIlmBkIXXQi1r2UBUUb6WUaAEgE0pyvLBmS8T5rxPjryOSrE3+oxNmv2OYj5NemKCtkHe+gu+mmQ9iDbIdNfsn7N9gQLXtca63tsVuKZV3jubHzRMTqjjSzb2GoUi+hyG5XdmOQG7so5rCV8txcG3+YX19zffVWxYl8hMHFXSUOrlcwDAg7E2OnuII+HY6hKKsEpWZvOE+KlmjbOPMxC5M1gTI4DWK2Kg6Cw0I3BINArxYeGhvjVGKJQJEcQAoDSxRubDPYOTGy6om4I1cCyqBc2you2D59xLANGSrI6kdHVkJHcBtx63PvNBdp5Gtpi0JTkzPOIzwL1YFh1HBcUSQSFXFky1AZIzUs5zVdgUwlZr0NhreC9OGs+t6dEzyBcVAyGxplwEvAlhxes0+TTTDOVS9w3YInjsaamZmrBUUANUGkcOFINS5LWLyhAqEbAsSdatAMqU1ZRZUIVSVCgzhm9DI06fkecOwgllWL7Zy36C+lz6a9/SlG6bsro0XjDHalQzntbTIoHlDsf2jka32rPDLM8lZGOxJUg3JJO19D+Gv3U9Cn5lCRM5AIzEaB19ojs19GHy9/a3JIpQkxnFwGVhqpPvvrpb8NPz0pbrId+nZ48Ecbg31I01NiND8evrU7wrumXN4RnyghCRbTT/AE+VTvUTuWDxcMkQ6A3BB2IsQdCPUHrUckyKm0bngEckpWQysgW2bZSTYXN2Fslg1739rXuKgsFTsmIvGS2xBXKFKqoPtZjpcFy2rMd83ruQASTWRtKG5CWOG9GiVKdi/DR2NWZXHJocFqKNF8AXFlFqtgtGVxEAqkyrFUUdiDUuRLBocLIuUEEUxSQu3QV8dxAO1XKREgXh9KkNhgPzUFhm4z8j3NNMzYXhJqphRkN8OgOtLvkba6B8XpT0sCJYEcu9UDyRFUWSBqEOGrLL8KLUEjRRwazwgP75hydf1g+8Ff8AX+t6RJ4Nc/VCPFzgSMdCep0OoAvl6G50v0tSqYiTM7w2IyPr3+fpR1JbUXTjuZt+HcNWMA2Hv6fOscqjkb4xSRosNMltvy+YqKRUo+AUkKBgSqn1uDRJi7DNMTYWyNb+G6/EgafGmxkxe1EzwyOUF1UXsRcfhTYpPKFSbWBPw/FZJTERb1BI/D+tauLaBmjD+Nz/AHyQa6ZBa4IF41OlgMoN727km5vRSZr0ivEVRtpVJjK1joajuc6cRrhsRlFNiKsJeN8RsKJpASbQiTEljQtFJthqba0I+INiZiNqtICbAcxaiFXuHYUkVC+Azm1e0lxO6VeAWiML2NCyJjSOegsN3AuKmJo0KYEasrCO1CySJc1TLQV9E0qrh7GVDymo1cKMtpofC2K/vOHFwP10Wp/jX76VOGB3e3Vi3xC4eSQ6+0dzsAL2tYWG1hakU8IuRd4RwBY3Isp6+g3PutQ1nd2G0lZXNlDxvCR2BcX72H47/hSYxa4Q6U14jHDY3Ayn2ISe5jjY/E2uPjR3tyROT4fzGD4LDXuFBtbQSSAW6eUMAPgKv0PIpOaCIsZhEN8yqR3d7febUUZU74Blvtn7DHBcThkNklVmIsN7+lm1B91NjOL6iJRaM5xSK2KDEG9tO2lyf9/zqdQeh888dTqMdOB3jv6nkxn8LDptRtGnTTtERDE1aiXXmugVDLcVTiZlK53EYjSwo4sXNCjHRFqPcKcSGAh11qpMkFkcrALUq5oUcAeIw16YmKcblcWDtUcioxLJIbVUWXKNkU5qZuEksao1oEx0ooUEa0Yka4fDXF6BsNRBsXFlNHHIEkUww5jVsijcJfBkCquFsZGGOxqMkcMPBFqQ3k6VOF4izFb3FNi7mPUQ2se+CMitLO8YlMXKEak6B3ZvORsxUIbA6Xa+4BA1pOMGy9JS72ooPj9hjx3DglpF+vmNtbg7kb730rHSnfBqr0lF4H+IwJjgjjFxcDPbsADl+Jt8qB9WWsLBn8fxWNAwWHOF0JtYb28unmHrRwpyl1BqVFFZQuw/EBukbK32fyopUmuWSlUXKRtJWdcF9LubFU9/msF/EUhUmaZzSMjicWjm7BjYXa2pAG5Ov+tMjTkZ51Fa7HPhnikBYCMWa+hYXuexYXyk9/dVyjOLyVFwmvRPpfEIzIuFkI3EiPvuAvxvfNr6Vo5imZuJNHzP+03gsSSfSYcQZGllPNQ68ssuePI1rFQoIte4BTQAimRlGSwFKM6drrDMPlNEhcp3CYJ7aVGioyLDPehsMuFuBahTyE7AINmvRsqMcha4vShSuFNbUSixANW4sUpXJM+l6qxbaF+IxPSiSFOQLzqIG5LGTG9SxbkBxnWrAWTQYU3WlPk1whgX8TOtHETUi7lnCk2qSYVJDaeIAUtPI9wwKWABplxKpu569JfJ0KWI5KJoiabAy6lpj/wIbSyRke2gYfxROr/AZc5+HuodRmm7AaKe2svejR4DCkjPISSHHlI2ygnbppb5GubFZOnXsuB7MBKcrW9b9+vr2opZdhKjgGxPh+RReMx6dwNO1qJXBxcV/oMh7yMWPYeVB8BvU3dBkYeJ9DweCzYIIyjZQQRpYdCKfGLcMiJv+oYjG+FpY3PJGZP8NhqvQgH6y/PfXuVtPoF6KQy4T4XaRf1kUcZGqtH+003sx0GwNrHY6UVpS5FPbHg1fFsRysGxVc5jGex6i5Vyfg7E26A2prbVN2BpwUqqTdrux8q8aSAtCALKYUltrqz/AKok/wCTDx/M96Gk/QQzVRfeOLfGPuZWeIDWtClcx7ACfuKJMFwayWYPU1TwXHI6EXlpXUftFWKFqMZGSXII01MghVeeMFkEpo5RwY1K7GsUdxSGzRtuhdj8PajTFSjYX2qwblsjXqyr3OQpcihYcOTR4KDy0ibOhSs0B8QgFUpWNC06kcwAsajmU9PtGMxuKDcHGC4FTRkmjUi5U0itgRVpXFSntRZG9NSsYKsrjDhjiKVJCCQpOYDcqylGAvpfKxtf0qOzVhULxakuTa4vG5muuUpbykE+ZdAu/TTTr0OorDJNSsdRPdC6KDiyGJ7nWlyCi/Eaw8WAUljoBf7qXewTt0Ek3iRY2zshuTcG17L7vx6606EZMqUsGlwPjkKt3F1tfQXuPS29/T4UyFWXFhEoReUzkvjGJmjaIPy3zqc6lbOpFit9r3YEfu1KsmuAowxkNw3Gzm9r1pUauS3BNDtHQwymTVCPNv7JDZ1011UEad/StcHhszSXpJI+TeP8Sv06aNPZiywjt+rUA/8AUWHwt0onFLCL9KfpPqZKaWrLhB3yUOL1E8jZ01YngVs1MfBgtaQ9MulJ25HOQg4g+tPSMznmwATTIoCTuM+HQ3qpywXCJoYUAWkWuzUntQq4kRY02ERFSSFPLpm0TuIOKAslhdTVMs0eHBy1km8nS08WUyx3oDpp2KQmU1C3JbQzpQmDvmmTwOAeVisaFiBc2GgHdjso9SQKZFNhSqY9v5we4x4exMaktA/l0bLaTL/GYy2T42rRGLMVWWM/cl4e8Fzy5XncYWNhdGlQlpLi4yJcXFrm9xt1q5yjHDC02iq14uUM2+Je/BZxK2HEbPIm+QFlynVXzW0QjUMbD3HShQUqNsDvh3gnGRkNMeVEyuwTzvdsjWJKgompBJzX0+IuaTXBKNGbu1JWXKuvpf7C5pdfdp7raf7Vz5jlyD8QxNsq7g2JHf0+dqqES5TsRniZ7X/L3elMTSJ6xPA8Ja48wy9RzFAv/N/V6ty8ge6Y38Rx8uBTckA+U9N9LVUvSsU3t5I8NmNg19h91ISyG2ajinFZYMC0kSF3uoPlLBBZi0jgfVWwvfTUX0vW6mvREyV5nxuWZixLEliSxYm5Yk3JJ6knW9GaFZLAXw/gGKxAzQws67ZtFUm9rBmIBPoCatIGzb9FXG3/AALjFF5I401ym88Gh7G0mh9KKyXLA/qVF6MJP3MJwnhKxHNxMKE7BUnmPxyx5fkxqd7TWGyR7K1lTMYfFpfVksX4fkSPmqySw3tzI89hqAMyuisLkgbEX0vci5RcZZizJqNNW08ttWLTEGMwdxRmV3EkkNjUZBxwxgKXIfDAdNi9NKKCKnIUysWrSkkZncHyUVkCGTYbSse407AbBxWcVJPBUY5NCrgVkkjrUcFBlGtUjVKN0P8AhnhzQS4kFV+pEQVeQW9om4KJta3mPoLFpKSivMPS6WVaVv7fH8v9gmWHDbCFfg81/wDqkI+40vvfJHV/0Ki1zL43+xzDzYdAEZZFQNntdXUvawZ7BGNhsL6XNtzcXVUsO9vkaKPZb06cqO1yty07+690vghpDNzischRo7MY542YCDIpdrsRnRQqsSjDpcd6OEd729PHw/PACtOGmg6yun1i0nuv5LDfg0/J+AD4p4kkiosLuyoFUMwsxyqBdje+Zjma1hbOaqvUUkkug7svSVKMZSqJKUm3jz6eGOBz4M4qBhJJ8SzNFh3BRAR55NMoN9rGRLerdgbuoP0N0+Ecjted9QqNCNpzSTftf5fyFGD8VYiTEHPIxWbOGAZgBdTYCx0UaC3Yd9aVGvKU+TZquzdPp9HZQTaXNldvq/zjjgS4w3YnbN5h8yG93mB+YoeTzbVsAfFbqGZRqkRYe8XP4a1KVm7MXUdldCHDYyUAMHJvr5gHB/mBFbGo8CrOSvkJk4zMb6oL66QwgD09ih2RKUX4leAxcjcyMsSpVSRYBQwIANgAASLgnc7mpNK1wsvFzZ4CE5FFu1/cN6yRjuY5uxseFcRiV4xIoZL3zEkGMHTMpuLEDU6XsLVphNJ5OlQ0VZ6dzptpvhePk1br0KPE/BcEkbTPh4GWRiIpk0ElwTe8bKbizXvuV3N9GVJ7Y36C9JpYamsqbupL1o5XHy8Pd0xkXwtNmxMQIIAaJUXYKqsCAF0AFuw9NhSaLvLJ2+0acaOjkoW4fHssDcGxTAyasAXa5OYak3P8Rufzodz3N+Yx0odzTSs2or6L4B64NScyJGzb3ezG/oCMoPrYmpYB1WvRm2l5fl/sCcbxcuYxnM3MhkULcklmjdSL9bXDD4VO8lGaYEtHSraWcVZZ5+DT+xhcRILV0FJM8LKLi7MRzgE1TIkWohA0objtuAZsUb2NGmJYZhI70W8tQuX/AEcVN4XdoMTCEjUVkyPskBYmDKavd0GU6Vxnw/hpZObKSkf1bC7y98l9Ao+2b66AMQbJnOMeTqaPQVdQ/R48WF4biKRn9TCiEG4Zv1kl++d75T/ywlZ5VpdMHoaHZWnj695PzePgvvcDxvEZWJLMST67+/vS0kzZJypYikkB/TH70SghT1dVF8PFmGjC4+NXsfQta3/JfAd8MnRYJ5l8vMyYcdfbJeU/yxhf/q0ymtkJSfsMepqQ1Oro0YvCvN+7EfmAyw7lNVO4pFuqOykPOF4HNwnGMToJR8wcM3/bWukr0m/aeS7R9DtOnFf8fm2Zrg5Imisb3kQAdyTtSaeZcHS17cdLLPgvmgzHOgbILmwPmv7TddOg7fDvUin0PMSaPYN83m9AD12vpUfosqnkX/oV1B5a549fLcZkG/XcbjvtvfTQ5qWeoUKdvRXBzD8Bmk9mJh+8/kRbWuWJ1G46daJXLlBLp8h1+g0ghyAklrNIxGrEX2HRQNl9ddb1nr1G3ZC1T2rJoeA4ESPHG98t1DdNL5mQH1zEadL0dNWSFvq0ZdcezqJCxOa7AdAGJYADtY7dKRVdps972ZBfpKbf+K+hpuO52wHD8Mqs8jczEFVBZgDmZfKBfVZGP+Q1oqJulGHU4mhnT/1GtqZNKCur9MtJfRmYwWIOHkzoSJV2uNFO2oI1I7VlTlTl5nfqU6OqpuN04Pmz596KJcdJ0lAsLBRYWHYAfgKq76luEFiDX1LMHx+eM6tmHZtaJSa4YiVNSxKK92DccD4jFiQGUAOlmKMASjA3Dqeq9L9L2OhFaKclL2nM1FKdJWd9r6rF/J+f15WURxmChdjzocOc29lyu3qXUq1/UWpveyTMk+z6FVXUXfx/E/qIuJeA43JfCPk68qQkr7kl3Hue/qw6M71SOTV7MlTd07/n5+xnsZwx4vLIjI1vZYWNu4+0vqLg9DQ5RncUjLcRXzU+JjqcheEmsKjRIOwb9IFBYZdG6/QUigBwIyVZ8r5s5VcuZsiqx0zLcGza7aGha28mmhRlXk1T8vLngVSeHWfLKHhkhv5isoBHUK6sFZL7bbXt0vnnUSjuTOnptDNVu6qpr3Xv7LclWJxT8whypvp5fZAtYBewGwA6CsTbbuz2VGnGEFGKsugsnTK1+l6hJq0lIPw3DJZv2UMkg7ojOB7yAQKKNKcvVQqvrtLSxUml5Xz8Fktk8MYi9jFlPZmRT8iwpioVfD5owy7V0DWJf/mX7AWJ8OTL7QiQd3ngX7jJc/AGmqjNc/UwT7S00nand+yL/YE4jII40gV1crJLIxQkp51hVVBIGYjlsbjTzjW97FK23be4ii5Ou621xxZXwyjDY9l66Uhw8DsUtZKPrcH0Pgc4m4LjEGjJIJD/AAjkyX/+2/8AKa1U80WvacTXVEu1aVTo9v1sYrCziNsx3AOX0Zhkv8ma3rasdNvNjsdsU26NvB3LlguLnr91Xex5WUQfh5KuyHvp/m1HuBp00pRTQiEnGVgrEzOliL0ETQ21lFnD8dM7Cyk676kf+auXtBU6j54G2PYiwffS4voBobH8vWhjG8si5y8BhwXG5f1mwSzWt9nUe8k/MmrdS8h1Ki5eiuX9zOcBw0byxpKcsEaFpD1KRITbTU5iAthr5tKGnac7y9p63XVKmm0qp0svEV5/iBONeIGkdiB2AYm7ZASUXsAN7Drr2sTe4z0UtKnBJN9fC9s4Ip4nnYBZCsqjYTKs1v4WcFl9wIpm+SVm7+0yPSUJT3Rjsb6xbX8F5473w2FI/wCQoP8AMLN99D3z8F8Bj7Ngnu7yp/8Ab+C8YrDOMrwGI/4kLMwv+9DK5uP4XXbbpQ7qcvWVvNGl0dbR9KlPev8AGVvk1b86FmEwzxOJ8M4lVNWaIksg11kjIDxggHVhl9TVdzOPpRz7Ao9paWrelXWxvlS49z49nBso+JcxFcPYML2J0+Gu3up2+6uZ3p9knG1yo49FO9/j+d6FyQzuJyQV9KjmQxyBXQ7o2w9Qd1b94EEdDRxqeBjr6K/rL3mB8ZeCWjHPw+aSG/mW15Ib/asPMn71hbS4+sdMJJnntVpJQf5+fnXNsvhMPpe+homzEo5Dvogpe5h7Eb/+0fiTRYyPlsSYlGp1JOiNm0tc8sE++layXpRSPRf+nqX9KrOSvFtL4Xb+qMtiVSds8XlcnWLqWP8Ah/av9nf31jau8I9IqkYr0pcdf3/clJw7lj+8yrCw+oBzJ9r2MQICH0kZKYtPtzN2+phl2v3no6eDk1/dxH4kG41HH+whUH/EmtNJvoVUjlp/KSPtGjU4x9Re98madGrXzqal1/jHEfe+X+ZA8bxmab9rK8g7OxYD3KdF+FBKU5cs00KVCh6lNL3XfxdwM4o9NPgKDu11HPWVF6uDn0s1fdon62dslbuD0okmhE5wm7tEMtWL2jfwzx9sJIxtnikGSVPtLrqPUXYeoZhpe4OM3Hgw6zSKvFeK4PcTw6rZ0bPA5Ijk6g7mOTtIB8xYjQ6KlTtmJu0uv72Pdaj1l8/M9hOJAaMdOjD/AF/OhcWzBqtHZ7qTuvAtxEYfzKQWGx7je35HpRwk44fByZwv7SWG4l9Vw1+gt2opQ6oqNRrDCW42E21Y3t319KqMLknV8CrEY7MFLaaXN9SW/wBANPvPWpOWNsS6NGc5Yyymfit1yJoOp70m1j0vZ+kVN755f0/kDley36nb3VUVdnXq1HGFxeaecl5PBalyJO4wiW4v8D76zt2Z1qaU4Jk1OlqpjYu8bI4t1YMpKspurKSrKe6sNQfdRRm4u6Znr6WlVjtmkxrH4icjLOizDU3BMMtz1zqCrH1dGJrR3yniaOWuzqmme7Szt/xeY/uvcOMFioZdIpQrf4c+WN/cr35bm/qh/dolCMvUfuLevnT/AOqpuP8AyjmP7r5lkxMbFWVkca2ZSpt3senrtS3eLyb6UoV4boNNeTv+PyDMBxVgws25AFzYZiQBqdtTRQk2zPqqEI03Ka4O/wBonhGZVGKtG/STlRlWNzoxt7dtQWIB2J0By9BQaXJ4qtqKVR+jG3vv/wCD5z9IX7S/zClizR8a4hC8ryzzc12PsYezAeUAZp3AS+m8auLk7bDPUhGUt037l+56TSairRoKjp4YvfdPF7/8efZyJpePMAVgUYdTcHl35jA9GmPnI7qCqn7NTe0rRwV+ljOW6s3N+eEvYvz2CoUs2J9OhNTQsZFllqEda6wRse1XgC0uLHhHepusRUm2TENVuGxoM8Yqm4josi0NXuFyostwmIeInKQQ1g6MMyOAb2ddj6Hcbgg60SmZa2kU1n49UEz4BZI2mgBGTWaG+Yxr0kQ7vF3vqmlyQQaZZNXRk7ydGWys+eH9n5iuOVlPlJFDZDZ01P1kWNjpBpm+YFRKPgZamjiik4l/tH4afhRWRIaeEehxW70LNlK3HQ0n6HMMQlxAKFx+qjOkjgj9oy7rGOl9WNgNLsAlCyvL3I00NWqtTu6OUvWl0t4Lxb/kV2Ln0/rQUr1To27544LhANt/679aFyY9UI2tYrbD1e8W9MrkGhIOhtRKSfIqVCcXeLJxMdb0LS6B0pSTakdzVVglJ3OFquxTmupEmrsA5IY4Dj80ShAweIf+1KokjH8Kt7HvQqfWnRqyWOV5nPnoqLlvheMvGLsxnhvEMI8wwwB+upcvEVIIYoCOYja75zYX70XeRXEckVKvUTjWreiuqVpX6X/ta8cM13glWxcyxK8hweHtJZzfUiyREj2rEML/AGEOgzCunR/p079Xx5I8j2lPvK7uldYbXEn426efmfTuWn+CPlH+dS/mYj8o5vSuXY9rvtyiQsarKDW2SwctVlWsdFUWiaXvoap26jYbk7xYUk4+sQaU4Pob4amKxN3Jc9arZIZ+po2Oc9elTYwf1NPoSGvSq4GJuXQ8VqXKcV1K3t3FEriJbPEhBi+U6yIxV1IZWG4I2IpsdxirdxKLjLJPi2IjciSMKufV4wCBG/1sg25Z3AB8t8p2BZsop5RgoVJQTpyzbh+K6X80LC16li3K4fh+HKAHmfKpFwiWeRh3tcKg9WIPUK1XhLIi9ScnGlG78XhIYYXjYh/9JDHEw/8Afe00y+qswyIbfYQH161HUS4RS0Mqv+7O/j0iv3+T8QCSZpSWZmIJu0jksznuWOrGkybvd8nW09OOzZT9GC6+P7sJglU+UBjoTZRckAEm9tgACfhStkmdBaqhBWbsgpiAQtjcqjAbaOodT8mFBKO1j9Nq6VeN6Z1yB7VhQmlySV5EHZTUBbiwSRQDvTE7mOpFRd0zjGoDKS6FbGiQmTsVg0VhKk2zzv0qJEnU6ItWQopfY7LbcE7nTqB+IplGHeVFH4+wRrK36bTSqPnhe1n33wHwf6HhEiItIf1kvfmMBcX65QFT/JXTlK7PCmg+nx/4kf8AOv51RD8q1zT21j2WpcraevUsXuPVCXPamphEvKWEWphSaF1EjRT0s5F4gRfab4Cg3yfCNCoUaeakjxxiL7K1O7k+S3rKNP1Ig8uPJo1RSMlTtCbKDMx70e1IzOtOficysau6B21GSEBqt6DVCb5O8juam4ncJcslnRe1VaTD30aZ0SBxoCf+lPn1qbdr5/ciqqqsRb+UfiRZh117KNFH/dUs+n8guS/uz4JYj/Iz4Pg+cTcBzrZMxQKBbM7NayIAb3PUW60uo1Tje9vn8uonUV5u1/4NPw/hMcUxKb2sps3lGzEXNy5JK9LbHzFsiJ1ZqO3r1/Pz98MqsqsLvi/x9pluLYrPM7Jtey/wqAARoN7X260+MUo2Z1tLGpTglHDKliJ1Y0LklwdCFKcszZK+lqqwzcrWZFqtC5WSOZ9KuwO/FylmvRpWM8puTsjzyZR61FG5U6qprHJKDTU6mqkHQssvka+Go+ZiI5kCyjDurvC7cnM2a6ZJWvGSSoIVipOS1jW7TwVON28s8x2xrXqKuxerH5+Z9I454+ijwspQvFiQoVYZVMU6O/lDZG9oKCWutx5d9afFZOOfFvpKdx99P7yPgDYuaOuMme5dPwIVYFnwdtUuXt8SWW29URWLEcDprQtNj4VIwXGSLzMatQSKlXqTwiAi71e4WqTfJt/DWHXFSYKN4kvHzc4Ki0sXKPLlNxZgrRsp6XIPUgaab3WucTV03Q3uLunjnh+AauCwEyYrFPEEw8TCGLk2QuwFywA8pZ86WBFgBc9TRPY02+gqEtTTlCnB+lKztza/t8sswMjqCbDS+gJuQOgJsLn1sPcKxWvwelUlFJSy+pAyE7Cr2rqD3k36qIFHNXeKFuFaRWYB9Zvl+dFu8EKdBf3S+B4BRsvxOtT0nyylGnHiPveSRJNVhBNzmTEdVcaqa8TQ+F8SoV4yQGZlPm0Ei5HQxN1seYTp1C7bjPV3J7l/4f8APBj1dLdZ8r8+Y74tE5DNFZy4OViRcqRcqAAQXyr1boLXuM2emrve3j2dftny/jPSnCLUZ4t9Pz6GKVgK2NHfjNRPNITUSSKlUlI4pq2Um0cZ6iQM5lBko9pldU4JKvaCqjXBxRrVsqKu7sskbQgfGhiuo2rO0XFGu/s2TLh5HsLvMwJ6kIiW+9n+daKz4R495k2/EV/2kcRIeOBbZRETlIBCmRzqgP7M2QG623ptFvaKlyYu/wDV6O4NxusxOw09f9qyd0lyesWsnUfoqy8+QqIDtVbUSVSrbw9gSuKA2092lMSMD3bstsmMQrmzC4/D3HpVSHQ3L1WLVYH+ulIasdSDTx1JAVQxLIXw6BXkVHkEam4LkXCnKctwOhNh6XvUik3ZuxK9SdOm5QjufgbPhDTRYeSKBsPPmVgrXtLGjFWlC21MZA1XMpDXPTXZCLjGyaZ5zU1KVWrvqRlDx63+NgbxXGWghgw+FlihjDzSKSJP1jGxbOCc6hV0bs/S1BVhLalFGjs+vT76dStP0nhP8St0MddRWP0meivSgrsqbE/ZFGqfiIlqm8QRWxY70XooS3VnycWOo5FKk+pYsVC5DY0UiwR0O4d3R0R1LhKkx14ewQ5kcrSIoV7hSfO5UXCqLHLmNlDdCbjUUPOPEya1tQlBRbxfyXtHCLPZblDOrtiAhjk0V2VvNaMCMiVL6tZubqfZvcYK+F8/K38e450lRTu7921tvjnx/f2mUfCFSVIsVJUg7gg2II7giqcrPJ6KnSjOKlDKfB0wgUG4c6CSuweVhTYpmKtKK4B2N6YjJJ3OWqXBUTgFXcpRsN8BwnNq2nYfmf8ASm06aeZGLUa3Y3Gms+JDFcOVb5d+xpjoxuY5doVUuF8P5BuDcYmwxZEYFSxYqygjMQAT0YGwGxG1MlTjJHJ3NyuyfH4HxUonUKDlVStzpl0uumx7dPXehilFWDcHzyU/oeX7K/zJ/wBtTd7S/wD4g2HkFLmjt6eorBGa9LNt9yLcNh8xormKorMYvw3ysRplVmJ93+9qrLTLhOO6KfVpfERmP1pW46Lp+DLY5L70LiOp1L+sWAA0GUPWx4ZLkHdain4hvTNr0chMeNxK2tM4AvYZyVF9/KTbW/amKvbqYp9mKTu4r4C9ohuxuam5vgJ0Yx9dnQ3YVVvELcuIokik1Tdg4Qci9YaW5GmNFImI6rcNVNFixUO4dGiiXLHUiquwu7iuWHNPEYFjZ3zK0rCwXL+sEQAzZ72HLJ9n6/pqaeOphlRmtRKa27ZJJ3efp9QjG+IIGea6kpKQzBcqOHV3YNcKQdGINwbk3voKO0n0xYwQoRoxhaot8G7YbWVZ46e4SYviSEnloVHYtmtqeth0tUdK7ubI9obIbW9z8bW+QDJiSaNU0jLU1c5lYNEJvclUCscqgrBOAiDMb7AXP8yj/Wpl8AVJKEJN+GPaaTmC2lPTaOFKzFXEp7a02OTHVwIJHu160KODG5ZDMNjbUDiNjUL/ANI1NgXesURLrSps6OniMIkrPKR2aVPAxwEgB1qK7Muosh3NOpjkW9s0bLfsRZx8CVC+mYnpR2smYqb/AKkbK9mjJsKzI9JKJDLreiuJcc3J3qhmB1guEw/R0nnnkjWSR4k5cXMClApZpDnW3tiyi5IBIpsYR23kc6rq66rOlQV7K7u+fZkhjvDsqc851dYGiBK3OZZld0dbC2XKlzc6XAqOla7RdPtFVHCMm1uvzwmuny+gsGGbLnytlvbNY5b7Wvtel2k1e2Db3lKMtjkt3hdX+B2OEnZGNhm0U+z392h19Kmyb4RJanTxxKS97RZg4ZZbiGGSQjUiNGcgHYnKDYVSpNl1NfCnhtL2hmN4NMMQYIg0pyJJfLkAV41clrmyAFstybXHramOik7Iw0+1lKl3k8Zt+fEqHBMUZRDyzzChkVcynOovqjA5W2IsDvU7kj7Vht3XxexaOAS2ZnngRFYIZDKXRpCoYxqYlcswB1sLDvV90lyL/wBVcrKKk34Iq8TcNEDxKpHmw8MhIYsrMwIZlYnVSVJBGljVzSXAGir1K0ZOTzce+GPBfMRJpzcMAyRi+qnVWcjoRqAOhFzuKtRMWr189zhB+8s4rwv6c8cWFAMcOZXmtaJb5bJHbR7WJsot5gRYXY3kVp5fp051OXwur834GZ8Q8FOFnaEvmsFYG1iQwuLi5sfiaCWDq6Sqq9Pda3QXWoDXZI9ULJCqYyKuStVDbDPBoyRs1rCZcinTXJLG7EDqPIF97HW6mnUVJZ6HJ7TqU5JQT9JNO3xCsLJYWNMOVvKMdgWZSRRQkIqRbM7PGVNiK0xlcyOLXJXeiBO5qovcFxx61lmjt6eaXI1hwtxWRrJ1Y1sAWJkyGtFOJy9ZXTLosaWVhf6v4kD/AFqVlaIPZd56heSbKRrWTg9QvSRE1YDRw1YDRpPDWNZYikM8cb5iZI5yn0fEJZcv7QZFkUgg3tcMLHymnU5dFycjW0bz31Itxthx5T+/v9w3aPMuMiwTIJHXByMkMoCGyzjFJE1/PEOYtxcjW3S1MdrNR5MUXJTpz1KezKu106XXtY14XG5EALTSQSYVYs3NjjwgzwlVjWALeSTMQurBsxJI0ojHVkmpcJ34zu+JmMbxyaCHAZJXTliUSRo5HmixLjLIFOotYAHTU23NwlixupU4VpVna98r33ZdxJ4ZBPBDiY4iuLlnUlmEMscgUrZ0BGZNgO22tSVn1sBQhUi1OcHJWta17W8vZ9Ts3E8O8o5k/M/ukcTOyzGJ545mJaaMWeQZbEEgi5BIuLVN0V1ItLqHF7YWzfwfu8P39hNeOYdXw7c0sYlxML5IOUCk0blGjQWAVWYLbQnVjY7zfHxJ+h1DUkoc2eWr4v8Av5CPhuOhbDfRsSJFCyGWN4grFSyhWVkZlDKbA3BBB9NKWpxtZnSq6WuqvfUrXtZp8EfEnEYpjDyldVihWDzlSWVHcqxtpchrn1JA0AqpyTtYLR6epRcnUay74/EfQfBmNlkwkeeKyqojjZWXNIqeQHI1gLZcty2pB0pqysnC1sIQrNQd/t5BmEx2HYukLLmjPnVMyKpJ6hLRub36tse1W5NCJwlFJyXPB818Z4QJi3tIzlgrsXIZlZr+UkAfVCkaaBlFKm+p3uzJOdHK4wvMSsKWjpyVkRjjLMFUXLEKB3JNgPnRJXEzko5fAZ9IZCVjeyjQsunMP2idyvYbW6XJvHK2ESFBVPTqL3eBbBj3zAWiNyBdoYmtfS5umvxvU7xly0kekpJeTZPG4tmN5HLMBa/oNgB0A6AaCtMIPl9Tz2qrxlLbBWjHC+7fmyuDFAsB0q5RshEal2avDRBkFI6mtJWMx4nwoG1aKTMleK6GbrSZGrHMxqYJc2uK4Qqi9jWexu3WIYVtSO1K2ZHRryIY3hHMFxf4U+EbGOtO7FQwJiLX2K6fzD8qTqvVSOp2Gl30m/8AH7kdqxcnpn6OUePcVPIjytyI1YLVh5jcdHeOLIrQcqNFZUXmhzGpkkVtCXErNeMmxGmlww0Sa4tg4lKjUtKqpWqXeL4t4P8Acrx3A3IV4spVoI5uWZEMluUDKyoTnZQ4k1A2B7GqlSXMQqPabV4VnlO1+nxB8PwLEOodYQQyl1BeMSOovdljLZ2Gh2BvQd07D59p0ITcXzw8fc5BwqUwjEFUWCzNnLoNFZgQqk3Z/I1lAubVcaN+pVXtWNNuKWfYG8Q8OyJiXgR42C8xy5dQI4kI88wueXoV0OvmFr1bo5wBT7XvS3zWeOOX5FaeHpWkjRGik5okMbo5aN2iUsyA2uHsNmA3HTWq7nzL/wBWhtcnF3XK6+0tw/hwtmPOjaNSEzwpLOGkK5iiKqXbKLEtovmWxN6tUfMXPteyxDPm7Y8bnpfDTRtKcQ5SKJYnLJGWaQTMRGEjcoVJKuDmtlKm4q+6tlgvtR1Uo04+k+j4Xv6/I74hhiGDwZhOZA2KUsyBHJLRuFcBm1W++Y6EHS9hc7bVYDSSn+pqKph2XHHQ1/gnGzNhkV4WCoLRuGUGUXNgIzbbQZswB063va4yc3XwhGs9rvfnyZTiPEODid0B5bA+cRqF81he7QnKxG252tUk2uouGkr1IqUY3XtX3ZhONPG87vCCEJBFyxJNhnbzEnVsx1PX4BU5Js9HoaFWFJKpz9gE6n3UPQ1vMvYF4RMqSS9QBGn8UmbMfgiuPQupo44TZjrLdUjT979i/dggFLNyiw/hODLtfogzH/4j5/gaOnHdKxm11fuKLl1eEBcXS2tdGJ4+TAsNLqKtxuRM2fC8SQtqzShk2052QJxPCmWrTsBU9LAix/CGQX3psahmlTaFVjR3BPtM+CVl2qkhrZlW4Uwc2OlA4jYSVjV8KwK8uijgVU5EHjLBKsd9rGlalLYb+yHL9Tjwd/YZ3gGuIh19mRX/AJDn/wDjWOiv6iO/2hPbpZ+z7ixBb4ffQvJpgnBY6Exrt/4oeBqtJXQTw/ibQtdcu4NnRXXMuqsARow6MLH4E0cZSXBj1Ono1lapdPxQZheN2mwsr6tC5MjXGaWNp2lZbGwB/WSje1mG1qZ3mVdGKXZ6UJxpyVpWsn0sN+DcZwsXIYEqYTlZTh45ZJQHOVlnZrxLlIBVbWswF70feROfLs/U5Vr3txJJfDqJ+OYmE4aCCJy3JkxIuVK3jkMbIbHro2n51U5J8GvSUKkKjlUVrxS5vnC+drjP/iuFcQ2JUzZp4ljmQKgMTKkah4pCxEhzR5rMoGuvoe5coxvR1XDu3aybafjfp+f+Pf8AGKCaBycRMsbtIxlKqxzRmPIkakooAYm9yTfoBaq3okdBJxleyb4Sv98ijgHH+TC0EiO8bEP+rlaF1cLlJDAEFSAAVYEeUHQihU7XNdbR97tkmtyVsq6fuCh4mGd7QR8iSNInhYs2YISyu0gKsZQxJz6b7bVTqvwCh2dBQXptSve6WPgC8V4vzYkhWOOKKNmZFTOSMwF7szEte17nX4AAA5t4saaOhjSm6jqbm1b8+BVFx+dYuSsriPUWFgQCdQGtmCm50Btqe9S8ipaXSue9xu/l8BeknYULXibI1P8AFFl+9CNu7XZ5I9P6+FRskKeA7iIyxwpa1w0p97tlHwyRow/jo3iKXvMlJb61Sfg1Fe5Z+YCg11oGbIpN2ZrOGwCODTd/MT6ahfha5/zGtWn9S55vtya/U93F3UV83yL8Twvmb0x1LHMjS3ci5+D5DcdKfSqXdgKtLYMMBIMp91MlBARmO+FBWGtZKisa6auT4rgAVIpaYycMGP8A0aO1HuZm2H0mPiKlbU/eUoMEly60LqIYoNEsLxARixq4yQqadzN+K+I8zKo2uSflYfi1ZdXPKR6DsKj6M6j9n7meweIMUiON0ZWHY2N8p9Dt7jSIys7nSr0e8g6b6k8dAEby3ykBkJ3KMLi/7w2PqDUkrMujNygm+Vh+1A5B3BofJjGn60GcM19CB8avbYp13LDSIm3VflV+8B26x+BwFPUVPSKvS63PeT1qekV/R8zhK1fpEbp9CNgdhV5AsnwiawntQ7kMjRk+hMYZj0qt6GLTVG+CX0cD2rfOq334C/TqPrs4UQd6l5guFBdSSt9kWqNeLDjJPEI2O5aq4W23JbGPTXt3oXl2HxtGO59PsEcdtz3UbJliv3EKLED8QgNOqv0rLpg52ii+5UpcyvL4u/0sDYTCtI6ou7EAel+p9Bv8KBZdjRNqnBzfCNxxDDBVAX2QAB7gLD7hXR2JKyPDVKjqTc31dwPAyi9jWeaybKXBTxdgBpR027krRujKJI2tq1upg56pSbHfB8aQQDWWeTdSVjSzzgj4UtLI9q4pyijFbBLgOKE21op3AoyTNVg5Ay+tJSNDaKcdgy2ook2LlFMy2M9sjtp8t/vvWWo7ybPU6Cl3WnjH3/EGZaFM0yjcM4pFk5KHdYRmH2S8kkqg+uSRPde3Sm1Fay62Ofo5KUqkl6rlj3YuLmupoVZj5Xg8Egoaqu4hqMavBBoyKvcmLlTlEjY1eALSZ1ISelRysXGi5PgIXCqPapbqN8GuOkhFXmeMyLsKm2T5LdajT9VFbYw9ABRKkuomWtf9uCp8Sx60ShFCJ6qrLqV3NFgTeT5O5alybb8kwTQjU5Wsi+IdKBmqms2GnB0vPCOnNjB92cZvuvUoq9RE7Qkqekm/K3xwL52LEsdzqfeapu7bDjT2QjHwSXwQ18NOEYuf4R6X3PyuPnTaL/qIwdqxf6Ru/VGkxOLDLXSSueMeGZiTF2elyhkfSq2OYnF3FVGFhsqiYOIxaqkMpK5ORcpBFRLAxqxOTiXS9C0HTyV/pCqG7EJcK/mFqfKxw4to+ieH47qKRY2bsDzERCwqNFXPmEzedvVj95rDLlntNO/Qj7F9A+LLAizSAMzawxkAggEjmyA7pcEKv1ipv5RZ2whtW589P3Muo1HfSdGDtFYk1z/2r7vp9VkmMDklrksSSTqSSbkk9SSSb0DjK9zTCtSUVBKyRDMO9x+FVZl7orF7ogY+oNFfxFOmm7wZ0TMNxeq2xfASrVYYauT+lfu1Xd+Yz9X/AMSLY09rVapICWun0wUNITuaNRSMsqkpPLI2qwLEgtVcPajtqly7eB0R1VyKm2T5YG9VuuO7pRWTwW9S5FG4TCvWlSZsoxxcKwmIySBhuFkt72jZVPwJv8KunLa7laqgq8VTft+d/sCyDaqQyayrBAVsoyjrf5D/AHNO0/rNnN7bf9CFPzucOOYaGunFpniZwaZTlJ1tRXRViuckVLJlgxxfSkyia6UhismYCrXA5nH4c7G4FBKSJGTRH9FydqHcg+8E2GfzCnM5S5N54e4jlpDwzbBXQ04jxEkWXc2AA3udh76lw+78DBohZgi6sxCqO7E2A+ZrIo7nY9TOp3VNyfRX+CJ8dnEmIkKnyK3Ljtty4wI4/wDoVadUfpHP0ULUo35eX7wPJSrmzu0RKVdwXCx61S5FE7b1qYLs/E4Qe4qYKal4nQp7ipdFqMurJBR3qrhqK6skLVWQ1tPaVMleh4ns4qWZN8Ee5tTaTvb4R1ReqbsFFbiRbpVW6huS4RdFQSNFLgvwsRbmMLWRAx9xkjjFvW7j76vY2vZkjrxjUSf9z2r6/Yjl1vS74Nihm7HeCwf6sHuL/ebfcBWuhGyv4nme166lW2f4q33E/EIBzBWtSwefqQuzQcPwIyilubuFGmrCvxBggouKfTlcRWglwZaRdaOSBpvI84XHcj4Ut4RrTubTBYMFfhWWXIaLPoY9Khdj5LBvWw5ceTS8I3pM+TdQ4HuH/aJ/m/8AwalT9VnU0n+9H2mf4L/6rD/8+H/9i0ml6yOp2h/sz9jE8Psj3D8BRS5Yml6kfYvoEUBrOVASNWB1ItVoCRwVZSPGqL6Hqsh2qLPVZR6oUeqiBCezS36xsh/tkR1q2LiXxbfOls2UvVGPBNp/+T//AFip1P8Au/7WYtX61D/3IfcEk6VmR2qnQ1MH7OP+BfwFb4eojxmu/wCpn7fshHxP2xTDJM03BvYpXUGPAn8Q7VopmasZCSnyEw5G3DPaFJfBsibjhfsfCs8gkTqyH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMVFRUXGBcXFxgYGBcXGBoaFxcXGhgYGBgYHSggGBolHRgXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAECAwUGBwj/xABCEAABAwIDBAYHBQcDBQEAAAABAAIRAwQSITEFQVFhBhMicYGRBzKhscHR8BRCUmJyIzM0gpKy4RVz8RZTk6LCJP/EABsBAAIDAQEBAAAAAAAAAAAAAAABAgMEBQYH/8QANREAAgIBAwIDBQYFBQAAAAAAAAECEQMSITEEQQUyUSJhcYHwEzM0kbHRI0JSofEUFYLB4f/aAAwDAQACEQMRAD8A7tjlcxyEplEsVFkghpTyohPCAoi5VuVpCg5qQyolQVpanDUAVgKxoUg1CXt3hkN1Gpyy7kJWMvrV2sHadHt9iBrbZaJwtc7nkB8VnkTq7v3z4qOOPDTkpqI6CztSsfVYwDnJPhmov2hXGuADjhMf3IY3GueaFu76NE6Q9Jps244esGnukfFF0NsU3agjnqPmuOqX06qsX0aGEUhuJ6RTggEEEHgrGtXD7P285hyPguw2VtFtYZZO3j4j63qLjRW9gwMU2sUwFMBKhEMCWBWhqcBMRXhSDVZCUJUBDClhU4ShAEMKfCppkwK8ISVsckkUBzdFiMpMVFIItiiSJsap4UmhSTEVlqiWq1ygUhleFNCsTIAF2hcilTLt+je86fE+C5F93J1n63orp1f4XMp7g3GeMuJaPcfNc7TuAACfJTRNI2ftEfBUvuo+vaso3kqqtXnfHHh5osso0vteWsfW/ghn1llu2nR/ETO4AooZ5p2OgK+uSJjJYzr3PVblwxoOaxr2pTnIZqDZOKHZtN7dD3LZ2Nt6q1we13aYcQE5Zag8iMvFcs5wRVm5rHB078wmmRnE+hNl3za9JlZnqvaCOI4tPMGR4IwLi/Rndh1OtTaZaHio0Hc2oMx/U0+a7YBBlezEAlClCSBDJQnSQBFPCeEkANCUJ0kAMknx8/aPkmSAwKRRTEFTeiWPSJBTSphUNepYkATKiQmLk0oASSUpIA846dv/AP1EH8DPdPvJWK2oAMR8Pmtj0gMIuzH3qVP2F4+HsXLXNxoPrwUrLooKq3zWgu9Y7gs2teVamTnZcBA8Mk1ZwjxVlrQnNRstSDtmW2I6QBmToo7V2sGiG5R4nwVF3duYwgZTOi55tyxrpIxEaiCQO+EJg0V3l7UeZkgILrncSjtp3dRzMYEN8teWeSzrIOqOA3qZS2rpBjKphVvrknWF01nsJpbBPa1XPbTsajKzmRH3hOQLTpHu8EIc7o6X0bbcfb31KXyyq4UnjOMLyANeDsJ8CvocL5q9HbTXvbai5sgVBVkbhT7R8Ml9KAofJSySSSSREScpk8oAZJJJACSSSlIBJJ4TJgcnTeiWVFnU3q5lRQsnRoioph6BbUVraiACg9OHIYOUw5ABDSpyqWuVgKYHn/pTvmUH0XFuN7mOaGzGTXTJPDtHxXB9eyo7tNNIxMEyPPVdX6VrZz722n1TTLfEVCXeyFxW1tsAuLWMGZid4AO7mlb4NkIxUEzS+zyWtyzIMjgtmlRa1oH0VgWpLaTXA5kSRwBJHwUHXzicyiwcdzcrUm1DBAwhRubEMbFMNA365+SyxfaJq97+aFHUT0ruZG0LN06gd0n3o7YmzWjtPmTp/lX2YZMntHnomqvLnjOBOZ4BSUmQcI8nUbPwg5DlKD6WbHFdgwmKjJLOYPrM9kjmOayK/SuhSIaxrnuGU6NHxKEuukjqsOkCM+EQnvyDceGzpfRDSFK8BeGy5jqYMwQXQQI54Y8V7c1fOuw7wPubd9IkF1aliHE9Y2SF9FlSfJknGh06ZOAgrElKSZAxwnCZJIBJ0ySAHjuSTR9fQTJiOEa9WtqIQFTDlWW0GtqK1r0AHq5j0AHNcptchGOVzSgQYxyuYhWFENKYGB052MbigH0xNWkS5sCSQfWaOJ0Mb4heTbO2SHueYjLQguAOoLSN3zXvQK889ItDqH06lLs9bixjcXAg4gNxM58UmaMM/wCVnHC2NMRPECYniRHmgntVtag/EC6MpIjdOs84VT3ZoSotbTBnEglQILslY/NTtRmgRqbPtska3ZzS0g7/AJKFtUy0QV5tUNcJOSEht0U1ujbR6oJPNZNLZLjUwFpAmP8AiUbtDpM53YZ2RprBPMlZbr14++RPB0/FWpMzycDuuhmxQdo27GjsMmqe6nmJ54sPmvcgV5D6GbvrK9TH2nCiYcczAeyfPLyXrYKT5KpFoKUqEpSkRonKUqJKaUBRNIlRlKUBRKUpUUkgJQU6hiTphRwACcKeFPCrLCACuYoBqsaEAXMVzCqAFcxMQTTKvaUMwq1pTAIBXKekWhNCnUierqDycI94b5rpw5ZvSah1lrVb+XF/SZ+CCUdmeTVa+qy7l2a07unErIuEGllWJEWtTNDFMx2abRFM3jXhqyqlk2of2hIGuSepXyQ7ruElsOST5NMdG6T2y1078iMhv11KCuOjDyP2bXEjTSPGEANoOYThOqlS2m/cSFZuV/w+Gem+iDYj7e5rlxB/Ys0MgF75Lf8A0Xq4K4j0VbPNOz613rVnYueBshvn2j4rtAVFlUkr2LJSlQlKUEaLMSYlQlLEgKLAUpVeJPiQFFkp1DGljQRJyko4gmSA4tOownAUSwcKxqrUwUgLAVaCqQVY0pgXtVrSh2vW10ZYHPcSAYb7Sf8ABUkrYPZWAtUL5h6qoYMYHTkfwlanSO0uWgvt3OcNTTntDmzj3eXBcDe7fqPY5rnu3ggzPMEH3Keigir4OKvG5rMuqcrXuTJWfWYoGkwyYKmHhEXdDJZVR5apopbaCjV4qRwkblmPuZ1KrNU8UaQ+0Cq7huVuzaBqVG02iXOIa0c3GB70DTdJgL1b0XdFWBou6kuqBzgwfdbEDFzdme5S4RDl2eo2dMUqbKbfVY1rR3NEK7rEEKqRqqsdBvWJutQRrqPXJAHdal1qANdR69AUaHXJdas410wuEAafWpGssz7QkblBBmn1/P3JLK+1fWSSBGWU4UZSBUSwkpAqEpSgZZKljVDnJsaYBXWLf6I3LMT2lwxkNIbOZAmSBv1XKOqq3b/Rdzgyrb1ml+FsjFliA1pvb6uc5HzUla3SNHT4IZZaZy0p967np0rnekvRihdgl4wv0FRuTuU7nDv9i4rZvTW8tHCndMc8cHZVI/K8ZPHn3rvdjdIaF0P2T+0NWOyePDeOYkKyM4y2H1Hh2fpvaauP9S3X18Tx3pD0ar2Ul4x091Vsx/MNWHvy5rBqwc17ttzbNrRkV61Nk5EEgk8i0SvKekVnYVCX2VxSDt9Ektaf9suADT+XThChKKXDI41OStxfxo5WoARCwr2mQfktp7okacQs2+ZKSFJbGPVAVQaFZVGaTKcqxGVovsz2l7F6PbuKDWzkC7LvK8ctxnAzXQW9er1UNcQGS8wSMy4CZBByke1DnRfg6eWV7cep7DtTpJa03YXuc12UnA4tzGRdAyHPzWfedKKLGYwZafVIBOL9IGZ7yWjmuGbtp9wGdZhGBoaXH1nd53k8O88SoVqojA0QG6A+4cBy5qmU73Ov03hsX5/1Orb01BBLabzyhrT/AHlQ/wCrS84YdSnQ9l7fHIEd+fcuNJLTiHiimuDsx496q1s6ePoMCfl3OspbSuDo4u4QAfYArTtpzQcT8RGWFgaTPBz/AFWnkMR4gLlBdOaJa4gaOE5HvG//ACiqN01wAmDw00Ces0y6XDN04xXyRr1eljw3EKII51PlTELouivSehcOFGtTY0uIDTADmk6DG2MYJymAQdxGY8/q1BBHJB062ESDmNfHJJZGmUZPC+nnFxSq+59BDo3Q/P8A1IOv0bDBiaXVXDMscQ0OE5gEQQ6JiTE68tOyrksZiOeBu/OcIk+aMpzvW1RR4mVxdHOdfYf9qp/4q/ySXUpIqPoKzyxxThRJSlZzSotukSlMSgri+AybnzQeKo9wAxOJ3CSeByCR1sPhGSa1Tek06tcDVwHihnXrPxA9yCrVKTZx1ASNWsHWEciQQ0H+ZUtuqMaVe/8AZ/CY80N0bsPhWDl3L9Pr5hT72cpAHih7Nr8c0DUDuNPFGupAyPiqzeAfu6Yn8VQiofBoAaPEOUXXr35Pe4jhMD+kZexRckdaGHTHTCKS9/7f+nSf63Tc0UbxtOrJglgxYMvWeW5NdMeqZz0C5vpZRZZuovt6heH4nNkzAbA7L2kE5n2KJ70DcWTCdM/+EpTtFcOi0O4SpPldn8uwrXbLHeu0tnf6wPfv9i3aHQejdM6xjw0nQshzSfzAfCCsVtoANFKyvH0H46Li08tCBuI0PiiM/wCpWZ8vhzrVilpf9vr8wTbfRirbOAqtMbntMtdynceRzWLXtBoHeY+K9j2H0gpXjTSqtaHkQWHNr+OGf7dRz1XMdLOhhpg1aALmDMs1czm38TeWo5qTi0rg7RjjLFOf2XUwUZ+vCZ5Pf2TgQYkcs0ZSseyCcvetyhRGup3fNV16Oaj9q2iz/Z8cXq59xkNt9zRA3ldb0H2e2satJwkGjh83D/B8FmVKEM8F0fo/MVn8Oq/+mpwlc0T6rpvsunk16f8AZyl3YuYxzYIcw+ORgj64K+zqCqJPrCJ+a3OkVQfaK0cQfNoKy6VGHYhvDp+CjLZ0acK1JT9UiVvR1n6+pQzqfVvy03jkZWjTcI8vcFTXGh8PAj5pdjRpRQ/I8iM/HQqFRsH6zCse2AOA9xVQPDUadyiDI3Dzl5eYVDXZO7lO8OSpotOAniiXBCD9s97sbQODXFxIwtyIiOyPMLo7CqPV4aLj7G4/Y0jP3GZcOyFK82kaYkGCNO9dFcHhM69tndSkvMP+sa//AHR5D5JIKaZS4rMuruTAVe1b+Oy3VA2+klZHKnR7bw/w5YY65eYOZSLiGt1PkN8k7gImeSA2pfhzX0qZOCIcRINTiXfl4M045lFXt11VAn71QeTAYj+ZwPg3msDZzyQ5x4EqMpVsjfCOuVvj63/YaxjDAV1J8GEFavwuPNHhiqRensW3bw0A7yVNolqza1UveG8Fq6ABSGpWU0Xmc9NUTQqBxyVFRmUcfoqy3Ipt5oQ5PYfaNUNH1vWVSq6uO4KF/cFzuUqdrSxQEN2yq72LLUHDikhwORGRkGd2YzXddHOleKKNyYfkG1NATuD+BO46HkdeSe0MbPDxWVb1C8P4z9DuUozcOCjqelx9RHRPns+6Oo6b7A6p32ikIaT+0aNGk/eA3AnUbpXLvIMFGXO3bgs6s1nFuHDhyJI4FxEnxWVWrRxUZtN2iPSxnix6Msk67+73l9Z0thbnQe5ZTq1DUIaOrgFxie0NJ10XK9f9SVa13IIi3F2PqFHNjcL5NvpE5jrioWEOacJkQR6oG5BB5jwQ1F/cPJSfUgFNu3Y4RUIKK7KvyJtqf4Ui+QQVRS0jipYo10QCZB7zhz81TTMpViII4oexcdEFbn7SRO5Gqe1MwFZcjIoaxO9J8BF1M9W2DWxUKTiZljcuEAIbblx90IPonVH2Vjs5GNvKA4+2IV3VF7wecrfF3FHi+rjpyyXvZn/Zvyp11H2AfQSRRns4uqRMkom1p4y1oyLiB3c/is6ocwjrd+FtR+mGnhH6qpDB5AvPgsMeT6VkdQdfXoC9IrkVJw+r90cGtGFg8gFn7Nf2CFbtD1e4IfZW/mPcot27IxSi9K9CuqIcFpueAyeSz7odtEYMTYSBENm05diK1Tqh7ZmEIprgpE4qkReQs66PA/XxRly+VnXOSTFJlLBJWtaUIQNpTxFaFep1bZQgijN25dYeyDJKfZ9PBTk78yssE1KknitS5qZQEFKlqbkC0xieqNoHtLSs6UCSsq+dLimQyKoEGhGNbkhGI5miCEENS1VF607lezVQr6poc/KE1mW1J2F1w9pwtMdQXDtCQQQ/MKLnWzhDbpk/mp1WDzwlA7TOVvUgami4nPIEFuR/K72K/wD04fgadDmwbwJyEaLQoY9Kbv6+R599X1iyShGmk/cU3VAtbixU3tOQdTe14ngYzad8EDRNYDJRqW4pyAAA4ZjPVhkGCTuLxlxVtj6qqnFLg6PRZZ5N5qmuRr/Jp7j7kJs3QoraB7J7ihdmjLvUexfN1lOv6L3UW7m8Kro8WsPzXWbIaHR7lyXQSnjfVoyMw14nlIdHm1ej7M2YylnOfE/Ba8XlPLeIwazyL+qP0Uld9oZ+L68klac8xNtdEraq6bdxovnJgGJhPdMt8D4LmdtbAuKFIh7A79q0udTJeA1jHBpdAkdp51H3V6n1VOi2d6o2c7ESeclUywxZ2en8Xz40oyepL1/f/J4fencg9lOh5b3r0Lpl0YpveXUR1b9Tr1Z7x9w93kuCbbup1oeC10actxHEc1knBxPS9N1mPqWpQe/oW3Wuanakp7hslNbHMxuy89VA2rk0GVApVXACdVWyNSoASZ+u5Mm9ikAnPghXuxORt07C2B9cFRZ05KCNXsF2tKM1lbbvJOFad5XDGk/UrAqWryxtVwMPc4A7uyYg8yZ8k0rKupyqCUe7H2eyMyiWMxOHMwBqSToAN55LY2d0beWdbXIt6P4ng4ncmM1JPOPFTF0ynLbZpYDkars6zgde1pTB4NjvT0d2UY8sX7EN659PzANo03UuwcnbxMkcncDyWLcGSj73VZ9ZRXJPM21uPRKNou3IGiimII4+C0qqsplyqcU0E/QqvBitqo3tLKg88LveEZs9wqYTiILgD35bvrcqLZocSwmBUBYeWIQD5whdl420yHASyoaZH3gde+NY7loW8PgcDM3j6p1/Mv7oI2hIIaTJBEHOcwRv/VmlZnIKO05BgAloe3PPeZ4nmo2RyUJrZGroZ6skn8Cd3mD4oOyKMu25IC2dkorg053WRM29l3vU1WVfwkF3Nujh5E+ML06rekjIyOO5eRNcu46PXmO3E6t7B/l09hCuwvejleKw1QU/TY1evdx9hSQPWpLQcA77alcudCO2ZThqyqh7crdt2wwd0psaZzXSB+GSTlz+s15htm6FW4DoyaC0ecz5rvOm91ha7lK80p6jvWfNxR2fCnpzRfvCLnLP65KdnSIEn6JSw43DgMz7gPeiSRIE6cFkPYJb2OGZKZgDPJU1rtsxICg94465IJWiirNQwAVZWrinDG5k6qf2hrGk71kUXl7yTqTASIuVOlyWbWqHCJOZWp0Z6VOt6XV9UHwSWnFh1MweUnULn9s1sVTCNBl81fQaABxU4tx3Rz8+OPUTcZcI1do7Tq3Lw+qdNGj1W8gPioNMfXmhmvk+SarW3NStt7mqCjjjUVSQnukoK8pwr6RxOhNtEQQCgrnvFsFpBEsKppt+aslJojB0PUKqdV8kRWEhDOGSaIzbIVTkrzdl01W0xUJAbXpj1jh9WszfMZEIZpjNV1aZDsTJzzyJEeIVsHTOZ1mD7WO3KJ3N2x47FOowAyXPJkmCGtHGJJPcrLcwEMS5xlzi48zKKYRCMjsl0GF407e7FVfKHtgiqoGFB0HQQoo05V7W5otatXo1cRUez8TcQHNpg+xw8llh2Sjs+4wV6bt2IA9zuyff7FKDqRR1eNSwSR2M8/rzSTQeaS2nkz0BgxVAOa3wcisa1ZhDqh1JhvzWsT2EiKPLvSDdZ4fxH2D/ACuPpjKefzWn0xvetuHRoMh3cfHVD3Vvgt6JOtRznfytAA/uKoy8M7Phy/jwX16lDXeCHrXMZBSFSBJWXXuxOSypHqMuXSuSLiZJTi6dpKrFVWsgpmaNvhlrKhOqOpQxhf4N71G2tp7lDbFXINHqhQ5NavHHUzMpZukrSpP5LOoao1g4qbMuJ8ltQ7woColVfkVRbsLjCRZKTukHbKZLidyhtb147lpWdEMBWPdvBqHMdyEW5I6cdCjRNOacy71WuMbw0keYUH5OgyDwOR8imylSXZhbx2fBDYclp21o+qQym3E8gw3IZDU5p7vYtejhFRjQXmGtDgXEnkEKLe4ZMmNSUW9zGLclCjVAyK6kdDLj8VAcQXmQf6VVcdBqxBirQkaAOMk8PVVqxy9DBLq8KdqSOefTAKsogKmi8xhcIcMj4KbtJ3qtmuDXKLKrIBPBBUVZUedCq6Sa4K5yTlsFOqKmvk0nfu8M1fRaFTdHGY3BNCyXpOt/1QcElxP2p3FJadZwv9Cj6L2l6lLv+SPvP3Dv0H3J0lazkRPA9pfvXd49wWx0j/h7P9Lv7WpJLNk8rO34d+Kj8/0ZzNx6pWW7VJJZ1wdzPyO34oy2SSSZLDyjaoeoVl7S+vYkkoxNvUeQDo6o7efrckkpsx4+CFf1T3q/Y2pSSSZbj+8RrVN/itnY37sfo+BSSVmHkzeMeRfEN9G/8Mf1v9647pb/AB9Xvb/aEklbk8hzOk/Ev67mz0J/iz/sv97FobY/jrT9XwSSSh938w6/8V/xf6MLd+8d+ooP7zf1pJK9HClycJe/xNX/AHKn97k7t3eEklkkeuwfdopqa+Cpp/EJ0kdhS8wUdEPS3pJJIeTlFKSSStKD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIVFRUWFxUVFxUVFRUVFRUVFhUXFxUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0dHR0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAEBQIDBgcBAP/EAEUQAAEDAgQCBwMJBgUDBQAAAAEAAgMEEQUSITEGQRMiUWFxgZEHMrEUQlJyc6GywdEjMzQ1YvCCkqLC4UNjwxUWJHSD/8QAGwEAAgMBAQEAAAAAAAAAAAAAAgMAAQQFBgf/xAAwEQACAgEDAgUDAwQDAQAAAAAAAQIRAxIhMQRBBRMyUXEiYYE0obEUM0KRI9HwJP/aAAwDAQACEQMRAD8A3xgISVJMYfZFbRaBpmpMhsQSQIAwCpCEsE5qFMKgKsBh0ZUKCGKyiblCELI0RkmJiiC2GCmdba3joj0gayiemNtShcS9YvkiHegaCU2UyRaaeiCg1MrgsTbmrirI5DKCBOUQNQxgp1ekHUFtpkWkFsn8mRUCffJldFEX06lFAVRTqmSxPVRWSpINMAc+yWMK3yqEsGlnVoFso+UK9wbOlggrl4upTNLgVSwrdDNYtxFlRoibsOIDK5AxgsqHoSyloUKYRG1QELiUIENepZKJ9IrTKaPWXcQ0akmwCdFAPYcOjbCMosX26zuzub2BaFsJbsqM43JUKog+qH6BDqQWkodITyACFystJAFVDzCRJDIgFQARfmg1BUE4PjAa4Rze6dA/sPY7u71oxZL2YucO6NpFAtNCbCGQqUSyzoVKKPDCiIyp8SlFANTEhZBPWwpckEhDVtsksNbi6aVDZdAE8qJAsG6RFZR0umqV4rFlcTqSiMWSAhdTD1NiHEFrIbhdGGWwKEVTGQU9OwkxdMNUagU5E4WI9ADkFsjUcCtRaGIHENM+sltBnxKuJTCsGktL3gG3inwEZBjUa3cUwWAlnegchiRXI6xQNhJFgkV2VRFwuhZBNUHcdiQx6ViyZ45q0ymjZcA40JAad5u5guwncs+j5fDwXQxZNUfujNlhW5tWsRtiiWVUQ8LVLIUyMRWUA1DFRBRWsQMJGcxJu6zzGIQTpdhAcjUVlUQ6JTUVRuonrwimdZoNgnsmwy0A4hrJAQur0+exEo0B10FwuzhlYiWwjlgXRhAVKZ7GxN0C9QTGELiEmXAJMojEzwhIkhqZW6MlArCbRDCZD0ztNgRy7QL/ABTo8iMm+4ZW14Bte9viickDGLBxU329UtjEj18mmvqqCQPDPqoW0FOm0urYNGeqqjMT3lZ5bmmMaAZZW8z3KkW0VYHWmKoZI3Szh6X1HotfTyqVe4jLG0d2BWoxHqoh4SrIUyOREAp3KmQUVjkuQRnMRKzTY2KEU7EuwqKOjV2RI96NTUXpNcGrwU04nT5JtKBTZKCIZFrwZqYucdgsm4Xpely2jHNC+ogXewytGOaBTGtaQiz1qBxDUiQKVKI1SC4ILrO4B6wkUwAv2aqlAvVZkKuvDA3o753A5joQcxvslSlXAxR9wCSofrm8dfDklamNSTG1JibPdu248dT3o1NMB42jyasGpJB7AFdlpCWpxmx0H6pbnQ6MNj2mxRzt3ev6IdZbx+xZUOABudbeap0UrEElWdVEgmTo331TsezFZDvmES3ghJ3MbCf8oW9rcwPkJdIpRRU6VWUUSyqixdUToWyxVVTJU2GhLUm5WaTHJAb4UsugfoldhJHvRKFmoyryfUYNjXGR4GrkvZjiQCPG9wWWdLZd/pMrVGWcTzPden6Wdow5EVSNXVgYZuiiyNoFSCqWC6RMfGQ1ZGACToACSewDdKoZG26RiaTjf5T0rRF0UZuxkhNweXW7Ce66yzzVwdGfSxg6TtrkVV0TYyCCQ4DrNOtzuHNPYUh1WwqMWuRe+N51dfVKafcbEnBh7nGzRqpGNhtqKsasw97G6pvCF3qewnqYNeRKTKSNEYlLWWQ2HRBpOqllNWBVDCiTAaJYffN4p0HuKnwd7wyS0EQO4jYP9IXQ1HPa3LHzqWVRS+oUslAdRVoWy0hZPVd6XKQSiLKmr70iUhiiBulSmGeFyoIjlUCPcqsuh5DLdcWUNSGXRcuN1PT9x0ZHhKxwTT3DYHUyrq4GKaJUz7r0vRTMeZF5C9Biexysq3JMiTJMXFDGljSGPRXxLE40c4Z7xidb01+66XPhmnpZJZYt+5zSSqpoKaKKbNdjc1mb5na/mFyb3o67jJ3K6sswWXpy2RxzNbawO5B1AKKHO5my/YbYlMxxsLa6cvhb70c2mDji0gV1dHTtswB0h1J5N7h2oFOMdgpKUuTPYljU5JOa3cNR6Ka0+xFFoSHHZAes0H4q3GD4Isk0w2mxPMkSjRojNSLvlOoCEN0fS10XMgI4xk+BcpRXLL8LmiMrBmFswv4X1ToXF2xU2mtjsfy0EAg6EC3hyWjWYtBS+rRayaAOfELc1XmFrGLKjEUDmGsYrqa8oHIvSBfKiSgIExPuqCQRGqLCGsVoIs6NWQlSyrixY6SGUciXlx6kDFkZpFzJYaY9MAcLlbcGICTDKVi7fSqmZMoYxi72J7HNyIuYxNbFJB0LUsYi+aPMxze1pHqELGQdNM47jGFtkcZMjntAsQL9V7bAtdbZchrTJnevVFKwvD2iOGMBuUj3haxFybA+VlE9zPJILoqgG+YX5CwF+8o7AcQPFMBZ7xldGDysSbeI2QLYluXBk8Uw9zXARTAt/qyj101TVONboXLHPswPFcPLXDoyZBYagWF+e2lkKaYdNLcIw6idlzWKVPYdAhXuLBfW/YhirDm6Qnhla92u/ZrqtTjJK0Y9cG9x9hUDXkZBqNdPFLTle45Rj2OxXsAOwWViaKXuRougWVqtBAVQxUyxRUqgGBCTVUDQypZFQSQ0hVBBTGqyiyysqwSncuDCSNckGNlWhJNCWQklSp4rYSZQJLFSK0lvcOpJbrodM9zNlQ5gbddzG9jnzCGxJliwhgVWEkXByEIxPEcTaZzjkAZKSS4nq3O7Xdiw9RBp2dLppqS3e6M4ySNzrRkEX5EkXtyv5LOluOmFTTuYGxgi5O2xHIXuNFcm0BBJ7sZNgJFiAbixvqhastNCWv4Na83Y5ze4WLfv2VpE1FcPC0bNCS89tx8Aromob02GiON1wNrgcgVJcBJ20YbEqTM5197pUZVuOnGxbTxdG+4aA76Wp89Ux5G0IWJJ2zQcNRNEjcvNwLu85gbqKTZHGjoBkTEKo8zIy6IEKyANWqZdiKschoFsWvOqjQIdSSKi0OaaRCENYGXVgsJ6NQGxZicBa64XmoSp0bYuyuKW61wkVKJ6+RaFuK4Kr3QSQSYww8ap3TXYrNwaSkYu9jexz5IODEywaIuKqyEHSqrLEXE0maPL4/396TmewzFyZOCja0Ntprc/es0uTTFg+IVQDw4aW0v4aWHclyHR2RTUY8WhLdhwoUVXEMnIm/LUqkmPckkavgmnJg6aR4L3E78mg7dybFLsIm2+xoqpzCwgEXt4qTaoGCaZh8RowC5w1trvyG6zJmtoWsMbhmCsFoZ4Az9re2gBPmdP1TcaFyNL0qeL0k2yIkU0SMiNIWwOqKugWxHVBTSC5C141QuJLLoHWQNFpjvD3XQ0HZoaVSgGwyyoErxSIEFebaNiZmxLlJCdjGPgjJKtcGJkj6F+qjIhzh7wnYNmKymko5F2sb2MUkGlyaCUSvQkoAnlUJQlxGS4Kz5WNx8meqKqw8Fnkx4gqpiXf39yTZoXALXy2ZYb66nYWVrci2VizDos53ufBN00BrYZU1c0GgcbdhVuCZFnlHgtpOKZCLF3dvZJlifY0QzJrctGNl17XPfy9UHltbhrKmB0tx4KPcrg0/DrtHOPcE7HHYDkd9KE1Ipkw9GlQpnhkTUAweaRFQmTFVSUVC2xc92qFxIpHsbkpoNMbUEuqW0HZpKN6EoPzIaKPq192rzado2IxeJSkPT8aGWRinutEQWEtdZECxhRVGqZHkXI0tDLoupglaMc0MhJotYoFqJVRBPV1apssGroS2O7tyL27OzzSZoZj5MbiElnH1SGhzFVRLr/AGPuVOKG43SooqHZhbe6XVMYuKKjh08Qz07zb5zND5tv8E+LUuRWiS4GVVh1TIwP6srTYbAOuRc7ILoJTi9mKI8Ndc3hfobHmAfFVrVcl6IlT6iNt2h3WGhbz9FKb7F3FcMKob27t/BLktw4ydbmnw/qMA57nzWiEdhkVsGsmRpEkgmORGkZ5kZZCjihEmUOemC27BpgiFMWztQspFQKW0GgylmsQlSQaZqsNluAlljXMoWU1M2i8rA3UY7F3dZbcQQJDKbp4AyieVaQLDKV2qZVAM0lBJot3TszZEOaC0udrb3ZbX5tyL2Lu21vVdKMdrYjInFJ+4FUQPJLS1zSPpizT9VwJBVZIqKuwIScuwI2BkZzuOdw2+i3wHM+Kz60PWN9xbicpINzuShkw4oxOOvt4j4c0sahO6QOF1CLknA3YpchyY8opLaoYugmi+WVjjeOR0bt+r7p+s06FMdND8eOM19SBXuqGg3lbz1ygFBpii5dPFIRw0DWZjuXXJJ3NzdXObexn0K9gzD4Nr+KuELdlX2G3SJ9DFIsikUI2HwuRJiZlzhdEmZ5FZYjsArlYr1A6RfPCh1F6QV0KGyUWQxoGVZo8KOyTLYJMcdIhssVVdQvMwR0qE8oDjdbIooodEAU6ILL4XJqQs0GEcP1M1nNZZv0n9UHw5nyC2Q6OcvVsJllhE3OFcPRxAF5zu7/AHQe4fqt+LDHGtjJky2Mn2Gw9NFoSMkpbgksYcC1w38jftHYUUopqmDCbi7Rj8epXxutu0mwd+R7D3Lm5cUscr7HXw5Y5I+zM7iFZYkKnIiiZjEpLmx07OxVYdGddL0b7cifQ8wiW5T2GtHKCltBxYVM8gabJQ9CeeV4OhIRpg3KL2L4ah7veN1TYeuTW4cwZj3DdVCNsXOVINhjWrhCUy/IrsPUXRhVZeoKjKuxcnZc16lgUXgK7K0lb2qWXpB3xKaimip0CqwWiPQqANDShNlnmyIYdIl2whDic+ui4uKJ0mAxvK1Rg26QDY1puGq2WxZA8A83WYP9Vltx9DkfOwmWeC7mw4f4G6MiSpcHEaiNuov/AFHn4LoYelhj35ZmzdSkqibYLUY7dblbiiQpvcpnla0FziGgakk2A8SUSQKi5uoq2YTibj1oa6OlGZxFjKdm97B84/d4qnJR+T0HReCSdTz7L27/AJMLg/EM1O9xk/axyH9ox5Nnn6Vzq1/egWS9pbo63U+H48sUl9LXDXb7fAzxaFsg+U0zi+LZ4/6kJ7JG9n9Q0WfL09fVDdHEkp4peXmVPs+z+DNVouCDqsoQgxBulj6/qrTBluDUlYWGx27f1TGkxcZUPqfEWkWKRKNGhSIThvaEKCPqexOgV6W3RLN3TcGTiJkjckge0OIY4Eju7DbuW7+lcVtuc6XUJzqWwIaIjQixG42KQ9tmPTtFckdkNhA7n2RJlWTjmVksLhV2QNjQWWSc1SyETGqsogWK7AaImNSyUXUwS5lUGJRKENNQS1EmSJhe7u2HeTsB4rH0/TTyen/ZtnNR3Z0nhXg9lPaSWz5eXNrPC+57128HTxxLbd+5z82Zz+DUkrQZ2yJKsW2Rc5WkDKQFimIx08TpZTZrR5k8gO0lElYeHDLLNQirbOL8Q8UTVbyXm0d+rGPdaORPae9BPJ2jwex6TosfTx+lb92J3EJRuiyqSTSx6w7CoGyimrpaZ4lhe5tvOw5tcPnN7irjNx4MHVYI5IaZq1+6HEFXT1Ys3LBOfmXtDIf+24+4f6T5K54o5d47M4GXDk6bn6oe/dfIgxekcwlr2lrhyIsfHvHescoSg6ZFKMlcdxDIxRMBo8a4jmrLTC4HOP63QNIYmOaV5Y1z9SWt0P0S6zQfUo8S+q/Ydjjrmos0HAmOOgqIwZCInHK9t+pcjqutsDe2vYtuGe9M1eI9Ks2FyivqW/3OsYphbJxfQP5P7ewO7R3puTCpo8tizSxumYjEqBzCWvaQR28+8doXMnBxe504SUlaEdRCqRbIQsR2UM6diGy0MIoVQRaYlRCiRVZCq6sFntlCqPQbKPcuifTINJKOm4NhkVPGGRNsObj7zj2uK6UYKC0x4Rillc92GlyKhbkQL0VC3IiXK6B1HgcpRVnIPaPjxmqDC0/s4Tl02L/nHy29UOV6VpX5PW+DdKsePzZLeX8GRB7kk7Z8CqAlF/BEyN5gKWSOy3dlb5WKWW5RFtTTtOrDbu5FUZMmOL3iEwcQzMb0czWzxjZsozZfqSDrNR+a+JbnJzdBBu19L+3BXIaKXZ0kBPJwErPJwsfVVpxvjYxyw54e0ioYUw+5UwHxflPoQgeBPiQvzJLmDDIMIy6unp2jtMoP3AKv6f3aLWZv0wb/AATr62MRmGE5wSDJKRlzFurWtG+UHW53RfTFaYnS6Ppp35uTZ9l7FFI/qjzVHTxs2fD3G09PH0RaJWj3cxIc0dgd2dy0Qz0tzF1PhGLqJa70v7Dqn9oUUv7Orp7MOmdrsxZ32sD6K3OE9mY5+Czxq8U7fswjEeGXuHSUxE0bhdpaRmty05+Szz6Zrg5/n09M1TQg6AtOVzS0jcEEEeIKQ4uPI1NPdBUKEIOhcqIWyHRUyAcpVFg5coVR61ysKj66gWk9uoSjr7nLppHGlIg99hcokrdAXtYP0t0zSLsnI8NbcoUrZYtxjEuhppJj81pI8dmj1sjpWN6bH5uWMF3ZxFpGrnu1OpJ5k7n1WOTttn0WEYwikuEQmqW2uNUNl60AS1gOwVNiZZEwZ7yqFSsk2nvupQShZMUiugvKKZ2gKC5pIWzRA8kJjnBFBiUFaD5keyphRiw6HYhQ0J7BNI7RWwsYdE+wUNSZFzrlQnJq+CuK30j8j7ugcdRzYT85v5hPx5P8WczxHw5dRHVHaS/c61PTQVLAXta9rgC143sdi1w1TpQR5O545Vw0ZDiDAPk9nsJdGdNd2nkDbcd6x5cNK0bMOfU6fIsicsxoLnP0VFgsrlRYI5yhaJNcrGJFrQrCJZVCUdZuuoeduwGepzEgbDRPjCkC5WyUZ1AVSKIYnJs3tUxruXJmR9pdXlpY4/pyD0aC742VZNotnX8Dx6uo1eyOQVsrnvyg6BYGeryNylROSLK1UE46UeRx6KFpbFrIgrCUUXBvYrC4PJb2UI+Bc+IlCZ3GymSBUKlAHdHZUL0kmx2UJpLGMs1QNKkW0ijCxhsahoTPXBWQkTooF2OkeyvHDlfTON8t3sB+iT1mjwOvmtmGWqNM8z4301NZornZm+qWtkYWnZwIKZp7M4ClTtHNp2mN7mO3aSP+Vy8kdLaOtjlqSZVJUhKGWDPqFKJZT0iugkERKDUFNULPbqyzp9TNlY53kF14xuVHm26Vi6DRg7zdPfIpcBkGpS5BoFrn3kA7AigtgZcmB9qkpL6dg5Ne71LQPgUnO/pPS+AQdTkvsjnE7bE9qw9z0EizNdoUZcXaLGjRQNFwaiDqixjVCyE50UBkVNjVFJFL2oQGioxKAaSJiVlaCEw5IQZKtj2mCtkxoLYqHIsIVh9jxo5KFJl2FVz4ZWysNnMIPj2g9xFwjhLS7FZsUcsHCXDO54XWtmiZMz3XgHwPMHwK6CdnhM+GWHI4S7GI9oLOjna8bSN1+s3Q/cQsXVQ3TH9NPZr2MiasrJRqsmyYlVQaCoEIyIxgaoMQYyMlElZNSRb8lKZoYPmI3eMv6rW9pXWxLds87N7FOfYdiMEMp3IJIJAD33lPkmJbAvk537R6m9Vb6EbR6lx/MLJ1HY9j4EtPTN+7Oevku9Yjot3IKhFxbvRMOARYjZUN3Rde9kQd7Fh20ULK8p5qga9yEjraKMjZBoQg0fBislHhYoSgGcalCJkFYVTdI9sdw0uIaCb2udr279EvNk8uDm1dETqNjdmBuvYVFKeX8RG0juLXWIPks8esi1emX+gfOS5T/wBFkuByNa5wfA/IMzhHPHI4NvbNlab2F0cerg2k01fug4dRFtKmr90KXbrUN7lcg1t2qFSOheyTFiWSUrjq052eB0cPWx81swSuNHmPGcO6y/hj/j2g6Wlc4DrRdceA94enwR546onHwy0yOT5lzToIKpygYxDalYhoYnQ1p40xRBcxrTQLRCAieQL6FO0itY7xx/Wb4/ktmJbHLmymJ6IoOiOiFhJic1X7dzO4H1TK+mwG/qOde0CX/wCZJ9Vg/wBAWDqeUe08H26VfLMRA27ishtr6jb8OcO08tP8ommmZ+26ENijD9S0OBJ1tufRacePV2MufqssMmiCXF7mnm9nXXLGTPP7MkOLAbyCQsAIGzdjdVpjQmPjEqTcVz+wJR8FwubE180zJpWOfl6IGNrmXzsc6+4LSN0bxpJ7cBz8TyJtxitKfvuMaXgalklliE9RmhsHgsY0HMDlLHEEHb7wo4JJOuQJ+KZoxUqjv/73Kv8A2Ax0mVr5gwxB4J6NzxIZMgDiy7S0bmyFxiR+LZFHdK7+/Bzqtp3xyOjeLOY4tcO8GyRJUzsY5qcVJcMqQjOS5oRBJHkiplMWu5oRDL6YltiNwQR4jUKpRUk4vuWkdEjpmPfC+7hHUMdZwt1JrXA22Iv5hJ6bpsX9NfMlar7o4eXPlhklDb6Wn+O4xgwoMnjcbujc17JCS0dYi1ttWkFwsOYCR0y6fqsbi04zuq+4vN1OWEW9mlT/AB3/ACc/xihMM0kR+Y4jxbu0+YsteKblBN89/nueixTWSCmu4A7bwTAmFcL4kaerjl2Gazvqu0d+vkm4ZVI5/W4fNxSj/wCs7fOwPaWnUOBB8CLLc+DxXBxGenLHuY4WLSWnxBsuVJU2jrR3SYVSMVUFY/oYUcYASmOIIE6MBUpjSnjTooS5BGVFQNhGOHQHsI/MLXAw5AanddQFMbM0CHuMMbxHK5kwew2c0Anvbc3H3J0OKYqfJgeLavPVyE8wz8DVzeqVSo9j4RP/AOWP5/kz735TssqOlkk4vYa4XxhV0jXMppTG1xzOAa03NrX6wNtESm0ZM0MeR3JWGN4zq5WljqiSzjc621JvoQLjVX5jG4MfTt7RVhT+NsRsW/KnhvZZlzffXLdV5jCfRYE70/yQbxZXlgBq5cotYXta22o1Pqr1sOPSYedKBY8Vn6MxCaTozqWZjlJJzXt46qtbHeTjctWlWVVFQ+R2Z7i52gu43NgLDVDdjYRjFVFUQDVQZJpVlkZnaKMFgICFCi1ptZRhG84QrHvo5YoyOkhOdlwHAgnMBY76hw8wlY8cZZXjlxPddvqRx/E4LHkhlfHD+DRTyCoia5li2RoexxBPXBzAkaEWIXHyeb0PUa4xvV23f7+4hRi7hJ+nZ/Bm+Pqa/Q1NrZx0Ug7HN1b+Y8l2k/r1dpq/z3NfhGWlLC/8H+xkZmaJp2ZLYUuk1VLkxuW53nAaoyU0Lzu6Nh87BdNcHiephoyyj7NmK9oFDlqRIBpI0E/Wb1T+SxZ41KzT00rjXsKqGJLihsmaKiYnJCWxtCExITKQdEmJAWW3UK1F2L6sd3C/pr+S0w5MsuBfQVDRq47K2hcWXR4+178jR5qtIesV4m1pqGg/OZ8CUcfSwZ8o5hxpH0dU4csrSPDUfksPV+pP3PS+ETrBXs2Jqi5AIWI7cnrgmgZ7e1QS1se07bG6sGCp2NTqEJ0V9SPGuOyspWXgqg0SYoGi0Kwj2yhZXNsqYLBW8lSF0eA3coV3HPD2LGmmbKBmGz2/Sad7d/MIJxbpx2a3QPUYY58bhLubmF1oHyQPd0THiojeLuBZfNLCWDVpGoyntFkeCWPPNtw+tduPyjz2eM8cowm+Vp/6dlPE0zfktS11y0mGWJxAykyHRrT3ZT5FV1TWN48KVO7Xx3G+GRlLMsifZxl8o53NN1ETPQyewtk95Qyy5O08DyXoIe5pHo4hdGL+lHkvEVXUzKOL6UviiJ1Ie4E+Iv8Aks3V7JMHo920Z+mgskQkaJob0y0ozyDY3p0UZ5MLjlRAWW9KqLGFTqnoQzJVLiLt8vROE9yGFdWUd6lbEfJPH6jJUQO+sPQj9VMe8Wgp9jK+1eBofDKPntc0+RBHxKw9T6Ud3wma0zXwYqkfoQsLO/08tmikvuVRG22TidrZWVF7jGF9kLNmNlhVoMkCoWiQcqLRfGVYxEiVCyqXZUymDnQKgexVDtdQWFMVjUH4Xi81O4uidYO0cwjMx47HtOh+KXPGpfZ+65FZcUMqqasJxrG31DI4wxsccYs2NhJbft62u2gHJLx4Wpuc5OUuLfsDg6aGK63b7iKcdUrQNlwAynXyCozT9R132dyE0Le50gH+b/ldHH6EeW8W26l/C/geYpFeJo/qv9xWfrvQhXQK5v4EbqVYISZ0pY7JsgIWyEjLkxFlrLTGRinjZ906ZdidNHvylUWPpKhjgC1wN+w3T6aM9iSug67j26+qYnsLlyKJXZJGnvCYlsAzzjY26Nw5Od+SDG+Rj3Qq4+iEtFDMNcrreTm/qAsvUr6WdbwWS8xxfdHO6Z+q556HHKpHszbEoB+RUVRu1RCIvcZschZtgwpo0UHnhUBPMyhLomJrKWXqLWSXUsYpWReoy2VTjqqgZFbdlAC2N6sJMlmULPWuUKuiNQ24PgVCT4FV9fRRGN8nXvZyb0TftH/FdDF6Uea8X/Uv4X8GqqmXACzdbwgfDlu2BOgWKKOrRWYwtEAJQsomanJmeWGxdOiUhE8BRmRahPkj+KiyFznOzSPcXvdsC49g5AbAdy3N9lwjly3ds+qG6jwUQLM7jzLWPenwAZPitmaMdxP5JMeQ1wKaA9NRVFMd2t6Rn+HrW9R96rJG0aehy+V1EZdrOZ1Is64XI4PW504ytBUnWaHc7IeGafXjTAAdURjupGr4ZoKed4jmnfE5zg1mWMPa6/a4nQ3VwSfI/JknGOqKuuTS8TcLUlC5jJqiocXguBZHGRYWve570TUV2FYOrzZk3GK2+7A5OETJA6popxUMbfMwsMcrbanS5BPdoqcE1sGuscZ6Mi0v9jKNclGxOyympZJXZY2Oe76LGlx9ByVqLfAEpqKuToPnwKsiGZ9NKB25C4Dxy3t5ovLfYCHVY26UkVUEb5XBkbS9x2a0XJtroqUXdGvzYxWqTpF+KYbNHpJDIw/1sc3bfca8lHBlrNjmrjJP8gtJQzSfu4pH206jHOsew2CihJi5ZIR5aX5GcHC1c7UUsv8Aibk/FZX5bFvq8K5kimrwSoikZDLHke+xaHOYAQTYHNmyjUHcqnDehkeoxzi5RdpDKfgmtaBmYxpd7oM0ILu5t3alX5f3M/8AX4Xxf+hFVQSRPdFMwse3drhYj9R3oGqNOPLGatO0KPnHxUM79R172cfwTfryfiXQxelHmvF/1D+F/BrZZW3DfnHUb7ALP1V+xPDvU17g8xWRHbjjsAkk1TIj/J2KZn6JlivJ3FlQ9DqKfTgmdTzAP6Y2kjbrqo8ewWRECZnic7eKdiFsMxRuZh/vklLkJcGZwiXoqhh5E5T4O0KKtqI3W5hscgyPkZ9B72+QcQFyMirIz2utTwRn7pfwRJ6rR3BKfJpg/oA6huqtGfItxvgr7SRfaR/jCKPqHxf/ABv4Z0T20O/a0x/7cnxYrnwY/DfRL5QT7HTljqpHaR9XU7XAN/uspHaIHiO8opcmApKM1FV0UX/VlIb3NLib+Abr5KlHVI6Ln5ePU+yNFxrW/JHf+n0hMbGNaZXtNnyvIv1nDW1reqk32MvTQ83/AJZ7t8fYzWGYtPA8SRSOaR3mx7nDmgUmjVPFCapo3mO4cyqo2YrTNEczLOlDNAS02c7T5wIvfmE+jFgyPHleDJunwMJMTe+qpKxr3BklJI5zcxyh0THZhbbfL/lVMDy4xxTxNbqS/cwuA41OKqOV0r7vlYX9YgOuQDmGx0+CCD+qjp5sEHica4Wxofa0XNrR1nZXRMda5te7gTbyCmQy+GV5XHczeLVcj4acSsPVa/JIXX6SMu0Fv6SCEMrNmKMYzm4vnlezNNxNL0mDUMh1LJDHfwa8f7QmSexi6f6OryL3RDjkdJh+HVL/AN65mRx5ubluCfMfeqyInSfTnyQXBzge8fFKNP8Akdk4AjtRw2553eryuji9J5XxRt9TL/3YfxULJakFz3tLQQwWAY51tsx5+HqsvUYZzlqvZdi+kzxxdtxbXVViWne5HmFnij2GHFqSkgQSJg9wBq2rA5oJSDx9NYonrEmUjR/RlHypBqL/AKQ6OvQI+Ugkm5RAmR4p380/EAxtV+6f75JXctcGQn/eD6w+KJcklwZTjP8AiJ/tXLlZv7h6zD+jh8Ar9m+A+CRLk6MfSgWfdWhOTkZ4R+8i+0Z+IK4+oZ/g/g6F7av3lN9m/wCLExmPw70S+QnBv5DL4S/Eq8hUv1SM37NP5jB/j/A5Bj7mrrf7LB+P/wCY1X1x+BqDJyM6X+zH4EDUA86xwP8Ayaq//b8K0rhHJ6r9VH8AGD/wdJ9jiHwKp8D8v92fzEwVD77PrM+ISoeo6k+H8G69sP8AEw/Yj8RTjmeG+iXyI+Kf4ag+wd+NVn5NHS+vL8jLEP5DT/8A2Hf+RU+EJh+sl8f9EuP/AODw77H/AGMQ5OSuj/u5Pk5yPePiUtGr/I7TwH/CQfVd+IrpY/SeU8S/UyNC73B4t/EFRl9jN47+/k+u74rm9z6H0P8AYh8IDZsiND5FmIJcjZgFT90mRuXB6qKP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMWFRUXFxcXFxgXGBcYGxoXFx0YFx0dFxgaHSggGBolHRcYIjEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAAIEBQYBBwj/xAA+EAABAwIEAgcFBwMDBQEAAAABAAIDBBEFEiExQVEGEyJhcYHwMpGhscEHIzNCUmLRFHLhc4LxFiQ0ksIV/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDAAQFBv/EADARAAICAQMCAQsEAwAAAAAAAAABAhEDEiExBEFRBRMyYXGBkaGx0fAjM8HhQmLx/9oADAMBAAIRAxEAPwDOTBQZmqylCgzsWJop6sbqqmCuapqq5m+CVlUiE4LhRCE2yWxqGgpWT7JtkAnL6JqcWrhCIKGhJWuG4G+XV3YbzI1PgP5WjpsHp47HLmPN3av5bBEBiACdgfIJ/UP/AEu9xXoYm4taB3Wt9PVkjV34rGPO2p4Bst/LHC/8RjTpvsfeqWv6OA9qA/7Dp7igFMzwXcqcWFps4EHY3/yuoMcGNkx3xTj6+KGSsBiumgrhKRCIoTMu3Q04FAIVrkiUMbp10KGsJmScUy6TXev8IpAbH+YSQr+CSNeoSz0KYKFOpkpUOZUZFFbUBVVSNVcVAVTUjXVIyqITk1EfyTAfXFKOhtk1y7mTTusYRWiwvDWRt6yQXcdQDsOV+9VWFRAuJdqG6271cZidLIoDLBlWSct78lZMopnaZb31vbRRsAwzPI3MNL3PlwK3Uk9hlGg9bI9wPYxv/wCLUO1LNdtdPFSB0bebAlo0WhlrbIArb8FtjblWzokbfi37rKbT9EH6FsouOBCmxVKnRzEa3QtGdmYx/ou54Ieztj2XjY+K81qInRvLHixBsQd19EUNSXaHUrzz7U+jot/VRjbR4HzQMpPg8ycUwuukCuI0ESQSsurGOJJ2VNIWCdBSKQTVgMcnNKGU9qJjt/BJLKktYLPQZSob/RUuVRnhORRBqBuqupCtajZVNVzSSLRIMgQXXRXqOUo7EU264Vwo0KXeEDsE6akq3hivbv2VdhukTPMj38VLhedxsFmzGmoKjLqOXyU/+tvbjf1osxT19r6euSsKRzi0uPx4BKpbjOJbHXc2RoYweKzVXiTozdva8lG/6uINnMIss5hUDcMhCkQtHMrI0fSUPGminDGDe91J5R/NM2dB2SCDr3qXicLZI3scLhzSD5rExdJmNPaKtIulrJLM0N9L7JozTJSxtHi+KUphmkiduxxHlw+FlHWg+0CLLWvtbtBrvp9As8FUFD7LvBdATgy6AyRyya5qK0JtggGgdk3KnuCQCZC0MATgCnZU6yxqG9Skn29aJJbMegvaokgU+VRJgrMhErahVFUrioaqmqbr71NlYlZLf3oDipUoUd/csMwRTU7vR8PpuseGl2VouXOtezRue88h3oi1ZeUP4TR+1GYzNsbXRaikhdGDSvc7LYOa+wJA4tsmYYTmA96S7H0tcl9BhrWtAJ5XVfi+KADI3Rvd3K3qWG3ks1V4ZI46a6pGmPEjQullNm3tz2A81yvwywv1jS7kHgn3I76Qsyh7jl/M0aD4b+ahUWHsLyMwc3Wwbe9ztfTS30QWwW2yJSzFpstA3rAzNw5oQwoNyDd/HkQtsMFD6Yttrl0t3ISjbGTpHnIa6R1r2HrfgtBSUBij6xr7gEXtlcB42Onmq2bCGsEgeSLizCb2B77KRgGDOfdzZB1moyt2c22x9cFqFvuV/TKTPJE+1iY9fIlUIatb04w3q44Hk9rtMI7rZllGBVj6JN8jmtRgFxgT7LMdAwVwhEsmSMWA9gaS4SlfkiKEAuuiyYHJ11jWLMOYST7+CS1B2PQ5FFlapcijvKqzkRW1LVW1Lf5VxUhVk4SNFYsp5mqHIFbSsUGZvr4oDsglWWGM+6lPElg34XJ+dlAc1TsCf95kOzwR3Zt2/H5oS4GxupJl/U9TA1l3EPa0bcXHXVTqGO7BM4DtbcPX+VFrcFMzs7fZy3Oo0PIjdTGTktEZFrNAA/t0UUdE1ZIZVFxOuwt4cSpEM4Cz75yCe9cZVarathNJZ1xBOYNB5p9BE935Qxvhuh0DwTclWFbXZWWbospDUEo6YZ77nZanDdLfJYODpRBAAwtLiNyTx4qZF0yZe7RoeazkkDQ3sajF8AD75ey61xyPcVAwVpZJkczKQddN0CTp7D2I3NzOuAANx58FZT1Ae0PGhW1Inpa5KD7V4gYYnDhJ8wV5mwLe/aBV3p2t5vHwBKwjCqxdoWqHtCIB64IYKKAsxjmuyG4c0ayRCxiI8JtkaT18EIhMmIzicNEwrocikCwmY80k259BJHT6gHpEhQXIshQHlMyKI06rZ1ZTqtnSMoiFM1RJgpkhUKYpeBiHIEJpIII3BBHiEWQoKYJtcNxhhjc8aSutnHeOI8V04g1z2taLkA3d/CznRkXqWDnf5LVVFOBLe2yjJUy8Z2itrR/jyUQnirHEm3OnNVsbNrqYyJ9HJZTYnX0Kradim9blFtAikayNVYKwkuPHlzR6Lou22c5vBcqsZbHo0ZncTuB4KMOkUos4EDu1T3sJRucKwKFuUlgzAXuV2oZlu3gs/wBH+mBcQyQAtJ310vx7lpXPztuOBslYu6e5mOmkYFGCS3N1rS0cdiD5LBNKuOmU5dVPG4aAB7r6DzVLwVYKkLLkK1HjPuUVhKMEzMg4clI7mmArjnG6UYG4phCcu2RBQEhJFe290IpkK0cypJ+UeikjfqAejSKO9SpAochTEER5yq2odZSqh6ramXXvSMpEBNJ/ChSHVEkeglAoDchZdUa67BTl72saLlxAHPXRYyi26QXBZcs8TuTh8dPqtfVSdq6FTdFoqeWITSl0hIIa0DLca6uO6fibbEi/EpJou8UsbqRXVcqYw6qNUOte/km08gvdSqiijZZxPDeOqZI3P7RsNjzUcnXRR3yHULIEo0aHC8FpQ2/XG5PG1x3K7ZgbCBaVmWw3FuOvFedESjYFS6SSqPZDXed7JnGxVJLZm9peglGbyPndpuGkAaceakUwbGHgHsbjwWZioawAZtG2uQmY/iZhpurv25bt7w3ifp5oO3sI6e5jsQqOslfJ+pxI8OHwQWrgKI0K/BLkTCiMKaGorR9UGMkILpCc0LpCDK6QZYugJxTQgOojSEFwRimOF0yFlEZcpLuXx96SaiOg9KlCgTqdKVAqCqM5EVlU5VNSVb1RVLUlKysQCYeSc4+vXiuXU2WSGrQ9C8PLpxJ+WMZr9/CyXQ3o+aypZGTljuOsdyHnxOy9IxHAWUd4Y2FrL3BvfN3k8Vkj0OhwqWVavb7Sgqg15Gbdpu08QqDFpS11j71e1sdtVCqI2ytyu8jy8Et9me31nk+Odao7SMvVG40UHrLFWGI0ro9DqOBVZMLoUfOzhPFLTLZkqKoRBPYqs6whGZLfdDSMpqWz5LQYi7gnGvkBGuqgxNvxUyjoy42J3SuiixGlwTFZJbM955LF9IZ3OqJLm+VxaO5rTYW+a9BwmmEdmgAc/FYjpNg80Uz3yRuDXuLmu3BBN90+NHNOF3oRTNRWIdkVioyKQVrU4NXGIt7pSiR2yaRrdPsuOQKxBuCaQnk/BMJWKDUi1PATgEbNVg+0kiWKSANJvJioExUyZQpBzXQeQiuqyqaoOvoq5rAqtlI+V4jjaXOcbAAa6oMtBNvYg79/ctd0d6CyzWkl+6j7/aI7h9StX0W6Gx04EkwEkvAbtb/JV/V1SVR8T2+l6DvIr4aKGnZ1cLcvM7uJ5kq2oMZZKz+nqvZ/LJxae8/VUM0hJUrBsKM7jc5Y26vedg0Is9bL0+JYrntXfuvYAx/CXQOsbOY72XjYj+VmamMtPct5N0kp3v8A6Ux2pbBjZDuHfqPILPY9hDoX5XatOrHDZw8eajJXwN0nUSdQzKpdvWvv4ozkoDhY8VnsSwktuW6t5cloZY8pXA6+iRSLdV0ePPHf4mJc1cyFamvwdsmrey74HxVHJRua7K4WPrZOfMdT0WTA9+PEjRkhazotCDdx1IWaEVlosGkytJ2SSI71yaWjF3+a1kGIxStMEjGSsGjm6Z2+u9ZXoo0vnjFtS9vzC1DsNjZLLM03dLJJm/bldYADlxT4zt6DS3KMvd7SjxD7NKWe7qWQtP6OI8WnX3LIYt9ndXDchvWD9u/uK9Jkj4+5SYMSmboJCRycA756qtHXk6JS4p/J/L7HhM1M9hyuaWkcCCEPMve6maKYZZ6eN45jsn6rL4z9ntPNd1JIY38I5NAT3OS6Tgy9JKG9HlpeuOdyRsWwySnkdFMwscOB5d3NQy7+FtJyXWzHkppKZdK/ctQ2sMxEPr163Qm77orfFK0UUh1z3+vJJd8/j/lJLSGs28zVBmVnKFCdE5xDWgknQAa6nkung8hblaKV8rxGxpc5xAa0cSV6V0c6Nx0TODp3D7x++X9jO7meKP0bwRtIzM6xncO079AP5WnnzKPUVA4LHt9D0b9KQyolVdUXR3uUdzOKx7+ONEeKmc94Y0XJNh5q06TziGNtFEdtZiPzP3y+AUrCQKeF9Y4dr2IhzedL+Q+qy0pJJc7Ukkk951SMWP6+X/WPzl/X1IrmK6wbE2ZP6ao7UR9h3GM8NeSqy1DLUrR1ZsMcsafufdBekOCPhOvaYdWPGxH0Pcs85litjhmLljTDK3rYT+U7j+08PBUuP0sWa1OX5Drdw27h/KlOImCeVPzeRe9cP7Mpv6kN7z63VjhuMxhuSenZK0k62s4X5FVgw88CD670aKlI3+KS5Jj5unjmjpmtjRs6JUdUL0s3VScI5NvIqgxbBpqUhkrC3kd2nwIUunaQtThXSB7QGTNE0Y4O1IttYlPzyeHn8lShvidrwfPxOdHaL+jhFRKLTPFoWcRf8xRY3HQ8bqJVVbp5DK/yHADgApLX2VYHX0nS+Zhv6T5+xLKC8LsUqI4XVC/BGc9NE1k97FHlagVSTDY1hkdfD1MlhKB9zIdw79LjxBXiNfSPhkdFIC1zSQR8F7NG88N+Hiqj7QMFFVA2rYPvPZf3uHPvKHB4/W9B/lD8/wCnlNk5oSAtoeCc1v0WZ4isI1HjagxhSWhIy0Wd93uSTtVxAbUbzISbAXJ2A+S1GCYQIPvX/iW/9b8u/vTcIoxEOscO2dv2j+U6qqr8Vc7Og8n7a58hKysJ02CjgqMZEN8yFnvRx0qRMfMAhF99OenvUF0qnYG3PURN5vHuGqFjSWiLl4F30teGCGnG0bAT/c718VmXtCndJ6zNVSngHZfJun0VcT7kBOjhowxvl7+97jS1NLVJy6aJpasdVkXIu5EchcyoBsjOgadwmilts7TkdVKMa4G2QpAsjCK3d8QjsNvBFsnWQ0oDdjo2/NSc10GEt2sR8k9MtibQWNykMlUVpRAUwjRJcboErU5jk4hYVbEBhsVLwd4L5KZ/sSjTudwI81FqRYoVUbOjePBBlJw1xrx+vY886WYWYahwta5N/Eb+u9UzAN16Z9o9MJYWVLRrezx+8aH3ixXmwCSz5jrMdZNVVf17/Mc1o8FIaENrUViWznijunopJ1u/4pIakOes1E+5UCR6Ur7oBK6LPrIRoe56C56aXXXJHJbKpD4nK66It/7nNwjY958gs5C7t2V9hh6ulrJuJYIm+Lv+ULOfrF+k0u9L4uinbOZHPze1mJ8QTdNpZbhzDu3UeChuksWP5ixTp5MkrXDY6HzSajrUaVIsaSptoVLcFUVIyu0VhRz3FimTBJd0EsuJ7gmOTCisu2XWpwWFGgLoanELR0WARPjjcHvzSAkEAZWkb5kCGbqIYlcjMhqJmWki6Ms7OaYAuy6AcHG2h4lTXYTB1eVrHPLCHEbON7tIJHLeyxzT8o4lxb/PWZWjidI4Mbq47Ij4i3cEbjUctCthHBFEQxvVhrLmQutnB3BBVT0groZgC13aaNABoc2/mjZPH1ssmRJRenxKNFYUArrXInfRyqZcKuqjeMdzgrZwuFWzR7t5hB8FMbIeKTh1LPEd7hzfEDVecNC3k2vWDuI81hSOCjZ5nlTAlKLXcQRGm6GF0eKB5Wig3WD1/wArqj2HIpLUCj02U2CivkT5nKG5+qrJn1kUHug1E2uiKdrqvqHdopZOiiRJp3dvyWgrnZMPiZxme6U+A0HzCzFGSSbbnTzOn1Wg6VTWnEI2hgY3zIufolT2ObOtWXHD2v4f20Z86xeBK5VuvG0+S7Efu/ElBZrDbkSlbOssHuzRtdvpZcpZbFCw194yOSaOadPhmL2OS4SKgU0imZlREmqHhyK0oAciNKIrQ8lWdFjb4o+raL9oOab7cx4FVd11ZojkxQyKpKy3/wCoZbEAMAOwy3y3/STshTYzUEfiu05afEKsCK3VahF02JcRQx7iTckknid/NdYV0xuG7SPIoRNigVVdiUuBNjKciAIColWNiFKagnW4RDHkpjFaQt/Ub+9YbEYckj28nEeS39ayzmEc7H5rJ9J4bTuP6gD9FCWxLr46sakUwC6nBiVkp48kcSXUliZu5Toq9rtVPmGigH2k8+T6qJNzaKqqX9oqwabqsqvaKnkewyLjovDmmjb+4E+A119yHiNX1lTUvvoS+3gNB8Am01T1MEkg9t33bO64u4+Q+ar6DW55sI93oJdXCOeMdWaU/BUvq/4Cl9mAdxQo3fd/7kqrQeVkwH7vzWb3L2TMKd2XIrG6KFh7rMf4KVHJ2QfJPF7BDxFTYnqCxyOxyomK9yYHIrCojXosTk4jRKXQhtcn3WEYirDo+xrqiNsnsF3x4fFQE+J9iCOBB9yzJ5IuUGl3R6pNI0HLlbYaWsvP+mtM2OZpYA1r23sNrjQreDtgPBsC1rtzxHcqbpbh/WU5O7o+0D+07rHzPQZfNZ1ffZmEhejqBG6ymRPWTPqZIM0qPI6zweeiktUOvHFEEOQde3Q9xBWY6Vx36t/MW9y1ErswB5gjzWexwXhB/S75qcwZ43hZmg3ikWogC64clJHgykByevRSR8vd8UkbJ6jXy7KHJuPFJJPM+siFhVbP7R8UklLJwhkKv9iPxk/+E+g28j9F1JIvTEXf87garf3Lh/D96SSZ+kzDqD2Hf2/ypNN+H670klo9g9h7FLSSVlx+eBgoRo/okknQr4Dt2RPXySSRRNnQnH+VxJEU9Nwv/wAZn+kiYh+BJ/pH5JJII+Nf7vv/AJPJZN0eL+EkkEfZsmxbFRsS2SSTCw9IjRewPFUeLfgu8V1JTnwPl/bkZwfVdH8pJKS5PmpCSSSRJn//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhIVFhUVFRcXFRcXFRcVFxcVFRcXFhUVFhcYHSggGBolGxUWITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALEBHAMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQMGBwIBAAj/xABIEAACAAQEAwUFAwcJCAMAAAABAgADBBEFEiExBkFREyJhcYEHMpGhsUJSwRRicpKys/AjJDM0Q3N0gtEVNWSiwtLh8RZTg//EABsBAAIDAQEBAAAAAAAAAAAAAAIDAAEEBQYH/8QAOBEAAgIBAwIDBgMHBAMBAAAAAAECEQMEEiExQQUTUSIyYXGBsRSRwQYzcqHR4fAjNFLxFUJiFv/aAAwDAQACEQMRAD8AzKoIMVRbI5NNeJuGQjZ3PohtEUi5Qoa4RICWUAksQAALkk7ACIxVc0W1uCKqYndaUrEaIzkN5GykD4wl5TVHTNq2UjFMImyHKTkZHHI8/EEaEeIhkZWJyQ2i2fJgxQMi2gXGzRhybVRzN2iRQWXJujQORDTIcmKZD0RCBcmpsIFoYp0eTqm8RIqUrG+DoIXNj8SQxrJFhCxsoieZJ1tBIQ0SU8pr2i6JGLHEhWAgaY+KIa2iZxcwcUyZFwJRLMs+EMdozKPJbuHcTXLaFqXJv8tVYRjTIyHraDvgVLFTKDMpzeFplZIUBzpJEMTMcj4EWFhrzMWCTo5EVQVs4mXO8XRTIrRZR20oiLLpnF4ooY4c5hckPxSoaz2OWASNUp8CrtdYZRhm+SfNEBo+iF0zh4flhQEXZJJmWjMx0XR3MnREFKRqXB+ErJp1nuAaiYmYX/s1YXAH5xG58beYSkNxQLBg9SWY5jzhHU38JD2pw+RPXLOlpMHRlBt5HcekMiZZoqmJezKjmXMt5krwBDqPRtfnDFNoS8KZTcX9lNUlzImS5y72/o38rN3T8YLzPUW8D7Mo2KYdNknJOlPLboylfh19INSTFuMl1FTCCsA5iBpHwiAs+vFgnwMUQZYfVZSICSHQnQ5m1gML2jXkAzP78EkK3cliwanWYbwcUaUkPZtILaQdEumcTaYWtaK6F9SmY+oRiBAyYqQqpqooYDaHHPSphczEyRvEoZ5yZzJmA7wFMqU0wevAI0g4ozToViGCCdTELPs8Qo7pbX1iN0HEYOotFJjWlQrmrrBoQwqjexiSiHBjcPmEJo11aF06nIN4LsZpR5J6QjnASJANWSIGx+wWTTaOrmic2DCKOWDHOkqNeONhFRSi14EOUaL9SYrmUa8hbytpCpD8b4JKLFMrkeMA0M3DtOIWUi2oMS6LqxxKr8wzDS8XuI/QlXERexgkxbR1PmS5qmXNRXRtwwDAjoQYtMpozviz2WI95lAwVtSZLk5T+g593yOniIdGRmnjXYyzEcOmyHMudLZHG6sLH/1484O7Aaa6kCpEAZzMSLBI4hZ2t+UUQdYRhs6fYIhtzY6KBbmTC5SSGKLY0mcGVN7oyN+bnAPpeBWVBeW/Ub4VgdTLGoXa+jhj5ac4JZUhtOhpSszWU6Em1jpY8gYt5OCUGVUvILHW0XGVojKHxQO+DEkuRLkJZUi8VZFGzqfT22iJkaoGE0iD2gbmezHJEWolOVgzC0WwT4GKIfGIQ+Rohdk/bmKoLccAwaBZLLaDbRIN2NsOfXWFcGtS4Cqsixi6ETkV9p5DaQLQCbCFxEwvYaVl4O5uojoSnaMCjR7TVGWMklZohKiebXXEBtClMcYXWkongLH0NoVNUxuJ2g9Z5zQtjSz4S19DAMai0NQTMl7BdLjOQpOl9L+HpDI45NdAHkinVlVm4z6EXB8wbGAqmHXARS43fcwRVDikxO/OCTAaJcSpKeqTJUS1cDY7Mv6Lbjy2i9xW0oOMey97lqOYJgO0tyFYeGYmx+UMjMRPDXKKJjWDVFOSs+RMl25spy+Ycd0jxBhikmKcGjvBeGKyflmSqWY8vmzIRLIOh7xsDvyMC5Iigy3pgFJIYma2qm2tit10YHa+vLT8IRKUmOUYojxDG1W4UNk15AX6e6SIFIuwD/b5y5rOVGxtoD0uTa8XtJYJN4hnNsWy321GnMGCpFVIYYXxM2cLNNxplY7r4X6fSBaLTaLdUVizELKRfcai5Fu8PS1/IxUXQRVMdwhpwRpZF82Rhe9iQWBNtRt9Iap+oqUPQqazSrFW0IJB8wbQyrAUqOptSLREiSkB31hqFEgQ9IlolEMwRGQjECQ7tEIdyqcmKsJRs7mSCBtF2RqiAmJZQyw+kLQEpjccRo9IQL7RIyHNKhXVTTe14aZmuTqRTgi5hUnyOhFEM2n1iJgtckxEMsTRPJw1nF4XKY2OJtA9TQlIuLsGUGhpw8qMpDZswbTKwHdI2sQeY38dorJGyY50aFhuCSGUHITf70wn5Iq/WKWKIUs0i5YJSy5dsqqOhA1/WN2+cNjjihcskn3HdTJumg2INxvcdOphrQMHyZXx9g35LUFxfsp13Q9GPedPQm+vI+EYssKdnRxzuJWBWdDAUFYdTYmRzii+o1p8bOmt4qyxrS43sQdekVdBIcSeImVe/YhtPDXwibiKC7Cji3jNVl5AbFvhl8YuLbF5Eooy+jR50wiRmAY2uSdR5evPrBt0jNGO5l1ouC8oBM2997KsIlJmyGKBYsP4akr7wzWH2rGA5HJRXRDZMApyNZafARNtFNinF+AaWaDlXs25Mv4jYwSb7AOKl1Rn9dhc+kmGVMOjXKvc5WXw6MNNPGGmacKDKUFudlJux5EgZR52F4qwaKzxkgNUxX7qX88vPx2jTj91GbJ7wgYQwAkk7xbIgstAhAU7eDAZCRFEDKZAd4BsJD6lpltCHLk0xSoHrpPSGx5AyCefKtb5wbE0N8KngQtoZGVBtdVAiJFUXKZWaudDRJPh9WwIsAbG9iAw9QdCPAwDGRk+gZPVmYs27Ek6Aak3Og0HkIGw9oBLqNYaxKLLhdcoEIceTVCSoGxerUiDiheSSFeEVJSarA21Iv0zArc+V7+kMYlGu8LpNmLoAEFst2GinrrvuTFRZJoumH0hG7oPX/SGIAepNly1uWH6TaD0vBU31J8jLfaLjKz2l06kMJWZmPjew+VvnGDUZkpqJ6XS+HSlo5za9pq18l/Up07DVIupsYs5CYtmZl8Yqi1Mkp62xsR+BiqGxlY5o5yn3WKnx0+cCNQaZTndiRvtz8DFMOl1KHjlQXnNmNwDYDlYbCGwVIw5Xch9wtWhTsICQWM0OgnkkdDyhTZsiuB1JS0Quw6UPGKKbOmW+xiFCHifDROklToynMp6Eb/K8GmLyJUVfCuHA10aayOCbEAEZbCx131MWhcYbuECYl7MalizSpsmZzF3ZWPxBF/WHRmBLTlQxHgivlt3qWYR1UBx8VJhiyLuIlp53wDPgkxfelup8VIgvMRPJkl0FtWhU21grTFSTRFJQkxGwUrGcqg0hbkPUOAWcmQxXUBxphUjENLQvbyEpBsuziGRdBJbgSvpwBBtlShQLQHWBYMUNKmUCsRMOUOCuVK2MGIYZhgF4GQzGWiVShheE2aaspcxCDYxoswtBVGrsbLF0WrHLYC5W5iJDHESVVMUaxiC+hp3BLuyI3b04uq3uBmvbUEWBzA3B+IgVdhz2bVT5NHoKUn3qgkdJYVfnaG8iqRneJ8cTVLogRbMyhiA7aEi+Z76xgyaie5pHrdP4bpY44yfLaT6lewmaSzOSTqO8dy1784wzu7O9p2pJrt0D8Xqs15qqFVjqF90ORcgDlexNvO20bMWTzOTyXimgWkktrbTKlV1ZuTGtROM5H0qvvoReKcUWpvsOKAF9PrAeX6Do6hr3kH0/aISM2246Qtr1NcZWrRS6xrzGP5xhiXBim7Y94VkFmvyEKyD8KvkvIrmlgZBdradPWEmnkCqsen7GskI97ZV77A9CFBsfODp1dCXJXV8h/D2M1HaCXMcODs2mvS0A5WNjFjDEscqEmMkmXmynUk2GutrkxEVKz1+ISZZSfKMqYVbKbgqxCm2ohkaFSboqmCY+zz5aE+9p9QPoPhFyXAOKXtGh00zS2pP8dIpGlyJPyx12J8jFWFHkkXEydGsfPWL3BbURzpVO4IenlMDuDLQ3+UXYLgiCZwzh76mml+l1+QMSxbhH0BZ/A1Ew7odD1VrgehBi1Ip4UVzGPZUzD+QqVJ6TFK6/pLf6QamJnp7KTifAWIyCS1MzqPtSiJot1sve+IhimjNLDNCmVPZNCCCDYg6EHoQdjF1ZSbj1PKqsuItIqU7BKebYxbQEWNDUkjaAHbnQnqDcmGCGe00zKYpoidFmo67ujWEOJphPgUY8lmhsGKyxphnDhAIvDLKgXmYymX4xNw59Cj4wgL+sC2Ja5H/AAywUWJsNOlgNbnX0+EBF80Hkj7Nl3w/EpH2MznqFsL8gL2v6Q5GcyytlEzphbT+UfTp3jp4xzskvadHrtLilKEZSfZDClfKgHU3/j4xllyzu4vZiglTcZTsR8xqP48YqEnGVlavAs+GUH9PmJ66kF7R1VLg+fzhye0VCLwEpBwxoZf0R0goSLyQQYZ2dTMFiyixBvZuQvbpeLydLL0dyns7CXFcLLXmLKCWAzBb2ufteF4THJRo1GBXaQ14TACXtre0Bk6g4FwWpMLM1SAzAH7oF/EXtcQltmjaS03DATZJYFrX7MA2ItrZzfSC8yVUB5au6OpVKEnggDu7kC1z13ikhsUScT4IJvfyscw1ymxB0GYA87D5wy9rsVkxqXAmoMDKDKGdpbX7rAEo5JytvoDtEc7aYpY9qaFfDs+XLlqwljtCPft3gdra7f8AmCaZeJ1EeS8YdTe/4RKDbDF4hDiz28wwvEJHgias5qT8YGhykiWXjLDc3HlEC4DpOOL4RYuSDpeKJ1t84hEGScQU7NFlWFpVnrEsrg4rKOTUC0+RLmj89Fb4Ei49IJMVONlcr/Znh00d2XMkHrLc2/VfMINTYiWKL7CWb7GUveXWm3R5IPzVx9IvzGB5MSOp9mM5F/k5subblqjHyvcfEiB3MZ5aM4xjDyjkWsQSCDpYjcG/OHQZlyRpim0MFBMucQIraXZLiMzM14XBUas9HlFPKmDZmi6HRxQkWvA0M3i2pn3a8FQtvkNpMQyi0DtD32qLvw/WoLWvoB3jsLjUjqTyg0JKZVTSZ0zT+0ew5+8dT4xz8q9pnsdHOTxwVdkHSwNzsojKztR+xJTm5EU0NhKxfjdYO0OVcoOoG9r7geF728LR08LU42jwfiWB6fO4Pm+UR0Ux9wDEkjJDJQVUhyNQYkQ5SbJsCn2fI2zaf6QyfMWVpZ7MyZbpOH3nAM3dZSLeWo9dPhGFnayoVNR9i7hfdveCuzGlQ5wbFMh8IFobEeVeNray6sfHQDqYtIFuinV3FcyWxXsQ2vvAj4gdIZGKJ5lDvDuNhMCr2RawuxXkANTr9Ij6UyOSb4LLLqZTIGFjcX+OsKSKkYtxHjE2VPmSkKqqEAWVdbgMDqN7EfCNsIRatmDPllCW2LFa49O5tf0A+kE8cRKzz9QuRjBPvQDgNjqH3DpWMgc4HYxn4hDGRi350VsYazr1DJeJA9DFbQ1ksKlVvhFbQlMLkYlbeJRe4Y02OdDA0TkaScdMWmD1DqfGQYuyqGVPXhuRESyUHLYxXUnYw/2r0XZ1sy2zhXHqtj81MPgY8pn3OHIzkoiyUeM9zAVQUpNnVogJ7mMQh5eIQ6DQxFM0ThGup5siWrZxUSe5lWwWYtyUYsTZdDY+UU0RFSzPdnYqCzEkg3JJJJt0Ec3JTkz2GlThjTbSVL5hkucGUAczdvIQhxaZ1YZVkikieVM1vyH4QDQ6M02RPQCYomfcdVPk4cg+hQ/rRt0j6o81+0ML8ufzRasGoEtsI1tHm0d4tSpltAbRqZViMr3XcG49Nolh7e6LEeI5YQZiVa4AUbFjoLG2lzCXjOnDUxa9rqSo+exbQkajx5woDudNL08g3yEUwxLUzyXN75QbADc8gIJdBPVh3/xqfN7/AOTXFswtNsbWzDlbaLTDagupDKw9qZx2kubKZjZCxVlJtfLddotgtR6xHGA3ZUBNhnYb20vp9QIDuXHmjNeMTeuqR0mlf1bL+Ebo+6jmZ3eST+ImBghRMrRCzsNFUQ7ltFkDJLtuL6b+EU0RNoc4biDbGFSiaceRvqNzWrz0PjCzVGSPKQtMcS5asWY2H2bnp3rQvcrrubXpsix+ZtdepZU4UrVa2VT/APoPhDHjkZYyjJWNqXA562DNKUnYMzKSegJSxPrE8qQLkkOlp5koAzVI5XuCL+YinCS6g7o9gSsxgy9QL+ECXZm/tCxAT5mbmECn4k/9UaIdDLk6MztxrDjKdARdkOOcCQkBiiH14hD7NEIfXgkUx5wbV5KnKQD2iMlm1UnRgD55besEyIBqbrNcFADnbTUDflfl0jHNcnc002oppIPpppK2ta+58IyyVM7+DI5R6UFK1l89PTnC3yzVF7VfqWLgmVKmzTTT2Ky6lezuNCJoZXksD1zLbob2O8O0stuSn3Of4xgeXS2lbi7+ncYcQ4JU0DhD30bVJgBAYDcEfZYdNdxrHRaPGCeqMxhzgWXZXp7MjHNAtWNhMgqJ4bQ/+jyMSi5STLjUvlsehjK0dDtYRS1asN7ENr+iwyn8IFom45o+zJIIGZW30JDWK/Qn4xETh8DyixSYh0qja1srIh5WXLZbi2vPW8GgJaeL7neMTWq0RZsxGCTFe6qVbu3sNSd9idNInYqOHY7sQ12JfktP2mUMxmFQpOmuuvoIvHDcwcmXy1Zl+IVDTJjzHN2mOzsfznJY28LmNhzm75BSYhR2hiFkqxRD28QhLLqCARc2O+uhtteLKLxwJwTV1pDhDKkHXtnXunp2a3BmX6jTfXlANX0Gxko8s2nh/gempsrEdrNX+0cDQ88i7L8z4wUcaXUksrfQy3GMNCTp0vcLNcA89GIBv1taOTmW3Iz6FociyabG/giwcKcVFT2FVdtgsy/etyv189404dR2mczxDwpNOeHh912+ha6wNbRldG+y4zI1+R5ofEaeAjaedSp+gRhdMgR07wsO9KdiwS/NCfs35jaDq1TMmfJ7XBlXHePdhNaQp1HPnlOoJ+nmDGfyakE89ooNXXFgfGGqIqU7QvkyrmLYCVhgphAbhmwCeVDKFHkqQTtAvgtKySZTERVluLREqXiwUiU0ptFovaQI5RlYbqwYeam4+kEDRY+J5peeWAS2VdL+8pGYMb9b+kZcrTlTOzootYt0HfqmCUpvoBbwuSIzTVHa08lJUlQW518AIUbm7fyHfCilqumsNp8n94sSC9tfNBZ2vw2R/wDy/sfoLFaBJ8sy5guCb+Ia2jL0P/mOzR8+KNW8PCWSjDyPIjkYTLghn/FmFAAkCLRCjNLMEWaBiErMt+usYX1OzBXFFaqZ5lsddxbzgqsRk9lneG14zhr2PyPpEcQIz5LZRV1NM99Re3W0VtHeYjudWSZYJTfUXudPQxW0CU0UviPEjMyy76IW+J/GNOKNIw5pWys1EuGiQW0Qh2sQh2GiiWMcIwSpqmCU0iZNJJHdXuggXN3PdX1MQumbxwP7I6alyTaq1RPAuVYAyEY/dQjvkfebzAEWl6kv0L9iOJSqdM01wg5dTbkqjU+kSUlFWx2DT5c8tuONsoHEXtAmMCtMvZg6Z2sXN9NBsvzPlGLJq+0D0+i/Z+Ealndv0XT6+pQ6mqKDNq3eOe5uTcm5udzeMTbbtnoOIR4XB1OmIyhwfEGKotNFr9n/ABC012kHN3ELg2BAA0vc6A8vXwjo6Sbfss8r45jhD24cNknFPFPYo4QF2QES3vycENLmHnbQg7xts8vyzEK6rmTZjTJrFnY3Y/gByEFRFwQiKouyaQNYqUS0xmtPeFbRm8WXEMQAywlFO8KmPwpDKfRhhYQpNjZpUCjh8rqDeGpszKrIzSHnEchyjaFNXT2MWpWJkjusfNkI3EqWPMoMp+kLyNXyb9InsuPU7pak+u0Z5wOzptTJ8PqEh+nPQQqjbvvoPMKmmWQ6khlIII0IKkG/xhV07R0IwUoOMuj4NXwr2kS2stRLZGt3mTvLcMRfLfMOWmsdCGsi/ePN6j9nsit4pJrsnw/6HGK+0UdoOwkK6L9qZcMRzyge75n4QM9XFOkrD0/7OycLyzp+i5/M8xOROxNVMumWTL3zzbBm5aEAkr5fGD3zyVsVfEzfhtHo7jqJb5ekexQOLeBno5kpSQ4nFgHAIUMLdw32Nrm/O0FJygvaMkceHLFvEmq7P0DnGthsNB6Rlb5NcFUUVzHqO4uBBRYvLGyuGnYGHWZZY2gmWrDW8UVtZ9NSYE7RvdzZR4m1/gLQUUmxWS4qxa0wkm+8OMrZ89O7e6jHyUn6CB3RXVjY4Msvdi39GEYTwxV1LBJFO7Mb22TbU6uQIpTi3SYUtNlhHdKLS+PH9y5YP7FsRmi80ypA6M2d/wBVNP8AmgxBdOF/ZVS0s6WKktUGar2zIJao0sBrgXLai+t/MbRbwbott9K/mNw6qWJ+ylb7vmjVJEhJa5JaqigaKoCgeQERJIBty5ZV+M+K2pWEqUqmYyBix1CAkgd3mdDv84z58/lpJdTseE+FrVXObqKdfP6mZYhiLzGLzHLsdyxufIdB4COdOcpu2eyw4ceGO3GkkKaip73gup+pgaDcqInmXUgnXLr67/WIButcgOHS5k6cJEsakn9EKN3Y8gBrD443KqOZn10cO7d2/mXWkrJVOwlSXGWXmEx+cx2FmP8AG1rco3wUca2o8jqMmXUz8yf0EvE2JIVIBg1IzvG0Z+25hyYlo4vFkCqUXMC5BRjZZKaSMovCdxpWLgqQJsfGCM5JIqCsU1YUZUMqHFbMMxitpcptlklVSHUMIsqPJzUSQdRCJLk1xjwBV2HjLe2sFAVkK1Wy8rC0XNGjST447Hkp7nxhEkdXFLcxjSrrfpoPOES9Dp4VbsZyH7xHJV+JJBP0hT6G+D9v5Ia4VTTJ84JLQszXsByF9yeQHWKjFydIbmzQwwc8jpI1zhrgqTJsZ1ps3fUdxf0VPvHxPwEdHFpVHmXLPH6/xvNnuOP2Y/zfzf6IslWCqkg7a69BvGxNHGXLMO4g4wm1kwqXKKG/klHugDQFhzJHPxjmajK5y46HtvD9DiwY6a9p9X+gDT4kQbTRz3H4jlCFOg8vh8ZK4cP+QZMlLMFwQRDoyTOPmwTxupIXTsLAOg3hiZnasmpsEzMtxE3CnFF2wnginqZY7XP3CbKjBL3tcnTXpD8ULVmTPJJrgaUvAWFq2WxRxrldlVyOoJHeHipIi5YYvq2OxavLijcIRr122WCnwnD5I92QLc5jqx+LkxawY49ipa3WZXW6XyXH2G9LOkstpTS2UckKkD9XaGKuxjyRyJ+2nfxPZkssvvMrcmW1x8dCPAwS4YpxE9JhM8VQnz6kTQst0RRLyWzWJawNr2WNc8+J4fLhCnabd2Jjikp7pSsk4jx6VTSnLTAJhUiWu7FyLLp0zEanSMOSagrZ1NHo8momlGNq+X2oxivri7MzElmJJJNyfOORKTk7Z7vFCOOO2KpCmbVwNFuYNMfTXnv5bmLQE5UjgoZzlUIChbsx0VV0OZjDceNs52u1kMa6/L4hU/GAi9nTXUZcrTdme/vN1F9h0EalJQVROR+Ey6mfmZvyF0lrQDmPlpDyo7wiKZX4TgVVMm0asc7OTqtK48oglrcw1swKI7oaTnGeUjXDEMA9tIAdRVJCkmNBz6sMNCbXtFbkF5bBXlWgrAaoNw2dY2imFB8j+VVaWELkjWpcH1VVG2oiRRnmIK9S9yNlA+em8TJ0H6NXJ89gelXlz+kZps7emjfHcZybLr028T1hD5OtCok9PpcneBfoPx8W2bV7L6OWMPlzwoEycrF25kB2CqOgAG3rHXxYIY0q7pfY8Vrtfl1WR73wm6X1LdOchUmDloYZ8DEAcY1mSimkH31yD/Ocp+RMJyy2wbN3hmHzdVCPxv8ALk/POMple/jaOVE9pn9nkKw/EFYZJnSwb/X/AFimg4ZE+o8wnhmdPztTC5SxIDZSQ17WvZT7p0v6QWPHOd7ewvVazT4HGObpLvVr+v8AI4q0qJByzpTA/nKVJ8r7+kW5Th1QhaTS6lbsUl9H+gRhuKJfvBh6Rayox5PCMn/q0QPj9XJrS9LUWQhby2UMoAFjoRztfS28O/EuK4Fx8F3S/wBR/P4fIveDcQ0uLSzTVKiXUKSAPzx9uSx5/mncdRD1OOVVLqYZ6fP4fPzsLuK6/wBJL0+P2FUz2a1AmG8ySFH2+8WIvp3LDXwzesI/Bzb68HU//Q4Niai79OK/P+w3bgN0liZSVLCemouAoYjkCPdv43HWGPSuHMZcmN+Oxyvy9RjWx/mv8+hYuFeJEqpYBIWeotNl7EMujEA7i/Ta9jGjFkU18Tk67Qz08rSuD91+qIuM+IvySWCqhnckKCdF094gakeGkVmy+XGxnhugWqyNN0ly/wChiuIYq81jMmMWdzmYn/lHgBcafmxy5yc5Wz2OKEMONQhwkLZ1RfQesVRUsl8EfaAC55RKvgm9RW5i+rxNSLWsSLHnYX5CH48DbOTrPE4RhS6kKVWburdUJGl7k22LHn5bCNMoqC4OZp5PLNSn1+wfLEZmegguCUIIqw9qOgsQvageqkXhkJUYNXii0LBLytGpStHmsuNQkOaOpFoBoZGSoYJKDC8CHwVmjFmh0jFjqyyy0UrC6ZuVUI8Tp7HSGxMWVKxfKmWMEJRZsGl5oTNmvH0GtdQdzeBiyTiAUiIaefTupvNaWyuDYqZWe2ltR3zpDX0EwtS4FkrASiTX7RT2eU5cpuwJsSOlriFPFv7nR02sWOai49WQhvCMbPSRlYUx7hgO5pv2Gbn7Nv8AdNJ/dt+8eO6/0X2R89l7z+b+5ZqbvSysB0ZZUONq4CkMk++0xcnkpzN8hb/NGfVtLGzteB429UpLok7+xl9ZTBwenOOVdcnspwUuBRX4TNkOVeWwI1ykEG3UdR4w1vs+Dmwca3Y3cfgav7N3lpR5Hs3bXaYp3sdFA5iygHTmTHQ0q2xvuec8Xk82X4JV/Ub4hhU9Jd6Sc9TLv36apKzxl/NLjObdM0a8mVSj7UE/lx/b+RzNHijHJzkcPR9efuVGVR0zzJhmv+SZT/Q5Jk1wedrgWF76co5KwwyTdPb8z2c9XqMGGOyPmv8A5Kq/JWOk4UpZ9OHpnYvns01kK3A3Rk5dRp9Y1S0Kiqvn16nHh45nWZvJClXuvj688iHiT2fNLyzqaY2ZR3g3dvl1DBl0X1021ELnpdq9lmvT+J+Zk9tL6d/hT6klFx/XSl7GeqmYosO1Qhj0N1Iv5636wtanJj4kh/8A4bSZ/bg2vk+P5guAcXVjVOczW7zKOzueysWAsEvYb77+MD+JySmn/Ibk8L0q08o7eifPf8xp7RcGamqEqpRKrOY3KkqVmgG5uNsygnzDdYPVQcZb4mTwTVxzYvw+RXXS+6/sUOqqyxmMSSTZbkkk8ySTvv8AKMjbbtnauMU1FUhTNnXJ6fxpBJGWeS3SIzNA1Jt/HKCUW+EJnnhjjc3SF1ZXFtBoI14tPXMjhazxZ5PZx9AAiNNUce3J2wykMIyM7Gj4Y3lGMrPQQfBKsUNRJFEm6R5NfS0HFHH1WcV1SxqicTNLc7BjMIg6M+6hrSYjZd4BxHxyKhLMm66Q9oxpjfC6otpANUaITbGtTQkreJuKnFvkrNZKytBiBvgFZlbWFTiaMUx9W4kCu8BGPI2cuBEtcM17xp28GeGSpDzB6hZvaJbeWb+I0H+kAk4sbqKdSRXeyKnKRqDGTU49krXR8novDdR5+LnquGTuLrbqbfHSMnc6z91m9cCy8uGUoH/0g/rEt+Mdw8Fl/eS+b+47wx+8wgWCZx7XpvZzKYjcmYfTuA/WMms5ikeg8CbjKUuwjwqQJk2UNw7oPRmAP1jnJW0j0+fJtwyl6J/Y0b2hYfMmyUWVKL98sxUAlVUHQc9Sw2+7HQ1MW4VFHjvBsuPHmcskq4/NmZM02X7jsLcjra3Kx2jFDLOB6bLo8Oblr6oPoeM6iXYOLjqNfkdfnGqGt/5I5WfwS/cf5jyr4vkT5DNOlyJxRSQrXlzOgCEi979DDpZcM42zHi0Gt0+RKFq+66C/gHjOXTZ0qJbBJjC7A5wjAWsw3sesZ8GWMbR0vFNDk1W2UfeXHzNBkvTzhmpZqPaxyK2q5juv2pZOumxsbgxtTjLozgSWbC6zRa+LX+J/f4kdTw8sxSGkq5/OVRa5F9Dpe19Vyg6G14JY4P3uQHr8sX7Dr6/5/OzP6PAEpcUp5bzEYzppfs0a5l27yrM82sB4AxingUcq9L4O8vEpZ9DkaXtJcvs+zov/ALR5AfDp3VAJin85CD9Lj1jTmjcGcLwzI8eqg161+fB+f6qYQAq3LEmwAuST4DeOZCO5nsNVmjihyySk4cqHF3HZr46ufJRt6xqji9TzubxGuIgmIYZkJAB8zqY0RSRycuSeR3IRTpZB2g0xNEIMEXHqESWjPNHWwSoa0Uwc4S4nRhqaDnta4hbRrhqUwZ58Wo2Lz6lUQTJ8PjHg4GfNuZEXg6M9glQYNCpESzCIOgbOCYYwBhg8wBvWEzH4nTLmapcnpCV1NTfBTsZmDPpD4mKfUFkz8sFVgp0TmsJFoiiE5kQhyRnbLBwi/wDOAOqOPkD+EVkXAUJN8DPiaiytLcbMgB/S1b6H5Rkzx3Yr9Ds+D5Nuo2+q+wrkjUeFzHNZ66JvnCQth9IP+Gk/sAx3X1Pn0ncm/iF075Zg8YFkM79si56hV+7JBHmzMfwEc/Vy9pHqfBMV6eT9X9kV7gLF0SYhmgnsnBIG5AO4v0NozKozUn0OjNTz6eeKLqVUbXRzDOnLPlTg1P2RQoCf6UsGBI5HKfOOinuaafB5DLBYcTxZIVO7v4c/qJcW4VWprJjZsiBEzlQMzTDe4F9B3chJ8RCcmn3zvsbtL4rLTaVQSuVur6Jf92JsR4Dkv2i01QTNl2zI5VgCdQCVAK366wuWli7UXyasPjmaG2WeHsvo1x/2Vrh3hCbUMe0BlyxnUv3Se0RgpQC99DfXbSM+LTym+eEdPXeL4tPFbPak6dfB82D8Q8PiTVJSyHMyY6rfMAti5NgbcrC5i8uHZJRT6k0niLzaeWfIqS9DvFOGKijRakTwezZScoK5DmGVgDowzW5DfaDnhnjW5MzaXxPDrMjwyi1d9R7nxNpAmVNc0lCLlciZ8m7FiAMhC3NtT1AOkaISzOO5uvoc/M9BHJ5eHFufrbq/1KnS1kuXiSz0zGVLmIRe5ZlW2Zjm1ue8desZ3lXmbrOxj0WSWleOXEmn9PQ03j/EBNwp3ktmE4oqEcw0xR6aA/Ax0ZyXltrpR5jTYZQ1kYSVNP7GX4fR9n58z/HKObGVHoM+B5X7Q27c2tDPOMn/AI9AE+kDbxPNI9DFLoLK7Blte0OhI5Opw7SpYnQlDGhMw9GDKIBo1wyHUqcVMU4keV2H/lukJcBsM7B3m3g4xAy520ckwyjG2Rs0XRLIiYIE5iyiIRdkO5bEbRTLQcK9rWvAbQ97BJjEm5g0gGfAQSKCZFKzaxLLUbPZ0srvBKQEoh/Dc61RL8SR8VIHztFzfAMVTNB4mps1Jm+44Y+XuD9o/CAjHcpR9Ua9Nl8rNCfo/wCxT6YaE+kcV9T32PmLZvHCxtQ0g/4aT+7WO8z56+rJalrEHoYFkKh7U5YMyRM+/KZT/kYEftmOfrV0Z6n9npXjyR9Gn+f/AEZXVq0qYJi9df46Rli9yo6maLxzWSP1NJ9m2IPNd5cmc0t2TMugZO57wdTuDmFiNR43hunvc0mY/F3ieKOScVJXT7Pn0f6PqXThyrmSJkyVWd15r50mH3HbKFKhttlWw9LDSNGKUoyaydzj6/Diz445NLyoqmu673X15YVVVUynMyZNplKbvOklASq3sXRyGuAeRO+kM3bW219THDDDOowhk5/4yvq/Rq19hbwZOeZIeY57rz5rSxYDKjOSRcb94tvA4JOScvjwM8WxwxZY449VFJ/F0U7FsalV9TLlMTIly3mAzQwzzL/ycsK2Xu3udDfQmEzyRyT29K7nSw6TLo9O8q9pyS9nsu7ss8+ktMpqRZY7BV7QkkkkUxTJLI/TaUxJ3tbrD3HpHscfHk9nJnb9rol/F1Z5KKPiCjsWmGbKZWc3KJLUsbBSCtmaWDyvnB1uIqUlvSrqNx4pLSSnuSpql3b+/BRuLsLFLUzUUWUd5fBWGYD0Bt6RgzQ2TaPYeG6h6jTRm+vR/NDimQpg8lT/AGlQWA6AK23+YExpx2tO2/8AOTkZ2p+KpLtHn8v7ia0ZDqn0Quj4NFoGaVH019I0Y2ed1sSvYlRZuUaFI48oCOqocu0MTA6CqoEWS2QCYYqgkyaU8UW+Qm8WLI5kWUDkRZDoJF2QjMQh6IhD0RCHoiyBtIoMEkCyy4dTqRaKaLUgurwUMugiUU5FdmUBkTFf7rBvgQfwiMpM1qdTZ6ZlG7plXzYnX4ExIPa0wmrVGalSoy8xcHz5xycteZKuln0HT7vw8L60vsbhwxM/mNJ/hpP7tY7TPBS95/MJrdrwJRRuOKvtJkuX9yVf9dm/7RHN1r5SPW/s/CsU5er+xS6mTmBU7j5iMafc7koKSplm9j1Hmmz7Plmy5ahB95GYlrfqrG/Sr2nI8x4xNxxxxv1/6NT/ACskGXPQOp0IIv8AIxtcU1ycCLlB7oOmL8RwQTZbJIqHVSP6F2LIbagC5uuoHURnyYG1UWdPTeJRhkU8uNN/8kqf9GVam4oagU0tTIfuElSuUkBjmsdbHfcHnGeGV4lskjpavw6Ovf4jBNc9bvsLMO4jw5WaY1PZzNLpaXKOUaBbd7Q92/mTFLLivc0Vk8O1rioRycVT5Y6w7G506rScKeb2IlOiBVLEhyr57+6STLUb2tzg455Smmk6E5fDMOLTODyR32n19O3qWHDHrpYmstIuVmzIjTACqqioqKo30QdNSYZGWXl7TLlxaF7I+a7SptK116mb8Wzp0yeyz0KzWYXU2uBYWAAJ0y2jDl3OVy6nqtBHBDAlhdx9fuWzjCl7KnpJAHuI2a33gEv82aN+WGzTpfI81oM3na7Jlfe/uVaVKLRz0rPQOSQQ9AQLwWxi1nVi6bobQA5u4n17iNOM4GtRE0uHHJaFtbSXgkxUolaxGgOpEGmLaErIQbGCKXUlRYEcqoJqqwuQcqjKoXui1wOZtzi0hL6kJmRdFHKbxCBaJpELF94Io+BiEOiYhDnNEIE08+0EmCxth2IkGLsqi5YbiIYaxaYDRHi1OrAxbREy0UtXko1mH7EnN/mygL/zW+MJk9qbNmmxvLljD1aM5G49I5Fn0FpJUjbuFx/MKP8Aw0n92sd0+eZPfl82HTVupiAGWcUTrV5U85SD9oxy9Z76+R6/wGX+i18RViClbMOUZEd5j3gPDjMqu1lNlKSmcW65kBU+Gp+UadJe84vje1YE2urr7mv07LPWzizjf/UR0+h458MBrsKYAsp2BPjprF2HFp8GAYpic+ZNaaxYFzfc6C1lHoABHIyTU5Ns9vgwy0+NQj2IEr5p00PmAYBpD1kyPsad7KsQqTMmB2JlpKUBLkqGZhlsNhZVbQdY16RttrscLx6GNQjwtzfb0NKE6Y3K0b+DzSRljSmbGrzxqalUAP3VAMsjwyqn6xjnT9rUKz18NuPwpvH/AMX/AHLbxauebb7ktfi7P/2iN2ZexXxPO+GyccjZWaKmGeOeo0z0GTI9tjydSDJD9qo5yzvcUrG5eV4yZFTO1p5boAsqG4zla1EuWHHIIZkuIgWA1VECNosBoTTsFDG9toNSFNAlVh1htBJ2VYinqQYJFPkivFkO0imEohaPpFFHb4TN+4Yuy9rIzhU37hiyqZz/ALOmj7BirJTODh037hiWSmeihm/caLsqmTSKOaD7h+EU5F0x/h0qatu6YtMBxHLM+X3TDFJC9rD66uIoBKIIYzAv+Ve9+AjJqZVBnd8DxbtSn6Jv9Csp7y+cc09i+xuPDI/mNJ/hpH7pY7q5R87y/vJfNjApvEBMa9oUzLiBPRJf0J/GOdq+ZfQ9T4O9uK/ietZ0v1EYT0fVDz2SzMlc6tt2L/EvLAjXpF/qfQ4Xjrf4ZL/6X2ZrNVT5TnXcR1FyeRTsMlOHW/XeAaoHoYHVUYzMtvdJHwNvwjizVSZ9LxPdCMvVL7C6fREaqNYEto1X2PyyKSYSmUme1ydSf5OXrHR0nuP5nj/H/wDcR/h/Vl9jWcMyjjrE1OJyim9NkDN1fPnI9AQPMmMOomvMj6nqfCdPJ6Oe7pJOvyq/89A3i2vy1c5b/YlD5Mf+qNOpnUYr5nO8Jwb4yl8f0FWH1gLRjjLk6+XE9pYZlauSNG5UcpYZbylY7Nu3rGTK7Z3NNFqIHJg8RzNcECNBx2fERYLImWICR5BFAtAWISbgi0WpANFKxKmKnUQ1MAXqNekEQnRIBmmMeD0mIJmqZo7wKNzIXggDloplojaKIeGIUT0W8QXkGLbQYpHnSIQDx/3E/Sb6CMup91fM73gX76Xy/UQy/fEYex6WXvG58Mf1Kk/wsj90kd6PQ+eZv3kvmxiu5iwTEvaV/vCZ+jL/AGBHO1Pvnp/C/wDbr5s7w7+iEYWeij7o74F/rb/3P/Wka9H7zOL47+5j8zZx7g8o6Pc8f3IsN5+cXMuRi2If0s3+8mfttHFy++/mfRdL+5h/CvsgaFmk032Yf1WZ/fN+7lx0dH7j+Z439of9zH+FfdlxHKNZwTBMR/rk/wDxM3980crN+9fzPfaX/aR/gX2HXGv9fneUv9gRr1v/AKfL9Tj+C/uJfxfohZh/vGMUTqZug5baNHYw9yt4n70Zp9Tdh91n1PD8RyNcEw84zPTBAs4eIUQmIUQVGxiimVnG+cHEWytDeGgBK7Qtm2HQimbxaE5PeP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExIVFRUWFRUVFhUWFRUVFRUVFRUWFxUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0mICUvKy0uLS0tLS0tLSstMC0tLS0tLy0tLS0tLS0vLS0tLS0tLS8tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAACBQYBB//EAEAQAAIBAgQCBwYDBwMDBQAAAAECAAMRBBIhMQVBBhMiUWFxgTJSkaGxwULR8AcUI2JyguEzNPFTc7MVF0OSwv/EABoBAAIDAQEAAAAAAAAAAAAAAAECAAMEBQb/xAAxEQACAgECAwUHBAMBAAAAAAAAAQIRAyExBBJBBVFxgZETIjJhocHwQtHh8TNDsSP/2gAMAwEAAhEDEQA/AOLcwZhakGYzLYopIJGMqGi2X0EMqRJeeXksCR4RBkQsqVksDQIwTCHYQWW8lldFQp8YehhXqNkRGYnkAS2vPTumzwHo3UruL5qag6sQRccwL7mwM+g4XAUaAC0lym2XNYZyLa5m7iQNJXKdBo4TA9BMSxBqZaaHvYFvLKPWdBhOhOGtqXc663y27rWNiRfnNvFMbtruBvsD3/C/wl8xzBuRG3ibfcSpzY6izEPQTBsBbrQebZ/j2SJncR/ZtrehX092oDe/gV5ek6y2XY21vt8rbHuvPUxxF7C1gN/AgeukHOycrPlXGejWJwvaqJ2PfUkpvbU8tplqTPsFfiQzjJmJJyldcjMcoFwdAN+Wt5l47o5hcWC6gYeq3aQp/pvdVYmpT/D2iQStvWWrJ3k2Pm15YQ/EsA9CoadRcrD1B7iDzB5GABjNjWSUcQl5RjFFbFmEgSFtCU1hTEoGqy1owEnhSNZbCIC0BXWOlYKokFljiKZJI51UkInKaNRoMvBu8pmjMSKLs0qGnjGUvFLA4Ml5RDLmQBZDLGL5oQPCBkeN8C4U2Iq5RcKO072uFUfK52A/KJ7z6FwLhxw9FRazVGDVOZVLHKPPS/rFlKkV1qa1ALTUKqgHL2RyUeHib3M8r3O55keMZ4fTDszEW1IXyHOC4zTKUy430HxP5XmVptWWpdBUPuSdtPhbX7T04q+u5+g7gJzSYti1rEny0A/M/GPYXCVKvIgf1W+UrTbLOVI0nrNcEZWOv4hz7gNTNDCYFn077ScL4Gq6mdHh1C7S6OPvFbXQ5XjWDyLYDzPP/MzWxajEUwfYyX8mDrlvbl2tT4+E7nHUQym45ThqmDyVC1iSgbT3hawA+ML0YrVoP0m4cuJw1goarSX+GeZCgZ1uDsdx4j4/LWUg2M+o4fFKtSml78tdrZLX8bknTznz/pThRSxVRALAHQXv2SNN9pZjdqimWhn2gjLgyAR6FspaGoypWWSAeIe0rIWlAYS6DLESjCFEq4gLW9CtpJ7JCIDvIDJaS0sMyPTK2noM9issTLKZ6xlLypMFEcirNIHlGM8BkFsYRp9Mr4wKKablgovfkFFzpPl6mdccR26VydFHzH/EpzbDR1Z3GEqgXA2AFoU4oOMpW+4Mx8LjeVtT9Jo4eqAdbCImWqJ4mBRdRTEYptbYAeUdWvTce1r6CCyqDvCNR7Srt3QwrmBOLRefzl6ddX2hTI40MNirDWc/xgnMHH6Hj+uU18Rhza8wuKsbW+EE9ULRkuQtQNzuLdxsdvgZzv7RP93fXtU6Z+R21mnWpG4v33t46/eYnTOrmrrvpSpj5E/eHC9SrJExFMsDBiRml7K0gpaQNAZ5A0A1B+skV4s7wYqQgUqNMPPGeICvLCrBQ/tBzNPIHNJITnDAyGVEIBHFRTLIRCgTy0BLAmVYwzLKinCJeoC0uqQ60oZaMFBsSInRm7hH17QVRfc2AF/DUTIShmZVJtdgL91za862lRoWpii7OiEWzWve+t7AePLlKc21FuNO7NJcTToUwX3tMbH9J6Rva/5zL6Z1DmFiTysOZ8px2J4dXPayG0rjG+o0p8p3dDpGm2Yg952+MK/Hzc2e4nzv91ZTbWfQOh/Rc1sMzv7Rvl+xklGhoZHJ0VHSEKbk3HiYzh+m6rawF/O85Li3A6qNY7X57ScI6Mhnu9QW10tzhUPmGU5PZH03hHTlHGV9/K008WA4uu3LwnFYLocUAdKoYcx4eBnZ8LolaeU6228pKa0JoYVC+dVOxaxPgbazJ6a8Ar3fF5V6kZFsGGdBYC5TfLm87X2Am9jCEqMQBe/Yvtewv6XAmJxrCVg+ao5bPQrqdeypVCbDlzHwgi+UZY1O9ejOJJlC0jNBtNJmojNPOsg3MEzSBCvUgTVgneCLwookNLVh0eIUzDhoaFTNDPJAXkgDZoiFBgVMJeEuLhp6IO8NShEbLinCLShaawypCkI2LpShhShhTlssahbEnSxuOWsf4WqUqqEkjrHYi22U3sDBOk0uGUaZQO3t0mIHPMHU2t4jUyjPDRPuNXC5NXHvNSth1LFiB4aX+EzsTwxnOjD4flpGUr30vHKLhRqbzLZfymIOCIrAuMzfL4TtOjl+rttvOcrYtGN72Vbkny5RjA9NqSgLoLRl8xoxo08bhEa61FuL90yqfR+je63+O00qfHaOIJAcK1tCdNfKZScZFOpkqaHlyB8RI9BnE2sHQCbXPn+fKOmpYfr5xKjxVCIHEYgkgDnJYlC/FMEtfDsL5XzZlbyIuvkROc49UejgkDatUdlUnkhSzkelh6x8cYNOoUNPMuX3gLMTe58PzmF044p+8VadjfJTGbuDncD0VY0EmyZJuOOu85e08aXIgml5mso4i7iMEwTiQIo4gow6ygpwozy3PFh0ni05dVhsiQzlknskFj8g4hly0ADPSYRmwwaM0DM9WjuHMYRs06AjaLFMOY9RjIRlsk8ywhkjCAisvhsRkuDexIOhsQVvYj4meuItUMEkpKmGMnB2hnHVAtmUnKQLd/dBYnHnLpfXTzlKtmoW5gkeQ3+5+EzKlXRW7iPlpOdKPLJo6UZc0VI0sZhbUil7kjXXmfGcW2FqI1v8zRfjdUEgqT5RdOIOzex8QY6ToRyTNjo7wrM4qtqQf1edD0gw6VE7e+4a9iD3gzmMFUxRJFJRbvIsuviZp1+FVnF6ta/8qDKv5mRp0Wp6UivBsU+Y0WNyBdW715To+FVydz5TnsNRFNlJ3C2v8ZqcPxAXW/65mIQ5bi9ctXqWJADFQL+72ftF0WVrNmZm95i3xJMsk17Iw3bPKixdxHCsC9OAIkRPSkYFKe9XBY9CJpz1acbNKerShsraFurnvVxwUpDSkGSAdXJG+rkkHAESAQhWeqkYrBqsZoGeKkuiyWLQ/QaPUnmXSMdpPHTFaH1MIBFkeEFSNYlFqpiVZoarVibksQoBJJAAG5JNgAO8k2ksjQ7gqZNGq3JSn0a/2mGz2JX1n0D9wSjQNJTmZXZKzA3DVhpUC/yqRkHfkJ5z59xJcj69+h+0wZdZs6GH4EgwsQTbXyihxxXa/lymjwysv5zWbE4b3FvFTLKMzhmIdjoDbvnQDMV1GsphuJ0hsFGnKe4ria2vpDY6dGdjaVjcwOFBanUf8Ko9v5msQLeAvF8TWNY/yjbx9Zo1BbDEaD2Rp/Vf7QxVtFU3UWc0UlqaRhqcirNJiK5JR0h5VhFY6QuKct1cMolisA4r1cIlGHWnGEpwoWQqKMo9KaOSAqLGoSxbqpIzlkkDzGcaesItOEy6wgSBjpAgksEhQs9yxSNFAIdGgpcRkxGhgPPc8XHdNXCcGc61OwO7dj6cvX4QuaW5Zh4bJmly41YgLsbAXJ5TouFYZOHcRwKYq3WV1Z1X8NIsClAsTuxa+n4Tl35JPUSncU1AsbM25JIOhbnrbTabP7ZOH/vmDw/FKIOamBny7im5vfTmlTT+4nlBiyc7ddC/j+z5cLjg5auTd9y7l56+hq9KcJ1NRrCyVi1Qdwc/6nxNm/uM+acdS5P61n0zgvE14xw5SSBXXRuWWuo3/pca+TeE+dcXpm7Ky5XUlWU7gjQiV5oVK1szNhncae6OTWu1M6H/ADPGxJPMxrFULxRcMYmhbbPVrnvM0eHku1ifSI9SLazX4QoBvpAx0zpMNhQq7DadN0d4R11HEe8qoUHee12de8AjzInPUahawnd9HcORgcUVOVjTqBWG4ZaLFSPEFr+ksxRUpUCeWWJc8d1Rwv7tRqaMmRjs1Psqw5FQdPS3xitfgDfgdW8D2G/L5iO8Qr06jll9ioFqquxVaqiqlvAK4X+2SjiSNGJNtmG48D3yn2kouj08uz+F4mCmo1aT003+hz+LwdSn7aMviRp/9hpF52Yrkc7+X5conXwNKre6hG5MgA1/mUaN9fGOsq6nOzdhzirxSv5M5lZYmFx2Dei2VxyuCPZZeTKeY+mxsYteXI4ck4umMUo7TSJUTHqRjISTPHWLuI05i1SEqZ5JLWkhDYtaWtL2nqrKzSzxFlskuqwmWAUVZI9w/hrVNfZX3jz/AKRzjvDuE57M+i75ebDx7h9ZtkgEACwA0A2AiTyVojrcD2W8nv5du7v/AIF8JgkpeyNfeOrH15ekX4ni8q6bnQRrE1gBeYpOd8x2EzSlZ6fDhjCNRVIUxNxkp8zdm/XmZ1/7POMqeswFezJUzZA2xLAh6Z8GGoHffvnIKczs/IaDyEWs1wykgg3BBsb3uCDyN9ZMc3CXMinjeFjxOJ45ddvk+jC4qnV6P8R0zNhau389K+3/AHKd/XwDTrOlmATFUxi8PZmygtl/+WnbRgObAethbkI6ppcbwjYasQuIQBg9tmGgqqOY1syjv8ROC6McXrcKxLYLFgqobQk9lGOzqf8Aptvf1750dJx02Z4PJjngyOE90ZlZZKWHvOt6WcDsTiKS2U61EH4Cfxrb8B+R8DpzeF0MzSi4umaIPm1QhXw3KH4ThiGj/FsPYBhEsNiSNzFLUmdTgxcifR+i5H7rXX3cynzaiG+jifLKONWml7i58dhO06GcUvw/iFc8uta9rXK4YAaeSgegl2CS56JxXDZFgeR6LTzOL4eM+Dwrke1Ry9+tKrVpj5IJcp+v8bQfCXK4bD0iCOrpkEHvaq9Q/wDkA9IZplyNOTo9bwEJR4aEZrWjylVZT7V/AgW+AtH6eJB1t9bTPMt1sSzU0aWNC16Rptut2RhrkY7/ANpG/kJxtZSrFWFiDYidPhcX1bXFtdwddPGZnSNAxzjcWB/pO3wOnkfCX4560zh9q8CpQeWO61fzX8CFExym8zabxhas1I8uxwtKNBpUnrvCK0XvPYHrJJLBRA0MkVLawtN5WX2NIJqcPwJJDFQRyzEgedra/reH4Xw4KA9Qdo7Kfw+J8fp9GcTWlGTJ0R6Hs/szbJl36L9z2q7jmpPdr9b/AGgMQGIzbeF4q9UwmHxduyduR7pRdnoK5dhGrWaDapZTHsZhtbjb6QNPBm2vwi0w8yqxJlyoF79/WUNK++g7uZ8+7yjXVG5ZuX60/OCqPflIRlMLWai61KbFXU3UjkbW+Fri3MGdDxzH4Xi1AUsUFw+JQfwsRb+Hf3XO6oTuDoNweU530lH9PpLceWUNjBxnAYeKXvrVbNbmz+zjjlnPC8XYVEulFiQQw50CdmBHsnYg27pndNeBnBV7AHq3Bame63tIfFSR6ETIxIS4JAzA3BXRlI2KkbHxmzxLpbXxdHqayq9iGV8pDqRpe4NjcXB05y6WaM409GcbD2VPh8yaalF73v4/jMCrj3YZTqO7T8ov11tlA9IzUokbkD9eU8XDKdSSZns6yw8vwpLySFlJY66zosDxOqlBsOpy03bM4G7aABSfd025+UzqVMDYQwgTa2L44VXva9TRov8AOEJiFOpDipeQ0phWaBZpC0CzSEbPWqRbG4i5APNbH5y7NMzEt2/hIUZmuWmRWlw8XBlp0DwlDSVJ7UqxUNKu8BKGutkiuaSGwUPNvN7gGBAArP8A2D/9n7fHumdgaIZ7EXG+u1h3/lNutiZnzZK91Hd7I7P56z5Nui+43WxMQqV4rWxMSrYiZbPT2kaTVhAs8zP3mFFeQXnTNrCYvMMpOo+YgcTjWW4C39Zjirre8vUxeU6w3oKpJBWxDto2g5AfeVWpra8XqV9L8ztC0EsMxkGuwzvlHjM7EYnkN5XEYgsbLqYxhMHbU7yFbk5OogsPhb6nWGqtl0G8via4XQbxalTJ7TSE0WiLKg33PeZZReeoLnwhSJApA56DK3nokCWBlg9pSavB+GM5RyOyWIW5XVl3Pa7Nhra+hYAHQwSkoq2JkyKCtlP/AE+rb2DtmsSNRYHsi+pseWuh2sZnk/L7TsK9cKSq03IYEZsoPtLlzK7Eam5OpfcE2PZFMXg6Vc52FhZizIQcq6nMCLDKoNPQ9/IAls8eIf6kYocZJaz18P7ONczOxB7Z8x9BNGstiR3XB0tqO8TKqntnz+U1Iuzy0RbLYnzlzPcRUzOze8zMfNiSfrKEzeeLBs8C7yVjBCQjYxmklbSSAOroXQXOmbYd47z9oOriYOmmIZM6ImVmCvrd1ZjZetLWyg8m9nx0ieNp1KTlKilGG4It6jvHjMM4yu2e04bPh9moY3ovsGqVotUqwDVYJqkWh5ZSzVZFrxWo8HnjUY3xFMf/AHiHfHB1GliNDrvaZWfbzENhdfUn6yNaDY+IcpUaGETMbm1u+XrVjUOVNFG5gFbNoNEG5743hxfbRBz7/wDEU2x95Uv7C4XDgbfGeYrF27K6t9IN8QX7FPbm35Qi0lpDXf5yFl6VHbvKUcPbtNqZ6xzbbSBi2p0E9v8ACQiroW2g2N5CbzwyEbLTzNK3lSZAWFLTouAYtlpOQCyoHzntnKj2N1tpqV9k6XsdNSOYDTf6M8aNHrKZXMKgJ8QQpvpzuOUqzpuGisz8Sm8eitm/wDHhaHX3AZ2YPZWuTTsB284AshBsQb9oxbjNACrRCXFPEZqTBtLMtUhmBAH/AFB9IPo8oOGrYbOAznNSJHtMUysljoHIFrXv2ri9rycab+BRXLmaletdblchQFSdTYk2Yi+gXkCt8S0yvx+laejOc6WVpb3XlWnp9jn+keCNGs6k3ucwNre32rWubbnnOavdz5zY4vXZnZnN20vrscouPCxvpFeB0M3WsRe1KofIlSAfhf1tOpgg5VF7/ljcVm9lhUpdF9en1FzKMYaoIIibjzCAVBA3jTrF3FpCF5J5JDQLOu4u4ovhl6zIXBVnzdWeryjrAX7m2sdNe+0VomlWpIrVKlNaecUqjk1KRQucoqKozUdMuoBXTZY10lp1HxVGnToiuxpVAKbbakdoi4uAQD6Q/SHhxwyp1RD0SSM4AbtA2dDltYBlYiw2sBtIleFX5khllizc0d1sc9xLhtWkM5W9M7VUIek3daot1+d5l55rLi3ptnpMyE/iptbMNPaXZ9PeBimLxytfrKSZgLipT/hG+uUPTHYa590Kdzymd4o/pZ1Idpyk6mvQz3aVY6CeV21PxHrBu2g8vvFSL55KbCM2ojFAEgDYW1MQL3Mbpvtfbko3YySjoHBlTkzTo2IuezTG380ZUtV0HZQfPziYIFjVOv4aa6kenKGDtUIXYEgCmu5J0AJlNHZhkSVP88e5fLcaOKCjLSW5962nx5yiUSTdzc/ITuOkPQyvnorh6YamtFKZOZVsy3zM1zzJLaX3MYp9F8LgqYrY6p1jfhoporEcgNC+vM2XvlnsZX9zNHtTBKKd23tFav0/c5PhvCauIBZQEpL7dZzlpIPFuZ8Bc+EDjVpA2plmA0zMMpc+8F/CO4Ek9/cH+P8ASJ8SQLCnST/TopoijvNvabx5crTELX5RJVsjbi9q/eyafJdPF9X9PHcjNKXnrGUAtFLWwkoWlS0HmhFbCCFpOQQQbEEEHuIgQ0upgIdLwniNIgIy5Szm4BIBzqFshG2oU2YgDXU3heIcRFJCSAWKgBGYOzZusvnJJumw0OmQDTNecveBcyl4It2ZsnDpyu/z1BYqqWDEm5Y6+JOpMZ4TjciOlj2wQTcWsRsQR3gG4IiGIOw8YfDDSa4NpqjHxcI5Mc1Lor81qi7iCIhWgWms8wVMWxEYaKVzIiNkvJKXkhEs+hU65pmr14LPURVAshAAVrrtc6vqL7rubTksNgWpsE1CtTYsp1BIdSGttfRNvdmtjKjU7ioisABa99AiuEHjYuSAdrnmBMt8RnY9WVU/xWtVJ0opr3XubHsi+w31M15MVL/zej9CiOZypS6evmVx1000udvuSeQExK738vqebHx+mgm1iTSdTUV8yuDTsy5XVkUvmW2mW4W47iL6iYd7ic9wcNGdHhlGVs8qHQfCVqnQeUs/s+Rg6x0HlAjRkej8EUptz9YenibezofeO48omWvC07c7xpRKMWWSdRY9hz5nv5fE7maGGqZSCuhBBB7iNQZlJUHKM0qkomjscNlilR9Q/wDc+r1dhh6YqW1csxS/MinYfDMZyWN4m9dzUquXc8z3cgOQHgJjI8YR4s5yluzdwuDBht44pWNhrz28Cry+eVnQTL2gKjy7NA1DChZMqakrngmaS8Jncw4eWzwGaQPANzhxUkJgQZcGEnNYvV9q0cwi3Hp9wPz+ERc6n9bR/BEk+Fv+CY0fiRiy64sngz2oIEiMVxFyZsPKMpUEz8RNBjEsQsIAUktaSElH0Dpby/pP2nGcK/3Sf01f/FVkklnCf4H4/sU5P8vkOY7/AG+E/wCzU+0xE5ySSjL8R0eE+DzZG9kwFbYSSRIlmf4fI8WeiSSMylFxGKUkkrka8O4/ShVkkmdnex7DCz0ySQGokFV2kkkQstheeSSRjIzyerJJIBFxLpJJAWoVHtGamB2b0+skkZfEjP8A6snhL/jJWirSSTcjyjKRfESSSEF5JJICH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXGBgXFxgXFxcVFRcYFxgXFxUXFxcYHSggGB0lHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQMGBwIBAAj/xABEEAACAQIDBAgDBQYEBAcAAAABAgMAEQQSIQUGMUETIlFhcYGRoQcysRRCUnLBYoKy0eHwFTM0cyNTkqIkNUNEk8Lx/8QAGwEAAgMBAQEAAAAAAAAAAAAAAQIAAwQFBgf/xAA3EQACAgEDAgMGAwgCAwEAAAAAAQIRAwQSIQUxE0FRBiJhcZGxMoHBFDM0QnKh0eFS8SMk8BX/2gAMAwEAAhEDEQA/AEkGI0pGaIsmEtLQ9nxaikLZC4pkI2cqNaNETGeGF6UtRM0NChq4BJkooVinGrTIpkV/Fx60xUQpFQbCkMsFEaFhoPyoPmbyFQBNBiFUjLeiAYwbZt20dzAxphNtA8dKZSBtHGG2j30bJQ2ixNxUslE41okOWSoCgaWOgFC7EpSMdCjFuBpSNlsTiGkbLEjuSOlbDQPJDUDQFPHTIRivFCmQgDmNGghMMtRiphMclChrCFamSFbPpDTJCWcxampQ0WNYOFLRemevLQoNgk8lQgBMKKK2JsZHrTFL7nEUYAzNw+vhSkbo+OMvoNB2A+9QVuyD7V2eAokPBizfs7aALO1xh56jv8aIQqHGc+PtUIOcBtUjtqEst2x8cHFwdOFFMJYIptKYUk6SiQikagQVY56VjIrsxJNVsuiybD0jQyYZaloayN0oksFmjpkI2KcXDTi9xf0FElMDDU1FRPG9CiWTrNRQGyYS3pqBZ1G9ShosOimpWi9M+aWhQbIHegFshkoiMWYga0SpiSfEFmPIcu4crUooXgNlTzAskZKrxPIedQh9iNkzKNUJ56VA0BvgJv8AlvUBRPh9lzn5YzUsZRG0O7uKPGI69vf3ihYdrG0G6WJI0TXTQ2o9wUQwzzYWTK6MhB1B1UjuqAL/AIbEAgEHQ04AgS0wp80tQli3GtQaCmJ3TWkaLNxJElLQdwYtLQdx8RUojkQypTULuF2JiqDRYFkqUi0QuKsMh0hqAJahDnpLUwGSLPUCmTJiKVl0WTLPelbLEetJSkfBDLLREb4Fe0XIQ95AqCMg2XgDI6qOZA4cATa/vQbFNRigWCFoVAy242texuD5mhYyFE0i3qMtjVEZiUg0l0WbUwvZkABvpQ3A2lihkvTJgob4RasiVTF+9+x1ngLZRnTW/O3OnfYrKtsTEkRAH7t19DpUiBuhquJp6EcjxsRTUCwaWS9SiWDslK0HcdxiloKkTgUtB3HVqFE3HDipRLAsStAtgwLJQLqZVZH1q1GR9zpWqCnQaoQjeSiQiL0Bkj4TUjZZEnixFK2WJhKS3oWMe5b0bEoF2ollXx/SgLI82dLkcGwI0vqbce6gwJF8x+0E6EFSOsAANb6W49mhoRDRUcRi2DcR70JMuikT4THv3GqZSZakWPZEjN2G9BNhkuAyafERnRFI7dbVN0hVGLGWytpyt8+S35uHdV0JPzKpxXkHbaxtoSBrmFtNR4351a3wVJclBjmyEqeNyaeIkkEjGVaipo7+1XpkKTxtTC8kl6UlnitStEsmVqVolnealoazh2qEvkEnalaLoSBM1AvspjNrViMzO1aiBnWaoQic0LCiMtQHR4DSMdIljpGWRQbAaAwQrUUAE22eov5h9DREn2B8LHwpWSK4H8eKjjjzzORb5F591hy50F3AwFt4cOdCAR3gU0kxlNBGGxeHfRND46Vnmq7l0ZJvgLw8xQ3BqotHsG8SD/NkI15WApo22JJJDKHb2EPFwR38fKtCfwKWebblDxgpJmQ8hwF6aQsSiY2Y9Kb91OmTbwTxSVamVSjQZE1OmVNBkclNYlEnSVLBRwZqAKJY5qVkonz0pCN2oBoFkagx49yK1KX7ilxrerCtIIEVCwuJ80dSw7SJo6lkUSJlpbCkfKtI2WJEgFAcIheoMSrJUFCNoYMFcoljLWzFQWJFuIvlsTa/A1LQsrAYGygeFJIi7CvaUwY3Op7OVSJJULWiBNgVJ7ACffnT8icEmGmKHQWPdSyVoeD5H+GxchW9iR22rO40XqQo2riixuQatgqKpu+55gcK7gFWQnkmfKTxPVzWBOh51Y2xIpFz3Oxt7xm9jyOliO6qtzumWVxaI9s7Plie8ilQ5YoeqQy3/ZJsdRoddauYYco8wZplIWUQ8CrEylxOxJTbhGj7paNi7bOC9CxdgRE9I5B20Fo9SwbTotRJRGy0GNE4yCgNRT8PFRbLFENEVJY+08MVSyUcmCoTaDvh6FkUTwYahYyPDBUI0RkWqAs6SSxB7DTAsHw0IXhmMrOwBuLWvaxv2DWqH3oufIbFEH0FNIpXY+bdjMCeNROg1YD/AIXIJQ2QXBFvw3HAkVN5PDGI2LmOYkFjqeXtSt8DqBet3Nlr0TIOBHZVT5LlQj27ubmUuii4uCO7uowk0VzSYs2Du+1nhMDHpLAsxFgBf5beJp3PkRY/Ms8O6Yw7hlvrxvc/U3padjJqhHtVXzSBnZlMt0B+6Ai3AHL5reVWXyyyCTijjDR2FMmBomzWp0ymSOS9NZXtPGapZNhyJKG4O0KielTI4BUbUyZW4kq06FaJFWiQ9yVAlUw0VIy9IIy0ox2kdANEqwXoNko5lw1qBKIhBUIz54KKFYBioaZCNi8prTCJk8mCdjdRwGfXQEEa2J53vpVDjyaFLgH2Zist1PEaW/8A2nmimMh9hdpdUC/nVTRcmdGS4ve5qtlq5R9gcQg60kirc2VSdTbiadJit8lu3f2xAD/mADvpHJIeuOAzaeOX5opFbL8wB6wBtlOXjbl6UJ/AiXqQQY6+qkA+39KSyVQRjdpXXrEX4edWxb8yprzKLjJC2VvxZmHgXYD2UVc1yPjfuncLaUyQJM6eiI+SImiKeqaAUjiRtaA1BML0CBET0yZU0GRGrUVtBUa0yQhJko0ErMEVUlyZN0BoMsRNHh6DIFww0CWfTQ0AMH+z0aJZ48FNQrYDiMKaKK2B/YDeoRBbI6pouZlHU4ZQb3uQeNqSSHiUnEuySNc3NzmPbT1aKn3sJinPEc6RxHi2NcJNfjeqthepi/eHCISDfXs/pV0VRTN2wHCSyCwJtxF+elCUEyKT7F93I2Rhw7yiRmcghlble1z31XNMtxugjbRMTXVuNUqHJZKYmxu02y2vry8+H991WwjzZROVjDaJTJCqcFiUG4scxJZh5E1aue464AkkpqIz0y1KFI2lqBo+EtBhUWcSPegM0yaGSgyUECaiSgrD4sU6ZXKA4wrXq9FDQbamFor+HwhrOWJhi4Y0KH3EqRVKBuJ1joUNZG6VFEDkcCKrFEXcd/Z6dRFcjxsHehtFbANpYmLDgNJmtcXyi+UHTMe7w1qmU0nRuw6LJPC83kNVwasoZbEEXBGoIIuCDzqdzM7i6Zk28CASEgcdai7CSVAGHmsRzFFoCGmLxWQLbxvSpDt8AYxSnUkX9/KiSKQVFtlQALRm3agzetqSmWWqGGE2+ga4Nuwi17gWAa2hFDkjruO5ccJMKJZD1lv59n096Fc8EvgrOGJeQH+wKtSoq7sfu+lQtsFaSxohODPQY6jZw01AtUD1ZqVsujjJVahY3hEoahYrxM8aWjYrx0cpPY0yYjjwWbZM9wKvizLOI56SrLK6CosGAKoKz6TDVA2CSw2qEs8jFRDWcSirEhWzlTVqiVuQXCt6baLuCkhHE8BqfDnStUNFOclFd2Z5tPG9J0uYXzhgB2XBA9NK5LlcrPfRxRx4PC+FAe5W+LQD7NIudNcrXsY+JIPat/O9+2tcUeOztN/ESbcOY35WqIoYnVqYUKDB2CnlQ7B7lv2VhsFKoSVQjDgw7ewmkkacW18MsGH3ZwQNyykW55bagjT19hVX5l+zH6HOLjwEcRhiiRr3JYgE37bnWjZTkafCKS+JAjkhXUFh7f37VZH1MzfkSbJjIXMeJpxooZLegyxI4MN6hZGNkEkBpWzRCJCyUGzTDGfIKrcjTHEFxChYzxk+WpYjxnDpTWUuBCYqZMplEd7Je1WRkZpwHnTVbvKdha1TSqzIcvHUIDTQVAgbJY0UEimWroiMgWLXStMUUSLLsfYErkF1MadrCx8lOtJKaXYiT8wfebY+IjjYxgSR2ObJfOBzJXs8L1mzRnNcHoekZ9Hjkt6qXq+3+jKMeuuYHhXNo9Tkj5iHHRBbsosG9b8wa14p2qPKdT0uyfiR7P7g+e62p2cwBYWPdREPFbUGoQNVWa2VrE0rHthWBwkztlM1hz11pG16DJv1GksAg0z5idOPpQSsjdAmz8ESrNY5VOp5a8P776fck6Hx4Jzg8iXC7jOBOVFsCQckNKWJEq4eoWwRzJh6VmmCAZ4KRm3EgdY7VW2bIRDYIqhJKgpYKZFEmffZadGabPfslQokyaCLLRTK5chvSGm3CbS+pT2cs9IqBSOotnySfIhI7eA9TpTKLYG0idd1XPzOq+ALH9B706ihd4VHutCnWkdj4kIv8/emToiUpcJE8W0MDAOpJCnK6kFvUXJqOa82aI9P1Mu2N/QWbQ35wy3yZ5D3DKPVv5VW9RCJvw9A1U/xVH5lWxu/2Ja4RY478NCzDzJtfyqiWrk+yOxi9ntPCnNt/wBkVf8AwebFyN0Kl24u2gQE6ksx0HhVcMU8js2azVYNJBKTr0S7lSx0bKSrAjXUEWoU4v4mXKo5Ic8pizLY2rTGW5HmtRgeGVeXkRzR0TO0C8KNi0SRykUAk6YojnQolsOweHaVrE2Haf77KDaihkm2aHs3BqESJRe4sR2ltNfbWs025TPWdKxRhpG5dm39CHaG6+Iw5LNG3R8nFnW3eyEgeda1B0ecyyh4jUbS8rOcNBpS0FBBioFkSGVKVmmAunWlaNeNgTjWq2jdCXAfhBeoivJMOVKcyzkSLFRM85EgiomeUj1ohao0IpEXR0KH3ovherTm0M9iYISddtVBsByJ7/5f2bccfMryNx4LASOdXFPcom9W+bJKcPh3AsLs4sTc/dHh21jz56dRPVdJ6PGUfE1C+SKdisc7nM7M57WJP1rHLJKXdnp8eDHjVQil8iEzHypdzLKOoUaRgiKXY8FAux8AKaNydIrzZYYoOc3SRaNkbhSMQ2IYRp+BTmkPcWHVTyufCtuPS+cjzOt9oVTjp1+b/Rf5+heMLgkiQRxqEQcAPr3nvOtbopJUjy+TJLJJym7bMt+J+yMk4mtdZRr2Z10PqLVh1cKaken6Jn34Xifl9jO8Vhv2QR6GssZNdjdqNNGf4o2L5oxyJHcatWR+ZycvT8f8raApI6sUkznz0s4nMffTWUbJJcoMwqC9zwoSZIxssuxYs7jhxHPh2VS+/JoxwlJpRXcvm7SCOS86dWRivEgoM1lYW04W0PZQg6lbXc9PkwSjpVjxS96Kv4P4F2xOxJ4bthnJB5XsfMcG/vStW1+RxIdQw5fd1Mfz/wDuRFLiJAxE0SN2q8SqfUAMPEGk3SXc3LRaPNG8X1TI3w+DfiksRP4WEi+jWPvTbovujNLpmaPMJp/MUbX2MUBeJxMg42BV172Q627xceFK0vIqWPLB1kjX2KtiHpGi6EgCRqVo1RyBeBlpUhZzHMNNRmlMIVKJRKR2Fpils+caUBbB6g1lohkLukamzO2Uc7cybdw9dBzpo8uiqGPiU32irf6IveCwqxII0FgO3UknUsTzJOpNa4xSVI5+SbnJyl3FW+O0ehwczX6xUqv5m0FDLLZFs19O07zaiMfTl/kYlisRdEmXiND5cRXH8z6E53BTXkMo5AwDcjSlydqzy9v0oh7BGxsQ0M8c4NirC/5Tow9KfFLbNMya3As+CUPVG2IwIuOddlHzaSp0fEURSv757I+0YZ1A6y9dfEcvMUuWG+LRu6dqf2fPGT7dmYlPFXI7HuGrXAtxOFPKimZcmFvsLhB1gGBAuL24286sTRzsmKSLwnw2kYBsPMj31ySAxN5EZlJ8ctXyw2uGc7FrVB1NfQhG5eNVspwjk9yB1/60uvvWd4clnWx67SVba+hY9hbi42+ZokiA/E6Zj4BLn1tU/ZZd7HXWtLB0k3+QSTcW7Ki7UdRKnZbtydrHN9nc3BF0vyI4r4W18q0Yp+R5/rOjjt8aK+f+S14rCpIMrqGHfy8DxHlVx56GSUHcXTKztjdUBWeFjcC4RtQe4NxHnekljvsdnR9XnuUcvKfn5lOWe+ouGHEcDWbcemeOu/KYh3gwYsZEFrfMBw8f50ylzRi1mm93fHuu5VZJaZnKjMMwclLQssg+wj0aKHMOU0aKXI9LURLI5JKASDPRCXPcHC9JLJij8sd4ou9jrI3kLL+8abTxtuRd1CXg4Y4F3fvS/RF4JrYcUzv4oY+7Rwg8AXbz0F/esWsl2ieq9ncHuyyv5Gc4QdaSLkwzDxHGsL7WejxqpSg/Mk2HN80R4qdKVobTy7xfkNsRhWBCuCpIuAdDYmwNuzQ0ZRce5ZDLDJex3XAPHKQbNxHvSof5mv7oY8S4ZGvqvUbxXh6i1dfBPfBHz/q+m8DUyXk+V+Y7Iq45ZyVo2QyTfjYYhxJKjqSdde4n5h6/Wubqo7Z36nuOjajx9PT7x4/wVd8J2Vls6vhnK4VW0IsaFk8OMuGjaN3o1kw0TgD5QD3FdCPautilugmeB1+F4NRKD9f7DVI7U5jCY1qEsyjFxmOaROxyPeuZLiTR9DwSWTDCXqkEYDFGORZBxVg3pxHpTRlTK8+JZIOD81Rq8MoZVZdQwBHgdRW5cngZwcJOL7o6YUUKZjvZgujmewsD118+NvOsmeNM9v0rUeLgjfyYtwuEeaNmVcwA6wXU5SOJXjbjr3Gq4pyVo15suPFJRm6vtfb5WUGbAlXZewkVcuUeYzx8PJKPowjD4c0aM7kNsKpqCOQcrmoVtnxJogsglajQdwPnqUDcbHsDZ4w+HjhX7qi5/Ex1ZvMk+1ascNsUjPqs7z5ZZH5jDNTlBjG82O6bFzNyzZV8F0/SuRqJbsjPoXS8Pg6aEfhf1EWJGV0fvsfPSqfI2T92UZD/AHFwSf4kGdMyFDbmue62v5Zq16SO58o4nXcksUfcdWG/EbFFsY0i/wDphY/IAEj1J9Kq1LudGvo2J49HGXrb/T9BKAJFDCqDsJqSLf8ADDHFZpIG4Otx4r/Q1r0kuWjzftFhvFGfo6+ppVreFdCzyB9apZCs7/YAPh8/OM38joazamO6HyO30HUeHqdj7SVGaNFXNPcEEmHvQA0Xn4XY1h00LXKjK47r6G3oK26R90eW9osSuGT5ov5iB4Vts8uchLUSGa72x5cXJ32b1Fc3Oqmz3XSZb9HD4WhcrUptaNE3JxefDBSdUYr5cV+p9K2YXcTx/W8OzUbl/MrGzY9BIIyRw11Gh5A66XFWnKS4K/v3g7okn4TlP5W/rVOdXGzt9Dzbcksfrz+aM+2VjnglzIxVlOnhzHeKwwk4SPXanBDUY9slaYfvNhIp7YiJArMoYgc+TC3Ighrd1q1775R5vJoJKLTbco8fNLt/aivQwCmRx7GMGFooSUggYWmoqbPGw1GhbBJ8PRom4D+z0aBZrGD23G4Y2dQGKg5JGDKPlcFUsAwIYa8CK1SW0zLkj2ltuIRSdHIjyBGKorAyE20snzX8qSTqLZdp4qWWKl2tWY1iSUPWUg8wwKsDx1B1FcSSafJ9GjkjKKlB2vgR4454SeFipv2ai5oLvQ2Z3ibXlz9DZBsZIIEVBqtiTzZuZrt4oKCpHz3V6qeoyPJMzzayHp8Qrcekc+THMPYiuRqFWVo950uanpMbXpX04EOElMblT8pqo1L3XRYti7Rjw+JjmkYIgJu2trEd1Xad1kRh6xFS0c7NBxu8LiHpwrRQHhI0bSyvcXBSBNEBH3pCPy11LPn4PHt8qiSCViHNl68OKYk/jhiysp7o2YDmKAQ/H7VFugnjOaVSFEV5bgjQtGQJE5XupA7aDVosw5HjyRmvJmaTw5WZTxUkehtXJkqdH0qE1KKkvMitS9ywse4DWxRX8SMPMWP860aV1M4ftBDdpVL0ZpCkiukeJJgwNKQoXxDwlpY5B95bean+RrHqVymes9n8t4pY/R39Sqg1mO/RY9zMcUdo86oJRlUt/wAwXK2HhceYrRgk7o4HXVj2wb73/bzLG7SMReO5uyi4LLmzEG5ViVFxzFjVqy+9tZwNi2tprtYRinM0TRMp6y6HTTqllv6f3qKsfKoOB+Dljkvs/wDsyjaA+Zu70Irlz72fQcT92grZU5Kkgd57jVuKXBTnirVnDQgMey9xWuHKPF6zG8eaURjhUp0YmGiOnRW2eNDRoWwSaCmoWwb7NUDRati4hoYI1EiyEnpCseUO2fKVjyWZlFmUDQaFbsut9GTmTKVdFg2i6rE7SAMqi9msQTyFjpqSB51UMk26RhONxHSO/ZwUDQADhlHIcTbleuTmnvm5Hv8Ap+n8DAsT79/zB8C980TfeBHrwqpmvE+XBm47BxPTYKFzxMa3/MAA3uDXaxytJnz3U4/Dyyg/JsoG865cW37SI3mLof4a5+ujWSz1/s9k3aZx9GVba0JvcVkTOzmjatH2zNo2IDgEAg2OvDxop00yjepwcJeao2rD7AwrqssSdAWAbNh2bDkki92ERCv+8DXYTtHzvJHbJx9CSPYslzmxUpU8bLFHMw5K08aBivhY99ShBlgsFHECI0CX1Nh1mPa7HrOe8kmoQyzeOHJipl/aJ9df1rl51U2fROmz8TSY38PsLjVZtGW7cuTFQt+2AfPT9asxOpow9Shv0uRfC/oa0a6p89PgvZQIVn4gJ/4dW7HHuCKz6le6d32fl/7Dj6oz+sB7A62ldcPHIrBZEfOjXF819FA5m1zYj7vZxtwN7jy/WqlN3aqq+PqaHs9xJGsscoZWsb5XXrJcSHW7Akqbg9jHnVk8TctyORiyJx2uPr/cMnlAzgG7AMcg+c2Z2ChTYnR2GnKrfEje3zFnGTgpVxxz+VGT4vMyJI3GSMMe/lc3trpfzrBlXvuj2nSMjnpo2u3BZfhjCrSTRsLq0eoP5gP1q/Sd2jH7QzlDFjnF01L9BbiFtLJGDmEUjov5cxI971bjfvOJg6ricsOLUVTklfzoLwwrQjz7Do6dCM7yUQEbwUSUR/Z6gxJsbZ2E+2xYiOWJpc+IZ8siFgrqBGknWuxBBtxAuRyBOifibaa44M++F8HnxN2myosCkjNYseQDZgL+IVh3hj2Vh1MnHHx5nZ6Jhhk1NyfZWvn/AK7mVYh2U1zEevm5RdnE7cJF86K9GCb7TibF8PsZ0mBuv3XbTx6xHqTXS0ruCXoeT61BLUuS/mSYj32AzxSDtZPIgOPcN60muVxTN/s5lrJOHqr+n/ZW8WlxXMR65rgTTYUctKZGOeNWbhubKWwcBvfqAemldjC7gmeC18NmomviPlanoyHYNAhm/wAQIMuJzfjRT5jQ1ztUves9v7P5N2m2+jK0HtxrNZ22gjDyZWVx90g+hBp4+pVkjui4vzVGyo2YA9oB9ReusmfNZx2yaOQbGiKKd8Ys2Ek7rN6Gqc69xnT6PPbq4fHgzC9c093R6UW4Y36vWGgPWA6pIPZr691G2k6MWp0njzg32j5fM0PZryNCpZSePDLzEg0AAsTnvY6c78q1Yt6XvHlNRDHjzS2dv9pg21Z1kZ1NypBzWOTJdOsRIbBSL8b8aqnxk3D7U8G1d3/kz7HSaqASyqMqk6MVBJUt32Iv4VnlLc7PW9OwPBgUX38yyfD3EiNsTKfuQk/9wtV+me22c/rmJ5VhxrzkJNnMSzk/eJPmdaXFL3rNnU8CnpnBeS4/IaYd66CPBSDoaZC0HItMRIk6KiNR90VQaiqTbAxrzRJi8N0mHaYGUq+Wws4XWN75czlyALnKNQBpulOCXuS5OenK/fQbtSGZMA6YwYcSDMkYhBBCBCI8yk21YKRb8KHWxti1MobH+p0ulY5y1UNi8/7Gfo4bqvoeR5GuIfQVJS92QO8RjNj8jUe5VKPhv4GrfCqAphHB+9IWHeLAaf3yrp6Ve5Z4/rMv/Yr0Qh+IWOSOVIfvMQ47rXvfx4UNW1sov6HFrOsnl2+opbUVyrPcC2UcqKKZKzVvh3LfBoPwsy++ldbTO8aPC9Zht1UvyLUpq85RIDQIUr4kQ/5L/mX6GsOrXCZ6n2bn+8h8mUi4OlYT1RCSV1HCiuAM2DdLGdLhIWPHLlP7uldTC7gmfPuqY1DVTS9fuNnS9WpnPF+1FzQSoeaN9L0MiuLNOjls1EJfFGRsa5DZ9GR6utQj4NX2XAjQxMRYmNOsLq3yjiRqfA11IJOCPnmqlKGoyJf8n9zrH7LzKcz3ADfMoJFwb2ZcvK/EGhKKZMOplGSSXmvuY9Otm7uH6Vymj6NHlFt+HmCWU4mN7lWjVT26tofatWlV2mef6/mlh8KcO6bf2A9tbK+yS5L5gRmU9o7++hOHhyNei1n7bh3tU+zIozY/T9K0xlaPI6rF4eWUPRjGBqeyig+JqZMZRDI6aw7Tu1Qm0a4rDxhGZ1z2Um8hMnAdj3A8rVY3XJkxwc5KK8zFMRijIxzE8SVF+qL8lHAeVcbJOUnbZ9I02DHhioxilwCSwVWWyhZ6q3BRuFENWtrNd3Swpgw8ML8Qtwe0NqfrXZxRqCR8512TfqJv4mM78Ytnx8jsLFZOjt2BDl/r51hzPdKR6LSY1jxY3H5/Ub4J7qKxnqIu1YHjwVPcaiK8nHJf/hfjD0Ein7sn1H9K6ekfuM8Z12P/AJ1L4F7Rr1pbpHDA9nbdw00jRRTK7oCWUZrgAhTxFuJApN5BT8Qlvhg34XHvcVTqo3A7vs/k26lr1TM60OoNc1o9qpKXZkuSjQHKjStyBbBpbkWHvXS0/wCA8J1qv2uTXnX2H5xAClmNgoJJ7ABcn0q58HKA8TiUlgeSJw4yvqvDQG4oXaZZh/eR+aMhDZluK5D5PpUWdYcFrBeJIAHaToBQV3wSclGLk+yNd2JC64aJJBldUAYdlvCuti4ikz53rckMmonOHZu0MMuZSp5gjyOhpmjPGW1pryMV2jCUlZD91ivoa5E1Umj6ZgnvxRl6pMunw0i1nPb0Y9M5P6Vr0iqzzPtJK/DX9X6DfffZXSwZ1F3j1Hev3h+tXZ4bonP6LrPAz7Zfhlx/gomFN1B8vSqMUuKNfWcW3Pu9UHQmrkzkUHYd6ZMfaGRyUUxtvBJ0lPYKCN9cX0eEk7Wsg8zr7VNRLbBsnR8XiauK9OfoZBItcg99Lg95XoD+QRs3C9LLHGPvOo8r6+1PBbpJGfVZfCwyn6I2qdBYW5aeldpHzSTt2Yf8VsHkxzMOEipJ5/K3ut/OsOdVO/U9H0/I56dR/wCL/wBkOypdLVhl3PV4JcUHY2O4vQLmrRZfho1jOv5G+orfon3R5P2ihThL5miRSWuTyBOndWyfY8uYtubvEsO0ZJljd0mMiqqgZwJJUdWNr6KBra9UjM0XfLe+PCumHWMTTvYhSMyrc2QkDVmJ4AfyuzbIrA226c6x7RwaIrahujKMo7Rcm4HMA+vCkavuW48s8buEmmOtqY+PDzCNMNAQVBWyAE5r2sQOFxRFc5PuyFt6mjRw0A6T7oAyAnnnB1/vlRQjIIN5RisDjGydHJHE4YA3WzI2Vh42It3VLIVvdPfbD4bCrh5EkdszlypWwVjpa7Ak28KAU2naGOG3WhJ6dMQBgmTpA5+ca2yWtxvzt3WvWd6dOXwPQQ6/OODa1c/Xyr1+Z7gtlYOWQDCYhulBDBJRbPlNzlOUa6d/hzovBHuiqHXMzTjlSaaa9HyWPA4uQ7SxEZkYxiPMEJJVTeLUA8NGPrWhdzhljUEU9ohke9+G6PGSryJzDwbX9a5edVNn0LpObxdJB+nH0Lh8PYv+C55l/oo/ma2aVe6zzvtDK80V6L9S2nhWg8+Z/t/Y/QSFl/y3JI7jzFZ5Y9srXmdrJrP2nTx3fijx80LFe1CzJRPDLrRssrgLE1MQ6+00wCH4o4yyQx34sWPkLD60mrl7qRv9ncXvyyenBRGAZbjiK5x7CrQNG3IVBU/Itfw5wmfFhiNEUt58B9a0aWNzs4vXsuzTbfVmozDSumeJMe+M+GZpcGV4npFPkUI/iNVZoWbdHl2uviirYOWxrlSR7jDKmWBDmWkOgh58PjbESL2x/Qg1s0T9+jzntFD/AMMZejNHwldKa4PHMzDZzLDvFJc5Q8ko7BeWMso82KjxIqggPvROMNt5J5riPPC9+NkyCPN+6wJ/dqMiLZ8QNr4d8PEElikcyBlyOrnLlbM3VJsPloMiJ8UWRtnyMNejiB7RlK8fJqgSwYrq4+I/jRh5gP8A0ogKVLEI4dskC2oXyMkg/wDtUCTYTARLsBs6rrFLJmsL5y7mM343vlHhpQAVTDYiT/C4YyxCPiZSDysix+wdnPiKgS5b/bPjwiQT4dBG8cgUW+9YFgW7TdePO9EAwwuNA2pitNFw+c+QhNqhBHgYJpIJNqdOyvdtBfVQ2Q630F7gC1urURCDf5rthZuPSQISTxJHE/8AcKxapcpnsPZzJeGcPR/df6LduH/p17yTfzt+latP+7OT113qmvRIsxq84gm3oiz4Z9NVIYeN7frS5OFZq0kN+TZ62Zs2JtVFF/bhk0U96A6J1npgWfdNRFA/iHiekxWT8CAeZ1NUayVzo9F0HFWmv1ZUFnMTa8DWTudjf4b57BckebrxnxFAua3cxNA+FuHISWRxa7BQe4an610NHGotnkPaHM3kjj9Ff1LxMCNRqK2HnSm7w4ES4mC40RZm8yEVffXypkrHhLaY7F1TbsNvSuNNVwe8xSvksGzZbraqjpY3cSybm6YxP2gy+o/pV+ldZEcvrsN2jb9GjRsIbNbtrrs8Gyrb7bA2fJiI5sViFhawzpmA6ZF0GnzLwtmHIW4gEUAA96dsbFxSKk898nyNEsudO4EIQRw0II0qEple2NPsKBw/SYqcjUCSM5LjmVCIG8Dcd1APJcp98MBicuaOZspJXQJa9r8JBfgPSoRDeTb2GkdJGWUFLlTYaX43AbWoQCxkWBdMUhxOT7SVZswtls2bq3A7eZqBsrb7p4ZyI12snQXv0fSIW77DpMl+/L5UAWWjaO7cE+EXCwsiiOxiIYOAdb5iDc5rm5431ogFcO7GOneJcZKpgiINrqWa1tOqLm9rZm1tegGybZEYk2ttAHS8RTyPRKSPaoQQLisVBhp9nNhyQuY5xm6qFgxY2BBUm5zXHzUScBW/EBbZ+Cm+XKioVbRrlRqBzHV9CO2supXupno/Z3LU5wrvzfyHnw8lz4ZT+Ekd173/AFrRpHeMz9dTWpb9Ui45hVxwwPaEBeGRV4lTbvI1H0oZFaNOjyLHmjJ9rMj2lCQxt41nj2OjrsezM67Pn6nuDaiZRgBUDZ7lqWDgr23sUs+JmcNa7n0Gn6Vjzu5tns+n44w08I/ABlwZYWzAiqbo2vHaoCSKWE3HWXmOdqLplG2eJ2uUbjuTErYGFl0DKWPiSa6mBVjR4fq2TxNXNjUrl4G4q45xnm8e2+i2jHGfl6PU97MbfSpuposjC42Z1tqPJiZgOHSMR4E5h7GudmVTZ7DQz34YP4fYI2bLassjr4JFn2HiMk8L9jr7mx+tPilU0wa7H4mnnH4M1PFplbMORrtrlHzUD27uthsYUkmVmsthlcqLE31trzNUuPJBNLuHs2MFjhi1gTrLK17a8DJajtdBVt0VL/HtjoerszN+ZYz/ABO1Zv2iPodj/wDEz+cl/f8AwG4XfvBrpHs2Jf8A41+kRpXqF6F0OhTfea+g/wBl73QTTJC+EjTOQA11I14fcFSGo3SqiajocsOOU1O6V9ix43djCyfNGR+VmH629q00cEq+3NwMAqGSSaaJRa5zIVF+HGM0JcK2PjxzyPbBWxFhNwsDIcuG2grSWJVWCMTYX+6Q1u8A2pVKL7MfJp8sFc4NfNFl2FvU0J+y48FJE0EhuwYci9v4hcHnbmxSxnFDgvtRxwxEWcpkP/FQL2FiL8SABY9l+PCEI5d8YmxEWGgBnztZ2TVVUg3I/FbQk8LXqEoQfFbE36OLmI2f/uAH0NZNW+yPU+zkPdyS+SFPww2pkxDwM1lkRWA5Zl7O8g+1HSS52jdfw7oLIu6+xqq25V0DyZLDQkQo2++xCr9Ko6ra9wP3h+vrWeSp2dnFP9pwKP8AND+6/wBFVjW1BmQMQVA2SWqAsojbIBNxf1Nc3cz3n7LDyPBsg8iw/eobmMtMvJs+OzJR8sjHx/nUsLwSXaRo27m/AjVI5YmCqApYZX4C1zkP6Cuhj1UeEzymr6LmcnODsu7PHKgliYMpFwVOntWxNM4EouDqSplEOFXEYmV21sco/d0/nTRVkbpFT+IGzehmjf8AGpB8UtY+hA8qyayFNSO/0bM3Fwfl+ohwklc+R6LFIe4KXSl7M3LlUbfE3SRI/wCJVPqK7eN2kfMs8NmWUfRs8wUuU5TwppLzKiXG4cMpHaD7ilTGj3s/OuPgyuw7GI9DXJl+Jo9/FXFP4Ao0oCvgte6X/GkhUnrJIpHhenxr30TVTvSzfwZt+HluLHjXTaPA0Vr4kLbAv+ZPrVOf92zq9GV6pfJ/YxtcQUsykgg3BFwQRwII4HvrnHr5JOLUlaL7s3fCHEosePhEltBKgGceIFiO/KdeytMNR5SPP6roUm92nfHo/wBGN13CwUwWVHnyMAwsV4fvJcVqj7ytHn8uOWKbhNcruWTY2woMKpEKZSfmYnM7dxY8u4WFMolZle/ON6TaMi8gvRDyU39ya52plc38D2/Rsfh6eK9bZWtmFkxccgv1WT00B9r0mOe1pmjVaZ5VOL9DfZMTHGuZmVR2kgD1rsNpI8EoNukhFjd+sMmkeaU/siyf9R0Ples09Vjj8Tq6boeqzctbV8f8dxPjt7ZcSpjIWONiLles4sb8TpWZ6jfxVI7en6LHTPfuuS/JCNxlNuz3HI1ddnAzYZY5uMgiJwaNlTRJmogK1hq5Z9GJ6PmMCbT+Q+BoIz5/wsqW7v8Am+lac3Y85078bNu+GX+nn/3W+grXpPwHM63/ABT+SF2wPnPifrWyPc5Muwk+LXzYfwb6rWXWdkdvo3af5FIw9c9npMfce7Pqt9zdj7G37t/6SD/bWuvh/Aj591L+Lyf1M9k+atHkYUMhwqsKPz9t/wDzpf8Acb6muTk/Gz6Hi/cQ+S+wmaoiuQ+3G/1UX50/iFGP4kJP9zk/pf2N1T5/OuseEEnxH/0Mnin1rNn/AAM6nRv4uPyf2MPxHCub5nsJ9gjZvFajLMXY3bdT/RYf/bH1NdTD+BHhOqfxeT+pjOT9KtMKME2//wCYyf7rfxGuTm/FL5nv9D+7x/0r7AWI4tVSN8+zLDvp/wC2/Kv0rbqvwo830b+IkL6556tB8HGr4lE+wdtLgn5f1NakeU6n+8RFhqMTmMIphT//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVFRUVFRUWFRUVFhUVFRUVFRUXFhUVFhYYHyggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0mICUtLS0vKy0tLS0tLS0rKy0tLy0tLS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYBBwj/xABKEAACAQMCAwUFBAcGAggHAAABAgMABBESIQUxQQYTUWFxFCIygZEHQqGxI1JicsHR8BUzU4KS4aLxFyQ0Q7KzwtMWJTVjZXOD/8QAGgEAAgMBAQAAAAAAAAAAAAAAAgMAAQQFBv/EADIRAAICAQMDAAgFBAMAAAAAAAABAhEDEiExBEFRMmFxgZGhsfATIkLB0QUUUuEjM2L/2gAMAwEAAhEDEQA/APPFvRTxe0ELeniCl2EGpeVMLyq0RU9UqFlpFd1YW9zVHClWtrFVMhcwT1Z281U8MdHQmgIWyyiuNKKCWSmPJUIFNOKz3E+0qqD3a5+MBiRsR8LBBklTvucDGMZzS4zxDQNI3Y7Y8jsfnvVSOzEsqGUhhq5e7gZyQRn7uMMeXQeINWmi6JLXtVyDjUMfEuATyycch19Pya3apsn3QvTG+R/vVSeAMG0kn5efXfnRTdlmPIj+XOpqiGscvBYx9psDf3vLz9R05/71Pb9pkb4hjlyOr1zsMY+dAWfZZ84OCOZOdh+NQ8V4LPEFZVJUjY/Xp5gA+h8jUTiynBrk0ntYIyCCPKoZLkVkbW+dTsd9sg7g42Gf5+dX0ba1yPmPA/PmPOoUkSTXVAy3dPkhoV7eiTKcRrXdNF3TWtqZ7PRAF3w+6FaCzmFZWwirRWYqmWWyyUmkqKOpcUJYJcS7VQX91itBcx7Vm+JwVCFf7dSof2elULomMNc7mjSlIJQpkaAu5rvcVYJHTu6otRVAcENWtrHUUcNFRjFRslBINPV6hFNZ8UNl0F95Uby0MZqjdtQ0jm2w9Tt/GoSjb9hOzaMBdTqC7rqAbOlE2IHgScAk/LxzN2j45FkqjAjGNh4DG42PL+FVnaO/ZIwiEBcafdI304GD/q2/iDWUiBZtzz9eVA5Uh+PHe7D3mUtqAqSObxFATNpOOnT8v50RBJ7rHcADw2O/63MHcfXpilLc0t0i3sZMnSm7N8IxzPrt9f6F1Nw5BFqkkRHI+HA2PvLk7e9nBGw36bgVgE4i0bhwPezsQT1GRnkTzz8xip5uKtJguRn6Hc70SkkhUoOTKLtLYe9rjwNhqAKkZxghT1OenP3uvM09hftGwJ5dRk7jP/OrzjFyrHALtjq2Rz35ZO5OfUGs7xBM+9jB8vzIpuN2txE1TNiuGGQcg8iK4YKquylyWRkP3CMejZ/iD9av1FXwVygFremNb1Z6KZIlXYFA9tHirWCgI6MiepZKD4zU4oKOSiBLUIOlqlvos1aySVXXRoWy0in7ilRWKVVYdAuqlmg0lqZWoqBDI2qQMKCDU4PRUUWCmn6qAE9L2iqooPMlCzT0O09DyvVUEh8l1iiOFSF5UX9rP03z+FU8uaP4HdCFjMQDoGynkzHkD5c/p51JbIs1vaEnYHkFwMEkE9T57VXWKMNwMbEknY4wRt/XOs3xTjd0xMpDaWOxI29AfHrTbPtBIxOo7Y5ch6fM9KzzcuTTjaWxpXXWQARlYyzemSQPXB/KiYJFMehchj1znPooA3A8z97xrFTcSKA5zk/86qH4rKTgN8s4FVjUnuXklFKj0AcOXO75HQ8wTnqRvvv9ah4hHoI0HGARhlwRnrgjfIPn+GaydnfSodesEnn7wPyI/rlWiftKblVSX41BCsAM4yTgnO/P8ajTSZcZW0VpYDOdxvn5jc4/rlVXdqevPrt08fxq6u4jjI+dU0qb7n+uf8KLHIXmhQZ2afBc9ds/LOPzrRxzVlOHtpyflVnHdVpqzNexfCWmvJVbHPmpw9VRFuPZ66tyRUZaoZDVBUHpeVMt5VC8uKZ7UaKgWaI3VDyz1Ti8pe0ULiRMse8pVXd9SqtIdgMb0bE9Vqmp0koykWAams9DCamvLULZK81MWag5JafCc0Qt8hyNUmKbBHRqW5oGw0gFoqebJmicoNwyeHg/j8qMNvWh4I0cUBLqGLMSAcY/V/h+dKyP8ocVuebycHcOplbIz7wGonGTgIRzBBGeXWjeH8K9/bJBPw/lmtf7KJG2GB1x0Hlmp7O0x7wXAJIUnPIc8eOTzPkKW8jao0RxJMzfaayX3QFC5XfGw1ZONuQ6csCqAcEAIDEkYPTDEkbeWAcbdfnt6DxrhDMNWQNhhTzoNJxoSORVYqSpDDBxsVYEb8s/Qc6GORx4GTxKXJkbfghZSqq7uWJ1BQoGemM4xVpb9lZomByGHM6TkjyIrQJdRL8IGefLlz28xT5OOhRlVGfptn+udVLLJ7ARxKPBSXMf+/Oqu34e8rkAqgUZZmBwB0xjnz5VZX03Ns1BeIY7aO4UhtUhUx7ggHOlsg5wdLA4xjbffaQtLYvIk3uB8QhhT3YZjKQf0mVK4Y9VOTqG3qCevSCOSrDicKNEJlQISoUqowMrIuCPDZsfKqiM1qxz1IzZcel0WsL0Uj1XwNRi0TYKiTF6jd65mmEUIVEUpoGZ6NmFVd01HEXNHRPU8c1VQfejITRSAiG97XKipUA2hganBqgBpwaiaBTJ9dRyS03NRuKhGNByatbGHNA20VaDhsNSTBS3LCytKtEtKfYxirALSGxhVSW1VXGbjRoHTB+uST/CtPMm1ZXtWPcBxyPPwGN6CatBRdOxcP4wwxsGPM55YUHbyycUHd9sJiWBRk5jcc87nBP128aj4W2FyPiOAueXX4vADGflXLizhJ1SyPI3qFA9FxsKCEV3H6n25K89tbhTgHy97fHoGo9ONS3IWSQHIGkPjY4xgeg3FR5ttZypOfFv5YA50VJdx6D3ZIKkakY5yDtlT13NHJRrZFRlJP8AMyrvLs5J69aHS+J5mpb4A7+NVMh6VUIJoqc2i5muNa4H4VfWEsZiCytpVSU5Es3LJUYwSOXlnNZi0GwBGx+vl6+NEWnEJI0k5Mhb4W6EjJIqpY9qRIZKdsuu0c66DCq6Qr5GWUuQNstjHMtnAH3M1m1FSzSazq8f4bU0CnwjpVATlqdhUFFo1AxtTu9oqBssAaRoRJqcZalE1HLhqqLk0fM9VtwaOKFTYNnei4GoHNFQUTQMXuHaqVRZpUFDbGMKSmnzCo4xRC+5OorrJXUFSAUFjCeziq/skxVPZGry3ahe5VUWts1GpJVVFJRCzUOklhU8m1Z7jQ1IR8x8qsri5qg4ldjcVaiU2Vti3uOBtg5Hz93H41W20cne4khdhufdJA25nVg0XbTaWPgw6nrnIHrWhj7RxooEgxjGGAyMeYpdaW1Q2FS5dGdvLNiMJZyZ33OTkeAwPwoMcKuEXW692uNskZbP7Ocj51p5u2sKr7gyxztjA8s43rP3vH3nbU55cht/CiWpLgKaxrhksjaowfD8KqX50ZDeZUgD0+tAyOd/Gpji02DOSaQTFJgfz6VaTw/oST0UE+vX51UWo3A6k8vKr6/OmE+eAKk1Ukiobpsq1foOXpXS1DB6drrRpFaicSUg9DBqniFSgdQTFU1MjFS4oWGgeUVW3C1ayCgpo6JMFor1jouJa6I6lRatsuMRYpVJiuUAyiOeuRCmua7EaKthSe4Uop1NU07NLGont2xVnHcVTK1P7+iUQZMvFu6eb2qET0/v6PSKssbm8qjvbgmpZpaLbs1cCPv5keGHb9I8bk4PVYwNR9TpHnRRg26RTZSRaiGxvpUsR+zkA4+v51OzgKNQz9fDnVvZJbhgkSsxZJNUkhOSAM6VQYCrt1BPmOtDxWzdMlcsvjuSPEH6UPUYnCeiXPIWKVx1IHuO7JyFwOoBO/47VwaTyGOVV5au96aHQTWF97pyPWh2lqMtRMFoxx4UVKO7K3lsgzgi+9n+sVo7+0aSLC81ZTjxB2xvy3IqssYNPT571oFmCQuT1Rh8yMD8SKRGSeRNmnTWNoyMkRUlWBBHMEEEfI03FemdiW9oMsMlhHfIoVzqZUlhB2JjY7nV4Aj4fOrO67EcJkzieWzfrFOSjr5ZlyCPTPrXUzdJKE3Fb/fhXRz45U1bPIBRMNej3f2PSsveWlzFMpHu8sH/APou30WsfxTs1d2pPtFvJGB9/STHjx7xcr+Oayyi0Oi0waOpgtMgWj4YqQ2aIoDMNRSW1Xaw0ySGh1BaTPtDXFSrOaKhmSjBqiDRSqTTSqUFZUM1cWSpJo6FNNMgastOEtBhqRkx1qtIeoN72u95XYuHSEZYCMc8yHST6IAXPqFx51ouzPY2S7bEYkZQfelKiOJfLUdRY+QGa0R6bI46qpeXt9RUsq4KO0gaRgiKzs3JUUsx9FG5rb8G+zm5k96cezxjdmkwmB1yT1+RHiwrWmHhvCIzCZpBK4GvuCDdSeGpxjuU/VQFfHJJNBabGfB9h4rdnmqTGR489NRMmjH721Mx4NtUlt7NvqgXPekT9muH2cbn+z4xezqcGdsi2hPiZd8nH3Y9WfLnVH9oOplkS44ojyYJ7hFhRARuqadRfmOZOa0ctlxC6QW4EfDLUDBjhZZLhk/VBjxHGpHgc+ORkVkuNDglmvdxqLiQfG2O/wCW3xEiIHyX502KX6efUr+fC9xXtMFwu4xLG3jqHyZSPzxVxOpzkbfiD6is/NcIZWeJSqZyqsACvXGATtnNaBJAygg7EVk/qabccnlfM09Jw4lRe26nOpN/Efyqpls99q0N6dqq5UB9a50MjQ+eNMrkg33q0tmG3j40C0Rz1o22UAb0eSVorHGmXFomrfr1qbjf91GvLVKp9Qu5oTh0mW25jejeMXCsItsMO8yvhq0gH02b60XR43kzRj6/oFnko42zRfZzZSyTS9zeC0cImDpVu9JJ93DMM4x5869Du3vUXu7+1jvYf8SAAyDz7s49790LjxrxSFduQ36nwHlWn4L2ru7YBY5yVH3JMSIPIBt1HkpFeqz9JPI9ca9j2fxW5w45Etnf36jSScP4PqJjurizfqMyxkeRLoT/AMVWFvf2qYxxybbbEjBwfUSLuPXNVa/abKRiW3gk9NSj6HVTT21sn/vuFwk+KiJz+MYrNLp836ot++L+qDU4dmvg0WcvYu0ugXgkhc89doyIT+9ASY8+JDR1UT9gZlJCMGH7YMR+ZfCn/KWqcXnA5SHMU9q/Qosox6CIuo+gq+sbyHYW/GmXwW4Mbk+WJgp+lYsnSrumvamvpZohnkuH8/5Mbe9mLmJdbRakHN4ysij10EkD1FU0i166vto/SGO2u1/xLdjBNjrgklW9AwzVTfWdteBgEfvk+Ne7WK8jH6zRDCXC/u745Ek4rHLpdri7+/l7zTHqe0keVTrQEorUcb4I8ID5EkTEhZUzoJHNWB3jcdUbfY88Vm7laQk06Y1tNWgXNKuUqOgLIbmGq2WOtFcQ52AySQABuSScAAdTnpW24D2OtrOJb7iZ6gxQDDFm5qoX77/8I5+DA8UXN0heWomU7Edhnug1zcsILNBkyykosh6BTtqXxIIzyBycj0Psxwa2Qf8Ay+z9rYnHtFwvcWyjGDoLAvJ/xNk8wOU142pf7R4sndW0X/ZbE7nUR7rSqca5SM4U8hknABqcx3F3EbjiM3sNlgEW0bd2zIfhE0mzDPLQACc8lPPdHGorf79Srdv2NIzttk8XAYJpSrwcKaVd3WEyMyZ6vEuNX+bFXfELZ1jx36WkKrgyARqyrjcRav0UA574dsHmMVguJdv0hT2fhkCQxLykKAE+ax9D+0+SeoFYfiPEpJn1zytI3QuxOP3RyUeQxWzH0OXI7m6Xr3fw7C3liuNz0F+0/DLDV7DAbiY51TMTkk7kmeQFjnn7gwapb37UL586VgjB5YRnYfNnKk/5axrP6/T+dRlvT5kVuj0OFby3fl7ivxZdth/GO0F1PkTTyODzXIVD/kTC/hVIx8qspkB6igXUfrD+vnRSxRiqRLsFjTHIetF2l2Yz4qeY/iPOoCR4imk+YrLkwwnDQ90NjJp2i0mnVx7p+R50GYjmhe6J5D50TDKy7A59d/zri5P6ZJP8j+Jtj1SfpL4HXirkURNNeY+VQOzNtk48BtmlLoMndoJ9RDsg+O8ERPU9AP41La6mYsx3PPrgUBb24HPb86toJFxsR9fzrs/07pIYt+5i6nNKe3YsFkAAAyMeINSCUUKsw8fxqRZjXa1GGifvhTO+FM7yo3lNVbKpBPfDx/OuG6XxoFixrq2rHcnFDqZdItOH8YaBtUEpibnlG05/eHJh5EEVu+C9p4+JaYLpxBdoc21zH7hLZ2A3+I8imcN0wcCvJ5WA65NCCbf8qydTjjP1S8jYPT7D3iOV5JJLeYRpfBffRtrbiUIGzY6PgH3hupB5gFV857V8JEJEkerunZk0v/eQyqMvby/tgbg/eXcZ3NaPs1xQcVtxbSyaL62/SW9xn3jjGHJ58wocdfdbc5xaxzi+il9pj0XEIEPEIQBl41yY7mMD78Zy6kZyNa7hlNcXNitO1uvv4P5G3HOvZ9/M8jrlab/4Cvf/ALf9fOlWHSzRqRouz1lFaQHiN0NQJ028I+OZzkBFHmRv5D1Bt55Vsx/anFWD3bA+z24IKwDn3cYOwYZGqTkPEk5ZsV8G1cZvl0xRrpsLfbKoThZAOXeyYXHQAZ5BSAuznDTdO3GeJ6VjA1wRt/dxxqcq5B+4Oaj7xOrG4z0YRUI0+Fz/AAv3f7c5pNylf39+AnhvDpZ2/tXi7iOOId5BA2yRDYq7Id8504X4mOnPRa887YdrJb6Yu5KxKSIos7IOWo+LnqfPA2qTt32zkvpcAstuh/RxnbUf8WQdWO+B90HHPJOSeStuGGn88uey8IROV7IOa4JHU/l+FDS3jDlt6UIz+LafM5/IVwunWTP7oI/Onyz+v5gqByS6c9TURlY9TU4nj6Ln13oq3mJ+FKWoub9IJvT2K8RuehqVbBz5VdoCPiwPKnax6+gNPXSQ/U2D+LLsilHDT1NSJw7xzVqW/ZPzwKYc+A+Z/lR/22NditcvIF7IByH50u7NTuG8R8qbjzpOVJcItetkIh8vwqTB5D8NqKhhyOdEi061zXldmjTsAQx1YwjamMmKYQc9RWrB1TTqhU8ROIR1A+gp4hXwH0FQKPNvrUuB+sfrXQhlUhEotD/Zh4D6VItmvhUPeY5M34Ux5HP3sfIU614Ap+SaZ40FVNzdM5woIHqaI9kZuZH0pxiKjA0/jQSt9qQS27lc8IXqSfU0o1wNR5dKfNknf8KgnkycDkKzzpcB7smsb+SKRZYmKyIwZWHQjy6gjII6gkda9bm4oJY4eN2w/SQrpu4lOS8Ix3qb82j2YE4yuknkBXjUp0jHU1rPsz497PdCFz+jucIyn4RJyQkeeSh8dQ8BWLqVtq7r6eBuN9j1D27gvjafU/zpVT/9G3DPGX/X/vXKw/8AF5fw/wBj6fgjV/7ZviT/APT7RsKPuzyctsdCB8kxyMlZr7Te2PtMns0Df9XiO5X4ZZF67c0XkvQ7n9XFx2145Bw+ySwsyRI6kM33lRv7yRiP+8c5A8BnGMLXkmun4qb1dlx/IErqghpKhZ6YHqRMVp16hVUMyD1+XWpobAnc4A9QK7oBqSO3B6n5UcMd87k1eCdIIk5sv51PHOp2XU3oMCmQ26jknzai1U+QHkK3QTXCFtjkX9kD8667DqRXO6HUk+pq07P8C9plVM93GXVHmKFkjZ9kUnkGY4UAkZLCjlPRG3sgUrZTNMB1pjzjz+laTt12YawnCAlonGqKQ4yQMB1bGBqBPhyKmsu0g8aSs2uKlF7MLTTpo4XPgfypKCen40wyiuGWs85LuxiT8B9u+OdHGcYHhVB31SxT1zskI3sPi2WbEZ3rj4qva4J6VGt0c4wakYojZaxQtIyohALEAZOBk+J6Dz6Ct12b4LaFf0YW4ICF5ZGRUVu806GV890jADDY1nVtqIOjDdnpP0upk14Vjo394HCsvLqpYV7JwSzhHCpCqdwH76VwV1FGRzjKsN8CNdsctqmV1Ha+Uv5vv7OxF5Ar3sWMN3kSPgA4hAaRVUynOAFfLDu1wud1O2M15rxnh7RNsFIwmoBwxjZ0DqrMvusCDsw2yCOY33fDL2V+Iy3DqzN7K4gYJJAG7r3SY45gepkOD+3zzgu7d8Pt0kSWQuJLyMR+6qhDKCveO674J1owwSAYid87twynhyKLbdpOl58V+/Nr2gNKaujzRJT+qfqKHnm/Zb6U8XA67H+tqjnlXxH1rs6k1tIy1vwATS5pkS7FjypTneh7ibO3QVkySp2w0rGs+TqPyqJZTnIJBG4I5gjcEUyV6YreG9YJ5LdD4xPQP+lGf/Ai+v8AtSrBaT40qT+FH/EPV6w7ivEGnmeZwoZ2z97CjkqjyAAHyoMj9pflmp7mJA7Kra1VmCuFIDqCQHA6ZG+POouVPUdhdjAPOngU4MvVj8lNd7xPBj+FGkvKI7Hxmi4pT0wB9KAEvlU0RHrWjHOnsLlHyWcco8c+lEaj0H12oSGYDyqUXA8a2KXli68It+A8IlupVjUPpyO8aNA5RCcZwSBknYb/AFxXqvCDFDaTQCKSS0YHEczwpLGrJGZzK2rCJiQSe9h1y3ugBK8j4P2gktiTEqNko2JEVwHiYtHIoPJ1JOD5mp27X32ABKV3BJVYkZiNPvOyqGc4jQEsTkLg5Gc4Oqw5M0qT2947HJRW/wCx6R2iR7u0Wyl7mV9MUsNy02lmRjEq3OlI2DAd+Ec6hrw5AAIx5JxjhRt5nhYhimk6lzpYOiurLnmMMN/pkb1Nddpb5tWbmb3iGYCV1BKgBTpUgbBV6fdHhVVPNK7Fncsx3LMSzE8sljuT60GDDLFs919+QpSUiUKPAVxnFDFT4ml3Y86bJvsgV7SXvKQaou7Fd00l6gtiUGu5HjUBxSoakTYs+G3/AHMiSA/Cc7HBIIwwB6HBOD0OK9S7H9pXCzC4cywTZbv4xl4tahNbRgbRnTjYEoyNqGMkeNBKtOEXc0JzFnGc43AzjBIIIKkjYkEZGxyNqqeFzXC/f3fftLUkj1+84fDIxvmmsjI1xE5mFz7sVuiJHKilgRIWQSe6QoBcEHI3qu1/ahmlVoo1FosUiBpFwXUMnePGhIZVysaISMFs8+mNn7QE+9KqK4KEPmIODGVKkMIs5BVdySdufOqXiXFhMd3Zhn4VU4yM4JZjvjJAHIZOAMmhjgna1+zfsq7b9u3YvWluhCTPPB8fWuTqpGcCgNAz1FOx+0RXUhJ1TiZqV8g11tyoQmiXUknfNDlMnGcVhzJt2h0SBqK4U8Syx9+CYtY7wDOdOd+RB+QIJ8Rzocim6awtMcet6rD/APG/67T/ANilXkeilSvw5BWg9m881xYc072yIfCpPmdqim4ix2AArpyyYo8yv2GZRl2RIYAOZqCSZRy3oZ3J5nNOBA8zWaXUJ+iqXkYoVySAnrtTgx8aYqnmfx2HyFPXV0H4UcG35LYTDjrvR8JqrWNqmQeJNbcc2uwiST7lk0yjmR9ajNyvj9N69Q+y+xhi4fPfLALi4V5AqY1PiNUKxpsdJOoscDJyOeAKrftJ4lw+7t4JoO7F3le8jVTrCMjF0kYKAzI4Ub7/ABeNLXWylk0KPerL/Cio3ZhreF5d4YJ5un6OJ2GfDIFQXWuNikkTxOuNSSKVcZAYZUjIyCD6EV7b9m0/s3BlmbYd8zHPg1wsR/AVk/t14fou4puk0JU/vQtgn/TIg/y0iPVTlmcHst/kH+GlG0Z+PsFxNk7wWh0FNYJlt8ldOoEL3mrl0xUHZbsfd38bS2/daFfQTI5U6tKtsAp2wy17pwXiAFtw4nlNHEnln2VpR/5WPnWe7CWPsVtLF8OeKNEueq95FEv1VPxrI+ryNO3uN0I8d4nwC4gu/YmCtNqjUBDlWaUKU0lsfrAb46+tblPscn0b3kPe4zoEblc+HeZzjO2dFRfaRd+y8chuSuoIltKVHNgpdGAz1whx54rcScNjv3XiXC7xVuEiMOWUSJoJLd3LGfejbLE5x8jUnmnUWn2+ZFFHkHZ/snJcXzWEkncSJ3mole8AaLcgAFcg8wc8qt+E/Z+JeI3PD2uSvs8YfvFi+PUIjjSW93+98Tyorsm9yvaFBebXDNKJSAoB/wCqvpK6QAVIVMED8a19guntNcD/ABLNW+i24/8AQaueSSfPb5kSR532d7JCfic1g87oIjOBIqgs3cvpHuk4GRvVt2h+zvuLuzg9qmaK6cxs+FDI4IGABsc6h9DR/A20dqJlx8T3H/FB3n51reJn2hpY/wDvOH8RtZl337uTupGY+Wmaf/QKGeWSa32oiijyntD2I7jiMdjA5kaXutLygbd4SCWA6LpJ9BWwvPsqUo0cF8xuUQN3ZESqc506kX3o1YggMSfnU3a2UJ2jsCBnUkIPzkuEP4VauvecZuGt7j2eb2e3z7iSmRWyG91zsF7uHcfrj5x5HUalW19+b9RVeqzwk6+vPqDzHr510O3kal4ncDvpev6STf8AW98+9jpnnjzoX2nHSun+JBK9QlxfggmkIbUOY5j+uYrl0+SHHUfQjmPyp1zGWOoDp5UNuMg7Z/MVzsmV3KN7P6jox4ZMGHMjNPSAt8G/l1oZDSIq1ltW1ZekK9gk/UalQ2k+B/GlV68f+D+P+it/J3TTVUscAZo6GxyAX+n86KVABgDFZZ5FxEbGD7gKWmOZ38qhmj0nI5Ue1Mljyh8hn6UEZOyNICWU1ILhh0psKb0V7vhXRxRnXpUIk14B/aTS740UAvXFOazHMU9Ysr4lYGuK5Rtvsm4hfK8othFLGNDSwSPo1E6grRkA6W93BOCPhyDtjVdr0s+KcOfiNupWaJS5bSFc6Md5FLjZsKcg+mDgkHyrgN/PZzCeAqSAVZTurqcZRhnlsDzzkA1qO0P2nSz2z2yWiwd5tI+vXlScuFGhcFjzJzsT1Oax5MeSOVSr3jVKLRqr5WXssFzjKRnP718rfxoj7TIxd8HtrzqpglPkJk0OP9bJ9K81ue3F1JZLYERCFQijCEORGwdcsW8QOlQN2svTa+xd8fZ8Y7srGdtfeY1adXxb89sCrjhd6v8A1fuJfY9c4hf9zwTh1z0gbh8hxz0phHHzUkfOrT7QJhAtpp5S8VtC2PUsT89A+teBz8aunhFu88hhUALEXPdgLuo0ctqguuIzyACSaWTT8IeR3CkDGQGO21D/AG7u/Wy9R6j9s4EfEbKaVNSaE1qVzrSKcs6kHnlWIx51ro+zVs1xa8QsJYoYo1cOLdEVJ0fcK7IQAM8wwOPIivnaUknLMST8z8zTVhzvio8MnFRXYlo9M7SdqoBx2K6Rw8UHdxvIvvBhhxI6Y+IKJSNuejbpXoRSy9s/tX26H/s/c472LRjOdWc5zjbTjP5V87CGnra9aN9LKSVeKK1pG64d2lgbj3trOI4Glk998j3PZ2iViOY1EA4/arRWXbG0TjV05nQ21zBGrSe8U7yOOMLnbPISLy5tXkUiAVARVzw/SilI9P7d9qrY8UtLuCVZkhWIvoz9yeRmUasb6WOPWtRece4VBJLxOO5SSWSFUESuCx04KqIsakJKoCW2GCa8I0UglVLBaS8be4inRIr+eaU6cvM1NbRDyou8ICbY3I5fM/wrXPG3ilKXgUpLUqAi1MJrhNcrjGoHkjwduVLX1opVztQk0ek4P9CmQyNcFNHe+NcpldovxJ+SqRonoaSlSrHE1SIat7T+4m//AFv/AOGuUqbHkQzPQ8/nUrc6VKuvD0TP+o63KibD4fmK7SrTg9MXk9EHufiqK55UqVBm4ZcOxHHUppUqVDgOXJwU5K7SoiiKPnRZpUqqHBcuSVK7JypUqf2A7lfLzrsFKlWb9Yb9Ee1MNKlRyBQ+HnRFx8PzH5GlSoJ/9TGdwU1ylSrksaTRUziv3PQ12lQx9IvsAUqVKmgn/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFhUXFxUVFRgWGBUVFRUVFxcXFxcVFhUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABLEAACAQMCAwQGBAoHBQkAAAABAgMABBESIQUxQQYTUWEiMnGBkaEUYrHBBxUjM0JScpLR8HOCorKzw+EWNENTwhdEY3SDhJPT8f/EABoBAAIDAQEAAAAAAAAAAAAAAAMEAQIFAAb/xAAxEQACAQMDAgQEBgIDAAAAAAAAAQIDESEEEjFBUQUTIjJhkdHhM1JxgaGxFMEjQvD/2gAMAwEAAhEDEQA/AEU7UnvZaYTvSq6FAiOy4FE75NT20dQSrvRUJo74E+pM8deQwajgVsc044BaZbJoDYdIJ4fwPIBNMX4KAOVWSxtNuVe3UYG1UCWKNd8KHhSO6scGuhz2uaSXvD+uKsmVcRfwa0xirhYxbUm4fFjarBbttRoMXmrDC1iprBFS+yOaJuuOW1uMzTKNwML6bb/VXemouyANDVEqZRVU/wC0KxAB/K78/QOwzjJ8fGmfCu1tnOwRJgHYZCv6BO5Gn0uZ2z76spI7axyy0sv7fIpwRQ9wmRXOKZylYpV5Bg1CrU+v4BSaSLes2vCzNKhJyRtEaMjJoSEUatBQWxDJIaBnlNMHFA3RFWRZCudyTQN0u1MnTeh7ldqsUkiq8RiqvXC4NXG8g1bUmu+FmmKc7ClWncr9ZTL8WGvKP5iF9jLNcREUrujVk4jFiq1e0rTyN1HYWSDeirGLJoY86Z8I9amJLAtH3Da14bq6VYuD8N01NwlVxTyJBSUh9JWJoFwKGuYcmjVr0rVSRebXal19AMU7nbApJfzVKOF0aYNeX3Go4Nm9JsZ0g7+88hQ/EL3u0Lfpfo+3+FVHumlbU++Tv50aAtUsNbjjs84wzaV3ISPK7dNTDc/HFLzgeXj4k+dXLsj2U78HUdIA3ON8ZzsPbj4VaP8AYS0VcMGc+JOD7sVEqh0adzk/ee3woS4Gc5yc+X311mfsnaL/AML+02aAuuytu3IMp8Qc/bVFULui7FX7Pdvrq1IWQtPDy0Ocuo+o5328DXVeG8bhuYVnhbKNkb7MrDYqw6HOaoN12LiYEK7L8DS3hKS8MuAjMDBOSjEbDX+gWzyI+zNM0a6vZgKlFrJ0W7lpXM1DvfZNe7mh6pWYxp8I8aTFRvfEVsYSahmtTSyCSbZG3EiaGmuSaikgIoSViKsmVvJBnf1BNNmhe8qKWaro5yD4IwaJ/F2elKra8FWfgTCRgKrZ3JcltFn4kPhWVf8A6AKyjbGL70c34lKDVZv1p5OhNL5rfNUp4L1VcRmOi7T0TmiDb1mjFNrKFHgsfC+J8hVos7vNc3tpPSHtq+8GjyoNLVY2GaU20PozUwYUKxwKFe5xQQtw65xikF+tFzXwpZdXQPWrWOUhBxOHW4HgNh4/z91F2HBmLDAH87++jLO21tq9mD8aecPj0c/9eW49ldKe1A1G7HHZqLuwy45ADPjjnTK5noO1bbPU1K8DEZ6DfeguV+BiMbEMqE0DMhzRygnqvxH8aC4jcKquc7hS/uXFcrlmyCRDSPj9n3sTRnmdx5Mu4P3e+rFfyAuVTc56eFKb6B9OrB9tTlZKu3Am4RMXCt4gE9N+vzzVit4s1X+Ex6cjG2pvtz99WW0NP6hqVNP4CtK6k0Tx21az221Fo1aytWePWEVzbUnu7erHcmkd63OuLNISzJigLp8A0xnekt9JR4ZFamBdLdEHY1bOw3GfygVjVGnfetrScqwYHBFNxgJymz6H+nr41lcZ/wBqJv1jWVfaD3MscsVAzKKJuJ6XTTUgjQkQzUBPJipLm5pTcT03DgTnyE28/pj210vs/J6IrkMU2GBro/Zu/GBv4UKrkvSZd3XIpVeQGjbe5BFD3ctCsGbKtxByKVNcnxpvxRs5quwRB54o2JCvIitjY6SRkDwJ5D21axBd+yg1wk9Q5GfYB/GrBY2wZt/aaUdmri10riGS1jYswVmMisfVJEhJIOQNj4VYYcKdjnO+fLlSk5JsYVNxeTa4lCbgcuVVHjfFkdtEk8jSt6sMGpivgNth76vJhDjlS/iPDV06UCoPEKuc+PtrkiWcV4y8ZbCm4Uq2k65QdJBxghWON/Grf2G4dIySxyaio0kg5yVzyyfOnDdntbc875LEKo+AGSfbmrPwjh6xqQP0gQfdy+dElK+ERGNuTkvaT6VLdyxRNKPTwqxkhjsMkYPImh+FzsjhPpM4lz6rn0T0xnrV541w49+XUkEhWyOYIGCcdcYFAQdmlclnEZ31AqCra/1mzV07KwOUXe5PaDZSdiyhj0weR26cqbQmltzDowdQ56dODkj1i+eWMtjFH2zZFdKd42LQjm4R9IxUEt9Xky0uljNBQc3uryk15dZqS4zSts5q6VyJOxrM9J72m0gpbdmmKSFazwIXQ5reNKIKVJHFTsUItkPd1lF93WUTaVLLcPSa8uMUZLNmlV4prNiPz4AZ7jNBu1SuKhYUyhRkYNWTs9ekYFV0LTfgTDXg1225ydjpFjcEjY1rdzN4Vvwi22GKejhmocq50SVVKW6M1L57VkZZQPSR1kXwyjBx81roZ4WB0obiHCRjlQtmQ0ZYA+JNO8UMEB0K0Szch6QJ71hvvtkbVYFiVNIRiV0LjPM55k0u4XxpI41gkCKyAosjDI7vGAPI4288Cp0v0kZtDFgGxqIxq9ENlR+rvgeykalPbKzHlUUopoZLckV7JdAjegnNaaCetUTaJZBd8SCuoGwyNR8B1NRL27thI0cUNxIUO8gQtFt1JXp51uXhhfLsM7e3eq9xmSWXMlvC2gbeguzeJOBg53+NFRDeAiftbFLKihWy2rSdJxvzyeWNjTiGYAZFU/g1zol0SqUyCAGUqVJOxUEcj5eFPp3AUFTkHwqWDTF3GbjMy+S/ax/hTWwlqt8aAWSF8/nI2yPApIy/MEH4054a2wqZL0otBocmh5wK3Boe6O1UQW4ovmxSljRvEXpWxoiRWTNbmTApPcSUdcnNLJRvTVKOROvIyPeiVWtIhUjGnkhBmV5WmqsqThpHHmo7mGiIW2qG4krPpU3Jj85JITXMNCmKmUgzXiw1qx0uMmfKrkWdwa2hJVgaYPHQkoxQKtNQLRe46R2T4hqUA1fLOQEVxLgXFNHWr7w3tAMDegueC6jku5xmh71MilFjxcMedMpZwRQ4K7CSwU/tHbAjFTW/owQSjclUV/DV+bz8hU/HVzW9ja95Zd3y9KQA+B1ZH20tq2MaZYZHFxTBOrxx48+VNreYEc/4/Cuc3t60TlW2kU777ZU8yPP0asvA7jUpfVuSPPfqM/D40o01kYTXBpe9np7iUzLKsZBOkOgdTvzOeuKH/EErY7+7kZwV3DPGqjrowCq7Dy51Zyz425dar3HeFzsdSZ9mSvzB3okJdDrYEfFOEXetkRzJFvhp2LsuRnKNgEn5Uw4eCluUfmG/gSansbaVPSkyW5blmx8TtSrtDLI8kcEX5yU4UeZGNR+qo3zV36nZFG7ZNY4e9mLgbeiF9gA+/J99WG3QqAKecL7PLGoUDOBjJ5nzrW+tdO9Ha9NhZVM3AO96VDcNS83OGOa8mvNqV6jieAHiFKJZcUZxC6pJczUVIrNhLb1E9qSKJ4OuedWOHhm3KmqbEanJTVXFestWe54NncClN3w5l6UypJgGKKypu5PhXtWuQFwvtWsgzWQpUumtDT0IpXBVqrbsQCKvH2ohtqAupKvWmoIpTW5kE81BuSeQo2ztDI1XHhfZkYBIrBr6i7NKnSKHDaSHcAimNvDKo610aPs+oHKt5ODrjlS3mMOqKKbwfiLq4zV5h4hkDeq3f8OCnNard460ejMDVp2ZYeJSgijeAyfkCfCRh8Qp++q20rOoIG3idh8TT7swPyL7qw7w4KnK5CqGGepB2OKFqqctu62Amnkr7eom7WcBMuJY1GrfvB1Pg3u5VSbe6miyVz6Jyfs2rtMUOrbpVc7Sdm1bLpsfZt76VhLGQ01kqvDO27IACw29bOd8+O9NG7bBsHbxPnVA4pwx0Y7e/l8aGg4dIx8P58KOlEFvki+3nbRcbAajn3DwA6k0+/BZw/vpLi7mGZdMSx5z+TjfXqGOWToXfyxVG4NwRVOpvSPifuFdL7D8ThgkdJXWPvVjVC3ooXQsShbkCQ22eeDUwa3WRFRNxuy7/RwBVf47HsatHMZGCPEYI+IpNxaHINGaFonKL/ZzS27nOKsfHLAhiQKRm21Us42Y/CSkivzTEmoiDTqXhlDtZ1eGSsvTyHcBTlV5sVGKqfCbYjFW+yXamErCU3dhH0QGg7vhQI5U4hFEaQatcoUr8SeVeVcvo4rKm51kcttrYsdhTaLgZIzTXs9YAjJq2QcPBHKtKOoaiCqUluOY8S4YUBqszoScV1jjdoMEeVUH6FmQ7bZoOpqtwL0admMuy/DuRxV9tIABSfgVrgCrLHHtWHJ3ZqxVkBzSAUJK9E8SdIhrkYKPPmfIDrVJ4t2qYnEIwOhO5Pn5U5p9HUrcLHcDV1EKfPPYbcRjGMsQo8W6+wczVfub2CPdU7xuhfBGfKMeiPfmlU80shyxO/ic1LbWQHpHc7beFbun0FOl0u/j9DJr6qc+tl8BjbWU93LHCW0mTLORzjiUZYr9bGFHgW8q6Q1qsapHGoVEQIijkAP538Tmql2OlAvY/rLLGPeuofNBV2v+fKsbxqUvOUXxbBoeHKPl3XNweGTFA3k+fYfu+yppGxVe41dYBAO9Y8WPSQt4yyFsAb9eWPZQMUIHStIAepyfOi4I+tFK7TeGLFa8SCmGRX9Uo2fIjdWHmGAI8xROKQ9o70fmgfN/+lfvPuo2npyq1FGJWrJQg2wa04/cQEFZCM/q5Q58ypGfeKstp+EicDTMiyjz9Fvc4G/vFUsjUMGowCNjuK9bKhCS9SuYam1wdLj4pDdrqjJzyZGwHU+zqPMUqntdJqlQytGwdf8A9HhVptuN6lAfdT6rHYhuqOfHz61mV/DW/wAP5DNLU7X6guODVUicNoiymwBrXT15hhv5in9rbhgGXBB6ikZ6WdH3INLUxqcCuzsMdKcQW+BRsVpUjR1AMGUVOlahamjSuIPMV5U2isriSo9n7sAVZ4uIACuYwXDIaP8AxycYrYlpuwt51yw8YvQc71X7SIFs0qu+KEnypnwabUdugyT4CltRQltsuRvTTim5SLVZYQb1DxLtHoBEYBPzzSa/4j0B2pLNdkmj6TwqnD1VMv8AgX1GvnN2p4X8m12skza5G386GdI0BJIz5kAfOpEk2aRz6K/M/wAikkaNM2tuXQdBWnLCtEUp83nlDCNJHOQjBfEjp5eAppDakDOMDxPoj4mgIh8KMJ251CjU7r5fcJKWn/LL5r6Gy3JhdJV3MbLIMddJ5e8ZHvrptzKrAMpyrAMp8VYZHyNcqJztVx7F3Re3MbH0oWKj9hvST4bj3Vi+NULwjU7YY74dVW5wWFyH3DbYqqcWOTVoujiqzfJlq80jYaBLSHO9MRFgVLw2y61HxOfRk9Bzq8bt2RDSWQHiV6IkLHnyUeJ/hVOGXJY9SST4mir2Uytqc7clHXyGK0C+Xur1Wg0XkxvL3MxNVqPMdlweAbV5ipMeVeVp3FDUpW0EhTIIyjesPsI8xW2KxR0ruThpY3mg6GOpDyPt5EH7qZWnFZbV9cbBkbYhhqHvXOQfMVXE29E+qeX1T/A0VHPkaW9ntqXGM1aSK3ayjpHDu1cUhCyAJn9ME6M+DA7r86bJMjjUjBhkjI8R039ork8L9PD+RTLhPF5oXzGdRdlUJjV3jE6VXB65I3rOr+HRs3DH9B4V3wzpKRUQsdZb50rq0a/VcRtrVZVA1pnxHgamrGasNEeiva2zXlQcU+bs+OePKl11wADNXxkFLeIoMVpqtLuLbEcs4jw1shVGWJwBy3P2DzpwqiGIRpucjLdXkbbPs6AeAq3W/CMWNzcnOp0cIOQ0RflA3nlo+fhVCkugWhP603yGnH96nNNVU7t9AdWDVl0ZFeXOdZHRgo9m4z8qgXLNgeXzoFJMwueuQfmQftFTSXXdxySjmEUJ+2QFX56j7qZ3g1A1vrrUZUX83Eujb9KaQ6QfYBn4VPZqQAAOlA2UGmEL1LqzeZ0t/GnECmug28smdlhG0KV5NPkhR051HNNk6F38T0raKHFFuCtbk9pp2c4oIJstkqw0v1yueY+sp39maWkioXcHbahVqcakHCXDCU5uElKPQ6XdoHQOhVlPIruD/A0gW09PHn151VrW+ljz3cjKDz3O/t8ffREfGbgnIlO3XbNefl4JPd6ZK3xNaPicbepF8nEcERkkYKvIeJPgo5k+yue8Z4r3zEIMAHOM/Nz4+QqC5u3lfU7lz4sSfcPAeQqJ7cHy9hxT2j8LjRe6WZC+o1zqLasIiWDG5Iz48vcPAVhI6YqOSy8yfac1qth5mtTK6CWO5Jo862C1qtsR1qcJXZOuup4sB8K2W0PUgDzIBB8a9ArCmapKNTo18vuFjOiuYt/v9gZwQcGtDJipbpwOoyKVyy1zlYpa74D1uqs3YGRTfQs7YSJZpmPRQkbLq9xdao3eU64NJi2v369xFAD4C5uEVv7MdL16t6bXfHzCQh6kda7EcEa2F7azMQPpEYilOB3kjxjEq52LH0QR1ORRtre6hhtnX0ZMer3gLBtPllc+QYVXe2HGZbrhFi0Cs0tzLCgCbss0SuxCnoe8i58gATUMfGmkvboalPdwQ96U/NvcRlI5yn1dUjb/APhmsicJSvJ8/SwysYLZ34rKQ/T/ADrygWLEqcWOKEku2lkSEYy7ad2CDGCzZbBx6Kt08K5tB2rI57VceCcH4lIbSeJO7SXL962hwkTow1PGTnOgkr5stM71YooZOmcbAaycKugNGQF2GnvAVxttzY8q+fY7od3C+fVkQn2ED5+ia7p2puFt7F9OdMUeFzzIijYr7yyoPa1cAliwJIfBcr/Vwdv6uaZ0bspFKubE9uMI6/0q/uYYfIULezao4V8WLN7FUYz8TXkV3uGP6WGPtAKP/ZbPuoK3kBePV6qKxb9lcbe/Ye+mpVOhSMM3LLFaykLhNK82ZtlyeQBPMAY+dETXcQGjvVB66d2Ps8BSOISzBQWbVJlzucJENlCr0JOr3AUzt7OJRpHpDOWIOdR826imITb4AzilyTRXS+rEpPmdq3klI514X2woqIoAfSYAnxIGBRblLI8JZjipsKg9Lc148wXZBk+NRrH+k25rjjYan3Oy+FZPN+ivLxrx3J26V4q1JBiEKKhdmPKiBFWwiHU11jrkaQTH1Wgby7+BD8JHWj4eB3jf8FfdPaH/ADqHGkfzk/DrVt4J2UjfIlCtINYZF0MYXCKy60JGR6WCSdIKkedL16nlK+7+L/7QSlHfixXJeDTJjve7iB6yTQY+Ebs3yrPotsPX4hbKfqpcyD94Riug3nYSNv8AuyBSDsFiLLlo8Me7w5AXvPVO501zvtB2VSPLRk4Ch2RmDOkbOyq7Y6bDIO66hnxpaGsc3a9n+33DOilk0na1Hq8QtW/aS6X/ACjSi5uU5C9t/wCql23+SKhXhi5raSCNOeM0aSrPmX9FF5fRGiW0BOWv0Hn9HuiP7uaXudyAcgEgHBGoA7Ng7jI3wd963uLnOwG1QZoNmuXcKSA0z4LxTuDIrRJNFMgjmicsodQ2pGV13R1YZBHjSjXW6NyqJbZKzIV0XE9vJY4FtbWFLWJdeCHknmHeEl9Er+qTkjIGd9iKsn4NgsdvM+nJMvdzRFDrVLdWJgZW3yUZ5ByyY2U71W+C9mcGfXJGbmGC7LWjA99HKIm7l0JyspGQ2V5ZHOo+0HbCGSNmgjZJrsW8l9Iche8hAwkI6ZbLFvrY6mlZNS9EFjqwq7sj/HX1vm9ZSb8bJ5fKso/+LS7lN77C7gll3s8aEEpqDSYwD3akF8Z2zjYA8yQK79Y9ubXSFdljUAgadWwHICErqXfkqlgM88Vx7s3B3cYkPrTNgeUUZwf3nz+4KJkbc+2ooaOM6ak+Ss61pWRYu3Ha0XmYokZYEGrLbPIwwRlf0VBGfEkDkBvRbt8GKTxXSfMr6JH7uPjTRd9Y+q32ZpK7Zjx1B1D7D8sfCmfLjTjtRRScndg8q4LJn66Hz8PePsoAHZh1OlQPEFsnf2qvxom4kyPsoESYYHwINJVpZDwL/wBme6nu4bVQSJZUjlfGAUUZaNPqlUK+ea6Dxn8HM8t1PN38EcDuZNbByyKQPRMforgYxnXyArjXAJ8KulirIdepTgoytlWB8c4qycU7Q3NyAs80kqjkJNIXPiY0AUnzIJo6jUqNThK2AUnGN00Wm4ThVtsGmv5R+qwht8/trjI9helV12hkKskSQ20bAhkt0VWZSMEPMRrbPiNOar3e1iuaZjQjzJ3fx+nAJ1H0wEhvDavBv1qIe2vQ1MFE0nlXJwg/W+RrYIv63yNQBq9yaja+/wDRfzI/kX8/UnKr+t9teaF8flUIStgAKna+/wDR3mQ/Kvm/qNOARL9IRhg92JJseJijeRR+8qn3V1DgtlCbO6kWF4u9EoYSZeRQi4Gc5PrZfH1q5FYXvdSxygatDZxy1KQVZc9MqzDPmK6X2a4y+mVmlNxDMTgjCzJldOoKcBmwMNGPSUrkBtVZuthJO9//AHb/AGMUpRawrENvcytemSRSSlrILfZrfVoYemsbklcgkkNtgdaI7VWsKTxSPG7S3ESoxTAQPqWN3lQHGGWUjryHkamlNr3qyPIrztN3j4t5VlYBAvcojbqCqHOrI9Y7dEPa/tTJE7TvIqRtH3ccAwzlgxIRiARqBIZipIGNOc0snukrYx+hdJo5tcBwSin1Sy58dJIz8qDls1G7v8v9a0e8kYYRcDxPM+ZoKSI/pU827clFtT4X8/UlmuUGy0KJM1HMoFBLJz/nnStSq4vJeyawgzvM1YOyk1sPpJuEiZhAZbfvi2gzRMCIsKfS159XrpxyJqsxGi4zVV60RwPuOdoHuZYrgIYplhWKV43IMrAMpcBQNGUbTgdKXKNsMBjwHL4VCpqZM+00zTgoqyKSdzX6GtZRXdP+qfga8ouyPYpcfSRaGSP/AJcUae8KC39omopDuam4pJ+W1dGLfaaDnemEtsUgDyzTvgr5PLUM+w7H5UikcqWU81JFGXUnOl/EXywf9cAn9rk3zHzpWrMPTiCTNRPZ7gkt7cx28KksxGojlHHkapGPIKB4+Q5ml8jV3z8FPZJrG3eabae4VMp/yoh6Sq31ySCR0wB41m1pjUUcyk4ALS4urOW5ii0SIYnkST8soyy4lQHusoyE5BBO2dqOi7P3DjVEIJF6Fbu1+xpAR7xTH8JUSHiJdyQBbwZxuecg2/dqryo7jKIyw+QDyOfFyOXsHKmNNJxhe9rlJU3KWFcep2Xvf+QvuuLM/wCdUh7NXvWAD/3FmP8AOqsJGuPUVR0yuSfea3WNf1Vx7BTsXP8AMvl9wDil0LE3Z25HNYR7bqzH+bWn4knHPuAP/N2X/wB1J0VByUfAVu07dF29lEW/uvl9weOw0NiV5vD7ri3b+7IaGe4A2/n40GqOfKpVtvGiJso0jf6T4V6sterAK9IA5VbJBmupbW8kjJKOVz62MFWH1lYFW94NDs1RNVZJNWZMRvddsbkjRrVhnIzGjYIzggNlQdzuB1NILm7Z3Mj6mc7anOo4HQDko8hgV7I4G3XwoeXPM4UfOl/LhB3SDbm+TSWdvZ7KDll6ekT5t/pUksleRw++hyvLCCRVgbuvGhri3xy99NWXG3NvLfHv8fKoZhpG3rfZ/rQalFWLKQthzgnBwMAnBwCc4BPTOD8KJjkqydk7ZRbTa1DCVwpB5FUGf7z8/EUl4xw0wMCDlGzpPUEc1Px50hCtaW1jEqXp3GRvRKyMetLonoqKStGnO4s0E5Pia8rXvTWUe4MtN/bMATzXy5g9DSS7cjfp49Pf4VZeMcKugcfR2kxyKMmn2ksQR8Kq9/YXS5LQOvmpVse4Hehy11Br0yRaOkqrmItmmoWR8rjzyKkMyk4dcHqRlD71IwKyRV6Z99Act+UwlrDXsNbR/SVllGUiIYA8mkHqg+Q9YjyFdsg46HHPc/bXHuB2ZMCOOpfHuYj7qtPCJiBg1k1aj3NDkKasmRfhGCtcwtj14WDf+nIdOP8A5DSnhNyikoTzGV8iOfy+yj+3Emo2reCzofjG4/6qW8LljXOvIJxjbIA58+nT4U/Sip6V4uy1Cq6eqjmy+IxfGD0A3PgB1+351v2Wjtrq5a1uUAE6GK2lBOqCcairYBwdeevVQOtAcWuIwgLNhOgXJaQjoo8Bjn7PCkct2+NUcRjIwyNkBgynKsOucgGu02ltByly+PgH8U1ynLy6ftXL7nWLHsRZ29kH4gv5WJWuLoozaipZljgXB9U46bkr50BaWvDeIiS3gtmsrru3eAq+pZNI3VxnGeWRzwSQdq84l2wglv5iyvcWN1aww3AUMrxsus6kDY9UsScfrZG4xQljfcK4YXube5mvLnQ6W8bIU7suMFnbSBnoT4ZwK5eZZt7rvgy3tvZWLdd9kbRLhLiSKMQtFBDFbgYWa7lZhqYdcBl+BJ5Ul4vdcHtZnt2s2m0sRPKrFe7Y7ssKas4UHkuMctzRFz27tJHgilc9x3ED973cmu1vYWJVtJXLA4AOM8vBjSDjE3Bbyd7h7yW2dz+XjSJ3WVh6JkhbSSuoAHx8gaiDmn691v3OaVsWH/EexMMdreSRK1wSIJbNgGeVY305VQvr8mOcZINV7jvBhDwyyl7l0upriVGDa1dgTN3SFG5ZxFjYGnT/AIQ4TbXaWzm2aNLeGxU/nHRNiwBBAO5GD0AzR3BOOW9zb2Et7dIZbeWeeQSEK7MneJCCuBvhkYeOmrRnWiru/PxIcYCbt52NhtLKOWIkyxMkV2dbMC0kYIYqThPTZOWNnobth2Sig4bb3kIdX0wG5y7uCsyeuAxIXEmOWNiabWvbC1vVu7W4hitBdRSEzGYHVKFATvNSgK4GCNz6mOgombj9nJKlnNPC1rNw6KOVhICiTRsSFLDkxUt57Cu8ytGyd78nbYvKKnedl4oOCm+lDC5bupEGtgEjllVUBj5E93lt+p8q14p2Tgj4R3rAfTY/o9xOSWLJDcuyJGVzgAKQT5qae3faG3uVY3JZYnvxMYu7kZvoltDphTAXA1uinB/XakF32vadb1LqGJPpMLKncqneBwwMbTsz5ZVA5jljYV3/ADyzZ9yfSimARL6zgnwAJJ91b6i/IFR/aPl9UVva2y8lAPi3T3HrWNLn0Y9+hboPZWksLOAPLwRygJsvrf3f9aHRBvmpmQDbPLn1JNFWEIZ1XHM7+wbn7KDOSd/gHjTccu36D+2s+7iROoUFv2m9JvmaB45w15oQqDLq2oDbLAjBAJ68j7qfjB50HdSaNxXn1J7tw/NXjYotxwueL85DIoG5JU6ceOsZGPfXkRrpPCOKY64+/wBo61XO1vBVEiPax4EgOqNMBVYEDKj9EHI25Cm1qZJYFvKT5EGayjP9nbr9Rf31r2qf5lb8wXyYdjt8vI+6q3xXk1eVlZXU0Ucx7U/7xSk17WVt6X2GTqPezofAv9yt/wCjP+I9Sw17WVn1PcxuHtQD2n9WH+kf/DpJJzasrK3PDfwv3M/WfiEHH/z0P9HH99a3XP3/AH1lZTfVi3RDST8z8KTcH/On3/fWVlXnyisfawjivrfz4Chrevayhy5LrgbWfP8AnwojtP8AmV/npXtZR/8AowK9yKHLz99apzP89aysrLfA6uB4fVX211H8FX5viX7J/wACsrKpqeDoHNk/3X+oPurSx9U/s1lZTdXhfoTpvcyOP1R7KZcJ/OL7/srKypn+FL9Ci96/Usq0DxKvayvPGj0IrKmR9eH2t9gr2srmT0JqysrKXDn/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGRoYFxcYFRgXGhcXHRcYGBcVGhcYHSggGBolHRcYIjEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lHyYvNS8tLS0tLS0tLS4vLSstLi8tLS0tLS0tLS0tLi0tMC0uLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAGAAMEBQcCAQj/xABNEAACAQMBBAYGBQkGAwcFAAABAgMABBEhBRIxQQYTIlFhcQcygZGhsRRCUnLBFSMzYnOCorLwNDVTkrPCJLTRQ4Ojw+Hi8RclNnR1/8QAGwEAAQUBAQAAAAAAAAAAAAAABAABAgMFBgf/xAA1EQACAQIDBgMHBAIDAQAAAAAAAQIDEQQSIQUTMUFRsSJhcQYygZHB0fAzNKHhQnJzg/Ek/9oADAMBAAIRAxEAPwAaWOnBHUhY6cEdO6ZC6Ihirkx1NMXhXJipt2PoQtyvDHUzqq56uluxtCLuV7uVJEdddVSdMfQi9XXvV1J6qrLYmzy8g0BA1OeFRcLK4imSDJq0s9nkLncSRTxO9qPDI1B8KPbZFjTLlQBwwoY+wHWoN7tOIHJBAJ3Qd0DXl/WtCuabtYmoMEvyUWI6oMwblzU8wSND591Touj2oDSopPBdSc92gxirn6Qsa9gFGJORnJODn3aH30wLtmY5GveMacvZ/wCtNxHVPqUN3YPG26w9o4HypndorW5OuW0zjLDOMAa4Htri52ihH6ONlXs43FyT9ne+15a0ziht0wY3aadaIY7OGYN1DhXU6xliQDjXBOo8j7zVPeW5RiresOPdnz508aafAg4tcSAyUy6VJNNMtWqiNYhSpUV4qsnSmjHU1THsVzQ1w1vViY686mpbsRVNBTZt6t2grkwU+RjlR9Hr0Q1adRS6ilkYit6s0qs+ppUsjGCxtnV7HZHuorks6b+h1fnI2KJNn5p0bK8KILe0qxhsc8qg2SsBh2R4U0+yvCjx9nioz7P8KdSYrAMdl+FeDZp7qNGsh3VyLId1PnGygguy/CrLZtiwBAO6MjJ5+zvNEKWA7qpulF2IAAOIBOO7Og+NU1ajUScI3Yzti9VDu53m7sbzDxbkPKqi7O+ihjq2oBPDXAPu3j7Kpk2ngljqzHJ8s8B3DNMXt/lt5jqcZ8AOAAoNJhKiX3X65J3tcYzx5+8/ICo1vtDLyKW7IwCRzYkliPAYxVBJeu7ZAIHAd/d7zmlcxtFga5bX5gfjUkkSysJjclmOOBzpx8viKYjmffIZiQAN0DTUk5PmRQ9b7U3SAc6D44xU/rOsClc74O97NaVhrFuluOtilX82c5YjvyCN7uHqj20VXmzxcAhuzKoGCMlXGpGR5DQ+yhnZ+z5HGd7BXdb2Opx5jIYVPt9pNFuhiR6yjPEbpBC58GA9jCq3Np3QpU7oq73Z7ocMPdwPiDUUwHuo0aITqsi+q3EdzcDUdtl+FaMJqUbgkk0wQaA91cGA91GH5K8K8/JXhVl0RswP+jnupdQe6jA7J8KbfZXhSzIVmCBhrkxUUy7M8KgzWGOVTTTG1KTqa5MNWMkBFNFKnkGuROqr2pXVjupU+Qa5rJtq8+i1apFTiw0GWXK2C1qzt7WnYoNalqKYciSW4qNLa1aYrh0pxFK9rXAtquTFXLQ0hiujt/Csh9IVy30qVCeGAByGF0H9d9beiViXpatzHfOcaSBSD+6FPyqqpwLKT1Aqa4xjv4Dy507bxMxBOutVzNqWP9CiDYrAjhVM9EFR4k9IAAvvPs4fH5VKtrLrWZnBGdBnkvIe05PtxTtsM8jVhHvLr1ZJ9tDZmEaA/tDYDYc7vE59mlXHR3Ze4DkcVjHngNk/GiGC6idcOApxzzUqG7gRiMjOAeXzp947WI5SDYREAr3xqvj2C2v8XwpnbOzjJERgb29vZzz6sjTzKL7xRAZRJhlKYHMnHmK5msTuk6c+Bzr3YqObUaXAGfRjcFjNA/FQGA8M4P8AXjR2bLwrPvRoT+UrhOQiY+XbUVrMaZrRpcACp7xTfQPCvfodX4hrg29WFZRtZeFMNZ0Si1puSzpDgrLZ+FV1zZ+FFs9r4VAuLenTGAi8tKqHiwaM761qgnt9aIpzK5IruqFe1N6ilVmcaxq6U5v14VrhhQJaTIjTtMW9P0h0KuWNdUxK9OJnSmumNcJXeKYY5BoB9NGzN+0ScDWF+0f1GGD/ABBffR+BQN6XNqSQwQomMSOQ4IzkAAhfefhUKsrQbZbRi5TSR88ytneHfj5mjHY0e7GPEf0KodoWYDMVGhbQd3h780UWC9hR4UNVleKsGQVmPT7SEeiaueX/AFqDd7WugPXCjxbX3UrrZcmchsA/W7qhRbDTfDM4J7gd4n2DJNQglzE2zy12pIzYZ97J1xpRX0ktnhtUlzoxC6cRnX8KrItjohU44HOvH+vCtGtLFZ7Pq2HEZHPBHA1GSTehNLQyK0uxv5knkQHuJ4+WaPejV6VZQJetifQHmG8u+qnaHRLBGYOsTOhQ4I7+zkD3Gr7Y/RoR7jqrp2ssG7+Rxy0J0pTatoQdzzoXb7m2Long0RI8SWQn5GtPjas/2G//ANxm/UiGviWxx8vlRrDJRlF3iB1o2kWS10BUaKSpCmrStHVKlSpxxmePSqq5SrmThVVd/wBf17KQ3Mor2MUP3Ka0Q3rYoeunGasgRkM7opU11nj/AF76VWWI3Nc3aaeLNPivcUOWWG40xTlKlSHPDTLLT9c4pDM8Ra7pUqQ55ihb0jbI6+1yBloXEo8QMhx/lJPsoqrmRAwKngQQfI8ajKOZNEoycWmj5ya1MpYEBd3UDHE55mvbBiAAeVFW2rMQsyOuXUtkqMZ5KWHDUa5FDK4JNZ76GhdPVFvDtIAYKgjuNdrKnEBR5DGaH3Y8qcExxUUJMkzXCb7NJII0XHtPdr5UTbC6VxJgE5XB8sAZJ8sZNAt7Z5XtaknJFe7Ch3pDGRpu8xpg6fKrXDQbPY0W122pYhH30btKRxwRnB8RnHsqwttrsAQTkHhQGLVoJgB6rerrw/VoggTtAeNDyumO3dBNsizVd+UL2pW1PEkADA8tau4KYsoyYo88hjThx0qfBBWlSVoIz6jvJjkXGpkQpuKOnwKsII9pUqVOOcPUC7Wp71DuDTEWDG0jjNCW0J8Gi/aq8aBds6GiKKuyMxrrx30qrN40qN3ZVc+gUkFetJVXHc15LcVlhBZiYV0JhVG11XIvKQi9MwrkS1UJdU8lxSEWytXVQoZ6fEwpCuPV4Wph7gVDnuaQio6V9G4roh+seJ9ASuCGHcVPPx+dZb0g2etvO8SZ3FOFzqcEAjJ79a1W6uz31m/TXW4J71U/7fkBQ2IilHMX0Zu9ilSLWnbkbqg8KYSTApySUMQDwoZcQplLdbUVW3SwHnriu26TdWAVmGQcaKc4PjjUVcywWTnM6doDG8p3SRyz31JtNn7JLLlC5HAHQeGcmrG487j28xzZG0OvRSdeYOMZ8qJLWLMqL3lR7ziq6eNMqUAAGgA5Du0ok6LWxecPyQbx8+Cj35PsqnLmmkiubsmw0jgVQEUAKowAO6pMa0wGp9HrTAB2lXDPTJnpx7kmlTSyiujIKQ5xO2BVbJNT1zNVZcS0hiLtHUUH7Wt+NFU8nGqHaI41bT0ZCQMfR6VWO4KVF5yuwWx7RHfXj7S8az9du+NdnbeedDbpluYODtEd9eflAd9Av5Z8a9G2PGn3TGuHq3/jUmO/8az+PbHjUmPbQ76i6bHuaEl+KcG0B30ALtvxrtdteNR3bFcPG2iO+ok99Qj+Wh302+1/GkqbFcv7m7oR6VtvOp/V/E07d7QcBCEZjK/VxgD9I+nZXPdpk8BUXpDEVYKSCVGGwcjPFsHmMkjND4tpRy8wnCxbncqEOnlXAG8eNNBuIptiRQcYhUkWMWzBJ9Ye2p9psEDJBDFeWKpY7thrmpcG1nFJ3I3QSrHgAk+yizopKFEniV/GgewnaTBPDj5mrlL94oJSmN4I8i7wOCY91mU4I4ozeW6KVPSoiMoOUGHhu66F6KAtgdJTcxdZu7mG3GyeyGwDofI51+PKd+VD/wDGvyo9NA+4qWzKLt1DBr2o73VDA2uO+vW2n41KxUE4v66+n0HttQd9IbW8afKMFE1141X3FxVOdp009/TqIrlhLNVXeS03Le1W3V8KthEg2O71e1VfTR/RpVfkIAmJKXWVE36936q3qLspMEtdCSoXWV6JKW9QspOEteibxqCJKvOj/Re7vCOpiJXnI3ZQfvHj5DJpt6hZSGJz312s7EgDJPdRPddCBbydXcS7xwGxGMAg5HFteKnlUiGyjQfmlUeOct7zrVNTFqOiRq4TZM66U27RZT2mypDjfbdHcNW93Ae+vds30dtDhbfed2ZRNIzndwqEhUBC73bByc+VTZgQdTip9vsD6fs+8hQ780UiTQ8u31ZUp5MqsvmQeVDQxE5y1Zo7R2bQw2GUoLW61Kjbe0938lXq/ohG0DdySAtnyJV97x3ac2oCSfOh7ojfxyRy7OujuRSnsuw1gnXISTB4YPZYdx8Kk21zLC7Wd0N2eLsjPB1+qQeYxwPMY8arrQvquRlxlaV+T1X2G5xrTJapk41qG661TF2JSOqmWcQPKoQFWFkQMd9JvUrsElhHhf60rracuZUh5G1vJH8AYSq/EGmLedUQu5AVRknkAKpRtIm3vL9xu9eBZ2wPHcyGmYeAUYz3uRT0YtyzEpNKyLn0V2fWWN+Maq0br4MqsT8NPbUnjrwPeKIPQrsops9ncfp3Zh4oAEHvIb30NC8QO6A5CuyZ791iufhV1ZcGamxajkpwXLX6MldZnRte7P8AWavo+iyXMIltZSjHQxuSyhhxXe9YDxOdCKGt/wBoom6BX+5O0JPZlGV++o/Ff5BSo1HF2LNrYOM6W8S1XYDNu2lzanE8TKOTjtIfJhp7Dg1T/lQ99fRMsYYFWAIOhBGQR3EHjQdtv0a2c2TGDA/fH6vtjOgH3cVoRqrmjlcplSbV8aeG0/Gu+lHQq6ssswEkX+InL7y8V+I8aGOuq1OL4DODSuEEm0ahy3eaq+tpdbUk0hrE/rzXtQOupVPONYqs16DXmK9rJChb1W3R3YNxey9VAm8eLMdFQfaY8h8TyqNsjZr3EgjT2nko5mth9H/U2k6wIP0gKljxZx2hk92Aw9opZlewVHBzlRlVXBfz1J/Rf0XWtvh5/wDiJf1h+bU+Cc/Ns+Qo7RQAAAABwA0ArqlVoAZ16UrciSGQcGVkPmpDKPcz+6s/luWQ+Fax6Tbbes9/nFIjexj1R+EmfZWWSrprQddWlc7TYFXPhnB8n31ORttTo2tFHox2nALuRAcdZHkd2Y2zjzw5PsNBE4DcErzZd8La4hlxgpIN77p7L/wsahSdpIK2nh95hZxXS/y1DP0p+jtp3N7YANKdZolIBcj/ALROW/3jnxGvEAttqxXca2t6THLFlYLndO/EQf0Uq8Wjzy4qeHcNsaGcHPaA8NKFenfQZdoAzwbqXijtA9lbgDgCeAkGmG58DyIOaOGhUto+Bm11JPassd0ujDMcqneSReTK40ceWveKkghhvKcjwqvtNsz2pe0uYt+MHElvMp7Lccjmjcwy+etT7XYqy5k2XKS3FrSVh1nj1baCYeGj1ROknw0L1Jpaar+TmQ4417HdBTnOg41BbaCsSkqmKRdGVgRg8xgjKnwNObB2K967MW6q1i1mmI0UcgB9aRuAXxqCo9RZuhZWiPtFiu91NlDhp5iNAOQ/Wc8FQa5NdS721L2C0tlMcCYjhXj1cQ1eRu9jqxPMnHdUPpDt0TBLOzQx2yNiOMatI5033I9eRvhnA8dq9GPQoWEO/IAbmQds/YXiIx+J5nyFERiktCE5ZfX8/PzUvsLRIY0ijGERQqjuAGBWLraBXcH1g7g/eDkN8Qa2+sj6VR7l9OORYMP3kUn+LeqFdeG5pbCqNVpR6rsRlAru3ueqkjl/w3Vj90HtD2rke2o6mumGQc0MdJUp5ouL56Gzg17Vb0cuOstYGPExrnzAwfiDVlR6OBknFtMq+k0ebWUjiqlx5r2vjjHtrEelmwl3GuIFxu6yxjgB/iKOQHMcOffW+3Ue8jL9pSPeMVjOx7ztAHXOhB1zpqD8qqqTcGmjY2bh1iKNSD5Wff7GbdZS6yrLpZsf6PN2P0MmWj8BzT93I9hFUuasVZmZVoOnJxZI36VMUqfesryCrpFJIA1J0FNiiDolZq0m8/L1R3nn/wBPfVMnZXC8Lh3XqqC+PoEGx7T6PDj676k+HIf14U1NfsvbU4ZCGU9zKQyn3in9o3Gp8KpHlyrCg3J3ud3ToQjTyW0tb4H0Xsq+WeGOZfVkUMPDI1HsOnsqXWdehja3WWz27HWI7y/cfPydX94rQYlxnzrQjLMkzz3EUXRqypvkyF0hsuutZ4hxeN1H3t07p9+KxKM5APeAffW/Vi23bDqLmaLkHJX7rdtceADbv7tVV43SZt+z9bLUnT6q/wAv/SpAxTUtsrZyo4Yqa2e6vC/hQh1jd0bB0TvvpFnBIfWKAN99ew/8SmnJ9kBmyGwOYx+NDXovvcpNAfqMHUfqvnI/zKx/eo5rQjK6uec4qjua0qfRg30q6F2t/Huzph1GElTAkQcgDzH6pyK+e+lHRaawuJIwSwjIIcDGVIDKxXJxx9hBr6ie5Uc6zL0s22JredRjfV42PihDoPc0nupTdo3LMDCNStGEna/Tk+RnNhbXG0gs15LuW1uN17hlBduBEStjemc40BJxk1F6S9JBIi21unU2sfqRg6k8DI5+vIeZ5ZwO82e14ZbiFIg5VYwdyPACa6nGBoTnjrVfsnYgjw8oBf6q8Qvie81Tvo2ubC2PXVTL14y6LyXX84Bb6D9jobt5JUBdI96PP1CWC72PtYPsrc6yT0XzBb0j7cTj2hkb5ZrW6tpyzRuZW0cOqGIlTjwVuwqzP0jxbt2j/biHvVmB+DLWmVn3pYG79GfxkTPmFb/YaaqvAyeyp5cXDz0+aBHNPKdKhRSZGRUlHoM7WUTR/R7cb1ru/wCHI6+wnfHweiagv0aapORw31H7wQZ+BX3UaUbTd4o4THRUcRNLqxV8/W0uJT3Bz86+gTXzoJPzh8T88GqsRwRt+zSvOqvJfUOH6PNebLuUUZkVg0Xi8eTgeLKxX21iy619PdGECWsWOahz4liSfh8qwv0i7FFrtCZFGEc9cn3XySPY2+PICpxVooxsZUz4ib8+2gL4pU5ilSBhtRRT0TsesuIY84Gd5iOSAZb4A+00OWqZatD6AW2BNOe4Rr7e03yX31VLxTSN7Bf/AD4KpX/yl4V+fnAa6U7LEYM0RLQM27qDvRsdQj94x6rc+B14ioPZPj+FaxauN0o6ho5Bh1bgw8R+PLQ0B9J9hdQ+9ES0DZCtzU6nq38e5uYzzBqNSlbVBuytq721Gq/FyfX+yZ6K9odVdxDOku/EfMjfX+Jf4q3SNsjNfNOyLzqWik4bkqufIMpPwBr6SgYYOug5+FW4eV4Gbt+jkxCl1XbT7C6wjuA8e6s69JQAuIZRwkjZSfGNgR7cSH3UZFzO2fqA9he8fbPny8POqD0nbOAsxJnHVSo3kG/NN/OD7KnUV4sz9n1d1iYSfC/fQAw9NySga1VjaDMMRgsRzqNcJKdX0oG56Aohj0D2yE2gijhIkiHxO71i/wAh/wA1agZ3c4GcVh3RGEpeW0jeqJUB8m7B/nr6FSMDQCjKD8Bxe3qeXFX6pfb6Ea3swNTqaHvSVaBrMPj9FIje89WfhJ8KLKpumMO/Y3I59S5Hmqlh8QKtaurGVRnkqRl0aZjUt5uBgADkY1GcdxB4g1WoxJJOtKR9408F0rNPTIxS1XMuOhlxuX9qc8XKnydGQfEityr55sZ9yWKTPqSxv7FkVj8BX0NReHfhON9oIZcSn1X3FQp6SrYNZ75/7KRG9hJiPwkz7KK6rekMKtbyby7yqpYpycL2ih8wPfir2rqxjUajp1IzXJpmYdH9mRvJ1bh94kALhgNQSS5CncAxzxx46VztaOERo0GvWKGRkLyRP2nRwHZFwVKjOeTDSifZUn0hXeFjuIQXeV5FdjiTtoRlkyHwRyK6DHGa9s8pK5jJZdzDM2BlY97dTc3R2lZs41yM4xQe6jbjq/M2qu1KkMUnNtJcY3+liH6LTurcR5yAY2/eYMG/kFHdCHRi9hNy6oX6xg++G4hYnWONDgbpIy501w2pNE9xbsfVcg0VT92xl46TnXlNq19Ry4bCse4E/CvnCF/VPeqn+EVuG1NqNFBcCXikUjA9+EJrCRLh1U6HAGeR04+FUYl8Df8AZla1X6fU2roFcb1iNc4aRePDXeA/ioQ9Odl/ZJwOTxn+F0+T++rX0Z3f/DTJ3SA9+jKB/tNOem6DNhE32J19xjkX5kVZTd4IxtpQ3eLqLz76mI4ryvcUqQETbeyZIVmYYWQsqHPHdxvnHdkge+tP2Xa9VaRRkYO7vt95+1g+IGB+7U6z2XZnZFv9MChFRerKaydY3aYJjJdifqYI0OQcVAgu5JFbrlwcnd4BynLrFUlVfvAJFSyKOoTPFudCFG2kbv1v9h930FUXS+86u1KDH51lQ5GcAHfyPHs8fGriVSVyOIoI6d329JFF9hd5vFnOAPYF/iqM3ox9nwz4iC87/Ip0OVx35/6Gt36JXhurK2XOpQCc9252GXzYr7s1gcUmAMVqvoi2r+ZmiY6pIJPMOMe4Mje+qcPLVo6H2gp56EJrk+5qSIFGAABVH0i2A13FLG8mFdWUAciRofMHB9lOJI8x0OFFXEKYGCSfE0YcjwMN2f0ZW0iW5vpWiVh2YYwDLIcZPHRFH9YqJfXaTmN7WHqowDkyuZWfOMNgEBca8+fLFWXpC2ijX8qsSd3dXBBO5gDs4GeyQQwP65zqKo7Gz6ti8QxGy+ozYUN9vGCQMch48KDlZNqx2mGjUnCFaUm7rVJtW6Wtx+PqKa/dGVHVQWyY3UnG8uoBU6g8OZr6DsbgSRpIODqrDyIB/GvnyCHMnWSEs40XTCqD9kePeda2voJPvWEH6qmP/IxT5LVlFrVIzNuUZxUJy6tLqlpxfzL+mb2HfjdPtKy+8EU9Sog50+cLJOwpPHdHvwM0+O6pd/b9XNMn2JZVHkJGC/DFQ3NZslZs9Nw889KEuqXYYmUkMPAj4V9DbKuOshik+2iN71B/Gvn4Lk1tfQGbe2fbc8Juf5CU/wBtEYd8Uc37SQ/Tn6rsEFcyICCDwIwfI11Soo5YyTortpbN5YpEZ1cFcaDWNmR+ON4ZyMjgRRobmC3T6ULd+3us2MFkDLugkE4A7PHXU+NAHSYFbq4jPbRZiwViwZN5QxEbg5X9ITjhnuqO9+BF1JnuipIZYtyMHuyZN4pu45Y5cAaz3VnTbVvQ6CeEliMlacG27Nta3Vv4f8FxsPayNtQOmivK+AcBu2p5An6xrVqw2wuUS8t1QMiLNG5VyruzM6As0gB0AAwoPmSAANyojDybi7ge1ISjOGaNvDprd2XC/mAHpkuNyzUD1pXEX7vrt/ChH71YxcycT4AVpHpqv96e3gB9RGkYeLHdX4I/voB6QbM6lbZ97PXxCTHNSDgjyOhHtqnEeKXobexpKhhk3xm3b4L+gw9ENxg3EZPEIwHkxBP8Qox9Lfa2VIe54j/4ij8ayDo5tRrWZJhqAcOBzjI7Q8+Y8VFbV0ntPpWypwvazH1iY5lCJFx57o99Tw7vGxnbcoOFbPydvsfP1KuOtFKrTFsa1a3plLzE5QEw2o5RwR9guo75GBJPHAAr1EOtPmyESRxrwjUL7hqfacmkgqT1YnodwDlWT7fuRJdTODkb+6vkgCfME+2tL29e9TbyS6Aqp3fvHRR7yKyNOQ7qhU4GvsWneo59NCfaR72KMvR6+5fxxs2BMrRkZ1yB1iHHmhH71AQuGXgcd+NKtNjbcFtIkyLvOjq2D4HUe0ZFUQTjK50OMca2GnT52/nkfR091DbLg6eA1Jp5rzKBl4sNM0A9HLg7QlWUNvIe0T3DOoI5HlijW3u1LkexQNdP+lGKV9ThGrOxlXTvZ4iv3Y6mSOOTJ78GMj/w/jVOx7OO+jz0r7Py9rNyHWRt/C6/yv76zxX3304Cg6ytM7vYlTPg4+V0ToU+FaV6MboNbyR/4cp9zKr/ADLVnUaMzJFHjfc4XJCjPiTwog6Abat7LrxNcxOZChVYC87ZG8GBEaHvX41OgnmAtvzg6Ki34rppeWqNWpUO7V6YQw3H0Xq55JygkCRRFyUJI3s8MZBHsp7YHSiG7MscayJNDjfhmQxuufVJBz2T3jPyos5CxmnTW33L64HJmVx+8i5/iDUMXBov2ptmC8ja+a3kDiKfMXXADNsylgWCEhisrHu7IqIbOEIZJrZVXqusAS5uHftIHjBzbhBneXJLYGTxoSpSbbZ1+A2tTp0YUnGTla2i87dShiTs1q3oqlzZFPsTSL78Sf76zi5uolnmglgFvEsphiulaRkEmN5VnLswCsjKcgDd46gHB30IuJUvDbSAIptUl6sKijrFleGR8qMvvBEOSTx00NSpU3CWoFtbaFLF0FlWqfP0D6lWZ9CNkC7+mLczXTvBdywg/TLhMIpG5ojgE8dak7JmuhPtDZQuHdlh37WdzmRA64Cu2O1uswweOh8gSc9YgdNtly/S5pFjcxtuEsFJAIjVDqOHqUKzJvL4qcirawkSyeEXNo1pOu6pnaNnimlBP5xrqJg/aJGVbeXHEcTUG5iaN3R9GBIb72deFCVo2dzsdi4p1Ke7dvDw6jdvD1j25+sJohnwMi1ukz4HjyrDtkuBcwKec0ePMSKRWs9Ktp/R7aWf/DRiPFs4Qe1se+p0HozO9oIt14Jc19TEOm1/117cODkB+rXyj7Bx5sGPtqy6X7O34kwO1BGoX7qoodfgT5gUM7JhMk0SHUs6g+OW7R+dH20ZQBI/crsR4AMcVTDxNsv2i9wqFKP+Kv2/sziDlX0T0IAbZ9sOIMSg+7BH4V86wcRW3+iK9LWrwnjDJgfdcb4/iLj2U2FfiCvaGDeGhJcn3QGf/SN+/wCdKttpUdZHHXZndyKZjFSbsU3GNKgicuAD+ki5ISKEfXYu33U4fxEH2UCir/ppe9beSYPZjxEP3fXP+YsP3RVDmqajudTsyju6EW+L1Hbm3KqhP113h5bzL81NRYYSzboohubQyWMMq6tCZFYd6Fy2fYT7mPdVNaS7rAimZdRnGq7Pk7M2r0a2gt9mkg6yO5ZuOMHc3R3nsk+2rnZzys25CN0H1mOpx3k/gKDegHSAPbrC+nVMwwPsuxcHHtI/drQ7i7WCDeTGX4H8aIi1Y5PFpqvO/V9wW9KUjKlvErZBMhc899QgHlozaUCQIEBJor6dQYsIpydfpGSf1WR0/mx8KALm8LgY0FC1veOt2BUTwuXo2PrekSLJ9hlYewgj5UbdDbq4iuby3tYo2IupWLSzsi4l/OIFjSNi2EiJySOJFZuzH1QMnuGvwrQ+ilzIL7r1sLlRO0YkZyxSPciMauo6peWQSWPrnwqVB20YP7QU86hKPK99V5F50zaSHa9hNEiNJNFNbqXZlQMCrgtuqSRhnwO88aa6CXZbad2b0iPaBVUEIGIzAuqvExJMmeJJ104ccE21IIJ2jkmjy0BLoWYoImGCZCcgDGBqaq36X7IklR5JYmdTuxzNC24rZzhJ2TdBz3Nyoo5S9wQ2PZ/8Te2oG9uXswYDXdhureRckD6oZYwT4iuNkOXtoozO3WzQiOXrZL18O5KkLHgxDs7o0GhJor6c7ajZvoKLKlw4E8LgAJNuEOyI4bJcgNgY4gd4yO2EfWNEr3l2pkj60kOdxQZ+oRTl97LORg47+6q5vW1jSw0E4Kq5JWdlo35r6jF9bSIl6Hi342FpK4ZWEcg6nqJlD6aghHBHaGhHCpXo5ik+mwbsqyQxQSxpvPidYmdGWN0x2urYYDDQhxwxiqWSO2aFrkLcPuC4AikdFAa3CM43lDbvZZyAPs8RVhsueeN4mtBarPJEHjj6mZ95Wj63qzO8vrFV5LjIxmmi5X1J1oUXSajdy1d0rK3DXXkGtr0dvYJrp7aa2jW4mMpLxSSsMqABgSIo1BPP1qk7G6OCD6RI87y3NxpJPgIRphRGoyEC8hrwFC+1ulLXljYXiTPao9ysdzuyFAqbr9YN4csoMHGe0O+iDZb27W909rezz4jYEtO79W24xG6Tjdb46CrjLdwa6c2skapFeXZmikGOzaqJ3SN0cxtL1gQdrdO8Ez+Ire7ZEszuwC7xyADkAYwFzzwANeeKlbMuLqVbWK7kLzOq3VjMTvdYCFaW2Jb643QQDzGODCrLae2WKbru2Va+kMhihm/NQzTKkbLKpJAEYAwRq2tUVYuXF6G3s3FQwsbxhmk731tZLXp+WI/QKx+kXyseEGZcd5Gi/Eg+yiL0y3pSzhhzrJJlu8qg3v5yh9lQOhO1FjvIoXWLr5FXfaK3EIUNB1nVkq5EnaK67q4KHTWofpwlzPbr9mMny3m/9nwqtvLSlYvcpYvaNOco2VrpPorvuCHREr9JVmIG4HYZIGWCNuqO8519lGdnEJd9TwKMp/eBX8TWe7LjzIpxoCWPsGnzrQbWTqrd2OjMrN5dk7v9eNRoaRuR21riOPJLuZxstd5hnkMmtQ9D9zi6uEz68St/kcg/6grNdnjdTe5tjHl/WaMPRhc7u0ov10kT+HfHxSqqLtNG1tOGfBSXRX+WpuNKlSrSODAC89Y+dNwcqVKootkYrdevJ+0k/nao4r2lQ0uDO1o/pw9F2C3o7/ZG83+VB1v+FKlS6mZgv3FT1CfoD+km/Zr/ADUdzfVpUqS94x9o/ry/OR36S/7pi/7v/VWs4T118hXlKpVPeRq7H/bz9V2DLZH9psP2q/I0Lekf9MfP8aVKrKXMz8Z78fzmzSOkn9wP/wDqRfzrXXSn/wDHP+4h+aV7SqwzvuUe2P0PRz70Xyhp6X9O37Kw/wCemr2lUKnBhmE9+P8Asu7KKP8Ast1+32r/AMoasOjH9q2V+wg/0ZaVKk+PxCKXuf8AXLvIjbJ/uGH/APox/wCuK2Xa/wCgn/Zv/Ia9pVPmZUjKtof2Do7+2tfktVG3f0c/7HaX/OzUqVVz5fAMwv8Al/q+w/s7+/Iv2i/6S1K9NX9rT9kv870qVCv9OXqb9D95Q/412YH7I4e38aK+k39nk+43yNKlUqfuIB2h+8l+cgJ+ov3R8hRB0F/vG0/af+W1eUqqh769To8b+2qf6vsfQdKlSrRPPj//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhMVFRUXFRcVFxgXFRcVFxcVFxUWFxUXFRcYHSggGBolHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHiUtLS8vMC0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS8tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABIEAACAQIDBAcEBQoFAgcBAAABAgADEQQSIQUxQVEGBxMiYXGBMnKRoUJSorHBFCMzNIKSsrPR8GJzg5PCQ/E1U1Rjw9LTFf/EABoBAAMBAQEBAAAAAAAAAAAAAAABAgMEBQb/xAA0EQACAgAEAwQIBQUAAAAAAAAAAQIRAxIhMQRBUYGhwfAFIjIzYZGx0RM0NUJxFERiguH/2gAMAwEAAhEDEQA/AOaqIZWIVorNGQEUiCkcJiS0kY0yxl1j7NGnMBkZ1jDCSHMYeMY0RExy144lIA94+mvzgBHinpkb5IOQcPn99xHFqAjh5EaxiIVoCsm3XkAeHCKJB03+B3+YgBAtBaTHwtxdfh/SRrRAJAi1EEUIDFLHlMaEcAiAdDQ80RDEQw7wQQ4AFBDhGACTCMUYkwAKCC8EYiSrRWeRw0MvGIfzxJeMF4gvAB8vG2aNmpEF4DDYxpjDLQIt/IQAOkCNfnA7+sNmPDT7/XkPCIPn84CAWH/a8SUBMO0ID0gAYFuN4sPEweUBklKlteHnFVVD66X19ZGS/KO2a4IHHTlflAQyy2gEkYldAbbrg+HKRxAY4sWsbEWIgHBDiRFRDDggggAIDDhQATCMUYkwAKCCCMQ2GgLRF4CYwDLRBaAmIJgAZaFmhXggAd48NPE/IRqnv5+HOOsf7/oIAI9YRA5iE7Xiez5wAP4ydgKfeBO7T4X5SGukeo1CNeP98YAaCrsbQeyL2N92/XXla/PlI42SBrf5W0+PlLHB4kui23gAaEZmNzrbgLf3rAKi31/r8fCRbLSRXjAqPT4Wmi6M7NSo3ZsPG/AbrXv5bvEc5Ewden2neuBqAwG4nc1jyvf0EtcBiU7ZHQtq2oI3A6a2FteNrgfKFiYOm3RJKNIVqQ0NxUB0IN/aABO6c1tO7YvC16yNSIpMt7nKxYlWW/0lGmm7mJxPamHNOqyMLMpykHTUaHT0lIhDCmLWNrHVgMWIqJEVEMMQQQQAOAwCFAAjEmKiTAAXghQRiIuaFeJgjAMmFDgtAAoLRVodoACiusMrv/v58YpR57ohxAQWblEE3hx0LfcB+MBjQ085IwdDO1ozktL7ZVqYJ0uRbUDTyvuO6TJ0hxVsuuj2Hp0Wz1GYOhUoL2VtdQdDm3WI09d0gYx7kt2irck2AB3m9gBoPSRMZVa51J1PM7zeRqCKfazs1/ZC2FuBLEj5cpmm2aNJDqY9kOuVx4j+hl3hdpU3W12pkciTfdpv8Jlayio35tSNSN97kb/KWOydk1KrBAQCSALm2p3COSFFl/U6UVKLg0srECwL3YEFQLFb2O4Sg6T4hq1QYhzd3uHI3FhbX4H5RlFyhmqUy2U6qTa2trW3k84nbr3qWFJqIGvZscxQkC4JIB4aAi43GONkyqyvWOrG1jiyyRwQxCEVEMEOFaCABwGCAwATCMUYkwATBDgjAgQxBaGojEGBHAsCrHkWACAkV2ceVY4FgIiMmkYdf+0sskbrpppr/fygBXNp6SyfDElFTit+V95J+UhrRuLnQf3uljsXGDMFbTKGKHW404EcdNxuCOEmRUSbT2dT7FTfvlQ7E6DUeyB6xFIXsN3h8Lw6ta4QABdGBsMoJve9r6m3HThITMRMlfM1dLY0WD7HLro26xtpIuJ2epYWfLfdYiUoqR2lirboqa2GmnuWtXZ60wpZj3uPE8h4CSsEgWxAOhvcc5TriWuKhTtLHcQSNBpcA3IvaITbdZDqire+5LfKV6zBZUzb7V2FSeoMX2lSn2irWIp2HeFkqt4HtUe9t2ZTxmV6fNSbErUo+y1JL+8t1b5BZbHa+INNe0Qqp0UlMoUg95ad7HXjpbdy0zHSBr1iPqqAfeN2P8VvSOLeajNpVZXLHFjYEcWaMgWIuJEUIhhwQQQAEEEBgAkwjDhGABQoqCMRDZYFEeqLGhKYDiiPJGVjqmIB1Y6Iypi80AFwMAdDuiM0PNABnHbgBxMjUKVySOA0Pjwkyot/PnyhUqYW44GAFg2Csoc77D5gEyHXMsKtTuKOGUfcJV1pktS3oNsdY5QpX3xhjH1qWWVQrJ64lRcAjTeTpby5nyja1xe57Rh6Lz3CxHGM4TBo5Ad8v3H14TUHodhnpF6eIrAgEhOzza2JGoJBGg1vpfWK0h02rImG2yoolGDMFOZQxDWKC+UNbc1jpwv5zLtc6k3JuSeZO8y52tsI4VKZZyS6MxU6ZdbL8QbyptNIoh6aDYEUBFgQysbQBCKEIRQkjBaCCHEAIRggMACiYoxJgAUEEEYgqwjBkmtIxly3GgCLDREEkY6Hh541BAB3PDzxmHaADueDPCoUGdgqgkkgADmdAPOdP6O9XyUcOcXjVVyp/Rk5qatnCCnZdKj5jZiTkXdZyDaJSy8rYm0jElPzaX+op+IBEqsRoZqtqJcsfHgLDyAG4TPYqlEmNrQgQ23QMmsQx4SyR+mhYaax7CYnEUz+bd1B5E2kKlXsbyxp7WIHC8TQ0yw2j2lVQzXIQKGJvmBcmxN+ZFvh4TQ9H+gdPaGHarg65WrTcpUpVwLZrXBWpTHskbjl4GUWwKpenjCblfyYX5ZziKHZ7+N7/AzddR5K1cYPolKDeoNX+s0wXeZVt9jGbpmI2z0PxuFYirh6lh9NFNSmRzzqLD1sfCUbAXtx5cZ6uSpI+0sBRxCGnXprUQ7wwv6g7wfEazVxTJWIeVrQwJ1fpL1QEEvgKoYb+xqmzDwSruPgGA8WnNNp7NrYZ+zxFN6T8nGW/uncw8QSJi4tGykmRBAYoiFaQUFChwQATCijEwATBDggIVWWRSJPrCRHWaS3GhqHBaGBJGFDAhhZv+rjq5bH2r1yaeFBsLaPWIOoQ/RUHQt6DmGlYm6MnsHo9ica+TDUWqEe0RYInvu1lXyvc8J1boj1QJTbPtBlqn6NKmW7MeNR+6X90WHnOn7N2bSw1NaNCmtOmu5VGniTxJPEnUyUygy0kjJybOG9a3R9cNiKOIw6ClSdCtqahFStTtYqFFlJUX80YzXbF2yNp4CtQXKMQUvkJyjtgQyuOVNnAN+BJHK+42jsylXpNRrIHpvvU/eDvBHAjUTiXSTohi9l1O2oNUekpJSsntov1aoG63MjKw+EWJh56cfaXeunnbuIWm5UYpXVmp1EZHHtIwsysOBH47jvFxKOvS1tNwvWHSxChNo4RK1hZatOy1AP8Oot+y4HhIRwmyqxvRxzUD9WuhAHhmIUfbM5G3H2k156rT6HSppmOZJBxFO032K6AV7BqVahUU7jmYAjmCqsD8ZVVug2M5Uv9w/iomsPWVx1RLlEx6LeX2y+jNSu+Sn3jvNtwFt7Hcq+JNpOqdC6lJTUxFRUprdnyXY5RvsWAGYkhRodWELB1sZjh2GFpsKPClS0pjxrVDYO3Nqh1O626Dc5PLDf48vv/HeTmVWP4ytToUjhaLioMwarVUaVqi6KqcTSTObX9oknlOudWnRtsHhi1UWrVyrMvFEVfzaN/i1YnkWtwlX0F6AU8KVrYgrWrg3UDWnTbmL6u4+sbW4DjOgM39Z04cFhxyrtfVnPJ2wQAxHaQB5ZA4I5UVXXK6qy8mAYfA6SPeHmg0CdFBtnq82fiVsKC0G4PQC0iPNQMjeqmcS6XdG6uAxD0agbLcmlUIsKlPgwO69rXHA+k9Jo4iNsbKoYukaOIQVEPA71PBkYaqw5iZTVnRCR5UiTNf086D1dnPmBNTDubJUtqDvCVQNz24jQ20tuGRMyao1TsTaJMUYRiGJvBBBGBKqiRXEmVZGqCN7lLYjkTa9AerurtINUZ+woqQM5Qs1QkXtTBIFrW727Ub9Za9EuqOviVFXFucNSYXCBb1mU8SDpS9QT4Cd2wlBaaKi6qiKgvrooAH3SkqM3LoYjYfVLs/DnNUV8S3DtiMg/00AU/tZpt6VJUUIihVUAKqgBQBoAANAIstGmqSjNsXBGTUjT1DwjolyRLJjbOBKyu9T64HwkOohPtVfnHlJcys6QdD9m4glqlFUY3u1ImmSTxYL3WPiymYvH9VFA60sVUt/iRKnxKsv3ToYw68yYDgL8JT+JNtGF6JdGKmz6jFMUz02BzJ2AVSeDa1DZhztrx4W2dmPC/jdQPgFv85JXBRa4U/DT4TmrJi6fuXev+fQpttalfidnLWGWoiOosSrLnW4Nx3WuP7EmYXClQANANwFgB5AaCSKNHvHyEmUqR5H4SsD919X5+QpchNKnaLtCrOqauyoObMFHzMqcV0nwNP28ZhgeXbIx+Ckmb2TTLcxOkyuI6xNmof1gt7tGsw+OS0hv1o7PG7t28qQH8TCVaDKzbCoBBnBmEbrWwH1MT/t0/wD9Ikda2z7+ziB/pIfuqRWgys3gbWSaNeYbD9YWza2n5Rk/zEen9ojL85qKTaAg3BFwQbgg7iDuIidMesSw2pgaWJovQrLmp1FysPmGU8GBAIPAgTzX0q2IcFiqmGNQVCmXvAFbhlDC6ncbEc56So1py3rz2drhsUANc1BzbUn26Vz5CpMpLQ1hPU5OYgxZiTMzcTBBBARLdp17qm6HUGo0sdXpM1TO7U8x7mUGyVBTtruJBPHUcDOa9Ddj/lmNo0CrMjNeplOUikou5zcOAvzYT0xQRaaLTQBVRQqqNAqqLKAOQAt6S11Jm+RIDX3RksAdNLxmrVA13SvxGM1lJGLmTamIjYqXlRtHa9GiuetVp015u6oPS+p9AZj9pdbWEp3FFKtc8wvZJ+9U732JeiJqUjo7gfWjRoBuJPxnFsd1u4t/0VKhRHijVm/eYhfsyixXTbaGIOU43EEk6JS/NemWiFvFm6D/AA2eh3wSKLt3RzY5R8TKzFdINnUf0mKw4I4CoHb4JczhVHorjsScxoYhyfpVe59quwvNBgeqfGPbO1GmP8TsxHoilT+9HUmFRRvsV1mbMS+V6tQ8kosL+RqZRKbF9b1ED81g6jf5lVKfyQP98YwfU6g/S4u/glIL82ZvulzhurDZye01Wp71UL/LVYV8QtdDLYnraxR/R4fD0/PtKh/iX7puerzpC+Ow5qVcvapUZHyrlXgyEAk2GVgN+8GKo9DNmU92Fpt75er8nJk/BYSjQuMPRo0g1s3Z0xTzWvbNkAvvO/nJlhqTTvZ+DXiLNpVELrEp1hgarYd6iVFyEGmWD2zqHAK66qW3Ti/5DtOrvTaFT3hiSPtaT0D21/7/AKxxKsccJJt9ftXgGdpUefKPQLHubjBuPFuzT452Blvhuq3aDbxRp+/Vv/LVp3FXiwZei5CzNnIaHVBUP6TF01PJKLVPmzr90sKfU/S44uofKkq/exnTK2axyBS3AMSFvwuQCQJG2Zje1TMRY92496mlQeWjgEcwdTvJYW+pz5+p6lwxdT1pIfuIkHEdTrfRxq+TYe3zFX8J13LEPTUfSC+ZizD9Y4RtHqxxlG5Q0awsbBWyuSQRotQAcfrSu6J9Mq+zn7JwzUAxFSg1w1M37xpX9hx9U6Hja956EbABuIII3g7uRE5t1s9FVeg2JUAVaIuxA1ekPaVuZUd4HgFI4iyaT2KUntI2uC2hTqItWm2em6hkZKehU7tb6HgQbWIMpusnD9vs2vbfTC1h5U2Bf7GeYPqf22bVcIzEAfnqfey21C1VudALlGt7xnWsJTqa3QMCCCCVYFToQbHUERJ2iWssjzOREGW3SjZq4bF16C3y06hC317hAZBfjZWAv4SpMwaOpOxNoIdoUAO2dTWxeww5xbizYg5FNhcUhYp5B2v52pzoFWtIWFwa0KFHCqSRTpoGJ1JCABB4aqD5Lu1jdaofOb0jlk9R6tWJnPen/TsYQmhhrNiLd5yAy0bjTQ6NUtrY6DS990tumvSf8iw7OLdoxyUgdQXIvc+CjvH0HGcMwOFqYqsKanNVquTdjxN2d3PIDMxPIGS3yRUI3qybg8DiMfUYqr1qtwWqM2gDX/SOxsuo0F9dbDSbnZPVG5AbEVm92in/ADcX+xNJsfo8tGktKmvcAJ10Z2tq782NhpwAA4S0w2Frr7BqJ53HyMaQniPkV2z+rnBUrXw7OedUs/xW+Q/uzT4HZtGkMqJ2Y5IoQfBAB8oWHq4sfTU+8JPpYqv9II3lcS7Iu92FTSkOLjyDfhHM1L6tQ/st+MdOKcAkolgLklwoAG8kkaRvZm2qWIUvRdXUMUzKQ6FgASFcaNvEVlUgLTT/AMpvUGOpQU7ktKPpj0wGAFIujMtRmW6BWIKgHUFl4H5Sfsraf5TRSvTYlHBKkqUOhKnQ6jUGPUNCecOOUZOH8IRosfpH4xirgz9Y/GCJdEjs/CGFkIYQ8zFrQMoRMtFrIy0o6qxMAYoMUcUyA5RghO4OVOU+htOU9EOmr4I1MPjw/cRVW6DPTakpVadQLqwIygPruGpBuOsBZnemuyKVbDu7qM9Idoj6AgoQ2Qtb2GtlI3a33gRxrZjse6DVsWcMDjRaoWLLc94o/e74uQpDFrKLWXKLC1poC/A2PnG1cMMw3HUaEfIgEQaSXqwsg4/CKO9TJpvy1UHnbgZQbQxS1A1NxmDAo3ip0a/peXO2Md2anXQg2BF9baW5GYtCSwMkTZy7ohiThNo0c4vlqmhUB4hyaTXHGxN/Sd4o4hEIvQameDU3OU+QOnpecH6b4c4fH1SvF1rqfFrOfg+Yek71sypVdFORHpuofK2o7wB05b+ElGuJyZyzrYwVsUuIUfm6yeVqtPuuCOHdNM+OvIzEGdU66Nn1Fp4eooHYhnVuLrVYAqGPFcqNY8xrwnKpE9zXD9kFoILQSSz1MlAuCS1rsxJ9SB8gB6Sr2kcJTHffMfqht58bSBjGq1u4jOVHCmMouTqWqvbef8I8JyLp3tpGY4fDqLKbVa2YtnYb0RidUG4t9Ijlv2k2csVehA6wNuDFYo9nbsaQNOnbcdbu48zx5Ks0fQXYxoU+2qL36oFuaUdCAeTMbMfAKOJEidC+hdwuJxNgNGp0zxHB6gPDiF9Tpa+0akoOhdj4RJFTlplRc4DaGXX+90uMJtZDoSfRLD4zKBHUZihA8ZNwuLI0DXHAFiPK19PnHZmbCnWU7hJCnwmaoYo8yJYUXHEk+t4wC6XbPo18HWp16nZ08mZnH0AhD5iPpAZdRx3TBdVOIxBpVqdAoaC1iSzdyrmZVAyAh1UFUUkEGxNtZvtoYda1JqL0xURxlZWYoCPNdRqOHKQujXRqlgg4orkFQqWHavU1UECxfdvPylLahtmO61sDiFpUq9astSktYL2RUWUsjEs1VFplgRTtbKCL6GbrobtEYjB0qi0DhxlyCnYhQE0BpkgXpkWsbfG15NxODWpbNwIYaA2YXsQCCL6nXxjiKw31Gbzt+EL0oLHr2iWhM3jEwRIdjFqI2RCjAfgjGeEasVDHy0xHWJiHPZql6lmDLRFbsM7LZw7WIasUKjLTUjW51tYa41JSdIth0cWhSslwbag2Ol7EHgRma3vMNQSC0CJfRjaGIq0m/KqPY1UIGjBg6kXDC3sm4YFSSdAeMsa1S30b+RsZWbFw3YU8naVKh4tUsWPK5VQDpxtc8byXmzGwiYGU2xjVq1O4TlAtrzB18xfjEUKQIMhItmPLW3lw+Un0zaSSYTrXwP6vXA3hqLeYOdPvqfCbrqp2m9fZ9NQwvSJotu3JYof3GQekpOn+G7XAVdLmmyVR4WYKx/cdzKnqRx5Favh7+2i1VG8XQ5W+Tr+7F+423gdP6X9HxisDXo5+/l7RD/7lPvqPI2K+TGecVNxf1nquhlQXO/cLzzJt7CilisRSUZVSvVRQdLItRgg/dAmU8SLnk51ZeFsV8EOCBqdj62umgoKcFhnC1CPzzD/poR7C2+mwOvJTzOmP6vOiYrFcVWGamD+ZpkaOwNs5XdkUg2HEjktjnOj2zGx+LtUZiGY1a9Tjlvdz4MxIUeLDlOwmvlAWkAigBRl0soFgq8lAAHpNV1OeTy6Im16VGnrVa7/UXUjzO6V+J2qRpTVUHxPxkZ7CMMRqWIAG8k28hBsyImKxTsbsxPmTJGC2gigLVK2Glr963O2875V43GX0pj1P4CT9k4SlUcLU0DbmvaxO6/gZLTG4tbmmo0NA1JrqRcA8vC0mYeu3MDyEk7O6PmipyNrv11Hwiayg+2qq3PLofXS0sQ/SreN5KGIUb2UeZlO6kb7em6NHLxtCxl02MTg4PlEjEg7jKlMWi/Qzekodr9YGGouaYwxqspIaz5FDDQrmsSSDodIpTUdWa4WDPFdQVm17eD8pmX6OdJ8LjG7Oz0KtrhSwdWtqcjWFyN9jbcd9jNMuzuT3HlaOM1JWhYuDPCllmqYGxJ4RPbMY8mEt4zj208Tiszq1ardWdbdqwF1JH1rcJGLi/hpHVwPBPim0nVHWS5jZqGP0RmVW+sob4gH8YpqM1OJqnRVbU23SwyB6zZQTYCxLMeIVRv8APcOJkDZXTDD4ip2a51Y+yHUDNYXIBVjrYbjaYfpXiWxOMYKQQHFCmCeTZTbzck35WkPauAfBYkKGztTyVVYArmsbjS5tqpG/hOKXESu1sj3sH0VhPDSm3nkrXn6nXw990ssCgTvNa53DjK1QHVWX2WUMPdYAj5GTsBhgJ2bng7Omch6I7aNUdnVPf1dDzU95l9CSfI+E11JCROV4LEnD11qAX7N725qDZl9VuPWdNrUgp7pupsVIOhUi6keYIPrOWUsWNuCzfC6NcWCVMfxOGVqb03IC1EdD5OpU6+swXQPoxjKGJpYhlFMITmzOMzKylWFhew1+lbdNnnI3AeZ1jlMEm7En7h5AaTnb43FdKMYLq3mfYloSnCK6mow2JBN9/wB3kt/vnKOuPZYpY1awItiaee3EPTCoxPgRkPxnScBzPsj5+AlH1v7NFbAJiO9moP3QqlgUqlVfMR7CjKDm8LcZ0YHCxwYum23q292/Oy5Ap3I4reCFeCWdB1ToPskYagwa3bVHu+o0RLimviNWbT6/hLuqhHL0lYHPHvee/wCMi7S2kKdgLlj9HMbAczOeOLxS9WWGn8U9O85qUnoy1KbydABck6WA3kykxlXtGFh3RuvvN95jTY41AFtlF7kXJvyvJFGnO7BUpRuap9NxqKixpaEvNl4MNTDDeCVP3/cRIOSX3Q4hqj0ifaXMPNd4+Bv+zNJLQUnZpNmYsoig3YW1B3jyP4SzIDi6WbmCPkRwMKlgQBYRT0eXdbmOI5ePrMyVZV1RTU2NFVPMqxH2YVPAq+va0gOSqfxMsnxFhaotx9Zd3r9WRq+BonUo58tYBSG8dg6VCjUqsc2RC3IE27o05mw9Zy3o/wBGlxGIWnqAczOwtfKASSLg6liBrf2pp+sO6YNhQpOoapTBZidbNnsAT/hv6Sl6scZWD12KZrKi3tuuzkj7I+E5cVZsSMWe5wElg8JiYqWu3n5lTtnZFTB4kqDqjK9NwBcre6NYaXuLHxUzqGwtqtiKC1VsCdHW3suPaHluI8CJVdOENTD9s1PK1LW/BkNsy+YNmHkecoOg23xSxHZse5WsvgKn/TPrfL+0OUmL/CxK5M2xV/X8GsRe3Hy/nv8AydDD1DvPynIOlWDYYvEC++qzfv8Af/5TtLVBOW9PWFPGMR9NKb/Zyf8ACacUvU7Tl9ByrHa6rxRtujSk4TDkn/ooPVVCn5iO7Xr9jQq1eKIzD3rd37VpB6BYvNgkv9F6i/bLD5MIz1iYvLhMvGpURfQXqH+AfGa56ws3wOWWBm414f8Al4mK6BbHapi1J3U0apc8SLIt/G73/Zl51k4EBKdUe0rdmfFWuVv5EH9+ZXZm3q+GZmolQWXKcy5ha99OWohY3amJxRs7lgO9kVQFUAG7EKNw11O6cMcSKw3GtT6DF4XGlxccZNKK8s6b0NN8Hh7m/wCaA8st1t6Wt6TTYcAEXmR6tai/k5pE9+mxJ92oxYEeuYeg5y26XVzTwWJdSQRQqWI3glSoI9TO7DlcEfNcbhuHETT6vvPPtR8xzc9fjrOh9C8d2+GFI/pKFktxNJiezI8jdfRec520uuhm2FwmKFRlLK6NRPey5Q7oc9/AoPQk8JKdMeJHNGjoRw7DQq3wMcpUgDrr4DUn14SyxuztdNL8M7N98Vh8CF1NvL+s3OMXg6OaxIvbco3Dzk/a+AOIwtegTl7Wk9O+mhZSATfgNNw8oqjUtu+V/wAJPoVb6X+Ig1oNHlz/APl4n/09b/Zq/wD0gnqT8jX6ifP+kEzpGueRy1d4mZ2j+nqe8P4VggjIwd2ScH+EtqEOCbo0kPHdLHop+uUfN/5bwQQexDOm090br8PMQQTnKeww3sP+1I2xfZPnBBHyI5opOsz9Xpf53/x1JR9Xft1/9P8A5wQTin71H0eB+nS/nxRUdaH6RPe/AzMUt0EEwn7Z6Xo/3CO4v7R8zOZ9ZX60v+Qv8yrBBO7ifdHz3of832M0HVz+qH/Of+CnI3WZ+joe+/8ACsOCL+37DaP6p/s/oYRd06J0F/UMR7tT+AwQTLhtz0vS3uu1EHqy/T1P8kfzFmk6xf8Aw7Ee6n86nDgm3D+7PH9L/m32HBWiqHtr7y/eIcEfM5+R6Hrb2978DIz71ggnTE4WS6EmP7B8ocEcgHoIIJmB/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGBgYFxgYFxcaGBoaHRoaGhoXFxcYHSggGBolHRUVITEiJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAEBQMGAAIHAf/EAEIQAAEDAQUFBQUGBAYCAwEAAAEAAgMRBAUSITEGQVFhcRMigZGhMkKxwfAUI1JictEVM1PhFiQ0grLxB6I1kpMX/8QAGgEAAgMBAQAAAAAAAAAAAAAAAgMAAQQFBv/EADERAAICAQMDAgMHBAMAAAAAAAABAhEDEiExBEFRBXETIjIzYYGRobHxFMHR4VJT8P/aAAwDAQACEQMRAD8AkcJeA8aL3s3HORjTwAomJs1dQUN9iAd73LP5JAbYLJDvaynJePc8DOEOCYGzjQuJ5LSTujVyjIKjNH/SoehUU1pc3MR1HBNInCuteZCIkstcwQFXPBdlabfoOT7MQBvw5Lz7UH5xYR1FE6+8BpVhaOK8mic/SMDmKK0URXZLaDQOAp+XNPsOWYSuyxzDIEDyXs95SMywmTjhwgebnAeVVQyJlsmwnUjwNFA2aUkcCKtzyPRDNvDGQPZJzAJFTxpnQnkKoeOVxJwuyZUnh4c/2Q0XaCrUHbwQUBNY5XezOW8Ad6ivK+CGmlH05jMcuKSvvnFnQg7qGvXKiNIGW4yZNM0U7XEa0Idka8ENNaGuOF9RxIdRJZ7aTWo1GoUbZCd+gz+t+5XQOxYodlg8hwtBaNRU1PxRrbkljH+oxDmKqpfbhUVHWjiK+PHRWS5pWSVwyvBABwupv4eShVDmwTRN9tw8kyN4WV2Qfn1QDezpSRuIccIKG+wWOR1A1wJ6hU6C1tB8jhWrSSOq3jtIGrK+C8juNjM2uPiVP9o7P3MSFoLXfJI2NrsywDqFvA6JubSMSFlvcuHeiIHRBHvezkebVaoBsMtl9TtNGxEjkom3tI72mEHoh5X20ewGEbq5KSzvtRP3jB1BRWCTjtHaOp4ImzQzalw81jG5ZmniiLPEPx5oWxuklxScvNYpOxP4ligVMIjPFbSMYdFFBZjXNFGKgRCaARBTTzU0MTTqarHg0XkMNdVCI1nsrVr2IOiJkgG5aNjooQFfYDWoopIbLxRzYzRQvBUJQHe8gihkkNBhaT+y5pLacchazA92oMjgKDg1oDiT0V72nxOs0rd5GQ3nkOf7rmt3XoYWOEbQXO1caktH4cOmtfMqy+wNeBf73ZkA0OFlKHccwCR1zQ7LVIPZLgN/eoPFbWy1jESRUO/EKHqEJNLUUB5K6KCnTUoDvG7mtrHP3q5U5fKqVVO5bZ8QORUKbssVpna5pw0qPXjTmhGuayhPeGSBZKeHxR8dja/KtCfKqmxdM17j650J+vNE3KaOLaZ1ydv3ef8A2hH3a6J5YQSaVrmQmuyMAfaWudiLQ4A0qKE6EkCg8eCrknudEsllyGEU6hHPhIFQ1pPgi4Zow0NJ0XjmRuyxKiUJnTPJoWeoUTmvOjg3qAm/2GMHJ9PFbOu5n4q9VKIJSZgM3sNNy0+zvcKuA8CnMd1srXJEGyMAyUVkK79hB1mcOQ/utobNQ/zyRzCex2IVrktn2CupHopRBa2Co4qaGENPsFMrNZgN4U77PzQuIWqgCn5CsRn2T8xWKaWXrE7b/jB0zWv8bBqaKoseapjYcyeirUxjggq2bVNacwgpNvmNGTapFtC2jiqla5c0yO4iTo6hFtsXsxNatLq22MpNGaKrbPMJszsve+R/dR7JOGI9VHwRXaR0d19SkZCi0mvJ+A81CHjCorZJ3PBLt3yadCQmmvK0AkNeQKHXPyduHVU+0vacWQxV9rePFWaW2UJFK8cwPKqqdqjGLEDRtdDSteRrRFFiprwBWtpPE89FE2grQEIm0WwuyOldFA5mhJy5JgmhrcdyG0uyJA9FeLFshDGKuFfRV/Za3NiIAOZ+s1f4p8QqddwWbK35NOOKogguOA0HZtHIAV8SdEfDszZ9eyb4Be2Y+adWZ2SXAc0K7VckLhhMYI5j56rnW0N0GwzsliyjecDhnvNQPMei65Lmqrt5YsdlkyqWjGBzaa/Io+HYMlqRlhjwtJJSuac1NCmAtQ7APGjhUdCq+LRUouyBpE00slRRxzKH2svSWFrRG41qjrsAc+p0bmll8x9rLxAyRRFTVukV8bU2we/krBBfExswkLjWlfVA2m6ctE3hu/8Ay7W8h8SUxSiwHBorLtq7V+JMbj2ltEsha52VD6BTOuAEaIy4rmEbnO5fNS1wTQ+5BbtoZonkYjRTWLauU6uSLagUeSq822U3qabWxLo6d/iJ/wCIrFSPtZ/Ef/ZeINL8k1rwWuQtC9sdtHaAA6oGW1Wf3n+qhu23WXtm0O/LNVpGSmB7W2qjhzCqMkpJXRtrRZ20dI2oBp5qvMtdhrm34pvAmXIfs3LSyH9R+BSO4raWyEc1brkvGyOBjYB0S28LfZ4JKCMVOeionFFis1pxBE22VrYhiyrUAbz0Crlm2nZub8F7tNb3S2VsrK9xxBpwP/XqgUdx/wARNCm+aO9kg6nMitOiU25pbGGkUOteI5dMkRLb4nNf3c30oTqMtx3Z70qca90uyGhGYFdNUxIVKV7kTJM89FKH1PJE3dYGPJ7R+BrR3nAYjyAHElQzwYahtSOm7j8FdrgHS6sbbO96UDcMyup3cyutAONVRNhLrq10h3lXG1MJYWNzJ4UzHCiy5H8xqxxqJHbtoo4yaVdTgobv21L3YaU6goBt3WnFRohYB+I1PTTLwW82yslO1e8V3htaVrurqKb8lSqgk3ZdDeXdxHhWu5Va2bWl7nRiIvZoSAaZ89EzsH3kDoHV0pz6pYy5rTG6jJIwz8NHio31JqK+ipPyMmqBrFeTWWQNLco6s8GkhvjSnqlVn2jszjpT0Re0EeCCVtKd53/M+q5uHUOS0xSZhlJpnWLrtcDqhp15qdtljxarney1o/zMY6/BXae0d8dAqmq4ChK2NZbHGRqi3WQBgz4Jax+SZT/yx4JUXyNkjUWWoyIWsVlIqlj5zuJUlhtDsYFURTVCa+LkfITQKsy7LT10r4hXa+7Q5nsncqjPes2LJyZETJK9xp/hyTn5rFP/ABiT6B/deKbgUigSO1XtjlpI08HBamNYBQjkmdirsuu25xQA82lUOivm0LsVkB/ID5f9KhEKIt8jPZt9LRGfzAfX1uRu0oPaNNNxHqgbgb9/H+pPtr7P3m9XD1U7lditGWgV12TdisrgdMRHmCqZJErfsYaQyD8w9VGi1yVa2WNrTWpAxOBpoFsLLRpFDxFKUI456pu5rHNlbJWlSajUHiEpNhkEYkaaxk0FTQnwOulKoUwq7jXYZrXzmMjUxuHRr8x44lbbRdtX4RG1rXE1I9oknOpppSq53dFsMMzJKEUOYGuEihpz3jmF1ptrZJGxwcHE0e1wyB3iqz5007NWFqUaFdgs/wBmJZWrTm3jQ/3TyN1RkaJNajicCTy/sFGLS5tacKj5fNLbsYtti42GhOYHWgWt8yNoG8T5qt3bb36uNPif2Q19W4TClSM9Qc/NRW9i21Y8htMUbxieMyND8U87VmItDgcqjouWR7LzGkkETidSSTn1J1VoutroXlkrXBzgO8dcvdrw5ImqWxWpPkA23spOMDQ0PxXNLRZyCuw2qxmSIlxFakeCpd6bPvObWp2NukZckd20Idlov8ywjdiPoU8vC1ls2Gu4KLZy65GT95pFAfgh9p4HieoadyY2mKTrcstltdRqmlrtNIh0Cqd3B5A7pVhvJjuwGugSWqZo1WrFv24V1TC7p8TxTmqe97q7/r6KsOzLqvz4FFQLlYffDCSqjb2YSujvsYcSqttPYQ0VFEUbFyYuwcvryWInB9fQWKWAVt11yHJrCa8lvFszO73adSm1rv14c4AAUJ+KV2m/5zo6idKL5Ag0W2S5ZHWUR5VDaa5Ksf4Sl/L5qybO26R9mq51SDSqqk99zVIx5VO7mgQboZXXs5K2RrjTI8U92muZ76Up7XxVVu++psbe9XMK17U2x4iBBoe78FCbUKYtlhSr5AE8uS6oow5rX1J18FSZLVKdXO80y2Sc4ymtfZPwUaLTS7DWS7YGPdV2uoSu9bhYA0xTOaxz6lpza0kagZakAeKE2kBbaPAJrCztYcANCRTx5qnsHGnsVi964g0vx4dTSgrloTmSrNsC4P7WLOgaHDM5Z045JVJstafayI3EEkZbnVAp6p1sJY5WSve9uHGw0G/IjOm4ZoMm8AsdqVj61wNaBTy+aVl1T8kde76GvBVuW1kO1SIRtGiTosdlshkjIBGINoKkjP5JVZoJ4nffl0bN7omF9cvxNBp401WXXehY7vEUKsT7YaY2io3j5q+NmVFpnl0XvdWE47bKCCPadIw6ZimHjXNbx2UPe6SCZ0lloCwvrjxb6VA7uWvNeRX/ABZB0GIj8jSetSj4pjaMMbBhMhDWE5DPfluCJpcIvhPexdNaiIq8qqm2zaGVpoCr7flyTQxkOYS0CmNveb4nVviAuX3nYnNdmCmxjT3EzjPTqS2LFs1tA90uFw1B9F5tDtEY5KBlfJJtkh9//td8FFtRnOUdCLdFhu2/3OHsgeSsdqtpMVSNy5nYrTgNdyur7bWyh1fdqhcQ4y23ATfkQqHR+ia3BeNnc7u5Gmi5zaLTVxKabKy1np+V316q9OwOrc6W++YWEglJL3vyyu9oqm7T2g9sQDRJsROZNVEgWzpP8UsnEeixc4pz9VirSi7fgfWuzd92W8pbaIKKz3kwB7uqUWqP6+tU7U6EqKG+zbj9nI/N8iqm/wBo9Vcdnm0s7sve+RVMlacZ6lCht7IJu5v3jct4V02obVjR+ZvwVNu3KRnUK6bSO9kfmHwVNERFd90tIGScXXdQY8kDcfgo7pOSfXec/ArO5PUanFaTnG2dmpJi5LTZGOWaUQxNLnegHFx3BWDa+y43U05/2V+2Du2GGxx9k2naNxvcfac7Q1PAEEDgnxalsxbwzjHXWwLed0Os9gnEZxTdi8h3MCpDeGQOarN23tDNMGxVP3ZJOg3d0DxXS5WA5HMb/gfRcWjshsN4uhdoDRpPvRu9l3wHVpV5VUNgsO8tx1erK1Cp9uGF1dyutsbqqxedkIqRmFixyodkQuZOCajI8NFYLlvoRDC+hB5VVWdHSpCFdMU+kxCbTOtsngIBo0+A/ZMNmXCS3MwiojY5/QkFo9XehXJrptloe4RRCpPXIby7kuhbJ3uLBPaI3Yp3FkJJq1tHjtC5uho2jm06FSCSluNUJ5flgrbOsCMU0r9aLkm1NzsimcwFrmuqQAalor7LhuITG99rbRLVrSI28GVr4u1PhRIHFXlyRapHa9N9Py4JapvntyLrNdscby9jaGhGVaZ8tEPbrlZI4vJcDypTxBCcFeVCTql5Og+h6d8wRV37MEnKQU3d39ijrfGY7LgJBLWgZddfVPKBCWmzBwLXCoIorWR9zNl9IwSi9Cp+5zMlPNjz98f0O+Snt+yxxfcmoPunUdDvTbZbZiaORzntoMK0KaktjzOfpsmCemaFN7WQvnd15ryW7ABVW60XZR5OEoe0Xe47ktzpkjBVbKh9kK9T3+EScCsU1gaRxelrs7X97KqCdeNlOlEv2su1zpQRpRJYLqkrQJtoW78HRLqmhdEcIFK/XzSZwsoJq0amqJ2du58cTsXEKumEvmcxv4j4Ab03FpfLIk3SS3Y5Zb7Ixwo0a60TW+7XDgDy2oyKrrbmaTmXc8gPWqehowgHQDJJy5Md/JudbB6Rnn9dL9SewXmwsDms6ZU+K3/jcoPdwt/21+K0s9na7J0rI2je7ET4NaCSU3sE13Q5uEtodzY1rPBrnZ+NUlJy3ujprpMOBVoc37f+Qsuu55bZLXvYK9950pwHF3ILqFlhaxrWNFGtAAHABVk7dRDJsBy074A8g3JQSbeHdZ2+Mh+TU+DhDuYuqwdX1DXyUlwrX+S3TR1zVR2/2c+0w9o0hs0VSxxNARvY524HUHcUvte29oPsCJngXH/2NPRVi87zmm/myl/ImjR0aKAeSks8aF4vSMzfzNL9SS5b2bOwNJpKBRzT7XXmipoq5Kq2uwBxqDhcMwQfitGXha49+MeZ8jmsbgnug8vSzx8q15Q1vGwtocIVcNgcXYQ3P69Ee7aYk96MV8QpG3645RxgPO8Zn9gjSkjGoKT5H1nlisEHdoZnDxqd5+QQ91ROa0vee+84nV+ZSmGENdjlOOQ5hgzz580f2Usntd1vAa+JQUkd3oen+H8zW4ZPbmjmeShNqedBQKWCwNbuRHZgKmdOmChrjqVKyMcarYgFRkgaKEJi8BbNNUI8rQTlpz0Vl2ETuwipFRvRF3W54e0tdVpy/wCloHBwqlUzuyf+R3oeIUTa4EdTghmhpl/BbZ7WSVGbSUrhtVaVNeB4hTmdW5Ns81m6Z4ZaZB/2jkvEJjXqq5eTPsbXxADnTigrAWNO5Ob0jPBJJ7IR3jomuVMqOPW0lyOHWprY3nXTxSCGFoJcKAu1z+fmoLYG+++g4D5oNrIScgSfFC5uR3el6OODd05Dl76aKLtPFB+yMl7FMgOnGQTJK7hVRmR/4VL2wR1y2U2iZkLci45u3Ab3H64KJWFOSjFyb2FDnSnQKJ0Ux30TllmkfI6OJjnkOIoAa5GlSB7Oiet2WMbQ+1zMgafdHfkdyDRl6lGoSfYRk6jDBLVLnhd/y5KK6xSHVyiddx3vKtt42uDCY7PBQHLtZTilPNoFGx+AJSOSIb3eqqW3ckIqatxa92KvsA3vPmtRZWDV58z8kzpCNTVSMtUfutr4UQhfBgLezacmxueeLhl6qaG65DwYN4aM04sTJZnCONgqeOmXHgE1m2UtWGuNjj+Bhz8MQGLoKnJA8sYumxc3gxyWpqxJZbC1gyFOJOp8UTjAUBsjhk4mo1ByPDMajQ+SlbAAitGuNVse4idF62LitgOC9ooEaujCikaiFDNOxvtHw3+ShAfDVRzR16LSW/Im6tcPBbwW1koOHcFYvXBur3PIJMqHfl6Lxn3sWeuniN6jgGf10WXY6jnt51VFXuCWG1mN3Zv03HgjrVOWoW97NvCN2bsbbYfs734X4XFuWbi1pcGjmaURxVvYwdbji8UlLtumC/b/AMyxGfwSP+r8F4nfBkeY+IWu8pnH2RU6+FMyVVb6vUsbmauOg4c1dchDbHEZMBiqHVBcH0LuQ3eB4rk9snMjy7n81MkWqs6XQaalLv2J7JEX955TKMAaISE5UW0ktEl7nYg0lZvaJUP2h1+ihZp6miJs5rkqopZNUqCrJa2nfTjVWfZO9o7PN2jhiaWlpDaYhUg1FcjpxVLtFiBOXoofsbhoSPNSOztF5HKUHCcbT8HYL1257pbZmEE6veBXwaCQTzJVHthllcXPkLnHUk1/6Vdjil/qOp1REdmfvld5o5zk+SumwY8K+SD93yMBYTvc4r0Xe3mfFQRwv3SO8VOwSD3q+CWbVT7EsdlaD7I8lOGjcFA1z+SlbUqg9i77OMhjs/a73AYy6lK1IoMqUru10J5uGsocAIxGtWmlK0JAaWgEGrRnyPJVK6LSJIHWV7CfebgpjdnU4Q4ULgDpqRXgrcA3GyRxo9jaHKmJ2Wf5SeHPInfysyam7POdVBxyPXd7/wCiv33J9ps3bMFBGcw72hUDEKg0dmWEaZDwVVCs+0j2RsdEHN75DgwAVb3i5zyd4NQBy6Krha+lvTudX0+/hvxexssqtCV5VajeZI2u9QkNGg/dbuKGmeoiAV72gBjtMxRJbrnLHdQpb8eaNNO7UivPglzHZ70yMdjj9VmrPt2LdZAaDotbH/McgrJasmctUZd7gXvO5BwdKE06DLSyoSJ1Y3hzCWuaatIyII0KsZFUotsOdVE6LywTRN/iaX+nH6rED9arEfxZeTB/SY/CCr+2ollDoIfuoC5znNb7xcakuO+vDRJoI9FkbKaogDJHOblyZseCMOETsdQE8EvMpOZRFqdRvVLSCM0KQWXI1seumzW0dvLX1rlwQjm7woqo9KMDzyi7RZDeLRnVTQ3233h4qtw0JFTQc0ewN3Zpbikb8fWZJcUPm2uF2+i2aGbnhJ42M4IqONm4IWjfjyylzQzA5hStegoiAiGkKjSmTiVetlUQAXtVRZOJCjW39ag3CJn050ceGTnAkDkCggt2MLjRoJJ0ABJPQDMqnBS5QE4Qkrml+JrNK5xLnOLnHUnU9Stc0S+ySh/Z9jL2lMWHs34qccOGoHVCvJzGlPjz5otNLgkMkHtFr8DcFYSo8SyqoYeSIS0VOXFEPQ5BcaVoKGqhTYrtDHSEwtGINpiI4n/opTabMY3ljhQjjw3KWG3SWZ78JrWgJ40rQ+pTq2tNrszJhTtGBzSPxNB06ipp1WlR22PK5uob6h6/4EUUxCcXVaPikDUZYnUBS5I6HTZnGRerojikNJZ+yG4ljnA+LdPFXCy7H2GUZTum/TIwejRiHmuW2G1HimEzjQGtKeHqqjJR5RtzYZ5lcMjj+X8/qdE//m1l/BJ/+jli51/Gz/Xf/wDd37rEz40fBg/oOo/7v3/yKHszK9wrHvoSh5rQNySrNc3FGtoNUNK7co5p80XdtzyzOFasafeIzI/KN6YlRz8mVPgVyFD1zoF1SG4bPHHh7JjuJc0OJPGp+C8s1jiawlkbGmuoa0HzARqRgyOzmIoNdUZCeCkvizYZnEaOzHwPwUDIyNDmoxuBvmg1gIRMT1BFajTMA9f7KQy/k8ilNHUxyS4YfHIp2yBAQORcbTwKB7HQxybQSHcluHKELYFUNG1yWF1olbE33tTwAzLj0CvF+2yO7oWw2YASyDN+WLDpiJ4k1oNAlf8A4viGOd+8NY0dHFxP/AIP/wAhS/5w4vwR06U/fEnR+WFnFzT/AKjrVhl9K7edrGWwt9WeJsnbSYZXvqXOBILaClX50zxaq0bRXBFa2Z0ElO5IPTER7TPoLjrrSF0fYG3vNko7Rr3NYfy0aadA4uCKE72Yn1LpVhfx8ct7/L2Oe2iMsc5jhRzSWkcCDQhRucme2DwbbMW/iFaccLa+qTElIa3O302V5MUZvuj18nIn64rWFxOWCgOtTmeS1JcNCB4VKlsnaVxOII6UVD+5Vb7sZY4nVrswfkeaslxM/wAjXk74heX1hkaYy3UVaeay6JKWDwd8VpxytUeX9V6dY8qkuGVlzaguG459OK2sk2E5ioW9zDvnqUyvC6QADHQV3H5K5xVCeizy1KPfsSR2uJtCBUnQb6rDPid945tNzQa+dNUnbAa95Nfsra0jLac618RRZ3SPQYsmSfYMxM/CsUP2R39UeX91iqx/zeBSZsQGdEDPJT3qoq8IQCaZcRu8EJdtnEs0bdxcK9BmfQFOglycHqskovS+SybK3QHSMc9mIEYhUZDLLJPbTKWzDLcvbHe4ZMGYaDQcOQW18X02NwJb6KbMzxyO6DJnktyqo7vgf2ZqDqg4doA8ZBOrtvMOjOW9EhGS7Of362hFRTvEVQkUdeKbbQWntnYQKYXHrwQMceAVPghbOj0mJ6bZqICDl/ZbYxoW58lvZ5clhmjPtVHNBdm5KNbMgDuZ9Qp4h181nZE+w8Hkt29o3WIFUFBNPcnj5A/FEMrwQrLXGfac5h4f3opWyw/1HHzQmuM41sy2bCXqIbQWvNGSjATuDq1YSeGrf9wVw2p2dFpAc0hsrMgXVoRWuF1MxnWhzpU5LkYt0A3u9VZ7n28dG0M7RsjRkBI12IcAHtzp+oFMjLamjl9Z0spZVmwyWrxaC7NsZNjpIY2N3lri4/7RQeZVutNshsUAyAa0UY3e4/3OZKqtp2xlkyiMLDx7zj4BxA9Eut9wTS2f7ZNaXOq/s2t0J40oKNAzyVppfSIzYOoyuL6l0rqvv/AU2iSSRzn5YnOLiSd5NVF98PwO8aIqybLSSNLmQyyNGrg2Rw6VCKuvZUSMdK4xxxMdhe91atNAfYGZ1p1S9LZ13mx4o02kltz/AGSFEtoDB95E5o/E2hb4rV7i9v3Uop6q32G444JJSXQyNYyJzHS17ItlqcZYalxwtIDRWpKrl82CJk8joWujbiJa0tLThOYBacxrv3UVuNKwcPWLNk0Q3Vc8CbG6rcRzB+as1kuphsoa00yOR3EnP1VZvMEkOHVOjasUGNuRINR+YD+yKD3MvqeHVjb/AOP7AV07OuafaGq82gd2b8OtAKZ8QtbmtD97ic/mtr3YXSVPAJs/p3OV6cry7eAGxEvdUtbTom0DPyinRCWSIbjyTdsYy/dZmepwxqO5Dgb+ALER2Y5+SxDY0qtuiFQ1za1IALeJ0BroiLrsPZPMhFKCgFanPU+S2vB2HoPPqmFgImjBrUjI048fFOi9jz/qUWna/wBgNllxWhn6gpttO65vUrGQYbQzhiCzbwZs/UU6JxLakI4pSNFb9mX1if1Co0blcdl3/cv6j4FU9jRJ20xRaH0kd1KAtM5OpUszqyO6layQUz3JZ08TcoUiSzmgAIUwswdmvI2Yhkt2WdwNQaFCzZCO3FoElso4HwWRukZ7MhHVHMtQOT8uaebOWSN8hhfhMc4wNfQExye45pOmeXOoUTt0wMsFGLnDt42ZXmXk8HNsTuWhRcVvhPtRFulTSo614ZqzssbbOyxw2hoAdaXvlB3Na4R5/lyr0RVnuK2R211WOwOcS95H3T4qk5nQjCchqFehGaPXzVtNVvz3r+4mu+xmVxEUdaCpccLWtHFznGgVov2z/wCQsvcYJGvdGSwtIeDUsOJmTj3adapXd7oZIbTZBKyKs2OJ7zRjmtJAjc7dlShXloiZBZHwCdj5e0ZK0R4nRgggENfSlaVJ8FcVSJm6jLknFpVTTSp8ebHX8FsEU0cFolldLVofhwiIONKMJ9sajMFE2a0Flmt9kDWkwFzmkipLS4tJNdHNbhoQlf8AiGwyPFplik+0gAloc3snPFAHn3twy5b9UHNtWBPNPGxre2YWPaauFCGh3DM4QfFFqigJYOozbSu/ve132+6iwbQWq0thsklkLmw9mxrSwmna6FrwNTWgoctVBf72H7fHja1xfBIBWgc9opKG8TXNVCK3mmFshDSa4amleNNK81E5gOufiheQ2Y/TOLa24aW73vceybQNYWGNrX/cRRSskYHsc6OtHAA7tQct6S3jbHyyOkfm5xqf7ctFGQBoFGUtybN+HpcWJ3Fb+QO0iqKsOcTm9T6IaZb3LJ96W/iBHjTL4K48g9X9lL2ZJYYsK0vQ0POgUtonDTRQR0mdvoAPNPyfSec9Li3npeAiwR0CYNah4RQZblI2YaZhZT1ySSJafWSxa4W8fisVliO8fe6futNmPZd1CxYijwcT1INtH85n6h8lBt57v6isWLRA87Pkqrfr0Vy2T/kv/V+6xYoxvdCB/wDMd1Kkk9kL1Yls6vTcMnsWiJesWJbOnj4Fts0CbbJe039bP+QWLFGIf1S9mXD/AMrf6mD9Lv8Ammzv/hh+j5rFid3OQvsMfu/3KAFHaPZPgvVizHp19ILFu+ty3Oo6LFiJiyRn7ImL69FixUPgbb1FNp5rFioIhm9lQ3d/qGdVixFHkz9R9m/xPL19o/W8qTZ72X9VixOycHC9F+2fsNot6Gn+axYkHpmYsWLFZD//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhMVFRUXFxUVFRcVFRUVFhgWFRcXFhUXFxcYHSggGBolHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0eHSUtLS0tLS0tLS0rKy0tLS0tLS0tLS0tLS0tLi0tLS0tLS8tLS0tLS8tLS0tLS0tLS0vLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAADBAIFAAEGB//EAEMQAAIBAgQDBQQJAAcIAwAAAAECAAMRBBIhMQVBUQYTImFxMoGRoRQjQlJiscHR8AcVM3KCsuEWNHN1kpOi8SQ1Q//EABoBAAMBAQEBAAAAAAAAAAAAAAECAwQABQb/xAAuEQACAgEDAgQFBAMBAAAAAAAAAQIRAxIhMQRBUWFx8BMykaGxBRSB0SI0QjP/2gAMAwEAAhEDEQA/APIRNqZqYIyYAywiwSyawoAUTJoGbvGAZINJTYWcAEBJBYXLN2nHAcsy0OlIsQALkyyWiKQ01f73Trb9/WBug1YnR4W5F2IXyPtfCNDhtLmzE+Vv9ZpqhPI+tr787/CQz30sffp66jXrF1DUSqcKpnZ2HqAfyimI4XUUXAzLyK6/Ebxo3toRbT7JN7dDD4asw69NLgg/z3TrOooJqX+LwQq3ZRZvcAetxyPnKJ1sbHeNyKQM1eTCzfdzjiE2DJWmWgCSWTUSAhqYgCTVYQLMWSEUJvLBssNaQYRTgOWZCTITirKzVodlgyJyYWaUwgaDmR0KFDTYMEDJoYyFCrCiCEKsIDYmWmwIxgqOZh0Gvr0HxnHF52X4A1ZgNtLsbeyvT1N50zdkqC3zu5HuH6bxvs0nd0b65mOvLbl7r3m8cxYj+e+SciqiV9Ts9huQPl4jfp7oL+oKF9B053jahhCpvEciiiiu/wBnaBtoRrfQkC/pNt2boHmw9G0v1tLJhIC85SOcCqbso970nD+TG2o2+M5jjvDjq+Ugro45i2lzPSMHW1A/hlN2mQFi/UAN5jXQ/DeOpE5RPNAJK0Pi6OVyu4Gx6jcQNpUkRIkCIQyJgYTSwiyCiFURWMgqQoEGgh1ERhMtIMIW0G8BwKbkZkJwF6cCyR90gHWRjIo0KFZAxh1gWEsmI0QvJoZC02I6YrQwphkMXRoRWjoVhxLPhC7nz+NuXxMqA8uOALmdR+K9hvpqLD3QT4Ojyeh8DwbhA7nTcLplXnoefO/ui2K4pQUm7C/rK/tBx9gO4pGygDMfMb38ha05o47DnRgDc2DOz3JPkgNvS0yqT7GrSuWdWvHKRNsw9Y0tVdDmBv5+u/SeZY0gEtSPhvtcsB7yAR7xLrgIq1fD0F/dJy1FItPY7h3VRcuvx/msgmNpn7Q+U4HiuJqKcp6kazOEtSvercnl9atO3PQHX8oYuXJzrg9Gpa2KkGL8RW1mI0B3IvY3525ecp8Fj0WxpMdrhSwYMPwsCQZ0IxCVaRO11II87SinZKUaPN+0S/WX63+R/wBZV2lnx6pcrff9rXNv5vKu81R4Mz5NETVpKaLTmBGlWEUSF4RTEY6CpCiCEmDEYQl4JzJXkGgCQmTLTJwBl1gHSNsIF1mNMu0JukC6Rx1gWWXjIRoUKzLQrLBkSqYjNCSBkZkomIwgM6/gGASmwda9Oow0ZFBBRzYFQT7VtQTptznHAzqOBhKVUPYlmBqs1zbLmFltt5384MkqQ+ONsu8f2dLlme4BJJF97620/n6UWL4TVANM0B3ebMLMANNjoQbzqqvHO8a6kKu3UnrDHilMCZVNI1fDbObw/ByVXOqoqiwNjcDmATq178/nOg7N8JAzONFtlHnEMVx2irfWVu7HJct+W58vKNYHtbQIsmijwjUHb0nOXdhUeyFsfwcVGynlcgHz3F+UqeIcHbIKZpaBswNMqrbEbsCDvyN50DcewztpWVW1FjaO0cchsp/Qg+kClQXGznOG8FBsctSkygBTmU3sLXYDcm5BPQ9J0WBpd2pvcjmT5x1VUjSRxIApsNibD5xk03ZOSpUebcewNZbO9Jlp3KhrWBbX3i4HPeU+adF2lruyhu8zU6gTKo0AdSS+nP7OvnObmzHLVGzJkjplRK81MmjGFJqZNTA3kgYrQUMq0mDFg0lniUMMZpotAd5MLzqCEvMgM8yCji5IkGWFmsswGqhZkgmpxxlgikKkK0IukCyR90gHWWjIm0JssgYw6wLCWUhGiIna4U0zg6VSxD5Wp3zaEJe+nu+U4u0d4bVOdFvoMwA9Qf1MMlaOi6Y8tcjSO4di25t1lZbWMmtlXe0zyiaoyovm4VRqKPCCep398Qfs5TBuMw8gTaJ4bjxUWphT+JiB02HvjlLjFbbNSNzYXanvDukK3FsscP2eoc0B/nXeZxTD5RdPCF5coovHay/Zpv1yspOptuD1gm4yKrgqpXk4PXmP51glbQYtIbwnGCpFzHkx5eorE+EEE+g1M5zEUx+0ZWoVoub2ORgPeLfrJwjuqGnLbcF2uoLSWhTBUmzuco0AOVVGvmrTnLR7iWMeswZ9wqpfqFvqfPWLAT08cdMUjBknqk2DCTZpwlpkYUAVmoeDcQUEjeZeatN2go6zRMiWkyZAxWgo1mmTVpkATpss2EhAkIqTz6NlgDTg2px3JINTitAK90gHWWD04vUpTkwNCDrAOseenAPTloyEaEysnh2s6noy/nJOkGRLpk2WVXwsVPI/LkfhNbsJLiBzEddvUfuINBe382itbWUT7F7gsHg6mXvAVYHW2g1NyDbkevKXydmcCQDlB8+90Nh0yzjKuEZ7WvfqN5OnwbE7Bzb1ian4lFS7HR1+D4FL5srfdUG/pt7Ur8Zh1UAKAoGgUch+81guGPT1IJPU6zMUpvr+8XU26GaVWJ1KnXlLThOE71K4I2o1Cv8Aft4be+UWJexnRdn2y0KzHYoR7rGUjFJpkpyb2OQZZqXGMqGtcMPrFppUUncix7xD10AceYbrKnLPSnDTxwzCn2fJCZCZJmWTCCIkWEKRIsJwQNpqEImZIGEEZowhSQZYrCQtMm7TIobOuRYZFmkWMIsx0arB5JFljGWDZZNoNirrAVKcbcQLCTYwhUSAdI+6TMPgXqG1NS3oNB6nYQw1SdRVsWVJWypenBpQzG17CxLE7Ko1LHyE6U8DVBerU1OyU9ST/eOg+BlX2kKqncU1VNu8Ivcm/hQsdSBueV/Seti6HLWqapeHcySzwbqO4pxIgkEbEAr1NwCL9NDFqeK+Illi0Ui22UBbeS6D5WlTWoHcSElpbRS73LHD8YKHSOrx43vpOXcnnpIBvOTcEPrZ2Z7SEi0rcRjyxJvKbDIW2BMs8Pwx21fQdJyjR2ps1h6ZY3O06RHtTycjpEaNEL5CHogu9l+zv6kNYfIn4SmODyTUF3Fk9KcmK4Via7uNwQR/huCD5amON2ev/Z1VI3AYMpA6EgEaXGukJw/C5GYn09epjgc6EHUbeo0/I2n0sumhKNNHlfFd7FE/BK/Kk7edMd4Pil4jWospKsCpG4YFSPUHUTtWqBhcj06iYctRMlRQ1tgb/I7qfMTNLoF/yx1nfc4VhBNOjxnZ42zUWuPuvYMD93NsT5nLKLFYd0bK6lT0YEe8dR5iYp4Zw+ZF1NS4AKJO0wCbkmhiBEgyw0iYrQbAZJuEmQUGzrKYjKxWmYdWmM1BLQbCO4bCZtWOUeY1Pu/WTOEp3PiY+a6/G6gCaY9BmnHUkSfU44urKepNUMO1Rsqi5+Q9TLdEo3sid4fxE5R62NjD1Ky0l5ZjyUBQPQDQS+L9Hk3eR7eRKfWr/lC9LCUqWrBXPVhm1/Cp0+ImY3HG16hNvspff1tsPQCLNihva7cr7D3RXKWOZjcme5iwwxKoKjDKUpO5Ow+DuWNRtwCR5ZQSAB00lDisESV5nUknrvrLfFVSqaEjlcGxiVPiSjSopP4hY/EGO9PEgLVyhTG0DZattDZW8m1t8QP/ABMTqLeXmE4rhMzUK5ZaVVbElfYdfEj3F9iPn0iuM4RUpAOStWkfZrUjnpn1I9k+R+c+V6xrH1Eorhu1/Pb1u9vCj2cC14k+/c56sORgKdAXvpLfEYe4v+UTWh6yWs5wGcHWy2Al3h6umoEpaKxsPEc2UjBDeJrWvrGeD4EmirkkZ2qtz2Hdqo+RP+KV1PDPVIRBdm0A/MnyEn2g45VpVaeGw72SigTYG7E3Zj1JsvumnopaeojJ8K2/5TS+7+zJdSrxyS5fH1v36l9RwZXW5mq1PToczW+UoE45XItnH/Sv7S1wVd2XxMW9fPpafVRyxmqR4rhKLtjdJ9JOi9jB2tIhtYxw53hBzLvzHIjoRDuEdbFQRvlYBlv6Hb1ErjUk0xForQQrcBwbbo6H8DnL8GvaDbsthDtUqj/pP6Q64sSXfiReDG+yDql4lVj+yAy3wzs7DdXyrmH4W0F/I/HrzGKwz02yVFZG6MCD667jznfU8VbaM1KyVVyVVWovRhex6g7qfMSOXooy+XYaOaS53PMrTU7/AP2cwP3Kn/daZM37LL5FP3EPBiWBwrPtoBux2H7nylvTNOkPCLt95tT7hsv5ytrY4AZV0UbCIVcYSd5o6fooYlb3l74BkzTybLZFvUxZJuPPeCZWf2206DQfCV9LEai8nVxM2WSSodbEhRZdIlWrXgC80BOsNBlMIDIKskYwrF8XrKrEUzLdxFqiyU1ZSLOfx+HLDzEBwjiT0GI+wfaUgEepU6H0MvnoyvxeBB1t/Os8zqek1mnHkovBghUF6YsbXKC5HrTvrb8Op6E7BNsERLrsTh1qoaRutSlqrDfIdrjnY3HpadFisAuVrqC2hYjzB8QHnz8xzvPmHkcMzwz5XtfU9eMVKCmuDhsNgmY2CknylzwjsxVrNZRbqTsolnh8MqXscotdm6Lz/QAczaU3HO2zhTRwxKUxcWQ5Wa/N6o8RY/gyjlc2vNMcGXImsdLzfC/t+X1Jzywhz9C87R47C8OotQokPiGGVmHtKTrqR7J5heWhPU+eYfC3uz6s2rHzksNh2Y56m/IDQC+p95OpMs6dKe3+n/p8cEd92+W+/vsed1HUPI/BAcPhh0l3hKdhFaFPUToP6qqKAcubkclnyt9x8t8reRnrRlCDSk0rMU7fAkRBkRyrhnz93kYP90ghrb3IOwtrf3wOKoMjFWFiNx8x5EWINxyMrrg3Saur/jxJpPkVcwD1JKqYtVisoif0mS+lRFzBl5PVQ+ktqeJjFLESlSrGUqx1IVxLn6TMlV3k3GsTSV9XERbv4rUqwLVJkllNCiPnFGOUq19ZRq0scLWAE6GS3udKJZo0IrQNLErHaTIek0xpkZbAxWm/pQ5xn6Op2Mg+Ft5x6YtoD3qmQYCdC/Ypu47wVE79gKtOgrDO9ErmZsrWbMNTYAjwHckTljTYSKyKV0U00FNOCelMDtCLW6iBtDInwGsaOIRwxQXyMRyDaX10te2/Sek1eH5TmZi+f2i25B220nmb5T5es7vCdoP/AIDubGqgCAHm7aIfTn8ek+U/X+hnOePJiVtvS/549+h63QZ0oyjLtv8A2cb2sxpBOGRrgH60jS7DZPQDfzJ6Shw+C1vbb+XjIdEN2bM1yTfW7Hcnzk0r5tp7/T4IYoKPLX58Tz8mRzk2Fp0gIUHpIKIRGuQFFySAPfoJt1JKyNWdLwrszUCDEFhmsjItjYrUyDV7jI1qt7i9rXnR8CwFCogWm2UrRyNZHDipnv3mceEqVBst9drSmwXZ90VaxdSjq63zKLEowvYMdr63tYX9JcdkQgNdKoKk92NRqpDnRh0va/pMCyQySnKMt6j2ra32fh77DyTikmvEfr4CiLFiKdJ6gYozVFQUsnipqi6Z89z12PpzZ4JUr5Ep5bKqHM7DMq17FRlGvdqTYb+LPsL26TtiCuHogsGGdrZbW0UAaDQWuf4ZTVMBiWpIKRKFAzsQzrlOeoygsim2UM3tWALsORsHOMNE3Krb+ye/i/B+tvgFN2q9+ByHFsI1Go9NiCVNri9iCAQRfqCJWVDG8ZXd2Y1CS9zmLG5uNDc89om89K9iSAVDFyYaqYrUMjJlEFDQqVIopmLV1HnAp0c0P975zItY9D8ZkpqYtFSW5weeZfSDWeXKW5pSDqY1hluLSvdofBVDrHhNaqA1sPZSIWnUPWQoUXbkZZ4fhh5zZCLfBGTS5A08Q/WdT2D4dUxOKQFitNCruwIBFj4FF+bNYfHpKccOAGpnTVcCKVClSTE4akxK4iqzVwHDi/coEQMwyA329pj0j5bjGrpsSLTPSsR2ZSrijiKpa1MU1oKjstst3LsRqWzMRa+w1veee9vOChKr16SgUyy94oIOR3zWYW2RirDW1mDDpGO03aAYgUL8QNIopz/Rqdchqtx4x7GluR213veJjj2H+kVK9SriK/eqUq0xh0p0npkWyeKsSttwRqDrzN8OFZIVJ+HFP3uXlpZyxAmFRMq2zNkzZLnLmtmy38Oa2ma29tJOlS5zZOdKxEgR9JumqucpOnPcDpyNyRc/GFqreTwOA8Qc7beWuo/b4zNLM6HURX+pVv4aaEdc7LNHBBdAPmT+cvFbKcpOmw/SBxlHn8YYZN9zmipyQuFfI6va+Ug2PO0xpBzoZpcVJU+GTtrdHdcM4hRrIUB8RAUU3yroSc17C7CzHUEnTa5limARGWm7NURjkCEo5TwliUc+NLeHQ7Anec7xLgKHEfR0ptTJD9y2SsoeqtMOtM1KjlWBsfEoFvPeWvDKFQGktPGu6vkyM1DvVys5QgORZWGp1bytqCfPzYdri79bT8t1d+uzq9+SsZLvt+B6twQKVFImkoJXPkUs+gswrPpTO+3kAIw1Ojh6OtUKCLC+bk2a+tmqPfXQW6SqXiNStQFSliFVgazOzYdU+roJTLto1RrjOBpe9xoLSnxPBcUwNVrVcwur94pLr3fe3QOQzDLc2AvodNJ2HppSdzlp83u+/iq9G264qthZ5EuFZQ8SYPVqOo0Z2YX38Rv+sQqiM1Hi9U6XnraFCKiuxnUm3bEa0RqNrHa0qsXUteZMsq3LwVmCtqYJKtyIBG0M3QmP4jdFdJa99/NJkWzTJr+IS0iZMgDNFpEmee5F0jTNHOH1Aup1iF5N6mwHKJDJpeoZq9joF403s01hBxSre1rnylRw/QXvqZcYJlG2p5z0sOSc1bkZ5xS7DCVMQ3QSS979qxjKtpB1FJ5zZpruyCZunVjCyvKEc5grEeUVsdIuUppl1Nmv/NIRFtcHQDf8rSrpYudb2WwTVwajYfEMMy5HpmjSpXHMvW9o3tooMxZXW5WIlw/h7Vr5HpaEaNVpIxP4VdgTOjwXZtA2RkqlipvSqjuWbbM1CshZKhGpCHe8vab1H8P19S4syseH4pFF9yilXYenXaQRAfqwocE5CiF1w5YC6U2pVCXwVbQFGWwuBrqJlcmx6AY7geGdw9KhdScyKrmmWXLYvUz/AO70QQRoCzHbzp8d2bGR3VyNdGOWnhlF9R31dg1UW2ZRrOnZcwBKs4PjL1FNyTlVKlSiB9ZVuMtOnawClib2ESxeOSm4N3q1M2UKEXFYnvApZhnZ+4otYf2dME9IYOXY50ebY+iKble8p1Bp4qT50N+jczEnqT0jHH6SoptW4iUqIWF/oro4Q+MCnTszFCNUXxi3sziO0HA3w2Rs61aNUZqVZL5HHMEfZYfd+Z1tvx5dWz5ItUVBc9T8T+cnSqMPZZhrfQka7X0520vBgQqCaEhGywwGPrU9EqOovmsCcpJGUkqdDcEg3Gojp7QYgCxZWHjtdbW7yl3JAy2sAlgANBbaVadZlUyvw4vlEtTsDU2ixO4jEEwgmhoitQSh4gDa/nOhcTnq9UEsh908/qqqn3NOMURtIdDFFFrjpDK086Mi7Q3mmoO8yaNZOhdjIsZoyVOkW2ExORUGs1qTLbA4ULqdT+UcuOg+EQYqsKhOx+MucHQdRc/neVPFdSvvkKDNfc28pswZlF8Epxs6qm8IzW3lHSxJ2BN4zRL31v7568cyktjI4UPs95Du5Kmo5mHV0HMR3GwXRa9i+GUq2JHf27qmj1qgJsGWnbw+8kX8gZ2FHGHFolb6LUxBFOo+U0T3KVgbYeguayikg1YrfMQt77Sh7A8Jo4vFBKgulNTUK/esQAvpdrn0tzntigAWAsBoANBYcgJ5nVTjjnXL+yL47kvA83TgbVHIXAVNxepValSdhlzVXLXLCq9TKtwLKi2XJAcF4rWZ2weJX65QUUEm7hQS2Hqm5z3W+RySQbG5vr6LxLiFOgne1XCJcDUXN+gA1bQbb6E8p5/29ZFxGGxtEghvFmBHi7llKsOuhtfyA6TsEnlelx54e/K97gn/AI72S7T8ZahTXuajVKtW+SppmyWCvVAGneOR3YPJaelr6vYbsbihhwv0ikjsgWp9RmN1bPTYvnGaohGj2uPPQxI0Vq8aVABkpEBF/wCFTzgD/GSfcZ1HBe1VDE12oIrggEgn2Wy+1py1PPeDJqhBaF21N0u/B0abd+gieyeJYlmxgDd8uJGTDqFFUJkJALkgEbi+tz1M4zthg8VhaDYauqVadWucRTrLcBajXNRAn2L3Y2/E1r629c+lJdhnW4NiLi4PS285r+kl1PDapI50itwQQe9UXsdRp+clgzS1pSVq12HnFU6PE8s1N2M3PcUTI2EpubETTGZht4aqg2lEhG9wawbLCJCVF0gatHJ0yvqCcnxHSq3rOxqiUHEqAzgnmQPnPL62GqJrwvcqaine3/qQUywvIPRDeR6zyjSLd5MjP0PzHzmRtTBsAoUcx8ucsKagCwnd4/szSrUl+jqtOqg8IGi1BvYn73QzhnQqSrAhgSCDoQRuDJjUbBmXmwJgWcETx66A+cnhKhXUAHyMJi08PvE1RWxmnDF8k5jQxNU6KqIOoAEKivzce6DKje+kitcDznox2+Zmd+QyKZ6mGppF0rMdlPwjCA7nSaY12Juzsf6N8eKWNS//AOi90LdWemdfcrTsu3naTE4SpTWiwVaiubkBvErWIBfRbXB6a+WvE8A7K4gomLatTwiaMlSq2Vvwsq22PK5F+V4x2o4NXFFMQcYuLpFwoKs5Odr+yuo5G9jfymeUcc86bafavP8AAU5KJ1nbG5wmESvWUWYipVCl1zrTYIcqa5STa4GnyNJR4phKuIw9Gq4OGw9Bkz1MyCpUI8RA9oAnLYHXwwFDshhqAprjsUKFaoBlpooOUHQZ22GunIXB1M5GqoDEA3sSAbWuL6G3KPhxxcdKk9r7Ut73X4BJu7aO37QcXwlGvh8RgDTL02bvFTOAwIG5YcxnHPeC4DxzBUsalde9pKDVaoan1l+8UhaSLTHsqTfMddNeU4600DrLft46dLb4r39RNe9nRcYq4WpjhWpMwRnp1KjMpur5s1QpbxW5jTcm2lp0Xb7tHQr4daeGqggue8XIy+D2ltmGniVdp5+pmIYX08W4tt/48A1tJ+ZrJAvGhFC24mgVEsM2sZxEQotZpYVtgZy4BJbghGVW4iuaMUmnAYrWWUmPS9RR08X7fkZ0NddZSYseNj0U/JTMHUrY0YmVCiGppIqsaopPBTN9Ee7mRvu5qGwUd9wLlOS7ef79V9E/yrNTIg75KMSSzJkKOI1tpFeXrMmT0Om+Qhk5CNsfWTwG8yZN2P5kQfBb8olV5+hmTJqkRR6b/S7thf8AF/kWUfZj+wT/AJnhP8kyZMOH/XXqVl8w5/Sh/wDYH/hUvzeckm5mpk19N/5R9CU/mYVd5pN/fMmS4gfC+0fT9IOnv7zMmTlyAKP58Yj9o++ZMnDIH9qWL7CZMhiCXYXMZw8yZORz4N4jlKPFe1U/ut+UyZMfVfK/QrhKxY3QmTJ86j0RyZMmRgH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhISEhMVFRUVFhUVFRUWFhUVFRUVFRUWFhUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAQIDBQYHAAj/xABKEAACAgEBBQUFAwgEDAcAAAABAgADEQQFEiExQQYTUWGBByIycZFSobEUM0JicoKSwVOys9EVFiM0NWNzdJOi4fAkJUNU0tPx/8QAGwEAAgMBAQEAAAAAAAAAAAAAAQIAAwQFBgf/xAA6EQACAgEDAgMGBAQFBAMAAAAAAQIRAwQSITFBBRNRIjJhcYGRFKGxwTPR4fAGIzRCUhUkcvEWNVP/2gAMAwEAAhEDEQA/ANXc85rR6fEVt6Zi0dGEgR6ojiXqQPZVKZRLoyICsqdosTExBYT27JZLPbslgsXEJLHoIUK2WejYDnLYmPKmy70etqGAXUHwLCaYHKzRkWdm1tPWAbL6lz4uv98uRz5qQI3ajRNwGoQ/XH1xiFoEXXf80Vmu2rSxASxG5kkEHhM+RM6enkvUotW4znI8fSZZJnZxSVVZEGiFtD1MlgaPFoCUITJZBO9xJYdlinUwWDyyN7iZLHUEiErBZZdChIQOQu5ICz25ISz27IGxN2Qll/qLes7flWeLx6tLqCLfkyuWOjp4dUmSHjKXE3wmmQWLKpIviwW0SiSLosgJlLRaJmSg0KGkBQ4GEFEOp1AQZMvxYnJ0ZtTqI4YbmUW0duPkbjYHCdHHp4xXJ5nU+J5ckvYdIor9exJJPOaEkjmSm5O2yE6zPzEgvURtpMOI+vWAIJdtdiZNpN1BdG3XJHPhyyeER40Ww1Ek+GaTZG2c57wnPTGcTHm0/wDxO5oPEUn/AJrbL/TagOMqfvGZhnBx6nex5Y5I7osIVIgWx3dyA3DWrkCpETCQsTEEhBRIAWEgsgD0BBJAnpCFsyEHE9LE+bSANQd0xnFMfFncGer1Mx5YUeg0Wo3j2uzMUmd6MeDyV5lTVhcqCqtDF2FMs9BS7NHhG2FD1LBtTs7HIRXAux6m+pV3V4i7TbCVlF2ju3UU564xnnNWl60cfxpNQUjG6q5szoo8swfLOcAHMItFrs7s3fbzBA8YGx1Auf8AEhwOJibx1jK3aHZgVjLZhUhJQKC3TEHC5EdFdUP0NrKwzxHnykcbGjKmbPZW0eIClMj9AjdPo05+oxVzX1PReH6uTqCkq9Kr8zWaY7yg4I8jzHlOcztT4dE4qMBXuGvVAMpAlqwl8WRQjiiQAsJD2ZCHoUrIJmNtIO3YdgLNNq9LO9FnzuaM/tLl90sTKlHkrBZiZ8zO34fCmTUXZOJzZdT1kF7JfbPqzFRjzyovNPp46ic2eQJGmj7SjzAfU6bhA4l2PKZvadGJS4nX0+Qp9nbBW6432jKVjdqToz5O8x8hwHzHlNmmioxb9TieN5vMzLHF8RX5sg2z2N333kGM9B/dLrOQo8FxsTslXWAXQFvHxkbBRetQijAAEFliQ2wiSw0VO2dGtqEAdDACjlO0EKOR4EiWxZRNA6OCCCOPSOVCflPj05eIgfI0XR0vsPrzfRljlkYqT48AQfoZxtTj2TpHqtLqHlwKT69H9DULTM9DuZHfRwkY8JlXqa4DbjkAyGgUQkFh6gFjqJBpMsUQoZvcY1DUEyUVHQNdpc5xOwj57JmN25pseksFj1M1qWxMmY9BoFyhmhu96c2bPURj7JsNktnEMGczUqjUaNJoicbKw8Vy2jLuA9UsVl+NmY2sueErcTp4suxWP0agBQOAEvulRwcknOTk+5Zo4EayvkUnMIAK7HHEA9sE1FuFJ8oLCgNbeeeWJEyM5z2vGLM9DHg+Sma4Mw2owceEuKBDbkZkIdE9lPFdQem8n1w2fwE5utXtI73hkv8AJl8/2R0mpJkUTRknQl9XCFwDjmVGr05lew6GLIiuOlMG01eahDpTG2h81EbVkRlEZSTIyZakOkRs0sURqImeNsGtHu/k2C7onWrp0kfNmUO29MGUx7JFcmG1ezySRMuWNne0WZQom2dsfiCRMMsZ3HrfZ4Nbs/R4xwjRgc7Nn3F7plxLUjm5HYUbI9lO0D1TZkLIujNbZyqs2PIevCBrgeWTiilo1LjoZXZmDRqWI4CG2DgjL2noZPaDwJYzAZcn74enUgPbazfL6w9ScID1WtUAjfyfIHHqY1gMX2hu3uoPHpLIdSqfQyly8cy9GVoapwcSEOo+yGolNQf1q/waYdUraO14dKsT+f7HS0XEzxiX5WP3cxnESE6I3048IriXrIyM6JfCDaN50iJ9CINpYs7ANRoxDtNMMxS6yndjRRuhlVFZbfiaseOyjUatQQO2ozL/ACqOetc5vgb3kWkW+bI7VYZcjyDKzaIzwhYYlK2hyZWzTDJQXptDKJQNUdQWtFEG0DzBSpDtE8wQrBRPMRDZXGoTzCg7VXJVQzvwGVA8SxPAD74WuBd9so9ndotOwHvAE9DziVRFyHHadaknAwOp6CDcg7WB6rtdplHxqT4AiWLkWqKi7tXp3ODvcfD3vXAiuI1oh76qz4LCcdDkEfumI40OpHrMYxjhIQyXaijdwV4Z5y3G+SnJwVWzdk2ahtyvHLJZuCj5mWuSRVGDky6/wPpa07so19pO69ysyitjwUIoODx8cyl523wbI6WFVLqa/wBiunJr1RI4b9a56ZCtkfeIMytobSy2Qa+J0S9MRYwLJ5LIqWhcBFMJRMxHEsWUmWiLtD5qI7qIriPHIVurrxBRphkM5tVuceKNCyOjKa1psxyoy5ovJHkCW6aWrOfDJsZN3kr8s0fijttlsRM4rBHbMjZEOrogGsOp08lB3BC1QbQbxxSChtxGyyUHcMKQpCuRW7d2RXqKLKbMBWHxHHuEcVfjwyDgw0Ju54Pm3W1d2xw28QzDeXjWd04yjZ94HmD5wJDye1nQdHpGu2aLWzvFSD+6SP5TPKNM0xlaOd6rROp4qRxxL4sqcWT6RgM4FoYdQVx9MfzhcQRlyXWz6r3IzvHwMokjQjVVaJgoLHj4RGgozPbBsbo8ZbjK8qDtn6G2rS71a56sfM8APqRFyWxsaUWT6CxipVqFrIG8zDPErxDHPyiW7o0xpcnTfZ7sX8n0FIK7r2ZucHmDZxAPyXdEvqzI506QdtJsR4xEeQF0rDEMoirIWVBEraHU2H1KIjQdzB9bgRJF+Lkpda3OVNm6CMnth+cCkbccLMrrmmiEuS2eNKJW9Z1MXKPLatOMnRJky/ajBvl6nZ3unKRpmS0RiuywoEaiWGpIBsfIwo8VijIYVkGGFIUIxQsIDivbHZG9qrnBxmx88ATnePKZ3Jps1wimkafuQmiqrX7KqfpxJ9YH0LYrkpdXsVXBHJjjHhFsnyKlezYDYsL46DOR6RtxK9DS6LS1VLA2iUwbXagc4gyRn9pbOFxBY4A/vjwdCT5ZoNHYprFbBtzmcKx5cs7oJEDfNDRXdFlpNC2osroVCtb8HdvjNY4vhR8IPLJ+0IyV8BlJQi3fJ07ULwl1HOsxXaHXbpxL4ISUgDSaskSSRIyLnR3mUSRfFlxTdwlTLogm0LpTM14UUurslRugzMbUbnIomzHJIzuqHOascOSZcyoDFc6WJUec1MlJj+7mizn7TrScTOSixuw+kR0Cg+iMQKUwkokUwMZIdFGoWANEbiGwUMJhsXac17W091rGz8NmHU9OPBvUEH6iZ8q9qzVifs0Ea3a1NdPvOAAMcxA5KqLlF2ZzSdpabn3at49OIxnzEWUaLPZatMsW1JHA8R0i2KAajWSAIGtzCCxv98KEZDqb7k3DS5U5O95j1kaHhKkdC9m9y4YszWXON52OPcXJCoPAdcR48C5Yuas2mr1AAlqkY3jZyntnc3eZHwzViaZnnFp8g+y9ZwAzDNAizU6C4HEzyRpgy6W/AlMjREE1N3GUs0w4AdZygouU6MftV+JlsIWXedSKh1zNcMZly6gatXGaUqMDe90T/ksnmD/hzptQnPRlDaowwbSYxAkGEg4NAxkPUxRh0VsJ4yWQYyw2CjMdutnd7RvgZao748dzlYPpg/uCLNWgw4Zx/tBpxvgoPDe6jPjKlSLnJvgv9hhEw+5xxzK4P1jktlldqkc9PlK2kyKTRXa7TjGRFofcVofHOQCHLYMRkRolpbOZGGKOqdm6Eq01RVQpZVZiObEjmY3YsUbdEmu1XA4gTLPIML2j94HE04p8mXNp+DOaS0hsTY3aOW4tOjYbHYnEzTNEEaOqszOzTEcaIlFm4C1dOAYYxA8hmNfpwTNMI0UTzFa+jmmJnlkbH06WCcqNemhbCe5lG86nlo29ZlRwUFVmEIdSIxAkQksQmRhTHK0rY6HgxWOhwEWw0P3YUxaIL08obIkcF7WjVabVXV6fIVWIXGOKt7y8+fukRIxV0y9PjhWylqt2kx4s6DqXbC/QyzZBDLzZdkix0mit+J9Rk9AFAHqZTLb2JKLXUsDriVweYiipAFt0A6RBZqxCg0WWzGyOMhKOq7D19b01Vh13wgG5nDcOHAHn6SzZJqxo5IqXJDtBsSmzqYYqRltdWXPDrLISGz4UkLs/Ywzkia1ktHns2GpGm0WixjAiNipUW1VERjIe9EUNlVrwQDGQkjPWjiZemZpAzpLNwiXJIlUonI7WkgP7uU7jq+WaBHliPKBVNkdEsOptjEsJN0gLIzbJREzy2xWiyIVW2ZSy1BKCVjkkKFZBdDY0Uc69puySyjUVjiMJZ5qfgb5gnH73lEZpSpWjma7K1bkHewOm8Y/s9yt5cjLSrZ1ijDsM+MRoW3XJE4CnGfmYGNEA1mqBOF5RC9JUM0ulLHjGTEky/wBLVu8Ie5ES7V0NlqU9zY1dgcAFeu8QACOvHEvwv2kmUZlw2jp3aTUUjU6TRs2LdQtgV8ZDPUExv+G9luPiJoy4FPlcC6PXywcNWjLXXoljVuwV0YqwY4wR/LznPcXCVM9Wk8+FZIK0y40O6RlSGHiCCPqJdFnB1WOUX7SovdCkYxlqlQgFI7kgCVG0K+BhQrRldcmDmWxZRNAO9xjt8AgvaCkMyzkeg0sB8qs6m0tpqR4kcjx0AIS+OiEvfxhbHLbI0FE1LyuRbEsdPKWXINUSpoYdIQH1DYBJIAHEk8AB4k9IRodTH7Q7S6awahVzdXVTZZc6/m1VVPAP+kScAY8efCHFHe/gb8uKeDD5k+L4SfVnJKu0NjJvKhIGASBnBx1kcaZiALNuuZNoygQflpbnFcS1cBempZukRgci90FGBIkI2WO5yhHRpOyWj7zUU5Hu15tb9z4R/EVmjTxuV+hmzzqNepDs/Ou7SNYONWgr3c9N8Arj595Y/wDw5v8AU57Mp2t2kL9ZqbV+FrCF81QBFPqFB9ZyM8902fRfCsTw6SEZdav78ldRa6HeRmU+Kkg/USrlHRlBSVSVr4mk2V231VWN4raPB14/xLg/XMsWRo5mbwbTZPdW1/D+Rttj+0LT2YFqtS3j+cT6gZH09Y6mcbUeBZ8fONqS+z+39TRtqQ6h62DKeTKcg+ojWciWOUHtkqZXaxuHGRMDRl9pPzjplM4lGbuMaT4Bhj7QVTbnlMsmem0kUgnBiUzo7kXbzftPAWR5hSBY3v5YkBs9+UxwE1V8lDIs9HK5ItiXAsVFLuyoq82YhVHzJlMuC6EZTajFW/gZ3antK0dWVrD3t+qN1M/tNx+gMzyzRXTk6+HwPVZOZ1H58v7L+Zm9b7U7z+b09Vf7Raw/iolbyy9DpY/8P41782/lS/mZfbfaXU6zAus9wfoKN2vPiVHxH55i25dTp6Xw7Bp3cFz6vlmlOgFex9TWv5y7SPq38e7WxBWPluLYfm06mKFYzyHjOr83WNdo8L6dfzMB2OHu2DxAP0P/AFmafUzkG19mjJK8JWnQ6kwTQaXjk8YZSIrNNpAMcBKxi109fDMYQlRM8IUh7o1dusGzNnW6qzHeuBuKeZYjFKepO8fL5ToY47InNyT3S4KPsrUdnbFu1Vh/8TrjlSfi98EIfRTZZ+9Jnn5cP76s0+Hab8TqYw7d/kupgVWcWj6Ook6CWItSH4hIPSpzyH8pKZGWuzNVqNPl6rCPFc+63zB4GFRZlz4MOZbckbNpsrtImoQB8Lbjio5HzH90ZS9TzOu8LngbceYlbth+csi+Tj5I8GcsJzLZdCrA/aLfZi9TKGjt4spab4i0avMLhq50tp4uyG2uHaCyuuJEO0CZHXmMlQyZYUJAyxFvRcqIWc4A/wC8CVzpK2X4scsklGK5ZgO1O2H1T4JIrT4FH4nxPnME5bme78M0MNJC/wDc+r/YzNrAcFGPPmfTwlLpdDqEKVlv+/xi1YOo8r0jBOm0WoNbs2kkd3qNktVjoxUq5Hz3Q/1nYg+D5frL8+d9dz/VnM9k6NtLqbdO/A1u9eT1Cn3W9Rg+sx5aTaNmLFkljU1F16lhqdPvZxKGFpozeorZGODwgQ6aLXZTk4k6Ctl8bMDENkjFvoabsPswXubGwUrI3vAvzCfzPl85qwQv2inVOUPZaqyr1Cnbm1e6BJ0OiJa0/o2PnB/iKlR+qrHrNa9X/bMD9AP2i7eXVagLUf8AI0AomPhZv03X9XgAPJfOczU5N8q7I9z4F4c8GLzJqpS/Jf1MsOHOZunU7111GnUDpxkchfOXRBWlvTGG5/T8I0ZLuDc30C66VbkxPrmOkgubQmqu/RX1kbJGPdkFRZSGB4xR2k1TL6jX94vvc48Web8S8O2p5ILjugLUHjNN8Hl1FqQfor8RHE6GKQf3sFGnzDYBZ0qPJWRX1yUSyp1CQ0Sz1FUDHiFlwoLMQAASSeQA5mK3XJfji5NRXVmP2rt5rskEisHCL4/rHz/Cc3Jmc38D3fhvhcdNFbuZvq/T4IoLNU3RR9ZQ2zr+WQJR9r6Dr8zAo+o6iSMeg5RhiIiBkoIt2vcDoXUAtorWes54mtypeo+XA48N4iaMOp2UpdDzXivgnnyeXDxJ9V2Zfe0fT0X7mt0tiNvBVuUMN5eH+TZ15g49w58Fj6nbJb07Of4T5+Gb0+RNd1f5mD3nHJiPWZFR2pwl3GNY55kmHgpcPgvsjy2uORI+UPANr9F9grZ2iu1FiVISWc4GTgeZJPIAZJPlDGKk0gy3Y4PI+EjpXabalOh2aNBobke5gUstRshN789YXHDfPwgA5A+U3SzY8cdqPPw8P1etyPJJUn3lwjDaLtE1GjGipwqMS1zJnfuY/abogUKoUdBxzmZsmonNUlSOxpPDdLpZb5vfL8kV3fO3IYmU7XnZsnuqhy6cnmZB44JP3mTrTBtNEcSQ/u4dqG2oN0rhUZv++EsTpFc+XQIj9YqZaghLoQk1d4ByOcIklaphFr7wzL8crPFeJ6P8Pl46M9pr8HjLkjnqTD/yyNtDvZ0itJfvMH4cWyuDeHyCr1dUO8jwEFSybit4mih7d67u9OEB42tj91eLffuj1mbVTqFep2PBMO7Ub30jz9exim1eEUDwz6zn7uD3KnXIJbrLDyEl/EplqMv+2JC1txk9n1KXk1UuiGFLT+lJcBdmrfc9+T2fak3Q9Afh9S+szw0z/bMm+PoRaXP3mO7sjnZ9RmC0+w/lzj72QTh8/TEnILi+FyOFflJYyxt9EKEP2fvg+oyhNdIjirn7I++T2UM452qVL8xBpM/Exb8Id3ogLSbuckmwiugDkIOpqhhhHoiULCW0IbFHWS0B5IruN78nkINzK/Nb91HgrGSmw1Nkhb3d0w9qYdvqNBkChS0lhbHI8KJYZpb+ODyP3HxlkZUzn+IaZZ8TXddCWykzQpo8p+Hl6EW40s8xA/Cz9DsFdsTeXPChzWSbweSgO+K5jx08SFVkWQEtKjnXtK1P+XrTotefVmOfuUSrLLczdo8Swwb9TK1WcBKWjpY8nBKth6RKNMckuxICYC1OY4AyDLcLuGGhtrF7qSieWhe5HgIQ+VH0HCsSUhtiQhUeIgolL1GnHjBQjce7EDDoCYaBvj2Vi7zdFxCHdPsi/wBl9lbbAzWs1ShSeCbzcuGVyN0fMg+EpnmUfic3U65xajjabv5L+oXrewbKpIsZm+yyhQd0e+d9XIGD4gDGMnjEWoV00Z8XiCnKprj4N/ThpGbs0e4xVlIYcweYmlU+UdrHHHJbo8oQqekLstp9hjVsesFMRxk+4gp8ZNoqxerFYgQ8ILpDAYti2LvSWGx9bx0yI0OiRm9xkYOBvYKkHd+1gjOOXGGW5GGeLFL201T+Pcm/J4m9h/DxOqafZnjNyieVyaoNTZ48I20zvUMU7OEmwX8Qxj7MB6QbB1qmjiPtZo7vXFf9VWR65/nmUTjUjraXNvxX8WZGgE8pXI34VKXuhSlx0ErdG6LzR6olV28BIXKeX0RIGbwEnJanP0HjMisfk9iQlCbklApid15wbQeWe7iHaDykOFQkoZY4odDQxsOxhqWp2sUHLkNZugtWqBWC7xOEDHk3Qr16Zc97uH9DieJqc8qSl0XCvq3fNd69DU7MX8orFinu6AbBlfdyVIywXAAyd4ljx68MmZJ3B89Tl535M3F8z4/v1+gza1Y0lffKzPX7gJLZfeaxQAB+ku7k4Ph6wwfmOu5NPJ55+W/e7Ltwn9mUva3VK+myqZV2RltKgjf47wrfOQMcy3EkkczwuwRan1+hu0GJx1KuVNXx8Piv2X7GFJnQPR2NayBuhXKiCzURbbKJ5kQG8SbWZ3nVkitFotUmyRDCi2LLfYyrW62K/eWrhgqHcRDgMBZawPHB+FFb9pZvwaevbb+J5jxPxhVLBCPwbf7IO2btNrLK6k72xvfFtbOxG+HG47sQBYrB/d32cjd8zOrkx+ZDfGjy2PNLHJW3w+DV/wCB7v8A2ln0M5P4R/D7npP+tx9fyOorVL6PPuQ7chBZ7dgJY0iQNnEvbxod3Uaa/pZUaz+1U2fwsH0lGVc2dbw/J7Lj8bOcaN+OBM80dvSzd0iwS5hzGRKrR1YZcsfeVhlVYZGsxgKyqfNnDEAeiNGS4stWfG5qHd3+RJpdI1jblStYx5Kilj9AIVG+g2XNixLdOSS+LLe7sw9IB1dtenzxCMe8vPgRUmcfvFY7xOPvOvzZz14pHK9umg5/HpH7spLwu8dwsV6FgAx+YBIH1MqddjpQ3bVvq/h0GYkHFxIkSj27DRD2JCCSANvs/bIfZ35KUVMlqu8xvDPByzL0PEcRk8zjhMcsL8zdfxOFl0Uvxvmp3VSrp9EaDZun/wDLqqUK98pKtnOR3rshZSOY99TkcOHHwmaf8Xc+hzMmZfjpZJ3tfP2V/t/Ih7W1htKmn3sMLFsvPx7iqpXBZRhmzu8OnM4h06fmbq/voWaCber81Liml25fzM32s7SN+S06XCqm4pOfjKocJnHAZ3c8BNGPAlk3HQ0ukhi1E805cr7W+v2MHbtEdATNuxs1ZPEIr3VYM2tz4w+WZZa5sY12YdtFTzbkOobwGfOSSGwyd8InNxziV7TU8zuidGiNGqErVhuydVuuCBk8sfaH2QTybqD45B55GrDO1sl9Dg+LaHzI+dj6rqvVevzLTauiZ1NmnZl31wwUle8TOSrD5jwyCJu02oeKW2XT9DysoKRuv8bf9ev8dn/wmrfH0D+Ffr+h1PEylYhkIMMAxGxgY6Rzb25Ih0FbN8S6hNz95LN4fQZ9BKsnQ3aK97+RwzTvhhKZK0dfBPbkRdUtMy9D0mOXB0rstp9mf4OzrLEJNpsZN8iwMgKIoVDvH3ST4e/NuPylj9o814jLXS1//bxfCpOuKfXrx1K/avblgpp0FS6SnllABa/mWHw+mT5xJZ30jwjbpfA1fmauW+XpfH9f0MdZaSSTlieJJJJJ8STzmazvRUYLbFUvgN7zyksbce7zyksm49v+UnJNx7fMlktnswkEzAQN2ZtNqWyAGUkEq3IlTkHyI48fPqMiJOO5FGfCsq60/Vf30NfV2v07oS7CpzvfoOSDunjvJwfjjGQOIOeZMySwS7HCyaHJjlSVx+a/R9P79Ct2v23QBl04DbwOWKFVAYsd0pzYqHZd7IGOYIlkNNb9omLTd5uq+r+fHCvr35MVqbxY5ewu7MckkTUlXCOhGOFKqb+hE1qjpj5yVILy4l2oguKnkceY5R42jLleOStOgVNRg4OD5y1w44MMdRUql9wisjMrfQ2QpS4JQvGLfBaorcElcCV9WbdqhCiXSadTksWIAzuoAXfiPdUEgZxx68uAPKX4caySpujFrcstNh8yC3fsHbO2qXsepXWoMm8pb31YqADhzjLNxJYADh8Oc59AtFj4cuT59k1c8spSSUeft/L8w7Gk/pdV/wAOn/6Jq8t/8F/f1M/mr1/M+jpxjaRW2YitjxjYHZrlHWVuaNEcEmRnWr4wb0N5Ejlvt01hNGlQA7psdmPQFVAUfPDt9JXKVs3abFSk/l+5x14EaZcFns/Vbwx1EoyQ2uzs6DVKa2vqixDxLOspC70ljWOA84eAnisgaEzJYD29JZLENhgtgcmJvmC2DcxMyWSxMmDkFsax8pBX8hhJ8JCtuS7ETWfMQ0UyyV1TRE9nnGSM88jfcDuUeH0l0Wzn5oxfYDtBlsTnZU11CdM+cSuaNumnaTLGj4pnl0OvhS3jtRxIEEfUfPcpJIkpOJL7lmP2eGEWVK5DElW5lgu9k+JXeX3v1gePUHnOnpfEp4lT5PP+Jf4ax6iW/A9rfVdiXu6/t2/w1/3zV/1mX/H9Dnf/AA+f/NfmfT1jShnJirM7t7aW4MDnMubJSOrotNvdsyduqdjktMTk2d2OKEVVHl1rjmZN7I8EGZn2maoto0B/pVP0Vh/OWQlckit41CE2vRfqjldvKaY9TBltRIaLyrAj1+UeUdyoz4czxTUkaKmzIBHWYJJpnr8OVTimiYNFs0Ji8IeA8Gh0vY3XuFK6d91gCCxROB4g+8wmiOnyPt+hzZ+N6LG2nk+yb/Yq9rbPfT2tTaN103d4ZBHvKGGCOB4MJXOLg6Zu02qxanH5mN8Am9Esvs8bJNxNyE3xJYNyEO74wcAbiMZ0HMybSuU8S6siNyfrfQxtrKXmwv1+zGNYniw9DDTK5ZMPq19yNmXo8NP0KZSx9pkDOPD74yTM0skeyIyc8vu4xuhS3u4QLqKsS2MjDnxVyyPS2YOPGNONoq02XbOmXNDcR4zHJHo8EuUEAccxOxrSuVkuIC6k+otbwp0GLJciNZZaPp6/lOoz5bAx+2qsvMObqd/STUYAB0kpo1ecC3aaK0XQymP9o1gFNNfUsT6AY/nDH3kXJXCTfwOa6oTXA5eqXAEZcc1ltsq33MZ5Hl5dP5zLnjyd7wvLeOr6MskaZ2jswlZoOxOyfyrWU1n4Qe8f9hOJHrwHrLtPDdNGTxXVfh9LKS6vhfX+h33e8f8ApOufPLON+1zTbuuV+llKHPmrOh+5VnM1q9tM9l/hvJeCcPR/qv6GY2Rsa/VNu0VlyOZ4BV/adsAfWUY8U5+6jr6vXYdMryyr4d/sXuo9nOuVc7tbH7K2De/5gB98v/B5Pgcpf4h0rdNSX0/qZbW6SypzXajI45qwwfI+Y8+UzyhKDqSOph1GPPHdjlaL/YfYTU6qlb6zUEYsBvuwPusVPAKeoMvx6ac47k0c7VeL6fT5Hjkm2vT/ANlf2j7OW6J0W4Id9SyshLKcHDDLAHI4dP0hEy4Z4+po0Ov0+qTeNU16hPZnsxZrVsZHVAhVTnPEsCeGB5ffGw6d5FdlfiHi8dK1Fxbv0dDu1PZI6Kut2tFhdygUZXkpYnJPyHrGy6fy1d/kZ9D4rHV5HDY+l+9/Qytmf6IfjKV8zfO10xIjNjdEURqXqUvJl7QSIXew+HpGSijPOeeXH6A7oZamjHOEgWxZYmYskGix2deTz5j8Jnywo6/h+oc+JdUWdZ4zMzt43bsmEBoQ4w9Rxe6h2k2H1HaJ1mfLolJtHS5OZlyROlp8tKgQaaVbS/zAXU6XhEcS7Hl5OYe0wDvK0HMISfU8PwMrupHa08XPTy+Zzq/jwM1ROVn54YFYuJemc3JGhdJeUYHpyPygnHcqJps7w5FJfU0SP5GYGj2GOfojqvsf0eEv1BxlmFS5H6KjefB8yyfwzdo4+y5Hmv8AEeo3ZIYvRX9zcafaivqbdMOdVVdjfN2bh6DcP701KVy2nAeCSxLK+jbX2Mv7RNgPq79AqnAJtrZsZKrhbC3oFb1IlOfD5jidTwnXrSxyt+ir53x+pqdFo6dNSETdrqrUkkkAAAZZ3Y9epJl6SgqXQ5WXLk1GRyk7kyq0XbbQ3WClLveJ3VLI6Kx5ABmHXzxmVx1GNukzVk8L1WOG+UOB/a3s3XrKShGLFyan6o3gf1TyI9eYEbLjWSNMr0WsnpcqnH6r1RJ2O0pq0OlQjDCsFgeYZiWIPnlpMcdsEga3KsuonNd2Bdvti/lWkcKM2V/5SvxJUe8g/aXI+e7Bmx74ND+Hap6bOp9uj+RT+yenGiZ/6S5j6KqKPvzK9KqxmvxzIp6ml2S/mUntls97SID+ja5HzKKD/wArRNW+iL/Asducvkc394cj9Zj9l9T0P+bH3WIbvtA/McpNvoB5/wD9E/oIWU/pcPAQ012Fcsc/9wx6h0MKkVTxKrTAr085dFnOzQXqQVsVORLGrVMyQk4S3RNAlFipXZYpVbQSjdGAJHD6fh4zHOPPB6HS6hTScuGTIZSzqwbJVaRMvTF34bDZ9SvOuz5YgK9ZVJGiDBhVKqLnIjtogcR4zODdv9cH1l+DkK24P3AFP3gzLVyZ6jDPy9LBPvz9zF6lgZqgqOTqJqfQBYS5HMkjyrDYFE0ejrbdQcTlQfHpME1cuD1uluGKLk+KO69gtIK9DQp4Egu2eBy7E8R8sfSdTDHbjSPFeJ5lm1U5J8XS+hS9katUu0r9RfU1aanvVUvjmD3la4znglRHpKscZrI3JcM36zLp5aHHixyuUeX179fzNptDg2nf7Nyqflar1f1nX6TSzjY+6+BmPaze66EBc4e1Ff8AZw7AfxKso1TflujpeCxjLVx3dra+ZxrM5Z7az6H2He76bTvZ8bU1M2ftGtSTO1Hoj5xqIxjlko9LZYVnpGKQXT6xLFLocgO6fJq3KMPqv3iBO+g84ODpgmhpqpUogwpd3x0Bscu2PLLGFKuhJScnbOVe1jVBtaqg8EpQepZ2P3ETBq+ZJHpvAko4ZN92YvfXzmWmdzfjPAA8gZAUn0TFNSjicCDc3whnixwW6VIGtvEtjBmHLqIt8dAW3BlkeDFl2y5Q/ZehN11VQ/TdV9CeJ9Bkx26Rl28nZtt7Nrto7jACqAK/1CowpEy0zRizVKzmNymtmRuDKSD/ANPKI4noMWdOKocrRKNMZC73z++Qfcj6mZp1z5okD2mIy6KI1MrGYJtvWCii64/+mjN8yB7o9TgRZcJsswQeTJGC7uj5j1u/YxPPJJJ8SeZMzwairZ6nU455XtguEAX1BeZ4y6Mm+hzc2GONe0+QFpejly6ipIwwN92KuCanSGx1RFBJZ2CqMVtzY8Ocz4n/AJvJ3tepPw7bFXaX6nYTtCqpDZZYqoADvnJXDEBSMZznI+s6TkkrZ4qGKc57Irn0KzV9tNEzUrXdvOLqcYrsA4uEf3mUD4HeUfiMbdJnSj4VqoRc5wpU+6NHtcHubD1Qd4PnURYPvQS9nNxv2kSbc2VXqqXpsyUsHMYyOqsp8RwIgcVJUx8WWWHIpw6owei9lSLaDbqO8rBzuCvcZh4M28cDxx90zR0kVK2ztZfH8kse2MUn6/yN5qLVrUsxCqo+Q8AB64AHmJqOAk5OhxO6cnpzhAcp9mm3c6i3Tu3u3s1lflbxJH7y/eomLT5PbcfU9H4po/8At4ZUuYpJ/I6Q9Jm086cP7a3htfqSc8HCDHTcVU/EGc3UNubo9h4TGMdNHcutsqUGfhIPkRiZn8TswV+40/mO3bPISeyNtz9qRE+mHNj9TCp+hTPSxfM39yKypRHUmzPkxY4Kwa0jpLEmYskovhGu9nGkG/beR8ICJ824sfpgepj1ZztRk28Gz1FxjKBheZoy23tkNcwsrA3gMMCcZxy9en/5BPD6HR0XiChxJWZykfa5jp4HwxMUuOD1WnkpJSfIRvSs22fTxnZPmQPdEZbAYkQZlF7RP9Han5J/aLKs3uM1+Gf6vH8zgTcpj7nsZe6UOt+Kb8fQ8rrPfBpYYhVkYY9TSXfm0+S/hMMup69f6eHyR1Htb/osfsab+tXOhn/gs8b4Z/8AYR+b/c5rX+cr/aX8ROdD3ke01fuS+TPovXfDZ+y/9Uzs9j5sveBOx3+j9F/u9X9URYe6aNZ/Hn82WrRkZjMdvfzFP+96X+0leXovmv1Nmh/iP/xl+jL3WfC/yb8DLDGup89dk/8AO9H/ALej+0WcrH/EXzPean/Sz/8AF/ofQ1k6x4I+fO0f+e6v/eLv7Rpyc/vs994X/p8fyA7uUoXU6mX3SEQlHYFfnLV0MUveJ7osS/N0ADLjls3fs9/MWf7Q/wBRZbA5Ou6r5GgulyOYyGqMx8fUxW1v84t/a/kJzM3vM9t4b/BiQyk6p//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMWFRUXFxcWFRUXGBUXFRUXFhgWFxcXFRgYHSggGBolHRcYITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0dHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAFBgMEAQIHAAj/xABIEAABAwIEAgcEBggEBAcBAAABAAIDBBEFEiExQVEGEyJhcYGRMqGxwQcUQlLR8CMzYnKCkrLCNXOi4SR04vFDU2ODs8PSFf/EABsBAAIDAQEBAAAAAAAAAAAAAAIDAQQFAAYH/8QAMhEAAgIBAwIFAgUEAwEBAAAAAAECEQMEEiEFMRMiQVFhMnEzgaGxwRQjkfAGNELhJP/aAAwDAQACEQMRAD8Aqie6rl9mzphZcQDqiS6NIVORTLE5QsqTkWYIUxYxfiFxsaJRBcivOxMoBsDVrFDBF6rj1SmMRVJQkmpKgk1zLiCxTUUknsMLu8DQeewQuSQW1sIMwCTi9g7rm/uCDxEM8KRl/R6T77Pf+CjxET4bKdRhEreAd+6blSpoF42DHgg2IIPI6IrF0a3XEnghCj3CFMEuTNLCg7h8SV3ZoRXAxUTEQqaDEDFJWkWm6I4sVJG2dOTESRFM/RMQloEVGqGR0UQshSWW4RJvq4QcjKQGbiCLaL3mxxDvXUQ5m7JrpkEJnIsRNurUYlScuQhDEmUKsmyLqO3FaoYpo6wRWRqGjrAdZD3JTQaYHqGWKUwkeoqV8r2xRtLnuNgBv/sgcqCS9hvj6Mx0oDp7Syb5f/Db3ftn3JTk2WI40uWQz1znaDst+6NB6BDtCv2K+Yj88V1E2TUzr6bc1DRNl9tDcam3eNfzwXHFLEMJa/R412DxuPxClOgJQTFXFMMfAbOFwfZcL2P+6YnYlxaKjBquZMFbCVK3VJZqYUM2Gs2QGhFcB+kYiQuaCLFJVlE2L0SFNHs6bERJEM8ibERIHvUSIj3PMSGXIFi6GxlCHI4hWUrM1SMxSFQ4k7gjTSI4KhUpBuianoUwixyMBmXPXEFeRyk6inOy6FhJAishS2wqAlXATpbXYfJKkFR0Xo3hDaCHNYOqHjtu+4PuNI954qs3Zdxx2gzGpy83J1H50UBMCmA7/nxUgURPFtlzOokpXm+2l1DJQx4dyPl80DGIITYfcX0/PJcQQVGBRzQuidx1Dhu1w2KmLoGUbRy+qoXQyOjeLOabFMYOGPPJZpN0pmnhGXD3bJZej2GCkCJC5hFrUSKsmRylShLZXMibERNmzYyU5FaTMikXSIj3NHU9kmSLMGa5UFD7EiqiViLM6aIWMTKEhWgjUpHWHYBYJiBbJg9EAYc5SQYshbDUSNzEqUxiiVamnSnIZsMYHRt68Ods3UcbuOg+Z8kqcuAoQ5HqopWgb35+KAsqIHqKGI6ZQgbG7UDqnCRwPd5LtwOw1jwSMbm5UbrJWNGZcPjbqF10S8ZLSQC6mwXGiz9asbHyXAtF2kdr3LjhI+kyiDahkwH61mvLMw2PusiT4IivMLFMdUuTNHAhlwpt7KErLEpUNFExMSK8pl/IiorykaPiRpFeUiI0yYkIlIuU9OjSFlk06mjkVZ4kuSHRZT6tLobYh1B1RRZWyETBcqwiuw1QM2RpAWFA1EcbWUgtmAubJirJmhV5SLEYGzWKtKY9QI5o0O4PaR4c0CVvjc/L5qJM6K5GCvqiLAFC5FiKBozHXcpfI10YyP5KAVRqY3bruSUylKTdcEWaWS3d8ESYEihiFQb6ad6JCJE1FiBFt9wpZCIenLxJTRni2S3q0/NqmPIUe4lQM1QSRo4uENeEx6BMhEXknyMVKEyitKYQjUpCJSJQxMSEykbNhRiWyeKNccjd+yKiUDqqRDJDYsH9ag2jbOf1B1QxQjIepnaqwirJ2H6Eo0CFYwpINnBSQahiXNjoIlCqTkW4Iyq7ZYUSOQqCdpjDWXmvybf0/wC6mwa5CdQABmdZvK/FdQaZVZONwdEIw3fXsBtuV25HbSCpqr8QAouyVwUTXRjQuUpEORYgaHgmN4PdfX0K5xB3FSpgJuCNRpb5qE6BkrA5nyut6o7E2WMblvABzc0+YDkzErbCugDTM1C6US3jnwN+GxaBHFC5yDMQTKK0pFlrl1C2y3AmJCmy0GokgDZTRBXmepJTBdUV1BqRQyFRtJ3idUU5SoIHIyCGIgpyK7YbobokCGInIjmWGtuuZyVmxYq02WsaPZFVmy5BHiEqh6RG5i4mi7h1K2wkz9rUFltm73J8WqVQE0+4ndJ66R0h7WvDuHyQ7uRc1QtnFZWm2c27jujrgUsjQxYM6SZjnDhp80hp2WoybQGxWrla4jMd+COCEZJyBzJ3E9pxHdr+CaxO7nuGMNrS1wLSQQlSbQ+LG+mqDKASBmHHmoHIE41S5ZBYb/NF6CZLkKGenjY3NCJnjXK7Vl9d28d+KjxdnYtYdMslWD6mJj3tljjEQfe7G3yNIP2QdgdNE7FPxI2TqMXgzcEw7QQ6KylRUnIu5EQhs3aFyQDZdgTEhbZbCKgTxU0cV5WrjinPEpSOK3UoqOsVnR3S4xImzzaUcke0Sy3FBZdRxcjbZSdZOxyCQyCNusVSbLmNG4cq0mW4oyFA1GHtXEkmHMBcTyDh62I+BUVzZE5eXb8g3E+jjZCXG/hz8VCVciGtwAd0eyuNmWvprwvyUuVgLClyNGD4c2CE33JufQAfBElwOihbqsOEjjoNdUs5xsjjwZxN8rbjii3MW8KbsIUvR9o1tqdfNDV9w9qReEfV6BQGiMx9c8C4BA0J2Hj6qVyA1bKtO1zTlc3c2vx5HVVYuTlTNSMFGCaJWssWt5XPqT8rLS08NsTP1eXdkbDlGNFZKcmXxGiSEyZkRIkhbZNExECWLrjjAUnHsq4ghmYiOIOqU2cJjHIIyBkiwwo7sBk7XKSKNzKuOoiNQlTGw7kb6pU5luBvHVqs+5ciycVKkaefUriS5gBzvc2/2b+n+xUrkXI9WVzhoErczlExRQEkOfprp3d5RROZcrJGnYgN2GvBO4ISAk0eXtaFt9x3pUlwGjL+bdChs6isatw3chtnOjP1rMosE0dKI3tBNgePLkpsiK5CfYLA9rr2JuToBxuBuTuijBPsPeVpc9gLDWZ3l3DYeA0HuWio0qMx5NzGTD33RJANheIIhUmTCNFQJuGqTjxC44yAuOMgKTjV7VFkEfVqLOo5nmISYzGSgWIpij3i9hP9YRqZDiRSVaLcDRRlrEuTCiuSP63dVZlmDN46tIaLEZFptWhHqRk1akLcWMLrjHK2QcNxzB0I9FCdMByCtTZzgW7GxHgUt9w12LVW1x7LDY5Tra9tLIl3IukJOMPma/IXXPNvs37rrmmmLlN+htg/Xl2UyZmncEAWRWFBv1GOUEaJb4GWC6ppuhAZNRDVcSi1U02Z2YEANY4m4vewJI9AiUXJpI7co8sWMQxovGRl2t483emwWlh06hyzOz6p5OF2NsPqLWTWLTocMHnvZcTYyUzkQLLQUkGy44wuOMXXHGM6g49muoZx5cSID6VZ+4t7TR0FkSmQ4FeZtkamA4AqrltdNUxMoAuWpXNgpG0NSkyHQZPFJcpTQ6LCULboB8UWY6UlQHRegpVALQWpm6N7tPwUNchJ8E2JV4iJ5nRGuOQX3FmproS45ruI5c/w71DkM2RS5Kja9gN2ktPI7eq5MhpegQo8RL9DuubTAUizLGEATKjXZSoITC1NJdkn+W/+lybi+tEZfw2znTlrmKSU89igYyLG3BKvZcg0xuo6m6k4IsmXEGeuXHGDOuOI3Trjj3WKDiRr1Jxt1i6jhWkasmzRorPXWTRRqVKYDQCrmpqYmSAdRunJldrk0jcuaJRfpH6pUkWcYw4fE5/stLvAE/BKbSL2PFOXZB2nwyXcxuHiEvcix/TZPYZuj3ROWoOvYYCMxO4HcOdk3HHcVdRF4l5uGy/01ZEzq2RNDRGC2w4jfXmb/FNzxpJCMPYQ8apOve1uYtFr3CrIY1bBbejEbb/pXG/J2UgaXBHHxTeAvAcubIZ8Ch4vJPPO5x/ALrJ/p9q5ZtS0LYhdrifFKlVgONFt1RcIbIsqF1ypIsNYXE6RsrWAucYnhoAJJOQ2sBujw/iInN+ExBlFlrNmMisXJbYYbwirsuTCQ10FejsIMRV+m645m5re9ccamt71DZNGzKhRZJZjkUoFk7XIiDbOuOFqSRY5q0VpHqGdRRqHqUBQIqtUadC5QbBT6Zz3BrQXEmwaASSTsABuU+HPBXyRrudR6M/RGxkX1jE5TE21xCwgOF9s79df2W+vBMdInBp8mWSjFW/Yu4X0RpXueYYskLLl07xmcANft317gqG2WWXD49z1ezFpIxTinkfoRS4pDESImm3jqfkEmTim6NWGmnKK3NEEeKl5uWtA4XOZ3jro3yCFStjXp4xXf+DrmHxiGmYwb5AXfvEXJ9Vs4sdUj59q87y5ZSfucy6TSkySA8CLeYCRqH5h+D6Rec69uY+arhy7gzEqCR57N1FM7dL0KLcJlG5PqhpkPd6m74X7bLkBJs0Y/gESQN8G5dfRS+A4jV0NmLJg4GxGo9FGN1IZJXELfS30TjlgGJQNDX6deALBwdoH2H2gbA8we5acX6GVmx07RxR0RUMFRZNTktUWSkwtSVhCmw0mEosQKncdTLUVWSpsh8BCnuVDJTCUEKlHF+KFEiGT5VIJrlXHCqVkGzRBIDewUN0rJhilOSjFW2WYI42izmCR54knK3wA3VaWa+x6XS9FjGKeXlmz727Ia3uDWgfBLbdGpj0+KPCijOE4u+nmbMIo3PZfK4sFxcWOy7DqJY3fcHV9K02ojTVfYZ6OrqMTnaHA8+IZG3iQPzdWoznqJV2RnZoYOmYG49/1bHDpVTsgoXRjstNmADvNyTzJAPqr+Rxhiaied6bKeo1qyT5fLOVSSsbs2/efwWTweztlZ9Re+gHgLKVwzn2O1UFV1kLH/eY0+rQV6KHKTPmeaDjOUfZiL0ypssgfwcMp8RqPifRVNVH1LGml6CXK4tddUlwWZGazFi0dyJsXuoETYwSgIcyEVxKmwO5sxymwkiWBut0AyI0YALOB7kUVyG+x1mTDuuojSkgF8WS5FwDl3t4rTca5M5u2cExbo8+CV8UjbOaSDy8RzBSJSL0MKaspjDO5BuD/AKdMkZhxCncR4KRPFQrrBeFBSjoU6JWyQoOUlHZORWaoJxQKaIsnEa4gyWKTjHVrjhKa5ZBupGS1tu0SL8Bv/sqWed+U9P0jRvHHxGuX7+xpGANASeQ4+Srrg3H8hGKkJF3G3dxTKbKssqT8qst4dRCWRsUTc73Gw+6OZPcEePFvlSK2p1Pg43kyOl+p1TCKKOkjyMsXfbfa2Y/gOAW3h06iqR4LWa2epnul+S9ha+karJp2/wCYP6XIdWksdI0Og855P4OYyPPBZB7FEbNz4fMLvUk630Mlz0cX7Icz+VxHwst/TyvEj5/1WGzVzXzf+eSTHcNE8bmbHcHkRqCjnHcqKMJOErOU10Ba5zXCzmmzh3hZU4uLpmkmpK0U5gMhBQ2C4i1PoShbEtGYBquCSCLAusNIIUkKlDNo59C8O6yW9uyyxdyvuG/NW9Pjt2Iz5KVI6dSu7QPJXZ9imkI3TOBs9TJwLbAH+EXB81lZcm2bR6nSaZS00G+/P7iq/Di02IRxkpdheTG4dzYUYTKKzRu2j7kSQEi3BT2TolLIEImpqKkkWAUQoz1i441Mi44xnXECRHe1wPNeczZHdI+h9J0kPD8Wa5fYwySPMA51zyGw81Wr3NxylXlCTXMbsPPco1XoIalLuyGae+505c/FTyyUlBHSehWE/V4eteLSyjQf+XHuB3E7ny5La0mn2K2eE6z1D+oy7Yvyr9fkMk3WiYop/SGP0Ef+Z/a5Udd9Bv8A/H/xZfb+TnT+71WOz11kTXa2H50UEs6b9G04dTObf2ZD7w0/itvQu8R4nr0K1V+6Q0SR3VyjEEf6RsOa2ET27YcGm32gb787WVPVxSjuZpdNxyzTcF7WJMeGySxh7HRkEafpGg+BB2Pcqax2rQ3LcJbZIEzdH5wfYB8Hxn+5LeOQjemegwOc/YA8XRj5qFjkQppBKHAJeLox/Hf+kFMWFjo5ESuonMcyPrGFznNFm5iWhxAzHM0Cy5xUZJNl7Dp55McppcJM7Vg2BNp42xsGg3PFx4uPeVqJxiqRgSbbsNwUwCVKdhJHNseAEtQ7S+Z1gePa2WbmXmbPaaNvwscfhfsDqapa4ZXD/bwKRCdPgs59Pa9yxLhjshkZ2mD2iN2fvDgO/ZaGOW6NmBnXhT2vgqAIyvNmesRxZUmZE6amVJmTUo7F0amqUoiiN1Z3qSDT64pIsDYnhxLhZ7QLWOvyC8q07PrOHLFQqjWKmiYLAhx4lRRO+TfPBBLUXNgiSIchh6E4SJ58zxdkdnOvsT9lvhxPcFe0WHfO32Rg9c13g4dkXzL9vU6hM/iVt9jw/crvnt3LtxNCZ9I1aOoZrtJ/a5Udc7gb3Qmo5ZX7HNZMTasqmeo8aJhtY02N+IQ0MWRM6F9GNaA+WG/tAPb4tNne5w9Fq9On3iea/wCQ4rUMi+x0iNq0Gzy4pfSey9IOQkbf0cPmqet/CNzoH/Z59jkNJU9S4kEZSe007HvHesvFkcWei12kx5o2+GNNJEJGh7bEHUEK9ttcHkssHF0y2yntyUqIhFHHMTFPHmtdxNmj4kjkF05bVwaOjwKbuXYCYFWOe/riL2eLlx1JBB0sFTjB+IpM2c3U8WLFLDGPo1/lHWG/SONhT+r/APpWjvizydUU676Qp3C0bGR9+rj5X09yjcvQJI5hi1a81L3OcSbjUm+7QTvtqVnZ/qZ7DpuR+DFsJUGKnS5ukGqmpIcejGMhkjXX0vZ45tO9/wA8FY0+TbKjO6jpPFxNfmvuNfSPoq0tMsAs4amMbO/d5Hu2Wg0eOjla4Zz2RyCw5PgryTFGpiWiI1CNTA2kMlSjjIBorS1nemJgNEH1080VggtjnvOpK8w6R9XTky4CGiwQx5Okz0brlGLs670NoOppWE7v/SO/iAyjybZb+lx7MaPAdV1Lz6mT9FwvyCGIVmU25JzZngGtxJLlMKhJ6bSPfC08OsH9LlS1MntNfpX4rr2EZzSqSZ6CmjW5HBTSZzbQxdBy4zOLHljgy4INiLkAqxp7UuDH6rN7I/cdqrEq1o/XPI5g6+u6uuczDSiBKqrkk7MjnPHJxJHoSkZJOSpjISljlui6FLpPTZXsIFgQRYaDQ/8AUq1Ua2jyzyp7nZN0VxN0UgjJ7DzbXYOOx7uSPHOnRY1Wn3wb9UP88wY0uku1rQSSrTaStmNixOctqOa4xWmokMh0bsxvIfnUqjOds9Fj0+2FIbsKwMshj5loJ8Xan4p8cbPN6jJuyMIRYYU1QEWXYcPATFAizn+MvvUSkffcB/CcvyWXldzZ7LRw24or4RDC4pJfg2GsNqXNKlDd3B9CYFUdZTwuO5jYT4loWxXB8/zpLLJL3f7ih036OWJqIh2TrI0fZP3h3HigkvUiDvgQ5oksOinKLKUwGqKNQ9MiwJIF1ExViIiaKnXn83RighE6y8u+59bukRSzI4orzkbUDzJI1g4kN/mIHzTYwuSKuXNtxzl7Js7nSaNzHwaOAa1egjwj54+WAq2pLnHxQSdkogho76u2QpHAHpvXRinMbRdxc23iDf4XVfUuOyjV6SpLPa9mIscB3d/2WW36I9bDHxbNnAKOwTSCfRGC9Qbafo3X9Wq3pW3IwuswSxJ/P8M6BTP4FaKPMWZmwxjtbLnBMNMWOnWGZY4nAX7Th6i/yVLVR2pM3OirdOS+BONODpsVSU2j0rxJoPY3jZnp4YzqbXltxc27QD46u9FazZ90EkZmk0HhZZyf5Aenpc0jGHd7mtsOAcQFWh5pJF/UVDHKXsmdWmiAsFspHgZPk1IAUg2RzTBrXP8AuguPkCfkobpNjcUN81H3ZyvVxJO5Nz4ndYsnbPd44UqJ2xEIRyRapgb/AARQVtAzltVne8BnyNaz7rQ30Fvkt7bcaPn05XJsPB4cLb34c0lxaOTOa9L8A6h5ewfo3Xt3fsqvNbWX8cfFi3Huu6/kSqtRYpxBFS5FFipIEzuVmDK00Vk4UEp35Bfnt+K80o2+D6nlyKMeSg+VOUSlLIMHQOkMtXEP2s38oLviAn6eN5Uij1GezRzfvS/U65i9SGFrL2v2R/K4/IrXk6PHwg3b9gI1w3KWQyjWV7nnIz15IJTb4Ry4BPSjDi2nYeJkGp/deq2qjUDc6GnLNL7fyJcjyNFnJHqJSo1O11wL7DD0DZed55Rkerm/grujXmZgdal/ajH5/j/6PMzmN3Oq0G0jzRtTVAOxUpkgrpw+0Md/v/Bp/FU9b9CPRf8AH1/cm/gQpXh3cBxWWeq7kXW5RpopBbpBLonHnq4ePaLv5Wud8lY00byIzeqT26Wb96/c6bUt1WxR4eXcqTITgR0mnyU0n7QDB/EbH3XSdRKsbNHpePfqY/HIkUossg9tFJItrgghgcIfURN5vaT4A5j7gnaeO7IkUuoZPD085fH7nWqYWN1uI8IwpDKbomrBLNZTNqYHRu43APJw2Kq5sd3EtabO8M1Nf6jiOKRljnNIsWktI7wbKjGXo+6NTW4Fjluj9MuV+YAqimRM5oGzBWoMqzRXsnCaNKioL3XKxowSR7zLlc5ckedTQG86J9GEYjdJORcsjAb+9IfwaU/RfXKX5FHrmTbhhj93f+/5CXS/FSJ6YHQlzXHzGX+8p+fJ5omXo8V6fLJ+1fyenqCRYInIzgxguGta3M7U7pkIggXp0XymGJlmglxJPsgDKLn124kgcUnVQc6ijZ6VmWCM8j+BE+qgPLcwdqQCL9qxtcDdZkoO6R6iEk4qTLZweQ7tyD9vsHyae0fIFHHTzfpRXza7BHjdf2GboRhWV02SVjzZgOS5yav0JI38Fe02PbdHn+q5Xk28V3GKfBTvf1KsOBjFFsLmnTguSIAXTmtDhCwHXtkj+UD5qlrHwkem6ClU39hOe47HZUEj0bkaOdfQIkq5Ac9zpDV0ApT9ZLjYARuPhctHzVrR8z/IyOttrAl8r+R5E97haaZ5Fld2pUEAHprEQyJpNgSXH+EWH9RVLWPhI9F0HGt0pv7CdU1AawkEjg27XWceNnWtfuVaGG1bNPU9QUW4xPUknYb2gTxAIzD94bi6HJi28jtJqvEW31Q2/R/FmqC/7jD6u7I910/Qx8zZR67lrAo+7/Y6Jn1utU8mW31B0aPMorILmHz2B1UNWdZy/p3ZtbJb7Qa7zIF/fdY+byahr3PV44eP0yMvWP7WKVSxNizDkik+JPjITKFkfUpm8DwgQs49WyaniuUE5Uh+nwuTtnSvo+GaKVo3MjL+AabfEq1ol5H9zG/5A34sft/IG6TVYlxJjQeyxzGjxBzfgPJRle7LQOKLx6J/NsaKWHW6spGIw3RSEm1tE6JAs/SJ2msYH9WSczX2JsWOa4A21tex8WhKy5FDuX9NpMmoxtY+6YrfX3sHamLidxCxtO13PO9o6xx8MqrS1UI/SuTUxdL1E0vGlS9u5VmqJJNCcrTu1ug8XcXeLiVUnnlM18GgxYuy5HToBUNjbNb/ANMe5/4q5onwzG699UF8MNVFUXndW3KzzxWqM5FmWA4nihd+hwi9Nad7ercTrdw+H4KnmXua/S5SW6hZbVniq7xr0N6OpaVSJocRtsAoeJjFq0uyHb6PpOsfK79lrR5kk/AK1o402Y/Ws++MF92NMzCxyvPhnnjdps1zgWhwacuY2be2mY8rrjlV8iJieNNkH6VjZHaAOcXOAJ+zqRb09VQnPe+UbuN+HFNOkwTNiLCAx1K2wcL5HuB0O2UbXGnmiTtCpZUpX3smg6h7cgEkJDjbO1r+FyAdHa/ghntkqZZ083B74Dh0JaIs4Lml0lsjgdHBg1FjqHAu2KfpYqCZW6rneZxfov3G+KXVWzGJ+u18lNnE1FVXY8jg4t8xYH33HkoTsKUWnyc26fVP/GOPINHuusbXP+7Z7bokL0Si/WwQ8XTkebnHbJogkjTIg0RdWjs6hfjbdU2z0eKFl2IWCQ+WaUEoxGf6P8SDHVF9hHnvw7N2/wB3uV3TPZZ5vqq8acK96FynqS6obIdzKHnzcCUlPzWW8uJeC4r2/g7Fh1HzWpGJ5MvSyMbsPZFyfcmdiDnfTmoc+SNo4NcfUj8Fmayd0j0/QoPZJ/IviINF3G55Kgei4S5KlRVckcYiMmX0Q49AsPe+J7/vPt/KB+JWjpY+U8p1ibeZJ+iHWDDAN1cUTIJZI2gWU0cIv0hgWiHe8+mX8VQ1nZG70WKe9/YQ5IQqakzaliiyHqke4S8XsM3QWZzJH22s0n1KsYJ0zI6nClGzp+QTR5h7Q96v/UjEYidM68ugljzBrBcWcLGR7Sy4aSdfaItb7JKXM70AvRZj5DGeyMjmOvdtyzVrnE337WbyHNUMyq6NLBNuK3duaGitpcwc8xte/q35SQHPuWZQC4e1q8DyPJLxum7LOPbaUuwM6QUUUYdZgaGyhpLRbsRwNDiRxBe7XwVqVODQl5FCcGvu/wBSPoJiAfUvjsyzG/o5OyD90gWAzXF/RHhjtKWbN4jfsdIphxVtFcq1+ICKOSU/ZBt3nZo8ygyT2xbLGlwvLlUESdGHEUcbiblwMhPPO8v+a7F9CsPXfjyS9OP8cHM+lNbnqZD+1b00HwWRqHum2ez6fHw8EI/BvC67Gnu+GididxR53qMPD1E183/kw4ppTU0R2RE7hchCpyPU4USVMlhZDBWxmqy7Y7UT4LV5GVLRu+IAeAezN/pv6Kz2izGdPLBv0s1o5WNsSb8Sq7UtyNO8fhvn0OvzdI4bWjIN+IWqssTxUotG5cXANOl9Xdw4DxRN2ChE6cYoxtRkj1ysa3Tnq4/FZ+pjunweq6VlWLTperbFUyveVXqKNDdkyMtU9JbV5sOXNC5X2HwxbV5jpPQ/EGR0jQOLnn/UR8lp6VpY0eR6tLdqZV8fsEJsYvsnvIZhVdXkqHImhM6cVRdJG3k0n+Y2/tVHVStpHoekRaxyfyLbY+aqORtRgyQMCGxmxDb0Eow4TG33B/UVe0itNnnetunBfcbMNn6l9n+wfcrsHtMJg/pl0edK98729bFHGHQNB7Oe95BI37QIAO/AhdlT2toLDBSyKMuwqQMbB1ji1rOsa6NzACHRmV0bjdp3aA0i4vwVNO00/U0YY3DIvZWFqmvY8F7XNLXyykG/Ita33Md6pWdccfJZjGN38IA4tO+TsMeSwDtZ7vjDi7S52BAB5aEIcfl5kVdQrltj7GnRTD3te6EFgcCJ4pCDlmaCwHKfu6A9xPer8eTNaatP0OpySZIy7idk9ukCIfSfFTIW0zODgHd7zo0eV/UrP1GTc1BHpOl6dYsbzy9v0HXFqltNTADZjA0fwiw99lcySUIGPp8b1GoSfq7f8nH55buJ5k+5ZFHtIyphagfePzT9P2aMPrarNGXujzyrVHn3KjTOu2neIwFEqMj2+LhEM7rlHFUVM890gpgWG5ryOHZsQ0c7ggnwsSFLfoZGrz09sSKnw4Em99DZQ2Ieum1Qa6PVJje+zG2DiGHvGh020tujjLa7EZkuBnZHJJ7UgaDvbfzT0pS7sqruIdeIzK9wdcZjbvA0BVKbldHs9HihDHH7EX1oD2Ql7H6lp50uIojJc7couELe6fdnSsBwoCniudcjT5uFz8VpY4Lajx2qleaT+QlHh44apqiV7L0WE9yJQIsR+mtGBU2HBjR8T81maz6z1/R8f/50/li+YFTNhRInRLjqHnoFFaF55yfBrfxWpo15GeT63K86Xsv5YwzwhwsVaaMYrR1ckN2ntxnQtOosdwQeCFSaJXcT+kNZ1czmxgPjIB6uTtFuYWIaTqRpxvsFRzZNs2kep0WBajApPuB3T05uTTani15ABsBoLDl7yheaL7jJaCS7MnopY5CyAte1jiAf0rrNA7TrAc7E+anG4ylVFPU6d4oPJ6jphdJGDnawNaxgYDqTlGzRfby3V+J51tt2yl0ux0xxi/tbNHAG3wCVmyUi3pNP4s+ewudBaMy1TXO1DLyuJ4n7N/4jfyVbBHdkt+hudQy+Fptq9ePyLfTrG87zE06A28xp7lOoybntEdL0+yPiPu+EKDna2Hgq9cWa8ZXNJByhaOrec1i0t7PMG4JHgQP5gnaVKmZ3X4vyS9Ko8HK0eXbPaLjrF5zrBUkrZ7TJk2RCuE4C55zSCzd8vE+PIJiVmNm1XdQGqSjDWC3DQW2HkpceDOasGQwW9UoWizhlDmaBsd/M6n4psIWdOVsLNpiBrcHmCQfUKxGNCn3OevqAZJWvY1wY4i4Ba89sjUtIB8SCgyxijS0WpzTexMw10bjlbdr7XDXWcHi1+w4Aa24Ea87pMsXFo0MHUIufhzVMwM3h4pG00lk4uzr1BTwsa0PlvYAWHcLLWikkjxs3cmwj/wD1oWDs2Rb4oGiF/SNvCy7xUdRzrpLi+epkdmj1NgC9rTYADZxHJZ+fHKc3JHqNDr8OHBGEnTKBqXXDS3U7Ws6/hlJvsqjxtOjXhq8co7k+DL3Hi1w8WuHvKhwku6Gxz45dmh/6Fxf8I083PP8Aqt8lq6WNY0eP6vK9VL8v2DJFlYoyyCZlwhaOOedOoskzCPua/wAzrLP1CW6j0vSJSWJte4vGoB39Rv8A7qvtZsPKmuS50frI45w+U9mxseRNgPmnYaTMjqScsVIe6fF2vuI75GbuItmd3X4BXPEVWjzqg+wi4/X/AFiXTVrbgHmTufcPRUsk75PS9P0uyPKGnBXNoqF9Q72pBmHO3sxjzJJ81YxLZjv1ZQ1s/H1Kxrsv9YhyynV7tze3PXclVavj/Jr3sjf+DNCy5zHghyulRY0kLe5hCI6jv09UOGW2aG9RwrLpZr1q1+RcihK1aPAEvUldtOLmD4EGkuPaP3nAAD90a6qpCBqajVTzPngNw04GyNIrEs8V2kdylogFU8GZyVGNsXLgNx0Y4aEK3GIplyKzhlf68CjRxzPH6IR1k4FspF9bOZmuwkOt3kngRZLyOLdFnDiy45WlVrgBwAucZXaGMt7AFg21g0nW9gR+boJvauAtNj8bLukyX62/PCOseAS0OAc6xGe2wPIKILyh6ybjl2p8DZBPmBmZLJkjc4Ou97g9rWdrsu21P+lFb7FEp4LXS1Tnvc4sjacrWM7Op17TvaOluKh8HJ2FKimmBaWPeAHNLg4ZrtzDNYuBINu9QmyRKxvtue7i17v5XOPwP9SHHL0L2sw1GM4+xMxxeWyAkZgXEi/ZI0fbz2H7QQSi93BoYNRHwNzLLJAC4lxYHuDNDfU2AbysBq4jifBG1vv2E48i09Sl3b7ex0Po3UGOmjBvo25FiTq4nYeKsYfLFIz9bPdmlL5LVP0oppASJmWbvfMLeOYCybZVsu0+IRvGYOaW8HBwLT5g2XbkSJHTeoD5rtGYBjRe4te5O9+9Z+pg5T4PSdM1GPFgqT5tijOw7uswc3Gw8uJ8kEYMZm1mNKzMNNrvccTYgAcd0VUZ+fO8lRiXKjFCW9VGbRjQ83ePchlJ1Rc0mkivNLlm+D0PWyNYPtGxPJv2j6JUVvmkaufJHBhc3/rDPTnEA97YQLMisSO+1mt8h8VYzTvyoxum4OHmn6ijYvKVaijSjF5JBDLlbZV7t2aUUoqkbvNrWUR7jZJNUMsbARccdR5rejTSZ83yQcJOL9D2RFtFhLBmfoRfmQs6Bo5FQQYEwVZ4riDSkpMrjbmihChU2Eur100cNR3p9C7Nnwh4JHtDcKaOqzleKVRZUy5QAA91m8NDY+N9fVZk/rbR63DH+zGM+eAV1jc4fexsQ4EXa8HSxtqNNNuAKdGdqmZmbSuOXxMTr4JIYLzRGPUNcwAHckvva4FtzZdHIktorU6TLOTy+lDZVQzas6rI17ryEuuSCAHBoDeNrXvxKa3RlUUMKopKUva2z2ONxc5XNI05WPDlsgc16kpPsekwqV9S2XLlZYEsDiS6wOthpv8ABdvVUEk7F+a4ec4cMxN7ggkOJvv+dEqLp2b0oLJi2fB7Do3hrgXANDr34C2mcnlYaDibck2Ur4RnaXFtt5OyJ6+Fro3C3aaLtGlwBqeWuXMTYHXwCKDV7SNTCc4eI0POA4kH0jZuLY3Zv3owb+tr+aeu5RbtWLPRTFI6Wnkkka85pLNs24cWtByk3034rgY1Rd6K0boI5JJLWeGvDAbgNaCb8tQfcEtuwo8CjRD7RsMzi53LK3fy9r3JU23I0NLGKwynIkw2kL2FuzSb25C4OnoolLzCow/t+b1YRxCItiNhyCWWMC8yN8CwWScgNbYcXuBDWjn3+SFY5TlwbL1mHBC3y/YcKhkdBCTHrI7siQ+04933WjeybJRxR4MrxMuuy+bsv0EOVzpCXOJdc3JOpceZVZy/ybuLFxSVJE9PFbVKlL0L2PGomJDcrkF3ZI9Chr5GHC33ib3XHofwstjSzvGjxHV8WzVy+af6Frqyn7jN2hTDv1f8RWfjNDL2LKaVzyg5lqmToCpluTdngmIUZj/W+SkPH9SOOY7+sd+8fiVkx+pnscn0r7AlyaipIJYB+ui/zGf1BC+6Cf4UvsdTrtlcZ5dgDEvYd4JGX6WdD6ijTe3B4H4vVSP/AJLLAvSHaPwd/ajh2NTTdgNTbpyJzfSGXe0z/JPweux/WLz/APWL3Rf/AA6p/wDe/wDhara7mF/5Kg/wl3/Mf/lc+xHoE4f8Pb/y7/6XpbD9BSg/VO/d/wDsKXL6i/j/AAEFMH9k+PyCV6jM3dBSf9WfFvxC59gYjhg36nyPxVnH2KmX6hc+kDeH9x/xYkZ+6NjpP0y/IWWbBVH3PRQJz7IS/Uc+xA3dG+xEO5K/ggQ0O4H7P8R+AWlpPo/M8l13/sr7L92FlaMc/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhMWFRUXGBcXFxcYFRUVGBUXFRcWFxUXFhUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0fHyUtLS0tLS0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSs2K//AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAFBgMEBwACAQj/xABCEAABAwIEAwYDBgMGBgMBAAABAAIDBBEFEiExBkFREyJhcYGRMqGxBxRScsHRI0LwFTNDYpLhNHOissLxU2OCFv/EABoBAAMBAQEBAAAAAAAAAAAAAAECAwAEBQb/xAAoEQACAgICAwACAQQDAAAAAAAAAQIRAyESMQQTQSJRBUJhgfAUFTL/2gAMAwEAAhEDEQA/AMpDl9YdVzNl7gb3gqN6OarD2FUObVHBhoAUeCM0CMS2suOc7Z6WPEoxsA1FEEGrcPCO11QAgNVXArLkhZcWQ4TThsvhZMTS06WSrHUkPuEdw55c4KrbZyOk9FzCcDBkJtzTtQ4OANlDgFNzKaI2qMtsrFUheqMKG6E1MQZc9E0Y3XxQML5nhjOp5noBzWQ8TcW9rIfu7nNYNBfQ26kIKFlI5FEM12OQtF3P9ACT7IDLxLET8D7dbD6EpcqJnSanU9eqhIVo40hZ+TOWhpixOF/Mt/MP2UtRiRa0dmbm+vkUrMYDYnT9lYbK0AC+lj+tkXonzbCIq3yZsx00+XNeBRk7IQ6oJI9kx8NVPaOLTvbbwHNLLSst4+WpUDhRuC9tBCa5qEWug9VSnklhLZ15pS4UCqjZCZN0YqIyBqhb26rrvR5FbPVMxH8NdlQqkYiUcZsuecr0XhGthGStuLIRWPvzUc81lF2l1scQzm2NHCcK0ejjs1JHDEOgKeYjYKU3s0Oj72QXL3nC5JsakYI0qSI6hRkL20L0GciHHBZtAidTNYJfww5QLou2IvC4JVyPVxyuFMA4rIeSX3NJNk31eGkrqfA9b2Rn5EYLZCWFyegbgGGZrkpxwfB7aqChpMmiZMOkACjj8lTZp4OIRwyDKFdqqlkUbpHmzWi5PgFVZLYJT+0jEy2KOIbPJc78rLWHufkromInFGPS1kxe8kRgkRxjYD9/FB6anc8hoaNT669SpJnPLRlvzGnL/dM/C+H3tb8QJO57oufnZNOfGNghHlIp0+ClocDYEeBJHgqVXgb7NeRZpda9ttd1pTaJpNuXPa5J8Ve/srO3LYWtbbYLnWWR1PBGjLMR4ZkYbRnO3SxG/ihNRQSg2c0+y2CSjyaW0HjqfZDa6iYTfKis0l2Z+NF9GWChPQ/14qSgn7KVrgTyBHgdwnWto2taQG6ZkqYrRC4I0vf/AGV4ZEyGTC4bQ3GpuLBd2It4oVRSGzb/AIR9Fb7fxTKNbK+zk+IPxOLQoB2OqNVk+c6bKOjoC99gtLLWjt/6uXr9kj3hdICjjqLREqHCQwKWVgGii5WzmgopCVilLqqVHTHMEzYjT3UFLTABN7OKISgpSGDAyGgJoZMDslbC4r2TRDRG10nJS2Lxo99oVyj7IrlgUYpKNUUwqizalVoKfO6wTnhtBlYAq+Z5Cxql2T8bE5uyvR0OxTBTQi1lXMVhor9JoFJfjh5yL7eTij1/Z4PJXYsPAGympRfdW32XzufO5yPRhDigDW01tlBA4tRedt0LmNk/j5XFgyRUkFaV+YJI+1VxD6cf5H+veCZsPrPFB/tQaH08EoHwyFpPQPabfNq9/FKzzMkaM8pSbjXTU2HVNXDNUbgfIcknN1dYb9em90/8KUbRHnPoPLS5TZ6o2C29DFHPZGYKjugn3S9JIARyC6THCD3WkkDkueB6D6CtVS3Be13pc3Q6UbE7bIBiPFczTldGWA+lwrVHiJmBygkgbAXTNUBSRNWwjKbapLxiIlpsNtv1U2N8SFt4xcOB1J0/3S79/eSSHb8r3VscH2c2fIug7SvJhid1aPqVZ+6PcNF7wOn7SJhHK4t5FPHD2Bkm5sqSbekdXirHjj7H2JEWCTcmpi4fwdzBd41Wl0+CNt8IXT4c1o2SPFqy+b+Vnkjw+CdWAMbcoGx2co1xKBlICD4PYDVT6Rw1yZ5qaLTZCpxlTTORZLGLlbsLgohnhaQPt5rQGQgM9Fn/AAbTEarQJH2YglQkyhlC5VPvK5PxIme8O4dfUpsbAAFDgtJlCuVT7LyJZXmz7O6EPXjKkTblXGt6KvSlXBsvR/kpccaijm8VXKyeGVWc2ipQtU732C+ba2ekVKqeyF1NSvdZLcqtIxepgwKrZzSm7pA4VRD7BX+Moy6gItc9pEbebsv6qpSw3k1R7FacyU7mDwI8wQV6WJcTkybZlQoJYtZWFuYd06EHyIT3w0R2Db+P1XmbBCYvuzGFwDQc9ye+TZp12JVTh2NzYsrgQWucPUHX5rZJ84lIYvXOhoipGyA3IHTS6o1XDocLmolAtfLGGsHv8XzVuhlsLIvE+Nze+4DzH7JIOjolGxEh4Ujzh2Vx10MkjnE+QB19Uydg1vwNDBtZoANxzdZe8XnYwtZEbukIa09L7kdLC6pPfLGLNgzgczK1pPiA7f3RalJmiox6AeO4bE14kfE199CSL26Gyo1WDxEX7OMdMrbfNS8Q8SMMZZ2bmvtaxINjfe4JCiwjEhNDd3xN7rh4jY+qq+SVkZcHKj3w+4ND2jSz9B0uB+xWqcKG7RdYwZf4jrG2y0PhPGQ0AErpirVnE5u6NZiGiGYtLlB8lFR4oCN/mh3EFaMhN+Sd9BXZnfE2JfxC26qYbOl7GKgvnNtdUw4RQmwJUJYm1Z2SlGCSCD5SUHxB2qLTtLd0CxN+9lKK2NKS42MXD9cG2R3E8bGTdZC3F3xmwXVGPSOCusP04ZZvg9f20Oq5Zz9/euVPUT9hrLKsNCpT1d0o1GN3POykixAnmvNx+BwnyOyXlKUaGqil1Run1S1hE2yaKeQAKP8AKZLpD+JH6S2A1Q7EauwUtVUJdxORxBsvKw47eztk9EH367kVgkBCS5Zy12qLUNfovcxxSjo5IyV7CpdlfdGoZswt1CVqiruF8ocayGzlSJPLocsKqLNLbDW2brdmjUGfNaWQPABzE25a6oZjWKuAZJCRe9nC24IuNeWoVSir3ynPJuTp0ItZCUNFFmjKv2MwcBqFXM2pCqCf3ViEqNFeZVoHl1Q+Q7MGRv5nWLz7WHqUUr6iBsR7SQB3LXVKuL4v92pwW6ySFxHhcnX2slun4wqY22jETSd39m173EG9y51/kF048bas5550gvizqJ4JLru6gm9/1QfBHZZXMaSWuaf+kXBUFTxTVyDLJLmGumSMb77NVzhZhzSPt3RG4E9CbWsquPGLs5+fKSaRB2hDnHxV+nxFzNWlC4wXHTnqrb4CArQVROdu2N2A8Uu1BOyvYnxBdpBKzTti12i9yVziLJqsMJUXqecGUnxT1hU4ICzCN9ij/Dtc7PlvoqVo08jcrHysgMgsELfgD3A3TbgNLmAR80ADVz8dlOTaowvHsFLO8l0rWOM4mhrvIrJ3jVWj0QfZ8XL4vqYBeeuZLbmvLyoXvWZhpwevta6dMMmMtrLJqWsyndadwNWNdbVef5Piqbs68Wdx0NDcI0uQhGJUIF9E9wzty8kAxypbY7LkfhJdF/8AkMyrG6ax8LrzQCyu4/Yk2VCinA3XUsbUaJLIrthGoZohLqFzimrB8BqK3+5jOTnI7usHqfi8hdaLw99ncEXemPbO6EZWD03PqtDHKxpTi+zPuCOGXVMjmkkRsYXOI627gv529AqEkdgL8tP69VvIgbGx4Y0NAabBoAGg8FiU0W4PNUyx4pBxO26KMehvdX4tj5fohjD3sp0P1HUFEoncj0t9VzTjWxov9gLFOHnVQpyHZQLA6Xs0i9wPPT1XyPgKK5zSyH0aE0xEtiaW7gDQ87aEKCfEGt1113Dj9CN1XHN8aQ/pi9sS8V4Le2RrYC57bXeXW7gzAX+fyVypLWQ1PZ6NBbGPkP0KJYnxQ1sbmsAGbpck26k8kuUs4dAGE6vmLj4hoFvmVXciWRRhdHvB6TmQrdc0AEq3TsyhCccqeQV/pxAZ4uV4exW6aEkXXiqZZFPdDPFJKyqFfwmXLI1DiVLC+xBVESN34Umu0Jpnbos74JxAFrRdaHHKHNUmtlYvRnPG8BcDZZLUx5XELe+JKYEErEcegyylPEnLsGrl9XIgLMjlCIi7ZfTcnRHcKo72SZJ8UUxw5OgL/Z7+ivYPislM7TZNElFpsl+vpe8PP5qKy32dE/GpWmO1DxiXN5qjinEZINwR4opwnwPNM0OeOyYebx3iD+Fm/utHwbg6lgIcIw94/wASQBxH5Rs30TRTb6FcYpd7MiwfhOuryCyIxxn/ABJe40jq0HvO9BbxWlcOfZdS09nzk1DxY97uxg+DOfqSnhlhsvoN1TihKPNg0ANA00AAAA6ABWgFUkdYi/W6uBZhIC3Ug8/1WM4pS5JXsPJxHsVtEg1us146o8lQ53J4Dh9HWUfIVxsv47/KhLraIP6i2oPMHwVB9aWuDJCA4bHk8ciD18EYkktr8kGxWISt72nQ9D1H7Lmj+mVyR+oN4dVRyDK82H0PVQYlgUXxdu4jpokZldJE4tJ1HPqpKjHHkWJPoAqelrois66kFq3DqVjcxu/zOn+6W4Zc8ugsG6ADlfVQ1Fe5wty91Pg8XP1VscGuyGXIpdIYIakgdVSrKTO4aXXthurEJXU4pkE2gnQ4J3Nku8Q02Q2Tbh2NFgDX6j8XMefUJf4wkD3i3mudQcZbO+eZTx0hZZCTsvT4S3dMuDUAcArOK4PZqDz06ILA3GytwlimVwC1zBsQzgLAonmJ/ktI4UxoEDVVlvZGOnTH3FYrtKxvjajyvzLWpsTaWWust41nBNkIhmJi+qTsj0XJrFplungsLo9hjsoQxh0VrB6eWeVsUYu5x0H1J8AozVnRghJu0OOD0b6l3ZxgbXJOzR1K0LAOFKens4MD5ecjwCR+UHRo8l94XwFtPGGDVx+N/wCI/smeNnsPojjxqO32Uy5XLS6PkcHMqQrg+7b+OnkonOVbJHovubBTsFgoY417e+wN+SwSpJIHShu9t0Uug2FEFr5b7k2PgNETZOCL6/6SlASv1SzxvhnawZwO9Gbj8p0cjM+KxM+Nxb4ljwPe1kg/aFxwMjqakdckWfI07AjVrD1tueSeGJ5XwQHkUPyEyrjNyDuEPldbTktD4U7Oro2GVjHyM/hvu0Xu34STvq2yjqOFoXHSIDyc9v8A5Lln40oSaOleTGSujKsUoWubfXNewS5VREEgi1ltUnBEbiBaQW/+wH6tQ2fgqkmqmUj5pGSOaTcBjttQ0u6m2ypCE+qOfI4PZkdPAXnw5o9DFlb5/QJw4m4AfRWc1zXxEgBw0cPzN/VLNT8Wmw2VERkeYmojQ0rpHBjAS4kADqVRp49Vqf2Z4NYOqHjUtLWeR0c75WTWZRs7CeBY2NBqO+8/yg91vt8SrYzwDTyDugs6Fp2PkeSfsIOaIg62c4fPRV6qDL5IWU4ox1uFvpH5JLEH4XjZ37HwV6tkaWrQ8QwtkrC1zcwPL9R0Kz7GcEfAd80Z2PMHofFc2TDbtHRjy0uLM6xiMZzZRYdXOidcHRM9bgBfqhFVgjm8lWM6VE/RKbtBD/8ApTl5oW+8zszvQKm6nLSrlM7ki5a0K8LjL8y32Dei5esruhXKOytRK0VK9zg1oJc4gADck7BbJwJwu2lZcgGZ3xu3yj8IPglfgXDM1SZMv92O70zu0HsL+61GmAA/rU81SG/yY058I+tf5LsIA0C9yyWFuv0UEb/qFDPPa56X+X/pUsgEGu7g9V8BuoKR12NVppWMSAoTxHVFsYYz45HBjR4u/wBrlEXVIvYHVApJe0qC8aiEZGdO2k3P/wCW6+qzMFqaHRsTfgjADj1IH9FW5HKKNmRoaPU9TzJXpYJIHJU4t4KjqgZImtZMByAaH6/zW5+KaAVYiGiaMnF2hZRTVMxjgepfSVpppgWiXu2OnfGrD66haj2I6KtxTwzHWMB+CVpDo5B8TXDUXPMKCXGOxp+0qRaRndexupc8ad0DcO0N/FUy5PY+X0SEeCoh4ixRtLEX/wA50jbzLuvkFkNdVvD2ymS0mfOHX71wb3t0RrFpK/EJS+Gkl5BrnsLA1t9MgfYepuUWwL7M7tz1rje/92xw18Xv/QKkM6xQagrb+k5Qc5X8BeJcTS4gWxkAOOwGgPjqpq77PZbAwvbIT/K45Tpub7WTXhfB9HHI9whBy5Q0OJeG87i538UyUcbQXAeW5Og5C+wXKmV4/szPAuAKgyt7YNYz+Yh7XG3RoHNanFTNjAawWa1oaB4DQKOI5XW6H5K/OEBkqBuCfC//AJjx9P3UtS27rciPmoqE5TM3/Pn9HtGvu0qZxuGu/rVEJVg0ic4/yut87fqlzH2tJLTsb+hGyYsRfZlQ0fgEg82nX6BLOLjP3hsLH32+qwsihR0rXsBHkfAjdDsWoGgHRTYXVFk74nbPGdv5m2DrehB9FVx2psFGaorjnJbQh4xEA4qvhLQXKXEXFxVGle5hvySIpky82rG7s2r6gP8AbBXJOEjcom3YLhzaaNzW3JuQSd3ONrlF26CyhqSSRffn5r5O+wJ8V1nOWWP+qqTm4PkV0clwo5X2Jv0/XVBhCVBJ3Qq+L4kYwGt1e7QBfKaXKwnoFTwWEvkM0gvr3R+q3wwRjHYQukebut7k6AD1IUeFQZSGnUtBc49ZZNXew09FNWSiSZsY+GMdo7z2YD66+ilpW2J6m5KJicSG67MV8ZGRdeIXgh2U38RqPfZEJIJFegdohkLVKyQi/RYxae/VVqkjMXAC5tc89FF2oGt9T1/dcxhNiSB/uURSaM6jxXhj7mQdHfVoUtmg/F6C26C0FZnkntsS0t8gC2/u1AJLEe89SQusUMrcUgpgXzytjzGzQTdzz0awXc4+QVGPjGE6iGrc38QpnAeziHfJK5xj26MM9Sb6j+giIN2NKBYTisNSwuheHW0c2xa9ng9jgHNRShd3S3pqPIoowMxCQtmFtntLD5jvN/8AIeqIRtswJexerL3yBosInN16uFifkUwxvu0Ecxf0K17MVZGXlAOz45Gn1ypQwN3aUMrzu1vZ3/zRuLf0Cbat+WWM/nHu2/6JV4GizUUzeT6h3t3SVgfQNxRTmHspxoY3tzflf3XfVVcWgzXTHxiY5YpI2ODrtc3TXW2nrslOKszwMdzLRfzGh+ijmXTK4X2gG+gJJVCroLXTC2UIbislgoqzocFVi993XKbtwuVdkOKP0I43cvc7Rex5jVfIt7qCea7iPBXInyFuWwVLFn2aHdDY+R0/ZXQdR4gKGraLEHY3+aBj1G68VuuX6aorAWxx6HVoSbjOKGGNgt5n5AhXcVlMdK2MO70jgy9/5nmx9gsjWFcBcezfM7Uylzh+Vtwz9T6oDTYriEFXOwUMlSJcjopGvDI2jKLh7zoACT4pnhDQ0Mbo1rQ0eQAA+iuwVBblHIhFGB0VDO9vaVsjXHlTxXbCw9HH4pj+bu+CMBtmAbaBQ1Lsz2t9T5BTSuRCfGBeJDovjH+yjfIsYhe82UcJXpxXqMgLAPYdqqeFwZX28Ht/0uJHycrgte69R92Rp5XHusEy3iGpkdPWTxMzyxubTQi1yAwB0haOuZ59kC4UM9VJKaiecFgFmNc6JxLr62AAsPJEcRns2ZuaQZqyqu2IXkkAk0aHW7gta7uiN4fTtMDO1iyPyudmD3XjYLjKHA3c423Oi4MeRLLPlBS39+JBkrit0DI8SMVYYe1/jsAMMxAaX3F+xmA0cDb+itL4axtlQxsgGUkFj2HeORps5p8je3UELEpMHiknMjJJG5THIc5z5mO7+YP3GxGq0X7N4S6CWoLbGomMrBc37Mfw4z6hl1fG4c369Ktr9MCuthGN2aasaerHjyczL9WJhwaMuij15Ae2iW8Qk7Gtbm7vaxuZ6tOZv/kj1JVshpg57g0cr8+Qsrgsp8TSZbvJ7sTHyHlc6tbf5rN8Bxxz4Y6KLOHSSPdK9jS5zIza+UDmbWumDjTGw6lqnDYmOBh/E43c4W9UD4FxGKip5ZpHjtZS1kbN3EMFzoNhcj2QYv0MV+K0zAIIYnsLH5CHtykG2pcevNJtW/s2yMGzZHW8nd4fUopw9h5r6p7XvIBJledb7gOA9wEK+0CZrKuobGA1jOzYAP8AIwA/NLJWqHg6dnzCIHPF1T4gpns32TbwnE0xAqTiujBjvZT4oq5NIyxcjH9n+C5GxeTNwfUW5qtA67j5fVVpJeqkwU55HDoB8yqsmF5G6jyCrV+jSvk9aC8gbN0uoMSk/hE87ImFPF5s7C5xsI3sv5XuR8giOINkmbT5dXAh4Hjf9kAnqAwFlr59CDt4lOEcoa4FvwiwsNdLCw+iWwFvDqs5srt/1COuYXCw35IJX0x7sjdCjlO4ua0Dd3yHMpgokojq9x12aD1sO8VJI5eZZGRt1cGsaNSTYeJJQaTiSmd8MzLdczQPS5RCEzIocyDyY7B/80f+tv7r1Fi0R2lj/wBbf3QNYUXq/JU4582xB8iCrDX6rAJZCvpku2yqySbqL73l0OyJrM8r6YuqamAl7b1Aks0gZmTMDiSeTcwddXcaqOziLmtBLyxrW2N+xa5rXG3iDfRXOOKZ7JYauFhkNjFIxtszmnVhAO5B+RS5JTVVW4OmH3aMC1hYzFvQW0jC4nimpy4rv/WG00v7AqCjdM77pCb2GSaUbMha4lsf5tbLV8PxCOmjawMIyxtY38Nm6alKNNPDRRZY2hrfck8y525PiqM/GpcLCPMdLX0A9FfHBQQOVlfjXiGSWqc4O0iLcgHXS5+aIUmGOka2d8xkBDSxgJ+J3wt33uk2qvI55OrjqfPmilFxO6BkTWgfwQ8jxe7Zx/KNkb2KWePKwMMdI0giG75SNjNJYu87DRLtCzM6+5/TwUMVPPWSnJG57nG9mgnfcknT1KaqbhmWnLc+XORq0OuW+Z2um7B2MH2Y0x7eZ9tA1rL+LnXt7BIvEoMtRUGxOeSXlfQOIJ8gFsGA0/Y07QwC5u53O7jz8holjCMGZGZDKSZXNeHHezTe/Zgcjc+KK6MxZ4TxPJGGncaH3RzFK7tGWSLV0r6SQNdcNcMzLnXISbX6Gw1RGlxDNZSyOjuhi5pSCfZBfVH265c9st6kN1RUWCl4cqy3tnbmzQPDV1kIkkB05bqOlxQxwuc22Z7zYnmG2AsOfNdh5oafOWMJcbFxvdVanFnOyxgAgcwTr53QGuxJ1g6YkE7C2p8h6oVLjDnAhoyDzu4+Z/QIi2FMZADx3sx1J8OgTLw3I8MbJbM25afJqSKNt1q3DVBlpowdyM/q43+iCGQVjcJABy3upa+vip2Zi4DT1sOQQ3EK5tM0gauOuW+37BZtxLir5XHW/wDWwTN0GyPj3HZKuKR5JbC0hjWj+Zx6pDwOmjkqIo5biN7wxxabEZtAQfMhNHHA7Kmp4djrI/8AMRc/t6JZqsLnp2smcwhpLHNdcEX+Jo0Oh05ow6dkn2NjuBYjJVtEsjfu4a5oLWvztdGXanTW4IQbDeEp5o45IywOkbI9sbjkPZRkAyZtrEnQJ2oeMoJqt7AQITTOdI7YveGtJ9m3aECwfiiMffqhz2NcImw00DvwNBytDeY2uoxyZd6HcYi9R4fWljJYWylkjixjmPHec2+Zobmv/KeXJWKDiHEwS2OSVxBLSCA7vDduvNEsaxtoZhjInxNyHtpOzIDI3uIuCAe7oXaISK+J+IB73NbCx7ng8iRrfzLlT2Sf9ItV9GGm+0OqhOWrh9S0xk+QOhTBT8cUs4aM+Q31DtPLVLOA1vaisqXkvJJbHGAJS0E/EyI7/wAvskvEHFz3EtAN7WDBHtoLsGgPVGP5P9BujfIpRPAQ0g6Xa4G4uNR80tzYldp5Ebjx5j3VrgZ2SBsW2Vg9yLn6pf4wozHOXNuGya6fi/mS3oLB+J13aWtsQD4IM+qDDZrQSeatdmSLBVqmEN87a+CWzFRpJO+/zWlfZZwqHh1TLGC0HLEHC4Lhu+3hsFn+G0jpHNY0EucQAALkknkFueD4W9jGRkvZGxoa1oNibbucfErJbGQVnaQDok7Fm/xLePumqclugcT5m/zS5iDW5iSSCeW6oZhPCXZoyPD2QjiZj2RiRgOdjm6jk07kjmLbhWsCl0I8URxWn7SNzTs5pF/MLA7Mb4tc+YCUNs1pIB2Bub2YDqWi+6DYe53QrWscwVj6UsbbOLHMdXEj2sPAaIZR8OtLWuA0IB91KcTrweRwi4ihnd0K5On9ghco8CvvJ8K4QrntBLGNDh/PIAQD1aAbFO3D/CzaWAMJEkn8z8u3QNvsAq8XEjCbB3zRilrw/muhM4UZT9qNLknhA5sef+uyUGwrR+J8NlrK6XJEXNiDIwS8MYNA51juSS47I5hlHTRt1iizt3sA8g+Ljun+UJWxX4G4cbMDJJfKDYNtbNpe5PROWKYqyAZW2LtgBs0f1yQ/Esdee6wtDfA94BJ+J11zYFB6DZ6xXES4kk3J3KXYqqNzwHOsLi/lcXX3EZTa3VGOE+EWTkSVDrM3EY0c/wAXHk36pLsAv/aTU9rPHlPcLbB3LXfXbZGZK2nmirY5nAxQuic0gjvNa1oAafFzD7p0xbhOGUBsbGM5FpBMbhsA5o2P+YapAxr7PHWc6mOovmgcddPwO2e3e10XFS70amtnvjmlLoaKNsTe1lsQ1rRcDIDlB6C/yQnEKWaHNQOggflEcvaNuzKbBxe55vmB1afLReari6sZJ/GYwTMYYmudFZzGk3dZvwknQE9FexfiyCdhBa9j5KdkUpDB3XRkkZQDq05j7LKM4qu0BtNgN8j55HPHYlwDj3WEdWtbyva5AKpQ4c+omZCx7XENs5wFmstuCb3d5r3SYm2EERtN8zCXOIFw06iw2vdWKXiIRSiSOFrQX53tuHOcT+FxAy+3NFKd6QHRWgwWbsxLGQ49q6LKLh7HC+pPIW5qbC8NdJO1m/e7xBBHd1OvPZXKjH4vu1QyJsjJJ5u0Ny3K1htmaHA3voeXNEPsyobvdIdh3R5/+k1zp2ZJN6GrBpy1/qr/ABJR9rHbmNQhMBtK4dHFH5H5mJRzPXtyg6WtpZD6tmnmmjGKC5zjcfEOvil/E2WCVoJ8wJj/ALxD2RIfnblI0I11PtdbbHiksrsrLNaNC8i5cfAaLHuD6hsdVHI+9mZjpzOUgD5rVqPHmyDSmeW7XFrfOyyZl0E5O0A+AP8AEaIJiryLlzC0lFHt7ucSvp2887Rb0JJCiYJcrpHVQELdS+SFuv5dRdURmDuHqR2Qv1s52nkExQR5mn2QKKtnqHZY2PEd7NcWGLMPxG+w5pso42xtDb3tu7qTuVqMgPLhrr6AG/I7+6hpaXs2ZCPhJb6XuPkUx1M7I2GR7g1oFyTyA3SVw7jYq2Tyi4HbuDeuWzcv7oSN9LdlyjuuSaNbECm+Mea0PANguXJUBBz8XmfoEjT/ABP/ADFfFyv8Myo7Ypem+IrlymAp1Pxs/MFqjvgj9Fy5BdmQTh3CBYv/AIfm76lcuTIcRPtU+GNZ2Vy5Ux/+WRn2eItx5hGpfh91y5LIK6Bp+JaPwFt6n/tXLkjGRP8A4zvNG4fhXLkRgbP8R8ilDE/h/rquXIMH08cP/wB/H+YLcaPc+TVy5BdjLoE8U/8AE0v5/wBQjPFfxUn/ADR9CuXJ0AtxfA/zK+NXLk0TMVPtS/4VBPsv/wCGm/5o/wCwLlynMVdjOuXLkox//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSEhIVFRUXFhUXFhcVFxUXFxYWFxcXFxUXFhUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0fHiUtKy0wLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS4rLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAADBAIFAAEGBwj/xABGEAACAQIEAwUFBQUFBQkAAAABAgADEQQSITEFQVEGEyJhcTKBkaGxQlJywfAHYoKS0RQjc6LhFZOywvEzNURTY3Sjs8P/xAAaAQACAwEBAAAAAAAAAAAAAAABAgADBAUG/8QAMxEAAgIBAgQDBgYBBQAAAAAAAAECEQMSIQQxQVEFYfATMnGBkdEiM6GxweFCFBVDUoL/2gAMAwEAAhEDEQA/AOBIgKiwzGBYxhQBWQIhiJBhIQHNgTdpsCQBqbmTUgSYMmDBCHo072GpJNgBqT/SBhoPhaWfQEX5A6X950v62l/wfszWrEgoy/y87WOp0Avc6a8ozwvsuFGesclwBZrNYm1icvLS9vqLyxbjncg0wfDeyC5vlCgZ33FyQWHOxlUpjpGsL2ONN81WqoCkG1s19djra+kaTgOEqEBXZWHQ3FjrqGG++xnO4qt3mYvUfxG4ysCqkADRT5W6bRPNWoMDdMhUHvEGVmXW394BcbHQG+/rBYaOqxPZpCDTokk6klri3TwkDP00OnIXJnJ47CNSNiQeRtyMvsJ2otYJmqNe2p3sPFZW5XsN+suaWMeqFqd2j6lSlVKgqDmQpYZrbbXF7b7QWOnR57NGdn2gw6le8RUKi5dTTGZRzJZSrWHNgNiDbe3I4hADoQQdRYk2HTUA39RCaMbUgN5ISJmAwWXaTGi7mHaBeMimUSAMMhgbQtOMUtBRCoJqmIzTWMiuRKisbQQdNYyohoqZq0yStMkAcs5kIVhNKISASsiwjBWCcSAAmYDMaaAhIStNETYExhBYUgmEHi1CEbWdio+IIN51XAsLQBLhfCD43ZjlFtSEKi7DTqL89Jz3BuH99VCE5V3Y8wo3t5/SdVxzIlMUyMoC6IGN0Ay6v95jcLblrfmJVN9CxKg3aPjtPKKVMaDey6nlrsTrvbrOYxWZgCo5G4HXMTfpYi3zh+EYU1ivPRi1+VmvcnyBHxnWUOyqG2a/oNAJU9iyMWziKOOZCvMjkLfC+ssGrCuoABXU+E25/d5Gx5abz0LBdmsMBogPrrG6XZvDg3KD05QNlmijzD/ZFQLcKb36fHeW3B+MV6ZWmym1gL3IFhp11np39mpgWCiwiuI4HScXKj3Wg3CoI5Gs+c3puxYkeIghSQNtdNQem9xzMqeNcD8PfUVJsLVKaj2Co1YAfZ8uXpt2WL4IQfAtybAnYEbX29sDlrmAtvYilRmw1f8AvMzBQQSNspJsCv2l3IH4o6fcXeG6ODMgDLbjFGlRNqK5kcXVqmrJrYotja67XIJ26ynZoTXGaaJkwRmZpomFFc2RhKZgiZOnHRnkO043SidGOUzLEiiTGUh0iyNGEMIhO0yZMkoBzBExRJGYoiD6SDQNSN5IKpThBQnaSCwvdyQpyWSgVoWhWyEHKrdQwBv5dR6i03lmttRpAxkjpsJXoUaTVASjvYAMtmFtTrcjnuAL9JVU6/fADN4iGJ1PQ2Xz/XWLYt7URcG459c92tf3a6c94HhmhB3I3NtORH6PSVMK5nY9msItNFzak2OmhHUafSdM1extc9Rfb/WctgiAuYgjz+c6HAtmUM3hXq25lLNcKSLLBVzext+vzltlJFwPkJSJxWgvhFQAyxwHFVa4DKT63ksfmNpe9iN4zTQysxONIYG2kpsf2qqqctJAb9fKDUkA7ELb0lB2ywwNLvBoVB1GvqCPf8QIPg/FKrnMzr6AW+stsbRFamyg2zCx8vd1jqViSXc8p7Q4xalNWsettuZW48wbg+noZzJaW/FPAppWItmIHLKzBgB6GU9pYtxccqVEbzRaGWlNmjCkSUhe8LRMxqU1TFjHRRKQ8kOjxZDCrLCpjdN41SeVyNGKVSEA9eZA55kgCjAhkSQRY3SpymzXpICnItSjy05jUoUI0VwozGox9aUx6cYSiqdIMbx+tSijU4Ao1jSBTA6k3N9Cbc/faJcPxDZ1W1wxAt6f0jfEARS2JAJv6flbX4xTgrf3yaDS9rfC+vrK2RczrMJb7V9eWvWHxHEVc5WNlGg1sBy5TKGHLaiQxPZ+p7XiHMWGv/WUOjVuI4zh9EAtns24DMgPuDsDaA4XxV6LaXtfWXXD+AUWe/judGADC40uDrr7I3EZxXAqa1DlFiWzW0sp6KOXMyNIiUu1Hb4WkK2F7waki49ZwuOxD03YLTzMou3UDle+g+BnofZfD2ohCfLflMxHBszEkajyGvvi6OTHs4LAcQr1QctF1Zbai25zaMpVTbwnUX62nb8EzbtodCRy2jvD+Hqmwt5Wtr7vdLY0Fy3j6d7Qm6VM8o7bcOJqOKVNmYIdEUscucMWsBcAa3PmJxFKneex8Vwlbvq1TDtlYUaevQGoS1vOyHXynnfGsIExVZQLDvGIHkxzC3lZhbyluN23ErnHTHVfNlXToyZoR6lRhDQl1GdyKhqEC1GXTUINsNDQtlUFkwY3Uw8A1OQNEbyaVIJlkIQUOd9MieaZIChqkkcpJMp0o1Tpyo2EAkxljISaNOEViqrMKRkU5s0oxWyvq04sKQvr+vnLKqsWZJBWydV2p0rUwQajhDfVSm5DA7gm2h6SjfCCmwZQR1v1P5bTpsLSDZF5hsw9SMv9PhAYDDM1ZxU2y5QDybMDp56GZpWpM1QUZY1XMtOF1QrC/lOxwmNRxYicQtPLcchoPhpGMJxArpEYyZ2NSiu99PL/AEnPcZ4nQo5mqEhVF9NyeQ9NIWnxAsLXlPxXgwq6s+p/Vtd4Ex3yJ9nv2gZ3ygELstwQf9Z0nBe3Qr4p8MaT+G9nIsGKjxWHTQ2M5PhfZl1ZXFyFINrWE9JwGEp3DlPGBbNvYHcDpDu3sL03LJKysLiRrV7bbStClGK303HoYZm0vFUmRoE2ZWpsDpUOVhbexIHusxnBdqKFsW6/dFJf5aaAfK09Iw+KCLdwAqjdiLW3v5HWedcUxIr16lUDRm8P4VAVfkomjDHdsp4iX4FEQp0oTuowlOE7uaTHYj3M33EeFKT7qQKKatQldXpToa9KVeKpyDoqmWAdY8yQFRJCNClpqHyTIAUXtNIyqQdOHWK0XajFSS7uYGkwYKC2RFORdYW8HUMYrYnVWLlY1UgDIKxjCHKQen6MfxddSoUAb3BYm9xsc3l0iNCNKBz2lc4ahseRwYnSc2IYgny2MEaLE6TP7OyEc75ttL6kjT0jOCMztVsak090O4JCvKUXGeOVxUNOjTfMN2CMfgbaDznU4eouxha5b7F/dFTSe46PNK/FcapJIqg63Nqg+OklwPtxi6dXLmJH3VGvvA3nplKvjNLKpHmLy74ZTqNrVpoD5Kv9IynEMk+aYLhONasAxUrdbkEWIPS3KPVydBGGpBSTbUwNEZqi9Ab/AAlaQrZ5vxXjNWvUYFvACQqjQZQbC/UwuElXXTLVqLyFRx7gxtLHCNOjFUtjmzk29yxVYQLBI8IrRhQipJ5JFWhLyDIVrrKnFLLmuJV4lZCxFYyQLpHSsFUWQYRyTIe0yQUtLTM02xgWgaImEDwyNEwYVWij2MF4Nmg88iWhAzTmCMkWkDAANRaOo0r6ZjCvAK0Fr7X6Efr6RHv8p0jV7gjy+Y1lZXbWZ8i3NWHeJZUcaOc6DhnEKdtTr9JxFQ8/pBJiGXaVNF1HrNDiKi21pa08chG88aHEavUy5wXFqzabDqYttBqzvsZjxtJYG9ix3OnoOU5/AgtbMSfX9bTpMMLACFA0nk3ENMRWHSrU/wCMxrDPF+Ni2Kr/AOK//EZug86C5HMkty0SpDI8QR4ZHhsFFgjwqvEVeEWpDYyGKjSuxEZapFKrSDoXKwFaMmLV5Ait5kyZICyxDTREgphFkYiZpUhAknTEOiRRrEzTgnWWpoRetQkoNlWTNXhqtOQCyNEs1eN8Lwr16qUUtmc2FzYbEkk9LAxbLO5/Z1wGqGOLYZUyMtO4BL3IzMByAsRfnfpFojKChw9DUFNMTTapcrlyVhci4IDFLdd7SirpYkT0jj2AXD1GxNNLM9wzD7Jbcgcs3M9fXXheI0/Efj8ZmnqupGzCo1+EpBfaBdrco+1KK1V6wFhGhXLGyqT7p13AuC1HAY+EHrK3gFJSOQ8us6/hrkGVN7jpMewuCCAH9e6WNIQWe9o1h6dyANb6CMluK+RxnbfsRWpO2JoA1adR8xVVZnplhmJIF8y3vryuB5zjqbWn0evhXXkNfcNZ5VxfDpVqO9ajlzsxGZWpsAWJGulz8ZrlPTzM/DcHLiG1F8u5xyPGKbSyrcCpfYqMv4gG+lrQB4TUGxVvwnX4G0iyRDk8O4iHOD+W4MGTWa7sqbMCD0ItCKsezJVOmaaLvG2WBdZLChciK1o66xSuIbIxWZN2mQgGKcZQQVFY2lOCxaJ0ljdJICmI0kJAoWBrJGVEIMIW38I6n+kDklzLMeOeR1BWzn66TeH4dUfW2VfvNoPdzPulzUNOn7K5m+82vwHKJ1Q9ZwFDM3QAkn3SifEf9Ts8P4O61ZnS7f2BFClTO5qNv0Ue7c+/4TsOwXHTUD4d82hLU2sba6shbYHmBzuek47EvTo3zkVX+4jeEf4lVdP4UufNZT4ziVWoQWfLl9gJ4FT8AHsnz385QsslK2bp8DiniePGqXfz/n9ux7ViirAo9ipFjfmOhnnfaLhDUW5tTPst0/dbz+ssuy/a5a4FDFECpoEqmwFTkA3JX+R8jpOhxOGNilRcyHQ36ef9ZqenIrR56ePJw2TTJf38DyxqcA2FbmDadvj+zPd3qUrum5B9pPxdR5/HzQqYIsuh1EyyuLo0xkpK0UXD8MVYGddw1ZzJqujWy390uuGYpjvEaHTOpoN/1nS8KweQZmHiOw6D+sR4Lw7KA9Qa7hTy8z5+Uscdj6dBDVqtZR8SeSqOZPSaseOlqkZcs3N6I7lH+0Hi5pUBSQ2qVTy3CKRm+JsvvPScFT4lUQf9ox6gksp9Va4I9RIcd4w2IrNVYeJtFXcIo9lf6+ZMTpU7m5mfJPVLY9VwPBrDhUZK29368i67sVlzUh4reKkupHVqQ3Zeq6lfMbVmHqkMVJ0O3Ig/lNA22084x/tav/5jN+Lxf8V4hrUZw2W68/vuMU6rEWaxHQ6iYaFM7XT/ADD56/OAHFD9qnSb+AL86eU/OFTH0W3V081IqL/I1m/zmPGbXUy5+Ghl/Mx35r0n+hs4K/ssp+I+sVr4Zl9pSPUafGPMnhLo6uo3K3BW+gLowBAubX1F9L7RNeIOp3lqzPqc6fg+GavHJr4+rE3WKVll5enV5BG6jY+o/pKrF0SpIIsRLozUjjcVweTh3+Ll3K/LMhcs3HMhPDSxRZV4Vpa0jAAkgjtHDEjMfCvU/l1i5rJSF2sW5A7D16nyiWI4gzm5MpnmrZHZ4PwmWRKeXZdupcNiUXY3/Xyi1biBPkJWU6oOmpPQbmWOIrrhTl0OJ53sVoHcCx0ar8l8ztnlNvmd6GLHhShCPy/l/cNUpBAGrMUuARTUA1WB55TpTB6t7gZWY/ibOppoO7pndFv4/wDEfep6HToBK+tUYsWJLEm5JJJJ5kk6kyIrdYllyxdZu3+i+H3e5opeRbDgyZMiTFLdgDYW23z2nS9nu2dXD2pVR3tIaWJ8aj9xzy/dOnQiUIqSLhW0MMZOLtFOXBizR0zVr19D2Dg2Mo4gZ8NUuRqyHw1E9V6eYuPOHrcJRiSAEY76eE+77J9J4xhzUpMHpVCGU3BBII9GGononZr9oYa1PGgKdhWA8J/xAPZ9Rp5CaoZoz2mef4rwrJh/Hh3Xbr/Yhx3h7o9shudgBfNrpbr7p0/Zjs33QFSsL1Nwu4p+vVvp850qBHCsArD2kOhGotdT6HcSu7S9oqeDS7eKow8FMbt5n7qjmfhcyxY4w3ZzFKeVqEVuw3FuJU8NT7ysfwqPaY9FH57CeUdo+0VTFVLnQC4VR7KA/U9Tz8hpEuL8WrYmoXqMST7gByVRyXy/OL00A9Zny5nPZcj03AeHRwLVLeX7fD7hKSW15xqmbCAtrJyo6xJmkY5huGV6gvTo1HHIqjEfG1oDGYSpTNqlN0/GrLf0uNZBPaQb02rF80Gxm2MGxgGGMFiWpkMpsR7xY6EEHQggkEHcGPYiitRDVpCwFu8p7mn+8p3NMn3qTY8iaq+kng8caTB1sSNLHZgdGVhzUgkEdCYUynJB+9Hn+/k/W31TlUqFRcRx271AftAX9RzH5/GA4xQCE5fYYB0vvkbYE9QQVPmpgOFV7ZfUx4yplWbHDiMTi+T9fVGskyW3d0vufOZNPtked/2fN3X6nO4d49/a8i5vh6ysEV4riNQgO315/rykySpGfgMHtcup8lv9gtTGlje80cXbYytpVrOByMLVmNnqYztF5wHGZGet9tABTvyqvcK38Kq7eoWRduu51udyeZJ5xDBkimp5M9Q/yhFH1f4x+mwYaawMfA07l3/j+7JKdJp6V5pDJXtAX2DCETcJnmpCUDyzWWTmSAoh3fQyWQzckGkJRb9ne0uIwd1RgyG/929ygP3lsbqfTQ/MJYvF1K1RqlViztqSfkAOQHIRa4hAY2ptUUxwY4zc0lb6mwZqo8iXkGEBfZa8O4dWrG9KjUcHmFOX3ufCPjPQOzHYpadquJAd9wm6J6/eb5Dl1nMfs3409PELhy16dW9gfsuBe69LgEEek9G41xHugoDKpclQzbA++w6m3O0vxRjWpnA8S4viPaewjsn25tDdbFU00ZgNtPpIVaVKuhBCuh0IIBB9QZzVwHHeBr5cwYuilr3ALE2OYi+gAtmO2knhs4Zmp3AQKdCDcEAfZ0IAUAi3W295Z7XpRyv9MkrUt+/QQ4r+z1Sb4d8n7r3Zfc18w9+acHxrAHD1TSZ0ZgATkJIF9QDcAg2sbeYnsvCsaatJm1uCy3K5SbbG3/SeL9oiRiq99++q6+Wc2+VpVljFJOPU7HhfE55zljySuvr9RGq+kDVqWW8jWbSAq1PDbylB2mzos/e4W/Om3/x1Rr8HUf70ytwpsy+p+kZ7K1M9OpT606g96r3if5kWIUqviHvjFcHu18/r/aZb96OsyJ3M3DqHorzUygt0F5TVHu2sc4nWsoXqbn0H+p+UrEbWW5Hcjg+Hx04V57kaz2KnzjznSVmKMsFcHTna8rZ0Mct2hhKn90o8m+dR/wDSZwStYkecAreFfwE/53ivDatnMDQMc60/F/udGzWb1hSYjVqXGkZoObaxDfe5O8mDBxrBYR6zZKSNUf7qgk+p6DzOkhG0lbA3mESwxvD1oG1aqDUG9KlZ2U9KlX2EPkM58pWGrflC1QI5Iz5Erzd5DPJAwDkhN3mgZq8hCV5EtNEwDPILdFt2fxHd4rDt0qoP5my/nPZ+NAhBU3VASRz5ajTW3SeALXKsGG4II9Qbj5ie+dneNUsZQWohGos6ndGtqrD9XGs0Yese5wfGIvVDJWy2FOJV1xNFmotclLBQ2XxagqRqLkHS4PKD4FX7iiXrNf7WgOoyKRlFzvY2+g1jeK4Gtj3VgDfwkaa2vY6W/XlFsNwJ813fQagj2r3bmSeTAfwqdxGcJ6ro56nh0OKltfKt/hfIP2WrCrTNUAhSSoUi3snUmxIJ9J5R2zp5cbWHVlP81ND9SZ7MGp0KWuWmiL1sqgDXXpPC+0HEhiMTUrLfKzeG/wB1QFUkeYUH3xc6pJdTd4S9XETnFVGv52KzERaqdIzXidYzOd6Zadi69sTTXkXUfEgRHBVSTc9AP6/lA8MrmnUDrutyD52Osng+n6/QhZXiu79dfuWU3F/7Sk3Aadij4pWu9ugA/P8AOAXSeocV4Xw/EVKqdy9OpSTvKhKuhVbXTUjKwIB9k8tL628tZ9jNeWGne+Z5rgeIWSOmq0169IDjIcv4qZ6rB49dAYEv4AfuN8m0+tpVVo1Slpk/ky1xZsKf+ED7y9SVmFq2qXjWJq3Wkf8A0yv8tR/6iVhaxkSK3kpJruzrVa4nX/s/4GMV/aSWylaRp023y1Kyuue3kAf5pwWCxOZLcxLXg3aurgnZqBF2ADKRmVrbXHUXOoPOLClLc3cRKU8L9m6bO64f2GSiprcQxCJSXdaZbXoC5UHXbKoJPKVvGe1t1OHwNMYbD88ulSr5u249LknmeU5zi3H8Ti2FTEPe3soNFX0A0B894pmhlNLaGwuLBOX4871Pt0Xy6vzYXNJKYLNNh5WbUHE2DAh5u8g1h80yBzTReQNhGaBYzRMgWkK2zGjPC+KV8O/eUKjU2522I6Mp0YesUJmoRJJSVM9J4L+1Miy4qjf9+l9Sh/I+6XvG/wBomEoorUj37OuZVXQAXI8ZPsm4Olr+U8XMgwliyzSqznz8MwSlqqvIv+0Xa/E4w2qNlp30ppov8XNj6/CVBfURUQitrKnudDFCOOOmKpB6jRWuYZjFq5gRZN7EKWx9D9IzSFhb4+n9TAUBof1zEYYEC/6vCwQ2VmsrTJneNMgGtF1geJt/snE4i1OmtUCilOkCqBwWSpUCbIXzXIXTwA8zOJbYH0nWcbw3f4aocLUpvTGIqVnp01qIEOVQVRX3tYuQNi21hOTvdfcJv4hNUeV8MacZVzGGXPSPUSuoNyOx0Mb4dVscp2OkUxSZXI85nXY6WSVpT+TNq3gy80Y/yuNPmp/mgW3m6jag8mFj9R87TSrcx/MxLrHzHcNVteMYU635xAHpGaT2lbRuxz5Is1qXhFqRJGhEqRKNqmOh5NWiqNJU6gJsDc9BqfhAWKQ0Gks0NhuFYmpbJhqzX2IpVLfG1pa0OxfEW2wrj8TU1+rXhpsV8Rjj70kvmUmaaLTrKX7NuIHXLRX8VQ/8qmFH7N64/wC1xWFp/wATH6qsmiXYqfHYF/mv3OMLSBM7N+xVBD/ecVwy+gU//rNHs5woe1xYE/uKnyHih0sR8bifK38E/scZmmwZ2SYDgSe1jMS/ojflShVbs+OWKf8A3o/NZNIFxfaEn/5OHMi5try5+XnO6ON4AP8Aw2JP8TfnVjGFw3CMUtdaGHrI9PD1aoLu2XwLpoKhvqRpBp8wvjNKtwkl8F9zzthYyKtrJKNJpd4psDExauYe8XrmBBm9ieGqhVJPlCUmZzroN7dB5xY+yPxfkYzQOnqbCEkHyQ3mHSZCd35zIC+i17Af92r/AI9f/wCozgKe3685uZOjxPuo8Z4X+bP4AKPtD1EJxX25kyZv8jqf8UviIYj2Pf8AlDDdvUzJkfoZF+Z8jSflDUJkyKy7HzQ8/siEp7TJkqOh1+QXC+2PUfWe49iP+UfQTJkeHvHM8T91HYjaL4vY+k1MmjJ7pyIczyntd7be+ecYj2pkyYep6nw33BmntJJNzITTLmbEmsyZIRBF2Pu+s6XsL7WL/wDY4n6LMmSR5lPFfkz9djkxIJvMmRWawhgK01MkQJ8jaezGMLun65GZMkY0Og9MmTJC0//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhIVFhUXFxgVFRUVFxUXFxcYFxgaFxcVFxYYHSggGBolHRUVITEhJikrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAEBQMGBwIBAAj/xABPEAACAQMCAgYFBQwFCwUBAAABAgMABBESIQUxBhNBUWGBByJxkaEyUrHB0RQjNEJic4KSsrPC8CQzY3KiFSVDU3STtMPS4fFVdYOEoxf/xAAbAQACAwEBAQAAAAAAAAAAAAACAwABBAUGB//EADQRAAICAQMCBAQEBgIDAAAAAAABAhEDBBIhBTEiQVFxBhMyYTOBkbEUIzRCocEkUmJy0f/aAAwDAQACEQMRAD8AytqMjRH1mNxVFoKhuqiGpcBUdxmoNi6JlcnlQh7kelSalAOSBJ4M1aQqUhdNBVirBtFSyyaJKCTLQVHH2fzvS3Isc8P6PyudJibLDYgpgD525wQP58QeQughOj0nWBWUKExvtlueSdOTnO/uIqvmlUzm86IXKuVETnBAPqEDbmc8gNtvbRrKqBpnEnRKZVLdvap2xsd8jORnT7+VT56L2sTT2brklTjOMkEZ9nuPupm5PsUDlaIhERVlMlhG9RstDG3jpbGxiGpHQMOj146Gw6YHOtMiKkgCU05KxTR5FJRADzh5pUu5aHUFLYSDFjoWNie9TQhGcM1bBLRC5qrBojVqsNMYWdUTcOraKqJuCuoqwXIhmh8KtA2KbqKqKATFQSYaGPC+HmVsAouASWkYKoHt7/DwpEpjUi18I4UsYOWjfIPydRB22yCATjPMduKXKVsLaPYYmaMlmGcZGsnUPlDJXfSMo3bg0FMjoLstQw7kBAN2BGWGR62eRII8wDUIlboGuOksZkKOxYA5TBxnG5XI5YyQDnsxS6aY2uDmPpDBM6oqvnng7jBPaP55UxL1FtIA45ax3ADgs2nK6RkaSeQ0kjOdt6bCVdhbiUPidkYmwRttjx2p8HaFtUL8UYITbQnNU2WhvbwHFKch8QqOGgbGUdPHUsIXXS0yLFyQpnNPixDIom3owGqH1g1JkWh9bGlsJDCKgYxHeaqgjLnNawLOCKgLPkTeoCxvYRcqoof2sNWQLEdWUQzx7VRBJeLUKAVj3pUhkR5wxUUetq8cDY+HP47dtIk2PSHZPVIGUaWyDkk4UDDZJxntA9poasFtjjgHEImt5JI0+WxyrEtLIy7l3zhUQEjAUeG+9VNNOiIqPSPi0znRq5Y+SdtuS4AxgeypGNdw3JeRX52mc/J2XuA+P2mmJRK3HsDvGwfUVPt7O7HOrcU1QKdOyyw8XkJVo8tyzggciN8HHd40FUExxxTgwniJEZV8bcsAnt9XkCaKLoVNFIXh7KxV1IYHBB7DTtwpB9tZ1TYSGkVvtQMbE7MXhQ0MB5hVBWKr2jiDIR3DVpiZ5EMR3ogGWCwblS2RDu3al0EHxS0tqhsTvraoIzYrmtbYNEsdvmlORVE8dpvU3FtDOzixUT5AcRvbmjsm0I11e4qgS5lqWUxLdvmoC0QQGlyQcS29H+FdYC+4QcztuR3effSGOsHuUkmnbHyBvn5xAOlf7oyT5CrdJA8sdiAQBYY8OVMZcn8YDc6iO1seQIpDm27HQgScO6K6jqcnHicnz8atWy3HgaPwK3Q507+2i7FxgKeIdHoW3GxNVuZbxHtnwGFRuSPHar3A/LY5sI1U6VfPdy37MVYEoNdys9IeHkSdZpwrbZ/KXYjwPKmQM9cgsMFEMSCkjqgkcyrVBCu4NWkVYovJKJIqTEVyd60R4EsigO9EBLke2TUpkG8ElCEFrNihYcT7rvGhGFUghzRyYKGEUFKbsYEpb+FVZdBCxYq0ynGzoNimqQO08M1WmTaCXMtSwXAVXD1aZUoEcD71GrASpmpiZUtoY49IzGr7HIyV1nft3Jye3FY5dxtCaONlJI7WZvI7YwfyMCqk7DQ14BEzYJ7NmzzOM49uxFKGos+nbbG+BTPIvgBuYGJqchpgM6kVRdgxhZhtnFWU+DmyjZXHtqICTtEfFZusMqnnG2r2g/8An4U2L5MzQHCtHYdE4WoyUC3RqrII7ySjQL4Ed3JTEgJMVTmmAHkAq2wRxbNQMoZQSULCCOsoQ4nHWeFVQdgFqlVIkRpBFShyiFpHQhUeSLUJtAZ3olIJQA3no1INYgWWarT5LeIEkY0aEygcIaJGeUaNH4NdLPbxNzMSLGwH5IC/EYPnWWcaZRK9xnAA72zty7M+JpMu42KH3AbJ1XUdgeW2c0KVsNvgsH3NjckAe7FNqgU7FPEOIRqD66j2mhcl5DYx9RSl6r8mB58qikHRw/EUUblQO2qsm0mtZ4JQB1yajy37e6iTQial5CXjyGK4YfOTn7MDn29nvo0rYsigkox1ErzbVCmhXd3FEgGhHez0xIVJie4lpiFtgLtmjKsntxUZVjCGgZA1GoWWStJQhoj1moXZzZNQzCiOoaSPQQKEIhneqCQtuWokMXAvkNHQ+IM7UUQnHgiNMRmmcmjiY5ll6FO+qdVV2UwknSrEKQRgsQPVzgjJ7qDPHgVF80P4pNTDsx2eRI+FYWPiXy2kCqJB83O/s2qo8chNFR6RcYkkOGcjwGdh5bk+AqlcmGpRRSr25GsrpYkH1i2R247T4Ubx8WBHKm6Ll0U4WXI1ZAxt7silxhyMvjgrvSy2eKdojkjI0+IO/wBtN+XyKtiWCYBsdWeeMjn7R4Vbxgxycl1NnLcRwEFchJQS7BRhSuMk+BAxV4ynzLgVRzEbHYjYg9hHOmjUevcVKLsXXc1FEXISXMlNSESF0zUwUQCiIGQCgKQfDVMJMLShYaR7IaAKiHX/ADgVRKOLF6kkSI6gmpTTHxYUJaCgrIJ2qBpi2Zs0aiGpAklHQ2MwZqtJhuZxijRmnI8K0yK5MmSRoHo+ikCQiOQor/dE0pBxr0MIUV+8Du/KNY9TJuXfsbdKoLA5VbbofcStw2nIUOmzaMbgjB3HdqrMp80BlhXJabKFdAB5YpsUhEmzi8sE0sowAeYGKJxSKVlYTo7GXz40PcY1RaeH2qR8tgMZJ5eZNEku5XLEfTKC3mIZXUyLsV+cvh4j6KKU15EUGu5WrKyhVwWyDnb/AMGhsv5Y46SwRmzAQ6cuVz3GRcDy1KtW3wTBay/kUviE466QjkXY+8k4piXBVg5nqyrBLiXIokBJii4anRM8mByUQuyMjersLyC4aqirD4TQsILQ0DGI+kNAEiDNVZZHbijYC7jW3FJkOQYtCEDXD1aRN1CyaSmpEUyFnolEv5hExo6KeU51VAHkOSaNCJSL76PiZraa3DBZE3UnbKO2sgn++G/WWsmphzfqbdHmpU/UuPA+ErEuGRtTo+rVnYnbPu7aybNo7PNzYztNWncY+zl9VXyjNZBcTdlC5DUuAZpSNlG5/kVe4jVCfpJBfO0ccbmOIDLsoB1HJ76avuFvVeHuVOeC4M6FGOAxydjn7O2qiuHYDnyNZJD2jcUJNw1+5GuIEUH1Vk1v36VGMKO05YUyKtAQlslZQuJzff5fzknwZq0pcCNzsGaWpRHIgllq4oCUgGU0xC2QMKIE4xUI+xNEagIdC1RoJMKVqCQ2z52oaCTIsmqogXbQ1TDSGEcdLYxEoWhDBboUUQJCmenRQhugRnpqQO4411dFWchqlFWdqKgLG3R3izWsyzIM4yrL2Mh+Up9w8wKGcVJUHjm4uzTI+lYuRiJ2UY3RQNQHIjA+mudljOPc6mJ42uGOrO862NXGcFfPI2IPmDSbEtJSoE1ZbehDC10xjWezvpiaXIF2IuPdK0UiNFMkhHIHZe72mmKVqw1BJXIq8nH2jIZ7cqCc5yfhmonfYvwS7DeOVJxleeM+0c96p9xLTTA7/jTWsSMmQxdwuOWQq8/Dem44tsXKSjdlF6wncnJO5PjzJ+NaDNuPGaiJZGzVYNkT0QDImFQhzVlokWrQLZPG1QiCkeqaDTPS9DQVnGfbV0Sx1FHSWaohsYpbHUdNQkoAuqKIMoie6rREzzQBIaakKOAajKs9BqEO1aqKJkeqIuw+6G3Gm9gPYz6D7JAU/iHuoM0d0Gg8TqRrKEICuB3jz51yexukuQbTls4/nxqEBuPSEgIBu3/aiKKjd9CEY9Y87+zAPlkb1ojlilQe3dyxa/R601ANPM2OxR8AW5UfzIklCPqOOHwJCy9Vq0kgEMcnzNJk03aFyE/Ta6DCJB2NI3kdCj9k1qwLzMuZ8lYBppns+JqFt8HJJqwbOGqyHBNQs+xVlEiJmoSrCooKjkEoBKW1C5F7DiSE1aZGqIt6sEsCnekM2xYTCaXIejtqoti+7oogSYnuRT4meTAHFMQlkVGCj4UJDpTVMKrO0FUXtYz4RJonhflpljbyDqTQy7MOMKkjY+K/jY55I93/AIrks6CXAjW/KnS5wew+H85qJUAySS71kYO/f4/yBVgkptdYwz455xUSRe5vgQ3XCIwxzK3jsB5fCmWgdhDMMbA5APvq6A8ytdKYiswJzho1Iz55A881qw8xM2eLjyxRimiDwmrRD41ZDhqhCMmoiz3NWUG2sVVJhxiN7eClNjlEI6nFVuCUSGaGrugHAH6qi3g7QlHzQUPi6DoRQNDoyJxGaFIjYHdQ0aQEmKbiKnREyFs6UxMSwajKPKqwoo7UUHA6MG+w04fw53I9Vgva5U6QO/xoJSrk6ej6dmzzS28eo+4fZw9XJKqkmN0VCxz6z9Y2ojlsIjgY7RzxSZ3ss6XTsOnya2WGKtRT5fm+xpV2mpQ3eAfeM1z7o5mTiTj6MrfEIdRx7v57KJCWhWztEd87Hkfb2Gi7gHk3HDpxyPaN/pqVRTFFzxAk5z31dMps7spmY6jy7Ptq264JBWwjikYkZYm3zGHXsOsFxpz2ZAx7cUzC9rs6OyObBKDVuPiX+ystZ6v6nU3euxYdoIxzFat3NMwy0Pzsayabn1XmgaaBkOHRl/vKV92aJNGHLp8mN1ONEZNEJo4Y1C6I81CjqMVZBzw9KTI0QQ9gipbY9InMVVuD2g88VUmBOIJoNHYqjizWmtApji1hzS2hqY1S025VFErcCXlrRJUC5CS8t6OIEmIryPFMQsHsuGyzE9WhYDm3JR7WO1XuNODR5szqER3bdHEXeaQsfmR7Dzkbn5Chk6PR6T4bk+cshpFpjXTEugeByx8Sx3NZcuTarR6bS9Ow4I7Yo+klLDJJJ7M0t5t0Wa9m3iKIuj0m1zAeZRZF3/GgYkgePVSTN+hT73Yjw2hk9L1Vxl5tr9e3+S99H78SW6jI1xjQw7cD5Le7A9ormMf1bSPDncl2fJDfJ62R51NxyTniUSMnrKDtV2wJRKPxC3wfUY0UZANMCWLJ3pm8FJjSEBRvS7sbBUC3VzlwR8oBAmO8F/jlxTL8O1dzsdPx7G80+1MXWsoE8pUjAchccsBjjHhin53TTJ0CSjOb8r4H0d0RtzU81O6+47UKyUz1uTDjyLxJAN3w6J/xdB+cg2805e7FH8xo5Gs6Dp8yuPhf2AZ+jjneJ0kH6rfqtt8TTY5Nx53P8P6jH9PIDecDuI11vCwXnnYjz0k4piZzMmhzwVuIFFRGNLke8OHKkyHwLBbCks0IMC1QwFul2qkBIA0+P00YumecMhzWpoyplo4da8qqgtw6W3GKLbwVuBLu1GKqkSxJLw0uSNgBzY8h9p8Khq0ukyamdR7A72tvHyRXYfjSANv4LyX+d6vbXLPX6LouGCTatkc12zbE7dgHIewdlBKaXY72LTwh9KByaVKdrkdRw5rJllcQuxLa25c6RjvJPIDvNVjhuQjUZ44o7n+Q84D0Ha66ye0uQk8LLpDrlHOCRkjdQdxybO9b8MVFUuTwvX3kjqI5HGm0LLiKWGfQyG2uB/oWICv4wOfVkQ/NJyPGs2fSP6om/RddxZoLDqV+YZD0hwSs6FWGxwMe9TuKxNNOmMzdKhOO/BLj0Cv8pxshAcGqtnJy6XLjfiiyt3ZDE4xRWxDi/Qi0hBljjzq1bJHBkk+EAXF7nYf9zTI8djfh0iit2X9AUl2cRRAvK50AJuQTtoXvfvPZ762YsNcswa/XufghwjYejnQq2tLIpdaHlYM8hGTobTsqnOCFAHZuc1pcV6HLxZJqa2trkziO4RgdSlc8iv8A0/ZWKTjPufQsbz4o1F2vv3JETPyWU45b4J8jVPG64Y+HUoVWRbX9zzdTndT5ih5XJshkxz5TsIjvWHI01Zq7hPDjkB3dpDKN0WN+YkQY3/KUbMPjRfPONrOhafMm4cMDt7cxnS3PsPYR2EHtFMbUux4zPpsmnnsmuf3G9u+KW1ZSYV1tBQwGuJalUUwLraMAJ4OwwK1GJMtnDjVUEM9VEQhl3/nl41TpDMOKWWahFcsrXEeJajpT5I2Hj+UaW5beWfRundOjpsaj5+YqeSsuTPZ1EkjjVWf5jZfB1bozkBRkk4+yjgpyMufWYsEd2R0G3vC2gYJcK6sV1gYK5GSM7jPYewU14VFeI52n6jPW2tOqS7tkAuDpKAaQe4kk+0mr4apG7FpZKW/LLc0W30U3ZS6aLsljP60frD4F6LT3CVM4nxRgUtNHL5p/uaF0j4FBeQmK4iEidh5Oh+cjcwfpraeCaMf6RdDb612jU3tuPk7EzIPm7euP0dS+ApWTDCXkbdPr82B+FlNmvIwdLLNGw5q6g4/ZPwrLLSJdjs4+uya8SITdxf60/wC7ah/hWW+sQf8AaRPex9hc/oqvxLGiWnruxcuqt8QiOejvRq7vsmBFjiDaHmkcDScAkY+UThhsq+dOx4orsc/V6rM3U+DVuifRKCwH3sa5iMNMww2O1UXlGvs3Paa0I5pZZrRWjcHmUcb+KkfXVtDMTqaf3RgwGcVyX3PqKjaTPeqzUVrsW8Kl3RaugnCIrl5YZmfaMOhDciGAOxyD8oc614KlwzznXcctLCOTE655O+kvQmaAGSP75GNyy5BUd7Jvt4r7qOeBeRi0XxBOLUcpSZLisEotdz0i1akrTCIp9Qwd/q9lXCbRM+DFrMe2a5J4ZfGtUZKS4PG6vST0s6l29QgzUW0zKVgtxPQ0XYF90Ve0qwjg1xjFaLMdFw4fPUsgx66rssVcWv8AZkU8tmPefm+Q5+PspO/c2z3HROmfJismReJ/4QgY1my5D1EUiGRuyskpWBJ80OOhvBjeTCEbbZJPIAc2OOeNtu8in6fGpPk4fVuqPS4Eo/UzVOj/AETt7aQMAXdT6rNjC/3UAwDnO+58a6agkuDwWfU5c7ucis+mFR18B7TGw8g230ms2c9d8J/h5PdfsZ/SF3PXj/oHPo4hbnvYr+ujL9YpmN+M43Xce/QZPtT/AEZt7DtFbkfMwS4tg242NWQzL0xWTaLeQjVpd03GflqGH7s1k1O5R4O90GnklCr4MrezHbGprF8yXqehloYPl40dLEfxUC+wVTm/UOOBriMEvyNT9FVlqtpGJOeuI90cf2mt2lXhs8x12LjnSfoaDb2gHjWtI4gYkI+qoROnZ+eZoNDMvzWK+44+quXNVJn1nTtSxRl6pEbNQ2Ok67Fs9Fi5vt+2Jx8VP1U/TfWea+I4t6RN+qNQv7vHqLzNbmeFMN9I3BhbXXqDCSjWgHIb4dfJvgwrJqIf3Hd6XqZP+WVtJCDkViaPQwySi7QcJMjUOf01cZuL4NOpxQ1eFpnQn2rfGpK0eGyweGbjIGnmqbRTkC9ZV0ytxPYZFU5EUSzcPusVW4vaMZ77ShPbyX29/lz91Bly7Y/c7PROn/xGdSkvDEUSNgAfpH2mlcxjR76CV2DSNuKzZHyFJ00QzHt7qXITkfmaD6H4At0WJ9YwthfBmQ59yp+se6ulp4pQPD9dnKcty7J0agww1bfI84Z/6Y4vWtn71kX3FD/Eax6jsey+E5fiR9v9mc1ls9kG8Fm0XEL/ADZYz7nBpkJeJGPXw36XJH/xf7H6CIroHyb7HDCiIVL0m2+qxc9qPG4/W0H4OaXmVwZ2vh/Jt1sV62jGD7K5J9DfbsRtUoW2al6Ixm2mHdNn3xqP4a6GkdxZ4j4khWoj7GgKtazzpKtUyGCdLLfRe3K/20hHsZiw+BrnZvqZ9P6Vk36PG/sKAM0jub0tzLB0JuurvYsdokB9nVsfqFaMLqRxfiJx/g3F+qNOtRzdq3HzxmceltS0UUvdKUHsZGb6YxSsiuLNWjk45U0ZgGI7axcHfUpruw2zmwfClyR0NLmcXT7E1x3jz8K1aadraczrmn5WaPbzA5JK1NHnLIusqqJY+s7es0maUhjHDQ2Ox45Tkox7s+kkLEDsH18zWW3PJR9E0GkWlwKC7937nMjZJ/nlRznuZsgqQNctyFJmxGaaTSImO1D5C5NUXP0VTEX0Y74yvkCn/TW/DLxJfY8v1fHs0b+87/wbJcD1q3J8HkChemLdbY+Mv0JWbUfSet+E/wATJ7IzKsaPbnqtjccxvVx7g5I7oNeqP0dE+QG7wD7xmumux8emqk0fNRIERdNYtdjcjujLfq4b6qrIrizf0ye3V4390YRmuT2PqFo9xV0SkaN6H5PwlPzbD/GD9Va9I+6PHfFWOnjl7mkgVtPInhqEMU9I8WniE35Whh7DGo+kGufqFUj6H0Ce7Qxivuv8lcJCis/Y7rksceRv6PBrvc/NicjzKr/Eadp+Znkev5XLD+ZqV5JhdI7a3tnjTPvS1MBaxJ2mZW8lRwf2xSpuqRr0iuTZlqydhrG4nejkTVM6U0LQyMhlZnWNI593eKXzF2jqYXHNDY0c3vDXWMS4zGzmPUOQcAMUPjpII7xnuNdTF44X5njupadabUOHl3QuwKKjDZdLSCsLZtiS3nqjHafopeSVI9N8P6TfkeaXZcL3A023peGO25HrpdiASYGaVuF/M2wTILw7Bqi5M2qdpTRG52B7DUXDFTlUU15ly9FA/wA4RnujkP8Ah+3FatNzM4vXv6Re6Nrm3ANdI8QUD0uDMVsfypB/hX7Kz6j6T1nwo/52T2RmVc99z3R9Vop9j9B8Fl120Dd8MZ96CutDsfIdVHbnnH0b/cJJpggC4vDrhlX50cg96EVUuw3Ty25Yv7o/PYrkM+sJWj0VVhLgvPokmxdSJ86En9V0+01q0z8TPNfFEL08Jekv3NYxW88IjyoWZF6SLeSS/kaOKSTQkatoR2CnBbBwOeCD51ky45SfCPW9C6nptNp9uSXNsod7FKD68UqD8pHX6RWd4ZnRydX0+Z/Wi1eirSZ5myPVjA97j/ppung4ybZxet6iGTFFQfmXie4OdVPlI82ZZ6TuIa5o487Iuo+1zn6FX30iTtnT0kKhfqUzFKOhR6KjCQRBKVIIO4pbRrw5XBpo1j0etFfWt1w+UY1gTK+OT+qmonsYMIyO/wBat2nna9jD1+EZuGZeap/kVr/+W8R/1ae8fbWrdE89tYTa7DNcto6OHHLJNQiuXwQcRgl9V3jdUZQ0bFWCspGVYNjByN6HJinJp+R73p+fS44fJxyVrh+4G3KqkqjR1XygIn1ayIxyf8sHLe6i8zK5+XkQFseqfKjrzMm/b4Gah6H7H77PcnYKnVL4s5BPuCf4q1aRcuRyfiPMljhi827/AENVibIroHk6KF6Wf6m3/OP+yKz6j6T1Pwp+NP2/2ZmawNHu7PAapEtG8dEHzY2x/sUH6o0/VXUw8wR8o6mtusyr/wAmMzTjCeMuRjv29+1UwoupJn5xxjbu2rkT4k0fWcUrgn9kfZoRtlq9Gc+niEY+csif4C38NaNO/Gjh/EUN2hk/Rpm0Zronzs4ZqshVL7iQgubpmzp6m2lOkFtybhDsPCJfhQ9i4xcnSFUnHXMmoSlVDKrRkLgBuryGxvqGZeR20742yLvumE8bXFHP3UskscqBd4pfXAGflQ+qxHbz28KpsW4uLoE4xxJYkZmPIFjjuHZ7TyrPOfkNxY3OVIxW8uGkkaRzlmOT/PdS/I7cYKLryREBQjUkdCqCR0pqhkWW/wBHXSGK2ndLgkQToY5GGSUPykkGN8hh2d+eynYJ7JGfXYnnx0u67Gk/0b/18/72Kun/ABMP+qPP/wADqP8AqyhXL6Ux2n6O2uNknUT1/wAOaXfkeaXZdvc2nodKp4ZA0gBVYcMCMjEeV5duy1sx20qPO9Rj8vV5P/Z/uVLppwOx+4lvEHUu6qyIvKRpAGC6Ty2JJI5YNXlSSakdbonUtVLNHFHxRfr5IykHn7a47aR7OPmj7qxVk+WgS5j+FXFmDUY+xfPR5xvEwsuSyPrVvy1T1gf0V29njWrBOvCcT4hxKbWSP9qo2G2iYA5PsronkirdPuHrMsRkk6uKMySSMNzjCgKo7yTS8kU1ydbpGsnpptYo3KXCM8n46iHTaW8cY+fIollbzbYHwFZd8e0T0mXR5ouM9XkbT712RX9AHafM0uEm5U0bdbp8GnwPJFtSrjnzNv8AR9Pnh8G/IOPISuB8AK6WOq4PA615JZpPJ9T7j4tRmU6SUZG/bVMh+eOIgCWRR2SOPcxFcnL9bPqukneCD+y/YH1UuzRuHfQmfTf2x/tAv62V/ipuF+NHM6wt+iyL7G4tLXUbPmpC0tWQrfEmQXMhkI0G2j1auWEllOT+vVLsVZUrm7tpGBDpoQ9UwaMhTIuAFBGxye3xGDypLSbuw5afLGSf2sOSJYnZVA0qigbk5ZmkZ9zz2EdBkkkircuShdP74mRYwfV06mA7SScZ8hnzrN3Z19BBKDyMpy0TZrgjrRQ2H8vzR9ioXVHtQh6KoNcHes1OQtxdo4+tnSLJAZ0jyBkgFgCQO3mTQPx5FE9DgitBoLXdK/zNj4fw5RarZiVvVjeMNuhYueZXODgNyrqY/wCW00ux861WV6icsj7ydmZdNb9mlW31EpbKIVz2soAdyO8kY9iisurybpv9T3Xw3oI4NKsj5lL9ioqPWNc6R1oK5skxjnyqL7ja29+wPcLVox6hcWe8GvupuYJs4CSI59gYah7simwdSRyNWlkxyXqmfpmNxjausvU8M1TplF9K0rLboV+SzmNx2EMusewgxg5pGobULR3fh/HCep8XdK0ZSHPfXO3pOz3k4fNg4T7EWgduT7fsqPKzPHSY01KXLXqbP6Opf83Q+BlH/wCrn666Omd40eD65/XTft+xYTJTrOSeq9QowLjpxc3A/tpf3jVy8v1s+maKf/Hh7IB10qzVuGPRyXF3bH+3h/eLTMb8SMmvlemyL7M3KSautZ81IHnoSFT6X8TjgmgefeKVJbeQeDFHVz24BUj/AOTPZVOaXcZDFLIntXYqV10TOSI7gC3YiQ5PdyOAMHbtyAcCkuI1aiaVefYs1jAjxakYldtBJ3KIiopz25Cav0qtpSQmnZjvEroyO0jc2OfYOweQwKzRPQ7FDGooFarLbR4DUKTo7AzyqroYop9j3TVWWoUdAVAlE+01QW1l34LxRreXrUVGOGQhxkENjPIgg4GMjvNBjybZNnqddoIazHsk2vY0no9JbC2S9aT7mDuyGMuXjypI9XUMgkLmt2NurT4Pn+r0GWGplp4Lc0Zrxm+E1zNMBs8jsv8AdLHT54xWHNO5s+gdMwyw6aGOXdIVgesaQOSrIzyc7VaKzPgCkNXRzZvigVjt50wwOqZ+g+gPFTPZQyNuwXq2PeYzpz5gA+ddLDK4I8l1DEsWeSXuRelFA3D2Pc8be9tP8VDqfw2bOgyrWxXqmYkZMVyT3fzKOddQDe2a76Opx9wICeTSftk109M/5aPC9b/q5fkWQXHhT7OTR919XZKMJ4+39KuPz8v7xq5eb6mfQNE3/Dw9kAhqSa9wfwBv6Vb/AJ+H94tMxvxIy62X/Hn7G4s2a6x88InFSyzOfS3J+Dj87/y6y6h8Ha6P3mykWshkMcLyuIS4BXUdC6mGo49mTSVN9joZdJid5EuaZovFrw2aMxGNOyr3n8VR7vhRuLizz2CDzZFFGSyjkKGJ6HKraRxioBR8RUspxPBVgpUSLQsdF2SqtA2aIxOsVVh7SxpypEXSPXxXA2vOJ6rW3t1/0ZkZu4s7nHuUD3mtqyViSRz8GkcNVlzy/upL2S/+iyktceI6IO3yqSZ5cTB7h6hmzT5BHajRz5ypgrHc+ymLsYJSqbRrHodvC0clueSkSr+kNLj/AAr7zWjTStuJyutYKjjy+qr9C4ekZR/k6Ydyqw/QdT9Vac34bMHSsny9XCRgOvJzXIaPaLI27JUB0kn2Cq4sdDcoOTNU9HI/oSf35P2q6On+g8V1f+pfsi0haecs60iiKZhvH/wq4/Py/vGrk5frZ9A0X4EPZANLNaGHR4f0u2/Pw/vFpmH60ZNdxp5+xuSrXWPnxDIahDM/SqctbjwkPxT7Kyah8ne6NG1P8igxEA4I27RSF3s6va4+pqPT+JZ7FZozqClJAR2oQVyfZqGfYa1z5hZwNF/K1TjLz4MzktvvIk7pCjfpKCv7L1mX0nVySrMov0AjUDdHGasTbTPM1Crs9BqBJ12JFlNDtQ2OaSO+u8KraM+f9iz1nPbHa1rxLw2Uzwikzi0yAlwcHNK5MmdtNMCd80RzpzT7kL1ZmnygRm391O8jBJ+I0r0OHF2w74H+Dx0Wl/FfsD1uP/Cjf/b/AEzRulzh0eI8mUof0gQfprXlfFHl8D2zUvQwBICGKsPWBII8QcH41y5vmj3ulj8xJ+o4trWDqpZLh5FSEIT1SqxOttH4xHIlffR6fGpt2K63rJaSEIwRo3RDTHCYkjm0p1hLv1HMHLJ97c+sDkeVdDHBRVI8Xqs8s2Rzn3OoOmcLQLddTcLbn/TFEKgatBZlVywGrIzimGYZX3HIopreE6ma5LCIoAV9RVYkknYYcGrKqzOeM2Fp91XCs1zqVw8hH3MiL1461QGldc7E+OxrNPBG9zO5g6vnUVCKToHurGwij655LkprWP1BA5VmjMh1FSVbABzpJxjG9BHTQldM05er6nFt3xXPJPwPhscU3WSs7dXNbNCYgumVZpMRyZb8UkLnHLfuqYsNS58i+odU36eO1fVdmgcS6SrFcfciW80svVCf1DEBoLaM5dhuDt51s+55myCw6QRSmVSHikiXXLHKAGVMZ1gqSHXbmDVFMo3Sy4S6RJissQWIyRFzEwkVsFdSBtSFtsc+e9IypNHV6XmnDJtS7lGlrIj0GR2zVei9s03CTD+O0cwTPc7OVHmTnzrbi8UKPOanIlq93oUzozbCbr7RhjrEDKe1XiJK7fpHPspGPu4s6nUVUY5Y+RWrm3eNmRhhlJVgewiqlGnTJGTlHdHkHqFXydAVQSVnJFWC0c1Yvk+qF8lyNZXFqLZ9Ds9U0eN7VyQimkbsA8zVSyyfYRklNfSgO5kftX3UPL5Zhz5M3aUQNx3e41dGGfPK/QgdsUUUZMk65B4zkimPhGTG9zRpnojBF4X/ABVhcse7OkD44+NVpb+Y2P65KK0ii+7aLveEyyhfM1rlyzyfZGadJbUJeXAA26wn9bDH6a5+VVJn0ToivSQm/QXGVltL2QD5KwHcZGRcxkAg8+TbeBpuj7s4nxNK1D3ZqvAjJ1VwZJXbS0qYYRL8gEmQdWi/KBzvnsrdA8tlhtrm+CjWk03+SLTrGUWL/e7nqUxLHGJCusuWOVLqC2ACM7UYosfSVFF/wfQRp13ATByCvVRBcHtGAN6viqIhHezul/faZ44t7UAPLbxFj9zrk6pUY+qMbAfjmhl2oZh2uXibQVhy8UjmNzLddYnVsJUbFlOqjUAA59Vc456h30mCaTbNuqljyPHGF0lXPuKre7SOOKNR94lurZrftMDCdXntWb5oJDrnmCT30cJqStCdXp5afI8cvyLFxa7ii4wZJpY4l+4FTMjqmWadmAGeeyk0fNGMFtpEmvZrxctbRWZgaQKSJWLGRhGObgDK7czioyiscSSFB1cFz19v1UhMbHX9zsAOp0ORlCXIGju1ZpWWtrN3T5T+dHaVpoSeXMnHmeVYkeqzRqLkbJwgCFUQbBQF9wA+qtcGeMyPdJt+ZT+kUf3PxRHTYSNHJt+WdDjzOv30GTjImjv6Way6JqXlYP6SLRdccsakux6twATnGArE9nd47d1HJbjmaTUfKdeTFPF+h7wxNKZA2nBKhTyyATknsznlSTVHUqc6aK2Tiq7mxvaqOc1dAbvU51jvq9rA+ZBd2fdevf8ACi+Wyv4nEWufiMa/jAnuG/0VUsdqkj2WfqulxfVNfkDniqHbB379qn8O5rk5uX4l00V4U3/gMXhMz+uF0rjIaQiNfe+57eQNRYIR+pnNydW1WplemxsE4pZToQI5o5NsnSTjPd6ygHyq6wvhMNy6xHmX6CWS+cHTIhU/T7KF4L+kQ+q5IvZnhTPJDqGQaWltdMZOSyx3QZ7GmCPZ9ZH1UeRCtJK5Gx+jy2ENi0xHrTtkfm4yVHvbWfIUzTx2wv1MXWNR83OoLtFf5LXwO22Mh5sc+VPgvM5EvQrHHbC2e5mWS3ZnJ1GRJ9DEtI0SRrG6lGY9XtkjNDPDCXLOrg6rqtPGMMcuEuxWraxtkWJ0nvGFw0nVNAYYwUjQP98EhGGUM4O/NGx2UqOmir5G5+s5M0lcEy3dEbqLS9ujylxiZhOF1MkoAVw6MVdPVxkH206C2o5mqzSy5LlGn2pFkit1I32XuwACPZUlMCOK+4o4rxiKFlURhscjzx7O6kSymqGli1yCC+tZDraMgnfOtxn3Gg+aN+Rt7Hc9pasGfXLFnc9XNIBnAUEKTjOAB5Ci3L1CjKca4XBUYbKK2kV0mu2iDLI5RIyjLGdTBlEgc+rnJCnYmrxRjdpjNV1CeWO2cF7ll4z0khRIJArzLO4SLqgh1EjIzrYezwxWlnCO342Fgllktp41iXWQ/U5YAEnTocjbHbjnVLkp9yqcYa2vupl1PHE0er1Si4Ys4YvnIDLoYefPFLlBN8m/S55YY1BctiBIoIz/AFbqVaMqXmV8n71LsqRgEaJOeaVKMY0dLTajUZt0GuKd/oahNFhyPE02qPPPuV/pNAGurAtv6zr+rpZfixqpq2jq6ObWnyr2LAeHqUIIzkYPmKfGJg3As9mHUqwyGUqw7wRg1lmuS4zp2iiH0eS6yOuTR2MQxbHivLPnQ7TorqCrlckV16NbjPqyxuO7dCfbkEUyKrsZ56t5XUuF9isInV7BAp7yMt7z9VLllkdTDg06Vkv3S/zn+NBun6mn+R6IBPLyFdBdjzUvMtXoy/CR7B9FAMxdxz0r/Cn8vrrLlPovTfwUKD9tZF9R0cn0iPj3yB/erbhPB9Z/EFVj8mqydxGh+kOf8X2H9pqrIaNN9bNs4Z+AWn+zx/RWhfho4uo/Gl7lq4b/AFa+ymxMrElp+HXP92L/AIm9qhr/ANGccK/BOGf/AH/3ElDLuysfeP5Fi6H/AIXF/wC2W/7bUpjpfiP3Zf73l5UIwp3Fu2lSNWIr0PM+2lMac8T+QaEFnvC/lWn57/kyU/D9SM8vpl7AfRX8E4R/tM/0S1rfZnL8y8dOPwG4/MyfRUiC+5n9t/UTfn7r+OpLzNeD8SHuKeMcl9qf8JaVlyf2nd6b9WX3NduPl1pZ5iX1sR9If6+w/PP9CUMvL3Ojovwsvsi0GtJgQKOXlWWRD5aFEJVo12IY7f8Ay6yv6mdbF9COaoYf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIVFRUXFRUVFRcXFxUWFhUWFhUXFhUXFhUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lIB8tLS0tLS0tLS0tLS0tLS0tLS0tLS8vLS0tLS0tLS0tLS0tLSstLS0tLS0tLi0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABMEAABAwIEAwUDCgIFCAsAAAABAAIDBBEFEiExBkFREyJhcYEykbEHFDNCUmJyocHRI/A0U3OCohUWY5KTstPhF0NEVFV0lKPC0vH/xAAaAQADAQEBAQAAAAAAAAAAAAABAgMEAAUG/8QAMhEAAgIBAgQCCAUFAAAAAAAAAAECEQMSIQQFMUFRgRMUIjJCYXGRobHB0eEVMzRT8P/aAAwDAQACEQMRAD8A5u+kUJgIVgfAhZYE9gSFWVYGop8K2ipipyNcDyBiPijW1PSphHTqZRyRCxikARDIFsY0Sdgb3IYzImpCEpaJ8zw1jXO1A7oubm9h62OuyrB0c0hphOGSVF8mUAblxt7tE/i4djjH8XtDvZwLWt2uCW7jfa5v4c5pmfNYo4294N9u2mZ5LnHztcAHwBQsuMO79zmBu9judySHAg7OAc70CnLPK9iWhMJbg0Qa4B92Os653jtmDe6B3hd2uo9lLqvAJQ6zQCNbagbC9ul/2KKw+ubHKC0HKQ0t007tnWJP4gCD0PS6sNLXsIyPNjYG55tuRc+QP6ro8RJMDxplCZhEznWDCNQCSCACfE+SGmhLB3hbW3re23noui4jKxzQc1tMpubga6tuOYP7pVVxRg9o8EO1B0vdp0LSAdjpqOW+if1lvqLoopIkW2dWF+HNDHZPZAcwZRq4Oa6xP2tXgW5ZR01UR0RcAQDa1zoB4C55XNhqUrkpFUwGQoGoenFVQOaATbXoQd9tkoqolyQsmL5HKMvWSbqMlMSMdIoXvXrio3FEBE5eBbFesauCYAtsqlaxbZEtjaQfKsRHZrF1naS3yBDuZdFWU0MKu4ipgcdHdGwUPgmVPThMIaVI4jaxUyi8FM2kTplKpPmyRxOcxI6nshZmWTypjSipCDQYyFs8d1ZPk/wGZ5fJbJCbWefrObmByD6ws5wPK9uY0VYVRCaeOI3DXO71t8oBc63jYFdU7cABrW5WtAa1oFg0DQADoklKlRdbg0nD0VrOOYncpTU8GRH2SQfyTwVChkrbKLoeMQKg4Zjj3N/58VtWYQwjugeXRTCrJ1Q1RWG9r68/AJdhtJUMSpJafOY2dCe863n3icp8RY+KrTayWCdz2sc4uyhw1cL5WtLh432NjrrzXQMcnAiJABt+fgqfRYzGJA1zbEbEHYDzuXDwKaJKaF+H45lkIlBGtzcgl1tSCdE4pqnPdti24BubjS1gGnmPa18bdUDXRNkswNADnsiDsoJIymzi76o0PQ9VrjIc1sTo3OLIzJEBlJJYyx7S99rfp4p6JDprGkZcji3a/dJzG9y0FpIOh1Fjpa6S4vh2XYOt96wN/wAIJIHmiKOqDzuLBoLhfbL0BHn+aaVNOXN9q4NrNuRmHIgWsfS6rjYkznNbFYoIlWXGqSxOhFuR3HnoFXpI7J2LRAVoVs5eIAI7KaJq1DUTDGgxoo3Yxb5FOyJYY1Oy1EGRYpsixcdQ/a9G0xSwJhSLezImPaRqb08aVUSc06mzglkS8kYpmFRSlCgWLqpqTVTU6qSktYUjKRG/A1DmkfKdmtyDxc7U28gP8QVzLPQKm0WOU8ETYmk9p7TzY2LnePS1h6L2px5wZmsS23v1WOctzZj6FonLds38+9L5Xjkb+5U13HLBvCfA3v8AqmdJxo19gWgA/d29UhTUhlW1OXc29dEtdXAeZ31vp5oypayVuaMg/v0SSZhFwWht+dibpQ2DcQYsA2wGw1HqCCqRWyEydqNSN+mup/X3I7iLMDY3tsCeh1HwKRMmAOuoOtuuqvBbGab3LZTYkxoDtgezNzZ1y251B8nC469V7FWWzMc7Jkd2rf8AEbDzzW+N0hp6gDQC9tbb25rafvvvm7zhrfZuUX+ATULY2+dxyzMcxhLpbktuGFhYLXaN3Ekb2t8VcTJmadDytexJaRvm+sLg97QkGxFxrzxlfka2WGMF2ocDuL5dQRtsBpb81fYJ80bSbZmgtOU6aaDfXYNPmqQ6ivfYr2MNVcniVlxU6lJJmLm9xlHYSTNUTQjahigY1MTaN4okbDCvKeNMIY0jKRRGyNevjRrY14+NPGFnOQuyLEV2axU9EJrCLoukeljpFJBKulMRRLXSSpxSyqpUk6eUk6VM5ofh6jkkQbalRy1CoTMqXpFiEiOqKhJq2a6nIrACxFsssTeyzHIcrw32i03LSDbwI9yutVhHY0Mcby7OWg943d3u9Y2A2vb0WfJxhzMstRK4BtwxgOgdlIe8nwvlHvTvEX9o/MG5h9oG4WPJ4GuCOS1XDsr72te9gDpp1TGm4ZlELctmyi97OJa4X0uCei6HTUrH8gio8Ojby/IIJ7BcFZQcMp6ljrOafHp71YmvJbqNfL87p3PNE0JTJWtBuCFJlVEqPGVI0Rl3Pf8ANc/fyHTmuicUy9q3u+R8uarLMALjcnLfbqrQkorczzg2xTHNlFx71FHUm9gfH3ghW7CpIGsIdhzJYho5783auB0zMkuMvgG2Vf4qwqOmqMsTi6J7Gyx5tXBr7jK48yC1wv0sVSE1LYGTC4KzfD6wRix1B5cvaBt+SvVFUAwA2F7kabmwaTm9XFc2gbeyuEEuSIC98znvHk5xI/KyZdSaPK59ylk5U0890FNIuoo3sBzlQsC3lcoozqqIi+ozpkzhalVO5MYJUO466BzWrWRq9ZKskctOMnMGssXt1ivRGxQJkVA5KWPR9M9eczREe0pTSCVJIJESJ1yYWh184UEtYljqlAVNYqqRFxGVRWeKXTTXSuWs1UkEl1ObLY0dFpaVz8Nh7I5XjtLj7QMj7+u35qp0NfiMZ7krnsvqwsGvkVaOE65opu+SAxzxpv37EW97vctjxBSRnKMxH2rN+F7rK+ppSfYPwV8oj7SRuUk3tzA8VJW4uWhRUmMxyd1jgR/PJeVlHmapMa9xfLW5uahk7wUM1KW7KKMkJQ6jx1Pr4KfEWxinyNaXTOsGWBJBzC508FpJJoicD4gjgz53Ovm0aOYsmYdrIsDwuUQvikJy5m5c31Gk6gX2AsqHxXViWqdb2WARt8mkn4uI9Fdsf4ufI1wjYGBwIJvdxB+C5rI05vM296rhW9k+Il7KSDsJiDpG6aDV3kNSfcmdVW5j4AAAcgALAJfMezGVuhcLnyvoPy+Cg7Ra4x2sx6gx0qie9RZlhKA9kcijapXNUZXJitBUUiMhmSpj0XC5cFDWOVS9ogIyjIBdUhPcEkbXWKfsl6r+kJaSrAao+mQLd0wpljZaIdGpC5eRr0tUypDI5LqpyPmS+cp4k5APNHUzkGQpoXItHQZceGiHtmiP1mZh+Jp/Z35IV/AtdnLZpoo4wTqHB5cCTr3Rf3pfhFf2UrH8gRm/CdHfldXTFMHqZJCGSERmxHqORUZbGiLTe4rwrhKCOQOFTKXDWwsAfMa6KxOrMoynUjmoaLATG32hf+eqypgYwam5PioNtjSYPNMDqktXWWKJxCva0WCr08hcdFyQLCpa3TdQNivqVtT0l9yjOytouGjGwOvhuzuhVxrCX22DdSrtHFfRVjEoAyR4G5Ov6BWwq2S4lUhbIdSV40qXslIyBbWYkeRtUwjW0cSlyqEmaIogcxDSsRxCjdEggtC/KioAtzApYY05NE0YR1GNUOxiLpBqlXUp2GHZrFJdeqliUUSIpjTBLoUypigxUxnC1SOYoYXqbtEtDagSoalk4TWZyW1CZIRsCK9YV69qf8LcF1lcQYY8sXOZ92xW+6d5D4Nv4kLqOTFEZV9peJA6nhGcZ4wI5BcGxbo2/mLInjHg2jw6iHffJVyOa1kjiWtbqDIWxNNg21x3sx1GqocNcA0U1JTQst3ZKmSMSVEpv3iC64iaeTW6gc0JwWm2PCbbpFnrOLHXICUzYxI8klT4ngrmMbI2xuO8ALEH9klBJWSkUk5XuFgF+pRtLFbcKKhCbxw3GiVjxQKBqtnOvoiXttyQjma3QNMBvhUIe4DnsqXUwucO2AJa7U33aeYdbx57KyHEhARIeWoHU8h71VBiDgMrTqRbTqTv7ytvCwtOzDxkt1RvFEi4oFFTYmzOWTNv9l7dHevJ3qnEdJcZmEPbzI3H4m8vPULRKDRkUlYH82UMsCcxwrx8Ci42XjKhB2a3DUwmp0M5iCVDuVg/ZqRkSlaxTxxJ6JWaRxKeONSxxqTs0KG1Hl1iyyxdR1lOhjTCCNaMgR0MaWwuJjQsLlMWq28KfJ/LVNEsrjDCdWm15JB1aDo1v3jv0I1TIRlHldpcpvw/wTWVpBjjyR85ZLtZb7otd58hbxC7PgvBdDTEOZCHvH/WS/xHA9W30Z/dAVgLvFE4pnDfyZ0VNZ8jfnMo1zSAZAerItWjXYuzEdVdFEQeRXOOP/lSZSE09LlmnGj3bxw+Gntv8Nhz6LqsGon+WjA3TUzKlguacuz/ANlJlDj/AHS1p8sy4ph2JdhIDI24680XinGlRUk/OJJH30ILiG2/s22YPclb3tcNNR+Y/dW0px0sRScZakdKZXRzR3jcHD+dCOSTyRM1uLEdVTMPrnwPD2G7eY6jxVzlaJow4bEX0Xn5YaDdCSyK+4LHI2+mqMiqnCyWRUmQnU+qLheNlErGNDQyi1yo3TNAJJsEpra8RgknQKq4liz5TYaN6fuqY8bkCeZQ2C8cxbO7K06C9ih8Jbd4cdht5qKjw4u7xGnxR3zbq8D1At5L0ccNKPNyT1Pc2xWlIsQjsErwyziHkj7Lwz/4lRxyd3K4hzftDW34hyUFPEWhwB2PvB2Ks1uTjKi7U2KUso1D4n9TlkY4/eyhpb5hp8lI+D89jyPkeapsUnPonOG4q9ndvdvTf8joh6JM55GHTwIGWBWehoTUNzQgPIHea32h5sJzW8RmHkltZSOY4te0tcOTgQfceSzyjTo0RdqxVFCi2QLeNiLjYlRzBmxKTskW2JeuiRFsA7FYi8i9RoNlUEKIZEi46dEwUTnuaxou5xDWjxJsFnSNUqH/AMn/AAl85f28w/gMOg/rXDl+Ec+u3VdeAQWFUTaeFkLfZY0C/U7uJ8zcrm3GfyoHMYaAiwuHVFg656Qg6W++bjoOavGDeyM0siOk4tjFPTNz1EzIgdsxsXeDW7uPgAVznGPlmga4tp6dzwPryXYD4hgBNvMg+C5jUVj3OMj3ue8+055LnO83HW3gtrtcNgrLEkReRjriD5RKisaYzP2MZ3ZE0x5h959y8+QIB5hVRtLH9XKfIhSzYew8kM7DByunprsLfzPX0IPIoZ9BbUZgpfmLhs4rDR9XuStfIKfzBnU7uv6FNMNxt0DMhaHb2uSLJc+iP2iouwI31UpwUuqKxm49GPTxMCLFg9//ACWsWNs5g+lkikgURbZSeGHgVWefiG4xW9oRa9vJBRS5fZZc9Tr+SJp6gbOGiOjYw7FVhBLoSnNt2xW6SV25PwWNpHHe6eRwN6hFMpwqLHfUm50IoaV4N2uIKaUNO9zuV+f2fUcj5I6CkDvAdevkmtMwN0aNFlz8Ssfsw6nu8t5PPPWTNtHw7v8AZCQ0zmk3bupY1bqPC5ZWZmwSPZ1bG9zT1sQLH0S6qwYXOW7XDdpuLefMI4uN/wBir5jcXyFW/Vpp18Le/wB/3oGwnEpIJGyxuyubsdx4gjmF0elx2lxCMRzNa2Xk0nLc/wCik3afDnzBXLpKQtNnaH+duqkiAatrjHKrX3PBvJw83CarxTLTiWBOiBljPaQgkOdaz4nA2LZmfVI67eVwhYVNwnxJ2M5MjzkkGV99dfqudffmD4FOOIsJYwiaEAMcdWjZrrX7v3SOXLysBmnDTKjQvbhrXmLogtpGqCORSOkXEUtyKyxbZliFj6RexqvnAOC2Hzl41NxEOg2c/wDQeqqOEURmlZEPrOAPgN3H3XXU6ycRNbFGNbBrR9lo0CEYnTkU/wCWfE5Y6ENiNmyyiKUjfIWPdlvyBLbHqNOa4nA7Rd1+UrDy/C6jW5YGTX/s3tc7/DmXBoStEdiDCQVux9lECpGlOKTsevXPUYcvC5GzqPXOURC2uvUrYSMtUT4wiCFE9iVjA4AGhWzqUO1WFq3ZfkUoTQUQW7aMckTE480bS05ebN9TyC5uMVbHxYp5ZKEFbYBHS+p5BPMPwnS8no3kPNOMGwRz3ZYY3SP52G3mdmjzKvOFcCt0NTKAf6uM/F5/QeqxTyTy7Q2R9Hw/CcLwHt8TJOfgt6/n5socFA97gyNhc47NaLk+gV54a4Gy2lrLG2ohGoH9o4b/AIRp1J2V2w7DoYG5YY2sHO25/E46u9VJPsuxYIxe+5DjudZMqccXsr8f4Bnju9OQtyHIDog62mZILSsbIOWYXI/C7dvoUfI3RQu3WukzwlJxdp7lNxrgsPaTTm/WJ53/AASHY+Dv9YLm2I0T4i4EEWNnBwIczzB+K73DugOIaCnqG5Z2AkCweLCRl98run3TcG2oU1Bwdw+3Y3+urND0fErV4S+JfuvkzgIn10VvwDiAdi+mmdYFh7Jx2a4d5jSemYCx9Eo4s4efRHP9JA42ZK3a/Jjx9R+nkeROtkMVToXH0WnaaPPTlhm63X4Nf99i6GQOb2jNvrDof2WonVUw7HnRSAEXYdHDwKf1BDT3Tdp1b5dPRTzR+JD8LvLQ/IN7ZYl3bLFm1HpegOgcB0oYJKlw2/hs8zq4/Ae9Pad5dKXHp8VFS03ZwxRfZaC78Tu874/kp6PQkrQlueVJhmJU4khkidqHxvYR1D2lp+K+X4gRodxv5819PMl1N/5svm/HKfs6yojP1ZpR6F5c3/CQqITsQMctwVEApGhMA3utgVvS0skmbs2OfkaXvyguLWjdzgNhruj8H4fqalzRFC8tc8R9oWv7Jribd+QAhtjofHTdBsKQuWEphjGDT0rmsmZlc4FzRdpu0OLc1gbgEg2va4S/s3FCziN71GXogU45lRyPibuUGEhzLMqw1MXirXwLwi6ufmcXMp2nvPtq77kfU9TyQCKcCwmaokyRNc487C9h4nYeZXVcA4EawAzvv/o2aD+9Ju70t5q14fhcMLBFBG2Ng5Abnq47uPiUYxtlN41J3I14+LnihpxbX1fd+fZfQggw+JrQxgyNH1W6N93M+J1W7sOH2j4X5eqKDVSuJ53yfPL9m5kLOzbGZnxva4xNeZcjWntfpWhrSQO51Nw6VmWUn1ZaGtki1BzN+CYseHgOCq1HVOjfa7izP2ZBPN1R82jdr07B2n3yrBD3D9135FBxOUrCHIV+6JfohZTquRzNKd3teg/NJ615e7S6aRu0d5/AE/oljJC59gNB8UWAljweOeGSCZodHI0tcOfUOB5OaQCDyIBXA8VwuWnnfTS+1G7Kejhu14+64EOHmvpC2SO65f8AKjhueL58Ac0REbz9qNzu76tc73Od0Ri6Azmc7xc+Cf4fU54svMat/ZVDtrklNMNqcuVOmpWvECuDUl2HfarFmZnRYs3q0vE9X+o4vBncJjck9SshHJaPkuvWx5tFVdTzH0NZ35b35Lifyj02XEO0A0lY13m5oyO/IM967FiDsoyOObTfmP8AkqLxNhPbsDRbO03jJ2udMpPIFFvcUpfDMLXVlO17Q5jpo2uadQ4FwBBHRdjqsPwcEunZRd1rwDaOIFokc1zcgdcvYWht97uNuio+E/JjUPsZZ44xcizAXnTodFb8M+TCgZrIZJTzzOyg+jLIypnI0dxthNMxrYXZf4WVroYhnYCG6EvABdcE631GqBf8p7nd6nw+Z7szhbM8sLC/NctjYR2hsLnlc6nnecPwCjh+ipomeIY2/vIumbX22CTbwHo4Pj4xOukEzsOkD8gaXMiezPa9i4OO4Bty/ZRLwrip/wCxTD0H7r6QzO6L0B3gu1Bo+YpOEcSO9LN/qqSDgfE/q0Tz4uy/q5fTeU9F4Y0LRxw3hT5M6qSQPrYxHE3XswW53+FwTlb+a7BSU7I2tY1gY1os1oFgAOiOfGeSgNWW6Pb6opgN2jovS8DcLGSRu2dZbmNw8QusJ5HbdpuPgqzNATO4y6sZa4uxzC/MHg3kADXZXDTXQDXUJ9LEL3sWnq3Q+o5odzBmzyRxv5CQAX8A4H2UUBgWHYXGXNmyDOTnOV3dMl3EuIbZrrOfIRodSTe5umrnDZ2x59CkeEzvgcKcteW5ZHAns8v0gJ7PLq1v8S1neQ2TczNkabbj2h+oRZ23YJjJILD7Q28Qh5zcX5jQoRlTchma0g+jd9r7pPVaSYkNSRZzfpG9W83AeHNKcaGbVw8Cf8JWuA1Ds7mg9wXJFh13uklZiQbIdeTh5gjQrfDMTY1rw03c+58mA/lc/BLqVgGXEGJl72wxmw3c7oFXuLw6opZYIvYEbw3q99jYn1st6KN8hc4WBcdybBreVynlFh0Ytnnj9HXQW4T5tiaXABoOupKLY0gtABJ1AA1JPQAblXHjjAYqOpd2T2mObNJEQb5df4jD0ykg+Tm+Km+Sp0H+UBHIGvD4XhhP2g5pA9QHC3PbZWSpWLdsl/zTd/Wv/wDTS/8A2WLtnzKn/qIv9mz9li70h2lCCMEbo6BaOZzUsCVBYJWMFieZ3VdqYBqQrRXCwVcqt/0XSAgzD8QIABOzbD33/VPKaoNrlUDFcS+bsMtrhupG+yt8FQWsEkhu5wBYwcri/wCq5M6hy+ta0XNz0AQWKY+YGZ35WX9hgGZ7vPoELUVzYGdtLq8/Rs/U+CpNRUSVEhlkN+ngsfG8VHBC+/Y2cJwzzTrt3G7uNqwm4Y0Dx3+ClZxpUfWFvdb4JSGrDCfReDHmmdO7Paly7C1VD+LiuoOwB8rfBEM4qmHtM97T+iqvY9FNHXTs9l1x0IzD81txc2i/fVfQx5OVv4H9y5U3FYPtN9x/dM4MXgk0Jt5qh0/EJuGywNcDpduhTeE00mjXFjuh0XqYc0MquDPNzYZ4nU1RaJaBjtW6+RQTmyM9l5HgdQljYZ4tY33HvCLhx8bTxkfebqPXor34kgkYw5uksdx1Cnimjk1icL82O5+CiETJBeJ7XeF9UrrKXKbkFp67f/q76HB0osbBu2wPtMvv5hDyTXcAD2Uw9kn2JPC+11A3E3WtMztmD6zfpG/qopYI5mnsZA8fYccr2nyO5XagUD4nPmuCCyQbsOl/GM/ok1VjT3WzWLm+zINHW6O6+qIrTVRjK9okYNu0DSW+p1Vera3MfZa38IUpyYUjzEpXHVh22HTw8lvhszmwnTvyPsfwiwA+KWOkuU1pYyWgcwVNWEeUODFwBkdlH3nfoFYKHBoCLta0tG8jtG+Q6oDCI2kXc0AAXc92wHh4pBxL8odndhSRRyG+Vocwya9coI18N1dJIUC+WWNj6eJsABEUt3OFtc7S2wPMeyqLwdw7VzSg0zSHNP0ty1kXiXdfAXPguhYVwbLUvE+Iu8WwN7ob4HLo0eDdepXRKOkY2Ps42iNgaQAzu5RbcW281zkk9gnPv+jmv/8AFJffUf8AEWK2ZsN/7xT/AO3P/EWI6peP4A2DC5E0wQZfqj6TRqdAYHijuqQynrr4pviku+tvA7JPm8P2XMCFGMMDmuYRcEK4GSGNjS0Z3ZW26bCypuNRFxFtv1V2wCla+BjntAIbY+iCGaK7XQPkD5pCbi1h0BICTslAKt/EEjXRuhjFgdCefoqTS05imbmuR189Lrx+ZcM8k072PW5fnUINJb9fqMomh2xRjcMmAv2biPL9ETT0Lu1hnHsk5T0N75T7/imOI8TNilETg65+tyB6LJDlkFeuW3ais+ZT20R3738hLS0Ze7K3U9PinH+az7Xztv01+KQ1PFIZU5mAAvYRr9oEa+o09Ewo8arXSi4YYjuNQ4eN+arg4DCrU93ZHNzHK60bKr3FWKsEBOdurdbdeeiRz8c0zt6eT3sv8VY+MZBJI224Yc3vJH6rm/DT4o3l07M7SwgDKHd7S2/rqtfA4lic4rpf6EONzPKoSfWjoHD3EQlB+byuuNTHKNQPAjcLI+PKN/0meJ32gLt9R0VQ4OwuXtXTizWAPaBcXOYaC29h18Ehwd8Octqc2S2habEG48Dyut90YTqLccpnHM2VumueN1j5uYdkbBxaW90zRTN6Ps13odlz+LBKKVr/AJtUvccozMeG5gMwN22AB2VabQNM4gzaF4Zntte1zZBsJ2eTFaSTYvhf0/bkQk9ZWWdaVmbpI3uPI8xv6qt4ZhvzXM1wMjXEG5GXQbZddOacMmgcLF72+Bs63qpynewyRJNPEf6x34nD9EBKGHYWRfYwcnkrUwR8ihu+5wNT04JFk37RrHBhGoH5nl7rKTDezYbubpzJ5DmVX5KgucTe9yTfrrvbkj7qsaEdTM49xefsWsiDmxk2cRra+g0HVN/k6oqeOO7Ae2+u54s+x1BaDs0j87jkgIpTe9yh+Jq6SNgqYHgSsGR40LjE52hsd8rzceD3IqTZ0sekveNcRQUjbyOu4juxtsXu/YeJVW4jOJz0rqmaMw0wy/wQSHFriGhzmWzPFyL5rDnbS6acEcONhtVSPE9S4B2YtD2xk82l2pdyze5W2rxSbKQ7VpBDgYQ4EHcEZtQQrxSiS6nBvnJ+y73D9li6j/kek+x/7cn/ABFit6RCaWWE7piz2FixTQzE+LeylLFixB9TkCzb+quWHf0YeqxYuiGXQSypfiG7PI/ELFiw8w/x5eX5m3l/99ef5Fnh/o0X4o/99VPib6V34isWJPh8kSzdfORVa76WLzHxV/w/ZYsQw+8xc3uQ8/zEvEX0v9w/qucRbBYsVeG96f1/RDZ/cx/T9WNuFv6V/dPwVUfz8ysWLSzOhzwR9K/8I+KEpv6af7U/ErFimxkdIj+hVbm3WLFOXQdGzERTbjzXqxFHMdz/AEMn9m//AHSqvDuvFiafQfCHxKt8Uf0hv/l5vg9YsRxdSmb3TrHDH0LPwj4J7J7JWLFdGMXLFixEJ//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMWFRUVFxcVFRcXFxgVFxUXFxcXFxcVFRUYHSggGBolHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAACAwEEBQYHAAj/xABBEAACAQIDBQUEBggGAwEAAAABAgADEQQSIQUxQVFhBhNxgZEiMqGxB0JSYnLRFCMzgrLB4fA0Q1NzkqIVNcIl/8QAGwEAAwEBAQEBAAAAAAAAAAAAAAECAwQFBgf/xAA4EQACAgEDAgMGBAQFBQAAAAAAAQIRAwQhMRJBBRNRIjJhcYGhkbHB8CMzNNEGFBVCUlNigpLh/9oADAMBAAIRAxEAPwB7mZWFAXhYAsYWBXqvCwKOIqQsDKxTxpgZNcmMkVTqx0Oy3TrRBZZStALN7Yuxa2IYKqkA6kkW0HEc5DkkCTZ1ezOwj76pXfqB7RA1B4jfoQZk8j7FqA/FdkKYXKtzrfMPZcX4FTdWHoZHmuyvLRlVOyGIBGWxv1C2vuDX4+F5osyJ8tiDsWpT1qKdPqgG5I4btB1i81PZB0VyUQJtZAQgBBMYAExADGBEQBCAw7wAEmMQpzABDSiRZEAJWMA49hUbt5gak2gIBxAZVrCAijXWMDOxCRoDMrpKRJSKyhWSrRDssUah3j8/hAVntvYjbWfCqpTu2pgK2lhvsSL/AN6zjybM6Y7ov43a9m6cD/fpOZy3NoxEpt72gTprY6X1sSD8PhH1sfli9p4wtYqdGAvlNmzAjTzBPrJlKxxjQ3ZG3ixK1MpGuv3d3j6yozaFKHoMxlfAEDvEUi+mhNz0sLj4S1NLgzeNsjHbDwtdLoO7O/2V9ojkBebRyGcsdHC7Wwyo5CBso+0uUg+FzNouzJqigZQgYAfQGfRDCBgFHxjEKYQAArKRIBSMkkLAoO0YGqDMSgwYgPmMBiKixgU6ywEZ9dZQjMxCykBSZJRIllgB0vYfY4xGIVWayhS7br2Ujdrpv4/1mOafTE0xxtno+y8R+k12p0AFoUhbMN5cbrk+8bDfc/KcSTludbqOw7aOGCk336jx5GQ40y4bmLV4Drc+kg1oBKjW0v8Alpa8KHQ7DUixIGl7DyEa3FVF2rgKZFibkfWJt4WlEbszl2qMGd7uL30G7wABv8pSdkuL7mrtHE0MXSWqAA50V9xv9UMRwOo14y45aZjLFZxtRSCQRqNCJ2p3ucrQuAyIhn0CiRAAoCBYRiYIWMhkhYxEhIwPssALgeZ0WGGhQiCYDAaMRXqiAFGusdBZnV1jEVGpxiK9SnADvOw1EphatSmP1tUmmpP3Rrbp7U49S23R1aePc9H2DQp4bDBFtogZm4s1hrYeEUWoxLknKRh7Qxiuf785hJ2dMYNIzWp3Mk0os0qY46xUA9FA8pSRLDZb8JVE3Rh7awIdbcRqCNCCNbg8JPDKkrRk4LEvURqIYZ1vZjodbmzW3nTf63Maq7MXwW9oLdKbn3iMrEEEHLuPpOrC9qOXMtzMYzcyBzRMpIi8CqJBiAINGIm8BM+jICEaEGBKAK0CQFaQWOVowCJgAJgAmpEBTrCMRSqrGIqOIwEOsAO27Dse5JJvkYhb8C5AB8gjes4s/vnZg3Ru7T2sQqqvIDppvmLdnTCJjiuSb8TIaNhqYo31gBcpYzcLQFQ9sRfdGCRH6RYQsVCWqQsDlts0O5xAqDQMDblm4XHr6ykjB8luk+akDfQEW8CW1nThObMVXM3MBRaBaPs0VDTBzQHZIeFAxitGQximBIYjAYsYgohihEMNYAHGIgwChTwArusAKtRICK1SlGFiGpRiOp7H1AEqIAd4P9fjOPUe8den4NTFqBq/Gc52REUaiHcdYGg4W5xCH01XmIDG1VHjBisqPU18JIxFar1gHBzXa2uWVfu6+m6aYzmyIZ2dYmkQfq218c07MK3Zx5nwOribUY2VSYikDeIpEXgOw1gMasRI5TGIMGADFMYibw2AASSqCUwAYDGB80BCzGIWywEKZIAKelGIS1GAHQdlKqUlrVX92moJ8Sbj+Gcuo5R04ODB292weqxIUBRuB004TGMbN3NLZFLC7eDHWwPSEotGkchtozlc4uRMrNbM7F9oCm61+ukpRsTlSHYDtPV3kDnv+V43Ejqs6DA7ep1gVYBX4HnE/iUtiKqyWizF2ugsb+FvH+zKiYTD7OUbUn5F9PID8zO/AvZs4M73obiVmzMkZ7jWQzRARFIm0Q0EsAGBoAMUxiGiAhogImMQq8ksIGAximAgjGJgERkn1oARlgADU4CBNOAG6tM4jBNRRFUgpT0Fi1hmLsd5JzfCceW3Lc7ccYqKaOHxewctwwIJA3jdqDcelooyocodSop/+Ea4te5PHrxlymmEcbWx6XQwoTDhegHwnO1sdSRyW0dgqWDgbzrx8LcpUJEygKwOwveBO/3dNxNtd33d2u8y5TVGMcTT3Zaw/ZspqGPh+UzcrNkjepoQADEWkZNXCmtWZWOWmN7deQ+AjTSRkotstUcRQpZcKiMxIZu9J3nViMoFraWv4Tow5naiTn0aeOWS90VsUZ2M8xGZWkM0QoNJZSGAxDJBgMlTGIchgSPWAhqiMQUBFa8RoGDEFBBowoMNGSyRAlk2jAkCAgssAIKQA0cBjjQUNbQ5rdeB+U5Mz9s7sCThuIrY81jcmw5aTKzqSXYbszZgquSdETVju8B4nX0jqyG62Rr4oApZdw/lBqy1sUqJFiD6GZ1RT3DAtu3RioBsWOUVj6ShicRc3hZXCBxFBjSZ01Yahfta6jTziFDkStnIrWscpUDle1/hpOjSwbnfoZazJ0YuhdyninnezyUUKpkMtCQYihgMQwhEPYIQExqRklhIxDlgIm0dgZ4qSS7DFWAyRUhQmMDxksMPATGB4xBqYANUwEiWgM+21Wvh6QAtkzC995LFiD6g+fScef3jswP2DHwDMTYTI6UydsvXp5Qhsu9h15/L0lpCbZSobQxDiyNlI+0pN/AXHrGklyOMm0dXsWnVenmqWDDhe95m0adQeKJWRYWZ7VCTEOwkS8BGjhawWwIuLaWNtePhKBcFbalUA5AAApOgJO88zPR08OmF+p5eqydc69DBxFWbMwiVGeQzQG8Q7DDRUCYQeKhhq0dA2PRoUTY9THQiwkKFYy0KA581Yi7JFaFBYS1YAx61YyRi1ICGo8BFhDAEOWABwGV8dfuyOF7/AAN5zajsdGnfIvZj5EZxvAt4XNvlecx1IyNobVQa1GN76AamaxjJjtdz6jtmgGze3qBf2d1uO+HS0UnD1OiwG2EOqOGB4j8uEzdrkou4irnAMzkNGc6XMQDqQjQCqasgJYm7MzWvoLnSduDDGStnLqNROD6UUcXXvcztPNMqs5iGmLBioqwgYUHUSTChdQGaHSPrG02hQuosU2joVlqmYqCy3TMQWNzRUBxz14UaHwrwoYxK0BFinVhQrLNN4Ay1SMQkWqcBllYCGCAFXaA/VnyP9+swzq4m+F1KiilS1FxwJHznH3Ou9jFr7Pok3cedyB52nRHJWxVQfIyjgsIbAk68M7Suo0UMTNPZ+ysPTa6Cxtp7RPnYmY5J2PoS4N2nU9m15gxJin0ggID3IUbzoI0NA7Vf2h4fzM9DTe6efrP5n0MmqZ0HKyu1OMkHuoxH3dxis+7uAMHu4AGiQYFmksQ0WqYiHZYQRDDtADg2eIsEOYBYxKsYi1SqSRl6i8QGhQhYUXaQgBZQQEMAgBFRARY7jE99h3W6M18NlVkOoPunjvG+cWTH0M7IT6kVl2YGGrSDVIKj2epG2pHmIdTK6UadDZwQam4kNFWMLqkQIzNobTA3GNRZokXtkUzbvGFj9UcQOZjGluDtQe0Pwj5md2D3DzNZ/NZnMs6DlJWnGILuoAkQaUAaI7qFiog0o7CiO7hYUNprEMsIsAocsBhRWBwpSTZoQVgBApx2Kh1ERMDRw4iYzRw8QGhREALSrAQwRiIIgBWxqXU9NZz51sjp0/LRzGJxjob625znSs6N0xNPbJBuDH0DUmWH7QMeH9IugtIilialTp4SaSNEqNTAbOCnMwzHrDkvk3KQ0ERSN3B9n6eLogA5KyXsdSGFybMvnvGo5GdWCTqjz9Xj9rqOc2hsGvRPt02t9pRnU/vLu8DYzp6kcLi0UkThylCGd3CwSPjTjTER3cLCgCkABKQsKJVYxDlEQwoAfZoCOSNAzM3sWaUYgkpRWNIclKKx0XaFOFio0aFOAi/RSMRZVYAySIWIEwAXWW4I5iZ5d4s1wOsiMDuwcwPIzkO9o5/FUbHQSkZNuy3gNnX1bQcAN585LZrG2dLg8OqjQWkGqRdpJc8/lApFs7omWX8BXek4Km3GUpOJEoqSpnXrjaVdf1gYNb36bFH9QRfwM3bhkXtfbZnH0zxO4v8AHdHE7Z25SFf9FapUq0frVHUNVo1L/UP1lAABHG54gTTBicFtJtfHk9mPg8tVpvM6VGfatk18fSxeN2U1NRUVlq0T7tVNV8G4o3Q/GdDtHzebBkwycMip/EoMsLMqAKwsKFlYWFAEQsD4QsKGCFiIaMAbwEZLUJBsKahAKBFGIoclGSMtUkgIu0VjJLlMRiHiAj4xiDo4Vn3bhqTwA5ws7dPocmWnwvV9/ku5X2hUy5aVMXZ2GZuIUaZV5XvMsvFHsf5HDpodXdruc/XFiZyLg89lGrSud14+xNFzDg8ZBaRq4dYuDRGhSECkNGpgUbiUgRLMW6Mnb22e4Uoh/Wtu+4D9Y9eQmuLG2/gel4foHqJdc17K+/w/ucKBfU6mdqR9alXB02y8VUwmHzozCpicwUXuq0kOUuyHRmZgVFwbBSeMwblkyON7Ln4s8rUYcesz9E0nGHPxb7X6Jbv4lXDYtt1RSR9sWBH4k4+XpNulo4dX4Fgyb4vZZr4jZNZEFRqThGFw2U2t10uvnaLc+SzYfLk42nXoZxhZiARAKPgIxUGIAQYCBtGISaUg0FvSgUhRpRFBKkAHU1iAuUxGSWKcZJbo4Z2FwpIuB4k7gOZ6CF0rNcenyTey+vC/EKoaVP3znbdlUiwP3m3eQv5SLcuOD3dH4PdSn9+Pou/1pfMo4nbRIsCFANwBoPjqT1MtbHvw0sYu+X+/3sfdmaq1MUpY+4C9ug1J+Umrdnl+NRaxJr5GPjFzOTwb2tN2uuk4r3PGaKdSmAYWKhigC0kZo4R7xM0RqUdYiixTTXXQDf4dY0HOyM/a/akKO7oG54vvA/DzPXd4zpx4+8j19F4V1e3m/D+5y/eEklrknUkn4mdaPo4xSVLgajdZSHRu4PHU6tJKNRxTqUwVpVD7hUkt3dS2q2LNZhoL6znkp45ucd0+V3+aODLgyYcjy411Rl70e9+q/VC8TTakQK1MgHUNoVYc1bcw8DNseaGRey/7/gXjyQzJ+XLf07r6co9A2X9JVJ2C1qRQHTOpzAdWW2YDwvNT5nUf4cyRTeKV/B7ffj8jUq9lsDiLvTNs2uak+gvxC6qPC0hxR8/kxzxuppp/E5vaXYKulzSZao4D3H9DofWT0sizmcVg3ptlqIyNyYEeYvvHWIQoCMR8wgIHLAe58wiKFMImUhZERRAEQhtOAy7h6ZYgKCSd1he8d0a4tNly7xW3rwvxLrolL9rUVD9n33H7g0B/ER4Seq/dV/ke5o/C4qpKPW/V7R/+/RMy8d2kpqCtIEX0Zibuw5Fvqjotut4um3cnf5HuQ0u6eR3XC7L6d/m/sc7iNsE7tJXUdHXFFF8aecmyZZUDR2k9NxUQ2YAjxBBBHoYmzj1HTli4y4N3BYmlXUZKhWoN6Prc8crLvHS1xODLKeN7q16ni5tK47x3RfOznIvluRy1+Ama1ON9zlcJFRsBUewSmx11NrAeZ0vKefHDlk9DNWhs4oM1V1przY2+dh8Zh/nFJ1CLZvDDKWyK2L7R4en7NItVbnbInxuT6TqxQyydzSS/Fndi8OlL3nX3MHG7Wq1ffNh9ldB58/OdsYJHs6fS4sPurf17ldGmqZ3RY0MJSaNU0GKgjUkPqR8WEdodou4Da9WiCEf2TvRgHQ+KNcTLJhxz3fPqc+fS4s281v6rZ/iXUxmFq/tEOHf7dO70r/epE5lH4T5TOs2P3X1L48/ic/l6nF7kutektn/7cP6oa6YnD2r02zIDpWosSo6MRYr4NLx6uMn0y2foyVlwZ/4WSNP/AIyX5dn9Db2X9J+JQgVlWsvHTI/kw0PmJu5Hnan/AA9ppp+U3F/ivvv9zv8AY+38HtGmVFmIF2pVAMy9bcvvCO0z5bW+H5tI6yLbs1wYO3+xJUGphSWXeaZ1YfgP1vA69TukuPocJxrLEAGSFgBUERSEsYDFkxFEZoioxcmopbs02ajQUGrcuQCEFs+ut2LaUh5Fugk23x+P9j6jR+FxXCTfeT4/8V3+y+Jm4zbNRgVRkoqdCEJDEfecnM3he3SNQXfc9vHpccd5e0/jx9FwjJOFB31F9ZTR0SYp8Cn+oPURUjPpTFnAJ/qL6iLpXqLyosg7NHBgfOLoH/l4iauCI3w6SJaZNFGrgyNQf5SWjhy6N8pl7B7cxNOwz5wODe18d/xnJk0eGfKOV6d91fyLuK7X4lxZcqeAufU3mcPD8MeVYo6ePZGTVepUOao7MebEk/GdkIKKqKo6oYZUSlMj+ko6YY2hwEZ0KNEM8QnIDOYrI6pHwLR7i9s+u0Nx3kJFVoWwWSYYrmO2WszLuz9qVKLZ6bFTuPEMPssu5h0MnJCORVJBlUM0ematGji6VOvTatQUI6DNWojcBxq0eOTmv1b8phDLLFJY5u0+H+jOeGSeGShkdp8S/R/o+5nbN2hUoVUrUms6G4681PMEaETs3NM+GOfG4S4Z+gtkbQFWlTrJ7tRQwHK41B6g3HlNUfnufFLDkljlynRndpuza4gGrSAWtxG4VPHk3X15gasxOG/8RX/0Kv8Awb8oUFmdiYikVHaIpFd3gMPD4lUzO1iUQuoIuCbhVuOIzMPEAzPI+3qe14VpOr+LLu6X6v6LZfE5/E4osSSSSSSSTckneSeJhfY+seRJVHgrNc8YjJuTLG0NkVKaUWYkGspqKvKmWyo37xVj4W5ydzixuWaU1F7RdfXv+Be2Z2IxtYZ8nd0wLmpWPdoBzu2pHgDCmcebV48b6evql6R3FY/C0aHsUX7+puasRamvSih978Z8hxiaZth02pye1k9lel7/AF/sZIpMOMdM7ljmu41KhG8mOzWM3HlhlwYWaOSkDlECOlMkIOEKKUIrgLKIFqKJvEx36EZCYULpbJFKHSUsfqGEEqi1FIKwiK2PiRzlbCbiuWLNVYrRm8uNAmopi2IeSDAtJJq+C1s3FtRqpVXehvbgRuZT0IuD4yMmNZIOLIyYvMg4PuWNv4cUqzd3+zYLUp/gqKHA8r28otNOUsab5Wz+hngyy8u3ytn80elfQ7tc1KVbDH/LIen0D3zL4XF/3jOyEr2Pn/H8cHOOaPL2f04PRqLC9txlnzxYynnADwrGGSykZzvEWVqtSMlsbt7ZL0aha96daiMvRkVKhB8chI8Zy5Hun8T3/DdS5xjD/j+X7Zy4qSz2/Mot4LFUs6ip7mYZueW/tW62vKLeqg4tRdOnXzPXNudu8EFFTColesoy0y1MqtMeLAGw5L6iVd8Hzuj8F1GR/wAR9Me9Pn9/E4DbO3sTijevVLclGiL4KNPPfA+s0uhwaaNY4pfHv+JmGnBqzq6bFPhzI6TOWFsQ+HMTic8sDF92RCjLoaJJiHbB7znCyfMrkahU8Y9jaDg+44II6N1BE5TCiuln0GG5MA5AanFREsbFtRuOsVGcsSa3KtSjEcc8NCSpEDncWgqde2+BePO4vcupUuJXY9CM7RvdpAA1BD7yYairjkxBex8nWc+j3Un6yZz6LdTfZydfkdd9EOCyjE1RzpKP+5P8vSdsY72eD/iFdMscV8X+R6aTnF9zCWfOCu+fnADxraDRM0SMtniLoruY0S0dXtVu8wWCqcBVp0n6Cz02v/x+M58y2Z6XhLXmSj/2/k0zzSohBIOhGhHIjeIJ2j3+eBZpXjIeLqLGGwjXGsaVnTg0s07s0L2jPUtpUA1QxWyHOS4FtiWicmZPPMA12g2zPzpsu7Kwve1ArXALIpt991TedwGYk9FMEm3SOLxDWy02LqS3bpGm+ycSrFVwzLYr/l5iMwUoGc3GazrpfjMKd7ijm0ko9WTLf1r7bE4TYGMLqKtA5BZqmdVACC5Otri4BA6kTRQTPNyajTKLcJb9qsydtbPVKhCDLqwI1tdKj0za+73JcodLaOvwuUtRg6297a/AzxmEk9H+JAamLI3x2ax1MlyWExAMpSOmOeMgyvKFFtJ8A3MQt0TAfKFOIjGcStUWI5JxFnDE62jMnp5S3NPs3ge8qhamlNb1Kp5U01b13eLCYajJ0Q25ey+ZLnPFjfq9l8wNsbTNWrUrHQuxNuQ4L4AWHlNMMOiCiuxopLBjUV2PU/oaoHuazvoKxTIDxCBvb8CXt+7OmDs+d8a1azzhFf7b+/b7HfAZTaWeIFngB4fjnktnSomWzQG4gEwE0b9Ov/8AlVVIvaoxH3f2Nj6kmZ5Dq8NVaqP1/JnGYtu8bvh9Y+2Ps1N58jqw8+Uwh7PsP9o97BP2+h9vyBpU7mao9CELZoU1yiWdsVSFgxWUfWhSCl3PsohSBqIJAidEtRNvsyh1ZRmILkLvDEUKqqunNqq+kE6Un8P1Pm/GOmeow45Oo3bOooYraLnMalBNwLWBuQBe4GhJCC/RZh5jfDOTJ/psItRjJsV3O0fcbE0wrABglO5Ke7p+r5C3lK83ejn69LVrG7+ZyXaMjvjYg+8xtqP1lR6o146VBNHPzG5Ue74JiePS7922ZloHsbMgoIUJwiyO6EVE+VEkKRugUotcBirzjs0WTswxAtEEQoGhVVNLxUYZIbWijVqVLgLc34QtJbnlajPlg072LtTaYWl3CEHMQ1Zx9cjVUH3V39TrMY425+ZL6L99zDHm8yfVL6Gv2N2CuKqF6mtOnluv2ib2B6aEny5zdIw8U1LxwSjy/sj06ixpMrLpawsOXK0rg+a5Ovp1hUQMN/GbJ2QRGB4TiakzPSUCgxhYOI2jSvGZSR0+zaIOFqUyNGzg+BWn8fZmWUyjJwmpLscAlA0q70H43Q8id6MPOx8DM5q1fofQwmpOM4/Mt4MhRmIuTuE0XB9Bj2jYyvUYgX0vraNs1vYQTES2A14iHYFjAmmSAYgpnQdlXYsyKcrHNlPItTdFNxyqNSPkYXVr1R4vi0FGeLNJWk9/kdhg9qIKZVa1J3QNnLMKYzWJXRVtluRqL213kTGJ5eo0mTq6/LcU+Et9jAxu1O+r1KoqMKFFSqkGytUYMM4G4lQxIPNU+0JtB9O5T07jiWFL25v8EctXq52LWtc7uAHADoBYeUEqPrMGJYoKEeEgMsdG1EERBRECSbwHZ8TAbfqShgOLJLRjchT1TEYyytcDdpp3NEJ/m1QHqHilM6pTHK4sx6FROeF5J9T4XHz9Txc15G5N7L9sxtn4R6jBKalnY2AGpJ5CdJzwqMXLg9q7J7F/RKAptY1GOepbUAkaKPAfG8pKjxdZqPPydXZbI1cQl42cqNPYGI0ymVBika+WaEn5/rNMbPapC0XWMiRo4SlGc0jqNk0v1bDr81tIyI55cnHdq9mEOMSAbqV7wcwtgGHkLTJPaj0NHnaqD+hmCoVYqNSDYHpwI8tZcZWj67Fl6oqgatS51jbN3Lci8As+zQH1HxqdIrDzKI7/AKQsnzvgMwuNKMHXePiOIPiInuY5lDPB45rZmvjKNLEXqpURLm9UPoVPFkUe/fkOJ4DdG6ZwQy5sOPyJRcn/ALWu6+PpX5FPH41Sq0qQK0k3X95zxd+p/LkALS9TfSaTy28mTeb+3wRREZ6CCgUiDAGCYiSLxE2fEwBsENrAhOmC7QFKZZ2ZTUlqlQXp0gGYfbY+5T/eI16BjwmWWT91cs48+V10rl/uzM2jiWqMzsbsxLMep+QmsIqKpHLl2ioIjZG0qmGrJVpGzobg8NdCCORBI85XxOVpSXly4Z71hGLFWPEAkciRciWfPTVOi1VpxsgXgfZeJcjfBvd9NbIPA7TA91jKSwMZGtgkmkTmmzqNkUvYblddepDflFNHM2ZPapAuHrk8Ub4jKPnMjbTq8kTzbB1i1tdRYHqo3H0FvSFUz6jR5XfTY1XgehGW40NGbKSDBEexdxCAXnHsV7BOVYbDrGfZFhSDpxkFBChdMQSIidiIhImBZ8YMATFRLoAxGbaBJgyWwSYENg5SxCqLliAAOJJsBE2krZjln0q2HtLEABaKG6ISSRuqVD7z9R9UdB1MjHH/AHy5f5HAm2+p8szajAambJE5JxirbEUjc3MbRy4pdUupnv3ZfGivRSsDo6jTkdzDyIIlI8bNBxk0b1QSjArIvtbv5yRl/wA5ZJ4gomLPZbHUoWZs18EJrFnNM77C4XJhFHFiKjeYso/42PmYS4OW9zivpFcLhDzYon/Yt8lmVbnXoleU8nWplIMZ6vW4ys0UaSevCY5WgdMWgjAboHSBNxLWy9m1MRUFKipZj5ADizHgBzgYZ82LDDrm9j0zYn0b0EAOIZqrcVBKIPT2m8SR4S1D1PnNR4zlm6xeyvudJT7K4MC36LS80BPqdZfSvQ4f87qP+o/xZnbU+j7CVQe7U0W4FCSPNCbW8LROHodWDxjU4nu+pfH+55h2i2DWwdTu6oFjco491wOI5HdccLzNprk+o0euhqodUOe69DJzmI6+pkGpBsXWyMxhYrYJMRDbBzRC6iAYxWXdnrZKtQH2lUKvQuwUnxy5h5zOatpHPkj1uMf3sZrUtDrbrymqFPFtSdGbigRvtfmOP5TWNHjalShzz6+pFJtL9DE+aDFL2LO9+jHbRVzhmbR/bTowHtDzAv8Au9YjDVYripnrmGqXXWWjy2qZ8je0IgLmaUTR413UzaPQ6wMsmg6zV2SAzqp3FlB8CQJojDIz1/H4O9J/wkjy1A+EprY5keOfSfW/UUxzq39Eb85j3PR0S9pv4HmTSjtkaFP3VPQfDSS+T1cO+KL+A+kYjqxsYWEZq5RCoUyzBVF2YhVA3kk2AHmYiJTjGLk+Ee59kuzyYOiEABqNY1X+03IH7K3IHrxm0VSPitbq5anJ1PjsvRFDtl22p4M91TUVK9rkE+zTBFxntvJBByjhqSNLqUqOnQeGy1HtydR+7+RwTfSPj82YVVAv7vdpl8N1/jJ62ez/AKVpEqp/Oz0HsJ24TG3pVVFOuovYe7VUbygO4jivnztcZWeJr9A9P7UXcfyNjtNshMXQai9gTqjfYce6w+R5gmElaOXS6mWnyrJH6/Feh4DiqL03ZHFmRirDkymxHqJifcQydcFOPDE54h9ZKvAqM0hmQNuMOTXpjNbMTUokQo554ZICkdYEY/eo03wpTDqf9Wox8qQAX41G9BMo75GvT9QWO8zS7L8yjk33m5bgnyUcdhrjSOLo83W6XzIeyZim1xNX6nh45OMZQZaweJZGV0NmUhlPIg3EzaOyElOJ7p2W20K9JKnBhZh9lhoR6/C0aZ5efE4SaNnCVPaI5bo0Yvg0LyiDyZ5LOlCXkjLuzffX8S/MS4mc+D3HHfsvL+Up8GB4H9JnuUfxt8hMT1NDy/keeNKOxl+l7i+B+Zk9z0cP8mP77jUkHXAIxvkZv9iP8fhv91Y1yjm8R/pJ/I93E2PizwLtl/jsT/vVP4pjLk+z0P8ATQ+RiyUdJvfR9/7HDfjP8DS4+8jzvEf6aX77nvRmp8oeF9uP/YYn8Y/gWYvln2nhX9LH99znKkg6p8ixGZrkLD74kVi940Tulo9TsUn9+SefL+ajoMb/AITD/wC5iPlQmOP+dL5I2j/Pn8o/qYh3n++c6PUUuWLaBhIxcd7/AJTSHB85rv54vD7oT5M9L7rPTfo0/YVP9z/4WQidb7y+R6HgvflLk858GzNDM//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIVFhUXGBgaFxgXFxUYFxcYFRUXFxUXFxcYHSggGBolHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyYtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAADBAACBQEGBwj/xABEEAABAwIDBQQIAggEBgMAAAABAAIRAyEEEjEFQVFhcSKBkfAGEzJCobHB0VLxBxUjM2JysuEUNJKTU3OCg7PCNUNk/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAECAwQFBv/EADMRAAICAQIEAQoFBQAAAAAAAAABAhEDITEEEkFRYQUTIjKBobHB4fAUM3GR0RU0UlNy/9oADAMBAAIRAxEAPwD525yXqORCg1Eh0L1HIQKtUQUhhJUzIZKrmQMOHKZkNquGIKJmXHFGbQRBhUyWJyuZk6cNxKYwWEc/923qf7p0QZ7MO46wOtkQYQfj8AvUUdhNA7bpJ+HRMs2bQESJ6phR4x2Cb+P4f3QamBcNCHdNfBe5/V1A7grO2DRLTlkc5QFHz5rEZoXqNpejTmguHaHLXqsD1STQIDCsFYsVYSKOwrhqq1Ha1CEygYoWIwauEJiFX00u5qfcECo1MQu0orShQrtUlJhJXFxcRQ7NKUN6tKo5IdC9UIBCYeguQJgyoGqBGotQBelTT1HDqYektPD0kwsDSwvJVxrhTHM6DhzK2adMASV5kE16pPEwOmg+nimJsZ2VhDUfmeLc57l6hsNADQAELD4XKACJsJIm8zFjusB4omOpZXZQeHhqmCAYmrex8wli+UVzBoSoKXC8a8hIEnvI8VDZVMFUkXTWzqhkC5v48QONvmgPEIuBrtBhzQRwN54g7vzRYM9Vs+vRyySAQBaWiCIsZtE+dY856SejrSDWojT2mjQji0cY3L0Wy9nMczMGQJ91xEyZ49m5Efy8iUziKfqmEMbmaQ6+hEaSDeIjRUQfInNQXsWttJjRUcWjsu7Q8YPx+aQqNQAqxN0xZLOCZw70AFDVwtV5UQAu9qXqBOVAlKpTEKuCs0LjlZqQ0dhRWUQMZBXHFUJVcygsrUQXFXqFBJTJZ0BM0Al2piiUCNXDLUwwWPhnrVw70xpBtq1MtB55R42WFgKcEiYIgk7ognTuWpt5/wCxI4lvzSHo9hxUJB4DvE6W6FAnueg2PiXve0gAMG52hbIN+dt/DuS+39qAuLaVzoSOXBMbTDmUobJLp+l15rCFrAXPFR5G5gMcLu90JN9BoBisNWPazHxSTMW9puTPemdpY9zYmlTaHCR7x6EylMPTdUNxAN53KaD9DSo7SdGv9kKrtJxIMwtrAbOZl0JtqRqsDbWzyyq5rZLRvNrb5QU7Rq7J9MqmHMNc4tMZmhxAIBnpM3EjVelwXp+2r2aoExE20PGw8V8/w1KkAHOfN7jI5w8bDuRtpGnDXUnMe2L5Q5paeDmO06gkFPYg0NpGKmsjNbodFRyXeZpsceIHgUZ7lcdiZC9UKjHQu1XIQKYIdZVV/WJIOVg9Aw73pWo5Wc5BcUCOFXaFREYgZZRdhdQBRzlQldc1cLVBVlHFDV3BVAQI61FY5CVgUAPUai0KNdYzHpmk82A10CDRGhtSrNIjp80x6HjtGwjnvPfZKUsfLzS9Q11NpyvdfM4zBI+gHBawxrGPmm0sYdAYPZ3XQmTJHqa2FDqecTJte/VYdZsMLBAB4C6rS9IclMsGknd5hLMxfrb5gOW9JscfER/VIn2n9PzTeG2YJsLDzJKapv5rI9JK7xTyNkB5uRviYBjqUitEegwwYLF7egIiyI/ZtOux8OY50WYXAONo7IOugt0XzhlCtSmdOEz8lU1KxEtDhzuI7zokkwc01sen2p6M1cjWx2Rpo2Dwk236EgqYL0GxDtKT6ZiQXFrmuGsSyQDHkLW9BtsVW04rkvZMAvl0gagOOoB8F6yp6U0sKzstL2uGjXCG8i3cOY+CqzOj5jtPAPohtN4ghx4HduI86pBz16TbdcYqHZmU7y4vMNEg2nvC8tiBlcQSDG8GQeBB3g6q47EyRSo9Ua5VcVUJiGAVaUJq7KQy7ihldXQ1MRVGpqoaitCALqLsKIGW9WuOpJwU1DTSoDMqUku4LWqU1n12IoAAXVQlQlIAgKb2c+KjD/EPGbfFIAozCkWmbWLY5tOlQYSxz2hzzoZdYydYF0ztLFZy3s5cgDcoERE5RHCITWyK7agkuYTljK5oJa/eRPunXvSu0azWkNLpeSTuMbzPMwo2Zb1Rl13omz2meSHiDKPs2oQ5UZ2embhwA0neq1iC0kWaNXHTlHFI7X2jDRxiAsKoMVVAa2m8tBkAaSdNUDTZp1NoUmn8R+vRM7M23QDu00tnf2SPCPqvL19h4sXNB/dB+RQH7PxDZLqNUAanI6BHEwihtPqj66amGfhvV0w0RLmFo7NyS4jqdRxC+ebRruzESk9i7WLOzNp+e5HxtSTm4/VDJs46kKlJzC+HG7BE5nNE5Twkb+MLNqD2ebW/KPotvZ2Dc99IwPVtJLiSBBOnMm3xWTiLuI4dkf8ATb6JxB7AQ1WDFdoRA1MVFAxQsRgF0tSKoBlXQ1EyroanYqKwrNCtlXGhOxNHYUV4UTFRpBq6WouVTKmKxZ7FmYtq2HhZeOSAyXlVJUqFDlIYVpR2FKtR2lIExhpWjgsKCzMBebnisoOWvshxLXBJlWLViu4apDpQq77qrHKQNGvVbIzHTrPRVqbZey9NxA/DuS4bm8+KJTw7PePxToExml6avntNvxH901T9P3tMtknmGweohYuJoYc6COlkalgsKadnOFQcbtI+hSpF+ckW2xth2J7bw0HdDQPGNUtUfpyQqlODG5XaMzgOYQQaWB20aQex1NrmxLT7zXxM8xMW5LFphM4hlylwrSFYQKwVArhAy7SroYC6SpLR1dCGCisKAOwuZURoVsqZLBQojZFE7Jo18wVHPS/rFVz1ZJeo5ZuNTj3pDFPQBlVQhkI9RDhSBVqMChwrBAy4W5sDR46cuKwwtv0edd/QfM/dIYPamF7VlliovQYiTJtM6fK6xMXS3qQAOxBGiBUxRO9UqFCKYixqFEpV4QFAmBpsxPn5rc9Gtnmq41Xdmkzf+I7mt+F15rDMkgGeg3/Ze+2ABkAPtaNHustqB7zufgAlQ7PNY32j1PzSJW9WwrTVqNF2lr3MJsWuaSIkaiR4FZ1bZNVty0ZfxBwLR1I0QppnVPgs0UmlafYUBVw5VqYd7dWmNxiWnoRYqtRrmmHAtOsEEGDoYO5Bg4yjug2ZVLkLMrAoBF2o9NAamGIGGa1EDVxiO0JCaBZVExkUQAn6xc9YlPWLnrFpZDQw+ok6z1Zz0u9yCQb1VdKs0JAVhdAV8q6GoHRQBbfo8w9t27Tv1PzHihYXYdR0F4yN5+0f5W6+MLdqYNtDLTEiWuJkyc0tm/T5KHNXR2x4HL5qWWSpLuKVmbjZVZTBBteOAvyNrhWqOm2o4K1Qw23xg/b5oOQw9o4dkWEHzN1ivZC2MdUWVVQmJoFCK2jaSe7eqBXDlQhrDcl6nZlZ2XKNTad9+C8rh7rcwWINMZybcDwUSdI6uEwrJkV7LVmiROIeBoGP+IVMFXID2nQ7lXY78xfUPvWHf+aJiKcOJ4rme59TF3HnXiC2bjcralCTdwLTwnUd4WttKqJa1zWuAY2A4A/NeWqvioHc1vbWqSKZ/hHz/smx4ZXFp9PgBq7Nw7/cyHiwwP8ASbJDGbBqsGZv7RvFvtDq37StDN2VoYWv2U1Noyy8Bgy9KfdfdHjmI7F62qGP9tjXdde533Sz9h0nXpuLTwNx9/itFkTPNy+SMkdYNP3GLTCYYE1V2RVZeA4cW3+GqXYtE7PMy4p43U1RfuXVJUQZHmPWKpqIJKqqFJBzUVCUJWCZmy4RWtUw1Bz3BrGlzjoB5sOa9lsnYFOn2qkPeP8Abb3e8evgplNROzhOCycQ/R279DB2dsarV7QGVn43Wb3b3dy2tl4FjJLbkWzEXceX4WrS21iobkbqdfoEFrctPp9bLnnkbPo+G8n4sDvd938iU35qjd4mOsGZ8Uj6S1yf2jdKbrayR7J7olHw7tMs9m9xx0Q8U0aatIjqFCdM6c8FkxOHczW1gYPFcxGKgWSr6Rp9nUe7zHA81x1xIXTdnxuTHKEnGS1EcXUzGTCTcE1iGJWEEUVLFZlJEpUSdFo4bA8fDj1Q5UXiwyyS5YoFg6E9EzXvbcjvt2W68eCs2hGupWTlZ7eLhljjyr2s1tkNin1VcY7vG7iLfFFo2YlsUZWZ6i0hRmVKMu0nqtPFmWMMRllp3cx9UGmACnKjZpvHAZv9N/lKGTijVg/dhEo1IEIOHu0SisYEjZPqHziETBu3kwPMJYNCtUPsgbpd9B9fBBXMbGGxHNUx+y21QXMgVPg/rwPNKYd9lpYWr8FUZNGeXHDNHlmjzv8Aga3/AAqn+lyi9f8A4pRaedPM/pEP8mfHVyFArQtj59srCd2bs19Yw0WHtONmt68Ty1TWxdjGt23S2kDd29xGrWc+eg+C9fh6DQ0ANDKbdAPN3HionOtEejwPk15/TnpH4/TxF9lbPbTGWmNYzOOrvsOSarVhmDRoNeZ4onreySBG5o5bykKcTcyeW7vXM3Z9PCEccVGKpHGMNSo48CtGtQAbHKUKk0WGk3j78U5jtSOX0QWlSMag6HGdDYrlVngulqPh72PBBkZeIo2iJ5JBjQ06kDgfut19JCfhWu1VKTRycRwcM25gYvDz7N/BBpbKebmGjiT8gFvPo02bi48NyE1jnn5BVzs4l5Mxp62/AVwuHDRlaJ570dzI7Iud6bIDRlbdx1KtSpAdd6i7O6GCONVHQVZQy9Sp6vtedycpsuTwuh0m3J5IK5VsGJtCCWyEVui4G2KCxV7FoYQwRwI/NLVBZHw+gQOOjE2NLCWHcSPDeihyrtKzg7iBPUWPwhclISetHKlWCG70TN2u4D5/dZmFfneXdw6J1zu0e75J0ZrJzK/EdpP3eHVOYGv2xzELLFSyPgn9uTuEoNIy1N/KosD9cDj8lEF88e54YLb2BsX1xzvkUgeheR7reXE92umfsbAGvVbTFp1PBo1PniF78FrAGtAysENG4AfNdGSVaHznk3glmfPP1V72dNMWAAAFg0WAG4Abgg1X53Bo9kfEodfEzfii4ZgDSTp9P7rmPqIpbItiyMseTH0SeFFuhS2GrGpVcdwBgJ3AtuR51QTGam7Qw1vab0TeNu7zwSlO7pV6r+2mi5SVC5ZqqUhdEJv4oTTfxQc7kdzbuvwSz6Z3eCZjtd5+qDiKsGBqgm61AeqG9SpXjstHeu4uqGiX/DVAq1QxmeO072WxfqfgihPIkMUIBj3ok8h9ypSdYnzvQsOzJSJPtPIkorBDUE8zZdlmOPneh0xaOP0RHfux1+33W3sHYhqyZvMQAZ0Bs72W6gSZub7pmc1BWwlJRVyMyjhHGYDjAkhoLiB0HmxVq+zntEua5onUi0+Px08F64sY1vqqTWucbAAubNxd0F2XVlzmmeDkhWc5vthrQQXCCbjKzNpTAZDct+Z6Lm/ENvRfycz4luWm334/I8nUaRY9x3H+6vh/qt7G4CllcZBcQSGgxAa6HEtvlBOgnheZnzoMFwvYwOK6ITU1aOqGRSV0Dx92nkZ8bfZJ1637Od8JucwI4grHqP7BHBaJGOada90M7PEEDkj1X9ru+6TwlYNDnHQBUfi82V0RrHSdfmnWpmskVjSHamI3JimTldAJJEAC5JO74rJwxkz5sjYjGQ4MvlF3ZTBvwO4orWhrNUHP9h79SVv+DV/23/ZRTLS//F/suUWvm13955v4zJ/r+ID0RpZQ9+89kdAJPiY8FsF02SGyG5abB/DPe6T9U/hW6lYzdyPZ4HHyYIx+9dQDRDo8PkU/taoGUuv0skMsubyI8CbonpM+zGjgPBSjpcuWEhfYQ9o8lr4ZsBx6Dz4LO2LT7J52WoTo0bjdMWL0YIq6yE93bnoiV7XKCdUBJ2df7XeqR2l2ue0lsViINtfyQZSdExOIh0DWfqh4lwYJOsd64GZBmdqbpcU3VX5naJmTb9pKVMuJq1NBp0S9FxrVMx0Gn0Vts4sEikzQa8ymsJTDKUnqghVKXKtluWxD5IaNyM+zPFJ7PGYucfN0xibkM3C7voPqgtO1YSoP2bJ0Jv0n+wXqdlsig+oHDMMxDSDbQEEAjNmABg25ETPmMR+7CZwGM4EtNhN5EGRMXjpyN4WWWLlHQMkXJUnW31PYbDeRhatTOR+1OZ2Z4JD205MtOskukgqrS6phK733IY2Jylw7Xal2s9nQ8UTZ1TKxxFSz2y9vuPc5hDocBGexHZInszJMC9Z9MsGazG5JFgx5bmYHPPZFQjKHQYBkQAYI82VuTfin9Dgl6zaXXf5GPQLGYdwqtcSSMondEssLsFiRMXAN5C8fj60uPcD3LZ21tFhzerJLS4nMdXG+UCbwJOtySZjd5qs8k/M/QL0cMKtvqdmkU66uwjX3WZj7Odzv43TZdBSe0Doe7z4rojuYZpXAUfUJZlGpIjqYARK3tZRo0ZfDU+MnvVcEbl34QSOpED6nuTGCp3kq3ockE5V4/BffuG8NSytvrqUmLgu3ud8Amse+GFDbTjKPwgKF3OqatqK6IrB4qI3rBwUTJ5V3NQGCB3fBaNMwwrFqVb96ti9tBpFOOruZ0Czps9GOWGNek6GGP7Q6j5om2jNQ8oA8LpEVbyptOv8AtI83RQSyLkZs7JbYDifktEMSexG2b0+f5pp9Quqto0xnqPcGtA4kwJ8fghG9qMLYniCXO5Tb4K1Ux4K7abi/IGlzi4hoa0lzoJFm6kmJhbGM2FToNFTG1SyRLaFItNd/UmW0xzv3GypRbOfJnhDfd7Lq/YeaOZ7srGuc43DWgk+A3DiheqIJLonqD8RYp3H7WLm5KTG0aR/+tk9qNDUqHtVT/MY4AJPIXR54JOlsZxcpbr2FKtM1HclXa+KFNuRuqZ2hiRSYOMWXmpL3SbppE5Z8nordh9m4eTmKf2vXysawam6Lg6UNCycXUz1Ebsh+hjrqzY2Y2Gcfuu0Rr1nqSVMM/sm0Qr4QWJ87kjdLZExj4aAlWTGYG/5eIVK9XM5EYLFBDdsaw20ajZLcwkQ4tOosY48FbFbUqPnMXuk5u0YGYiC4CbGLaJanvjvH2XA6EuVXdDpXzde9IH6ree4cO5CxDhuH3Rar0hVKpGc2kjlQpPFGWnlH2+qLUKWebEcQfkqRx5JaFsBQL2wNSZ7gtIUcq87QxDmOBH5ra/WWYXTknZPC5sbjT3RXFnM9reY+F0VpmUnh3y8u4NPxMI9Fw3lJo1xztthMgUV5HkFRI1pBsfTLHuYdQSD1BgrGxjZMr0fpDTmq8jUnNyvMxykFedqFNaMwyy54JvqM4WvIB8eo1TmI7VSSsfDVcriNxutLB1WFwc90BvieiJIrBk5lytnqGY1uHphx9ojsjpv6Lc/R26m3FMrVnBoIdDnWDXFpyyTp15rwuAxDa9d1Wp+7ptsN3Bg+vcnhjXViSOzTHmApXouzuc1ng43o7S/k+p+kfpRgsGH/AODZRdiKky9gBa2dS5w9rjlFuPP5jtPEvqPLnuLnn2nG5J87kGld07h9NFWo/fvTlNyMcPDQwx01fd7lms0Ttao2kwE/mh4doaz1jtFiY7FurO5CwHAKUrNpTUI+LA4qu6q+SnMPh4AXMPh4CdpiybZjCDu3uTEVMtM+dyw8Ke1Ka2nXmyVwmqFsZ5JXNLsbmH9h3cr1qmWkeLvpCJs7Due3Kxjnu1ytaXHXg0Eo7/RPaFQ9nB1o/iaGf1kIUWzbJljBatGNhm6lHC9Zsv8ARrtB3tU6dMfx1AT4Uw5aB/RoWXr4/D0hvtPxe9irzcjm/F4Yr1vmeDYYVazpv4r3Z9G9kM/ebVzHeKbqfya15+K0NibB2HiavqaVSvVflLjLqrBlaQDByNHvDRPzfiKXGwSun+x8rqVEq90pnaLMtR7Pwuc3/S4j6JEqaKnKzhKWc66I9yXeVSOXJIWIurNKrVXM9locNpMfwnsE/iPwb5KbwzUvTZAa3gPiblOUmrOR6WGOwbuCi551UUHUau2P3/d/7OXmMX7R6qKKupyr+3iK1NW9Vypp55qKLQ43uzQwP+Xqfzt/pctnBfuQoospnqcH0/5+bCN0PT7IdbcoooOuWw1tv9wzu/pWNg96iipbGGX8xGlS0KuzTuPyK6okamJjtVzCqKKuhwP1z7r+hb/K1/5x/SvaO1UUXTHY8ji/zpfqeZ/SN/livz6z2z1Kiixy9Dv8m9RwL2f6JP8A5D/s1P6qaiimHrI6uK/Jl+h43bf+YxH/ADqv/kckauiiiBR9UUqpd6iitHHkA1ENuiiitHHL1jaZqj01FFiz2MYZRRRI6D//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhMVFRUXGBcYGBcYFxgXFxgXGhcdFxgXGBcYHSggHR8lHRcdITEhJSkrLi4uHR8zODMtNygtLisBCgoKDg0OGxAQGy0lICUwLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAAIEBQYBBwj/xABMEAACAQIEAgcEBQgFCgcAAAABAgADEQQSITEFQQYTIlFhcYEykaHwB0KxwdEUI1JicoKS4TRzosLxFRYXJDM1VHSy0kNTdaOztNP/xAAaAQACAwEBAAAAAAAAAAAAAAABAgADBAUG/8QANREAAgECBAIHBwMFAQAAAAAAAAECAxEEEiExQVEFEyJhgaHwFDIzUnGxwSOR4UJTgpLxFf/aAAwDAQACEQMRAD8A8xiJnSIxpAg3aCZo5zBtHFOXnQ0ZOiQgS8RMbeK8BBGcBiIikIPUx4jno5Tl52BPhcXtJ+G4WxXORprpexJ2A98DaQ6RFwmFaoyqo1JAvyF++S6nBmAOvaGbs8+ybH8fKWPCcqEqr6sAb21BHL48vvg+IYgrUUki+xYarrs1+7SUuo72Q+VWK7FcIYEBO1cA6cri9jIdbCMntKR5g/JlhiseQey66n6tz8YXB16bt+dJHxB8DeNndhcqKlIVZK4lhgrXT2TzBuBIojJ3FtYdGPHExjmMiAWjY5py0gohHToWOyyMNjkaTHERpgIcjwI0QiiQhz1ij7Dwih1DYMYGpCkwFQwIjBNG2nSYhGFOATto607aAIK04YRxGEQgOAQtGncgRoEPh730tr9kDegUi5WkDq47TsBpbQgAe7X4RvEKmW6IwIC2PiMtyPPNcyqpqXeyX52ufjG46m6KAQQRfXv1JB+Mptd6jXCHFMRnTlfMBofMRuH4lZu0Aym9wR393rr6yEr2N7kG2429RGnU3+yPlBmNhh8Hhqqlly3O4N9Lm+gHLx8fOR8Rw0A9nKL6G5OnLQHn75T4J7W7WXuPLyYd3lL6nVJBQ2P6uhH7p+fIyppriWJpj8PgxlCOSLm3Ij9oN8SD4ynxeBZGK6G3Pa8m1MUaT56Y2XVeRXncevdIWIqZrsb6gWB3tbcwwvckrERoMmOaDaXlQo5RGgQqCRgOqsdaOUTpEUdAWEYRDMIwyIgwCFURoWEUQgOW8oo/T5tFJdBsDYwDmHeR2kQGcEeFnFEMohAMCxZYULFaLcIAiMtC1IOMAcglpgsOOqZ+dwAPifulaglvg6oF7gWXXwHK5794s9hkQ8NR1233099ufhD1MDUquFQM2gsBrbl90k08Sg2FjbQnkOZ87AfGekfRthqYTOQLnXyEplKwyVzB4boBXPt9nnreW1H6PVGpYfbPRuK1tdBKrr2vr/KZaleXMvhTiZSl9G7k6OoXy7Z9NgB5y84f9HVIDtkk8r6fZL7DVmPs6S6w2GY6kiGNWUiZEjzrpH0JSkgdAWtp4+/u0mGxFSnlKZdVv3/P8xPoDiGEzUnU8wRPnfi6gYgrsblW7tOf2S2m23qJO1iE6jlBMIdxBlZsRnYxBDKsaiwwgZEdCzhEfGsYowN4KOqGDBjJAbDKIQLB0zDKYAjrfOsU5FAHQjPBEQjxoEKAxIsMqxKIQLJclhtpxoUCMYSIhGqQRh2EHljCjqZhatTs5ff490GolnguA1MRTeojoDTHsMbFwNWC8rgEGx3vEm0txopvRFdQu7i5+/ncz2DoZSfq1sCAfjpYfD755bw7CHMLqR5/st9/2T2wVVw9AFNLKAvumWvNaIspoZxnFpQF6jel5nV6aUL2zKRMJ0lx9TEVGd3LAEgAk/2VHL4TOUmudBf0ixo5lcbrbaWPaz0gpsMykbcpT4z6RHQlKdMsRzJAX1kfoHwUVFzG9jew5bfylDxrgFdHJKA7lb6rvtvv5xIRWazLXJ5bo3PRzpTWqveoyfsgna3lPO+mlO3EathoWuPVQ396XnRLo7iajrUyKuUgtkGXS+xC9k+msP8ASMipi2AAzPTpknW6kXG3iFlsFlqWEnrExTiDtDVIK823MogI60cgjrQMZIZGsYQLGVBAEjOYOEeMAjCMLTkhYBBDCBhQ+KNvFBYJFjkgrwtMw2FDpDLApCAxWWIfBvHAwbmFBBsIzLHmdRY4jEizedAK1NaVdmAPVqzW/aAAPwtMUqy56MVQtY020WsjUW/e9k+jASitHNB2LKWktS+o4KnXdK+HD9WCEfMBo1rg6cjqB5ib+vhkrWp7C3wmd4VhzgqbYeq6tSZlytoLs4PZIvuNNZY4pygDeE5spWdjS4XehU8b6OYdEtYLa/a0ufMynwPAqBIC3PuHPwhuLYpnbtEkec5hMV1Vm0uNtNvGWdY7aB6tW1N7Q4atKndBYLlN++x1+0yXj8GliSoIOo0BFj4TJcR6bYamWwwdnq8zYgXtrrtfwj+H9OlrFaARy2QsCBooUa5vAgWhbtqLGPA0eF4yi9hUC+W0w/0pURlSsQLu4Ve/KqMW/tED0llxPElSrKL5rfHvmf8ApQ4kpXD4cMGamHdrfUz5cqnx0J8rd8NBylNXDViox0MHUaDBjXacUzpGAkIYUGCpwkVjI6TB1I4xjmREuR3iVY4iPRYRTqJHhYRVjssFx0gVvm8ULacguEqhDUzAwqGOxEiShjgYIGdvEZch7PGM0axgy0KAx94emJGVpIpmMV3JKiPGm0Gpj7wWIXJ6QF0FOtTRtReoQM1ubeduc9CxdErRCls2XQNzYcibc55A5nqfD8WamEote5amB+8vZPxWYsXSUUmjTRm5PUo6GGzOb6i8fiMCMwzGyKL+Z5fjJOCS7W2POD6VrkUW1J0A7zymWL1L5sr+N8MRgrfm6Ocj845Ckj7SJqOh+Go0UKLUo1aljcK12y+HeOek8tx3D8fiKhqMhJOg1WwA2AB5S86P9C6/WCpVxJo5LEBR+cJ5BQdPWa3Tdt0VRd9kz0nE4RWpggaA3HlvPJendUHHViP1PhTUGeu8PLdS1JmzEEKGO5HeZ5h9KHCepxpKA5aqJUGnO2Rh71v6xMKrTJWu42MfePSD8P8AGGprN5jsHpQwgkEIIr1GRxoGoYV4B4UBjYZIAGGpmQCJCR9oNTH3iscUU5fzihsQqiI9FnSseixmBDgs7aEVZ0rEuWpEZxANJVQSM4jREkdQyTTMipJNKOysOseJxY8CRBBVDN70NrZ8CV506rAeTWf7SZgqk9E+j/hbDC1ah2dwoHii9o/2svmDKcVbq7FtFO9yxFIaVF8L+BkLj6FgpAvaTOGMVq5LXB0I8zvGcW/NX8OR7vCcrVM1NXMdxFK/1QfAjlLbotwrGMwqPUUL3E9o356Sj4n0gJNl/wAIzhHGcRn7BY35cvfNNnlBBq+7PU8OvVHKTck3/nJvGejtLH0QjsyOL5KinVSdwRswPd8RMtwzEOWBc3PfNVV4iKOHqVd8i3HieQ9SQJTF23Le0msu55dieBirTKkDr0LLn/SKkqQe8G2ndMu2HZGKupVhoQdDNlhMQVGp15nx3Jmr6OcKo45aiVuqb2bKezVvqc1Op9W19rEHnaW4arLNle32Oj0pgouHW7Nb9/rmeTKs7lm+4v8AR3UDEYXrCwOtKsgRvNKoPV1PIG8x/EeHVaDmnWptTYcmFvUd48RN559waK51kWpJtSQ6ohQkgQMMhkeFpxmhESlMdeCWdJi2GQS8UHm8YpBrgmSFppEFkhFkYqEtOd6uHRIXq5WWplbVpSLUpS3elI1SjHixGVgSSKce1KIJGbFQVJIw9B3YIiszsbKqglie4AbyT0e4ScTVyZiijV3Cl8o8hzOwBOuwudD6vwzhlDBUwzoMNTsQL2bG176asNaQI+qmuu6WN0ckkWxpybSseeUuGLhiCzU6lXKQ6WDii1/ZzXINQAa/onx1l/8ARxxYt12Db6paon7LMC3xPxmd4xiEOIqGnTFKmXJVAAAo0sLAW+TA8I4kMJjExDf7NgaVQ9wa1m9Co9LzBKbnJ38Dt1cKoYVKK1Wr5+kegGmErBvGA6bsDTuJZcZpdm6+B9N5neN4gNQvfvB85UzmrU82xKEsZp+AUwlMudzoPATN1qtzaS6WMIAF9pfJNqwIOxuOHm5Ef0s4yBSXDjckM3kpuq+psfTxmXpcbFNb8+UrRiGqMXY3JN5S4s6mEo3mpS4ak9axv87z0Xo/xPh/5OmHxNLIw3qi5uxN7517Q9QQLCeeYGnrf3fjLA3O8WEnB6HUr0lWjZtr6Ox64gxJVTgsZSrKN1rdu47usp638xBfk3WFvy3C6a7f6zRPiq2NSmfAWE8ro1ChupIPeDY+8S4wfSvG0j2a7MO57P8AFgT8ZpjiVxRyqnRk/wClp+Fn+638UC6R9A1dHxOBqU3pg60kZnIGxym1x4o236R2nn+O4ZWpjNUpVFX9JkYL4doi09kwvTKnUIOJw4LDarRJSoPW4P8Aa9JeDjGHrgL+VAj/AMuuGp3v9UuhVWHgwaaIVoS4nOrYKpDeL+u68v4PnAJDok9c4/8ARdRft4ZvycnZWbrMO37NUdpP3hbkJguMdFsVhb9fRZVBtnFmTw7Q0F+V7XlzZhytMpMsaYcpGMkW5LArmKdy/NooxNQtMSQiwNISWixhUEprJKU4yisloIjQ9yPUoyNUpSzZYbh/CatckUwLLqzsQqIO93OgHyIAGfqUZsuhXRaiy/lWLUGkNQHJp0QB9apUPt+CJf8AWI2i6/h+D1UDG1+9gVwyHwG9Tz28pRcY4ziMVUBruWCnsoOzTTuCoNBpz38ZVOultqdHD9HVKmstF64f88TZcQ6a0aJKYCmpbX86yBEUd1GiALDxOp55plquPqVH6yq7Ox3JNyR3eA8BpKuktiYem15jnNz3O3Qw1Oj7q158TuNok9ofPcZBq2ZSragixlmlTQiQsRgz7SgkeG/84iL2aHg/S5RSWjX+ogQVBrcAWBZd720uLzMcR4t7SKbqTca2+2RKyA6Hf55SGcFzvLoJbs5NbCxv2F5iycyyj4mNbEAezcnvP4R4wqjcyTTw4HK3np8N47kkGGG5JLzZFoUGY3aXODoagW0iw1IX2vbw09BLAALY85TOVzo0aSgHoKBvvCltZDQ63McbmVNGq5JLCKRvCc66w1MFmDMibh8QBvJf5UANJmsTixygKGPN7GNke4nWK9mei9Hukz0tEIIO6N7Ld+nLzEu+KdIKVZFp0QQrqRUVgD1YOhpg81PdysLWnlGGxZRwb6ffL3h+N7Zfmd7bEfjtC6s4RaRTLCUak1NrX7/UpuPcMNGqVscp1XylU6z0TiVBcRSK8xqp7j4fhPP8RTKkgjUbzTha2dWe6OH0hhHRnmWz8mRckUfmimu5zQlESUkiJJVOM2KkS6UkIZEVo8VIERkoxcSxL5Vpk9hbkIPZzc3I+s3K52Gg0huCOvWHPtY++SuKYigtmtmFtvGYsTUebId/oqhBQ61rXh3GcakSw+fOSEw/avGflYvpuY6niu4jTlKGdTMgy4bUDv74+nSAax8ow4nN5ic1Y6QEuIuoveMpY0G2XlFVojfmPdAdXY374dBZNg6i5r+ciMltLL/Cv4SdUNgSPC8G1HMl+Yv7oyYrjci2YWF7A2Ogt6aSWMKMwPfv5wgpXQd4EMWGw/lBmGjBBAoE7lvBU7k6/GOoqRpFLESwoFpx21gHqW3kWtizuNoEmFySJFauBKzFYgk2+dYsW5yg6+MjO1yD3WlkYlFSfAbiWs9oDNreOxB7fjuILNuPC4lqRjnLVlglS4HjYHwIP4Szwle0osCT6b+u0nUawBsZTUjwNdCrdXZrcDjpW9JMMCRUUe1e37W7L/eHrAUrjb3SwpWqLkJ32PceR9PxmdSdOakjXVoxrU3CXEyOYTs03+RKv6KfCKb/AG1cjhf+JL50UKQ6mApwl5rOKGzxpqwD1JGerGSAy0oVjlYjcW++QMbiiSSOesLw2pdX/d++QMYLN4fN5gqL9Zp+tD0OFbjhItd/3YwPsZZU61MEE38ZAwgF9dpa0MQgsCoOw8TrvFmX0U7XDUcXTN8qk9+ksqb25WBjKKoNFFjOYk98qeuxqSstSPVbU+ZgV1NvkRxGs6RlcW2P2xgWOYdPaB7tZxOyCDyMe9QA37xItapmBYcjBuRvkdaoQLcuUkBLEGR1W6A8xf7ZMLi3uh0JEPYDXvgqj21EC1fNpB031sYLBcjUcI6KCvRFWrUKFjdR2R2Lb63tc6jTYbG+mi/yLhxQ/Jct0Oa7ErmJv7We2+psbXtoN5ScJbEChTDFrWY+yxJQaJlCWO23eJKIxB1FV7WIyChVJvodXJzAnXXlYeE6tKEVFWR5jFTr1KjTnonoVXF+haU6DulUuVubXU/mwNdgO1ufh4zC4js2noHG6eKNKolNqhGT9GoGAzjPfObkZCp8AxmGrJ2LHcCZq8VGSsjo4J1J03nd3wK/EmxU90C2hI8ZKenmUg7j5/CQazbH0PmIsFfQlfTteuRY8KRmDBRmsCzAWzBF3YC9za9zbYXOwuFik5jzBlfg8W1N1emxV1OZWG4I5y54nUS4emAqVUFQKNkzXV0HgKiOB4AQTg07goVsyyPwJHCcXmAB3Gx5za9HOEliajUxkVSxLZsg/XIH1RrrtpzOh80wlXK09o+i3pAlRGwdYA5gbfrDKEIP7ot7vGJTpQ61ORorYmqsM8m+zfJcyZ/mov6Ff+Mf9kUk/wCjOj/xWK/jinU6jC93+pw/b8T87/c8RSdZoNTOkyh3KkCqvIlR4esZDqGPESRM4ZV1Yd4+w/zkzDYM1iaa2uQSL/qjMfgDO9DsD1+I6i4DVKdUJf8ATCFx78hHrD8OrdTXVm2Vu0P1b2Ye68xYmLVTMdzo+efDuC3V/PbzKai3ZJ7v8JYYfBVDcAbc/ulfjKJp1KlJt6blT4qDYMPTX3TW8GpAqr5tAmvixYke4WldTsmvCtT8BlEFQCd7bel9ZtuC9FVq03p4qmadWqmai17hVFuQtZwbFlO6sPG1V0d4eKtYMUSoi/Ud8gdirMq3sb6U2JBFiAbmbHFVurp00LpTVczLm7NSlYEoR1pVsiXCWsSwYAi14aMLrMzP0jiJJqnB/X8HlnFcC9FmpVBldDYjl5jvBGoMi1KmoA3vp5zW9KMfhaiu1Ssa1fqyKbAltnfKOxTRBdcpIPs3IFyJi3QhgeWlosoJPRmuhWlUhdpp8f4G0mzEg8xO4X6yn1jqiWcEc/wg6tSxJHhc/ZAkWbBEfILfNo1nOnoRI+rLccj8JKC3QeA7pLETuPK2fziqaXbnY++FYjTvgAb3Ph7pAnqvR+oq1kTUrlZFLa5lyoUcaAW7HIWu0mY/ibHFfktO17KDZNVJsxObb2OX4GZijxmlWqAUqyhlVcqrSZCStrhcwGxGYUwTtztNK+IVqoq5ENZUCg/G2h5NqfQTqQ23ueSnPLN54tPv+5E6R1Faq6D2UUK1jYqpBZ27reyLkGxE8j6wZR5Td43jlCkWz4gZyrhkNE1CpN99Lak3KE9405edPUmTEavc6/Rc5ZZNppaWvx7xj6uRyYWldUO4O4+6Tap1vI+KXW/fEhuXYhXTt6uQgZbO16dH9hx/71Q/fKcb2k2i91UdxYehsR8by+otDmUJdpBlmp6Ho9SsgpNaopDDW3MDlvqwHrMqFvJeDxTUXWohyspuCJnaV1c6tOUknbz2PdP866//ABWF99H/APaKedf6ScR+r/b/AO6dm72ij8rOX7BW5xMqIiYQrBvEuUWItaRHkurIrSxFckW/Q7FmljsLUHKvSB8mcI3wYyTxyllxVZP16i/EiUlEkajQjUHuI1Bmj6XL/r1YgEZitQX3tURamv8AFM2KXZudDoppTaKDiNQ1ESt9dAtKr3mwtSf+EZPNB3ybwTiZ6vqbAG+p1vrtbWw1+2RKVRadchxelU7Lj9RtyPFSAw8VEh1qTYeuUY6o1iRsy7hh4EWYeYiOKqQsXRqPD1u7Zm3wGPdUsrugOjhWIDC+zAbjWCxNXMSeffzI8+6VpxOlxz1+fdC0KtqneCNPwmOzO3eN7oligCsZVQZfLYwzUqlM2anUUsRkBRgWvsFBHaPLSVWOrkaEEWLAg6ZSCQQQdQQeRjWYrnEfXrXNvSQ6N8xVu4x9ZCSHXXYm2vjfSHxuDqIVd6dRAdAWRlDD9Ukdr0liRRKSuAwotmU/Ij1qgCw21+3lNBR6K1loYqriKD08lDrKRJUdoMCQ6g3F1J0YDYyLV6KVloNUZqIdKfXGj1g68UrA5iltNCDvGcHuUxxNPZMrS1mHcZ1jZ/O5mmqdDbGmj4qirZOuawY5MOqZ2rN4X7IXnvG8aw9EcNVsPWFYDF+31Zput6BGRgdd1v6wdW+Ifa4OyjrdrmZarUAJMjVDmBa2xsWtoCdrnlLbo30ffEq9VriijBGI9ota9h3WFrk94l3x7FYejhzhaSjM4yrTXU6/WbnfnrqTLI09Lsz1calPJFXfExtElhkb2vqnv8PWALa2lpjeC1qFFalQDKTawPapk7Eyuxhv2rdrnbmOTRGnF6miNRTheLvYBUFoxhcQp1EjoeUZbFU9H9SHiFs0fRf3c4sSLx3DMP1lRUvbMbX3mpaxORLs1XYnUx8du4+Ul0KCfW9xMgOHos1NgDY6g6qe5hbUacxacqNmFwD6m/xtM06bvudGjiFbVXLr8jw/h/EYpQ+onZX1L+Zmj2uH9tevAvqgkWqZLqiQaxmyJxmAqQVo5ohLCqVh1MSzxmKetVzva/V010vsiBB8BINJJaYU01IzAnsD331+BmXFO0dDf0XH9V35FNxAag932QXGT+cAPtClRDeYpKLegsPSXuKxNCiBUKipVOqUtSidz1j9Y91MafpH6py1VyxLMSSxJJO5JNyT6wUL5dR8ZJOo7E/h2Kv2W+RNV0Ux9OhiaNWvoilhmtmykqVV7c7EgzD4d7MD82Ohl42Man1VRPaRgw0v2lNxccxoNItSFppo0UKuehKMuGngbzE18U9J8uOw2NFJ1xNgW69BSOYtTB2Ftxr4QuKrr/lPEhKOHTq6b1BVYHIgZVqnE1FIbrHAqWsLbzNjpLhx1lWhhBSr1VdHfrS1NOsFnNOnbS/idLyLW6UYpeqKsivSUKtQIvWFQMoWoxvnW3IjkDvGzLYzKlUd3b8b/TQ9A4fi1etw3Eq/W5nr4epW6oUhUJWyEoNLXuo9ZneDcYq1aOKOLZqpw1bCYjtEtbJXy1st9uzyGkyeM6RYyqCXxFT2lNgcqgrqpVVsFsdrRuCwNTEB8naanTeq1zqVT2j3k6yZtQxodl5nbl+9+43WF4UExeLxFTF0DhsVTrqrGsv5zrQSiZSb3Xx2y+MXDOLYNaa5sRQSnVw/VVgUd8U1V0yMaj2JyKdRY2sAALWmHo8NqVD+bpPUYakIjMQPGw09Y7h/R/E4kk0aLMoJUnRVVgMxDFiLWHfCpN8ATw8YrWXLkXWJ6T0kxFJ9a1JsGuGxAAKluyab5M1tbBGHu0kTGcWwdPCVMLQNeoalWnVFR1VApXTLYNf2b68yeUh1ejWIGHNZlXLlFQrnU1Vpnao1LcIe/wB9pP4N0XVayUsTUo9ZUpn8ycxdc6Eo2a2UONDa95EJNwik072/HMtvo26RGj1lBqbvTJ6zOgvkuAhzDuNha2t+RvpsMXwrA4g9fRyCqRqadkq+qMLn94GecfRtx2lhqtWjibKKoRSSLgMhYZW8Dm37xPS36I4XEslZWPZ1XK3WUT5oTb3EbCOtrGWq1Ko3smYXptw/EU6WbOHpKQWGXK3cC2tiNeVt9pl0IyK665TlYfqt/P7Zv/pA4PjKGGqWy1KJy52BbMq3/QbYE2uQxtPMcDiMpKnUNoRKqkWb+jquVZXsEqpYkDUHYyMy6ycy2BU7jUH58JGxa7H3xIvU3VoaXIVYSZ0boZsQngc3uF/tkd1vND0NwVmqVNxYKD4k3P2CaYy0scevGzciw4twda2uzgaN9x8Jj61FkYqwsRuPnlPShTkHi/BUrLrow2bmPA94jWuUU6uV6mF6zwX3RSw/zcxP6I/iE7E6t8jZ165k6ttIFeKKWxMrIscIooXsVMkUZKqe2P6o/ZFFM2J2Oj0V8R+uKKriXtfPdK+KKNS90mJ+Ixyy1xHsr8905FFqcC3D+7I13Rn+l4H9k/8AxvMif7v3RRSS39dwaG3gvvI5Q5+k9b+jv/wf28T9iRRR4bvwKMV8NeJb8J/2mO/577llBxj+i8Z/5r7qcUUD2frmZ6fxV/j+Crr/ANPxf/p7/wD0RKvpN/vqn/W4T/ppRRQsNPfwKBP94t/XVv8Araek/R3/AE6t5TsUaXAplu/obHp1/u/Ff1FX/oM+avresUUWRfhdmWlf6n7P3mCxHst6RRTJxO9V91+uBBE2fRH+jD9t/tEUU1ROFiPdLunvCPt6xRS1HNe4yKKKEtP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhIWFRUVFRUVFRUWFRUVFxUVFxUWFhUVFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lIB4tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0uLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAADBAIFAAEGB//EADkQAAEDAwIDBQYEBgIDAAAAAAEAAgMEESESMQVBURMiYXGBBhQykaHBQrHR8CNSYnLh8RUzB1Nj/8QAGwEAAgMBAQEAAAAAAAAAAAAAAwQAAQIFBgf/xAAyEQACAgEEAAQDBwQDAQAAAAAAAQIRAwQSITETIkFRBTJxM2GBkbHB8BRCodFDUuEG/9oADAMBAAIRAxEAPwDjBKsMqQdKtteuftOs5B5XILH2UwLrOzWlwClyWFHVLouH1K5GFuVe8OKJaAOLOsgmRzlV1IraniusSRqLoq6unuqOrpl2z6bC5HjfGIY5HRm5LbBzgO6HEXDNW2qxBt4oexvoMsiRQVMFlXSyBoJvt069EhxXiHaPJuTdx0jYNZyt49Ug426WR44OPMAnqPYtjxm2AM/MIbuPS3tgeiqtDr3F/DdYACe9f0W1p8a/tQF5Zv1LiPj0o3fm+RpG11qT2ifq6DppuPLr6qrIB2JBHVRc29vQEfcLaxQ9jPiS9zqaTiLJb6bgjcEWPmjlq5WjqTGTpNuWRfCvODVZkcWk3sL2/Q/ZVKNLg1B2xkwqHZqzdElnsS+/kbULQsAttNlJ4sl+0yjwlYtlhQ6wpmJqQicnYHJmKE5MfgYnWBJwFNNciUC3BghStW+0WyUDJAZw5RbQsR1iW2De888D0aNyUYUzEro3v5LCAXTIhQaUK0hZdAlwGhyJGBWXDyp9itwtsVlSNyx8HR0AV9SsXOcOeuko3IqFZKhrsr4XkPt1UuvoJs17zP2VrFof8BkcciS17txbG5uT63WVDWMN3WcWu0hoLnmw3YwAlxFxsOi8d/8AI0zHVjmx6g1gAIdquH5c7488xvzv1W4LkxJ8HMNyDt4WzZQka0AX36gfu6mDm/phQkYdNs7m3njCPYCgTqg2xgDZFhddri7wOPDcfJDGL257hDJ8LXUKJMk38Med7rBJgnqojmokYVlGgSi007mODm4INwfEfZCsphaIej0sokja8CwcL26dVp8SpPYqpJ1xk3AAc2/nZ1vp9V0U+FzssdsqOpglujZUVQsq++U/WlVl8ouEFn6HYVYQhVsLk/A5dGK4ORkZZQhGLktE9SL0UAFDkZpSzXKYcszVo3jdMPdYg61tL7RreeeXR4HJN7luORBrgZcqZf0r1awPXP0ciuaYoE4MZx5EWYeoh2VBgWEIO2hpO0WlHNYroKGpXIRS2VnS1dkaCsUycHWyVbWMc95s1rS5x56WguP5FeecE4H7zqqagd6Zzn6b7aiSb+pVv7RVt6OYD8TQz0e9rT9HFZwubSxoA2AH7KrNLYiaeKmys4z7Lws73wtIaA7ZrSHHVqPK4LbH+krm5PZl739w3Zqs12RqFrl7f6eQPO2F6jTzlwtYbHB+yH7q5ocRE1tjk3G+enkUCOZoPLDFvk8trfZCZou06vDb80l/w7hhwXpnE6jBvb0N1ztUbjOlEjqJepmWmhVo42poHNzZJvjtuujrWHOPLKoqkWPimsc7E8uNR6FCFoqZQyUYXLLgFUY543DmQ0+LXGx+x9F31aLLzGF9nA9CD8jdeo1mUtqFymN6WXaKKqVa7dW1S1VU7VnFwEzO0EjenIpVVB1lMTp6MjmTjZexzqRqFSNqlv3pE3AdhesqFM1Co21Sl70q3F7C494WKn96W1Vo1tZzsjFKKJPOgU44EHFyN5ltJUjFdUjUnTQq4pIUxPHwLYsrsPExSexMMjWSMXPyxo62GVla82URU2RpmpGYKsTLzx4GKirDmFrjg2v6EO+yf4fx6C4abs6XBH+lQx21C+RcY65U62dkxIe5jbYDnuDc+HNXqUrSoFpbqTvo9FpJosODgb+v1UZqmI3sfqd15pwyZ8b9IfdhNhZ1xnoQr6vdJFEXOBF+aRkqdD0eVbHuI1tOHEOey9ublTVtdTgXGh1+gGPBceO+/nk/VWo4boGox3Fr3JDsehwjeHFdgd8pdBZp43A6D6KgrYzuMqxnEe7RY+H6IAN90fHS6F8qb4ZUXUSmqxmUsGXTKYm1To03w3/dl6bM/HTw6Lz+Oja2xfJY7gAardCV2TKoPaHNNwUDM7oZwxceyMxVdOxPuQJWLMTU3ZVShKyPVjNGkZYUZSF9jYr2xUxMsdCVAsWtxPDCidbFQl7LVlLMuNDXvKxKaVillUjp3QrGRJiVQaVWmY1q4jNNGrelYq2nVpAV0JdHIgnuGQFB62CoSOXNznZ07EaoqpmerOqKp6gpfHwxnKrREPyPMK+rPZNj2lwFy7cE2IzuDlcu2TvDzH5rvDWk4Bwt6qdKIHSY7ckL0fA2sawFnwCwyHE5590dVntk/utj8ArSkaSbnkLqj448OcXdErHzOxxxUVRU8O4Gx1rjZ17fzDofBCf7NlhcG9o4bN2GkchqLtvRWdBVgkWKsairdy+a08jTBrEpI5IcDkb8Wb/T1QKukDF0M1fvdc7xCovcrcZOTMZIKKK6qiBB6jZBpoDp1AeJRXORqN/d03tcbnpzTN8CW3zAIYw4G4sbK54YNMYHiSPJLm19Lc3Fr8gOZTEjwBYbbIb9g74Qz2qwvVeZURsq1QFO2TkCGIUVuUzHEsSYzjimIPpkrLAr0xpeSBZjMJLGqKIwqXu6t2Ufgi+5om8WeMovd1tXfuixTeV4QaVRjZcpyanN0zTUavDLab1HmRGlhVjG1aZDZG02TniWjm7KZEoMrkSR1kjNKl8nI9hdAalyp6tysJ3qrqkuo8jUpcFbK9ddw3iGprT1H12I+a4yoVz7MS3a5p/C6/oR+oKvURvHfsB089uWvc7GPiM0fwRaw4Hpg2yM+C5DiPG5i4t7AgA7WI/2uyimGgBzgwcz49AkKx0f/uYTfqNuvglcbrsemnJcHO8KnJlvpIBGegVvVTWCE+psCCARtjYhKVc4cFqfmdmIPaqE6qquqqofc2TLzlLuZlFxqhfJKyICyMkG1vVSuttRxfotqaHSwG2Tk/b6JOocruOLUxp/pH5JSWhusR7DTXlKZzltkqekoUtJSWR6E5WmNUbrq3haqukisreBiDOA1iy8BAxb7BGjYjiNCcaDb7FWQKb4AiqYKyZYn2CxN4WKF2h+ehypRwAKwrCAke0RUBfJLs0vPhHMyrq6qACKmAkhWrnsquSpStfXXNkkJlurKjKixfMk534QjMhPkVKITxBWoReDVfZygnZ3dPrsfnZBnKUetONqmB3VKzv+N0EkzGCEi9rm5ty5ddlU0nszKW/xHFrugBdf6o/s7xAyw9mcuZYeNvwn6EeiamNdbTHlvKziN9+fTkufexuDOvHbkgpFXLwqSPHai3R2M+SKYwG3JF/DYoUlDPe7xt0Ual1m55K2ypJegk4gJeSVCe/KE96MkLcsIHosQSse6catmWl6HZ8AYHwtPS7T6H9LJ19GuQoOKSwC8ZBGoamOAIcNt9wfJeh09pI2SDZ7WuHhcXt9lqqLXMSgmpUjJS5XS1ECqqhtitpgZRERBZNRhAfJlSbKrqwV0NxlGkfYJAypaqrFlwNxyDj5UJ9WAqieuST6woLgFUy999C2ub97KxZ8Mvej1CvlVXLPZZXVapaqqUTLa4H5663NUfE+I+KUqqxVE0hccpiKFpk3TXN1MSpVbCKCGu0WjIltSwFUXZKR10IsTEcSIWKrJRDhNcYJQ8bbOHVp/YK7l/tEzSLZxiy4R8SteBUOpjmvabEgsdsb7Gx6beCW1EItbh7RubexdfoXFVxloH7x/lc5X8RL8clridA6NxBJcORVcXIeOEe0MzT9SbnKDd1m6NDGjIXnL0QSNiOwKK2wKrJGPBuZ2LdSrXg3tLNA3Q3S5nJrge6SbnSQQRfoqmY3PkosYSbBVKVHS02C4U12egcP462eO5Aa8Gxbe/TvDnb9FX8QqVyUOoP7t7jaye7dxs1xuTm/z3+SiyGMuhk03BfgHkq8qUdWqmYOBypRakzBqji5YNSpot3VOFXzzFbAKi+Na3IzsbEKicqMZJRJILlMU9Mhyki1Fi+hYrT3VYh70E2HRTRXVXVwrongWVNXpWLHpROaqm5STgrCsKr3pyD4Ecq5NALCtArRKKAZpylEFAokYUKG2jCyyLSwOfsNtydh5lWlDTNvjNt3HYeDR90DJljA6mj+HZdTylS93/ORSkofxyCw5N5u/wAK3Y6xHIAAep2AQXAud4Xwo1zSGOI3HeA8jdIzm5vk9Zg0WPTYJRir45fuM8QaHWJ8lSVUAvYi66WWIOHg4XHqLrnOI07wbXwswdOjgypoRbSgmw+idPDbfi+iZ4bBc7JydvesiPK+gXhR7oqTSW5oWnPSys6ltgq5seo2GwyStKfAfT6Te7rj9QFrnCdjYG5U2RBubeQ+6jVfCsOVncx4VjTk+wFM3JPgfqmT/wBjPABTpmDTYbnqshfZ7nWwLA+Sq+TccdRS92OBoOHi48VE0jQcfJTq/huEVrbkeSuE3ErU6PFnXnX4+oI0uLhLSRJ2S4N2m3hyPoouYSL2t1R/EtHns/wzJibceUV/YJmGJRLkWF2VLEHFWMdkFinqWLNmto3LMqmskTFRMquokupGJc5UV1W7KSen5IyUF1OU3FUIZHyJEqN026mVjwzgOvvSEtbyA+J36BXKairZrT6XLqJ7MasqqaFzzZrS49AL/wClcQcH05lNv6Wm5PmeXor5jWxt0xtDR4bnxJ5pV8Y+Jx/yk56hvo9TpPgWLHUsr3P29P8A0UcSe60aWjYDYePipNqbAMaL9bc/ErU5J7oxzd4dAmqKlbY80sztJekQMMlk2xt2kn9i1iFv3QBwtyysi7pI65CgQeprGID8TAAR1A2ISXFIhcG26j2ljhalqC4BpGBt1VepyM3w1ttwfAzSUthe26Wms0knfoimpkLQL2AwLC31ScpHPKpIvF8OrnI/yFpQ6Q9B1/RFcwNbYBFjYTk+gUJXZAG/NaOjGEYLgWLSc9VqqHcF+qckZs0eqVqO87watIqS4o0wYJ6BTpTix5hRcLMd6D6pyng7oULXZgbcAdCjhQO48QfoUQqjbIWzdTvhKTT2IbzKgZTcBaQJ0gdUw7j5IVPNlOHfzSs8Nj4/mjQlfDOJrfh//Jj/ACG+2WJHWeixao5WyXsHmchNjujPCPBGtxF8rAspVP3HwVtTQJ0Uq3YoznBSgEXT+vCU4lJ/F0jZtm+u5/T0W3ypLNLdI9t8I06w6dOuZcv9g8kmMc8Jec7k7N2HjyWSvsLk/wCkpWy7NHmfXa/oho6U5JI3Tk3J3vurOkba5GyWo4rAEp0OPTdQuK4CEZ9Psl5W49cIhO5WnDACqiAGsJOyKIwN0OV4bubJaSp1YBVktInU1PIIcbOZQ22G5/X0TLI/xOxbIb9z1KhmyNVJYAbE7Dp4nxWRx6MndahGpxe7ZTjOol3IbeahDCCGk8ygdnYJiQ32yguKsugVSP4Z8wFZRDb+2/ySFYLRDzT8J7gPgoZXzMW14ZnZxHzUmv380D8Hk4I21/DKouIhAdUzj0TMrO9foluDZc8+KPUSd6y2+GAxcwt+rD3uLoUtnDG4WmybjwQuHOybqLg3Knx7gcrasexCxb8UD/SoXKapUhI5M0sqYj0eMy9l/SpypnEcbnnkMDqeQ9TZVlLMl/aCru1rB/cfyH3UnLbGy9Fg8fPGH5/QpI3Euudybk9Scko3MeaAMORdWQkT3cOFQSVzS++4YNvIfql+HxGWQuO10GodpjwcvJJ+drK54ZBoYB4XctdICnvyV7c/6GWNUXS5sNx9EvJOXO0R+p/NGYwMb4n6rIyEYMeaSrK8NNm5K1UTuedLMDqsgoGg5yoZbfSK15e89UWKjd69FaQxi+yKwblSzKxq7YpS02k6nZI+nkpEaiSdkV2RZb04UNC84sA0c/yT3DOEvlsALN3ucNySL357EW6goDadz5AGjU44aOpOy7hsru3ZTBtnWf3jqJbEIy5gNwSTZjAQNTcc9gDPlcFUexTVaiWL5e6b+iQiz2diAFw42AFw+zXd094WaQAXOaN/wdCSef4rwt8dwRcC3fDSBna/8pOME8xkrs2UMJ1PbHEHRh0jpNLS9zWgPeQeyGS3F8fEdsKkraqSSk16cAMY4jV8QkY43vjsxpIFrm7wXWIuQYs0m+/u5ENPqcu/u7aTv7/Y5Cv/AOsD+pNwnu28EpWbW8fujNPd8k++jsr5gOr+GfA/kVupfbV/Z+/zQGSYcPNZVPu0nqwD6hT1KuosjwE4d5oRkvIT4qfBnWY7yJS/Dxck+K0+2K435McfcckwQloXWcmK45CTe6xVIJkdMuPeFiqe1PVYpRvxkFmC3A9EmaghOxZ4XM+S2ppkrxF93X/eFqB6hVHAPmg6h8I63wGKeWcvZfuAccooyD5pZ7lJkh2HNLUelWRJmoIdcoHJuT5BXXYPlZqbiIP7PVzc7TqNvADTf+5vVVLLt/htF3u+Pw/pXqXs1Pw9tBE2pLCYnPd2Wp3aGQuN7MaQXAt0793AvsixgpOm+kJZs8sEVJRbuXNcnKcJ4NLJdtPE6R3MgYH9zjZrfUhD4hSQxYknEsm1osxNPMGU/Gf7RbHxK59ovah87OyjaKemGGwx2bcf/QjB/tGPPdc0GtuAB6rL2rhcjGLx8nmyeVf9Vy/xf7L8yMUgvgH5WRGLbeaxpwVgaNsGCtu+FavhbfsoQg4WACkRlY/cLB8ShQSlmLJA8EtLXA3ABIH4iAQbmxOF2XBZHip96ewutqiOkk4OktkZqPJp2uAQSRkEHhiefRP0HF3RggG40kAFxbpJ6Fvet/TcDnvlAz4t6/wJa3Tyyx8vdV+H89zsmQhsUkcZL3zsLNeO4HagQXGwe6zbgYyCCW2XK8QrC2EQMJawkvLSbkg6S1xJ2JOo2Fha3I5hxDj7nX0DQSXHUXa93Oc0AEBoI7SS5tc68aQLLnK7iBN83J3JuSTz3yh4dM0/MA02mlC5Zfuf5fTghNONXqtOqxnoR9VXSPQZHkBPKFh56rbyMibPmj67x28SPqD91Sulx5IjauwHT74/REeJ+glHXq2pdf7LGgktFJ1A/ModA64a3qc/NAhlxIP5gCPn/lMcGYXOA6HPkFUlwwmHJunCK9mv8h6yXvFKyuU53apDbqoVIsbLMUFyzctz9mRuVinZYrsxtZZytQCE3KlXlNRR4+crNRuR6sC3dNwHEA9RfBSrHZHmj3uz1QNQ+keg+AQ4yS/AUcEt2zmkEG1k48YQJGByHF+51c8Jf2vkd4K/Dj+InJVrrXO0Eul1jzVuyS6xNeYY0k08aXsNyOuo9plBFycLeAcmyyMkjIbGyyMG2eqgKhgG606vbgKzLaHbbBbkOQknVwJ/Ja96PkoS0Nk95Y12Slmz5upNf+ShDb3YKVkkwiufhKyOUKbAvlPVAcpuKBI9bihTLOiMjknLKiyFKvCYhE4+pyv0IKMiJpUXBFRzpRdBKST7j9FecJOmF7ud7LnRjKt+HzAsLSbNuHH7oWaPB0PhuWppPtJjvCYLkvOwygRRdpIeidmrB2XcbZpw3xsow/wmFztzyS9s7ahGoxvhcsa7Bn8pWKq/5ZyxVska/rMBYypOZYsT0T5+wUXxDzTcHweqxYl9T2j1H/z/ANnL6gTslHbrSxCgdPUdIyb4h5q1h5LFik+kXpfml9Syj2KqKrdYsWByfQIrFixWBYZ+4WxutLFRth2bqZWLFTLQI7IMqxYrMyFil5FixFiI5+gLku5YsRonKzGBRKxYiC0ugcvJGoPx+SxYpL5TOL7dfz0L/wDDT+X3Q+NbN/fNYsSa+Y9NP7CX0X6CCxYsRRE//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXFRUXGBYVFRUVFRcVFRUXFhUXFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAADBAIFAAEGB//EAEEQAAIBAgQDBQUFBQcEAwAAAAECAAMRBBIhMQVBUQYTImFxMoGRobEUQsHR8CNSYnLhBxYzNDVzsiSSs8IVgqL/xAAaAQACAwEBAAAAAAAAAAAAAAACAwABBAUG/8QAMhEAAgIBBAADBAkFAQAAAAAAAAECEQMEEiExQVFxEyIyYRQzc4GRscHR8DRCUnKhBf/aAAwDAQACEQMRAD8A5ZhBMIwVgyJnNcQVpkmRI2koJyNWkSISatILcgLLI5YcrIhZLBBhIzTMHlhkpnlBCGaTxync7RN2VLC2ZjyHLzMrsRxd+8yL7J0Nhy5yqsq0i6rVLC9+sVbGm2ltIrVrflFt+o+ktIlljSxmbdhDpUU7GUi0RbQxzCsAd7yMiHmoc7gDzgKiW9JFvET5cpKgbjLzg2Mi+SBkZK00ZdmlYwbwDGHeLtLTFyhREmYswrNqsYhMlQzQSPUqcVw4ljREpgG0pw6pJIsNTSC2CD7qZG+78pkEs51hBkRo04NkhJjlEXYSFodlkcsJAyiwdplpIiaEoW4s1aaCyUy8EtGWjNsqg8zFS4AudhJVKt99rX90oIxmsL8yNPIRFqeVQRqzHfy6QpbNYbWkS3XYay7Bo06G1jBgm5zbDYcpNMQCT0298HUqAWvtJZKEMXXYHe0HQxrKY5iUzkMo02t1kqXCi22httC3KuStsr4JYTHWN298cpYlWa4/KVz4Br2tNUyU0I5weH0Xyuzo6wvY9YAiZgquamD6yTCAdPErgmAYQZWHYQZEtMGaIZJoJJ3klEYmZZILQEsaEQpxyk0li2iwpmHSJU3hlqQWBQ5ebivezIJKFGpwLpH3SL1FlWbccRB0kCsbdIJkk3Gh4lQq4g7Rl0gWWEmZp4wd5qYwkGMszyjRJm0PpFqRuCTyEKDrE9QCJKFthaTX2PW/nGcNw2pVNht6yposdR6Ttuz1HIuu51gZHtXA3DHcytbs2wXQa316yx/u4AL2uCBoeUvKZ52jQp3idzZt9nFHG4XhmWqFI0tcdL31/CW9ThKGxsJbvhvSDAMlsHYvApMbgBbwgXHLlKTivDDlzAbb89J2tagAN5UY+n4WG+hhxYvLBUUPDE/Zj3xjLGEpgAAcporI2bIR2xSFmSCZI2wg2WSypRsTZJJFhyk2iQ9wl4jSpDos2qSYWWmJnAksMpkKaQhSXYrabzTcHaZITaOOYFjJuYMwDViAvB5YxlvJrRgNm5VQmacDVoy17mabDSt4uUEyhqUzANTMv6mFitXDQ1kMmTCUpEDxKg6lWKsFYb2NvcZdJhLsAdriXuCR6isHOdP3TyHl0lyy0KjpXJN2cTgqVraTucFSsot0EqO0GBVGV6einpyaXmGb9mv8o+kXN3yFiW1tE6+JFMagk9BK+t2kCixQ/OBxxqkkIpPnKPieDrZQRqSdR0EkUgpzaL6n2nVvukesZPEwFzGc7wzhTnVtLS741wv/AKW6bix919ZHV0Em6sp8f2jcmyj3mEwGMqVDZiLHS3TzlW3DCaYINnv15Sx4Nw5lYEm4jOEjM5Sb5H6iWJF7+cERJibIlUb5SpACJHLGMszJJQn2ovkmKkNlmgslF+0NqsIEk6dOGCS0DKVkESSZIamkKacuxbEckyOZJuSwRZ1gysdqJAVFkLhOiNNY1TSL0o5TipG2EjYpzfdwgkwsUxliz0onXpS1KQFSnIhcmVS0dZYYmgzBVQ5VPtEb6zYpw1BspB102I/HqIfYuM6BY7hY+zWBOYEHU8hJYA2UA8haTercetwddNYhRut/WTwAfEi+CLaV+LwiseshTxUbNcWlBJA6dAIoAEZVc1Nl8jKuvxBVGZ72HTnB0eP0yhIuL8iLEQl5hNKqFUoqDa0bR1GgFpWDHBjmAI/HzmfaTeFXJmlVGc4ZFi1ONUxG0BlyhVpyTUhJIphMsujJvdgBREkMPGKdIw60pVDFkAUqEL3IhUpyZSVRftAdOmJMpMAk7SgtwPJMk8s3LL3CjrBmnDPNCWUuxYJYxqkkG8PRi5I1xnSC06cYVJlIQpEXtCeQEyQLUo2BMKybRbyCXdTRpxzu5ru4aQqUyi4thT4GUkWbW2xO4mlPWXOMpeD0IMpX0a15UgoytBqdIXhK2ggEeA4rVJAC7n6mBQ9Ohuoy5coAPrKTHYAk3zLYeYlfVw+MNx4QBfna49YjjaNdVN1APXNf4Rij8wJzVcpl+LAAHeRy+IgdPrKvhocBc8t8FYs2ut9vKGlyIk67DUqcdo05KlSjdKnDM0uWQSlDLShqaQwSCyUDp0oUUYdFhAJCmhXu5pqcbyTRSWUJGlNZY6UgmWUEmAtMhsomSF2V2IEXvDVmiwkGxJxmiIukeoLKY0PREPlkaayYgg2aCyWWbk5ZVEMs0RJmL4yuEQueQ+fIS0rdIGSpWV3HuLJSATdmsPQE7yox97XG4+YnK9o8azMWJ1vedWDmRSf3Rf1tG6nGsdJfeVpJ793/AADQxGYXhCxzA9JU4sMhzLsdxC4TiYmbb4o0xlTplziK5A0Eo3xzk2KD/tlmOMKOm0Tfi41JAvLihssnkxbEMdL72lbTxTU6x12t9I++L7xh5bykxbft39R9BNel+Omc3Vcxs7zh+PpuB4gD0Jt89paIR5fGec069v1/WWlOoeU2PRxl06ML1Uo9qzuEMJmnJYbiLrz089ZaUOLg+0PhET0ORdcjYazG++C/RoRWlbh8ajbMPfpHkMyyhKL95UPUoyXDDK0leQWYTJQJJoEwt5rLLaIgVpkNkmSgjm6ryKGDZpKnAZpSDoY7QaJU43SEEJjiPDAxZYVTIFFBLzM0GWi+JxqpubnoN4UYuTpBScYq5Mbzzmu0/EwbU1N9btbbyE6rhXA6laz17pT5UxoW/m6CedcYqXrVNABnYWGwANgB8J0dNp1GVvtHM1Op3LbFceZRcTS7r5kfWdnTYETlMWlxfprLzhOIDJ5iI18HuTH6CapoarUr+kpcZw62onQZoliTvMEW0bskUzmKhYaG81SUseglnispi6C0cmZHDkZwyAbSjqG9V2/iljiK5VfMytQWmrSxd7hOqkqURhT+tfylvRNwJRgy8wy+Eek6mM5eboOIamYNRCoI5GVjCNGaGKZdmI+kSWEBl0mqYKbXKLzDcY5OPePylnRxAYXBvOTUw9GsVN1Nply6KD5jwaserkuJcnVAySmC4erVKXeDWxIYc7iYHnMnBxdM6WOSkrQxeZBZpkXQw5LNDUzFgYxSmfcdf6ON0hGqcWpRlJViZY6DZpvvYJjA4PCVMU/d09FG7cgOp/KOw4Xkfy8zNmzLCvn4Gu/eq/d0VLMen60HnOs4F2YSjapV8dTf+FfTqfOWnB+EU8MmVBr95j7TH8o7N9xgtsOjnPdke6b/AGRBp4X2qwrUcTVQ/vFgeqsbi157nWNhOA7d8NFZM6i7Jrcb5fvD8fdLxz2v1KnG0ebCpJYeuabXGx3EjUpWgrkTROKkqkLhNxdxL7D4nNqNZPEnwyhp1SpuptGxxAkWIv5ic2ejkvh5OnDWxkqlwY6TS0rC5ksFmqsVpqWIFzbWw8zsJ0XBuHUqlNu8Viyvlyi42A5DzPyidjTphucdjmuaOLqKXNwPSQ7k2Y2JC72G3Kelf3aByqAFLch91fzhO0HB6eHwThRqStz/APYflN2KbtRSo5mRt3JnmuDwrNYkWHn+Uu1tBd4BoJiGdKCUTDOTl2FLW15Q6nS4gxqItnNM6+yflDuhdWWAIkswixPno31i/fm9pGylGyxFUSSvKv7TlOu0nUqFfENRJvJsO+7GVzldeQIPvIt+EucXgg+q6N8jOX7DYjMrtyuB8B/WdaWuJztRTmzfguMUVX2Cr+4ZktO8brMmbYjV7U86MNRMFUE3TM5jPZbFtLGkYdXtrEUqaR3hHDnxVTKuiDVm6D85owYXkfyXbONrs8cPq+kH4bgHxTZU8NMe0/4evlPQOHYBKCBKYsB8SepM3gcIlFAiCwHxPmfOEqVLTfxFbY9HD96b3S7NkzJClrrNYqplUmCEVnFMVrlE1g8JcZjEU8T3l7SHhAgkPMu1XZXIxqURoTcp09PKcdWoEGxBB9J7njcNmGs53GdnEvnb4Rv0iaVC3jR43icSVOUIb+cBkqvubD4CescT7NpWpnKoDj2T+B8p5/XwrXKkWsbEc7iMg3kXLFylt8CXAOINRDU0QPmIJJJABAtr19J139nOOY1qwfUsC3vVrG3x+U5/DYEIttupln2FH/WFRsyvb3i/4Reow7FGS8zXoMiyLLB/43+B6Rw6lmZnPM2HpOe/tEqfsVXqfoDOvKimgH6vOF7ev/hr5MfpLwL30ZczqDOFQQiSFGTZrXP6vynRXBifLomXA1JtNtXUixvbqQbS54bw9EUVKtsxtdm1Vb7AAc5e8MoUq4YU2Bym3iXe4Bvbe2490yvV80jQtLJx3068zg1OTQ60zsf3T+UjjBYhpf8AaDg5p5mChbe0v3WHUTmFPtJuLXU+UbDKprgW4U7JYjUSOBxNvA2xmkN1ivORunaLStUeo9m6QTC0yPvFz/8Aq34S4SvOe4PWth6S7WT6kn8ZYUqswTl7zNEVwWnezIn75krcEctWXWQAjTJFa5yi858cbnJRR66WpjCDlLpGmbUD9WnqvZ/DUkoJ3WqkA5ubE7kzyNOp3P0nbdgOKe1h2P8AEn/sPx+M7ktOseJKPgeNlqnnzucvHr5HaVKlheJ0yXbykMTULNlEdoUgotMZpCWtKvjNey2lhWqWE5/iD5nWUyGYFJd0ZU4ZhaW9AeG8pFA6zSox9QsbCWGMqWlXSXMSZGRk3XKk5btPwe4+0IOgqAfJvwM6nGbARihRBUgi4IsR1BG0PHNwlaF5IblR5FxByfCvvj/YwZMbRzHU5h8UaD7U4E4aqQLlW1Q+XT1E6HsphcIuGXFMV7xMzMxaxQgmygX6W5a3mrPKMoCtK5Y58fNfiqO0qMXcD7q/Mzzztxi74rINlS3xM9BpViFNQnw5bj36zyPjlfPiXaL0696y8792hKlz9ZNvaS+2db/GQX2jJulwZtatUZk6kdhjcIr4ZmzkFHvaxsQVGUH56yt4NWaiTUW2YqVF76XI26mF4BxRwoLA7WsRdXAjdKge8NRUfMHDKCAAviBsfp75yJ40pWjoLVZVi9iuvT+dhMWGekjVbliHvfQ5b+G9/fOEelZVfoxHuO368523ExUrX1ALaX3t5eU47ENkzUm+6Sp93MTZp2uVZklF1YiWyt5Ga7jM4VT7RAHqTa0jin8NoTgdMhjVOwN1HUjnCy5FBBQjfJ3dZtQibKAunkLQ9EkSs4VjyvtC950WGx9FtDpOf3yPoB3xmSyyUeomS6ZCky6SnxD5n/hEteI1siHqdBKcLYWmrQYf72H/AOjqXXs195stzkcFxA06quu6kGJY7EgaRWg9zczoSa6OVGPie6cKqo6LUTZgCPfyjRq3JA5TzrsNx4hWw99T4k8v3h+PxncK2VNd5zMkdsqOlCW5WQx2I1tKvFnYwvfgtEsTxFc+T5xQTHMJ4iAJfVPCsruGqqIajeevkN5x3Ev7UKRbJh6Wc/v1DkQeZG9pC0dbWBc25RDivaDB4VbVKq5v3V8b/wDaNvfPOO0nFOI1ioFQvSdVZfs4ZadmNgDpffrKqjwJVvUxFTwK6oxp+Kzl7MGPQDcjrKJwet4bFpWVKtM3RxdTaxt5jkZcAWpzhP7Pa5AqYY2srCpTytmBpVb2s3MXB+M73FnLTloo5jjfD1roabb7qejcp5ljMPZxTYWKt4hz08p6smpjXdBRmsL9bC/xjceXbwKlC3Zy396BSwlKnUBzhbZSCGNtFJv1FpxdSrmqMx3Ovxlp28W+JQ9UBPqCf6SlpnUzThSSteInK7DHf3QlU3W3rAudpImaRA5Q4tWVVRSgCjKDlube+EqcTxDXvXbXewA+noIhMzxaxxXgG8kidaq33qjt6sYlZddPnf3wlWrK6pXs0qTSCjukRx9r2B/XKXoo5VC9ABOXFS7kn94fKdi6/n8Zz9RK3ZpiqVDfCcQB4W2nTYfC021nFroby94ZjD1iUGdB/wDGjrNRb7YesyTguiix9XO/kv1lfjq+QEnebxGMCabmUmNrlzO0qxw2o5zvJNyZFCWNzGjoLQFI2hDiwova55QVwuQ3y+AvD8U1CqlUbgg/nPU8RxQPTDg6EAj3ieNVcaW3AE6TgHEy1AoT7JsPQ7fjMmemrQ/Ha7OsXHWRnJ9JvhvDzUa97G19evSUWIxOqjkuvqZ0fA8Vm9FFy3ITEOReYm691T8iSJ5Th+zRGLxSKAe61pBvZPeG6FuoA+YnpOEqs9TOxvoQPSV/F+B06lQVzUamcmRsrEZ1uSAbephFnGNxmmuJKhrtSSnTU2fK5W/e2Wn94300tvGqVDFVhlRAqE3L11TM2p0amBrplFzr4Ze4Hh6J/g01UdQNT795e4fAkWvqx5dJLIJdjezQpVTWZy9QqFJ0VAosQqoNANJd8exGyCPuy0Kfn+M56kDUfOZZBzAUJDilbWwjw8KyjxlS5MspnEdtBeqjfwkfAj85R0RrOm7YUf2aP0cj4j+k5mipOwJm3C/dRlyLkI0k0ao8LrP7NKofRGt8ZY4HstXqXHgUj2szi49VFyI5ziu2LUG+kc+zwT1p1NXstTp1Vp1q5uys3gUZQFBJ8THy6RLC8Po1CEo0WZyC37WpZQo0ucoG8RPUwXia8eiyyW6uPP8Anocviq3P9Xi9Q3F+cv8AthhBTWiO6WkxD5lW5uVYAG53/rOeonSCp7inDbx5CwNifOdnw83pJfcC3wlJ2fwoaoxI2+pnSJRyafdO3r0mTI74GV4kGWZRfKYYpItTi0Qa+1TInlm5ZRU4pOcWRZZtS5Tf2bS07ThyYVOkU1fMdACeZtIYdwfC0usJTZbhgLdYjj6Cbj2vKLlB9hxmnwVmIoEEyz7Kv4nX+EH4H+sWqai8Y7NJ+2YjYKb+8iZs0aQ+Ls6Gq0awmIcDICbbkRYJreTF+RmIYdRwnEZQ1RtABYAyWH/aXqOdL2VepnMiq2l2JEtsHj1zKPuoL2PM+cgSZ1dKiAQvJRc+vSOoVpg1X0PISpw+LCgMRmd9VS/zPQQOGf7QzFqqEqbFQScp6WhWg1FtWGxFRq7fwx/DUAolXjeLU6FWlRN27w2zCwC6gC/XUyPG+KN3tPC0bK76lz4ii9QDz0MpySHQ02STXHdu/ku2WeNqaeXy95nM43ilFFZs2exAIp2Nib2u2w2PWA7WYB1w4LVnq2qbvpZWW1rDzElROGrUTQpBVdqQY5RrmFjq3UEwXN3RqhpcSiskm5K646Xr49Eu0OOREoPTRWVmDHOoe4AvbXaWWKxIOJwYpWVHVnIUAAi1xe3pOOwTd8KOGa4K1SvmFb8jeXHAnZcQlOpvh0rD3bj6n5RaySb/AANz0WPHDpWlL707Sf5DPAeMt9sq02YlajPluSQGUmwHQEX+AlPxqrUw+NqVKd/usRyKta+byvFDWvTRqaNnpszvUA8IzMCtz+t5eJjFq4mjUsCtag6OvmupB94lRk5KrG5sUcM9+3hxaa9P3SFcXjaeJq4V7XDF0demYag2guP8Kq06nfYYWAUCybrlFvZ5i0HieDNh8TSdAWpmopFrkjUXDfPWXvGamJDjuFVlsb5iBZr6HfpDSu7MGSaxuHsmnFp8Pru6Z512n4i1enSZ/aBdSRsfZN/nKKnOj7Y4QUko07gt+0ZiNizFdvLlOcSbMV7VZyc23e9nVnSdlqPhdupnRaEZTKHsviVy9394Em3US6J8R9YqS95jsCsi1PL5iS7uE3mKLRbRWXFt5QHuZkZtMkEFKsOJkyd85RrE+yZStsZkyLyDMfQn90yx7L71PRfxmpkw5/hNcC/m5kyYmMJJG6G49RMmQQ0Xdb/NL6fhK7st/msR7/8AmZuZKfaN+l+qy+i/NC/bH/MUv5V/5x4/6qv8n/oZuZFv4n6o6UfqI/ZzLDtj/lX9U/5CUPYvd/T8ZqZGS+sRnwf0E/X9hPhv+oD/AHz9TLrFf53Ef7D/APATJkXH9Tfm+JfZ/qE4T/plT0ec/wAA/wASh/uVf/GJkyXHuImfw5v9n+TO6p7GJYjebmTU+zzjPOv7Qfbpfyt9ROUSZMj4dAeBYcD/AMdJ2P3jMmReXs16bxCCFX8ZkyIZpn8LDTJkyWc0/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFhUXGBcYGRcYFRcYFxceFxcYFxcXHRcYHSggGB0lHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAEAwUGBwABAgj/xABOEAACAQIDBAcDBwgGCAcBAAABAgMAEQQSIQUTMUEGIlFhcYGRBzKhFFJicrHB0SMzQoKSosLwFRY0U7LhJDVDRFRzk6MXY4Ozw9LxJf/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACoRAAICAgIBBAAFBQAAAAAAAAABAhESIQMxQQQTMlEFFGFxgSIjM0Lw/9oADAMBAAIRAxEAPwBsca11G1ETxa0hkrmkj0+PkFQ9Kxi9IxpR8EdRRpLlE91XawUYsdKrHVRic0+UCEFaMNOIire5rZROSXINRw1cNhaeRBWjhieAq8SVMjsmGpfBbMaQ2Hhrf7aexh0Rhnv91OEGJXrBCdB3fC1Zui8nQLg9kRxWz2fuI7Tp9tHbQnChFAA+qLacOXfb1oTaMtstuRv6fyKUxD3kDHgEFvrHl/PZUWMJxk6lVjkUG44jitzpY+RNNb7Czi6MGHjr6V1tZ80kQB0LWPgAAfhmpTZfFmGnC3de5t5VS32K66I1tHZ7x3uL879nl9/CmmWp9LiFkAzj04g9oPKolt7Z+7bMvuNqCOHK47uIoNIu9MYpBSLqaLZa2sVOymkNboaQKmnxsPSD4WqsxaEcGac4RQcWHtThAlS2XFBEQokUki0oDWZZpzQsrURIaEkNNDN1lJ5q3VED3LHrSYgo11raR0NApUIw4ei0hruNKWAqaByE1jpVUrAaUU1aMpM2EroJWg1dK1aoxkdCOtyzCMd3Ens7L/zzrtTTR0jldCGXW9tO3uqeRutD41vZufHQC7NITfkF+FBw47rFgthyvz8uXOmw4OxzSaa+7e+vHnwtTlDhC68LLyH399c1+DrjDLo72htpLEjXge/hY/j5UPidrDLcni4PhlYAfA3pV9kg8aQxexr2tU2aeyzY2wjFTzsV8LjrH0vXUO1lVWa+nWPp1B9tBN0e77Vy2xwg4k/dV5E+ywPD7dkFzlJGY6WOgvz+FSCLFriIt0dBp1vmnt15UDCI/dAKtyvwbsuOXjQrlFYGULcHS/4gGqTRk00AGIglTxBtRMcdKYhVZVdb2Nx6a+elKwR1ZLmJiGu1wt6MjhoqKGkyMhrGDrtcPancw0m8VSUpAISkpVo5koaZaKLUwCR6Flal5+NImqSLys5vWV3asp0IlZ412tDb2ulkoMwxWrC9Db2uHmooArPWb2gGxFInF0BQ6ialElpkGLomHEVSZLiPaSVzjJOqWy5ioJAHG4HKgUnoXb+LZcO5T3rafz4U5dEpUznZMSyMJH1A0AbhfiSRz10qQTOMl6i/R92eFGY5mOuv82qTSQ3QD1rmT7O+CWgVHvWNIKxcJ/NzW2g04G1Rs3bQiZR31wrKSATxrHwfjXAiy01ZTSoF2zsglLqbE+7aojFtEktDLxB0PeOYP88j21OMdONLdhOnDWq46QPebNwJ7OXfbxq1t0cXL9kgwUJCEEfpX4W5ffTnhlpq2XijJECe234ju1p0w71aZzuIdGtFRihInohHoM3EJtSUi10Hrh2oEDuKExAouQ0FiGqkPY14o0IZKIxbU2s9bKNjzoP3grVC5qyngP3R7GJpRcTTLv638orKirHtsVSD4yms4mkmmooLHCXF0M+KoNnpN3oodhq4qjcPi6Yg1KxzUqHkSqDFX50643B54THvI+srFcrAk2Gtu8X4VC4cVT5g0EgjJI6jZjbiNBf7D61HI2o2XxQU50wno2N1h0L6FQbg9o0+6mzanS18xEYzAdxI9OVP6YITqyoSVN9ba2LH41H9s9F41UIN5e98wGY8OFtLVit9mzTWkI4HpcWNiPSniXbDKtyWt8Ka9n9HVZgwVhawudOHO1SXa2z0MWQcAB48r1LX0aQyrZGMR0ztpa/nR2y+kiP7y28xcUx4no2qg9ZgT7py3tY/Gsw3R9mACsxYcWym3bxNVSq7M75L2S/Ebsm68GGt76nw5VW+3x+UYcganeFwDKnW4igcTgUknJKqSLFQTYFu/wDCnGVOxTg5JIZ9gZ1iIdWXM2YFgRcWtpcajSnZJq4x28G8LuSA6ZQeAupJAHADgNKBE1aR2rI5IYOh8inopJqYI8RS4xdOjJofRPXLT0zDGVhxdFEYjlLNQE01ItiaGearSCjWIam96Jkeka6YGMzqspS1ZWlE2Clq0WNYRWrVymxl63mrVZQBhatVlZQFmq1W6ygLMBqdbDwzKIc9tcy6200PHs7LeFQYdo5VJtmdIwLZ0Aa/6Pum/E5baX7tKz5FaL45UyU4bEblrqALC1vK5+00NiMaXNzQy4lXvlFhp8b/AIUmsTXrklaR6EJKx22e2bT0Fd46IsDYHt0po2pgsUI1aDLx6wbs8eVRWHHYp2KxsMynmOPde+njVx62EpJPRLIpeRF7UumNt+iLUIMO6qCw6x424UDiJWHKs1d0W2qtjpicXm0oDE7NE6qQbOHJ0F81xYDy++ucLqL8zRGz8QVbiRrw0HoTytVbszUldjb0lw7Iq21A0Jvztf7OdRzeVKNu4+8ZW6g30UG9r8TccrVFWXvrq41o4uSblKxQS12J6GtWVdEZBW/rYmoW9ZmpUFhe+rDJQoet5qpIGxa9YDSWatg1rFmMgnNW64vWVpkjPFmilayUQUrWSsKDMQy1rJRGSsyUUGYNkrClE7uicFs2WY2ijZyOOUEgeJ4KPGiilMbMlayVIl6NTnqqFeT+7jcSMPrFLpH+uwp6wfRvaEVjDgsGrfPnk3r+IAJRfJfOniVbIhgtmTuM8cTso4tkOS3O7EWtW0w8I1lljTsWO8zsfmhUbKp+swqY7R2I+Xfbbx/UHuQxNoT3KqC/6q37TTfgdtbNhcDZmBebEnSNnztlJ5jOxbv0C95FPFD2OnyTLBCUjaNXRpCkn50G6hb6AL1QTltxb1Ww1rAnlTrtXCz7nDtiSpmCushW2Us2VtLADglNZUZTbgdfxrk543I7OF1EC230qihG7YFmbUIp+JPId1R7+tEQOsDKObX1HlbUVrbGzcAWu6sD87etm8dTTf8AJsAOGZz9OQsPQVGmuzpSrpolOF2msq3Rgw+PpyrjFp1SfKmrBYGFSDEgQ/Rvb0vTtPqAtR5slt9HGz9Bc8qeNn4qOHDzSyR7zIt8oF2YC5KWOhv9tR6SX9H1oh8bjEjzYSISSZxoQCAoFybFhfUgca24X/WZc0f7ZzgOiKY6Mz4GdSt/zUoIeM/MZlzetvOo5tXZc2Hk3cyFG7DwI7QRoR4U9/1lyYlH2jgpcNIRYyYeSWAuL8WVW/KW7m9dKlqCDFj8hPHjox/u8zjeoCNTHKQJY2+tcHtHGuzFM4bZVVaNSbbPR20hEEc/MmGSMiVMvGxF1mXX3kJ7+0sJgqHFoMgc1lLmGud3SoeSEaylMlZkooMkcXrd66yVrJTQNoUvWVmSsp5MmkOhStbuiMtL4LBPK4jjUsx4Afaewd9XRwZMBCUfsrYk2IJ3SdUe85OWNe0s508uNSmDY+GwubfFZ50XMyEkQQjkZG569up4BSaNw+CxuLtmVIoh7hlQZVHIx4MGwPYZSTzAHCnR0R435GMbHwsCCV5Ecf30hZMN/wCmi/lMUfq2XvrnD40SgCDAYrGgcGlG5wvisMY3dvrG/fU7wHRbDxvvXDTzc5ZjnbT5oPVQdwFPEhov6NlGiuJtlbamFt7Bg4+UURy2/wCmCf3qD/qJtFuO1X/anP8AHVmboGu92KkogGxfZnCj58VM2Jb5puqfrdYs3hcDuNTPZmycPBfcQRRX06iKpPiQLmjBGBWitAAW3Yc8TW4jrDy4/C9QSGbKxU8G+HKrFkOlV30iwO6luOBOZfDmPL8K5uddSR0+nadxYxY7Yau2rWF9aDh2Phgba37c1H7fmITMptpUVhlLH3jfuFcyg/s2c4xe0SvDYVVYBTelcbiQLheNM0WIYDS47+f+VdQtmp1iUnkwrDQltBqSbeZo/bGy9qLIi4DRFSzHNEC7X61xIPC3iaeeiGyixEpHVX3e89vgPtqa4eMX05aV08EKVvyc/qJ28V4Kqj6axurYTbGF6yn3gliO8pe6n6SGx7KSTYOxZiGw2PbDyfoB5NAeWkoDejVaO2djYfEKFnhSQDhmUEjwbiPKo3J7MdnSA2jeM8mSV9PJiQfSug5htxY2jgQpxBOPwqkNvEzCeE/PVh1l05ksCNCReu5MBhcUrYmJ2mjbV3VQJ4GtxeFAFkQ8TZQ3E3auYthbW2aP9ElXFQA33TCzAdgUnT9RvKhcHjMNipd9hpP6N2gps0b6RSnmpGnE9wPapqhDPjNlNGATZkb3ZEOaN/qsNPLiKCfDVNcRtBRJusdCuDxDab1VzYTE/XAtfxvmXjccKF2vsPJIkaqUaT3FLBopOdo5ja5+i4B7Calw+iGmQ9oKSMVPmKwbIxV1KsOIYWNBvFU0ZuQ3busyUYYq43dOgzEclbojJWUqD3CY9Huhss4Ekp3UZ1GnXYdwPujvPoafZMRFhWODwSgzsCXdjcRgC5eR+xQb2HaBxNOfSvaxhTIr5CVZ3ktfdRpbO4HNySqKObN3Gq7MBeVdlYe6ySneY2W+ZlA6xhz8wlwG+c5tzIqzSPGo9Ei6KwLi5y/WbCYdgVZxrip+c78jlt1RwUZQLWtVgXoTBYVIkWKNQqIAFA5AUuXFJs0NvJag5cUw/QPwrMTiwNC2vYONBSY3sHmT+FIApcdyKkfz3UQsoPbVL9LPaFjI8TLDEY0VGy3ykk6A31Nhx7KjE3TfaLf704+qqL8VUH40sgPSZNhe9q2GHbXlt9sYpmV3mkcqwYZnZtQbjie0V6Fhwso1DEedFgP0oFvwqP7dwayplOnMHsP4Uas044gNUd6dzucFOVjdXVM4ZWIy5CGvp4U2r0CbTtEF6TZ4iUcW007D3g86jcL24VINidI0xyjCYsWdjZJOAZuA+o/fwPwomfojhcKC2LxBIv1VJyAjssLs5+rauf2vo1fJe2MUExkbIgLHsUEn4VNejvRskgyiw+YDqfEjgO4UF0W2rDNPuMLDljVSzPbLfUAAKNdSeJN9DpVh4KAjgAKuPErth7sqpBUEYVcqiwAtoLDwFFwrYUmgueGlBbL6QYadnSKVWdGZWS9mBUlTodSLg6jStTIPnrqHQUnJxray62II+z1pgEq1NW3ei+FxY/LxKWtYSDqyD9YanwNxTgXsa201qAK92nh8Rs+PdYlRjdmnQkj8rCL6eFuR4fVpMhcNEA5bFbJlsUcXaXCnkdNQAefLuPGynAZSCAQRYg6gg8QRzqvNqbIxOzN5iMHaXCG5lwr6hQfeKjmLcxqBxDAVSYhwEygRxY0jEYZ7fJ8ZwIzcEkYWynlfgedMPSHYxw8pTip1Q9o/EcP/ANrvZuOhSBsThQZMC5y4rBv1jh83F0+jz8PDR5RBJEuDlfMSM2DnJusyWuqFuTheqQeIANHZE4WiEyR0JK1qPxSkEggggkEdhHEU04oGoboxjxti29rKCuew1lTmjT2WTrac8ks7iUgGGH5ZiR+imRScJhT3KTnI5lm7qevZ/sA4WJpJdcRN1pGOpF+tlv4kk9p8qgG1cbIcBLNwm2niyB27qK+Ud4zkDwIq2t9Yi/O3rVNmwXLibH7TyqtenHtFMbmDCMC+oeTiE7QO1/gO80j7UumJjZsLh26/CRx+h9EfS+zxqqcHhmd0jTVnZUF+1yFX4kUmwLg9meHYYZ8VKWaSd75mJZisd1W5Op6xc+dSpIweN/CksFgVijjw6e7GqoO/KLX89T50+YbCWpiKA6eYe20MQOHWU+saGmSOO9SDp1iFfH4lwervMo78irGfippj3w5VL7KHnons8S4zDxkXDSpfvCnM3wBr0aziqF9mHW2jDce6JG9EI++rxMp400DFmmFQX2tbYKYPdrpvXCN9WzMR52FSuVi3OoF7W1C4WLvm/gemIqbeDsrrF4l5XLuzMx4sxJJ8zW7qaJwGF3kiRrbM7KgvwuxAB+NQUWn7Gth2w8mIYayPlH1Y9P8AEW9KsgRgDgKG2XhUghjgj92NQo77cT4k3PnS7G9WSB7VxOSKSQ8ER2/ZUn7q8zo5BzAkMNcwJBB7bjUGr/8AaHLu9nYg395Mn/UIX7CaoPJSkNEn6E7enbHYZJp5XQsygO7MAWRlGhPaQPOrb2njjh4ZJQpfIpfLfUhdWAJ52v6V5/hmMbo44oQw8VNx9leh1ZZUvoQwHgQy3t6GiImB9HOluGxo/JPZwLmNtHHlzHeLini/G9ecNv4BsJipIgSDE/VYEg2OqEH6pHxqx/Zx07aZhhMSQZNd3Jwz25H6VvWiwLPSWwrn5Wriw4cNaRL6UmulUBVu0cI+x8bvlXNhJ7qyfo5W96MjtFyV7rjtp52Iine7Kd9Pz+ClvrlP5SMqe0cfJxUv25sxMVE0D8HFgeat+iw7warJ5HXZ2FxY/P4GZ4/FFlZMp7gco8CaLAN3rzM7SrlkV8kmmmcDU+dr+ZrDgL8qcdrSKcfh2jNk2hDr2Z41Dox8iBfvNKqtiQRYjQg8q5ue0dfpoxY1/wBGDsrdPOlZXPkdmC+hk2vhlk2tgcDGLxYSNNOy35Rie85YvWp1tCQiNiOIDEeIuR91RT2YbOeRp9ozavMzKh7s13I7swCjuSpdtNOo3rXoHkHmkzM12Ykk6knmTqTTv0JIOPwoP98h/ZOb7qb9r4bdTyx/NdgPDiPgRSWzZ2jmjkT3kdWA7bEG3geFQKz0ZhtoxKC5cEnkOPpXMe2JJnyRXReZ5+tQ7Yh+VKphuQePd2g+FTzCYIYeOwHWPr40Jti2ef8ApRGFxmJUEkCaQXPPrnWghYaWqVbb6PTTbRxKRxuwDhnYLcRqyqxZvUm3E20vVibL6HYeKGXBnK+/jzLPkUObWuARwCNkdRf9I8bXoZRX/ss/1hHb5kn+GrtzHmL1Tns3wTxbV3Ugs8YlVh3hbemtx3GrsGlUgEUtVf8AtoP+j4cf+ax9EP41YbIDw0NVx7Z0Ihw5+m49VH4UwKleM1xG7owdeKkMPEG4+Irp5aTzGoGX5gppGRJAWAdVYa8mAI+2jotoTryzeVIdBoy2BwzH+5T4C33VJVjAFVQqK59qO2WfBquRgN4pfssAwH7xFVOMUvKr59o6r/R2I0HugDxLqKpraGwECxSQ5nVh1zbQEWvbXv4UmCsa81ze9X30OxO8wMD8fyaA+KAKfitUk+xG3xiDEKP9oQcpsubiAf5FWb7NsT/oAUk9V5F7uOb+KiI2R32vbOIaLFfPvG/ldk+GYelVuJCDcEgixBBsQRzBHA1e/THZnyrBvELZtGUnkV1/yqlNqbEngBaRLLwzBlYa8OBv8KGTdFr+zfpicTH8mmP5dFurf3ijt+kOfbx7amaT6Hurz30a2t8lnin5I3W71Nw3nY38qvlMUkyh4tUYBswN+NNMY5wzg2qutlKGh21hmPuS4hwOzNnIP7SA1O8EljxvVf7NjYbcx0HBZUkJHaDu2B/eI86YHOwn3q7EPMNiV8o1YfctT7b+zC0e9HvINT85e/w4+F6rjou7Q4TA4wIXTCz4lJbcVWW2tvA/EVcWFxUc0aujB43FweRB7vhak42qZUZOMrRX+asqb/1bw/zT+0ayub8u/s7vzcf1EcLGkMSRILIihQO4C1N2JxmZsvLUeulJbSx+UW4GmA47rC3aK6GzzrK89omFy4gSDg6/FNPsK+lBdGtk7zNI46uqryuToTfu4etOO3ScVixBeyxjM3ab2LW77ECn2KNVUKosoFgOypbGlYhsHpHPsoFAgmwrNmOlpEJAB14EaDj6ira2NtePExJPGbq4uL6Hvv2EEH0qrWUHQ6jspz6LbcSNxgBaO/Wibgt3JzR91zqO8kdlNMbQXtzb2DgxU6yFo5iyksqzgE5Cys7QyAumVo1CAAgqTqCa6PTDBOxy4kqBYJcSrkPUAyLuyqIVzhmPWAJsCKjPtT2AYZIp2N2lDBteaZQD6EDyqEbuhrYi4djS4N8amIjxIlxLXVgJA1xutbDIpIBAGYgX+AmkkxqkPZwQu0Ye/eD/ALbVd7Pbjxqo9AbXEetV37Y5SY8P9d/ioqeSC9QL2sYdvk0bfNl/xI34UxFVm9bQVyKUQVBR6J6Bp/8Az8Lr/skp/ao90Gcf0fhf+UtO804GhIqxMj/tExIXBPfXrJYXtmKsHt+78Kr3ZG0UM2FwwQGLMgN+eY3N+0G1r93Kpr7RIM2CkkFju7OBf6QDfAkVTC44BxIrNGy6gjSxvfvpuCktPf6iyaZJjtVEEIdbiXCxmQ9pkzhie03VRUj9mOOjSGaMm4WQXv8ASAW/hdeNVjNjAct5CQgAUX4AXsBp3n1qSez2ZHknQ6ExWXXtOuniF+NThj2wyssTpRtLcqiobFj8KrnE7RGISVNDZiO7Q3X+e6t9LcayJxN7EcdRy/GorsbGiJzm91hY87dlZu3sQniRqbC2vAcKnvso6RiOQ4SQ9V7mO/I8089SPA9oqBucxJHMk+ppOKVkYOujKQwPYQbg+tUUenFGt6r3pW7YLbMONOscoVD3DRHB8AVfyqX9FttrjMMk40JFmX5rDRh6/C1MvtVwW9wMpA60TRyA9gNlY+jH0q/Ahs6FzDDbQxmzpLbuVmZAfdNwWy255o2/cp69m825kxez2JO5kLR3OuRtP/qf16i3TQFocFtaD3gsYc9hXVCfBsyHxFOXSTGbqbC7Zw4vFKqrKPEe6e+1x9ZFpjLU86yo1/XjAf8AED0NZRYUQvG4yRzdjcnlQRl3atK/LqqO1m0HieVqV6VdKoIbxQKSx0uNWbw+aO/jUdieSRhJMdVHUjHux3Fr97W0vWFbElYXh8Oqsz2Gd9Wbn4eH4URnoXfVm+p0aaCs9CYHZS4naUETmysLnv3eZsvnaut7RfR7BGbaOEykjKzMSOQRSx9bW86aB9E76ddEGxkSCNyJIg2QHVXvbqk8QTlFjVGyEZiraMCQQeIINiPWr/6Y4TESYWaOFmDWBFiRmynNluNRmAt51QCK7khYS5AuQoLEDhe1r86tkEm9muHzbSgtyzn0jer4XCdpv5V5y6LdIWwOKSdoSQAy5WuvvC19Ryq3oumkjf7DXuf/ACqckuwbJoMKtQX2xBVwaJzaUW8FViftHrRMvSTE20hI8qhPtFmxM8AlcMoiN+6zkKfup5IVkFMArkxVxi8NPEoZ9Lm1iRcG1xcDhpyNZIZUUM62BPO1+FxpxGnbSHZevs6lJ2dBccA6/suwp4nRX8aivs96bYMYOKBsytGLPdTbMSWJBHEG9Sn+l8HJqsyA95t9tO0AwdIsKWw08V7Zo3HnlNvjaqFLt216SxDYaT3pY79oda8/dItnrDiZolcFVdspB0IJuvDuIoYhrZjTl0YxRjxCkcwR9/3U3FB20ts98kqMeAYX8Doah9ATLpTs9sSgki1ce9Hzb6S9p7qgTAi4IsRxBFiO63KrJ3LKdAfKmzb+zd6pYgB+R5m3I9oqYy8MSY14fYsjYZcRGM6WOe3vIVJBuPm6Xv601W1p+9n/AEgbCz5D7j8VPI/5jTyFTHpd0Rw00TYvCtu2sWMYF0c8Tlt7h+HhWq2VYl7GsZriYO5JFH7rfwVYWLRJc8L6pLHlbwbMpqiuiu1/kuKjmv1b5X70bRvTRv1RV2Y331Knit/jf76cWDIb0MT+17ExP0zGe/iSPHqyD9au/Z24dcTsjFjmxUHkQeuF7wQHHmaC6fu8GIw+0IhZ1IVuwldVv3MuZT5Ub0+jBXD7YwhsTkLefuMf8DeIpgK/+Fr/APEr+x/nWV1/4sj/AIb96sp5IeyugBvHlOrMxI+iL6DyFhelvlRoUtXOaoGF/KjWfKqDzVmaihBwxVSz2ZYwfL0DfpJIq+Ns32Kagwaidk7QaHEwSJcskitYak62K27wSPOgD0plPbpXm5mVMXIinqSNLEDzszERn9oIav7aWZtAWQdoH82rz90s2TuMZNGrXCtcH6wDj0zfCm3RPegmMXOVszAw7wqzMc5RssyEMTrYMQRYiwqWYDZ+IMgjideqgOZ1DF75yCW0KiyW6pFQODHyB0dsrZTJoRbNvVyuCV7R8as3ojh558McTElmVt2FZ751VE1DBRYhsx4fpMOdawlF/uS4sFx3SGbdORcSRZlZcz5QVZL6oylhlzFT434aiM08sTSTlGjIDmPMxJCkSEdeTrXUEWtxI4DWlH2Y5E5kIEkjN1FvYXRo1Goucob4DjanvYGxJRAqSIOAGvcoX7udOckviSk2V9JiAN5JLlkjO5lYGJSWEgsCoLWQgNbieNczumVndI2jKQSEurkg5BHoI2U8Sb68qRTGIl4pAt4wYGV1dkYRyEqwMZBBFgLcNO+u8dj8PIkmU5bxOix5G5SmSPUAqBa3PSjJfYUx52OkECzHJl16y3LqhVSxKk6srKQQDrfS/Ounxh95onRLXJKggAi9yAbgajhmtQ3R+NcVJuw92ljjugDZsyRMj3uLAWN737KOk6OTpaN8NK9uqSknUYdpBBINuIAPdaocIMNguIxIDBChLMGKhVBGhI94uBwF72tY0ybZwAzbx4+uQgys+guzLqUtfQLz/SqU47ZEkUkLBGAUODewygxhV+K8NTrQHTxWAWUoxVuqGvYZlIcAk8NA3pUOMY1SBWREIDcAADO6FbC2i3uNLj1J76aohcgHmQPU0S8z9bWwZixA7Tx140N4VBdFhLiGGmY1pmLcaWwqCSNHA95QfUUocNasKYiHdItmlTvlHVJsx7G4j1APpUn6ETYkRMZetCw6ob3j2kfR8aWnVQjbxQyaFlPDqkMD5Wpxaa/CvU9D6eHMm5Pr/rM+SbjpFZ4mPKzL81iPQkVcXQvam/wcDE9aPNE36tsp81K1VnSOHLiHHbZh5jX43qU+zDFkCaLsySAeF1b7VrnlHCbi/Bsnasm3SjZwxGHkhA6zL1T2MNVPqBUM9nuIOIw8+z5GIABKr2B7gj9V9f1qsXCTodGNqr/b+DGztqx4gG0MpzEjgAxtMPIkP5ipYyK/1Zxf92a3XoLLH2p8KyqpC2ecSa1euCa3eoKOr1l61etGmB1enHoZOi7Rwrye4JVv8Qn72Wmsmh3HlSYj1YwHkaor2kMp2hPlHAop8RGgJ/nsqyehvSQ4nBxu2rKAsluIZRqbdjCx86qPp1I6Y2YspAkYyLfmrcPiCPKm+gGd2tVtezDHxNgsjISVkdTYkHWzDUdxqnRih2Wq3fYyqth8RZhfejTwQa/H4UkNj9tna8eEUOIlVbgaJnbU8ffXT1oDC9KHcsSjqo5vFu1tlZs187EABSTpw9KV9oOHy4e55Mh/7iD+KlOkOFMmEZUUZ8rqDYX1vpfvIA8WrojGOKvyZOyttobGglZ5s2JjEjswleFdyC7Ei4DZ1W+mb4U1Ybo62aQTMYxG4jOVd4zuRcLGtxm0sb3tYjtp8kRd4+J3qZHw263eb8rn3YjEe746OA1+GnbThJiADEGOuHKrNbUpvcPHGHNvmMlj2G1aPji+1QsmN2w9kNBiEliklGUgOk0e6fJIchZWDFWFyBoQeypLszb0keHMrEAl2Q5Yw2Zg7AIEJGZiCvE8FJJ7YZhdkzJHkGKibdtvhCkmZCI/efOOqp7FNideBp5jwEjyTlHN4ZmeNdMoZiGuw7GGVft0vUqKraoGyXNFvV6yqC2osuQgdpCsRx+HjUf6YdGP9DlcMx3dntfTQ66eBNSfo3tJZYgxWx1BB4qV0ZT4fYR30vthmmhkjUZUZGUk87qRXLKNS2Wujz2wArgmugKwikMsHotj1+Sxgg3GYejED4Uecf8ARps6FYtRhspW5V2APcbN9pNOGIa/ICsZPYgbaWMBik6otkb7DQuwcbvIkJ4gZT4jT8K1tyMjDykfN++mTorPbOveD66fdXf+H8jjyV9kTVoN6Z4b83KOd0P+Jf4q69nWICY6MNwkDR+bC6/vBR5067Sh3sDpztdfFdR9lvOoZhpCCGBsQQQeYI1B9a09dx48mX2Pidqi+58ACeNqYuk/RN8TFu7i6nMjdhtbh2Hgae+ju0lxmGSYWuRlcD9Fx7w7u0dxFOWBLK2RjcdvjwrlLKX/AKu7U+a//U/zrKvbNH2r6it0Uh3I80mtisrKkDZrYrKygZy/CkmrKygZZfsq/N4jwi/jps9rf5+H/k/xtWVlHglkGPCpt7Jfz8vgn2tWVlICy+mf5ny/+SOlT+Zb6r/a1ZWVv/qiPLIEf9aD/mD7KYuif9tl+rP99ZWVpy9x/gmHk6b+xYvxj/x1OcHwk+of/ZrKyjk+TGujIP7Qv1G+6nfaXuelZWVzSLXR59l95vE/bSJ41lZUMb6RN+iX9n/Wb7ac35VusrB9ksF29/Z5fq/hUW6Pe83h99ZWV2+i/wAsf3Jl8WS3C1CB77eJ+2tVlej+JfGP8kcHZZ3sf4Ynxi/ip86Xe+PqH/EK1WV5Mvizpj8kRmsrKyvNPUP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXFxgbGBYYGRgaGBgYGBsYGBsdGBUYHigiGCElHhsZIjEhJSkrLi4uGCAzODMtNygtLisBCgoKDg0OGxAQGi0lICU1NS81LS81Ly0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHAQj/xABGEAABAwIDBQUFBAYIBgMAAAABAAIRAyEEEjEFQVFhcQYTIoGRBzKhwfBCsdHhI1JicoKyFBUzNDVzovEkQ1N0krNjw9L/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEAQUG/8QALxEAAgIBAwIDBgYDAAAAAAAAAAECEQMEITESQRMyUSJhcYGx8AVCocHR8XKR4f/aAAwDAQACEQMRAD8A7iiIgCIiAIiIAiIgCIiApqPDQSSAAJJNgAOJXLu1ftep0yaeDaKhFjVf7n8DRd3UwOqwftc7dmo52DoOim0/pHNPvuH2Z/VG8bz0XJnvJUHL0JqPqbdtP2hY6s6TiHt5MOUf6VbwPbPGtMjE1eF3uNuhK1enTWQZg7TP0FEmdE2J7TcXTgPc2oJ/5n/6Fx8ei6T2b7c4bFQ0nuqpgZXEZS7gx4s7kDB5L54YyYMjTXn1VzCVy2Rv4HfF4S2jnSmfViLiHZr2m1qAY2se+oaSf7QfxfaAvY+q7Xh6we1r26OAI6ESrE7K2qLiIi6cCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiIgC1n2kbWOG2fXqNJDiAxpG4vIbM7oBK2ZaF7bGk7MdH/AFaU9JPzhcfB1cnz5Vdmv9Sq8Js97jYWUzBYWXCdFteEw4BACzTydOyNePF1bsgYTsz4QSYKm0+yhPvG3H61WzYSiI1WUoURCp8STNPgwRomO7GtaCaTjfVp39OawR2W9hIcCdOq6zVpBY7F4RrhcJ4kkHhi+DkWJaWO5T5D8F9JezPaZxGz6Tjcslh/h0+ELh+3dkFsiOYXWfYjm/q6+grPjpDfnK145WYcsOk6AiIrSgIiIAiIgCIiAIiIAiIgCIiAIiIAiIgCIiALVPajTzbNrN4ml/7WLa1rvtAZOAr8sh9KjD8lx8HVycU/qk07mI3KdhKZcRCzG2gXUKbxc5RP8v3wsHSZUpgfpGNcb3kj8ljyR3N+KVI2jB4Q2uskKZAhaXT2niaXjztewalpaRfjGi3HA44VqWYOAMKvpouU7KnYQm8qOW5TBWG2viKwcf0rmga5ZPLgY/NUYN7aljVe431FwRyIBPUTqu9Hc54m9GZx2yRVaCAPCJPPVZz2SU8mGrU/1cQ/4tYVB2eS2mbzAN+NlM7B46nT78Pc1ues3KJuTkaLAbtLq/FSMudNm9oiLSZAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAub+0zbFdldlBj4pPpfpGENIcHOcDBIkGAIgrpC5p7Y8O1ooV9D4qZP+tvpDvVQyeUtwpOdM1Z9d3dMpnkfIEwvKmyg+pmcc0iL7hyG5XsUyaVCpwbkcODmeGY5wqsMS8gLLNtSN2KKcaI23Xsp0e7ZvMnSb21iw5BUdmqbu7JBNivO0jWtAbN1kuyHdGg53eAxOYcCOI3KLblyWRSg6RLa0OEOGmut94kSrraFO0MaI4CLlXtnuaRIkgi0gtMdDqpDmsibyuK6o70q7LuCbILeIKgU6ADQPtRDvO91PwkNBf+qCY6An5KzhWOe+nTAmWhrzzIsCd5updiC2k2dC2aD3NOdcjZ9ApK8AherceW3bCIiHAiIgCIiAIiIAiIgCIiAIiIAiIgCIiALX+3OwhjMK6nlBe3xM/eAIgdQSFsCLjVqjqbTtHAsHUc1rqbpBY4+EiDdosQeaunHtotknW/l+JWT9rINPG59z6TOhLS5vwEeq0ytiW1XtadPD8CdfVZZx3N2LJtZTjdsurExSJvbUrJ7DbXYxz24eo58D9mZ4g+9Ck1dnNbWLmaG+UkgDd4YNukrbNnVGZR+gZPEvefhKJRLalz/Bpxx20KbiXUyBfXLYeqy+wNvHEEse2HAA2vO4ws3iqLnSD3YaQQcjRJBiRmMnctRw9elQr4gtGWMoY0aASM0AaaCy5JLgbx7m2YqoGUqo18BAveTbXzPqt17P7JcwNe/gCG8Lbzx5LkeI2qX2JiSN+txK7vS90dArMMe7M2fI+F3K0RFoMgREQBERAEREAREQBERAEREAREQBERAEREAREQHNfbbskvwzMS2SaRyuA0yPIv5GL8yuINxJBkHTRfT3bWmHYGuCJGTToQV8ybRweR5j3QdOAVcqui2N9NozH9fF1OCYPLerWAxzocS477cd6wrjAnp6FWxiyoLGW+L6m9bH7QmiCwncSJ3fXNa0KznFzi7Uk/NQ24jNrrGqzuwdiGsb2p6zvPIclzpUd2dc3PZGT7D4A4nGUy4TSY9hdO+CDl819ELmvZ/CtpOY1jQAI05LpSnildleeHTQREVpQEREAREQBERAEREAREQBERAEREAREQBERAERQNrbZw+Gbmr1WUxH2iJP7rdXHkAgIvbD+51ug/mavnnFslzjzK6Btf2iHHVXUMO3Lhg12d7x46rhcZRPgaLHibaXnWMPgg4+az5nUjZp43E1WrgswMGHcN31K8wWwMRVMMpk+bY+JWzYzZeSo3g5bL2bDqTzDZa4ehUVlaJPCmzB7H7GFuV9cQ7ey2vMj5Latm4ZoJAEAaD8lOxDTF9Tqq8FRAb1VcpNlsIKPBXhLVAt8wONp1mCpScHsOhHKxB4EGxBuFoDXQ8FajtbalbCVjUwtRzBVJsD4S8by02MjjwCv0tSl0epRqovp6vQ7qi45sv2tYhjgMRhxUZ+szwVBzg+F3Tw9V0vs/2mw2MbNCoC4e9Td4ajf3mG/mLc1rninDlGFST4MwiIqyQREQBERAEREAREQBERAEREARFYxmLp0mF9R7WMGrnEAfFAX1D2ptOjh2GpWeGN56k8GgXceQWhdo/aiGy3CUi//wCV4Ib/AA0/ePnHRc0xe16mIqOdWqufUJMF24HQNbo0cgAteLSyk/b2+pVLKlwbb2y9p2IqZmYMdzT0NUwah6bmfE31C5r3mdznPLn1HaucSSerjcnqsgagFO/S/wCsoedrSIA4HX1utywRhwU9bfJMwILIcwwZI9Zt6LaNmOuCtRpVcrp1BW47JaHszArxNdppYpuXZnraTMpxruidtShORw3H71k8A9sXEFU4SnnblKvUqcWIWFGpkh7s1gpIbAhRqJ3KRUKMIhY5shaD2hxWZ2Qe7TP+vefLT1W09q9rik3u2H9K4f8Ag3j1O71WgVX8/Mr2PwzSb+NP5fyefrdRt4cfmVsqHR1wT9D1+9eiq5kPaTLDYgkPbzDhcdQrBqCOQ3w774VqvireEw7TqP8AZezJxqmeYkzofZ32n4hrR3gFdo1B8NQfxCx8wZXQtg9uMHioDandvP2KnhPkdD6zyXztg2uLgW2O+/3hTe8gkFxBmRw4285WOWlhNXVFiyOJ9QouG9m+3GJwwbc1aRiabjMfuO1b005LqXZ3tfhsXAY/JU/6T7O/h3O8vgsWXTzx+9F0cikbAiIs5YEREAREQBERAF45wAk2A1K8qVA0FziAACSToALkkrhfbrto/HPdSpEtwrTZtwapH2n8uDfM30sxYnkdIjKaijdu1HtOo0iaeEAr1BbP/wApp6j3/Igc1y7a3aHE135sQ51T9UaBvJrRYeiiMeLCfkrdSi8HMDPL8t69THgWPePJllNy5L7nixnKeE/eFYqFxMzqYFhP5K5SYTN9QPnCsYmtlI6ek71pVcsgUV2S5jBu+/efrirWPpiQ0GTeb3/JMC+XOffgN1v99ytUCRmJaTPw+vkq3JP5kkqK6dQCx00B6arM7H2g6g6Rdh95vEcuaweGF7CTH1PAa/BTKLMtpmd3DoiiskemStM6pOErjydJ2RjGOIc0yDu4dVnX0pEjcuV7L2g6i8PbcbxuI+t63/A7UFVmemf3m7weYXz+s0UtO7W8fX+T2dPqY5lXDKsXVylo5qP2i223DskQajvcb8zyH5LGbSx4pTUqXcfdYNXH5DmtK2hi31Xl7zJPoBuAG4Luh0bzPql5fqNVqFiXTHn6FOIxbnuJc6XOMlx3lMwBhozO+tTuVOCp55EwBrxPmq6zMoIabauG7oDuJX0Se23B4j5I+Q1HHMbAbtPzV+iz7IAtq7Wen1ZUPdDeDifQaAeiuUvDbXhxIN7D1SKVhlGKZBzDUajiPyUinUkT6FQ3uLiDMETH4K45+Wx9QJE79FKMluzjRcpvGU2jXTdF1dz3sTPEyCLW+5WKbw5pIIuCTytCkMpumHEGwP15qL3BvPYvt9XpkMxDjVpExJvUpxaZ1d0Mnguv0qgcA5pBaRIIuCDoQV81zlcC0eXp8V1f2WbXJp/0d5Fr0+mpb8/VYNVp0l1RXxLsWR3TOgIiLzjSEREARFTUfAJ4An0QHLPa52sOV+Cpfsiq+dZvkHKCJPlxXKKVUx4Qsz24qTiq1/tn1IBt6lYVtPQix1HDp8F6mmjUdjLke+5ebiSQQW/79CshSeCARoQseXjwvOmh6H8CrmAMMH7XqCJC2RbToqaJT6gb5/eYP11WOx26Il8R0vNuSkzckmSDB9PPgo2HYS7vZMAwB8/yUZO9jqJNWm0UgHaiYjWyx76piCBp+cqdWObxN6fl1UKnSkwTquTvsdiSsDlaLyJ3kHyupDWiS5pBkcZKvUjDZdAVnFPbBgNnjHHSDCnwiPLLLpY6NQb/AIqTh8e6m4Opuyu4/Ijf0VoVnEtMSIjTjCHC6kG86bj5JVpqrR1OnZXXqOqOLnEucdSfq3RW6xa1tiMxtrMcSpLKQ1IEnjw3fBWHESXQIHhaBvO9d4jS2OXbtlt1UMILZu2NDu0PNU1cQMoGV2WRJO9X69IZfERmJmel4A4RKsu0bJiZneAINr8rKDtHVQxLGyXAT7um+Z/JW6uaYHvTqOEXHJeUpa0yJaY01Gh+avYamDDjwM9OCcjgppU5yxaBP5fmr1V2YBgbGbQ/kvKgktN4MwBrbSQrlOnmdM6Ddun5qfwOFNBnhcHAZhY9Pr7lb2lYtA4QpFZkGZ94QZ9R8/VRKzs777nRHJcmtqOrkl15gEX0n8VnezOOdSrscCS5r2kXgQbEcN/xWvmpuiTw/Eq/sfERUa62aHg8B4XEdIICZEmmcR9J0qocA4GQVWsL2TxAfQzBwc0ucWkbg7xQeBaSQZ4cws0vAkqdG5O0ERFw6FYx3uEcf9/uV9a7222sMPh6j94puPqI9eCA4F2sxQqYqq5u+o+Bwgka8YCw9HFEATcSR81Viq0nMdxk87yV5iIAe0cnDpxnoR6L1IpxWz4MvJJpvDvBNiT6ax8fvVzBPhmpzZnbtIJ+N/isdhW77aS08CL3CvUK8zxJkDdLtfrkrlPhsi0S65lwgS02I4nSVKfZoHE/RhQqT5cSb5R6nS3RXqj53gGDHIafcrE1uyLKKDHXi07gPxsptHBgXdF9Z+o+CunCmm1pfLczA8A2Ia73SQNJF+ik4DZ9au7LQoueeQmOpGnnCkkkrZxtmNxRJBE8weMLw1BlzDQC3W6zW0NktoD/AIiuwPn+ypxUeDwe6cjPUnktfpgF8A+CZA57go9S7CiXg6VpPUzxP4BXTppv+cq44aDzP11Vjvtbe67TjYwrNlscLArlreII8J4HgVTnDQN8Dwj73Hqo1UkyACG5pg7iVJpMblib77fkqU23RJoY0y0R0Njbkq8Ph313tYxsG/idoAAZc7kOPkLwEq0srQ7NYbuN+K2HsJDu/LqRefAMokEAio7UXiWNPkoZpOK+NEoK2bbsTsLQyQWmsb+ImGnQggBwBG6LnQ6RNe2Ow9EMnJ3evjafDbOZIzEWAb4bEklbZteiaTaXcghzGPa2GgiDlBLnEjJvOad51uonZQB9FlPwlrm1O8AIMnNl8QvoIuP1uSwLq6fE6n939+hdavpo49X2a6i7K4yYs4aFu4jl8wQdFj6tUNuD4jcjdf7luXb2nkp0y1hZBLQSSZBE5hO6R8TxWiV6swAIA0/Mr0YZrh7yhwpkqpWcWkEQ5t+RGo9YViSB4RfWTz+at4cFpz3iwPAhxj4GFar4qPCNdJ4bpVqkqtnK3pF+q8AtLecnXh8bJhakOJ3DceJ1n63qK10D6+vrktg7L4KlUdU75/dtbSc/PchrgWhpIAJdcxA1touPi2DpvsirucK4tlApesOH3ALoi0fsvtGlTxjsJTYxt648IjwsNN9LS2lSsP4eS3heNntzuuTXj8tBERUkwuK+2nGv/pgo6MOGYd9yalTU6atau1Lj/tzw8VaFWPepuZPNjg4fzFW4fOiE/KciBkEcl6x+k3LN36zL6dJPryVyq2IeNNCOWm5VVqEEOGh0I1C9FRfJRZFr0e7ILTLDdrvx+4rxr7kjefSVLDoJYRINy3d+8z8FAMNJA0P1CjNJboknZkME0zJsAsjRcJbmGZstJA1Im49JWLw9eLR+HmpjKkQ4WvfoVZBqiuR2Dbm39jvIrml39TKGtYGuAgaB4dDbdDpvWr7Y7X4iu3u2xQo7qVLwiODnC5+A5LVe8ABduFh8/rkvaDXFusSZPKdw8o9VPHhhH3/Ei5Nll9HM7LunX728yqnU4MDXNbkeHpBUt1IZcotGnIqDTJ729r36gQrJKjiGJZUNzp1+pXuBBv0+al1HAlkH7X3AqnE1MpBgxeY6WXelX1C+xGxFWDDtDaRqqKdQG0i5+PIai29etAcXE6AR+Px+5eNYDMi/HmPqVF3Z0kPaYG+1h9e8pXZXaRw9V5Li1rhlcWzLb2MC5iYI4F29Y8ucwC8g/ZP1dXm0y4yRHLf5u+SjOCnsdT6TtOB2k2pQZTe4vaW5RUplmZzIu0tdIO7xNJNtxlX6m1WN70UpZmu9zg0ZABEtYNT+04gcTZcboYh9ORTqPYd+QkDzAsfO6t7Qx1Z9n1HuH6pccp/g0BWV6Sfqq++3/SxZEZbtNtfvHsptOdlNrvEZMnfE7rNA8zvWGqUGAGRu1+unxVmnUDnkjgPx+SqxGIiBxPwH18VthGMYlLbbIeOqhjCwnUGOWUg+clY3CCfETc/V+CoxZL3kE2aAOepPzUihTGUAD3tTw4Tx6KlPqn7kWVSL2HZ3lhoNTz5cuCk0qpYCA7kR+s2zr8RIB8gqAYg/a0yjSJuPnK8qsuCTc6Dr1V/YgbD2O2p3WNw7xPvtB6OOV3wcfgvopcE9nGx218YxriMrIe6YMubcAek+RXe15uu86Xc0YeGERFhLguT+3mt4MNTET+kcenhH10XWFwr2y1C7aEEyG0mNa3gTLiY/i+Ctwq5kMj2Of7PqZiWHf8vyUijYOpuiB9yht8Dwd036/RWQxIgh4A09QvWw+Xft9DNLkitYJLSZi4PEcuax+N1ncN/FTqokg/ZJt0Ki7SFlDIvYZKPJaaTuU2lU3KFh7C6ra8TCoi63JNWZSk+YadBfqN3yCyjRoPVYLDPIIdBN92/6Ky1LvHkANLREwfeI+S048sfUg8U3wmTQVjsQwRnj7ZB6KZUw9ZslzWhvNw+XQnyKkv2NXltDun986C2mWlriSS6wdFrG/IqfiQyXT4E8OTHXWmrI7IdlcNBp6Qqa79Gx70+SymD7JY053U8NUc1riHe6JixyyRmLSCLTpxVr+qKxpd+aTsned1Fs/en7Pd+9Og01sprJFrlFfSzENpgSNyU/sneTc+V1tdHsDjM7gRTbEZi6oMjXEWbIFzEbt44qI/sfiWNxAqNax2HpmqZJIezxGaZAIdpvjmq/Gh2Z3pZr9YX8xHnMqaG+Q+vRS3bFe3Bsxge0tc91PIQZkAkknTcbc1kNu9lamDw9Cs92YVR4mxGRxbmDTrJib/sldjkj1V6hxdGEAnSw4/gomOOUAi8G/wCa27tV2VOBbSIqGox7T4suWHCDBEncfgVd7Qdi+6dgqYcTVxJAqAgZWkd3IAGoBcdeCPNBxTT5/YdLs0JlRwkgSTNgND03WXuHZnlzrHQXtNxC2LtzsenhMS4USTTfTY9hJmxBbrv8QPqFrtEggDSIid8bwkWpJNMPYwrhkrPa5siZvwKyNKHkDQDQC5P5qLtZvjp2iWnziN/mVcpMIEmZGmW2vPVVY/ZbX36lj3SZlWRTg2JIsIsNwkql7g1wc83cBJ4A65Ryso9Kk4+C9wAJ3Abx8T6KRVwTWtztbI0zE3J5TuCvbfJXsbb2IxXcYqk6ObovZwgC2/KT6LuwK+fezOENR7W6eNveEfZGm/pb/dd/oOloPILzNY05r1NOFOi4iIsZaF849v8Aanf4ytUII8ZYD+zTJaOlh8V9HL597f4IHGV8gDYeZG434cVZiyRhL2jjxymvZNJfJdBUjBS4Q7dcKjFy2Lb969pVSY8GmhBiF6mOUW9nZmlFrkYkADS1j5g/OVcwWzHYrFUcM0w6q7KDwsTPwVvEVDIzjdut98rcPZLsGpX2jTxAH6LD5nOfuLnNc1rRzM5o3AcxPNRKoSoQW6OeFpzQRBBMjeCLEeqrc3ePJbD7Qdmf0faeKYBANQ1G9KoFS3IFxHksEs8d1ZN8leEY7jHJbVsjFGC1wuNZt58uvLlbXcO/IRaTwAUx+0dHgEOjf9X/ACHNVajC5V0r5no6DUxxJuUvkZPbGMzEU26Nhz+UaNI4zFv2QNy6H2Y26x2BGNrNPf4RpotdxbULW03HiQDH/lxXIqbpaG3JcZdxWfw21qrMPVoDK2lVLS/NcywgiI00WuOnSxqK+/X9DBn1MsuRzf8AXobf7QsTjG41govqtphrP6OynmyvkC4DffOaRebALoAdSDSX5BV72nmJ9xuKdRYGyB1b6hcd2f22x1Gl3dKuRTFm5mtJHJkiQOsxuWJO3K5ZUpOqO7upU7x7TBLnwPEXEZpsN+5QlgbSWyr9StT7m99stl4urRwoFN9XIHtrNYMxGIJl7nMGuaZDo0O4OvseyyKOEGHxLRUqswVd9SkXX7ou8LHETEjw8oK5U3tXjs5d/SX5oy58xbIGmYCxid97rHtxtYue7vqmZ9nua5+aoDqHumXDQQbWXXilKKi6OdSTs6js9lLaODoMoYdtGmMe0OY0l4ytZnqGSBq0kaawp2Mx2Fx/9LwlKrUdVqS5jXABjX0QGjuzEwconWRJXKdk1TmpsNapTpl4zFku1sIptPiJs3jdbZiOymGqYl+CZiKj6zGvIBY1tM1GtDgwmTMiZ4QuPEovdv1Q6m1wbni8ZQrVBh8S9rWNo4bEtJIEOYSHgzxbAjgXLD1u1FBzKGNfUY59NmLeyjmAeX1KmWkwtFxDJvFoBWL2V2PwtRtRznveyiWsrVGPpsoh/vVC1zmyW02xLvtF0ACFFfsbDU8Mw5WVq9bvHUKb3VRVdSLi2jko04a5xYMxLiADy0hWNbJt/wBb/wCyXtMwnaTb9LGNwsUhSfTZUY+mwHIGZppBpNzaZ5lYaoyHNHK33LN9vHNZWpNohgp9yxzGil3dRrXkkNrEkl7xAOYx70xe+vvqeEEEgixHC0LVhaUdiuS3JtHY5xFLGPABdh6DXjfH6Vhd/oD1g6LA0Zn266fmupexTCCq7H5xLXU6bCOIea0/ALUdkio1pptd4qbi0iAcwaS0xPRYsupeLK3V/wBGnFhU40YXDU3VNA4z9lgJMbgA3dzWd2R2ee4/pJYNMpBz+TdDbedFsezsZEZNL52gRLj7oAtDyZmNwkqa7GVN7AOMPDi3nli8FZsv4lkaqKr6mjHpIcydl3AYdtKmGMAF8x43cIk7zFp5Lpew6magw8vmVzXZzM7HS4Elpu0zJIjy00XROzTv+HbyLh8Ss2Ntu2TzJVsZRERXGcLh3bT+/Yn9/wCQRFVm4L9P5jT9re6Vj8Bv6BEWz8L5K9fyivHe6u1+w3/D3/57/wCVi8RbddwZMJz724f4sP8At6X81VaPvHUIioxeUlPk9+2eqv1vsdPwRFeuGVvsTsJ7/wDCfvCu7Q+z1CItf5SruMbu6Fe7S3dERJ9zq7FuhoOo+ak0/ePl9wRF2PCOMlbD/vVH/uaH/uprc+z/APjdX/PxP8r16iz5eX/iycf3J/YX/Cq/TF/yMWR2X/YbN/ysH/KvUWLL5pfEthwjmntA/v2I/wAyp/KtZdoP3D95XqLcvKvgvoirudZ9hH9niutL/wCxaZs7+81v82p/O5EXj6zlnoaTlGb2hrR/zD/KpdfSj5fyuRFgfCNv5mTtk+6P3nfe5b/2b/sB1KIrsXJRn4MoiItBlP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUSExMVFhUXGBcXFxgXFx0XHRgYGBgaFxgYFxcYHyggGBolHR0XITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHiUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAECAwUGBwj/xABJEAACAQIDBAYGBQoEBAcAAAABAgADEQQSIQUxQVEGE2FxgfAHIjKRobEUQnKywSMzNFJic4KS0eE1Q6KzU8LS8RUWFzZjZHT/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIDBAX/xAAiEQEBAAICAgIDAQEAAAAAAAAAAQIRITEDEkFRBBMyQiL/2gAMAwEAAhEDEQA/APPCZWxk3Mpd5IiLNKy0TNIlo9AiZC8ctIGRYuJFo2aQvFeT6HKuAj2kUaWkxyJ2pYStxCEUnQS7qQu/fw88ZW9EzkwrtuHiY/0LU5mHh50hVSoT5+UH7fjDdMwpKNxlq2lDX7vPKM1OGysGqt5MU4AtQrqDDsLiQwsdDy/pGCZBB6iwxhKnWItgGSRI4w005X1ccGwZjjuhBpytlIho9q83fE2kiTIloaPcW9ZHLefPnWVBpIQ0VWX7opXeKPRcNx2lDtIu0pepA5Fka8o6yLPDZ2LGMiTpKy0Xm0CSvHlZMbNDRr1MIw1MuwVRqTAxPR/Rbsqnriaw9UaLfx8+Ezzy9Zs8ZusVdgVQl0pk82ta58eG+ZtbZ9UA3UW79w7rT0fpht67dVSACqLHmSd9xwnNUbk6zl/bW88UcgmFJawUkdgvIVMG4NyhGttVO6d/Qw4A0FoqycxpH++/RXxPPlwx3agcdL390nVwvC3Hz+M680V4CBYrDrYkb9Y/3FfHw5erS7N9/JlTi2o4bpp4inrpppAay20m+OW2Vgqg4YX9+nGWFYHgX9Yi+h1miBLZ3hR1UT04SqxykYAmnKalPsmi1OC1VjDNrU/NoOR2Q6sII4gFN5NJCTpiBrNeUUe/aYoHwuNXtlRaRzRiYU5ErxwZWDHBiNO8Qkc0bNGmxMRweP4SF5LPw8YjXUzfQd09Fw+IFKktNeA4CeeYM+uv2l+c7fDU8oBcjsHGYef4aeNQhJa54mH4YRkysb2tLcwBnJXTGhhFBEWLS1x5+Elg7HUnwkK55GLYZr04FihpDsSxtMqubxxNZVUi/wASPH5TOrHhoN+kPxehJ4fKBNusOO/TfOnCufLsNhyc6zYAmOujr3jh2zaBnTGNSUSV5ANGLwCVSB1pc7wao8NgJWgVSGVjrBag1j2NKjJJGYSSxWnpblHM/H+kUrv3+6KM1ceKICOnshHBjBYgIgku4nw8TI3k1Hnl2yqA+U7xxK5NYEJw98wtzEtrY6r7VyReNsxM1WmvN0+8Ly7amznFQjRVJOW+lx2CRbN8qgrB7dOgbTtm19LuuYG433nI19nugBzKewHWdxsfDL9HXMNba99pzeXHGcxv4/a8VkYjpEVFltfz8YJT6RV20A17B5tG2jsV9WBVVJ0BJ/pBcPseoTdaqjmQxvLxmGk5ew87Qr7zY9h+UNpYkVBe1jxEBppWGjDOOzXT5/OH4bCKNQCDymedhzaL4e97iYtUb/O7/vOkq7jMBcGzvlHP4Q8d+yzjPY+uptrcfh/abMJxNKhh19jPV4X4d19wgFPEF1DEWvfd2GdGGft0zz8eptYTIM8rapK2eaM0qrwWrUiepKKlS8IVMzylozHzrEIziaju8+fjH0jARhrEafnjFGyjnFAtIi0kqRIl4UtKCg4SMyWh3VSJoRbMEU7JURCnWUFZUpVWFliLEJZeFIdsNfy9L7Q+Gs6XH7L631mS6j6274zn9iAdfTvuBufdOvxO0M+m5RoBynJ5rdtvFjGW+GSmllABOgnQUsPaio5/h5Ey8NRoEmpUqnrAD1VMAgX/AFnbjysO0zTq4pMqKxCgA3PnsmV6dGMi5KKkWZbiDVejtMnMo17hfx5wSti6B1p1BccUNjCdi7dNurqkFwN4Fr/1keuU5F0gcEaegP4Eymqt94m7WxSsLTIx7gDfJ3dlZIzMTUkdj0czM3AaQXFHfaG7Gpkpb6pNmIIv22vNbNYs+6FwGz6pqNUZCy3IUkaacRffpxgGOyq2VdAPmdT851G2doMq+0AgBGu+x4AbhecRUrXJJ3k3PjrNvBLeaXm1JqJs8oZ4zPKnbz5M6WB3a8qjs15WYAiI62kY6xpTtHtIqfOslaJUNljSeXsHnxigrgTQpwynTldBdIZTWKpRFOQelDAJF1khk16f4wRxNWskDqJKhWhOPn3Sa9/nz8pYEkxTvGc3UsK+VgeVv7w18WVNr6cO6BASdaloW5AXHnjumeUnyqXSO0azl8/AWAPh/wB5ZTxL1/yZ0HHjoPIg1WspXKb8OHLlDsFjlprZKRueNib/AAis1Oly7+WpgthU1KsMx7zp8BLNr4WwzJ7Q1HO/bBqe1MSBpS07bD4MQYqmPrN7dLTvF++wuZlZlvdXxF2D2kzr+0N45RxiC2+DUgMwe1tLESbOJPrN8Fv7RxLad0AoYlqdypN/n3iEVjchRxMr2uACCBy3dk0k50i/YXHY939pu4CBM8TtKrzokk6ZWnZu2Rv2xj58+eEYeMchJtIGIxERggY+eNGAgFl457/PLskFkojSynnFGv3xQS2MPDEEDotC6dSSoQFkXjB4mMRB6gg1RYU7wdjGYcpFLQ0gYrVGCmXKDYjmPJk6CC2ZrgfE93Z2zK2ljM5sNF5D8eccx32Vo3A+rowBsd/ZwIM2aWJUDfOewOI9TtU28D/eHYdA2pJHYJnnGmGVnTfp11I0F/lJO6gHn50mQlJuBNu2XUrEatx3TC4tPaqqrkm/CQZuPCXu4teZmKxObQXtNcWdq/BEvUJ4AebxtqeuMqnUGEbJo2QseP4TK60h2H7R+d5Xhky8nPwWd1iimGa2oT3n4WlVWhrbceAbj3MNDJYjGcpFUdlObdvF99/wnbZj0xDMJG0KKF1Dcba+Gl5RlmVmhETHtxjiM0DILGEe8iT3+fJio4MY4MjeOIA8Ue8eMNOm8vV4FTbslqvIVYPSpHNSBrVjmpFpK927ZSWlZqdkgXj0FhMJVBTGZvWPBe3f63PujU9n1eq+kmmwogqvWFSFJO4A8fCAYisWPG3da/hLxw+z2hjceS2+/ndM86mW1h6xFpXaPIL8C4Da7iLHx3TUoofq6js+XZMSFUKnEX8NJlYqNxcQwsDeQq4sAWOnZxgFKqx0u3vMilI3meoe7RNSuXHISilRLNlHGXg2mvsfCADORqd3dIyy1FTHa16ORABwE5XFvZmPM6e6dZtGpZT3TkSpvnI/uT+Ev8SXdpeW8aPhKP1zw3A8TDOtuJXTUjW2nxnR7C6HYvFKKyUX6reX9VSy8epVyOsNuO4856E4jDtz+DpZqiUgyrchAWbKouQCzHgoh/SPYNXDVTQIDnR1dLlagI0anfeN+7jee5bD6H7POEFKlRWrSf2qlQflC40OZtGpuDcZRa3Kc9j+iONwqGlRWjj8ICSuHxCgulzqKRNrH7LfwybrLgdPE8Rhnpm1RHQkXsylT3gHeJSZ6uKOAxIFNWODrA2bC4wu9BmOn5Oo1motysVPZOS6W9D6uFa5oPTU8SwqUjy6uuLadjgGZ3x/R7cnFLK1FkOVlKnQ6jgdxHMdsqPdIPZWksscd0fsgaGXtPujx/O4RRGsVpajSiE4egzsFVWZmNlVQWLHgABck9kS9JLHJnoPR/0TYysA1cphl5MM9T+RTYeLA9k9A2V0D2bs8CrUXrXuAHr+tduAp0gLFuQALQkRXknRfoJjMeQadPJSO+tUGVP4eNQ/Z5akT1PY/o/2fgyL03xuIXfmtkVt/rDSmnOzlmtuBnV1atSra+alSH1QbVH5XIP5Jewet2rqDoYakoQBVCrwUCwHcJpIl5X6ZTiDg06x1CdYtqNJQEWwNizsMzsN2mQa+zPGxTO8T6g6Z9HBjsLUoXAY6ox3Bhuv2bx4zzXZ/oZrE/lsRTUcqalj72sJpCeSYtL2bnBws92f0PYZfarVjytkA9xU/Oec9LeiT4Kplb1kN8j239hHA7pnkqX7cZaTQ21hlbD6fKAstjaR2fQpanKXpX86TOBk0qa6ybie2zgBnYcp0HW6aTj8PXcbrC8uJrMdWIHPgPdIv41yuzmemxtOrdCBv3Ab78PGZ1LCu7KqU3ZjoqhczM3Yo3nsnQ9FOh9fGm1HRBo9Zwco5gW3n9keNt89n6MdEKGBH5P1qhFmqsPWPMD9ReweJM6vHhPFNdoyy9nG9C/Rbly1sfq2hFAG4B/+Vh7X2Bp3z1JKQG4AafDzyjADtPfLApMVtqdaZmI2Opc1aJNKsdS67nPKqm6ovDXXkRCHr4inq1ClUHHq6hzXHJKgCn+YTTp4ftlnUQ3A5vamA2dj7JiFp9YQQFqA0qw55b2cjuuJhv0FxGEB/wDDsccmt8NibVKTdm71R3AHtnd4rAJUXK6q6nerAMPcZlVaDYb1lzvR+shJdqY/Wpk3LKOKG/7O6xcv0HkXSHZmGY5Mbg32dV3ddSU1cM5vvyj2LnX1D3zkdr9CcRSXrqWXEUOFWg3Wr/EV1T+IDvn0sCrrf1WVgDwIYHUdhE5baPQbDlzWwr1MHW/WoEqp+3T9ki/AWj9pexp83ZbaR56/0k6O1kBONwaYpBqcThLUay/tVKdsr+K27Zwe2ejISl9JwtX6Rhr2LZcr0idy1k+qe3cZFw+Ye3NX7fjFJW7/AHRSOVcLcPRLEKoLMxCgAakk2AHafxn0d6P+h9HZtAMwVsUw/K1N5F/8qmeCjdf61r8pwXon6Ji64+sNxPUKRy0NU/EL3E8p6i9bcYtbVlR2Jx2VSQpY7lUb2YmyqOVyQOyUU8HkbrKhD1rWLncgO9KQ+om7tNhcmRw3rVwfq01zn7TXC+IUP/OIVmz6njL6Zqwk1aNOyiZQXKZspuENnUSsbJLI4j2QerQzC05zbuxKeJptSqLe+7mDwInVmU4jD5tRv+cNh819JOitXBtaot0N8rjc39DbhObxeCuNJ9RY7AJVU06qBlO8ML+TOUxPo3wbG4Dr2BtPjI0b5zZCNPCXUcPxI0nrfpG6B0cPh1xGHBGVgtUE5sytord4bT+KeY9TfiT4fhNcMfkrTAjz/Wd16POhLYxhVqqy4Vb63sarD6i8gOLDlYa7sLof0c+n11w65hb16j20WmCLnlfgO0z6JwGDFFEpUxlpoAqKNwA0EvLLUKcpYbDpTRaaIqIosqqAqgcgBulyjsk7RAzDaiWFUKF9TFh8Nxb3QsxBXljGwidpC0qETPBMQ2svqMBvmdisaAdBeMAaJ6iqKf8Ak1Ser/Yqas1P7LC7AcCGHITSzCZ21Hz4V2sMyMjjsKOrD5QlWO+FC9GnnfTjZAwlQ4/DUwUIK4uiB6tWk2hNtw7e03539CpQbF0wxKMAQyMpB3EHeIS6FeMdTsH/AOz7op1f/png/wBv+aNNNxHLsqiLTVlQAKihFA3AKAABKsYQKJdmCqmrMdAABcknuksc1qDNzYfOYGBH08sWa+HpPlWlwqVFOtSr+soYHKu7TMb6ARIutvovjuvw7VspUVqpsDvyJakCRwuEJt2zdWoCNN0wNg1B1C66B6pPf1jk/G8spbbp58o4xURvU0zEQ1NDBsJbeIWReIJmMILjMclGm1SqwREBZmO4KN5nlvSb0l1VbD4rCsGwJqlKnqWdmQ+sjZj6oKEMoABNteUJA9eEQEpwGJSrTSojBkdQykcVIuDCIgqq0Q3fAq1AjeJpRoBze18AuIoVaDAflEZe429U+BAM8GxHQzH5jfCVwNfZUN7spItPpl8Op3iUtgF5mXjlorHG+j7o0MDhQrfnqlmqm9yP1aYPJRy4kmdPmhS4IDiTCaVNRuEm3ZgaVJmO6w5/2l9VqVBDUquqqouzuQqjvJ0EMEG2kwFJza9lY2tfcCd0QWYbFJUUPTZXVhdWUggjmCN8kxnluF6fdSRhsNRGIzAmkKV7ocxzJVRQb2GoKnXja156FsnHNUoU6lROrdlu6kEWbcbA625dhEdmgNIguIxNtBKq2KvosalhSdYEodiYDiksdZvJhecB29hrKGHDfAMfGVRkNPi5Gmp+sL7t2nGagXS0zWUmjVy3DPTqKCN4OQkW7b/KZv0+thkWpmbFUWCm7AdcoIuWGQBaqgcLA798rQdLSldb2lPYfwi2fiFq0xVQ5kbVSOMjija3jEaqw8j+0Ur6yKMmX0mxQTBWB/LMwWiupLuwNrW5asTwCkzN6MWpVFojcaQFv2qRyk95DD3S3CCo7fTKi6FclFCNadE7zrud7Bm5DKOBmbjavVVKNYHRagB+y4K/9MA6fZlIIHXlUqf6mLf80HfDolS9gM26G4U3apb9YH3opgG230HNWU/GxgHTYGpoIZUxeUEk7tT4azKoVfVhNDDi12O/hJNwPSXbbV6rP1lemKNPrPo7GitOorJr1hDkvmDgdX7QvuB1nO7N2JQFHqVWo1Kuw61GqWKMmqVQi02NGmL26wsxKg6bjPZcNgKSABaVNADcBUUC/PQb+2HrvlbDgugWMrUGpYJaDmgDVy1T1jAAM9rMyrZTYWBH1t40B9DlI3y28mhKK8jI1Klogk7gC5NoK2L9YcjKqjX115WO6D1RpbxEYbCteIiAYaud0MWrAKdoY9aNJ6r3yopZsoubKLmwG8zjK3pGpvh8QyUXzoxpqptqDoKjMNFFyfVuT6p75q9MUxbC1BOspMpWogcITv8A2b2OgNiNCZwm0zT6rqjgcRhwLFwE9Vm9bKyut2QoWYjQi1hykzOS6q5j/wA7+Wh0P6R0MDgaS1jULZsi+qCCrO12pjQ5Ab3v63gRO+w4FdVqJUVkYBlKm4KncQeU8zxmKwb0AlYOKiBSipTdAo552JLVCbEtodLaak930K2wKmHUil1aLZF0sWCgDMVsMvdc98PeW8C4ax26OjhlXcJdKkxCnjJho0GeC4gB6ZWE1TBV3wDBwalSFI9lvgbiD4HDlFNM/wCUzov2Qcyf6GWa+LFmlGJUdZccV17xx91vdL2TKfD1aZNTCsoYnNUpP+aqnncC9Jz+sLg8QZYu2VrXTKadamQKtIkNlJFwQy6Mp4H5G4l4q2BvwvOUGzjSxFHEZjmrF1cfaU1FPhlt4wgdLGlWfzaNADEFwynwnJdIcCerqJ2Ejw1HxE7BlKkGJ6IYa6xbNz/RLH9amY77JfvC5fwhO2qWlx2XHiJl9HMJ9HxWIofV9Son2WzaeBuJubS1W3avzEqJG4Y2UGxNtbQ6g5OpgVD2QJfSqC9hwkm0qZuZdm1g1F5epiNZLLygVBcjiACfG9vkZZmgFt4jrIiSEQJqYPASmtRHIe6EiV1RGAdNADLmSU1TYwqmQRAGomTYSvcZeDpEFYpg8BfujgDcRGU2MevzhoKquE4iU06xU2MJNe1pVjFBXMIwJp1AZRiFsbzGxVVlIYHSa+ExAqp2wIHjTcgzOqVr1svJbnxOnyM0NouFBJ3AEnuE5/ZVfra9Vxe2Wktu2zPbvsyxwC8Yl1I/Wsvv0mRt0m6lAW6sioQN4RdHIH2SZsYtgtieGvuF/nKthYZsxrke3pY/qDdp7z7owB6+j/xqfvimt/5TwP8AwKXujQ3BoZVp6AyDLoCJPAVxUoI44qp+Erpvqw4XvJU57H0urxtJ+FSk6eKMHHwLQzGDd3j5xbfW4puP8uqh8HvTP3r+Er2hVsU7WHyJlRNGM1h2x8JvJgj1Cx/CY9fpZSRsihmA9phb4XOsnLOY9qxxuXTtaTXtC1nH4fphh8txmFtNQAT3C829g7cp4lWZAwymxv8A2kzPG3Up3DKdxsdsQacJt/0pYLD1DSAqVmUkN1QXKCN4zswBI7Lwrop6Q8Ljn6pQ9KofZWoFGe2pyspIJ7DY6S/WpdsGlimcV6QOmJ2alJhRFXrGZbdZky5Re/stf4SXo86YttJKztRWkKbKmjl7krmJ1VbcIauth2waJt05Pph06w2zgBUzVKrC60qdi1r2zMToi3vv32NgZzOzfTVhXcLVoVaSn64YVAO1gADbuBhMaHotZbyFCoVOs5npf02o4FKVTK1ZK18hpkbsoYMCTqDeco3pkobvo1X+ZY5jaHsDLcStH4GcBhfSZT+gtjWoVBTWsKIUFSxJAOYagW1ta/CUUfTDgHHrrXpntphvuM0XrQ9Hcx0e4tOY6P8ATTCY1mWhULFVzMCjrZb21zKOPKQw/S7B1HAo4qixJsEDgMTyCk3Ji1Q6QC4KmCpicpKndK6mMAIa41+Mrx1S4DLuMCRresCPdIbHd0axBsZXSq3k6e2jTujLfkYwfbmoZefyvqJj9HLKK9Q6DrW/0haf/LJbX2jZHqNw1+Mx9k41amFy5rGq7WHEq9R2v/LrGTaoVVxTDJfIN5ItcX4dm+dATplG7dOZ2U+UlgLAkKoH6q6fO/um+lTjJpxdkWKQ6+KTo9gein6LT+zJN7R7/wAIopQgPan5l/4fvCZ21vap/a/Ax4pUTVeP/Nv+7b5GecYf2TFFOD8j+3b+P/Jq07v0afo2I+0fuRRR+D+h5/5eFrw7ptdCP8Qwn7+n+MeKel8OP4ejenn83hPt1PuiXegP9HxX75f9sRRSP8Bx/pe/xSr9ml/tzhqfHzxjRTSdB23Sf/Ctmd1X7wnFpviijib07d//AG8v/wCwzhm9rzyiikxUel+hH87i/wBzT+804jo/+mYf99S++IoofNFeoemb9Cpfv1+48O9F3+Ht+9b7oiik3onXYHfKNob4opIYfSH9Gq/YM5jol/kfuj/txRRUO62d7CdwmvTiihTiMUUUQf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMWFRUWFhcXFxgVFxcXFxcYFRUXFxcXFxcdHSggGBolHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHSUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABGEAABAwIEAwUEBwQHCAMAAAABAAIDBBEFEiExQVFhBhMicYEykaGxBxRCcsHR8CM0UuEVYnOCkqLDFjM1U6Oy0vFDY4P/xAAaAQADAQEBAQAAAAAAAAAAAAABAgMABAUG/8QALBEAAgIBAwIGAAYDAAAAAAAAAAECEQMSITEEQRMyUWFx8BRCgZGhsQUiI//aAAwDAQACEQMRAD8ARNXZchw9bzqFHqymSkrWVaYiY2J0yM2Qd0umworIt2XVCdHHNWD92uHxIsNW+7VvERPSKpI1GWpnLEhZGKWTIVhEFIXD3gbmy1XTiNtzvwVeqa297nTz5rlrUzqU9I3mqmjjfyUYrRyP68lWZq3kojiDuB4JlAWWd+pajiPT5/PZYzEgd2kdRqqwyvIO+iIZW/rz/WyzgjLLL1LK6YEaFBzuSkVB4ceuymhrbkh2vI2/V0NIZSbJ8ynhkQr13EVmhExi1y3mQ7HrvMlKpkocsLlFmWwUtF4HRWiFl1soFCNcOUpC4c1YWSOFi3kWIkqHDXLq6gaV2mOdyCoXo+IpVE5MadyzQt2ErMq6au8qydCtHLWrsNXbWrohHWDSQvYhJY0e4pXjM2VoH8Rt6cf11Sam2USorGLZ5nERi4Gg66+166JZVYDONS3jxXoWFwtYwcOK1O/MTyR1NcGW55XJh8g9ppCikpHt3C9Gq4mncA+aCexp3GyKyMbwYsoJYeIPuWAlXh0bTwFkLUUUR4AI+KL4FcMqok6qZs/VNKrDGhtxYJeKcaplI2mSCqOfMLctkU0pYw5XA7fkmZamFa3JY3ohqEjCIaUjKRJwsK4Dl03VI0XizF0FMyJTMp7pSmsHDV0IUfHSqT6usJLIhb3H61WJl3SxAnrA4wpg1aiYiWMVCbRA1tkZAumQqVsa1iNBERU7ShmqZjkrFsnC04qMvUTpUrY6R29yR9ojrH5kfJN86Fr4wQ0nQNdmJ6AG/qgnuMFU0dowXaAaLioma0WbvvcpBivamK9hew2A/Hqq5V9oLuBaCAOZT0zKlyy11BzDRdx0oAGbdVE448npbZalx59tTwsUtMrtXJZakR7X1QU0I4bJPSYgwuu4289U8jxCO3tB3QarU0ZNdhVXT7BKp36+XJPMTiYRnbY8xfUKv1PTZPEE+LI3PVhhGZrTzA+SrRVrw9n7Nn3R8k5GO7NsiUgjU7GLvIsUoHEaIihWw1G07ErDZkMCNhp13DGj4o0orYO2FadCjxEs7lEk2xZ3P6ssTHuliAupiGMIqNiGYjIkEzpkShq2QtErbSmIGBq7Cy61mWBRjkPIVLI5ByvSMoiTOhcbqQ2nkNxmsBl6EgX+K6zoQUwdO57hcZGNA4E5i4+6w96AyRR6hrjq1hIG7rGyEbGddPgvT63Dg5thp93RKB2fufac73KimBw1O2ys4Lh5lcb3AHLe6Fr4CxxB4FemYbhgiYbAX4lVftBRguva290iyf7FVBONFPUjHcinxwtw2sR5XXL8I0zON/IWVXNMisLjwwCjmOxK5rG6rowhpFvippY762QLU6pisjgrnRxkMYDwa35BJO7ERHdi7+Lt7HpyTHBqt78webltrX313C2qyaxuO7GYC7AXC3dME7sjaZAtKKp3oMw2gaj4gl1M5MYikYrCGNXZYtMUgQsRoiyLERb9XWIahdJTgjINkvLlNDLZaJ05Nw5yxqibJdTNKaySRhK4c5Y4qMuQszRqVyBkKnmehXlAKR1mXQcNDx/C/wDJQuetT1n7LLb2SSD530K1DIlxTGO7aB+iswCojdaSZ5EhJyt2DW9BxJ5pNUxh8ri4+GM5R1dufd+IUlXCHtAaNtQRvfp1QSKNpIsdd2ijBIbsNkjrK+B+rz6Kp1rpAdQfUWPuQ8cJcdUVj9WDxEnSRaKCuAu29xezTzH5rK2tBFuKDjjblABsQhql3vG6XTuVVELrEqaB4zAHZBB2qnaq9hXuHYiA0tdGfavmHlbX4/BF4PCbucdy1vxJ/ABR0jWhpDi3Ods3iAtsAE1oactbqbkm5J3OnLh5eSnE03UaOXLm6mkaoLK8WczZIxExoZiIYUWFMOp5EzglSaN6OhkUmF7jeORTB6WRyKcSqMmZIN7xbQPeLElhoq5cttkURWLpoLDY5UQ2ZKxIpGSrUKMjIuHlQMepSUoyQNK5DuKJlQ7mrIJGXKN40UmQoHFcQEVgLEkjMTwHG35q+PDKdtdic8kY8gNdMfC0XNy52nEuf/6UkGJTEFjInN2Gx0vzPWxUlO0Gdub7N/fckJ9VY/3Yyua0geh9+xUvYqrbKxVRTaZm/H56oKSoc3ce/VWqXtFC4eJpv8Led0rqMVjdo2Ju5Pisd+SCb7lKfsIRVXNx/JSvlvvxCKrfE3MbDkEte5MJvHk6Zqp7KGNE0hu7zICIUW2kYGsaAADlF7ADWylK0VoJKItnLwoSFK8rgBOicpHACmaFgYpmsWbMmY1ERvUYasSlA6ORSiRAMkXfepGjIO739aLEF3q0k0jWLWrHBcNK3mVwHBC7YumsupmQIgNRuRDXKSiw2SV2WKN0juTAXW87beZVvwv6NaqTWVzIRyP7R3+EED/Mkq+Da0uSkvXOResRfR1RQtzTyyP/ALwYD5BozfFU7t99WicyGngEbcheXal78xLRqSTbwnRXwdNLLNRI5OoUVZT5Kltjl34n8lVMbuT6p5KMptzSfFGceRuvbyYVjxOMEcUZuU7YfOwB46AfJMZYWSDXlxSeaXM3MNwNFFFilhpw96+fkrPUSphcmAsJ0ctHDWsBNwTwCFkxpx4IKfEHOvruhTHtI3WS8LoQFcly1ZOkRlO3sTB10TTvy+LiNfdsh42ruZ1mHrYLLkr5YNstWG4kJW32dxCKzqp4RKRsU8grA822dy5+S68vTfnjwcKyvhh5K2wqFpREYXK0C7JmKUBcxhdkJCyMC0VyXLkvQHTMcoXT2Q1ZVWSeatJTUEsH1rqsVa+uO5rFtISwWUkMdyABck2AGpPQDinnZTstNWvOXwRNPjlI0H9Vo+0/p77aX9n7O9l6akaO6jGe2sj7OkP977I6CwQW4MmRR2PL8C+j+rmsXNELOctw70jGvvyq9YX9HlJFYy5pnf1jlZ6MH4kq3ucuAy+6ekc7m2R0sLWNyRMaxo2DQGgegUs8oY0uPBd6BV7tHX6ZQUwoI2UTSlz3aN1A58vPgvMPpPmJrtdP2MdvLM9eg4cdyqd9J2FOPd1LdQLxv6Am7T5XJHqF3dE0siJZeDz+o1CVzm6cObollTFYr2JK0c8WAwvtdp24IOoZrcIqdiELrrwOqweHK1werhyqcafJCVzlUpassuSxtBy1ilYxbaFKxqxaEEjGtUNadAEVlXFRQyZO9y+DNkzaautewG50TRVtJGzOoM5oRYJpRgA3S6JtgAjY17kFSPJkWXDaGScPMTC/uwHPDdXBp+1l3I522WRKb6PcSMFdEb2D7xHX+MeH/MGr13FOzFNWNLi3u5f+ZGACT/Wbs8fHqvL6vHontwx4PY8lYseU0x7s/PSOtKLsJ8MjfYd0v9l3Q/FKC5cheLs4JuVt0BK3ENUzpowgOKHUNxqg5sLHJWWRgQ7wg5FVErX9Fjktp/3YW0usfSe7UdNHTsZDC3LHGLAdeZPE31J4koyGe7rckpo3lwcRqL36ttwPMIjDTclxVobnA2MGu12U7XHlYKOIIXGq3u4zbcjRMYT45iDpJRDGbC/isd0sxk+MMvewCm7Pi7y88FqnpzLO4nYG90EY3Sw2GqnxCla+JzXNDgWkEHYi3FEVE0ebI0guHwRLo/ASeStF0I0fPuKQd1I5tjYE2O5twvz80tkkYePwKvfavCfEXBUp9DY7Lrj/AJCa2asywxe4uqYDa9jbnY2QsFLdwJjL2nQhuh82n+IddFcMMpQ9hYRdQyYI9hJaPco5Otc1TigxhpfJVsTwp0WV2pjkBLHFpbexsWkHZwO492iByr0DCqprYX007DLC9+YZiS6N1rOynkdDwsQear2P4B3NpInd5ATo7iwn7LxwPXiuF1ex3Ysiez5ErGKVrF3EFZOyXZV9W7MbthabOdxcR9lv4nh5oWWlJRVsG7M9nX1T+LYwfE7nza3r14Ij6QnBk7KZgDY4I22aNszxmJPM2y6+fNeqUuGMiyxMAbYCzRwFyL+8FeT/AEii2Izjl3Y/6TF19EryX7HBmyOZW423KPjah4Go2AEmwFzyG69hUuTkkT0jsr2O4te0j0cCvfcPqyHXXiuE4QXPHeaN08PE68TwC9fw512jyXm9blhNrT2KY4tclnkjbKwhzQ9jhZzXagjqF5f2y7FugzTU93w7ubu+Lqf4mddxx5r0WgnIR7mcQvPZZbHz3DzUrq/INV6L2m7BB95aSzH7mI6Ndz7s/ZP9U6eS8mx6hkBLSC1zTYtIsQeRCW9zohTJn42L7rbsTSCgw9xdqmlVQ+FK6OhEn9LDmtqv/VXc1takPpR9JzyOZ7JtsntG/OwPaLcCOR/JKp47pthDwG29V0RR5LC8+Uaqq9pavNoDorBib8vqqdiDrkpZDIY4MLREoWfEu7a5rfaO55BERPyU4PNIYWZ3+tys2AZYNRF5zE2uU6x6ryNbG3c29wXUGWGPvH6WGnUqv00rp5TI7a6YBBjlNdqr/wDQ7SL2VxxdlwgKaK7bImK5RYYGPuExlobI6aAA9UZHT5mo7CspeJ4UCCWtud7Dc25dVSf9p4WXy5nAizmlvhcDuHAnUL2CShNwRuvNKzsJGJZpJ5SyGN0kjy1o0YHE5Rrq43AGinqwxdTdXx7jR1diPsl2WbWyl0OZtKLFxcCHB3GFpPtfe4AjivYqamhgYGDKxrRYNFhYDovNsK7Y95F3VHF3EMZyNBsXEWvc8LnW+/mtPfJJ7TnOPUn5JJbPYpKUpeY9CnxajvmdKwEaXIN7Xva/K4Xknb50dTXySU5zMLYwSNi5rADb3AehT6nwfNuEdQYCxpvbijGTi7TAqRRKbszK4XsbKy9n+yhYcx3sruKVosLImmh1TOcpcsFlciwuzlacOjAAC5lpxbRRQPIKC4APYSj4aoDS6T/WQ1tzwSxuIlxzbA7IBLi543CRdo8CgrW2dZkoFmyAa6bB4+034jggW4qWne4R0FRm8bT5hBoKdHluI4S6lkMcrcrhrvcEcHNPEJXX1DbWXrPbTCPrlKcgvPGC6K25OhLOocB77LwGR7ydSVNrsduGSkhhdvNYgcx6+/8AmsQoufSRlvpxRtFwQJAJ6/NFQS21XUjx2axyvYP2ebx2vZVl5uCUFjdUXTF/P8FvDqjM0jjp81O7Y4xxebLDEzmAfgoqGSKCN087g1jRdxPBar3g1LGH2Wi35frqou30LRh9SNwYnHTow/yTLkAJWdpoqpwyTR5BsGvaffY7o+nxmkiFnTxtNrm7gPiqJT4RAyjkpqySKd1I2KcsjhLJYmGRr5Gib/5WOa5wPUjpZx/RLJzMwiBtFKaN0Bp2Mja6nNSQ9ryBmDxexNxvdMkCxvW9r6Ej97hPk8I/C6hrmB7SHNIuCDcKhQYjI+prKZjYqarYO7om90wNbHG5znRi7dHPaGnMb305Kwdip3Gjizfwt6a5Gg/G6JhpM8ucnNCPDZKy5o23KdYfHYarIDIJdFU649+6uieBkzxMFtzmhzuv/iCtdbxSeGgDS9w3lkzn+7FHGLejVKUIPdrdcffgKbXAmwPstFCzKxttbm+pJPMpkzDLHZOBFlsUS6IHVZ77mFkVKGtK7ZC1rS5zmtaN3OIa0eZOgXeJTtjY57zZrGlzvIcB1OgHUrzKSlqcQklkqnCOGHURh12MbryOp0IO5JB04KmPHr5dIDlR6FBjVG5+UVUJJ0ADtzyBtYpnkFg9pBaeLdQfIjQqhYbg9KGOMd2yxFlnO8LCHuDHX0BGXNrt5KFlG6ktLQ1DnAi7mkeFwOoDozoL/LbY2t+Hi9ov9xfErk9HcRZBujs5RdmMciqos+XI9pyyRg3s7gRxynW3KxHBFVTgdRsoOLi6ZS7QDjUngtzS10umiKxt2g80rkJACTuELll0BU2H1pY7oUAH3aR0W4jcBYBcsOqf2jLbEg+g1K8j+k3C2wVPfRttFOXOFtmvB8bel7hwHU8lfcNqCMxH3R5nc+g+aE7UYWKqmfDbx+3H0kbt79W/3kjLYpVI8d+shbQ31R//AC3/AOE/ktptj0KR9OO3XcrSW3HqVM2MXuigy4VUeOUDtBSOFiN8xv5EfmAhezziXtv6+mqeYs3M57Tx4pNgcZaJCeByj03/AAUq3H7GYm8mTMEViFO6amdHe+dpbr103soKlt7FMIn2YE8RXyVWGgr4w1rZWyBrcl5aeGRz47Ed29/eAvZ0I4BFQdlK+WORrpI2RyQtgyNiYxrI2uLh3YEpykk3JIKtlJFmKOxaq7tltjZMYo9XhlcxrWurC5zWlrXkRGUAi1hIY81rdVPglOYKdsP8GgubkjmbAaqeMue4uOq4sXOsELNQbQNzOCsWbK1KsLgsj6pyKMD1MlgSVDA4ENv1PyQWI1V7NCa00LSG3AOg3AU2ELc1pbbohad9rg+iJNNHba3kT+aXTOym3BFIAk+k1jv6Pmy//Xf7vetv+CRYVRNdSQmN9n3GYlzzJ4soY5lrght33adDqreQx4kp57lkjXNPUPHA8DyPMKvdnKybDHTQzMzsAHdyXsHtJcWa2sOII4E25X6sL/5tLnknPlDGGARxRxvswZjlDMpADC24LSNX31Hx1ulleWwTl7IiwXySMy+B4a7UkAGxLXnlbQ33uya+ZjpAQXukzOzRBj2FoynOB9kguI0N9zuuqqma+nzSvPfREuu14JeX5S3W2rHDLt1F91zYoZY5G5PZ/fuyKzlBx2+/fkruC2p68i7g+XM10dtG2aXDXmC219b3J0V6ldcLzTs1M6sxR028cAd4uBcbi/rdxXosRzOJV+o8y+BIcAGLHQeaVVbtBZMsU10HNJHOOrTuPwXJZQljk2XMMxBta/5oOKTS/VHUJGbM46N19Tt+fot3MOWjKA3kPidz70QTdoI3QTZmu9koumNxZYKM+tf1W+4La57pYkpDWy6ZNURCVw1dMXSiJW8UHjPnqqvRVd+8bwDz8SVae0Rykqk0AsZesjv18VN8jLgbk6IuL2WoCElxtwCOj2amQCxYewNGY7WVbx2szv6I+or7Mt6JBVu8V1pMKDad5aywHn1XcEjdgEM4uNmjRtteqOoY8zg1o8yjQBtQss26X4lV72ReI1IjblG6rdVPdZujAz5buTulxJtwHEAna+l0gp3akkgAb329VR8SpZBUZnZ5O6klOcgu8LWiaO583WVMGLXe4JOj2kTboGoN0t7OZmU8bJHl72sbmLjc3IvYnfTb0TUapJLS6MgOth7xlx7QSoubK0w1LRIy+l9C07XY4atPUJ+1tj5pTi9DxahbTtBoDHZ+rhF6WoErODZrh7fJ7Rr8EnxDCK6cSCfKxzstnNeS4WIB0tqMtxuN+Kb4Zir4nWO3I/grRHO2ZhI/mq/iZieGkIOzeDspIMjNzq48XHmT+tgjWTEXstyPy6bFDF1zbkoydu2OanN1X8WmsWv4jQ+ieVbrAqs4jJmNhxN/wU5DI2JrtJ5u0Ur5TlDfU/h8LIa+zeAWF1ylYRpQOsn1I9V6jCbUr0UYd2H6ssQ3erFqMXZiKhYl5JCiq8QLWkBWJibtRKC8gKoQ/a+87/uKc1klyT5/JJoNR+uKRjdgmnlOZM436BLIrBNKGKxunSFsGxF9rXUczcw0NjZBdra9kYzyPexuYC7N7kHTbZVf/aam4Tz/AOQ/gmjjlLdINnpNNQgtARMtUynbYavt+rrzrDu07HODGVcwJvbws4Au/g5Aod/aOA6irk8yxn/gqeFL0/sFlvmqC4lxO6Dnk0VdqsajblvVv8TA9o7tmrXXsf8Ad9EMcZjyl/1p5s4N0Y3cgkD2OhSPFL7YUzntbVSsfA3QRF7S++12vBAcf4ba26KsY1iEpne57z7Ry2cbZb+EstwtbZWllbT1LXsfI94AzOMnhDQONwBZAxTUXhDTU5WOvdrQ5o0PFwuOa68D0qq3XsKwrCMXqTNR2N5HsyyX1Lo85N5BzDBmB69V6bSThUTDanDoTJPG97njK1z353f70Ei3+E304KSLtJB9mtePONp/00mWGp7L+AJnoj47i6BmlANiq3Q9pw4hkdc0lxsA6EHU6W0AQ7cXc51xU0z78wW39zyueWNoZMeV+Fh+3olNLWvp5A123Pn0KLhxCpYL93C4cLSOHuuwpDi1XM65dDf7sjT+Sm16DIu1SGyszt9UDA2yT9lMa17t4c242cPiDsfendQMpKUDAcTls09dPeqzbmnOKyaD7w+RSh48SR8jrg7Y3TqVsDVY0rDugEY0iYRO1SyldZMGnTp8SiKG98OY+C2hu8P8IWI0Y9FkSzENv1yWLFViorNVx8illF7I8lixIF8Bbd00p/wC2sVICMpX0nfu3/6N+T1Se1ftRf2DPm5YsXb03b9Qsazf8Rpvut/7XJdjH78fvx/JqxYqR5XwKFdsfZi9PkVqm/cXfc/81pYpryL5CjVF/wAPm9fmxOuwv7ofvv8AkFpYtk8svkzK4f3ap/tYv9Vax32IP7IfMrFi6Vz99BTug/fafziSs+y79cAsWIR5/QJ6hiP7mf7L/TKoEe3qsWLzI9ysS44Fw8lbKz2R5BYsUQS5K9imzfvD5FL3e0fL8VixT7jLgyJdt/JYsQCFRcE0K0sTRAdrFixMA//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTEhIVFRUXGBcYGBUXFxcVFRcVFRgXFxcVFhcYHSggGB0mHRYXITEhJikrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUrLS0tLS0tLS8tLS0tLS4tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAcAAEAAQUBAQAAAAAAAAAAAAAABAIDBQYHAQj/xABLEAACAQICBQgGBQkHAgcAAAABAgADEQQhBRIxQVEGBxMiYXGBkTJCobHB8BQjYnLRMzRSc4KSs8LhNUNTY3SishW0CBYkVIPS8f/EABsBAQACAwEBAAAAAAAAAAAAAAACAwEEBQYH/8QAPxEAAgECAwQFCgQEBgMAAAAAAAECAxEEITEFEkFxIjJRsbITM0JhcoGRocHwgrPR4RQjQ/EGNFJiksJTotL/2gAMAwEAAhEDEQA/AO4wBAEAQBAEAQBAEAQBANc5Vct8Fo8Hp6w191JOtVP7I2DtNoBzDS/P09yMLgwBuaq9z+4gt/ugEPR/PtigfrcNRYfZLIfbeYB0Xkvzo4HGWRmNCofVqWC34K97HxtFwbwDeZB7AEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAEA5Pzrc6H0XWwuCYGvsqVRYil9lb5F/d3zAOA4jEM7F3ZmZiSzE3JJ3knbAKQsGT3VmDBdpuRBk6fzd85FTBlaWIY1MNkN7PS7V+z9nyi4O+4PFJVRalNg6MAVYG4IO+SMF6AIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgGic7XLL/p+GCUmtiK1wlrXRR6dTPhkB2nsmGD5oqXYkkkkkkk5kk7SSdpmLkkipKIkWyaiiRRojh8ZG7JKKJQo23CDJben2QLHgHCZTIOJ07mb5WNQrjBVD9TVPUv6lU7AL7m2W424yaZW0d1kjAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAfMPOlpJ8TpDEVCeqjGjTG4JSJU+bax8ZFmUaWJhk0X6ciyaJdHbMGSXrAbfxgFqowMC5RTW5gwzO0cCwC1EvrKQQd4ZTce20mitn0joLSH0jD0q2zXQEjg2xh4EESZAnwBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQCitU1VLHcCfIXgHzRyn0eVoh2tc9ZuOsxufjImTSLZzDJpEzD0JU2XRiZDD4QndI3LVAnjRvnJJkGkQcZgiptaZIZEeg1mF+Mzci0dO5OYQVqYAF7ZnutwO2TKmdR5H0ejodH+i1x3MAffeSRhmdmTAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIBG0kt6NQDaUcf7TAODc5KhMOFG0sufHI5ey8iZRzdMI23b2b5DeRbuSJWHr6uTL5zDsSjdamdw+OWwEqL0eY/Sf6MlFkJRMUazE9Y+4Se8Vbnay7VpA7BYj58ZjeJKHYdN5A4pWCsNwCOMsnGw+MnF3KpRa1Op6HHWqfs/GTRWZSZAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIBZxmISnTepUYKiKWdjkAoFyT2WgHz1zmYxH+jhG1kYNUDbmUWCNn3t5ymTLorM0pGcmykjMWsQLi/WuT2bJFbq1Jveehk9KVqf0dVKDpb5sGBFssragN9uYI275LkRzWphcHUYMM/KYlYnC/EyPSENdsxfxlaZbKOROfErUCrcU1RyylFCsCQNjbdwzvfLbJp2KpQvqeU6FMMBTvkAo7hsvYWv27Yvd5mVFJZGd5GYvosZqHJaikHPLWGan4eMlHUhUWRtPKHlBiMNiaVbpCF6MKtMVClN6iuQ5qDMEBW1sxuGczKViMIKSOxKbi4N+0bJaUnsAQBAEAQBAEAQBAEAQBAEAQBAEAQBAMXynxVKlhK9SuL0lpsWG8i1tUdpNgO+YZlanzbyouaOBY/8At1v3nM+33Su2RbfMxFF75LK3kXRzKNI4crbWPWOxd9uJ4TMWYmkW8DRLNa0jN5E6UczLYnR1VWK6h1htBGzvla9ZdLtRdoIhBD07W2spzHaQbi0kQ5k+lgWCF6NUEAZg7bd0ykYbRG0MXOIQ2zDAHzk4lNTJWNn5wsUvSikoDPZQigEtrg2NvnhFRXYoOyZ1nm7rVH0dhjVBD6lrHI2UkLlu6oEuh1UUVOszY5IgIAgCAIAgCAIAgCAIAgCAIAgCAIAgGs85WjXxOjMVSpemUDAcdRle3iFmHoZjqfP1JxVw/R1LBsNrL3rfIj2yCJyIuhWVczulUjZg8iDpInXLk3vxmV2EZZZjRWKcVAQRfymZQyMQq5mVxmLvcnXZjmSD7JCMPWTlVfYUYXHquRBA33zv3xuMKqrZlzX1blGy4dkk4kVMncjtIKmKGvsO852Iz/pMwViFV3Nz0FyQrY7ELitan0QcqzFm18rlgqgbDrDeN8k4NsjGairHZMNRCKFXYJYlZWKm7u5cmTAgCAIAgCAIAgCAIAgCAIAgCAIAgCACIBxPnc5D0sLSfGYbXHSvq1UvdBr3IKi1xmLWvbORasSvc5Rg6lhINZlsZZFmuxd8/ATOiyIrpPM2PRvJ2sRrfR6hFhayn1tmXAyvMuTijZdGcmcU11+ikDZdrIBfZf8A/JmzMOUe0x3KXkxUwyF6rYcfYFTrnO1lXVz4zFnczvpq1jB4elYHK2WzvvMt3IpWZ5ogXqrYbD8JNIrbPojm6wPRYJScjUZ6hHC5sBl2KJNFRs8yBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAMbyi0UMVhqtBv7xCoPA+qfA2gHyZVpNRqPTcWKsysODKbH3SDRZFlbORqspsVORG3sMjfMkkrG4cn+VmMsqiqDYKBdV2Ls3SDk0bFOlCSNiqaXxVW61MUUU7dSyZgcRmNkxv3JeRjHNL4mpYrDaznra2ebHMntvI3Mt3yRYx1Mg2HD+snDNFFR2ZG0RQOuTY2G3dcX2X4mWooZ9K8kFIwVC9wdQbdueecmiBmIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAfPPPloRKGNWrTFhXXWYf5gNi3jl5TDMnPqB2AyuSLIPgZClSAFw1j2b5XcvtkXcOrkjWc5nLMyWXAgr8WbApRRYHd5+Mqs7l6lFIw9evdr3Pt98vgrI1akrsl6JBLqGJAJ7iRllJED6Q0EfqKfd8TJIgT5kCAIAgCAIAgCAIAgCAIAgCAIAgCAIAgCAIBwr/AMQ35ageCe8n+kizKORrUMGdC99JOWeUxumd5svVMbe3Z8+Eboci4Mex7fZFjG8SKNMnM5+6YbsSUWzLaHX6+nnneQTuy2UbRPpPQI+oTu+MuRrMyEyBAEAQBAEAQBAEAQBAEAQBAEAQBAEAQBAMXp/lFhcEgfFVlpAmwvmzHgqjMwDhfO5pynj1pYikGFMkqpYWYhSQWtuvw222yLJI5wlKRuTUT3oY3huGS0bo9HPWkXNk40kyecGi+iPjIb7ZYqcUXKdKwkbkrEjQwP0hCNzD2ycSFTQ7ngOU9LDv0OIYIpCmnUN9U3FmVjuN877M+zO5M1bG2qwIuDccZIwewBAEAQBAEAQBAEAQBAEAQBAEAQBAIelNKUcMhqYiqlJB6zkDwHE9gmVFvJGG0tTm2nOdYVai0MCrKGZVbE1FtZSwBNOm2+x2ta3AzYjh3a7IeUXAwvOvoF2wfTFmdqTqzFiWYq10OZ4FlPhNaWhajmL6SDYOlh7HWR3N9xDMWy4bZBkorMs4ZZWy+KJjUBI3J2L9HD98XMWJyUcs7yLJpFVXIQZPdCVQtYa2Q/DMScCmosjLcuNLDGVUp0jrKtMDL1nYkEeVh4mSmyFOPadZ0tjamBwYqIQTSWkCrbHsVQg8CeI7NuybdKnvyUTWnKyuS+TvLjCYshA/R1f8KpZST9g7H8M+wSVTDzhroRjVjI2WUFggCAIAgCAIAgCAIAgCAIAgEPSulKOGpmpXqpTQesxtc8ANpPYM5mMXJ2RhtLU5fyk51qj3TAU9RdnT1R1j206R2d7fuzdp4TjIplW7DnuLd6z9JXqPVf8ASdix7hfJR2Cwm5GnGOhQ5NhaQmKlWnSzm7FlHD1q7tTi399uh2LR1VMbgbVbWqUmp1CdgNijMeGec47lCV3HQ6E6FSjPcmullofOuJwxpsUJBKMVJBuCVJBIO8ZbZS2S3WnmXsOsgTSMjSzEiTRLpU5G5lIvqtoMliu15lAhuszcxY2TkFgkfG0ekZVAOv1iBrFM1UX2nW1cuwyUWnLMjKEt17qN950tIWp06A9Y67fdXJQe8kn9mdLC1KcJ9N2fA05YWvVpuVOLaWtvu5zF0BnWOa1bJmzcn+XWMwll1+npf4dUkkD7FT0h43HZNaphoT9T9RZGpKJ1Lkzy3wuNsqt0dX/CqZMfuHY/hnxAnPq4edPN6dpswqxllxNllBYIAgCAIAgCAIAgCAYHTXLLA4Qla2JQONtNT0lTxRLkeMnGnKWiIuSRomm+dx2uuCw9v82v71pKc/EjumzTwjfWKpVlwOfY/G1sS/SYiq1Z9xY5LfcqjJR2ACbdqdFZtIjCnVrO0It8kUhJq1dp0o9XM6lDYWInnUtFfF/L9T02G0/PdNP+KxWIypqy9X6nS/gNn4NXrO79f/yi39L4Dz/ATSrUpRzk7t3+TOlh8VCpeNNWSSfuavoXG0hVamKTOdQG+oMkvxI3ntMqbdrFsYLf37Z9ph9IYPPXHiPjJwnwOftDCXflYe/9f1LuFw1xJ7xyki5RpWa0XM2JjYZhmJFsykEQ53O6LmbFeHwRPdMXM2LeOoBT3RcJFWFYAXtmfcN0rk7s9BgaHkad31n92L1fSFRh1nZgBYBiWAA2AX2CShHfmovi0idWSo05Tglkmylaynbl88Z0KdHFUo79J3XZ+xyauKwGIm6eIilJcfdfVfU9NOWw2rKLtVj9Pkyir/h+nNb1Cpl6818UUNT7Jv0sfQqelbnkcivsjF0tYXXqz/f5G38mucLE4ayVf/UUhuY/WqPsv63c3mJKphYTzjk/kaKqThk/3OnaB5X4TF2FOqA5/un6lTwB9LvW859ShOGqNiNSMtDPSksEAQBAEAQBAOL84nOJUrVGwmBcpSUlaldTZqh3rTYeio2awzO6w27lGhxkUzn2Gh4bCADZ4zNbHUqWSzf3xN7CbIr4jpPox7X9F/YlrSAnMq7QrT0dl6v1PQ4fYuGpZtbz9f6aFVpp9Kb7WdN7tON8kl8EVYimRTRwfTLjZmChHvDAzs4XZ0U71dezgeVx+3JS6OHyXbx93YQWWdZRSVkefcnJ3bzLa7ZwccvE/mkz1WyXf/hH5OSK5zjtlaGYJos1FYHqDI+QmxRg6l1y+bS+pxcfQjTalHjfLkm/oe01cG5HlLquFq085Ry7Tl08RTnozJnEgLn8ZrF+hbVrJcg9bPZnbcIFy39Nf9GwHifZLPITte32lfuMRmpuyfZ82kvmyquobNj4bBNZybPQYfBU6XSebLRMwbTZQRLaLtUjzXeUYlXozX+19xXSpmenwq/lL397PB49/wA98o+FE/R1EPVpobgM6qbbbMQIxNCnVg95DB42thpp05e7g/cWEqbjkfZODidn1KPSWcfvU9hgNs0cTaEujLs4Pk/oVlZq069Sn1HY6NbC0a3nIp9/xLVSgDOlS2rJZVFc4eJ/w9TlnSdvUzYdAct8ZhCAXNakNtOoSTb7D+kp8x2TcjLD4jq5P74HCxGCxOFfSV0dl5P6bpYyiK1I5HIqfSRt6sOM1alN05WZCMlJXRkpWSEAQBANJ52OUJwuE1KZtUrXQHeqW67DtzA/a7JdQhvSu+BCbsrHDtHULC8pxeMfUh72d/ZezFlVqrkicrZ24i/lt94nLPRLWxcgkUVDu853dmYa0fKy1enI8lt/HOU/4eDyXW9b7Pd38iS2eGX7NVv9yL/9Z1PT9x5zgQSJIwUImc4O0Vm/a/6o9XsXPd9h/Kb/AFLy0ROXc9GoorFITBLdRTVQZTdwesvw+JHK2osofi/LkVWnqDwRL0NhlvWuNb6ioRrG4BFiCAd/bNeVGnFpqK1Rcqs2rX4EQoPnZLVTgndJfAg6kmrNs8aauN9H8XhkdDZus/wfmRL4SeWPoFj0Uxwi5mx6VFpOl1480VV/NS5PuLQE9ZhfN++XiZ88x3n3yj4IkjRxtWpHhUT/AJCWz6r5GotSxXTrMO0+8zK0D1PU4Tz20cH5J+Uh1X8me02JtJ4iPkaj6S0fav1RXaco9BY8KTKk07oxKCkrM2PkDpY4XEXv1HsHXiNx7xt852KGI8vDcn1loeS2ps7+Hl5Wn1Xr6jtgN8xIHLPYAgCAcG52NIdNjGXWPUOoq2yCKM2vfaW7NlpbUn5KllqzYwNDy1fPRGtYXaR2A+Gz4Tjs9nS4o8vZkH2mXwZSw90cBe0lz7y/VaxA4/heSpQc5KK4uxjEVVSg5vgm/gUbzPYKKit1aI+azm5ycpavNklW+pYf5in/AGuJh9YxwIsyBTGc4e0uPNeE9XsP0fZl4y+JyD0yKpgyUVd3fN3Bel7vFE5O1P6fOX5cgJ6k8CT9En8t+oqe4Supw5olHjyIMsInjTSxvo/i8Mjp7N1n+D8yJIE8qfQT2DJ42yWUuvHmu8pxHmpcn3FpZ6vC+b98vEz55jvPe6PgiXsIbOn3l94l8tGaiKaubE9p98ytAW2ysZp7QV8O0uNu86ex5buLjJ6K7+TJBE8ofQy0jXPZBhF6g+q4PbJU5uMk0U16SqQcXxO4cksZ0mHXO5XLw3TquW90lxPDVqLpTcHwM1MFYgFnGVtSm7/oqx8heZSu7GGfMmk6/S4l2PrMx95lONneVuw7ux6VoX7QW1WQ7j1T4+j7RbxmjwO7fdkn7iuvlqtwZb+DD4E+cRJVFo/Wi5jjqsh7SPOwl2Edq0X613mvtNXw816n3FLZNPWvU+d8CvWyI4kHyv8AjMGCmDIpjOcLaXH2l4T1mw11fZfj/YkWnIPSo9gyUVd03sF6Xu8UTk7U/p85eCR4J6g8CidovbV/U1PdIVOHNEokKTInjTSxmkff4ZHT2brP8P5kSRPLH0EuUEDMqk2BYAngCQCYSu7EZycYtrgmbhpjk7hadCqU6Rnpq3W1hYkFfSW1gRdhYW9EmdB4aNNb3YeZo7Ur16vk3a0stPUYHRXJqrVUO7LRVhdDUuDUva2qBnY3AvsuQBc5TsU66pxcbXd5eJnCxMfKTUk8t2HhS7yFpLR9TDVOjqrqsLHiCDmCDvHxBG6bdOpGpG8TSlFxdmQ5YRKXmripWjHmvld/Q38BHelNf7X82l9S+xy8J5E+kFNJbD5+dsGEetAZ07m2xt+oTtB8xN6hLKx5ra9D+ojf5sHBEAwHL3FdFo7FPstSYeLdUe+ZjJRabMqDn0VxPm4VLPrcGue69j7DNKq96TfaenwsfJwj6rfuZOtTBup37/cRNdM6kop3RaLlldT6RU/vpt+B7jM6Mjdyi09fqi5j31qYcdje4mXYbKqrlG0elhm16u8pqNmDPWPU+eLQrvBg6Hyb0fo58MqYg0OkNiW6b6zWf0RlbVsCo1cwDe+YM51Wdbfbje3I2YKG7Z2MRyj5F1sK+tTD1aJ2MBdl7HA/5AW7pzcXN1I3tne/yS+h6LY9WnCW7J2tGyu9ek39URqR+iIS1JTXqDIVFv0NIi2tqH12ztfYAD60010Fpn3HYkv4qeUuguz0nz7F83yMOBKjfKKu6b2C9L8PiRydqehzl+XI9AnqDwKJmjttT9VU/wCMjPhzRJEOTMHjTSxi6vN+GR0dnaz5LxxJE8ofQipH1SGG0EEZXzBvs390ynbMxKKknF8TpK1mp/XVEUiqL4ilroejYgDXpgX6rDVJvcbL8Z3Kd6tNKWT4es8DWUadV+Td1fk/7kHTmA1GNaoL0aa0ytOzejTXURCL5Auyi9/RFTMzYpTut2Orvnz/AG+diiatmzRsbjKlZtaoxY2sNwUfoqoyUdgnQhCMFaKNNyb1I8mYKW2iaG0Xalfn3NfU6+xY72Ity8UX9C8TkPnZPLHvylm2D5v8/CAVEwYZuXN3iNWrT7WI88vjNig8zk7UhejLlc63N48kIBp/O4T/ANJxNuFPy6VLyur1TawSvWXv7jgOWsCdjgeTC3vmnwPTJJSV9H9SZh2JWx9JOqe7cfnhIPW5tU23HdeqPGbNWG/L/wCRdg8QSPEQYfCS+3+57h2HROnC6j7pBK+y0tpedjzRr13fC1F2J910R6Na6rxnp4T3opng6kN2bXrJSGWoqZeWZImwcleUVTD10LVahojJ01mZQhyuFJsLZHLhODjJ7s0/90voj0+Dwar0ZRS6W5C3PpP56f2PeV6WxlYjYzB1INwyuoYMD23vObV67O/s53w0F2ZPmmYeVm6UVd03sF6X4fEjkbW9D8f5cj0CepPBEjBnN/1b+6RkZRGtJGDxpqYr0Pa+jOhgNansf9okgTyZ9EMryXwq1cVSR011LEsudrAHNrbr2vLKSTmkzT2hUdPDylF2fA3vE6JZqtMIlFsNa1wdWrQNj+TYMLgHMDO2YyE6MJ1KcrR6p5WTo1KbdS/lO3g+frLmMxFZ6VhSauWVqeqhUKpKZFg2QW5YFr3sF23MupOnJ3TtY1K1OpT6MlmaXys5OLg1pFajMWBDBrekoUkrbd1thvs2mdHD4h1W7o0qtNQSNbM2yopPpDuJnK2tK1JL7+8jv/4ehfEN9i++9FZfqj5yHz7Z5w9tfIppDedp+fnuEBHjPf3/AIQYZneS+M1MRQHGqntYD4Sym7NczUxsb0p+y+47tOkeIEA1fnNAOjcQDsPRjzqIJXW6jN3Z6viIrn3M+eEplqVjtpkqe6+R8JpXsz027vU/Wi/SqmwqjNl6tRf0hx8ffMPsLIybW+tVky5VVbFhnTfad6sNjHu3/wBJhdnEsla28uq/kQqeIKu4baRnwuL5jvBvLFlZo0285QlxRGw9XOegoTvFHjMRG03cy1FpuI1GSVMmQZconbPM413a/E//AGf6HutkKylygvhBfqTcVi3qkNUbWIVUBy9FBZRl2TSbb1OrTpRpq0VbO/xLMiWFuqdk38F6XOPiRx9rehyn4JHoM9QeDLtBrE/dYeyYZks3mTB4xmritIe0vqb2B1qexL6F9Z5I+irQm6Lxxo1A+rrCzKyE2DIwKspPcfYJOnNwkpIpxNBV6bg/7G04flTQLehUo5encVM87hgADbz+7NtYtN9JHBqbFqqN4tN9mnf+3MlNyjohfzpRcf3SVNa+85ovZ6w8ZvUqLn1F9vNfI41ebg/5l75r4Oz7eJheVWk6dSmqJW6c6+sGKsDTXVClbuLksczmbaom9haU4ybkrfU069SMklE1RjNw1i0HzJ8JwtrTvJQ+/vU9Z/hylaMqj5fr3ItU6us1uGXlt9vuE47R6OMruxfqvlbz7uHjsmC1s8JzA3nM9nAe4TA4kvRlS1dG/RdD5MD8JJZNFVVb0Zcn3H0ZOoeCEA1XnNpltHVlG06nsYN8JCorxNrB1FTrRkzgdV+jqip6lQDW8fn3znrNWPXdSanwZ7Vw7I2vTzG8biDuPwMJ3yZKVNxe/Aqo5XanmD6dM5G/wPvmH2MlH/VD3ow2lAAwZch7vskbpdT0szm4pKMlJEajUznVwcujY87tCK8pvLiZrCvOnFnKkiahlqK2XqG+eYxmseT8Uj3uy9KntLwRL00jqnsAt1t03sF6X4fEjkbVWdP8fgkegz1J4Mq1oBRBgpYzWxOkfaRu4LWp7Eu4kpPJPU+ix0RXMEhALS/jPT4Dq+6PhPB7W6y9qp42CZ0DkFiqZhhEaq9lJ8Z5XGT36zPe7Np+SwkVxeZZwh1fnad5PYJqvM3qa3SXTNhrNc/ojeSd9vhuEiy9K2bKqSnf6ROffwHYB7Zgz6i/huPb7tkMRWR9IgzrHz49gGucuqpWglt9VQcr9WzXy7phmU7O5wzSWBt0lL9BmA7ger/tInNl0ZHuMNJVsNF+ruIWj65C2bdlfh39kxJEqM7KzJVWgD1hkeI+O4jvmEy2UE80a9phDfcfjL6djl4xS1MVhWzM38PLdlbtPP4mG9BvsfyM3g6mU60GcmSMlTaXplLL9A7Z5rGLOPv8TPdbKeU+cX8YRJAM0TrlQgFFUbJuYR9fl3SRy9pK7p+018YyQVZ6o8AekQDzVmQUOs1sTpH2o95uYLWp7E+4kIZ5KWrPosM4ouiYJCAWB+M9PgOr7o+E8HtZ9Ne1U8bC5kd832cgi1WvKK9Tcg2bGGpOpUjBcWQMTUDME3DM7t9lHv8AKeUu9T32V1Ds+0TKS7rfO4CQZtxRIK263rbB2X4fEyJN5ZnlPYW3Dqjt4nxPumTC4sm4CjdkTiyjzIHxmNRUe5Tb7EfQuFa6L3W8RkZ1Y6HgJ9Zl2ZImi86uM1KdBdYi71Gyt/d02PrZWuwgHN9PAfSGI3hT45qf+M0MQulc9ZsOd6Dj2M19l1KhO45GVao32t2dyQUK5rmp9XePu/hMFtms1oYLTLC1x89hl1M5uMatcw2FTbNjetJM5NKkpQklxMlg32/Oz+l52KcjgTjZ2Mthnm1FlEkZTROCes+qlshdmY6qKL21mbcPfOLjaTbsuDfweffc9Ns7Gwow356OK+MW13WNzocg+sqvikDMGI1ELjq6txe4v6R8pprDdrNiW3c+jD4v9iFpTko1M1BRqdN0QDONUo6qwJDBSTrDI7Du2SM6DWaNjDbYp1Zbs1ut/D9jW6u6Twvp+yy7aLyp+3E3nkLh8JiSKLYO7IhZ6xqMdY3A9EWtt47p2sQ6tNb29rwPEwUJO1ifyuOCwDU1XA0ajOGY6xI1QCANxvc3/dkcOqla95tWFRxh6KNf/wDNVHdo3Cfu3+E2P4WX/kf37yvyq/0ohaQ0j9MNOjRwlCk7OADTGqWLZBSeGcprUvJpTcm7Nd5tYSpvOcbWvCXcdC0PoBqOANNqKNiNSrkQjHXbW1RrHLLq7905ShaJ0auJVTEKTbUej8Fa5q+C5KUSqiq2LSociFw7vTDXsLOFII2Z3tKFRXG9zrVNqVFJumoOPC7z+F18LG06Y0PgqZphqVNNpP1DuGFtWzNTtbM3z22l0oQ7PkcqjisS07Tf/K3ecv5QtSGIqiiAKdwF1QwGSjWsGzHWvtnawKag2+3uSX0OXjptuCeu7f3ybl9THB9p4A+3L4zbkzSSIy7Zydp1LQUe09BsGgpVXN8DD4okV2A3gNx25X9nzece3RuegcmqziuxMzOFqHvOzy2/1lLOhBlTsTYA5m4H8zfAQZbuSWUAKo+QJgnbRGU5OAHF0b7A6n903+EzDrI18dLdw82uxndcDUup7GP4/GdVHg075kmDJzznPwYq1cPrOAtO7FT6+sy5D90DxmGwc20ziL4opvCC/wB65JHgSZp4jU9LsO8Yv1vuIVZetfiJro7k1meIbdU7Ds7+EMRyyMRptcr/AD4yymaGMWVzB4cWEvm7nLw0XGPvJNEkG86mH6iOHi7eVlzMlh6ljbdu7jmJuQkackdT5DaM1sPTpsARXZq7jjTpai00Pe5Dd1xvmhipKVTkXU7qJd0ppbEVa5bD1aFKlQNXrVSS7il1K9QKASaYZtTLMlfGa9yyxteh8b06k2VMRTC6wB1kZXGsjI3r0XGYO7PeIBzrlnoynSKVaB+qq63Vvc06iGz0z3HdusRuldOmozlbjGXcduGMlXoRU9Yzh71ext/NPg7UKtYjN3CD7tMbfNiP2Zv4ue9ur1d5wIQ3ZS5sg8q9PYNsS6VsH0zU/q+k6Zk9HMgKBYWJYS6hQqbicZWuVVJx3rNXMrya0FgMXQFYYTUBZgFNR29E2ve43+6VVqtWnLd3icIwkr2Of8pMKgxdWnRUKoqdGqi5FxZN+fpA+cvnJ+Rg5dse8swq/mVEv9Eu46Jy5Bp4WhhaZIapUpUVtkbLbh2hZx6zySXFnV2ak6sqs81GLZshp6vRoofVX1gQFGoNUK4vdr32D9HOWHOve7epE0ppH6PRr4h9YBBkrEWJXJSoGzWYgZ5ycI70kjEtMszg1aoWJYm5Ykk7ySbk+d518N5pPtz+Lua+N8/Jdll/xSX0PWWyD7Vz4C6j260seprltRPPbQq79W3Yez2LQ8nQ3nx+/vkYvEEGs3EBfIXPnn7ZqeijeVnVl6rffzJ1I2W2wtl3AbfISs2k7KxMwqetxyA4Lu/GRZbFcS6G6xO4CCS1JugcQKdVHbIAknusfjaSjkzS2hCdTDyhDVr6nZOR+K10fqlQNUi+/WBz9gnQpO6PHVMN5BKN7s2GWFRonLr84pdw/nmGDjmN/Pan3v5VmlW1Z6jZnUhyL9Td3TXR2pFFbZ4j3iEYloYrTvomW09TSxvUZhaOwdw90ulqc6h1EXp08N5s4OO88/viyYmwdwm3A0mdl5B+jhv9Mf4onPrecZdHqmq4T8rU/wBHjP8AusTKiRtnIP8AKUv9Cn/c1plBmB5cbKn+qqfw6UzDrrlLws3MN1J84eNG98239n0e+r/FeWVdVyXcjUl15e1LvZy7Tf51X/XVf4jTs0fNx5I50+szqvN5+YUu+p/EacrF+dfu7jbo9RHN639on/Vn+NNnE/5aP4SzA+en7M+46Fys/PdHfrX/AJJx59eJ1MH/AJavyXeZdfzs/qF/iNLfSNH+iuf0RqvLP+yG/WD+O0lS1Xv7mWrz3w+hylNg8Z26Pm48l3HKxHnp+0+8v4r1PuL8ZlcSstJsnlsR52R9BwP+XhyMS35ap+z8JB9VGKfnZ813ElP5G+EgzZj9DMDdIGyWfUf9r4xxMLRmT0F+cU+8Syn1kamO8xPkdk5Jfk/AfCb0DyOI4GwSw1j/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMVFRUXGBgXFxgXGBcVFxoXGhcYGBcYGhcYHSggGBolGxcXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEEQAAEDAgMEBwYEAwYHAAAAAAEAAgMEERIhMQVBUWEGEyJxgaGxFDJCkcHwB1LR4TNy8RZigpKywhUjJEODk7P/xAAbAQACAwEBAQAAAAAAAAAAAAACAwABBAUGB//EADURAAICAQMBBQUHAwUAAAAAAAABAhEDEiExBAUiQVFhEzJxgcEUNJGhsdHwIzPhBhVCcoL/2gAMAwEAAhEDEQA/AOTDkiUO2RTD1m0g2J6EmKve9DPKOMSIoTubkrA1WBqYXYFgVrGIgsTtYpZCDWpnBXhqZzFVhAj2lRDSinR5XUYpSNPJSyx2bMkO4DvNlYNl4dXjwTmVx1BHrp9/NBSvPA96hAp9O382SpFOTm0g9xz+SDe/vsqRIWnK6soPwkaqShDXXycMTQd+o+qLdCC3Ew3G8bx+yhTBnBVhqILU3Vq7F0M0K5oTMjKvZGrTAaJMCvjUAwqbQUaYtxCGK4FCtKta5FYtxCQVMOQ2JTDkVguJekqOsKdWVoMGym0ov2ZMKVZdjcCEKBYtEUykKVXsSzOEauY1Gil5KxtLyUslggiCmIUcynVopkNkszuqHBOynxGw++a0fZk8rMDCbZnL7+9ypsJbmLWRXOWgyHPwVuztm7zmc8+Km7M5936+S7Xo9sxoZd2ZPl4IJSofCNnntc117W0We9rr6Gy9XrNmQ6WCCfQwD4Qh9oOWFvg8zigN9D65J3Ut9F6LUUERyDQEPT7JjYSVPaBfZzz32QgXzCN2VLY5i40IG8LtanZLHDQKim6PR2PE6HhwN+9WsgqWFo5qemwnW4IuDxH6pMYtKKMkFjhZzCf0P0VjKbknKWxkapgLI1c2NHspuStFPyU1IBmcGckixaRp+SRp1akCZZalZaLqdM6Dki1A0A3UwUR1Cm2nV6inEGukivZhxSV6yqCRQpewrcEIT9TyWXUNswhRclMUS2eqT9WFNRdmMKNSFGtfq1IRqrIZTaRWtpFpNjCm1imojMz2RYHSWUNsz7zXaFi846eSkVDmj8rT5K4u2Hj5FQvxEWIy1++9drsers2znWtr+gG9eebIJ7I4n6rv9m0lgL5Eb0GR7mzFug057j4+iiykaTmbeaB2r0kp6fIuxv3AepWR/bKI3c64tuuh0Nj/AGiXJ1DqRpFgbgIN9M1uXa71z39rYjmDn4+Cg7pjgJGIntDPhcDRDpYeteZ0L6U7nEhRjJBtYnh/RY8fTGE2BeW345rTgro5gcLgSPD7KLSwHNMxRJ/1dvzDPv4/JbzaRc9syMv2h/K0u+WQ/wBS7VsaZexzs3vADaVWClR7WqYYpYkzvZE3sq0wxJzFLKMl1Mqn0y13MVfVq7IZXsqm2lWkIlayFTUQy/ZvvNMtjqRy8/0SUsognFlR1iQkSbHUXqLlUZUxkUtk0lgUwUN1qXWKWy6CWvCcPQ3WJ8ShKDYy3Mve1jQLuc7IAfXdlzXB9N9hmYmqppGzsyBDPeAGRNvist7pIwmlfhOYcw+GK31BQUcMdOYIosZmkwBwGYLnZ3PgbKKbizfh6WEsWrx3/IwOikIdOwd1l1nSasLIy1mROWW7iVmbJ2f1VbIAOy1z9NBc6chnl3Loa2iEpxHwVzdsrEqW55DV0bi42aXH8xybf6rHax2d22txB+Wa9mrdmMwYS0WXNu6O4z2QbcSmRybAPA3uchsukdK9rANTrZbvSPYIp4Q/M3Ivfmuz2J0bERB4b+Kn0qpBJE5mtyPLNA57jo4lpfmeLzyXOY+SP2dUSMcHMe4EHMH70XRHowCQCAOFxki5OjVrOGbvi5jcmuaoy+ykmbPRjtVUzzqYYD/mxE+bQurDlzGwjgnmFh/CgBPDDjDQO+5/yrd69KfoLnHcMxhSa9BCcJ+vQ7i6DmyJF6D69MZwrKoKLk10N1ysicrIEsCJjYqoUbE1VYDG6sff9EyJwdyZS2UcdjUsfNUJAoqHF3WJnSqlyoeVKLQV1yQm5oBzk7CpQVGiyRWtego0XGFKAZaY8Ycz8wI8d3nZERbM6qrbVGzmOY7Drdpta54aEeKoaCMxqM0+2tpRk9kPDsLWtY0HtG992ouSgmjd0mR6XD+bikDcb3DIuN+/immrSNNEK12pvobqwMxW+aEdGuGQkkc/W9kLU17Yhc/Lj81btGUMbuXNxwOmficeyDkDvUoZao9CgnaGgvc29h2Qb2NtFlTVLZCWgi+7vXBbSjMEhk615BPu7vvmh6GtkkdZrrZ6ncOSPSwPaRWx2rHh4s7JzSQeRBt6qJrrdneucop3slc151N1oS5lCynQfRxua6R7tH4A3m1o1+bnDwRXWKUIa6BhF8QLg7I5Aklv3zUeqTVwc7I+8xxIpdYoiIqQjKgFjl6TXJxErWQFQGxRoynChHAUZDCqZVhMAR8DUNTxLQhYhAbJX7/vxSVuE8vNJUUcP1CYwrQEaolYm2NQBIxUPYipVQ9QNA5YpsjUrK2NQu2WxRo2GHkqYgj4WqhciTYFJtPYg8M0XGxYW1a53tUETHEMDj1lvidgcQzuGR77KVdlY1ckjJE4aSN1zrycjYaga3z9dVjbR7MjuF/VKOpFs9PRKOq3TFtqoaBiecuF9f2WLS7bbc3c1o5p66IzyWcbNG7j4qVXsykcAHNDHDRzd/eN6ONIlOXBkbSrIZXZzH5ZeqfZ7o2nsS3PMWv4p5uj8R92VniM/JQpdhRNNzIXHg0WH7plquQHCV24/makMuM33tuPBahGKwAzNgOd9BZYGzYjFIWm9iMrrruitGZZg74Y+0TuxHJg+ef+FKa3BlPTHc1tm0UjI8EmG4IthuRkCL5hE+yrY6hQdAis50pOTtmWadTbTclodSpsiUsEAFMrW0q0GxK1sSllWAspkTFAiRErGMVNlEY4UVHElG1ENCohHq+XqkrL/eaSoo4vEh5nKhtSqpqhMNSiQmchnSKMsyDmnVUNUQoyp451kyVCaGpVk0nTUsi1YCudoJSdPJabdoNZ7xz4IGFHpcuT3Itm26XC0keHfoPOy52WENqYRvAldfi7q3XJ46ld1sDZDZoGSPxNLu20Ze7oy4tvHa8QsDpRsV0VVA+4cwiVt9CCYnWuPDVaFHTifmIxxazqL8GcrtBlybrErbsFs7D0WxtA5oOWG7b62WWLOllj4mXSyNLidynWbLEgNnD5rNrW4Tdht9Vnu2o9uQJTdN8GdZK2Zc/YDwffHzWhRbNdHqVjM2mb5osbTc6zRclE0yKUFujQqj2xY3Og7zovQvw2qGSUjg0APjmkZJzcD2XeLMI8CvOae0YdI43d6cgtL8FtpEVE8ZOUjQ7/ABtLj6EqlG0xWe63PXXMUHNVj3qlt3Gzdfu+e4JRloWFSAVIlSEyhKCmqwIPrk4qFCaQ4KYQTZ1ITqA6Q4OUutQBnUDUKFUHdYPv+qdAdfz9ElKJR54yoSu5wyBKJc8flb8gq5KkonkR7DF/p933p7egJK143eiFlad9m9+vyRstQbW896DaAztuNzuB9UHtTT/sOOLtt0RGzb2LpMI4Wz8LlFMELBk254u7R88vJASVV7uJWdVV9zYKnJsdj6Xp8O6ivnv+ptz7VJ7IWh0b2a6qnZFY296QjO0Y97xPujm7ksDY9I+V7WMGJ7yGtGlydM9y9r6LbMjpIsDO1I49t+mN/wBGN0A7zqSix49cvQrtDtH7Lh296XHp6nSQNsNAOAGgG4LmOnGkZ4O9WuC6QTi2ovyXLdNHXgcfylrvk4E+V1tybxZ4fC6yRb8zzuszJUYQLJ6zK5WTJUkGywI7U+CO2dn4hcGxXJPhN12L5Scr6rAqY+0RbQo4tmOcLAYaIu4LVhoQwX38VCN9kQ+W4VtsqGNGVtye0ZHFS/D5zmTGRmRsQDzADln7dlvlzXpP4VbCj9mjme25c8k3zGEktyHd6rRjWwjqXudds3ajZ48QtcZPaNzuY1sciO9PLKvOetkine5hLS1xac8yW9k33EZaLo6Pb4kFn2DuI0+W5Z5NXsbMnZWWMFKO9qzbfUKHtSy5ajmhH1fNSjBpOhFUmNQsKOrVrai6qi9JtMq1aKrff9VhddZL2hUVoNz2tR9qWIahJlSrSB0m314SWP1pSVlaUYr6jeotfdAVFS1nvG9twzJP0VFVtSwys3LTUrO02fTV1GPGu8zTlkAzKzJpXPdobckE6vcbdr0VgrMQ1UpxFvNDM6uinaE7tAENRxknPRNOblHQ2Y25TE9jA8alkbvZEdo7RMTbMuHHQg2I55LV2F0x2hFCME5IvYB4Dsu/XzXM1TC513andwG7xWwWYWMZwHmc1TnpXdKj032mbeVWktkdSfxR2hG3E5kDhv7BB9bBVVP4rdbGWVNPZr7txxkm1xa5ad3cufmjxMcOSw62ICA33OBTMWZt0zF2j2TixwcoKqV/gdnDWCSJrxvaD5LLqDZcxsLa5iOBxvGT8uY+q36yUEXGiKWPSziRza0VvqzuKCMziTc6qsy2OaYOzyUoFyCnPVm5VN5pmyOkcGRML3HKzR6ncFFGy9SjyZddA6SRrGC5OXzXvnRrZvUUscIzLWNB77Z+a43ob0P6uTrpgDIOFyBnkBz49wXosDBqtMVSMOaWqWx5H0viwVtQCbAvx/8AsaJP9yy46oNOXiuj/E2lDaxrtccLDfm0uYfJoXNRNCyTjUmet6TNKWGL9EblLW3FiVVVSlpz36HcUBFIAeyLnnotRjg8YHjUX/ccChUnF+g3qegx9XHVHaf5P4lMVUtCGoWPLSlh4jcfvei6cpuz4PMZMUscnGapo0+tVjH3Q0aswoaAZJ7lWHFTa1WOiRKIqTIdZzSTdX9/ZSR0LOIqpBew43KzXTl77nRPWS2B+SopIye5BFUj0mbK5ZNKDBIfBEQOQNRO0GwOitiqgNxQSizThzwU6bC2M7VzojKmTCAXa/COHM80oHWbie3+UHfz7kK1pkfcpLfgdRQUF3d2+P3/AGJUMJc653lHTPxSdyuhAa0kbggozdLu2a441jil5mgHBZdfFeKRvAHyzRrUFXvIz3OBB7/6K4bSA6upYnfk1+Jg7L2NPPcxMvh1Jc1tzwGI5laWx5SWmN4ILDbPUW3HmMwq9hbbbC0tka5zcQe3Ccw4WuLHKxtYqiirjJUPkOReS7zv4966k1aPnOJ1IPkgzV8NMbaG6ulqGMbiebDzJ4DiVk1u3JHdmMYB4Fx/TwS4wsfknGPxLKyVrPfNz+Vv1P6K7Ye2Z6eTrI8Lbi2Ai7cPA71nUVGS7E7M81oiIBBkyJbROn0PZ7yR9pk8eEdjTdP6sfDCBwwn9Vp0/wCIFTvZEfBw+q4WKwRDXk5BZ3mn5ndx9l9JW8EbnS7bftnVucwMMYc02N7hxB4aAjzK51rCOaOaBv03oQ2bcX7uY3KozcnuNydJjwwSgqQTAxacCwIpSDkStGKvtqFJJjeny4+JbGm/tZAX4/fFVtp8J5LN9vc92RLWDhkT3lGx1WVibqQk4ieu6TF1UdtmuGaUDEQGKqhkxN5jIoxrVoR4vJBwk4y5RS2NWlqmGqJTImeRTgSVtvu6SZQG55W5mIN5kk92n0SfUtALWoUyEtGe5QY2wcfBZ1HzPRSzv/ivDd/Ira25utmgpwwB7xcn3W/U/ohaCIAY36bhxP6K4zFzrlDkk3sh3RYowrJLl8L6/sHTuLrXKNpogAgKaoaD2gtJlU12gy1PcskrR6PBKEnqb3I1slgBxz8NyohCg+TE4klSM7RkCokFKacrb2LsSrmbiBb8k8d3Kx0ZUWxGtUfQ4lxs4jdc+qL2Y20gd8Lc3dxFgO8qe3KTDJcDJ+Yt+a9iPn6rVotmkNDToM3Hi79tF1oPVGz5z1ON4csoPlMBma+Z1z4DcB970Rs+kZa4cHH0++KL2kwCPCzW+fMbxfcs2kvm45F2VuDRuVZZaUM6HCs2ZKXC3f8APU03PAyaFIMsLlURuw96tjiL9dFzme2g74Q2K+iNj7Iu5UulawZZlNEwvN3eAQMfDuuuWXNcXnkp1FPdvMXI7t4+quaAAoRvubodTuzQ8SlFxl4g0Tbpqg6NGpy8N6tmsw23HMcuIUYNcZ7gE5y8TBHFvo8VyXSxYRcJoZfiOgVznX7J1Ovcs6pfhOHc3M8zuCmPfZl9VWN6o8fU3diVZx2d8W7h+X0t4roca4rZjjcvOu7v3BddG++a0Q8jzPauPeOXz+n+AhrlJzUPjspiVNRx2TueCdQxhJWCeLiXIBE0bgbh2iEIVkJtdDJbHQxTamrNSCF0jhlZo8gtJlMGoGhlOWeSPZIseRu6PVdFDHp1PliMQO5RqXhgwDX4v0Vs0uEf3joOHNUQ0Zdm7IJa9TXk27sFv+gKxjnHJadHsze5O6qji0zKAqtpufkDYckfelwI/o4N5u5eRtGeNmVxlwQVXtQW7IWpSU0c1Qx7hGYRHmbtGd8rjW9s0A3ZsUoAbdrnmQx5nCAHEty4BtkxdPXiYcvbjcaUaMJ05e4OOrdO9PLPLawOXJdTL0XiDIix7yZHYb5EWDXOc61v7ot3hAT7BexjpGuDmsJBuC1xzA7OodrxT1rgtjky+z9RK8j7z8fyOc6151BRUE/Fq0Jad0RtLGQDxHodFa2BjvcNjwKTkyXyjo9D2esavHOyqKZnBNLUHQKM1Nh1FkzIUmkdNvJ7tDwxbzmtKJuVzkFXBCALlQqJ75BC92a8cVjjbJSy4jYaK15wtVcDLC5VIkxuJ3BDQequeWNtCQYBxvl45Hy9EmygC+4DJB17sTg35ppc3W+BvmU+MdkczN1DU5NeiDm1OFpe7X7shoIy4gnfnbv3oSabGf7rfNacbsLA74iMgja0oRCft5b8IJp5f+YG7m+tl0NJPdgPL9lzEUeFtzqch3lbmzj2AOZV4veMna6a6ZJ86r/FGgXpnSqnEh5JVoPNWF9fz9UyC63vSVlHncbQou1yTg2Cg0IToN7JI0aQ6LXhFszoPVZFCwk23bzyRVZUk5DuCyZFcqR6Hosqx4tUgh1U1pue05Cz1z35DyTRUl/eKuIa3IZqJRQyU82RbvSvzBmwOOqLp6HjoraaEnM6Kqtqr9luirU3sgo4ceOOuXy9SFTIPdYPHinjhw9/pxV0MAjbc+8dFTPOGjMi5VpvhFThFd/LX7BP/FZmFgbIbMBDQe0ACACBfQZD5Iml25ZrY3RMwiQSHDkSQcWhNrk68slgCqYfiVuoumJyjyc+WPBldpL5HajbEBZNI9uN1rdU51gWi2Fwacr53Ns8is//AIRG0wx4n9Y8XuCCBYa24a79ywi64BR1LtaWMDC64GQDgHW7r6eCv2ifvIn2OWPfDL+eH4BMpLHujfZxabZad6TWcAsp1S7EXEkkkkniSblFMr1nlHfY7WHOqSyPcvqHFVwR7yodbfMqFTVgCwQ0+BryRXebFXVN+yE8Zwtug6duI3OiavqRmBoEenwRlfUUnll8gUTXeXbybDuVlZPcBo/YBZ8Tr5owRWzdmT8PDvWlxSZw8eac4NLx5Hh3flHzcVsQfmfuHyHBAwUZt1j+yBp+wVtIetmijNwxzi0WIBJwnDmRvdb5oK9o6RrhkXSQcprfyCaypyBHvfCOA4laOyZLRgHW58zf6rV/sR2gA1umZMkhJO7IEWuflzQ+1tnshbG6IgtcZGOs4vtIwtxNJdmDZwy4J8MWk5XXdcupi3XkOZkFJLmqXTod0+aNHINDrEyF60J1exVnLV8eE4SLFURuXUdIKDEC8AAAaaWtkLLEoYwO2d2nMrNHInGz0vUdDkxZ1CXj4heHC3DvPvfoqoxndWAFxRkdKBm7JIcqOpDC8jWnhAzcTuQVkcQBzKjU1IGTUH1hUSbRJ5IY5eYbV1eWFuinRQhjesf4Dihadg99/ujzPBD1taXXJ0AyG4K1FvZC59So/wBXJz4L6j1da57rN8Tw5BSpaW+ds+J181RSAtF7E7z/AFWrRHFiJF2tFg2+HM6Z+Ca9tkciWac28kt3+nwKZIMs7WPEcr2uhJIur7Tfd+JvDmFrCLsuJuABex7QOYsBuv4qmSHEDa2QJHMWv6X+whTa5ChkUlf4PxTKInXaptKCoTbE3gfIokPVSjTo6WHLqgmxSBVkqRcoOKhU2iRlULkqBKcSWV0Kc75ZdLLhFgs6d9weanO9VwsLimQjW5k6nM8j0IO2fBkLDPjwWvDTsYMTtUPC9sbcxa2meqAnqnSHLRKacmdLHkx9NBKrl5Fm1doYrAIWmqy1zX2zY5rx3tcDZJsKujp06NRVHLzPJ1EnKXiexzbQjMYc2VjDIzFGTnqOyQBquIq5SYY7CzScZbe9pLFrt2ptYk291W7EfEKanLyMTcYsbGzRNIGjNwy7V947BGV7rR2xQwyCeanAYwGPC1pDmuJBxvLf+3o0WG880+UW2mvA4fdh3W+f3OVeUPbNGSRqtsKFBUNn9/0SV3Vp1dlUgnbn8F3h/qC5g+4zx9SkksGLj5nue1f73/n6mhszX5KzaevikkhfvDo/djMTBJJNOV4l+0NG/wAqzJfcd3JJIsXCEdd78vh9DQp/cP3xV8H8M/zj0SSVTEw4fxRdH/Cf3M9Qos9xvc7/AHJJIQvB/H6GVD7z+8eiJKSSZLkdg9z5v9WMdVW9JJCHIrKRTJIkJYPPqitle8kkil7pn6f7wi7a+o7lXQJJKR90fk+8sNbqrjokkgNQVR/w2f8Ak/8Ao9dFs3+DN3H0akktnh8jxXU/33/2+pkyKtn38kkkCNZckkkrIf/Z</t>
+  </si>
+  <si>
+    <t>Eric Cantona</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXGB0XFxcXFRgYFxgYFR0XFxUVFRgYHSggGRolHRcXIjEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAAEBQIDBgEAB//EAEQQAAIBAgQDBQQHBQUIAwAAAAECAwARBBIhMQVBUQYTImFxMoGR8BRSobHB0eEjM0JicoKissLxFjRDU3N0krMHFdL/xAAbAQACAwEBAQAAAAAAAAAAAAACAwABBAUGB//EADcRAAICAQMCAwYFAgYDAQAAAAABAhEDEiExBEETUWEFIjJxkfCBobHB0TNyFDRSsuHxI0KDU//aAAwDAQACEQMRAD8AxuE4dmO1Z3JI6lUjQYLgQ6UGplWhvFwQW2pckEshavAvKhcWX4qOycI0qtLL8QT8Q4RTIuinKzK8Q4Za+lPTBoTS4e1NTMc0UEUQjctSImqbCSs82ENVqL8NlMuGI1q0wXBoOwXBp2GYRkLuC3huOqj2mHmAaNQbA1JcjGDhYBswkvffKACNb2DMDpbmR6UXgk8V9i9+5ja3jvbS97X5XJQW9NffUfTx8w49RJcJBDFb2AuLgEqdVvpcq9ri/MH330pTwRfDGrqpLlfsETYErobX+B0tupsbajW1ZpxlB0zbjyRyfCCz4PShjMOcCMGEqOYKj2Ce7oAqZwx3qWNjHzAsZHaii9wnFUARJc02zO0GJhjVWLcS/wCj+VU5oCq5BMXB5UcXuLmqFfd60wWMcJFS2zRjiGZPL7KDUO0o1nCcF5Uq7JPY02Ewwo0hEmMYoaKgGwjuKKirBZ4aBoNSFWKgqqoOzNcXwo1qlsNTZk8Zhq0RZmzKxS0HiptmZLcaYbB3pUpGuGLYPOCjVS0jqi+Z1O2w+HI7jSrhByByZYw2W7KoJomBMcbOD/xNFAN/4SA7ZvQW9OWlRhHsYpTlLuDgLmOYldd5WB2N9Ekcj4KLeVMVMU7L24gjnIpmc75g2gHXVgqgdSD61HXwxZFfLRQSjWRi0x/lQLYk7BgqZ763JU+VLsMJGA7mzRgqxusW0viBt4WLW300DAWNV8ibHMJiO7kVZGleY5gwspRncG3jLeG3LQlyTsCoAzxqS5Dx5dErHgKSgmNgwHQ/dprWOXTzjudGPUwkiqKHWkSbY9NEJ46iYaBs1qrcamCYrxUSZbO4LCXq5PzFySHUGBpTyCGicmDqlkoF8i3HYfSnwluLkZ6aOxrT2ER5GWCUWpWQ0xYXl+fk0sM2/DYqGL2KyLuaHDxU5IzthkaUaQtsmTVlWDy1QSFmMtQNDIszXE23oBqZmMVHvRxZUlYq7rxU+xEY2zQYQRRJmkZWNgQishbXmwJAFrHQ89N9KuGJP3pFZM7S0x+op4jjkzAlDNYam6nKBbKSqAqu2pK3NPMpUePswsc+W1r3UFQdBbL6cxfffaq1JMGpFRkWSzKxO4YMFBB6gXy25bffRa/UmkMhYgHw5ibZrhMqqL6lUABci9r3sPXSr82StzjLGY5he7aKtyCR4kNwLWFxcaDa4okkgX5h2JQGQltwViG3hAIUC+97A7nfWpVImrudTGERK+hzscug/eZvaY+WQHr4VAsCaquyCuhfhMV3cIaUXylgrjR1KE+EnY3yEAnc2ve96N3pBUkpcGm4U6yJmBudjpbUb6GuRnhpkdPFkuB7GQ2oIoapiDEm1HpHRmiMYvU00M1oa4GKlzKlIcwLWdxEtnphQg2J8dWjGDIzWOGt63RMkmSws1VKN7BxyUF/SPm9DoH+IfRuGVnghuQexSCtCMkgkS0aFsqlmqwQGXFjrVBWKsdjAedBLYbDcSYlr1ncjTFC3EQ3o4ui3EEjwWtMeQWoVuLeHLLiZlEUT5injzuZDcABrZh4IwwFhr0udLOzZoQVnPjCUm0D8T4VNHIV7vI19hew15dBqRb11I3GGeElaZbxyQx4X2XnkOcxhRa1ySL9Suh+BpOTq4cc/IZDDLuW4zs3JGzEizbrbYeX+tSHUxZJYWlYrdygN9c5zN1U2YBTpa5DHYn2d63RpqzO7To5i0QgEHcjN1W4ygnyzBT7/WjbvdFLbYOxc92LIQe+KMNxZizW9/ht/avV3aTBpI7JiFeNSDlvOWymwylwfD0GwI9TVWTSVcQkV2EZ0DkOQL6bGRCOd1LMvW9RzCUa4GnZOXJJ3B10e+1wytqDbca5lPRmHKs+dKURuJtOh7j1rKooe5mZx0dOSCWQqwUZJoJj4TtD3DR1nYWoPia1LkimcxB0qqVFCTHXsafjW4MuNjN4+StkUYpPcHjkomitW5d3hoaCtn1PhsulZYG+Y0V6YJZaJqKxbRTiZ7CrsFLcQ4vFedVqGRjYvMxJpORmjHAmEpA/g6mHJqnIpk2wlqHUUuRl2EwhiOIkOrPKRfyNn/zj4UefM3UvQzLGoto0WKVHN2QE9SoNc+TUnuGk0WqRyAt6VpjXYBxAcZhs2rUzS+SIxXHOCqqsxXQW05E39r7bW8vPTThm1SFZIpmBmm8RIt4TYDcW6HyremZAfBzHYEjK11udmJGpPLYUSBouBOZQdFKkk762bxeWoPxq0WVuRYhmLSfwPyut7f5R5VEih/2SkK4tAWDAFo8x0Y94mZNOoysKVkWw3HybbHCs6ewyUdxHisPeq1UHGJZh8JY0lzsfGIcgtQhUSLVKKSSKGkqq7l1YFiEvRx2LcRBxLC1rhIyZcfcVRxm9NszqLYb3DUvUM0s+j4VrVkTN8hpHLTkxDLQ9WCCYttKByCUUJpk1oHIfCKB8lqBs0RQfh470pug6QdFBQMBkpY9KiBHfZ2ERxFnA8bllB3tYC/xBrS3GGNORknbm0hm+Q8h9lKfhyKWpHJJo1HKji4Lgp2L5sZGb+NbDzFOSsGxXj8GJF0IYHob1fhNF6kz5L2g4E8LnQ2Ox/H9Kfjnaozzg0zPqSoa+mv6j76aKJd54fn52tVoqvIsTFErYm4BuAPtuPcPtotREttx52WXNjEkAtcgnnvcZvhmoMnwtjsKuaR9HljvXP1G54wX6Nc7UqTLUCyWC1BqDUSnu6tMvSTWCmWU0VmCgcvIKMSiXDVIy3DaFmNwt6fCQvJFC+LAC+1Pc9hKx9wv6DSvEG6F5GpgSkxZUgm1qejPIIiJNSTIjzw0vkYtgCaCxqqGQYsxDWNUaEH4B9KU1uWMFeoCyDyVWwKMl2kxM8RBfHiM7ouUkleRsB7qdLM5T0rG2u7Max6d3Kh12T4xLiSIywZgt8y3Aa1rkg7HUVzuo6eSn7l/JmmLWm39TN9rJJ+9MUkjgAm1juPdWvprgra3E5I6hLw7FYRf3sk9zscpK+otv8K1yed8JV+YjTjXmavs9Ity+Gm7xToykgW56g6iijOVVNEUV2Zp5cCkw+sCLXCkr5+LY1Gt7RG+zPkvazhH0eZkA8Lar562/GtEHaM01T2FuAwTyEgbczbYGilKkVGNmg4f2biItJHIEdu6WcMfDJqVZkOjJ1GhtexvWeedx3rY1Y+n1qu4Z2IhYSWbQxsUYdCucffcU/JJeEwemi3lSN41c6XodRo7ElLpgMuePSi07A2C91rVKNFpkzHV0EtzipS6DSIzRaUXBBJil1pkWTTexGGC9W5k0BPdUFsmljsxWqosVNWeBrTHgyyVBUC0TATLmNAw0BYmqDi6M5xBrGpQ6M9i/ASWpckM1DHvaGkC5FiippBTLsR2dSeJJDBFK9ioMnJQW00/I+7ShyvJGK0C7g5vUOOzvA1w6F8kauRlGRcoCrrlHPf7qPpMcqc53b9br/sXkkr0x4FfEMGjS5iL3FiarqcOoOMtio9m3/wCE0QH88IJ+IIB+FZI45XSdha41uixOzqqc0rLJINmCWt5Wvt6FT61thFpe8/v7+QpyXZBWGjUGxWxOzZ3dG9MxOU+VPjKtn/wxUlfBmO3OHidQGXxKb352AOg95FOxsVNIGPBBBDnX21CMQLbsQGtfpf8Au0rI7tjccVaQ+7O4OaSLup2WQNZo2ACkMpGUGwF7/iaQpOb0Pho0e7B6lyjK9kFV5MZMuqyYh8p8szMLeRzA0/O/djELoY05z/A1eTSlRQ+cjsdFosQ5BFWsYLmeSOo8ZSmTaG4oXGi1Iq7ilOI5TKpk0qg07YjxsetDdGzFGz2Ga1LlIdLFYRmobA8AdSGtKRzWwS+tOiZ8qDY20pjEomzUNBoExDVFElmZ4vverK1Mhg57ChcbD8UOixFzQ6S1OxjETalsajS8Oxqx4dWY2AzEn+0aXmyKCVi9DlNpBc/EVyDYAgEa8jr+NPhl0+6wHjfIhxnGcKurTKD0uKc3GYKTW5Vhu0mgYr4DezDcDWxYdDXOyuWObX0HRSkg48aQ63Bvsf1p+LOpC546AcZj7A5djuPPkRTr8hXHInlkWXKxF7291udFF0inyXtPLnIWESqoDasFAIva99xpe1C26dDY0J+1XamWKMGzI7g5ALBQdBm01OW9xfc0GGMss7fCCySjjg+7DOzmCEGHii5hbt5s2rH4n7KPJ702acVQxpDrNpRpUKlKyky60+MbM8p0FxNei0C/ECEFC4hKQVGtJkg0zzRUqhikCzxULQ7GxRjMPSJI6OGQqmOU1nlydXDBSVkO++b0NmjwkaB5q6UUeTnsDs1MSMs5BEMhoxStBF6lEsFxRqqLsz3EDeqT3KasWRy62pjVgdxpgVpMjTBD7CR6UocivtBCzYWRU3AzAdfrD8fcaTmgpVJ/+rv8PvcZFaXf399jPYotNAojlQFBlyuxW+XyHIbUmOjG9U7/AFA997JGcw3BAJM80yb+yLsfsFdCGeL2SZlfTSux/PxlUGTXTbMsg+9auenIiKMovkX8M4iGkyixU2BW+xOgI6a1nni07oJZG9hthcYyloma+W+UnmOQv11+ynR8xcmmGQSfVOtGgd+wyigJLHNoQBYdQTck++s002+TRB7CztJw4Sy4ZWXMviv5Dwltb9APhWjpnpTFZI6mhiFINKXqbJOwg7VoQhoFcVqxMy5EHYbajYqgyM60uQcUwyOkzHRRfakhlEkdA0NiwKeClSVmvFMS8Rw9ZMirc7XTZNgPuqTbNesYb124o8jlmXxpR0ZuQuKCoVRY0NEmCwPErpVMnBnuIpS63C5FSYYk0bmkXHGPcFh7Cs7maYwob4fSltmiMAtWoE7YyUNhdwvgMX0tZSvs3IXkcysjKR5Xv6gVkcpQyeC90/07fwZZqkw3i/aLBQ3CRSEh2BEcDLqL3ALBVIGmx6Hqa2Q0LZJIS45W7bMpjuMS4xwsOAtmADPKwUIQGVi2W9lGYEbE2Om1aY4o1yKqXmMcJweNPEQpa4LOFtcoLjKNbKOQudzXN6iTulwOgkY/GYkiZj6/iK6mONQSZkl8TDuE403A3O4Pl1q5okOTT8Mxl2sedZGnZpXA6xeHugf6p+8Wpy+Fki/fQukagNDLIzempimjjJT4SEyRdEbU3UK0FgktQ2MUAuCekzY1QDYnpNluJ1qsEEnoGOgxRjTesuWKZ0sE6Bu6rP4Zo8cuiWuspHKniQdClXqEOAfEtHYpxJSJpUKURbiFqXQXh2JsVDc0qUxkcIMMKL0vUMWOuBthMPYUIaQdHDVabHR2OOtqFIb2IYaazD109f1peXHqSa5W4rPD3bEPanHqsn7WO5GgaxsQdrkb6HnSccZ5Jt3uIWSMI7leB4sXACJYcgFyqOVz+Z1rYpSiqZmlNS4C+IymOIk8x9m1KhHXNAt1Ew+InQgkm7E/cdK6dUZVuc4RJZ9KqStBRelm44agKr1rO4jomq4eoZSp2Isfz+elFjasuVrcSYvDlWKncG3woXFp7myrSa7k8IKlgNBfc0adCmjjYY0xSBoHmiNquw1R7DE0qY1UMIpKWR7l3eVYpooxJ0qMOKoWNGb0ia3NEZl3c0NF6irDnWn2OnGxjElXZmcQyOiUgHAk9FqA0AMyVeoKhbNDrSJ8jolaxa0KTLoYwR0ygEEEWqNbDIsEnpdUaItAEim9C3uHKqCcXj4mULIFY28QI2IB9+tBOEYu13OLK02gQ8XgRdAoUcwOnIeXn602EbdULk2YrtN2oEvhTr8AOf6Vrx4lHcTKdqjPYdr2+fSmsBPYZ8MhYsCBQsJbm74WhAFZmPRosHJaogmgbiPEY+/dWsdEv1Bta4I20y/CpPKlPT6Hb6Donk6ZSa7uvv52UYPFxF2XUZdQRqCPMHZvQ202FGoxe43N7NkoqUfv/gaQYqI/xj3i350Wj1MOT2fmj2CigI01Hlr91RKjDkxTh8SBZ4dKOhKkCKtjQyQxSL1pTQ1MlmqiUVyPUGaSCLUasnBPLS9KLBjDY0VUaVPYOgWrpiW0EAVRCDGqsOkUSGpqKcQdlokLIiOrUSWXoaOikTZr1TDWxSVpbQxSO/RtLscq9T+A51NHd8BxUpuomV7QrFIMwzRyK1iynxZAbC4Oh0F/fSJdQlslfzOovZEckdL7rn1r7RnOMdl3ChkxBkU6jw20PvqsXtFatLjX4/8AB5vL0Mk3HuZZ8C6nb4V0VljIzS6doacG4eWbxbVeoU49ja4LBKmoFLnMKMB9gkFL+Qwt4jihCmY78h1PSrqlbHYcUs2SOOHL+/yMmkjEs7G7HU1lVtuR73FijjhHHHhE8NIQc3XT5+2nRewc4pqizvTyNHbJpQXhcc6kEMauM2IyYISW6H2H4xcWcX89jTdRxOo9lY5brYujZX9hr+RsD7uRoueDk5vZ2bDvyi3IRuCPUEUqSExTIMaENbMpc0I1UWRmpZJR3LMwqWTSdVQac4ifFoIjWhaIp2TNLew1EWWqoLUDypU0keTYrVaZGIlzPSG1MSBsqWSroiluWZCNSQo8/wABuaFxNWLHPJwiqXHqvsi56t+A2H20qWSMeDo4uh7yFeMxpbcmsGbM5bM6eLAocGfxxscx1Gzfdf7B8POs+N3szpQe1IqwOJZGEVi6OQFtvdjYZffyop4vF3XKOX7S6aM4vLw1z8gfifDGRyCCCDqrAginQnJPTJbnlm4v5EMKwGlq1xytrcRKCu0aDBve2tC5AUPcEnOnwQDdE+PcPjOEbESlgzELh1Btc82Yc1Nj/ZFxqRbTkhBY7mbfZEsz6tLF+N+Xf/j1M3BgZe574wv3RuucC63Bty2F9LmwrFHHLTbWx7D/ABmFZfB1LXtt9/oBqCN/m9UjbsyQar1IuiaPQ35AtBUUtEpiZRDYZgP4rU1SRnnBvsHQcUZdn916NTM0+ljLlDKDHJJvoeo3/WpqTObn6Ct0VYlcu+3I9apo57hKDpgpxFqXJUEtz30ml6gqDIJK20ctthavQNBwZ3PS2jQpnGkqqL1A8slEgJSORvRoXZF0JF9AvNjsPzPkKuh2LHLI6igN8Uq/u9/rka/2fq+7Wglkrg7fT+z4w3nyAz4s8z8aRKbOnDEuyApJ6zyZojjKzJWeathqKKZgCP0pWmpWHHZnOE9nmnkEazLE48ceZiC7jVVQj2Tzve+lwN7a+mXiSaTpnP8AaXUrDj1ODlG/ersvX7rzY0bipV/o3E4iGXQS2Gdb7E5dGX+Zbg21BrUpK9GZHBzezo5YeN0b2fb/AL4foy/iHZcKokjIeJtVdbEWO17ffsfsqZumcVcN0ciM/ecZqn5EcJgbcqx29Q11RouE8KMjqnLdj/KN/edvfXVwKzLkdCPtBi/p2MEaMEgjuqtoERF1lmN9ALDTkQqjnV5X4uTSuEes9n4F7P6J5ZK5y7d238Mf3fzfkW8c42soSGEFMNFYIp0LWFg7X162B11uddpkyqtMeAeg6B4m82bfJLn0vt8/P6LblHJh1NZqtHZjOSB3wp5G/wBlC4uxizVyivumHI/PpSmmg1kiyBuPL56UG4alFnDKajdF7EfpJ60akwG0EYbHkGprYEoRkjR8P4mHGVtQfm486OOatmcrqujVA+KgKNa9wdVPUfnT+UcScHjlTIZTSqLtBEWKrbRyGGx4qqYcS36TVB3RXJiaporWVx3c2Gp/DqTyFQqKlN0gnMke5zN0/h/M/Z6VUskYnU6f2a5byAMbiWfVjZeQ/IUmUnI7eHFHGqihdNiANqU35GuONvkBkm1pbkzVGBWZdfL7qU2FpVF0ZvSW63Fy2L2i0pLbFKVg8guPMdakdnsE0F4rirSxiLEDvQvsO5/aR+Sy7kaahw19NdARs/xEpR0z39e5jh0MMeTxML0t8pfC/nH+Ko52d4vLg2t+8gb249DvuyX0B8tjz5EN6bqpY3UuBXtH2Zi6uOqO0+z/AGf3a/I2SLA9nw8qOp1y5vGvOxU+L3EXHPrWzJhjP38e55GWPNiloyxafqv34YN2i47HBhmhhkV55fC+Rge6TmCRs1ja292J5Ucp+Djq/ef5G32b0Us+dTnF6Fv6N9l6+voYOBbacjv0NtQLdLi/u8qxqTs9k3qdstzE0XINBKmriSjpPz8avcpnqqTIiqU6UoMXTtrpt87UFWRNpgkr/abCrRGyRbxWquUXdOg3D4nKdDQstq9maLBYsSLlb1B6Hr+FFiy06Zy+s6TVF0FfRm6H7K27HC8HJ5CGCU3rTZyUM4L0DHIJFRFtFmEw2diM2UAXJte3uuL/AB60TaReLC8sqRLFY5YxkTQczzPmfnSudn6qnUT0fR9AoIWPjRve9ZVn+p01hb2AJ8WWO9EsrNMMSiCHEqdxbzv99E8nmhlae5YFU68utE3B8Ec2jib2tSp32KbfIZGvlSn6iZHZelLlHuVHzKQOtFFIModfh0o6IUhLUaYRwxg7i/rrRJgyRNdKKykrLV86JMuiYpiaALwatS8iHqvVRTIg0En5hJAk8lC2HWwBK9UwO4NEbuo6XPz8at/CwY7yo7E15T5a1XES07mRXEa78/n7qjQOvcY4PF22pcojE1LZjn/7Y/JqtT9RX+HiSw2Frq69zwiiNIYau7GUFpDfTnVkUb2QFxPHqg7tPeep6+nSsPU562R6b2f0GiNszuJxd65+lvk7kMSiBSSmiSoNySId7p6f60xIFyOBr28xeiatEbRyLFkH7h+NUKvfcZxSBrEUVFrgLjNK0+guSJGpKKBRWRQqIaKm5iiRCgrUDsgTRLkjqjwomykeZtatN0WeV6u/MFlyNRJltFoNN7ANHpFYLcg2uV/tCxK+tiPjSnZIyjqq9+fw8xZKaFbbjG9gR2qxDZTgDqzev6UU/IrC92yEMllkfzNE1ukUp1GUgFJaY4mSOXYMws+q+f60qUDTCYZ9JpWkbqRvsLDW1s8QkMI4KtMjBONYsQoQD4j9gocuTTE7Hsro/EnrktjFS4kk3rnPfk9YoqKB3epRTkUu1FFC2yoPv60xA2MuGYXN4uQXb1J/WqXDRc2lTLJ8AGGm/wAKGpclSpgoikjOxtVWmRB2GxwOjafOxor8ynHyDwfT5/1qmkmKIuKG2EiiQ1AqB2aioKJBaqi2eq2URU1dhNEhVgsMwGQuoclVvqQCx/pAGtzsPMir7ic7msTcFb+n4/hy/Q1s3AImCgIYjcmQF2YhAdLAjRyLafwhhfWyk9dHnV7TzQbt6vLZLf8AhfnW224D26xahUiVbMzd62nQd2p94B5/w+eoU9W5o9iwk5Syt7JaV9bf36mJlarO9J7AGIk+6ijEzNkYGyofS9FKnIqDqIJjpcsSr11+fspsI3Nsy9Vk8PEo+YEjaDzNMa3MsXsg+E+JfL86S+DdBnu9PWq0egzV6H1uI2onI8kkNOF4dpGyqL2BJ5aD8Tt76Zhh4kq+ovLLRGzA9ppm751brcaWup1BF/K3wtyNZepg45HF9j23syeOfTRnDy/PuhG8lIUTa5FDy0aiJcyJm+6r0gOZxXuffUqiKQy4Vi8qMOd7CgktxqWqhxh4ja7N9opioXKXZIk2JjG7qPfUekHclhEildUzxrmNizaAb7nffT38t6pqIOXJPHBzSbrsh9w/s4lsRnkKCBrMAtyVAzB7k6Ai9vSla0mcvN7Tn/49Eb1ra33uq2KMbwyJMIkxdzJJbKvhCg63B8JJACnpe3K9S96G4urzz6p4UlUeXvdfXuZtzRqjrNFDGoy4kL1AmSvVALk6BUDOiiQL5GPAMakOIjkk9lSb2FyLhgGA52JB010qXuZetwzzdPLHDl/ynX48H0PDvG0eZHRwbXdSCGy2QEgagnKFta4OmtAua7HjssZqemSars+3f97/ADPmvaAyGeQyizaWFwRk/gsw0YZSDfnenM9Z7PUI4IqHHf599u24kmaq9DVN7C6c3pqVGR80dfWyjyH41cfMuX+kU8RlzSG2w0Hu3rRjjpicjqsniZWlwtj2H5VJDMO4dCdb0mR0IHrVLDPrELX0G+3x2FDJ26PM6O7NJ2ekImkw5isYmVi+a4bwIzaWuCpdQBzuTfcV2MWFYsa33fJyc09crEH/AMoLh1BP/F305M1iPQsLsw2tZtCwLZusjB47lz2Ot7DnnXUacfw/+3lX8+X8Hy2WSuUkewnMFkmpqgZZZKKml2o1EXLL2Jq9yq33OtDVWw1LVpj5sKfGhAbbXt7xelxxuQ/N1EcStcLYoTEzTaLcDrTHDHj3ZjWfP1HwbIZYPhUQ/eFyet9PhSZZpPjY1YuljHl2/UbwcNhAuLn0/GkPI73NCi12o0mE4jAuElQSuWcJH3RF2SNWOfK+0g8TWHh008N6Nq2pHIz4Mz6qL0pJNvV2bra12eyvnffc9xlc8WGig7yURqwb9jIpzyMpFxbwjU9dLa1NDuy+jyKGXLlzOMdVV7yeyvjz7CDFRMhKspUjcEWojqxyRyJSg7QK5qhsSN6hDqmoASWhTGnQaICRbh4c5y5lXzYkKLcyQCR8Ktci8mRQhqpv0XP7GkwuPaONAJkEKRMjSFGN2kvfIDHqFfJodwhJ1OluL5ODnxwnObcHrck0rXC86fdX8rVGY47i5Hk8YUEIq+C+W3tArf8Aq25bcqNrTsdPoowjD/xt023vz5V+Qpk2NUjTPgBO9Ooyrki75UeT3D1NhVxjbUQM2XRBz79hCh199bGcDG92F4eXr8fnekyRuw5EtmGxaUpnQhsXXoKY7Y+tQRMiiXxKCSqOAPCVsWYZtLgXtvaxNmykV0ugwam8j7cL7+h4/wBoZ0qwrvz/AB+454TxuJIpmVVDxJGGRImRRnzOrFbXBbOSy+0CLam1bMsaWrtv68fexzcalKSh3eyPkfG+JPiJWdidSbA8gdbm2mYnU25+VgOBmyvLK3+B9A6Po49LiUFz3fm/vgTy6+6qjsMmDSU1GWYLI1MSMeSdLYg0ttR83olG9hcszgtSY+4KuFZD9JMtwRlWNVtte5LeelLelMfLx5xioRTXL1WXYbGHZVCjrWOcN7s7EMm1JBkcl6XQ6IbgOJtDmKxxyFha0gJA9LEWPn5VIOhPVdP4yS1NV5DD/avFfWRefgjA1tbS9/f1o9ZiXsjp18Sb/ErbjuJYW79reWUHTbUAGqvyNMfZ3SrfQvz/AJBMRiHc3d2c7XZix62ueWv21ZojihjjUEl8ihjUeyCXJC9VXkWczVdA2SzUHcOzoa9GtwWwnh+NRHOZiqmORCQCf3iMg0H8xU+6rS7GXqoueOoq2nF/Rp/oEYbjEUSxgEvkm7yxjylkvCco8RCtdGOtxoutEq7GLNgy5Zyk1Vxrm99/T1r6izHyqbWnaY7DOrhgpub+K41N7gHc89TVtbGjp24v+np+VV+Qtmk0qRQ+TBCaaI37FbL+3giIuveJmB2OZgCDflqRan4las5PtCck1A+gdpuxEUkbHDRRxzFg3MAgXuqj2UvcHQAaU1nLxz0vc+bcS4bLh5O7mXK1geRBB2II0I3+BoGbsck90cglt5iltWbsU6C+9Tz+A/Ogo06on27D9rYe6EM8YCZQBZ1B0/iu+VNNwVcsfqjauhi6nEkqdP14+p5vrPZHVOcpKOpN9ufpyq+2K1xsUEBcTyshQAROosD3hnaQupKNIcxUZDZi3MDMunNnhpctqOfh6XNPKsOl6r8uPV+R8xbQelecW7PobYNKOfWmxEyBZKbEyz2BHGlNRhnuisEHKG0W+vpzo6a3RmcoyqMuL3+Q4k4nG5sFcfzC1vev61kWCUVu0dldfCb0xiy9FKmx+PK3K1KlTNUbQVE1LY2MtwuM0D22NCJFqKKQuT3IE1VIido4ZSP1o62Kb2PCS+9WDF7nBIKgyzheoBe54yUNF2VtIetWVJlbMKsWmVSPVopspSY+4fj1priJU96OTXvrVw4JNtHcMt2Hr92tWyQVslh482Nw3nNH/iWm4donM9oK22fZyKdZxEhD2r4ImKiyGwddY3+qeYP8p5+48qto0YpOLs+RYnDPE7RuuVlNiPncedKZ0Iy2shehGWakSSx6BtOm4rAnsejlHe6KJ5WbU5fcBeogG3wUE8jsdvyohDdAczU6KETnQG55nbl5+Qp6RgnK92aPst2d7wrPMPBuiEe1bYn+Xy5+m4ynWyEVq3AO33BxFOJEUKkguAoAAZbBgANByPvp2Oe1Mx5sTk7QFwwPbTTzIrPncTq9JGelDMoxBzG9tbnfzrNa7HUipNblSS+dW4gXTCO9PI0FDXkfYMwGBlmJESFiBdtQAB1ZmIA95pc8sMaubr78luKy544knNl8nB8QsiRGPxyXKDMhDAC5s4bLy69Ooqo9RhlFyT2XPKr5p7lR6vE4OerZc7P9KsARi3s3JOwGpPoKfuOlJJbk44HJKhHLAXKhWLAXGpAFxuPiKpyVW2B4kElJtV52ETcLnRlR4pFZ9EBUgtysOp2+NLjnxTTcZJ1zT4JDqcU05Rkmlz6DMcAdIMRJKoDRhChWRWynOBIrBGOuUjes/wDi4vJCMH8T8muz3TddzI+sjPLCON7O72rttz6+RTJ2ekAYd5F3qp3jQ5z3gUDMb+HLmsb2vRvq4rs6utVbXx53V96oOPXRdbPS3WqtrJp2cuIh3695OqtEmVtQ1i7MdlCgn1ym1U+rSc/ddR5f8ed/kLn1rTl7m0W03f4L6v6EoMNB9HxghlaQ5EvmjCezIDnTxG6nUa2O1BPJm8XFrjSbfDvlPZ+omU8rzY3NVu+/muGLeA9n2xTnxZY1tmbc63sq+eh9Psp3VdZHp4W1bfA7q+oWFVy2aPtAmHw+GOFiW8klgqDxOxuP2jc+Rt8BoNOd0b6jqM/jzfurvwvkvv5nMwSnPKsknsuX2+RjuM8LlgEYlWxYEixB06G3MfiK7PT9RjzN+G7o6cc0csbj2BcH7Y+fnenz4HYORlwLD5sfh/J83/iC34UzCc/2gvckz6qxrSkcFAWLejSHwZk+0vB0xC30WRfZbqPqt5fd8aksdjoZdLMb/s5iv+X/AH0//VI0S8jT4kPP9TXdo+BSYUi57yB9Ypl1VgdQCRoG59DuKx5+nePdbrzOz0HtKHVLS/dmuYv74/TuIZlP+lJRskwLEScqZCNmacqAZT12+dB51oijHkl3Y47J8A+lOZJBaFNLfWO4QeXU+fnejbrg5+XIfQ3w+unwHL0pDW+wMc2wo7Z4YHC3I9l1Ppe6f5hTN62LwyTy7mXwkQtWGcm2ejxx2Lmgv6UKkN0CWdtbDfatcVtuYMj3osikNDJIOLH/AAfGKIJ45YpHhJRneIgNGwJCXzaEEm1j0+GLPjbyQnCSUlaSfDtb+uxm6iMvEhKLSlvSffzG3BlS8MkE0rRQzoGilVQV785MyFNDe50+SjO5+9jyxVyjKpLvSune5myuXvRyRVyi916b9yeCknL4xmdlyFUZoov2+UO6osWUqFBy+JjfYVUnjWPEqTvi37vFu+b9F5knHGoY0kndvd+7dK7/AGQ1ZJBLFJllVnwcseaTWTMgLr3jAe3YA9fhWWk4TgqdTi6XFNpOl5GdSj4cotraae3FPZ16dhT2e4iscEckjEiPFXNzdgksTKWA3sDrpWvq8EpzaiuYNX62qTN3V4XLK4QXMPzUrIYXCxwR4oNiYX7yFlQJJnLsDmVmA9k6WsebGinKeWWOsbVSTd7V5pef4EyZJ5Z46xyVNXaqv+A+DimGR7rMqQMmXu1gYyXZcpaaQrmax13N9NKRlw5ssacbknduW3Nqlfl6fiZ5dPmlGnBuSfOrb5JXQil4wqNhZI7u0CZGuCoYBmtbpdG9162f4e1kjLif5bJfqjUsEpQyKe2p39/iRHEMJGk6xJNeaMoM+QLGNCFFjci4Gv8AKPOreHPkcNcl7rT2vf8AgBYs8pRc2vdd7XuHdguIMrPH3bMrWclRcoRp4hzB8tbjQGs/tTBGcIyckmvPuL9pY00p3vx8zTjCRmQzxFRIfCzZb3t/C6mzKdr2Kna97WrkvLkhBYciuPbf9Hx+qOXqlWl8GL7fSSmRe8VVUD9nlNwQT4iSQPFfLcW0033Pa9kxxKD8Nu+9/l+50+jUPDel79zOYH2h6108nBvwmi7KIPp0ZPIPb1yMPuJpuHkw+09sMvmv1PoEz1qPOJifHYimRQ6LFBnud6a+AoyLc9JDsknEMRw5mw2JiEkDXvE2qMDu8LHTzt8QDqMMZTwe5NWvvg7ObD0/tGPj4JaZrv3+Ul+/6oCx/AopVMuAfvE/igY2lj8hfl69NCaOXTxn72J/gIh7Uy4H4XWRp/6lw/v0+iMZikykgkqRurAhh7jS1FrlG15cc1qjLY9wjhr4qYRpou7Hkq8yep+80belGSctXyPrWCwaRIscYsqiwH4nqTv76Bbsx5QuOK9HRklOgDtNgs+FmX+Qt70s4/w1GqQfTZP/ADRvzr67Hz/Cnwg/GufNbnscaaR6SU1EFKUkATALma2ulumtOi7pGadK5Mjh49LmpNq6RMadNjLhGJmjZjApbSzrk7xSp5OtiLUjNjxzSWTz23p36CeohjnFKbry3r6F+K4jNLEPCqQqw0ijCR5yLqSV3a21zQww48cru5ert1+PYrFhxwnzcmu7t0ek4tiGYOZpMwXKGDkNl3tcHa+tXHDjjHSoqvKthselxJUoqueAZ5Sw8TFhe/iJOp3OvM9aatuBigo8IKh4e7xGZRdVYIQLlrsCbgAezodb0EssVNQb3e/0KlnhCaxt8q/T/simBlZO9WNzGN3CMUFtzmtawtr0qPJCMlFyV+Vq/oXPNjU9Dkr8u5bFwedkMgjbJlDZtNQxKrl1uxJBFhr5VXjY1LTqV+Qv/FYYy0uW91X3+p7F8CnjRnZQQtgwV1dkJ9kSKpJUmhh1OKUlFPnjZpP5PuDDq8WR6U/qqv5B+B7N5WkWVoWcQOTEHvJGxW6MRa1x5E2uKTl6z3U4XWpK62e+/wB0Yc3V6knBNK1vWzO9gOKRx50kYIXylWY2By5hlJOx10v50HtXp8mWKcFdWV7QxSkoyW9Gqm4baY4gM7sVC5C9gqj6nI9bNpck3FcmHUp4fAkq35r9f5X0OYsnuaOxjO3PEO9kWMIy90DfMLEl8pNh9XwjXnrXZ9lYPDi5Wnq8vS/5Ol0WOsblfP7Gb4f7Q9R+NdTJR0MRqOzJtikP8rn+6R+NHg+Ixe1P8u/mv1NhiJ9K2I8yZviWIp8EC8lOgGCSrmHHIHUkb4iCR2vjZfo2PTvouUupkjOwJtq39Q8XUNes+HNrjpy7+oGmeGfiYHT+/unsJuNdnmgAxWCnEsQ8SurgOo56jRh12PIiifTuHvQex1MPtLH1S8LPH3ntxs/4+9zPYzE4jHTKCe8cDKLAKABuxA0HUmglkct5D4YMeFaYcH0bs7wVMPGEXUnV25s34Ach+tZ3cnZUpUhyIjTIxZjyZEEwx2piiYpSsjOuhB2Oh99RoDVTs+XJAULIf4WI/wDE2/CuXPk99CSlFTXdX9TxUc6FcjUgTGQZmUX0tTccqTE5cak0VzH+EcqkfMCVcIf8S4hLAmGjhkaJO4SXwErmeS5Zmt7WotY6aVixYoZJ5JTSb1OO+9JcfyYMOGGV5J5FbtrfyQdh8YZIcVLiIF8QgmCeJEkJLxiQ2N7E6m1r286XkxKGTFDFLjVHzrZOv48hHh1kxwxz/wBSvuu9E4sJGWjmSGIB8O0hDk9xE6PkaQqQxYbWXqavXKpY5Se0kk18TTV12+uxc8k0nilJupJbfFJNXXb6h2EWNpsFIvdv3nfxuyRd0kllIHgsNrkXtrSck8kYZo7qlFre2t/P8OBM9UceWDtVpaTdtb+YuwPEMTiIcXlZzNaEqI7hguZlZVCa5QDWjLjxYsmK60+9z5tc2+5pyYcGHJitLT7138lu7HEbkyQTQwFkEagSHEd3DEFFnSRAptaxuDe9ZZRWmePJKm29tNt3w0739PKjHJJRnDJKnb20235NP17CPEcSVFwLggpHJKxRTeyrKCpAOvsnw3HKtkcEnPKv9UYq3391p/nybMeFyeaL5ajv81v+fIVicesQmkR8GFYEJ3SlppbkECS7XTqSdiNqXDC5aFJTtVdtaVXdVz6fnQhYXPTFqdrm9or5fsCRYnCjFNiziLK+c93kcyK0qsGV7AjKMx1BPL1ovCz+B4GndUrtVSap+d7ElDN4Sw6OO+1Un2FvY/isGHdu+WxK+FwpYrvmFhtcW18vOtHX4MmaFY3339R/XY55ElD6E37Yust4o1WH/lm+vnobIf6RbXXNvQr2ZGeOsrbl5/t6r5/kZ10SqpPf7+v3wDdpuMx4pkeNStoyrXte9ybabgdfOi6HpZdMnGTu3sP6bC8cJWxNwr2h6/nW/IacJp+AH9vfojfaVFHh+Ize19um/FfuOsRiK2o8nKQix8lzWiJllyV4ZtakgoSdh2elaR2szXG/arn4jZk4A+FfuMV/Y+9a2P4GN6L/ADMPk/0Y/wD/AI69ub+lfvNZHydefB9EwtWjHl4D0p0TnTJ0YlA89Uyj51xT9/N/W331xsvxs930X+Wx/JAMux+edVDk0PkHHKjI+WCjc/PSj7GfuPuP/wC7YP8A6B/xmsfS/wBfL/cv9qMvT/1cv937Deb/AHZv+ww3/tNY4/1//rP/AGmTF/Wj/fL9Azs/+5i/7TE/+5Krq/6kv78f+1g9Z/Vn/fH/AGsfj2MH/wBWP/BJWTH/AF83yZg//T5P9UfPuAf7x7n/AAr0OT4Podzq/wDLfQRz7n+qnr4Td5fItO5oCokGqgZg52pgp9iuTcelEuAXyQbejQqXJ7DbH3/dQz+JBR+Alwv2vf8AnV5Aun5NVwX96/8AR+K0fT/EZPa/+WX9y/RhuK3rbHk8lPgUz/P20+JlZCKrZIh1KGn/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXGB0XFxUVFRgXFxcYGBcXFxcXFxcYHSggGB0lHRcXITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHx8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS4tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAECAwUGB//EAEIQAAEDAgMECAQDBgYABwAAAAEAAgMEEQUSITFBUWEGExQicYGRoTJCUvCxwdEHFSNyguEkM2KisvEWNENTY5Li/8QAGgEAAgMBAQAAAAAAAAAAAAAAAQIAAwQFBv/EAC8RAAICAQQBAQYEBwAAAAAAAAABAhEDBBIhMUFREyJhcYHRBTKRwRQjM0KhsfH/2gAMAwEAAhEDEQA/APLGuUXuTBVPcixUxPcqrp3OVV0aA5FrVfEEMwoiNyexEgqNyIa5CxlFMCRstiO5UvariVBxSNlqQHKFSjhCXENaCSdAALknYAAN67zo90EjaGuqW55SSepDjlYNweW7Xbe7u2G6SyM4vCOjlTUgOhic9pNi4fCCNtydOHquipv2cVG2aSKMbhnu7hqLewPnx9ipsDcGgOPVgAZY4xkAAGg03clk4zTyN+BuvGwvy1Oo8kLF7PPv/B1PHcSTOcb6BjRpYciSSb6jRDT9HqYi0cpDt5eQ7w0aBZaFfLKHHNttbXW/ILIkqb/fPcog0ZlXg0sbS42c0b2HMLHfcbPNBtC6Gmndm7ulhpvvs3cU78PY/QgRuNyJADkeTuc2/d36hNYDniEwCJnp3MJa4WI+/NUEIjEgpNcoNSc5WxkUziXCROZkE6VVumV6kZnEMknQ0kyGkmQskyEmNEJkmQr5EPJMq8yoZegjOmQ2ZOgSzTcq3Ih0aqexCyUDuULK5wUE9iUJqtaVUFMJGyxILhcimOQMRRkZS2WpFqRanaFdSQF72sG1zg0eZsgE6/oHgLS01TwbhxEV9gsNZCN5v3R/K7kvZejOEtjYJC3vuF7naBw8VxeFUYzxwM/y48rBpa+XXwN7XP3f0h8rWsNtgH9ksOXbEkCYnOGi55+32VyWJYhdR6Q42PS4/sNfvVcZJirnG5spKSRZjhfJqYgwSNI0uufZgt7g2P8A2jo6gbSUQ2QHeEm4ucUNh+BRjh4LXkwFjmZDrw4jzWYKktW9h1a0s5jb4aW09U0WiqcaOAxrBXMcY36FoJY7YHjTT3XLyNsSvU+nMGenLwLlne8h8XsvL6x2x3Hb4jQ+6sXJV0UKmR6cvQ8rk6QrZXJIqHSppHKhzlYmUtE3SIZ71JxVJKDY0YiumukklHFdOmSUIdKWKiVqNcw8FRLEVUh2jPkCpKLfCeCqMB4JytlQUgp9QeCQhKDHQ7Cio3IZsLuCvZGUEhrC2vW50WeWvknBFoYy4gi5JdZjQ3gbnbyK51sZWzgzi2OQf+45gIH+kSkHyJPsi+hbs9EwTEWteTmBAIAJ02AB2nAkldfTY42drmsdewudLc7D2Xl8EPe6pgNr2BPzEHvOtvBLrgcF6YXwUFL11Qbd2zQGi5J4c9VVFjNHNYhSB57x/ssuWgiGy/jdczivT0Oe7Kwht9pcdFRS9KA8/FbkpJeS6El0dUKJvP1SFKLaEhBUOLBxAurBi4F7/UfxVdItonNRP3G52DcicGc5j7ONjuzA2PK/p6LLmx1t9XAa7NpWjhWKRynIHNLtliUUvKFlLwa1fV9x7XjQtIG/aNR7+68qr5hYt3gi3hrc/wDELrOkFQ5oOthsA/BcICZHvPAajnmH91ZjlbM2Tgg6RVSORJpCq3UZWgz2Z8jlSSj30LlWcPcoSwF5VZWgcPKb93OQGTQAkjv3cU/7ucoHcgBJHfu93D3SUBuR2/ZQoPpRwR6iUqiFyMx1GOCh2IcFpFNZNQu4z+xjgm7GOC0cqVkKDuM8UY4KQpRwRtkgEUgOQKKYcFoYXTEXcAdCLuGwCxJGulyctk1NTl72xttme4MF9l3ENF+Wq0J+k8jnCGEZaOMhjBax2m0rzve4guPBV5ZKKr1NOl08826S6j2dX0DwbrJGzP1tdw4auc63M94D+lYn7X8RzTiG5yRt+EHTMdb8L7F1vQavDsrNBZtiBxADf1QHSTAoxM57gC9xJudbbtLqlptcBjxLk8PqJmjXISDsIAtp47fQIWSm1BLctxcECxtxtexXoONYNmeTYeVreiDjwAvIJbfnb80E/Qfb6mX0apH53PuSLADzOipx3rGvIBsNT4XK9EwLCBEx3Mge3ssPpHhodKfAHTmEsrXI6jxR55BE5zv8wjhcgfiVqUwew6E3BvfUH0V9T0eBOwi2m79NdqLgwZ4F22DRazLknmQdxRnP0K1DkIxatdJSmR20OA9fsrK6NxEh7yb3OX01P5LcxOk/wD+OYH3CzujTP4APFzj72/JW4OeSjPwG9SFF0ARNkiFpoz2BGAJuzhG5U2VCiWB9nHBR7PyRuVMWo0SwPs44JdnRmVNlUolgnUckkXZJTaSy/rFEuQfXpderNgm4LzJXQnaAl2gKbSbgu6V0J2gcU3aBxU2B3Bd02ZC9oHFN2kKbAbjbwA/4mIcXWH8xBDP9xagJZTDSxtFsz3PJuL6g5APRvuhG1djdps4ag8CNQfVdPieECd4kBDIXAzskOoaHNzllt+unqs2pg+Gdf8LzRW6EurT/AEv7m30Ee9pjkcR3o789RmHjt90L0hxlzpCQXE7NbaW0FrAaJ8AmaxrA1wcGXYSL6ak7/H2CzMRhJldycfb/ALWVtrgnG9sVM8u7z/Gy0KCpzSCNrczjqQNjWjafy81kVM2QWWS+pnYyUx5ryZQSNuUXNvA3HoipUxmk0ej1crI+7cXO5YOOhvdfxOXwN9PVcFTYjMBaR93X8PJGUWLySZ2Ed2x338PDUBCc7BFLg33W0vs3o3Dpo2lY8Ml2qDHG+1V7vIzigzphI3s7w3TMbDzKzKTENOymNrWxtvGbd4FoubneCL+anjlVYxDgQ+xHp+qhWizjN/8AFr4vIaPxKtxuW5JAjCDhOUvR/wCB8yWZZ3bAl20LqbDibjQLksyzjWhN20KbCbjRuldZprQl24I7CbjSumzLN7cEu3BDYybkaV+SZZ3bgkjsJuMvtJS7S5UpK+iot7QUu0FVJKUQs68pdeVWlZGiFnXFMZioJFSiEjMV1nRrFDJCKZxcXscTGwH42O1c0cSHa5dpBNti5BbvQigE1bAwkAZs1zf5dQABtN7aclVlgnB2X6fI8eRSid3hjSGFroXxsAa5he0tLycwc/W19SEjZxc7nf2XWdL7GRsY+WN7B/T1Zb7ZvRcdhhzF19wJ9NfvwXGf5jqOW7mgJ0IklObRjLX5nc38botzo8pcSA3idB6n8lh4tWEN6tguSSTzJP6ALjsUxWZzwJGGzdA03AHhZNG/CDL4nSvo43PLg5pbvIK3zhzGsa4Ze8BsI9vNeaHEdtoiNPrOnPYtTAMbNjGb22jfY8UHF1bRE1fB08cOVxafLwOxLq7FOw5spvuI/P8AVPmF+A48vu6oYzkBsoe0SSuJHdsA35iB9Pqhuk05a1sWwus5w4Nbowfj6Ir97RMs74SdeevALm8UrTNK6Q31OgOthuC6Okwty3PwZtVmUMXs0+wbMkXpky6ZyiQcU2YpklCD5k2ZMkVAj5ikCmU2BBhSG+9qdW5CkksNFKSSStEEkkkoQSSSRQIJJJa+AdHZqsksAbE3455LtibyzfM7/SPOyjaXY0YSk6ijHXd/svwaUVtPM9mVjrvjz6OfZjzmY3aRlzd42Gul1sw9DaCiqaWKokfUyyOJIsGQDJsbk1LrusNXWNtmtlBmMPHSFznk2OdrBuAdBdnsLLPlm9rpGvT4Yt+8/Fr9aNfpliGSrDrmwcTt0LX3JPo4+iyaXuzlo1F/9rh/dDdMqrPK7hYW8OJO9ZuE19y0OOrRa53t+X0XJbtnQcaSGmc1rjfbc6+CGqMYZsc2442ujqymDnE8/wA1nVGGMOpd5BH3l0SDKBVQH5R4HZ6ImnjiN8rWtvwFroeDCmbnG/Me+1ENgtsSTlMbd6hMHdb+CzcYq8rC35n6f0/Mfy8ytONh0C5Kunzvc7dezf5Rs++au0WL2mS30jHqcm2NLyDpJJLtHMGSSSUIIJFIpKBGSSSRIJXRKlWxFJIaPZdZOmunVRaCJ0mhSy/f4KxyKdrIJ7LZoOjs0mpyRN+qZ2X0YAXk/wBK26fo/SRWzvdUu+lp6qP2JefVqXea8WgzZOlXzOUw6glneI4Y3SPPysFyOZOxo5mwXSHoO6Kxq54oRtLI/wCNL4WFmA/1FbsuPOjj6qINhZujhaGNHptPMm656uqidSbnjfX+6Dmzp4vwrHHmbsi6opYT/Aps5H/qVR60+IisIx5tcqa/GpJtZZHvI0DSbMA4BjbNHkEHLqgpQq2zYscMaqCo7DGK11VRR1LT/HpXgk79LXd4aMd/SVR0tqS51LiUY0cBfk5puGn/AHN/pWb0XxMQzZXm8cgyPB2a7CfU+RK0oIBA+TDpz/Am70DzuJOgud97eYH1Kz86+f8As4OSL0+XhcK2vjF/mX07FW1AkAe06OFx57livcQQ4blT1r6WR1NLsB0du12OH+k+xurZiuRkg4Ojo7lONxC3Yscp5+x3oQYiSg5m7x5hCqu7K7aNqCtsVo0tVmNhtK5uNnit7BIdbngkbJywrFZskT7HYMvi53dv5An0XIrpsep3ujblAIzEu3cm7dN7tL3O4Fc0G66+mxdfQQUcV+pg1iluVrgiApBitZGrQxaXIzqFghYo2Rhaq3sQUwuAMkpvaohqs3CUMmVzY1MxJHMZRYKpxuUnxqsIOYdrQRnSVN0km4emd/gv7M5pGCSpmZTNuLscC+UA62c0WDHEbGkk66jcupr+hQo4c9Ky5t/EmNzUNbbXKTpHfeWAEcto6ZsjILTTgGXbFBfSIH5ncXnidfynSVssxzvOVu4DRN7N9+CjDrXjldK/T7nlTotwVD7Dn5rpOnWEdWDUQizCf4jR8hOxw4NJ3bieenAuqjfalfB6jT6mOaG+P/DQlkQTnAm2/j+qZ1buUevbtslNCZGSOwuh5o7hX9aDsVObVBkYA8WK6zDJ2VsHZJnWlYLxSb9Bp4kbCN45hc7JGhi4s2XDgbgjaPBSMtvyMGp06yRrprlP0ZvzuEw7JWjq6iPSOX6hu1Ohv7+K52rjmpnZXi7L6HcfA7jyK3BjEVXGIqkAPA7so0/6PsUHMZ6cEPHXw8d4HO/53HNHJGM1+/3ONGc8Uq6+Hh/FP9gOGsa/YdeG9SezeEzsOhnGanfkdtyO+7jyuECKmSN2SQfr433rn5NO1zE2Y9RGTp8M2qY+q3qFlh4rl4MTjG0k+ARtPjUspEVPGS46X22vv4Acys8cM5Po0OUVy2dLF3tQARq035EjzH6oWuwESd6Id76b/hxHL04IuoYGCNlw7LHHdw2OJiYc3ne/mrqecLsQW1JG2MYZsSUlwzk5aR7Dle0tPBwI89U+Rd0wQSDJMLjcd7eYKz8R6KkDPTvEo+jZIPAbHeWvJSVnPy6Fwfu8o5Qxql7Ec9liQQQRoQdCDwI3KiRqrUjK4gL2JmtVrwk0K5SM7jyO1qfIrWNUsirlIujEGcxCyNWi9iFmaq9wzgC5Uk9klNwu094oqMud1sxJJ1sfzR0tR5AblTNLuQ1RJYWXRuzz6VFlTOHAggOBBBadhB0IPIrx3pRRGmmdHqWHvRk72G9r8wQWnwXqjXrkv2h0jZKfrAbviN+eRxDXD1ynyKpzL3Tpfh2oeLLXiXBwQl0ud6siqEA52gSjcSVk3Hp1M0mv1UnnVC31VwdsTplqZMvUJBdOmIRIzLq4i0347kRQYxJHoDmb9Lt3hwV88VxZZc0BCrdxdo5+owp9q0XwwunkNjHGTr9I8hxWg/CKdl+tqbngwXP5lYzHX0ITsOU30uPqaHex0SqS8mSWJvp0jXpzTX/hwSzEcb29v0XT0Lp3Rl0jW0dK348ukjh9DOBOy9ht3rlG4/OBYSgDgGNHtayeHFsxvK6SS2oBPdB45didTSK1p5SfNfq2/sdLLioc9z3DLmNw0fKNjW+TQB5KUWKN4rOgqqeTQmx4lWOwrexwI5J1Jndx8RSia0eIt3ouGs+krmeyuaioCRvRUmXbmbdYROLOsJB8L+P+l53jnuXP1LCCQQQRoQdoPNaUVQNLlE49GJIRMPjjsx5+ph0YTxLT3b8HN4ISjfJh1mPjevqcrIpRtTHarYwpZyq5Lo2KwtUWvU86rkWxRW9qDnRkjkBUFVljRRZMo50lKK6PenANF9fErLqKi6oqcabIbAoV0q6W48/tCJZtwWLUQ9a8x/UHMPg4Fv5rRMlg48Bp5rMwyT/EW4WKVrcx09vJ5i86DirIBvU8VbaaRvCR49HEKAOiwo9Zjd0y+6vhOiEDldTyhMjQnyXOO9SGxUmRThk3JrDY7iq5Ybi6sI3bkzLhQDSZkVEdjdXZM7cw2jb+qMq4rjmgKV5Y/lv8FW0Y5w2y+DKoxrYoptGr6qlBs5vmiKCJwtfYgohhjt0KDDNNo58UbT0hbseR5qwMU2jhdWqKRtjFLohLI8aFCPc5Glzipsp95Rqx6M9rn81uYPUlzZYj80Mnq2Nz2/7mA+SyK2rA7rdStDorESJ5HfJDJ6ujc0e11I90ZNXNRxS+RmK1pVRUmlJZzEWZk2dUvcq+sQZZEJc9CVDk7pELPIhQWxZkyo61MjQlnoUej1rNcse9nLSjOi0x6OJLsnWy2YOZ/BB4H3pnO8B7qjpFU5QwePv/ANKWCSdXA+Y7g6TyaDb8E/SsFXweeYnLmmlcN8jiPNxKkwaINu5GgaLCj1OBESeaTD9heodBYpzQh4dRRxNkc0OnjJeSTmOZ1wNpsNb2CuqWCSSqMoo5RBh8sgdTsBGZ50zX+YCM24B/NEV56b46PLCrG8V0/T/Co4KmOGFgbaCO7WgkukOYE23uPd8V0lR0Jg7K+lYAcRiibUOsSc1yQ+LhYDQcw070bLfbRSTfk88fxUQ9RY64UdhTWXMJYQUPU0t9QpsciLhTsj5XIBSy5SQdhRzJFVJCCohlkFwCPAcJFfTOubLPiKslJDTbbYprLEzVAt97kDV1N+60+a6HFKuUySnq6ZzOubHG19Oy56yzhdzQLBocwEne9vFDYlSAwB5giieJcl4XOyuAM7HgtJIBDoQbjaHIOafuplUc7klx38TmsoHjZdXSwdTQPJ+KUAnwcQ0D/wCtz5lYdFQdZK2P6jr/ACjV34W81udKKnRrBvOa3Id1v4n0RiqTZzvxCdzjiXzf0ObeVUZE8jkJI5IVplskqp6xUPeqy9QZBD5ULJJdRc5QRQJCzfd0krJIiWep4uzY4aKcD9AVRiMvd81Q2fKwE7A258AFo7OO0ZvSOfM5rAe9e3qjcenEdC8DeGxjzIv7ArBw13WT59tu8fE7PvkrOmdT/DYzi7N6D/8ASOR+4y7FH+ZGJzEe3wRscjRtQkLbDxVzG8Vis9HhtI2j0gd2M0Qa0sMvW5jfMDa2Ubrb1HCMcdTRVMTWBwqYuqLiSCwa3IG/QkLNbI3cE5cE3Zbsi00d679pEL3tllw6B8zctpSRmBZ8JBLCRY6jgqsG/aE2KR0z6ON8znOcZmuyyZXG4ZctN2tAa0C+xo3rhxZKygn8PD0CsRrGyTSStYI2ve5wYDcNzG9lQ8KohWRu3FFFyVKhXVrZFExpsigaJCZP1wKrLE7WKAouYfvgrr3QhduC0MJg6yWOIuDc7g3MdbE/DpvubDzRDuUU2zrejVAJZjJY5mx0p1cQ0h8DXOuMpsQYWuBuNQFPpVh5ZG97Xdx0nWNZoQ1mZzb8cxdO0nbqUbh9THAI7asnjiiMrCS0vpw2LI0Wu6+bN4ZvpIBtfVQzhsTJM2cSNDm5XN70cmXM7heIG4Nrxc1iucdVT6Zix5F7NT8L9jlcChtnmO/uN8B8R9f+Kx8UqM7y7dsHgNn6+a28TcWRtjAt8p5Wtn2czb1WDK3RbZPwc9P2mSWV+evkZszkG8o2diBkCA6KnKBUyFGyBamRspiJWxMRLIlLC1YF1SS0OqSUsTaddiklm25rNxmXLA7XcG+pAPtdW102Z4HBZFa8yy5PlYdfH709Vpj0clL3rfgNwCDKy52u1/T2WT0qkzTNbua38T/YK7E8YMfcjtm3ngsOWdzyXONyd6TNkVbUatLhk5+0kTjmsUXFO06WCBarwBuWaLZ28cmWvaLp7qAU2+iYuJhK6iSNybMiGx7qJTlMoQm2Y71LrVUQmyoEtlrp03WEqGVOCiC2WsRGYgXFwRqCNCCNQQd2qFBVzSiP2ewBsVRTgZs0UgzZmixGrruZb4XC9yLaOuNQ4hYvRfABDnzSMl0e3M03Y1mZtwLfC54aCbm7dODlyXR3pC+lNrZ4i4Ocy9rOBBD2Hc7TYdDv3EdlUdLRVBzGBwaBnc5zAwNuMth33XJsddBYHbe6e02cXNiyYYyivymLjrruaODbnxcST+AWRI1E1U+dxd6eAAH5KhyqlK2LihtgkZtS1ZsjFsTsWdO1BMZqgBwSY1SeniTEUgqFiLjjVcDUbGxKy5Mp6tJF9WkgSicfxnzWXT/FL/O7/kU6S1I439rMOu/zHeKqanSWVnWxdItarodqSSCN0Cxym3d4pklYXItxL41QnSSlOLodMnSRLxKQSSRCiDkgkkgL5JhSYkkiMWO2Lo8I/wDJu8W/iUklF2Zdb/T+qKgpJJKpmQFqVmVCSSaIjAJE8KSSsK0adMj4/v2TpJGXxEkkklHP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExMVFhUXGBgXFxcYGBodHRgXFx0dGhoaGh0aHSggGholGx0YIjEhJSkrLi4uHR8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLS0tLS0tLS8vLS0vLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYBBwj/xABEEAACAQIEAwYCBwYDBwUBAAABAgMAEQQSITEFQVEGEyJhcYEykQcUQqGx0fAjUmJygsEz4fEVNENzkqKyFiRTY8IX/8QAGgEAAgMBAQAAAAAAAAAAAAAAAQIAAwQFBv/EAC4RAAICAQMCBAUEAwEAAAAAAAABAhEDEiExBEETImHwBTJRcbGBkaHBMzThFP/aAAwDAQACEQMRAD8A85tammkxqPNRsh1qjNOJphokY1hTCtSV3LUFGKKmSuBacBQCWYpatxYihqnrTlkI0qED8GJohBiPlWdwSO5so238qdiMQ2cxoAdQO8DXFxysCNb20NjQ1UHRZuoUYnKNdOhHPa5AuR+B8rVcXCOp/aeFcubNcaLa4ax1ynUagC/OvKuKFi42R82VigCBtbqSF0zbgnnpzvV3hWJYxlwpuBa+4YeIMCDoB9k26jzuNb+o2iPdG3xHHsPEwDOdRm+G91FzcZLgiwNrEgnS/S9gcckzHu5I5F3GXMCSdQgDXuwFzew0B2tc+fri491UEOAe7fXUbMdiLa7G/wCFM+s5FKR2WxXUGxZiAQbcvbe9FTl3ZHCP0PUcNODbzBPoQSCp10by5gggmr8RrAcEnXvA0hfNn0IAYlmBBJvYfa57a++zgnIyhxlJAsbixvoLbG5t0F/Oroyszzx1wFEFSrUQFjY7/lUqVamUtDjTDUhplOhWNpWp1cokG1y1ONcqEG0q7alaoQ5alSvSoBPBHNR3pzGmWrCjcx165XaVqYAgKdXKdRIKuimU8VAHCKlhYEgMub00Pz/MGm92d7adamw8SllVja972zagam2UX5b+lKwo5iseAphjO1y4KLfUfCHAz36i9tB51WwkCkG2VSBcFidRbXKFN206A+o1qDEx5ixAPhvmNso5WAUai1wNTe51tVvBQtKAB4cpOtuVgLX9j5amq26LVb2J2wcKnxOWYOoZVuw8GWzXOXMrLn0sDyvfduGUIxEbkqVsl9zrzG3Wu4/D5WFhbwFdOTADXX+MX96dDATncKboySKNrgn9ovzFLaGUWVMaDc2uDcj+hjp6Wtb+ryq2sJaQG3hW59fBce97j1IooOGFnItoWUq5G2cX102LEm3maJcK4UVurLbLa4P7ttQP6gBeleRDxwtgXhOLdJVzNYKTY8hub+e/letDw3FGUuDn7o3ZrfFcLYnb4bjNbQCx6WI3juA7tsxTofQ8tOVjbnbSouH8RyaA2caqMpJI1FhsSbG9tAee4NNGV7iSjWzPSuG4cImWw16X0N76a78r+Q50VQ0BwONVwCCNQD7HX1opDNW6LVbGCad7l0moyaYX0qB5KdMqotF6aXqkcRTDiKayUXzJTDJVE4imHEVA0EO8rne0NOJppxNSyUFO9/WlKhX1ofoUqNk0njJNNvXLV0CsJtEDXb0rV0CoQcDXb1yumoGjl6eDUVSCiAbT+8AZFyAtm8LEkFdRqtiBfQDUG17ixF6cErsiaHra2pAGp6kWA+G/40JcESFhZsxZDcErZSDvlN+Vrche+9z5j0vgHZJUw6M5HiuQF1ta2teY4eL9tEVClGJtYg/4d81+mtj0INxXtXD55u5iGW4ynKCQANdyw8V7kn4ToPesfUOkbemVuyoOykbkMSB0059LedEH7LRlMoW3nbX/AEqzw3FENd1ZmO7ixHout7e3rRpcWo1CMfkLfM1iUm+5tmnF7IrcI7LxKviW+ltdTYbf3okeAwE3yD1pQcSFtR99dXiADeVW6oGWUcrbBPansuk8LFdHAuPby+dfPnGI3ilKFjmuOdhe9td+VrdK+opcWGBI/WlfOP0hsoxmgHXbqefUCr8TWqkUTtw3DPZziLsFa5PwjKdxmAzeg8BI0tuPTZwz1ieBSWjRjfMQTrrYtvYnU6Aff76KDEVvhsjHkVsOiamPLQ8T10zVcmVOI+aW1VWxVcnkoTipbVNQNITbF0w4ugL4uozjamoOkPHGU04ygBxlMOMoag6Q/wDXKVZ/635ilQsmkzFqWWn5a6RWc00Ny0gKdauWqEOFaaakpFaICMCpYlp0aVMiUSCWOreAwuYuSQEVcz5tsuZV2tqc7IAPO50F6iRaMdnMMHkZCCc0ZFuoBVjf+kGkm6i2W4YKeRRb5YG4Hw4tiVUsWOa1mBuIxqLX0GlrW2r2FoSkIVc5yWJ6AWtpy2J5a6VlOE8EX/aGZRoEZtARzC2ttuT/AKUS7R9oJoQYlYanYj5XPvXPyz1tUbsWJ4nT7M0PDsLnFw9jyPW3TWrzYKQedea4btli8PrJErr1UkH5MBrWx4L2wTEbaHoTz6VnePStzS8kpPYMNhpG+Ee/51yDAONXa9UeJ9qUg+I/LnWUxf0mkm0cLerZfzvUjj1cAc5R5pHoTykem1eI9vcIUxbEg5iLqP767Ab/AJV6Dwbto05yZVvzFUe3/ChJLhnawGqZiLi++3P0q/E9EtzNlxuapGS4fAyQxvcEHTTSxIvqPs3s1r2uFJtRTD4iifbuGKOFGiUKJZUOnVI3Unzvf9csvhMRXQw5NUbMXUYlCelen43NHHNUnfUNhkvVoGr0zM0SvJQ7F61dqORL0WLRnMVcVRac0fxeGoJi8NalYSEz03vTUZFdFAJJ3ppU39c6VQhwrUTipiajdqQssiFI0ia5eigNnRT1FRhqljNElk8S1OqVFHVhagTqiiHCcX3M0cttFYZv5To//aTVC9PVqDVjJ0euJAImLG18w1JF/iKlTzsd/PSh3GOGpMzMVB9b6g9Dv8qz3/q15Y4ojGXkjUIuVbkhbDNprmsBfTetLDirNlvtXJy43j27djs48iyb3v3MhP2NLOGzzBdLr3nhNuoJJo/wLszFHMgAYdSTe/3C1aIFRqOm+lO4DGWJc7AqF8yb3t7D7xS65T2G0xgnIEdtexDYgxtGxJsQy3t6EG2/l5Vl4Po4kDqwaTwkXVGCgka2Ykgj5fKvW8e5jObUra58tapTPm1vr1PMdDVjk4bIzx86t7grhXZhIiHKjNpdiSTp1JOtEZcIJrhkDZSMl+T7XHteoMXjgo1agcvaiPCz/tXKmyvYZirLra45m99B5VXDzOkh3a3br6Gc+lbEAPh4F2RC+1j4zYe3hJt51jIJrVd7UcZbGYqScggMbIv7qLoo8jbU+ZNCSda60I6YpHMyS1SbZoMJiKKRyXrKYae1GMJiasTKWg0rU81UilvVhTTCDZUvQvGYajNqhljvRAZHE4exqBRWhxeFoRPARSMJDkpV35V2huGiuxqJqe5qMmokFs5auGlSpkhWzlSLTKetSiJk6NVmNqpA1Kr0BrLZrsYJIA1JNh5k6VX7ytpwbs13WFfGTGzmCSSCPoqlFMredn0XzudbATa0mS2ZvjHEGhQxRMQADnK6GVgOZ5r0B2HK5NbPvAxVhsQD8xpXmHEJ8xJrV8D4mHhj5WAQ+RTQf2qr4lG1GuEavh8qk7PQMLIMup0+VDcV2pxMBs5R41P7MotiF28QA3A5j7qE8SmlbJ3QuTY6mwHXYE+9Dv8Abc6MA2BeQDfK1wfca29RXKhFnYSUuV/Fm34Hx/FYxv2axrATZnkuWZeYRdN7nxE1oJcNlBAP+lefcP7RTy6x8MlQW0OYINPN7Ami/CeIz52WeJk0uniDAj+YG16bJF1uVyjXH4Hzx/tuoGp9qxn0gRkzCQWKhEVrbqxuwzeRB0PkRppfWySFnCL8TH5dT6Csvx2YDHYlG8SXRSOq92mnkRyPIgGtfw/Hrm16bGLrp6YJ+pkAa41W+I8PaBgG1VgTG9tJF6jzGxHI6dL1DWxqnTMV2hA1aw89UxXb1BWaLB4iikT1lsLPRnCT0yYjQXU101BE9Tg0wCGVKGYrC0ZK1DJFegyGf+r/AK1pUY+r/q1Kl0hMWXpGmZKkAokIyKdanlaWWiChgFOFdRdaL4Lg7EZn8K9Dpe33+w9ytNGDk6QrajyC4Yi2wvbfoB5nYe9WIYV639CAv/UQb/0gjzFEcZANANQNhlGUHrlzW9yCfOqE5PML7AD8AK1R6dR3ZU8t8DJZQo0Nj1W4t8/F99bbA8ZWfAYcFrdwsuExFze0U65VkP8ADmERJ5WbpWDkQMLVXw2KkgcshsSMpBF1ZTyYbMKzdZg8SCUdq3X4/DLcGTTK2V5cwLI4sykqw6MDYj53ov2Un8bRH7XiXzI39NLGpuNcHz4eLFpfxxs1undEK6X3OUeIHfKrA7Cs7DMysrqbMpuD5/lVDks+Nrv/AGjRB+DkT7f0em4KfM4ANmF7g/rSiM3CJ28UTlSftAgb9b1mIcZ36JPGcrDc/usNCr9R/F0tfkaIYftgYfBKCpG3Sx6HYjzrluDvbk7KnpVp7PuHuHcAxatnlkL6/vafhVzi+IMZGc8tPWs1J9IKW535W/0qTheNOLfvG0GwHl+tzQcXzIXxHN0nYf7PRlmMrDVhYelef8dxIbHYl1Nx3hH/AEAJ+K1veMcWGGhZxuqnKPPkfnXlSA5bnc6k9SdzXR+GRepzMPxKSUYwPQOwyRYuObCzrnivEy9Y5HbusyHkSGHqFsayPEeErFLLCSwaN2Q7EHKSLgaGxtfett2HwowsRnluBGoxUvqVK4aHzOVnkI5F46xM2JMjs0h8TMz5hyZiWPtc7VrwTWfNO1sq/f3v+qObkuEVXJTl4e4PhHeA7FATfyy/FfytTDgJv/hl942/KiWXe4v1HIjr+tqjxTPYDMcvI7j+WQfaHr/lWl9JHlMrXUPuVhw2cDN3bWvysT8gbmnwSlTZgQehBB++lg0CtcLZwLZb8uZXqD60dbHsyXuWU7q3iF+lj9xqLo01syPO74GYXEUQjeoXwUTR5o7rIBfJe6uOeW+qsOlyPSoMLiL1mnjljdSLYTU1aCYpxFQo9Sg0oxzL5UqksP0KVGiWeeotSFKdGKUlVocZauwwM5CqLk7WrsETOwVRcnaiBxAhukfxH4n6+Q8qux4tX2Kpz0/csRYaLD6vZ5Om4X8/16VXxPE2eqDte/WmpvW2NRVRM733ZYEp3vTzKbdfWqynanMba8qmpgobIoO1VpV66jrzFW5EvqKj39aDVjIJcN7RCHDpA8XeBJu9Rg1vA4KyIQQfiVnHuOlY+RgpNg2XW3M25XtztRh4/wDMVTxUGl9x94rH4EYNuPcv8RySTL/ZxcT45cOneoP8VAQTbrkvn9wDzq/i5UdQGFgdgxH/AGMDY+g+VZzDSvGyvG7JIuqspsfn/ajUmNgxwInywYq3hnUWjlPSZR8J/wDsAsOYArDmxSc9VbenP/f0/Y24ep0w0/wyimGGa1xa9b7huZI7gW09Px8R+XyrzKWJ4mZHQhlNmBANiPPYjoRvenJiG2saMul1peb+BsfW+Hfl/k3+dcTKUlOaOFJMRMoOpWJbqumxZyq+9Y9YEXwolydzc/j0orwlzFw+eQizYmVIV/5cX7ST2J7se9V4YrgW3rX0mJRtL374/Qx9VneSVsJNxXFPGYpJ3eNmDstlGZhaxYgZmtYaE20HSoTH1quFcba1wYthuK3QhCCpKjJJylu2Tq5WrEbZhoPVeo8qqpiAa6CNwbVapUI0dmhtYgm1/C37p6Hyq5hHJuG0a1mHXowqGOUN0udxyP8AnUsQOnlsfI08WrFZcjkso6j+1OxcIyiVCP41/uKgfUEdQaZDxWHDzYZpye6VwzgLmJVQSVtzzGy+5pM6jKDsbE2pbFrC4i9X0krODErnbJcIWJQHUhSbqD52tRXDT3G9ck3BLNSqvnFdptgGPWk9JasYZBqx2Xl1bkP10oRi5OkNJ0rHmTuEsP8AEkHiP7q8l9TufYUNlLWBB1qZ2LMSdSTTHXnW6qVIyXvY1Gv71MgqvnAsPOrINFMjGZtvWlFJmBuKgV9T/NTDPkF7X0OnvQ1UGiwk9iqn7V9elSsutCRiO8ZbC2m1F5RcAjmPvqRlZGqHLBmF+dM+oOQ7ojMqC8hCkhB1e3wjzNGOxiRyYiNJjHkLaiRmVW5Zcy6g9L2FxY717rgoWjkaFcNEmGCAq6MNWPxK0eUW9dfvsMPW9eunpKNur5r2yzFict7PmGTDC+gIvrl5HzXz8q59RDDf9cq0/aiCFsTMsMQjQMbIrh1uNypXQAnkL228gDjNwRfxcvPy9a0xSlFSrkW2nRY4dwmaWGXIc7wLnyWuTCNCV5nId16EW6VV4TwuXFSiNSoWxd3+yka6s7HoB8zaoosUDfKzBtQQTY9CNAD86lw+Jc3RHKsRlZCfDIp3U/kbg0jjKmk/t6D6ltaLmOxIlZEjBEMQyRKdyCbs7fxu2p9hyp6aaUOj4iqGzoyMPKracVjOxPyq7FoitKZVPVJ2WteVMZwdGFvOo2xinVa30XZFHX4JCzRI0YWaMd5IULMhDQkRjwmxu2npSdR1eLAk5vkmPFKfBgDhQdjTTAw53rb43shhIg7t9YdBGrrllQli1/DZY1sth8WY3100rD8UwyRzSomipJIi638KsQNeZsKrwdbizt6Ow88UockMlx1FTQ4th9qqEkludVzKa0a6E02aXD8QvuNqrY/BCcNyN7qfPp6UKjxDCuzcUKfjTSyxa8wqg72LUF1AB5C1EsNiaFQ4vvVzc9jUiSWrnzpS2N0VcQ/9apUG7w+VKhYdJzIb6b1axoyAIPs7+bHf5be1XsDCAS5GijT+bl/c0Jke7VrwRqOpmXNK3Q1RTHHhp6t4rVy2486vKikasTSWAPzpk6WFOxC3jpK5GKzy2ubXF71FiHGRvu96Ql8B8wR6VQxD6hRVUpUh0iaOUKC3XRR5DSrODMza6KPP8qjwmG+29h0HQVZmxV9FIHnUjtuyMK8JxcMUyNKnexgkumniFjpr52NbVO1uFlhWCVMW0ShRk70WygkspClbjYDMToLALvXmUcY3Lip48q656WeKORqUvyRScVSD3E5MMpXuO+G+YShLDplKnbffy86FYzD5vGu/MflU8UyyC1xeqzBo9RqBy8q0VSrlFfLKUsKynXwyj7X71uvnVaVXXRxts1FZIklF1Nm6edQLKR4JfZ/zquUR1IWGxqOMsvoG/Ou4nhYXUbHaquKwuU/eCNvan4LiJj8L6oalriX7krvEkjjy6Gvaeyk8RgVQxiaZMOxZiQGkESqMh2zAIBYW1U9a8gxMWmdPEh6bj1ra9hOOI+GeJ5giwJK2Qg+JGKtmzKCwVf2isAD4ZBta45vxbC5YduzLuml5jZ9oHIZoo5FVsysA1yVUlQV2trHmA15g9TXivEcQJJHcbO7MP6mJH416J254zkRlaMK1z9XIcGxcOrsqjVQEfn9ttNBevMWsap+DYXDE5Pv79/qN1MraRA9cjiqQimgkG4rr0UWEcPkZbNoRt+VA+NuplsuwAHvufxovhWBI61n8bFlkZejGlzvyomNbhXgo8HqSaIEVR4boFHlRHLVGRVX2NWHdMZY9PupU61cqoto0WNukNgPMkbAn/KgkfXrXvfDuPLii0iy5cLGrd4co7o2+yzSxKbZbnwk+dtL+N9rcXgjOfqEbrEL3JY5WPVFbVF33OvIAb9KE+zVUc1ruAsSctjapU3NQTsSDtbpVcT+FWHLQ+1HVTBRdxI8NQPLoq9ak70MlxQzHS2yWO1Ccq3DFWVsU1s3qD+dUg9jfptRDiaaXHO1VMJgy5GhA5msk09VIvi1VjGkZtyTTo4Cx0vRX6iLWHzp5yRjzpli+ouv6FSPhygXapYEH2UJG1QycQJOgv616X9FPAYMVFLPikzlJkWMB2QAqM5+E2bUrob0biuAO+5k5OB4pNTg8SnrBKPvy2qRla1pEcEdVYae4rTdmJMVxHiU8aY7EQIWnlBR3IVQ9lAXMBbxCjsUWIknw8OF4+ZzKzhsuVjGqIz5mAlNwSAvL4vKgs7XYPh+p5Pi4ApzI4HvY12HiIPhlAPmK9T7OYLi2JWWV+J9zhkd0WaRI27wRsVzhWAAU23Lb6a1S7Y4biODVJHbB42CVlVJThICMzfCGAXQHkwYg+RsDPGp7ImjsYWODTw+OPp08x0qtiuG6XXUfh61seNGfASpFi+F8PvILqYFkTPrY2ZJLXBIuMvMVYxXDlDMr8Hx8TrbN9XmeTLcXHxROututP40Gt0Dw5XsefcNxrYVwWXPHcZl11HMfKtvA/CZCk8Ms+GlDKQy5ja3xDRWubdeu1jVbFYXhp0k/2hAb5SJYI289lKctdqpL2cwJJMPE0UnlLBMgPrbMPeqZqM9tTr090MrW9BrGJw2dzK+KxEr2W4K2FhYFVVYlyra+gA1vprWQ4n3QlYQqwj0y5tzoNTqbG99L1f4v2faF1yyI5aNZVeNiVZHvYjMAbG3MVVJJHiGvOrsPTqC2k39+PwVzyX2BxF6Z3hFX+46UyQAbirXEFkb4kIMx5dOZ6UAZi7Endjr71Nj5rnKNh+NQw73rLknqdFsY0rC0BsR7UZIoJGdRRyMaCjlVxRbgdNjbUqmrtUaTTZs+3eNWKBMHCJIleRpnj2GQAKo6kM12PIkHlWFsPehUPEChyvtyYcqc3F1vYgkbZq6EZxS3Zy9EgjJEDyofEtmZOR1FXO/JW6EGh2Md1KsQNDyqTaW5I77DYpigZR1+6qeJmzAep+VWcan2h8J0JFUsaLWXyFUTbSotiiVMao3BOlqnXiigfDQ1YzVpUCjqfSkU5DNIml4qT8IIqmczG5qYN/D71Iq3ou3ywbIjjS1e19gz9X4L3p0/3ic6b5bhfuSvGW0Br2jtan1XgiRc+4gh53u5XP5bFtfWhLZE5YO+g2BwcZMiZ3SFVQXAzO2ZstzoLlBqetHuCLKvEGmnwEOCMGCmcLEYyHuygMcgG1mAv514xhMVInwO6dcjMt/Wxr0DsfNKeGcVxDPJI5iTDoWZnYFg1wLkm37RTYVSOEe1PCMRj+E8MOCUyxRxgSxKRmEoRVzEE+IqwkB53a/mC3Z7gsmE4THhsZYPiMZAI4SQSmaWJraG1wEeQgba86874Rxf6ph//b4rEQYsuO8QX7uxcjMUaPKbRhTmzXubcqMPJJPxOJ4+Jd+8SGWOSQI4Rg5jEYSNwl2BV9LGxBI0qWOoP36np3H8NDxR5MMLCbA4mB9TurBJG/pZC62/eUGpcdOypxCQYpMIxxEcaTyBWVMkcI2YgG7F11POvLOD8Sx0E+J4sGgkvJJFKt5AJMrRx5kAUgLdorXcH4tN600naCYiXCYrhkWIGZ8TIFxKWAaVl5j4lcFAL3JXapYNL+g7h2Kmx+E4vhXlXEzJYxugAWRlSyFBsLtEPc1n/pChhwGDw3DlSNpwomxEgUFrm5yhviAZ72/hQDnR76EMA5kxeLVckEjZI01/eLgAncIpC35knpXn+FlfGcTDzm7SYkGToFRvEP5VjUj0WikI2c7Y4nu8WIr2EMWHguOTRxLmPs5YfOqUWMVjklGVx9obHz9D1odxnFd/LLLr+0keTX+Ni396k4ZIko7qTS3wN08j5Vuxya8pRJbWXpsIRquo8qpmNnuu3n61NLwydL5WFvWpoUIUXNzzPnUzSpVVBxRtmXxWAaNsraefKobKOdbfuVmTKwuRtQGXgyB+dr7VzfFUXTNfhN8Fnsxw44mVFA8IIznoL6j1O1aLtPAExMijbQj0tR3sdh40GVABtVLtzFbE36oDSw6h5MldjRLB4UF6mby0qdf1/XtSrQVWUJMICNReqc3DFPwm3lTn4ovJJD5iw/tUkONV9O7kv1IuB62FbHolsYPMgRJGyHcqw2PI+V6tLP3qEH4hVqXPazQ6dVIIPsRe1UzhJiQ6xFdPT8bVXpceB7sWHkYLobdR1qvElySd6cJSpIIselRYZ9/Oq2+ENROYr7VPmA0quWJqVEpkBjqcq09Iq60LcqagWP4fhg88MbEAPJGpJ2ylgDe/levau2/Dk4lEIo8THHlkz6qWBygqAbEdb3seVeEzQfvNTIsYY/8ADLA9VYj8KqmMkeht9FmM/wCHNhXH88in3BisPnRrgHBuO4CMx4X6vlLFyA8Zu1gp1fKdlFeeYLtTxFBlTEMFPJwr/wDmGNE8F204on/HQgdY4/8A8gGkUQtsJ9qOznGcXMcRiMIWfKqnujGwsu3hSRjfU1ksXw2eK4lglj/5kbr/AOQFbjBfSni49JVw7jyDofnnYf8AbRnDfTXCRZsNMDzKOrD2vko6Aan9DynDS6WDadAaLwY2YtY4h1zgIzszkBCftWN2QXJsPO2teo//ANH4RKB3sZud+8wob8A341UbtH2ffUw4cHocM6n5rGL/ADqaWTWT4DtphYsbgcHhpQuCgRg8reEPIyMAWLW2NySd2c9KwUoVJuKSoVZUM6RspBB+sz90pUjT/CaU3HSti8XZyXW8Sn+HESR/c0gH3VhuNYuAtNhsHHlgE+bve8Z+9EYZEtcaL4mI1N7ijCLcgOSA0OGzb1HLhijAiiQAAqur53CX/wBK1uKSKk22WcPI5G5yj76lNWVh0sKY0dZptyds1RSiqRWhmyODV7iWHAIcbGqMqVdwsueMofs6+1ZOohtZfglvQc7PYgK2psDUnb5fHE3Irb5UL4XLZgPlWl7YYHNhUcbrr7VlwOshuzrViMLSpmY/r/SlXTo5moHph7AWO3Spoww3NBVVx8Jt71YCv9txbzrQp+hlcfUMLiAPzqabEKRcdNWI29Op9KBDGoNrtVvBcRRvCy78+lWxyrixHBi4hhO8jzKjXXUMSLkc9KBAWbWtnHNY2G1MxuGR9HHvzqZMKlunuSOStmZoR3qWMUZwfZbESgtCjOoNgbW23FzoTVXF8DxMfxQSD+kn8KzOUYum1ZeoTatJ19im+LC8qrNPK+wsKuLwubcwyeuRvyp0CkGxBHtUvV3BpcexRiwd9XJNWxh1A00qSRbHalHhHkOVFJJ2AFzR0pIFtlOWS229FOzvZzGY8kRCyL8UjaKPK/M+Q+6th2X7ALdXxPiuLiMbD+Y8/T8a9Fw2FCKAoCoPsgWH3Vz8vVJbROhi6Nvef7HnmA+hyRjeTEpbyUn8TRnGfRCiQSNHKzShSVBAsSOR0r0GIPbwge9R/wC2UU2Ztdjpp7darXVSXLLX0yfyo+X5rqxV1IIJBHMEbipYsDn11Ar1r6VuCYQBMQgAmduX2hzJ9OtefMQoubADnXTw1kjqZzcy0SoqRcLQbi9T4jEpGLc+SjeqxxTPpGLDm5/tUQQDRPE3NjrVyaS8pTV8jO+dm8Rt0HSpuEH9vf2FKLD28za5P9qXDtJAfOgk7Vhs1AWmOtSGmOaQtKcwrmBaz266U6U1Hg9JU/mH41RkVqi3G6YahgyPqNrVvEw/1jCtH1FZPFYJmlNue1a3svKUXKeVci6lZ2tNwMD/AOkZ+lKvYu/FcrT47+ph/wDMj5wbahOL3rlKupl4OVjIoKvYbl60qVJEskHY+VTT7j1pUq3rgyM9b7Kf7nh/+UPxomm/ypUq8rl+d/c9Nj+UlxvwfKsxi+f661ylTQ5LF8pmOKb+9WuwW8vpSpVsn/hZlX+VG6wm3t+dXOnqf7UqVc9GqXIQw/OhHF/galSqyXyleP5zzTth8UH8j/iKwvHvypUq7HTf6sffc5HWf7Mh/wDwm9Kfw34aVKtUfmX2Mr4ZJHs/65ioMH8a+tKlRfYC7mmao5P70qVUmjsVpPzqLDf4ifzL+NKlVWTgeHJ6Q3+Kv8oopwzdqVKuNLk7uP5AnSpUqUQ//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFRUXFxcWFxgYGBcYFxgXGBoXFxoYFxcaHSggGBolHxcXITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGxAQGy0mICAtLTItLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAADBAIFAAEGB//EAEQQAAEDAgQDBQYDBgQDCQAAAAEAAhEDIQQSMUEFUWEGInGBkRMyobHB8EJS0QcjYnLh8RQzU5JDwtIVFhckVHOCk7L/xAAaAQACAwEBAAAAAAAAAAAAAAACAwABBAUG/8QAMhEAAgIBAwIEAwgBBQAAAAAAAAECEQMSITEEQQUTUXFhgZEUIjJSocHR8LEVIzNC4f/aAAwDAQACEQMRAD8A4ypThAKbqhKvSzcnsaaoPC3mhaBlQFsxoW4Ugto0ZpA5UUQtUZRpoCrMAUmlRCm0KXYdUMsYpGgTAGpMKdEgCTpzR6WLYwjMLnQE6yJBgbJb2KbF3cNgd5wA3IvpIhHwfDKZaSXXALth3Tt4qsxmOFRxYHQLwTIBJ29R8UrSxjxsQd2kz7u07T99KB1Max3CnD3e9qTpYeWvPzVQ+kdYVlwrjQa4Enc68iDEj4+SYqvpOLc+YSTcRlJ0159Fa+JTbOee2EtUYuoxnCWvM0ySIEwAYtpy0j1SeN4WALAiNSTM+QEBaIOIqTZRMoJujRR6NC6dp4ZOcVQnU2xenSTFOkmqeGKYp4dIeNDlNoWpUk5SapiitgQp5ZTnZmVbDFIIgV1QAMBaDVMKYagYyLoD7NYmMqxVQWora7kjUqI2IqJGo5AkOWTY3nTFNJtcjser0sjy2NtC2VGmUbKhZV2CegjVFc1Y2momGtjTWogCnYCT5ctv1S+PxLWtmLc7orAcjWPxbQAANu9rPptr/VUdXFOcLGctx0Gh18VviGNa8w0E3Gm+2smFClh2gEzcEX5TaAevP4Kq9RdljRP7qJbs4x3iToAIvaUsK/JwMagz5+CWw+FBcW5o38/u3knMLRkaQJ13gfY9fBXSRQlh8PLgQQfHnO4sYXR0MOx1ItNMgwR7zm2F5IvZKcR4fThpaDvm12tIIS1JpouDH5r6d5wE7X22M858VT3Lr1D8K4gxhyZ3D8pJsQdpG/VWeFrzILg4aW0iZ9ei5ziJ9peADqDEZhp3otmsQYjTRJUcY9tpspp7oh29fAtJzNImLhQo00pwLHAggnY8vvdWGWE/HNtUwHHfYMwIuVBYUUFWpbklHYxwQXIjnILnJqEMktF6C+rCWdXScjoZjjZZU3I0qpbiVIYxJ1DtJaSFtVn+LWK9RNBVVqiTNS6PWKQrG6OG4uVjJciUnqv9sjUXo5LYFPcuqLky1yr6Dk0CszRpiFLlsIIW8ylBMnVII8D/AEVBxettmJAOkgbKwqPewuLYIJmDaD0P0+OyqMM32lRrTG/hp5A+PRFXqJDYTDFhbmbfJnuYAn3RuZgaIFSsQ3SzokxBmxkbBXOOwdRhFR7TUDmNzATNhFxy5wPneoZhn1jOV8AQIE32zHYX+FgpyXQ3wBsuy7kOhx3IAIHiQR8U3X4hTLGtbLBlYHm0i/ey7aAwT9ZG+FcIq1AWtoEuGaXO7tMEgwRFydLRttdX+C7JsDmOAa3MGuZfNJiTd0DNoYtvrBQSfqNjFvgr8fihUbSpsLAyQC7vS1pIjOIhptzvdWHaTAdz2pByCGixzFsOHtR4EgxybKvcNwRgJZVY0ug3I1BsYBsInTqPJnE8JaKZBLiIt33GBEQ1pccgOkC0eiXrG+U3yeVYbEwC1xGpvlkHq2x15JXFUZdOXLpIGkwCYHK4t1TvG8IynWyt7ocDptyStZ+kAH8w2N9Y2Oqcn3Rlaoe4Q8NFwSNomPmF0VZ4MRa2nJcxVrezykTMOjadABP4jex6K9a47kq4+paQ7TRpSlNymaivWG4hXlLVCsfUQiU6MzPKAHEPSLjdN10m4oJ7lw2CNcoOcogqLikjgmZYgZ1ihDKiQxCvHYFVuJw8IoS3BlEqi5M4ZyDVpXTuBaN02UtgVG2P4clNsQWQjtCRY9RokUGrURC5J4h6iZJLYVxQzOElxB2ncQALX5qFC+Ip7CQDHK8j0KmzG5J5m236eKXwbS6uzWSeXPr5o3wI7nU4ztJTBvI8LynOC8bpOJAdGlnb9AuUxfDahJ0DdtiT1Ka4TwY+0pwbkjMJkRP6JTSoapO6OufxlrJMwJ/RJU+NUjLRWY5hJJa8ZgCTNr6bx8ladqOBt9iCxvmF57ieCvmQcxnoZHh9EEUmNm5QPU+C8RoGwcBAj3YBLi2T491up2T+JpTIzSCJAiR5/fJeX8Pp16ZEsJbF8tw1eicAxbnty7pc1Q3HPUqPOu2mBc17XbCwsecgKgY/WBIi4+q9E7eYUm5EbHx5rgXYSoS22YOsA2JcT+GB3iVoxytGXJGpD/DIc9kj1Pdg+6QJ15+CvgyVQudVov8AZVG5XiCQADAiQQdxeRBI6q7wBJA5aydSep06RyCKwEmggprbmIpUXFAx8RchRJRHoVRWmBJC1YpJ7k1WCTcE1MRNUaLlhUVJoQMuLI5ViNlWKgzoGtVfi6E7K4cxLVWq0qBcrObr4VRpUYVzWopGq2ET4LggmHaE0AkcO5Oh6UzUkY5gSOJYnHPS1YqItoqq1G6b4EyK9Mm99esLHNT/AAHD567B1Pwa4/RHewlxOrr0KZGl+ib4PgW+0EACPqqnBuuZ1GqFU43VpPMNtZzXDzmfRJsOFJpno2LoDK1pIiwv9Piua4lwanMhkjccuo5pCn2xq+1ax9EPoO7ua0ieQ5K3FUyWHUXHUHRK3RrlpmG4XgKYENsFZGkymZAg9NvJc3UrFpsSBy/qnaOJLh5IJSJCMSHauiMRRNNkZzYeMj781WYfgbG1WUMQ72TqjQWtZPsyLtLQ/dwIE2AuFagZHBxmG3J6C6bxnDDUqU65M+ycyzQXOIJJgRbU7q9TqiKClKzzSrRy1aNN1y2m5txILc7ixpGvuyZ2kK3Itql8ThgcXXqTYVHMb4MAZbpDRcIj3rVHZGHK7m2achuUpW4UaBTFyouCYLVpzVQYhUaln01YPYhupokwHGyucxSa1MPYohquyljoj7NYjLagekvapSziivclatRMRmBViq3FFNVqir8S9RoZE1Remm1ElTamAlM0xYQPQnuWKQaog6bBNamMK8scHNMEaH4LAxTYxQnllvhKpIkm5Fz10KcqYjMA1sclXYEd0j7uqTG8IxFSHM73QGHD+iCK3E1To9D4Niso7zRbwMJviVRroc03HLkvLcHw/H0jNNlSfEGfETddRwmtXBArtyk7ckE4j4z2poucXdsrOF1IJKMcN3Qg0mFuxSewb2YzxQvezI0wXECekgmfIFVPaLtbiMJ/5WmGipUp/wCY3YOLmggH8Ug3Vs+pGXnqit7N08ZiqTqrg0Gk0AxLm5Hud3DMBxzAS4OEA2vIPEk5Uy8jko3E5HDssYEDabnxJU3Bdhx7sNWwzTUzCpS/M0d5s/mZPyJXMsw7H+7WZy7wcL8tDeyc5KPIGPo82RXCN+39sWpsU3NTAwbxyd/KQfhr8EKoUSafAjJhyY3U4te6oXcoELbislRgJgnBBe5HqvSbnKg0YVFZKxQdGJtYtwsUG6EHfiUnWxCWfVQXPTonNlGg7qqFEqDUzSaikVFkQxTARcqlkSWaIC+VTpuUnMW2tQm3GgzQmKFBziA1pcSQABqSdhzK3h8PAzVAQOUG/jyCs+wLxiMe1+jG53tH8LO631cQfIclI/edI05MKhj1y9G69i6x/Zz/AA2El0GsXBz4MhrYLcgO8SCT9AuZrYWoRLCQei9J7Td5hB0II9QvNxxH2dim5oJPY4sMjk22ZgaGLOr3EBW9Ok62bXaUpgOPt6BM1uKAnqs7jZocqXJeU3w0Sguc0lsX8PjPRVLMQ55DQIViaBZTJGp1KW0kWpOQCpW/fEbEfLZP8UxTqDsHVBhuaoxw6ODXA+WUqkw7u9rurXtIQ6jQB/1B+n1QR/EPjumev4Mtr0Mrhma9pa4cwRBXh/bbgFXAYguEvYTmHKo0fKq23jbmF6t+z7EF2GAOot6W+ie7X8FZi8O6k6AdWOicjxofDY9CVsyY9atc/wB2L6PqXgyU3s/0fqv39VseC4fiBddpBBaXj1iPGQVYYLFNqtIeM0HoI8DqPVUGMoPwtZ7Xty5iWPH5Kn6O/Q7p/B04DQQb3sufJaXaPXYcqzw05EnXK7fBr4PlFhieFSC6k6ebTE+R0KpapLTDgQetl0WCIF2mea3XffSQdQQCJ8Cmx6hpbnO6nwDFkd4np+HKOUrVUJt11VbgVCsJbNJ38N2/7Tt4QqLH8HqULugtmzhp5jUJ8ckZcHCz+H5+n/ErS7oVDVMNWNU8qITGRBaRMq2iC1opXlQKlUQ02COfNh6QTlMJXDhONUkVEmApIRemcPhnGCZAPqfAfVKbS5NeDHPJLTBWwbKLnGGiT96nZWGGwgaDObPFiIgeEnXqiURUYBkAANudxvJ6KGIxJOnW0AEHXZZ5Tvg9R0nh8cS1ZN3+i/kq+I4g02Phxu0jXQnrzkrsP2T4PKKtSNAykP8A9O/5Fw3GBJYBo5w9LuK9W/Z/hsmDYd3lzz5nKPg0LR08fvI5Xi2XaXyX7v8AYseNMlhXlOMjPUpke64nyd3reZPovX8bTkELyftnhTRxDakd14yHxF2/8yfnVqzz+J/eopxhhMC33oi4erlN1oP3C1VdJWSzVpOi4Xj7jcrr6FdrqRB1IXm2AfBkHxXTUsdDUqaHYmlyY2n3oHNN9oan7lg3BkeKHwnvFH7Z8JdRoe0qOyvdDadPfvaufyMSQOkmNEMU279DRjjdL12PRewTSGfH1uupxYsuV/Z9iRUw9N43aAYizhZwPp8V1OLqtaxznuDWtEuc4gNAG5JsAujFqkzHkhKM3GXKZ5h+1bs62rRGJaLiGVYFy0mGP8WmB4Ecl5vw2q6Gh/vA5T1i0+dl2fbrt/7Zr8LhP8p1n1SLvadQwH3Wn8xudo1PAsOUXm3zWHOotvT/AFnpPDfMhFOe1Kvl2v23r3LvC1jqbxaR739U8XZm89Ij6jZc6zFXJB3B9U5h8dJAOoNzpIIKyyg0dzHnT2LvBV4Nr2vHyA3VgXAtJsRB10jeei5DC48gz0V5SxzSA8aEXHX7KqMmluHJRm9irxfDoccrYIuWanxYfxN+I6hJwrd9aModpqHbtPTmOnVL46hBkb3toRz8efrzT8Oe3pkee8V8J0RebCtu6/dfD1Xb2K+Fi3KxbTzVspXsQ8qddTUfZK0xcokMO1NNYSYAknQKLKatOHYdupfldE9QP6oZzpWaui6OXUZNC47s1heGEGXi+wOg8bX+SscRibgZpOkfeyEKTBuXKGMd3bfY3WSUnLk9j03TY+mhpgv5Zv8AxEnLAI89R4aIFZl7Eg6wbjyKUFWDPWU1UqZt7i4VDnJMo+I/5lO0QT8WmPj817jwLB5MPQbGlKn65RK8drs9o0zePULpuyv7Qq1ICjiG+3a0Q0iG1coGgJ7tQgbGDbUrX0+SKe553xTpMk94727/AEo9JrUVzHa3gAxFCo2LgFzTyc24KveD9qsFioFKu0PP/Df3Hg8srve8pRu0z/Y4Wu/cU3AeLhlHxIWyTTi2efhhl5ijW9nh+A4VXcwOawvHNhDjPItnMCPBMHgtc/8AArf/AFVP+lHwVU0yC0GPxRJgaZj0+9l1OGrl34isGKUcis6nXdJPpptVa7HOYLshjHm1Bzery1g9HEH4Lp8D2OeAPbVqbejAXn1OUD4p2hVcNyjmqbSd05Y4nO8yRY8MoUMMJpNJcBepUgkeAAyt9J6rzrtjxR2JrmXd1g7s9SAXHx+S7XEy8ZBYb9ei874u/wDe1IFs5b4Bnd+JBKX1D0Qpdzq+F4/MzXfC5L3sh2wdgGPcWe0a+4ZOXvxAIMGBsbfJVHHu0+K4hU/f1IpN7wpMkU2gaWmXHq4k6xGip8Q/MOQkgBFoN7kbvMn+UaffRZVNxhVndn0+PJn8yt6NU23k2J2/RDxrrx5px7QbbBI4o31mNFcQ8myYKTlnwlEw7951gffqgxZRefd5z8oRtWqERlpaYxgK3fg72TeDrkONOTcx5GAqeoYcfFPMqfvQ/oCfHRBOC+qG4MzTS9H+jOnowQWuuNPAnkl87mn2bjYXFp9OhUhUBBI5/oj4g52k/iby15rCd3kV9tR/KP8Actrqf/DqtyHxWLd9n6j1/U4H2rwz8sfocC5ixrUV63TatZ5KrIOgCSpYGS7OfAdT9280u+ajoFh15Jm2g0Gn6+KzzdnqPD+m8iG/L5/j5FiKjeclL4yuBbmka+ILTIIE6zz/AK6+qVZWkkkoEjbPL2Rp9S6NRxRABGoSTn3JQ2VEdWZPNaZbmvkd7Rt2O2+YSHEKWV2ZumoW8FWlrqR3u3oVJoLpbugX3WNnJZIbd/0fdAq9JtUTHe3/AFQRxbEsb7H21Q0rdwuJZLbiATbyRMO/I75ovEsMHDM3knKVbPgw5MPmLzI/iQSnxEPaJ7rgZ6EiR8iR5rqOzmNBLabiAHe4Tz0ylcCArTAYstputIaQfI2I+R9UqWN43qh9DRDLHqIvHn7rnvt3PZsPwp3I+iK7g58Lqj7NftCb7FraoDi3uh98x5Z/4oGu8K8/750XRlaNRqt+PJCSs831XR5MMqlx2fZ/FCXaLEjC0S78ZswfxG0leWGqXDWTrB3EwD8ZV5254w6u6fwA5QdiTqR5W8yqLBsv4g/I2CwdXkU38Eeh8I6d4ob8y5/YC+iQGjn9/RGw9yeX0CNi3AkNEggZf6yhYJjnHI28uy9BqZnyNuiTF3ydHJWMI+m7NDQSenQSfl8Eni6JbE8vLyXYuayiGMbTdWfu0sJb+bvWubkdIsYQ69Ita+rXo5Gd1joN2yCG5mjbSQdYujV2c2fVXwtu2+7OLAsg1x7vn9F1HEuHUm0czQLy5rgdDGYtMWLSBbkT+GYXM4rRvn9EyD3JrU4Nrt/IOu288xKJhd1B5lo9FBroHmjq40S0p2X3D6xJA+/NWcwcw8HAclzfC8TddIxwIBH9+iw5YuMju9JkWTGi1/7Xqf8ArK/+9/6rFV5G/mK2p5+T1f1L+xYPyL6L+CncUPFVsrYGp+Sf7PcNOJrCmDAAzPO4aNmjdx0A8ToChcZ7P16D81QB1Mmz26fykG7TbT4rpzT07HiOg0PKtT37e4pg2QCdz8kZrvkotdbx/QINZ029VmZ6dbIg54cS0zcW8Rp4cvNKVaoIhogfeqI5twRtqoYloDidtfW6JcmbI3QOo6AEIFbraILXJkVsZMk6lQek+HAqwxIhwcNwCqs81YB2ZnggyLdMf08ri4/NA8Y2e8N1PBYi8HQyP7KWCwNWpOVpLB7ziQ1jTyL3Q0HxKDjsE+i6Hsc06iRqObTo4dRZXVoHzKla+aMxeFym3iFLC2BaRZ0jqCRHpp6LGYy2V1x8R4FNspyJaZHPcHqlyk0qY/HCMpXD6CmFYWGQ5hG4Oa/iIVk3GMuQ6AOZkSeQ1KVxGWJMgO18Rt4iT5FSwVWmxwcLxqCAQQdlWpPdkeKSTiq+Fv8AZ7fWzMRxAuDRGdrdIlok/NPVH0w1pDCwhhDxMy4kwRJMd0gf/EmBKS4jjGueXU6Zy2gm203HiSo1XOAAg5j3jyGwB+PqhyRt0g+mlUdTe/LVd38tyT3Q0uO/u9QrDs5jWsY4OzAg5wAD3jYCTNgLn18DV16T4zPMnx+SY4TjWzlfYHR207Zhv9JKqKpWK65SmqS9l6nQ8A4i4sxNN+YioGk5D3yLtIBvqMs68+aIK7XtqUWtDRUDge+XHM2cs6N1j8O/RAwFN9BwrBuZrg4PAIm835D8L4O0aqIrMa81Gh15OUkgCxJJkGzYnuzYm1rKnOd0uOxhyxjGVw70/muwhwuk11N+YEtBnmAIkwJudSYBsAufxsSMsxeJ1hdjxKuzD0SG5C+oS4QAYnVwP4RfYmwAM2K4zEnTwWnHdjkk9c13o20dwoOyJSdsoOEJq5ClukzVJ0FdFw/E26Fc0Cn+H1oMFK6jHqVmnoM+iel8M6nN4/FYqr2w5lYsFHc8xDnAab6hfg/ZNLZpvrOc9zRlkFwc0WeY902LC0mbuBsu03HG1Q2jSvSZvc53CwdJuWi8HeZ5JHieLDg4hpYajG0oAa2mKLDJDA0XBdDbl1i8A2Kr8RUDRA8+pXb6jKntE8T4P0er/en249xes6LIJZK1Mm6JTB81jZ6Dkg+mAkMRqD5en91Y1W2SOLcLRzKKHJn6hLSArOQGuRaqAnxWxzMsvvBpVnwLHU6bwatIVWx7hcWAnaSAfQiFUFWHCccaLswa10tLSHAkEOEHQg+aqS2ChN2drh+MYaqIa8sfowVcjfZD8tJ2V1Dp7lIn8yQxuPpslob7QCczGR7Exq57iwMJ/wDbpt/mKUZ2yxE6Ut5OU3El0HvaSXW/iK1X7W4gmT7Mg6jJG5MG8kST8DqJVWD5MnvW3v8A+FBi3Nc4lrQ1s2aCXR0k3KjQe9plpIPRWmIrMrOzmGuMTHu2AaI6QAh0XZDpIQa+1G2OFpqV17GqeNqHWmHcxl18evVGfSaTmIydA0fMG/ooux3Qf2slKmILtSl6fRUafMSX3nY1mYD3ZnmduRA3Pil6OMqMkZioU3XTRAKFpLZqwk3NaouqIh5eb2+Sg2nCMyrAiEEm6tbbIkt92W+E4vVpd1ru7yN9YuOtgnm9qHERo7m0NBJhoBLjcHu6rnxcD70UQPTZDRU8UJO2jeMql78x9OQ2A6BJYkX8kw89EtXPePkmY+RWalGkRYsq6rTdVusNE3uZv+oJSY5RlYCjFJ0xv255raWzLEvy0afPl6l9QpBjBOp2P3pdLYoknTaQiYl3e6bfqVjxmhKve2b9KitKBU6crdatFgiGQNkBwF0PJTVLY0X2+X6qvrbeabe23qlazYPkmw5MXUNtA3oCOUFwT0YciNwiNKg0KbQTYAknQDUqMkSYKM24Uf8AA1ovSqx/I+PkosfBg25g6oJIdjmmaFkQVT1WqkbdVFpVbMNWnRIuWEqx4XwDEYkTQpF4BgmWhoNtyRzVW60g7G/kpRNaugjXXTs/RXeC7Dve1pfXp03OAOQhxcOhjdJcf4LVwz/ZvvbMxw92ozm3qNxqEvJBqmM6XqcctUYu2IvjnbxU8PgatT/LpVKg5tY53xAXddl8PRGCNdmHpOqspOqZnDOS5jST705Zg6BV2E4txfEuaabHtYYcDkcykGnQ5jAiDsb7I/LrkR9u1Xojx6ujnm8JrB7GPpPpZ3BoNRrmNk9SNPBdZiOyuEwjG1MbXe/NoykC1pIiW5iC46jQBX/aPjzKeFNKq8VKjnU8rdTLKjXF8bQGm/OBujdp6eFOEpPxTajqbXgD2Zhwc5pF7GQcvwR+VFX8BH2/JkcNmlK+N3t6Fd2Yo8NxbnsZgAGtAlzy8uvMXznWD6Ly/jlFjMTXZTMsbVe1h17rXEC+9hqu24h2xYyiaOBo+wYdXG7zIuZJJLrDvE22GkeelCpJ7LsPWKcW5O6fCbtmgnsJh2vJDp0252/VIlWnCveP8p+bVa/Egczawza5F6/C3A91wI62P6JV2GePw/JX9VI1k/TFnIXW5YremVWR35T6FbTqxX5a9S/9Rn+UaoU5uZjqivd/dCfWnoFFz1zz12pdiFV/j1SpddGrtt13ShCKKM2WTTDuelXukn70spl8CUFibBUZMs7aRtQcFMqLkYiRpqseB48UaweROreZExcdf1KrkXC1yxzXtiWmRIkT4Kxc1cWjvm1TXh+HxzqZiC0jM0nxF2/FM1H44ACph6GLYBBLYe4jnlfefCAuUbxLC1zNdjqNX/VpWnq4aE+Xmrzg1ajRBIxpqi0A2yxzJN9kXJzGnjXHHwd/VB+wuIJqV4YGTUByZQMszaCLERCHi+xZq16tQ4mgxj6j3gS5zoc4m7QBe/NTwvaKg7E1aheGjJSbmMDO5pfLhzsQJ6Ll+1GKY/FVXU35qbiHCCct2tm2msqnWk04XleV1taXO56L2Z4VSwzmspV/bd6andyhptAAk8tCuM7PcJD8XWe8fu6D3k9XBzso+En+Xqo9mO0bcK14yFzi4Obpl0i9+g2QqvaZ4p1adOm1ntX1HucHEmajiTsNGnKPCVWpbB+TmjKdd63/AMnXYjBB2IFf/HMY1ogM9m4gjUyS4XJ3i0DzufY0sdRdQNRpy3pVRfJUFp/lOhH1C8Wgck1guJVqIIpVC0G5AjXz0/or1XaaB+yTg1KEt18KPUuxlA0A/D1xkLXvpuBNodeQd2w+Z5ELluE9sK2HcaVYmqxpLTe4gx56f3XK4niFSoZqPc8/xOJ8hOgQWuQ6mqrsaF00JOWvfU79jvu0/aHh2JGY0niv/q0gGk2j940wKg2nW2qR4n2wqV6Aw+QNYcpMy52ZpBkEAAXnnYrkQEenJGqXNt/M2dPhjHTe+ni+w1VPcJVbCdqHuFJpePua87tr2Iqy4Se8f5T8wq5WHCj3wOcj4T9EzuY8sbxy9mPVErWarJ7EpWYmpnn2iuyLExk+7rEeoDSCapHUffJYsWJntEQd9UvX+i2sVx5FZuANTRCYsWJ8eDBP8RtadstLEQDMGi1+ixYqBMZv4FY3RYsVlQ5NuU2LFigxE6v0UHalbWIEHIiVsLFiIBGH79VOksWKmFHkmEahqsWJcuDVj5C4j3XeKU+/gsWIYdxublexpid4X/mM8T8isWI3yZZ/8cvZ/wCC9q7pSqsWJi5PPMWWLFiIE//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXFxcaGBgYGBcXFxoXGBgXGBcYGBgdHSggGBolGxcXIjEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUtLS0tLS0tLS0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLi0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAUGB//EAEQQAAIBAgQDBgQDBQUFCQAAAAECAAMRBBIhMQVBUQYTImFxgTKRobHB0fAUI0JScjNigpLhFSQ0ovEHQ1NUc5OywtL/xAAaAQACAwEBAAAAAAAAAAAAAAABAgADBAUG/8QAMhEAAgIBAwEFCAIBBQEAAAAAAAECEQMEITESIjJBUYEFE2FxkaGx8DPRFCNScsHxBv/aAAwDAQACEQMRAD8A81iij2jFQ0kBHAkwsDIRAkwI4WStAEgRFaEAj5YCA8sfLCZI4WQgLLD4bDM5sov16DzJ2A8zD4HBmo2Ue56CdZhuBZlC/CnQcz1b+Y+cSeRRLceJz4OZp8PQfE5cjlT2HqxGvsPeEKUxoKXuSSfqZ2P+wKYFl0PPpKGJ4Nr5Sj36ZoWmOayUm3TKfK4/GDqcKJ+BtdPC2n12+dpsYrhKi5BMr4VipynUcjrt0MeORPgSeBrwOfrUGQ5WUg9DIT0jD8GTEJ3bbkDITuL7WPTXa3LecXxvgtTDuVYG19G69JbGaZlaMqK0kViyxwEQJNY1o4kIPeKKStIQYCIyREa0hBCOIrRrQEHt+rmPI2igCVBHAjgSYWOAQEmBEBJgQEGtHtJARwsARgJNVjhZMLAQhaICTKwmGpZmVepEhDrey/DQtMOd211+U6zB0RpeZPDGOVQOQtNmjhm3vOdOTlI6kEowSLNXDC1gPxmBxRCOU2aiEc4LF0brc2tFaDCVM4niFW17DlMUltxOl4pSFzOZxRNzYSzGPOmjt+y3E6b0srFQy6A8+ZB9OftymjxZExNJlcDOvhZSNQb2JXlPIXxb0zexXNfKRce/nOj4Hxwq2puWtdt7i1gf8s09JzckVdoxuJYE0qhQ6jkeo5StknTdo0z3fzHyOh+uX5zCyS6LtFTKuSOKcsBJIJCKVxTkhTljJFaGiWB7uNkh7RZJKBYFUiKwy04TupKJZTt+rxS53MeCiWZS05MU4ZacIKcIbAhJMJCinJZZKJYIJJBITLHAkolkMsmFkgI9pKJYMrLXDF/er6wQE0eAUs2Ipr1J+xvFmqixoPtIbG4/HFc9MKiAeFdmtvck3uflMnDdrcbTaxqXH8pA+XWaHafD4hqpFO9hsNNxqbX52AA57yivBq70wzKxqFj4TqQvLW2bQc/pM0ZLp3o2yi7pWddwXjrYgLffmPaA412mNEMDe4O02Ox/Du6QE7ncEWItcWPyv7zhe3hzVWygaHWUQSlOvAvltGzIx/ams+1gJm/7WrE3za/rlHo8Er1AStMkAbkgDoRqY1fhrIgJtm1uLg/bnNyUFsqMLeR77m/R4iMXh/2d6YWvTu1J1/jG702HW2oI9JkYWuQVIOqm/lr+jK3D6xRlYaEG82MVww6Oo0bxD3F7fO4+UHBPA6Mt3mFLE6rlHtmAHr/pMnLLPBL93WQ/y39wVMRSPjWzKJ8lbLHCw5SLJLaK7B2kcsKRI2koFgwsIqSSLDoklEsGlOFFKGSnCrTgollbu48t5PKKAlmEtOECS33EQpRqDZWCR+7lsUou6koFlEpGtLVRIMpDRLBWjgSZWICSiJjATqeyvCSGWszDY2XnqNCT6cvMTmQs63szgyrPVufFkW3Lw01N/XxETLqZdMa8zbpcanbfh/Z07cMR1swuL3PrIUuGU6V8qhRrew1PqZdoVd5Q7QcQ7qi7qMxVS1vT8JgvyNdNuibXCswFgB+jPJe0LWdj13mo3/aFVekwFNl5HTw35gNzt85xNbjNRmObW51mjFjkmCeSKVHXdm691K7jp+Mu8R4SjC5A9pl9icQpzLzH2m5xFrXiTtTHjTicri+GKp0M2eDYhSi0WsCD4Seo3ExeJ1OmusNgiGWmzm3i359R+UvW63M00vAJj+LJRq1UyFiAFBDWHIkHQ30+stYbFUqyCpSuLGzoxBKsRpZgBmQ2NjYfCQeRPHYmsXYk7sSxPmdZrdmRao45Gnf5OoH3MuhtsUzxpxbNwiRMKRIkTTRhsEZEiEaRhoFiSXKSyom8vUYGiWFRYenTkaYlqksSg2R7nyMUtZYoCGSKUmtCWkpwvdxg2Z5oxjTl1kgysILM6rTlcrNGqsqOsYllZhEqQ2SEpJIwojTpTtcAT3NIhfCFOY/3rga/L6zlkWbODxoSiUINyeW+9wfbWY9VFuOxt0k0pNPxN2lWtpeRruApBGZn0tvp5jpKFOoT6iYfFOPCmWW/7w2FuZFth67aTmxjZ0TR4jwulUVabhMqjRQbAD8Jw/FOzFAEmlVv/dJH0POZ3EO1VRmINxyt99/lM/8A2i9Tkxt0FwPW202QxzjvZTOeN7PdmrwxFptZbhh56GXuJcSuL3nL/tpzC977ectMGsc3T8DHlj3tlay7UiT4i+sJRr2pkk2tqPXYCZwOglh0uoUbk/8AT7x6K7sqspPttOj4BQ0L/wB0KPM3LN9wPYwOH7Nve1RlUbaXY+2wE3UpKihVFlGgH6585dCO9lGXKlHpRAyDSbQZmhIxESZEmSMgYQEkMu0JSTeXaJitBRepS1SMo02lmk0rYyLseCzxQBChIsskTETCAA6wLr+v16iHqNK7GFEK1WAyyxVghGADKSSCSMSiQKYakJbpLAUllulK5FiZYwNSxseWn5Sy/C6ajvcimqTctYXy2+EHkJGvh7U0qW6g+hJy/I/eGJLIDuLf6TkT7MnR2MTbimY3FK2FfRqIH8wbxC/LeYGP4iqrlpIEUbAAAD0A0vNPifCySSA2vX8BMjEcLKgllb3lsZJljnLwRk4QpmuwDeupLcoDjr6qo6XPvLNGhl8bCw/hB5+fpMbF1szEnmZfFXKzLN0gQM1+AUM2IQEfD4j/AIReZlGw8R2H35CbXZX46jHkh182IH4yyr2KXsrOiYwTGRapBM82I57HaQMYtGvCKIiRMeNDZKHQS1TMqAwyNFbIXkaWaTTPV5Yo1IjGNHNFKvexRRjQzRy8qLVki8IKJu0AzRnqQLPCSh6jQOaRqPBB4QUHJkkMBmk0aRsNF2kZocOwz1XWmguzHT8SegEyqbz0/wD7PeFZKPfsPHV2vuKY2+Z1+UrbHjG2ZmP4cKeagTmAABNtyVBJty1M5qljjRc0321t5/re06/jTXrVPX7AD8Jz/FuGrWUg6H+EjcH9CciUl1u/M6+NdhfIjU4jSI1M5ftBx2kNQQbcus57j+ArUibtdb7i9/cTnHqjmTNEMKe4JZWti5xHibVWJPy8pREiW6RTSkktjK3btkibzoeytcoKzAkEINQbbuoOs51RD08SyggG2a1/Y3H1kkr2CnR6Dw7EftDijVCm9lWpa1RSb5LkfGt9CGvodLTLI66fnG7NMyd2zfFmVvrp9J0PHuztQPVq0R3tMOSQly9PMSwDJvYXtmFxpraWY5dOzM+aFu0jn40YGMZbZnoRMV40aSyUKTRoIxZpOolFkPCJUlMPJipFbDRe77zilHvo8ATU72P38z2qyPfQ2Gi+1WDapKoqw+DwdWsbUqbP6DT3bYe5ksKi3sgbtIq80q3Bu6XNXqKDf+zRgz+52H1ke+oFCq0ir20bNnN/MMNvSVT1EUdPT+x9RmV1S+P9FJCTsP16wqi25+X6tArXPPWWctxcTPPUyfGx3NN/89hW+STl9l/ZtdksGtbEAOB3VNWq1L63RNbe5Iv5XntKbDlpPIOxaHJWf+d6GHHn3tRTU/5B9Z7FHwybVs5ntbDjxZenGqS2+yf/AH9jiuJ0/wB4/wDUZlV1nSdo8NlcONn0P9QH4j/4zCqrpOfmj0zaK8TuKOX49g86m8814vgArT13GAEGcD2jwN2JG3pLMGSmTLBNHH5IxEsvRI5QTLN6dmNoHLXC8H3j3I8CnXzPIRsBgGrNYaKPibkB08zOnoUFpqFUAARuBH5FrAAd4l9gQT6DeH7O9oqhxGJxCk2qVLJ6AnL9CJz/ABnFFUyr8T6C29jv97e82Hw4weEv/wB5YAf+o/5an0EC5stUezXmB4xxig9Wo6iwLt8IA/i3y6C3paQoWcXRlfyHxD1Q6/K485zNGhaXKSROtxN70EMnKr5GwY0DhscRo/jXzvcejbibNPhRqrnoHP1Q2zj05P7a+RjLKmYs/s3LjVrdff6GWZAydRSCQQQRuDoR6jlIGP1GChs0bPGMgTJYKCd55xQeaKSyBe8jhoATS4ZR/jPL4el+vt94JTUVZq02lnqMixw5Zaw+ECrmqava6pyHm/8A+fn0j1MdVqau5NtAL2UDyUaCT3Bv/rrBoJgyZHJ7nuNH7PxaaKUVv4sEy69YtteklfxWjYg2FhEs2gsSbEMPeWsEbHyMg9C6SWCp5ltzgClud6mFGGwWBqj4TiqdWqfW4B9lUD2npk8Yp8cC8OqYJlL1WclLnKijwkG+58QbQDn5yhQ7Q8VZO7fGd2FUBe7RQx5eJiubpqDeaoZYx+x5nV+zs+eWy3UpbvxT3T/KPbOIqhpsKjBVPMkCx5G55gzhMVUAZlzBraErqDoCCPIgg+880PDi7CpiK1Wu4/8AEYmx30uTPTOA8WTGoKFXKmJUWR7WFQDlpztuPUjmBXlccvHP5M8/ZubTQ65brx+HxMbG1LTIxOFDzZ4zh2UlWBBB1H6+8Lwzh17EiZO6JWxxnEuCBFvbeZvBOydXFuQvgpp/aVCNFH8o/mc9Pc6b+q/7CNY6+GmPiY87bhep89hzMJhO2OAT/dAFoopsrb0Wvz7y3xXOpawJ2JmzA2+TLlg2n0K65rwPPsTw9KP7qkpCjrqT5k9TA0sETqdAASSdrDc+lp6liezlKpZhax16gjyPMTh+3RCMuBoC9R8ue3Q/Cnlm3PQes0vZWUYMbyzUUc12YwH7TimxDA91S1A6nXItuv8AEfaA7X401a/dj4aV79DUb4vkLD5zs8eU4fg7LZmGg/v12G/9K7+iiedKh5kkkkknckm5J8yTf3iylSOjpcSyZOpd1bIgiQyrJKkIqyhs7UMZDLLGHrNTIKMVI6aRgsa4i2XKCOjo9oKVYBcXSDHYVB4X/wAw1/CJuB0Kv/D4lb/yVdD/AJxoflOeZIAuRqDGjNrgxanQYcm8l9C/xPh1WgctVCt9jup9GGh9JQYzoeCdog6/s+I8aNp4v1p6zP43wvuWupzU2+Ft/wDC394fUa9QL4zvZnntXonh7UXaM28eQvHjmCizhKBdrfM+XObaIBpbyHy/0gcLRyIOrb+kLi2sUPLMB8ww+8yZZ9TPb+ytCtPi65d6XPwXkSKWB9pFF8JPSHYWEhcZbdfw1lJ2OChQP7wy04vKOH+MzQC6yMWHAXDWsRK7J3b35GWKcO4BFoBwVXxC9rjy39oGlVP8Jzjp/EPaLuiuqyNSgr9UbqNrjrIBvyCBg2o/1HkfzjXIINyCCCCNwRqCCOdwLH0jIlQb2a3Pc/PeGZcw10MBOTt+DcVTHoKNYquKUeB9hUA1sfPe49xzE1n7nCUg+JOXe1MWLsRyAB/XMicpheK4XCUwcMhq4kr4qlUf2ZO6qv5b6eI7TmuKcRZyalZyznmdT5ADl5AS6Tjs3uzz69m+8yNq4Y/J8/GvJfP0Rrdpe01XF+D+zo8qa8wNs5/i9Nh05znyQBe9gNydoJmY8j5Db5nl6ShisAXPjc2/lUWFovedtnUjCOGHTij+/EJheN1aZy4as1FQdSpNifKn8J9xLPC8VXSucSX75ze/eKF1IAJBX4TbTaDweDRR4V+cuRveVsihaKM7lkW78tvQhxes2IZWZQgUEKoYtqdWYsQCSbDloBM1qFuU1CIFhA5tvcuhpceOPTFUjP7uSCS2yCDNv1pJYeiiu5tsJFKJO8PvHZQN5LE6b3Bu1oB1zAmAxeIubCWVNqbeh+0aqKHkU5NeCMI4g3uJ0wxbVMP3iXYJYVqfMpyYDqNwZx1E+GaPCuItQqBxqNmXkynQg+00yj5HEhltVLhmlnof+ZH+V48v95wr+Q/WKDqfkxP8LF8Pqabj6SONQmm1twbj2Nx9oLEYsUwxYE3I16ecsYesG6aj5iYrPZbPYDi616asOdpCpUtUopz8RPupjVaWVMvIObehsbfMmRZf31Mkj4WPsBb8ZBXdfQjTS1X3+k0ag2lV/jDS6SGXQi8DHiqRAQw2gU6dJbOCqGmKoW6EgXBB1JKgWBvqQQPQyElOMeWCUyJW8YOBufaRbESBsOgtI1TIULmSqb2kBYGpf/UyvSQXzHU9T+HSFx1TKLQeGGkgr3dBrSJSFUSMhKBFYrQ5pwRWQhAiCy3NhqTsBv7CaOAwXeZmZslJLZ3te1/hVR/FUbWy+p5TueCdnWyA+LDIf4EI/aHHWtWtdf6EsB5S2GNyMGr12PTrf9/f/atHm+IwVVRmajVUci1N1HzImWWLHT6fiZ7TV7OULWHfKd8y1qoe/wDVmP1nEdpezZosG+MOQBUsFYsdkrAALdjotQAXJswuQZY8LijBi9rYs0ul7fvqcxTWw1mdjsRyEuYhr+QmPjqoGgiQjbNuqy9MNitTN2mnVbwN/SftMjCNrNF28JHkZbNbmDTz7L+Jz1AwtU7GV0MsVj4RND5ONCXZZK8Uq95FBQfenomJTOo8/vuJmYWv3TWa9r6+Rl2hX8CE7Xyk9Oan2P3jcRoBWV7XVtGHrt+XynPXke2n/uQTG1rqCOvz0Er4IXqE9EP1KxYnDBKZCk2zXHlcageWkjweoPEx5KL/ADP5SeAjfbSZ3XDeG0HoUVIRWqUa5OXvO+apSZ/EjE5FAVQSDvtzmpQ4Zhgvephs9NQxLqlaqjJnBGj2LuadtVzKDnuNpw3AXrtUBpKjVKjBKedVYKdfEMwIW297XsJ6+mIGHW1XFs3cpmrVGKXZiLhVS1ha4OgvYqLm5l2OpI4WveTDJKMm7t1b8X5fRL8eWGmCNfI1LC50Ao5e8prQpju3U+FmJqlci5QoXJZj8W0FiMdTw5AavQdlekSWPfVWCO7MGKUsqsM4VT/DqelsHiXbEYuiyMr0gGYrka9NxfQVaelvYkXN7Gc0ta/5QSyJcF+n9nyyL/V2+HP34+i+YWqy3NhzNvS8VNLx0pwyiUHcSDd4FXTeCodTBVDcyeKqZKZkJsZHEK+Zws0KC2Ew8Cc9QsZvJGkq2KcMuq5CZrR6q3W43jOLyNCrlb6fOKXCo1dLGEW5NgLkmwA3JOgA94OrTsZe4JWCVe9OvcpUrW86aEp/z5YUrZVln0QbOw7LcLDVeRpYViq9KmKIHfVfMLoi+nlLmK4rXWvUUDOFJGUDMQpFwfDc7W1tbkdYfgJXC4CiX5IrNqLl6niOpO5ZtzKJoNUXvMqtneq6AkFwczjQMNwthof4RN9VFJHis0/fZZSnuuF/frz6lel2jqZlZ7FSSpVbAAcjc8/pr8tLEvRxNN6OYMrqVa29muLjzB6cxMbFUhe5RQx3uDuLC5DEOGA5qw032heBcPVc1W9ySyrbQBVOW4BJbUqdztaGLk9mUZccYrqjseXcQLKSG+IFgx6sjMjn3ZSfec3jKtzNztxW/wB5rAbd9V+4v9SZzRixjvZ082ocoKJbwplpm+xlKi/KWSeflaCS3LMMuzRjQhfQQb7n1jhrS45SdNj5opC8UJLO94PTD02QyzVoGxpsbi2h/XQyp2dbUjzmlWNwD0JvOW9me8x04Iz1ctTZT8QFj6jn8jeVOGDw1FPVdfLWWKzZagbk4IPrY2/L5TPXEg06jDTUf/aOkZ5zSkr5VguN8RJZadNiAthpzMOi5KR8V2c6ny/6zBUXa56zaTXIvnrLJxpJIwYMsskpSfp8DZAy0lHlD4ba8rYl9ukJTbSUM7Cq6LytCq2hJlJWjV6ptaKNZYwxzNeZ3aTF2GUGaOEawJPITlcbWNWt5AyyCtmXVZOnHS5exo8Hp2W82FMzcLoJbSpFk7ZbhXTBIOra2kcXS2I35wNSpaEWrcQD2Sp1My+YgsLX/d4zr+zMB/7tG/0vBhsreRgeDOP2ipRY2FYNTv51Fsn/AD5THgZdW+yv3jc9a7S0UejSDXKK6kgZbWCnRiSCBtqL2vMmrjS+HcUguZWqqneZclmrLUTqLZAwzcjTOxEtcHxAxWCpZrZgFDZlBK1KZytcGxBuPrK9bhT0wxp1AXItuUO97A36k8xqbzZJyu0tjxcJLG3GT3T9BYvEmlRZSS7d2N7gBVvmqimSRTuTZVG+VY/BcYDhqbNdRlJ1tcKpOh5aAbjpMHD4R2Z1YeFgBWvdidLZGBILAga3vYtcAXvKvbfjK0cP3K6M62sNMtLY+l7ZR79I0ZbWCVSl0+rZwXFqnes1T+Zmb/Oxb7ETJZbQdTEMTcn25awga8iTRreSM+ESpGWwZSpnWWEqX0gki3FKjNqfEY0lV+IyJlpz3yx4o1/WNIQ7fgTWrOvSbLPmU7DcflMLBYlf2piNAyDfe80zU6EHc3/Cc2apnudNNOG3m/yVMeuZfPl6jY/OYtE3FW2xym3Q+IGbONYbDTrMdfjqDkyX+RAP6848ODJqu+n8/wAMzgdZs4Z9ATMVjrNDDnwy3ItjDpJ9MmjYZ729B9ofPpMs4gLa/TWQ/bix00Eo6Wzq/wCRGPPJr99GNaZoxMLhENRwo5/bmYOkKzdTpGhjcTkoX5vf5cpgYIHU9TD8fxeaplX4VsB6DSNhltLIqomTNP3malwjUoHSWFMrUYcSlnRhwRqnWR7+3OKrKmJqWt+vKFKxJy6dy3Ue8zMebOr9RY+o2+l5PDvtFjaeZSvy9eUeOzM+WTnjtcnYdm+0PiZ18RfXEU11fOLD9ppgfErD41GoIvtOiPGKbrmWohXrmW3vc3E8XoYkrrqCp32II6HkYsbxV6mpYMRzdKbN/mK5j6kmao2tjzeqxY59tcno/Ge1tKmD3ZWq400P7tT/AHn29l1M804zj3quWdsxOpPnsNOQA2HKUquIcm7Ek+fL06SGa8soyJRiqQNjDK0A0dGjCqVMsgwoXXe0AhhhFZpg0ynVOp5RRqnxGKMZfFitFHvGgCdJg/8Aim/xTbxPxH+kfYRRTFPwPX6XuS/5Mr1PhPr+UzG+P/A33WKKCANR4en5MqpvNDB7RRS+fdObpv5SOM+I+v4wVP8AXyiiiLgtyfyMMJucD+Jv6Giilc+DZpe+jAxPxt6y/hOXtGijPgz4v5ZfM0aXKHWKKUM60CB2mfjOXrFFHiU5+6xqH5yVT848UL5Kl3Dn8b8bev4CU6e8UU2x4PM5u/6slWgxGijLgzz5E0gYooxXLkNS5S2sUUSRoxGfU3+cflFFGM65FFFFAMf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFhUVFRUVFxUXGBcVFRcVFRUYFxUVFhUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0fICUtLS0tLS0rLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABGEAACAQMBBQUDCAcGBQUAAAABAgADBBEhBRIxQVEGImFxgRMykRRCUqGxwdHwBxUzYnKCkiNTc6Ky4RY0Q8LxF2OT0uL/xAAaAQACAwEBAAAAAAAAAAAAAAADBAABAgUG/8QAMREAAgIBAwEFCAEEAwAAAAAAAAECEQMSITEEBRMyQVEiYXGBkaHB0fAUUrHxNHKS/9oADAMBAAIRAxEAPwCSlbZMx7OECsBPRXXjMUjuRnISXdvK1tOlgy13tXOZWtptnMFJDuOT8xFWEGMJrGCMZePkS6ppBFCriFrWi9DCEnRxo4OWRMzZktpZNUJCjJClsc8AgafGQiM9g1d2sBw3wU/qGn1gQktlaBLdi5bVi26FOScYwePj0j217PUqrV6YZlaiqlWGGR2AUMCNCCWJwMkY8pYbpxS9mrnJGGduZ3NcDHEAjOsCt9qIH7u6RneJ6gHAB8hE552wyxpFNv8AZLJUKA72Du5xxbnjw469ITS2EFAZ23iQSEXiRkAa/H4x6+1EbGq55k5BznU6ekgrMh19oM+GR6DTwgZTbCpC662KtVDuJu1cjdCjdUg4GD48/SILTY9eoMpSYgcTjh18ZaFRUO9kt1J1Pw6Rlsq+phiQwwc5I4hjz9Tj6+srWTSUCkSjajEtGzLjSE9oNiCo28pHeYMcDUAke0K9RjLY6iV21vQdVAUcgMnA5aniZG9SM1pZaGqgwG8AIga3kjrXukxRtSIyZBVkLXOsjevNqJHNHj8YdZJkxYr6xrs+XLgqHI8tqEf7LbEUWjxnbviDi3YzJLSWqxqx1bvKrZXEfWtwI6t0c6WzGm9Mg3ygTJDNnPa99pxmtK70lceuSZPRc9YmnbPT2oxGtzXia8OkNAMEuUhNFgH1NbCO4EDaMbpYucS4RpiufLqRJShKSCghMPp2xjsZJI5ck2zUCS0GwwOcYIOeYweInpokSKs4VcnPhNSyJRsyouxltC+OT3j0PAnO8xIHHGM48cRfSXfYAOQxIHTj1HSZs3Zt3c59glTcBwTwGemevhHdn2DulO8XZW4gjUj1zxnMbS8xlJsrF5QWkSrMxOcHHXnrxm9pXUccgct7Blkv+xdV2DmrUZie9vKucacMAa8ePSCXf6P7lfcdW6AgqT66yao+pNEvQAq3aDGOB5qAR6odPUGC7+e8rDPUZB/mUjh6mDbS2Nc0NatJlH0hqvxHD1xAfbEHIJ+z4S0kU2y27A2o1NhvkFQe4G4E/unkPq4DyQ3tm9JhkYDZK8OAODpy4cPxkK3WfHr1yOBEZU7v2tIip3vZgcMb6rnAdfpAZ1Hj6i1sTkBFbSQVKklr2+6xXjjmOBHIiQlZtRB2RT0Cb7s2CyyGUaese7PocNJHsjZ+8ZbbLZOOUmi0ajKmC2lGH00h9LZ+OUx7bEBKLiNxlqRFSbEMpXuOcEqJiLLq4IhYZQGTFZZv1l4zJTv1gesyF7xAO6YipPkxtaiK7anrHNqIpwdmU7QUiwa5SFHSCV6k2piunexFerFjDWOLzEVONZtMzOg+xSN6Sxfs5cx/b28qWSjEYWA1kiq22e1xd0qAOAzKpP0QT3m88E48cSxXlPSB9nABf0TzJ+OAfz6TLyXEzKG52WjQp0UWnTUKijCgcgILVuZ7VyYvqpxJP4RaUrGIpGV7k+E0NcAa6wao5Oi4gtzbPxPwzMBaCGqBj3h3fj9U5l262RTpVN+kAFb3lHAHqByl49oyZOo9cyodqt5l3jrnj1m8UmpAs0U4lKBwYRRJzkfgMH3gfCD5ktFSTujUnEbYkhnWUYTBBygzjPiBrz0APrNBQzJ2tnUjeBGeBPPHiIfb22RNt0ilG2J2t5rTpagR+1jNKNj3hMatwmh0WDs7ZaAy62llpwiTYFDAEutlQ0ja2Qq+Re1rpALihLQ9rAbqwgMkbQxilRVq9MYiHaFOWm+syMyqbUcjOYok0x1tNCvdmSL20yFsCYKWJPSqYkdaoIK9bpKSLcxnUudIBWqzVCSJILfMmyK1sWV2g1OkWOkdtYZh9hs0AcJqJiUmA7NsyI/oUGhVnbDpHVpag8pJRNQkV6vZkxWlNUurSrSyWDVg+fdJwwXHgNcy731iSpC8eUqey6AN3RpgYNOrqOW7usDjwyF/qmJJpF2m9zWv25uabMHp5GeXD0xym1j2zNY7rgrn4TTtD2UqKWc1Bght0buSp+aDx064GfGJuz2wnaouuSG1xnHLA1HnB7ONmlqUtix3m3vZoGGpwR655xBcdta50VPXjHfbnZApqi0xjUkylPs1sZB72RjOcEc+XHhJBImSU7Gtv2huC3fUMDyPEeREP2kFemSBxH1xLZbOrZGCDprx4/CWGlandweMzOkzWO2tznqU8nHjLGben7EKKeKiYb2ozvMGyAp6qDj4HrIaezWQ1ammFqKuCM6HU6fCE9oLvdpIcYLjdxw7qMWzj1EK520kYhjSjKUjwVt5O9xIHqw5/DTPjGezl0inYdjUqkMwwuNBzP8At+dZbrXZZAhdLoFGW5ElvpN7PZ5ZuEZJZnhHmyrDwgoxeoNOS0k+x9nYAlotaGJDZW+I0ppHLEmiP2c0qUIYFnpWURCC7sQeUpvaHYmQcCdKqUoq2haAgzOlM2pNHGv1G3jMnSv1YOkyTQia2cevsjhAqFXJxLFcWeeUEp7M14TOhpGnK2T2dLIjKlazLO3xGiKAIpKQaKF/yWMbG1kYYZh1CXCVBO7sKoWwje1t8RbbVNY8tRDxdgprSbihmKNobJUV0uRo9PQ4x3lJGQfID6pYAIJfHSEcbVAdW4suq+/pujHUzfZFqm9hF0GueZiyoWLYGTrj4wqptJ7ZB/Zlg2d5xju4GgI4446znJu6Y/tWwB2qoEuDpgAiIbSkjDvr+HlBNqdte/gIWHp988W+ZhkIQragdJqmty24tDKruKMBAByxA6tzhWI5AnHpF11dOeEksDvZB8pTLXuJOyjq6hqne75JUgEHPI56CD7QprVrhMhzTyCSOJbp4aAek8ubRqCZTIG+Fzx03M588yfYllvMCGw3JsZBzyIzqvr6w+Je1qBT3jp+pZdlbM0GksFDZ2kj2c26B7RGXxUGop8igyB/EBH9oVYd3OBzKsuvhvAZjok1QqTZ+sa2ltiTexk9FZVGdQTQSFKJBTk4MhRtMzPJmZRZhEGuKcJzIqssoW+xmQjEyQo5UbabpZ+ENpAGEKkPScTFvUJ6lLE1Z9IXdrF7mc3LDcfx8Ee8cxpaHSLQIZRaCoYixrbkZj60qaSr03xGdpd4hcboxljaH/tYt2ncaTQ3fjFG1bvSM6hRxJLO7ASo/NQQfuPwOIovu1dF0NPfGTpyJ6cORkWzLrLVEPB0OPNe8Pq3pHf7LtWQO6KHxjfHdYfdziMqU37xmCtFaqCgo0bLZz7nDwOZ7T2mMgAj8+EIubOi2c1Cc8gzHhzwr4/8QA2VFTvKpyBpk8+uPzxmyPG1x/kb72UPiPrmliNwgesjsquFIPObod6ppwGnw4n8+ECw0d6Y62pTZqGVXe3SCwwT3cEcBqeI9Jr2cpAMQOGcjPHDAH7zHWwq26pb/fwxGFQ2nswKh3VLBUBAcUX1OU+cEONV9Rwm8U6aRJQk5bK/cONmroI2piK9mWz7gK7tReAek3tE05ZGvxjOm86CZz8mzJDPEMjd5ojzQIPQydIJSaF05llm81M2mpkIZmR1JtNHkIQzJ7iZIQ5pZnhDhAbFYyI0lwnaNyhTF13FFY6xveRFdvBzVhoSSRsraydasUi4xPflUE4GlPcatdTenfYiQ1SZHUqkTKgbeQsjbSi68u8xL8tOdZJTqGod1Rk9Br/4mqa5Br2nUeTx7kowZTqDkeYlysRRuqIZsrka9QRx9PGVStbrTIBKs54gaqnmfnH6hLT2fsnrWzu2EUuTTIXvNjClnPEr3cBRjhnnA5XFj76HJhw95k2t0kJdobCtxkhzp5RSaNJToc45/nnJ9vbPuKZIPeXPFfvB4Suux4cun4zKaYqlTDalzrkaDl+MZbMp4GvExVZ0tctx5DkPE/hHloPXr4zLDR9Cz7H7wK9RrK9tWoTUKK2QhI9ef4Qq62n7Nd2mcMRxHIH74kDE91fUzEF5nc7P6XfvZfL9jvYe03pMxR2ARGqMFZlDFB3Q26ddSvpNqXaO53s/KKhJ5MxcE+ROfQGB2ASkc1NQysjIDhirjBweR4HPhCLK7WnqtOmf4xvNjzBBX0xCJyTOk8MXJycU+PQ6bs/atr7OkKtT+0amjOQHwGKgkHAwpB5HhzjD5AW1oulRTwwwz8RpOZW1/RY4NMpn5yOTjx3HzvDw3h5wlbdjk0qi1CMnC7y1MDiQjAFv5cw66iudjh5+xcbd6nH4pNfbZfNnS6VjVHED4iTBWHFT8M/ZOX7O7U3FEgpULD6Dksh8NdR6YnUNkbYW4orWXQMNQdd1hoynyPOGjk1HK63szJ0tN7p+f7MNWamtDDXU6Eg/nxEBv7Ikb1LU/Rzx8uh/OkImc5o9FSe70S0L/JwdCNCDoQehEYU62ZdGQiZIvaTJCFCoU8Qk8Jm7I6jQMGMZExffNK3fvHl+8r13qYVgkwFm1k1FZLRtcmH0rWCcgqgyCmomLaNVcJTUs7aKqjJPp98L+T5OOHU9BzMcbC2rVokigKaKfeYoGdh+851x4cPCVqQ503Z2bqIuUKSXqGbL/RoiqKt/W3F/uqZGfJqvM+CD1i3tJtWguKNnSWnTXIGOJJ4uTxLHTvHJwBJu0PaH2gxUcnqRgegA0A8B65lb+XUgdFJ84PJk8kd/s7suOB95kdy+yBVtWIJAJYhsY1P51nTtmAfJqYUYUUlGP5QMTnp2wo4DA8NIRYdrqlHRSHTnTcaa8cH5vp8DFprbbcP2j0zzxWlpNfcc7aY6nHgRKHeKu/gdfzqeEt9TtLaVgQ6vRJ48XX0xr9UT1xY0zv5esx1A1UD0OPrzARyNcxd/D+I4T6XLdaQG1oFjhQT4AZ/PmZNc3Ipd0FS/QHe3f4iNPQGD3m2ajqVpqKVPnu6E+b6fAY9YFQpKNTr9n+8NHU95bDnT9Dvcgy2UsScZzxJOnxhDXIXupqevTyg++7jA7q9eBPkOQhFKktMZOpmzvwVKlwSU03RvNqTym6vnjIkyxyZI+kgVEyVscJgviCCCQQchhoQRwIMEuKm4ni0DZ9JGZlJLYf7Zue+tQAD2tJKpA0G+cq+ByG8rH1lv/RftYv7eiQcDcqD1yrfYs57tWrhqaf3dGmp/iYGo31vL3+iej+3q8v7OmPMZZvtX4y+mvY4vaMk+hkvhX1VfY6KtAdZOu6vOC+0mjUQ3Mx88ibX2z6FU5Pdf6a6N68m9YJ+raicCHHVePqv4ZmxoEHwhlOsAMA4/PGS6KqxdvzI0yPot/V/vMmdUvT7l6Uc9d4LWqTVqsgqVIvGTsdnBJAF88UkaxjdtmBBNYw3sKxXtBNrSjKjQg9ksb0dMEcRr6jhFZM6WKCdWS7SNvTULulsAEqe7liNWqFTknogICjmTmVraG0K1XuooRBwVQFUfDifE6zTaF8Sx1yc8+vMwu77MXbrbmmKjCtSVzuDuqzMx3WPBcIafHxlPd2j00Y4eljFSdelv68/7ENW0A1qVBnpInt+4aijuA43zoGb6KfSbwHDniWur2ZtrEBrom4uCMrbKSEHRqrcSPhnoeMTXj1K779QDQYVQAqIvJEQaKv5OZlxo1izSzu8a9n+5+fw/fHpYg9mW4CSps1jxjtLT84khpgc/jgStIz3MfMTHZwUZAyfE4H1Qc2TE5JA8ANPhz9Y5qOp+dp1HD48IJUrUxzyfE4lbAprCuWkCC2XOpJ8Tr8BwEnSkOS8OZ0Ant1VqId32YU+jcPLSDijUf3iZZcJQavHuEtcgaL3j15Dym1GgSctxkltZhYWFkoOk/MjCgTSmm8fCb1BmeXT+zpnqZZbdCraFXeqYHAaSa2ohnUN7oBd/4EGW+IGPMiB0Fycye7uNymQPeqnB8KaHh6t/omJb7IQy5Kg5eoNdXJdmduLsWPqc48p2LsQnsLelS3TvEb754776kHyGF/lnKuydl8oukVhlF779N1eXqcD1M7psyjnvRrBCtzzfanUWljjxz+gn2mTiTqhiy92lSoZZzqeC84o/4nrOcUk08sw7aRxy1t4wOssW2226v/UUfZGK3aONDiWQg9n4zIRiZLolnMC5kdSrBKtxIWuItGO45OexOTmRs2JElWS0qJYwrARe9hlm0a2wJkNhaSx2NliC7uxlZ6RzHbCFKrKeRP2x9bfpIrUbZaCU130UIKupO6BgYU6bwGBnXhwh/b3YXd9uvDID+GcAN9kp9tsdjrygalB0enxaOuxRk0nXr5M9/WtxWY4AyTksdSSeZJ4mHUtnVCM1Kz+QOBCrOyCQl18ZaXqdKMa8xa1hj57fGQ/q/PUxlib06gUg9CD8DmU0bbH3/DtsyD2tX2bKaiqoxkotaqBpjiRuAeAPGD1djbKRsMbmq3RQ2vkAFHDGufwlx2Ui73epJjXFVsaneKqqgjnje05MOsk23tZqahKePbOVCK3IEAs7BTkKBka8weImnFW2kjxkc+RqOO5f+kl7/Ly89yg9p7JDu1FptTDtlUZd0qu4qhd3gABTXQdYmWjiP+0t6atQLvFvZgjOnvHAbQaDRVzjTe3saRMyyPd2em7NxuHTRT97+rbIt2atNyZE7TI8eAganlFl/V32xyhNdoLjEy2YlvsaKmIt2s+XIB93uD+XQ/Xk+sZpV7w8MsfJAW/7YlY5OvHifMyR5OZ1sk2ool2Vd1aT5puyE8ccD4EHQ+s7Bsrt/Q+TYqMtOuowVPdVv3kJ+ziPKcaWsFyefKCipkHPEw0ZNHKz4cMo6Xz6nXNmV/lT+2LBlJ05iW+0twuoE4L2d29VtXyhyCe8h91vwPjOvdm+1FK4A3CMj3qbaOv4jxENjkvmcjN08o+0t0W+nSptoRgyajs5V+aDFavvHIIEY2l4w0f4wosiTe/9mp8E/wDtPIT8oH0hMlGrRwWoTIMmF1UmW9HJgrCOLs0t6BJjuztp7a246RnQQTGvcJ3WwZs6lLJbU9IjtCBHdtVh4sXkqJri0WojU2GVdSpHgfzmcW2tYV6NdqAqFd0nKk4O7xDLn31I1yNeoGJ24PK92t7PrdopXC1k/ZueB/cY/RPXkdesHmx6la5Huz+seCeluovk5rabKwe+7E+ZhYpY0Un1kiKykq6lWXIZTxBBwRNcnriKpHtoVW3BIs9LyEsZE9fHGXZuyz7P2sj0xRrsV3f2dXVgv7rgcuWRyA6QO72slHeWiwqVHyHrLndVT8ymeZPNvQdYhoXYZtxUZ2PzUUs39KjMa/q24C5Fncdf2T5/pxn6pSV7oQlj6eMvakkrvS2qv+b1wLTcueAxPA7855XvnVippMrDirAqw81OokJuah+biSx1TT4CS8hqGQmqeZEjapKsvUY7QWo82qNBqrSAMk6R4re9/h1P9Bi7J5YzyzDKZyW/gf8A0k/dBnoaS48nKzXKTaF9aq3Bh90jDkcPrhbuRodR4yMhTw0hkzlzg2/F9SENmT29yyMGBIIOQwOCD1BE8p2+vKMaVspR+BKrnPqP95GahCdN+ib+hb+zn6QCMLcf/Ko1/nQfaPhOj2G1UqKGDBlPBgQR8RPnwURnpGWydp17dt6mxB5jirfxLwPnxhLlDkUjix9R4Nmd89qnWZOUf+oVf+4pf5/xmS+9iZ/oM3oS1DN7MaxU15C7GvkzDWxhSTZarVNIQVxAbOtCalTMXfI2qoKt6kcWryv0G1jyzMax8CGZbjVGmNNac8uKmFJ/OYYAVTtvbAVgynIZQfXqfr+EqzrLD2i2gndpuCHOqNjKv+6TyPHj4RBcxGTTdo9v2VJvplF8rb9A7+ce9keyZuzvuStBTgke85HFEPIDm3px4IKNJqjrTT3nZUHmxAH2zudla07eiqDSnSTj4KMsx8TqT4kzWOGp7ge1uulggoQ8T+yIKFvbWdLQU6FIcTooJ/eY6s3nkwKl2ssWbdFwoPVldF/qZQPrnLe0PaCrd1TUbIUZFNOSLy0+keZ5+QEVMzdZp5q4FcPYSnDVmk9T9PL68ncdsbGpXSbtVQwx3WGjLnmjjUfYfGcd7XdlqtlVAaoXpvk03OhIHFWHDeGR55B8BZv0cdpylQWlVs030pE/MfjuD91tfI46y39ttl/KrSoi/tFHtKfPvqDp/MMr6+E00skbXInCWTs/qO6m7g/pXr+zhpOJ57SDu5OuZpvmLHoe8oJZoLUnhA5mSJTDcGEhlyc9vyeWYw654E4Pk3dP1EwcZB14j7uMLa2Im19Ryd8fPG/6nRx/UGkvcDPFJMGqoCMwKrbiEh90+E9qDOs2mAywjPlbi05U9R0Md7ORDTcpzUhlPEHqOoiqqJJsqsadUdCd0+TaTTFMb0Sa8nt8LDEtMmGrs7IxrnkRxEY0bfWNLe2ELKdnGxRcXa2K1+pn/vP8n/6mS4/JxMgvZHO/zf3MoKZMc7PPCDUbWMbWhiMyjsc6D3HNo8L34DRGBJS0Wcdx1T2D6NSOLOvKxSq4jC3usQ8ELZNy1JcQTalyd3A8/hF9K7gu0rn7cTOaVQZWKNyQh7R1iWXB1yMfGA3NNg7AtoCR4Y8Jvtt88OXOe3VE7u8OBALLzUkZ0/CJw4PUdkvxr4fkO7FgHaFsP32PqtN2H1gTo/6Qbtk2fXK8SEU/wvVRWHqCR6zj2xrtre5o1j7qVFYnluE4f/KTO5bX2eLihVonhURkz0JHdb0OD6RrDvFoR7Xlp6rHka2VfZ2zgDXDtwmhapzmzI6sUbuspKsDyZTgj4gyZUfzix6CLve2BpVcEMCQQQQRxBByCJ3/AGFtL29vSr/3iKxHRsd4ejAj0nDxSzxE7b2P2aaNjQRhhtwsQeI9ozVN0+I3sekPg5Zwu28aWOEr3v8An4OG9qrA0ru4ReC1XwOisd5fTDCJizS6fpAoM+06/sgSc013QN4sy0kBAUak5GPSK7rs7cqhqVbatTUDJbdJAHVgNVHnMSW7oaxNd3BylpbS5fOxXN3PPE1ajDGtOhB8jMFEiZs33DfKBqVw6c8joY0tboVEZeDKDUX0H9oPVRn+SBMomtI+zqK45EE+WdR8MypK0W3PHHm0TVkDDIgdN8aHl9k99sUYjoSvwOJtXUHvCaRiU1k9qPJFVTWaVBquOOfvyJKBp+fhN9n27VKqUwOLDJ5BR7xPkAZoWyNJWy3oIdRqdNT0m6bNJJ13R1PPyEMo06SHjvHHGDc0jlRg7Bd+p0X4zIx3lmQfeyC6EV23toZTpATeiNJsROscpPc83J4Fm4mjmD0BdZo83RpGZ6DCJA29wpK00vH1XXXU4gzPJmX3W/dJ8Yp1OyGcD3F7UDUqheWct/Cup/PjItp7aoqe5vO3BsDC8eXUzdL3dNU8SaZUZ595Sw9QDAHvxwFv8OMBF0qPT9mpLC5J72e07mlUOB3c/NbTJPSdq7E3vtrSmScvTHsn65TRWPmu6fPM4RWqA/8ASI8zrHPZLtRVsau8oLU20ek3NeRVuTDXHmes3jnpZXaWB9Ri0rxLdfouf6ROyxDtd00LK2tVVGSrAY9pj6JGM9CM8zjnz3tMcDO57G7T2tyoalVUE/MchHB6YPH0zCKmzaG97Q0aW9x3zTTe897GYaWJSdpnLw9q5emh3WSFtceX4OX9htgNcutaohWgpDDe09qRqAo5p1bgeAzk46T2i26lpbvWfUjRF+nUPuqPtPQAmL9udrrS2B3qgqOP+nSIqOT0JGi+bETkPaXtHVvau/UIVVyKdIHuoDx1PvMeZ+yU3HGqXJmMM3X5VPIqiv5t8fUN2J2vqWxr1NxalWtg77cFbeYsSBqQd7hkcBLX2B7TXN3VqU626yhN8MFVSp3gAvdABBBPHpOYpTYnh986nYouybBqtTHyirjCnH7Qj+zp+IQEsfEt1Exjk752Q52hixaH7PtzpL5V9Ekcu7SWi07q4SmcKlaoq44AByAPTh6RehYcyZZ9g0KSVTVvaLurKxT2gdVepkEknTe0J+PlGtKpsreybXdP8dQr6KWgnI3LKsTSdvbleZRvaZmxXInRKGyNm1O8KYHiHdfqDRpb9ibCqpYIwHAMtR9fLeJEzqsn9dBeJP8AnzOT7VpDf3gMCoqv6kYb/MGgtB+U6rtDsFbsFVXqgICBqpOCd7GSvUn4yCx7B29M7x33xrh2Xd+CqM/GRTSVMX/qILeJR9lbAq1j3Rhc+8eA6y32Wx6dqNO8eZPM/hH70zSXCjKDgo5eWeI8JBUKMQc6Yzjx6TDm2Ankc3bFd3XaoQcYAi65uVXPXlGF+4OVUj1iHal3TprgkM3SairAydG/63/On4TJXf1t4fUJkJoA957y8JNxPZk6Il5mSJpkyQojaYsyZLIR1Iw+Yv8AAJkyJ9V4UM9P4is33Ewyj7o8pkyLo9N2PxP5fkEvuKyBuE9mSHTkbWXuP5/dBLv3JkyXEWy+GPxJ7X3BAb3jMmSjeXwse9k/+Ztv8el/rWdtqftKfk//AGzJkZwcM892344f9fyUb9MH7Kh/iv8A6BOZtwmTILN4w/S/8KPxf+Q/Z/P0+2dW2H/ytH/DH2mZMi7FMnAa8HfjMmSgKA777x9sr13759ftmTJnzNxEr+6/mZSNoe+ZkyM4wOcgmTJkMLH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExMVFRUVFxUVFRUVFRUVFRYVFRUXFxUVFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAADBAECBQAGBwj/xABIEAACAQIDBAgBCwAHBQkAAAABAgADEQQhMQUSQVEGEyJhcYGRoTIUI0JSYnKxwdHh8AczdIKSorJDU4Oz8RUWJDQ1RFRjc//EABoBAAMBAQEBAAAAAAAAAAAAAAECAwQABQb/xAAsEQACAgIBAwIFBAMBAAAAAAAAAQIRAyExBBJBMlEFEyJxgVJhkcEUQtGx/9oADAMBAAIRAxEAPwD48ZUy5lYRCs6TJCwMY4CFprJVIekkm5HUEppGqSSKVON06UXkfgotOFVIZUhqNO5idp1kYfD3F+B/mnGNqEUE2LaAWXeubXIAHIWub5Xi9dvEBADccxxAHG+kYwuMqMEqVGYtdzdiCAL3Q2+tcWJ1MpHGvIspPwBxmLIA7QAyPHetcZDllf1EbpYx9zeKhgBc2B7QysVGp1PhaIYysjAkLvHIsxyzGep1yOg5xanigoFst1sgNAM7gDldrRlBCts06mMAK3QkOL3Ge6RkykW4GdRZXHzZvbULmf7wGftFabrZM8gxNjp28j+R9YCvUcVDUp8SPAA2Jv8A4TD2o6xiphl0IzN7A5E+FxMfHUwL5Mh5EHhrH6tfrdOy2dwc0YjTLTzHOLYmsHJWoLPl2r3PLtcGsMrnO0C0EyoRZZ8OV9PIjmLSAI9nJBUaHQxamIzTEJ1BVljIWXOkFnUJ1zaJu8axIibidYKK70NSaLGEpmMnQGhvenQW9OlO4nRnmRaWkqsi2UICwtOnCJTjVGjITmUSApRjFKlGUowqUZLvHomhSjISEo0pcrKxEYMCVLFiQudrXP6c/CCx1bdXvOQ8YnVqBrUSzIR8RCizE8L3H6GPwAd6tyyIoJ+1bLeJGnOwB9Y8lQANugsQSDu24cQdOcU2VSRBUZ7vYbq8M7DhfP8AfwjhPUoLrbdALZ6tqCedr38YjlseMBTE0SCAcyLO/dxC+eXoZguSDucdL+1/W80K2PJVjpvFr/e+G542AHvaZWFBJLHLh3gD8yY3do5w2aRQ8DkoH7+/4RrDncXezzuDzsND7CZyN2Gvlfs+mv5zQDZKvmfM3IiObG7EMthR1K1VzBZQ3I7zbpJ7gTfymdiUDFkJsV+Fifo6jPmND68Y1QxH/g0p8XJyHJ6pI9iJof1iqwA30KrnkDqrKfssCPQGFzpg7NHnGqEEBhu8b8LnVl4W+zpr5iUcP+nO47o1iApbd0U33b5bpueye/h5TPDFX3eGnhx9L/iZSLJ1Q5TEYQQNIRynTjHFRJJhRSk9TOOsQqrFnpzTelA1KU44yXSQsadIIrOsFEXnSLSZ1nUhZVjFKlOp047QpyM5hSJo0I9RoS+HpTQoUZnuygulCGXDx+nQhhRlFAVsUSjlKVaU0AkDUWXhERs81tdLML7qgAG7XK5nUhQToMvGJ0erC73le/xW5cRy04wm1K92Ic73aNlvbw07oqal7ZAcuCgD8tffnOewo9l0f2eroGtc3vnnYRbpKAGVR2hcAAam3DLXtWmn0UKlbl92nbXTwA434cyZONoorljuqfols2AtbzOZzPPjlM17s0xWjyWE2ZUI32FlOYJsbZk35Xz1haWE3ckXf1PZINhvanlr7Tfp7Vppo4Nv5lLnbK1Pq3HcLwuXuP2o8/R2SzEM9gBmF3gACTck88+EdrYYOClPMnIkEWCn4t3me/h5Z7LYmmou6DnmAYt/23SvZQqnwtF7rB20Zp2M+8GIsB8I4Llb1tlGqdG384iaeCx9N8iw7wYzjsCN0sh4afpBK+Q0jw/SGmFFxaxNyOTcGHllMY4q9iQLi1zbXzmjtuob2mBfOace4mWfJ6PCi4BmnSpzJ2BUupXl+B4eoM36SSxK9lVpSTRjaJCilOOMx6MTr05tVacQxNOKMjEqLAOseqpF2SAItuzofcnTrDRFNI5QSCppHaCTI7Y41hkmpQpxPDrNbDrGjEVyCU0lys6VZpoURGyrQL0yb25ekuzRTGVytNyOC/tlzlapCWeExlgWvmRkDnz1iStD7QbtZfzjB06J3lFuIHvaTXBQ91g8ccNg1Kgb7XsbAkZaieTxm0arkkux87e895j+j1R6dNFByUTAxHRKoue6b+H5TLFpcl5J+DyLVTz9zNvon85iEQ+cKeiz8vKeo6M9H+pZW+lcZdxlJzi1SOxwd2xvp1ht2hvAWsJ8tesSZ9g6eUW3F4qcj5z5s+wyT2YsGoumPli3tGRSrkcT6z0Ox9v1FIBYlfH8oi2w6g0B/H0l6Gxaoz3TaPJxZFKSC9JxmGHEX9Z54z0+3MG3UKxGa5HwnmLR8XpFnyb/AEVYbzC+ZAytyP7z1dKnPF9HRatTOdicyOW6cjPd0hKojLkvTpw605yCGWccmK1aUzsVTmzVmbixBQbMGukWImhWWI1BFY6K2nSLzoAjNKlGEWSqyZFILYzQM1aDzER49Sqy8ETkzSLwLvBCrA1KsskTsK1SI7Rr2ptmbHL1lnrTJ29UJpZc/wBf1nSWjo8nnsWwYm3DTvmj0boq+LprUyG9fxIz/WE6IYA1a9Smub9TU3O8hkvbvtvT0eE2GKYpM67tZarm/EqVHZPeJlyTrRqjC13Hvn2siCw15zCx216lRt1bfzmZg7TxTLfuiuz9osWA5+8zOVmiNHoqTZXJvxJGX4zUw2Mp0EFWrkTmi8T3zOpU8s9BmePlPnu2No4irVZiWKg+VuA9I0FbDN0j6DtLpRSrKyN9L+Cec6qzFTllcd4Ohnja9dr5T0Wx6zsgY3Nsge6NKLq2JGfc6o0VqunhNGhtTLtWPdMfEYqwmc2MJOUnsMmkb208Sr03voVP4T54nHwno8cxNIgcbCZVPBEMAvaJGfieEvjlSIS+p6LbArFaqAcTp+M9/TaeN6P4L51nOiFlHjpf0nqUeaERaNFHhOsiKVJc1IwtBqlWI4h5d6kTqvAFClcxR4es8XcxRwdp0m06dR1mlBuZYtAO0EYitlush6daJGSrSqVCt2aYrRatiIua0SrVs44KHHxEWq1r5GLNVgGfOGwUbXRbFLQxaV7WyZbnS7KQp9bTSxWMYMGeoznfAVSb2BPaPpPOUEBF2NgOPhqB7esHsnEs+JpC/Z3iLcPhaZcuNSZpxZO1Uel2q+Zmj0X2arHftpFsalwOeROnLOa+zD1VBm05eMx1ssmaz1kQEGxPHX0E8d0iqKVJVbnuGkR2ht8Lf6TXyF8u+8yanSSu2jhQNFAUDzvr5y8VrR1ryytHDX1U+Np6PAOirum08xU2vXbWp6FRn5SaO1ifitfmP0hd0BSiuGb+OoqRMTQ2mpham8hiLKBIAm7JxFQdWL8TaaWxscKYdXI3dw2IsDcZgk68JjbTPZy4KT4E6TGbFMcicuXPxloQtWJ3Ueu2ShFFL6kEnzJP5x9DM7ZlQmkpP8AjqmaUSGVeSWi+9INSEFBKjxWq8uzxZzeccDaRuQqpCrTnUCxXqp0c6udOOsWd4ItKM8reBaOaCXkMZyiQwhs5IE7xNznG3WAKQjUAaCaNGnBOk5M5oYpYV3ptu5i4zGdj3jhlB7Ewbri6IIt2x+BkUWsb3tae52ZsJqdLD4qre9eqq0V0O7mS7cwcrDz5QODlwBSSqxbGputb2Mbx9a9BU0JMT2xUsxIHh5QuIZalJWGvLvmB7NclRmVdkYYi9QXPFgSMzwMQxWxcKM0qsPsmxt5wm0Ec5WPlMPEUKg5ykJ+DrS5Vjz7Nww1qse4ACBXBUSezfzMQCnjeN0gRGlJ0K5J8RNLZ5CkiBrtnK4dc84GrUu1hJpC8ltoL8058B7iYtGnc8Jv44E0CvFmTXLQ3/KD2DgD1iuDmp7SkA24Dxl8fAk+TYw1HcUKOA9+MKJXezlwZUCIZoJmhSJASFAYE3hFSE6uXVIaEshKcMqTlEIonUK2RuToSdOoWzy5aXp5wJMYpwFQ1pUx3D7OqOAd3dB+kx3R5XzPleNjZdNfjck8lG6PVs/aa8PRZsvpiQydTix8sxSJfD4R6h3UVmPJQSfaa7VKK/DTXxYFz/mNvaQdp1ALK7KOS9kegnow+CzfqkkZn1/6Y/wAlP+6WKIuUC/edQfMA3hE6HMfjrIvPdBYDzJEUqYlz9NvWJ4h2BFmJzHH9Jpj8IxR5dkX1WaWk0vwfW+gHRLABTW6sVXVyqtU7dioBLBfhvc8srQX9K2LtiNn0+dUsfDsr+JEt/RDtEdTVoG28j9YO9agAPoV9xH/6R9jpVprirfOYfT7hdSR6qPeeN1Ufk5pxr3X8r/htwfVCNuz5ttNM7mZtGsVNuB4d83NtU+23iZjGlmJ4l7PVe0dXx6jWZuLxwYxzb2zyQHXjrPMspj9tkXNxNL5QvIQZxCmZ7A85yiMoC/MbGKtYnSFwtOApLHqCQP2KRVA9u36pAAe0/uFIA/ze09NW2FUXC4fFhG7akOQCbbrWRyRoHWx8u+D2Zsr5VVoYYaMS9Q8VprbePcc7DvIn2vD0UNM090CmV3LDIBALZcsp6OPHGOJX53+DFkyPv14PgoqXzjFMx16eHdmLlgb2DJax5MVtxhcPsKow3kem44ANut/hYAe80Zvh+bH4te6Eh1mOXLoUCywWHrYV0+NCveRl66QAeZuxrTKd6lwWCwipKKYxTnABss5YwUgTBQLJnSu9Jg0Awtm7Kesbjspxc6eCj6R/htN2hh6dPsoLt9Y2ZvU5L5CHxeKBPU07EJk5GQvwprbQc4HJRzJ1PM/pPqOj+H48St7Z5Ofqp5HXC9v+lq2IN7Xz4nU+sSrvLlveK4l56aVGeK2BqPKrVvKM0okS9mhLQe2cDiRmIVWlXW85nLTN7oZtf5NiqdQkhCdypyCPxPgbHyM+4Ymgro1Ns1dSp8CLT85EfvPsf9HfSD5RhxSc/O0QFN9WTRH7+R7x3zxPi/T2llX2Zr6XJT7TxfSekadZkIzB/nrrMSoQBPqHTbYfXpv0x86oyH11+r48p8grubkHnpxuNZ8nkg4s9rHk7kMYrF3p28p5mumc0etOYidURUwTFCskDhLsJVRHsRDNJJpbPw5d1RVLMTYAC5J7hI2NsipWtYbqfXbJf7v1vKfTOjOy6WGF0F3ORqN8R7lH0R3R8eNyYuTMolugXRirhjXq1gpq1N1VVWuUpgfCTYAEnW1/hE1OmWPbD4SoxO6XHVoARe7ZE95C7xy5Sm1Nq/J6ZqswUcL6seAA4mfKekPSCvjKgaobqt91RkF/U989zo+nlkkpNfSv6PPyTu/cDffFvcHMW7pGExdSmwBJteKVEfXdB8MjObGZWZT6G/rPonKuTJ2WqWz3GC2qSut5WrToVDmNw80H4rp6Wnk8HtNV+sPHP9Jq0tpUm0bP0k54MWVbVkO3Jjdxs1X2KbXp1FfuPZb0OXvFXouhsylfEW9Oclal8wfSN4TFMMtRyYXHoZgy/CYtXB0Xh1s16tiwMVrtNl0pt9HdPNf00/CY20sM6ZnNTow08+RnldR0eXEra0bMXUQyOlyB350X350xWae0NgyKaBR4nmTxJg2xV4lia9lH2jl4CKVK8+5c4x0eKsTltmocSCwHfEa+IuYtSr5+AJ9oJDeTlmvgtHCkNrUvL0jA0YehGi7BLRZjLI0qwnGMKGveM7F2q+FrLWp6qcxwZT8SN3EfzKZ15So94s6kqZ0VTP0Ds/aNPFUVr0jdW1HFW4q3IieO6b9EetviKA+d+mg/2g5j7f4+M8T0P6VPgqt82pPYVE5jg6/aHvp4fasNiadZFq02DIwurDQz5Pruj+VKv9XweliyvnyfnvHUShvYi2RBFiDxBHCIvUn3npB0WoYofOCzfXXJvXj4GeewHQnDYc3ANV9Q9WxA+6nwjxNzPLeGjU80a2fNMDsatWsyoQh+m/ZUju4t5Xno9ndGUXMjrDzYWUeC8fO890dnXNyCfGYm2+keFwt1J62oP9nTIyP220X3PdK4+nlN0kZ55m9INhME1xYXPsILafSmhhAQCK1bTdU9hPvMPwGfhPA7a6X4jEXXe6un/u6dwCPtNq34d0yKNBm1yE9fpehV72/bwRkvLNXa23K+Kqb1Rt46BRkqjkBwHuZFGnbXX2gae6gsJPW8p72KKgqM8t8Dl5Q5yimSxmiyVE3lgg4gSgyzgXrwOSXJ3a3wNU2APZJXwMdw+1GX4xvD6wy9ZlrUl1addglC+T1WFxyOLqc+XGMJW4EAg6g6EcrTxlNu1kd1vYzX2ftEnsvkefDz/WL2p6ITxNbRt/I8P/ux/ib9ZEDvSJH/AA8P6V/Avzsn6n/J4vHVL1QvBbD9YrUqXJ8ZSnUvVY95g0OcySzd2/ds9aMK1+weifiPcB6n9oWlpBUx2WPMgeg/eEoGVxvgEhqnpGKZsIDeyl0M2RZmkrC3kEzhIJjiFWgzCNKESch0K1cv5pPR9C+l9TBvum70WPbTl9tOR7uPvMJxFKtPlMefGmmmrReDP0bS2jRrUhVp1FamRfevYDne+hHIzx+2On+CoXFO9d8/hyS/e518rz498rqhTT3iFYgkXO6SNCV0JlUTmZ5MOjh3eX99F3fk9Ht/pxi8Tcb3VIctyndcvtNq34d084tAnWHWmJYrN8MCS3x7Cd1cEJTVe8yzVTI3JO7NCtKloTkgGEVpS06MtAexqnUl96Jb0qahlfm0J8uw9WtKLBrLkxO69saq0W3pNKvAkwINjFlkcWMoJjNat2geUdpG5t55azJrNnG6Na1jGx5fqdizhrRr9U/1z/h/eRFflZ5mdNPdH3M3bIwKDdr1k0vigqR7Q8YRfi8589ina/J6kkOgdgd7H8h+UmhOY9kDxPuZbDDKerHlfYzPhjCiFpygEspmtEGWqPbKV3oPWSRA5HUSakqWgnMi8m5jqJZjBGTvSDJN2OlRBpgwLU7Q4aEK3iOCkN3NCgYwgaSUnbsRRaC2mXVpbegjJlExaL3kGVkw2cQZAkmcIAkicZM4iOKCvAsc4VtYvUOcy5JFootiDpKJUtL1RkIBpnyScZWh4q0NfKJ0QvOkf81h+UiUOcNU+LzgaesLW19JLA/ov90PLkdc5/3f3nrejfRQ1KIru7Mtr9Vh162tbvFwFPrPH1T2h3qPwjmAqFRvKxU81JB9RPVqcm1B0zJP0n0zZGxsKw+bpUA1r7uIqtWxA7mw16aA91zHadDrb02w+4if/KwVClQ/4b03Vk8btPnidKMUBuu61l+piEWsP8wuPWHqdJybbuFw4I4uKlYA/YSqxVPITLPBmct7/PAqqje2hsTBs4RKdQOb54GocZTXT40YB115xDbfQ98PT601qZUAHde9GtY//U/HPS95i43pLjKmTYipu/VQ9Wo7gqWFpmobm5zPM5n1mrDHMmrl/YGlRFQ5yhnMc50u3YUipEgy0qYrCiphKLyplQbGKnTDVoaZb6QLCWD2hQytLal9xNoABNPY+xKuI3iu6tNP6ytUbcpU/vNxP2QCe6U2Rs1q9ZKKm2+e0x0RFG87nwUE9+k2HrfLcTRwVD5vDBtymo+qLl6z/WqEAm55iZ8s+3S+7fshuRf5Js1Mnr4ms3E0adOnT8jUuT42ElNnbPq5U8VWotyxNNWp916lL4R3kTsdtDAl6lFMMi0wHWjWDVOuLqp3Xc3s6sRpbjN/CbJOHCDep01UBMUzEMHbVlA0emVKkltLG172meWXtW27O2eM2vsmthmC1VA3hvIykNTqL9ZHGTD3HG0R3xPV4eugrVdm1j8w9VlpE2Jw9Qn5qop4DMBhoQTPJ4/DtSd6bizIzIw71Nj5S0crrYUrONSCetBh5R4k8rrRRQRO/B1TnKkyap4zJLJaZVKmM0zcQdRdZSm8mq2Uq5pwFSaYLdE6UvOnn3H2K0zk1h6osR4QNHnCMbxsGofcEuRmqfhPcI5hvhidX4VPd+ZjOGbsmezhdT/BlmvpLSVg96WomXT2I0Q8JSlGMtSM5eoD4KVBIk1YMmTb2OuCbyrGTKNEbCkW35LwcteBSvkNBaRuJQixlENjDVBeOn3IHDN3ovcUsdUv2lwpUdwqVEVj6D3mZsXaJoV6dYZ7jZi9rqRZhfhkTHeh+IUVmoVG3UxNN8OWOimoBuN5MB6xXZux3fFphKikN1m5VXkqm9TP7oNj3iZnJXKw0esr7Hagm5h6VUbyktVYUylRDbdQsGOoy1UWLZXIsfD1VYHEXqU1p1KjMTTJDItRnpKWuEQhbUypBbsqotqc7F4yniMYzUKlVatSouH3G3epamd5WYBbFkCKx3TxcG8tisZh362nuEUFZkZgbM7dbR+dZrZdokm3ATLTqnyKzxuIrl2Zye0xLE8bnObPTZQcUzcXp0Kh8XooT7zK2XgGr1adEZb5AY/VQZu55AKCfKX6S7TFfE1ai/AW3U+4gCJ7KJplNKSX7DqPsZbi0sucq1S+sqjWMj3JS/YrTorUErvRistxeK2mfNFxlryPF2i6mS0GZKtEjk/1YaItOl5EHadZVNJfhOnQYvH2OY2/wL5/iYbC/CZ06ezj9S+39GWXp/JELSnTpXHyLLgipJpzp0PkHgrUgp06JPkaPBM6ROisJSWWdOiIJVtY0NJ06Vx+RZgOM+t7M/8AU8V/Z8L/AKBOnTH1P9M6XDPn3Q7/AM/Q/wD0b/S8d2H/AFOL++f+TiJ06LL+l/6dIT6Kf+7/ALJW/wBVOeZkzos/W/wVhyUMiROmeXJUap6GKPOnS3UeiIsOWQZAkzp5z9RUvOnTpqEP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMSEhUTExIVFhUXGBcYGBcYGBgXGBcXFRUYFxgdGBgYHSggGB0lHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0fHSUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAP0AxwMBIgACEQEDEQH/xAAcAAABBAMBAAAAAAAAAAAAAAAHAwQFBgABAgj/xABAEAACAQIEAwYEBAQFAwQDAAABAgMAEQQFEiEGMUEHEyJRYXEygZHBFFKhsSNCYuEzcrLR8CRD8VNzgpIIFjT/xAAYAQADAQEAAAAAAAAAAAAAAAAAAQIDBP/EACgRAAICAgIBAwQCAwAAAAAAAAABAhEDIRIxQQRRcRNhsfCBwQUikf/aAAwDAQACEQMRAD8AGpFbCUqq0oEqbNBvprdqVYUmaEM5NcE1s1wxpoRlavXNbpiZ2ppZVpJVp9hMIznYbedD0C2IBK6CU+xmEEKguQb+XT3pKXFro8PMEb7biocy1E4w8QN9+VOpsB4QV3/2qAfG+LnYelTeCxewW/Lr6dKlyY6QhPCVtfry9aR1VZC8cyWYfIcwRtcVBZhgWi35r0b7HyNUpWS1QhrrgvSbGuC9WKxUmuDXOqtg0BZu9ZesrVArMvSZFdgV0FoEJEVqltNZQOh+sddaaVArNNFCsbslItHT0rXDJT4hYyKUk60/ZaSMVFBYzVegqTwGTNILk6RTzKMpDDvHOwOy8yf9qk8XjwLBfD7bt/aspT8IuML2xKHL4Y7Aprb9K7nnI8lXyHpTaTGXG17+Z+5qv5tmLfBex6/2PlWe2zXSEs0xhdiByvf2NNsMxDAHkefzpnqIN/8AlqcPNq58xyPp5GrqiLE8xw1iSu3mPL1HpSuCxdgL+1JPOdja9v1Hkaak2+E7HcU6sm6ZOYLMSDzt/wA2qfixqyjSwBvsffofeqQJLi/XlanGFxZUgg8iPpSodkticKUYqfl6ikGjqaFpE1Eb22poYatMloju7rYFPWgrgxVQqG4rRpfRWaKBUIqK7ArvRW7UhnJWsrvTWqBkgBSgWtqlLLHWyRjYgy0i1OnWkGShhYlppTDQamUXAuetdBKeZalpF2vaplpFLsd5liBGvdrYADnVdjbUTufrYGnmb7sdVMFmCjax/W3yrkR1Mc5hLpS+oHpbpVPxEhJO9SmY4297tf5WtURIOo5GtIozkzkSm3Pl96xZiPauNO9KRxg7X9vL5+VXojZ3FKQaVC6iSBbrb16gVzBhT5H+9SsGAJv5iobSKSZDMljXSA7fSneKgINq4K3JPlyp2FFlyTEWUem3uetSGKiF7jkd6r+Xyct9gN/ep+BtSDy6e3rSQ2IlKSaOnbCk2FUFDNkpMpTiQUmaYhK1ckV3WGgRyKytVlAE2q0oErpUpZUrWzOhuyVwYqdmOtaKLChqsNLYeOzfWl1Su+7qXtDWmVbNJNJNjeombMANgN+v9qmeJF0Em3Pl/aqrCNTel6wSNnIeLg2k3tenMHD8h6Vb8jwI7oG3L0p3p57EVk8jRcYWUlsgZbXFS+A4aDDcWqd7ve5FLiQ9KTyM0WJCWE4YjA6U4XKEGwpBcS5NhenaXHM3qGx8Cq55l4VjVfdNTWBsB/zarbnDXJv/AOKreJW21/rW0GYzRkdkH/D9anspa6nY9CCdrg1XwbDxEN0HWrPkEmpCLbLbrf5VouzNnbpTaQVIyimkq1pQWMZKQY0rOabsaBHN6wmk2auNdArFGNZSResoEW4UqorhRSwWmM5YVgFY1dJQJnSrWyK2prRNUySKz/BCSI+Y3FU3L47MAeZPzojlRa1ViPI7SFt7q/L0O9YZHRtCPItOUx6YwANzuaePGp6gVGZnj3hUCNRuNyftVfl4iYHxrv6VzKLZ0ppFlxHhrvDEHmQBVaw2b962kXueVJZnmckNlI/2p8fBfJFwaWPpf60lIL/C1D//APYJDsCB7UpHmUnPWabxk/URPY9CTyqBzaE9KlMJjmfbma3jobrRF0yJK0VXCyEtY9auvDIXSbXvyI9RVdgdFaxFzzv5VccgwoCuwHxG/wClbRlcjNwSg2zMQKYzGpTEpUViK3MUMMRTJzT2VabGOkMbtSRpy0dJtHSJaEb1utlbVlAFxR6XR6jlel0kplDiRq0Hps0lc95QFDvvK33lMg9b10rDiPDLTfGSHuyy8wRf1A/tSRlqRyKMSOysdgNXuR0+d7Vlk2jXFqQrm2DMkfhNja9UXOcDICB4beQFr/PmaJDzBBYqVHQHpaovG41G20D3rnjJo2cLKrwplTnExsw8IP2qw8d5YHQWsD6VJZG2uTSNgoLfSu+IYA41avhB2puW7LjHVAsOTuDvf5VLZflDNYMCQPM/apOJt/8AencbMu4NU5tmaxoWgwCxr5U2YXNqyTEk7c6TbaooqVCOKycu2vTZQBdulh96suUoVisfOmuV4lVKn+IWF7Kfhuf0tTtp7/P71tiTuzLNJKNHGKNQ8o3qQnkvTXRW7OeIzMVcNDUh3VaaGgoinhpJoqlJIqbOlICNdK1Tt46yixEiiUqK2orsUwEyK5IpcrWaKQxuBWGu3Fq1ppDEm2rqHEsjBl2IrbCmz0mNMmcDjDMzh+ZAI+W21MMR4SaneBMhM5lxDkrDCjeLoz25X8hzPuKa5jGBc/8AN6xmqNYSsaZXi+71sb3IAHkN7m/l0phmXEIHQ2/epeKyr6mqrm+EYyHbYb8/rURRq5NLQ7MplHeqtgennbrWRzE7UtBJoUC4t6dBSbENuppiY4ijrJhyHrSaSGn+XwCSZFJIBIFx0BPMedCIkxQydPKuw21KT5eVxL4YyIrKSQztoQgC4Oo7bg7CpzBcEYqWMSRtAynkVkuD8wLV1I42Vs71iirG/AuPH/ZB9nX70xx3D+JgQvLAyIObGxA97HagaI9VrrRXMEynkw+vWlzRZQynSmEgqRxJpiwpWMbkVldtW6LHQ6Q0qlN0p3AKtkCqrWn2pYLtU12ezxPmIhdAxEbst9wHFjex5m16QWROA4cxeI3igcr+Y+Ffq3OrJguzLEt/iSxp6C7H7UV7Vl6VEuQNpuyvw+HE+L1Tb9Deh/xXkUmAl7uVlN11KwOxF7cjyO1eib0Du21/+uQH/wBEf6jT4jUmX7s+hWXKIoyBpdJVJ87u4ufXeh3jcveBVhlBDoNDX66dlYeYIA3p52K8U2aTAueRMkV/P/uIP9Q+dXriXL4pVAkXvASdJuRJHfmUI5r1KnapnjtFQnxewK5vinGkJz3H2qvYrK8Xa+u4PkauGfZY0LFWG4Ox8weRHyqAxnebWv8AasIutHTaYxw2SkC8sxH9Knc/OnMMPd/Cxt5GuI8unc9L+9SUGAIHi5iiTsevB1ECRepzh2AviEUX5gC23rzqLV7LYee1WXhNVWdA3VXYfIf3qV2S+mOu0LL++wb4hVAmw7orEcniZtO/QlWIN/U0TuEcrTDYSCJRyQE+rMNTH6mqBxhiY8PlGIYk/wAd0RATvfUGYgegBPyq9cN5kJcOkq/4QRQp/NZRc11pHGybnnCC5qGmzJn2CKVPQi9x7U2lxLTPYfCKlsJhgOlXVE2AjtPbu8zkXQEV0jcAbC5WxNvlUbluYkeBz7H7Vbu3vAgTYae3xKyE/wCU3H70MlxVRRadFrnbrTRjTPKs9lgcPG5VhyOx+oOxHoaLGS5Xgc6w5lVBBiV8Mhj2s9tiU5MDz86hxZamC1q3Vl4i4HxeE8RXvY721x3PtdeYrVIq0QsRpYTqvM29OtE7LOzyGKF1Y97iGRhrOyIxG2hfQ9TvQSZe7BBN3uQTz5G1amVkhmWfFRaMb+Z5/IUt2YY4pmmHYn4mZSf84IqrYmUDc0vw7jymKgk/LKh+V6GB62vWgabfitR23vv9acRCmSd0DO3VbY2I+cP7MaOhoI9vi/8AUYZvONh9GpDQLkxLxOssbFXQggjmCOtGrs54wTMGdT4MSFBKmxjccrx9R6g+dBB2pxkOdS4GcTwEXsVYEXGluf7U0DQfeLuFnxKBgQrLyB35dLjpQpxpaCRo5Fs68xzoiZZxfKVUzRagwBV42uDflcGhz2iYaWTGNiIlOhlUeoYcwayyRT2aYpNaGcuNcm6ik+8fqbe/OoyPHSDZiQfXalIZWd1RQWZjYAb3NZUb8iw5Jg2mkCqLknb7k0VMoWHDxMsqDQpu0h2vbrc8vaoPIMDHl8PezNd2HIc79FXzFDLjjjKbGyGIHRApIEYOx8y5/mP6VrCFbZhOd6XQp2i8R/jMRpjfVh4rrDta9/iYjz6Xol9nGcSTZdDBpACFkuP5lXlQJY2+XL3r0vwFk3c4SEAW8Cn3JFya0XZlJ6LBl+FCLc0vJj0Xa9dHBFuZsKbz4eGEXYFm6DnVaJQOu3R9eDicfyy/owtQSEtGvthmkkwDfwiqh0I29etA4sBsedJlrodLMaJnYRmBXHyR32khJt6xsCP0J+tCwNsavPY+xTFPP0SMpf8AqkI+wpAej5JtO5+Gt1DZVnaTXU2rKdEnfE87QYHESJ8SxMR6bW+9eVsZmHkd69V57jY2V4G3DKVb0DC1eUM/yxsNiZIG/kaw9VO6n6WpFISxDk2vSp8AB68/pWhHqk9rftSrR6iS3IUAeqeFG7zCwSfnjQ/pU5yqB4Jx8c2Bw7xLpTu1AHlYWI+oqZd6BG2NCHt8j2wrf+4P2NFcPehf29WOFgf8shH/ANhToaAtIL0i0J6WpFpCa5s3rSAunBGdMrDCyyFVO0TH4Qx/lJ6A9DV8kypl+fPyvQR0nrRn7G8dqwbxt4tEhAvvYEXoqwY2xnDCzeFoQ3sdJ+R6V3l3DmHyrVI13nf4EJBMY8iR+poj96ihiEAspb6dPmapLZNLK5ma5Zjc33t6D0qZRoSkytZxPK0c2IlYXCNYHYLfbwihbCwHLc8yaKfajkcsWFR9RClwHHy2oWmMfCPnTSGaHiPp0r1R2bZkMRl2He9yECN6Fdt68vxx2ondkOceHFYJ5O7WSMvGb2s4sD7XuKYMMPFuLljwxkhlWNlI8bKXS3W6jc0jwzmMuIjWaRcOEK3LK7Eja+6stl8+dQuS4wxQPh8REGALBU+FRbmupjYm+9dYXHPHhpMO6qjBzEWS11dwCoK23JBBHQilY/FUM+2LNFbKpO5dWV2QalNx8XQivOTQ25nejvneXpHlWNV2B1MCgH541uCANhe3TyNAdlvuaYjEa1/ai9wBlaRYGOSTbvG1t577L+lCbLMGZpVjHU7+ijmaMmCw7FQoB0gAAeg5UmBacFhCJRo+Ei/6VlTWS4NkRXcW2Asa1VpENkOgLEnqaH/axkJdFxSjxR2V/VDyJ9qIMO3KnUOVHEq8bDwurKb9bihoqzzkCFBPWmyszGwO1Os0w5jkeI80dkP/AMTamjvayr151Iz0f2OqyZVHe+7SFf8ALqNqk834mwsJtLioUO/hLgkfIXoaZLw40+FgilxmIXVC0sUS37hIkYBi7DbVYk2NSkHDWFSKZGg7iIO6lndGaeJAJNQfnpbSdvWmmJomMX2nYONf4Sz4gtcKUjIViOYVjzt6VSuLeIMRmUDp+C7mJW1F3bx3UXsFNunO1O8RneHSGRPxEKu5cQHBqS0UUltJ0qLg7AEjems+byMCVw00yhB4pgiK7hNLEqw1C9gdqGx0CxJq2cTTeV7k22JJ2HTflS0OEvzpDN99eit2HzDTiFP5lP6ULmRRtair2Cwq0mKU+SN9qBPoK3chlfbnpHyG9KYKEK3p5U5jSxIA5EH05VoICLnXtfdhvc9PUVRmVrtXwyPls/K6gOPdTXm2MbX869J8ZYd5MJiFRLju29BsK84Qrf2H79aTLj0dKKluGCVxUJuBdtJvuLEEG467dKj1FctNv4eY3B9RSGHrMsjlkhkgj1SriI2EbMT4A63DsTuCCLWI61HYtpWw7F1ZMRJgw7Iea4nAOAT6kgj3ApjkmVZosUOMwcizq6htL/ErWsRueXoDTnG8YYtHVsZlQMi/CwDAG/nsQR86fH2CxPM8E84naX+Ce6LW0kRKHA0AHkdVzy3FBl5GAI03t+1F2bMMyzacIkDYeNhoZiHKKoub77X9t6FWaYaTDzPHIpDIxUhhY3Bt+vP50qoCY7NsKsuLaQ7LHGS1/NjYfei8nF8GGFo0Dnz6UJOHYe6jbVdTIQSDsbAbA/Un51JnEgdL1HIfGyd487Spu6AWyOxGkA8gDck/tW6o/EGRNMO+RT3hIGm9yR5+lZVKQqDlgYtTWqyYnELBGT1ttUTkcBuXbaoriTHa30g7CtGR2wNdpmH0YvvBsJwZLeRvpb6kXqrYFdTirv2x4dknwt/hOHGn37xtX7iqVF4E1dW5e3n86hlhM4JJxGFeNsbiVjRyohjcIliL7tbVvflyqVw3D2ETb8OHty713kt7AtYVSuyzE/xpor/EoYD1U7/oaLmW5WZDyoCyNjiFgsUMY8giKo+oFzU/l/COpTJiSSACdA2Gw61ZcrylIhy386cZu+mCU+Ub/wCk0UI8kYuBe9kKqANbWA6DUbUhJenjLcn1J/euDDegY0FFTsHw/wD1M+4/wgdj/V1oZnCkUVf/AMf4Qs2KdiAQiDn0LG/2oBhiZWUjSOf0FOFN+Y/SuDi1tcG9/KuBJIfSmSazKBWhkQ2AZGB+amvJLx2dox/KzC/sbV64bC6v8Q3HlyFeY+NMEkWOxMKEACRuXrv96Q0V+aW3hXc9TXcMVhSiYULy3rDQMPnYrje8y/RfeKRl+R3FX4kKCWOw8+lBfsJzMLJiYSeaq49xsftRUxLiTwk2H7+9NKyWyLzPPZpG04ayjlqIvf2rz1x5nU82Pm77SWDCPlb/AAxYHbr616XKxwre245CvOnaPhu8nxeLUWQ4gILcrhQGP1FqTHFj9sS8wR59PeaArFeTW5E26kc67hAB2H1qo8PZnY92wZrnwWt9DfpVuSQDkPqayos5zXNFwqhmOpz8KjmR1PoKymOcYQzIwFtZtufQ+dZVUINWI4hJQqEsx5moaOMsw8ya0V3v51JZXDdxf536Ac71otkdFd7Y8FE+GQyGzRae7P5ifiUfL9qBuLn1N6dParr2o8T/AI3EsIz/AAY7rH/Vv4n+f7CqXFB1PKh9lJaLR2UQO+ZwIoPi1hvRdJJJ+lenIYosOu7Aeprylw1xM+BxKTxfygqfVWFjb1o48PYabHhZbsI2AbW3kfIUrEy5txEhbTErOf0rOI3YYHEFvi7p9vLaneX5dHAtkG/Unmaa8Rrqws484n/amB5TIY8qSIk9aWWYittjrUhjXRKfOih2E5O0kuILsQFVPncmhjNmZ6VY+zjHYgzy90xF4zq3sAAebHoBSboD0jLicNhx4pBfyvc/QVDY3jdeUMZPq3+woV4jHyNco409ZWBsf8gPMf1Gw8q5wccj7x/ipvVFa31UAVzy9SrpbN4+ndW9fIQJJcZiTuWA8vhH0oH8f4KaHMJ1cHVcH5EbUQY85xGHO74qH/3FYr89Qt+tVbjhp8TL+Lssg0qrFP6drlTy+V6cPUQbp2n9xSwyStU19inwY5hzpy2MU8+dN2lRviFj51vuAwspueldBiEHsZTXjZQDYmEketjRhEL772I/WgP2SYsw5nGf6JAfa1HvF5rGw5CmmTIh84zju0dnsAgJ+g23oWZQDjMqxIIuwklce9+8H71Ze1bMkXCGNQbysFU+27fK1VfsyzOJO8wc5KLiPgkH8khXTY+hFqTGiucJ4CwMzczsnt1P2qxBRXK4Puv4QNwhK389JteugtSaJHYSsrpVrKQ6L0k1yQKccXao8qnkW4kZNKjqRezEfKt8M5d3r2Oyjdj5D/c094pIlbSB4FGkDpblWngy8nmR2vXIqa4ryc4XEvHbwnxJ/laolVpFGJHXpzhjiNTgsP3IAXu1HsQLH9a80giiX2NZjrZ8ITy/iJ7cmH3oEwx4TMpGI2JF/pT/ADaVRE4YjdGHzKmnGFhEaWG3maqfEeIZm0i9r0yDzVi5rMw8mYfqaZtITUrxBgjHipk8pG/Xf703iwo60jQaxQE+1XDhHL9CPM5IjYBdH/qWPIjqL2FupqBgh1uqLzYgfU0T8F3UH8R793h9CoBbxTvsp32OgXff0rl9RJtqC8m+CNvlV1+R5hsPHDJH+KCvLJcLGSO7gfTeNZRfdmNhvsL1IZLxDKuGnMjyviQjFoBEUEOk6QFAFV6PKIpZJMRLN+Ih0+PnHO7NtGLDYsxFr+VTKtLi5Qssp5bKGYRxhRYKLG7dBqPM1m8kcNJI6ZQT+/lv+v2hbhbM8TCs0WM1FyiOne6SG1j4b/CRfod6ruGwMjlJYY0jMusiLvAVl0fGI/JxyKHan+hlDRndCSGicloyb7gg/Ab9RSOPwkSqjr3nd3MeEwsVw8c/xOXb8wJuD1B8qUMsMyaBwqV1Tft11+vfgpPE+Trp7+MWUm0i2toa9r26b8x0qrNGyG45eYo28SZWyLHPKqhpQExUYN1R2Fke423tpb1tQhznDNh5HjvsDceqnlW2GTT+nL+DlyxTXNfz8k1wNn8UGMiknj1Kf4bEcwrkDUPbnR9/B4MGwxSDyBIrzXw5hhiMVDCdgzj6jcD6iisMkRZBeRmJ5W6ewraUqMaLLxtkmWTYYd/iwhiuyurDmRaxHUUEOFkGIx0MV/DrJv5hbkH9qJXGPBMkuCkdA7NGQ9vNR8Vh12of8Gzx4fGwSP8ADq0k/l17A/ImmIn5V8TD+oj6Gtaad5jBomkU9Hbfz3vekCKmzVI0tbrm9ZRYBPwsq4WBYNYd+crjYM/Ww6KOQpvHiVZrEjehzjM7mjAabDSBTzdTrUe9txWZdxCJr93cgbciDVczGiwdqnCLS4X8Sgu0NybczGef0O9BRlo4ZfmOKsUUEqwKkNuCCLHY0JuKMuOFxLwsQbWYW6Bt7fKnaY0Qyiib2B5frzEydIoXJ9S5Cj70NFFztR27D8q/D4ebGSGwktGg8wm5P1P6UwYTM3xBUWFt+dV6TCd4dVR+aZwXYkD966yrOhGfGCw9KdommCrtVy3usfqGwljVvmPCf2qovtRb7a0imiw08fMMyH2YXFCOdt7UiiW4Pi1YpP6QzfQf3q+vmbQYZAO4fvndnhlXUZAW0qQD8IsB4qpPAv8Ajv59237ijHk6YZsFhkxMULh0CqZFBNyTybn9DXHV538HXjkoxi2r2yvz4dYUhjWNIywad0R+8UO3gSzeQGrbpSE76MNO3VgsY92Nz+gqR4kMuGb/APjw2iNFUMneMBGL6dSlvD151WMfnEkyhWWNUDatMaaRe1rne52rbF6CU86yNqkY5fVx+m47tlgOI7+JJ/5j4JbD/uILatvzrY+96Wy/ASuxQRMQ42JVtKzRgtDITta26n0IFVXBZjNDq7qVo9VtWk2vbleprCQymP8AEYqaYx/9uPvGDTW68/DH5nr0oy/46OLK83Kl7E4vWSnBY+NsneHuEcVIs0mLmJGIjKtGed9mRgBshVr++1CzjrCHRHIbat4291/8Gj1LJOZoBEsYwvd+LxaSjAbAL1B2FCHtGgAXEr+Se49NW/3rPLUZxkvc2U3NSv2v/gP8gmKYmArzEqf6hXonCYyGMapFAPla/wCtedcr3nhC8+8T/UK9F5Tw62IbU9xEeYPX2reXZzlhwWfK8RdoyqAWDHk19jbzrzF4Gxm5tH+I+i95+1ejeIcM8yPFAPDEjBQNtT6eXy/evOGFy59YRxpcsE0tsQxNtwfU1QkXnOImjnkRiCQx3G4IO4N/a1My9bdCDZjdl8JJ6ldvtSbGsjoXRovWVwTWUAF7KcsFrEbdRzHzFRmb4ODDzSERqCTeygAch5Ve8HAAKqPEeED4t7nbw7f/ABFbtI5kV2bMnPIhfYUOu0DLS1sQLk3CsfO/w/OjGmVJ5VRu1xRGuFiUWVtcjepWyi/tc0qY7BfgcNp8bfIUY+BM7EmXxxg/4bOD8zeg7jpTy8qs3Zfi2EssX8rLq9itABP0XNS+U5D3252FR+DFyBVsy6YqotTSE2Uvtby2LDZeOZdpUC36WuTt7UCZGuaOXbtJqwURP8sw/VTQNAvvSehronOC5LYpR+ZWX9L/AGox5LPhTgYxikRhFI2jVtpZGNiD7W2oGZZMY5o2HMMP3t96KGIwnfYbErcDumhnW41C7kxsCLjYgA1ySfHN8o6sdOG3VP8AJMZ5nKyTR4mBzpdHj1dC0bXsRyPM7GqJxxjVw+NdURQBHFrRfCveEXew/l+IbVfYeH1iUYPWWKtDiBIQObsEZAo5KRcc6rHD2VRzS4vMp1ErjEuqRt8CtqNmb89gBYbDarhkeGUsjeiMsIzqEV8fHgr08syhGMTxBwGTvF+IdCL2FquOLzEYqAYkWu691IoNwk0YCso8gQVYD+qn2JxRkVlmVZkb4kkGoH2/Ifa1cZTwvHhsRFBG7fh8Yon7tvEYngYHwv8AzAg6dxy6msp+qj62PHpoccL9NLl4ZvN80xcUxjWGTRdVRtDFfhUDcf1Ekn0FVrtF2TE3N7zKPmAt/wBjVjkzTGfj48M+KLRPMGsF02AuwW9zt0qjcc4otCpPOSVnPuST96eR24r7mrjxXVf6/krmTMsMscwsxjdXCtybSb2Poa9U5Nmi43CxzQ+BZFHun5h79L15QwsIteiVwNxXPDgTDGQP4rAN1APO1dd0cVBpxWY4fCAIWAPRRux9/wDegf2ilp88jDIIgBCAfzXuwZvXcD5Vb8J4Bra7yHcsx3ofdp+ZPLjoy1riBNx18TEfSldgPcTEdRvzub+96T7mnWBYvEjMbkqCT510VrNm6ZGvDWU+db7VlAz/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXGBgWFxcYFxcaFRcaGBcXFxcVGBUYHSggGBolHRcXITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lICUtLS0tLS0tLS8tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAIDBQYBBwj/xABLEAACAQIEAwUEBgUICAcBAAABAgMAEQQSITEFQVEGE2FxgSIykaEUQlKxwfBTYpLR4QcVIzNygpOiNDVjc7Kz0vEWQ1R0g8LTJP/EABkBAAMBAQEAAAAAAAAAAAAAAAECAwAEBf/EADgRAAIBAgMEBwcDAwUAAAAAAAABAgMREiExBEFRgRMiYXGRwdEFFDKhseHwQnKyU4LSFSMkM1L/2gAMAwEAAhEDEQA/AKECukGuqacxqDZ0xicUGnU1alVKQew+K9GxrUMS0Uq0LjJDGNQsKnkWowtZDA7JULCjWWh5FogsDM1RF9dTYVI/z/N7+lDzltStxodt+fIfj18KZIjKdid8QLWBvy03GnyqqxOMK/Ws2ov8Lc9K4uIULd9zrbx5bamgmnUm9mIHKwy/An860yRJyZ2HirgtrcH8/nzok8eINjqMpUjmdreR3FU2JxSGxykDc6n5fnlUD4lSbgn8fL89a1jKbRusHxVJFBF+h6g25jzBqcyA38NKweB4gEDDWx1AHUEW0OnKr3hnECQNgACW3u1rnToL5hS4bDxnfUuhvR2GoVU2oqEViyDBUiLUaGnB6VhGzRUK0dHFqgdaBgcioiamkoOWSgEe5qHITXVN6JjSjYxH3VKjctKsYrFjp2S9E90aayUwqIFWp41pgFSo1AYnjFTBqFDU7PQDYlc1GzWqN5aHeSiYIMlMc6H40NmNOxDWTz3N9vWilmJKVkQF7jcA8vQ3vQeMAUalmHrqbn4+WlAYniOU2UgHfmbjr+6/WoHxcjLcZrnwH4U5zXB8RiFsQoPjmFjQOIxTDTSx+/8AJrk6sTcgX58vjeo0z21N1+zobfH8KYS5FISQB4/n8+NRZL7aedSSk1C8pOhrAHCIjXl13tVrgIJWAtY5RptsTp/3qpw5sdzV1hZii2Gx5kWAB3uBWYUanguKJsjWDKNgDc+LEmxNuQq0d7ViuF4smQXBy7X0NidPdt+b1ryDapvU6acronWeu/SKrmYiuLLrQHuWiy1Nn0oKFqIFKxkmMmoYx667UZlpkkdYzIYo6KRKiQUTHWCh+SlUlKsYc8FDSRVbFaGlSqshEqWjqPKaPkSoGSkKoHvSualKU5ErDkXdmuFKKtSEdADBRHVN2hmKi3IW0HP8m3w8K06xVlu2q6AeF/4fnrTR1I1dCh4bh+8a5IuTe3hvr0r0ThHAoyl2ArF9mcOd9zfXpr+fzz9L4evsgeFLOWYlKJT8S4DCRfIPifuvWYn4ItyFUab8/v51uMVhjrY/Fbj43qqKOuhkUeaHX50imzo6OLMkez4blb0p/wD4ZWtbDEGG8fo9vkw0pmMJGiqn+ILn5UOkYOiief4vgOQk3vaoAfZsfP8AiBWpxUbE2K+ftKw+AOtZvjcYW1qpGdyNSmo5on4HMpmUEact962jtWD7LTH6Qg8T8La1vmSmeoaTyK/ENUUZomeK9RiKgWgrsKgejIzVWptRMctIztjDIsQK4xFCHEVGZ6xKpCwUTT1ag1lpNLRIXD++pUF3tKmMaMtTGFC/SK79Ioti4BSrQrrRDSVE7ULhtYgNcFOO9K9Y1x61PGtChqlSWgYLEdU3amCGWO8RJdCVcG240OnLnvyqxE9VWPAiDNbMJHZj5kDS/wAaEpOOaGhTjNNPXcD9ioBltbbf1rU4zGiBM1rk7DqenlVb2S4fl7x+RY2Hr+fhT+00Dvoi3IGnnSPN3IpWRWD+UGxtJEfRdP309+28Le6GB8VP4isVxrhOKVxuxO+XYa8/3+dcwuElvYqTY6mx/POncchVUdzbvxCFgCyK3mov/Gq+ftFhgcrRoo/ViXT1Aqv4xh3iQHW5A0561l8VLIASRoDY0sYXHnVwmrxHabDAWjjB/ugHz1FUPaCQOAy+6ahwZvbMuh15bedE8UiCwi3WnUUmTcnKJH2Ow5bEr+qCb/L8a9BesT2SxbRMFVczSsq68hf/ALmt5JHRbux4QwxXaCFaYwAqV1NDyqaBROwxhXAwFMckUNMxoWOiNdBRlvT0FCQKTVjDCaFhZ1LnFFJkqdYDUncUSDBclKje5pUbigwmpwmqvD1KklaxTFcPWQ08tQ6yaUx5tqwrYRmpjNUWfSuZqUZEuang1EgqcLWCzgarDB4BZ0yteysWNjY7C1vUVWPRHD8UyHTnoaZ6Cp2ZdytY20F7k22uSSfmTQ+KmFPDMVDNa5F9NtyBVJjpWvpUHqZEGPw7yn2WAv1v+Bo/gvCES93zt1tZR5Ch43IFWXCIXa9thr50ybC4oH7WYZbLcc7fCsrLgn3jII+yT8q2vapQ6Lb3gRpesb9IK3BFje1Ndp5GcU1mQ/R2PvKB6g0LxSC8RA9PjU02KuamjGaw5k6DmTytWV9RcK0LHspwQIqztq5BC9FXa48T16VeSJR0UIVFUbKAvwFqikWmNqV7pUEkdWfd0x4qASmMdDTQVbTQ1AyVsQMILhYrVa4dBQSG1GYZtaIbBqwUnhoyBdKkeOswFf3dKju6pUDGJkQ0xbirOWOhmip7gGK9I3qRY6mVBWFIY1qcJSItXI1Y7AnyFCw8bt2Q9RRCnSuQ4Nzy/f8AAVdYbszMVzuO7QbtJ7IHx1PoDQSb0Oh0Zr4lbvy+5TMlVXHOLrhl2u52HIeJ6+VXuMKR3s2a3M6fAcq8r4/iGmmIvufv0oaux2PZlstLpqiu3ovU9hw7kwQk7mNCfMqpP31VzJd6PxkxCqANAAB4WH7qGwhDMSalI896nUjBYL8afxtDlBikeMrr7FgG8DpVZxLEFLkX5k23sPCsxP2/b3Yo1t1fU/DYU8Ik5Sz1GYjHYlnIuw13vf76spIvYW5uwGpO561n5O2E24CA9Qq1Ng+LyTWLIRruBYGncGLiXG4VNFlNa3s2oWK/Mn5DT99ZmRCxAAuSbVq8OuRQvQAUEWpwuWfeU7LQsZopBTAkrHctOEN6kSOplWgIAzYeqzExVfSiq3FpS2GRSOKMwZofECu4VtaKMzRQPRA1quw7VYwURGS5aVTUq1gGPK3o7B92FDBVfML3YZh6DYD50XwvgzyvlVSzc+Sr/aNXfDuCwR+yiNi5F9nLH7GHjt9UynTTwufAU0YyeaPSpRo0L9OrvcvXcuZQnIRbuItdrK4PoVYGj+HdmJLFzCqr9qYkAehP4Gr+WUQf1s2Hwn6kKiSe3QuwJ+C1UvxzDs3/APPhZcZIP/MmLPbxC2YjystPZJ5sDn0ifRUklxtdeLsl4sbBwyBWv9Iiv0w8ZmfyDAHJ6VZRcHVtVwuJlPXESLEvrY57eBFMixXGJBZIYcOvLRQfgWa3wrr9nMdIL4jiJTqIw2UeqlLnzFvCm7kc7m461Iruf+C+rDmwksQu8+FwSf7JFzW6GWU29QKw3a3i8KyoscsmJzLcyO+Yb2ypYWAFuXXfSrZuEcHw5JmxPfP9b2wzt5iEZvQ1je2Jw8zNJgwwSMAlCLeyQql0F81lK3a/6S9gFJM6jdrZHZsGGNXH1n24bLm7tvmVvF+NAgqo86xsBzTLpu6j/MBVtLCtr61BwVLz28QfhUqbOj2pjnFXPSvpGm1QIcp86jjbaoOIzWFh6UjPKmFCYAnwqoxeLwob24gpF/aCqed7i4Nje21FYSdWFnqDGYGG2YnN4Xt91NFtEcRT4qXBE3SPO17+6ALnmdBeuxyDLoNTy6ComwyDX3RQsmMCXy78vDxptTXLEcWSGZItC1vbP2b7Dz5/CtNA19a8i7wmXNzLX+deg9ncHjJlZ8LllKH2ocwEltPbVWIDLrbQ3vy2u042asdezSjKm8Ttbea/DrRqLWSXtM0LZMTA8TdGBU/suBer/hvHcPNokq5vskgN8Dv6UExKtGazWa4rMtFp964ajZ6xzCmNVmLaiZ56rcRLegMV+INSYVDenpDc1ZYXDU1jM7h1NHxPauLFaky0LChHe0qGpVgGh4njI4IgcSO5iN+7wcZ/pJLfWmYHXlcXy62JY6UPDhsfjQLkYPD/AFY1BBy8hlWxYeZUfq0KuFjwYOP4k/eYhzdI9GykaqiLsWH7K9frHG9o+2s+KJDMY4uUSE2I/wBowsZPL3fDnVZyS18Dv2ejKo7UrPjJ6L9qeve8+42Tx8JwdwxOJlG6Cz68wQLRr5Mb0Jjf5SHUZMPh44lG2Ylrf3EygfE150MVyGgFN7+oOrLdkerH2bRedVub7XlyRouI9s8bJfNiGUdI7R/BlGb/ADVn55GlOaRmkPV2Ln4sTQ8j0+AXt02pHJvU6oUaVN2hFLkGRjSojMyMGU2YG4P53HIjmCRRSsANifz8KBmFzpQOqSTViPimGVlMsQAAsZI/0V9My9YidvsnQ8iaHBylJM43BvVy0jRv3ikXUEWPusDujDmpGhFV+OwwSVwt8vssoO4V0WRAepCsB6VRaHjVoONRRem70NnhMWsiB1O+46HmKCnmJNiNKzuAxzQtcaqdxyqzxOPUoWU7/EULHm7RScHdaAvGOK3OROXPnVeuOl2J+NRAXO/OmyIb6601rHFqx8mIJ3NB4iXQ1I7cqFxQ0tTxRpcEcwcV2HhWk4RxB4XDRMyuNmGhF9D5jzqowSW1tvVnh47npU6juz2dipWjbiet9n+OcUlgDiGLFIbgNnSN7g2IZc1r+SjlVthcVxIm+IiwEEXSVyT/AJSQflXm/AMcImCPipoIWN3MLMGvl0Nl1OwFwCfhV9heMcMzFhhZsQ2xlxEpLt6XIt5gVWFRYc2c9fYZKo1GF+5erSNtPg1db9whX9JhHD5fFoCF08FzGqDieCeIZveQ6Bxe1/ssDqjfqnWocPxbhpa/0WbDv9uF7EeRDj/hrT8Kx6S+zFikxFxbJMO7nt0zZRnH9pCD1p+rM4quz1KKu4vmvO7X0MDiZaDVta2/FeBQu1hfDudlYBVYnYLdu7Y/2H/u1nsd2cxER1jLDqtz/lIDetreNK6bRNVEQYdatMOtVWHqzgNKMwu1DympiaGlagxRt6VcpUoTz3tBx6XEymWZrsdAB7qLyRRyHzJ1NVHf/uodnux6C/rb+NObQ+WgHVjqfSleep7inZWjkkEpNrl6anzOw+H30XF40Ng8PYanxJ/G9XWG4ZaMTSusEJ92WS93tv3EQ9ubzGnVhQUb5I6VVVOOKo7fnzAJug/hVjwrhbsucCyXt3jkJFfoHYgM36q3bwoQ8ZiBthYNf02ICySnbVIdYohvuHO3tU/GcTd2AZ2kktZnY3IH2F6DwGlGyQadadV4oqy4vXkvV8iyxU2HjFmaSZtssVo0B6d5KpY/4XrQ/wBMw62vhGYnYNimJPn3cSVU5yTfpsOpogL3a5jq7fKtj4FOgxO8pS8WvpYJn4nl0igw8Z3zBGldfJsQ8gB8QBVJLdnLMzMzG7FiSxJ+sSdTUua/41xloYmIqFNO8V5vxYO6UJKhG1WJ8dfvqBgvW1MmSq0lIAjkCnY1NiMapHs7+P8ACpGiH2hTO6X/ALU2JHmz2NXAgTRXDMEruTK5jjQZ3YLmNrhQqrcZmJIFiQNyToakKAbD41JAwFw6sUbRspsd7gi+lx476jxBxC+7JLII/nbAofZw+Il8ZJ0jH7EUZI/bpycfQG64PDjpmbEyfEPPlP7NPj4DE+sWIjv9mYGF/K7XjP7dSy9n5YQHkiYJyf3oj4CVLofQ0W+CNToybs5cm2gf+f8AEvdAyxo26xRRxAjoTGoLDzJqwixIjAvcmucP4TnOfPFGmoRpZAisRuFJ94jS5GgvqRpTOI4R45MrjWwIsQysp2ZGXR1PUE1Kd3mensqhSThF5sMg4oDRMmJ0uDbmD08QeVVEcAO1PkY5TUzvUnbrG04L/KDiIh3c6jFQnQh7d5b+0dHHgwJ/WFbbhePjnUtgJtQLthJ9Ut4A3aPoCpKeFeKYC5N+VqPwOKdJBJGxRk91huD+eWxq0KrWp5lf2bTqdan1X8ua9D1SWFcXnMSZZ4yBNh5GyyKeRSXoeRbMh5ZTVRJh2S91dbbq6lXXzGxH6ykr40TwPHx8TVWEn0fHxAgOm7DmQv14zzXUqeo3uYcRxeP2ZIIMSg5hgrH52/yVfKSueNKm4NxyTW5u3g3k18zKviabG96uMbBhcQkskYbDSw6zREE5NCcxQa5bAm68gdL6VUfRHjylrFWF0dTmjcdVYb/f1qbgxNMmrBGSlTr0qAp4xAwH30dw3CtIyhVLsxsqqLsxO9h+dBVICTe2+gHqa1OIx6YbDLFFriJkGd7/ANVC2oQW2aRbMx+wwXmbq4nqQr2X0/OwlnxKYX2UEc+JtcsbPhsP4gEZZnH2j7AOgDn2qpcRLJiJC7u8rHd3JLv/ANKDko0Fcjwvs5pWyoddffkPXL06fm5BLMMqDu0P7beZ5DwoOW5HTToYpY55v5/ZfnfwMF9iPWQ7sNk8B1NFYfDBRb4mlhcMEFgNfnU+JxSQjX2pOS8h5+NIejCKgsU8vIlKLGM778h+NVM2JMjX5VFK0kpzOfSpAoA0o2JTqubssojrVxnprNTCKwrnuQsxJsKTELovtN1O1WHDOEyzX7tGIUXZgDZQNTc9bctzyBr0rgnZuDCEIbS98hHeFQNbXZF5hWQk7n3D4VSFNyOPadpjR1d3w/NDyXIeZua6Eo/jGAME0kR+q1geq7q3qCKCvSO6djoWFpNaD0iHOpMi9aGvSAJoFFJLJIMUDqKJwPEXhYmCR0Y7mN2S/mVOvrQMeDJo6OEIL0CyjiXWWQzimMdzmkdpHIsWdixsNlu3LXbxpcI4jkGSSNZoSSe7YkZSd2jkXWNvK4PMGgZmudaaTYWFFNrMhOMZZWyRqIsFHMC+DkLkAlsNIAMQANzGV9mdQPs2a31az+JxV9qAnmKsMhKlNVYGxDDXMCNiOtWePb6RH9KQAPcLiUFhZz7s4A+pJz6NfqKfDdXOZ7RKnLo27rc9/ccw1yLC4HOuYnGE/wBHHsNCeXlQjylUOuuw9anQwx+yTcjcDX41Ox2KpfK9uPoHcPBGt9rWPjvcHl51YDt5iIGHdYiV2H2pHdPLI5IIrNYjGNKCsfsRj3j+eVMw+Cze6LD5nxplkTqTVVYYRT7Wr+Hqer4ztYpXD8QMWpyxzKvvNG4JK3PvZWAK38RperTs7w5Y0MKSd9gMT/SYd9c8D2Ld2QeouQeqMDYtrjezOIgkgOAxN1VtFnW1ozfMuYHoeY0tYHma2vYzhqxwyYN8VFI0bXjaJizWLB0YKRa4e9xcgc66YPEzwdopSowcWmvpbc+T+o7/AMM4n7cP+elWg+j43/Y/sn/9qVUwR4HH0j4rw+x8sK9r+f4GrBYJEKtKtnKIVGmiZRkZl5HKFIBtpY21Bqrw8h7xTlDAMDlOzWNyp8DtWgn43KXZ8oLOxYki5JY3+Nc88kelsmGUsUnZLs3ncPYnM3tHqdfTzozI3vyWjXkW0NvBd6rZ+KYn7WQeAA+YodUuczksepN6jhPYW0JZRT55fcsZeIk3WAHxkbf+6OVRxYcDUm55k0xXp3eVg4sTvLN/JE5phWuXruagUumIR101wNTM1YGSN9wTi2FiypDiO6ucxBeRA2kS/wBM0qOmfWU+wMpyKPM7+dYz7MeIiyJ3YiGaLLDpCqXW/eyW7xwSGygIym2tvM7cz8K4sd9dqqqrR58/Z6lK93zNr2nwRmV8S7ZWSNdAg1u7jK7CRlBAtaxuc1raaUfZ/heHmzmfEGELawABZr3ubnYDTkd6pmhAPK9SIlLKV3cvToSjTwKXd2G6XDcKQBRGJD9t3fMf2SAPQCjoMBww7QC/hJIR8M9Yvh2CaRgiLdjy5eZPIVo4exc7HRoxbXOC2h6D2bmhdshV2dU9atnzH47s4CS2HNx9gnX0J3rIcSm1K6gjQgixv4g16tw7hgiVe+mDP+quW/hqTejsTwHDSkPLArsNi419Rz8jWwiQ9pTjHDLNcd54fBFfU04xknSvZ+KdmsLJHYwoptoUUIR5ZbfA3rxftAXw8jQ2sR9bqp2I862F3L0ttpyjnl5gOJW2l7kb1P2WxAGICt7soaFh/vBlU+jFT6VTF6sOBNZpJBukUhHgWHdqQeRBe48RVYqxw1auN6DpnDHNyUX/ABqKDDl9WNgTc+J/GuTYgMQoAA0J8fA1aYWw1O/3eVTeSO2CjVmyTDYYAaiyjZfxbqaNigLe9dR9kb+p/Co0k50Uknp1qbPUhGKVkTMyxp7PLT8/nnW37A9qYIR3cyLGW074A3J6PuQPEaeFefA5yPsj5/wp74oIS52UXPmbWA8bD500JuDyJ7Vs1PaIYZ6fQ9//AJ7wv/qYf8RP30q8C/nlv0Z+I/dSq/vHZ8zxv9Gp/wBT5fcyODw1iG8a0GB4f3ksajS7Ak8lVfaZyeQVQSfAVXomlXkWJEeFX7UzMGPPu4shy+TObn/dL41Ju7udVOjGEMPHT87imnxRWR8oujMzBW5AsSB4aWqMzwHdXQ+GoqeSMNcjbbxHn4VXYmKxoLNlainTj1c125k7TQjZmPham/SLnQZR470CacGNNhOX3iT7O4sc1jThJQAeniXalsVVYLzU5VoeJqJVxzoMvTalmzttacI2NI4tFqGTi4GwrWZSVSlHWQWmGNPLImrMKpZeIO2gqTh/DZJ5UjUFnc5VHiep5DmT0FNh4kZbZFfAub0PQP5OsM80pmAyYdAVZjvITY5E6W0JPpz01HaPj4W0UNgToB6218Kq+M46PhuEjwyEMyrbTmx1ZvViTWR7K4hp8WjSG4Mi6eK3a3l7NF5ZI8mrOVWTqyPWMEwisAC8h5ncnnbkq/h1qfiHFI4ULyMNBfw9KpJps2IIvYLGfvUVh+2GIaRiMxyqLAdTROV5m9w/FFnQtmAFtBzJtqPiQL+B6isz257MNPFnQXljGn645p+I/jVT2Ql/o7frgk77agH5/Ot3DxFSMunT+FBAvZnz6wINjuPj8Ks+GsFgxBP1hGg8y+f7ozWu7bdkmeU4iHKFb+sBvo32tBsR8/OstxHhsiIqBGIHtMVBKlm5C3IAAeebrT4kzqhSnKONK6KaF/aq3hmp2C4HGNZprH7KC5Hm50v5A1ccO4bhDpaS/LM1r+ItaknOJ37Jse0JXatfiyvjmohZ+VWn8z4cG9m8ixtRLyxKLd3GAOWUVJtHrU6NRfE0UzYgAeAFz+6mjCyyWaQEKNVW3zOht6g1Zo+bUWGugyL8aZKftKreNa5Rw4vIj+jL+jP7Un/TSp/eR/ox8KVYXqFXAtwakmTNCmtskjD/ABFVh843ruFXUjxozGxZIEU7yOZfEIg7tD5FjN+zRi9Tkqw6seN/XyuZ1gVbcg73FTNiQdJV/vL+6uyqGvzqBgV094dOdHUg8UNNPzU6yQfpWHgV1phliXUFmPwFRMByIPgd6aoS4BQgnQW5noBTpHLKpbdFfnMZNiCeVqaGo2TCovv508GUj7xTTDD9s/CjdE8EpZ4l4gwnI2pudjReWAc2P3U/6dGNlrX4IdQX6poFXDseVTx8PPOnNxXooqF+IMa3WG/48d9wsRBaj+kFSCpsQbgjcUIZ2NML0FE0q8WuqgjFYtnN2YsepNzVj2b4n3LhwRfOPrC9rEbHzP5FULNTLU6jkefWk5qyPVMbxVlkUrf+kXL63BFUXFJSTrz1qjx/aGSRYgAEMYX2gblitvaN+ttqFbjEpYs5zE76AfADSlwsR3Zp+E4oxN+q2jCrvDP7VwTb1+dYWLioP8atsPxuRBYWNI07i956XhZl7p8zXBUg+oOl681j4gRpem4rtNMRlNgNdBVEmJ11rON0ej7P2jok+0068TO2h8wKExBzHMLBhsRp91VQxPjUseJ1pcNj11tcZZMuIMdmXU+0N6HxE2wHOhnnAXTmd6EOOy67kbUMI09qjHJsu5ZDHHr7x2HSokmJ2PpVJ3rH2mJJPwoiUZl3tzBo4bEvesWaRcXbpXapcj/bPxpU2En70/8Ayy84ei96WcEoitIwBsWC7IDyzMVW/LNflQ+N4ozszyj2j0FlAAsqKPqqAAAOQA9TTh/6OSRrhQuQHT2na2VB4i2c9AniL07T3GQ/m1LuKt/7snfTJefl8gbXeoml6j1qVtKY638RRRCd7ZAzZTW+7C8NhjiEzAGWS+Un6ibADxNrk9CB1vg+6Fem4aPPwYuouVgZT4ZCVf8Aygn1qsew8jbVLClxYBjeO4QsVL5hsSqFk/a5+l6i4jgMAIO/IRlOgKjVm+wALEHrfbnQC8FwcWAjxMhnaSRiLIQEU5nAFyOQQ331NvEC9oeAjDJCyzq4ludhdVAQkkDmAw08KxCNCm2km9Wu+2pmpoQWJChFOygkgDpdjc0nwhUkEEEbg6EeYO1anH9h8amYZEbKub2XGYjn7B167+l6sP5RRMEwkTszHK25JYkCNAepJObzNGz3l1UpYoxhncwy4fwp/cW3ojBwHvkRhcl1UoSVJuwFjzG9WnbjhEOFmWOIubpnOcg2uzAAWA+zfW+9CzZZzhGSjbNlA9hQzNTmNE8JmVJlZ0V1vYhxdbEWudDte+3KmSI1Jt6AaJc1wir/ALRTRF+6hjTMGuXQC5JJOQWGwJO1xYAdaoZNCRzokIyurs5ekK4KeGArDLM4BROEUsyoDYsQAeQvzPgN6gvU8cmVWP1mBVR0B0Zj6XUf2j0oDaIZLILsFJIubMdyL6acr1BfrXb1NwxM00Y/XW/lcX+V6Irdgifh06e9C48cpI+VDI5J0r0tp7gjqCPjWNHAJoySqZ97EMPuNtaS48J3dm8gWWMooBI+OtzvpQGe9OeJyxB3G99x6UZhMOF3I/GhodedV5KyIIgdrVZsmVCT0qA8UjXYZj8BQON4k0mlgB0/jQs2y3S0aMXaV2FfSTXars/jXafAcXvTN7xn+owvnifvgrOYv3h+elKlUn5eR6v6H+6X8mOxHKo8JzpUqG4MvjQyfc/nnXpHYT/Vk/nP/wApaVKq09Ty/aPwc0RQf6gb+/8A86qzt/8A1uE/vffDSpVT9Jwy/wC+XfI2+I/0jE/+1j/48ZQnHP8AXGB/sSfdNSpUXoRpfF/a/wCI3tp/WYf/AH8P/NSsB/KZ/pv/AMUf/wBqVKtIfZ9Vz8jItSpUqU6i04L9T+w/3iqc0qVZakd7EKkalSrMpHQWH39D9xptKlWAjlHcB/r4/Nv+Bq7SrPQzNtFRSV2lUyZlu1n9Z8Kk7Pe4/kaVKmRSXwGUl39TTaVKqE1odpUqVEU//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExIVFRUWGBcWFxUXGBcXFRcXFRcYFxUXFRgYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy0lHyUtLS0tNS0tKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARwAsQMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABBEAABAwIEAwYBCAgGAwEAAAABAAIRAwQFEiExIkFRBhNhcYGRMhQjQqGxwdHwBxUWM2KC0uFSU1RykqKDwvEk/8QAGQEAAgMBAAAAAAAAAAAAAAAAAQIAAwQF/8QAKBEAAgICAgEDBAIDAAAAAAAAAAECEQMhEjFBBBNRFCJhoYHwMkJx/9oADAMBAAIRAxEAPwC13NBg5BLLq5YEBjeOhs6qrXGNh3NY/TxbVm6dXTLXWvmxuhKdxmcIVXdiQPNP8DdMFNllxOjh9MnDkWOlQLvz6/epzh/girCnomGRZ1JszZEk6RXbiw8FW8Vt4V5vYhJX2OY6q6MjLNFOpW5O6YWVmZ2T12GCVPb2kFCUrDCFE+H2uydUqUCFBa04TFrQlaC5b2RNaOa1fbDkpy1Y12qlDqb8A4tkRSookMC3aFoxopy5LNWiFFVdGyIeEBXdqrqMq7NX3aAvaxIUlVsoG5eVXJGrHQquDqtLVpKnqQVNbtAVMjRR78nXqlzr1JsTijiGKYs6q4mdECKx6qa4rgsa0TIjfygxqeeuwQy3pJKkc1ybdjCxqy4LoeBuEBc1snQVbsIxQDdZs+O+jr+k9RUaZ1XDHiES6sFUrLGWhm6kdjQ6rLBOwZHseVzKykG8yB5pXbXOchMbmuKVN1bLmFNhdAMSRrG+s7equ4mdyE/aHtHToS0SSNCQDAO+hgz+eiot72squcI4myNAXTy1br+SrZhGFvuzLSQZJdPifp9T4RAVstOwls3V7A53X8ITxaXSKncu2cidcXLy+HuDYJIJloIJAcOmrPrB5IrD+09xTbo57SAfE8hqNpkrqr+yFHUbNPIfUlN72FpEHI7XlKeMm+xJQS2hd2f7Zl2WnVbM/TBl0+Ld4/FWqncyVyLGsKqWtXUR7knyKtnZ/FnPY3MZd9ZE6T46gJckdWhsWSnTL+LmFMyvMeO3j5JLa15iQfEHQgxMeoBj+y9r1tdD5+m3qNv/AKnhoE3Y8L/H8/mEJcOCDpXempWleurLEUbJX1glV7WWPrarR7JStotgnYMBKlp6aLzLGy8a7VVTL4tk0LFvnC8VdDWjhIokqZtoOaslDCSOSgu7MjktSnZgnjcRC6hGy9pViEVc04CAIViQFJhtXFXwACirPFXEjVKW2xKkZbuaQY0Q4onNtnScGvtAneNXc2lSHR8Pj9ISD4KgYZeRCe3F/NF43EbeRBHoq5wLU9HTezbKdOiCwDM7U/d9UI95ed3QqhhWMi2w+lUIzFzRq4w0QJJcfw3KqNft/c1akNpBrJy/Cc0+Z19IWa9FsYnUq0x8YQNOs9jtTI8OSpvbfE7m0c1rdS5szExAAI90owbtrdA/OUw4A6gtInwDhsU2O+w5Kqi29um06rAXDbnz9FR+z1M0qxIeYynSdoIghXHtNVZVtjVA3EjqCqBhFWCT4faRoPZXS2mYunZcbnFtQG6Dp4aHLp9EQPyUXRxBUmveCRqj7fERCC6NOKPMtzL1Sm4kKsW98J3Rbr7RLJmyGBoatfJRdNpSC2utSZTS2vJ5obFljphZao+a2z+KjNQSgVpBUheobvvzKxQnEWG1GVIMSbyhW6hSBbJPolWJWAIJbuhj7J6iSoo1zaEqClh5kAqx/JB6rV1tqr3MxwSYBcYcGkZen1yR9wQr6J6K10rIEIG9tI0hRSYXBWIrUEbhWDCa1Piz0+9GX4MxbMlrTqNdASfRANtoRFjX7qo15GgPEBuWnRw9iUZW4tIvhxjJOXR07ALGkLOm2oJyZhB1ILXEe4+1e2OEUGuLzMDWXxDRzKloUmimC1+ZryXgjpUOYee/1qTE7Wi+k5lXVpaQRJHqSCFh87RaqWkwTHzb1yOJronSdYMajw290qoYXbsJJBPm6Ry+ifNVqww6k2qS8tdvkh4Lg08jB1GgT66pA0w5rpA2M8uXmrrumI9XEJ7SU6ZtXNpxyH1qjOphlMsyM1bPeCc4ewtblmdAZIIjfVXKhSYaXGRlBBk7TOk+Ewq12mptpgU2vzue91V7h/HBgjlrJieQKtSbooTioyb/AI/v4K13Bmd0RTfG6npMkLfuUzLPSzS0zVjhuvX3SiuKZA0QEPOwVaTs7jyY/b0OrK7l0ef2Jg26hxjadFWmUnjdHUiU9GGc03ZY2XviohiGp1Vfr1nNQL79wKPAzTmk7Lj8uWKn/rRyxD2w80dKNIgIWs4NBJ2hT3N7lZqPtVaxDFM4y7BT26Zy3lciFlTVMramCUppADVHWlXVFrYFNodsoBD3VIREJjZuaQor5k6hKWxmVytRAQFcJndMkqD5A5+jfv8AuVqTC8iG3YfESBUpOcTGV7ZkwBLXDwGrU7xrDBcy51N1UAANpB72N05uyEEpT2FsIr1A8T824EfzNTDEcZrWrXBozAbO5x4rHmX32jTgyVErv7NHNrYU2QeTqhcPXPKYUnupMdTymNIBJMTySap2yrEyBrMyjPl9SsNdJ3RjdbDlyJ9FgwfipvB2yu+sKi0G5lfsAgQ0c9/VI7/AXUjDhEyQRqCOoI0K0RejHNbK4xpaVJ33gtL22ewyFs2mRGYQSJG+0xzHgj2PHRNSplxU77IdFNYU5KeUbKRslY7zPorXc8iFO2xTp9nCl7nbRKpEtij9WAjVKMTwQb7K629uSvL6ykRCfkVSuzm36pPVYrp+qvBYpzG5sJxkjLA1PpyVQ7lznaDRWq3p5nge/kpDTaCcoAU5mdRoqtam5o1W9g4lN8UpAiYQVszUAIOWixQHeHscGr2tWdsdEbZ1ABCW4tcb7JF2Sge4aFPZUXHZJre7ky6Y+3yVj7F3r6l9SphsMAe7qSWsJbPrB9F0I4pcL8GaT+6i22luLdtGnk464e97yNeABwaenxbeaW4lhwqyDIEEeKsGGVPlVIOcfnaVWqJ6Fr3sg+DmEe4PJB39HLyhcz1MWpWzp+ncXCkcovcCe1/C5pbO+v2JlQsstPeSiseLs0N/MFZaAuA+tLjlrZJpXoZdn3ZXCeqNwdxqW91SqmW0ajO7qHXR7oE+IBgxyM+CiwzDXvdDB5uPwt8T+CNx+pTt6VGzpmX1qgJP0nd3845zvM0w31AWzBBydeDNnmox/JWMYsCxxpvGojbmCJBHgQllS1c4gkyeunMydgnv6Wbhrbqg1nxikc0chmOSfZ6rFpitQHiGbz0PutS9FKUVKD/goeetMtWE0YEEJ7RpwEowTEqVThnK7o7T2OxVha2AsuSEoOpKh4SUtpiW9kclpYFx3TS8pyENa0YWWTpmqD0FW7AeS2uKeinpMgKOqEUBi7J4LFNqsRAUSnj7Q6G7nSeSZULkESuctq9EfTxKq0fer3j+Cks2N34a2J1J+oKHCbsEjVVV9w55kmUfaS3WUzxaoshJVsvNW4DRMpBdX4J3+/8A+KG6uzU20AECSObjCVOqAuIkac55rfg9PHGk2rZkyZHN66DK18B9Fx8dB/dMeyXaNlveUqtQEMBLXO5BrwWl3pM+hVbrDM/K13smVHD2gS4knxV7U52vBWuMdnWa198kxCZ+YvADI1AqBogiOTm7de7Mbq216Lag1E9CF8/1b26NMW7as0hBa14zd0RsaTtHMjoDCYP7aXzC1lSqHsZvTDQxlRpEEPjigidjodgICxZsDra/BfjyU9Fj7ZWTKNRnztN2dxaBPFIBJBHIwDzRnZOjaVgP/wBNFzv8plRvefzCdPT6lRe1l8fk9KjREW1RrHUnlzi+KLnA0nNnK2oxzoc4fEC0/SQGE2tCjb9/Xpipmc5tGi6S2q9paXVKg37phyiB8TjHVY16eKdl7zNqjvV53dCkXvinTaCYkAH1PPxK49inacU7h90CKtfLkt6e7KQkE1a3Q6DLT+KAM0c6hc0H1yXvqOMkkg/DOkBrZgAdBtospWWVdLDifH/pklV2TV7utVe6rWe99R5lz3bnSBtoBA2GgWNruH0z7lTMCkatax10xHI1pX9QbOKt/Zzti8QyvqOTuY8+qplS4aDAAJRtk1rnhmUk7kN3yzHlz5pZ41NVJ2Ra2kdVuLgFoc3iB2IWlm6NzqIJG8Ttm8D4bSq12YxDuvm3kFswHz1B7t0E/CYyEQTmMaQnXeCdBAEx1APKem/uuFnwPHOjpYpKcL8jyo6JH5PRCVqk6Je+8PWURRqAjdV1QknvRJnWLXMFiBOMji2GWxOp2TynaDotLGmAYTwURC3x2ZJyplduLAAyNEHf1C0NHVw/6gu+0BNcQfBSPEashh/jP1tj708VseMtGX91pTaNg+fPK1sfaUFbuzEknQanxK0rvkM8nfeFHb5p4d1a5/cFR0WPBLMzndoTsDyHiib7EOLK3WEpFd1MS55dUcI58LT08SvLRpLua0e4kuKKeFu2PLUZWlzjqUuvK4OuhI1HkdwiBaPqOa2CAef0iDs5oOpZMSRslOU+PslnPkuNBjDyx5Y/O2VzS3dRLbqmPAOZRrjyLalM/wDjCE7SPiuaQMtoBtu3/wAejz/NUNR38yY/o8pF1zUpE6Pt67CPRp+1oSXGXl11cHcd/WPvUdH2rElbou0j1lYAAToOfU9Vv3g6hABh8VtlPit6yNLopcUMA8KC6uICEKhIJPgo8zIoGzH6yV7QvyyrmMkFuwMEHiDXCQRmBMiQVDUdHVC1XbLPOZbFFgdfuq96Tps5oHI7z58Ik8zqrzYYoalFjieIgT5jQ/YuaWFSGv8AER+CsHZy+4XtJ+B31RH2tPujmipQTFjJwbLiK53UtleawUgp4lutqdyTsufkiaPTu57LV3yxV35QeqxZ+LOnwiIG1afdl2YZ50E67jx10k7evJaDFyNN1U/lRlSC7W2MtHHlC2OL2+nzS68rgtIBmC09OR/shBULnDzWlQ8RVkZaIo0Sudwtj+IfZ+KLsDkYajttmjqUDREwJjiOp2EgJhQY6q+WgCnSEAu0aOhd4k6p4bdklpBVpaueQSR3lT4GHQk8teU7DzCe21s2iySQ6pBkRmymDJyn4yzRxbG3sl+FYjQpl5LmPqR8b9GdMrSQY0JMgScoAQxun13OgkUpOZzgA5+2pO4JDWTBg5QSOSuvxHsrry+gttZz5ceoJIPCHs0z0XA6BzQNNvYRBd3Mvc8Abl0ctTK2oXNN9WnSc7JSL2Me8QMrS4BztdBAJOvRWodm8MYYrXs8Vf4K1AzTYR3J4QQHOE6HfoEzko6QKb2ymW+KvpP7ykTTeZGZhh3F8QnTQoVlUkkkauMk6SSTJJPNX1mC4I0NBuhUIp1MzjVyh1RrmBsBsZWu4yBOo5qWlh+ACoQa0t7whpz1iMndNI4mxHHmGaHdI5qvmruv0NRR2FSKy1rXDBbOc2p84KAI4353XEmWZMuXJtqOSqnfArRGSYjRtV2W93SZAy5Z12PSIO5jn08kM+oha/mhJhSPLhpG6DqFSGu7YmfNROWTI0+i6Kolp1oAHqicMuiHOM7zPvKXlTW0hLzb0RxQ++UE+AR1hdnZI6L5TOzKqlsOPTHffOWIbvV4qaNvNlDcF4t6oWgTmQmtviGsajXovHTJ5rKYWAawrI9AMa7SPGfqhSXNzwtptPCNT/E47k/Z6LW8o5CBMyJ5dS0jQnm0qAoOVKkSgqm1ugJ03P58gjH3YIyt0aOQS9pJOgW7qxGnNWxlSFasMpu1iD1Kir3BPl5r2pwNyfTdq7+Ho3z6pxgNN1u11445cjajKH+KpcPplgyjmGCpnLuRDRuYTtsBHa4JUgPrRb0zs+qHZndMlIDO4fxRETryOt3gtzTGfu+8p8q1I95SI652/D5Og+C6DU7GWdw0VadesXGC92fvSTElpcc0GIMmdEqv+z7cMey6bVe9gd3dSk4ZKj2O4KgbsHw153AgwssPUqT8h4lCq1DC0Dz0+tG4rh3cvyZw9rmipSqDZ9N05HRu08JBadQQfAlUHQtTdbAkEOreajqP9jqtamylovBEO2Utt1ZCFzp81G4rapTgqJyqm35GRiIpBaW9PM6NtCSegAknUj7UR3eVzm7xIlSPTIyWi5MaFRLWqZlRVkTGvfrxAd6sQofkJqi0C3etEAEjFh3WNXtbfZPHoBrWqucZcSfMyowF65YzcT1CV9hDPlRjJTEDbQcR8ypG0u54nfvPot/wfxO8egUnynJ+64Z3dufToh2UCTJd4+K0/t/pFZo2dzuU8sR3llVZ9KhVbXHXu6wFGrHgHttz6lJDqd0bhuI9xUDwA9pDmVKZOlSm8ZajCeUjY8iAeSDqgnRv0dkVLKrRa4Z2VjULTpLHMa3TzIIjQ+I0SDt7cmrctoUnuq5GMpZMxINWdWgEkF05ASNJb4IXCsfNmx/dtNa3qvBa8w1zTlILKmhy1ACPAxIkFEYl2mzZLk0RSeGuFs2czi53CbhxIBDGAcI2LjPIrFFP3m60/wA/1k/1oUdqYFyWNILaLadBpGxFFgY4jzeHn1SG4bBKmFQRC0uNYK3yrjSAuzyjqCPCfZZbMzS2YJ1b5jl6rW2qZXA9OSluqMOlux1CC2kyPuiCq1zdHKGVPdVC6CdxooAqcn+VIZdElF5BkEg9Rv4omk8kkmSTzP3oZiJtjv8AnmmSpEZMAvCpJURSinuZeqNeqUQGq03AAkEA7GNCoUZcXEsDcoEQdPARtHPdCKtjm7FtUWrVu9PEjInrKMZhO06r12ylt6ejSfpO+pkE/b9SPG5EbDK9q0Rw6GIcNlEKQcctNjneQJJ9ByRV0HUjLeKm7UDcaqK0vwx2dtNs9DyMgyOm0eRKvmktCRbYLp0Xi8e6SStm6CUiVhGuAYdeVC51rSe8fC+A00zzyPD+F3WDO6jx6yuqVSbqm9tR+oL4OYDThLeGBpoNtF2nAKVOyw2m92jadEVXlokklud5A5kklA/pQtW1MOqPiTTNOow9Je1rj/we5TRWp2ziYKlqUpbKglMcPpl/ABJOgHircaUtMaWtihwViw6wZlb32hJADSYguBLRWIM0w7SD4rZtg2m5ri1g4QXFxDmRHC9pIIyvIDHGDlJ6OBUFxetLstPaMk8nDSGmd2tI4SdYjokgqlQ0uiPtLQaBSLQ4QHMcHRmBpkbkaO0eBP8ACkYTS8oQWgyJEGeuxSwiDB3H3Jc0OMiQdo3CJt0MCiqGyW9EZOSo5Wzio0qAj2Fi8XqIQV6jUjwo1UxzcLdRhStTRAyIppRonumCNW8Y8cxmPUQlz0yF5xccx4K/GldsSRG2+qU+GA5vIEaeX9kFXrhxnKG+Wyd1zTLZEO8iA72O6B7lj/hc0+BGV34FWThJ6TFi13QuD1I2opn2caEEFefI41J06wqeM0PaZ3HsP2gtbqxbRqup5mMFGpTqFvE0Nyh0O+Jrmxr1kJj27otOG3MRApEiNoEER7LmfYvsTTu7fvqzXGXvDYdlGVsN5fxBytXb5zrewe11X940UmU+ZmAY8Gtk+3VTyUuuVI40QisPqQ6DzQZBXjXEc0Yz4ysucbVFixx7qwkQNS6BMFx3OpPQabaBIm2zvLzTayqZ27gnpzXla1n0WqUIz+5IpUnHTBbu4LmNBMlpiev47IO+HzjvQ+7QT96ZssJMu2GwQeLUofMaOaCPTh/9UmaMuNsaDV0gRoRTFBTCmBWSXwWm7itSvC5YgA9WLxYiQgeoivSV4qxzYLdm4nZaBbFFECb4skZIiNY65j4DllV8wP8ARhUuLVlxUrmkXtz5MmaGGchOu5EGP4gqd2Vwz5TeW9A/DUqAO/2N4qn/AFa5fTFXVkARJ5cgNAB0TWJI4xR/Rg4ESS8mSBtoI6evPkgrjsSdYpO0zbOP0ASYB5QF3SnQ4i7o3KPVRUqAb9H4WuJ8S4pWhN/JwGrglVggGptIBaHiIkdOQKXVqL26FjXAjWMzR08R7LutOzBa+q8AmpwgRs1uhj00WW2AUKlJzYBacsSBoW6wmWTItWBM4jYdpsRt6Yp0azmUmzDQ2mQMxLjq5pJ1JQ+IYjWuAX16jqtWNM27Rmbo2BAEZtiB4Lt972atWNJ7saGAIBjhA/PmkGMdk6TaTCymA4kuJiDEmPv90OUg80vBx4tdsWO9ionUnf4XexXWLPsWx9OcpBzSPLmEhOAuE9c5HoCQo5trZPcRSbenUkZQQfb7U4ZUqkfRkeZJ+wK64d2O+cBIlsA+sQpMN7MlzKrSPonKectMj7PrV0JZEtMrnki+0VHCbO6rvLGBmgnUECNp5ncwkOJXj3kNe3K6mXNI2MzxA+RC7b2ewbLSLoh4DhPOPiGvg4T6lc0/SLhPd4jULRw1Q2sI24tH/wDdrj6p5znxpsmJpy6K7aASM0Aa76iY0B0POORXtzGY5fhnTyUgtXdEdb4U48lmcjVVClrSvS0qw0sEceS3qYA5LzAqKzCxPv2fevVOQ9RKqV6FPWtsrWunfcaaSMw2J5dYUICAp6FLSpytWNTCyoGUbpCt0Xn9DmEzd1KxGlKllH+6qYBH8rKnuu0tEwqR+iiwyWjn86lVx/lYAwD3D/dXgDVFdCXZHcnKw+JKhZcF9M6QdBPXyWYrU2C9fpTaiK+2KKUlgaeXCPII+sBToe503QpJa8kbSQeiLxJ8NaNjGnqouxPDALSiXU2tcIc55J1n19eilxIBxI6AD2W1kRTphziSRmAGnNx10Q4qS467g/2+tNEV9BVqwZQqxWs/nXtjdxPhxGfvVrtDwhCVKQ7yYmQolokvB5YUYAaUVaWIGnUKK9rZG5hy5FaVMTLnNbABInoQQYOxPRGNkaRPXohrXNHIE+sFUjtjg3fUqNUDipk0z4tdxNPoWn/krvl4Xb6zqecqKlaZmFp5wR6EFPJfaxIyqaZzew7OE7hWGywAdFdLXDABsiqdkAVjdmrbKq3AABsonYIOiu5twtWWgQ4h4lH/AFF4LFfPkwWJuIeJ8uUMFqPABLiBsJMDyUp7OPnRdTwnAwRsmtHABI4VExeZym07OkRITE4GW6wuqjA2jkobrBxEQhNuiuTYZ2WthSt6DIjgaT/ufxO+txTikeJD0gAQOQ09lI6q1rSeauqkMhbfVM1SOpTG7GjfAJTYNzVJTTEDt6KIVdNgNIcZHisxh86SG6bnoF7Q/eEobE3yWn19OaPkV/4gzXRSYAZkmDrrxHqtrhkQOe5C8smiGc4BjpudVpXdNU89p/spAWXQ3s9vRRVCAWnzCmoGGqCqJYfAz+fdNEMukD4nWaWw2DKBsbCSXE6x12C0unEnQQjbBkb85UQj2w3NpHgiaOmXzEoNuqnc7X61Y+hE92P2hakoV12BzQzsQHVY3JI3PIhrmWB6U/rEHms/WA6pfcRPcQ2zLEn/AFo3qsU92PyD3Yg+EW0NTilRC4GztliA2unj0p/0q34dadoK1GnXZdtFOo0OaXPpNMO2kZNJVqxtdseMKOoOaELcMELk/ae+xqxNMXF0R3ocWZTTdOTLmngEfG33Se17V4jVLg26cS1lSof3fw0mOe/6O8NOib220RwbOj492vp2t1RtjTc91XLJBADBUdkadfiMh2mmgTW5dyC4Td4rVq1RXqVS6q0tIeYkFhlu2mhTD9sL3/VO9qf9Kdx+BHiZ2vCaXNT4m4+32LiDO2V+3a6eI8Gf0rap2txAtDzcvLZLQ6GZcwAJE5d4c0x4hBRZPbdUdgLocTyyoO+q7H2XJH9r7yJNy6PJn9KmxLG76nUdSq13Z2GCOAxz3AU4uxfZdUdIwutLWzvLh/2KLs2ZiXQJ391yewxi7cKnd1zFNjqr/g0aCMx1H8Q0Wre1V2Nrlw/4fghGDRPZZ2proastnSY6grjdftTfsOV9w9p04SGA8QDhoW8wQfULVvau+BkXL58mf0plEjws7bTtWu5+aHr08nL8lcd/bC//ANU/2Z/So6nau9dvcvPo38EaI8LOyUfhXrXcfkuNN7VXo2uH+zP6V6O1l9/qX+zP6U9ifTy+Tq+I1nd4WDwI9QD96HGmpJJ0Oh+tvWDuCuXv7UXrjJuHE6awydNo4Vhxy+ie8qRqZyiPEjhiNFz5+lm23aD9PL5Om1DBIBMTp9y1Lz1XM347et3q1B5tA+1q0/aO7/z3ezfwVf0WT5Qv08vk6dKxcx/aO7/z3ezfwWKfRT+V+yfTS+RUu9YJbVKmHYeGU87O5bnLRQdUa7I0Njv5YGfGHQC7aBuuCrYPI2JHqV0WrNp0P9LtvUp2+FU6n7xlvVY8Tm42ttgdRvqDqhMVx21NF7G1jUIbctpF3fvfkq2dSkxrzUaG0yahZLKYDBoddSKMSTuZXilEL9c9orZrYZcF7mGt3Lnd++o1rrSrTZm7xgbTd3vd8FMZQYOsEga27SvcWhrn3FTLY5KRDnmpWpwLoaj43NL2uefiB3MKlL1TiiFlvb2nRv2Nt3U+6tZpUn1c5YcoeXveaQLpdUe8h7dRwnkmdLH6IFRgu6kd7WfTdUNeoQ6rasYyqDklwZWFQguAeAQ6C6VRliNELjf4yx1HJSuxTrxTFe4iuPlQbSc0jO2mXvgkD5wNzb8lD2oxWhXrUnUHw0VeKnlIzPJb8/mI4szQ1sHVvd6CDKqixSiF/wAUx5tJ1203OeuH3jaL2CoDQa59NrKIc5jcpljjDZa3LIdLlFU7Q25cHCtlZxm5pZak3ZfbUmDZuVx7wVBxlsEl4mZVGJXiHEhfn9o6TqrKhvDHeU6lZrm1nOrUBQpMNueAhxD21+BxyfP5pmYoKxYilRDFixYiAxEWVoahID6bYE8bgwHyJ5odYoQaU8KcHtivQ/xZhUBALSN5G/TrBRT/AJQ05vlFFxGRs5muiSQ2SW9C6fCUhWIUEb4m+s5nzlek8Ah2VpBdJnXRo6unz8UoWLFCGLFixEB//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXFxgXFxgYFxcYFRcXGBcXFxgXFxcYHSggGB0lHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0fHR8tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0rLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAEAAECAwUGBwj/xABGEAABAwIDBQUFBAgEBAcAAAABAAIDBBESITEFBkFRcRMiYYGRMkKhwfAUUrHRByMzYnJzguE0krLxFSTC0hY1Q1Njk6L/xAAaAQADAQEBAQAAAAAAAAAAAAAAAQIDBAUG/8QAJREAAgIBAwUBAAMBAAAAAAAAAAECEQMSITEEEzJBUSIjYXEU/9oADAMBAAIRAxEAPwDxWRiocEbIEK8IGQSST2SBIZPZSsmQOhwE9kmqVkiiJTKdkxQBAq2Cmc/2Mz933uoHHyTspnEXtlz/ALDMrpNgbrVLnB4YMA1LsmkcHNdr0IzySckhUc6+mzOVra+B4hRFK7UtdbhkbnovXBSNFjYSPH/qPaMV7WyxC6OFJKc74eRGWijuP4VpPFm0EpbiEb8I44TZPFRPIxYSG/eOTfUr2fsHavc644lBz7Fgf7UbXX96wueeaO4LSePOYmsvWazcuGQXbaM/usabjo8kH1XC7w7uS077YHFh0fw87ZNVKSYmjAKiVY9tsvr1VZVkjJJJJiEFIKKdIY6RKa6SaBjgqYUAFMBUIexST2SRYF8iGerXuVLipY0QThMkkMkmSSCAJsVgCgwK0J0FjYUVs8vDu43FfgQCD1uNFQu03J2E5xE8hwwtcHAWze4D8Aom6Q1udNu7u8GNE04s61xGwgNF+eAD0z6roaOJzyS0WH0M8kHPLiIHkBpx+S7DYtK1jASOFysILUzZIEh2Blid7X5eCArqFwB66gAZLsMYsfW5zHTmhp6TH+XHqVu4bDSPPquJ2tieHmr6CE5ZC3gGn5lda3YtyfijqfY7Roo7bG0jnW7E7RmJhxc9Wu/JcvvVQ3gla5l3sBIBvmOVx06XXr9JAGi2Ft/AC65zfLZndMrB4O/NOeOlaMm96PluQ30FhyVLgt7eXZ/ZTOAAwk3BaLDPOxHA5rFc1aRdoyaKUlItUSExCSSSQA6cJgnTAdWNVYU2lA0WWSSxJKRlJcoEpkkxCTpkkgHUmqCk1NCLQphQCm1WBfDa4v8Ajl5r0Wk2s1sETWjhe3Cw4rzli6DZkt4gCMm3HXl+K5c/Bpj5O03emdK7G7yHAD816TTVdg1v10svN9hNwm3hnyXV01Xe2XpqlidI6EjpYZj8T/ZFxSWNzn6a/Jc42U+nJG0xe61slspF6TcEueatFR6fFZn2Z4zxZ8lR2j3G2h5A5qtYtKZuMqBzuqKmUOa5uoIzWe2ndbUgn6t8E7yW8b3T1WQ4I8C/SPRmKqI0aQbdL6fFcg4L1P8AS5Tg4H4RfFbFxGWXkvMnMUQ4OefII4KDgiXNVRYtCCmykGq0RqfZpAUYUxCvLFFzUhlIT3TkKBQBK6dV3SQFiSSToAQSTpwEhkbJwFIBOqQhAqbSq1JiYgpi6LYDg4YT/sucjXX0G7NUyJszo+44A5OBe0HQuYMwsM3BrjW51GzzYWHh1W7ADr5nW6wtixHHY62zXVghgvksYbm6JNvkfrzV7KmQHQ9RZYVbvNFHfU28h8Vye1f0gvaQGNNzpa9vLgq177FuVHr9PtMkd9uf1rdE/b4r8MRF+C8Z2PvZUyvDeZsTy5+a9F2tQPZSmYC72NuLXJI6IWViNievJyZY809NJiyfkTovFpN6q0DEI3ObfCRY5dbBbmyt8Kh1muiseTgb+RT7vtibvYs/Sk04GA/f16A5dF5jKxe37x7PgqoI3VDnx5HCWWv2hsGggjP4LxuphsSORI9DZbQZzZE1uZbwoYUTK1UrZGNjBqnhTgKyyllIpLFWWIrAmcxSUZ8jVS4I6ViEc1OhFSSnhSRQiKdJJSUOFJMFIJgKyZOokpoTEpMKgptTsQXBqL6XF+i9ZgZJE+R4mJjccmvPcw24cl5HEF7HsRjaumhz7xbZwvYm2RtzIXPmVnT08uUPQFva426OAI5W59M1uwtD8jofVZm1KZrTGWd0MaGW4d3LNTpqm2SxjtszRNWEVO6ML8yMZ8dFEbuNyBZGQ3Tu5jpktGCvOn15LRbMAL8bLRKJppMQbIazQNGd8hbPnkukgBdTkG5yIP8AdZLX43nvWtp5rU2XtCNjXMc8E3tlw8UKkD4MuTYd74XW5gZ3HRE02x2Ad6z+oF0S6YNdk7EDYg9dR6qmpmAudPmnSFRmb0Oa2MG2THdpl+4L/jZeM1RuS48ST6m69Y3xnH2CR3vOcxo6Egk/BeSzlaQ+nLmd7AE4QiKnchCVsmc5cxWtCojKIYlZSLGhItUmKVkDBJWIR8S0nMVfZJolmf2XgktDAkqEY9kgFaWJi1YWb0QsknITEIsTQrpJJWTsmhw1TYxOwK6NqYiyELttxdvNhJhl/ZuOJruLH2tlyuuOjYi42ocbQoycXZ6lX7SZI7uPL8hfLIcsxxNk5GQXK7ms/a9G/iV00M/ArjnHTKjpjPVuExy5rWpyXWCx4yOCIqaosGQuToBxSTNlIv2/skyi0cr4+eE6hcxRbDla8R9o/B/EcXqrH7d2g32aNx8QWu9BiT029G0nnC2ks/7zo2tt5k2+CpxTKW529NRRxQMjjFsOed7nmSTqUFVOLgBwKzaR9eSHTiPL3WXvbxyAWxKBkRxSb9ESZxu/O2iWikA7rS17jzNjYeNr3XBzla+36ntJ5XjQvNugy+SxZl0R2RyS3YDMhSipwhirTILI0QxCsKvY5FjQS1TuqmuVgTQ2OFLCmaFa0KyGVYU6usknYUYZaoOarkxC5UzooGIUSiXNVZYqTEVBSa1PZTYEWFE2tV7GqEYV7FUWZyRbG1EsaqWIhi2iZs6PdE9+QfufMLYnbbMeaxd1D+sd4tI62zXRPFwuPqV+jfF4kaGtvkCPgt+jjvmbFcVUQOa4uBRdBvA+PJwuPBcyl9NYyrk7KShkcD2f4hVQbJrCe9Jdo/hHxCz6betoGTh6qR3xbf2vitFKJtqX06J9G5rbPtp9dVzG8de6OF7mZnJoI4F35C6sk3j7UWZmTl0WbvpRSO2e8RAl7C2Q4TnYHvH0TjTkjOe62OBeFS5i0qYEwASG7wAbnMg8RdDvYvQeOjiUjMmYgZGrVmYgpY1LiLUCBTaVGRRa5RRYWxyvYUExyIjcqSFYSCrWFDNKtYVTEX3SVdwkpKMop7qTmqBXKdAlEhSTWTCiGFSaFIBSATsekTFa1QAUgqiyZRLmlXsdwVNPC57sLGlx5D58l07N3Gw0c1TObvGFkbGnISOPtOI1sOGi2UqMJRJbruvUFvBsTj8QPmV1kbFxe6EwFR/Ewt87g/Jdq4rHqfM3wr8lc8IcsLaFDa5C155Dqs2prL5HXouOSRbiYL8uCtpabEf7LSFBizIJRtNR24KEgjEN2TSBgHNPvTtzsY+yY79a8Z291h1J5E8Fl7a2+2nBawh0p0GoZ4v/AC1XGSTuc4uc4uc7Mk6ld3T4rdsjLkUVS5NKlkxPAtcDUc1129e4z6eOOeJxkjkAu0gdowkYrED2h4j0QH6ONguqZw4j9VGQ554E6hnnbPwW/vlvKKip7NmccNwORfo5w6aeq2ln1Zljj65OdQ/Ns83mYgpWLu6mlhm1GF33hr581z+0tgSsuWjtG825nzbr6XXU0ZHKThDYkXVhZ5K55I0iEMeiY3IBpRETkWNhzSr2IaIoyEJOQ1EswpKVk6jUVQC6NVOjWi6NVuiXJZuZrmprI18SoMatSGioBSAT4VobL2PJNmO6zi92nRo949E0m+C20lbAALmwFzwAzPkFv0G7hsHTHAODB7Z6/dW1S0cVMO6LvPvH2z/2jwCre4m7nHP6yXXjwe5HJPNe0SyOZkLcMbQB4fM8URtJ7pdkyniyoa49CAPms0MWnsfaFO2nq4qiTAx8dwbXJcODRxOnojqVUE16ZEN2cNSTlpFjYg3B5ELvNk7XEzc7YhkRyK8zmjeRc3DfDW3iiKFr47PhlItwv8uKWSPcRWOejk9Xe0Hgqo6JpOix929umZ4hlsHkEgjR2HW44FdBtys+ywOkADnAgAE5Ek24LkeJp0diknGyNV2cTC55DGjUuNh9eC4Xb+95d3IAQ3i/RxH7vJZ22NrS1DsUrtNGjJjeg+ZzQDbHQX5nQDqV0QwJbs5p5r2iTpZ2uOufjr/ddFu3u9JVyhkYsPffbutH5+C5azSbNbjd6NC67dreetpoHQNMeA3LXFvfjvrYj2v6r2VZe5pqHJnFK9zvN5trx0FOKCkP6wjvuGrGnUk/fd8FwsAw6aoaIkkm5Jcbuc43c4nib6opkdlXS9P2o77t8hOeplrHG61aWY21WZE5EQusV1mTCq7Y1PVD9YMMn/uMsHf1DR3muJ23uVUQ3ewdszmwd4fxM19LruIJbHValNVciolBME6PELZ/JXRBes7Z3fpqoXI7OTg4cetvrwXC7T3clpnWcLt4OGixlBotSM+BqMjKUMCJZCsWjRMhcpK7sklNDsIfCqHxrSfGqXxriTNjMfGqewJIAFydAMzdaL41t7OhbBmReUi5/dH3R481vixvIxSmooCoN3GsGOoIJ4RjQfxHj0C05amwxG2lmN4enIIeSUuNyctUFLKXG58h4L04Y1BbHLKTk9yRlJJcTclJzibKGLgovdyVkk55rCwQMxB1VjyqnNSYwaWw0QctGCbs7p5cD+S08CkI1FAZWyq4xVEb3AgscDbmPet5XXUfpD22JZGRR+wwXNjfE5wy9B+KzpKRjxZw6cx0TxUTGeyM+ZzKyeK5qVlqbUdJhOjtm4Eng0a+f5JxTPfbF3Wj3Rr/AGW0Y1EweK00kg0MTWCwFvAalFRsvqLch+fNSjhA0CssqSAsjcr2uQ7VYFSETJ4qTZSVXe6ZzkwCGyFERTEaFZ7SrGyIFRuwVV8jqjI6kEFkgDmnUFc+ZbWRoluAgkr2pu7h78Peafd4jpzWO1i6Sgr8JwO9k/BNtCgDzcd13Pg7wd4+KiUEUmc92aS0f+GS/d//AE380lOgNREsVTo0QSoarx4q2dnBXTsDTjPDTqhjMS8kqyaYEm2gOEfMoRju84r2MOPRGjllLU7L55MlUCmmKrxZrURdiVRUw1LCgColMyMlGUtA+Q2Yx7zya0uPwCOk2JI39s+KmH/yPGPyiZif6gLOWWEeWNJsx3kaBMAtRv2JpsDPUO5gNgj9XYnkeQSft4MOGGmp47DM4DK4f1TOcL9AFn3m/FD0/WBMaToCegJVroXDVpHUEKwbzVT2n/mJm55BjuzZht91ls7qTNu1QFxUz3/myH8SkpZPiD8gTiL2KbCjzvTVaPe2UcpYo5B5l7Sfips3iZnjoac34s7aIn/LJYeiO5kXMQpfTNTWutMbSon60szP5dQCPSSI/inY+gebNlqIj+/EyQerHg/BPv1ymGkzgLJAo6Skpz7FdTk8pO1i+LmW+KePYdQ79m1ko5wzQSXHMBr8XwVLPj+hoYBiTORNVQTRftYZY/443s+Lgs6qqA0ZanRWpxfDFRN02avadEC1lgL6oqF2iaYgl77m3grNm1OIFp1BssyqqMMg8QPwVUc+CoHJ4+KNQUbkzsuiLZX90NzLvdI4eJ8Ag3kZk8kPDUWPifgOCok2sbfq6SB7YeCSoKGL1RJNY+p+vVQdKsqvqSH9BY87f7ry+nhcr+HTke1Bgfp5n4Kqndr5KLJLi/gVbsN8AD3zufYEAMjw43E3952TRlrn0XdOajuYJE3J4aZ0hwsa555NBcfQIifeyOMf8vRwNPAygzP6kv7vo1Az78Vso7MzPZc2LY7RstywsAWTyzfCKpGmzYMkf+IkbA37pBdL/wDW3Mf1EKFTtulp+7FCaiTgZj3b8+yZl/mLlhVlUYm4b4nnMk65ptl0bj3iC5xzAAJPNGlvyYX8Nau29VSgMfM4X9xhLIwOWBlm/BB4LWaNeJTxx2u46q2Jtu8dVpHHFcITbZGZ2BthqVuV+6ZZFGGOdJJKR3cIGVruLszpcBcsa39YLDFYg9bHRdnUb4uxh7Imt7paWuJdcX8LW0XL1Dzal2yo6a3Ktk7rOEjTNYxgXsxwcCR7pI08r6FdDTbMpxG+pfT3LrhjMiLXwtsywAJ1z9VxLtvzveMLuyaBYNZk0Dl49U1VtCbs8AlkDAb4Q44fQLnfT9RPeUqK1RXBqVO5s2Ihr4y+xd2ZNn4b21Aw34Wv5rnOJBGYy6ELW/8AFFVht2nCxdhbjw8sdrn+6zC0Lr6eOZX3GTLT6ItVLzhcrm6o/ZuyftEoZiw5a2xWNwBlcc1tOSjHU/RKVmPVQ3zUQRh0C61u58gxhkjHhtzcn2h+4G39MlkVO7NSwB5ZZpNhcgXPKxz9QsF1GKXsrTJAGxtuVMDrR1EzW/dEjsP+Um3wWnV74OuDNTU1TzL4msfbwfFhN/FYlZBgebgi2RByII1GaDOd1bxwfoWpnVt2js+cXLJ6Rx4Nw1Efo4sc31cr4djseLU9XDKeDH4oHnwGPuX8MS42DIkLWpWi2aaxtcMLXwq3lpZIyMbCxzcnNcLEcvLx0Ky3TkuYfFdTQ7SppyKOrc4DNsU4uTC7g1496Inhw1Cydr7Ckpp2xSNsTm0izo5GnR8bxk5v0UozuWl8g1tYWKm41y5cynpGEuLiobPpwdcwETTuuTbguyMPpFhmA/RSUcXj8Ey00E2BQuu63mga+HvdQtGhjIBd5IGqzf4rmw4kob+zScrYBTSlpLD5KAJBPVKtBa8ELTq6bDSskeLSSuJZmco2ZF1uGJxt/SVM2oiW5iSyXK1dmwhoMjuAv58FmQx3IWhtV+FgZx1KSABhJklxO0vdd3u99nLSQXNeY3h7yS3ss7AMtrcZ63NrLiaFmXK67ndibBHhY0ukYSQPc79hiJGYIDXDoTmFzdTfbsuHJRtTY5hwuLgWONm/eNgDmNFzG1qy5wN1XS777RAwnFd2G2V8OvAOJ5LjtnNNy86rXDOTxrVyKSVmhRU2AXOZKucbn6+goCXxUWn6+tFqSXUze8Ve4XBUKVupVotYqgBnaJyclXx+vqycnJIBNOa7PcckGd4YHWjzuL4cnOxDzaFxrHgAkre/R9tAundFfCJW4Tc2BAzI62J9FzdZvhaLh5Hdvp2OsBGbNj72tnFmFzL30JOV+TjyVNFUMuHQ3Mg7TGPZa4twg2aDbDnlfPJZ2z6mSKN8Ye67A1ljIHO9o95oOTe63EBxsgNp1UkNLNUySd95DIgbNkc1wJb3Bpe9yTwC8KEG5UdDex5/t2sD5HkcXuPqSULE3K6rji9eaKayy+igqSRylQataiFxZAMjK0oTZvQH8Fvjje7JbMOaC7rtyzuut2LtOPshT1Zc6AnJwF3wPOQkj/6m+8CfBcqxhNiFbHOG5uOns8blS4RY7aOu2tsw0rnNJDha7XN9l7XC7XN8CDdZdAT2ZJ4laWxsVbSfZXuJniBkgtq+PV8Glzhzc0fxBCGINAYDkOPitcM3LZ8omSojiSV3dSXQRY0kfdDQsmpbZ+a3ZdQsDad8RWbVIqwfbUBw3UNpVDnOjvewp4w0cA2353WlG3t4sI9q3x4Jb10NqxsF7FlPEw+BDQT+K486/kiXHhmfseO5xHQZoWvlL3k8Fq1AbHHgabk6lYjm3KHsqAPoiGtLjwGSI2RtGQFzWkAP9t3HCOA5IGeQNZYJg/DFfi//AEj+6lpPZjI7ZrzPKXEk58Tc5ZZninhNggohmiwUIAgSKxhzQrBdHUsWaaA0YBl5KTtEhokdFqIFwqRapMaovCQE9n7LlqHFsQxEC5ztl59VKLZNVBIHdi8AEEOAxZ8CLXuMlKjqXRHE1zm8LtJHjwR0W8FVfOS7eF2tPyXNljlv800WtPs3ZNuU3ZRPmgcXtyMZa8h2AnDhLgGloudTdviuM2zXyTyY5LAZ4WN9hgPK/HS58OWS7Cl33fFH2b4Y5GC2QBadb5Yi5t7+CHm21sqd5MlM+G4As1vdDgHXP6t18yW6DQLDFh7MtThY5PV7OLbBfRXiAAZqbg3G4sybc4bknu3yzIuUphkvVjFNXRiyFlZc4HWz7p/BUtci4Y2uu178DSDifrhFszbmrltFsDloqvCLOBI5A2KLoaEyuv7LfVXf8Wp2ns4qSIx/elxuld+8S1wA6AI/ZlNDVnBTufT1FiWxlxdDLYXLWE95j7aAkg24Lgjlp3JbGjXwj9nnY5r4n4HNILSCQQRmCDwK6BzDWsdIWiOqjBdK1mTJ2D2pWN9141c0ZEZjiFzhrnRABzi89PxVuwKyQVLKi5vG4EDh4i3Igkea6MkU/wBR5IT9MIwu8fVMvU/sOyuTUln/ANT+Fdv+zhJtVhVvtHoUkl3T4MkEboftP6h/qCW+X/mk/wDE75JJLiyeaNI8GfV6IBJJOQEanT65qdd7Mf8AAPmkkoAFp/r1V6SSQy+BaVN7QSSVR5EGs/JM7U/XNOkrAqHDqVGZJJNANJoFfwHkkkkANPx6BBTcEklr6JYTDp5lSk0SSVCKGaoir/ZP/ln8Ekk3wxnHw6rb3W/xdN/Oj/1BJJedLxZquQyu/wARN/Mk/wBbkZs7T65pJLrw+K/wzlybSSSS5yz/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhMVFhUXFxcYFxcWFxUVFRcXFxUXFxcYFxUYHSggGB0lHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy8lHyUvLS0tLi0tLS0tLS0tLS0tLS0tLi0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYBBwj/xABJEAABAwIEBAMDBgsGBAcAAAABAAIDBBEFEiExBkFRYRMicTKBkQcUobHB0RUzNEJSYnKCkrLhIzVDc8LwFlOTsyRjg4Siw/H/xAAaAQACAwEBAAAAAAAAAAAAAAACAwEEBQAG/8QANBEAAgEDAwICCQMEAwEAAAAAAAECAxEhBBIxE0EiUQUUMmFxgaGx8DNCkSM0ctFT4fEV/9oADAMBAAIRAxEAPwDUOKaWhUTWJfPArF0R0pFstCblCqGsCjfWrtyJ6MgiCEpJUINcopa1duQSoSLlVOgFdMpKirQerqEipMt0dMxr5dVDJIqzpEx71S3GgtOzk5VV0av4fQvnkEcYu47Am3rqVu+F+BfEvFVU0kbgcwkzXa4D82zTp1B1VujXUMlPU0ox5Z5iymc42aLn3D6/VFKPhSqlIEcTySbHyu8t9i4W9n9YXAXulPwRSxkZY26NtcjN8STqieG4BDCCImlgO4a42PcAnTZW/wD6kliKMuVKLPmfEcLngeY5o3McDax9AdCNCLEG4ULLr6R4k4djmyuyjM3nv8R01tfksNJ8mDXE5HOu518zrBrAdbW/PPw9US9KXVpLIcKMO55pThEIitZjvycTQ3MDJJmgXLgY/gGXzFY7UaEWPdUq2o3Glp6EJLwstiRMe9V/EXM6q7y49Ng7K26HyU6Il6hJUxkJlpygadKOAK69qbGxWFVsKeiTycFME6GnF1aYxSMi1R9UV6okM8AWVOeFGGxaKGanXOoyFpogTwEkR+bpKOow/VYmr8ZNdOUzKo3I7EqURxnKXjlQuUTlGQ7otGRMMihTHFTtbI3xQpnobUvViYqlMVEqLsMhXimVJH2V7CMPdLKxjmyBrr3LW+a3UB24uQh0oXrXyfYdJ82a6eR5Y7URvuQ0X8uR27ettuypzp7RtbWKMPDyGOHOCaaFrXvbndltmdofgFq/HZHZrQALX0sB3VJ9UHciSByvt25XVOpwwTxHw3uBO4vlsetiDroNEmUn2Mm+53ky5PjsYOt7AE3GrdNCCR6hEoJi8Ne32SNbjXXayBYNRvhBa9+Zlxl0dfuLbW122RaWqEdjy2I5X5ED4od1syZzV8RIq6KUmzddCdjcfftsquFVzZBmBOlw9h3aRvodUcjnDhcFCMVw+8rZYyWu2dbZwsbXHbT3KZRS8UHclS7SC2QObbke5B9xC8/+UrhlrmsmYxznDM12VvmcXXLCSBp5jqStxQ1bXADZ3Md+dlW4hDmx+Jewbdzrak2Gg62PZMupRIpylTmmj52qYshykgnnlNwO19j7tFX8RE8UqTI43awak3bG2Mm/M2CEStUwpts1/WlbJJ4iaXqqZUhMr0dK7XELVpysWTKpoXofmV+kSJU2mXuotoRgbdX4oFXpiicDgmRgZVfU2ZXESZJASi8UIKtx0YPJMVMr+tmW+ZFdWs+YdklPSO9dYFzJhsqQnXfGXbg1F3LRso3OChMuiqzSo4eJhNYLksgVGWpCryzmyF1FQtKjQuUalSwRlqgq0lQOSFmUqWJyfPTJIQqzuHcBEplHgmzulxZwuLtsdCOy9TqsR8KKNsjiX6DSzbk8yNgsDwRRtc8yOtZm37XX3faFcxeQzSnN7Ldh3HfYWXl/SE7Vemi9SW5XZt6bEKhp8zQ5t9OtuRBAt7iU6u4o8HzFjgOZ2+B5rN4VixawZnE/R8XXOZQ4viMUgs5h9cwP0XVKabQ+nB3yifGePyBmidodDa9wepCDU3Gc00b8zjdocR6izm/ykfvLMVlAMxLXXB5LlPSuAIGgO6X0k0Woq2Ej0/hvjN7w1pBNgBdbmgxC4Gdug1Ftx7l41w3OGENJPqvZcEhb4eYG/cG49AVFGDUrIXqYpK9ga4ETl7XDw75rm4tf1960lNWNlboSL/73WRxnCvHOVztLiwu5g95G3qh+DUQpagASTNN7OZIA9t+mcajtodEcajpO6WO4hwUlzkFcdcLOY4ykSSFx3a0WtyBt7Pw5LzrEIy2wtb3i/wDT0X0JxhQvlpnmIkPAvprmHSx0Xzjicrs7s181zcHQg9wtjSx3MrSm0ihMUxjknuUbSttU0oiKcrzLQKt08tlRYpQVk1l4j0NLMAzFUq/TVizBnsnU9dqipxuZOqjaR6DQT3R+l1WJwepvZbLDnpligwh4SSfmSUWZGTypkqlD0HbOU8VHdV6kkjdhQkFXTqvJMFQMyjfIpozVzp6dtEtVOOSGSPup3lR5Vs0dRGKM+popSZCpY3JFi6Gpr1cWB6hI0nCtUWvJvZmgce50a0dz0+5H6pgub7c+epF1goHuBABO4t69Vr6yqzQve03s/X3Cx+oLzfpaKc1UiWaVGVNWZNLM3LYD6dUIqJFZppC5o7qKemG5P0LNyy/SwipmCXznRP8ABHVc8EdQisxhynxBzXXAB7Wvdes8JYxeIN8IhvPUaO92/LdeSta29huvQuC42BgvHG4g7tfZ/wBO6GWBdWzWTbxVzHOLSQDqBfa9tW67oIzE2ySlp/GM8uuoe2+gPca2P9EB47kmpjnYM0ZFzf1015eqEcGzvqKoS3IBvmF7301+q/wVepuZX2JK57Hh9Szw+g1Fna26heMfKY6jkLjBKGPjNnQOAANjYmNw6a3adei3WOYn83pZn7ed9he2pILfpC8MxOrMsjpCAC43NtPf6rT0FR4b7AR0u+7BzgkximyJwatp6vBMNDaQmBSAJNCcs2pVuzYp0rIie1RxR6qw5MG6OFaxUr6VSZoMIksthh1VssDRzo7SVtk1VbmdU0dja/Ol1Zb8ILqnehXqjMFmSzqHOuZ1Sldm8qkUT50syhzpeIojdHOrFkxKV1DnSzpqnIB1IEwSuofESEinfIjqQJropg9WQJIydHNuL9Rr9V0Gzqakk87b9R9aConKLTAnOElY1DZskYy6afBAarE5NTmNh1+6yOvpy1oa4WPNU6qEWIFrHfus9c5FbXtwCafEy48vqVmWUgXKdRUYLtBpsP6K/iFLdluaJrOAobrZM1LWu2Dj3tp/VdpqpwIcD7xe6n+a2JsOx/qiOBmNrxnAy9ETtYUozuemcN4r8+ojFNqQ3LfntuhIp2UnhRtN3zOkF2nK4eUBoFttbaolwiGMbaMCzunIqxiPD3i1janMBHSta6QE+YnzPuB0FgCqbW52HxjCM7z45/PmZPjPH3XNODmDA0PDtQXADNfqb878lhSUT4rqY31Mj4yDmcXHKbt16HqgpetKjScYJERrwiia66Cq+dLxE6zO9aiWQ5dzqqJEvEQumwlrEWcybmVcyLniKdjBeriXI5bKzHW25oT4i74i7a0C9VFhj8IldQfxElPiA9YgRly5nSAUjICeSfZGb1ZEYcu5lIadw5KMtUWR3UkdzLuZcay+ytxULipsiHUkVLpBEThhUElGQpsR1GVw5dup2UbiphhztgCSe2q6x3UfmF6HEHSxnMbuZYX6giwv8FBa51TKGnMLsr9C8Wy3BI5guHI8rd1cDQR3WdrKEqNTKtfJoaOupxtfglpJgDdxAA+HorJrocwD3ZW9d7KhLTNcyztkLqaG+n5o0CVFlpvyC+P08THsfBMJWPbcOALSCDYtc07Hb4oO52t1ZhoQ1the/dcpacOeAeZUN2IuegfJ06/ta2spsfY2CCWZ0r2Omkexz2gvDc9w0Ft9RY8v/wBvYHTNhaCNBYk/C6zvFdW2XC6gE7Oa5v7QeLfRdJoTiqsW1dX4InGU6cmn2MDi2FyU7g2QCzhdj26se39Jp+zcc1QK2PANKa2klpJnaNOaB51Mb+f7p2IWWr6N8MjopG5XsJDh0I+zuvS16GyzXDyefp1nJuMnlFZK6migJV6HDCVXG7gUuEoy/CCAqM9IWqCVIqEric4Lscd11jrjF2yKUeGF3JFIsF7LrEbjL2PRJav8CdvoSXWO3AqkoCSj1Nhmmyu02H67I7TUeikBsy0+G6bIJVUGq9EqKLRBpKHXZcSmAMNwrstJSYRpsr2G0HZaSlotFwLZln4SLbKlLg9+S0mMYrDF5bhzug2CyGIY459wNB0H3DVaWm9HTqLdPwr6lWpqlF7Y5ZL8yiZq9w9BqfiqDcVzysp4Rk8R7WZ7WdZzg3U8xqhFViF9L37A/df6VA2Y72sdxa9x3utalp6NNWp8+fJXbnLM/wCCxj7AyplYNMkjmtve9muIG/oFfp3hwzjmPp5rY8IcSR1zPm9U1j5mgava1wkFtxce0OfxVPibh6OFpfA3LrdzASRbmWg7ei896Vl1YKMo2lH6mron05e5mHxKqlAsxtx2KoGc82OvbXXn6WR07WIVGe4O5WFCUbWaNpfEo0dXKHWsbLSYBFnmBOwtf4oIx9jzPcrR4HRey8mwcddbANHMqKrT4Bvnm5peKsT8GnAB80gyD03ce/T3rAYhiJ+bmO+h37lW+JcYE8pI9hvlZ6Dc+83Wee/O4DldO0OkdWcYnV9QqVJm4+T9zoYs2nm135ba/StNxpVRGCCSSGOQyGRhLhqMgYQQ4at9oi4PRecRV0zyyKNtr+UW3JOlh71a4qxJxe2lY7MymaI730dJe8ru/m09GL2slHdFflrHklSbk5Mu0OGRyXMF7t9qNxDnAdWnTMB6X9Uao8O02WCw7E5InhzDqNRyI9CvRcF43p5QBPGGv/SaLX9R19L+5UtRoVN7qWPcPVWcF4s/c5Nhumyz+J4fa+i9CvG9uZhu3qNQP2hu1Z/FIQSWj2t8p0cR1bf2vddUJaSsv2/wMhqacu55pVQWdZEsKoLkaKWspvPtzWgwWj2SLFlst4dhiNRYZpsrmH0qMRQaIWBcz34N7JLR+AkuIyZSOn12RSCMWUQjVmMLiSGoZohxh1RSYIRiWJxw+0bu5NG5R06cpu0URJpLIRp8rGlzyGtG5Oyy/EnGl7sidkb1/wAR/oOTfh6rMY/xHJM7K06Dp7I/Z/SP63w6ofRURccztuZPP71s6TRJO7y/oivVqYySy4k93stHq7zH+EWb8QVCYXv0c5x7X0/hGgRZmUaAJxkC11QXLdyn13xFWBraMNCjnFmkq3PKh1Y7833nt0C6dksBQu3kggkdGQ5riHg3BBsQeq9RwHiAV8JieQ2oaNQNngfnN+0Lyx7Vd4exD5vUxTEXDXguHMtOjre4lZmr06qR9/Yu05tZDFW0xuc1wsQdj9GioSVIvdHOPqdzaptS05qeZjA142DgNAfUagrOTtXjasNs7G/RlvhuQ01Dc2u3bdTYrjrnt8NoyMsAbbkDZvp16oX4nmIRHBMBkqXG3lYN3kX9zepUqCvdgSnZXYKfMdrp9LE4kH/ZRTFqGKjeGvPiOIvbYtHIuspcDroHzxtleIoi8Z3bWbfXudOi9R6OWnp0927PPvMfU1as3hBmhpHUNN+EJRZ77spGncvI1lt0aCT6kLGtdldfrr8UV47x41tY97T/AGLP7OBuzWxM0bYcr2ufVCWG7R2uPtVmjOVRuTx5fDyFOCirfyS1DDe43UlNICbHnuDsfuSedB6BNMQKuWs7oTe6sw3hmKS0rwWPIHfzNt0I3sta7GoZWgVEeVrtnNOZgPN0bxqw9QdOywUFRYZH6jkeYVukqXRXaDdjvr5EdCmpReSrUp7ueTc0eHRuePFtPFymYSJGjkJWtNyP1tbdVoKzCWQuYIQQHW53+BXm1BJmOmh/SYcjvUgeV3vCP0+N1UIbcmaNpuPLd7et23v72m3ZV6tFKe9Wv9/+xbUmttze1pyOuW6G1i30sbj1U5Nm35IRhfFlNV5G3yv/AESbhx6Ndpc/qkB3ZE/wY95L3uymxDWjbtdZFTTwazh/csQr1KcrPKGeOkmfgmXq34u+5JUelIvdeHmUsqUsgaC5xAA3J0AV/D8PMpNtGt9o/YOpXjXFfEsk7yzVrQSMuxBBsc3dO02n6ry7JfyFKVuA/j3GguY6b0LyP5QsTiGIF5LWkuJ9t97k/qg9Op5+ipeIdm+8olhtE1oDne4LYo0V7MFZd/eInJR8UuSbDsNAAc837BX5z6AJjn9NAqk0oHMfatJWgrIpPdN3ZK+e2yr+OSq8tQTsqrpb6D3n7kuVZIdCkWpanWzfimOUWy7dBufcZtS4GyFMOlinvCYHaIGw0anhfH2ZXUNX5qd/suP+GTqNeQvz5FUuIMKfSvyPOZh/FycnDoejhz+KAb6cx9XRaXAsfaW/MqxpkhdYMdqXs5DvpyI1HdYfpDQ7/wCpBfEvabUOm7Avh7Bn1dR4bdGjV7v0W3+s7ALe4/ikVBCGRgZrWjZ9bndvrVuKkhwymflJdqXPcbZnE+y33Cw+JXlGK1z55HSyHU7DkByAWdp9N1ZZ4QdWrcq1czpHF7yS5xuSeZUbW7BdDVYhjuVsUqW58FeUrI7ksnE21U8zdFVJV+UdvAlPcWydAk16ijk/NKQ0TN91dAbSUkHRPjlI05Ku5w5pGQKOpZkbQjT1pYQ4Lb4Vi8cjRnNu+y80N+Sno6tzD9ih1r4YudBNYN1imAMkf4sNVG13MEb/ALVt/eEewviOrpwG1TfFiGnixuz5R+sfaH738SxFEIZvbbY+8fUiEGFxsGaOomYeWU5h8F0oKXIi9lZnon/GFJ/z/wDfwXV5td36Y/6DfuSSuhAiyN3ivG8NHSljPNJGQCx5LHS5j+NBANw6xPTS2lljKzAX4jTfP4mtbOS4uYz/ABGhxGo5PFt+fPtax/BpsRYADEx8LfIw3Dn3tfM46Dn1ueij+TGpkkPhRsa2SMNAflcWlvmddzhtva17ODhpcXWTBv21ya26O3HBj8LoMx1Nux3+CLTR5dLD1VviunjNXUGIjV9w5u1yBmt+9mQL5y72ZN16Si0oK6tczaicpPI6rqLDRVARa6ZVOuQoPE3v7u5S51LPI6MMHJprmwXYRqq8IvzV2Nlkmleb3MbO0VYTgkkSknCxqic3VTWTSELQSZGOqc564WpjkEsLAXJ2SV5Fi9xHQk2+BUIjKeQRsutqSNwq22P7sB3fYfFCpg2yi+d9kmyqxGdNK0RbUnyWGOGxVaaOykzhdZJc5QCb6AAXN+wTHKLVmQk08FSRvMJ7Jr6FSywOabWIPNrgQfgVBLFzVZxa8URt08M664UTnpNlI0OyeWX2SX414QrW5OZjZNbJfdK9iotjZJnNrJKVw5hVeQQHegP3rYYHM7P4LQMzyA2+2ZxAGvTVecQzlpBWnrZwXNH/AJebe24s0aequUau6DtyU61JKSwe1/8ABNN/z/8A5BJeD/NT0PxK4qnqtf8A5B3Up+R6RXYtRVEuWFwe6xc7MwiJ+XU6uGvX3ITX40Q18NOfDjcS6QsaIzISANhqxgDQANzz6LORRtYNdTv6d1H41ruOtxotKj6Pp0nd5KsqspN7cEdXVk6bW6IXNUEqWaTTvdVZHKa1T3jqUEhGp67qrJPfYWTnqu8c1l1q8+C3CCLBOqtUEMkjwyMOe47NaCSeeg+KH5rgKxBVOaQWnKRsQbEehUxrK9zpRwaak4VqHGzsjCNw52Z//TjDnfEKxUcKyNvle023zNfGP4nDKP3i1CaTiqpa65LXnq4Wfb/MZZ30o5FxqIxdsJD3e15w0H1MbGvd73LlW1Dd1b8+IDhEE1OEzRi74nBv6QGZn8bbt+lUHNRd/FczWnwckJcSX+GxovfmXuu4nfUlZ8Snmr0K0reNL5CnDyJ8iY5idHMFLYFPW2SwDdrkqg29E4sBUj2KK5HoluO3ngO9+CN0SYArYIKa6MJbormJKn5ljBcNdUStiYbF19Ts0AEkn3Ao5g+HU7pR4cxfYPBztEbgbeVzNXBw30OvxQrhzEBTVDJXAlouHAb5XNLTbuL39y0dHhZZE35uTMHuvcRuaxzRcWe5wubg2s3Y3KqV5OOHj8dwkU+KaZhp2uY4OdA5rM4Org8Hl0Bbp6kLJCpOxW5rWST03hgMbI59jchgfk53J8ztO2ua4usJKzXUdtd7oKEpKL2vuFh8ikZfUbKKMkHROYSNk6Rt9Ruj9rxLklYwSeHf1UErLWuoy47g6rr5LpVSrF8rJKi0daLut7kQfNd9+V7+4aNHw+tDGO5qdrl1KpY6cbhf8Ku7fBJDUlb6jEdOPkFZKm+YqCeXyqAyWbZQverlStgCNLJ18qhe5Ne9RFyzatYsxgOLlE5y6SmyNI3VKchqR1uyc1NbspGBFBXscyVikYzmVxi7YlXYqwlscTdKy5dOBTlkAYWrgkIUwbdS/MncmP8A4XfcucXynY6/mRMquqmLQ7ZVnU51NjpodDoe6jykbIo1pxxJXRGxPgmdEQutl6rkdWdnBS5Wu2KOLjL2H8mQ7r2hpC1NBURDDmOmjdI2OpIs1xZbMwG5NtR20WWNM4bFTCon8PwvEcIzqWXOW+/s7IKtKU0lY5NeZoXvfUU8BjaZTH4rJW5gHAufma91+RF7n1Cy1a20jg05gHHUXIOvIndIwtHtOXPEjHNKVHZzJL5hbvIrpr5TuFO6dhUL3NOgSqtkvDIOPvRE6UH1UQSIRjhPD2Tz5JB5cjjpodrA+4lZ0pOTyPwkCgpGFEeIMEfSvAJzMdqx21+x6EIWEcJdwXknzJKK6Sf1GDtJzJooy9MDlwlMnVbOURFyaSuKSNiqznZXYaRdw6mF8zteg5KLG4rPvycPq0VuicosdeCWDmAT8bfcqsZOUhzilEGxKy1iqtV+B1wtLTJPDK1TGRALrWk7KYMWn4V4VZWRynxjG+Mi4yhzS0jfkeRV2oo047pcCN1zKFgCZ3WkxPgyRjDLFNFUMaLu8M+YDrl6e9Zp7tdEvqKWUEkOuvTpqsjDKV5qnwG1s4a5+a1wGkA7ab9l5fc81pqjHo5cPipMr/FjdcWF2u1PTXY/Ql1lu2/E6wW4XqnTsrxK8SHwR5rCzrZgHbC57nVBcYwiMUlNVQg/2l2yAm4Dxfa+2x0UXC2OMpjMJGuIkjLPLa4N+h96LcIVrJoxQSNcbzNkY8AEAAgkOBOg0OvdLe6MnJcY/i2TgXxhgsdNKyNhJvG1zg6xIcdxcclnnNtstDxzWeLWylpuAQ0ejR990BITqacoJvk7gYJj1K4QT+cuujKjLe6GTkuchK3Y4WDqmloTwQuGJJcb+yg0yMhMKkIXWsSem2wrkZC0HBjw2R7v1bfE/wBEBeFdw6fJc9UMo2TJ5PRpWxzsMcouD8QeRB5FYLH8CfTOvfNGT5XaX62cORROhxXuouKa3xI4xfYk/QghyDwZtcXPekmXCHO3XEiUfZhwjgifma7xcztALtyuLct/pTGrpy7IFu1kBo4tFKyIonHTXVplIFRlK7HLAOp47IZVyZnE/wC7LSVEQaxx6A/UswQnUI4bIlLscspIH2KYugK0lZ3Qt5CYdpovSfkphHg1Tzt5QT2DST9a8ugk5Fet/J/EfwXUFgLnuMlgNSSGAAAKzqKinRt8CslaRisXoYIrS0dUXgmzgRlkbe/L85vJaqXg6gbHSSTOdF4rGhzWknO9wBGpvlG6xLMKmDrOikbqL3Y4Wuba3HdejccMzVdBTDYObp2zNH1AoqsbOMU/PPuSAUuWB675NoW1GQ1Ijjf+LDrGQv8A0RsCNte6r4TwpPSYkyNkjC7K58bnNOV4tZwIBu0o5xn/AGmK0cfQtPxff/SjNUc2Lwj9GCQ/E2VTdLarvmLf8DPcedzcKT1lVVeaJkrHXczzWNxoWm3O30qnNwZVxRCe7W3LRlD7SDMQ0XG25HNehcL64liB6ZB9H9Fgoqaqq62WOJ7iS99yXHKGtfuewsEyDcnbCSSf0ObsRTcD1QY57HRSFur2xvzPb10tqpeH+CXzRSTyODWhpygkauI0Lrey0brbcC4bBDJURskdLKGASOtZgNzo0c9b6lUeCm3pq5nLxH/S0/clVaj2yS7W+pKZhoOEZnyuja+MtawPfI12aNrTfnzPlOi7Pwk404qYZWyx3ynyljgb5djyuVtOAKIPw2ZrSA57pAT08gAv7lmsZx2OOmbQ0pLmtN3y7Z3Xuco6XQeJycV2f/odyPGOHKajEbJzM57xcvZYRt7C+9lkhovT+FuJ/nf/AIWoia/ykk2u0gbkg7Fee4jC0TSNj9gPeG/shxt9Fl1BScnFrP0JbKbWp9rDupcoG6jdM33q84xgrNg3b4ICNFI/QD0+0q1htE6cuY32wxzmjm7LrlHe17KvM3Rh6tP0OP8ARVa0P6W5cBxknKwxkhCfLNmFioUlQTsNscyBJT37Lis2f4gLlZqMYf8Aix6n7EklMv03+dye6CcCtBdSVIPuV8S/FP8AQrJu5JJK5R9j5/6AfJ1dCSStIFk8G/xXrXyRfin/AOYf5WpJIav6TFS9o13Gn5OP8yL/ALrVneJv75o/Rv8AM5JJBp+F8JfZAT7/ACK2O/35T+jP9aLj++f/AGp/nKSSmXsr/Bnd/mVeEfy/EfVn2oR8mv5bWej/APuFJJd+2f8AjH7HeXxJvk2/KK71/wDseucB/iq7/Nd9TkkkOo/f8Ikx7EfyU/k03+Z/oC84i/GO/wDU+pySSZT/AFany+wT4Nnwx7df+y76ysLDsPRcSR6P9SXwRD9khqVXakklVf1BsPZNBwL+WwfthVse9s/tzfzBcSTqv9q/l90Jj/cfL/YLSKSSyS6G0kklulA//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXFxUXGBcYGBoXFxcXFxcXFxcVFxgYHSggGB0lHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAEBQIDAAEGB//EAD4QAAEDAgQDBgQFAgUDBQAAAAEAAgMEEQUSITFBUWEGExQicYEykaGxI0JSwdHh8DNicoKSJVPxFRYkY6L/xAAZAQADAQEBAAAAAAAAAAAAAAAAAQIDBAX/xAAmEQACAgICAgEDBQAAAAAAAAAAAQIREiEDMUFRMgQTgRQiQnGR/9oADAMBAAIRAxEAPwBV3K2IUb3azIsKHkB9ys7lG92t5EUGQF3S33SMyLBGigyBBEtiJF92sDEUGQL3awxIosWZUUGQL3azukXk4oGSYFxA4D2H9Um6LirLWRi6rlqYmm2/1QNXX2Ba25Nj6+6C70B+QC4+I87HW+u+ykvQ8dKL2yi3P+ypsiaeICTCoJvztof6K6GruNT0P9UDpDF8FloxKmGqN/oP4RtM/OL2VJkSVFBiWd0isq3kTozyBREpCNEZVsMRQZFLWq5oUsqyyTiPImFtQWwVOA8yLwqZGIkhaLFWIswTu1iJyLE6FkXmBa7hNzTrPDqiKE/dLYh6Jo6mWMp0woXCnUxCmggUTAkOhd3CiYE1FOouhQFCnuVIU6aNp1N0QAJOwF/kgMTjcbqnB4iaL6Xdb6BKKysczy5D76rt+x9F3xfVPHxOOQchwPyTStweF7rluqwbOuENHl7xcnSwI14anQ/Rbe5ug5WAPHQWI9F02N9lrnNEfUK3BcGZbzN3Fj0cjMf23ZzUdKTrxQ8jcp10XpNJhcbRshsZwWKSN1gL/upzG4Hn/jgLZvQ/yicNxf8AEaL6E5Ty1SfEaYNdYnp/5QTHlhuDxHVWjJ+j017FWr6F/eRMed3NBWOYtkcktFbGq+OFWQMR0USAQI2n6LZpk0ZEpdyg0oRvp1EQlOnQLXhkE4ipsKl4dM+4UmwoHQr8MsTfuVidBRd3SkIVflUw1BpQIYVDukYWrWVAUDiNa7tFBiiWICiDYlB0KMaFohAUBiJD4rH+BLw8j/sUyyIPFyBBKT+h32KT6GkAdniW0rGjkD8wpSOdyd8kJh1cyOKIPP5Gk9DYK443G7QEH3XKzsiSIeeBK1M0i1svW+uvQBRNez190FP2njjNifko0WGMJB2H/FytqJbgcfRJ29pGSHyg+6LbU5xpuPmkybRxvayhAfm2uuPmOVy9E7UwXaD1XBVcdvr/AB/C143o55rZ6zhUf4EVtu7Z9goyt1UuzjT4OAkEeQD5aLc+66Uck0XUzUfExB0oTGEIHEvjYre6U4GoksTNKAO6UhEiSxba1AUCugUWxJhlVZagKBu6WIrKsRQUD3Ug5BCVTEqAsve5aY9DulURIgLDrqBch++Wu9QFhgctXVDZVoyICwm6Dxc/gSaX8jtOYtqp96q6sZ2ObzBCl9FRezzXtSybysaDazfsuapXTMed9Drf9l7JUU8bm6221SJuEQuf5fX+i5rrR04WKoYZHx5tRcLk8TjluQARrvxXsgog2OwHApLX4fG/R7bG26haZTjZ5lhtHMQSMwIOmp1+a67AmzaZwfVN6Ohp2nW9wmoLBqLIlKxKFCLtQPwCSOST9n6Nhb3rmCR2paDqPX5roq+UOGUgEHSyExLDi0MMRsANQDbb/wApJ0qGo3IMw6sndMWSuBaWXAGw1GyJn3VeFUpa0F2rrHfcB2v7KUp1XVxL9pyfWNOegqkTGIpVTuTGJ61MYsYwvRDZEvY9XNkQaJhZcohyHMizvEBYW160XIYSrZkQFl2ZYh+9WkWFiTxKl4lJDVLQrEjOx2ahSbUJGKtb8Ygdj0yqImSYVql4xKwseNnUXVCSGtUTW3QFjkVStZUpB4rqsFYgWRdic1n2F8pRMTmRgOJAA1JPIJZUSZrFNO7Y9mV+rcuo9VyyVM9DjnkrLH9sIbebQfT1QoxKKcZon5hxHL0XPTYV+I3JGXRg2sdl0eFUUUV7R5CVL2VYLVCwugYakn2XQzwgg8UhmjANtlANl7W3smlHUC1nMINrX0N+RS2IX0G5Us2QlvK32WkI2zKXJgrD89ha/qUO96FdUKBmXWlRwTbk7YwikRkUyRiZWx1SYlo6BkysEyRNrOql45KzSx74hQdUpGa5R8ZdAZDwVKs8SFz5qlHxhRYsh/4oc1iQeMKxFhkIPELfiEn8SteLU2ViOfELO/SbxazxaLDEdeIWeISXxa34tA8R14hZ4hJfFrfi0BiOPELfiEm8Wtiq5IDEdwVGuqY19UW5GsBcSNhp877KOAdkp5sr3kRMJ3PxWAuSB0HNLsZJbIWxEkXIaTuW30Kjkg+2b8TrQJUxYnmOUeU6aO0t7bIzCoK9p8+TLyc7+ylr6qqAIZcqnPVu1eHAbLN1XR0ZxO0pq85srwAehu0joUJXPGY21SOmc8WDyNNlYK3XKNzuoozlId4e+7h0QmIVH4j/AFRWFDZU1eCPkc90Dg9wu50Z8rxbewOjh6LTiVt0ZcitAffrBUJTNK5hLXAtI3BFiFHxS2MMRwJ+q2J0m8Ws8WiwxHPfrZnSbxfVZ4tKwxHInW+/Sbxa34vqiwxHHfrXfpSKtaNUiwxG/frEn8V1WIyDETkqDit3USmWautXUSsugCWZbzorDsJlnNo2E8zsB6krqcM7HMZrO/Mf0t29ytIcUpdCbOOaCToCfqmFNglQ/wCGJwHM+UfVehQxwxizGtZ6WB+e6yV/+b6rqj9KvLIczlaHsbI7WSRjB08x/hPqXDYYwMjBcfmOrj1uVKR9tv5Kq8QTYAG5NgOJ9gt4cMYdEuVnZ4ie6ppA3dkLG/7pTdx+y88yF0DX/mBeP/0dF6RUxGUOYfKZ4W26SR7tPX+CuKjja2LutnsLszTvqSVwc6bjZ1cdXRyc2Klvl2VBxXgSbI/FqRr7jiNiuXlp3A2suNJMqTkhyKsvNhdNaShI1O5QmB0OXzHV32XQwBRJ+EEV7DsLj1CNwqf/AKiwja+X18pH7qGGQ65uFlb2WiMlWxwBsxznOPAC5N7/ACXR9LG5fhhy/EI7T0MUsULpGAnzxk7O8jrA3HRcLVdkZdTE4PbyvZw6a7ruu09S20bQdLyvvws55sT7BIScpzA+3DXkvTjwRnHZySm0zhKmnfG4te0tPIhVL0Z0mcZXsa8dbFK6zs1DJcxkxnlu35bhYT+kkuilyI41bLk2xDszPGMwAe0cW7+4KSkrllBx0y7snmWZlXdZdSBMOKzMVAuWsyQFmZYoZliBkbrRWLFQiBXZdmOzLCwTz6g6tZ05n+ED2awHvPxZP8MbD9ZH7J/iFf5g1p8o5chwHRdnBw5bZEpUNH1jWjKxrWtHAafQJdPOXfmP2QLZ8yk1y71FLoxbbJ2KupaIyGzWEnp9zyCIhpmsYJZ3ZGH4QPjk6Mb++yV4ni8koMcY7qH9DTq7q927j02ScvCGo+w2oNJCcskpe/iyI3A6F+3yuqTjm7aeIRA7v3fb/UdvYBLKemaOART23bpoOiFG+x5eh12exxrQYZCcl7h4+Jj/ANQ/dM8eoGVFi5wjl/JM3/Dl5B3I9CuNc3KzQKyjxGWNunmafiYdWn1BWc+K9oqM/YsxqKop3WmYejhseoKUnE2l2y7EdowBkfHniOhjeb2/0OOvsfmgMV7P0kre8ppGtJ3jebEehK5JcCfao0zfhgVDiDLauA6JtR4nHewJceQF1Gj7L0UQa+pqA9x2ZGb+1wunoauGJv4LIadv6nkPkP8Atbc/MrP9NC/JS5JFlJRTyMvIRTQ8S74yOg4Jq6aKGHKGmOHrpLOfuG8yVz1X2kjBuzNPINnyfC3qyMaBJayqlmdnkJJ4X+3QLp4+F+qRnLkOgmxFlSfxMsTh8DwPJbYMfytwKDqad0fle2wOoI1a7qDsUqjZfW5RtHiL4xkcO9iO7Hfdh/K5dKTj0ZafZLjcWPobFSbUWtqR6i63XUYDRNES+I7Hi0/oeOB+6B75aJp9EtNDiKoPr6apdjGARTguYQyT0sD6j91QH8Roioqvnr91nPjU1TGpNHD1+Gywm0jSOu4PoUJdeohzJWGN4Dmngf70XneNUXczPjGwPlvyOoXm83DgbxlYCSthyiViwKN+6xa0WJBZtNOz2FGolAOjG6vdyHL1KUxtLiGgXJNh7rrsRkFHTiBpHeO1kPXl7Lfh482Jui3HcbbcQQ6NHl05cggBMPhB1FgfdKKE28xNyUwi/depFUjBhsB1XQMjZTtD5QHSOF44unB8nIdOKW4SWxMdUvAOUhsbTs6Q7ew3PsgxVue8veS5zjcnmf2Sbt0hrWwqqmfK8ySOzOPyA5AcAOSrDVIFZbWypKiW7B5jfQe62J8uvBFhoGiGmjykG2ioCcNQ14IB9loNygA7IWro7HOz1WU+JNPkkFjzRYF08A11HDkgO6DTrtz2+yaRtaf8w4KNRTAi397oaFYC+MAB3mI42N7Kxkel2+ceuvusiY5p01HJZK23mZ5Xff1SoZbFKw6Hynk4furxCfyy26bhCx1EcmkjbOW3YPfVjyOKYgoiUaktKj4wcQfZAnDphs5Q7l7T5hv90gHeHYx3TiW6tcLPjd8LxyPXkeCIxKlZlE8BLonG1j8Ubv0O/Y8VzRhKNwfEjA85gXRP8sjOY5jqNwVD1tFremWCRS75W4vRCMgtdmjeMzHD8zf5GxCVTP0JVKVrRLVB0VeWm91rtPAJYWzt1LdDbkf4P3SITo7s/VXkfTu1ZK06cj0WXMso0VHTEIK1mVlbTmORzDu0kf1VFl5LNydligsSA6rslhmQGqkHlAPd34u2uPT7pHjdUZJSSeK9Q7XUTY8Oi8zYyxtgHG2cb6DmvH6h99QRqV6PDSjRE+xzA1paCDwROGRmR4Y0XJNh6lIm3At8k8wOs7qCaYfHpGw8i8HM71AB+a6JSpEJF3aOvBmbAw3jhBaLfmf+d/z09lVG9c/ASDe6b08v97JcfQpbHNPKich33Shk1j6LoMMppJheNjnjjYaD1PBaWkTRVHr6rbhfQpxD2edqXPa08hd//LICB7oOrw6SP4hpwcNWn0I0SU02NxaFz22FkDWYcHajdHTalWgBWSJIJXR2B2TeIhwBHRU1FLm2Q1PK6M2INuiAL5tPoqDDfY7pllDxf0VXc2KdALn4eSbg6qcE74zrsmZbotwsD7NtqdAOaVAWQTtcFKenDgrndnpmuaDGWBzgMx2udgmFfhQjZnZmsHZXB332010spzQ8WJBGLbIWppwdke/n81Bzm8UySvCXBzTSyHyuN2E/kk4HoDsUkxCNzM7HCxFwR1CZT5eanj4EsTagHzC0cnU28j/cC3qFm/2v+zRbRyULrgrKWbLUROHAqEAsT9fRQb/ijop8AdB2zpvOyUfnFj6j+n2XOWXfPwx1TTvAHwMzg9QNB6nZcIV5/OqmzaPRBYprFiMs7QY1JVSl73EjYDgBwAHAJdHHxW2RoqOJenGJk2ZHT31Y69uB3V4q/wAJ0drXcHe9iCtCEeh5oeV97334/wAq5IRphTGkfqlUZ1R0ZsCURYmNoCN97rquytNU2MkMjQ0nKWnY2sLOG2ub6FcVTSaI6GYjZxHQGy0atAnTPVonHIDJEWluoDLObx1bcgt2OhuEqxiuqsrxDBlzXDi6znHfUD4RsdhfRcnT18g2e75n+URLiM9jaV5B31vz5+p+ZWf2mis0Ku9PFZ3zuamI1ndWW5mQdVOb1UHV99CFfZRMLTwQBVDWlp02TKGra610A6ELO6HogQ1MY4FH9mHNbUxOeRbNx4HgfmubaXDire/IQ9qhrTO9jgljllle54bnuRa7T5tHG+wHTVHYhITFJmDcndv1uLBw4W4m4P34oHCal8tJEXMfKQ9zLBxHltub6Heysno4HQAXc1shdsBmAadteF+C5H2bo4F1W4ny6ha7+w8w2RlZHkcRGQ5oOhHJL3vJPmG+i6jAmWseNCoUWrZor3uwm3VhDvtdLaunfF52at6cEzwWobK9jtnatd6OBb+6ym9DXZyNRJYO9bKWCU7pZA1gLnE2AHFDYmbEt/zH6aIzB5nRFsjDZzSHA9d1lbb0WeqwT+E7qmcLyP7tz7X0BuDtyH3XmNdHlkeOTnD5Er10VDJmNqsvmdE0k2+BoBzfVeV9oJA6okc0EBzswv11XFyb2ar0L7LFtYsRkGxo801mg30VLY76ImCfK3I7UcD+y9pI5yqpgI1QFU9t+pRFRi+4A+aSulJeCeaznNeBpBUZRrfhQDd0whHlSiDL4WE2sjooxxdryQ0k3dsvxV3ZnB3VLyM+QkE3Oo04fVatqIqsNieUXHMhoKJ5ZK+4tFYOB3NzYWUoadxidMLZGua0663dtYcU8kLFl+ZbumTOy1XlBEV7i48zdj7pZJA9shic0iS9su5ueGiammGLNOUVfiNHLBbvY3MB2JGh90JA8vNmtLjyAufonkhUywrV1Ca7TZzS08iLKt0midhQQHLCUNHJcrbprXSsDpYsbibTMiDnNkY8vvwueRvoi8PxZkkbGeIjjfG5xa5+rXNd8TSAuHqWZvh3QM1MH/5JBy2KzlFVotSOnxiYd85zDdhOh2vpvZL5uZN0ipcSfGSx+o6ppTzB40VRkmqJfZTLWFj9PhO4UKKbu6lhGziPuFGtpXX8uu2iHhlvJG1zSHZ26+4WM2NAPaBlqmRvJ7vuSr4B5b+ihjjr1Uh/zH7lX0o8pCXGipHqOD4gx+HPjaLOEbL9RcB1vT9151jMeWT12TrC3fgt1ItyP0PRBdoYPK13I5T/ACs+TjqDoaltCNYsusXCaBjShK6TRXyShpsQfcaFLq+bgvXm9GCBqk635hCE63V41FuWyHXJPssPG6Z0w0Sxg29AmUbrNC3gSyGIyXIauo7PfhMe79LGfWRv8LmcJps8jnHgu37PNgLJzUZhGTG27d7i5H2Tl8bY49m6uPLHXAbF8fyc4uQVK61E8/8A3x/Rrk7xyBvc1LoiXMLadwPEtF23PySWNtqDXTNOLdQ1n9VMXa/KKYbT4tN4SaTvX5g+MA3Nxe9wOWy1geIutPWv80jQ1rSf1u0B+QQsA/8AgSHnMwfJripU0X/T5Lf99l/TLohxW69isNo8VkqYKmKZ2fKwyNJA0Ld9luHEDRU0ZisJphnc4i5DBo1o9UF2bGWKqfwERHu4gAK3GJWMnp+8bnjbDFdvMZdvmk1Tx8D8WThxp9XVU3eAXa4Am2+t7kJLjEl5ZDze77lda1kBqaSSGIRBwe8j/Te3HouMqzdxPU/dXx1eiZDPsxE0OfNI0PawAZTsXPcGj5C59luTCg+uMHwt7x23Bg1NvZWmFzKSMBpvI8yGwOzfK0fcomrrWw4g2Vw8pa0uHR7ACk27dDrRvEMRoHRPZFT5HtFmO1u43tc2PLXVEUlLQxMZHUsc+V7Q9zhcBmYXaNOiq7Q4LTGE1NK/RpGdl7gAnccR6JhJh1PXRtkjlyVAjaC2+hLW2sR7bqLVdsZxPaGGF8Le6YQ9j35nX3Zfy/Rc/h1WY3g9V0UD7EgjoQlGNYWWHO34T9Oi1ca2iLvTG1aM2WRm1tf2VMdnSREgaOB+Wp+yX0GJuZG6wva2nS6hLi1gXbEggDqdCfldRyTVCSdgFQ/NK93MlFwvAHsgKdEu+ID0RHRTOuw1hMbQOSjjDC6PbgSelrfwr6F7bWBvYfQhGiK7CD+YEX5Gy0krVEJ7OFusRn/pMn6Vteb9uXo3tBOJ05e24OoXPmlc7hZPai41a5LKiqft+1ivSlTMUK5GFpW6WHzj5q6Vml91OmbxXNyaRaJvGqKvZipIurpR5Vrx/El9hOEHKxz+KIbisgjdFl8rnB23ECw1Q9F8Huj49RYrdRtE3Q3wTtX3ZY10Qc3u+7cD+YZi4E39Squ0eOCoLGRxiONl8rRzO50SSaKxWMCnBJ2Vk6GzK9opO51zGQPvplsG2t6o/sviULRJDPrFIBe27XDYhc6dgtCnBQ4WhZHUY/iNMyHwtJctc7M9x3dbYImGmpqyKMyTiGSNuR17EOaNiNd1wb6U/wB+qiKd50Dj/ZWeD/JWR6RTVNO6ribFIBFFC5md2mtiL676lL8W7OxxsL21LZDdoa1trkuNtdVxDqCQa5yt+FmJ0d80lGS6Hkj0Ou7US0z/AA8QYWRta0XF9QBc3B5ofFcKkrZo3Ahr307ZNdASCRbouIjhqG3Oh9UQyqqm2IsCNLgkFPCtrsWR178FkpaaRkpaHzOjY1oN9AblxsrcD7K1FPOJJbCKO7i/MLEAHQcdVw1Vi1QXAyAuI2NybeiOk7VzSNySGRzeRdofVKpf6O0U1El3lw4kn6oynqgRleLtO90PFWNItlsoSya2AXRqjJgtZSMjJLHAtcCLcQUoq6cFpIsCP70VjakveSRYaWH8qFX8PuF5/JJS5DZKkQom3IC2D+LrzUqLQgrKhlpfUj6roXSIHuEVOVzbjQi109NWCRl1BFulxy5rlqSw+I7HjtzTrDI3ykNhHq46MHvxPom5qK2xVfQx8Y7r9FiZ/wDtl/8A32/8D/KxZ/qeP2V9qXo4zFf8R3qk9XsFixaQ+KB9g/P0UoNvmsWLDn+I4l4/ZWz/AAhbWLfj+KJYVS/APX+UaNwsWLdEMhUqiL+/ksWIkMmOCth4rFiPAiEq3TrFiACJVKHdbWJrsC56hNwWLEADT7IKRYsSYFEfxJhB8R9D9lixR4Gznafc+ynV7D1CxYuD+Zt4LqHgo4l/iD0CxYuz+Jn5LJ9h/t+y9C7ObD0C2sXm/Wdm3D2dSsWLFxnUf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFRUXFRcXGBgXGBobGhoaGh0aIBgYFxgYHSggGB0lHRcXITEiJSkrLi4uGh8zODMtNygtLisBCgoKDg0OGxAQGy8mHyUvLS0tLS0vLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQMEBQYHAgj/xABLEAACAAQDBAcDCAcECQUAAAABAgADBBESITEFBkFRBxMiYXGBkTKhsRRCUmJyssHwIzNzkqLR4TSCwvEVJDVDU2N0g7MWFyXD4v/EABoBAAIDAQEAAAAAAAAAAAAAAAMEAAECBQb/xAA1EQACAgEDAgMFCAAHAQAAAAAAAQIRAxIhMQRBBRNRIjJhcbEUIzRCgZGh8HJzg6KyweEz/9oADAMBAAIRAxEAPwCtSocCG8uHAEXIBADQkwhQxw0AkO4woTeFI4eBrkZ7HIjsQmsKLB4imQBEJMIWIhJhBoiUji0AQdoRnzwvu/PfFuSRIwcuBWDK/n86REPtBs7uO5QLac4aNVNxB/e+BjHmPsGWBd2WEL4esAqYrh2g1tSfLOHEnaTcDfuyB87+ecVrZfkrsyagRHydrA+0P5+PKH8twwuMxBFJMDKDiHAHjBwUWYBeDBghBxZAXgrwcFaIQMGCvAgolEsPFB4o5IgRVF2HiMCOLQcTYlscy4cCG6QusYkbgCE3hSOWEAkOYzmOJkd2gmECGewiDCixxaOwILEXyI6MJsIUAhtWsQAq5s5CqBxJ/PvgydKxRxt0hCfMmNcSULka4QT6284q1bVTSSGuCDnlx/CNnoKOVTU4ljBiyxlgzXPloBwiCrJlOxId6ex1ARlPoTCnn7nSh0jcdjKTMbXPx/rHQqG1vnGiz6WkK4cckjOwsfwhOTsalYXVUPPCGvF/aF6Fvo5epREqcXtG5ELq19D/AE7oujbFkE4hbLwPqLAiGG0tkS0QsguLc+MWsyZh9NJFaWfnw4W0t/SHlFXFD3c+YiMnkg2MciYfSDCz9C6o4IBGhzEHENsGrv2L5ai+veImYKnaFZxpgMHAgCNGAQIECLIFAtHVoKIQKBB2gWiEBAg7fm0FEolC4ELLCdoVlwORuLOrRyywphgiIBJDWNiQEERHdoIiBMcT2ECI6Ag2EGsbiCyIFoQo0L1iD6KFhyvzI98OQIiZ0yYsycZYOJlRAb2ABzOffYRrJ7oHEvvC7182ctu1P0+aZRH7mEH3xHyquaxt1wmc1a8px64h6xSgajEMb3z539L6GJWTLuhYmxvrCcoV3Opiy3tRNz5rqLWn5/8ANkD0sATDN5jHWXPy49YCfcSPdEbPphYNctnli4CIqbXzwx6oC3I5+46RcIX3LyZtPYn581uJf/uDTu6xRceYhKpqewQdbcfzZh3xESd4KlfaQW45cOOkP57LNTEtgO7QeXCNOLjyYWRT4KnWtcm4hurQtWyyrHK0Nbw5Hg5s+SR2ZNwzEb6wB5G+X4xcDFJoB20t9IfEReTBIgMhxaBaOoFo0BCgQcC0WQKCjq0FEICBAtAiEBAgoKIXQ6hWXCF4UltFNGUxwIDQFg2gMkNY2JGBBsYAgDHYcCbiOQIUaE4uJUzsQ1rOyrm4W7C5Ogsoh0Im9m7OLyWYKGJJsDYjQDQ66RMzqAPp194Z3U1MkmyTJhYcWSwNuNtRlzh7sd3dhLte+kSB2NM65n6tQ5yvc39AbRbd2dhdUrTH1NwotkPpH898LTnGth/HCV2zP9r1bKSttMrxFLUknNgvext/nF829QDGcNsz4xWq3YoKkYTfW41y8Y1jnGtyZccr2EpUxguK6TF0JUjLxh5QTFFyuh1HfzhjI2eOyFVlKixIvc/aPGJal2aVzGloqbXYkFLuQ289OMOK2d7X4xVzF529RM0vsi9jciIfZ+zkRROmDjkDw5ZcTB8WRKArmxOWTYLYOxJzFZpCqt8QDMqs4GpRGN2trlFmER7SMU6VND47tm3hn5C14krQbDNysW6zEsemu5zaBaOgIK0HEjmAYOABFkOYEdWgohAWgrQdoEQgVjAg4EQsGKFJbQ16yFZTRbMLkkFMAmEkaDLQCQ1jAxgAwk7QA0AkOwO3MJ4oJ3hLHFxRUxyrRZ9lVRWSqg2vf3k/nyiphokqSaSotwJH4/jGepTcCulkllLAsySjqHmBMRtiIvdjoB+fKHFZtaRhCLMFlFrnj5RXazZHyiU4c4cxhP1hofwim7UopqtgEwkn2iMoThDUdOWRRfqXOrIOJldXIzwg9qw7oNJazFDDlrFC2XsaYswMhN75m/rfiYuAJliwi5wUeGXjm5rdUSImKgzA9ISn1SnSIKpqW7/WG/yo6cYyoElJIe1k/gIN6cTFEoriFwe+45esNBrcwtQ1ftkYh2iDbQ/yjel9gSmruQsmzupupOYN8NwSoIIF7aXufSOY7n1OK2QGQvbjawBPPIQjeOj0+NxjvycjrcyyZPZ4Wx3BRzeBeD0JnRgRzeBeLKsOCgXgolEDgoEC0Qs6gQWOBEoojw8LyWhFUhZBGHIIojrHBGZDctHDPApMYghczIPHDXrIGOAsbiLzJkJiZCDvAUxuKMTY7EyJbYcz2hyAb0v/AEiCBiQ2KjvNKS1ZiUfJRewAJLeAtF5FcGgON6ciY4r94ZaLZjfkNLDmbc+UVybtyQTiwC99Q7AeYN4l5T00pSZklJpbMsyAkd3hEdPrdnN/uFB7gR8IWil6M6Vv1X6ilHtaUdDhPebjwvDt6w8c4iCtE2SSs+4t/OFZdOF9km3Jje3nFSii9Ul6foSVSBY+EMVWF5s4EeUNXmRiKNSkPFOUKBcK25kn8+sMJb52ES9VRN8nE/LAJvVEcQSuJT4EYh4r3wfEqyIT6h3iY2xQMUNusgw8dA5I4xQeKG4eD6yLKF8UHihtjjrHEILYoPFCGOBjiEFrwYeEMcDHEIL4vD3QIRvAiUQc/J4Bkw+KxwVhLUPaSPaXCZlQ/sIkdmbuVNQf0UlmGmLRR4sbDlFWbiqK51MDqoue1tw6yQuMyxMXj1RLFfEWB8wDFawf5RVhEyP6qOxKiTelCWx3JOipmfNtB7/KJGjUBlRZa9Y7BUS2JizGwxMdNeFoZh002rewvPLHhbkJS7NnTP1UqZM0HYRm10vhGUaZuDspqOknT5iFJ0xioxDMInDuu2K/gOUT20ppkfJqKW/bmFTMYCxwggMTyLsf3VfuiV2zRAUxloMkXLy1gclSIqswefTo7WvZSTbw5eWnlDCfs2nv2b+f+UQyVTdbOl4vZcgeWR+EcvUTRC2hp8j6yKt0Sr0MsaGGNQ9tDlDJqp+MJtPJ1MaUH3MSyp8D8VEc9dDFSTDymkxbSRUW5bEjQLmI1DdCiWbR1kpkDAKrAHMYgpYeBy8c4zekT/PlGx7t0fyfZ8wsLO8qZNccRdLIDyOFR6xnFvOzXUUsdGOV0lQzYAcAIFzoMQuBi9fQwhaNQ6F0DvXhwGQimQhhcEhZpIIORyI90SG/m49FLp5lRKRpTrhyQ9glmA9g5DXhaHm3qpHN0KrMgtAiUnbIYAMpDAi9tG9ND5EwxMv88Yt3Hkwop8CEAwt1cEZcVrK0CV4F4UKQWCL1E0HGKBjjopBYIvUVpCxwUd4YETWTQywkRxTyJ82fJlSJePG4DnDiCLcAsRpkCTnyi3bi7srVEzpx/QqxULxdlNmB5KDcHmQRwManRUUqULSkVB9UAQrjjTtjcntSI6ZutSsoV5eK2jFmxeTA3XwFolKanSUgRFVEGgAAA5wtFN6UNr9TS9WHwGcSpbiEHt2HM3C/3oYinN0YbpEfvB0kqpMqlll3z7bWwAD5wANyPG3CKHtbazzAWx3ZvaIFsROtgdB4692kQs6pLNhk3CkjhmTza/w0hyQssdtwT5COhDHGHCFZTb5JWWElIjHNyBa+diRraLN0abHlGdMqmLO8vJMVgoZwcRA7hl/eigBC4BZm4HPhyjXOi+jRaLFfEXmuxJN9LLb+GMdS6hsaxckJM2j/APPATMuzIA8CJoUfvtGkTlvGWdIVCF2jJnJNSWepZmZucmYhTLVjeZ7omN5t+Gsq0jLmoZpgs2ZzwpfLLifhaOfkdQTYxHeTKB0j7hvTz3q6dS0pyWmIuqE6sANVOvd4aUlmuO6Lom1qxq55cypmkTJYmSwWNhbJrDQaGJc7r0jXeZKcuxubOyKTlnhUcdcoWk9xnHlUVTMgnIbmxIjlFPGNE3u3blLK6yRLCYCMQBY3VsrksSSQbZ8iYpvya0XrNKCkrR1Qy+cPpcu57oSkS8omdgbHnVc0SZI7RzZj7KLxZvwGpgUm2xmKUVuT+4exflE8MwvJlWaYeBb5kvvucyOQ7xGkb2zMFFUN9KXh83IX8Yc7L2TLpJCyJWi5knVmOrNbiT/LhFS6VNsdVSrLv2mJmMPqy9B5sV9DDOCFNCHUZdb2JDoeosFE061zOnzXPOyHq19ye+FOlisc0ay17PWTlvzwoCx/iCRZ9z9l/JqKnkH2kkoG+0Rd/wCImKJ0y7QwzJEsZkS2b94gf4TDGFasiAT2iU+XUIkvNbsLEXzHpDqVXyZ6L1yWYAgEWz5C+R5RXZcqY/tGwvx/lqYmNmUYBKuctQCMzzyjotKSpoW3QktEr3wNYj5r8fssMj4G0Iz6B0ALIyg3AJGRI1CtoT4RNCkYgWF8+A9M9I1jdLZiihly5iKwcFmDAEHESRcHI5WhLqMCgriHxz1PcwcyoLqY1veHo3lvd6VurbXAxJQ+B1T3jwjOdobNmSHMuchRhwPHvBGTDvF4StrkPpT4InqYLqYfFILDE1FaRj8nHfAh71f5ygRepk0G+y9npKVsItdmbLTE7FmPmzMfOFKVgBrDeqnFhbW5ytFXXemWK1aOX2zgczJl+ypUZIttTzOg0zN7ESbMWXf5SIxzpZ20DXLKIBRJSa8C5Ykjvth9Iv7bS1z0MYd0nTce0JrXsSko/wAAH4Qbp3UjM3aF5chJgOHseBhOtpMK3Jvc2v77jlpFSE+YmY+ML/6cmWsc/Hh6Q95ke4DQyzVUsBFte+Q48o17o72Sv+jpBa4JMxvWY5HqLRgx2vMddQAM7ARv24tSDQUoJN+oT1Iv+MLdTJOKoJjVDrbm7kmcB1klZmEkqCLksdSSbkLloLRE1Ow5eHBgCEezwH2TFvl34GGu0KIuuueohBxsPZjm/tK1NNpaoXCy2Mtza4Ctwb+LztFhLTrA2DDgV4iJfefZ5qaSopiv6UyzgByxMvaSx53A8RDbcGpM2gkFhmq9W3jLOHPvsFPnEcbin6FdyHZS1wwuCCCDoQciDFbqN0qg3MpOsS+RDIDb6wYjONYnbJVs7REVIEhiqm7H5o4QJY2wsMrgZmd3p0sgz0MqXndjhJHKyhs87e/lFjodr/IqVJkmYZYdiDiRC81rkKON9LBRawueZhnvbV2VsRxFe0+ZAWwyQnixJGXC2driGG5Gy2rpnyqpY4ZNpcqUMl0z8rEHmTBfKSiVLNKfPBp27m8JqpHWPZGW/W59kWzxD6toowL7R2xKRl7GMORllIkm4v8AbawP2jFm2xu8J0ky5bPLJtfBkCBmAw4i+cP+jzdc0ZmTHYzZ0yyl7WwICSEHmbk8co3CSUX6gmrZoHnGQ9JbCZXsLXMuVLU918Tf4o1trKuJsrC5z5R5z2vtk1s6ZOthxNiNjdbWAUd9gAIZ6Ze1ZjLwPJNWASUXEQdTYDPkNefGFZU18WI2BJ89OOXdEfs+WUzJBBjqTPvMYmwtf4x0BYmJFRNdwqgEsVAubAE5co3anlBEVRoqhR5C0YNuJP8AlO05UsE4EZprcrS9P4sMbwky+cI9VLdIZxLYViidLkyctMrIiugftX1DHJLXGQvcX5kRd+tEMNrUiVCTJD6OhU9wPFe8HPyELxaT3CPg887O2os5iqqQygm3cvtG2otY3HCxh9ETtWU9BtFZpFmScC/IsjDrMuTrn3hzFw3w2QtPP7H6qZ25fd9JPK+XcRGepxqLtcM1jlapkLbvgQV4KFQtDje3pVm1J6qmUyJLAgnWa/cSvsA8l9YgNyKwitk3yDB1vyOBv5RVERrHmpiX3emmXVU7HTrkHqbfjHU/K0JvdmxGadL5XjM+kuWRVo9vakr6qzX9xEaVMct80iKJ0mUjYJMwg2VmTT6QuPue+FsTqRbKlIAYXU2PEQcySbZqD4RH9cVzGRiTo6y47R4Q/Fp7GGmN0W2kbpunOJo6cgZdUo9Bb8Ix2ilyS1y2fDl6xv8Aufs5TQ0xU2/Rg+OZgHUQ9lM1B7jinrmGQzh/L2iDqLRE7R2vTSSVxY3XVJI6xh9u3Zl6auVENtlbx003DivJLZL1hXA3IJOls0pz9UNi7oR1q9N7h9Lq6J+qppc8Cx7Q0PEePMRn3RJdRV0rA3lziw8yVNu66A+cX80yIC7HCqgkm/AZkxh2yd+lpKidPloZpcTBYmwu7YlxHXI+cM44aoyBydM1PebeORRLabNVGYZDMvb6qLmYrBnVNR+qltJQ/PmfrGB4gfM+PfGdVm9M95xqGkIzsQWZmxMRf2dOyvCygQy27vfX1N1mTCiNqksFQRyJ1bwvaJ5bXBLRLb5bQlKOolEOEN3YZqWF+yD86xzJ525GNE3A3dmS6WWpBue0xP0mzPjbJfKMd3R2U0+rkSrAhpqXBOVgbt/CDHoPak2czLTJN6kFWLTFwlgBbCqBr9o31sdDxIID1WRYoL+7mscdTJimlS5Qtm7cbC/+UOhVzCOwlvGM93PlbRktPmzKtp0iVNdOrmoxdgubOr6oRmLZgkHTIi/7H21JqA/VuCZbtLdfnKykggjllkeMLYupjOWnv/e9ILLG0rI7ea6UlRNmvpKcAcAWGFfeRGFy6UWsrjwtYW4RrPS/XYaVJQNutmDzCdr72CMcqpmBSxt3Afyjs9MkotimV26OqypaT86+XOISZtB5hJA9IQM1mbO57u6JRGULZcuPf4wRtszVGh9BGzu1UT2OdllADW57T3PgEy742Z50Z10YUXyehl/Sms00+DGy/wAIWLt1wuBx1hDI7kHjwLzanCCTnhUsfwHr8IaU81yFJ9o5/wBIYrtJJssNLYOJjkXBuLISCPUGJWTZmF+At8IH3LM56YdiiYsuoUe0QjH6wB6snv1Q/wB2JHaMj5Xs1HA7YkpOXxCjGB4jF5gRbtsbJSfKmSXJwOLHmpvdXXkVIBiv7jOwkNImD9JImvKZfMsD4G5t4RuT1Y6fYpbMyvGO6CjWv/Q1B9A+pgQpokG1nnMzwXJGVx8NPxjlKhsauTkrK37pvEeWhdQX7Kqxbkufujpa13FtJ6A2fWy2tmBplER0pqv+jyRbKbKPqSPxhXd+jlvTSBMGCYJSYjfPGMmvbvWE9+NlE0NQS4sqYgDrdSCL+kKwftIvsYsw7oHyRjwh1JK24kw4QkDKHlFMHqoYpSTAco3HdHaEuZsqTKq0Jksokk3IucZRRdSCLtbTnGPfKAt7mNy6P6Lr9mSEKDAVLktoO2WBH1gbEEaEAwLOko7G4NtlU2vsylloopquTPkyjdJcyakuYhIxjAxHUzhhGK01DlftQlQyutLzjNkyOtGFsTJNmzFuVstJItJGhF3Ew5d0aFUbubOIKLSSmIGHEV+rh1H1crRwu51ERjenQ6ggYs8WPFli/wCa58TfgLc59PjbuhjzJVRWNpy5VNsyoWRNd5YlNZjM6wFiMN1+aozHZUAd0YyoJIvew0H4xv28m6/+p1EmkUGZNZW7TGxIKDMnIdiWAPARm8zc2uljtUzX5hpbA+FmufSOhg01uxedlUlyyM7H0iS6gkXsSPCJGZsGqUXamqAOfVOR6hSIaCpaSbMCo5MCpHje0ORaBNMsvRXszHXhrdlJUx9NDko+/Fq6Vdznq5SzZKhpsq5C8WU2DKDzyUjwI4wXQ+6lqiaCCMEsGx0JLE+HsiNBqdoyUQzGYBRqcz62745vW1d3VdxnDdHnc1/yWaJk2rmT58sAJK/TIqkDsdcZ2Fiq5Hq1XO2Zte/fR1vC9NXo7NdZziXNufaxnsk8yGI9TGtyamkqpk1KmTIllGwoWmy5lwfqNnLOYupHEc4zLbG402VUsqCZhZsdNNRC8oG9wk1kF0sbAPpaxI1I5ePPiaabVtc/L4UuOe/8DMoSstXTHPUTJALDso76/SIAy/uGMor6m+eIX0A5Rc+lCqx1CTZowkSJYVCRfFY4tLjJiw8oo9HQvM7RGUd/p56sUWu6sQmqk7OKNbXvmTziTo9n4zhB7TEBR3nID1MM6mmIII05xNbhbPNVtGUjzOrSV+lJ5lSMKjxa3leCuSgtyluza5FL1QWWBkgVB4LlEXvvtw01HPmqe3hwr9p+yvoTfyiw7WAlLrcnidf84yHpW2jaXIkXzaYZjeCDIHza/lHPW8qDMedDjsFnSyxbCyNhJ0xA3PnhA8o1yTMAJzyyjzdufvE1LUh79l3wTPsE2v5Gx8jzjbqusJZc9eEazbOyolnerCkenrpFY23VilrZM9rLLqrSpvIOLCW/vXyDQ9FSbgNmcvdn+EV7pdN6FXPsrMTF9lwUNvNwfKKhzRGy+dW3fAjz/wD+4G1P+OsCNeT8S7+KKBaLnu1s7qpZZhZ356heA7jxPlEPsHZZD45gth9ka58zyt8fCLaaSY6gCyg5XPfyGsL5Ml7I0kWvdjDNQZ3wm2X0sv5E+cPd6qYtQ1V9Opf4ZQzotn/JkVZFySCz31J0v3aQptipebST5WE4mlMBrmbXA9RaJjaTVmZIyOlpwBnreEpr2Jz8BCUuql3u4JHdx8YkKORTsTMONUGfat2uQFo6id8AH8RCnocsbmy53/pHoCirQJEilkZS0lIt+dlFyY88bc2iZmSjCgBAWPRe7lDaVLNszLS5/uiFupfCQSFkvs+ntYa398K1k0KQvHlyhGsrxL7Knt/D+sJUFOe0xOI8YUCkRvjto00hert1s1sKE5hQBdnsdbCwAPEiMsqKZZjF5o61zq8ztsfNtB3CwEanvDsaTU1dOk7F+onGXhcr2laXiyGvZbkdDEdVdHsj5lRPXuJlsPel/fAcuPJL3Xsdzwvruj6aP3sG5PvSe3wtlCkSwgtLLS8/92zJ9wi0S1BvFUyCv6Rp0v50uaxe4+q7XZW5ZkX1HGJad0fzRmtShHJpRU/vK5+EQe19iz6axmqMJNg6HEt+RJAKnxA7rwCs0N7Ows/hXWPy6Sb+FP8Af/00/Yk2S0sT5SLgmqrXVQpYcAwtqLkW4G4iRr9lyqiUUAAltYsBe9wbgZEZXEVHozb/AFHP2RPnBfDHn5Yi0W3rRLzHHhDbSnGnwzyGSPlZHFdm1+xD1260srNGLKbi6wZC+IAE3wlgcIAyYceOcRlTuuxxOZpBZkJsijsoxODNrgEG2VjftZ6RbZzYxiXK2vKIPa20TYn5oBOXdC32HF2v+/Oy/PkjCt761ajaNU40M1lF/qdkeHsxFptR0AUcPzaI75SSxc+0xLHxOZ/GDqpwY5C3OO1GemNITcbZKzawOlwbcxFo3BpwZc2cPaxKgPLCCf8AGPSM60BjR9yyJVE3WHCWmlwONsKqB4nCTAc+W40zUYUyx0u02V2DEsL8Txt3xmG9+2PlFSzg9lOwnlqfMkxaa2ofq5jL7bA4fE5D4xnYlm5GhBtY8LQDDYSQpLN/DUxvW5Nb19PKnPwli/2hkfeLxgxey4F1vcnn/SNc6PqrDs5Zd+0JszF3DIgfxEwbIvZ+RhF4pB1ky/G8Nek+kD7PnoPmyy/7hDfh74mdiU5C4rWiL3olNUSqmWnzqeYg8SDkPOwgUdmW+Dz91DfSHqIEd/Jz9E+6BHR0IHuaJLpJa2Ki+QOf8okNn1CpMVmGIC9/PiIQwQAscO9xyuxYd3d4DNrsHVGXKMooha3acEscr8VBOnzYvFTIpjLacwVVRSzt9VRc+6MK3i201NMkMntpME23MKbEeYLDzi+bVqUq6OZ1UwjrZDEZ6jCSAw9Iaitk33AS2Zl9d8kSY7y0vdnYYswoYkgKOJF7X4RXK7aDO1uAyAH5174tDdHlc4BHVMLZEOePiogJ0YV5FwspvCZ/NbQ5LMnsgSj3ZXaLZbOyq9lDsqjMfOIHDxj0lP2qktQksjsgKLd0YXI6OdppNS9ObB0JYTJZA7Qz9q5tG70my5MkXKPNbnkB6EwvmknVBIoR2bspppxsDnncnIRKVNZIlr1aNc34c+/nDapmT5wwBTLX0y5d8IJRrJIuC78LC4UczAEbozjpL2lOTaMuZLYo0uTLMs/RvjubHLO7A8xkYktn9KaBR8opmL8TJZSp7wswgr4XNucTHSPuw1WizJP66WpGHTGuuG5yDA3tfLMiMbqFMtik1TLYaq4Kn0a0dDFHHkgk+UKTc4SbRsErpGoXtiabLv8ASlMffLxD3x1UbfoalHkGqkkTFK2LhWz0ID2NwbEd4jH1IIgU9BMqJokyUxudBwA+kx+ao4n4m0Xk6WCV2VDPJuqNs3NsNn0o0sgDW4sL42vxuwY+cTHW4j3RHbN2csilk04JIRFQHmQNfM3y746kOV7BjnMbFTVFWyFx8Yre+dSUpp8wadS9vEgge8xPTRwHCK5v+4GzZ442QDzdcouG8kinwYbMl3FxDdVzhzitYHLKEWNr2h2SRhC2ykBnywcwXEXR8soru6FEXndYVJWWL34Yj7I95PpFhnQlm3YWJxWTiFAGv5t74pAU5553N/GJ3b1Rhmy2xZFCPDvt+dIjNoJZhMX2XF/PjGsOzKkK7PkhLsw0/No0XoeBcz8luHVwHF8iLe7D74zBp7NkTpFy6N9rTJNXLBsEmfoiT9b2T+8FHmYcklKNIEtmb5U1mGWbgDLhBbLkIyKSpDKCbjPFfnEbLfrCFOkTVCwzK6XhQIQ3/oWj/wCGvoIOLJhl8j6mBG9b9TOlGQlYGGFyscYY51jZSt95V3XLPq7A8u0YvvRtsFn2e+MiweYq5aLgFx39pm9Yom0Q1TWJJli7NMSWt9Lk9m/dfM+cbDLploUWkUnq0RbNpibV2bvZiT5x05VDHFPkV5bZVa3bxlbPpnXN5kuXa+g7AJJtEpuRtWe7vJnyyrBBMBwFcrgWIPO9we4xW6+kL0CYQf8AV50xTxsiu6A+5D3CLhulvItTdXULOVQSRo6g+0OIsWOX1stTZCT+9qzu4sEH4e8kcak7dvvHdV+lcio3rIrvknVqUxhMdzixYbnLT2svKHm8+3/kqoxl9ZiYrbFh0Fyb2PcPOM2pZ56+TU3/AFlUzekxCc/78WTpQnWeQt9EmN6lR/hMC86WiTOm/CsH2rBjr2XF6ud3FO/5LdtbeVJNItSFLKyoQotft2tmeV4r7b4y1WVMmS5h61S4C4cgGK53I4gxUV2mXoJkgnOW6Fe9GYZeRv5EQdZLDGhl8DJlD9+Y9/jFSzy7eheDwbApOOVPaUu/5VG0X7Z+89PUthlsVfgjixPO2obyPCENs7fkSHVJpNyuK2EsLXIzt4GKXvdskUk9Gklgp7SXNyrIRx4jMGOd7p3X1Ekj58iT5YyT/ijTzzSafKAx8H6bLkhPG35ck38U1/f4LeajZVVhVlp2diAA8oAknQC6DOHuzKanlXSQJK5kFZeAZjUMF43yziu0G5olz5bCc1kmK1mQZ4WBtcEWvblEDJ2M1XU1CoyqQ0x7tex7ZFsgecaebIqTQCHhnQ5tUsWVqMVbbXG/yRrEylUjtXFu/wDpDKZs65viN/AfzEUPdna06RUGmmsSvbBBJIVkBN1J4EA5d8HM3rrZ7M1OpEteCoGNuBcm+Z5D+sX58augMvBMvmOKkqpPU9lT4L+ZRtqL+H8rxTt99iVNTIMmVgu0xScRZQFXO3snjhiZ3c2206nM6aMGEtdtFIUXLi+gGYPgYrFfv1MLkypS9WD88G5voSQbJflnG1mjGpC0PCuoyTljit47Pfb9ymTejWu4rK8es/8AzHCdHVUPamSl8MbH7oi/be3pK08qdJAvMJya5thBxDIjMGwvHFftQieFBGBJLzn8Pm58OffB/tN7IVl0OSEdUlXvf7eSubBoglPLUaAvc29psTdr0tDDa74FZj80E+kWChkIktBjucAy5G1z74ru9i/6s5GlwPLEIw1cgHYoEyYzEljcnWJLZwxymln5puPP+vxiMvCtNNZWBXXS3Pug7XoYORcHwhzKqHBBDG4IIz4g3HwhXaVE0uYQ4wk2a2oseR8bwlKEGhwYZv8AsSv66VKmr/vFUqBrcjtekXOnUIgvlGSdFO2by2l/Ok5L9hyT8cQ9I0N6mYwu7C3AaQtL2W0bRI/6TXn7oEMep/5i/vCBFEKa2phNvw/CBAhFDL4K7uf/ALYkfbT7jRqu9vsv5fCDgR1eq94UxcFU3Z/UVX7Wo+6Ihdx/7Sv7KZ92BAjmZvfieo8I/BdR8v8ApjOX/ZKb9vN/+qLL0jf2qR+zH32goEL/AJH+h2Y/icf+r9SjyePgPiIsj/r6D9lS/wDkMCBGInQz8r5S+hK9Jesn/u/4IrW3Pak/9LT/AHYOBBM3vS/Q5/hP4bF8p/UtG5Wjf3fi0N9xf7VUfYf/AMgg4EFXMDndur+USFqv9oTvt1P3JkTXRx+pmftR90QIEYxe/wDuMeKfhH/hx/Vkztj/AGe/7FvjFOoP9m1P7QfCXAgRt+8vkJ9J+Hl/mx+qIvaH9kp/tVH3kh9U6VP/AEKfcaBAiYff/b6G/E//AIP5z/5o4GrQw3n/ALHM8B94QIENQ5R5VmbCHeyv1sv7a/GCgQyzBY9+v1kn9mfvRX5cCBG8XumZcly6JP7TN/Y/41jVtpaL4/hAgQDNyaiR8CBAgZo//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSEhIVFRUWGBcYFxUVFxcdFxcYGBcYFxcYFRcYHSggGBolHRoXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0fHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABIEAABAwIDAwgHBgQEAwkAAAABAAIDBBEFEiExQVEGBxMiYXGBkTJCobHB0fAUIzNScoJikrLxNFNz4RVDgxYkNUWTorPC0//EABoBAAMBAQEBAAAAAAAAAAAAAAECAwAEBQb/xAAlEQACAgICAgIBBQAAAAAAAAAAAQIRAyESMQRBE1FhFCIycYH/2gAMAwEAAhEDEQA/ABBMo89yhGS6LbJ9VM6qH1E1PqJqrVFMn9HOumBzTH0TAu5G6IWGVdTziycmgaocErqZQFJW1KQVtWVOcqLQjYRNUIKWpKDdUrjpFLmdUYGTyFATlGSnRRw0jpPRaSOwIJlZOMVsX5CV2yK20juTN2Ey8LeIUbsNkG4ee5bRzubYOzvXEhOqJMUg0yeIXAbbaDbS+i1IXk0J6pDwt1T6roA7v47+zRJpYHRus7ZuO5AtjabGVOmMQSuF6OilWZaiaRgS2WHVHSSqAm6VoCRG2FdtjUgK2CtQTQC1I5bc5BzyINE2akcoi266aLqdkaZE5MF6JYjejWJqJcjOkQ8k9ljnIWoKPEZSQ6oK3tVjoqteeU85aU+oq9XgQyF7irNNq1LWKtw1t96ldVFUZFBlXUJLVTKWadK6mVSkrOiGjl0ixs6DdKozIo8DqUywYRRGd2voA9bt7B3qz1MzY2gAAaaAbAFzhNOIaZg9ZwB8xdxSHE6oucbJSUm5SDJa66GkqkpL332LpziQhyG4jJtU3ei4CHW2Hs4+aqc85C7pMROwk28rJk0K4F2q8LYSbEt2aC2ncq7iGH7WEaX26beITWgxoZLucDbRx3kbrniPktVc7HnTUcDtH1ZbiT2ik5jG4sduRLalR8pWZXh3EEeVvmk7ago8TrWTQ7NQshluUtjcSioSlMpDHMt9Ihg9cPkRGcgsyIct1W4wp2MQohOaMiYiGRrqONENYikQbIMnYsRORaTAFDo1BPEjrqGRqMpDxiKxEiYhZTNhUvRIwns04EkEyKbUpdaylYFZsnGATLUIGdyIyKKWMqLkXURbJJZabLqO8LmqYgpHkWPBUjTQjtM9QdiTW0bXO9I3aANvV4nhsVPqOVDAbFll1i0ws1r3WY1osL21cL9yr9TWwu0aA63C/wAQNFyX+CqRZafGY3212qaSqYG3zaKnUbC91mbeB0966xBkrNHb0NWPQ9kxGEbXBYHQv9CQDvVUpo2E2cdUW6BrPR/v802hdjipBicdLg6Gynpq61spKFoZs7Cx20DQ79FHNEWkhFMDCOUUtwz93/1SSLajMRluGDgD7SPkg4dqrHon0MoAimhDU5RjApMsqOmhdthU0MSIbGsLORFFEjIoV1DEjY4kxz9kLIl3lRBaoZChY3E4WLmyxa2biJmPUoahoSjogtIvFHDWKQxqeOJbkYlixpIWyhbjK6mCha5XvRHjsLBXEgXDXrsuUWXSFlW1RUVZCwhklO2UyOy3c4jLcANy22G99duiLqmqDDYesXgXLMpHAEnLfyJPgtdIDjsuOMYZE292gkABoIuAA2w0+apUWGhr3ZGgE3uQTs3qyYhUmR9r23KRlMBYNFyeJt4knYFJmS0LsGwfrtIFg0+3s7EJypgvJbcrOzEIom2L2l2/LsHclGJSxykWe0HXbpdAdIqlRgrbA6i/C2nYOxbiwwGzRcW2kb/1bk5jadWuGztuDwIPBCzS5D1bEe1NbF4KzdNSGORt9Qd6Kxxga5g3lvh6W9QwVV7X3LnFbvjMgOrBsO8A6/XYmXQjWwZ9PC4m9QGnddhy+Lr6eAKADLGx3aeSEMBcL3J4g7kfludF04XeiOdKKTJ4SmlLHxQlHTpxBGtOIkcjJI2oiNq4a1ERNU6obsJhjRLWLiJSOKlKZ1Y/HbInhQPCIUcoQU0x5+O4kKxaW0bJcGV6AaptTMQVNEm9LGrSQEERQLiaJEgrHNulpFIxbEVTGhJY03qo0tnCPYXAEYdVPdRtiUzWpWhbogmC6w2uZCyYuGYuyBrbX2Zjf3LqViBnYslYGxhQvLiJDwBPkmMtH00TxctzCzT8fNKqL0Bu3HzQdTjjul6PNYDqtA7FJx9AToXTYPNFcZw6+659hQf/AAuV56x8AVYXSh23XibpfPVAOuDbxv8AJFWZpDOlp+jhAcde+/hdJql2q7ixgOOQnxUUuhIWS2NyJKR6bcnaaKqnfTySOjGW4c220EX27vklEDbKZxc1zSw2Iba4HHb7k6jy0Sc+OxhjuCmkJjcN/Uf6sgOwt1N7C9+B0QdHTol080rWskeXNabhp2A2tfyRtNBZXguCo58subs6p4UZHGtxRohrEJSNGJwAumLT9FCZVGUjpxQuQe2RSByBjciWPXBkyUfR+PgTRI5yhketuKHkcpQzbOjJ4y4nWdYh8yxdHyr7OL9L+CKlTWHYgOgIKPpyu6T2eNGJMApsui5Dlj5Up144aBKoJTOExqprpc8qsFYMkaRyGrpoW2tUrY00kee5bIXsQk0SZ5EtxStbGLCxd7Apx2FuuwZzi1h4A+9BU0wvmIF/kswaqMvTl5uAGADhck/BDOGpA8Ek1sEZWSV5jebkFpO9htfd1m6jxQbmxDRoc88Xuv7BYBczxOOwKN0bhuS2N/ho0rWm+w8FM6e5Q72EAE7StMfrdFCt0M4H3PcmzINUpw/VwHd701ocTY9xbsIJHYbEhUh7YNew2KJFxNXLWroFBzKfGgpi7L0L0qhkqEjkMsZNPKh2uUL5FwJUsno6MMEmMGSKZr0rbKp2Srz8yPf8Z0g9z0LK5culUMki5Dub0bzLFDmWJtk9FwlogoPs9k8mYhHxr3pI+MhKhVIxDyFNZoUrqRZKdsMmhdUPQ7BcqSo1Klp2DforY2Sz5NG42IoNRlNhU7rdHTzP7Wxut/MbN9qe0fIuoIL6h8VLG0FzsxD3hoF3aAhrdL63NuCabR5ykUfFavo26ekdnZ2qmYjNtTjHapr5XlhcWXIYX2zZfVLrAAE7bAaXVerDcFBKkaUrYfyWuGSn82X2Zvmu52G5cATbUqDA5LAjiEY99iudu2XiqVAz6u3bdDy1w3BbxMA6jT4pSXHigkgNtE8tRfbtKjzkqMBTxpgJfY0wuSx13WSunkIeTfefepulsDZCRHW6fH2JkL1hOIBzbOOo2HiEW+RVCjmT3AiZpo4A4AyuDAXEhuY+jcgG1zYbN6M8d7RTFn46l0GOlUZkTnFOSVZBcyU78o9ZozN77tvYd6QuCgdSnF9G3vUJkWOURCzQ8ZpMIbIpmSINoUzAuecbPVwZAsPWiuGKRoXI4Kzu56I7LamyLE3Al8h6VK1DuYppXpzgOAGa0kl2x7hvf3cB2793FewfH3QgjonyHLGxzz/CNnedg8UTFyBqJD945kTd/rO8hp/7l6RTU7GNDWNDWjcPrU9qlS0b5pein4dzdUcesgfM7i9xA8Gst7bqxU2EwxfhRRx9rWNB87I1cufZFIm5N9kLrjQ6hVjlxgM9VTtgp5Gxh7x0rn30iDXEgAau6wb1dL8VbQ8FDVcZDSWooB4XjfNs6MdSqDjwdHlB8Q828ivOa+kkY4xlpzDaBrfu3kL6Jxi50sqLyj5NGY9JH6Y4Jm2ujWeU0E2UkI10l1Yq/BDUtOgjqWdgDZQPzG2juB2fCol5GjvSFwRvBBIPuUWvZ0Y53ojrJdyCJU8ouocqCGdmgpWvUYC7DdUasF0dyOsFxEFuGIuNtp3Kx0XJwZbyOcN9m2HvBVVUSMpWJ4rplhUxbLG5o6zZGFveHAj2phDgcdwLOP7vkrlyS5Nwh7XdEC4EEF+Z1juIDiRftsni7FbPVYJX7QSPNDYnyap6u/TwjN/mxjLJ4kaO/cCE2oqfQI5kVkrS9gTaPG+UnNtUQXfB/wB4i/hH3je9nrd7fIKlmH67e1fTzb70lx3knSVdzLGA/wDzGdV/iR6X7gVFx+i8MzXZ89iNSCNegY5zaTRAvp3dM0era0gHYNj/AAseAVOdBbbuXNlTPX8TNF9MBDVMxqyRq3G5cj7PYTTid5Fi3mWI2S0epclMJ6d3SSD7pptb87uHcN/lxV6c/cEswuEMY2JvoxgNv+Z/rO87lTTzdY9i9ZHx8nbC5Zso2fJCyV7hqAFHR1BcHB2tjv4FcudbdcJqFJIsXb6wsjo6hrthCTzQNfuIKAmgkj1b/f6+C1Gssz4QdiHlLhtSODHXt0Ovem0GLMfosawGshDtoCXOpOCsUkQOzVCTU+5EFFTxLCWvNw3LJ/V2XXlvOHyXcwGsjBFiOlb36B49gPgeK90mj0sRcJRiNC2Rr43tzMe1zTfg4EWPzQZk6PnJsBdYOaWOIDgCCMzTsc2+0doXX2BWnnA5TtqAyARujngkdnLrEBwBa5sZvcsJF9baAaKtz4iOiDgOsdLcCNqm4s6o5FWwCeMDZ5KfD8LkldZrSeJ4d53JvyC5OGtme534cQBd2ucbNA8nHwXrNBydawWawNA4Kij6RCWQpeA8mWRAFwu7irE3As3+ytlNhLRrojA6NnampInbZW8P5JgkEjz/ANlbsNw+KEbkE6vJ0aFLDRSv1cS0I2YdOxZoFmgFcsrJX7NENFTRx6uNz3Lp+I7mCyFDDKL+I6rvpgNiWQhztSVFU19ndGzbvO2wQDY8ZVDeqRzi8mw5jqyEWc0XlA9Zv5+8b+zXcncU+p7kdT1maO5FwNHDcWkfK6ScE0PjyOEuSPAagoTpk75cYaKWpfG38M2fGf4HXsPAhzf2qpmfVcTxn0OHyU42M+nWJd0wWLcCnzI+lMPfYN7XXQsk+pO/VaiksW94QBm6xHs3eK7j5Zh+HyHMddo8iEyh1NtSq9SS/eeB/pKNnxRsbCdL96KBY7f0bdpA71ptTE7QEFefvrZZXaE+CcUeHygAk+1ajch9U4cx275pXNhRb6J9qNgLhofip861GFDJpIyi4cVFut8VPIB9BBvjaSRv2202a2NuGh8kwAv7Sx3BcGNp2FAuprcQtuNtLnvQCeHc8GFCHEJHgdWVkco09Y3Y637mE+Ko4BIs42F7+ei+kuUGC01ZlFRCJCwENOZwIBOti1wSKXmvw5wP3czO1srj/XmWGUka5psObDh7Xu0Mz3yH9IORnhZpP7lap69g0aLnuQ9JhETWMibMWMja1jWkWNmiwub6nt7UzpcMjbq14PbdMI9sWiKWTUnq+SOgw1o26o/obb1Q+dHlY6jibBA608wPXG2KMaFw4OJ0B3WcdyAUh5jfK6hoiWSSAyj/AJUbc7x+oDRv7iFVpueCAnSmntxJjHsufeqbyc5JRTw9PNO8Z8xDY2hzgWmTOZXO22DAf3A33obEOQ9azM6OPp2Me5hdEetdpsbxnreV/BNdehqR6Rg/OHQTPtI6SF50HTgZP52EgfusrzTlujrgg6gixB7Qd6+XKiGSPSSN7OyRhHvCtvN5yzfSytgkdene4AAk/dOOgc3g0m1x49+pMzj9HvVZWZWm3gkNC86uJ1dqTuXWL1h6jGbXXJudgG0e0IYPyMO73FKIH083WOqNw+oBabHv8/8AdIqSa2p4orCZfSGzb471mFFZ50KHpKYyDV9MSe+F5Ad/Kcru4uXjrajVfQOMZSW5m5mSNLHtOxzSMrge8EhfP2M4caaplgJv0brA/madWO8Wlp8VNx2dOLM0qCOlWITpFiSi/wArPp5ztQe1K6s5XHd9b0fO0jeh65gNwdL6+5VR57AaWp+842DvdZBVjC5ykoISJHX2ZTbzATVlHvv5LIUKwPDQwAnaeKcVFTHG3NI9jG7Mz3AC/eTb+yX0bjs18VW+cmklnipGRRdIftkLiLOyNaGyXe8tBysF9TbS6IyRYZuUtG0XNTFqGkZXZrh7sjCMt9C4EDtBSas5xcOjJBqfRzXyxTEDKcp1DLEA6X2Kiz8iauN8cDIxIwNpA6YPY1g6KZ8knVc4O9bhuUUvICsdDkyxNcYJGdaQaPfWdNtAP/LA18EbQdDnD6lkFW6CgxCaSV7pAaeqY91O+RjTI5rJQG9E7tF9ovcaK64DOXwsmc20kgDpBaxbJscw7+oQWWOzLxuqTg/I6pir21T3xdG2oqZcgJzZZYxGw7Np3jdbab6X4DgBvNu83P8AdbsDZK6U70NLqpp3jYLblBpbcsgHIb3KdjVEw9yIYO5YxE+EHcoHUTN9x3I/KsLETAUdGwHSRw7CV4xzu3/4kQTcdDEG3106xNv3Zl7l0Y2leXc9GD5mx1cYP3Y6OWw2MJJY49gcXD944JWxo9lJ5O8pJqQhhAMT3MzNfc5Q193OZYjWxcDrr4L2mpxKmpQ0STxR5ySM5a0OtYHLuAAyjsFl47h4iqacRZWte0us0Xc8E2u8NccxF/VaSNt9wQVdhFT0TYg5j443OLNcrgXauuJLd9lGPlRtxnpotLC3tHqvOA0VGGzdE9jgGtlBzAi0bg9xa69r5Q7Ucbb14K6TtVow1lSKeWld1I5Nd5dmux2mW9xZh035iq9R0LpZmwNvdzsuo1A3kjdYXJ7lVZIyf7WT4uK2e5YTiOYU7nHV8MZPaXAXv23TGumGjRx1G5Vmos18bW7GsAHcLge4JnE/Na6ayQwmflaCPolH4Q7Rx7/6UirZ+s1vDX4D4p/hbPuz+lx+AQCiPFXXYwjiQvLedugtJT1AH4jHRuP8URBHjleB+1em1RJjbb83wSDllh4qaCaMXMkVp4wNTdgIeLdrC7xAQYyezxjP2+5Yo9OIWI0iuz6himA6pPV9XsPA9i3Ubu7yQtSy1rePzU8zeq25zH6tp3e9AgAgWLj2fELiCvcDY6jsUxjc4OyAuOl7bhqUVg+GZnXeNOBWMM6GElt7abVk8oRNbLYZGmw7PclT3XdkA17VkFnZlC3cdihkDWnLm193cumg8UwpLlC04rnN3rC/vWCcSFQOk1Usx03oUlEAZH3/AF80SxBQORoQCSAriV4C6BQ8gusYx0uiAqImvDmyDM1wLXNcLgtOhB46LqUkFRzSbdqxjx7lfyAlp3l9NeWHaANZGb9RtcBxGvHZc1ZuNVLCWCVzgDazrP8A6rkL6GY4Pba4zDUcUrxnDYpWZ3xRmQbc7WkPtuNx6SSUFLtX/YyyNHiIrKqoAiY0OLt0bQDt1uR6I2a6BXvkjyXFMC55BmcNSNjG/lbxudp+jY6QxZbsYG6WLQAAD2ALJHZRfUb1owUVpUCU3LsTyPvOexoHxTekaQQTwVfoH5pHO4n+ysFZKGxEg6kWHiihSClPSSE8TYe4K4UfrgflsPMBVrk/BbrHcPbsHzVgoX2zPOyxsNl9Dp7lgivEqstaI26OO072js4FQYZLkcCONzff38VBK8ve5zjcuO362LumgLnW2LMxr/sFhn+UfMLSd/ZP4z7FiXihrGUgu1Dxyk6Hds+vrYpm3WBulhv38EwpPhlwHEbyB5D/AHTqAZW5jtSvDWXaL/mN/YFPi1WGjKCFggWI4oQLNcR3aHzHj5pdBUZI3ybNLA9qXVUpc5d4g6zGsFvr6KIpyK4QQS1koMgjBLWA2JI26ndZVt/O6y+lK8/9Rot7CmuPwk0EzddY5bDujK8QO0kJkNFJo9Yj50i7VtFI7tDyQP5YytDnIqDsw2U+MnwhRXMvWTGmlDpD0cb2siZYAN0Mkh0FySXt23Q3OjyvqqeeOKnqHx/dlz7WN8ziG+kDsynzQ5Nug0iOTnAqz/5ZKP8A1f8A8kPJzh1AcGGheHuFw1zpA47dWtMdzsOzgUp5OcvMR+005lnkfE+VrHBzW5XZiGkBwaNRe+h3I/lRi08mOhtPIWSB0VM17bEgPt0lrg21e/XgEbYaQwh5b4gfw8MlP/Tnd7mBMRjuOEm2G9XWxMMgvbZtkB1+KvHKTEjBSzyXPUieRqdoacvtsvA4OWFdE8SiqlcW62e9xa620OadCDsQTbMqLbivL/FaYgVFIyK+zpIZQHdjXZ7HwK4pudycenTRO/S9zfeHL17FaCOpgdDM0OjkbYtO6+wg7nA6g7iF5HzY8j4ZBLUVLBN0chijY70CWWzvc31toAB02nhbKf2bQdFzr0j9JYJWHi0scPeD7EwpeW+HyC32jozuzte0eJIt7Uk5acrhTVD6X7BTujaG2D42AODmg3aMhFtSL8QUJgNJhmI5m/ZnU0oFyIXkabMzQbsIuR6o2ha/dApFwjxFlw+KVkjeLXNcPYVLi8gewObpcg6btq8ZqcPj+3fZ4XOezpWxh7gMx6wa/ZwObXsuvX6oXYQNNRs8URWqF8Fs2UeKjxaazCOOmi7a3L8bpfirtyRvQAbB2+9H1rruawd9vYPih8LGiLw5maR8htZpIbfZ1dCT2D4pUEsFCwMaG2LnWvlG3x4DYpK57rdYi+4DYPn3pPDiDy8Mida51dvdxJRtVNcD2p4uwETWb+KmpXWN9i4DdLrkFZgG/TjisSrpHLELCWOE5gp5BYXQeGv0A8FLjU1hlCwQzD5QIg79Vv5ilWJyHQ8VJh8l44x+r+tyHrXZpCNw00WMwEN1usnFyEUYvorKeEucBr4BYB1jFPeEMI2xuB/cD8187NGnl7l9J4trJlFtNPLRfOU7ct+z4JkPE9t5qaTJhsZtYyvkkP8ANkafJgSDlbLg0lVI6rkqulbZjhH6AyjYOoePHer5gFJ0FJBGdOjhjB7w0Zj53XzriVZ0sskpI+8e9+p2Z3F1vakjsy7Lvzq9FCKSipxliijdIGkkm8rtHOJ2uOVxPehuZ7D+lxFr7aQsfJ2Xt0bfa+/7VkNBJLR1WJV4MhMTIaYvFiXOcGiRoFhZt9DsN3cFaeY6kDYaioPrvbE09jG5ne148kzeg+h1zrV2ShLNhlexngLvP9K8n5M4WaqrgpwLiSQB3YwdaQ/yhyvXO46SWWnp4mSSENdI5sbHON3HK30Qfyu8075t+TTcOjfWVxbFI5uUB5A6KPacx/O4203AAbSQsnSMtIu/KDEm08Es7zZsbXPPgNAO82C8a5rOVLY89NM4DpH52O3F7gA5vjYEeI4J9V8pRi2IQ0kIP2SJ/TSkj8URdYXafUzZRY7S6+4Kg84+Huhr5rxiOOR2aPK0NjczKPRsLd4G+6y+mavR6zyo5OQV8YbJdr236OZoGZhO4j1mX2tPhY6ryt8c+DzyNewOdJG9kUoJDLG33jNNSCBdpsRpxBLnm05TTOmbSSF0jXB2Rx1c3K0uIJ3tsDt2G25NOeGVv2WIG2bprt4gBjs3h6PsQ6YFrRSOb6kz1sfBge/ybYe1wXq9SNvDRUPmppTmmltsDWA993O9zFe693V8R8U4suwKUhK8RbcFFuzHXYN6jqo7xOO/T3hIwEGH6N8FzWVeRoib6R1d2dh8z4rRkyROcdgBQmHQZ+udpNz8kn4Ch3gEVg553C3mmUI1F9yhomWj7yi6RoI4HtVIoDJnxi31dB2+gjXNtvQ7m/QRYCPVYusn1crEptjWi2+IUmKek5YsWG9HOGbWeP8AUVy78R3eFixYzM3+fuRWH+mPD3rFiwED4h+Of1BeAxfinvPxWLEfQ8T6QqPRPcfclGFbFixSAJ+e7/AH/Ui9zlaqX8Jv1uCxYm9GfQ4pPwvErxjng9OLvPuWLE8Aog5o/wDF1P8AoH/5Y1f+WP8A4fL9bltYhPoz7PNuaL/GSf6Envauud78an/RJ72Laxb2F/yC+az/AA8v+of6GK3Yl6A/UPisWJyb7F8mw964qfwH/W8LaxBmE2I/gP7viFvCPRH1wW1ikuw+ixweg3x963D6X1wKxYnQAl+wLUezxWLE4GbWLFiQJ//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxISEhUSExIVFRUVFhUVFRUVFRAVFRcVFxUWFhUXFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGy8lICUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIARQAtwMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAAAQMEBQYCBwj/xABFEAACAQIDBQYDBAcFBwUAAAABAgADEQQSIQUxQVFhBhMicYGRUqGxByMywRRCgpKi0fAzcrLC4RUWQ1Njs9IkNGJzk//EABkBAAMBAQEAAAAAAAAAAAAAAAECAwQABf/EACoRAAICAgIBAQgDAQEAAAAAAAABAhEDIRIxQRMEFCIyQlFhgXGR0fAF/9oADAMBAAIRAxEAPwDxXKOUUKOQhCXUkIdhRyEAF5D2nELx7iLQ6AvIewnVl+Ee0ZvC8NxBxJAC/CPYQAT4R7CR80XNO+EHFknKnwj2E7p0lJACi56CRM0uezOA76plJsoBLnkg1Yg8DuH7UDSA00Qse9NRkRVPxOVH8FxoOsrso5TUbbam7kBFVRoPIaCVX6OnAiRnSdF4RbRWZRyiqOQHsDJ7UFHARyiQDuEEUmFxaFw+Nphhmo0wON0VuN76AdBbz5zZbBXA1TY0KNjwypmtoCQeGt/LTfMVtEAgHj0jmxscUcD23DrvPXrBkx60BSLHtHsNcNVKZQUPiptYeJeF7aXG4+UqcifCPYTddpmFfA95+tRZWBsCcj6EFgdd669J52akphalHZOcXeiTkT4R7CGRPhHsJF7yKKkrUROLHyifCPaNsq/CPaNl4had8IVFisq8h7QnBMItxHo5hCEgMEIQhOFhCEJwQhCMAJs+y2WnhXqfrVGyDyGptMZLvB4hxhwARYO2h9CdZ3JR2wOPLQ3jSSx84y1uEdTFBjqDrYH+hEBUDXcb/XSY5y2a4aRGYRbic1KqblBj1JuafSPGVdnS30MVGPSMXsZOr0B+Jd3Ecv8ASQ6o1tKqbIyRs9nYtamAxAucwpsWBtwIK2Nr+nWYgzXdlqTtgsblzECmbqASNSLk23WEyLCdj7YjEhCEpYAhCJA2EIQiRLOFhCLCjhIRYQ0cEIQhoAQhFjUcJLmhgy2GUhrEs5tbeL238N0qBNVhKd8PSA+E39SSYk+gx2ykZUAUKrBwBmNwVJ/KSMQgsJZU8OtiSPI8z0kWtT6XmZxXlmiL+xSd2b+vX8pJq0sxugyjkMxA9TrJdJRexFjwktaUWUqYygitw1PxWY3Go+UktsvNu4ceXKLXFjoOIj4q2ueFvylYyRGaJOwM1OoGpllbNZStxfmvrppxmXxIGdrbszW8rm00+zKxX7w7qRFQjoBYXv1yj1mVM7BbbbHz8UopHMIQlzOESLCBhEiRYRThYQhGRwQhCEARYWhaMcEUQtOgsIBBNBsbFXpFOKX/AHTr9byiyGT9nsVqBeBBz9ARx6A2glieSLrwcpcWh+tWNgxcgLewHG5vr7yLXxKnW58gWFvaTkZM+RiE1N2bQDTiZY1dn0bXOIp2IuLEG/z1mCbUaNUbZQJVzak9JLpYq4txjW0aKrqr5+XhYcecj0xrA0pKxuTRIq1Je9m9liufH+AFA2tr5nChb+sz2XWafYVbukXqxrH/AOugrPr5tYfsmd0qJPso+0VULVq0aelNXKi5uSFawufMXlGZP/R3c3te+8niZLobBZt5tNkeMFRFtydlGYk0/wDuoTub5SBjez9WnrbMOm+HnFnUU8J0ykaHScwnCQhCIEcyxMsfCwCR0wDQSKEklacep0LzuRxCFKPU8KTNXsvsbiqliaXdof16x7tR1sfEfQGb3Zv2fbPQKa+KqVCbX7pclPXhnYEn5QXJ9IB5Fh9mliAASToANSTyAmx2D9mmMxAzd2tFBveuSn8Ni3ynqeD/AEPZtY06WGVbWzVbl6hDAEWZuGu7dKvbO1mruzZmKXORWtoOWkaOKcu9AbSPPe1nZbDYFARjBWqk/wBmlJgoA3k1C1jbThPP8Q1zPS9v7N/SARezD8J69ek83xdBkYqwswNiDNmBJQcUJ9Vk/Z1dHuKmuljzuNxlu+PW29fOyXmUpPlIMs17ttdZ5ntOJJmzDOtD2LxAbdr1MiX8V53WZRGUe5vwkYx0GciQg4mXOyqqOKhqv3asq0ENrqhY3GYb8vga5GviJ6ShzEx7HtloUx8VRm9EVQP+43tKQiuaTJu6svKmGNJyjizKbEaHyIPEEWIPWTMPVAk3YGDO0MJlQXxWFX8PGrh+FubodOqkDgJmcStS/EWj5I8XQsNo2ODcGP1aQYTBUcVVQ3zGaLY22C3hbfItNFCt7QbEBBZRqJj2W2k9WrDMN0wXaHB5KhIGhlMU/AkolIYTphCVASgJ2qxVWX3Z3s82Ja5YU6Q/FVYaDoo/Wbp7kQr8CWRdibJfEVBTQdWJ3Ko3sZ6bsbZVHBj7tb1LWaqwGfrk/wCWPLXmTDAYOjh0yUBofxObF3PUj6COZ5dQUFb2xLch56pO+JTrFTcG39cecavEJhcwqI9jcQznM3ILppYDQSExsDH1MaZd8VZNUc4kTLKPtFsZKwzWs4GjD6HnNGV0karT1iyk0tHHm9Xs89wFINxcX09JWYjDvSazAqf63HjPS8Rg8tz8Jv6GMbR2ctZCpG8et+Y6zK88rqZXj9jzyvRdDZt5AI4gg7iDxEVFJnoj9m1q4WnTJGemgCtbjyPQzFVMCUYqRYgkEdROk9WGNMapLH9srdaKgElU3DX8TM30yx2nQ0k3s+c2Jud5Fh5aD6C0SErdlJKlQ52A202ExVKsDoGs3VG0Ye30npnb7s0r4pDSyKcTdqdyFVntcpfcGNwQeN7cplO0nZpe6/SKa2ZdXA3MvE25jf1lhgdtPtDBpgSuavSKmk2t8iDxbuS39p6MsayRMqm4sze0tkvSY06iMjDerCx/1HWQ8FQIqLbnPb6eDo7Sw64erfvaSDLWNi9wLFjzBO8dec8u2xsWrgsRkqrYgggj8LLwZTxE86acNM0qSka3C7NGQX5TGdu9kZBnA0m5wOMVkBvwlB26rqaBXjwmeEtlpQ+E8jqpCO1hCb7M9Gx2T2QYqKuIPdpoQm+s4O4Bf1b8z7TQ7T26lCiciGyCyrkcU7DgrDT+rzrbdB3GYNooJym+psb6+UhYrCuigVL1aO+2tul7aj5iaE1BmbvsNg7RSvTDuMjktdksu49PxeRBtLZa5AuSHT/mJY/vAfUaeUxlHZqpXVqTd3TJIdWOchQhJLLy00PMia2nVbKEpjItvxEDMeoUaAnmfaJOddMotk5agIuN3OAkfDUBTXKt95OpvqTcyTTEz8x6FZrCNlricV3ubQB09YHkp0ChTEdd0BHmXUCOp7FaGa9K5tzEg16XhFuEtqi6iNmlvhlj5IPKmcYG1hpY2t5zN9tsAqlaw0LHIw5kC4PsD7CaanStMz20pV3NOwBRTfzJt+L0+sWG/hnr8nPW0ZjNpLHsjhy2KQeZ+Ua2rgO5qleG9fI/1aav7M9nAu9drAAFVvp1a3PgJHFTSaLzZsK9C9Mpa+aykdG0/OZ3YGyjgKisD98p8R4Ag2KjpvB5zVvXAVh8QynTqCLeoErNrVQ9UvzAJ/vWGb53m/k6/Bk8kz/aIpYjvqQspa5Xz/EvlNF2z2UmOweenq6DvKR4nTxJ6ge4EwtdiD0NjNZ2U21kolDrlqIAOOWobG3kdfWRy1JUPjdHl2HxboNDpKnbmOZxrNftPZWTEVafw1HA8sxt8rSg292fcrdNTy5zz40ns9BzTiYKqYTqvTINiLEcDCbUZj12tqpA4gj3EjgVWUBmyiwBCeXxHX2Aj5Nol40rIoraGyrPcnwjdzOt7EcgQD1063tFE5vHKaxQpUOBbxyoQoiqLSFi6tzaK1SDY0rXj2bhGUEcUzM2GiRRHGOoLm8bp66CPy8GBoh7ax3cUzUylrcBK1NsVWGYJTym2Rg7NnY5rKAF0N1I1tLfaOHFSmyHiCPlKSl+kHXuSGF7BqgyA5QoCgIfBdQ1r3BAmmEtInJbJ+C2gS4R8gLZ7ZC51TLmBJA11+UsqlEMLEXEocNg6/eZ+6Vb1AxOdvwi6g5Mts+U2JB1mjWO4pipmF2h2dxJqKoYOmqKdbqlyRm52Bm1wFBaFNaa7lFr8zxPrHjTvuOsb3bxeQcaeloa9D9TEC2ko37Q0Ge1yAdA5U5Cd2jcr8TJW2UU0HsdDYHW1gSAdfKU1age7IOi3IKW0tewtpNEaS2JvwX9UXHl9NJYdmKObEJc2UEMf2TcD1Nh6ynwYPdoN5yIP4RLLZdXJUQ8Ayk+hEyylch0Te1VMLj6o+II38AB+krsSo0Elfal93iadVTYuhB80OnyYTJt2gFvFv5zzsifqUa0/hIPaDA0y18ov5CJIeO2ornQiE9jFj+FWZnPZq6VYbiNOv8AOSO6B1EhgesbBambrqOI4+Y6zLjyuPfQZRsnmnHE0iUqoYRw2HGaLjJXEVOuxrEVLSGVnTuSZ2tLiZCWxkNjhOws6FOOKkjwY4II8hgizvJBxaCLARIXmjFOtE5I7EW05UzsTYnaIs5Q2MV3sbHdKzbdaqtMml+K/K59B52kjD1WemjOLMbg6EbiQNPK0Hg7ydYmgCGUjRhY+vESsNW6vdRYWTwnXvNALjqdfWXCG4sfT+Ut9gbNola9d1BemmYbsrGzZCw4kEC0XmlG3/zO4tspSttOWntpadoImWO06ZJsJjqyqIX2s4j/ANq53tQUk8L/ANCeTbQ2iToJ6R9sFa/6JT/WSh4h0ZvDf0Bnk1UayuLGm+TC34OCxhEhNFsFHsamDLOwn9CFpgin5HY1QZgbCPinznDJfdO0U3t0Jl/RpE+Q6sR7xC1jYzsGSaZRHABnVjOgZ0IjQTkXi6zsRbRXFhG2awuQfQM3yAifpacTbzDD6iRdqYOpVNNQ7Koa7lWKsRY2At1mc2XTqVa9emteqqoHyfeMdQ1lvfeN8eENWK2a0YxOZ/db+UcXGJzP7r/ymU2hXrUjhleu6F1+9OYWFiLm/PU+0kYTFtVr1gmIc00S4Kld+UA8PP1E2Y77IyDtBTquzZCxSogQFQ1kZWBIawuAw4zvsw9QAI1yApO42HiGUZueraSurbVrph6Lmo/3rnO+hKqDbKumlwCfSWFPGk3NGu9amEZmRiBUUgqb3sGtYH+jKpvaFNH1mprVVGDLKADXZQQNLFdXHlcXH96YTZuPDOaQYl/gqLY7r6ONN3MTRK/3SLroXax4Xyj/ACzNkTHixo07C8vOy2zkrMczfhscvFv9JUhwRYzinX7s5xUCW1zZrRE0uxmM/bdsoXoYgDeGpN+z4k+Rf2niG0KdjPU+2/bQYiiMOG7wBw5cgbwCLKfUzyraNW7RsfbCyHCESUs49mCkRwVGnFOpHGc8J58fwOdCoZzSXxEjUmw6AdJz3ZO+OqLDTf8ASacTl02JJI5xGp+UZZmTUjSS6NIHyHzjzLNPpxkJyaItKoG3GOSnq3Rzk3AyfhcaG0bQzM0rplUSxOwJzligmK1XZwlcuFJQBm4AmwPmeEoOzuza9GrUapTFqmpYOvh1Y7t5uTNFviMsoutIV9mextGs+Mp1O6vTp3UeOnqDe7WJ6jTpGsJSrLVxFTuDaqLKA9LgLc+O+R61V0OLANY5PwMrkhNM2t2vw4X0vJGzq1Sq9Okajgfo4qlg3iZ2I1J5Dl0loqSJs5wtDErTo0+5zKhcVUY0srrvHHqbdRHsFs7/ANUlSnQaiihu8zWAYkWsqgmRKm0MR3Ar96R4kp2ASxIYq7G44+GWO1KleigbvmN6wUHLTJKMOIy/iFjuhdqRy2jSdlsGKWOrO1rKxym2hVKGZT6ggxWxmYnT+vKWGwsN3lD9LLsctGrSNwBmAI7skDc9iq35LaVfdXk57YVpDuGJZrHUWmR+1lEo4mnSp7looWPNmJOvpb3muoWQ5mNgNT5cZ5n2sxpxWIq1zuc+EclAyqPYCLCFyC3oztfFaSvZrxzECxjUtJVoK2JEiwkhj2buzFXMJG2X2lw1ZRZlRuKOQDfpwPpLP9IU8veYXFph0RjUPOPUl4nQfWcPVHAXnSg7zByadnEtSJF2rtBaFJqrAkKNw5kgD5kTqYDtp2iWr9xSN1Bu7cGI3AdAeM2YMkpSoSSF2f2nvcVd+pDAetiB9ZdUduYVh/bID1JH1nm2aS8Hg2q3ykC3PjNmXDja5PQIt9HpdDblFd1ekRyLr/OWeF2jSqDw1EPkymea0OzNRxdaiHmDmFo4eylf4qf7zf8AjMPq+zx16n9lOE/senHXd8oCoRvnmabDxlPVSP2KhU/lHkpbSG5qv/6g/Vo0ZYHuGRL9itT8xNq2yxeoQD97cP8AetqD0K6aaTlNl5QuUOCgIVhUQsFO9fELEeYmLrYjaS6k1fQK3+G8jja+O+Kt+6f5TTBp/Uv7JtNeDc1dkA0lohaiqpvoaJJN73JJ5x3H4NqqorGqMhDaLRN2G5jr8hMOvaDGpqWf9qmPzWSKPbbEjf3Z81/kYZY5Pca/sCaXZ6l2Qps/e4dqjfeqxUGmUHeA0yLEafqfMxunRa9iLW385jdifaBUp1Uc0l8JB8LMLjiNb8Jt+0e2qYctTGtQLUF+AdQ35mTcH9QbKbtPV8IpLvOr+XATE7ToWUmaSvVJuxNydSZmttVLqRHgqAzH4l7tGor7zEiy2yi6EhFhFoJ1mjuHxLIboxU81JH0jEJSgGqwHbSsgs6pU6m6n1tp8pL/AN+6h3UkH7TGYuKDJvBB+Dj0vEGtjMEHpPkc5s6jQNYkFb7xw4zzRhabTsPtkKr4dzYMGdCeeXxL7C48jKbE0FJuQCbzlKOLVHKLZUYfDlzYbuJl5hlCAARmiNBJFJZlzZ5T/g0wgoktq9QAmm2V+GgIPQ3kOl2kxY0Kgnqhv/DaOBuElYHHmm19fT8ouP0388E/5/06afhkVe1tfilP2cfnHafa9xvpL6Mw/IzW4Ovh8R+NKbNzZEJPncb5IqbBwp30KfooH0l/dvZJr5CHPIvJkl7Y/wDRPo/+kep9safGk48ipmgbsxhD/wAEDyLj8403ZDCH9Rh1Dt+d4nuXsb04tft/6d6uT7ldR7VUDvzjzUH6GPDaWDf9an+0tv8AEJIPYWgdz1B6ofykPE9gSPwVwejIR8wTC/8AyvZvpcl+xPeJ+Uifg9k4WsyhFpksQBkNt/8AdMndoUWnTwpW/wDZNT1N/wCyqED5MsothdjMSuIpmysoJY5WG5VJOhtylVtLFVqdOlTq5wV7xgHzXAYgaX4XQwYvYsmKaayOS+zDLKpL5aZPxO0bAzN7T2hcWEhYvHs0gs156DXFE0rEMIRJnKixIsIThYQhKJACKIWgITiVs5fGDyux9B/O0sXbd119JA2dcvlH6wyk8hvJ+Ul1Tmaw3DT0Ey5+ymNC0G3+Zkmm9pBUWJAk3BUWchRqSdJlkiyZfbE2OKitUY+G4AA3nqeUssT2TDC9N7Hk2o9xultsrBmkgQ2Itr+cn06Vtx9I8Ip/yTc2efHZ9ahUGZSpvod4PUEb5rtmYwuuo3aGXD0wwysAQeB1kVNnqn4NL8Dr85VQ3p0K5JrYuXlFnBVhw9p0mI4ESnJr5kTr7EzCreShhNdd042ZWQMCRccbTWLhkdQV1Ft44eY4SkZpdC8bKjZuHsajW/DTcDzayf5jPIftJrZ8WyjUUkSkPMC7fxM0+h9n7OVcxtcMF0PTU/OeB/aNsc4fG114M5qKea1DmHtcj0iqXxoPHR55VWNSXiksZFM0TdoERIQhJOIwl4QhE2EctEncQS6AJAToiIBOASMHVytfoR7yfTXQsNS27yH+se7MbG/SKtmuEUZnI324AdSdPeafbGDw1Kj4aShifAQWuCN5NzrIZoJ7GhOnRlKFPgPXqZt+z+yDSGZgMx+Q5ecqOzuxGqMKp8KKdLjViL/IH6TbJTtMrxyZVyXQufTdIqY0lnAX8DBb30JKhtP3hJdpA2VqjMd7vUb0zZR8lE70ZPYnJFjRr3Guh+U7ZpFIPCctcdIeU12jqXgmhojJfrIgrEb4r4jkYYZuOn0LKJJp0wDcaeU0uzcVoLGzDiNJk0xp4iS8Jj1voY03jluD2BNrs9C2btcMQj2B3A7geh5GZD7Ztjh8OmJA8VI5G6ox8Ps3+IwOMFrm0o+3nbWm+COEDB6jMt2U3CopDWLbi1wBp6xYyvQzPHceJXGTMZVuZDm6K1sQSEIRnQQhCEi6COwhCWQDud0FnEsuzuG7yvSQ7i4v5DU/IRWKz0jYuyRQwwQfjYB3PU7h5DdIdfZnfVcr7lAZrb7HcvQmx8h5i181QyDgz463PvB7d2lpLJJVpHQsnU1CgAAADQAbgBOrxm8XNM3qMpR1XqZVZuQJ+UZwtLIip8IAPnx+c4xT3yjm4+V3/wAs7FYS0MiXzCtfYftOXOsBUES0skpLQjdC5dJw1LTyjpMQGReND2NFNJW7TplCHXhy8wR5ageks1Ok7qUgwsRcbvcSbgjkyn7b7OcCliQSaNdAU1uFKgXHLr7zBY0z2rairidkVKX/ABcGQ1tB4V3OABuKFvUGeJ7SawnYl8Q8nop6h1nF4rzmaZsRBeF4QknJjBCEINnDgMUGcRbzUhB0TR9hqV8Up+FXb5W/OZtTNb9nq/e1Dyp292H8oGBm9LSBTbLXdfjVHHmLo30X3komQNotltVsT3ea4G8oR4gOuin9mZm7dHIsc0S8yR7bUr/2b25+D6Xljhe0+Gcf2mU8nBX57vnDLFKroZSRaYptUPJx8wV/zRSsqsXtag4VVrIWz07AMLkiou6W7cpJY2+w2cXIjtLEcDEjdRLxo4pR3BnNryTQQd0QmV6uRJVOtfQykcqlqWmJVbQ6BvnYMZVtbTtW/r1jNLTAWOFZEqM50D0WRtQA4AJZDc21Qvb/AOSLPH+0eCajVek29CRfgRvVh0IsR5z1qmpOgNitirfCwN1b0IBmG+0jvBVRHVQEp5VItmtmbMrNYXCtmC8AtrTPC4yop2jz9pzO33ziXkjkEIQihFQQioYQNjxSoIQhNXgiKJr/ALPG8db+4v8AiMSESXRzNsxnJhCZ2cZT/YFAszFSfG+mYgDxHcBIu19hUVQuoKkcmNvY3hCeV7zmXtFcn39zVGEeHRQ7DF8TRH/VT5MDPU4sJ703b2ZBQYQhBA6Q084UwhM+fsMOh+kdfT849UOkWEeHysDLDBtdzfiqn1IEoPtcGamlQ/iDUxfo9C7f9tYQkvr/AGOujyNjEhCXZwkIkIoRRCEIrOP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSEhIVFRUVFRcWFRUVFRcVFxUVFxUWFxUVFxcYHSggGBolHRcXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyYtLS0uLy0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0vLS0tLS0tLTUtLS0tLS0tLS0tL//AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBQYEB//EAEEQAAEDAgMFBgMGBAQGAwAAAAEAAhEDBBIhMQVBUWFxBhMiMoGhkbHBFCNCUnLwM2LR4RWCsvEWNENzs8IHY6L/xAAaAQACAwEBAAAAAAAAAAAAAAAAAQIDBAUG/8QAMBEAAgIBAwIDBQgDAAAAAAAAAAECEQMEEiExQQUiMhNRYXGBIzNCkaGx0fAUNIL/2gAMAwEAAhEDEQA/APLgFMBMwIoCrLCICYtRYTEJABIQ3BdBahuCYznITwiEJoTSEO0IgTNToEKUvoumysn1DDRvzJMD4rQf8KAed5HQT1jU/FRlNR6kkrMi5y6hsqsWd4GgjIxIxQTAOHWFtKNvbU24WUmuMyXlhLt+Uu0C6balTkOAEka55clB5fch7DA7Rt+68JGe87p4dFXAr0u87qYgEaETiPUlUdz2foPnu34CNxiDPTROGT3g4GSDk8o99ZupOwuEH2I3LnCvXJWOnSThFAMmKmokJDIwlClCcBKgGAUgFJoU4SGQhKESExCBAsCdThJAWdEKQCScJMEKEsKmAlChZIEQoOCOQhkJpiAEKBCO4ITgpoQ4UkzAr/ZGxcXjePCM4AMu4DTUolJR6glZHs9RqunBk0AkkRPTEcgVo724AYA57shnB3nnqmuNoCkyG020wDiAgRigaxks1Q2j3hOPQeUGBO46fFZncnZcuEd5v8TfC+S3jn/chAt7lzjBcI5aDLIBV4a0EkHL5nhK4a1Z7HAgxOpjLPTJWKAmzWFwgh3liI956obTDZMEjTSY9FnTtF34naKVpcvMnFDRz9kKLQWWNxRFxDCCHt0Oef8ALJVLfWDqUBwiTInhuVzs7aDMYMmY06RqeGatruq2szC4NJ3Yvw8COCkptP4EXGzCkJI97RLHlhGY5z7oEq8qHTJpSQMdOFGU4KVAFapgIbSiBKgJJikklQEU6eOaSYgykEIFTlQZJBQnQwVKVWySHKGVIlQJQgIuQnBEcUJxViEdOzsGMF8wDoM5O4QtjS7yoJc7DAlrXN1jpoFktk5PxR5QXDqtRVeMLqgMNAA5kxJy5SPdVZepZAp9t3LpGLdny0yWcp1i54dUzG/X2Vje1C8kTJnTkYAXR/w9cRnTIAEl2URE5RmmmorkKbZwC4EF28eUfX98EK6cSyNTl8s/n7LR09iY6bHNEQNYmcoMqmv9nOpnMS06HUdDGicZphKDRTsXQ26yjclhGeRySZbiQZy1VhA69mhoOeZO/SP7qza4tMTlx5KjpkYpER1Vs0thpBzz9evp81FjQ213hzAS1odiiRMlsZb/ANyqdaGjbtLS0wROWWYdO7gqKvTLXFp3FWY3xRCSBJk5TKZESdMnCQBGorUNqIEgJQmKSUoAZJJJFILCBSCipAKLQWSCkk0IgaoNErBEKJXThTGmkkFnIUMhdppJu6U0RsDah0+HVd+0i5xEGJBOA7hvKha2TnHJpPRW+0mtaGnfABJH8s6a8vgoTfJZAqtjWwdWaHNgAyRxMr1i4c0MAZvAyjkvPuy9mX1ZgkDlC9B2ptC1tWsxOmpGgiRzM6LJle6dI1YqStmXdsZ7CcNR7WzIbkR7jJB2jQw0yQC4gabymuO2tIugNMcYJRnX7arck2pLqTuLXBlalse7e5wAyOWi4qdmHU5aJIG5a28p0iML4gjPoh2ZtGtwse0RvxZ85O9WRm6KnAxTbca/H6FC70zEwFu6ez6bmvLCDDzmD+YBw+ZCyG07XC9zd4M9QrYzt0VSjR07OuROE7/bnKDtG2cTjId4t5yQLIfeNPDPjnzV3fVGubnGQydOc8AFJOmVtWjNFqbCjlibCryuwWFINRcKfCigsi0IgCQapQkFjJoU4ShILIQUkSEkUFiCmENqIFNoiECmChgqTVGhhWqaG1TSoLFCQCSUooC42RUgQAMyY/f71UqVBta4FOpJNQOFMtPleBLXRvGRyVfY1iHCPTqu/ZQqC7puicTi0GOLTBHqAPVZcqq2asLuka3sbs2KT3a4DHDMZH3WP22Hve54p946TkcwAMpK9L7M13MoAOAxVHPc/cfMRmOOXun2lY0QCWOHi3ZT0WOM/M2anj4o8hpCo5pc5jWwYiMz6K+2LZl4JiCB8RxVpcbOYHQTv6krQ7P2W1rDH5evVWzkRhjp8nnO3bYsOQJyVJaWriSDRaYnOS2eh3lelbR2cCQTpC4KNg2VOM6Qp4rfBSbDpYSIDmgmHNdMjnzQu1ljFZuEGXiBzzW4ZSpgCYJGh3hcl9RFQOEZhpLDGYPLqorI07IvHxRjbnZfctphzSHeImNSDhieEZrmu7UgczJ6cvZWm3GPDqTHziDJcDrm7IH4e659pOcGjMRGm/PUK/E22mU5UlaRQlqaFNyittGUaEoSSlFAKFIJk0pUBNJRlKUqAlCdQlJOgIAojSuUPUxUU2gOoFTBXMKil3qrYzqa5SDlx98n75IZ14k2NcvfJd8gVGg2E0F3lxHcImToF17SunU4e0eJjpJGWYIO7os5aXrmuBad+i0DiypTxB2ZPKFlzRd2zRifB6OzaIrOFVmHDUZ3jTizMtHhjdGc9FVXVzhaTvKynYbEb8DE4tDKnhk4QcJnLRaO/ZMt4CVhlDbI2qdopbm7M75J0Wqstt2tOl3feg1IGIcDvWMo5VJP+wRtp24cJAAPHIFWKNojvL292nQc2HPAnRUlpd88wuSxtYzJB4CRKkW+OR6puLoW8uPtJKi+9DHgEt8uIh24TkfiChsbosv2oE3TctKbR7uKIR3OiDn3Iba2g64u31GA4SQGnTJupjmZPqltJ2Ubwu+1spEiI1hUu1KhxQRH9FrxcukZ8nQ5XOUJUC5KVsSM5NKVDEmJQBOUpQy5NiSGFlKULEliQFBZToUpICgMp5UU6kMfEmLkxUZVcmNE8SWNQSUbGSxJi9RU7W3fUe2nTaXvcYa1okkosKHY9aDYlKpVZgpsc6MyRpMbychCtNj9kGUi43Za54Aw0muJAO8uLYxcIGS76m0XQGMDaYblkIAHIblCfmVHT02gk/NN0v1LLsLst1C6Z3rhNVjwG6lru7JmfSFa3VPx57w4fNYV+2HMeKtNxd3TwcZk4njVoHDiVsBtJtSHt0dDxynULDmx07Lc+KEPT0M3dUHGoQ0wdAeHOFyM2fcMEVKYq8HCoRPUblcPb947kVzX+M6GAmnXUyRorrjZ9d4ApsbSdxL8RP76LutbV1PCHuxGM3c0G1e+dT81YVHym3fCCVUdsRCym0bgVKrnAT4sIP6cpV7tG8FOiXndA+JhZOltGmHGBlnv/cp44vllTkXbNrUqbI5cR8lk7uvjcXcTKjd3GNxIEA7kALZigo8lM5WElKVFJaCsliTSmhO2mSk2AxKgXI/2V3BMbR/BVOaHQHEliRfsj+CX2V/BLeh0Dx/vNJE+yu4JkbkBBJJIhXMiMVFOUyqkSEmJUqbC4hrQXEkAACSScgAN5XqfZXsFSt2tr3wFSrq23mWM4d5+d3LQc1FstxYpZHUUZbsl2Dr3gFV57mgf+o4EueP/AK2bx/MYHVbyhsW2tGlluxzTEPrOAdUcN8uOg5CAu6+23VM+JrGgaNGgWYutsGoZeThGg3dSOKXU7mn0SwvdLqD2hVZi8NYOcNxbA6E6Kp2hRe9/jhoOjaZgRxLxrPALtr927UDkR9EBj8HhPiYdJ/CVowbN1SKvEfb+zvE/n7yuFABrqZyHtyIT7K2gWfduMZ+E8D/QruureR9d468lTXdud+R3HilqNNt+Rkw6qOohX4kaehegk4vN+80cXrRqsdQvo8L5y0O9v9Quxgc7R0jiFz2tvUrcXFmiF83gENtWZj/ZUdEZ+Iq/smjDDd6g3RB2yF9s0XFPujV7skgglpc0kbjBkDnBWT2r2buKElzQ9v5qbsQ9RqPULf1KQDWznmZ5EbkHalESyoB5sj1jVdKOm24VO+pXhlDLmeGSp9meXJwtH2psG4W12CJOF8cdzvXMLOgKMSObE8cnFjqQCZFoNzU26RSGt7aVZULYKFsxWFFqx5JsaHpWwXS20HBSpNXVTasUpMkcv2EcFF1mOCtWsQ6jFDexFV9lHBJWGBJS3AeelMU5USu2RGKiSnJVr2W2YLi5Yx38Nvjqfob+H1MN9VTJlkIOclFdzf8A/wAZdmBSaLyqPvHiaQP/AE2Eef8AW4acB1V5tS9knD0TXO03OhlNuTnYQRk0H8s8uWarbGyGN9Sq6RTaXEN0HKTzgeqcMM5q0jtLUabRLbOXPuXLKjbF5maYPJ2e86j98VVh8ZLsu7Qk94DIcSSDqD14KvqGMj/dSnilj4kizHrMeo80H9O4wfDsPqP6KYfuXFeOgBw/CZ9N66pz6qsnZ2WlWct405jglUoBw0nlw6LkeYIcNy7WHGJafFw4ro6fMpLZI4Wv0jxy9rj6d/gVN5sw6tz+Y/quDNpnMbjGS09N2I8HDUcU1/YteM8p0dz4Hio5tGnzD8iGDX/hy/n/ACZxzapzAc4DeASPWNFfdnLqpUyaxzywYnBgLshyGa5qVxdWoinUdTkyHsjP1+i9K7L161NtpUNDvri8LTWr06YaKVtORqPaILjlPrwC5ssfZqjVmaS3RqjIbLrVM6dZrgXy9peC0yDuBGmUeisHUiaLv5SHD0O70JWn2iyjtGH06jTXoPLB4gG1GYyCM8gd4O9U97aupsqtcIIaQRzhdLDNSwyiYJeXPjkru1fzv+DKVaWOg9h/Fl67j8Vh43Lctnuz1WP2mzDVeOcj1z+qxR6nW8RhxGX0OcI1uc0BTpugqxq0ckurdWFFVVrUVjRcsORDRYUl10lw0nLrpuWKRI7WKFQJMcme5V9xAUkpSUwPOiolTcoFdxiIOXpHYjZ4t7fvKjMVa4g06fBmlMu5EkmOELE9n7EVrimxwlk4nj+RoLnD1iPVel06xBfWdqBDOR0EDgArdPhU3cuiK8meWL0OmHtnzX1kUWkCNMWZcQOEyuetVw27uNV8f5W5n3wpbJMNcd5lD248Ym0hpTaGn9R8Tvcx6LpL3GDqyvaZYRyQadFlRsHIjQjUIpVe2qWVC3ccx0P7hEkmqZOEpRdxdM4b2gWEtdv+BHFRtHTTHFuX0+ivL6iKlM/mGYWf2Q6Q9vM/HVcnUYfZy46M9JodV7ePPXuds5Z701J+E8lFjsiFIeIKlM3vk7nt7zMGHjePxDii2ziQ5jtdR6Kuon8MwR5TwKMzaBBAqDMaOH1XQw6pPifU4Ws8Oa82Lp7vcdVQkNyzB1CuNmUrkso02ucKNwXMbhccIMkFpjQ74XBbBrgQDlqFc9k7x1vXa3J9B7wXNP4Hjy1G8HfNW5k3G1ycyLp0xuwWKjVcxwDQ0upvdGTXEljHHliIV92so/dCsW4HPllRh/O0jxDkQVw7RsPslKsHEOq3dRxaRuoB+IHPQknTkqa7u6jmhr3udEABziYG+J03LO09rn8P7+pq063Z4R+K/v5FSG+Fw/e9Y/bbYqnoP6LbtbMrG9pG/ej9P1Kxx6ne8RX2X1KwFPKgE4VxwzqoVoVnb3IVICptqEKqeNMDUUa4XbTrDisey6cEQbQcsUtOyVmyFyOKY3IWP/xFyX+JOVf+OwNd34SWQ/xNySf+OwOZwUMK6qlNDwrp3ZAv+xNv4qtTgwMHV5k+zfdai/fAbTHU9VWdkqWC3xH8dRzvRoDR74lYUGF78RXQ00axox5Xc2el9gKFF1r4qbS5jiHEtBMeYH3XJb3mzr2pWa+jTxUzqRhe8F2HEC0A6kDWZIUewxcG3ADmtGFhLiJjzcTpCxLdk3tKo64tm4mE1QahDXMdTHmdhdOJpIMQDMA71kyR+0lzXuL4O4Lg1e0eyNjiDW1nUXO8rC8SejKgxFZTtt2SNpTp1+/a8d4GQW4XQ7eMzMEe6vexG1alR733HdsbbM7xzsMY2VGktcAPCAInE0SZhZvtPtN95UqEyG4S2i0/haMx/mJEn+ynheVzq+O5Gaikcls4aLM2gwV6reD5+KuKNf7suH5CfZZy0qHvHE6mD81PWelGnwx7cpcVBDiEmGCnuR5XcQhSucejfAYiUbJ4g6hApvTtMGQmNEhRIiCRGhGS03ZmrSpkVqtTvHCoxlO3GXic4AVHmfE0ZmBvCzodJ9FPZzwHt4hzSPRwKe6S6OijNp4ZFyjZXdxXNXaNCqcYpVDVpFx8TSSDAn8JYYgcAs6158RcZK7u38/4jW4FtL/xtzVVSJyn1Q5Sqr4IaLDCMVOuWddI/v1WQ7UN+9H6fqVrqZz9Fle0jPvf8v1KI9SXiP3P1KKE8IpYkGK84AMBPCJhSwoGCITIuBRwKtxHZBMUTAmLEtoWDSU8CSNo7LitRXG9kK5rMQbWy7yqyn+d7W/EgFVQmQNRRo93SpU97aTCf1P8bvdysNn04Eoe0CHVXxpigdBkF3UWQxd2K2xSOfJ3yX3ZYNeypSxObUqOxNgatpxOfVy79o21ZlI46ze7HmxuLWxuEkmM40IWYo3vcVLWocgHOLv0OhrvaT6IXaztAbqphbIosPgGmN2neOHyG4c9Ofm0rnmtdy+E0oHbtp47io+GeNjKDHU3NwNYHhxYxrSciGlZANhw9EXuhwE8vqo71swYPZRq7ISnuKd7S3vm8MZHQjEPYrPUKn3nUfJaq+p+Nx/NTPxAI/osdTdDmHnCo1S8ps0TrImahubByMfELlfkUezMsI5T8FCtTkSFzj0z5VkQUdq5CV10zogSZOiBK7NmUqAqEXDnsYWw2pTbiLHyIcW72wI9VwuEGUd8lpKTHKNqro0/af7HWfVumbQaXCk0Npd04F7mMa0AOJ3xOm9Zu3uJHOdOaBTO4gEH+6JRYAEyOGDxqrssKRkrPdpKZ72f5fqVr7Om6ppSY6HYcnCm49BofmqPtVT8hAOEF4a46nMSD0ThJNva7rqZNdl3YqquUZXClhRy1NhV6ZxQOFSwomFPCLADgTYEaEsKjYwGBRwroLVEtQADCnRoSTA0FSmrHsrbzdMP5Q53waY9yFz1Gq67HUx3r3cKZ+c/+qx6d7pxXxFk4g2EDJeep+atHs8IHFcFqPErY0yXsG6F6JnOZw7fYJYJ8rAI9TKpuivu0tQYmsGfH6BUYCceg0MQEENXS4ZFRhSGcO0W5B3J4Pq2R8lhKuWH98Fv9ot+6eeDSfZYG9OYCw6zhG3R+o0GyXyY45fFWGy7B9YuY2AGZuc7JrBOrj1ygSTuCotkVdFsez9lcurudbVBTxNBcXGGxmDibBDm65EbwuaekU37Lcjqd2VpEGniqCs0YneQuDeLree8aznJdxaFSXeyatFrajgHUnnwVWHEx3rqDyIBW9rWdwaIxC2Dwd9V5pNhs/wT4cQ4TgGuFY7tVsmvTcKtWuKvjDBmZnxThGmEFp00ykCUGbDlk5csqH5qVu8wc92iDJnNSpGHEckjd3CPrEAIlNxXPUOanbvTBM22wMbaNUhssDnF5JggktaIGYOeeipdq0sds4fkdj94PsVo+zrz3FZpnC4Pzn8TS0gR0KqGMBBacg9pb8QloIJ5cio43iEmsf8A0jBPak2IRatMjLghgK9PgwkcKfCitapYUmxpAAxLAj4Ui1RbJJHPhUS1dBCgQmmDQDCkiwnUiNGgqFX/AGWbFG4qcmtHrM+xWae5XmyrlzLV2kPqznn5WifdY9G1HInIteCeZbILksbGnnK0No0NL6h0Yz33BZCx2q4u8rcuR1+KstqbXf3DmtynWAM/iuzPV4+xGHg2qlzSX1Ku/ui90k5nNDGqrPt7t8H2XTSv2nUEdIP9FbHU433Kp+HaiP4b+R2BOQgC4bx+i6XGRIV8ZKXRmOeOcH5lXzOS5ZiY9nFjh/8AkwvOroy8+i9HY7x9V5zXbFR43h7h8CR9Fh1vRGzQrzM7tnOWhrS6l0kHodyzVm6Fo7Ayxw5Sucej07uNHGwSPRPTbOY3JW5zhSoGDmkWHQcwHDoVAjf6eyLajMjdqlENPIoJ0czxv6pU3QD0U65gQgtGSCHc9A7LUnObVgFzSym8DLIuaZPTIg9FTUamZE6ER6gFLs3tao2kRTdDqcYh+alJIHQEmf1DguZtYd9UGmYgcMgfqrtDFxzyb6NHJ8Ti/ZX8f2RU7XpRVeBoTI9c/quHCrfbQBcHDhB6hVuFGTyza+Jz4p0rItaphqdjURrVBsmkBLCp4F0BqctUGyyjjexCc1djmoTmoTBo58KSLgTqe4htOyorun/ylP8AU/5pJLJj6nT8O+8fyYPZfmHUrs2t/Cd6/MJJK7ud2HoZnCnpJJKwxdwq7dm706S06X7xGPxP/XYfeOq892j/ABqv/cf/AKykkr9d0RxND6mStdVo9k7+h+SSS53c9Dpjnp+YpO1TJJF3Y7rfz+n0Uj5XdUySGT7HJceYdEtySSCt9Sw7Nfxz/wBup/oKjef8xU6t/wBDUklp0vqOZ4h6F8wNXyDqVzO1SSWZ+op1f3n0X7EmqbdUkkzMgrU5SSUGWAnITk6SaAikkkpiP//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMVFRUXFxcXFxgYFxcYGBcYGhgXGBkXGBcYHSggGholHRgVITEiJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lICYtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABLEAABAwIEAwUDCAUJBwUBAAABAAIDBBEFEiExBkFREyJhcYGRodEHFDJCUrHB8BUjcrLhMzQ1YoKSorPCJENzdHW08SU2U2OTF//EABoBAAMBAQEBAAAAAAAAAAAAAAECAwQABQb/xAAsEQACAgICAgECBgEFAAAAAAAAAQIRAyESMQRBURNxFCIyM4Gh8EJEYZHh/9oADAMBAAIRAxEAPwCOTia3NRHicdfeqbUSIYSLNs+nn4WNl/h4l8UdBxBfmuf0siawSJXJmV+DGy+QYtfmi2YmOqo8UymNV4rubCvBRdP0sOqnhxYE7qgGpPVS09U7MNUebDLwIpHUKesujY5rqk4bWnqrHQyl1gNyrxZ5GXFwY3zqN71EXFps7RF0hBuD42/P52TN0Z2yFjTcA6XNvu+K2liI2N9/d/5CmLxvzF/TksJB18SPu18knJgsT1T3NFyLDY+BS6Wu8VZK6hEzC29ibHztqPxHqqFj9DNFZwGhJaR9lwH7rrOLfQblBtoviUZabDJK8dUHPjAHNUmTFZXljWNLi8kNA5239ND7Ckk2NOJsb8j6HYjwKMZWaJeLRf6jiOx0KKoOIC5c2FUSjaOsLSmEWFHXqPEr80eKzxXMaLG7c0zHEIA3QsV4GXh9YOq0FYOqpX6fB5r1uOAc13Im8DL3FVI2KpVAh4hb1RsOPA813IK8eXwXptWtvnapjMcHVSjGh1XckN+Gn8Fv+drFUv0yOqxdyR34afwcanYgnNsmL1DIEjjR7+PyE2CxyWTCnqksk3WzHqM3XZ6ONRkPW1i2FUkzXqRkiVNGj6MRx2ylZPqEpEymikT0ZM0aLXhlT4q64TWR2ANwdLOB2PkVzOilIIsCSTsNSfADmfiul8MYW4Nzy5f2b5iPB1tGu9SRzCrBnzfm0tj+oOuti0i9uh6jogZsQDQS0juHUb5b6td+weu252Bsg4srqh0zYqNti0ZnE3DQPE+J9qR9jWucC57GOF9Wt3B5eP8AFdKSR50YtljrMdtUQ8op4i69+rT3SNgWm1iDrcjkCiqHiNjndkDd2pPgGuIJPst6KnHhl7gAZSQCSABoL726LyPh+Zhf2bvp/Sc7e2vxU1lSKPEdDhxgF+UWsCW3BOZrgdQQPq8wbj05ysxBkt2ytzMI+nazTfkD108wQPNc8wrC5hLKczhIS14LXEB5As5rm8sw2NhY266WPF5JIWNkLmPZfLI+QtBMZaXNcTbW2gLeYuRlI1vGcWiMoNOgmm4MpWl7wDKS17QH2yhrnFxaGgc72de4IFrWJBo3F/AMz5Xz52sja257ofISLlxs3KMoFrFzh9Y6XTwcQdhJkka8NLGvaS/NkzE5o39MpDrP5gDmnjC2qhLJ4gWvbe12ytPUgt+mPYfAIa9D/Umt2cKlfELCN0jj9YvaxgP7Ia933rdkydcY8JMppHCnkdIGtzOY6xkaL/SDW94x+JGljclViORaElJaGWVjNk6ySYoJsi2L0soGjF5DboNgmRBlSuORTNnUWqPQxx5hwmREdUepSjtluJ1Ns9LF441Nc77S3biD+qT9qt2yqZvWGKXQ4/SD+v59ixKe38li7YPpQ+DW6wsK3jC3ctTPkseRoXzxqAI6Rl0JK1TlFM9jxc7Z60qQOQ7XIyCK6z8KZ6izJI2jaSjYYivYoUxggVUeZ5PkWzWDle9tL2te3he4BXWOD63tIbjQNFrE5iLcgTr+b6aNHLzFZdD4IqZH0r22F+0ysADQALDYDoS7VxJNlSJ4nlPkg3EqwBpDW2Ljcnr015pNrfVT4/iBa7KWtAaLaW2v70oGItBHPT8UJdEIIbRtKMpyRoUl/SQy3zMb1u5o+9E0dawkXlafI6e1RZWgyqp+9mG+h19/pa49VpiF5wGu+i0d8G3e7jmuvy1a+xPivay+hB9d1FRTi7mv1uQbeFwCPK9kIunQk42rE3EsQDY5WAn6shBIIyRlmYu3BBa5wO5BCNwOqZG/JHrq8a2YM7XOJDQN7kHa1rg63TFhDu0j3ZKwtPnctuPR518FrguGBjZGtsSZC4HzGup5tyuIPQN5q8dmeWhF8qjwKYPLc2oDXDKJIX37sjTbWNxs1w3GYWcNncfYV3X5ScHbLh7s2jojnDtSW5d+79a4JBG9tdS0BcHYVqx/pJ+yVrit86jJWpKLKweyXtFsxy1jZdMIaZZps+g8WaoHapAivmi0dTkLLNP0e1hlFoiuvC9Y9QPchC/ZTJOkTdqvUNdYrcTL9cfNgUbwnppdNkLLSrQkfI3QmcELUMT2SmQFXCu4M14vI4iaM6p1SjRJZW2ddNKSUEJJRNf4i12MoimtIUkY5H009ktGTJkbYfOdFGK97KeVsbyxznsBI3tZ1reyyHmqdEfwhhJrJJouXZEk/ZOdgBt5F/vR6RnyPRSXYlKx5zSvdrqSb+9XOXDZPmnb3NyxrrW5HX8boTBeBHioET4HMhZLneXua52RrgS27QLhwAbsL5tgujVseYZNNdSOXkEmTqxYbezgdZUWNiTYb3vorDgxiLQWvaTyzOcy/gM7WtPlmVm4g4Ja/VjW731vz62WmEcIyaNIiDOg19xG6na4/wDI6bsK4cxtxLoyQR6g+w7HwTyYE63Ox8d1s3huFpDg3K4dCbexSuYAbKTv2N2D09RrqfANGu2tr+Z/wu6pthNSCItwSdendbYk+Z08VXposuYnQ3Frcrgg2/vH1F0EzFJ2dsKdjT2bA92drjntldZhvawaANuSrCaT2Tjhlk6LN8pUzDQSMe4DOGlpN9XNcHW6+vLxXALLrPyg4tFPQwvvbOGva3m19iLH07SxOndPMgjl/Zr0Ir8pkpxk0/QOAssUT2ajLFzRWFE9INU8p40kpNwrFSbKE0b8OSjYQrySFFNC8kCi0ephziKtislkhTqv2SOUoJGmWW4nl1i0zLFWzJbOqmFDTwI4rHx3C9CMEfKzyOyu1DSldUCrHVUx1SmqpkraTKJsrdV4oenqbaJliUFgVV5HEOU5pMeOSSLGyrRMdWUipnko5l1LiU5sYSVJVz+TesdHDVPYbPc6JhPRoEp95d/hVAAKtnyfyWdPCdpWMcPONx09WyOP9ldVIDnY7xPi11PlYLOzEvIJsTbQa893H1QsPyjU8j+zla5hvYObe1/G6Y49gcApy6V8YlecsedwGW++Xqct/wA2SXh7h+je3sz2UrgbkNf3h46G6lkWrL4r+CyR4pmu0m4B7rurfGy8dLY3BspfmcbQ1rAGhugHustJYAs7eimrNhiJ5leTS31CU1Byusi4HE+w/gpOTCMJAwwSufawa4jW2oHd1HU2VPwbEaqOZjZCXxFxNjY5Yzobkcg3TXorE/ERGGtN7EHUDNYjLa4v4lS9mypPedI1sTMz9cse12ksHM9DpzsU8INu0h8c441cjnvE7m5oo25jkjA15XJIsb66HmOSUBq0dLmcXE5iTcnrfnZSNcvYjGkkeTPJym5fLs9yqCRqIBWr2oUcpURw7pzSzJM0aouGRSlAtHKO2zLHzJcyRbOkUnA2Yc5FWyJJMdUyqXXQEjEOBq/E6BdVilyr1HiT+udVa66OpmXSyCTVOKUrdJ0jwUrZ5NTBJq6lT+QpdVi6zyZeKKTi0Vrql1rLPXQsaZoVR6yO7lNNlGkS0Md01gpiVDhcOisFFTJXIdR0CR0ngmuAjJPE7+uB6O7p9xU4plA9pbqNDy8E62I9Ff45nqJZS8xyGNhLM2UloJN7A2tew9yS0lJO6zoIJg8G4cCQB5Gw+9dA4hq5GRsfFI5jXAktFi3vEO1Dh109FUm4vM52sr99dvwCSTSWy2Np9ssOA1dcD/tEZsPrZm3PmAVcYZczb3VZwrEu6Bb1O5Pmd06pJtFjm7ZY8rG6r2Cb3BQ1rtVrRDW5uVOhr0GPpO0tra1/z7kh46xZkUDqVl88hZI8j6uUDK2/9kX81bqRuy57xjQSNqZe1Y5ji4kBwtdtyGkdQQBqOi2eM/bMuePoqET0U2RePplqIyt6mmZHGiZsilBUTYVvlIXckwNM8ct2lRFy3auAEtepC/RC3WCRCgqTR7IhpFI96hLkrRWORmtvD3hYt/z+dViFFebLvRVOqsVPLouf0VZYqy0mICyZyM8YljdMg6mRB/PghKutU2iqF+MSaFVJrLuTbFqu6DoI7ldx0cuw+ihsrBhzdUFSxBNKeGylxLt6DnxpfVRpmHaIjDOH56s/q22ZzkOjB1sfrHwHrZURCbBqeiBoe1kjJax7w240cL3uOoDnEdNEjw7EYg4gsbbyC6Xx0xsNM1jG/qow1mXoz6IPoSCfIrjNTLE1xBdlP9bb0PP3JcmP+wYZlmnqojoLAeC0hrB9UqqPkH2xbwK8/S7WCwKyvCaVOy7GYfn3I6iaCqjQNfIM7rgcgf4q14Y8gKDrpFY/LHVM3vDzR/E2Hsq8J7ZwvJC3Ox3MAWD236EA6dQOiDpWk/RGZx+iBuTyCu2G4E1tGKWXvBzCJLEi5dcuyne1zp5LXg0jNm7PnOSlURpV0vijgN9O7NFnliPPLdzD0cGjUf1rDx8az+jL7Kt0DTK6KdavgVm/Qx6Iaow1FTOcUVOoZZQh6a4jTEJI4q0JWQlGgnOtcyiBW4CcVQPHuUd1tIFCXLg1RPmWKHMsS8RuQfWHI9FU1aQocfZ+s9V5RwlSY2NjVtcVpJUEreGmKt3BnAj6t4fK10dMNS7Yybd1l9bHm4aaaG+wTKOjn/zd8kjY2Nc97zZrWglzj0AG/X2roHDvyWVj7Gcsp29Ce0k8srDlH970XWMNwSjpdaenijdaxc1gzuH9Z57zvUo/tVTbM0p70VTD/k8o47ZzLKf6z8o9AwD3kpqOGaIf7pv955/1JjJIVCZBzCZYxHkYHFg9I092Bl+WYZ/3ibJ5HoLfdt6IGItv+J/PVE2KEooHJiXiKkErHscLhwII6gr574gw50UjopBq3Yn6zeTh+PiCvozEK2Ft87x5DvH2Db1XLvlEpm1ADoGOs3vGQ27u4ILQScpFu8dBorfTeVKK7Fhk+nK30cmbSAJ5w5RxB93N15XVmwngITMEhkkaDtZrSfG+vW6ZxfJ41p/nMg84QfeJFjyYJbizZDPDtHrWg2CeYPhTpXBsbbkb/ZHi48lNw/wkGyB7pe1YzUtMeS55A943G5I8PFXHB8RY09lla0EnLlAaPC4GnqoR8V+ysvJXoLwnCWQDTvPI1d+A6BM2BYAvSrpJKkQ23bMJQVdhME2skbSftWs7+8NUYvVwbKpXcH84nf2X/g4fBVHF8JfGbPYWnx5+R2PousrSaFrwWvaHNO4IBB9ChQbPnjGaPQql1NOQ4hfQ3EnAIkBdTuDT9h5OX0dqR639FyHHcDlglyTROY7W1xo79lw7rvQoxdMKVsrcMKn7BMm0izsU/MuoCeWFAzssrFJTpfWUqZSJZICdYivmp6fcsVLM1FlxSiLnoyhw/wAE9dRa3KdcN4D20mtxG2xeR05NHifcLlZ1sboL4J4VjOWeoFwbujjI0cGm3aPH2b2AB331FlfJq8OORu3P4JU6oFydho0AcmNGgFuWo9iCjqM1Q0NPd5j3DUq8caRKWRssEz8xuEO6RwXmoN7aIhs45p+hSAVbgpRV3HK/3KdjWnUWXhgHRC0cDTyaJHUvdtc26aqzCmB5Lz5k3omU0hXBspb6dx5KN2GvAzAEEbEbjyV2NKFuyjBaUHM76ZT+HJ2xydm5oYHa2+rm+00fVJ5tGh3AB0da6iBoF7XQFdg2bW2qOwwkuDXfUHt5D8fchOV/mGgmvykUVGXNs3TqdtVDHw+Rc5hdWB5so6mbKxzg0uIaSGjc2F7DxKjyZXigCjrnMuyUGw2dy8ifxTRrr6+xUJnygRlwDSx+uo2trawN9/NWqgx2GQDvZT0Px2Sui305pbGjl4x116Cud1/Ez5K3sYiQ0Sdk0AkAuzZS8231v6BA6EHJ6OguJUZcVOPFZZFMm0QMlN9VlbSRzMMcrGvYd2uAI9/PxXlQ3mpA7VFoCdHIuOeD/mh7WK5gcba6mMnZpPNp5E+R11NJc3VfRdXTMmZJDILseCCPA8x0IOoK4NjmFvp6h8D92nQ/aadWuHmLetxySVRqx5bVAAYhKqNMQxDVMaKOmxV2C9U+UrE5E6KYyXAAXJIAHUk2AVso6hkMYgYQTqXH7TrG58tAB4AJHw7T9rIe9lysc6/TZvt7yOp6ABznDYdeibEvZHM6dBMz7tHPQ/eeiV0leGvDRq5x18AOSYB1ri+wI95SWkp/1rnfZJ196suyD6L9R+OtwEUIAqnQ42e0jaACHXv4CxKs7Jbi+vh5pZIaLsl7O2mUDyXrfFRAycit2udz3SDkwKwlaNK3sgEic6ymheC2/tQtQ08knqK2aM6NDmncG49h5FFq0C6LC2a5sOW61qYrg20PIhAYdVNI3IJ173xTJhKSqGAoq5+xFytMVx2OANDvpO2aCNup6BTVYDddfQXXOeLeH3S1AklqXtjJJDGRgyBvMBz3BoF+ZB6W5ovqxobexjj0GG1ZLpafLIf97G4Mkv1JaO+fBwKqGIx1NGC9jjLTNIGdwaHWdb6TWuJFtsw0vyF7IHG8MfESYZZZAwNLWvawuJ1zBxY4ZRtYgHY3tujcM4lAPY1EYBFszHBrh1BG4I5g6grLN7pHo4kktf8ATLpwjxe0ta0uJbzBtceXwVGozJBWuEjDdj8w2GZua7XNJNrG3XrzRNXgDhL29Hk7J2pjacpaeYaDoR4XFuiaUlayQCKfRzdGOP0mE/htcfAJeTeiqglcl77R16N1xcbHUeRXhKR8P1/6trHkAsAF76EbA39icsIdqCD5G60L5PLlp0ekKN57x/PJbvfyUEptdOhDA6zgfBUn5TcJ7SFlSB34rNfbnG42/wALiD5OcrmfwUVXC2SN0bxdjwWO/ZcC0oyVo5OmcMjIUc7LqaopXRPfG76THOafNptf13WjlI1dgPzceCxEWWLrBRfeHmljDId3iwbY6NuDc+dhbwF+actfaM35n4JbC8udcm5J9qaujs3kNvX4LXBUjz5ycnYA11nW2zEn10/ikeM5mPNjvuAd01rZhnI8b/d8UpxUXANvNGhSbh+YFw37rXH2i1vaVcKfE8g71reaoOFSZQ9w30aPU3/0pzg0oJGfW1z6rl8BsvUFfcA2tfZV2g49pJmZi/vl72siaHPlcA4htmNBJzNAd0Ga3JNcNySG4kDiNcototI8Jghc58UMbHPvmLWNaXX1NyB11XLgr5IffongnnfYlrYGnYGz5PW3cYf76Pp/Mk+Jv/AelkJG67VLYkAjdTYyCXFDVNPcXCmilzDXQrdAIqbTXBtuomvIFgSOnMeiYvFjdDVcWlxsus4gbiUjdCbhUrimCWeqz9u2OOzdgS8NF/q6C983PmrTJfnqOo39VXOJeHe2OcTmO7Mps3MDqbH6QtuV0laGxySlbKnWUU9PI6SJz54QzOZLNBG+cZQ4nTQ+R20KFrIY6xrXMcI5WkkDZryQ0HMOTiGt18At/ndRQP7GU5m7tdu17eo+G4WDDmXdJTuBB1MZNyL690nXdYJWns9fHUo2naPMMxiSmfkf3TzB2PirG6Vs2WWwB8NjYqp1GIF4a2VndabAuGrT572TjCp2t0B7p5dD8CpuQ/ovuC1ALhGbFpGniCNvz0U5kNHUANJMb9h97fgUmw6X6Lhu1wv5XRvE9VmEWoJzWNuRFvitmKVo8zOqkXgnMA5pGouChS+7rdEpwnFckRzbNvr0Fr/itcAxZshdmuCSSFajOOqiSwWjXXah6h2Z1giYm8kTjnnHGHhtUXgaSMa/1Hcd+6D6qtzU66Jx3B+rieRq17m+jhf/AEqjzKLWy8JflFHYLEbZeIUHkX/CqcNbfqsribWUsjrC3KyS4lOdgbLclSPPYHV1DgQTqAfW3PVFyQh7eoKSzDqpqGZxaQT3QbePXRC9nUeR0xaXN65SD5ZvijYhZuUeKVzzOYRqS24uD08E6oaYvflB03zdG75vZ7yF1HBmAnsryHc6DyG5+4ehVnjxJjxyVanYXOswd0aAeHx+K8fh7twbJXQ6dFpc4LyKYXVfopHtGU6o5uYoUMmPSL6heOcUupqpzPpHTx0U0uMU/OaIH9tvxS0Mtkr91o6bly9yEfisN/5aP++34r0zxOGkjPRwP3FGjtnlXT5e8NBzsltdHYXB7p1RzqvL3JPo8nbj+CSV05ZcGzmHY9E8UTkxBxPTRzQhpPeBIHhfYg+Bt71zX51JC4tNwQbbkf8AkFdCredtVVMdpM4zAajfxH8FHyMVq0X8bM4ujSKuzt1N/Pf2ouhkae7e3T4eSrEUrmHQ+nL2JrSVWc90Wd0XmyienGdnQsDq7EA77FGVjCZ/AnOPG4AP3WVUoapzbH2q4UdUHhv5sf4qmCdaZPPj5K0Gl36pzPtOFvGw1HtsjMOosoB2stoDppa35/AImF1iB46raefQypY/rFGU7VBE69lvXF2QhjsjiCA6wdlPI2Oht0KIBZx3GPmp8HMcPbl/1LmkhXSTSiZhhlYO0e1zWy3c8O00cM13NINjlJsLixK5bWksc5jhZzSWuHQhI1Q8H6MzLEH84WIDUdGqI3Pacn0hySGeN9yC1w8bJni8EsWrX5db3Gx/OiVOxZzjknLv7JsD5rYzGkBlpvbmt448pseev59qL7Rv1GW8SouyzfFBhBamO6smHQOjgDLHO4Au8G7tb7LE+PkgaTD88zYXdbu8WgXJB8QLequksjWC9hddYKEdLRPbqdke199NEBXYi52g2UEOY8yErHWhpFEuY8ecZ1cVVJTwyCNjLAFoGY3AJu7fddLhkPNcL49dfEKj9u3sCfHFOVMK60FPwqrqaN9c6qD2MJD2l0mdtnNBuA2xsHB2+y1x3hOalMDXyRyGY2ZkL3XN2gauaN8wta6c/JXL2jauhcdJoi9oO17dm/3OjP8AYVxqJaZ1PHUg3Zh0kgAOt3QsdGwE9S7sX+xRyZZ48jXr7fPRSuSOZY3w9U0zXvka10THmIyska5ucbixs82Ol8ttEtxPAayIvzwyN7NrXvsQcjXZsrnFjjYHK7X+qro6tZ+g2SVEXb9pUyEt7R0d3GSXXM3XkdEwxSqIx3sHWdHPTdk9p6ZZH3t6Ef2ij9ee1S1f9Ucor0c0hjrS0GNtSRa4LWykEXIuCBtcEX8D0UkeKYnGcodUjS+VzXnTa+Vw2Viwyrc7GGQsc5sUTvm7WBxsWQMkDS7k43Dna83FG4PI91ZiWeR+WNsobqTkGc3yC+n0L2Ftl08su6XVhKtDxpUxnLMxrjzDmljvd8E7wrEm1DC7KWgktIJvqA25B6d4KiYnJmkcRI+UaAPffMQBpcEm3ldWzhCO1O09ZXj/AAM+CMr1YJJJWEuwsPkLDo6xsfHlfwKVWMTgSPEe0jQ+istQ6xY/mDY+m3uSTiOYCxP2zbTSzhd1+moHtKzZMaq0Uw5WnQ0o8SzjTQem6OwzEXtdlJPQDXW+gA6klVCgxEBwaO9fbLqfUBPqKuy99hBk2GxbENbm+zpDoOg157ZVCnylpG6WTVR2/wDOzqOF1QtlJGYCzrbZ93AHwJIvzsmVLJc367eS5zgeIWNuR0PxV6pakGw8B7FpxZeaMubFwLLTORkrbtSqklTNrtFYzsEqqNskeVzspa9kjHaXa5jg4EX8AQfAlc5+VGANlZUNAyy3a4jVudouPUt/c81fKyf9Y072N/z70LiPCEdRRyQ9oc8mVwe5xfZzTdpsA23MHwJXSZ0e7OIfO1idf/zfFP8A4G//AKNWIaKc0PGcetyWkpnsHQXe0+pALfeFq2WOoHaxEFh5DdvgRuCgZ8PSl1FJE7tIj2cnMjZw6O6+e4VF5UJaca+3/oH4tbi7LbC7ugEEDqfxR8cB30sqnDxlE0hsrXsfsWBrfbmc4Ag76JxXYs0jJEe64Ak7b7tA5KkotR5PozpOUuI64XxAvrMpILAyTLoL2Fue9rXVgqIXSG/JUnhhj2yie2WJgcHvdo3VpAa37Tr20HrZWfD8dYeenipfUiW+hL0g6PDOql+atCjqMejjaXu0aBck2t7Vzviv5RLnLDoOZ5n4BLLLFD4/GnN/B0CSy4XxHQyT4tNDHlzvlcG5jZt7E6nlsul8ITTviM04LRJlLAdy0X7/AIXvp4DxCpFKAeIRbb5w/wBzHqmOb4869MSUEpOKdgtPhVbh9dA0NYZ5ARGGvJY7tA6LU2G18x00sCo8ZpazD4HUc+QsqHNmOVxce5ob6D6Ryf3Augvq45aWmxBxBlijfGw//dLlp3ex4cQlnyj4X85xGkg1DTG4vI+rG17nPd55Wut42HNLDPymuS+/8WwOFLRVJKKDsYIxiGbLNGJ4u1LYg2R4vJTh1mnJd+ZwvuXaDRMaaCKeshnixCV0rpDEHSdm6aJrYZi7NmGWQEtaGvGhDyLXCsLuD4H4m+V8YNMadtQ2O1ml2jC0j7Itmt1cFVOF62KurYYpqOmyuc97eziEeVoilPZuyfTF8pudQWeKDnzTcb0t9e/4ClQBXwvpHQ1rJi2eR0jzHKxglYTcFzmC4LXZnWu1vkltJxJPFJNI0sLp/wCVzMa4OuXE90iwBzHRNuNsKhow2BkIM0z3zZ7OIZGXkRwRa2doBc66+aYScJ01PPQtqGZ452GGUh7mhtSHHUOaRpmOS21mk7p1lhwVq7v+gcXZRMUrDK7M5sbbAANjYGNAF9mt0B1KuHDUX+xREc5Xn3AfglfFWAx0TWxPGed8sjh3iMtO0lkdwD9J5DnX6BWrhim/9OpyftPd/iI/BdKalFOPR0lSIZ23afzqNvh6pPVu7juhFj5KxZLlwVdxCOwe3pdSk9CQ0xM8EaXOmm/55InDqvL3TtyWtSAWscN9Wn02P4eiCdusWSNnoY5Vst1DUWO6u+D1d2gAi42P4eS5RRVh08Fa8GxHbVQjJwZoklNUdSoKq+l7HxTxstxlacx5nl5Kj0dWHgHmmz+JXxDSFpaNyy5dp0aTr6L0MeRSMGTE0OpKJxN1PT07xslWF8bUsxA7csJ2ztDQTta9yAb9bJ/85DdXSAjyPv00WiUJQ1JGZNPozsH/AGvd/FYpvn8X2wsU7fwNRy6p/BAVWy9WLGbl0ULjf6I8h95TzDv5Jn7Df3QsWLXH9v8Akgv1nRcX/oqD9lipeF7/AJ6rFiyyNeH9LLnSfybv2T9y4bD/ACn9sfvLFiPsf0z6Ixjf89Fx3Cf/AHAf+Ym/y5Fixegv0v7M8qPYfQ/0PT/9QZ/muV4qP6ZZ/wAjJ/3DFixZcnf8sr7GtR/O4/8AgVH79MuN/JP/AEnD5Sf5T1ixDD+jJ9hZdosvH385wf8A4jP8yBB8UfzGm/6lP/3NSsWJI/6P89sb5Efyw/0if+FH/qVq4d/oym/Zf++V6sWqP7UPsJPpgp3CR4v9N37P4FYsSS6IrsSfUd+frNQUu6xYssj0IdHsHP1TzCN/Z+K9WLPkNEC9YRy8vgm3JerEY9Bl2ctxv+c1Hm5dg4N/m8P/AC7fuK9WL3/9lA8jJ+9I8WLFixHH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIVFRUXFxcXFxcXFxcYFxgVFxcXFxgXFxoYHSggGBolHRcaITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGi0lHyYtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAAEAAIDBQYBB//EAEEQAAEDAgQCBwYEBAUDBQAAAAEAAgMEEQUSITFBUQYTYXGBkaEiMrHB0fAUIzNCUmKy4RUkU3JzNEOiBxZ0gpL/xAAaAQACAwEBAAAAAAAAAAAAAAADBAECBQAG/8QAMREAAgECBQIFAgYCAwAAAAAAAAECAxEEEiExQQUyEyJRYYFxoZGxwdHh8HLxIzNC/9oADAMBAAIRAxEAPwDzZ0CGlhV06FCVEaqmEcCklYh3hWM7EK6NWTBNAlkrIoQJ/wCHUORFgNEQvTnU6aI7KLnB8MysYJVTRBWNOVDReLLaKRGxPVdTs4nQIyE3IDQSq5QviJBJKhkCOhp2AXOvf47IWXXhz/soyojxZAUoQ0jVaGmOzRfS/wAt0LJCdiNfvkrqxPjPkqJ4UFLDZXb4T97od8SMoXWhV1ipbop2PXZ4LFQbKtrA3UuFtlTusQgenh64rmCetUMrlGXpjnqUyrGvKjuuucmEq9wfJPEVZUrlTxvVjTPVkyskWeZJQdZ2/fmkrFC0exV9U1WUjlX1KTNh7FXK1MESMEV0TFSrhdpFcyBSCBWgpE78MqslRKl1MoZKdXjoUJPGpRziVLY1fYVh+YZiL8h9exR4LhhmlDRoOJ5DmvRoYIomhrWhX4BpXdjIw4ad3N8PvgrCigA2HorCrqee+yCjnS85DEaaQc2mzEDgLWXf8N01B3vsoYq0CytIcSaRqVCZZwXBX1FOGjQEXG9tfH74rN1bddjrr8nDuv8AFbmXEmHR1iLLJYwxpcSDoRoDwsbm3LZWUkikoMqJNDY8/wC3h/dDZwTbj9270qyQ7EcBr3H7PggXvN78bDT77UWFSwGUSaZqr540aJbhDSlNOzVxZ6OwHdIvXZFGUKxY6XpriuFJcQNKauuTSVxI9rkXA9AAqeJ6lMhos+tSQnWJKcxWxqHtKiNOStAcPUseH9ihUmOyq6FBDQo+Kk7FcsouxSdQi+DoBzlR+FTJKZW5jUEzEKVMLGRRzssq6oVvWaKlqHoNtS8noa7ohRhkBlO7ibHsBt8bpVlfrpcqCgxmKGmibI4glpIA3tmOqHOLwP8Adf4FdOXlK042IjWF2pCifWclJI5m3NMkfGwakfNL3D6gc1W46C64yd446pSY9AzYXI7d1E3pZENOpaQVVxb4JU0uSwppnEgE3KnxNobYk6fUKPDZ4pbvi0sLlvEKqxSrcTzF/JAd72C7oGq576W47/NV0j+PEb9qldJfQoWQcEeDYtNE0MuibJIoQbKMvT9N+USmtR7nKMlcLk1xXNkHSVwlcJTSVDOOkpt0iU264kcFIwqG6lYuOsS5j9lJcsF1cQe6GjSFMrp0ChfEtLKgdypfCh5GK0lYgahSy8SvkQlQ7RS1MtlXTy3S8g6WgDWlU1QxW8+qBmjVY0blZ1LAWIRRdU10jnZrWFjsBsqdsQvs4DhcK9rKOR7I3RtBILt+zj4XQkmGS9eWyPcY9bPzXzaaWHA9luCznF5mm+QicbJ2JYJiBxJQGISnje60vRrCXEm+oA3I4H5oXpZhORzXAaHeyX7XqMWco6GQkYOSnhgI1yA25EE+SMiw+7wXAlnEc0qPC2Nc4vcTpZtmkHv70xdNALWexPhtWGuDmizhv9CFcyQiT2hx3AVRHhshOYXPIne3C/NafCqM21SNZq+g3S9DOT0xGlu5Vs7Dchtzw2uthjNOGG/YquCcRgNBAuLkm3HirRnZXIcLuxFTdFJnxF7pIorahj3EOd5CzfFZqS4JB0IJBHaN1rKqhLqZ0riC4OGxBNjfXQ7XHqstiR/Nd3jzsL+t01h6rldAcRQjCKkmRXSum3SJTNxMdmXCU0KVsahslIYQuZUY2FO/DqLlsoEGo2lpSURTUVytFhuG7aIkFmYOehS/4YeXxSWx/wAOHJJH8EDmPVHoSZTvcgamROEoHnfZVFZOERVyqhrJSqSdg8IXIKyoQZeo5ibrrAgxd2MSjZHcqHmYiyoXhORSM+q2afozRB1KCQN3j/yVfPhMYdo0d9lJhlflpwy9tXfFOZUx39t+Rg1JPw8VgYif/LJe5pUIXpp+xaYdTNZEbC1z8NFX4xAHsJtxI7rW+ahxTpLC32WG7WjRBf8AuSnLRndz0uOKTreZ2Q5SVlZlaImgnRTNDDoRqhKlw6wuY67CLghCvrNe5cpPLYpKMVLU0MMbAnyTAA2KoIsSHeUpK7NoECVwkbA2L1bnnLzNh996mx8sMZaAMwLQDxtx+CgjP5jSeY+KMw0se7O4XyvOmltDxV9rexC8zZX4HTOGe/uZSDy11Hw9FlnvuSeZJ81uOmlY1gJY83k2boA0Ws42H3qsMncOm05PkUxUtVH0EkkkAmRQliajoYkPTtVrTxKjCQQ1kSlbCi44UTDT6qLh8pJhtH2LUYfR9iBw6BaWhhTtBClVDPwgSVt1KSb0FrBkkiBqJFJI9AzvXOVgkUBVTlS1StakqsqGpapMbpoq5AkFK9qiKDCpqGnsJzk0uUb3KB8qcjUM+rG5O6S4te3Ed/8AdWFJQiRmV49lwN/Dt71npZ1eUte3qmXNgcwJ7AM3nZIYynFyUwuFk0shncSoIoWljC4m+hP0VDFQ5nalaavxOIm2Rpt5+aHhroi4ZmDvFx5JVu2w26cuSywyiDY8t7lB1lFyUj6lrQXxuzNG4/c36hSmbML+KUa5D6WsygljLSnwym6NqGXuDb7+ygGix3Csndag7WYYX2tr2/fmo6kCOJzh79xrfiTy46XTDLew7VPirP8ALv72H1t810V50vUl3ytozc8znG7iSe1RpLi0UrCL11Y5dC4F0FSVDqUK4pwqimKtqcocg8CyhCNgj1QULkbA5U5GS+oGK/o1nqKVXNLKnqDEqqLi6SE64JJq4vlJJUBOFYSlAzOXTJgATNQE7VYyoKcJGoNwKyZqElKNmKrqlyWuGewJPLZATVCdVyKrmlTEZsDKCJ3zounlL4zGDs647nAtPyVIZkThtTZ47dPPb1spqPNGxRRs7h46JuMoEri1rmtLHgaEkjQ+qLf0IY026517NP7Ra5IPlZaHDukcJg6ucXtoDy5ISp6T07LljQbD2QRx70vf3GlRUvNcqXYD1TLvk1sQL7nkewd6Cimc0Fp34FCVmMOldcm/05JjZS4peUW2dJwWkWGOm80LI/dKWUC6jiGY8lVR5KthFIzUEqyxYf5eTub/AFBAsZr4ovFpP8s8cbtHm4fRVjrViEtamzKlNTim3WkIHV0FcCniiuosc2T0iuqdqr6WBXNPEucC0Jk8QRcQUUbFOxqo4DCqFhSyK2p5lRxFHQyItPQFNplz16Srus7UkbMCNLMUFKi5ShJHJuaAQYNKEDUI2Z6r6h6RqjcACZV1WjZ5FW1L0oM2KmsVROrWrKq5xroiRIaBHLQ9Eeik1XLF7D2QF5zS2sLMaXuDb+8bNI04kKLDej5u19T+XDmGa59stJ1sBtovWMaxYU9dRBoDKXq3wtDdGNzCw02/g9U1Souer2AV3OFla102vhHkf4puZ2lxc2vy1tdVlUxpOyu8awoxzy05OVzHHITs5p1A8W2Pms9NSyg6j1CVqQyyaJkuVs9voPZIALWXG1NkOYXdiZ1ZVMqZXUNL76lWFBTl+2ypo2m+y02EOIGqBW8q0DUlmYQ2jy24pYnFnheOwEd7XBECS7rJ9ULRPP8AKfMiw9UpTl50x3ImrGGKbZelVvR6CVjH2yufGx//AOgN+I1uNDwVFWdDnDVjr/8AkPG3tDyK2WmgE+m1lHNDVexmYY7q0padcbQOYbPaR8D3HZW1HAiQiZc7p2Z2mpVZQ06kp4FYRQIuUomCsgUogRzYU/qlGQupgTYlIwIgxrmRdkOzjLpJ+VJT4ZGc0M0iClkUkr0DM9NzQOmxs0qBnkSmkQ+Rzth4nQJGojQpQcnZIGmcgZmk6AXPZqrptC3d7r92g807rQ39NoA/it8OaCqTe5p0sBVl3aFI3BHEZpXCNvbq49wU7BHF+jGAf9R+rvAcPRETP1uSSeZ3VfM5EUVHY0KeFp09bXfqyGqfmN3EuPM/IDQK4oakVlOaSQ2kaLwuP8u3iNu4qilQZe5rg5riCDcEb3CJSq5Je3Irj8MsRC3K1T9GXdZGa2PI72a6nGUg6GVrdjfmOfbyKyU9Q4EtkBDhobixv2jgVrTMysyuDxDWM91w0EluH3t2hBYpUMkPVV0RimGglaLAjn2jzHci4ijGqsyfz6/yeehUnSbhJfHK+nqvyMq5yYXKxrMDkaM0ZErOBb9FVEkGxBB8vRZsqUobh41Iz7WSgq3wufgqYOCKpZLHdAqxvELBtSNHHYuNk/EZPyi3cuLbAb3BB/t4qspa1rSbq6wKk1NZN+lGczR/qSD3GNHEXshUMPKVReg7nUIZ5fHu/Q0uJMyCEcmvZ4Mkez4tQsdRbZE9IbjqInWzshb1n/I8ue71cqggrVn3M1+mNvCwv7/my2c6N+j2td28fNDvwQbxG/8ALx8OarxI4FF09dZVUguIwdGurTXzyTQw20IR8USUVW1/v6/zDcIlsfL2hzHzCYjNM81jOkVKPmhqvuNEa4WqZcIRDHByxNLVO4KFy44ZlSXbhcXEBb3oOd6c+RCTyJqpZK7LYenKpNRjuwed2ttzy+qlhjPHU+iUDAiQ8AdiQbu7nssLho0YWW/JC+Pnr8B4IaZymkmBQ07hzVGxywJOboSRSz1ACBllVGysiOVyFkKke5QvKrcXkrkDmq0ixslojnYJo/5veHcVXJpCmFWUNhGvhqdVWkrlnFhsLzelqXQvP/bk2J5X4+q7VUVU39WmbM3mzX78lTujRtHic8XuSuA5bj12V/Gi91b6fsZtTpknrF3+v7rUCqfw5v8AlyRvHDb4/RPwnA5ZtQLM/jdo3w5qSlDet6yZjpBuRfc8zz7ijaqv659pJDFANmR7kcAb2QvLLVkvD1qWkF87/gv3JomUVO4Ak1MnBoHs35WHzutZHEWNbW1tmtZ/01KODuBcOY9FnKXGIIdKWm9r+N2/id0NJUSTPzzPLncB+1vcFfxIw2+238nYfAVq8/PdLlvf6LhBr650j3SPPtPNyjYplSOOl1JBMdkHP6nq4WilFcFhUTHkhHVCLkbmaquojsobZdtlhBW24q4ocS5FY3UImKUhTGdiFU4PQIqgP7D6FPKyNJiDm7rSUlTnb97JqnUvoYPVemxyuvSX1X6kryoHuUjyh5CjHmjmZJQ511cQSPcAg3a6pskudwaPHsA3K6XXPIfIK1epmlZbHpek4LwaeeXc/t7EnWWVdWVpva67ilaI4yeJ27ln6CYuu4nU3Pglm+DWlUUWlyWzqpCTVh5oR0xJNtkG+bXdDlKwN1g1811GXKJsqeUK5Ga5xxXE0lIOUXK3EkAuhPAXIixHlXcqfZdspJURuVSNC5ZSAKoWKE1SNOqanHcKA0dCUDcKM6aqQb3Ti1cXDaWS7b8vguVUFxcIKklyusdtvAqxYcrsp1HDtHBW3CRd1qUNQSCmMqbK1xGmFr8FU4hYNFhvx8VXYWqqUbtMnbVLQYPV2sRsfisaJND3K26P1OaMjiNvj8lKepFGspSyPlHodawDKW3yva17e5w27bG48FXylW7GdZQwScmegcQR8D5qmlWlwmeGqWVScVw2vuR3SXFxQUuekzYJDNA5oiZFnI6ssY0OaB7t7DW/EcivO8Vw2SneYpBYjW42c3gWniF67UPDBpvs0cgs503woTUuUECUXcxx5ndp7D6aFWcc2yC9L6nLDTyVHeL39vc8J6SV2d2UbcFyF2WLtOg+aqpQ4ylpBDg4gg7gg2IVpPu1vABIp3bZ6SFV1Jyn+ByZ+WPtKrGSKbEpb6IaIKkndgqtR50kFlyLp5LiyDh10KdA6xsoQeFSzTC5WqMboluoTDGoGZR5R1gUllG1ShXJRxJdslZVL2EAntTVIFBaIl0riRXBCRpUt0MFM06LiyZyVlxcIhkuaO/7mf08PI/FRQv1ISDurcHft2cOwri1+Q9xzt7HC3cQqGp1jIO7XehVtSuyyOiJ0dYsPbw80DXR+25v8QuO8a/JQyKvmj9ijldYIvo3LZx8/I3Q2IRFo14i6n6Lwl8zWD92nha59FEVcx3U8KunLhM9kwJwZFHC8eyY7dxcC6/mVn5Fq6t8LYGuPvHRo48lkpzqe9a8lZJHj6dR1KkpPl3I0k1JCD2PW43Z33OwVRj1Zvc6fJWQkyxk81hel1daMi+rzlHz9E7COrfwZC1aR5hicQNXJIBZrznHjufMFBySalX3SmDqxCdrxkeIeb/1LLvesvERyTaPZYKonhotf3ghqHXKV1G52pXLpY5y1bC4n6gqSY63CDa6ynO11KYaE7qxYUsyNYjOimC0k7C6Wpna8Ot1MFO+V9rCzrgEWOuluC1dB0Von1cEGSvGdsrj+IZ1AdlZcFlmtdofD53jBhY46MdHe6MIWWKdZaHpRhEcFJQSsBDpon9aSSbyMLbkX21J0HJbLBcOpI6GnpKqL82sDnmQNBfEXawuJt7IsWjle/MqcrCTxkIxUkt/6zywrgVhj2FyUs74JPebqDwc0+68dhH0QCo9x2MlJXWw4BPCYE8BQFiJIhdCbdQWYhupIna2UN08fNcQmWmFFjW1LnRMkdHGx7Q6/u9aGvsQRY2e3yRMvV6xyUkgd1Ykd1Mmcta4XGYOGltLjgh8Njc4TlmrvwswtprYxv49jCfBazB+j/WRdY5zyX0pHWOyl15g2QMNtTldqD/M4ckLEV/BjFmZUbjWmrvjl7WRlcQoouqJj69ssUbJ2CVrLPge5ouHMOtswI7L8kFXvD2tlHYT2Hj6rU1tE+N0TJA1sboamKOM361kYicSHcHDM0OuDu/TdZGhblzwu23H+06Hy09VaFRVIKSG8HOV5RbutP79ipxl/s5eR07ifoQrX/05g/OdKTYRtv8A/Yn6A+apMcaQWg8Ljytb0IWt6BVEEMf5tyXHMR6AeSNRXmRh9YrNOS52NXVSukJedrWty1QNU3U95V5WV0MsQdCCPaAN1T1w1PeVoz7TzeG7mBXKSZdJAHj0rFp7NDexec41N1lQGX0Zv/uOp9LLXY9Whudx2YCfLgsHhZLnOe7dxJPitVK1kY0NnI505p70rXj/ALbhf/a/2f6svmvPc2q9NxqZphkjP72ObbtI0PgQD4Ly5m11lY9XqXN3pdR+FlfDGXXQ5MU8URKTsOxu9houUVBTvOgUsbWt3tdSXLv3gDsU2Q5Cklu9TYdFMeZS0NZD1pjmeWOhLNSXDRwJA00A35qPA+lksVXDU1EkkwizixdcgPYWnLfTkfBZWItbtqeana4FEzMNGhT103Nth/T7LBHE+hgmMTpDG+YZsokeXe7bfYb8EJJ0+rjNJOyYRl7WsLWNGTKy9gA69vePmsuXJzVVyYaOGpLaIbiuKS1MnWzPL32DbkAaC9hp3nzQpXGrpKqNJJKyHhSKIOUgdooCxZ1NcUiU1xVS7GFPjconOXA9cDvZmy6H08QIne82bIYzGG3zdZE4My21DnFzmgHQkWWxoqtkLRTSuMboY2tAfbK9sYaGyjT2WnP+7XQ8l570KxOKGo/OeWMe3Lc2yB2drh1n8I0NnftJvtdehdJMFZUxZHyFkgv1bzsQfbDZbXBadLkbHXiQexGGjiKSWzRg16sqeKlnu4v7L+CLGRDLNAOtbmDnstb3myx5XNJ2Ba14fY8Lrzivp3xyASNLXNNjcWu1923HMZgVtcBwjqQ3rHMmf1drBwdGxpBs32feIzFuY7AkNWZ6Yu/zJGZzh1YF3G5uHF1r8bZst+NrqtLD+BRyt8/mNYLEqWIcYdtt/df7M1NRmeqbGNgA555AaetgPFbzCMMbmHsiwsNtzyCxuDYuIXvcYw7MdTxsNAO6y33RbpBTvd7QIPAck9hoxt7nnOqVpVq8pLa5qJ8HHVDKNTv39ixmJOs5w5Ej1Xo+GVTCQAfZXl3SWpH4ia3+o/8AqKYqbWE8N3MF63tXVX9akhWHbmv6X/ozeH9bVncJ2CSS1H3GNH/rBsX95vf9FgTx8fmkksjF9xsdN2ZC1HU+ySSWRrUNwSbddiSSVSv/ALDI9vvtRMaSSsh6mTFSt28UklI7Eefv0SK6koQVHB8k7gkkoLxH8Fx/0XElUIQvTf7JJLgEjs3DuPwK9q6F/wDT0H/x2f0yJJI1PtZldR74/JYVv6b/APmZ8AvH+k/67/v9iSS6p2Aen98v8X+hRxfRHYP+qO9JJXp8Hn6nJ690d2Z98V51jf68v/JJ/UV1JO1NkAw3cyrSSSQh0//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUSExMVFhUXFxcXGBUYFRcXGBcYFxUXFxUXFxcYHSggGBolHRUXITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lHSUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAACAAEDBAUGBwj/xAA+EAABAwIEAwYEBAQFBAMAAAABAAIRAyEEBRIxQVFhBhMicYGRMqGx8BRC0eEHUnLBFSNissJTc4LxFjND/8QAGgEAAwEBAQEAAAAAAAAAAAAAAAIDBAEFBv/EAC0RAAICAgIBAwIEBwEAAAAAAAABAhEDIRIxBBNBUSJhBTJxkRQzQlKh4fAj/9oADAMBAAIRAxEAPwDkc2nuSZPiqCbzsCZ5rBAWnmFaabGzxJ36QFnhTjpGme2DCaFJCYhNYriREISEZQldJsFJOkunBkk6ZADKSmECs4WkSbLjBE1FivU2ACVCXtpjxAk8ht1uma11X4R4epgT1PNJVj9Fw1qY/N99U5xFMiZ9rwsaoC0wbcVJTcPfdDidUjWdSkS24+irPCZry0Nc0mxLTzB3HmP1Wtjctcaf4hsFjrmDdp4gjz4qbdDrZiwjahO6JiYUlYpAgYpAugM5QuUzlC9cAicmTlMgBFO1CnCAJJSTT0ToOmfUqajKQQhGAmGjsSEo0BQM0RuCEo3ICmRGSGKSZJdJiSSThABspKYPgEC3NQAJOceqDotfL5qWnjagEA7SRHAnc/JVp5hG1vJAAvKNj1PRwLnbAqwMqeOH1SuSGUGCzES3qB7kf+1t9m8fMMMncaeBBt/dYv4JwvEK1gsJYkTqbw5tm5CWVNDR5JkmPoaKjgPhm3luFC1dHSNPEMde5j/xeBAPUHj5rCxGHdTcWOEEevt0SRl7DSXuJikCjYpE4oLlC5TOUL1wCJySdyYIAZJJOgBpSSlJAFMBFCKEiFZxCMgSgKJxQEpKKcgSgKMoSuolIApIoTQukxkRsE0J3/D5lAAtqQrNI6t7KkpqTkNHUzbyvL2uI481puwTQLC8Nb6k/uqGW1nNEMGpx24R1K3clwLwRrdJGwF7nckniss5NGzHG9GpgcoAYD781eZlYibeRH3dXG0SR123P380z2ECFk5tmqjBzGg3UZAiOAsL3n0WUxw1NIBguDZA6wf1W/iy+Dpa5x52jzJJusv8I4uEghreBNyY3Mcp+a0438kZxMjM8E6nVa+nIDpvESJIt7FSdoB4mE7lt/TY/VdBj67fw7QW+KlVNzuWO8V+cFx+ax+1Oh2ipTECIjiI+oO906dtGeSpMxWlGCoWuRByvRGw3lRPTucgcVzidsEpkiUpXKCxJSmJSlFBYUpIUyKCyMhA5SOCicVpZJMjcUEpyVewWT1avwt91GclHbKJtmenhdfhf4f4h4kOapK/8OsU0T4T6rL/ABmG65DOEji4TQtnG5BWp/E1ZTmEbq8ckZdMRxoihPXFgFNSeQZlT06WqvTHAuATWCjeijUwzmiSLTG835FFhaZc4BdTj8rYKDTIa50eEm7pWPlmHioJEJFktF54eMqOoyzBNa226sPzBtIyQSeQ+ScSII6IcxwZeLQI9fYRc+qyXb2bEqWipW7aPHwsHqYT0e2rnkNeyPJZWNwT4hlRvUBob+5Pqgy/JSSSSBHz69FXjjqyKlk5Udf/AIw0M1ff7LKq9raTHHwk35KfMMC38MS1vj0nnwXGvw7mwSwmeRI+gRijF7O5pSjo7LGZrh6+FqFktqttp5tI38gR8+q5/GVRoYAZJAJttGw+qbAYcllUkEEMJEiDuN1RcdvJXxw+oy5JaDDk4cotSWpaOJCyQuQkoJTSjiFhpSgSlc4hyHTyhlMjidsLUkmSRxDkO9QPVmkJsVHiMO5u49RdLDImqNGfx5Rbklov5Dlut2o+i9OyHKGgCy5LsvRHhXpeTsEBeD+JZ5XQ2KNI0sNhw0bKV1MFEEgV4V7GOaz7K2EGy8w7QZUASQvY812XnPaJu69XwMsk6CStHAUWX+XO6c1NNRjuTgeu91JXbvwgqLFCmfhnZfQp2Q6O7bgGVfGTOlrdDf8AVF56iFBmmHY1zXBosAfWLys3Je0dJjAHiHAAahxiwPmrjcwZWLtIiImeMzJWRwlF/Y9LlCatFmidey2svwoeRq358lzlJ2giNlpDM9IlJJP2OqXyWsfllMOMiVBUY0ABoEdFhnNHV6kSdA+Z/RDm2KxFO9IBwO/GPRMoPpnPVj2dFTMiDb72WdXyIte5jahaQdrEcxuufodqawkEAE7iIWg7tBVdpdUa0RA1D4nACBq9gqKEkTllhKjWxOAc3D1ifEBTMuN4Mgjy2XDldzUzoPwuIZFnUyJnqCPmuGC1eP0zD5NctCTJ0loM4ySdMugJMnShADJJ0lwBSkmSXQHpiCrbHk+YVFj5upRUWBo+gx5EkbWX5s+mZABjdsR9F3/Z/tZh3CHnuz/quD1Dh/deVtqIqdUjy5fosuXxoZPzFJQxzXVfc9mrdrKDj3NCvRFY2aa3eNpzt8QadR6WnmsjNMjzZru9/Fh0/C2nVe2SJOlrNIYTAJjjHFeY1AHSfZdTkvbTE0m06b3GpSY5hEnxgMMhoJ3FuMoxeJhgtL9yPpTxu4JNfdBs7a4pzS12h8fmLYcR10kD5LOzDOBUBmzuXD0lZ2LxLHV6r2ghjqj3BpsQHOJAMcpSxQBEgIWCEJaRol48M2K4qmVatVr2gFviHH+YTMHr1VF1DjcLXFBhgAj2v87rov4b5HSxWMiqA+mxrqmjg4sc1oDuY8Ux0WuEkeXm8XJjVvf6fY53E9jcS3CtxbmgMdcNPxaeDiOAK0cLgBSEzJdv06L2vtdlzauEqti+h0eYEj6Lyaq2Wj0Upzd0xfGSabM+q+yr44TTdClqG8JgJ8POUqLS2YNDGvpEM03O0mBfiugwjKtQAd5hwSB4S48XaeEqDHZc2oxoPDZ3I8Qeiz62R0mjxa2j+aJExzA2VLjIlwmuujQx2TVm+PumGDctfbzvwWNVx4eIiCLKRmVNjw4gT+W5HylWKOXd20B2+7lRaQjjK9ogNYspd3/Nv5Dh7x7Ku0osfUBeY4QPbf5yomrVjVIyZHciRIpJFOIMknhJADJkSYoAaEk6SAGhJPCSAKjXJ2uUQ2Tg2WSj0FMstepmvVJ1iibUhK4l45q7L9N1oU1MqnSqKXvDpKm0bceVVZMGiJVjCCbKrhzMK3hNz0SSNWBptMp4lhBsb/ou2/gviQMa5p3NJ4Hu13/Eri8YdvKfcq/2RzL8NjKGIJhrXw/+lw0uJ8gZ9FSPRh8mDbkon0fXZII5gheLZlhjTe+jxY4j0B8Pyhe00qgcAQQQRIIuCDsR0Xnf8QcBorNrAWqDS7+obfL6KWZbs8zxpVLj8nnOIeWuhwUzSIDhwuruNoyDaVz+JlmxtyXI/UaWqZ1LsMKjAae8XH6LLrYereJA9foszBZy6mZ4LYHaRm9pXVCUQ5p+5njDVZm49IK6fIOzLsW4t1BjWtPiImXx4Gxym5/dZNLPWOdESSu37H1SC0czPuVaNvsjklW0zhW9jwW1HPqik9mqW6S5stJBBgyNuErBxuVVqIa6owhjvgqR4HeR59DdaefYtwxmIc0kTXqSOB/zDuOKnzDtPUrU2U3NEAy4btdaBbhuqxy0iuTw+btas5wJLQrYRjhqpGDxpn6Ndx9VnlaIzUujz82CeJ1IRSShJOSEmKcpoXDgkkydB0SSUJIAziU5TEXSZusxrJXIXJnFMih5SJKLlZc+0Kvh238lK0JJdl8TaiT0KsK9RdbSBdxv5LOpqzQsZ4/dlKSPQ8eTWiTFN8RQUNi319lMwblDStJS3ovwuV/Nmz2b7b4vAQxpFSiP/wAnzA/oduzyuOi78dqsJmtA0Wnuq+7adSB4htods4fPovLHkEGRIO/MdQqLcOGu8V28HA+x8wi1JUzFm8OpqUf+/wBHY4jUCWPBa5phw5EFc5m1G8gGZ9EWEzV9OqHVv85uxD3OlzeHiBmQBZdG7FYCoJbraeQeD8nifmkScWLki30cFUJVnLcJ3joNgASStPMcspyXMq+jmFvzBIKr4ZpYRpl4PxCNII6OP6LUnaMjhstU3toCQ3p6dSvTOw9VlVjajN7Aji02kf3Xl+Y5oHNFMU+7aDJG5JG0k77rQ7HZ+7CVu8Mmm6A9o5cCB/MFxsosHKGuzMzV8163/dqf7zKraRzU+LrB9apUAMOe9wB3hziQD1uqxhIbl0WaT9PrundSB3N+Dv15hCNpSBvCFJp6KThGceMlaIa2Gc3r1H1UK2qYkaTv+U8fLyKr1MIHHwmHHYGwJ5dCtEM6emed5P4W4rli39vczUyOowtJBBBBgg8EC0HkNUJJJJdOCToU6AKPFA0XRNclxWU3d7HKEhSQmaFyzriSUbBSAoWhOUjNEdIkYrLKg35Kkdk7NkrRohlcXSLre8IiVdpU9IlxmdhG5VCliiLclq4Ais+mwuFOTpk7Dkeim0zdilCrt2M2lI6/e/sqVamA7SdjcdDyXYjskSJbWiJBLqFYAabO1EAgCeMwuYzXCPY51N4hzT9xzB3BSFXOE41Ep0aQdLHWP5Ty6HomOHfTPH0uD+qNwlocNxYqs3FOabJ1ZCfpxrl+5r5ZhG1W+IEOkkRLTHQbR6K47A1GbvPSWggqjk2Nc6swNZqLiBpB0z0B4Lr8ZWwxa4VC8VGwBRu2q1xH8sHV5iyZSrsxZoLl9Ds8+xrSHHVfrw/ZAxxtJsr2OrscSCCAHTBidoExb0UJa02au8isMf3IONlJVbxUQF7Kx5GVwpFWhUqoiEZEAE3UIoyjoGQWneLeYXCkW+mXA+BIN4BnyumFYOnh9/uqlGqYjzULHxdcSHebo08RFaJs8CNXUWE9Csh7CCQdwrzXXn3/AFUv4B9UPNNsmm0vd/QBLj6LRgyU+LPN/EPGUo+rHv3+5lwmhOmWw8MdJKfuydAEFSkD5qo8EGFdCr4kLOzTC2MUiha5GTZTNKdhsMBC4poQlB1y0Wmt8PmFAFcpN8MqBzAkTNE4aTLOCxABBIBIW5gq9Ez3wPiIOtto6eV/pyXLbLRwlaQGlLKPuaMGZtcGelYF47ljie+0EFlSmzWbC0tL2EOaA4agbhpkWCzs6xuFqUyKhqtdE0iKLWhm/hjvXHQTMDheOS4ujjKtJ803lpHI2PmOIWpmXaNtVrRUYO8EEvAud9+pJknjbkpuJWFKVydGaTDiBsQjbSaNxq4xtqCo4zHaj4f0Q0Khd4Sb8Cfou8XQz8iDk4rYm1XNcCPCeYtHlySrVnOJdJnmSSSeNyrdNskCoLWGoGDB+qdwa34WktvBn+ybkQeFuXeijTol1zxVttOLDhYqWlHKPNFhCHPjSXMEkxbUf0XLsrwjijfuFRy8EBznBjSbT8TusfyqLF4fQdTZ0jjwPMjotSg4Oa51UU3PLgAXTDWgCA3gBdHULA5jIGgsBdEEazqmDw/ZFme5cvuZVOuNwPRR1SJDggqEB5iwcZCd5AmQuUa1kco7I6pHoq7jKTq1o48PVFTFup+SeqMspc3oMVdx5BdV2SzrD4cVzU1d7UAptIZqDWEeM+Z/suWp4e+4VlzA0T9krnKmU9KWSNS0joO1WWYWrrxeXuBpi9ahGl9In87WHdh6bHptyMqzQLmOD2kh3MfeyLFYeR3oiCYcAPhPlwB4LXiyJ6PH8nxHjXJdFT73STx1SVrRjojaR+igqKYBRPCzTezbhj9LZGAiYmIupGBK2UjHYLkBRuQwhHZFzBOkQgq7psC+HIsRv5pPc1J3iQqVEu2BPkCfom0FpkcF1XZTFtDO7nQ69+N9j1UuOquZ4cbRa9h2rNH/ACFwUElJX0cw7x3Hqg7qVs47ItDe/oVA+luQSA5oP+70UOMwNRol9N7JEiQQD5HZI9GuHHIrfZiuoqIugrUpn8pHqqlagmUvkjkwUriWmYrUwDdw+iCrmJAgNAnoqeksII9CpartRkrnFWU9fI41dMB1dzt1bwD/ABcem3pc7KKnh0bSWm42Q2ujihLuRp1aZGocnRztz6qUUXOe1rZJ0yQBJESVJhsbTqbuDX+U8Opve6HEY5lEOawgvMjvBvEyNtj92Uq2N9VtszMwfqMcov1VTFYqwkeLaefmhrVLzz3VWoZKtGJHJl4rjEj181aw1bk0KqQmVWkzHDJKDs1y60kgdAZKKk8EyduCy6T45K0KvVRcKPQx+RZqyEsFAcQfhNjxt5cVSpV1O16TaNnOM+zS/wALw/8A1PqnWf3qSbnL5Ofw/jf2IywonqUoHBWl2ePhX/mRo27IAFLC4x4IAp2MTKQLjZ2KtkLSQQrtTaeSpxdXMO8FpHFckUwbuJrYavTxDQ1xFOs2zXgRI5OjcLbyR+KDxRq09dMi7t2Eea4VwutLBZ9iKYgOBHI/siiUovo6zE9nWjFUW0ye5c41HU5kNLLn0NvdaXarK8RiQ3unsLWEnu9UOmOttlzvZ7tY1lR78QSXOAa0geFrZl0DeSYv0Wfis8qGu+pTqODXONptGwlu2wSUx4KTkmn0bWH7PAYOvVrtex9MnQNtmjedwSdwsDKctq4l/d0m6jEmTAAHEngu2z19R+W0RJfUrOYPPUZaAOGw91q4LIH4XCOo0Cz8Q+DUe4x4uQtsJgBBX1Zb5fNHmGa5PXwpArUyA7YyCDG8EKrTDeH1XpvbTBPq4AGowCpTDXkAgxFnQRzuuT7E5XTqGpUqMa5rYaA4SJNyfPZHscjlpWzHDOSZ08Vr182wgeWnCtABIlhIsDvYq5mmSAURWoF19P8AlvF/EQBpdvx4paZpXkQ6kqOQfHBO5wi+66nGdnG04D69IOI2LXeqws4wBpAE6S11g9plpO8XuCnRFzh7Myar7wghSOwz99JUdwq0YeXJ2MWoCFJqQldTFkkRp2uScEwCYntE9OqrdKsqDaZ6KanTI4j3U5JGrFkmi93iSrx/qHukp0a/VYzt0IKKqL+ijVJdmPFqCEAjcmATlKVS0JrUbxATsFkNVcvZSqiRuFkNJ0FT4cXQ4igu37E3B1zQdSBc+arCSbIdPOVZpEAcl3oW/Ue9IhNDqhLSFZFygcIRyCWJdo1Mq7WV6OiHau7uwOGrTaLT0JVl/aB9Wo6q+o5rncWkgDkInZc45kpiwhDimGPNODukz03s52jY5lShiH6g9sNe7lcEHlzUeStbh8FU8QL5qusZmJa0+wC85ZXI4qxSx5HAJeLH54pv4O97J1MNWYA6hSNRgAksFjwPXmmo46vVxoo1WhopkvcBs4MEsI6TC4zD5y9pljQCbW5K0e02IDtcN1adOoi+mQYkIpiyjHbTv9zX7TMw9et46/duZ4S0tBEbyL73WRjK7Kr2UaQPdU7yd3EWk/fErIr1C9zqjolxJPmVr5VSAbPE/wBk60QkqjZabTUdXDNO4B9FaAShNZmMevljeFvmqVbBPHXyXQPCgexA6m0c9CQpjiFsVKAO4CanlOr4THncIplI5IvsxzSb/MR6JaGD8x9AtTE5DXaJ0Fw5tv8ALdZD6cGDZcR2VdpIlhn+r5JKPuh/MkikduXwv8Fyrv6KFG8oJXH2Njf0IdpRwhYjSs0R6DAso6qmCgfuuIfJ0FTsZ4K2WarhVmFWcJXiWzYpZFMVdPoqQhqMPNXK9GJI2UQIO66pCzxVplVpcFbGl7eRRNw4PFR4jBubcItM5HHOC6tAOw5bdC1/NWsNiYEOFlPWwTXCWx6bfsjl8jLByV4/2M80Wu4wU/4J3SOcpn0Y4oQ0baimsi4xvcd/rQz6YH5r9EIBOxUzsM3g5KWtEAyea7Yrx73pfqA2nwK3sMNLQOix8M3xDotJtVBnztKoovhycuVMVU3fIszFlzlE8qI1EDqipCDYrkJ5VnAVgCJVFzkOuFrjh0S5no2TvbzCtZtk2HrtIexpMfEBDh1kLhcpzQtNyuqZm0t3WbLiaZaEjB/+As/6zvYJLZ/xDqElGpFeR5mUJSSXX2Wx/kQTN0YSSSs0w6JAoEklxDZCTgozukkg5I0qX/1lUQkklj2ac3Uf0JmrRpfD7pJJZF/HM/FcFay3Y+idJD6Ex/zSni9z5qk5Oknj0Y/I/Mxino7hOknRn/qRboKcJJLiM/kfzGEmCSS6iI6YpJLXiIzGKF337JJLaiINLddDhvhSSWfKXgGkkksxY//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExIWFhUXFxoaGBgYGBcaGhoYGBoaGhgYGhoYHSggHxslGxcdIjEiJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGhAQGzUlICUtLS0tLS0tLS0rLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAIDBAYBBwj/xAA/EAABAwIDBQUFBgUEAgMAAAABAAIDBBEFITESQVFhcQYTMoHwIpGhscEUQlJy0eEHFRYzYlOCkvEjQySywv/EABkBAAMBAQEAAAAAAAAAAAAAAAECAwAEBf/EADIRAAIBAwIEAwYFBQAAAAAAAAABAgMRIRIxBBNBURQyYSJCcZGhsQUzUoGCI9Hh8PH/2gAMAwEAAhEDEQA/APN0gVyycFE9AQC4F266CsYalZOK4VgHLLlklxYDOBOaU1dARAxzV3grNLh8j9Gmx5IzSdmifEbDj9AtcRszoKRW3p+z0Tc9naHP9lM7BYiMowhcW55+SVG5y1tZgkeYAseSE1eBPAu035b+i1xkwQ1ShMcwg2NwRuT2ojD2KRqYFI0LBOtCff3poCcClGRxxTXBPKa4ev8ApAoiMpEJwKSwxwJLqRWCM2Ek/a9WKSwCMRngnd0Ub+xpzaNa5z6gF3JS7so26jUclNyWubUB9hN2bInJTKs+EjitcZMpJEKZzFGU1w2OMjLiANStRg2AC4JzKiwHD8g46u+AW5wemGyDqg2Rk7uyIqPDmtbaxvx6KWamIF8rIi2QDooZJQp3ZkgTIzkn0rCTf9PNWHzAmxAXbtHBDUPoH12GjJ1/Efh0VSfDtltyL3RCWraWgXAAt1UGL1W2wW+7v3ZrXbFSsZXFsLZINLO3ELI1FO6N2ydVqauozVGuYJW/5D4own0Y7jYBgJ7QmgJ7VUNjo6LqS6lGSG2XCnphWY6GpBdP0+S4gOIrqQSssYXmknevWaSxjcCiS+xrQto+STqTl69fJa55mszT6RV5aZaSSmVKanWGUjOywKjLEtBUQodURLFUwHNEoIobvA5/9ojMxV6Me30CKKXwauiIFjryWiifZuWnrL1wWQgmyReCrOmnrcgySCTp87XzVOpnN/VkPrJCdDboqL3H7xy4b/NB2Q6QRfUHcb/JO759vuebkL2nuyaWs6N2ne+6gmY0f3JC48HN+qk5FUgs6sP3pI2jlmq1TXxk2BklNuezf8rfqqULo2Z92Cd1zcdbFSlz5D/dLBbwsFkFIziUJqjPh1BCaHK1JhMn+RHPVU5oi02OVkQFOUZphCfJ4vJLZV08Cob5rtkg1L1osOjhKaU664Vh0NKRKRSsgOIJJBIIGObfRJNy4/JJAJ739mUT6cfRFDGo3sQueJcCzQIdURI/UNCGVLEw6YAqYUJqWWWgqm+uiDVYRRaLANW1Uac+35IlVhCx4rrFlsFqd9ldhnG790IY46K9TtOW/cpylY0UEALhSuor6kNHE8EyCRsYJdmdR69aLOY/iz5Cc9kLJ6htgniPaCCEbDBtO0v/ANIfTYo6Y+3bZ4H6LN92BnY34qeGrWnDGNxkzUnYJ5WCrV0oa07JOev0Q2KpcdM1WrKk6KMYO9hm0RPrZwfZfluzVimq5bku9oH4KtSR7ZsAT69aKxIx0ee7euh22J5Lcw8Lt1imBXMMp+/bsh7WbIJu7TIaZbyqjxY24c0Y7GucsuFO9fqmlMMmNPRNcU8hMQKIakSkkgUFddJXCurGFccT68l1cvzSRsjH0WXhQvdxsoxIo3yZJTw0hk7kLqnfVWaiRDKiVaw6RSqnIPVHVEqmRCqgpkWiC6pqoVFBLsd6I3bF7bVskSqBqq4r5RK1gN2Fly3dkdyFy8Fcrwu0vwyRqDRMqp45bAANczUBPY3IZqMsq4yunYHYvW7IQWnliN3yuz3NAutQ7BBI7PT3qDEuzLRfYHmhTslkLMlUYnHIdlkZ5FxUVJAXneBu6oszs45pvl5ao5h+CtbYuOas5RSwCzLOCYI22yczZZztRhhje4Bek4BTtBAGY5oN2zpgJLjQgLnUtMrlLXVjy4skbkDbobZq1StleQLnnc3WhFC140HRWqWBjNGjqquvGwmhg2npnMa6/BQByL1lQCLDh9EDDk9N3VwNZJ7pXUbXLpcnGSOuUbk8lMKBRHEkvXryXQgUEV2/L4Z+skl0LAZzZ5fJJO2f8fgElsmse4GbmmSS+vmhwn5prp1rHkKJLUSaodUS80+aZUJpER4ohneqEx9dVNNIqkjliyRXlCryRkxvI8QBA6Gx+isvT8PkDZLO8Lsjy5jokHg7Mp9lSGMeXtu57rAncGj53PyVuF2yS07vki9dRMa32SALZuGhvv6oE+QOs5pB1F+mSm3dspJWyFY6/YXZsV2skDlqPclBJc5KckZM0NMG22nKpV1BDmhuZcbdFUbPYbvrdVRI4ygj7pv7ignkfob/AAwtiZtPIBtv+CE4zXRPaQXA/JYDtBiVXJJc5AHLMWQypr3kG1xf4KnKkwaoo1XgcbG7TofolUOBQjBYnmM7TiTfTgFakksDfJK4e0bVgrGT2s/1VYJm3d/mrJaPXFdUVZErnGhO2V0JwCI6GFqaVNsJbKBREACc0KQM5JzWLFCMNTg1SBm5d2UDEWz6sElPsf5LiILm9+0JvfqgZU10qNjzdJbfNzVaWZV5JlXfKsOkSTPVV0i5LLzVYyJRyYuTLKLaTmXJsM/VlrGOzN2rBxJtuube5Njj2Xm3hcL25qCvxKOEZnaf+Ebup/RR4XiBma5xAu11suG5NKGlXY8ou2SxM0cFFA/Z19FTyO3qtKfdwUmril5j7q/DssaSdShdG+/rcqmN4gRZrQSb6BIoXYyeAlUUveDac4MbfU/TeUNNPTAn2yeFgh1fFVyja7t1hoBuHRCm0s17Brr8LfNXUX3CrdjUU72t/tu2m7+I6hNxE5XCEwYXOwbRsMswTnZWDL7JB1CVxzcBFTGzxfS6O0mDzzXMUT3gG12gn5LNsf7QF9/yXvn8E6kOo5W3zbMbjq1v6FdMYJxuLKWmF/U80/pCu1+yy/8AEqCpwKpj8cEjRzY79F9KJpdyQ5aI+Ia6HzA6MjUEfBINX0tU0sbxZ8bHjg5oPzCx2PdhKSW5Y0wv4tzb5tP0W5LewFx0E/aweNBidso7jfZWemJJAez8Tcx5jUeaCqUoyjhnbCrGavFkZauEKRyYUqHudsPV0lyySILhwyqOSVVTMoXTInIkWHzKJ0yqmRIORCSSOUd0tpJawbnY2kmw1JQ/G8X7u8URz+87jyHJFKaTZ2jvtl5rD1pO26+t1WK0x1FY+zHV1I5Hkm5R7sg7OVv+IPuP7rPhq1vZbDnM2pH5XbYDlcH35Kc9iV7snlk2T61VeSW6tYgwHLkhYdY5qSVwsuwTe5cjeNvaOo4KLvFTkc7ay1R0gTDzMbMZ6JknaoA+yAD5fNA3wF2qrvw831yWUV1KKo1sX6rFXSEklV559bcExsFhmVSebG2aZIWUmzd9geykFUx0k8z2G+ywtAsLa32tR0IXq/8AD/s2MPdL/wDJZJHJa2WyQRfUXI38V4Bh9Y+NoLHubvyNtVquzGMVE8oa+Q93vOhIGq7oRTVkc1eNSMbt4PonvxuII4hOEoKy2HYhYAXytYIhHXhUlw7R5PiZXDSiljB1F1QjrlOytBScuSDzoy3KOIYeSPZPly4LzztL2XDrvjGw/Ut0B6cCvVmztIuoaqiZILEXT6lJaaiBTlKnLVTf7HzrK0tJBFiMiD+6iLl6f2y7EPeDJELuHDfyPPmvL5mFpIcCCDmDrdcVWloeMo9uhXVWN+vY7fqkotorqkXuSmVQufdNkKjCJInYn3UMamasCwiV26QbcgDMr0Psj/DV8lpau7GaiMZPd+b8I5a9EyjcEpKO5l4uzExo31hs1gtstOrmk7JcODbnzWKxqhv/AORoz3hfSPbOjH8vqQwWAYzZA0DIy02HxXzw59sl1qKcLFOHnzINMrYPh9rPfru5futPDKNEEilGXr0FcY/IG64KiaeRnDSPrMyhNSzNF5DdU5mb0idgA4m2WqY2oG1muyH2r+uibVwgtB0JF/JVEaJRVDTzTHVg3oS82To2k2GZPDejpNexbqKzgoIKd8hs1tydy0WBdmw675LBo1LtANfeosTxdjLx02Q3v3non02QinqeEcbhjWACWQbZ8LAdBvv63rUdmqTf0WEp475kkk+fxR6gxeWntaQHkf3XVw8ktwVuHqVFhnq9I8gD161VxlSV53Qdvr2EkV+bf3Wlw3tVSSW9vZ/MCPqvRjUjLZnkVOEqx3j8jTCsKkjrDx0VajfE/wAMjSORB+SINpWfiCLsjkasKKuy8tFfgxBUnCJo8Y9ZZKL7VGNCFNxjLoA0UNUDvWX7YdnaeqBJAZLueP8A9DePipxWC2qG1+Icd6SPDXedikas45TMZ/QEv42e8pLUfzHr7j+qSbwNM6PH1zyWVMaU6U5psUZcbNBceAF/kvFWT3WiZiNYBgE9Y/YhZe3iccmtHM/RabsZ/DeWa0tUDFFqG6SP8vujrny3r16hoY4GCOJjWMGgA+J4nmU6h3ITqpbGe7KdiYKMB5Akm/GRp+Qbuuq0b33TnlQvcrRR59aqyo+n24p4XaOa4Do4EfAr5qxuidDK+N4s5riD+q+lJKnYcHbt/RYn+J3ZIVLPtEIu627eOHXgrpP5leB4hRw9v9seGOksnMrCNEq1ndkh4s4ZbO+/oKlG5+0CPZG42XNU7M9dyNnguDSVDC/bazk4OueeQsrVV2Vn+65juhI+YCGYX2wrIQGtkaQOLQUfo/4lTjKWCKQdLIqlSayjjmuIvdWsZauwaaPxRuA46j3hCppbG/AW9e5eow9uqGXKWnkiPFh2h7lLV4PQzNEsb4pjceyRZ2ujhvCzoRe0vmT584+eJ5XhuATTjaDdlpORN8/yjf10Rl2GwUYBmcC7c0ZuP6Kx2l7SmNxihILxk5+Vh/i0cliZXOebuJcTqTcpJaY4Q8VKeZYXYJYpjkk3sj2WbmD68Sh4IGuq7FTk7ldhiYzMpUmzphAbA15ybkL6/oiVLhm9xJ65Kk7EmjRVpcRe7eVROK3LpxW5pmCGPWyinroNC0LMe2eKlZRPO5NzuyG5q6IMHEmNzY5zehVqn7XVDLASbbeDr396DR4U7erTcKO4J41qq2JTpKpvE1VF20jdbvA5p46haKixdj/C8O6LzdmEHkFcpcFcM2uLTxH7LphxMveRyVPwyMvLg9LNcQEPqK1ZumqaiMWeNtvHej2GRw1HsicMf+F+XuK64VYyPOrcDUpZawc+1j1ZJGP6Pf8A60PvST60cd4g7sR/Dp9VaapvHD91oyc/pfRvPevXcKwWnpmhsMLGAcBmertT5q+0WyC6V4KVj15TctxKKSQBNlfuVCuqo4ml0rw0cz8lSMbnJUqu+mKJ5JkKxXFmQi8jwPn7llce7dZEQ2Y3/Udr5Bec4p2nDnG21K7i7RdMYKOWdFH8Lq1PaqvSvqa/H+2M0t207dkfjIzPQLOYfjuIU7ZGMqA1r73D7OsTvbfQrOyVtVLpcDlkojhErvE74oyqXwj1IcJw9OOmKuMno4y8vln23E3J8RKTqmBv4ne4BJ+GMb4n/FV3up277qL72+Za2lYVh78RiP8A6vp8gmipadInDoT9VXdiMY8LFC/E3nQAdApufwFc16F2QgcR1H1CpOke07TX7J4h2fwXaShqJ3FsbHyOAuQ0EkDieSdT4RK6MyAAMDi0lzgPaFjbNI5X2IznFlMRg6uJUoc1t/2ROPs68Nc+V1mNDDdg2i4PvbZtuyRmg7Lxd33pvYxh470EWAfsOu1mZGbSEqTZPWkZE1JJsB7kzunk5heiUVHRRzxTh7Q1sLiQxpv3wu0Wa7TW4udyodrcSoJC2SIPbJ/7L7NnW0fYaOJ1AyT8t9WNGTk7GShos8yr8FMNA0+QVd2JgeFn1TDicp32WWhblloW4YZRut4QOZKnZTAayNCzDq934r+aidVu4plUguhRVYI2AdENZCumrgbmST5rGF7jxS2HW3ouv6G8T2RsRjkI0au/1KxYwwnguOat4h9geKl2Nr/UTFXqa1smmTuIyKyJCc2UtOqCrvsB8TfEkab7RU/6x/5FJZ77Y7ikqeJl3ZL+l2+h9m6KCeoA32HFDKzFWtaXF1mgXJXmHanti6cmOMlsWh4nqjGi95Hj0VPiZaaasu5rO0fbpsZMcA23/i+6P1XntfWVE7tp79o8ToOgQepxdsYyaSg1Z2hmdcNFlRzjBHu0OGo8Or3z36h2fDWnOWS/ImwUD6+mi8NjbgPhdZOWWZ+biSuMoXnUe9RdZdEUlXXuq4bqu0/4GAITPjUr8tpSxYMTqiFPgrRqhqqy2wT1VJegA2XvzzVmDCHHVaaKgaNynEQRVBvzMKoN7gGLDWtIOyDvtyXqVRgtMwPP2emipXQbcchdefbMYczZu4uNnm1rWWJMXrQKpUV0bNX7tBmf0TctIWpwzlazsa+oxilhfUztu99Q2AtawluybbcgLgMvbAyCEV2OQyB9qRtpC172ucdgSNDhtDZsbEHO53LLfzJ8jtmGIuJ5En3aK6/szUHOpnihHBzru/4tUKlelT8zJKhBdbssydp5I5NtkjY/ZDA2MDZDRoANN6D4n2lkmcXPc57jltPJOXBXm4PQsI2ppZjwY0NB/wCRursLYGf26EHPWUl2emeg1XO+M/TF/L+9h1TtsrGTfLK/inRYdvebLePtUUcjzEyN8Tg4bDQ0Fj/ZJy4ELHzwueczl8kaNTmpt7p2sHR3KckrG5Mbc8VD3D3aotHC1ugUrbK/LbDy29wVFhx3q5DhwG74K33gC735CZU11HVKKIBS8vcnfYiunE9n7q5/PG/hTWh3G0w7jRS7teVk19GPvODeV1ybE+8yB2b71Tlw2Q5ghw4gpJaemRJaVsrlptE0+Etd0Nj0soZsPVJ9PIzcQrdFjDhlINoc9R5pVpe+CacHh4GfYPVkkX/mVPwPvK6n5cO5Tkx7m17Z9oCf/C05DxW3lZIT2CfUS7b3E55qs52a7Kk7yF4aiqNNQQ2R99ydGBw+CYQrFOW781K19y9rslipr7ldjo7Jv2xrR63KnUY+G6fsmskU0xWWFGwclx7mt1cAsnVY5I82BKZFDK/j80nNjshXVgnZGjmxOJuQNzyQypx/8LQE2PBnfeKsswtjcyfJFym9kK5zeyAlRVyyHO/rklT4U55z3ozI6NugVaTEDezf0UnC+ZMm4XzJmm/h/BFFVxtJ8e0w/wC9pA+NlDW4K9ge50DrMc4F7iQ0jas3LU6fFDMMY6Mtm+81wcPI3+a9Tx6nE7XDaNpWXY0f5C48rlcfhlLi97ao/WP+Gc/E1nRipJYujGYfgkksBlj7sNIOTW5gXsc7a+SmxXAHRU3eEvfJlcXNszplYk6Iz2Po5oInxSANAdtNdkQQRn1twy1RuogJjsSdrZ1yve2tuO9eZX4yFLiYU0lKMvW7v/0XVNpu+z+hn+ztA10BZ3WxJLE5rr7V9q2+/MXXnkzCCRpY89y9E7K1TyXufMJD3m1kLHgQ4HMWt0WR7X03d1crQMi7aFuDs/qvXp2U4tWWqPTusP7o3CzlqnBvZ/RgXZJ/dSNiU8MZNrK0yBdmk79INMdvQUbh1RkUo9X+KeKIcFtAdAEs3SyeMPa/RluaLvEbNbD5odV40xuTRc8T+iDiuoHBe8Q/yBp3nyGXvUjKeKDO+Y3alDJcSmk8N7cAoRNK3xNJ5EKd4LZEtVOLwXqjFHOvZo9wQSqdc3ta6LR4i0/dCF15G1lpu6blObbySqu6uV7pLmSSmc9jXQvu4gDUFU+99pKmktI3O+eyfkqsz9l/muuUsHc5YCL3WzUTJVRkqSH24rj57AlLzBXMdW1e4Ki0Oeck1oLij+HQNYLnVTzUZNXqMdh2FhoBdmUdjisNFDQsLjfcFNW1IaF1wiorB1wgoojq5w0WCC1daTroq1biV1ThidIevq6lUqdEJOr0RJ3hcctEbwrC9HO6qbC8KDbFwVqurWxttvWhT6yNCn1kRYlOBkvQuz9YZKGBzRctBjNjvacrndkvIZqvaOa3P8PMTYY5aZ58RD2X3uGThfmAPcVDiJqNSnU/TLPweH9zm42PNpSSLGB1PdVszJHnac72WlxIz9q+nAcVpY5+7l23HbDyQHAn2bC4Fudlj8WHc10UrGjMe1fPK+ydd9iFa7QVkzZ4dhp7u4LgAG5g2J9y8v8AEvw3m1WoYV98JJPt6/c56Vb2U31X1QRqAxkoe32WyOcHAsGTgA4aZnInI8Vne37m99E7eYgD5EhXsZe91TES51hY2vkADZ7j/tPxCD4o7v5jIRZoybc/dH6rp4Wm4KFJu8ouT/ZrF/p8ilCMp1eYtmkUKecnRqutcRmclQrMYiiybZzln6jEpJTYe5epKajuehKoo7mjq8aYy9syglVjz3eHLooosKOsjrD3fNWo5oo/A3aPRS1yfoTdSpL0RTjpZpM8x1V6mwdjM5HDouOqZnZAWHJN+xuPiKCiviIlHrkuvxSOMWa26ru7QnewEcwoO6aNwKjkPIH1696zlIZzkuxO+qp5vEwMducNPchtZSEZXuBoeIUdSBqMl2lkcctQPqpOSfQ55yT3WTncHgkr/d+rpI6Dj1jo9W/nHzChxD+4fz/UpJKstmd68pVd42+SdVa+uISSUmJ3HYf4v9o+SNDekkqUStHYO4ZohOM6nokkul7HTLyGXHjHVaPCNUkly0/MclLc0I0PT6lZHF/Eev0CSS6qvkOyp5ShCi+D/wB1nUfRJJedV/Ln8H9jkRtu2n9yn/MP/sxc7WaxfmCSSnU8n8Y/ZHBH3f5D8R/tyfkWcxj+15fokkuih+fU+Efsd3AflmIl8XuRbB9R1P0XUll5hI+YlxTX1xSw1JJVqeYvU8yDf3QqNb9fqkknexZbAoanqoT4vJJJSkc0itVruHan8qSSkjmqBlJJJdJyH//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhIVFRUXGBoXFxcYFxgXHRcdFxcYHR0YGB0YHSggGBolHh0YITEhJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAADAAIEBQYBBwj/xABMEAACAQIEAwYCBwUEBwUJAAABAgMAEQQSITEFQVEGEyJhcYEykQcUQqGxwfAjM2KS0VJyguEVJDRDY6LxFnOywuIXU1RVg5Oz0tT/xAAZAQADAQEBAAAAAAAAAAAAAAABAgMABAX/xAAkEQACAgICAQQDAQAAAAAAAAAAAQIRAyESMUEEEyJxMlFhM//aAAwDAQACEQMRAD8A8wlqK4qTIajtVGRgdjqVEKjJUmKgaRMiFHUUCOjrREGSLUeRKlsKC4rWaiDItR2FTZBUZxTIZEciiIa4EJ2F6t+Gdn8Q47yyxKDvNmTNyyqoUu/TRbVnJIdKyuWtB2W7OPi3QBgq57G/MKAzW16ED3+ZsJ2UkLgOFKGyq6kmzm2VGXRv5gpt7V6hgOBphSsaKPAlgR9pnuXNh5jpUMmWlotjx32ZjiP0ewtcxs0Ze4S5DKpB0zABbKw8VxtcjkL+b4+BomKPYEXB6ab2PMA6X2r3xo/2aq2jXJuvW3ny2rN8Sw8w0gjAYD4sqjNf+IkAHnqKnDIyk8aPHGIsCDzPpbTb7/upgavSeO9nZMThyxwgixMWWzqEUTAlQyyZbAsLlg9uRHWvP5uHTImd4nRdNWUrvfkdbedXjNMhKFAkNFDVHU0QNTChKaaV64TWMDagvR2FBYUTDLU4CkBRAKARtqWWiZaWWsYFl8zXKNl/X6NKsaxzmhmiWptqAEjsYqTHQY1qQgrAkiRHR1aoqmiK1EkSL0KQV1TSasMRZBUZxU1hTsDgDLIigGzPlNtxtcj2N/asMg3ZFM2ICd1HIGvcuubJYGzBswyC9rte/SvZo+FgpqculgNyhFrlWOpBtvYbk6nWst2b7PJglLTNmkIBsv2QpuSSNhe255WpcT7RF7lSxUGx5C/JV5sfKxrnyO2dONUjXHFwQrqw0876DrWe4t28iEgK+PKuYWIHxEam9tqwnFMXKxbKTYaG50Glztvb9XoMHDDIBcWGhAtbQbacqDhaG5tdGxk7cZtQuUH7PO3meXrpSi7Xm9vxAIrItwUrqAfKxIPzFWeE4es6kAHvlGZeWcLurDa+Xb9WnKPFFIytnofBONLLcZlY7WC233B11HtVH9KsEiYZUWAvEXBdgzBlNrgAWN0vuSNCOlVvB55oXU5QE2uRt526bDfz9N1xXCDG4ZoFnKM1vFbUEbjyHmKTHL5bGyRuOj51FOFXfans7iMJIROL3IAe9wxIvoeegNUld6dnAxwFdtSApwFYwxhQmWpBobCiYCBRkFNtXVNEwS1K1IGuVgCtSpVyhZjuWiKlPjSpCx0thAKlGVaII6dkoWKwBFIUSRaEKZMVhozSZ6ExoTPTACu1ei9kOB9zEJcpMrqGJ0OQEMVVb7Erc/OvNACxCjckAepOlegYKHEYeB+8YrfUJmzZfCFHPlYgD+lSzt8S+BLkSOLYrvHEK6Rg3e32yOZO9r2HtVbxTGKqgrrrkjF7XYjxPfkAL2PLeo2GZghIViTe9t1B9Tvb+tq5BgS797MAANEj5AefW+/yv0EVKkdPGyTgMNcDw+AbafEebn32H+VS447P5fmb/r9GuvMw0C+5sKZFE5ILAAXvYG9+lzb7qNh4k8W2NqfB+zYMq5rG5A39Rbn+OtA+VulSsNcaAD8Kz32HovMMiSxkoAw3tvbodDoCCPQ7bUbBgoVsdLAjcW8h73026dKpUWRT3kOjA6jWzg2zI39m+99rgE6gVLh44BIqgeBzlsw+Fz8Oh0YE3UjzFtzUpQpWMpWyf2/4N9dwRZLGSNS6bEEBTpe29r2I5714PPh2RipU3G+h009OX5V9H8B4irAMp8DC41115HU3IsVNul68d+lPAtDjWF17t7sgXkCb2YdQTYeVrVbDO9EM8K2ZBaflpqUUV0HOMIphWjEU21YNAMtctRSKYRTCMQpVwU+GNmYKoLMxsANST0A3NYw3T9ClWh/7EY7/AN2P51/rSoWg8WX/AGx7EHDHvoWVsOxAFyFZCdla9lIPJtOlr2vRf6JmC5u6YrexK2ex88pNj61veKYvvMO8TG4YWAJ0129NaxUsYwvEIo0N1mKqygn4JGy5T53uw6EChigprbDlfF2iutXCKnYxCVjm0PeZ1Y/8SF8jnTYt4X/+pUNhSNU6MAkFR6kyVEegmJRxmoLGnOaCxqqAOSUqQQbEG4I5EVp8VxZWgUhy8rsGlJuNQD4R5Dew01+WUUi+t7c7Vd4l/wBlAoAX4joNTmGXMx5k/hbpU8y0WxfkaLgb3Vhe9qn94o3IvVD2WnvnHpao3EZRdgkZmbmE1A/vNy9K5k6Z17a0aCTiUN7ZxfpUiLEqdtqwkWbUnDhLG1hmv6i41rWcBXMviXn/ANKPJ3Q0VonPjkQ+JgPWp2F4vCw0YGsf2hDKxAQkXt/16VW8Mna5/wBX2Fzlvf0AO5/pWUn+hZd0ev4FA0ZddRfxAct/lWfxxDMFZsqs2Qte2S9rPfllazegNE7E8RW5QNYOCrA+EqbXFwfaqrj8uWcJplbfMTltv4sutt9tddKDlaNxpmy7FsRnTEIVZHYG401Oov1VvmCCL2rEfTIR9eHh0EaqCCBqNwfMXB9GFajsNxRu/OHa7IVXV/EfCuUqxtrYeHXXwDpWH+lTG95xCRVa6plG2xyi4PW3Wt6dfIX1D+Jk0o60BaMprtORDq5Xb00mtQ4x6mcK4Z3x1LC5yoqgFnIFzbMQqoosWc6C4HPSE9XHE37mHFBT8Lx4UciFCtJJ/OwuapjSb2SnroGeERNIsMGIaWVjYAReDzs5cXA1ObLb1rd8E4RDgh4LSTEWaUjbqqD7K/eefSqLsrhFSzWs6oFZr3uW8Rt05D2q7mxFqllyRv4lcWN1bLD68/U0qpfrlcrn94v7YzFYgGM1QY/GrJxQyhQEwyFjYnXuEJvrzLkDTpXeL47u0PUbepqk4fh2+rkL+9xkghTrkVgzt6F8o9FNU9NdNkc/g0nB8M02DjhW7ThXxYQbsjyFGyjmbKrW3sOtVTN/Q/0rT/R6gl4hNKt+5jj+qR5dDlKhAVI2ICl/8Qq045hFnKx4sKmIPhjxqjKkzfZTEqB4HO2bUE2tb4DTIreiUejz12qO5qTxHCSQyNHIpV0NmU8uY8iDoQeYN6guamkYG5oLtT3NAY06NQi1afsxC2JBQn4GQ3IvoRJf7rj3HSspW57E4VjhJnTfvRfzsi6D539qTNuB0en/ANEWfDuCmFpbEFWIKn57/rnXP9Hk3YFlvtbQ68z69P8ApV3CoyWtp58r2J99/maruI8QVFJNc2u2dSVOkVi8MJPid29T+Yq94JhgpUHTXQVRLjJSC9lJ+yhNh7nmanYDiRDA6AjW1xp5a6GspJDMs+McKEhLC4tvbcHz9fyquweCYH94fkv9KPFxSWTNnhVP7LK+f56C1+lMw/EQHyOMrcuh8xRbQkbNJwPhlpM5BYHQsAMwNt9PiH8O/Q1H7YdnD3wYWy2vca30FxtprbTo43q27OYy115Na3rfSrHjU/hS+zyXYHmqjVfcaaVnQErZlezfDngYEXyL4mkGtrat1+IHTrc15d2lx4nxU0wtZ3JFhbTrblXp+JwsqcPxZU2WQKsbBtsr2NwdrKwrx1z1++qemj5I+sdSUUPQ0VTQVp6muujlTCikBT8PCzsqopZmICqBcknkK1fAeARAhpAcS4OscVjGpB2eQ2VrHcA8rANvQofkkZ7DYIiCfEtGSkcZCkjwmR2VBb+1lzM3qo9Kfx3xLjbbd5h8QPNZEIJ/5xXpOPwbz4aWKYIudSqqlyE001IGax10AGm1ea4dCe6WTwllfh838Lqbwt/4Nf4DTrSJSdstezeMvGddTr86mYiespwDFFLo2jKSCDy1sR87itThFDC5rz8yfJo7oP4ke70qsMopVDiNZhsbM+JlEUdjrqTsLbsTyUC5JqwxOIFmnguRpg8ILWNstnkA6m516y67VCw0KCNo1f8AZixxU4G/SCG/xAn+Y67CtB2P4S00qYqRckUf+zxeQOjHqOd/tNrtv6UKiqXRw5Hbs3vYLhS4WGJNM2YM56sSL+w+EeQFTsbErK6MoZSCCpFwRfYg0PBtbbrXc24oxBeiqxHZSDEFFlmlQILKbhyF1OTM4LEX2zFsuoFgapeLfR/GHtBPLZh4WkjUoGvYI8isCtzbxBCBcXrYE6VLwGKVUkVgGD6FDsRkYG/8wrNDL+ngnEMNJC5jmRo3G6OCp3tsdxcHUaaVEavb8VhWZcpmMkRGVUmjinKXN7K8iklf7+Y+dYLt52c7to5YICFdWEixKSgZCPGoF+7VlIuuylTbQis40Fb6MYorV9ieI93nic2Rip1/t7b8rqNueXyrMItTMNIVDW+0MpPlfX57ehNLJWqDGXF2j0+FxkYqwIuQCDcfDe/31mOKwl3DbqNfnt+NS+yc5OGdCB4SCLb2Ohv72p5W9xXFONaOuM+Wyu/0gA4iMThj8Omh9Dsa6Y1OpST+XTWrZF01F/1ypj44LoB+I/Og6ZRUCixSoNVkAA/snlb+o+YqJjZGkW6xuov4Swym/UA6/O1XuGxAbUqCRzOvTrTJ4sx++mfQnktuGYorHGeeYE+xrUdpcKZQjKPCBe2o3bkRz1B9qxav4VArfsxGHgQnVjubjYeXnlodIaL3Zg+3XEPq+B+rBxnkbvDY3BAIXKL89Q3mL22vXlFa36RMYJMW6gWEfg9wNf15VC7OdmWxVzc5b2GW19N2Zm0Rb6DRiTfSwJrsxKoqzhyvnNlAord9jOy6ywiaRUIYnLnBbRSV0UMBuDq1+VhuTKw/0fqpBZkJHJ88g9wndX9L29a10cQjRYkAVVWwCjKPYDbW+lWSsn12QsJwGFb/ALDC2tbMkHdya7jMGOhGh2uCRzqw7sABVAAGgAFgB0AGwp0B3pSnSiC9gZxcWrzjtZgwuKZHOWPGItmOyTR6I3kNgfKQ9K9GbaqDtfwP61hyg0dTnQnqBbKfIi4+R5Ut7MzzfiTMSMTlIcHusSvNZF0zHycD+ZWq24bxAEDXSq6DFMzHMmadVMc8LXBxMY+/vkA9TYML2N4MeHAb/VcUvVVk/ZOCPsksO7zcrhtajkgpFYTcdGx+s+dKs19Vx/8AB/Phv/2rtR9j+lveiWPB+BtLkfEp3cK6xYcXF/4nvrrzJ1PkK32CHO1tgB08qE+FANSYhYVRNnIyXhW39aUrWY1zC7UzGnUVWPQAsb3BNDzeL0B++u4famLqSfI/cRTpmCSnQelOnw6SJklGZd7H0t+FclFNxTfZ6096MZviPYmCQE4cmI8gSXQ+xOZf8JHoayGP4PLA1pEy9De6t/db7XpofIV6mkltqI0SuCrgEHcEBgfUHQ1NlEkzzzslMRI0ZPgZG087qbj2H3VcSQ2NSsV2VaGRcVGYxCTYoC2YFrpYAKRlub6nQe1wSrc3rky9nTiuqGkUxZFoeIYjzqukmPSpjqVF7G4PlU6JARWagxRG16t8Hi7Da7ciToPQdfM0QXbLfBYYd4rOcqA6k6bcv8qndvOOpEkIF8xQ92q7jObZt7k2Ww82rK4riAW7yPoOp/WtT+x+LfFs2IljTJGckDFbvp/EeQ192bpVMeLl9Ank4qiJwrsjcd5iYDIx8TK0/dG5uSAqKdf70g8wK1HDMFDAv7CJoswu0ZbNbnuWax1OgJFS3ehSiulRZBtII+pBHOhTDU06E8qZMd6suiD7HYfauTjah4J7g+v5CpGWpthXYGShEaCiyD8a4F096m2NRju1HZhMQc6nu5hs4GhtsHA6cmGo89KyZ4Vj7lZMMmIB2L2PuHVlcX8zXriYfMw++pEmCS+opb2Hjo8f/wCzOJ/+W4b/AO83/wDTSr1/6vH0H31yjaNsrALi/OmS7CovCOICWNZBpfRh0YbipcqGkFJGGOlNxY50/D7U6caH51SIGBU2Q0sPsP1zFcPIU+AbfrnToAYrrQsl7n2qQBvXY08I+dOgEQLUlE0JoaprUsjS1MazP8WxjDDu4vZRILeagkfeKqsNOHRWXZgCPetDFgg8csLbMT/zV5nhcXLgJGilUtFmK35qRvbz55TuNRodYZsXKOuy+HLUtmveMGoU+D102p2C4nFKLxuD5bEeoOoqNxPj0cO+rW+Eb/5Vw8ZN0jrcklbDw4PmTpVRxXtHFFdYrO3M38I9T9r2+dVs2JxGLBN1igGjOxyp6Ft5D/CoPpReDwEvk4fEZpdjiZFAVPONTonq126CurHg8yOaebxENw3s/icZKvfsYwRmAIs2XqqfYH8Tb+des8OwSQxrFGLKgAUenXqefuaq+z/CVwsZUvnlbxSyMfE7dddQo2H/AFqLxPtUIyGhTvo0dRiJQfBGpYA2P22F7kC9hvXWkjncmy/kpyainyLfUVxBWrZuWgca+Ie9Nxi2vRvtiljFupoMBDwAsLed6nqtRIRrU9RpUWyqRFYU7L4adl/OjLFfKtTkxkjuHjsL8zTe5J1b5VMlX0tQmnVQXkOVEBdyeSqLk/KlWx3of9SalXn/AP7Xn/8AhB/NSqntyE5xM52T4j3cndsbLJp6NyPvt8q3sRuPOvJFNeidm+J99GCT418L+fRvf+tK0Iy9jOlPfUN7flQ039aKm/qv9aaLARFPi9qk4YarUdBrUrDDUelNEDCSmyt6U+FrgelDxPwsPI/nQsM9lU+Qp7pgJfdU7aqbj/Cp8QLJiu6jsDkVSC5BGjyBswUi48IG/OqfhPFJoo5o/wBm/cM1zJOoWFB8MbyZbySaHZdBa5B0qopsQozE9ay3a7s68r99h8udlyyI4BSUL8OdTz3GYajT2WD7ZIfq6SRMJpjrGGB7tSTldybWBHitva56XucDxvDz2CSDxFlS917zJ8RjzfGB1F/urfZjx3ieAKSrGuHmhxF/3YOcG+xiI8RBN+Z2OulSIuHqjhWX61imP7lSWSM/8VlPjYc1BAHM9PVuKYETxtGzNG4BUSJYMAbEgG2isALj+ledxcExcjNhoMP9WivlkdiTnt/bksDIOeVAF8q3FUHky37OdlhiiZcVJ34S4VEOWEEf7tStgwGxK2Xlc62s+G8ZlMGePC4bDRKWUtJLZYyjZSGREB35ZhfTWtVwnApBCkUYsqAKPbcnzJufeqBsMExU+HbSPFKZU8nAyygedsr+tCtAKMPhpXYlY8RKVMrYjEKY42CkBhFfdEXXKARYHW+tWXAJZJg8cyKIHjMYVEyIh1zBDubqdjqMo87Q4uLH6yVkRe9iVo0zkGR9iLGwFmUFgFW52B1oceGeTGYdgrhiTKxbOcio9jbvCSoYWXKNL8rGp2y3CtSdaNP2RxLnD91J+8w7GB/PJ8LehXKaub1kOJvGjvi0yiWCVFxGRm8cZAUh9gWAKsNPs1rJGsKrerIgg95B6EVJnHhqDh/iB86smGlT7Q5DUa1PjGlRY11qZCNDUZdlo7BBdqmYePUnoLVHHKpewA+fvSPoZLYOY8hWK+lTHNFhooV079mLdSsWU5fQsy/yW51uIIszW/XrXmP0z4oHFxRDaOEfN3Y/gFpsati5HSPPrilSv+rVyumkc9kiM1Z8G4gYJA+4OjDqP6jeqmM1JSueip6thpQygqbggEEcwdjUiNvEKyPYrG6NET8PiA8idbehsfetUTtQ6FHW1o0Xx+wpijX2NOg+L1p0Zj5edCgHgFEnpkHw+9MxUHwzX0oE2AiL53hiZxsxjQt6hiL3rt7G9SS+YXHvTxfgDKLGdlcLLkDIyhXZyqtpIXtmMpN2cmw1ve1NxXZhpcSszTlEjXu4UgAQxrYg3LXte5HhANulXrEDWhjFU3KuwEeTDiELZnZVFmLsXa19CSdWsfuJo2HZb3BzH8KKZVbekiquthRsBLTas3x91jxmHklI7p0khDGwEUh1DAnYst0v/nVycR0pssodSjoGVhYqwBBHQg6GspINFLiIGIy4nBiZVJyOtpTa+h8QuDbXS2u1OgeWzdzh3jzHxSTOSVAvr4iTbpuBc6DWijs/GP3PfQeUUzov8tyo9hSPZuE6zvPP/DLM7L/KLKfcUvFfsNsroYlny4eE54EcPiJ+UrKQREh+1qAWOwA6mtHiHua5FYAKihVXRVUAADoANAK5ub0G/CMh0Y29RVjyqAq1YoNDQQwBBrUyEb1EUa1KiOh9qjMtAfEmo9L0+V6da1/YVzCJma/IbVMcnYOHKtz8R/Vq+fe3HEe/x2IkBuveFF/uxgIPY5b+9e59p+K/VsLNNfVEJX+8dE/5itfNw2rowrTZDO9pHb12uW9a7VSAVaMhoIFEWuejoLPhGNMMqScgfF5qdD91ekixGhuNwa8qQ1tOyPFM8fdE3dNV81/yvb5UJIVvZqV2+6nofEKFCaIDqKKMzuIpQDSm4s15x9IvFZEmijjldAseY5HZblmO9t9F++qpWIj0hhTUcqbivMuzL42RHxD4uVIIgzElixfILlVDfInz58tD2lm4jh4lmjmVlVF71O6S6mwDONNVzX6WrUFmzKhhdfl/So7RGsB2Y7aYmXFRROIyrtlNlKnY66G3LpW94nxVYjCrKzGaURLltoWG5vyFNV9gejsdhuNfuoqR31LCmYqVVdUJAZrlVJAJy2vYc7XHzqtxfF8Ihs+KhUjcZ1JHsKVoxd2UbmiIV5VluKccgw6O5JcpKIWXUWYjNz3AW5uL7VH4lxabIJI3sgx6w+EAZogQpBPO7X1pl9ANdLiAOg8zoKgScRgAZnxEVktmOdTlzGwzWOlztWU+k3KzYVc0RAdgyyOQguosZMhDAaHX1p/YdcOzSQN9TkLBWyQo5FkOudpB4tSttdKz/pkW+I7XYNEzq7SLmKXjRjqAGI1A5EG+1RsN2jkxEUjYTDSFgF7sygIj3axsb2Nhc2vyqX2VgtgYkZcujK2lj8TDXrpQ+xOAlhwyxTLYo7hdQbqWuDodNzQYyNEg0F9+dWGHFQwtTcLvWCBA1osO3nf86aV196eqany1qUkUiw8nQc6PEwUX9hURATuaWPxqYeKSdx4Y1LEf2jsqjzZiB71NIpfkwH0u8eBCYRD4s3eSjoLfs1PUm5a3kvWvMDUviWMeaR5ZDd3Yux8yfuA2HkBUOutLjGjkvk7O39aVL9b0qA9Bw1EQ1GDU9XqdDWS1aj4LGGKRZF3U3t1HMe4uKhI1EWtRKTPW8JOHVXU3VgCD5HajnlWX7CYwtG8R/wB2Qy/3WJuPY3/mrT9KWqGTtCx1ePdu582Ml/hCqPZB+ZNew4waCvDuPS58TOx5yP8AcxH5VVGj2eicZyxYGDDpvIqiy7lUXvHI82Itfq9MweImlxPdtM7R2ljdTYqywwpG76i92lY635UHspxXDzQAzAd/hoyNWIuiWYMovY/CoPp0NckjTAYMyNI7YiaIKFYg5WkuzZAALKGYknqBWFMx2BS+Pg8s5+Ub16X2i4J9bfDBspijdmkUsylrrYZcvn5ivPPo4j/15f4Y3P3AfnWw4xxrEjGnD4eTDKFjViJzlBZjeyka3sV08qPkaRH4xwgwTgxtO6LhcQyh2aQIxUDKhIvrva52qk7NIU7nwYl9VzJHgYwp11VpSczDq1a7hvaZ7YlcWiRthgrs0bZlYMCRbfXoL8+VH4T2nWbvV7mSN0jEoSS13VluCLe38wphUyDjuyjS42WRyO4dCSt/96YzGGy+Skm/Wp+E7MxDBjByEyINS3wEnOXuLE5dTb0qr4aeI4mOOc4qGJGs4jSLNdb7MW1+Rqt41j5u9xMMiyPhVxEbzOpzFImVWEYUm4jPMjz66r2EvZsBw3CRhZUhRGOYCS8mYgWuM1ybA8utTsfxDC4ONJMgCSaIYYwc1xcAZbbist2gxJnxydxhxi444NEBCr+2BGYk6AZco9fSh8PwuNXDPhWikWSIriMK4s4Uq37vOLre2awPUja1akbZeYjtmjRzMkMoeJBJ3co7ssl7ZgddBUNuLY+P6viJTAIJJY0MSAsQsuxZiN7dDvany9nMQJ1eSZ8SskMkTs4VDFmAI8ObUE8hexqTwbshJkiGLxTyrFkKwp4Yxk+HNze3U2osyNhbWpmEGtRU3qZgj4h6ikGQ6eMhiK4yEH11+6rLiSeO/VR+Ypjw3sRva3/LapN6LcdkSJawH0scZ+DCKdrSy+pHgT2BLW/iWt7xDFph4pJpPhjUserHYKPNjYD1rwTiuNeaR5ZDd3Ys3qeQ8hsPICmxrdks0tcf2VklNUUQpSVKpYiQ7LSolKlCQ6V6dauWohQ+N6lxGoQWjxNWYjRtewJ/ayjrH+DD+tbIfnWF7Ay/6zbrGw+9T+VbwikfYY9DpBdRVVLwPDSMTJh4mJ3Yotz6m1zVtyoajxU/g3kqh2SwYJK4dAbFdCw0YEHQG2oJFV3EOxeGldnbvQzEkkSdTf7QNh5VraEwBrMJmuBdloMLIZI2kZipXxldASCfhA10FSx2Zw0s0006iUyhBlYaJkXL4SDfUAfKrRo66sBpU3ZilxfYeEqIYT3MBbPKFLM8jAHIMz3ARb3trufWiDslkxCTripWIDJJ3x7wujC2VSAMtrk89bVdAsvOgSOxp/coUzg7GgRiKTHTvCugiWyLa97NverzAwxRyM6rYuqI2pIKxjKosdNBp507ITpUzD4cCk5NsahQYSNQO6RUFrWVQosNhoNhrR1QCul+ldHU04Bp1NqkgaUGBedGc6VjDoqmYEeMX2Gp9BrUSPapMJsjnrZR77/cDSvoddlh32dQx/iH3gj8alQ6KD0/9VQMJ+7/AMR/BaH2g4r9VwUuItcooyjkWZiq38rkXqTRZPVs86+lTj2eQYRD4YyGl83I8K/4Qb+reVefmlJMzMWYlmYlmJ3JJuSfU3rl6stKjke3bO2ppWnXrl6yGH5R1rtN7z9a0qFBsg0hXRTgtAJwU5RXVSnBKIC+7Fy2xkPnmHzRv8q9MkG9eVdmGti4D/xAPnp+desSikZhq7GhtuKfHTJKdAC5tKYT0pA8qYykG9awhFFOZ7CmZxXCl61mGBudcAooip21LRhiR0/NXA1zRY1pkZnY0rr9KJTE1NMAKgpOa6KbzrMyCijSmyqvqx9zYfcPvoIFJnub/rTalYyLTCfu/wDEfwWs79Kk2XhbD+3LEvyZn/8ALWhwh/Zj+834LWR+mA/6jhx1xF/lFL/WkXZR/ieP3pymukUwmqkB96cooaGpCCtQGzmXz/Gu0+lRFsrF/KjJ+VKlUmUYQc6c1KlWM+ydwD/aoP8AvU/8Qr1ybb9daVKgwoDHuPSmyUqVOugDo9qcdvYUqVBdBI5qXhtqVKhEDHS1Gn2rtKizHI96mR7UqVNELE1KOuUqZAD01t67SoGHr/X8KbHXaVLIKLTDfAPVv/LWP+mH/Y8L/wB+f/xvSpVNdlX+J5M1BelSqyIMdHR02rtKiI+x1KlSpBT/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTEhMVFhUXGRoaGBgYGBgdFxgXGBgXGBgaHRoYHSggGholHR0YIjEhJSkrLi4uGh8zODMtNygtLisBCgoKDg0OGxAQGy8lICUtLS0tLy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAMIBAwMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAFBgMEBwACAQj/xABBEAABAwIEAwYDBgQEBQUAAAABAAIRAwQFEiExBkFREyJhcYGRMqGxFEJSwdHwByNi4TNygvEVJFOSsjRjc6Kj/8QAGgEAAwEBAQEAAAAAAAAAAAAAAgMEAQUABv/EAC0RAAICAgIBBAEDAgcAAAAAAAABAhEDIQQSMRMiQVEyBWFxgZEGFBVCUqGx/9oADAMBAAIRAxEAPwDV726a0d6I5zsla5wSjUcatpUNvU/p/wAMnxby9EP4txeWZWndLuEXdcO7jXOHPoB4nYJUItqynL0T6scW8Q3FKaV7TERDazdWk+Y29YTG65a62MEElkadY59EnOxZrmlhq05iDrLR4F2ykpwxwc0uEkBw3adN/BOiv+RFN9fwYyYSNoR9iX8H2HomBidMkh5KfEV32VAv8QPdCMLxGRMqT+Ij4snH+tn/AJBK+A3BAE80EU2tFket7C/EVYuYUkYVi5D8p5FMmOXfdKUcMw9zqsgbpU24nRw9WqRqVjd5mBCOJTmEDdXcPty1glXTYBxBKmWR2P8AYnsyq+Y5rjKoMxODC1PHMGDmnu8lj+JWxZWc3xS/LdnYwclNLqOnCVwH1QZWmW9YQsU4frGk8EJwxTi0UmhjSO0cNAeQ6/2TIJol/VKlK3oY8V75PIfL3VbD6jaJJe4e+qSavExdTir3z0218YQupj8CZifoiS+zjvLFeDW7jFWfdIKqW9TtZKzB2LtJYWP5n2THg/EBpuGZ4A315jkvOF7Njl+KDOIYVqXQr2G2ctGimtr5t1SJYCCNCDE+B05FXMCaY1GyyvgbGfW2iJ+GAclZsqUaK3iBhpKC2GIAuRRW6NjJzi2HKlkChFezyulMlHZDMScA4LJoTizStolt9W7L0Wk7KWwZorgphNUU0JlNpgPEcL7QahCK1qKemyc3BJ/ElT+Y0Dqj6rqLWWSmrK5ZLh0ROpVa0eipvqDL4pJxPictrOZvClhbdF0ppK2G7ssL3E9fBck6pijiSeq5VdCb1xnwgU63fFBu5+NznfLT81JxFh7nUzJ7o+6NG/8AaNFDwvdBogpguj2wyjZKnKalSHRhBRtmaYdQPbNbuMwn3Cd6GAlgNUCHNJI6bxr1Xyjw1kdnHUfIgpyxFg+z1PL8wjldolqNMo4NyTE1L+E8kwMVMzmw8gTjq1NS0LR+Nh9nSl3CMP0ATpjTQaRnaQfZAsErtc8xBAWYp1ZVPHcUyO4wEO1I1UuG4O1p1AlMNYgCUGpYgHOIapMr7Stl+DUaQTZQAGyrPdlM8l7ZdRoVHdU5aUvrb0DPJ6f5E7u+Ek8S8LCo7MN/BNOF3GUZSrpyuQyjbKOPncPdHwZa7AjSGY7DUz0Cz6+xJtSsXBpJJmZM+Hktz46sM1lWDGy4NJHovz1h9L+c0dXD5lMhpG83kSz02aRgHCwdS7SocrnCdTo0b7qGjwW6rUy09Wc3Hb0lGbEuIy8tvBO+EAimIcDA18ES3oUsSUbM1rfw4qMqDKREbz+SrcY8N1bdjKsktGjj06adFqVzcFz9OW69YpQbWt6jHiZad/JF0FyVIzH+HWLnt6bSSZ7sDQQdp+q2qhbgbLEeCLINvabGn70nbYa8vJbpSqCEHyDK0gVj7yKZhL2G2D0y4oARC92dAL0JUxydQstWoho8kDxlxL2jx/RMUQEHuKQL/JDk2Bhe2whZv0CttcqMaL1b19NUUZULlG9ot1Csy42xAsr042kz+/dN3EGPspN1dCzO5rm7rEt+EaT1TZSXUVGEnkSou3eOAMkalZ9cVXOql5nUyn2tgRyyUDrYG8nQIMdfA7OpfIHbW8VytPweqDELk6xAyW2mvNMeCXwBhyE08JqAkd2OudkfVTVqApjSKj/XIPb4j8l6TV7K5SUsaS8j+0NNN5H4T9FNilIfZn/5P0S7gFy91J8wDlOwEbJjxX/0z/8AJ+iFNMnnBw8gbCTsmBiX8ICYGJ8jnR8g7iyfszgOZA90s8J0y1xCbscbNKPEJdwmmG1PNT/7ivOn6Fr7GWszMwhL+GWgY92bromE1QBKTsUxcMqxPqtnC1oHi5alTYyXZAbKioXAcN0pYnjLnjK077+StYZcua3mgxRp7A/UpN0ohO7aQ7ReftLmETsoaWJNO51Ct9o16yXku4WsSIMQxKWOEbgj3CyHA8LH2t7jBaASDroc0c+Y1C2SrZAhZ1ZUDT7UOEakD0Jn3KAryQTQExatVL3OYKh6BpjRX+H8Xuy4UxmzHadCi2HvYTqF6+20mXILi0REeKxbBpp6B+IcXXNvULXMAc3eZPromvhniT7WwsMB0fdn1381dxLDaNwQ5uWSAZBkEKxYWVKmMzWgOAI056c0ewXv4FL+G+FPZcV6zgS1ktY4/eJJBInoGxPinyzvzmLSeaDYXWDKZDZyuhwncd0T85Pqq9tdntg7kg6vyNSik0xzq0cw3UTrjJp0XuleNyTIS7jN9M5St6/QqL+GNVvdZhogeOX5oPa/7sgO8jpK+8KViWlpOqvY/YtqU3NPMLJoFNJhG2qh7QRrKpYr3AXBCOCrpzWmjUOrNAeoTJfUg5pB6LGrRi9szGuK77taobyTfwlhjW0gYCUuKLLs6p80x4FjQFMA8gvNe1UPxP3yXyMOJ02hqqYfbtdsEtcSY84w1s6o5wlUdk1Xo6VjJRUtWEHYU2dQuRLMVyPuJ9NC7YcPd7MjjsJbGoVzCagc0EKe/qAN1QPewezUuqF5pbSJA2IKK39811u4A6wB8wkniXEw0gjXWPmgtpi7jeGjJjM4R5TCbjiL5E1tM0bCToEdYgOEEaI+xVzORDyfL5kshLtOh30y3Doah1uwTqoZyanSOriScdla9ouyaLO8UJ7SHdVq9wwZdFm3Ftg4VC9o0hMhkp1Jk88MfzijrGiHOA6proYaAz0SHhN73hJWjW14C30WZY0yjj7jszHjUvt3hzDuVPwzjbnHvFev4iHO8ADxKX8LflhNwxuGwcsuk/aalb3mYLOsWqllzWp5swGUid4PI9fNMFpfRHNC+Kb+g/M1rR2zIzugfDrpPOCgnirfwP8AVUl+5Rs64gnoqdX7G+s11zUFPpMyR6bKC3cYLef6pa4qwOvmbVa1z2OboWgkNjQgxslJbChKT2lZtWG2lCkyn9mdLTJBDswIPME/ReLLE2tfVkzlBS9wpbPoWjA86hpO86OMr3b0Hhjqh+86PPn+i3y9HpS8pha5xIOc5w0B2HRR2dedNJSveXeUqzaXMw6fZOcPaKhJOQ0XF2WiJiUMddnZRvrB2soZf3UIMa3sPLrY64FiGUgptfVzN0WO4Ni5zgHZanhFw1zAhyKmHBKUeyB4b2VTPsmIXgLUu8S1wGGErUOIngRCFRb8G5OurL3GrWvIIXnh3DJAQS7vHVHSU38KVFsl1VC4rtK0Ezwwxw1Eq7hWB9nojdDZSwjitCHNp6IW2zQNlymXIqQPaX2IHC+LAUwCiGJ4qHNytkk9BP0SMzECx5ay3pt13Lnn2GZfMQuq1QQXkD8LYa32bv6qfqovbKfUcldbLGPsBABfSYeWZ7QZnoJIQC1pFuLOadw8nTxZMj0KBYu12qLYU4nEmO6tYf8A8WqqCojzzcvJr+EI9TKA4XpCPMKdMgh5POIHujz/AFVamI0XY9XyUwf6h9Cg+HYu15InVRdLyWdNOsYQddd/LyUtaxa9pkITiziBnHLZT4TjTX90nVTcrG3JV4GQtxErHcC7GoXM0G6sYTipgg8gmvF6lJwgmT0CX7bDqNOXNaZ6nU+g5LqcfBOcPciLk8vHifteyle0O1nSSUv0sBfPecG+AEn8gmS6YD1VB965vdqdDlf+RV8OPGK2c+XMnN60QYbTAFR4JMEspzG4OVztP6tP9KUregS+4cQQXGBrOjSdYjT3KbsBJ+zUCebGk+ZdmP5oLfUuzrvbp3hmb494g/NT8qNY/aV8Sd5H2Ysm6cNNZb8+hRXB7quS1rKmVh3B1Gu6pYha96Quw6lUJ0IDQYnn7Lls6kJShL2jZYXjnSw8jl8082lg2pSdSjvBmYeB1j3ghKOBWYaM7joOZT3wiwuD652qZcn+RubL7yT6p2JWK5E+sb+TMuJcOLdQEvW7y07rWL3DmXD7miTlfTqdwnUOa9jakHpGYjTkNlnOMYXUoVMtVpbrofuuA5h2xVWODSpkmTNGUriya3e6EPxFzkWsGyr11hwI2RekvJ7129CvZugghOmDY2QANUm3FPI/RGsEYXEQkZYLyynDkktRGLELl1XcoY23hGvsDoVCs0gwRBKXBxG5FLyzzZ2Gcp24fw0MCoYFh0NDjuUz2LhslzdyoOPtiXGPyjVWGOkSh+IPhpKksavdhM/FE7Vl1coTU8Vy92RlGOXjj2hPLVfX1xGis07U1A2OYXXGEPYJ3CT0t2x8pNLQq4nRnWFZwipF5SaWtJLGEO5tGTRo8I0UuI0uSt2Vt/zVN3Smwf8A0CrUSCcjScNGyO0ygeFlHGJkyWHkBcd1S22kcnT8nJY4MZmJqHc7J34gtO0olv72KTrfLbsgO73hy/ugx43PSLZZ1jjchixa5Y1sHU9Onmly2yjVrAPH7x9VVddgjNJM+/qq1DES4ExBBiPFX4+PDH/JzM/KyZv2QUdU6KOnd7+C8WlZr2y0zGh6gjzVSmfjPjHqE6yOi3UumuExp+aGYk0Fp0kKbCqeZrv8xVoW4IOu3JanZtUxfwzEeyotpOpvOUEAiNWy6NyNgfkhHF9VlzSzU89OvRzOaHNIJaYLgCJnmUzXGHiHD1HgqFKqB3awMDZ4EkeBHMJU42qKYZKfZCNYYxmYRV+IfCR97r5FW24nSZB16xzJVPi7APs7xVovzUahOkfC7ct8uiC29F1R7WMaXPcYAG5K5c+Oux1oci42htssRq31VtIuNOgIzgT8M8yBJJ2W54Vi1vkDabvhEAZXDQCBoR0ASHwXhLbWkKcd9xl56u6DwG0fqnHutBMCYVscKUUjm5uS5SIG25d29ZhGZ1RrmR0ZTYwe+Un1VmzumXDCCxp/FTcAQfET6r1hf+GfFDLKqKZqP5B8ehTOiaa+iRyd2RXHCtI9+2OXrTJ0nwJ1H08lUvbNzGw9pB8f1TFbnvlzToeiIPpsqsLKgn6g+B6pcriPxZr0zD8e0fp1R/gkSNVLjXCTu1cCSQDoeo5esL7glk6k4M6H3UHIkmqO7w4tNS+DRre0GXzQTErIZxpzR2i+GDXklzFcQmo0dEjEtjs03TGq2aAwKO21foqVnegtAlWaV0GuCoeJLZFDO7oI4hTlhQjBbzdp3Bj0Ryo8OGiUrqm6ncgjYpauTooclGNsaC796LlWZW0XxH0Yn1kLnCtg6BngxzBBHuEz3OHtLCCEM4cqUzsRmR+8rBrCStzQ6ZKChl7QTM6xDCWh3dZmPVx09hv7r0bA5xUAAGmg2GkIq+5BJOi9VHt7GOcj6p7ekQw9zkEMNRd9w1jS97g1oEknQD3QOhdNptzPMAfsLN+N8dqXLzTfpQ+6BIAjZ/i4cx0RuF7fgTGSToYsX/iCKlbsmscy3PdFV2mdwPL+hV70wkQWde7ItwR2dMiXN2IjTXmYTxRsAKYaXEwANTJ08earwrqqSFclptbPT7YmgHDmEIwt/wDMDf6vomO0uGhvZRqBI8eqD1mgXDHAR1RSExflEWDXUV6rJ0dLh5jdWKNf4hoQBJ6ydfp7IDiVPsrsEHR0/NU/+LFlSo2JBcYS+6WmN9PttD5w+yKU9ZVnsACTMTuk3C8XzNc2XgxoG/EfJfH1O9vU2+JzH5hHkDM/uEammLeJ3sdqdJp5yqOKWIGsIdYVXZCRUe45vvCIPSDrp11R6tXDmgOGqJsXTTFvF8GFWg+gdC9uamTye3UIR/DPhx4f29VuV0kNHQDQnzJ08gmm/qlxblMFp00/JEaNTK5jM3fOpQOCb7DVlkouJMGTcAcgJVcXVR7XPysNMucAc+UgNcW65hG4mZ5q1tcPP9BQfC6Aq06bC74WyZEwCN4/ESZ8NFjl12DCPYNYfixaIdTa5n/tvzuHiWgDTylUr+5pkVBTc7vEPAcx7diGuEuAB3Gynp2LAXEDMSI5AtLoGYRHQKjWqOfUDXfE0MafMvJcYO2jWlBimp7QeXF1CVrcZRUE/DAHqNUSt7yQw/iP5JdbVmnVPWp+Su2FYEUwNss/OExqxAfq0w7WP30Slf12Mu6bPxSmWxuf5hY7UfRLuM4KXVc/3mnQj3XK5cers736ZllOLh9DM54DN1n+KXMVnieaO1qzgzxCQLq+zVjPWPbRTQvyX5EvDGi2v6n3dVHiOPVG7ghF+HrEOZKq8T2Aa06Jr5D8MX/k4r3Dpwre9rRa4nXn5q9iWH5hIGoSf/DysWw07fuFowQ47TBzbF9lUgRC5GXWbSZXJ/ck9MwnD7qrTqB4J3T9T4ge+mWuEyPVINvd5h6+yv4LiGeR0Mei6yni5eN/YXJ/T8v6fyId3eN/IUqgxzV+nTdq7lLfXu7eagoEBpLnNkbCdfXovuAV6tR5bVLCG7NBBgdQVyIOpJSKcvBePsoO/o+4hSe/4tuXT5oDf2rHB1Oo1xDtRlGun0TpbXzXGHMMdZE+y+3rGtmoA0wCQOojUSF1Y5YSVI+dlDJjfuQvYRUpMp5KdPs8uw6jrKnc4El/IoUb22qnNSc+m/8AA4fJSXdyWuAjukbfmjclWgeuzsTrhoFRnxMM+Y5qpiuLMA7SBoO71M7DzVTE7pgGjifAJZv6pfDRsEieStIfCF7ZA69fUrio86z7KS4GvVU2NjU+itguduPRTrZR4LeHGC0nQg6fqm22ptf3sxmOR3SRiFy2k1hcPjcBPQDV0DmYTPwti9Cs4sZLS3XK4QSOuu6djq6FZYyrsMVhSaIiT5zordaocrj0lUbjFKFPumo0HpIk+itW102o2aZGU7+HXyT7RK0/o62gd98eCpXdfvB8wQVXo4vTrB3ZOzZHljpaQJHKTv5rw5wc12TK7XKcpBynmDGxXrsLq15GevcAgvnU0na+MK9Y2RbUD2ObGSA0k96ddHTAjlol62c5tIb6at8OvopqlqDTFSjmpnnkJA88vwnyIQyjaPQl1Ycp2tSlSa1xc4BxOeoQ55kyGgAkkTvr19AbR/Mr1DHxEwNgQ1rYHkZC+l9w1zmiqS5oB7zKerTuRlA9pUdd+WmRzdJJ0kkmSTCXjj1QzLkc3b+QbY3U0LgbQWuHkTlP78Ves68GPwta0f5jBKEYXT0qjqGz5ZxKls6by4OmO9miN9dtfBMVi2kOVF8viNdNfBEq7gMpPPT8x+aX6V6c3dEyRJmfbwR65YX0nAfFEjzGo+kJPJxqUaG8PM8WVMpXdu2DsshrUCbotP4z7Sng49maYPLVI1/cHti8DnzXKgmrR9FkktM2Xhq2a2kAOiGcbw2mT+9FX4RxoupwWmQoeLq7qlMhK6u6Kbu5fBc4MaHQ4bLQ6Z0We8L1BTptATlZ4i0wJCbFUyXNvYSXxR9uOq5MJjB69/bNrVQaDmxUeDkqw0w4j4S0x5Ar5hOKNFZzaVGnTbB73ec//ucY9gEvYjWmtXj/AKtT/wA3IrwtbFxNSNdvFVuDw5FOCtP4Opx5w53H9HM6a8Nv/wAI35QJbcb8t+aIcPOois19SqSdto39UJv7ZtOq5uQamRO2v0V7h8RUb3aLTOhJBOigb2MlFxk4v4NIfA290Iq3j6TyKmtJ2x5tOxH5j1ULMdGokHX2QLi27fXa2lQa51QuBDWglxgzsOSbiyuErRzOThjkg0wZxFQNN8eMseObeRBClwu+uK/8vs3Vco1cIDmjxJMeiPWHDdV9Bj7tj2MmAx2jzAnzAHzR+ws6bG5aTWtHONyep6+qflz9X7SLBxHNe4zzFLI6kNfPPQk/JDzaOaAXNLQZiREwtFxG3DTmCWOJ6udzWj7g+Z1+kIsWRyfgzNx1jT2LXZakclet2iAToQvLGDdW6DQJLohN8EzBWM5c1F9QwwVNTGgEH84Q/ia7D3Nq0D/htOao3bXYTzKNVbrtv5bGgt5kgEHyRzDMPpFgaGyOYgR7LK7OkF36JNoQbTCmPfb03nL2jS97p7zjE5QUexe0bh3YVrcva9xcHMzEhzMu5CL41gVOtlbqwt+Et+Jp8F9tuFw5jzVqvqvLSxr3n4Gn8I5JixNaMedOm3/QA8PYS5tuLr7RUZGao5gPdIE8vGF9wSvfULU3FNtLsnONRwdOd45nwGi93+C3rbc0W1aT2DQBohxb0JOyMcQMLcO7Ci1znZWU4DSdNMx0Xqr+iPOSb3Tt/wDRJV41pfyyxtR7ntDuzYMxbO86wmbhXiGhcB7WZmPbq+nUGVwB5xsR4hZhheFi3uKlN9y62qADs36ZHtiSDOm/JXalvUrVaeS6FXtHi2c5lMsLmO7z++NHQByXlOXyZLDB+P7mt/aqVZpdRqNeWS1xaQYOhgkc9kIxB3djVF7PD6NvSFOiwMYOTRudpPU+KGXtLMmIj1egAa2SjWdP4Bpvq8KKniJMSYBXY0yLaqDzfTHsSUHs7rKILR5yscqdDFG0P1jWBA7oERt8032x0B6ws1wW/wBQQff9/uVomH1g5rSF6e0KaaYp1MGaKtWB9531Qu/wUF401lNuLODK7v6oPuP7Klb1m9pquTJNNn0uKSeOIUwbCMjBoqnEFoIR+2vGhu6XcXvg4kSm8eHaSHSnoBuuHUxAU2AYlULjJUFYSEX4XwmTmT+X1j4J4xc9WGBdPOslcjDbARsFyg7hen+5+bbStne9x5ucfdxKc8BqAQNtNEHwjCLQuqGldF1PMYD6Tw4CTA0kHz08k3WbqLWnI3tHNEBzgA30bOvqV2eNJQXavJBzZyytYm6r6+ypc4VSuGntJBaTBBj36oLb8O06j8tvVMad4nMM0ajT1TTb4k8Eg5Y8GNA+myktaTe3LgANeQj7uuij5MsWRqUFW9nVfG5XHxtZ3erTK2B8AVS6alwADvkacx9Tt7LSMGwOhbj+VTAMQXHV583HVVsK2RpiFwUfBx/VnPTYO4ko5mM85+RSPfXTqToC0LFachqRMas3OqaDZSvc6Ojik1HQu4lixcYIhB7oS5x5lW+IaBaomwdQTynzIV/GStkXNcqVlQWpA1H9lQxJhqaNnKPmr9QnbWCp7W3CZJdtEifXYPoUsoaB3Si9k6oHaAgQNQhdzQOsGY2V2zxJ+UTHT2S8aqWwsjuOgvavgkGZ6lSBoJgz6/2VL7c8mQASUQo1jllwAI/cqxNMjaaPtdjWAADUq/auBYCASW7whtWHGVZw6o5lSQdDuFvjwC9k9fDm1/josI/raD8labw61rqdQAEsnIIgMLvigDT5InSrBxGsBX3UtN5QNKzVN+ChUaVFcW+vgpmPJqARp1Vm4p6rfDBWxP4osC9rabBuc7vaG/mk+paljiw6EdVutrgrcoLh3juljjrh9jqZc1vfaJHiNyFz3yH6m/B248RPCkvyM8tRUYR3HeGi0TA7wBgJ36LMm3VRgyh5aOYH99kYtMWIpjJv950689uvmq3kjFbOf6E8jpIe8cw4vqNfTk5h3vAjT6QgOJYXVZ3hKt4Ji8gCUyUq7agyuiTsep6ea5mST8o7ePEoxUWZ8cUq5YzKG0qPe6FJxHT7Ks5sQDqFf4WoB7gVXx8qjCzFjcp0EbfDHFuqZeGhAhFKVkMqjtLTI8lR5ckpvY72K6CwXLyCF9WUyY/LvDNxkeWOGj9k10S2mYzmDyKXsdsuzcHM5bJhw+qKtNriATGq6OHn+muso2iz/RIcu548lS/cL2tSm7b5I7Z2gyGqP+pHyShb3TWvgNjqU5YbcA0arOlcfNi9ny4ZU8Xy9ic+Hn44yhynaitP+dDBhY2RqmUHwvkjLEqZx4eSR9OYQ6+w0EEgImXRC9bhRySbZ0sc3HaMd44AY2DudkGtKJyNadzE/X6LReM+Hm1RnI+HX9Ug1GOac0KvhRpNk/6jl7tI+fZQCeijqEbNRGpa064Dg7K796ELqODnWHTCvr6OX2AFWi6I8VJTthz6otVw6pEOA/2/YVZ9Et0KBY92F6l6PNCi0GEQpljQcx8lTaF6bYl2pOiakKlsKUnMIhuqsWzQFRtaQbJHkrNOmTzXtsF0g3a5XNyuKvW8tG8gBCra36ub76q++s0GJkrGgbPFEkHO4eSuUKxfWpsb+JpJ6AHMR7SqTQXugiPNF8HaGVWzzn0J2/figyfixmBXkQxOfCA49Tc6MoRsfFqvtekIXKaPoIS6uzFuPeGjSc24a3+W+A6Puv8AHwP1lB7JgyxMLejZsqU3U3tDmHQgjQhZNxvwg60d2lIOdbn1NM9HHp0d6HXfF42M7JyB9vWDOaYcMxhpgEpGZfQrVviDNM0jxC0ZHYy8Z0+2pZ26vb8x115r5wczIRmf3tOWmsaeaDXt73WjtA5m5I5dJCZ8Lxi3eGlxptLRBy8481mkqDjHdmiUqwyqsbkckr4hiRY1pY7OxxgOEaeB6FFMLpktk7lY6TE9W09BN14Oq5Un27pXI+yFelI/P13fl7izmJEc55jzXrArq7NQMoUnug6iNAPE7BHHYzVc9xPZPIe6DUpU3OjMY7xE7K5e39Wpkyuhv3mgBrfOG6JuL0W6boslxOfjXeEf7M6rZh9RjX3FJj3OAyjMdZ2LgMo90x4UXdvWb93PrG06x8klMpjtWzuHD6rWraxbStHGO9Uq5j11Jj5fVOk8GN1DbZNzcnOyJPka14CeGbIvTQjCtgjDEEzkw8grie+7JrD1zfKFcwK4z05KU/4nPd/y4bOufb/QruAYsG0wDpoppKtnRi9UMmKW4qU3UySA9paSNxIiR4rN8Q4BNIOfUvT2TQSe53oHjmj5J5t7ztXaHQJT/itf9nSp0p+MlzvJuw9T9FmKUrpGzjFRuRm32glzjTLmtmGidYHM9UWs+JqrB3odpz0Kq21oMogcv916fbjp/uqFOadohlCEltDFYcR0HR2gLevn5ouw21X4X0zPUwVn7qABXnsSnLly+UTPiR+GPhwhuwpnzBBHhr0Xp+E59m+ySqF1WZ8NRw9T9CiFnxBXaRLtOv8AsnrlRfkS+NNeBqZgmXd3yJXOsAToHuHSMo9UEfxXXO1XTo1kk/6nfop7TirvBtRtUt5uD4PsAB7IlmX2LeGYWbhzhs0N8BufMq1bimxnee1juY0JnzVS3v7WtpmqSeRe/wDVT/8ACrUmRRDvMuP1K27BSryS079hBFAZz15T5r7hdhcmu1zqrcglzmgHp3RJ5zC9ZBSbDGNYByATHb3jGUWyQDl18+ZSc0uqKuLjUpX9FO3xL+ZkcdUbdVkaLM7zFw+67mw0TnhF7IAJUvS1Z0ck+ug7R6L29gIgiR0K8Uivb3QEpjIu0IfE/Atm85mNNJx/6cZf+06e0JFxfgq4ojMyKjPD4o8QtVxAl7xroNVJeQGJLf0WQX2YS7MCGh+Rw3a/Re/t7WkfaKAP9bND7g6q1jVq91eq9tLtWFxMEQRJ1yndfMFsXioC4VGsB1a6DPgsl+46MvofMKs6P2VjqWfK7vDP8Q/sjuB3oeAOY0SxdYnLYGgA2Hgr/CPMnqlq3sKc0tMdJXLyyoIX1MpkvY/OFI953mfqUews6OXLkpfkfc8b8EeqjRmGnP8ANajeH+Uz/T9F8XJmP8l/J8//AIj8x/hhDCv38kaYvi5XzPjoeQLxO0F1KROjvyS5jAhpjTRcuUsvJ1YfggnwP8Pqkz+NJ/5pn/w/m9cuR4vInN+IMZ8A8gvdMfCuXJ7IysBqfP8ANeqg748/yK5csRqPNUaoe5x11K5cgZ4s0DoVYJ0/fRcuWI8yGo8g6EjXkUbuLuoKch7wcvJx8F8XKvF4JZ+QRbX9U1BNV583O/VMPEtV2Ud47N5noFy5eyeB/H/NlHAGjOE/Yby9F8XL0PxC5H5DLaFTXPwlcuUcyrB4QCce9+/BRXp7hXLlOXoD4VTGXYc+S+YhTGmg9vBcuQzGR8ipf/4v76Jn4f29ly5bHwS8jyHXFcuXJpOf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExIVFRUXFxUVFxcVFRUVFRUXFhUWFxUXFRUYHSggGBolHRUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBEQACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAECBQYAB//EAEcQAAIBAgQDBQUFAwkGBwAAAAECAAMRBBIhMQVBUQYTImFxMoGRocEUcrHR8CNCUgcVJDRiY3OCojOSsrPC8UNTdIOTw+H/xAAbAQACAwEBAQAAAAAAAAAAAAABAgADBAUGB//EADkRAAICAQQABAQEBAUDBQAAAAABAhEDBBIhMQUTQVEiMmFxgZGhsRRywdEGM0Lh8CMkNBVDUmKi/9oADAMBAAIRAxEAPwDhWeOiSKZYxWM0KUVsNji4eQYk4eAllhSkIL1kkAAIkGBsIAoHIEIJKIMUMKzC6i9t/L84tkGqvBqtgQht13sJLRLDr2ZOTO+ht7PMnlb5fAwbkTkzcTwNw+UIdjawOtrfUn4RlLglmZj+GvTNmFr/AEFzIpEM5V1jEQdBAyDNIxRg0KICeEUophIHWQhDCQhAWRsYkpICgNpbFitBkEvUytxQS0s8wXYVE55YximkIrH8PTgBQ+lOQLPMkgQLaSBFq4kIJVDJYUgDPFsYhYUQdwWENQ2H69eggcqIdfwfghp2IcX5jceluUpc7DVDePxJpW109kj15g/reLYUjOxXGdBtqbD9cjv8JWmxqF6/H1XS4udLg220+kKbYdqFRWXEXpkadVBuPePrLU65EaMXi3CSovTsRfXLcnWwGbyH1lkZWL0ZndEmwF/TWMElFgGQW0iZGCqCMhCqiElB1ihovlhJRUyUE9mhohRUhToUYp0o24FBe6h3AoVpG8rJQ/h1kBRo0EkAPoukhKB1JCCdUyEQlXaAsEKhvFGopaAASityBG6IdPgsQlLLTVbu2w/En8/hMM5NuyxI2zxYU0sMt+dhYE+X7zQxtgaOf4nju89pit9g1x7j0lyQtmDiTUF76qSSCCCL8r25wbF6BuxRKWZc2+W5tyJ53Huj0Rh6HHH0Hh5gAAKPdb0gohq4Xi67GpdjYWYaeg09YWAbrhMrE5cxH7gCgX5seZ85E7BVHO90RoR5RxiCYaCCJhEJAkslEyBCAyEKvGAwcgGxugkItji0oCWW7rykBbMilI+Rx6hUi2RmnRqQiDIqyEKvUhJQvVMhEIVopZQoVijUeAkJRscB4W1Q5zYKNi2xMqy5KVESDVqqo7BTdrkEkaetz+Upq0OQ+LCe3lLb87j3X/KNFewGJVsQHBJBCj3D3aayxWhWK0qim5CMq87je/62jNkohKYv4T5W3B8rwbiUUq8GuLgEb2k3AEamFqI2YA89QOsKkmGjQ4RiNctRit9+vzk6DVm9jsDSC5g17DTYKdIVKyumcziNCfXzliGBCQgVRAGiHEIGeUyCnmjEKqusYrZo4VIGQeRYCBO7gshiFZCw8ptAQdoVJAUMirIRot3kNgorUaANCdSBjgysAQbSEZuYDiLUqPdgqrana58yx6bC0xSlunZYlSs57FYo5heoSSdLC3wH5zQuRC75Ruc3Ow1BPm1tYqdMPYFsXmbKq7mwG/wj9cgo6vhPDsyZWAsfLT3Dn6yrdyNGJ1WA4HSFtAYBtprDhNO3siAlAm4JS/hEWw0YnFuytNrsos24IjKYHH2OSxVUqTTPQhh0I1HzEshyypswcSBmsNvPf0mkUoiwWFDCLAEh4QFCIyAeBhAEpiESh+hIwUO04rDQaAJgMIbCCMgQtOpAQMKshC61JCUWd9JAgS0gSrGKEoguwHnBN0iCPE6+ViFa7NbMeg6DpM2JXyxpcHsNXRTlBzEalr318jbX0l4tcheIVsw8PPobwJKyIPwXAHMD+rRZjR7O94fS0HlKaLTYoIb72gCa9C/UmCiBcvlJRD1SgCIaQjZ8+7XYdFrPpqwU+mhF/iJrwK2Z8jo47E0ze8taFi+AVMRC1BgJCFGhQChjIDKkwgLUn1kAaFFoCUO06kBAneyBMh4xBeoZAFQYAlg0DIHRpEg2ENSMiWDzQUQ8TBQ1gi1jFlyqBfJgVGu1+vnqf0REigsom+vy2EchoYete1/dEYUdZwSmQL9ZU2WJHVYIKBctYRaG5LVuOUU3Y+sHAaFqXbCjfwsxPppEkFUa38/XXMD0N5VuYaRnVe3SobZGY+UeLfYHtEu0eJFUpWFgWXKV6ZTcf8Xym/TSTtGPPGmcxiEl0iuIllsZWy4JlijAnEZAYFowoJ2hATSMDIaFIxGwjCVJCFu8kAK1TLqFsUcw7RbPCIxkyYBgimEh5jGSBZVWh2ksIpgaDZ5xEaCYVfDN3hRVZmubKoLG3kBrKkOX+yEbhlPMMCLe463kbolD3CMHmqKN9YJMiO9TCZRoNpSWIxuK1nv+8f7KwdsNmZVGJYDJTFjpyJX1vtG2xrkRt9BsJwWpmN9RfQ9ZW6kPto+j8H4Yr4d6dgGK2HkbaQeXwMz5vX4NiEqgKALnxE2JU31Gv0hW1KmK93oalem6Ii1NHsSfjYfhNmlikmzLnlbEKhmhoriJ1JU0XRLo0G0NlaggJYrUMNgAOsiZC9FZGRDimLY1Hi0gKJzSEoipNKM7YswgAiyCJIsiXIi2WFgIQHmEsSFZTJGAEAisJ6JJDBMF3lNi9Fir1CKeYbhd2APK/h+Ex5U7o6GjUdrk10O49qjjJWIJA8Dm2Y9QesXc4+oMiU+UgXB8GVqDTQjQybm0U7Tr0qSWMP0KFI7kAwNoDRBoUQdsx9IkpWNtB4hlGwtCiD3Aic17mWJe4G0aHE8MoYPluDv5GV5OOQR9mcn29ZD3LpzDq3uykfiZs0s000Zc8KZx7VJrKhZ3iSQyZKNKx7JcwEF2WKyErTgGRcUoA0EAgYS6iCyF7QWQHUm2zI0LMILCkSpiMsQW0VjEyILJMtEZAhsBaBsJDCK7IOcIb9oFPXMPUD8pnyx4s16bI03H3GsRwp3YtqSNQBrfofSZ1CzTKSXBukqxXw5SRqNrW5Qsz1yHK2iognVcgwSGTGsJiIiQ1leJkgZ7EgG5EsguRW0czV7U1y/hBCg+/wCEaXVgc0uDseDY7EOjGqCFt4bn2iN9Okz8oa00c32sxBJpj7x/AfQzZoumzNmds51qs6BnaAM0AC1J4jQyGAJWxy604jCkEWnELETkkCeCRWyIsFgshEG4UATNtlNC9UyXYtA1aAZDCvFGLZpCFXeOhWygqQihUaQay8VkIpvYg9IrVoZOmjc7N8S7xmQ58yqW8LWFgQCQDz12mKS29m/zNy+o7Vxid4uUsTqCW8rWETcn0DY/UYq4rSFCtA6TXgkQfoIOUkQBMRjlAyj57R1SJ2ZArYbP4nS58tPjFm7HjjOiwWNR0KqwNvy+Y3it8CyVM4PtPVzVyP4QF+p+Zm3TLbAy5HbMUrNNlbRUrDuBQWkkRsKQwBEYwZTK2Mi8FDEEwBslTFZC5ldkItAQRabbK6FqphFoEDIQKjSEsKWkAUcwoVsGBHSFsPTMNEsbw9AvfWwA3/ASnLNQ7Ol4d4fk1s3GPFeoJBc2G43HMRI5YNdj5fDNRCe1Rv7Gp2Sw/wDTM3JkdSOhtf6CUZqrhglpsuP54tG7j8GFuQNdZVtFTMV8VY2MToupNDOExFzGKWqNNcRpCgGLxThVWqbirlB/dP0MaDXqMk/QVXsVWI0re7L9by5tAcJGxwLhFbCIz1nB0Og12Glz1lWSHxKvUEpcUzAqqWYsdyST75riqVGdgHoxhBd1hsDCURAEYIgCQsV8BCrBQxDwUQoHitBssKkokiWTmi0wCbNNyQti1UxhSiCQT1DBJA2XyyAPFIUBkBZchC6pC16gVtpI3KvDnpUqbMRapmbTkVOXKfMaH/MJzNU9zUvQ+g/4dwPBjnCaqVpv7NcGNjKGbUe1+MyqR0tVplP4o8M7HsFwbu1Nep7brZBe+VLXv6n8JbXFnj9dnlKbh7dj/Etbxkc85jG0ReKxosVpVMplfRbW5GvhXDjQxyhpoNUpuRYm45aQBsCvDKh1Dt8Tp6RJdh3S9BjHK60ArEkswFyddNfpNGmVyKcsuDH7mbqM9njRkoFilXCyETAinaAdBZCWCYyBLd5FoIJ6kDRAeeBgTJFSVSiSz3exdgLGWoibdom4C2GEm0Wy9PCCCgBhhhAE99lEgT32WMhWUOGltpdkjjlN1FWxjC0cpz22Gh5XOxmTUZ4tbUz1Xgfg2WOdZc8aS6T9zT4ce9pvhjqxvVpde8VfEo++ot6qsywamnB/gen1q8mcdQulxL+V+v4Pn7NnP1XmUtyS9jV7P8aNIhGPgJ0/sk/QyyEqOF4po/Oj5kfmX6nS4t7i8uPLSMPErAwJmXVU3iNFsZAUxhQ3ECY7Vo0qPaPqISlxaGqXaAEjW3lEfYaY3j8V3uXoB8z/ANp0dPjcVbMWWdsB9nmgobI7iGkDcDqUIKGTEMRQitDqQhUaChrAl4CNnryBsGYCESUiA3eSiFO8i7SHQFJs2mfcV7qHaSwqJFcQ2XCRdpC4owNUMiTTtpz/AFv0meeoUeI9ne8O8Czan48nwx/V/ZAywHQnryHoJklOU3yz2uj8Nw6aNY419fV/iBrVSVOu8on0b5QSXAHD1yCGU2ZSCCNwQbgiKm+0UOssXF/ZjvH8OuZayLanWGcAbI97VU/ytt5MssyrlSXT/cwaOTSeGfzQ4+69H+RiVVlVlmSNco3+C8Q7xe7Y+IbeYl0JWeU8T0vlz8yK4YxX5xzkMzqrRWFGdVAiMstjfB+G97UCnbn6REyb2P8ADu6eq+gRc5VWAHg3VW9LgE+V48H8XJ67S4ktLFxim65td+46osSrDKykqw5XGhF50MeenUjja/wHevO0j4fNf2G0mtJNWjyk4ShJxkqZDiHaJYGpBQbEa4k2jWZeJSTaNYrlg2kTPQbRrPZYu0KkVZZNpGxaokOwWwfdQ7CWdUtKa9pmciTShcSWQacVxHTCIgGpNh5yjNkjj77OjofDs+sltxx49X6IMzi2nPnz93ScvJmnNnt9B4Ng03LW6XuxGu8qR34RAGBloOqdJU+ULN0hWnRqAlsjZCNWsco6a7Ro4p7bo4y1UMeo22uTc4SO9pVcN+8R31H/ABEHjUffQH3osfH8ScH+BNa3gnHUr+WX2fr+DOfLXmZ9mm9xRHKMGG4jxdGHU4FODi+mdBTxIdQw5/KXWeLz4njk4v0FcTFsrQnluYjGOj4RQyU2YaNlY36WUmTGt0qGo53gVxTPmB9Y8n8TaPd+HRrDBM3ajGpTFYXzJanV53G1KoR6DKT1Vest+aNlmOsGZ4X1LmP39V/VHsLjSPCdR+tjDjyyj0JrvC9Pqlc48+/qPCoG2PuP5zdj1SfEjyOt/wANZMfxYXf0fYtWa02JJ8o83OMoS2yVNCdVo20RMz8QYdobFTJsJZW0GwNlpPLJuKtJsDuAlYdgNxOWTaHczq6YEv2mbcEyyUTcLYioF1O/IfrYTDq9UsS2rs9H4J4Jk10vMnxBevv9gQOmd9f4V5Tjyk5O2fQ8WGGKPk4VSQvUxBMVyRqjjSBFou/kc1cPwCs1MVWNOjTb2Xr1FpBvuhtSPMCW+W6+J0cvP4tgxzcI3OS7UVdfj0MYgphaSvh2Ws7MyNXy3Smy2OSkrjcg3zka2Nuck2oQuH5mGMsmtzbNQnGNWo32vdtfscvxviFat/tajPbbMSQPQbCULJJ/MyzPpscFthFITwfGmpsjAEOhBBHVTcGPtpqSM0vEN2J4pxviicfjWqO7pTChmZgL+yGYkDToDaK1BybbDHNnWJKMVwuxJq9TmBbpGUYGeWo1S5klQ/g8Vbn4T8ot1wyrV6RamO+HYxVxykc7+kBzF4Zm+hXC1VuMxIESRYvDM/svzOjxnFKK4V8jg1GHdqtjcBvbY6dNPfHxNJX6jQ8OzLLHeqicuvEBSCi173+UMIuVno56yOmUE12aHD+OrTfOouCCro3sup9pT+ukdOUHdD5tRh1OPbfPa90/RoaHEqCuw7lqtM2KsWam6gi9iRoSL2vYg2vzkeRJvgm7UTiuXGS9laf5mjgamGqMFWrUpliBaoquoJNvbUg290eE4S+hJZNVGLk4xkl7On+TsexHDgxaktVHq0ywKWZagK7gK4GcCx2vNmHK8cqTv6HA8RwY9ZjWRwcJNWpej+jaObrvY2OhnYilJWjxc4ShJxlw0KVGjqAtgrw7SWTBsJZ6DYSzxMOwlg7Q7SbiINgdx2NKjCZSMY4RbnfkOv8A+TFqtUsUaXZ3/A/Bpa/Lc+ILt+/0Rk0BnYs2w+E8+5OTbZ9PSjigseNUl0Dxde58th6RZuuC6EdkQAvFSbJKaim2dBTwtLBKKmJUVMQQCmHPspfZ8R9E+M0pRw8vmRw56jLrm44Xtx+svV/SP9znuK8SqYmoalVizHTyA5BRsAOgmTJklJ2zXh0+PHBQxql/ztjvZ98/eYU/+Kpyf4tO70retmT/ANyW4XuuD9f3M+sexxyruD//AC+H/cx31lDZuklJWLnDjpG3syPTRu6LokDZZGFcENTksEsSFsuQ35Hfylt7kYXF4JWvlfYc076iV21wzU8akt0TyrA2GMD1RdQIUyZI20j1XDhreUMcjXQMuljkqwa4S0s82+yiOicXwaFP2ZW+Tq4/k5Ahip0g6KbcJUdP2sqHvqGJXRq1ChWJHJ8uRiD96mT75qyv4lJepk8Np4pYn1GUo/h3/UtxakuIpnE0wA62FdRyJ2qAfwt8jfynV0OqT+Fnl/G/DfLbkl9n7r2+6/VGH3J6TrcHlbLDDEwbkDkt9lk3BPfZJNwCDhJNyIUbDQ2AH3ElkOxQWFzKJzUY2wYcMsuRQj23RzNeqatQ3aw116LynlsuR5Zts+w6XTx02COHGul+b9SGchbAgL5j2oPsaqp2Lg3P6+USt0gua+Zvg6B6q4Bb2DYsgWvquGBHT96tr6L6zS5LCqXzfscbJOWubb4wr85/7fucxUqs12YksxuSTcknckzK7q2bopKAJGiskZUFp1ylRKq+0jKw9VII/CNjlTsq1UN8fuqf4j3HqATEVVX2c5ZfuP40+TCPnVTYnh83PTxb76/LgSUSldm9IhhGoWSRQyNCFHS8idclU4JqmLoxQ2Psn5Szia+pijOWnlT+VjdhuJVTR0FTVooi31hrgritzbDASUaUi9pYohdIsq6GAZAKogKMqNnjNfNh8H/Zosvwr1R+vWXZHcI/Yw6NbZ5v5k/0AYDiRoVFqAAgjK6nZ1OjKfIwRm4NSNerwxzQ2S6f6P3N6vgEOWpT1pOLoTuOqN/aU6fA856HBn3ws+Y+IaSemzvHIingpZuMdF2wUm4hC4Lyk3got9ik3EFqmCjKYKKfYfKHcSieLYm1PKN2093P8pzvEMtR2L1PUf4V8P8AMzvUS6j193/YyMPSAUs2342nFUaPfrhmVxGvmPl0kXZz9ZktUE4DxhsPUDhVYi+XOLhWtowHUbiOm4vcjn7vOh5Mm9r9v2PYisXNySSSSSdyTqSfOVSt8nUuO1Qj0VrtYQfQbNKo0CDQFKkWLXEFcljknE2ON6tSb+LD0CfUUwn/AES/Udp/RGbw5/DNe0pGeJQkjphcLhXquKdNczG+mg0AuSSdALczLoQcuEZtRqMeKO6bpDdPgOIKuwpHwHKRs1wATlQ6tYEbX3Ef+HnyzM/EdOpRi5LkzSspcWbeGDdLxUVzxqSpgUBW4vp+EdvcZop4rV8DVAaQG3CvhCWhS9C3o+o0cIuDo5Aqllpd7UP8Q0zE2UknXQbACdKMdqPGzzy1mbc26bpGNi+B0sTRFfDALU8V0AC58ujDKNA29mGh98qljjkVrs6OHWZdJmeHNzH39jha62MxONHcn7mljk/o2FPL9uvvDhv+sSxr4Iv7mLTr/ucq/lf6CFRbpF9DoTjuhRrdkeJWLUG1DEFfJxzHqLj4dJr0mRwnXozzXjOkWp0zl/qhz916o6unS1nXZ4VDIw8WwEfZpLIQ1DSGwC1SjGslEdxJZKORxr56lulgPdOJnyOc3I+seE6RaXSQhXNW/uxXiFW3hGw09/OZmzVknSMeobwI5c3bBMwGgjJFEpqKpBcLVG55SOJdps0E7kEq1AdjEadl+TJGfTBgyFKlXZKNvC0SEuGbXEWuuG/9Ovyq1h9JZm6j9ieHPnIv/t/RCYMoidSzt/5MsfhKVU98bOzDKT7NhbKL/eubaXsu9rTdp5xXDPOePafUZIp4+Yruj6n9qwiOUugLi51utl3AW+gFwTYWBOus12eR8vK43TpHxbt3Votim7lctrhj1a99epAsCd773tc4M7W7g9x4Njyx06eR99fY5szNVHVZRvSErlT9C1NpAwlQUNCu7LrtH1zGYWpiKC90VK1aaVe8d7PTBQJUym2osLEHk86nzR4PE4c2PT6hvKncW1SXD5tWZvZSjTp0jmYFkvqjZk8B7wi45sjta3Q9IsFSo1eLSyZMtxVJ1337focn26waJi6uQgoxFRbbWcXPzvMmdVI7nhuSWXRx39rj8hLFN/QKQ6Vq/wA0pGL/AO2l9StfDqp/yL+pl4F70wfP6RGbdHNyxJsDSrFKmYaEG4hTrkyulklGXTPp2ErBgrdQD8Red2Et0Ez5xqMfl5ZQ9mx7OIaKGSGElAIqNpCQUcxiEXkohw1BrXboD8eU89Lo+zT6oycQ9zK2YM0r4FahjIw5G+kCKxrKHEmnIw46sK6Abc9oqdl84RguPXoD32msbb7Gfz+PiLUm0MEkWYpXFm1XN6eGP9yR8K9aPn+WJd4e1vmvr/RAbSmKOqzX7J4OjWxS062YqVfwqbFmVSyrfztb1tL8Si5UzleKZ8uHA54e/wAztRSwSPSLEk08irUfEOcvjr0zswAAemt7EC1TlNfwI83u1s4yUfW+FH6JmT2pwmB+ys1A0u9WrstTO5UuwIOviGqa+W51leXZt4Oh4bk1v8QllT2teq4OHMxnpWUMVpiMqDrIhLp8hRCXHc9iONEocMahVrHujpexuSozaEgk+E7g+U14Mn+lnA8V0iU1mUbXqjVwXBsrIykhMoSoSaZVlAfVVGofUAbW16zQl6mbNr1OEoyXNtrvjr9DlO3XEErYt2QWUBU/zKPFt5kj3THnlc+DseEYJYdKoz75f5mVxB7YOiOtTEH4LRH1g/0L7lcpf9zk+kV/UzeH1AKZBiM1aKajipgcQ3OKuRM8udx2fZrHZqKi+q+H3bj9eU6+hnuhtfoeO8e0+zOsq6l+5snFTbtODZ4YyTaCyTipKIL1MTrCkCyPtQholnIYtrIB11P0nmZH2PLIy2MRHPk7YJoyKJAmjozyKJCxIvktVqeJR5SKPwsOXI/NjEFV2tGiU5etoaloIkjRie1UzXFS9DDnp3yfBw//ANkfIvgi/uN4fOs0r+gKtU5CVJHWzZPRFFp9YzTK4wrsJaQsqxing6jKXWm5QXuwRiotvdgLCNsbV0JLPijJQckn7WGwXCK9a5pUncDmBp8TpeRY5Porz6zDidTkkxfG4KpSbLVRkbezKQbdRfcecEoNdhx58eVXB2KOusVIk+x6vw6tSC97SdA3sllIB0vodjGlBxVsr02rx5W4RlbQAG2kU18Phj/894nKU758pFjtfp7Vr/OMskqqzN/BYd27aINKzV0g/GmthcOOvft7mdVH/LMufUTiTf8A1cz+y/QxKESQ+D0LVGuYEh8ktzNjs/ispK/xD5jb6/GaNJk2ZV7GbxHS/wATpJRXa5RsHHX5z0ew+fsj7d5ybQWW+3+cmwNgXxsOwVsH9t842wFiPGcgqulN+8RSVD2tmtzA5De3lPJ51GMqifVsGXLkxKWVVJ+hmGUkZRhGRTJAmEZFEkCjme6B1W8Y90ZfKU5ZVmT+xSvV1jQjwV58vx8Eisd4HFdBWeXbNmh/VaZ/vq9v9zD3+kacfgRp0cv+q2/Zfuzu/wCTXgTDEk4nCko9Jihq07rmDIdMwtexMfDja7Ri8W1kJY15c+b9GbvaPA0BgMVTXDWelVqFWWnoP2uYMKlrBQjWIvy2lk1cWjLos+T+Kxyc+17/AKHJcN7D4yvTFVaahWF1zuFLDqB09bSlYJPk72XxzS4p7Hbr2R2X8nWFqLhcZhKqlWDMCrcu8pZfh4by7EmlTOF4zlhPNjz43w139mZPZ/BV8en7Lu6KU7Ld0FQBrXyUkNwoAtc7knUyRTaNGsnh0s/jW5vnuvxbFuKcMrmrS4dW7sMzZkqqvgy2JzKgtlbwkMBYHTS4Biyi38LLNNmxQxS1eO+FzH6ivHewFSjh2rLVWoUuXUKRZb6spvrYakesXyEumPh8dWXIoSjSfr9TsO2fZ+tjKOHpUioynMzObAAIANgTfWWThuSRx/D9ZHS5pTl6/wBz51iOzOJFY4fui1VRchdQV5MD0MyvDK6PWw8U08sKyuVJ8fiZtbDsjFWUqwNiCLEHoRK3FxdM2480MkVKLtMA41PkCYgZz4K9pns1Ol/5dKmh9SO8b/VUI90vfZwIycoN/wDyk3+BmA2FpXRpUqVI9AEZw1SxBi9GvC6ZqlCdRsdZ6fS59+JN9ngfFtJ/D6qUV0+V9mR3bTRvRztpZaDGI8yQdhcYRov8Qg+UyPsbRv4hE8pma88nM+rMEYpTVlWWSwSiUKxkylw4FWGstXRhkviB1faP65R10Z8vORsXJvLKoyN7mFReURsvhG+Dvuy+AVq3D6Di4LVK7DqCSFB/+AfGWPuKGzNwxZpJ9Uv7/ufR27Sv/OgwVl7vu7k65i+XOPK1tJbu+Kjifwkf4Pz/AFuh/FJmpY6n17z/AFYZD+JMb0KYS2zxy/52ewler3dGriKqYZRlPdoRZrgBUdm/BfjJ9xsihulHEm/qxumQuOb+8w6n1NKowv8ACoB7ofURu8Fez/df7HI9l8N3dPG97VYYenXqqaaDViCLksoz7ZQACImOLtnU8QyqfkqKW5xXLHu0TD+cOGvYgEVRruPCCAfPWF/NFlOkf/aaiP2Bdl1f7PjTVzZXrYi2a/s2INr8pFabsq10ob4KHpFde45x3iVSnisBRptYVHYVBp4lULcG4uNztBJ8qgabDCeHLOXouBvtBjBh0xGIABdaVMC/OzPYG3K7yxulZTpsTz5IYb4bAYsUhmrVKYPephwQVDXYswXQ/fA90nFWyKWT/LhJ/C2crxns3Qzu6izGrTsq+yEYhWGXzIc+6V5MMezp6bxXO0oPqnz6/Q+XcTxJqVXY7sS3xN5kZ1H8NQXoilNZW2acceCYBgqxWaI9G/wBs4KdNR9Z0NFlpuJwv8RYd2OGVenBsLgvKbZZTy0Yh6eDEyTzGiMQ64QdJV5rGcS32MR/NYNqOAac1vk+jyKCAVEuJESSBvGRVPoUbeWro58l8QrWbfzMuijnZp039WDRYzZVCLZoYOjqD8PWVXbo6unxbfjl0jqX4qKHEKdQapQanT05rTUI9vXx/GGc6nfsVxw+ZpnF9yt/nyj6NiuJ8L+0JjO/p96VyAh9hYi7J+6baXM0rLDs8/5Gs8vydrrvo9T7YYLPXviFs4SxsxB/Z5Taw8pFlj7k/wDT9TJRe3/liQ7ecPq0KdSuM1WnZhTKEkVALXQ2y2PUweYix+H545HGD4frf7lMV/KRgxXpVl718tOojAIB7bU2FsxHND8ZPNXsNDwzM4ODa7TB8L7TNSFfEU0D08RUeoiM6oVbY3Y+Enqt7gZSLg6CM3y0XanTQezFN04qm/cHi+ONiamDqVFSk9KoLFXzK+fKCq6akkDa9tbmHdbVleLHHGskYW017Gbx7t69QiitPIquO9N7lwjglV6A2lc83NGzTeDpLdJ3a4/E9je21CrjsJXK1Ep0RUzXAJuwNiADqPZk834rFh4bkx4MmO03Kv0Nxe1eDxNWvTqOO4dKWU1AUBK3zA9OXrYyyOaLbTMsvDdTixRyQXxJvoPV4qtbumU3p5mrcvYpDKnpdyCPSWqalVGJ4Z4tykuevzM/tFxJqYqXyju6ZqAg3JLXp08wtpq7H3RcsqL9HgUqa9XX5cs+RBr6zG+zuqW65BqQlcjTiVImAb1CiIaF0anZ6vlrpfYnKffp+NpZhltmmZdfi83Szh9LX4HfjDeU3ykeHiEGHmSci5BEw8XcFhfs8bcCz5O0yn0iRTnIVepZoB5AXMdGebFahtrLUc/I0rYkoLGXvhHMjF5JWx2jSA3lLkdTDhjHlmlwc/tQ1rimGqkde7UsB7yFHvjYlzfsV6zI3DbH14/MSzEm5NydSep5ytvmzRBUqRZVtrFstUUlbA1at5aZsmS+AV49mfroKggcrLoR9TTweOqUl/Z1GS++ViAfUc5Tva6NssOPJBb0mLtjHLhy7FgQQxJJFjcWJOkbc2UxjCLpKkRXq+I3OpJ994vPZc8ijLaCqQxYmT3L0m8LD0/GR9hg7iwuDrsreFityL2O9jcX66ybmuQbIze2SHeMY5zhyzsWevUJJPNaYsB6XY/7stjJyXJzs0I457YqlFUvx/2OeHSAC4pDVIaSqXZ0MK+E9zkJ6hwIhpiuD2cqQRuNYULPo+t8MqCpSp1P4lVviNZpcrR4LUQWPNKPsxxaczyYEXSlEUhrCd3G3APjFpWfS6sDU3jLozZOGXcwIebAO0dGXJIVqWI1l0bOfk2yXxFEdRtC0xIZMceEENSLtLfNNDh5tSrPfcJTH+dsx+VM/GWLiEmUy+LJBfiK3tKOzoblFAne8ZKiic3NnlpEyORI4ZSPGlYybrA8Ti6YQCTcXRiHG0qbNaXwC7nWWIxTdMvi6d7EdJIyp0PqsW5KSFUrkaGWOPsYYaiS+GQxhX39IklRq08020XonxRX0XY38YXtFU/aJTG1NAvv3f8A1M3wl0ejm5Xc7923/YyidYUipyqQ7ROkokuTqYZXAsBrAOlzYR3AEVKy+eSMIirVSZao0YJZnJn2Dswf6JQ+4IFLijyWu/8AIn9zTDyqRnTDI8rG3F84jE3HxinFZ9Rxi9fePEx6js88iDPoXqSxGPII4nlNEDlantAkjMzwCrEZpj0a1H+qn/GX/lvC/k/EbF/nL7f1E6kpRsydHqUMgYuxqnKmb8RStvDEqzfMUEYRB02lb7NcflFKu8tic/L2Mv7Iieprn/loza3tTTHo4ub5w+D3PofwiTNWl7f2GKHtD1H4ys0e4Li/+3qfff8A4jLl0c7J86+wqN5PQH+obpSqR0MPQURDSgGJlkDHqewSxmURPr3ZX+p0fufUyl9nmtf/AORI1FiMyIIkgQkhD//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUVFxgaGBcXGBgVFxcdHRkYHRoYHRkYHyggGBolHRYaITEhJSkrLi4uFyEzODMtNygtLisBCgoKDg0OGhAQGy0mICUrKy0tLS8tLSstLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLSstLS0tLSstLS0tLf/AABEIAPwAyAMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQIDBAUGBwj/xABOEAABAgMEBQgECgcHBAMBAAABAhEAAyEEEjFBBVFhcfAGEyKBkaGx0QcyUsEUFiNUc5KTsuHxJTVCU3Si0hUkM0NiY3JEg8LDNIKzF//EABoBAAIDAQEAAAAAAAAAAAAAAAIDAAEEBQb/xAAuEQACAgEEAAQGAQQDAAAAAAAAAQIRAwQSITEFFEFREyIjMlJhM3GBkfAGFUL/2gAMAwEAAhEDEQA/AO4wUCMjyg01ak2oyJBlBKZaFkzEqUekpQoxHs98BOcYRcpdFN0a6BGIOldI/vLN9kv+uCGl9I+3Zj/21+5cZf8AsNN+aK3o3DwIwC+UNvBIvWen+2v+qEfGLSHtWf7Nf9UH5zD+RmlrcKdOR0J4Ec+HKLSHtWb6i/6om/2jpL27Md0qZ/VFPW4F/wChmPUY8n2s2kCMUNJaS9uy/ZzD4KbvhudpbSKQ/OWbdzS/64i12B9SGPJFK2biDjn39v6R9qz/AGa/6oM8oNIe1Z/s1t3qg/NYvcR5vD7nQIEYWz6Y0iuoVZqFv8NdaPjepjCxpTSJdpllLYshZbDHpUx7oF6zD+Q+OSMlaNvAjEf2npF/8WzDZzS320C4jL5QaQBPyllYZ3Ft96ItZhfUgZ5oQ7Z0CBHPTyjt/t2b7Nf9cGOUGkX9az5f5axjhiqDepxLti/N4vc6DAMYhOlNIn/NsvVLWf8Aygv7U0j+9sv2a/64DzuH8h+9G4gRhJ2mtIIDmZZvs1jxXQQweUdv9uzDfLX/AFwS1WJ8pipajHF02dCgPHPByj0h7dmO5Cuv9qJugOUNrXbJcicZRSuXNU6EqSQUFAzJ9uDjmhJ0mSGpxydJm2EHBJgQ0eCMVpb9YzP4eV9+bG1MYzSIfSU3+Hk/fmRk1yvTyQE+hV3jwiut2mbPKLLmpf2Q61fVS7bzSKLlDp5a1mz2cnFlKGKjmAck5PnlEKRyeRQTJwSoteJPRRqCmreLeriMS0Xof+NweNZdXLan1FLkTG2yxVygs6lE3yH9pC9WxLDraJ0paVB0kEawX8Iql8lRzypCpqEKQ1xyQFulFAq6wJJAqcSWEVU2xz7KecQSUaxUbUqGsMxz3OI6cvAtFmjt082pel9GHLobuS7NcgVG8eIjUJs+zjrjIaGt6ZyQpNCCkKTqL7Bgco0Y5YaO+dyu0+Uecl4dkjkljmuUM0OPapJk5Vn2e/8ACItus3Q7KY7MKd8Nnljo753K7VeUEeVOj1hhapff7xBR8Pkn0bZxtURRZuBt3VxeB8F2N2A7HZz35GHlcpLAKG0y/wCc9wTDR5VaOP8A1csbOkO5od5N+xk8siZo+z0O/wBw1+4Ryu2SVS/7QtsuYpM2zW5YFTdUkrqgg4jp90dMlcrdHJ/6uV/N5VjGq0foxU6YubpMKkzLQqeqQxSlSyokAlnUAGDahB4dLscnXZphDbGiPygt7aURMfoWaZZpS07Z6ZijSlAOb617IrdJyihc/Rr9KZbEXR/tqurKgRUUud41xbW/ROiJwnrXb0GfOmqWmb8oObvKcouA3VAB0gmoDRZT5ujF22TbFW5BXKl3CLq2WbqglTsyWK1HOHxwJVS9KClG0Y/TUphbhkLVJTqb1g0ajkzZzKtlpsgUpUuWUKReqUAmqQVVauGsEs7vH0nZtHTRaQNJS0m0TUTB0FG7dcgM1Xvd0W3Jy2aNsxmLNvE6bNVemTVhQJbIAJYCp4FLyYd0WqFPHaMfyjlzEzbbYZZIVPnImIxDAS5q5igdbpl/VgtMWk2iTb7WHuvYpaa5qMtcxIzoVIHWdcbeZa9Fqtwtptksnm7hRdUUk1F52obpZuvOKeTYdGJ0eqwfDwb8xKzM5uY5ZSSHDM7IAeIsPC+X/f8AUOrgoNLW5U2ZblmUuU1hPQW4VSZLALamOMSjoOWq2WIEK+WlX1ByHKJabpFaeqKZxfaZl6OnrtEw28JNos/MEc2s3Q6VFWFT0MGzhabZo8T7LN+HJ/u0oouiXM6Tpuu4TTdUwSwtL5UKlCyk5F2dKrTONxd8KmNMc8215PR1XnLxs9FS20nZvoLT4yOOA9FoS0WGzzlrGkryFqWoyebWElSsC913GyLzROlLPP0pZuYmiYEyLVeYLDOqQ3rAeycPKIsL37v0DDF86kdAECAIENNgDHOuW1t5m0WlY9b4NJSneqZMA8Seox0WOV+k1BM+cRgmXZSdxXOSP5lJhuDFHJljCXTaAyfaUPJ1EpJUZrkKSbjEhKlUupUU9IJJc5M1aPE/mAtQSJJvTFqSiUkpdS0ghYvKCkJlJu3r9SHKUk0i15G2LnLMJaOa+UqozZfOh0UUm6CmhvJUC/tQ8NCIsc9BmuUqlLAXLSpLTAqYoKoSoMiYwqaJMdLXamsk/dOv7e5UUVq9Gz5fPzZ6SEg/KrlzAebAQCEqvh1ICV1Ukpo9KOG9HTkBJROWUi4oBQxKkpo8tQ+XSpv2UgJoAakxd2iQmVLvWkLlylyVX7iyTOUwPSKCcr1T7XVEXReiZtnMubNkpu3UrmKMsKZ0C+LwUCFlQAuXCHwxjFpdRKcXv/t72W0ZfkvNMu0oTgJrApL0zTiHcZHOuuMQudXHwOY27I3yJb6SlhKbrzQbrepU9GlC1BqjCyrOVKwJrqOsbHzjb4kk8kJ+rirFY1y2RzP4pt2wQtJyPh7zE2fo9gMewg4HZxWK8pOo99MDq4eMA6hfwknEvSmG1s+H3QfwjV7tmRPhBCTQF2c11DecNWLGFixqJYdJtT1o5ApUtkKxVkobNoxw7vOC5/inHbEk2EdJl4UqDQt+0GDDEONWEOy9GselXpEBr1epquASGpQxVk2sgc+eG898Dn+KGJStGlkkOXN00JZTlhhWiSKZti7RGmWdQZwXL51DPXuz2RaJtCE/d3aht3QoT+OvfDHGezqhaEOfz27IIEtdB6UEmdLmFKVpSReQbpCk4EMdjttAj0LY9GWSYhMxEmSpCwFJIQmoNQcN0ed7PYn6tTk1YO2eEdP5E6bnyrEpCEoVzc0JRzqlgBKhg4TjeUG1udUBNewUYt8Ik6Q0zY5ds5oyZJkpN1ahKSSlQKgobgqhpkYmWrS1kSVhNlkm6pSbpHTN1w9xCFEJLOCWcF4zXKvRdqWuXOmJQTOISkSnqSHAZRcEh+yIc6wW9HNBXPJJdEpN8iqcEhiwLCmuOnHSYJwjJSV+vIieXJdSRuLFNs/wRVrnWezJSASAi6sFqNeIHSKgzYjOrxjfRla+d0sVsBelTiAAwAeWwAGAHnDHKe3E2KzyUEgHnFTgXvc7e6QNK1U/ZCfREltJj6Cb4y4w5Y7bQUXbR3QQcCBGQeFGN0vYBPttplGgXZJQfV05rHqNY2UZpFdJzv4WT/8ApNim2la7RT6Oecm9KKsNpEucFMhagoDEXklLs9Q907qxeaXnTrdenyZRmSZRAlIUM7odd3NXTDYUD4xoeVPJVFrAUDzc5I6K2cHNlDMRgVaK0hZCfkVLGZSVrSdroIJFcCOqO0pYdZ9SLSn6p9MU7Ra6M5MKmKSZspaAoPKUElXNqvYm+QZYF1BYVLYxN0vyzAkhCkEzkLF/2LyKhTirFSQcMUxnTpW2r6KZE5JLjoCdL7WIB/GJ2huQ8+ab1pPNyzUoBdatYFOgOvqi/K4sb352kl0kyW31wN+j/Ripk42lQ6KTdTtJLHqSKbzsjH6Isrqw14NmRkTHeLLYUywlCEhKUsABgI4/oyRjh2bDTujnanVPPklPpdJfoPFHkrdNsAzitAFMz1GO4E4xlp05IJAataoZQwdq8Vwxiy5R2hRmFwUit13qwIdmZiadcUcyaS7E469oGAGokQqK4GMelEFWOJxL3htx1YB+vOBzl2oLhVMEkKZipJD41Th+MRFKybW1GNXzArTjCDCycyXZ8aijAgCvDRYJNlzhRnvgMMCkg+qMfVNdzDXR1M/olLHokMWALGiCo3sQaPqmPqiCJZ17RU6n9mtR/N1wvpEOR+ywoa1BpTJyOuIWWFnnlwScUk0bMslWNKKFMsNkKVMcEkHpCgzYGms4NgMIhzJhBelEgHHKjUS+8bTqgzanfAsGS2Q1US5NcdYziJ0XfA2QBqDUZwcNr1x1ZQuUG4Fchm2MGlbs74Pio0woDVmau+kAOPwphu2w2PItkpFqbAA08cKPjjGo5M6YuoWgTbl5ajjU9BABZ6j1hjGPYgbt+Q3VZ4fsqWWN7cOIko7lTBd+jo6xYEWmfcnyyqYJbiWQpPRxo1Q4Soh92uiNNzp0paZ1pUUHBClFGqrB2eprQ4VyiNyH0x8HV0iebUBfGpgAFjaHrmRuij5d6SXaZpWXCQwQNSXx3v4wmGP5qtipYn7srtP29F1AQsKAv5glyQbxIOCi2JJFYtfREp9Jp+gneMutDt7oxQTxng8bX0QD9JJ+gm+MvZDpfaHCNHdoEEIEZR4I5py05SzLDpBSkISvnLPLBvEhmXMNG3x0uOMel4f39P0Ce28qDxK5UDLof/8A6pP/AHErLM+cIX6VZ4/yJX1iPfGFbjZ+UNL3t3YVOW6NEsMUroFM6Gn0pTy/93l54KOwCj7ewQqd6T54LcxKd/aPtXR2l+rfHOZS7vGwgt0dZAhwzN9H7gMm1+BjPCLch0klE38v0ozyr/Al9p10z2RXWa1pbFjlx39UZFuKnu7YcTaVDMt4Z78ofLAvQXGVEHlORzzpLuHrVsWGQZ9meyKcp7vcwfHWYn6TW6y7uAOqhJwG0CLrRnJMrSFKJDgasdWGsJHXCMklDsbjxym+DLiUdVO/UM9cOBDYEPlvLYOamNxK5JoAookmjkDVQ7GJffkYcs3JaSAQreC5GpsccO+EvUwQ9aOZiCcGHFTi9BSHFJKqhBIGQejB2AvUFTronfHSbHoySgMEg7SBsO7WOuJMyyyvZAGv8dzHqHWp6xew5aJ+5yw2QgB0imvNuicDmpQ4eI6pZBbqHhr17Y6qLHL9kbabT3P49cZLlbZ0hVAA+AFNZwAL50xcUyhmPUKToVm0uxWZqz1UBrwp2VfYYmBHi/v1xESflAAc9WsB3DfhFsUv2+ND3CN+NWjDIjpTrGHbrOe0Yw5LTUZsdg8NpEGoYbW10fHJ8AO2AmvlvrDdoFms0VaksATl7h7zELTK0qJbPVtG1tTecU8ueQ1YVMnk514r49sBHFTstztUREp43l/CNp6JP1mn6Cd4y/wjH3MtfvoO6Nl6JktpJH0E4565fHXF5I/Kyl2dygQBAjCOCji3ph/+en6BP3l6o7THGvS0R8PD/uEfeXsMHjdSspmITJOVWfyg/gSiMCNb5t1hsIVM0ogBgQdnAhMrTicKMXz10ybUIdLI5KiqoSuwKzdm1EHOtSRVQT2QFSFCpHZhmo/tHM/hBTtNgvt17a6tjdcPSbeFVLU27XySxYHZARbi7CfKISpjUp468nr1QCvJuMN+vsiSZQIYdeB1uMN2cA2ZyONmrbxSD+MrJ8NlTPrM3tTDI6yNndG90bPeUk40r1iuescYRhtISvlE1IvAav8AUKOOOuNxoyyNLZOAfEDeOxiNrvGLWfs26HtktMw/n2+JI3NBlZ4zx1cUhKFNiDxv2NChOQaePXu4PbzmuTqKgpSst2rCkSpcpx3V6x+ERefSmtH38ZRFXpyWKFYGVeNgOcXslLpEc1HtlkoajiMd7e/r2mKDlLJUpDpy2HW7VpEj4zSRh0nywxrnqr2xMkWpE4ApprGFCdp1HisNhGUGm0IyOGRbUzmllHyiTt3+8684uwnsNRnsy8ISnRo+FqQKAKJJp0QxL4YszUx1xb28SSSmUhSVIAJLkhYJZ2JLMWL5vHXxZopqPuceWCVOXsVK5Xv8qPXLugXak79eZ374kKS70hJRTDD8hG2jJYwU/nhCCr39z6tZPdEopwg+b/Fq5+GEDPhWXHlkQKoeNjvvp1Rs/ROP0kijfITvGVGXlyfdjrug4tr2ecaz0V/rJH0E7svSz/5E9cZpZbi0N2UdtgQQg4yhhRxL00FraG/co+8uO2xxj0vSwbcHykI+8uDxq5UDLo5XMSXrx3wVx+Px2RNnSmPHlrgSpLluPLKNGzmgSDzXHBeLTR8giu58dmYNcBEyVYKYcU90S7PZW48M9WYwg3haVkUlY5Ik0r57886dkLWAD0heAqxzZqO/W/nRYDDgZHzECWh5gfWBgMyBr29++OesE7bZu+JCkkQtM83MCJspPNsQ4BPRywwIBHXjSJ2ldIzJTJlag9NbNnqODxEtFnWWlIyQCci10qJdsaUri0Wek9Gy5rqJU5Hqgsk6t9A2EKco2txqljabUDM2zTs84qA3deovhCbLptbh1V11OrWa8aokztCsf8D+YNrd2wA8IdsOhBfF4B3FEtTDZshm7Ht4M8ceXdySrZZp3N31HKlN+0axv6oyawomgPf1YmOs2pAKbusb8ae8Rm7RoJCi+B1imuu3DDaYTi1CXEjRn0zl0ZWw2Oao0SnrYatuqNfoOyzUqSShIYGqVuC+oXXxODwLFoUJbpLOx3HZgR5xbS0lNAKZZa28R2QObPu4QWHTbOWU9vs0wTps1CLwCEl8cKKcDFqE4U3QAedlqmsApCSktgoEpbcxPhFzJmMVAYqoHo54MMf2bdlFL+sTebBwcBrFAO2CxSblFf0CmlHHJmaavHGvshSRwDw8PzZDHjjOE822XHfHokrPOMYIwg7oJw1d1dWwYQ8JfHVCTJfVl1cUgM0G40FB0xSE0c6u/PLWI0novS2k0YNzE7Cmcqvf3RnUOBnuxy/5YUjTejQfpKW/7mfsOMrLjGOUsco3ZtnOMkqO0QIIQIoWCON+lk/37/sI+9Mjskca9LY/v4GuQgU/5L8oKEtrsqr4OfpkFRJGHZiMcdsS7LZ2OB92O8vhEgUDZ4121yy4yh6ypz1Ph+XV1QeCUpzGZYqER5IYceerwhbbPwx/CCzby3QpPju3Zjd2R2HH0OffIkiuHHbshO0Y5HrDU3h4WTTflQcYQCOMOMIBx4CUuS1mygUomC85So0AUC9QktUMq8OKQxjdB3DClG24FVNkCVbFpTdBcF2ejVenGZhMkkAEkE1xo7KunA/6h1GOBn0s4W317new6qORRXqTJxCR1bDs43xG0ZMQVnNqk6ncDHcTFLpa3KqA9dR1gpzz6PFIi2SeuWhRGK9dNWeuv5QmOB7RktQt1HQ1FJFD4cbYoeUFuVJuqT0ne8MWZiNock8Y5dGnVpdnCtQFBnqD1aLSzSZi03lqUSauWowvEDVQ/wAkSOn2u5BPUqaqJNsWnEK6s8aA3RTJxXqi2FqCk44j3kRgVpuTrgxBYgMQ46JajliY0uj1s1Ti1dwHnF5cKXKF49Q5cMmTZqUkXk3klnGIGo9UHP0iC9wMOyrP1Cg6yYatCu923f8A22p4zi5+VNvhHT0WkjSyPs52q1MreNdDa1O5rw5bPXAWKbvHjxhy5jxnXuaEtg/ZTj8o6qRzmxI447ICkuW44pDhy2+9tUAiv55mLopsQlNOCNZFd0aX0cj9JS/oJz4DOXqEZ5IFR7n8dhHZGg9HB/SUv6Cf4yhlu74zamP02w8b+ZHYxAg4Eck1hRyD0oS30g+qQjDWVLYdx7I7BHJfSUB8P/7Es9il+cDPhMPGvmRj1JO3x9+pjD6Jd3q91ew8a4WmWxfa2PGXhAIHHG6N/h+J1bFavInKhLcVL5e9+qDUnvy2t5jvgwnLjb1OB2we3y2HjdHTMQ2U9nH4wu7xXZR+3hoCgx3e6AnjgdcCWhAzPnRt3FYI0TniKMWwbtcA40bIwvIcbPeIKWbwWjUz95FN4x2iMmsj9Fv+hr0j+okVGkZTgqJD5MWwByJ9u8evsjDnkgXUpLu1S+WtRBwOrsws1JdJD4VrrAc03EQ5LlEIIZwKU6tUcjdSOlGKbso3nP0ktgfVdqk5Fhh15RMRoxUwAEqalSQ5rhRm1aq7mbnLmgkDA0zwcjHcSBu2GLHRYnestJBOBAP7VCeoJT27YKT4sKMI3TsjW7RyJYQEgUZzjeo5emZA2amEWclVQcOi9C9Wf7z9+2HLfZisJJzqxyfpNTBgFJ3jqgkpcsHyrXDEZ4s0Ku1yW4qL4Cm+tuA35q8FcYwkCvd373zhVoWOdmJzSUjHLm0DuIMKEura6N3R6LTQrDF/o4md/UkJ39fXQ47vCG0Ch274d4yzw7we3tIJ1eeGrthwhhQTcU19ox4rBkU6tsGnD89ucQoK74fhq1+MaH0d/rOX9BP8ZXl3RQdXcdUaH0fD9Jyj/sT/ABlH3xn1X8TDx/ejr4g4ECOMbgRyr0iS3t+6Qg/zrDd/dHVI5b6Qltbz9Aj70yJt3cFxdOzLYU8+uE4n84VMrCBqjuYYbIJGHJPdJsDcV3wpKmr3d/ZACeM4DcU1+TQ0AJQpBKEWOi9EzrQWlIKmNVFglO9WW6p2Q/yg0Wmy3Zd/nJxDqIohAegSMySMTkMKwMGpzWNdhtbY2yjnzOONsMaGPys0ZXU0zxJ9zwUxUFoxbTmJopJzOIbto8F4th26Wo+jNGhf1U2DSAKVOOw9Z8D2aok2C2pIDt3Df96F2uQ7kDI4PqI8B2kxUTpVT257O+PLxqapnWmnB2jTptMtmKh3bh3jwhRtqAknosBsriw7QRGNmTinG+GwuuRgdr5DjB2zTSo0BObknJmzegi/Lr1Zfmm+KLu16TSQ4Zqt6rY0Ipm79sL0XLreLYvRto8Ih2eVWr5e1kGHui4kBhi/bqP4wvI0ltQUFfLM/bSU2uYHe8Eq3OliO0d8TpS346/wiDaS9omK1XRnqB98PS1R7HwvHu0yjI4Gt/lbRLepPAY+LHuhRHbx1xo+SXMzz8HtCATdeUsdGYAHvIvCpGBAyrEzSPIaYkFUhYmJ9lTIW2qnRV/LGXLkWLI4T4BjDdG0Y1I4/F4M8cdUSZ9lUhRStJSoZKBB78d+EMqEGpJgPh0Ng8d8aH0e/rKV9BP+9KigCeDGg9Hw/SUv6Gd4y4Tq/wCJh4/uR1+BAgRxTaFHJ/SOP7/h/kS/vTI6zGC5Q2UTNIrBys8s/wA8yChNQluZTjuVI5+Rvgrh1Ruv7ITq8dUO2Xk9fPRSMaqOA6s90bl4lF9IW9K/VmFlSFKUEpCiTgACSeqNpoLkQSy7SWDUlJJc/wDM5HJh2xrdGaIlWcdBPSOKjVR2PkNgiUTAZNXKfC4JHEojTJlpCUpCQKJSAwG6OOaetBXaJ6iamavewUw7gOyOv33UScExx3S8pp00f7i+9ZIjf4Ol8ST9aE6rlIqZsMTUmhGKS46vOJcxMMqRHX1GPfFp+oOKdNMmSZwUAwxAOQoRq1NWIlpT4nVsjQclpCbQF2dZZQSVyVsLyWIvIfFSKg3csaRG0nouZJLTEkalVUhQbFKs9xYjOPG59O8ORo7ePMskTPT0gjAfy0rq1Uh2yJAGAwq9zbt1+Ha7Ol7DlhefOjQqWga1dd478eqAu0XVMXJxwHVd7e1otEhSksACa9QAJJwoAHcwzo2xrWoJQFKUcgTsrsH+qNdbNGJs9inuQZipZSpQyBIF1ObVG9zExYfiTS9C8mVQj+znFmRRziouev8AKJkuEBMOoRHt9NjUIqKOBld3ZJsVrMpaZgqZagphm1SOsOOuO0hf7SS4IemBGUcTkyySAASTgBU7o67ybWRZpSZgIUhCUkHEMAADtZo5XjCi3GSD0qaTTJlssMm0IuzEBTVGRSdYUKiMbpfkLMS6pChMTjcUbqxXAE9FXW28xtFhqgw8idHGhklB/KzRKKfZxm0yFIUUqBBGIUGOrAxcej4/pKX9DP8AGVHRtIaNkz0tMQC2CqXhuPVGc0bocWfScgCoVJtDHWxlYjXWNGXVKeNxa5AjiqVm8ECBAjAPBHPOVNq5vSKzrs8sfzzI6FGG0zooWjShCj0E2eWVjNXTWwG/M6t8DKO5NETp2O6BkLn9M0la81sf2dm2NUgBIZIYasoZlskAAAAAMBls3QSlQWPEoouU3JhzJhgiukIBrCJ68oaCRSosW1xXaV0FKnAGYmoFCDdPaPfFmkwJ9BDIycXaLoxlo5FIbozFjfdV7nirmcjJjlpob/iPPjfHQ247vKG1J438d8M8zl/J/wCSbI+xgND6DmyLVJmLWCi8UqIDEBaFSwSNV5SX1Nsptzo9SgtKwlaD+yQADtI7N12BPkuCGofwhB0hPCmCEq3uNeo019cKnJydy5LXHRk9P8kjLeZKF6XmC15GtyfWTUVx1xU6I0EudMCEgO1XAIAr0ic/f4abRnLadPmCUmxpvGlZxCQK3iTzdAGi6smlLHKCkyVJU5JJlm+lzleBZhkHp1QmeJp88Doaj5eexzR2h0SEXUCpqpeajj1B8oreUOjZ02ziWkp6agS5OCTe1a7vZFujTss0EtRd9TEU8QTDyJ18CjAYDE9eTUEHCW3lCZNvswVm5FrPrTANbJfx3xfWXkbZ0jpBSz/qUQNWCWpTAvjGjQhoJfHG+ND1GWXcmBtXsQbFo2UhrktKdTJbvaLKQAHhMsZ8a/eYWhOMJbb7LHJa2ocIWIjkwtCoohJCoq55/SNk+htXjIh8z3NIgIU+kLL9Faf/AEwLXBDXwIECFlhRmAf0lOp/00qurpzGjTxkrbOuaQnEfN5P35kFHspltNm1hPORGmrcBWva8Nc7DCFgFY8cYRF5xyeNsBcym3j8YblKoTl3N1xAkh5EInlz+X4wcosCeyEceMQsMnb4QCOOyCvau78IO7x2+cQgSUvxxwIWwyxpBpHH5wawzceNIlWUZjRuhZPyzIu84FSyxU7KZSmL0wS3XE3RegZclIQgYMXLXjqJOZY5DKkN8i5R+CoWSSZhUpybzh6F3zDdkXyAx2P5+cBDG4LbJ2XKVuxiVZQBhxhEkJgTkZ8cOIF7j84KkDYpKYbVjxvy2Q3pC2iVKXMIe6KDBycA5wc56hGQkqnzZoM6cqWVBKkoQSkAElgQzJe6pIUaPjhV2PHu5boCT9DbIG7j3YZwac+PGMfL0laZQCr6JoLfJlkqBITS8HrUUx6WvHT6M0gifL5xBLHEHFJGIO0e+JPE4q/QimmPEZmGZ6yxbzxh0HigiLal018b9RhTCTGkrb3cNqiPYlPpGzfQ2nxkQtXVwW98JsKW0hZdfM2lz9h5DgQL6LNtAgCBCyBRidMn9ITP4eV9+ZG3jEaY/WS/4eV9+ZFx7IT0EEBL7t8MEV4yhE9RYQpKrwCh1+cMLsenLZMJmTEoQ5LBIKidQAcnXlDFqVgNZ4pCpssLC0nApKTqZXROOoEmJ6kvgrbTyvs6UBYRPWgkJSZclTKJLMCu6l3DM+MMWjlSq8lKbJMvLWJaQuZKSSoi9UAkgXQS+FIp+T8jmJTIUSZkoETFzAJSZyVPzJlkgSzeBF6h24M4nSVmkomzCwJVLnTZaFpUUrmomylpQX6TJUVs5ZoKgGyerlLMSZZWJSUTV3EgLVMUoJUAtQKUXLoZnKqsWGBjWpY4HjqjlMm0y0SOaE1VpAXLXIaUtBlfKvM6Sq9JJIKQ4cvHUrFVKSzOB4aojQUWSUohM0wSi0IBGcDyWCTNTgSabCeMYeVMQR61euFSplGhc+ZSIVwImMRDcsZQL1IbRQxCFTyxHyMsg0E+UTVsyxcVxI1RXIsLTFLZIBUSi8FhujLqhJSc1EHB+bJo7xecoLOZlnmIGJSW2kVHeBGekWpcxSF84kEdE9FYuAKFUlNTgcczmA0aVGUsVRYG5RlyFaAJa5ZQEguQrpAJWKEhQZiCAwBY+s+uJfJUXLTPSCCCgEkEkKN5N1TYChWQz4kF2eI5tyZMoy5iApSkpmH1VXFFwcz7JKVA0GLRI0DZVIlKmqpMmkKLu4SAbqa6neta1gknHC9xTlcuDT3KRDtOEO2S0hYrjDFqSz8PGUMYAGeAx4/KGNGzb2kbMc+ZtP8A6OOuFTiyN8RtDfrGzfQ2nxkQBbOgwIAgQBARiNMH9IzP4eV9+ZG2jC6fLaQX/DytXtzPOCh2QObNh6wnGK+ZMDYxKsSgBiB1gQymQFpX00b1HsuxLpcIOCnvDYaZbIqdIzflJbN0lM1P2mHueJ06aCWvDViIhfoUR5J2ZSyq6VFRKi7M5q7Mc31Yxa2Xk1Z0sRJSNTUOLtueJ8qcgftJ+sPdEiXaEmt9PaIsrgKy2GWj1UJB3B8jUkOcImEsIbTPljFaPrCGJltln9tP1hEsljilcaoJ6QwLVL/eI+sPOIWm9KiVJWtCkqUBRlCj0vNmxIpEUW+CMrdOaYnoniVLXzaRMlAkBCryJoUQolYLFPMTXwxTqi/0ZaVrkS1zQErUlKiACwcOPWerEdcYPTOnZgWm5MujmpXqkEq6N7pKD3mK1UODnXF9oDTqpigJhSHkpUVXgKhd0UGBWku3+jbGrJiagnwCmmaS9CkxFl2mXnMR9ZI8TChbJb/4iPrDxeMoRNUOPyimt/JqTMVfN5BzuMAd4IIfaz0izTbJf7xH1h5w8bTL/eI+sPOCjNx6YLplLZOTkqWbxJXh6xpTBwAAcsQWYNtsLRUQFWpANFpY/wCoecMzbShvXT9YecSU5S7LVEJCilTQuyWu8m4cRgdkM220IcEKS/8AyB98NWZab6iFJauYzqM8oSXwPW9dBvMI0Ip9I2f6G0eMmGrdPFOkO3bv2QOT630jZ2IPyNo8ZH4xGUdGgQQg4AsKMdp3SViM6YmfZkzFSgxUoJUWuFdEmtxqXsHIGJjYqhFwYsIhDC2efotdE2NBJJCWlApULq1pUFeqApCCsOcCM6RZaG0fo60A3LJKBCUKIMtOC03hvoY1HNjUOwQEpGQAi7IVQ5K2L5pJ+onygfFWxfNJP1E+UXMCKIU3xVsXzST9RMH8VrF80kfZp8ouIESyFP8AFaxfNZP2afKAeS9i+ayfs0+UXECJZCoHJix/NZP2afKB8WbH81k/Zp8ot4ESyFR8WbH81k/Zp8oP4tWP5rJ+zT5RbQIu2Sio+LFj+ayfs0+UD4s2P5rJ+zT5RbwIqyFR8WLF81k/Zp8oL4rWL5rJ+zT5RcQIhVFOeS9i+ayfs0+UF8VbF80k/Zp8ouYESyUU3xVsXzWT9mnygfFWxfNJP2afKLmBELKb4qWL5pJ+onyh+xaCs0lV+VIly1MReSkJLHEOIsoEQgQgQcCIQ//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUTExMWFhUWFxgYGBYXGBgYFxUYFhkXFxoXFxYYHSggGBslHRcWITEiJSkrLi4uGB8zODMtNygtLisBCgoKDg0OGxAQGy0mICYvKy0rLS0tLS0tLS0tLS0tLSstKy0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIALcBEwMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAAABQQGAQIDB//EADwQAAIBAgUCBAQEBAUFAAMAAAECEQADBAUSITFBUQYTImFxgZGhMlKxwSNC0fAHFHKC4RUzYrLxkqLS/8QAGgEAAgMBAQAAAAAAAAAAAAAAAAIBAwQFBv/EACcRAAICAgMAAgICAgMAAAAAAAABAhEDEgQhMRMiQVEyYXGBBRRS/9oADAMBAAIRAxEAPwDw2iiigAooooAKKKKACiiigDNZArFTMPZEdz2qGxoqzSxh59+4pmlq2i7gg9z7fD9qxZuKizIn+9tq5YcoxboI6nikbssSo638UdIgyRxvuOOa5pjiQJEnr7D+taWcOrOd4EmATyOnzqQMGIG4nr3qLSJIONtqOPp2qEwps+GXVM7fCPvUC+ADtxTKQriRzWKywoApyoxRUhLPE1v5Pt9qLGUGyJRUlsP7VwdYoIcWjWiiiggKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAMip9q6BbPTgD96gCpmV2y922nRnUfUiftUS8Gi+x9kng7EYjQSulWBIY9vhTe1/hviTKgqNhJJ5MDYe016FlQIEAQBt8qbWGIMVilnZ0ocW1dnmOJ/w1xFoBkbUeoGmeOkn9qreZ5FibR9aMo6Tv7V7vdaTHUftVc8QqXUjYx325pVmd9hPjqK6PGWxIT0kT8/0qDdYHinueZfpLCII3Ht3/AL9qr+g9uK2QpqzFPo0anOSYAMNTcUmarNkIGjcwB1NGSVRFxxTkPMuyy02xAFM8TktlU2E+0VAy7H4dSfVJ7VMzLxDZVZ9R24BArE5u6NuggxeCUE+mq3mNoBiBx0q23cUHXVo0g8SRP0qt5okb1dhl3RVkihNWK2fmsVrMRiiiigAoorNAGKKzWKACiiigAooooAKKKKACiis0AYooooAKKKKACiis0AAqdkuI8u9buASUMx3ioNTskAN+2DwWAPTnbmol4NH0utrx5dQkMqj/AEncfGnmPzjGeR56oQp31ckDnUV5+1dv+i4a3akj0jhTESepMS3zJpvdzC2qBdaCRzO30+QrmScfwjsQjOu2UW1nmYXwWPmtbjlVVR8pO9O8nxFw7OXYdQytK/7o3+FPsO2GuxrthXgHj8SngjuK2x+IUDSgAHQR+1RKSf4J+N+tlS8Y2gyoyrJBjbsehiluTYBZ8oPodtyQN3g7KT+U9RVjxN86T2rbFZnawuGN4KpuaFVSR1AmR76j9qeMnrSKFBbts8kx9sLcdRwrMB7gEgU9yvCXNACjiST2+EVXrxlie+/13q35RixZCAn8SKw+das7aiZMKuZ0XAaoLgaumlSv1JMmmOLwK+kMv8vUfcUtzHMrgh0gk9+g9q44zG4twC76BEdDtWNRnLs2bRj0NE8O6t9yvM+YTHynakmcWlgqOnHepl7MggGkztv/AFpHjcZqbnkirMam5WyvLrrRxzHBRbVwABOn3mDJP0pZVj8S4xWt20UggGduu3J+tVytmJtxtmPMkpdBWKzRVhUYrNEVkCgDFEVvFYqBtTWKKyaxUimKKzRFAGKKKKACsk1is0AFFbqtDCosfR1ZzorMVsEqRUmzUCtqzFEVA+ppW1pypBHIII+W9BFaxUiVR6hdxLvZBbiDHYkqIP0aaq2DRmM3YZV9KljAEb/tVj8IXkxOGVGaGscjqyxAI+QFPshwGHsLAZS0t6ii6wGnbVPaOlc5vRtHSjtNJip8eWtoAQGUypHKgQOByuxHbb2p/h7YKq55K8djXW/llq7dN26xukD0zELzuNIHUsfn7UtzPG6JCjZQFHuT/wAVW1Za7iuxfnGI9LRUDE+HbrWDca4WYpIVp9OobKN9tiK4teD3Et7xI1e/cVeccwt2Wdv5VLn4gTA+gFWW4NJFSW9niuKwDSoQMxIEgAkz8BQ2LJKBttA0+4jvTAXSH1A79+3vXqFrDresWLl20l1mtLqLorajpUySQZO5H07V1fh26OW8unZ55leFTULl4s9tZlFmfYwORVkOfYF0CWcAbjDcgoBG0GTTFsBZB9NgWwOibR781K/6M91SLGIS20H0uI37agI+4qjJwsiVl+LnYn07KNmWBsrLBArNHoDEi37T1NVe88uT0mrP4myi/YWHUkz6iN+epI4+JqqWU1ECkhCUf5DzmpfxMONzWtMLeGU3P4hISYJXcgRyAadYjwRe2a3cR0YSrGVJnfiD+tXqDfhnlOMfSqRRFPcV4UxltdTWG0nhlhh9jP2pTdswYIg9jz9KhpoeNPw4xRW0VqaiyWgrFZoqQZoaxWxrWgrZkVua1UVsahjLw0oooqRTFZrJFZVDQFGymhq2FuiKUuXgIldCsVtbWK2vGpZMUR2rWugFDJS2TqcjWIrLCsLTIpfo78JZiLGIV2/AfS3wPU/OK9IsWLH4gxK9N+fY7V5AKmjFXbSiGgNvEmY77VRkxObtGnHlWNdo9SzDPbFoEW/hzvPbaqvmObagAvxJ7k8mKQ4LFBhMb/vUy0mo1Usaj6Es7mOfB2CL39Z4QT/uOw/c/Kmvj7MAltbIPqf1N/pU7fVh9jTHJzZw1kz/ACgs7d4H/EV59mOLa/da63LGY7AbBR7AAD5U+DHvk2fiDJk0x1+WRsPbk16x5iWwtqZNq2qRPXTqEjvDCvOMmuW1vI1zhfXp/MV3A9t43q02rTBNTljcbU7Ej8TElzHbrt0AFdfHG2crNOkWfKsGlzV5rkFmUAcbMJJkiO1d7uAJLjDqSoEMR1E779uPtSy2XCzzAE9Yrrgc7e36lJBG5I3G+3B5/wDlWPa7RSnDxmLVh+AAQedX1n++1Rr3+Hlq8GuJCP1KD/8AZrfBHw3q0YbM7L2dNxIYMCPL5IO7Azx1Puai5zcNi6GsuejCQQV6EHvxPzpJVkWsl2Sk4PdPo8bz/JLuFfTcAht1Zd1Yex7+1Xf/AA/xaNhSLm/knYfMET7RVlzPFpjLBW6isu2ocNIG7Iej7D4wKp2R5c2FxT2mJNq7bYo8QLig/ZhqgjoflVWuhfvuuy+P5d1iLYCgQRJgbiY/akuY+Elv27jMttmUnYEao9jUPDswQgMTp9J7wNgfmK74RN11E6GiY5Ec1o0dembZN+dlWxn+GTMgexeDTyh6ewNUzOMkv4Zgt5Cs8HlW+Br2rB4hbFx4OpRIB+PB+lR8VlZxq3Q4BQRA67jlexFZpYU1fhpjyGnXp4YRWsU88Q+H7mGeDvbb8D9/Y9mpauGNZXa6ZtTUlaIpWtIqU9oiuBFSmRKJlRWSKBRUDJdGmmiuoFFFh8ZKXDV2WyO1TXtxUd2qNg1/JxuIBUNxvU071xNmosaPhyVa1u1K8uuVxKlSsaqOVuu1zitVoG9EkEZEZxWqimH+WmumByh7rhE55J6KByx/vtTJ30Uyq7JGVZenkXMS7A+WwVbXV2ImT7AfWD23T4m8XYsx3P8AcV6FdwC2bBtj+USSY5mST7neqjftanCIBzMgVp+LVGVZlJsiW7bW4ngxPsad4RpAiumWX8MSbeL12p2F1U8xD/rQHUB7rJ9qlXcv/wAtcDJcW9ZPqt3FPpYg/hJHBB5+FU5MSb+o8cnX2Jmf44ph1QjT5nPfSsH/APn71XcJbuXTptISeSTwB70zwOCxGY4i3aA59K7QqqSJYntxJ+Ar0TMcotYRBh7Y/ARqbq7xuxPXoOw4FXY8aX1RXPLL0qnhfJ1sP5mJCvr2330DppMbH+leiWcqsurrr9DANbbuDseOP+DSEZU15NyBsWnsFE/M1E8N+IXsv5N+dIb0n24JE9TxHv7VcnXSM/rtjjBsLN+7Zu7BlgHoJ6j5j71AwGAZzdQL7T2Ikj7gfWm+f4dWVCpJf1MoOxa1tAJHLdvYdYpdl+PvWGJX1IR/MB2I9UfGJ5BHtTJurQjrapHXBOm3cEyB3kgH6BRWcbmMgMTusgfAdPvUHL0PlPeP4RJ+BJkfofp8KUWX/wC3qJhh/wC1RSfYzk0qJFzEmSV2DE7TsKlYRZU2WMkRdXfgMArBT79h2plewdu7hXKrvZ08bSPUT9v0pE+KC6Wj1KWj4HcCfjP1o2UvwQouHrLIcAGCsAY0qpM9DAB+E1Nu2DhQtvEWVKk+m4pkMDvPxFcstxivaZj/ADAx2g+rj4GlHibMr/lW9bahOw7AbfKldt0/BukrXprauqfMBEEsCg9jPFTMixDWrqqTyNXyIik+FzJWCMNipX5QetNc5tKt9HRvxW9RH5Ymml/5Fj19v0Q80wy4i0yFYDfYzsynpvvXm+Jy9rblHG4+hHcV6PlIuXCp6Dkd5kCO5rl40yIPYF9RpdPQyxB25n9azZ4KrXppwZGn/R5Xi0pf5ZNM8XUewBNY06OjqRmsVoFpuLW1cHtCalSsGqOC29uKxXeKKKF3GuMFLXq/5n4eVvUs1XcTlBXkR796eWKUX2JDPGSpCJRW0VKv4OKhjmlaGUrJNnDFqzfwBFNctQEVNv4cRxWZ5KZqjjtFMu2orTDrvTPMLG/FZwmEJ6Vb8nRS4dnXD2qtuR4MWrReASef7/vmkeHwR7Vasuwmq076oC6QJ2MNH9ftWzhqLuTMHM2TUUSB4ZN7CF9ZDudWmOEUnntuB9qqGS5Lce4wC+oayZ22tj1Qfiw+tehZbibrWSqrq1LqYwZCoYA9tyZqblNq2fRHr8p2Zuwd1B+MqifIfCtNv8mZRVdFMveBLxRHYrb1gkK/MTA2HHXk9q4XfBF1XW1aIuM4D7SEX8QMnrwPV716Fj/EKGfNUC2jaEjfoAB9AK43bnmqy2bvllolVE3WCcKBqELJJ2B534pmnqv2Kn9mhP4XwBwN5tVwO8Q+jhFQzpBPJJC9BHvW2Z5gbzM8ASxjedI7f81ouBdC0MxI3fUsMVBkx0J6/KuGMsvaaHEK3BkFduYPB6UOKUvCIttDXJPQCzAGYHwBmflU3M8Lh8TYZWiZ/EPxIejLHInpVMuY4hWI0g2z6vMKkASAujf09NiJO8E8Drbze8fL3UXGcBG0kEKNOrjoVBksIO/J3GeXJjtrRojxZVtZyxuY4qxcAxCyixF5JKgGACT04H3p6Mw8xNUCQJkbBp2JiI4/QVvZxCYlPJ1i06/iDj0Geh242n2/SsY/D3MK4tala2xIGg6lQmfSpPKnt0+lXbJdFOrfZNweLjDspJhmKj4sIH/sw+dbYzDonradIjRtyI/X+h9q4YDGi1bw3oVit43NLcGFJAI68A1Lz/NrV5AulUccgccDYe2wP1ok3t0TBLXs65TfnC4lyYgJ8z6oHxilmEEuoEeuI+JgfSumItDyLdkHT5rFz30qDB+fH+4UNgLilFA3mBvxvTWk6K3bSYx8P4whHRgRpPEcTx+4+VQfFV6VSDsCPvXTNrnrFxDDOh1Kpgl7Y5IHff50mxN5nsFm5L9eQSeKr+T70y1w+n+Dtk9wAspUkN2+1WUYVnLNwFsEz2naqxld0I287j9OtWRcZqtGD+K0yn3gzTNu+hdVRx8N40qbcCSCNu52irDnF66b12y4Ci5BgjgtwftSnKsAlrynJJYldjxVox2BbF3GvpEAKkE8FRv780kkoytjRblGkeH+McsNm4SBCsePyt1Hz5quWXg17P4tyNbltpZTIIMbkEcN8q8fGBZbhRhupg/1+HWsuSCu4+G/Blday9RIS5tXN96meRtXC3Z3qmqL1JS6OGiinC4MRxRSfKP8R6ytn0SBWuMwdt7RDABv73FZw+OkhTsKV+N3e3oKMNzvXYmk1TOLBtO0U3OcIUmRt3qp4l4arpmhNy2DO0VVlyxnY9u9YsqjB/0buO7ROym/T63LUrw2VaRTnBW9O3euZlq7R08bb6Il7Lw3SumFy/T0qyYTCgia6XcJ1pLbQ+lO2KMNhxqE9x+tT8zwfkpctI24Vv8AcbbB1P8A+DisYRZeIrj4gxKWSjRvbIS7v0IJtvH5Wt61P/lb9q6HAk1Kmc//AJGCaTQw8MZmP+2ZCullWI5hjqaB1/CfrUg4gG7ibqjSoUIFB6algA9dkpBhLyWXvIDqjQEI/I8HUD7W2+prvZxmlnYiEZttpli0gQdogMeu8d66fSbaOT9mkmb5khuW7drqWZz7loXftsB9TULDrctsqM26iFcGNzIEz2JipbXw90SSOgIO8seRSDNdWHvspJYapDNyw7z13/Sou2FUNsJ4nexeVMTqa0Tu45Qzys/DcGvQs9sYe9hx5TpIXVaCnaQ0x7fLuOleL4i496Z3mpfhbNvJJt3CTbJ3A/FbI/nT+nWl9dtj+LpFttEXEuFh5d9XUhmIA3GgISdgCwPbmegpfjSUvep9X4GViWDbHZntso0t6WMdYntTHF2bdwM7fxA2nS6xplZDOEbbVuPdSPeQvvXcN3NxmUg+dcV4PqKlX3cGWmS47Vizcfaba/ZrxZkoU2PLljDvbuP5vlXlHPS5MwhAMxt2/ofP8e1smVvaSN4kkSOx+X2p8MhVom2+IuMNTFWhEnhIHt1rtY8M3wV028HbJ2XWw1KBG5DAmd+vatnjdmX2qEgA8xn1SttAokyTceAI/wBoc/SpeEy8swB/E546wevttXZcp/yl1wStx2ddDo38O4iq2oQ3BBKx8asuAvB0uX2XSQuhRHBaNRH+3/2p4MTJET5SjXscApVQBoTWSF9I2GwO5jb/AE1Yc6ypLY8zE39KyqnSsAathLEiB7xVRwl3+K28DYyNiPVIIPQjY/KrJ4mjGYfyrrovoLTEu1xWZRp3hQYB4PPzqjkScZXZfx4xlDteHPG2LFtGa2pZrZtnUzBg41qCsAxxAO38wqo42C5AJ8tWLD3BA08dR+1Ocvym1h2e2Lty75mhXZ5BbSwYRO4jYfAUjxC+XcYqupQ7EpHI5In5VGOn9vWiMn6XhsXlTpG4ppgsVNgDgqx+jCoC41Lx1Wxo9vb3iotrGDzWTgHj4jerl6UyX1Z6RiMGTbw4Q6tQBHaYip+Ee7ZugKwgD1CNnqF4O1XrQtmYsklT1ht+am4zEBbTkzqiB8qJpyVMmDUHsKsVaKXzeW4uhiWNqDHbn3G9I/GOVi+FxFtArKoVlHVRwfeP3qflOaaHBddSNsdQBge3Y0zy7BO9ovEoOO8E7VWsba1l/oseVN7RPJ7qwKh4V5arz4g8MlCXCnyyYJjZSelJxlajgVgzS1bizo8eOy3XhpbTYUU5tYYAARRWY2Wy75jgbXlKVPq2pF4lw63LQ7indzDnRud4pQ6kqa9Alao8554Vm3l7Nb0KNuvb/wC1JwmEUCI3pxhbLi0zL/cUiGNM7isvIw7RaRp4+VxkrJOJtgVAe72rGYXz0qPhlJ5riSTaPQYZKL7LJk+IkRTS421V3AoVYGnmvanw9dMOTK/CPhrcXCaieO8KsWr5nSf4FyPytLox/wBLAwehYe4LG0RNbZ5bF3DXLc7ldj7qQwP1FbYPRpo5sk5xaZ5o+IuWHVG3CiFYHSWRjKwenJg9DI6VZr9ttGkOLqAh1cCG0kGNY4mWG453pLdtRbFu8ZThX62id4aNzbMc9J+IqJg8e9sFAZG8xxG3XqO1b/HaOY+0OAGaCJPf96anLkuAG4JIHXiP7M0pwOKNtgrCde4jeZJjj4H61c8E9u0CcTosI4hWukBoBE6U/FwT0HSnnNJWJjg26KwmU76V2kTvsOv7D70sXBvbvo3llx10qWEERvt716jdwOHt4iyHVrhv6rauWi0rooZbflgz6lDESSPSap+T4+9j/Pd79y2lo+mxZAQaCGgsFWTERAg7c8VnedPw0LA/yztkWFxKq5s2HhjJVxptWxMkk3IA4A5p1g8nyrFHybtzCLiD0tXQzE9iOCd/zdqpGKx91suu2g11/Lu2zcuMdQuI6mCrflnyiQeDcHevUcwXLrmVH/tLh2sk29IUMjafRpET5oaNuZkHrSyzyHjhiUDxJhcJg9B/6dirYctpa/dFpG0xJ8u3qbqDBIJkxMVeM98NIuXqbwtMVkqcOhtKivBUqSSSR+Y86txW3iPw5isZk2GtuJxlsWXIZgpLadDhidp0sSfdanYa+trKlw+MuJ5iWih8ti49H/b32khdE/A9KSMm2n/ZMklGkeaXcmxF8Lbt+X5dv1KSx1tAI9QP4ABJPMbGTTrIcWl92wwk27a+l/zkcz2mCRVIzjOjJVCwJ2kGOenzBirH4buJawjXk9Ra5b+TLMr9f1Fbm66Rjq+5fg5HLnW5c7KYJPvsI+O9NbSuE8+4AyKR/DIP8RQACQZjV1G3TetcRiGYljAJ0yIgGABPx3P1pr5LPa08DncwG4nc7HpS5IbJWTjko3Qrx+Ks3Loa2q+XbVdIA0qWPqYwOo9InoQarmb3mZg8bC4hIH5ZiPoxHyqyDL5J0tsRGwmJ534n51tifDNwqLhV2UOJJZEBAIMRBkbCpWJQRDy7Mp93L/LYtb95X51xzNACt3TBUgke3WneKxdtbhVVkhmJJ687Cu2dYcNZkxLA/p0qq30PXo08B5obeJS2WhLm09wd1/pV0zzAMiMunV1+M14Fg8za0VIO9s7fAGR9DXtN/wAYYVsvtX7t8W2aYX+Y/ADcnmmU6ZEsdoxhMD5tnyyAmngnb1HgRUzI8Q2FXQyyCCDOw715xf8A8TtM28NY1ydmudTMzA3pDnubZlfE3bukfkX0ge0j+tJPNjj03ZZHBkl2lR6hnviLDIjrdvDS+5truTHsOKrA8tlDrOk7idjHuKrfhbIXxBL3T6VMHuzcx8KseY2fL26dqw8ycZVR0OHjlC9mcf8ANiioDMJrFYezfsj1JgCOeKRW7kO6niKcvg20luCKR5rZITzODFemilTPMu+gwt4lLg6VT8Y/rIB2n9at+DEYYsetV7LsOHaexpGkyVKjscMNIJrjaABpzj7QUACoNrDSa4GaOs2j0GGW0Ezaw+/FdvNNSbODitbtiKSHpbNdGltt66XLlaYbDsTTA5cY3q5zdFMcaKYNrjKeATp+B3ilGLsm3ddVC/xFlAwBGozK+0+ofMVZs0wyi8oaRKnjrHT2+NK81wrNak2x6CPWDuoO0ERuJK/A11YvfEv2cecfjyyX4IJze+LMWLyK2kki0oR4H4gRuwK7nY7wfaWWFwy4rDMiWhbtudaXb18M74geiIJOzAFDMcqd4qM9q7hZd7BBeG1EQG2gkSvUR7VBw+Jtr6rdi2N9W8tpM9FckL04FVfHIs+SKRbMD4hu3sImCaxd/wA0jWwlwgqqNaYFbjk/h0gEE9fean5/k2Et4lr+FxV21cuElrdqIliWaCR6QTvpIIHSNqrOBxd6+VttdcaiOp4J3j2EcfCmuIxdvCALbtl20ibzj8TGJCLtpEfE1bHAl6VyzuukaYSycLdDeQXtlDbdDc1hlYna7bICmdRHtsOwqZl2YYW25u2MJYR1k69JZ0I29Oo+g9NqhYTxuLcj/L23JBEGVA45VTvSXH59bZpFkWtofTMN7x3qx4op+FayTa9GOc+McWz+q6zKd4nYT0gVm1m1u75a3ZABGqNgVBkyR7VHweLs3hAj4GPhUbE5Jc1nykdl7KC0deOo3plFLpEOVvsn4jKLDOxSGHfjeNyJqJ4XV7GL8phs0ArH4iJKMo4J2G9csIoHpW62oncFSKn5nhL1oJfGpXt+oEKeOSASIPf5UzroVbdouP8Ak5RrrlEVCJuO0sSdyR0WPgTSDEeLsKjQq3MRv02HyLftVSyvLr+PxEa38td3LzCz/wCPGo16Lhcms4ZQLSAnqzbt/wAfKsWfnfHcYm3BwPkSlISYvMcxxRmxYXDJESSdR99T7/QUizjLMWizevu+42FxjvwNuOteim5Ciar+IxwW7rYStsqxAjoZ299qxQ5eSc1b6NuTiY8cHquxFjcs8m3YPVlOodmBEj6Mo+RqRbsFk1EkjoK6Z1mP+YcOoPlcJsQJPIE/AV1yzDxb1GYE8nb6V1pvU40VsUjOMNpuHsTP9aiZlll1Y2LIPwkdAehHSrT4ohlBVQCv1M1rYuFraBtgBuB19zWXPkcOzZxob9C/Ics0DW34j9qm4tq73L0DalWMv1zHJylZ1KUY0WLwLi9N9kPDr913H2mrJm+GD8V574exem/bJ6tH1r07Drq3q4obZUbmSPJoq9/5X2opdSex3iGIOkxBpLnuEBsGD1qbgcZbZSWYEj3qLmuLSBHU13WvwjiR/bEmKbTYC8CKrHh7ES7ietWXOAxte0VUMjAW8R33qG/sDT1LReO29Tsvw81NfCIcOD1rplVvYVyuZBPJaOvw8lQpnS5ZAFK8W8VYMUm1VrHnes8YUap5bRNytetOLpBWqzhcXArpiMzIWnaRVsVrxjiXF5QkABd37STI+33rhiMyL4d7do6LWnlt3ukQdz2lRU8YXDYvUt5nS4N0KyQw39OniZ712w2SC3sUtttGu4WgfBdIE+wrpYkviRzMt/Kxd4e8esLa4TFsWtqIt3DvpnbS/wCYe/SrGLCi2VXD22Dba0tqNQkNOsb8ivL81wgVyJkAncR8uK65T4jv4cBLbnSSAB0WSNx84q/HPRU0VTxuXaZ6vhL1iyqXDaRQhMHqzRBIn4ipNq/hcUPLPkshj0ltDiI2Orr715disxuXyGuXdTceswBvxvsBvU/EeF8UyrdV0YOdtDLAPEegnfmpk02JGLXpOz3w/YUzauKsk+l3WR7Bgd/mKUpkqMuk3rIjrqJ+EaQZ61PwfhS4WUXr4UkhQN2Yk7ACf6U9xHgcWSPM3j85AHzG3vTKKfTIcmu0VzCeC0uS6YpSV6JbcxsP5tvh0p5gfC+LtIfLxwVm0wu8kGTJJbYfrNWLJcbZQLYIRlLBm2hRp3j/AMhtxSHOs6t27j6WLAmQR1Bnr7cUqS2olybjsdrnhDGlWNzMdB0yFmJ7DZv7j3pBjvDbQfPxzNt/MzP02G5NccX4kJ36niTXbw1l9y+4vXiSqmQOkjiPYUuWcccXKQ+GE8slGJafCeUDDYdUH4j6m92bv8Nh8qa3yImtFuqBvvtS7GYuvOyk5NtnpElCKRyzTHBRJqlZlmXodj/NP9K7eIswkwKrq3DdcJwu8kjb3irsONvsx5slukZyvFuLqojE2zBIJ2WR6v3q1pmGlWUbyIB6D3ikToo9FpQIiSB+poXERzxWyfLclUUZo8SKdsmuJid643b4WomMxqr/ADbUov49nMICf1+grJrObtmtOEFSGGJx4pZexhJgbmnOTeEcRiGGv+EnUnn5LXo2W+FMLhVlE1P1dtz8u1WKMYi3KXhRvDGRXJ866NMD0qeT7kdK9DytgoqDiVlvhXa2SKq2e3ZbolGkOhif7milYxYrNPuivRlUXJr6TF9/qKj2s2uW3Fu4dUnY/wBaKKnjZ8nyJWHL42JYm0ht4gxjeUADzVYyZj5pJPWPrRRXXfUji3cT0O5iYtqJphl1yIoorLyl2jVxX0TcVfBFVzHNNYorKa2c7VjauWLs7b0UVXLwsxrs18NZarXDcO8elRJA25O3Pzqx43DkxoYoRwRB+x6UUVWsk4+Nmj4oTX2SKn4v8L3mtm+blslB6tNvQSvfkzHb3rzO5b03EJ/Ms/IiiiteHNOf8mZM2GEH9UXnw94eW+twsdlmB3jSTJ/3U2wfgCwy6izqx3hdMKBySYk9azRXUh2jkT6Zys3cPgr2q0XuMpibhLAdCYIEt8tvnUfxP4ge5LrvxM7S3t+tFFNJK0xISbTsq9vMLxn1R+1McJg79/SHuaU4EKpY9NvoeT0ooq2KTK5PXwsGH8NYe2Y0szKPUzETO52C/vNOPNCwqiAIoorz3Oyylkaf4PR8PHGGJSXrI97FnikGbZro2FFFZYK2WZZOilY7FFid/ie//FTcmwzXXW3+YgQTtvA/eiivQYYRjFUcPNJtsuWbeGItO1ltIQaoPVVIRyOx/m39/aqbZwhvXDbtngbsenvFZorNmxx+dJI0Ycsv+u22S7/hVUBe5cZo6DYVIyPAKqBgPxGfl0oopOYlCC1H4MnkyPb9Fyyy8BVksgOKKKxJs6NUSbeRBt60v5TpHSiimoRNia7hRJ2oooqukW2f/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFhUXGBcaFxgVFxgaGhodHRoaHhcXFx0dHSggGB4lHRgYITEhJSkrLi4uHx8zODMtNygtLisBCgoKDg0OGxAQGy0lICYtLTA1LS0tLS0tLy0vLSstLS8vLS0tLS0rKy0tLS0tLS0tLy0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAABBQEBAQAAAAAAAAAAAAAFAAEDBAYCBwj/xABFEAABAwIEAwUEBwUGBgMBAAABAAIRAyEEBRIxQVFhBhMicYEykaGxFEJScsHR8CMzYrLhBxUWNILCU3ODktLxVGOiQ//EABoBAAIDAQEAAAAAAAAAAAAAAAADAQIEBQb/xAA1EQABBAAEAwUHAwQDAAAAAAABAAIDEQQSITETQVEiMmFx8AVSgZGhwdEUM7EVI3LxQoLh/9oADAMBAAIRAxEAPwDCQkmSWu1FJ0kpTozIpMnSTSjMikkyeUlOZFJJJJ0ZkUlKdquZVlzqzoFmjc/gOZWywGU06DCYAffxHxW4EWtwsISnzhuis1lrNYHs1WqN1WYP45E+UA+/or9PsRWJ/eU45+L/AMVp8M8tgmCSBJ5e/ZT08czSXl0i8enEJBnf1TeEFnKHYX7dfbfS38zZQ4vsNUB/Z1GuH8Ug/CVoaebRchrgeLTPntE8910zNQTGxmAJ+XvlV47+qOE1YfG9natIEkBw28JkzaPRBiF6j9Ka4lpN4s6Ba8eqG5tQa5v7RofGzm2I6z+BTWYk81V0PRYBIq3mGELHHiJNx8lTK1NeDskkUlKYpJK1qKTFIJFMjMppJOmTozIpMUycpkZkUlCSSSMyil0kpNKWlJV1GnXelLShC4SXelNpQhcSlK60paUIXMq3luF7x4HDj7/6qrpRDBgtYS03PH3fiFV5oKw1K0oDKTPC0aWk7cb3k8pVGtmNRw1l2xvy8gOSBvzsyACYs0t4CwmZ3JKbN8bqeNBLWACBEX4/isRaSVpApFv75afC+oQAASGkSR672gqPG4+k8A065YBBhwmYsIIsBJ5c9+AF9Jj3ajed4PSFXrUNIIHlcK4aELW4LMKTaRZRDnPdBJPuJj6o5DhdR6MQXtOkho+s4+87/wBeix7aj2mRNr7o3TzHQ1hdUfpeCbQILXXHuPqDsoLOilaaviiXkw005MwPFO5kyCN+BUteuWtlrS6iRDuJb5neOvnPUHQzamSSHOIMe0ZPyC7rZ4QCwWDgRYcxuB5EpYBtBCvYpjYIN2kahw329VmazYcRyJRqtWDWtBu4xA3iBefh70NzISQ7pBWmEpEgVOUlzKS0JSdJcpKULpJcSnUWhOmTJItCSSZJTaFfLUi1TBqfSoUKvpS0qfQlpQhQaUxap9CbShCqwuiFP3SRYhCr6VKKumDyXWhVsxb4R5qj9ldh1UjML3tSW2m9vl1RzLMpBkO8Q5kKp2bEXPIStI2tyWUhbGC1RqdmqbuEfFRt7JN+0YRiliCpm1zKgJmUIOOzVJoOq59yGPyVjjAFhsOA/NanE1J4SFGwTsFUjVTkWSdlPd2HEqLE4V7bgnbgtZXw4NnCf1wQzNMNDDfh8kC1R4pAKbgB45PLb49VBVdKjfigLRPqp2MkBaY91mk2UAC6LFMGJ9Kek2q+lNpVjSm0IUWodKWlTaUtKEKDSm0KfSlpQhQwkpdKSEInpSLFPoS0IVFX0paVPoS0IQq4akWqfQlpQhQaU2lSuSaFKlQ6VVzJngB5H52RHQocZUp6TTMio4EtNtPketlR9AJkTS51BN2YBK05pxwss9kxbQpB7r7kj12Vw9sKY+p77rMQtbDSKSOAUlNpkLPs7V0XHxDT5IlhcyY9pLTMcVQik0OWgGGETNlAHAezCzVXteGGC3UOIXdHthTP1APVFFWzo1VcePuWfz7GaRCI0M+pVCBGkqtnOFFRpgbcQjZLfqsUT4tkZot8LfIIZgsK6pUDG3M3MwLbk8gj76AaAGva8ARqYZEjcLRGRdLNK05c3JVdK5cFZ0Jd0nLNaqhq60qzpXGlCFBpS0qfSmLFKm1AWptKn0pi1QhRaElLpSRSLRdzFzpVjSm0qyXagLE2lT6EtKFKg0JtCsaE2lFIVOpSSp0lb0Lh4UItQ6VWxuGBLXEeyHD3q3Cma316c+iXI22lNhfleCquDw7a1MNO0R7lRx3Zdv2SeoP5ooxhpG3/AKngRwIRXBVA4eKFlul0coOiwX+HI21esT5bLadlcoDKD5E6p9LK9VosJ0tFz8hui9Ci0UyAgkuCsxgteZ5h2cJe4iYJ/QVWl2aBdMv8gPxXpHcibix5p6tFlO7UB5AVTGCVkMF2Uc2HayPNG2NDRB4WUuIxxQ99aXeqoSpLQAgmGps1uYHfWuI3HAfFWMFhtDNP8Tj8bfJEquXA1O9IALthHtHafuiJJXDm3ToRbrScS7LHl6qtpSLVOWLktWtc9QaUxYrGhMWoRar6U+lTaEtCEKDSlpU+lNoQhQaE6m0pKLQimlNCUpSr0qJ9KbSnlKUITaUi1PKUopSuC1cvpqWU0oQq4oKUMXa6RSLQzGMLZcTMn19eakw1S26nx9OWGNxf3IdhKlvJYZm5Tot8Dy4aq7mL6vdl1J0PG0/JBT2jxAGiQHdTZc4jOdBIfMcw0n4qszOsGbuD5G1lDWmtAn5h1WkyTGYmoD38QNi3iiDqzogmVm6PaShGlrr8iDKuZbjC+OvMKjwd1YG9lLVqQYKjpvDXaiYA4rvGN8UqHTrnkqBSjAx4czSwW+0656gcpVbQnw9OGjyCk0roxNAauXNIXPN8lAWptKn0ptKulKEtTaVOWpi1FIUOlNoU2lLShCg0paFNpS0oQoNCSm0JIRa61JB6q94l3i0ZErMrmtNrVXvU/eKMinMrOpLUq3eJd4jIjMrOtPrVXvE/eqMiLVjUuw5VBUXTqmkSdvmquposqrpA0WVZ1IAR4i0HeYQ3Pc6cfCDA5BSUKxNNjx9lvvi/yKxznMAVrwRc6yVopboENFuCD1u6JOrDAnoArmW4xh9r16In9FouufmswJC6TXFUMtq0wAGUWMHEgfoq1iGgO1A7+Sm+hUW7EAeaG4/GNEhqq4kqXFLEVbJsLMeaoUiXmSi+GaLKKpXjF6qN+JLazWzYs+Rv8wiTXzf3rPPfOKPJoj33/BFqdWFrY8tXmcbIYsQcqtkpSiWW0GYmk8ARWYCWkbPsTpcNphroNuEyhuKoPpnTUY5h4amkT5Tv6JkWIY9xZeo5LSx2ZgcOaYlJRiom1rRSm1Kkow9LUikWpCkuNSWpRSLXadRa0kZUIN9IS79CxWTiuttJKK9+n79C+/SFdFIRXvku/QsV0u/RSEU79P3qHUXF7g1oLnHZrQST5AXK0dDJnUafe4mmQ9xilSfb71R43jgGnc3IiJzzYiOKg46nYc0HQFx2Cp0OZ24dUL7RZppsij6l5Wf7RYTW9nImPXgFidJndZWWE8WYZkEwOAq4p8NFuLnbDz/Jaf6B3LRSBLtI3PW5+JRjKcM2lTAAiyp4ky8pD5C7yXpYoQzZC3UzwUJrvb9YhX6rIVHGU5AS7tXe3oufpj3WLipWSVWw9G4Ram0IdohjLUuGYQiFN3FVqHMrp7pOnhxUAWmSyNhYXOUGHZLn1PtG3kLKYvTuPAJmpq8bNIZHl55rV9g3HvXcrT/2VF6JXpamlnhqU3D2TGxG0HZYD+z69QzsZ+Ag/wA4XouIyYzNNxG0cfO/64rg4qGWWZ5j5ZfPmu7gcrYWh3isvmHYui8fsy6i/r4mHzG7fT3LLZj2VxdG5pF7ftUvGPdGoe5amnjcYzE1KdRwLGXDbQ6dhJEgXDp4CFosBmQcfAHOAOlxEQ0wCJEyAQbcrTCvHj8XhjlccwG98lcsY/UCl4x3icVF6t2p7MUsTTc8MiuLhzYk9Dwf5H0IXl2c5NiMLpNamQ13suBDmnpIMA9CvQ4HHx4ltjQ9FmkjLCou8T94qPfJCsuhlS7V7vUlS73qkjKotBNCWhdylKM6vlXGhLQpJTIzoyKPStZ2R7DVcWBVqO7mhwcR4nj/AOsG0fxG3IFGOwvY6nUmpiqbiZGmmSQBEH9oLEztpnnK9Oq1KgkU3wAANJY0sEcIABAi1iuHjfbLG3GxxB6gWnx4cnWkJyvLaWGDaFKlAt49AkmRcuN3HjMnj5LCdrsaamIPIAR6iR8NI9F6Nja5YCXSDztfo0/jC8f7U4x1J5dpkOne0QBC5PsuN5ldLJv9bVcdG57AyNV6hUNVoMSNiD/VURnjZ0uY4G1xBF/crVLG03W1Afet813bC5PAmjN1siugikH7tdIB5EbtPIoYDdbvIsCXYSkzTOt9R0b+EWPn7KC9oeydSmTVogvYJ1N3LR9ofaHx8+HJZjgZjE7qQD1XqsPJmjaXb0s7UYqGLBiETcw+hVOsJK2sOqc8IdTmUYwrZEqg9sFEsow7qzxTYPM8AOaJXANzFDabuiOW4N1RwAHhBGo8pOw6qCk22rab77epWtGLoYJoFQmxa4Ni7oJuBsZM34cYheUZvgnO1PBOlz3aA4y7TcjyAaPXha6RgpnSucXChpX1XK9ot/UUA6gFqg5p2I9CFzCyeXdm6tVoIbAF5j9cFuP7OOyVGrWiqDUYGm5kM1CLDg5anzxtujdLn/04e99FrOxDAGGCNRmJ0zc3sTe1Np9QtW3OIIZrJdxDgRpPIjn0Wcx+X4elitGFYxpDdJNMX1Q8mTtMACLxHvt5O81KYp1meIQ1j5l+rgATbSLjrE8V5nGsc3EOc125C7GGytjDa0C07aAqftHO1OI3AHpH5KHIsE6gS0ua6nczpIeXE3LoOnaNhvyUHZ/EFtY4eo09427uUnYjmIA944mEXdjKVSTTc1wkglpBEjcW4pww8sLOO/mdjragua52UKliMAQ6pWw9V7iTpdTLg5rTIJgE+EjeORtEqjmWHr1aQBYxoJisxwDmuEXLZFhq9ePFEMvIbXrWEkMId0LdMHnBYTf7So5Tmdfvn4euySLtqNHhIMwD5wY42M7SmSy5254iAQBp+OvlyWcANNEGj6+C897S9hX0mOrYYmoxsl1M+20Di37YA4b+aw/0hfQGb4kUBrc0lt5iLWJi+8iVle1vYeljWnEYd7GVySCdqdUgwQ8fUfIjUPIg2I6Xsz2y8ANxG3vfn8qJoG32PkvKfpCSJf4IzH/4zv8Avpf+aS9F+rg98fNY6QSU+pRSkCk2tVKXUvWewGT0KWEGJlpxD26g4jUW8g0bN89yekBeQyvQcrxPcUKYe+waAT9klxt/pLonouV7YceCAOZ26p0NXqtzl2c0sMx3evhxuDub6uomSCrfZ+oaNAurv7ys6HO4tZazABxvNt5CzOCo0a5L3hru6ZeTMAm1uZO3qr9DHU5EgANuABAmIBI6DhzjkFxG4sxwNjDaPX48lcxl0hcToqmMqVK+LLaurS0nQ21r2ebcYtMWI5yR/aPIhVd4h4W+yOv2j6WHr0Whyx9Nr6zi6dREauWkSesuJ90cFbrMpbAt6/iqSYh47mgoIijA73VeU4ns9B2sLD8/wVDGZI8CaYE2seX6lerV8sDriD+CA4vCBrS+RpHGbfr5ojxT7CY5oU3ZztDhqVOhQcTTNNmiXDwni4giYk3vCO5nS7+mDTLHs1Nkg6h7QgjTxBusLj8vBdJBBAI6Xjh6INjctqM1OYajTB8VFxa7bYwRPkVVkbDIHh1H56odq0grVdosmY4GrTexlYH9pQI0F0jUH0xJuW7t5gx1xFakZ2U+X9o8cHCnVDcU0DSe9YXPa2bjvAQ+xvcujdFabKTwQzVTf/w6hDgb7MfA9zgPO67Zk4QAf8xt+QrYaVzjldqPqFmjScXABpJJAAHEk2AWsx9Glg2Nw9MMrYkiajy0ODCfqtkcvz4rik2pRaX0aevFOae7Dham027y5EvN4HAAzuAecj7O1WUy/FOcHOMw6C4ybknrdJxUrcmpCtNJb8o2VPB5Z3rg6o4v5Ak3j8B0+COO7PB7w4jZpaGiwAMap6nj6IzlGVv1a9LgALCDw2VrL6zzWh7dz+pXLkxb8uUWFRrA42VUxeVCjhoDNRdDAOA1WhrZEmJuSPPgjXZ/JRQAG5PtEQOEQIiyt5liqDSA5zS9kkNFyCYFgPrXgDe56otTHh2gnhafWLegskOkfw6OnPzUBrc9hVq1GwaBA2gWjoOSgzDDU20wXP7sNcD4QJIH1RylXKtSLny99gsV2ix/e1HMBkMIaeUxJHnsTykLNGDmzdEx5FUj3944fHVfZeDRa4Oc12nwujwggy5wiel+JVuhlFGmNOGZpNtRknaTpusPkFfuqzIECYI5g7j4lGsXn/0XvrguDgNM8J3PG/LjddiHFPkcYnC2kevXJZ3sYzt8wtOx42DgSCWmDNxuPeuMVSZUtUbqgOluogEFsEGCFmexuPNQOqkyaj3PcZtMkQPd+oRtmILqpAvfYLA9vBnIj5Ggmg8SPtdEaqPY4aSBBFp2jgsu/Cvw80y4vDpdqIifQWBGxhFsiYDhaeuS4U2cdjA34qPFOs6i49GuPA2sehspmw7mDMT2SfzVqGEE6bof9If9o/BJDf7hxX2j8PzTJGWP3kdrovFu9VnLsHVrvFKjTfUeb6WCTHM8GjqYCH5Phn4iq2kzc7ngBxJ+C+hMgZSwGXtdTohjtOoiQZebMc93tP3Fj6RAXtsTjYoDlcdVmDCdlk8L2Vp4fCVadWgx+NFMvJJnS0h0OoSdJLQLwJmYNgucZkxFGnBLadO73EwYaCYiZJ1C46qPH134irWrhx1OdTa1lpawMu4HlM26FAsRiiHCm8mTMDy/XwXAmL3Savzc/n+NaTW0W6ikXyfMmigdOo968uJqEOcQ0FrRaABOt0dVYbXkIfgwzwtOkTEcOpge9SYuoAZgNbH5eiJ4XSM4l+Q5gKsbg05VFmWOeCGUpkwJG7SYuPJsm+0tVmji3d4KTeA90RM+9v8A3Dqq3ehuqoAC4AkDna453ge4KjlWdVCalRrWwGjvIEuIuYHKXGTA48miHYSCOQdrYfUlUle5p0TYzO8VqNMGBDpAAlwi0mTAdMWRDKc1fUp0idmEuIM+J94cZPUnlJEbLjL4e4veHAgBviEE8XHymdunJW3YccEqadrRww0DyV2R32rR3s72gp1NZqUw7SbcmyLefgAcepPpew+Cw1cFrXaXXEOi3I9fJYmRh6WklxL3btHEkk/D5KywOc7Uz4Gff6KuLyPiaWna/X0CvFYJCO5R2Bq08UKpe1wIcC5vGeB4cj6KbN+y7KbzLSYIgN4zs2eHL4qPLa1dl+8c2eqXa3MalUCnTD36W3dOkyZnYiR8zyi9GSfqG052reZ0+FKpAh1A3UbcTTw5Pia+s7cg2b0HlEKTC5nSNSawc4RqGk3MbtA8uPCecIXk2Bw7xNWk5sEAmXg/eElTZ1kL8N+0pnU2DoPpYHz+KzhzYpMrtT47Jh/uMtq9KxmdUqbAKfiOkxF4j8f155jDt1P1TudwdudweHoslkNavXH7bVTpj24BaXTsxp3DeZ34dUVr5jpLQ0ANbYAWACdj5uIQ29R8lMDaBPJG8ZVwtOpIcO+ZYB7tIYDwa2zY+6PPe5hz208M9zawdULDU1chvIFiRFgXdOENGMwNbCMrd9iXe0XEB7mtZLpPH2jE2R/LaGGcZbiu8HtFheyC63iJG8RYcPJaWzRNh7IJOmpF39llMchdrVIdhquKfiAKjjpLXup6mgNkNAa7TAkydQm9uF1Uq4dve9wz2Wt1PMSZJMlx5mZ6k9FrsxdT0/vGtIuLz6W5rKPxzRVqNDw11Q6zzDIgQNyZDvis2HlEsgzigAfBN4eQaG0Ezis2nUJ9kAQOJ/8Af66IXVaa3hptMOggzeWiC0zM2Ez/AERLNgHuiI3joQLK5g67cLhaRYAXGYJuZeAZ/wDynskPDkcwa38KtQ+LM9t7IzkmFFKl3Qbp0u24WeXCOlldq4xuHo1cRDnaR9XcmCJ6e0D0AWey7MD3VQlxcZbHIHxTH64oLntTEVtFFuo0wGlwAN3EwJi5tEe9T7OcwyEOGu9qMRbW6eStZLjqxa0anBs6mcdJBMEfakkiOJI2heg5pUZUpsqNcLyLHlaR5EEe5YrDZf3IFE32O8iSbxxFx8uqJVs1Y2o2jI1HSAGxYnWTPKwn1SMTiHO4kYbf+91eGIMDXEq33r+ZSXXd9SkuLblvzNWQ/s5/s+P0aljKj9DqpDmjjoJhs+KACL+oWq7cZrT7tjaZa6iHgPLXAwIIbt1I9ER7R5/SbgwKY7umNNNpgeEHSzYcgTbohPbHLqFLBsbSbqZqDy4mS6wvI6crWXpZ3wTPzP615+HhS5gLwOz0WSp1mj9pTcY3G+03tvw/JQZi5tZmplni46EfncLrBUdLXbgTYniDefj8kKxFJ+sd3A3kHaPx5e9ZhGDKWt3GyY02zMU2Fpgua9wAdaesbeUJsTm5qFtMtIDHucZ4kexPA7z6SoTX0v8AERc/Hh71bFMEzwPHey0ZnMJvmKVcoOq4+numwU2Dwr9mNLegEK5h9DmF1I3AOkxs4bWPIge9NhM0qioIGsmNLC0apvY6YAOmHmJmDEAylBrnAhlCuquHjdX8PktfctdHNLF4tmHLW1Jkybw2AOJJ2m6PYzH4unhzWqvDGeLTpYPqsaWOf3gDtL5fqgSIABEwcS2kcwdUxVaWNeNFBgvDQ6LD6xLp+I5BMiwD81z93wVJJwG9la3MMrNRgaGeIPaSDz0uOgzZvhuZ2B52V1lZtJoaS0vHtaRAB5Dy2QHAPrYGgadWuH05BBLDqaT9UmTq4cP6dYP9rqezUdpJBb5ESBP9FldC54LGC2g6EA/dWYQ11k6olWzEnbc/BA6+dPcA5tJ7gSWkkCLWn2pjfbkiL6BbvuQnwmWgU3jUXS4kCBu76o6CPmow8PacK1CtKb8l3Qw+mm98DxCbFx2BiQ7bfgj3ZLMBXo9zVF9IIBuYN9PmCscc1fTplobrO15gDnAVvLce5rqdeCwyJ8uJHMcUuSB7m537Eoa9oOQckSx720y6m1zXQdmEHyEDbkh76RAOo3t5eQ6I/neWNqH6dTZALA1xEeK8yY5bEn+HdZzG4s+zSpvqPiYaCeIiwvBvdAw7s/DaNfX0RxABmcgPaTxuosAB8NZ19paGX2vYu96FVMEwEg0WEA76QQRxIJYJHVWcxpeOnUcXtLnVAGFxlgLdQ+6ToMx0C7p4US0GzXGZPEzFou7ley7ELckbQD6srM54c+iFJ/h1ncd6GMa4xEDYSGg2I3JnjaNpMW8nryzDiHOd3QaSD7LQXaS484PsqtjMaxrDo1QPE9z93aW+FoEmwE732sIVjJqZoYUSdLvDM2IkRJja8CPfuYXOTw+1uTp68ERkF2Vuw/lXazi1wdyKGYnOe6PcBnsOLriQ5sHSR1hwR6rjqBbBcL8eSx+fVdNRlUGQPCeW9j7j8FkwYJcWPG4Wx/gtFleL1NnYFxc70On/AG/EK3hq9U1dVJmpgd43TED8YER6oLhaYcaVOSGuu6N4iStJisUymwUKQgcY3J6pLn5H20f6QW2NVaoVDWxYA9kNJPvAZ/K4qnmze6rmu1uoDUakb8A0NHC1kX7PUA1r6xt4QAf1+rofWo95r1TG5ExsQfw24pLJzxcx56Hx6qHstlDlqn/xOOdP4/knWA+kj/h/Ep16H9JB7oXM4snvFel9p8ta6gG+yWyaQmA586tDhuZiyo5Pm30jBFjiwuYAdNw4ADiYuSOg80Vz/GjECWPBFDxCYnbbebXuRf5+e5hh9GIdVpu0A3q04u1ztnAcGumel/TiwRsfHw9dNbPXp8V0Hk58w+S2Tu6xVMCmWh7BEbC3DyWQwrcQXljqQJBN2HVHrAGnqq1enaWSX8SXRHmdz5D3qm3N61OQKumLb9LbrZDBwgcupPXkodb6U2PyxxMvpH/U2ApcoxTS7QDds78efnuqdPO695eHDmWgkqjSwk1A5p0QZloiOgG3ommMFlPP4RTrXoDaGjU4bOcIjjYCehP4LN4WnWoOdXY6o8Ne4VKZOqAJHeU5sDBNj1GxkFMDm8BoffTy2P8AWCU+MxFGs6Ze2fqstJIj1/MlKa8RuOnZIHj8EsscpsyzGnmFahhW1ScK1jamKqk7NFw0wBBEiRvqc3kUb7Q56yuCMI8to02Q3QHMHgHAQDFvgqWGw9PB0a1JgBq1AO+MCNUSabeUcf4nkfVVfKMHopEu9qrc8Ib+GoyY3ueIT8VjG8JuTTYqrI7K7zqk7EO7im6BYvcRx3AHreeijyLMy1xwxohpa2XOkS6CBMAcjvKI4VkvaLXI/D9f+kXzWiAGkAE+zqtPOJ5cgs8E5bhnlulfdMMX9wWgmOxcAuIvsA3ckmzR14dAOimyw1O5rB9naqmiLQ0tEaT779CVB9EmprJnSIYOA+07zO3QeZWY7Q46saz6bXP0gAaWk3BA3A81X2c+5DrrWpRieyLVzMmOAa5pPAkcHD7J6TBnortF2iiwvJlzuPUzPQdOUcV06lqpNP8AC09dgmpMbUpgPElptPMLKZtMjtgU3h/8hutLk+OM9xUMUXkiNuYgHgOcXJPRA8zaMDjC5+rSWQ3SJkSbRN5DvSCmxVUuEg3G3TyROviWYvDtmPpFMHw8XNaJdHlv71Z+JPFEovaj+VHCGXKUJzKgzFa6LSWutDnCIeCXMNuBEC3AoJl1SKumuNJANOoHSHU7ghttrAjVsQbeE2LV8bo0PZHeOMCdpiNTugEfAcUJ7SlztIew94N6zSWkjiCRwP2eHC8lbsPI10ZDtL2SHsdmFbhV8/fTJ0ULtpgd6/gSXAtYSB43HjHA3umxWYuqEsaBcjUXWFjMDmbeSgp5eDT8Loa0bH3lx+cobUxwDoEvdyaPxV2U+gBeXr90wtAsncrrGucLgG5gA2vxB8oVSpjhHdVCIc0zY7/VI5XvKKtxpqDS8eWxhCcVhBqMz0MlNic3MQ5XIJaj2Fx7GPY9zvD3YM3O46XRDLcy7x1VzT4g0d20j7Vmn3kH1KyzwCxl/YOn/SbLYZRl7BVD2yCQAfLjPWw9yzSthjbbhZP2Kqc7ithh6gpUqOGG5a0niTNx6wyT94c1ZbhdLXyN5n8R75CE5Xi2jFvxFT2GN8MXMReAPusEfwonh82ZWoAt5k3Bkyd44DhKw4gNdhrG4/n1avEafR5oL/ctH7A95SRruklyOPL7x+a18FnRRZllvfCSSyq22ttj/qjfzXnWc4OtTeTuCT4wD4hexI4Hkt2e0Rj9swO/jZY/6m7H0Poh+PxNKsJpub1GzvUG660Inwx1Gn0SJIwdwsBiKhFNoYTqH1TJHUg29yH1HO1Q5o1Hc78ItFhZaDOaegFxbPAcL+nDqhLWBl9uZ/PkV14pbbdJIrZc0WDTp3srVKk8RAkTf8fzXbCVHicQWbkdGife4/goaHSOygIc4AaJ8fmQpiGwX/AdT+Svdms+FKmHNYHVm6pO7gTPiHv3GxWXdTko52Vyd9WoXgeFoIPVxFmj5k7AXK2T4KJsBB/2eiXxCStp2XwH0hhqud4SSQDuZJkn9c+SmzbGFjCWAOIP1psOLoF0LrYCthaTqzKg0Nu2Zh8+1pG5B1Ouq9DHirpc65LfE0TG1/SVxZYxo6rAJv15KwJNgdFzWzys2AAzUdPDwiY5nc8L7SeSOYJtcu11XCS0Naxg8LRcnfcklVcBSpzqLW2jSSL2Fj0/LSOCNYYFzdWkwdt9uBPnyVJ5baWRNoc9FWNpDrcVGXQVQq4PWXEVXteDfwtc0CSQACLGNJkyrmYaqbdQZLidLBzdyPQXJ5AFNhsE8UwPaM+J1hLtyT6peGZI2y0anwTJC1xo8ly4eESZMC/PqhorBj5Psnedh1VusSQfVBc5Gmm5zgSAJtueQS42W/KeaYT2UVdUvzHAjl0VCvjX0HivSfpIkXIEyI4/qyr5E6k1gfWLQ6CG1NRhrTA0O4b+twFFmuOotPdVr+HUCAC0jgRzPEQugcIY3CrPw9clnEmYG0fw1NmIpHFMHhBiswbsO8j+Egt22MjgFFjcYxrdJb4CdIMzf8LbeqoZTiX4Q97RA7uwLeBEXBHGxv6qfC5UMRVOJwYDml/eVMO4xEtA/Zg3LZBsLwWxMKI4e08VoRp4eH/qkuIA5oDnOXmPBcEyBJj15rjBZe0FzhdzvCB5/Phfkti/LmVAe4dPOm+z29B9r59EGdSNNwLhGnefifd+KXFiSRwyaTnsF5kFzPC921z3WA/HYeao0Xaz4nDawB+PVd5rjvpVQNp6u7HGIDnQb844X9yhbhA10wfDN/U2C6jo2R6c0lrnO1XJ8J29622XVpAcOIt6rGYl4MR6o9kGJmkQfqevUbb8fcseMjztsJoNBXMPntPvC0GYBJPCwv8ArqESyHvNTabTFOdRHE6x4GDoGxfmsCWy53dGJBAm1jvO8WW6yDM+5o988E6G2gTuYEekXVMVAImUwd6hRSGPzG3cl6H9IZ9l/u/qmWB/xp/BU97P/JJc/wDpkvufVM/V+P0XGM9lZjH/ALxnmkku8F0H7Js5+p95nzQ/HbH73+4JJKIt2rlnmpqfHz/FD3bnzSSXTg3KodkmLW9lv8u//q/OgkkrYjujz+xSn90rR9v/AN837jf5Vl8N7FTyH8xTpLz8+x8/utMXJE8J+79QtrR/dN82fzBOktGD/af/AIpcneHmq+c+zh/+p/tUVT2H/eH8qSSmT97/AKj+Chm3xQut9b9cAhmY+ykkuS798+a1DuLHD/IO/wCY3+ZPn/ss+635BJJekd3m/H+FzwilP/JHyd8iiHY//NM+835p0lkd+6PXJaW90ov2u/z1by/2Lrtj+5d/yn/7kklxn95n+S0O2+C8/wAj2PmrGM4ef4FJJdWf94qkfcQ4o12a/wD6f6PmUkld3cPkofsqGD9v/qt+ZW2rf5Z//K/2FJJKx2zfMLMzn5FYpJJJdRZF/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUSExMVFRUXFxgXGBcYFxcYGBUXFxcXFxgYFxUYHSggGB0lGxcVITEhJSkrLi4uFx8zODMsNygtLisBCgoKDg0OGhAQGi0lHyUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAIHAQj/xABJEAACAQMCAwUDCAYGCAcAAAABAgMABBESIQUxQQYTUWFxIjKBBxRCUnKRobEjM2KCwfAVNXOSsuEWQ1NjdKKz0SQ0g8LD0vH/xAAZAQADAQEBAAAAAAAAAAAAAAABAgMABAX/xAApEQACAgICAQMEAQUAAAAAAAAAAQIRAyESMUEEUXETIjKBYQUUM0LB/9oADAMBAAIRAxEAPwCu3NJrw0yuJaUXj0lHo4pi+Q71qDWsh3rAaRo9KE9ElZqqPVWA0EiksiC4WpnaPSmGmFtmqpHm58iZYbSWjhPSa3JowPTJHC2TzS0tuZKb8N4XLcEiMbDmx2UfHr8KsVt2Dh2M07MeoQBB8Cck1uaj2Tk76OYXUtLZZa7gnZzhabG2R/EuzSH0yx/nFSJwvhmyiwtMecSk/EkE48qb669ifBnCA1eFa7v/AENwx8qbG2xn6KBMnyK4oW9+THh0ozE0tuc/RbWv92TP5069RHygfTZxiJaYWtWDtN8n91ZgyDE8I5yRg5UeLx819RkVXYGo2pbQFa7HMOKnXFL4panWSpMsnoIao2rUyVqz06RKTPGFYK0LV53lPRzs8lNBy1NI9Cu9ZjIhkWou6zUuqpIxU2USB+4rKOxWUB+LNZZ6XXMua2lagpXoOJeGSjRjWaq0NeE0vE645yQGpYxUCUfbR0OIss9hFvFTS2hqG1jpnAlMjllOwiGLanvZ3s41wdbezEvMn6Z8B5eJpfw+2aR0jUbswA6c/wDKutRWqxIsaqAFGMClnKtIShWYQg0IoCjYAcv/ANoF3fy25jw/kU0uvP15/dSa+u9OAMBevqaRRNZpNCGGAcen87UvktsbjOeXPY/DNTLd9dsE9PLzrQ3QJ3rWgqJASVAO+fLOMeXjR9rxNwT/ADn41Ei6q90EfChzG+mxva8bYHGfKql2v7Hale7tVGBvJCq8vF0A2x1I+NOIyc501YeDXbKRt/PpTKVO0LKFnCkk8KmWSrD8pfBlt7wtHgJOO9AAwFJOGAA257/Gquua6I01ZzttaCxJWF6gU1vmqqIjZ6WrVmrCKic0aEs0kehXlreQ0FI9JIdE4kqeN6WiSiI5Kky8UHd7WUL3lZQK0j2aOl8qU7lSltwlUJdADVrUjLXgjNLQymbwimlotARJTO1WlZrsb2qUzijpfaGm8FKMi1/J1Yhp3lOP0SbfafYH7gfvq43cmTj+TSHsBHphnfxdV+Crn+NEcQvQuTnzpKtgk6R7cXGdvv2pDxIgjyP5/wAihr/jQVtzQbcWQqM+X8/nTSpIVKzQHBIqYA4yOdCq+RnORU1s5I2G1QOlBcM+BvTOGTIpQsmPCmFnOOlD5GsNUb0XaSEGolkUrUtrOBg7UyaAxZ8oPD/nNqJlHtQMSdt9Dc/uOK5j3NdvmhDhxtpkRlPhkjb8a4+YsbeG33V0Ypao5Zx2LWirzTRzx1BIldUWc0kQNUMgokioXFOTQDKKBmFM5VoKZaSSKRF5NSRyVki1oi1Bo6YhGqsrTQfEV7QHpD6el04oqV6HemJSA+6qRYKJiiouOGlbAgOKCjooqnS3ohYam2Oj232pnbvQMaUbGtAoi8diLj9BOueTqfTK/wCVCcUuhhiaUcN7QQWiusrtrlC4RVzpHRnboT4Uu4jxLWdS+6RQTVmnjlV0DcRn1nbx2/GvbQ6emaX688vEb0ZGvrSZDYwn56qbnl4eFCT8ebku3hivX4aX3zQV52ck0ghyB1x0+NRUt0WoyeS6dcrp9SwX8zS2Hjd1E2GbA8VIb8qIueyzFlKYZcDVr9o7HfTnkTUw4CEDbYGcjxA8D40zYtFg4DxSWZX3ztgeeRQl72kmQlIwWI2wBnGKY9i4Aqg460q7ZdnzG7tEju5kL+y5X2HGVxg9CaChWxm9DjgPau4HszIwDZHoSOdL5F3Pqa07O212rCOcF0wGVzudtyM9RW8jiujG9kmiCQUJMKJkehJmrrgzlyIhNaPWFq8Y1YgDyChJVo16GkWkZWCAJFrIo6mcVtElRkdcY6Ne68qyjNPpWUgaIC9boM0Kpoy3FUaOW7CoI6YQxVFbrTCFahJjoxIa27qiVWvSlIOgdY6IVa2jjogRUyNZX7y3DS5Yc2OfQUOsZSTuEOonLAdQueR9KdcUh9pD0zv5dD/PnS51aJ+9Knmylscg2MYPoBUXGmd7lzhZpcLoOANic+ho2FxQPFWLAaelQQ3BxTPaOVfayzW0gprZkf5VVLO72FMo+I4qDZZKx93Sc9IHwpPxqcD2cbfnRVvfEikHH7mUOCi5BGx6A+f/AHoQ2wtD3hEmkKMEA9as91brIiuRuBpPoOVcfPaC6jIEi4BO2CPvxXSuznEJnQ94MIQDnHM9MfCuiT1QlFgit0MZVeYBx91cqkuNzXSY7oDJ5YB/I1yWWfJJ8zTYXYklQU81DSy0M09Dyz11xOWYV3tbhqXrLU6SVVMg0EMaHevS9RO1BlcZo1eoajZq9U1GR1RYV3lZUGuvaQcgQUbb10TgvyOTPGHuLhYHIz3ap3hTyd9QGfIfeaQdquxVzw8gyaZIWOFlQEDPg6ndD4bkHxqzafRw1W2LrY0yhpNBMOWofeKawPXPJFIsYRmpcUNG1EqakObxCitNCoaJV6ZMDI5oQwwRtQF0dB0EADGQDyI6EZ500NT8UtklsxqALI5APUZ5Y8tqEuimKdOihMxDlSc786wrvRcka6imOW4/jQMhOdqRrQz3I3UHO1GWcgOxqG1wcZ51NNDpcMDsai42yidDJrtY1oIXxc4U48vGvL221gsAT4b4HxpA1rdsSqAJ5lhv6NyqsFS0B2y4rYFk91G8iASPOrRwmdgojcYHTw+Fcgm4PxGIFyrAAHJDodh6HerX2DurhkJlEgUEBWKkAnwz44/On46Axz2mve5hlOdz7A9W/wAs1zgz1b/lFm0xxr1aRm8/ZGB+dUFpKbDGoizYTJPUDTUMz1oz1dMg0HJLU6y0tV6lWSqKRNxD+9rxpKGV6910bAtEjPWLJUDPWqtU2VUgzVWUPmspRuR9gBqiu7aOVDHKiyI3vI4DKcHIyDsd8VkTc60LVqFNDwm3xp+bw6fDu0x92KqPab5PopB3lmFikHOPlG/p9Q+m3l1q5I+3xrcVqB2cni7DX/8AskHrKv8ADNbTdj75N+41fYdG/AkGur7DmahkvMbAZpeKCcfbh06nS1vOD4d1Ic+mFwfhTGHs1ekZFs+PMop/uls/hXTBek1o1ycc63A1nJmBBKsCpBwQdiCOYIPKiLe3eSN2VGZAAS4U6Bg/W5H0FdD/AKOt3lMskSu+AAW3G3UqdifM0RxRNUMi9NBwOgwOgrOBkz564rKY5hIOQO/mDsagvWAbIOQdxjwNH8bhGog1XVuCnsMMr08qgvYs/cb27Y3BrL25O350Cs2PSpGuVxU6aY12h9wi6LKBQvE9ULF1Ps9fAUt4ddlTmn68RjcYYAjzp3GmGEtCc9qCB7qHHXRnf1FXfs1evKgL+4dwBsM9DgUDHxGONVARSDtyG3n501HEEKnAUaVJONsYGeVN3oLbrZSvlMn1TxxjmiZb7TnVv8MVTWQ03vCZHaRjlmJYnzJqDua6VClRzOYrZTWhSmhgrU29HiI5i0A1uuaN+b16IKNAcgVc1tvRQgr3uaNA5AVeqKM7isWGhRuQNiso7uKytxNyPqm3bb4V4W2FQ2EmUrS8u0iQtIwVRzJ8+Q8z5ClGslZ9qkWc1X/9IISqGMmQsPZVfebHPIPugdS2KIEUsn6x+7Q/QiJBP2pve/u6fjTNATJ73iiKdJb2vqqC7n9xQTj4VAl852SFh5yMqD7l1H7wKIhtkjXRGqovUKMZPiTzJ8zW2mgF2LJJLgn34kHgI2cj95mA/Cte7lPO4lP2REg/BM/jTNxWtGxaA4sqRmSQ/aOr+FG3PEkWMl2UZBAyee1Q3Miouo/AVVuM3MnzO4dN2cOV9ByA+AxTxjYrlxKP2iUd5VZ4hbZOasnF5w6pIOTqrD0IpRcV58tM747VitIm04P8+FaFDTSUjFBvGTWbFoGDEftAEeyTW0jsxOBjOOvLHhUvdEdKMsrcseX3fxplNCuAPBbzSMuMkZG3lnerevDWt7Z5Wxk7ADdiCDq8tgM1vw2ELyx5nx9KH7acQbuowhw0biQeGV6HxGNj8ayyKwvG62IbzhcyIsrQyCJhqWTQxjZTuCHAxj1NLwQdwQR4iuk9mu0U1tBOID7MEUN2sLnIEM/62A9VKMcqfA1eoOB8N4nbx3RtYyJVzqUd3IDyILx4JIbI512t0ci26PnzFakV2LivyOQtk2ty8f7MqiVfgw0sPiTVW4t8lt/CNSLHcDr3TYceehwM/Ak+VBSRnFlF01gFH3Fk8baJEeNvqurI3wDAE1p3FGxQQCtsUQbetfmzdBRBZFivNNSmBh0rUxnwogsjr2t+6PhWVrQbOwQds5Vz3dlIR4yusa/cuo08jtTKBcTyCVsewiLpiizzKqclmxtqY+OAM0g1akGedO+zr5hK+BqCbKL2BrnhISR5I1xrIYlQNzgDf7qYcKvXLaCOXjzr1rhlGK14MMu7HyH8/fTWBd6G2KwrWkbbmiFFAoDlajkGKLA61C3MU6EkeS2ysuGUN61XuO8NJspoYhpYRsEA6EDIqzSzoi65GCqMDJ6k8gPEnoBuaUcQuJWZRArxqd3d1AbSOQjVs4JPVhsBy3oxexZLRwLh3EgYEjlOjGRHIR7J33RiPdI/Kjp4HMerGofWX2x965p1257Ly2Wq7th39tI2Z4pVDhHJyWYADCk/SGMVUba8sWOQLmzfxicSR58dLENj41HJiTZfHkaRIkmRzoqAjrW0Qkb9Xc2V0One/opP+bSR/eNTx8NvG92yhPhi4XB9P01Rlhb6KLKvJHK65ximNifDHwodOAXvMx2EPXLzxnHXfLtUjWTr+u4xZwj6sAZyPQIq/nS/2zfkb68V4G5k0DU2EH1nIQfDO5+GaSJd/OJe7tIXvJs+yAv6JD9ZgeYHi+F9ahd+DxHU7XfEZP2j3MR9dy5HxrP9KL67IsrGIQRtyt7RNJYdTI/MjfcscVWGGMdk55nLoa8Wu4uH21xbd6LniF3gXMinUkS5z3an6TZO/ifhXRvkyMtlZw213EYtTFo3Jyp71iwjk/2T74wdj452pd8nfyZpaMLi70y3A3VBvHCfHJ99/PkOnjXRpoldSrqGVhggjIIPQjrV7XRBJ9k7rjcV6kuaTrI9t9aWDx3aSEefWRPP3h59GUciuodGBVhkEHII8QaVodM94hYxToY5o0kQ/RdQw+GeR86552i+S9cF7JiP9y7ZH/pyHcejZ9RXRkbFSY8KHRmkz56fhjIxR0ZXXYqwwR6g/nU8fDs9K7bxrgsN0uJFww91x7y/HqPI1Wl7FSLyeNh095c/DBx99MpEnBlBj4KD0rccBHhV1/osoxVhgj+edTLZDwp+RPiyi/0EPD8K9q7fMvKsrWjcRRH7tNezTe+KURsKYdmX/SsPKpFfKGFzU/ATkMfOo73mazs849oeZp/Bv9idrnSxphHLkD8aW3kQ188fxoyxwcgHlsa3gye6C5JAKA4jepEpkc4VASTz28h1PQDzqd+Y9arvFI/nMo0tm3ibUT0kmU7KPFUO5P1sDoaKNJhlmsjlbmYYf/Vx9IFPTwMhHvN8BtzexSCQedBI2Y6hgkxyO4/CgFOiS5RkJZRkHZlxkMPMdaqnFvkt4dd5kiD2znc90QUz/ZNsPRSKvqEOuevWgSvdPke6eY8PMUHsy1s4/wAS+RK4U/obqCXykV4m/AMPxpTJ8kHEl+jAfSdR+eK+hJYgwBB9DUdvJnKNz/Oloc4FB8j/ABBuZtV9Zs/4VNObH5EZj+tvIU8o43k/Fitdhn4Wp3GxoV7SROROPKiqA7Ofv8k9rbaZ5Gmuo03ljOE9jq6d37R08yudxnrXS+EcJt4EC20UcUbAH9GoAcEbEtzbbqTQkV8w571Bwa9EUjWo2UDvIf7In2kH2GOPssvhRFvZYzHWuivI7jxqZXHKlHIsUA/DyjGSAhSTloz+rkPU7fq3/aHPqDTQqK0aKjZmgWzvA+Rgq641I3vLnkfAg9GGxoxXoK8tA+Dkq650OOa55j9pT1U7GstLkklHGmQDJA91h9ZCeY8uY5HxJ7MhhqrehwKIpGFA9zZo+NQ3HIjY0vubHR5jxpxXjKCMGhZmhB3FZTb5mPGso2LxOWlsGjuz0n/iMeK1DxKDS1D8Nl0XEZ+FZCMtXEVoXgMmHcfH4U0uADjPWkXFeHMPaTb0qi6BLsNurpdec7ijeAS5V2J+l/AVS4pnVsuDp8ccqaJdlEWJD+kk1EH6iD3pCPLIA8SR4Gm7QqdMcX920zNDGSqLtNKOYyN4oz9cg7n6IPjykRlACIoVFGFA5ADkBQtjF7IRBhFHXcnxJPUk5JPiaMcAAAUAivtZxKW3t+8iQvgMSFPtZUZ0jwyNRz+ztvXK+B/KMY1maQYkY5UIudYPQsTsy/XOTg+VdH4r2ot0ea1mEihEDGULqVW9ggDxYa1265qvXfZ2xnte6gmiLNINUcemNhJ4qsp16xnB1E7EgDYCtToNotfyfdpluEQ6s6h1O/ofMHIPoD1q63EOa5xwHs2tmoCLj45wTjJJO7McDJ2G2wA2roXCbwSJg+8OdCS8hg/BDayaDoPLpU13b59ocxW93b5rWzm+geY5Uo/8HtpcatjsaJYUDeQYOpedEWd0GGDzoBTNZbVW6fGq32j4VIoWaEapIW1qOrDk8f7y5HrirTLEea1D846OMUU6BKKYBaTd5Gk0Ta43GR0I8Qw6MDsR0IqaO6PWhI1+aymQEfNpm9vwhmbYSeSucBvBsHqacTWgNZgjZkU+amDUta2Ycuf51tBd9GoDDAnNCXlvqAIOllOVb6p9OoI2I8KnDdRWjSjrWsJ5YXWvYjS6nDL4HyPUHmDRuulUy4IkXdlGCPrp1X1HMefrRiSh1yD5igzILBr2go56KV88qATesrXNZWMczHEIrqPVG2/MjqPhSqYYIPgapnB7sxuGFXspqXJA3Gc8+dFqmRGKdpYyqgg6hzH8aIPH4yPE1XrJEWQpINm5HwNOzwdBuKaNsVkL35kyAoC9aB4NKJZZ5OikRL5LHnP3uX+4UTx0CCBpVYeyPc+s52QDz1EUv7L25iQoTk6Rk+Lc2P35qopaba5wMU1gI07jekVkMDJOTTi1OBqb4ChJBgwWbs1bu5mdCZC8cmzNgtEysuVzjcqmcAZ0jPKkPGOwxzDLGyFolcgSBsvMZGm1HQQPadhnOcBRirrG22o8zyrwqTuaW2UpFH7J8ElhhlE2pWeUkIWDaVCqoIYbe0QzfEdaecPujE4PT86ayRbYpBxKVVLAbuFL6B7xA8Pupk7JtUXgSjY/Rbl5Hwoe8gPvDmKQdlO0CTBYtLHVGHzsQuSR4740nJG1WS2lz7BO45HxFTLJ2jLWbWPPrQt1blTqWvbiMo2peXWiZLhQhZjpAGSTyArB+TLS7DbHnREijqM1XLziAXB0YHr7QGM5K4wNt8ZzjpRvDOORSAaZEfIyMHcj0O9ZpgUkE3Nirqy81cFWXowIwRQXZ67fS0MhJlgIRj1dCP0cnxXn5q1NMBt1ODSbjjtCyXYU6otpQP8AWQE+3t1Ke+PQjrWXsaWtj5WDcqgu7INuNjXsicnQ5BAIxyIO4IoiKXIz99BjCZJmjOG5UeQHGRU91ahhSldULfs/lQB0buxQg9K9Ru7fb3H3HkfpD+Pxqe9jDLkUDHl0KfSG6+o/78qyMw+5Q+8KhhuiDW3DLrUuDW13bg7rWD/KJ/6QHhWUs7o1lY1s+fYGrp/Zlu+tEP0kyh/d5fhiuTwtXRfkxvMmWE9cOP8AC38KpJE60GcRs8jzrfhnFyo7uTpyPlTfiEGD5Uju7LfI6H8DQSraEYJxOdZ7hU5pCA7ftSMPYU/ZXLerLRNiPaIWl3ZlldXbrJI7j0zpX/lAoybUj+zzO1Mn5FLHYqAMnkPxNHwSgv7XwFVoTMcDPKnlo+ohj0GKZmTHat1NSas1Qr7j0i8QmjimiJQRr82lOgSDQGLRy/RfJIwdjin1p2qgLCOXVbSH6E40ZP7MnuP8DUy212S8d4oUV1TUHAzkAcvH086S8U4PPPKkxBhKJpLDB1NnmAfokE1bu4UssvMgEAg7EN0ONiKo3He0ty08scTBEjYxqMfrGXYnPTfpSSfHbDVnnDStncRHvMHSyorEAEsRljgZ6elXq6ymGUM3Il87ZboF5gH+FcCvuJyXkj3D+zImmMBeS6R73xJNdR7A9p4rqNLeRx3qKrBsZ0nqN9m3oqSbFppF/hlWVM/f60NNbCWKSBuoI67eB28DvQVoJoDrkUaS2DgjcEnB0jltjrRnFr9YkaRWQsF1BGYKWUEZx15ZovWxlvsr0nDijwwshwcgzYdi0gTSEUk8mXvHy2Qp8TVjseEosMcTxowVcYKhgM7nGemSaGtuLRXOY43UTIVfScMV0kbkA8t8dOdbRGSSSQSB10kAaSyqeYJXffOM/HFDnzjaejKHF0bX/B0EbGJNMgGUKkruN9gDg9djtU8N4DhXwQwyrdGBHI+dCXklzFgwqZ19rUjMNYwpKtG55nIA0k756VrbywtHFCWGWVdIz7QYrqIIHI88/GsH4N+zwaBnsn9xfbt2+tCTumfGNjp+yUprImk7cjVZ4rdtCqO/OCQMT/um9iT4YOr92rKs4JKNseh6EdCKL9wR1o2E+Fz99ayqsims0YyPjQIfS2RypRza29klDy6UJICkmaPuhkBhQvEBlQ1YDAjL3c7Do2HX0OxHwIP3imwlxv0NJOJN+jWTrGwz9h8A/cdJ+BpnanUlEVBXfrWUJ3VZQGs+a4Wqz9h73u7uInk2UP7w2/HFVSBcmndihBDDmCCPUb1WQng7beQalqu8Wm7uGSbGTGjZHoNvxxVi4ZcCSJW+soNV/thD7KR5IEsqq32V9tvyA+NBCS9yq2Vk0cca8iqqM+O3OmQkY7sNxyNES2rK2jmDuDR0XDmYhNgo3LHpWSEB7KAnAHM0/thjCj0qPuo4wVjOo9W/7VrBJg58N/u3p/BkqZz+1s7W5uOKXF2D3SSqAwJDR4LDUpHkBQ3G7q54ewg74XFu6h4xModSh6YbkR5V5wO5ii4fcT3EZljmuyGQbahgY3675qz2Pc3kIvTaJP8A6mCCR1UJGhwzb7Ficn0xUXG1rs78eVwl9yuPVFY4T2mgXP6GWE4zm2ndFB8e6bK1J86jl7yRbu5GtvaeW2WQK5AHvxkYPLpTWfsPb/PZ3LGG0ijSRlB3DOCSgY8gMZ+Iqa+4fElrbw2bt3V5dxurPudhq3G2oDRypeMnqQ+WXp6TgtlCn7NIMmPiMBJzkMssRPrkGteFRtBLEqOryLID+iOrWucnHLPs528qt3Fuyt1fXE08txbj2+5jYgoJjH7PsoOQzkfCkHH+xkkLEQky93pWbkumUp3hCfWULg5pWpexuOFr8tnW+Edq7dyFnl0HlplBiztjPtgdPA1aJbKGZAQFdR7pB3HmjqcqfQ181QzXkKLJmeONsaWOrQc8ue1MeFdsLmFtSuM+gUn104zWeRdNDx9DKSuMkzqEvZi7hfXbSaxncg4fGcnUDjJ6bZ8a3bjt7EuHDFh07t9viRvvn7q17GdufnsiwOmmcglXX3W0jJ1Dpt1q6ey/syAq3jyqD9LF7hJr4JTc8cuM1spL9pbqRdBULqGGIGSM7baRk7dQaM4JwuYAEP3YXIVmDMwzzwj79ObHO5GMVYLiF49iSyGo/m4O6HB8K0fS/cpSk3XQjy2qSSJOJ2olj9r2sqUfbmCMHIG29KuCXTvZxMSTJCXgfxJiYrn4gKfjTKCYqcHcdR41DZ2TRyTsgDRyskgGdw5QJIpH7qnzzXX4IVbHHDr0SL5ih+IRY3FJbe77uUj3c9OWDVjOHT4UGMnYFaXG2k1M6ZQilsyYNGWM3Q1jL2Aoow4eJvdcFD6EYqLsvcM0YD++pMb/AGkOk/ln41PONL0NZ+xdSjpIFlH2saHH4IfiaKB5HumsrzVWVqGPmS16fz1p1adKysqk+xUdW7J/+Wi9P4moO1n66D7E3/srKyguyb6B7nlH/PSjj+qNe1lEXyA9nfeajbv3X+w/+E1lZRRkcoP9SD/iv/tWw/qu0/4qT82rKyoY+/0ejl/F/P8AwtEH9VX/AO7/AIUog/qOBfb/APiesrKddnPLyLO1fu8L/wCKP/WNWji3u8R+23/Qjr2spyYD2q/qub+yj/hXJov1Dfa/jXlZUMvf6O7034/tF2+SX+sU/spf8IrtvEvo+lZWUMXQ39Q/yv4QQf1XwpQvOsrKc4mZNUkXuv6VlZWN5FXaPnD9j+FPuEe4KysreBV+TBOIc60tPeFZWUEM+zOI86Gf9dF9h/zSsrKKFfY4rKysojH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUREhMQFRUVFRUVEhIVEg8QDxUQFRUWFxUSFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQFy0dHSUrKy0rLS0tLS0tLS0tLS0tLS0tLS0tKy0tLS0tLS0rLS0tLS0tLS0rNy0tLS0tLTctN//AABEIAToAoQMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAUGB//EADcQAAEDAgQEBAUCBQUBAAAAAAEAAhEDIQQSMUEFUWFxBhMigZGhscHwMtEUQlJi4QcjcoLxFf/EABoBAAIDAQEAAAAAAAAAAAAAAAECAAMEBQb/xAAmEQACAgICAgEFAQEBAAAAAAAAAQIRAyEEEjFBBRMiMlFhgVIj/9oADAMBAAIRAxEAPwDPy9EI1ADDiB3srbf/ABM6k06gHuF57G4KSclaKl/S9w/gGLqkVKDCBYtqGAMw0Imy6HA4DiGGq+cK9J+e9f8AiHAif7HAyFhU+M1gAxr3gAQADAA5BZnFaf8AEWqvqOHLO4D4SujDk44fjaGUl+j0PF+OsIw5X1KZeBLvKJqgH3FvdeYcU45QfiXFnmP8yDnqPDqgef1DoOgVR3hfD7Zu0lSp+H6TSHAGdtUcvLxyjVMjki3n6olN0wALqLcIBzUm4feVzo9bsQ1cTXZgDTrPruDjoykGumdWnMIWVx3xlh6z21HMquADh6qubsWtEBpsdEsTg2VBDxI681l4rhWHH62tEfFdLHy41SRZFo1avGGVm0nNc5xbTDHF2sgkgdbEXTCv2WLQxeHb6Ggjrsr1HEUnWa4TyNlkzQk5OVPYrTLvnlJ1U8+yE2l1UnMWZpC2yYceqQqqJBTBqFECmqIUS8dFAD3SLUVRBw5O5wQzT3TQpohO34EkKOpSUpENRlEJ/LCZr/ZSa4lVeCEDSUcg6opP/ihKayEcqWWU5SgqWQYtTBinKQMwLorfgiVmNxXiTmHIwS7ZY7MKakue4zOk2Xo7PDNH9bzcgFVTweg0nLfuuliahHSOrh4yStnmnEyKYyxedRpCz2Yg6/ddj4vwdIMJaL815+58WWzHLstlOaPVnQYDi7mOBJkSBrYSu0whFRgeCL7dV5WK913Xg7EtNNwBMgiZWbl4o9eyRlyRR0IoiLp3YblqotJSfUPuuU9lQjhzsoOpx1Ug8pnTzQohFtNT8jqoF6RqmUSDeSkl5h5FJQll3ywonuiJFqrZAY9kgJRGt1SNMqJMBFoCQaCncxRiEQjZRujYLIx4c8+gGTPS6HNlKnSzkMMEOsbbHVWY/wAkPD8kb+I4lTqD0tzA8tANrrDx7SB6SB0m6yfEHCy+q1uHcWBoymCYMbwhnh+KzCS2BvJ0XQaVHc7SOf8AEVaoZBByrlqtDcLveKwWFpF/uuawuEZd1TNlGw5q/FNJbM2bG5SRzz2Qu18AUjkqOIsSI9li8UwVM5TSDhLg1zXaydCvQOEYMUaLWCxA9R5u3ScrMvp1+zDyIdH1YapTTNYiHvqmK5JnIhqY+ykT0UCOf+UrsJF45JgIRWtCdzgmSADk8kyJKSNEDHX8spiSpj4J2GDqkpkAhp2TvndFa8blOHCNVAorAHVPCO54US4IAINpnXkptL2glkZogTpdJlRTY6U0W0x4Pq0zn2Y6uKwzMazKYzAmHD3TcW4lUzGJA5IvF6LDWlr64kAlpAyTvBKpY/ENFjy3XUttI7PdpbM6pXJuUqTGvBaXQPmVSxOJ5IeHeSU6iLGds2eFcPz1gXfppwf+TtAuo6SsiljadJgdUJaHGM0HKCP6jstLD4hrxmY4OHMEFYc6m3daOdybeTZMkqN+anKRCzmcGXHdN1KIFPKpZCuSmKO4gclHMFLoAPImRc7UlOwdE991Mi2qDmSa5LsUJ9U881DOEs87BQJMVAFBx5J6boVbinEW0mydToE+LE8k1FEDl0C6qVOKMba/wsstvEy4ZjbogPfN5HuV6PD8ZihuWytyZoY7xG+IDAdgVyONxj6hzG14tpPJaFa15Wbh8c1mem8HI4zm1yvj6KZeMoK4m3HnlLTZOgCUemyFWo4lo0cCOcqT8cxplxnlF1k6t+jWmluzp6OIYKLhVEsIvNxK5Dh2OfSdLCWiTAmRlmwTYziT6oDRIYDMc0OgFswYdbMnIyKT0dxgOONeBnseey26eUiZB6rz7DPdsI7gLVwmNc3cfRJl+Kxz3jfVmPtTOtzRuhOeStHDcOw1Sg2qzG0Wvdbyqn+2M/8ATN/osqrSc0lrrEG9/mI1HVcTPx8mF1Ms8okTOyZwCG4nqmLiqGAlISQcndJCiFxx5JgU4CbMhQCeW3dIshQc4pg8qLRCbhG/suI4vjjVe8z6QcrOw3XS8dxnl0XHc+kdzr8pXB4XEgnKedl2fisK3NhNBrzEcoTBrjqVNjJmOfRXa3D6lPKHtc3MAWS0tzN3LZ1GmkruePInkq5ZkLMxbCFu1aBa2croOjoIaexVSt2Qkk0SLo5t1PoESnS6BaopA7QmbRE6KpYyzuVKdFXGZWiZCt4bhtSr+im90CTlaXH5KrW4a8Auh0AwSWuyg8idArHcRfIanWa7QoVfEZfsqLSGy7ZJ5BMnlZTuydUW244yGnlfr0W1w3jrgWU6hlmjHfzDoTuFyD3eqRorbasiPdU5YrNHpILil4PSGOBH5opHTZYfhjGZ6eUm7THtstl2i8vlxPHNxAmP5YTocH8KSSmSyz5ijmko4pqBSpshCbpXTnqmJITfwJzfi2vJZT/7H7LiNHnofkui4/is1Rx6x9lgV2w/5L0uCHTHFDI2KVUwALRuV6HwvxozE02YPH0WGl6GsqUyWVKJEDOJm685wrvSrLXWB3W1bWyu6Z0/jDEuFZ2FBIpUHltJkyLfz9S7Weq5uoU+JxTnuzPcXOMSTqYAAn2AVZ7rqeFQLCgJmhQbUTF6bRD1T/TIvp4WvUBMF9PLA9UgeqD2IXR4zEuFOsSMzfJLixzhVpvEHQxqF5r4Q8YU6NP+Gr5mtzZ2VW3LXGAQ4biy1+PeOcMxlRlOo6s5zCwWDaeUjUqZaphieTYupYnSTMbCdlBtS10PEVwRHzQ3usFlbLaJMdcouHqRf2Vaii0xdROgtHUeG62SrH8rxblK6oSuG4XVIc3oQu2uFyPkcfXImvZT7J5DySSzHmmXPtfsJezfn3TEpEqAJVSRCU9FX4nXDKTnmBAPz0Rb+yoceZNB4I5W91dx1eSKYTiXVA599NVT4mwhwPwKepTMnL8J+iqVid5svTt6SGSNTCmyOahVfBm3sp13QFbdIT2S82RIQqL9kKkbKBS9g0Xc0XKE+qquJrSAEE1SFOwVEs16un5dUqhupVTIlClVSbY6QN6lUOiZ6i4pAhGGAiU9boTVap0bSnSA2WqD4K7rhtYOptMnquBpuXUeGcROZnuPbVZufj74b9oqejoLJKOUcinXAoHZlxRhECYmyrsINzVneIK2WiepAWsfwwsfxLgvMpfqy5fUNIPILRxa+rGw6OQrYcFZuIpOGtxzU8TWqix26Kq7Fv5r00pJjxizSwB07J8W60IPDakwiY4xZO/xE9g6WyeoE9MelOUKCAIlAe3ZWCFGoAUrQyK7DBgqDhCnUbbqkbiUgQLlEp3JoSjB6RAvvyVoVJsqFN8Iza3T6plJCss0mA6lavBsRkqNO0wex1XOisZsr+Ce4kNi5IDe6M2pRaYko6PR/wDskqXlVf7vz2TLk/RiUm3GyZrUTKJ36d07rLk6LaIEH9lj+I3ltPY3gg/ZbbXDVYXi1wytAHMrZwF/7InU4LHPcf2VBy0MVqqRbNl33Vlq0X+EsNj1T48+pXaGAfQLW1AJcMwg7FZ+IdLp6lOpJxTRX7DUtE8KDESUxATgq83RwZVesEJBQ7vqgNsY5p8yes3dIEG8IYKMbiUFyRjkqbJPJaAosAuf8rPpsJ0CIaMfqPsLp4uvQrRYqPYLMA7q/wCG6AdVDnuAy3Am5KyabY0aT3V/A4dzntEASRMWckyK4sEvB31ufzTIf/zm/wB/xSXI6R/6KaNwXTbqJdATNK5vUeyTj80wwrXyXAHlIlTmRsieblpuPNaMFpto28SKc9nD8fwNOTDQO1lj8B4WX4hoglrTLjtZaHF8UXvyjWYA6rpuC4DyaYbubuPXkt087x49vbDy5JeDD8X1PW3T0sPzXLEaLd8X1JquHKAsM6Lo8ZVjRjQRqIFBsQpNWlAK8kFRqPkolVqDCUZAi1SYZspuahaFLVBINsYUagRazZuEN2iVhQ1NxGhIRW4hw5fBCpiSArdTCubq0juCFLoNN+gJquP+F0XhvhVQuZWLoa0yOoXPsF16RwWllpMb0CyczLLHDT8lcv0XPO/IKSJkHNOuH2l+xaC5Eiil351TNCQgNqHxNuWnrsVco0iSFHi+GJB7LXgWjp8KFRbOM8PYLPVdUdo2w7nddUEPh2EDKYAG0k9VayqrNNzmYcrcpM818Rvms7/kflZUFYx0uquj+o/VCe2F6XEqghBmBEBQ2ItTmrQDOGyrFsFWJUalOUAgw1QexEFtVOyjQSq3cIGit1WRdCqU5uq2gpjYNk1GjmQu0xbfTcbLmvDVDNVHIXXRcTqXjZYeRL7kkdDjxqNme3CNc4CNSuuosIAHIALB4NRmoDyuuk3WHkyvRj5L+6hsjuaZEkdUlkooLjTsmvP7JiCiUNRNxN0sVbAts3OCYKGGo4a6LPx1UOLo2lWOOY9zKIDZFoa1cxSpVG0nF7jmc76roRSSO5BLHGv4W8I8lo7fdTqO9JvsUqDcrQ0cvmo4l8Md/wAT9Fi8z/0482nJ0ecVKcEnck/VCdT5qzRcDqpPC9ZGP2ld7M8NgozL2RHU0M2Uolg3MhOFOs+B3QKTtkAoIWSoimpmyWcIslg3tsq1R0WRatRAylzgBeVXJjxVs1PD1YNLtLjXkjYjES4mfe8I2O4cBSblEOA237rMdWkEQZjTYLH9s3Zrl3xpL0dN4YxIL3s6AhdGVwPhXExiB1BC74kGFzeZDrMxzlcrIpkTy+idYxbLbUzXXTZPyUmj3SJ0wrTsDx7igMFrcwYZc2YMDcIYxNKvTY+m71B3qYdQOqhisBcvYYJ1abtP7Kpwrh+R5LmZf6SDIHSFv+rBwb9m+WeMoWnujZNQKGKLSx2n6T9EjCiR0H5ssSlTs59nm1J0SPgjtEo3iyn5Nb0MAa5oOls24BWQ3irh/KF6vBlUoJkcWaDiokSqJ4oP6fghvxw2lWOaB1YVx9XZCJuhtxTZ3+qc12JL2NRZp1BoUntHNV/PYl57UbJQqjhouh8H8KzF1UjSze/Nc0+oOS9D8JiKLWm0tkfErNnlSNfFjctixuFMaLNqcIDqdSB6shLe41HwW9ihcwdFUw7hmBJ/NFz4Nx2dHJTRxHAamWsxx5hekgDUQqtPh9FpltNg6wrB11/ZZ+XnWRql4OJL8mSk8gko5klksGjRDoUTUAP5KHMpBvxVYLDjrKgIQ84G6kABpqpRBPA7pmxr1STZlLAZn+oYaMAz0gk1fS7cWuPdeXL0HxzxAfw4oEGS4PadhH6gV5+QvS8d9saaLY+CAanqCAjUadpOir1nSVc9EIBWG0HckGk2TAV6m2bFxB+qMVZGANFw2UgOw7iEd1Mj+b5oDwP6imoFiDMxDfSJIHxXf4chpFIOBLaYkheeOeORPdaXAsYWl55t37rPnjaNPHyKLOgdiKnqglCpkt8tx0JQMDi8zjPU9NFPh2CfWy/0g69lif2rZoyZkjrm3AjkE7qai15AGimKk6rlyezmPbIQkngc0lLAX/K3SLFDzDCfPzVYCDRCcu/OikX20shgqeyBA4Dsk5vXVDLfgmd3Uohyvj6l6Kbv7iD8FxTXc16L4uoZ8M47sId7brzgc13OBO8Vfosj4FWqzbZCSTlbWMEwkZhK030jFyO6zMLGYTorrSHEgyBsFZCqFYMtaNyUzqp0DR901Q8rD5oRBPNRkQz53U8E05wBvb4pssan2W74QwGetnIsy/vsqMslGDbDdG3wrgRYXZyCC2BHXdbOEwjabA1ugVgCEsvX5Lz+TM5+RJSb8gnhRARixRulQovLSSzFMiHZeGqlqma8KTZ91RQFsY8kJzEUmLlO14/dEKIeXZRNBEt1TFh6piFLiVGaVQc2O+i8lI/ZezkAi/YryTimHyVX0/6XEfOy6fxsl90R4lEBM9THNDK6o5PDtlwCvVBuqGHPqCuVXSnj4EZHzW8iSh1Kh6DsimqIuEDyy46KNhGpMkr0TwjQAoBw1cST7WXAmAMoXpPCKYbRpt/sHxIkrn/IOsaQrNBzVFzOX+FCU7iuJ1BYrpwhlxCfNaSikQnl6pIOZvVJN1CXct9FIO2/IUg3dTc6yqFoGJ5ypKD3pOeUCCMzt1TmRoVDN+dU0lG2Qm06zdedeN2j+JcQIlrCe8H9l6E1cP49w0VGVRo5uUnk5uk9wVt+PaWX/Bos5R/JDKm5DK7tjkqJuFbcqTNVoAgCU0QMr1LKJe7mmLpunBnXRQhZ4bSzPaObgPnJXp8AAACwA+i4PwnRzV2uIsyXfYLvmvC5HyM7koiN7B5O6RdtdElM5c4FAZKccpU3sOyZzY1hNYSMDokm8pJSwGm6paFEOm6cbylCo9EsZ7hy1UcwUgzfZIsH+ESEX8lEgT1RS1RLEbICgrE8V0s2GfacsO7AG8e0rcNM9eip8UoE0qjRqWOjvCsxS6zTJWzyt6E5TKi5ekLhm6q082hV6Yui1Uy8AEWDc+yiL9lFTYpYGdP4Id/vOaN6ZIHVtz8l2JELiPA5jFsPR/zYV3AJXK+Tiu8X/CsRO4Sn25JBOG/nVc1BQp3ukQCEn07aqGUjqjQR5bzSUYPJJQBbafdHY7ogjREB+yoa0BBhU6J3O6BVn/dPTUCWZHJOKjVXKVHVQlhS8E7ITi3dQf8AdL9lEQ8y8VcO8mu6P0ulzfuPzmsQrvvHjR5dMwP1FcE7X3XpONNyxpssSC4VnNatLAh4sbrPYtng36h7oZJteC6EUzIrYUtMFO3APOgWzjh6/dW6GiCyvrZZ9JWyt4Ywj2Vg46Q4Rv6mkfddqR8Fg4T9XsuiO65/Nm5NWUZ4KLVAlIu7JnbKFRZChCz3TuOyg/VOzVGgks3QpkRJHqQ//9k=</t>
   </si>
 </sst>
 </file>
@@ -625,152 +859,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB8984-64DD-4DAA-B3B9-3474948017C5}">
-  <dimension ref="A1:AC78"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1">
         <v>1993</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>1994</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>1995</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>1996</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>1997</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>1998</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>1999</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2000</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2001</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2002</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2003</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2004</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2005</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2006</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>2007</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2008</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2009</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>2010</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>2011</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2012</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2013</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>2014</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>2015</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>2016</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>2017</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2018</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>2019</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>47</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>81</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>112</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>137</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>139</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>153</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>176</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>181</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>204</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>221</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>243</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>250</v>
-      </c>
-      <c r="O2">
-        <v>260</v>
       </c>
       <c r="P2">
         <v>260</v>
@@ -814,13 +1051,16 @@
       <c r="AC2">
         <v>260</v>
       </c>
+      <c r="AD2">
+        <v>260</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -847,55 +1087,55 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>6</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
       </c>
       <c r="M3">
         <v>15</v>
       </c>
       <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
         <v>26</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>42</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>56</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>68</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>80</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>106</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>117</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>144</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>156</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>173</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>185</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>193</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>198</v>
-      </c>
-      <c r="AA3">
-        <v>208</v>
       </c>
       <c r="AB3">
         <v>208</v>
@@ -903,61 +1143,64 @@
       <c r="AC3">
         <v>208</v>
       </c>
+      <c r="AD3">
+        <v>208</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>34</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>43</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>55</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>66</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>72</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>87</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>104</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>123</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>132</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>136</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>145</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>152</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>163</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>175</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>184</v>
-      </c>
-      <c r="R4">
-        <v>187</v>
       </c>
       <c r="S4">
         <v>187</v>
@@ -992,13 +1235,16 @@
       <c r="AC4">
         <v>187</v>
       </c>
+      <c r="AD4">
+        <v>187</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1055,39 +1301,42 @@
         <v>0</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>23</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>35</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>52</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>78</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>102</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>122</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>143</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>164</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1102,58 +1351,58 @@
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>29</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>35</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>45</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>58</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>74</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>85</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>95</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>107</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>129</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>139</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>150</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>165</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>171</v>
-      </c>
-      <c r="X6">
-        <v>177</v>
       </c>
       <c r="Y6">
         <v>177</v>
@@ -1170,13 +1419,16 @@
       <c r="AC6">
         <v>177</v>
       </c>
+      <c r="AD6">
+        <v>177</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1197,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>17</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>34</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>58</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>82</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>112</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>137</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>164</v>
-      </c>
-      <c r="P7">
-        <v>174</v>
       </c>
       <c r="Q7">
         <v>174</v>
@@ -1233,7 +1485,7 @@
         <v>174</v>
       </c>
       <c r="U7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V7">
         <v>175</v>
@@ -1259,58 +1511,61 @@
       <c r="AC7">
         <v>175</v>
       </c>
+      <c r="AD7">
+        <v>175</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>37</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>65</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>83</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>92</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>106</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>109</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>117</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>132</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>136</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>143</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>154</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>155</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>160</v>
-      </c>
-      <c r="Q8">
-        <v>163</v>
       </c>
       <c r="R8">
         <v>163</v>
@@ -1348,13 +1603,16 @@
       <c r="AC8">
         <v>163</v>
       </c>
+      <c r="AD8">
+        <v>163</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1381,55 +1639,55 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>18</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>25</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>38</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>47</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>57</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>69</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>79</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>97</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>101</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>112</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>123</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>124</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>128</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>143</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>158</v>
-      </c>
-      <c r="AA9">
-        <v>162</v>
       </c>
       <c r="AB9">
         <v>162</v>
@@ -1437,13 +1695,16 @@
       <c r="AC9">
         <v>162</v>
       </c>
+      <c r="AD9">
+        <v>162</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1455,31 +1716,31 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>37</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>48</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>64</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>83</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>102</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>118</v>
-      </c>
-      <c r="N10">
-        <v>125</v>
       </c>
       <c r="O10">
         <v>125</v>
@@ -1488,22 +1749,22 @@
         <v>125</v>
       </c>
       <c r="Q10">
+        <v>125</v>
+      </c>
+      <c r="R10">
         <v>136</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>144</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>147</v>
-      </c>
-      <c r="T10">
-        <v>149</v>
       </c>
       <c r="U10">
         <v>149</v>
       </c>
       <c r="V10">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W10">
         <v>150</v>
@@ -1526,49 +1787,52 @@
       <c r="AC10">
         <v>150</v>
       </c>
+      <c r="AD10">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>36</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>60</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>85</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>101</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>106</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>111</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>113</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>123</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>132</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>136</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>148</v>
-      </c>
-      <c r="N11">
-        <v>149</v>
       </c>
       <c r="O11">
         <v>149</v>
@@ -1615,55 +1879,58 @@
       <c r="AC11">
         <v>149</v>
       </c>
+      <c r="AD11">
+        <v>149</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>53</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>69</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>76</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>85</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>87</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>92</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>107</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>117</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>129</v>
-      </c>
-      <c r="M12">
-        <v>138</v>
       </c>
       <c r="N12">
         <v>138</v>
       </c>
       <c r="O12">
+        <v>138</v>
+      </c>
+      <c r="P12">
         <v>144</v>
-      </c>
-      <c r="P12">
-        <v>146</v>
       </c>
       <c r="Q12">
         <v>146</v>
@@ -1704,13 +1971,16 @@
       <c r="AC12">
         <v>146</v>
       </c>
+      <c r="AD12">
+        <v>146</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1746,37 +2016,37 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>10</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>21</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>28</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>39</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>48</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>66</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>96</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>122</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>134</v>
-      </c>
-      <c r="X13">
-        <v>144</v>
       </c>
       <c r="Y13">
         <v>144</v>
@@ -1793,13 +2063,16 @@
       <c r="AC13">
         <v>144</v>
       </c>
+      <c r="AD13">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1862,33 +2135,36 @@
         <v>0</v>
       </c>
       <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>3</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>24</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>49</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>78</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>108</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>125</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1903,31 +2179,31 @@
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>16</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>34</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>57</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>80</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>91</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>103</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>116</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>125</v>
-      </c>
-      <c r="O15">
-        <v>127</v>
       </c>
       <c r="P15">
         <v>127</v>
@@ -1971,13 +2247,16 @@
       <c r="AC15">
         <v>127</v>
       </c>
+      <c r="AD15">
+        <v>127</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1998,43 +2277,43 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>21</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>24</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>25</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>38</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>52</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>63</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>79</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>90</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>105</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>110</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>116</v>
-      </c>
-      <c r="U16">
-        <v>126</v>
       </c>
       <c r="V16">
         <v>126</v>
@@ -2060,13 +2339,16 @@
       <c r="AC16">
         <v>126</v>
       </c>
+      <c r="AD16">
+        <v>126</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2081,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>6</v>
-      </c>
-      <c r="H17">
-        <v>23</v>
       </c>
       <c r="I17">
         <v>23</v>
@@ -2093,43 +2375,43 @@
         <v>23</v>
       </c>
       <c r="K17">
+        <v>23</v>
+      </c>
+      <c r="L17">
         <v>27</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>41</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>57</v>
-      </c>
-      <c r="N17">
-        <v>64</v>
       </c>
       <c r="O17">
         <v>64</v>
       </c>
       <c r="P17">
+        <v>64</v>
+      </c>
+      <c r="Q17">
         <v>75</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>86</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>105</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>116</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>122</v>
-      </c>
-      <c r="U17">
-        <v>123</v>
       </c>
       <c r="V17">
         <v>123</v>
       </c>
       <c r="W17">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X17">
         <v>125</v>
@@ -2149,13 +2431,16 @@
       <c r="AC17">
         <v>125</v>
       </c>
+      <c r="AD17">
+        <v>125</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2215,72 +2500,75 @@
         <v>0</v>
       </c>
       <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>17</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>32</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>42</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>60</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>85</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>101</v>
-      </c>
-      <c r="AB18">
-        <v>125</v>
       </c>
       <c r="AC18">
         <v>125</v>
       </c>
+      <c r="AD18">
+        <v>125</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>31</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>48</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>60</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>78</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>98</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>107</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>108</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>116</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>120</v>
-      </c>
-      <c r="N19">
-        <v>122</v>
       </c>
       <c r="O19">
         <v>122</v>
@@ -2289,7 +2577,7 @@
         <v>122</v>
       </c>
       <c r="Q19">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R19">
         <v>123</v>
@@ -2327,13 +2615,16 @@
       <c r="AC19">
         <v>123</v>
       </c>
+      <c r="AD19">
+        <v>123</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2354,52 +2645,52 @@
         <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>8</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>16</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>20</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>27</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>37</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>44</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>55</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>71</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>80</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>84</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>89</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>98</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>111</v>
-      </c>
-      <c r="X20">
-        <v>120</v>
       </c>
       <c r="Y20">
         <v>120</v>
@@ -2416,31 +2707,34 @@
       <c r="AC20">
         <v>120</v>
       </c>
+      <c r="AD20">
+        <v>120</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>38</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>56</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>71</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>94</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>104</v>
-      </c>
-      <c r="H21">
-        <v>113</v>
       </c>
       <c r="I21">
         <v>113</v>
@@ -2505,46 +2799,49 @@
       <c r="AC21">
         <v>113</v>
       </c>
+      <c r="AD21">
+        <v>113</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>15</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>29</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>42</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>60</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>74</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>86</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>94</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>98</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>108</v>
-      </c>
-      <c r="M22">
-        <v>111</v>
       </c>
       <c r="N22">
         <v>111</v>
@@ -2594,13 +2891,16 @@
       <c r="AC22">
         <v>111</v>
       </c>
+      <c r="AD22">
+        <v>111</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2612,52 +2912,52 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>10</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>26</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>36</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>50</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>59</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>65</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>72</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>82</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>86</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>94</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>98</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>103</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>106</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>109</v>
-      </c>
-      <c r="U23">
-        <v>110</v>
       </c>
       <c r="V23">
         <v>110</v>
@@ -2683,13 +2983,16 @@
       <c r="AC23">
         <v>110</v>
       </c>
+      <c r="AD23">
+        <v>110</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2716,55 +3019,55 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>2</v>
       </c>
       <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
         <v>6</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>18</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>26</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>35</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>40</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>51</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>59</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>63</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>73</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>80</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>88</v>
-      </c>
-      <c r="X24">
-        <v>96</v>
       </c>
       <c r="Y24">
         <v>96</v>
       </c>
       <c r="Z24">
+        <v>96</v>
+      </c>
+      <c r="AA24">
         <v>103</v>
-      </c>
-      <c r="AA24">
-        <v>108</v>
       </c>
       <c r="AB24">
         <v>108</v>
@@ -2772,73 +3075,76 @@
       <c r="AC24">
         <v>108</v>
       </c>
+      <c r="AD24">
+        <v>108</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>15</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>18</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>26</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>32</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>41</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>47</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>55</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>69</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>78</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>87</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>89</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>95</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>96</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>98</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>101</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>102</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>106</v>
-      </c>
-      <c r="V25">
-        <v>107</v>
       </c>
       <c r="W25">
         <v>107</v>
@@ -2861,13 +3167,16 @@
       <c r="AC25">
         <v>107</v>
       </c>
+      <c r="AD25">
+        <v>107</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2894,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2906,31 +3215,31 @@
         <v>1</v>
       </c>
       <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
         <v>19</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>32</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>38</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>50</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>74</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>91</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>100</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>103</v>
-      </c>
-      <c r="W26">
-        <v>106</v>
       </c>
       <c r="X26">
         <v>106</v>
@@ -2950,13 +3259,16 @@
       <c r="AC26">
         <v>106</v>
       </c>
+      <c r="AD26">
+        <v>106</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2992,28 +3304,28 @@
         <v>0</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>10</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>22</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>42</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>50</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>55</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>84</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>95</v>
-      </c>
-      <c r="U27">
-        <v>100</v>
       </c>
       <c r="V27">
         <v>100</v>
@@ -3022,7 +3334,7 @@
         <v>100</v>
       </c>
       <c r="X27">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Y27">
         <v>104</v>
@@ -3039,13 +3351,16 @@
       <c r="AC27">
         <v>104</v>
       </c>
+      <c r="AD27">
+        <v>104</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3105,60 +3420,63 @@
         <v>0</v>
       </c>
       <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
         <v>9</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>23</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>37</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>41</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>57</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>69</v>
-      </c>
-      <c r="AB28">
-        <v>101</v>
       </c>
       <c r="AC28">
         <v>101</v>
       </c>
+      <c r="AD28">
+        <v>101</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>40</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>59</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>66</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>79</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>90</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>96</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>99</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
       </c>
       <c r="K29">
         <v>100</v>
@@ -3217,13 +3535,16 @@
       <c r="AC29">
         <v>100</v>
       </c>
+      <c r="AD29">
+        <v>100</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3262,37 +3583,37 @@
         <v>0</v>
       </c>
       <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>4</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>12</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>36</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>46</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>60</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>61</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>78</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>83</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>94</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>96</v>
-      </c>
-      <c r="Y30">
-        <v>97</v>
       </c>
       <c r="Z30">
         <v>97</v>
@@ -3306,13 +3627,16 @@
       <c r="AC30">
         <v>97</v>
       </c>
+      <c r="AD30">
+        <v>97</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3339,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>23</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>48</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>68</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>74</v>
-      </c>
-      <c r="O31">
-        <v>95</v>
       </c>
       <c r="P31">
         <v>95</v>
@@ -3395,13 +3719,16 @@
       <c r="AC31">
         <v>95</v>
       </c>
+      <c r="AD31">
+        <v>95</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3434,31 +3761,31 @@
         <v>0</v>
       </c>
       <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>16</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>28</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>41</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>53</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>68</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>72</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>77</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>78</v>
-      </c>
-      <c r="U32">
-        <v>95</v>
       </c>
       <c r="V32">
         <v>95</v>
@@ -3484,13 +3811,16 @@
       <c r="AC32">
         <v>95</v>
       </c>
+      <c r="AD32">
+        <v>95</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3532,28 +3862,28 @@
         <v>0</v>
       </c>
       <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>12</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>27</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>36</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>48</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>68</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>75</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>90</v>
-      </c>
-      <c r="W33">
-        <v>94</v>
       </c>
       <c r="X33">
         <v>94</v>
@@ -3573,13 +3903,16 @@
       <c r="AC33">
         <v>94</v>
       </c>
+      <c r="AD33">
+        <v>94</v>
+      </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3600,25 +3933,25 @@
         <v>0</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>30</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>44</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>55</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>61</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>73</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>83</v>
-      </c>
-      <c r="O34">
-        <v>87</v>
       </c>
       <c r="P34">
         <v>87</v>
@@ -3630,10 +3963,10 @@
         <v>87</v>
       </c>
       <c r="S34">
+        <v>87</v>
+      </c>
+      <c r="T34">
         <v>91</v>
-      </c>
-      <c r="T34">
-        <v>92</v>
       </c>
       <c r="U34">
         <v>92</v>
@@ -3662,13 +3995,16 @@
       <c r="AC34">
         <v>92</v>
       </c>
+      <c r="AD34">
+        <v>92</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3692,28 +4028,28 @@
         <v>0</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>17</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>28</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>48</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>59</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>64</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>71</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>85</v>
-      </c>
-      <c r="Q35">
-        <v>92</v>
       </c>
       <c r="R35">
         <v>92</v>
@@ -3751,13 +4087,16 @@
       <c r="AC35">
         <v>92</v>
       </c>
+      <c r="AD35">
+        <v>92</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3769,25 +4108,25 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>18</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>24</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>36</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>48</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>58</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>75</v>
-      </c>
-      <c r="L36">
-        <v>84</v>
       </c>
       <c r="M36">
         <v>84</v>
@@ -3799,7 +4138,7 @@
         <v>84</v>
       </c>
       <c r="P36">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Q36">
         <v>91</v>
@@ -3840,13 +4179,16 @@
       <c r="AC36">
         <v>91</v>
       </c>
+      <c r="AD36">
+        <v>91</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3864,40 +4206,40 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>5</v>
       </c>
       <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
         <v>16</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>28</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>51</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>65</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>69</v>
-      </c>
-      <c r="O37">
-        <v>79</v>
       </c>
       <c r="P37">
         <v>79</v>
       </c>
       <c r="Q37">
+        <v>79</v>
+      </c>
+      <c r="R37">
         <v>81</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>88</v>
-      </c>
-      <c r="S37">
-        <v>91</v>
       </c>
       <c r="T37">
         <v>91</v>
@@ -3929,13 +4271,16 @@
       <c r="AC37">
         <v>91</v>
       </c>
+      <c r="AD37">
+        <v>91</v>
+      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3950,49 +4295,49 @@
         <v>0</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>9</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>10</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>16</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>17</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>19</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>20</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>29</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>37</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>44</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>52</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>55</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>67</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>74</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>82</v>
-      </c>
-      <c r="U38">
-        <v>88</v>
       </c>
       <c r="V38">
         <v>88</v>
@@ -4018,13 +4363,16 @@
       <c r="AC38">
         <v>88</v>
       </c>
+      <c r="AD38">
+        <v>88</v>
+      </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4033,37 +4381,37 @@
         <v>0</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>23</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>39</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>51</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>57</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>60</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>69</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>73</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>77</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>85</v>
-      </c>
-      <c r="O39">
-        <v>87</v>
       </c>
       <c r="P39">
         <v>87</v>
@@ -4107,13 +4455,16 @@
       <c r="AC39">
         <v>87</v>
       </c>
+      <c r="AD39">
+        <v>87</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4131,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4140,37 +4491,37 @@
         <v>1</v>
       </c>
       <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
         <v>9</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>14</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>34</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>35</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>42</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>50</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>55</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>61</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>74</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>81</v>
-      </c>
-      <c r="U40">
-        <v>85</v>
       </c>
       <c r="V40">
         <v>85</v>
@@ -4196,13 +4547,16 @@
       <c r="AC40">
         <v>85</v>
       </c>
+      <c r="AD40">
+        <v>85</v>
+      </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4247,25 +4601,25 @@
         <v>0</v>
       </c>
       <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <v>24</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>38</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>56</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>66</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>72</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>80</v>
-      </c>
-      <c r="W41">
-        <v>85</v>
       </c>
       <c r="X41">
         <v>85</v>
@@ -4285,13 +4639,16 @@
       <c r="AC41">
         <v>85</v>
       </c>
+      <c r="AD41">
+        <v>85</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4324,22 +4681,22 @@
         <v>0</v>
       </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>4</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>9</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>18</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>35</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>66</v>
-      </c>
-      <c r="R42">
-        <v>84</v>
       </c>
       <c r="S42">
         <v>84</v>
@@ -4374,34 +4731,37 @@
       <c r="AC42">
         <v>84</v>
       </c>
+      <c r="AD42">
+        <v>84</v>
+      </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>33</v>
-      </c>
-      <c r="D43">
-        <v>48</v>
       </c>
       <c r="E43">
         <v>48</v>
       </c>
       <c r="F43">
+        <v>48</v>
+      </c>
+      <c r="G43">
         <v>59</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>77</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>80</v>
-      </c>
-      <c r="I43">
-        <v>81</v>
       </c>
       <c r="J43">
         <v>81</v>
@@ -4419,10 +4779,10 @@
         <v>81</v>
       </c>
       <c r="O43">
+        <v>81</v>
+      </c>
+      <c r="P43">
         <v>82</v>
-      </c>
-      <c r="P43">
-        <v>83</v>
       </c>
       <c r="Q43">
         <v>83</v>
@@ -4463,76 +4823,79 @@
       <c r="AC43">
         <v>83</v>
       </c>
+      <c r="AD43">
+        <v>83</v>
+      </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>27</v>
+      </c>
+      <c r="O44">
+        <v>34</v>
+      </c>
+      <c r="P44">
+        <v>47</v>
+      </c>
+      <c r="Q44">
+        <v>54</v>
+      </c>
+      <c r="R44">
+        <v>56</v>
+      </c>
+      <c r="S44">
         <v>61</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>6</v>
-      </c>
-      <c r="K44">
-        <v>16</v>
-      </c>
-      <c r="L44">
-        <v>23</v>
-      </c>
-      <c r="M44">
-        <v>27</v>
-      </c>
-      <c r="N44">
-        <v>34</v>
-      </c>
-      <c r="O44">
-        <v>47</v>
-      </c>
-      <c r="P44">
-        <v>54</v>
-      </c>
-      <c r="Q44">
-        <v>56</v>
-      </c>
-      <c r="R44">
-        <v>61</v>
-      </c>
-      <c r="S44">
+      <c r="T44">
         <v>64</v>
-      </c>
-      <c r="T44">
-        <v>74</v>
       </c>
       <c r="U44">
         <v>74</v>
       </c>
       <c r="V44">
+        <v>74</v>
+      </c>
+      <c r="W44">
         <v>80</v>
-      </c>
-      <c r="W44">
-        <v>81</v>
       </c>
       <c r="X44">
         <v>81</v>
@@ -4552,13 +4915,16 @@
       <c r="AC44">
         <v>81</v>
       </c>
+      <c r="AD44">
+        <v>81</v>
+      </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4618,57 +4984,60 @@
         <v>0</v>
       </c>
       <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
         <v>11</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>27</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>41</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>57</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>69</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>76</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>78</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46">
         <v>15</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>23</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>38</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>43</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>48</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>55</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>69</v>
-      </c>
-      <c r="I46">
-        <v>71</v>
       </c>
       <c r="J46">
         <v>71</v>
@@ -4730,40 +5099,43 @@
       <c r="AC46">
         <v>71</v>
       </c>
+      <c r="AD46">
+        <v>71</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47">
         <v>15</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>26</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>35</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>42</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>47</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>53</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>62</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>64</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>65</v>
-      </c>
-      <c r="K47">
-        <v>71</v>
       </c>
       <c r="L47">
         <v>71</v>
@@ -4819,13 +5191,16 @@
       <c r="AC47">
         <v>71</v>
       </c>
+      <c r="AD47">
+        <v>71</v>
+      </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -4885,48 +5260,51 @@
         <v>0</v>
       </c>
       <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <v>19</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>29</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>42</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>51</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>66</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>69</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>70</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
+        <v>126</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49">
         <v>15</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>33</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>45</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>59</v>
-      </c>
-      <c r="F49">
-        <v>70</v>
       </c>
       <c r="G49">
         <v>70</v>
@@ -4997,13 +5375,16 @@
       <c r="AC49">
         <v>70</v>
       </c>
+      <c r="AD49">
+        <v>70</v>
+      </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -5057,16 +5438,16 @@
         <v>0</v>
       </c>
       <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>4</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>15</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>38</v>
-      </c>
-      <c r="W50">
-        <v>69</v>
       </c>
       <c r="X50">
         <v>69</v>
@@ -5086,13 +5467,16 @@
       <c r="AC50">
         <v>69</v>
       </c>
+      <c r="AD50">
+        <v>69</v>
+      </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5107,25 +5491,25 @@
         <v>0</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>12</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>19</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>35</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>44</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>53</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>62</v>
-      </c>
-      <c r="M51">
-        <v>66</v>
       </c>
       <c r="N51">
         <v>66</v>
@@ -5175,28 +5559,31 @@
       <c r="AC51">
         <v>66</v>
       </c>
+      <c r="AD51">
+        <v>66</v>
+      </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52">
         <v>19</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>36</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>43</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>53</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>58</v>
-      </c>
-      <c r="G52">
-        <v>61</v>
       </c>
       <c r="H52">
         <v>61</v>
@@ -5208,7 +5595,7 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L52">
         <v>63</v>
@@ -5264,40 +5651,43 @@
       <c r="AC52">
         <v>63</v>
       </c>
+      <c r="AD52">
+        <v>63</v>
+      </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53">
         <v>15</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>27</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>35</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>43</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>51</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>60</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>61</v>
-      </c>
-      <c r="I53">
-        <v>62</v>
       </c>
       <c r="J53">
         <v>62</v>
       </c>
       <c r="K53">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L53">
         <v>63</v>
@@ -5353,37 +5743,40 @@
       <c r="AC53">
         <v>63</v>
       </c>
+      <c r="AD53">
+        <v>63</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
         <v>22</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>36</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>48</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>54</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>55</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>59</v>
-      </c>
-      <c r="J54">
-        <v>62</v>
       </c>
       <c r="K54">
         <v>62</v>
@@ -5442,13 +5835,16 @@
       <c r="AC54">
         <v>62</v>
       </c>
+      <c r="AD54">
+        <v>62</v>
+      </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -5472,22 +5868,22 @@
         <v>0</v>
       </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>4</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>13</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>27</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>41</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>55</v>
-      </c>
-      <c r="O55">
-        <v>62</v>
       </c>
       <c r="P55">
         <v>62</v>
@@ -5531,13 +5927,16 @@
       <c r="AC55">
         <v>62</v>
       </c>
+      <c r="AD55">
+        <v>62</v>
+      </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5549,25 +5948,25 @@
         <v>0</v>
       </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>16</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>29</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>33</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>42</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>45</v>
-      </c>
-      <c r="L56">
-        <v>59</v>
       </c>
       <c r="M56">
         <v>59</v>
@@ -5620,28 +6019,31 @@
       <c r="AC56">
         <v>59</v>
       </c>
+      <c r="AD56">
+        <v>59</v>
+      </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57">
         <v>10</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>31</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>43</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>51</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>56</v>
-      </c>
-      <c r="G57">
-        <v>58</v>
       </c>
       <c r="H57">
         <v>58</v>
@@ -5709,13 +6111,16 @@
       <c r="AC57">
         <v>58</v>
       </c>
+      <c r="AD57">
+        <v>58</v>
+      </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -5730,34 +6135,34 @@
         <v>0</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>5</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>11</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>21</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>23</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>31</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>45</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>52</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>53</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>56</v>
-      </c>
-      <c r="P58">
-        <v>57</v>
       </c>
       <c r="Q58">
         <v>57</v>
@@ -5798,37 +6203,40 @@
       <c r="AC58">
         <v>57</v>
       </c>
+      <c r="AD58">
+        <v>57</v>
+      </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59">
+        <v>31</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59">
         <v>11</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>18</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>19</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>21</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>31</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>47</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>52</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>54</v>
-      </c>
-      <c r="J59">
-        <v>56</v>
       </c>
       <c r="K59">
         <v>56</v>
@@ -5887,37 +6295,40 @@
       <c r="AC59">
         <v>56</v>
       </c>
+      <c r="AD59">
+        <v>56</v>
+      </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>19</v>
+      </c>
+      <c r="H60">
         <v>34</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>7</v>
-      </c>
-      <c r="E60">
-        <v>11</v>
-      </c>
-      <c r="F60">
-        <v>19</v>
-      </c>
-      <c r="G60">
-        <v>34</v>
-      </c>
-      <c r="H60">
+      <c r="I60">
         <v>40</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>49</v>
-      </c>
-      <c r="J60">
-        <v>55</v>
       </c>
       <c r="K60">
         <v>55</v>
@@ -5976,13 +6387,16 @@
       <c r="AC60">
         <v>55</v>
       </c>
+      <c r="AD60">
+        <v>55</v>
+      </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -6006,25 +6420,25 @@
         <v>0</v>
       </c>
       <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>10</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>24</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>34</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>40</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>52</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>54</v>
-      </c>
-      <c r="P61">
-        <v>55</v>
       </c>
       <c r="Q61">
         <v>55</v>
@@ -6065,13 +6479,16 @@
       <c r="AC61">
         <v>55</v>
       </c>
+      <c r="AD61">
+        <v>55</v>
+      </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -6086,25 +6503,25 @@
         <v>0</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>4</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>15</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>25</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>36</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>46</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>51</v>
-      </c>
-      <c r="M62">
-        <v>54</v>
       </c>
       <c r="N62">
         <v>54</v>
@@ -6154,28 +6571,31 @@
       <c r="AC62">
         <v>54</v>
       </c>
+      <c r="AD62">
+        <v>54</v>
+      </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63">
         <v>12</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>31</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>42</v>
-      </c>
-      <c r="E63">
-        <v>49</v>
       </c>
       <c r="F63">
         <v>49</v>
       </c>
       <c r="G63">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63">
         <v>50</v>
@@ -6243,43 +6663,46 @@
       <c r="AC63">
         <v>50</v>
       </c>
+      <c r="AD63">
+        <v>50</v>
+      </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>23</v>
+      </c>
+      <c r="J64">
         <v>35</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>14</v>
-      </c>
-      <c r="H64">
-        <v>23</v>
-      </c>
-      <c r="I64">
-        <v>35</v>
-      </c>
-      <c r="J64">
-        <v>44</v>
       </c>
       <c r="K64">
         <v>44</v>
       </c>
       <c r="L64">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M64">
         <v>50</v>
@@ -6332,31 +6755,34 @@
       <c r="AC64">
         <v>50</v>
       </c>
+      <c r="AD64">
+        <v>50</v>
+      </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65">
         <v>7</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>24</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>28</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>29</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>32</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>42</v>
-      </c>
-      <c r="H65">
-        <v>45</v>
       </c>
       <c r="I65">
         <v>45</v>
@@ -6421,31 +6847,34 @@
       <c r="AC65">
         <v>45</v>
       </c>
+      <c r="AD65">
+        <v>45</v>
+      </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66">
         <v>14</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>24</v>
-      </c>
-      <c r="D66">
-        <v>39</v>
       </c>
       <c r="E66">
         <v>39</v>
       </c>
       <c r="F66">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G66">
         <v>42</v>
       </c>
       <c r="H66">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I66">
         <v>45</v>
@@ -6510,13 +6939,16 @@
       <c r="AC66">
         <v>45</v>
       </c>
+      <c r="AD66">
+        <v>45</v>
+      </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -6534,28 +6966,28 @@
         <v>0</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>7</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>11</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>22</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>26</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>29</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>38</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>44</v>
-      </c>
-      <c r="O67">
-        <v>45</v>
       </c>
       <c r="P67">
         <v>45</v>
@@ -6599,13 +7031,16 @@
       <c r="AC67">
         <v>45</v>
       </c>
+      <c r="AD67">
+        <v>45</v>
+      </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6626,22 +7061,22 @@
         <v>0</v>
       </c>
       <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>2</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>13</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>24</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>29</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>36</v>
-      </c>
-      <c r="N68">
-        <v>43</v>
       </c>
       <c r="O68">
         <v>43</v>
@@ -6688,25 +7123,28 @@
       <c r="AC68">
         <v>43</v>
       </c>
+      <c r="AD68">
+        <v>43</v>
+      </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>9</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>23</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>38</v>
-      </c>
-      <c r="F69">
-        <v>42</v>
       </c>
       <c r="G69">
         <v>42</v>
@@ -6777,37 +7215,40 @@
       <c r="AC69">
         <v>42</v>
       </c>
+      <c r="AD69">
+        <v>42</v>
+      </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
         <v>3</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>4</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>7</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>15</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>29</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>35</v>
-      </c>
-      <c r="J70">
-        <v>42</v>
       </c>
       <c r="K70">
         <v>42</v>
@@ -6866,19 +7307,22 @@
       <c r="AC70">
         <v>42</v>
       </c>
+      <c r="AD70">
+        <v>42</v>
+      </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>20</v>
@@ -6887,7 +7331,7 @@
         <v>20</v>
       </c>
       <c r="G71">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H71">
         <v>29</v>
@@ -6955,22 +7399,25 @@
       <c r="AC71">
         <v>29</v>
       </c>
+      <c r="AD71">
+        <v>29</v>
+      </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
       </c>
       <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
         <v>5</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>20</v>
-      </c>
-      <c r="E72">
-        <v>29</v>
       </c>
       <c r="F72">
         <v>29</v>
@@ -7044,13 +7491,16 @@
       <c r="AC72">
         <v>29</v>
       </c>
+      <c r="AD72">
+        <v>29</v>
+      </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -7059,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>2</v>
-      </c>
-      <c r="F73">
-        <v>14</v>
       </c>
       <c r="G73">
         <v>14</v>
@@ -7071,7 +7521,7 @@
         <v>14</v>
       </c>
       <c r="I73">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J73">
         <v>18</v>
@@ -7080,10 +7530,10 @@
         <v>18</v>
       </c>
       <c r="L73">
+        <v>18</v>
+      </c>
+      <c r="M73">
         <v>21</v>
-      </c>
-      <c r="M73">
-        <v>29</v>
       </c>
       <c r="N73">
         <v>29</v>
@@ -7133,25 +7583,28 @@
       <c r="AC73">
         <v>29</v>
       </c>
+      <c r="AD73">
+        <v>29</v>
+      </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74">
         <v>16</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>17</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>22</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>25</v>
-      </c>
-      <c r="F74">
-        <v>26</v>
       </c>
       <c r="G74">
         <v>26</v>
@@ -7222,16 +7675,19 @@
       <c r="AC74">
         <v>26</v>
       </c>
+      <c r="AD74">
+        <v>26</v>
+      </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75">
         <v>17</v>
-      </c>
-      <c r="C75">
-        <v>25</v>
       </c>
       <c r="D75">
         <v>25</v>
@@ -7311,25 +7767,28 @@
       <c r="AC75">
         <v>25</v>
       </c>
+      <c r="AD75">
+        <v>25</v>
+      </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76">
         <v>14</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>15</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>19</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>24</v>
-      </c>
-      <c r="F76">
-        <v>25</v>
       </c>
       <c r="G76">
         <v>25</v>
@@ -7400,13 +7859,16 @@
       <c r="AC76">
         <v>25</v>
       </c>
+      <c r="AD76">
+        <v>25</v>
+      </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7418,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>16</v>
@@ -7433,7 +7895,7 @@
         <v>16</v>
       </c>
       <c r="K77">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L77">
         <v>25</v>
@@ -7489,13 +7951,16 @@
       <c r="AC77">
         <v>25</v>
       </c>
+      <c r="AD77">
+        <v>25</v>
+      </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
       </c>
       <c r="C78">
         <v>13</v>
@@ -7578,10 +8043,13 @@
       <c r="AC78">
         <v>13</v>
       </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC87">
-    <sortCondition descending="1" ref="AC1"/>
+  <sortState ref="A2:AD87">
+    <sortCondition descending="1" ref="AD1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/premier-league wins/premier league wins.xlsx
+++ b/premier-league wins/premier league wins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOHD YOUSUF\youtube\youtube-chart\premier-league wins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2014814-4280-46E0-B31D-A87369AAE23C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4A9D9-6D6C-4843-8CD9-CF7CD6BD0663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CFDD3D1-0C19-49C9-A5D0-CF73A18EB609}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="173">
   <si>
     <t>Goal Scorers Premier League</t>
   </si>
@@ -266,18 +266,12 @@
     <t>Images</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/b/ba/Alan_Shearer_2008.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/6/60/Zarya-MU_%286%29.jpg</t>
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8d/Andy_Cole_%28cropped%29.jpg/330px-Andy_Cole_%28cropped%29.jpg</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7b/Ag%C3%BCero_in_2018.jpg/330px-Ag%C3%BCero_in_2018.jpg</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTEhUTExMWFhUXGBcYFxcXGRoaFxcXFRcdFxoYFxoYHSggGB4lHRcXITEhJSkrLi4uHR8zODMtNygtLisBCgoKDg0OGxAQGy0lHyUtLS8tLS0tLS0tLi0tLS0tLS4tLS0tLS0tLS0tLS0uLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAOEA4QMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABNEAACAQIEAgcEBwUDCQcFAAABAgMAEQQSITEFQQYTIlFhcYEyQpGhBxRSscHR8CMzYnKCkpPhFRZDVKKywtPxJDRTVWNzgxdEo7PS/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EADARAAICAQQAAwcDBAMAAAAAAAABAhEDBBIhMRNBUSIyYXGBkaEUM7FSwdHwQmPh/9oADAMBAAIRAxEAPwCiRvUwkoWKiAKQpRxIaHaiWqBxQYaOAKmjWoga7Elcjie1DyNW3loSWSmONSPesRK4TWjYY66jrIwlby8qPkwZF7iw+0dBbkdfuqfD8MY9oa+BJUnT3QFYnztalaDYskwzBcxUhSSt7aXAuRfYGxvaoCtWzh+BkQMpJYWBcBm7Nri+XTa/dzW1FQYZezli0W2ZAWDFTcZlcC6lba8r5TrrRtCuyjM1r/q1R9fVtx6oUcSIWde0jH31OhGoupuCcrbMxA7OyqXgGqshEkT8xobkENlLewyEBijE6Hc60yaEdijr71Ihpnjui8kURmDZlQ5ZRlKvE4bKyODoCp9MpDAkXssWuaGibehXNEsaHcUBmS4c04wopNANab4VqJCXY0jjrp0qOOaseSuJkbihZqlkkoOaSlZogc31qZaDD1Mktchp9E+Wt1H1nlW6YlYDFJRIkpWslTCalRdh+ao5GqBJa08lBnWaZqwGuK7UUAGMaGdqnZagZaKZxLBTbDppsfu/6+lJoSb2BtfTe3xpzhJmFgMh0sO0L/Fjp6Wpro7aNYYljs1hcHds6Df2ixAt3C2t+Vakx6qxOYHbNcFtdrNkBU7L7wYcwDelXEMeIxsrORoOyym9iM17krbfUE3A2zXWxpNKTe7E9w28lUWtbwsPCl7O+RbYuPrlu7I9jYFQVy33GoGmuwLDwFdQ8SsS99jfuNz2rnw0IuNtOVqW4HoliGOsRAIOrBdfTNcU2j6FSKO0SRY6DU7bA7ep28aV0OoSChxmFmJbVrMbMBcFFYFbgdoHQd99d7EZjY1jaVIypBJCsbN2bHKw0Fiulu4gnS4AStgJIcxaG4Oh962gtroQedxaoMThptXhU6rZ1HadMujta11Bt8SeWg5CyVdlg/ykGxOfP7UikrGeyI9mGa4vZZZl1GnfbaudKOFCBzljKKG6se1llYBmaSO47CjsrkJJDZh7pC9cOxrOQrFtWOVQfePM89bWJ+fdaIleZWw4VsQGKOIQyKkzLH2UMjnMgVgnZTL/AKTm1OmT6POb1yVvW5Y2QlHBDLYMDa97c7Ei/eOR03FbjNFjoxBajYXqELU0a0ExZx4ClkrbS1BWnNVSM7MeaoGa9csa1XSiUgzAa7BrjLWqkVaJesrKirKIm0WZq2Hrk1wTQRafAYklYZKFS9ERYcmmojuJo2qdDXMeHtUgS1I0OmbYUNLRJFCy0EOagXMwHef0KawjLa/mADZR4m183PvpRGDcW/Kp53tt7R7IA28/w50WFukMuj3C/rLtNJqmawXvJ9kX7gLaemmteo8L4akagKtrd35CknR7AhI0QDRLepHP1IverVhzUpSstihSO48Nb7Q8A7gfI6eld/U1OhW/8xLH4sb1KK00ltw3koJPy289AO+lTKsX4rDgI97i9wDY7glbDkTcAW9KGn4LdjlAVwJXtvZyS5G3aHWPYeDE8qZLhs5DSRqoDFlTRmN2JUyNqLgEdkFhfXMbAKXGqIjMFVbXJHZGYAXawBubC+4p+ESk7VnmXGOHqZATYsxa7WYORuOyCATbnppUvCWkWwiYI1hoWYMV3BXKGKg62+PcaI6Rx/vgD7JDDXYpcAiw0uMvPkeRrvgWHR7M6qpkW4J1GhUEZW0tctfbUkXuKdmZrkrXT3hsiSrMUAV1RHZVdVMwQlhZ1UhsqgkXbW5LXawrkbVZ/pAxR/YRLKjIoZjHHIzIrE9ljGVHVdliFBLaZrWB7VSVqZjRi6DlkqZHpcr1KktBHOLYxVqyQUMktdNJerRZCWM4esWulS9SCKqN2IuDhRXeWtiOuwKyyNMSHIKypclbpQ0IGrgLc121EYKK5qkQZGT4TC04w+C0rvBwCnOGgFqqZhUcLUMmGp9JCLUJMlJJFIsQSJQ0kdMsSNaDkFSRUEC11w+EyYmJQN2HwBBPyBNSEUd0awubEuRyRj5Z+z+Jot8HdlzXjGHhFmkFxuP1qaY8M6ZYZrLmt/MLVScRg5rkGFygBKqpyhrb3IBZjtoLc9RbVenA8QWDJG65ibK1zZRsSTew9T61JQ4ss506PZJsaAhbe1V3F9OurNlhzcvasbjwtTXh2HvhI1kAzlEzn+KwuR63qq9IOi7hwwsytrc+woAOjAkEm/p391KrKSsfYHpisuphcf03/wB0VYMPjVkSy6akEEai435iqBw7g0zxtmgw8JGURtDZJSSCGbsEKwBA7LI181r3BNWjhHCJ0t11iR7y7febUZJoEWmuSu9IsO0UrIScsiHI38S3sDbwZv7PwV8M4iqsUN81rgDYtlNrW5sNLEEXtsTerf06itEkh90g+eu3qCRXnzYcqVKsc+tioNwTmy5QNTrbQVSLtGaaqXAN0pxCSENa0lyDZrgprawvcANmsdtdxtVfpz0hwciS/tIpI84zKJAQStztcagG4v8AnSgiiWg+DQrdbArq1Cym0xXouBb0Jlo7DU0WJNKhlhoKK+qVrBmm0SXFXRhl2KGwtCyR2p/NFSzEx0k4jwYv9aypctZUqK2VpxR2CoUiiYKe6ElyP8G9NcPLVew0tHpidKO8TaNZZ6AneoGxNQyTUHKzkqIpzQclTSPQzmkHs6ijzMq3tmYLfuzG1/S96v8Awzh8S4iUoixqp6nKL/6KRxdixJZvZ7R3rzabVSO8EfEV6rPiFusqezKqzDymGf8A4relLNvaUx02PDgkYAFb253I+43oHHYNcwVVAPgLb9/313g+IC1LeN4ybL1kVg4ZTqbac7flUlKzT0XTDYUdWVI5AX8bj8KjOBUjXl+tapfDuMcSIBWNCRe4kfKrj+EAHUnmbDQVcIJJGXO4VWIBZVNwDYA2POj0dd+YRhMIq6qig9+UfgL0TnA3NKnxxWovrmbWlcwOIN03nVsLLmsMozDzHl4X5GkfR3o/lkDEjrRYi+42DWB3YZraCwA8TTzERiRlVhdcy3B2OUhvw+VE8Y4Msp621pQQAb2UCwve+m4vca71zk6OhGO62Uj6RsKVhszF+rxmWMscxCT4brXQE+6GRPDavPDHXoP0m48NKmHXZLyvt7cihYweYIiUH/5fCqSQK0RVRJTlcmwURVsLROWuHFBoKmRBaIgqNBUgFFAbsaYSSm8GIFVlJCKJgxVVjIzziWRpL0vxIqBMXetST0zJojt41lc9d5VlJRSxAi1MgrlBUyJU7KtEq10HNYBWiKAGbMlYJajIqJjXCEjvUTPULvUZkpqAds1eh8Ix6SYKIKwzRoqMvNSjkD0ZMrf9DXmjyUVwbFZJ42J0zZT5MMuvxv6V0o2gxlTPScPJQvEOMwxtmlLEclWx0Ft7kAVvDy1rH8CglGaZWOumViuncbGxrNHh8muyaLp1ghs8puNbhABz1Oe5qxcM6RRSrmjcOOY2YelU9Oj3CQd5b/ZJY29RvVm4NwXhwN4YCpvfN1khJPK4LEW8LVSVeoVHgePDmF+VBRxG9NB2VsNRQOKxIX9etRoLbNZ8rHS9gxt5Kb+WlB8V6axQBo+rLyDQoSLAj3WbUC3hcjuovhWJGY3F73B/lIIYetx86ofS/DgY3E25yX/tKG/GqwimSnNror3EcW8sjyyG7uxZiNrnkByAFgByAAoS9EzpagpGtWgztk2ao3ah+trgyUKOsJDVKrUCrVOjUKHUghzUBltWFqicUUgSYVHia7GIvS+tl6pZLaxl9YrKWdaayhaDtYVGKIArhF1oqOOolmzlBW2WikircsVGhLACKHlFGSChZVrkFoAkNQs1ESrUBSnRJkTGsUVJ1dSLHTWBKyy8C4iSLNuttfPTX4fKrrwx0kFnNv1/hVA6NL+0ZftRn5Mp+69F4qSSJrqfL/rWeUE3waYSaVnoUHDMPcEqPC5t91OsOsSi2nx/M14w/SOa1vxo7BdIJ2OrKg77ksaGxj+MvI9XxONQaA0ixmJzXCC5+XxpVgMTntfX8fCncC2G1gP1+dCqBbkT8GgKnXU6X9OQ8OdVLpmwGMm2/wBGTpzaJG1796ueGfMaIn4TBjZpMLKiiTqUkgmXSRTlykMR7YzKxym4t8qYY7mwZuIo8gnN6XYiOrzgehrYlnTDv+0jALJKAATcqQHVibggj2e6k/Guh+PgBMmElyj3kAkXz/ZkkDzArTLHKLpmXcn0VLJWilToQSRcXG45jzFdmOpDg4WpkFdBalRK5HEYWsKUX1dRutNRydgbJUbCimFQtSNmrHCyG1bru1ZSbivhDCI3plhhSmCnGCWmRhkw6OCuZoKYYZNK3PHRFTK3iUtQbJTnEw0MuGpR7FZw9cNhaejC1i4FmJCKWI3t7vix2UeJphSv/V66jwxLBVUszGyqoLMx7lUak+Aq08L4HEy9dicRHBh9s6kSPI32IcmZXI5kZsulxrpaIsPHho+tTByqjHJFCcxxuNYi/wC2KgtBAACxjA7XvCxCtSOOTA5JFW4TwuKDtSzocSWyDDoQxiDA5mnYGysLWyC9mK35gScRwmYW8aYY/icr4mMz4RcP9XgnkEdrAqsLsulhYB4108DtWNa1t67U4/D2lMD3plKx3D7arqO6swPCpnI7GUd50vz0G5+FPsVh+1ptyorAcXRR1brryYd3jWfex/DVjjo7w4xp2reJ/Ib03AzWGwG369KAwOK2vzNv16U2hiH4Ul2VjAKwyADSoej7l+Lgj3EynySNif8Abmy+YofivElgjv7xvkHj3nwH+HOpeAXwOBlx0mk84ywBvas12DEd7G8h/hVeelbNLidOfrwvi3/ghqsi4j9SvwzYP67iDi0Z4usnyZb9ljObOcrKbAXGl99qvUWExYUScOxqzQm1o8R2smmwkyl/6WsR31ROiXSZsFntCsiy5Q1yQ5C3AAbUEasbEHUm9qfycS4RKc+bEYKU7mAyrfzEOZCPMCvUz4pp9OuPivt5GCDVDXiP1yRcuM4XBik5mNlzDxUOS1/EWqp43oXgZAbJxDBN3ywmWEHxKgm3jmFWTCE3theOX/8ATxOSRv8A8lmHwo94eMp2llw0o8AFJ8gVA/2qyyhF8Ol91/JVNooeH+id3XPHjoZE5NHG0l/6VfTyuagk+jWYA9XiIWIvcSrNA2nNVMbFvSrpiTC75sfgZsNPzxOHD5T4s0JOvnnt30ZwufD7QcXZ/wD08Q8co9VkCv8ABhU/CSX+191Yd9nk46NzscsXVTm17QSo7WH8BIkP9mkco3HcbEcwRuCORFe/v0VwjDM2FQ31MmFZkIP2gqMCD/KWNVj6QujKvhWxKt1rRC4msOsKJ7UU+UDOQL5WIDAjKd7kSjB+7+Qxk0+TxyU1CNalxArnDjWsbPShKkb6usom1ZQofeZEutOsEaCSGjYNK6zA4jzCkURImlAYVqOD11k6ApoK6w/C2K9aSkcQNjNMwjiv3Bm9s+CBjVj4LwZXQzzOscQNs76rvYmx0c+6q6i9yQbBX5xvH+HxPnjgfFzLYCXEmwW3/hh1IjHgkaCtOHTTydJsWU0iLgPC4pCGjw2IxSf+MQmHw/8ANGs/antruMvhTA/WWPVRLw2RQbBJEH7P+b6u7qT4WS9UXpJ0kxWMJWWZQh/0Ud1j8MwOr/1E+Fqrc8DcwG8wD99ejDQuPfH5JPJZ61xPi/UOpXAT4rFKMqzfVZEhU92H7LFUF9AgGbcuSc1JONccxuFUtIy/XZlueyrDDYcHsxRpqoZ2zMxOb2VBzGxFI4ZxebDn9jJJD/7bEL6oeyfUVFipZZXaQyvI51YnVjpub78hVIaanyr/AJA5eg44Xxtp8WjYuXOjq0EjZVUrHPHJEb5FA7JlzXty8KJVpMNMcLidHTRW5SL7rDvB+RuNxVYjjzH+LmvJvK+x8DV54Ni4MdCmDxpKuumHxBNmB2CMx97Ya6NoDrYntTp1KPXH8DY8rg7RFIAw0FLJcKA13uAdjrb1/wCtH8R4bjOHE9fH1kI0EyDS38fND4Np3E1NBiUYXRja2oPL9XrxsmlyQVrleqPQhmhP5k3DH5cu+m2N4ukCXJueS7X8zyHjVfE75wkALu+iqoJJPgNb/cBvVt4T0UiwqjG8UcFgbpD7QzbgED96+nsjsrvra4ph0le1l+i82Ll1SXsw79fJEXRvo/118fxA5IFGZUfQOAeySp1Ed9l3c94PbTdL+kbYybNYiNARGnMLzZuWZrC/ICw7yc6U9J5ca937EKarHfRf43PvP8hsOZNV6rru8R8gN3tzJ5Cvd0+naanNc+S8keZKdnc3FFByxgux0smp8i9tvBR61wDiCN44b9+/zuSaY4fB5RbRR9ldPidz61uXDk6LIU8tPnWyvUnYvGGltdsRKR/CAif2nsDRXDuKfVjePEvGfCdiD5qgyn50NLwItqzlvM3rcXBIx7Z+4fM0kopqqX1DZceG/SfiRYdbh5f5lZWP9SlR/s06HTXCz9nGYFD4jLJ6jMqn4EmvO34LAw0X1BBqBME8R7Lll5qe71rO9JjfNV8uBlkZ65guBxFTieET9W3vRFiY2I9x1ftIfA6d1t6YcJ4r9ZLDIIcYgtLC+iSqBqGB3FjvqVuPaU9rzHgXGZcPIHiazDe/ssCblWHMEn8q9HlROIxLicOeqxcVra6hhqEY+8p1s3idPaFYdRgcH7XK8n5r5+qKRlfRTOl30bCRWxHDxbWz4RrBo3G6xm9hysh01GU2sK8tylSQQQQSCCCCCDYgg6gg6WNfR3DOJ9ehnCWlj/Z4uCxuwW+oG+Yalf6l32qH0jdF4sQVlhYCdlzRtumLS1wubYSjSxPtAgHcFcMsTbrzNMM23vo8m6yt1xY/Zf8AsN+VbqfhS9DR4sfUbxVvNQ8ElTXrONQdh5qtHBOHK0ZxGIYph03I9qQ8kTncnTTXe21wk6LcHE7mSVsmHi1lfyscg58xtr2lAsWBE/SPpAJ3FjkhjFoor6KLWzNbQuRz2A0HMnbo9K80vgZM81HhGcX442JkAK5I0FoYh7MajT1YjdvTakuKkW7Ag6G1+/QV19bU86KQLu3O5+Jr6XFGMFtj0YG3dsRSwX9m9cIrDvqwNJHytQ7sKdxUg2Bx4bPuK4m4WRYodfCj+stWg+Y0vho6xRM2bSUFW5SAd32hz86IjlscslrnZvckHj3H76Mkjvpo38J3oX6rYFbBkO8bb+ankaG1roNl06OdNJsMBHIOviAtkc2dR3I+tx/C1x4gU+h4TwviQIw5bDzblEsjeJ6s3jYeKV5STJCNLyRdze2nhRMGJSTVGseasbEE93dWSemi3cPZf4Cm/menYnpDguHZosFEss3svKTcXB2eT2pLH3Fst7i4qkcV4lJiHMs8hZtQPAfZRdlH6NzQc0dl7Jsdr7W/l0pY+DnvdZz5Xt8qpi06x+1Vv1BusnlIkIDlVjHuZgSx73K6DyvTCKQDYr4ailHUYwe+D8K6yYnmEPmqn8Kvu+DA0Oy5A1BPlUbIT7JufhQnD8HiWNljjvYk27NgNyxBAUDmToO+mkGF2LSxkkhQYosRKpJfqwBIseVjn7PYLa6VLJqcWJ+0/wC7+yOWOT6AVlZTrWSQJKe2o15gkGmc2GOQvdZEAJYrmBUAlczpIquouCMxWwsdaBCLbQ6HUHcehqmPNjyq4uwSi49ifH8LMesbOB56HyoZZpQVHWFlb4+IqzxtcZWA/A+NK8RgFvoSNbADcEiucPQ5SFuIzlgSee3jVn6K9IJMLIrg3toQdnUnVT+B5GxqtxpGXCx3bKSXbUi+wFzvzqXiD5bKP1ekcVJNSDZ7XxWcRmPiuF7UZUDEIN3jvbNb7aEWPkNQAbl4+DMphjZOrxAMmFZhdBLbO0TD7Ljti2o7drECqH9F/SURy/U5tYp9Fzaqsns5T4ODl8wvfVu4ZgzE0vDGYiw+sYGQ3uArBgpPMxva45gnlXi5cbxyp+XXy/8ADQnaKb/2z/y5/wC9/wAKyrx/nbjf/LZPiKyq/qsn9KE8Jep4VDHRWHhd2WNBmdyFUd7MbDXl58tTXErqgu7WHxJ8gNTQrcXcAmGFxcFesfQhWBVggtZLgkE3JsSARc38/Hp5T58j0J5VH5lk4xxK0SYSBwYY/ak26+W5LSAckBJyDu7RuTpXpcMp3ak7Y6/tR6+DMD+XyrqPEj+MeYDfdl+6vcxZMUIqETz5KTdsmxMLJqpuKPw3G2C2IuPGgPrA+2p87qfgRb51kQ30/XpVFLm4sFeo3h4lE5sVKnw2+dTgI+ivbwOlIpIDuBTTh0qS9luy/I99Whll0xWl5Bqo6bi48Kkyg30uPOxFcIjqQBckkAAAkknQAAakk8hqa9S6E9G1w6x4qYK7McrKy/8AdjfKDrrnDdljpYHTQEsuo1UcUbfYIxcmeXPEGFtx3HRh5GgpVnT2bSr9lh2x8NT6Ve+n3R4YfEkqLRyXdO4a9tPQm48GA5VWIhbQ6/fTY8iywUkB8OmKYuNxkZXUr33NczYBZO0hP8yWLDzW4uPKmmN4ZHLuNftDf176STcIliN4mJt3b1zcl3yhk0dQ4adf3cwbwJsfg1TDHTL7cYPpUMPFvdmTXv2Px501w0oI/Ztm8Dv5a0YbX7raOfxBo+JjnHb40XHi1PIj/Cp4gre6A3dWLlVlYjRWDEeCm5+Qp3aQnDH3C4nfFLghESlgzyEWTr4WWR3JKkSpER1IQe8WNwWuHWN4pAkYkZGmn+tGARjEENmSW5JXD2CnMhKgqe1Y3Oa7QdC5XTGSJNOjFmxSQxXXOp68SlrWuQ6jML30tbehemHBZZZuyFeSSaVYEVEQdhPrB655CWm0YgKoC3vci9j87Cpzub75NU/Z4RL0r4W4VZcHfrYpYY3z6zQ3jypGsrgZ4j1kZNzrcFibm1S4zDJEwmiTLnB62DdRIjFJFXuIYXFt1Za9Bx+KjXh2IlctGmIdgoDOzRtNJlcqHA7Sydc4yi2VFte1z51xaRYYocjs6l8TICQVcxSPHGHIPMvh5CD+dV0rccqr5P7X+AS5gyThmLSYXjOg3U+0hP4fKpsQug01ufkpAHzNVl3KusqHK5PZcfupv4W+yx5g1ZMFjFmjzKbHmp3Vxy8ede1Gd8MzSVcixJo4wUJsygZr8yRew8daXAM7Zjz2A3t5VJjJoAzNIGd8x0LEbG2tra6UKeJyG4QLGp+yLE+bbmknNXTGSC4ZSrNnuumg5jx01U/A1b+JdPsTM2HIEatB2lkAu7MUysWubZSNStrXt3VR8JDe9/M0x4ZKFlRyMwRkJX7QVgxFvEC1vGklCM+WroN0Wj/PTiv+sTf3EX/JrKun+dmD/wBYX+9k/wD6rdef4v8A1L7FNq/qPMOm3FMOk3V4MghFy5gAdQ7H2veaxW5FxfnvVQkzvqzE0wTAZd9aliwRbRRW2GnaiovyFc1ditIlFddaopy3CwvtsF8/8KBn+rLu5c+AsKLx7V5I5SsCbFD3VrMPiipv37itYjFJsiEedCE1lnlafDseiw4biUTeBrMSgvmXQjUVXo1plh8UVFjqPuq2PUOS9oRwro9F6C4uDWeWfqpEJC2YBgpie8iKUbrWzEJk0tcm50FXNulGDGUNiSxDlnt1zrIM4F5Cka52MY9kjJfQ3AFeKYSaxuvrTWKW9CekjmlulJnb3HhHoWP4/gHjYMJZnyOIy4cshZQBcyyMM4IuWUAd3caQG3rhGFaDa1pw4I4k1Fv6iSlu7JbmuOtYG9r10GrtJRfWrigeKCvoyetKpMCU1Q2qzjKe6o5sKLaUrSZydCWDih0WVfJuYpmz51uGBH2h9xFQz4EHQihDgXjN0Nq5WviHhlgiaKR42lIjnjACuXZElQaLeRQTDInuyEFdgw0FWiHG4gM0j4dJXZOr618K8sjR2sVaXCM0bo3d2B3jv8/i4jbSRLeIF1Pp+VTpCjarkcfZbX4X1Hka8/LoFKVwlXw/x0VWTjlD3i+NUoFxgRMqlEw6CNerF/8A7aBC3UlgP30xDLqFU3sa1iMcJHLOoUEBQq+yiKAqot+SgAeO+5NFrHEByTwawFQzRJa6kEeenxq+n0kcT3N2xZZN3ApmwTJmMJVlb24W2Yd48fmKUjGmJiY8yg7q2pBHcba/fTrF+Gh5EUp4piGy9oLc6X512oiox3J0GLvgIxQWUCVeejeDd/rU+FwWnIDvJufRR95pJwzElSRyYW/KnnDMXpbY7UmHLHIk32CSa6DEgyqxtbYDv17/ABrMHHoT3kURL2gByGtu895qdo+xWxIjuI+qFZXfVVujR1hA4WVFmFifG9b6oRiy78zTDFTaLzuN6VzTc/Q04ltgc+FD6tqb0M8QGiqPhWsdxEDz++kWJ4u7XC/Ks2bNCHZWMZMlx4tvalMj3rmWQk3Jua4rx8+fe+FRpjGjsPRuHa43qF+HuqZm01GnPXv7qIhiUL499dp7crOkNeB8NmxEoihXO5ubXCgAbsSxAAH61tTbivCp8K4SdMhYEqQQysBYHKykjS4uNCLjTWheg3G1wmMSVj2CGjc/ZV7dqw10ZVPlerR08OJXDYZXyzYeMgpigxaR8ylVEpvbtAjtC4YqNQdK1xzyjkUfJiuNo74V0Ex2Iijmj6gJIodM8hBKsLg2VGtpSvo5wx8ViEgVgjOGN2vYZFLEEDnpXqnR3iAig4RFmH7XDrGLbZlwqSj/AHPnVL4Xh/q/SER65evmI8Vnw0kq28B1gX0pcesySU/gm0c8aVA3SfohLg+pzSpJ1z9WMqlcraWBuTmvc93smnPSHoAMLhpZ/rJkMYBy9WFB7Sg65idmvVm6QxDFKYwCWw3EMG/9DtC5PllmkH9Jqbj2K67C8VjAuY+sQDx+pxSj5t8qz/rcrrn5h8NFI6GdF48RBJisTK6QxlhZLXORQWZiVY21sABe4Nb6adHIsPh4cVhZXeGQqLPro6F1dTlB1y2IPeNtaz6OOk5hSSGWCWTDFixkjieRYiVGZZAqkFMoDHW4udCDoT086LQDCjG4OQmEZP2YYvFkdhGGhubx2LC67AXsBax0PLkWepSpX9KF2px4QN0l4PFDwrD4tCxklWIuS1x+0hZzYWsO0BXH0pdH4MGkJwylc4mzZnd7lRGU0diBa7bW3ozpEobozCb+ykA+DmH8am+mOxwuDcc2Yf24Q3/DU8WWe+Kcn2/7BaVMe8Q6CYNsK4hhtM0JaMl5GOcKCPaY8yAfOqlxDg+FHAYsXHCiznqby5f2hzThGu2+t7Vc8XxkQDhUpIyzMkDHu6/D5l/20Sl3T3B9RwfExAaLKrL4K+OSQAeAD29KhjzT3K2+0O0gPou2HwfCf8oPCksrM1y1r2OI6hVVmByDQE23N6SfSQMNiJIZsC0TMUYT9WVtfsmPMV0LWLjv0F9hRWCSZujsXURddIJMyx5S+cpxJnsVXUrZdfC+1LvpnkH/AGOHRWCySuq2Fi2RFIA2F1mA8jVsU349+dvzFa9kqv8Akedj7FhzLEACg8YI4AUBWRm9oWDD9ClowzObBnt507weCjUBcmU73JvfxJNepcpeVEXwU5t7jTWjMJPZr6b919KYdIeFBDnU2DcrfdSbD6tlAJJ2A1v6V5coyxTplk1JWW7CYi4HP5D4f40yWQdWf4msPxqr8PxFrA+lP8KhkcAC4XT47n8K9bFO0ZpxoO7P6FZTLJ4VlVJWJo+KIwyODGb7gErfyG296FlwUkmkbxsO8ONvEDtD4VbelfROOdfrPD2Uq1yY12J55PsN3oflsfM8RM6kxTXXKbFXGinyYdmscdYmuS+yh4OERRdrESoT9kkH4Lz/AKreRpZxLGYYrZSbcgBp8rD5UA+GQkkByv2lFl+6hZogNvnU8ueVcJUUjH1B5bE6U04Lw69pWHZHsjvPf5D7/Kt8N4MW7UlwvJdifPuHzNPm2/XKvJlIsK+JR3QjyPwINBQYW63v+hTeQa1mDRQpQDUG/mGvzrTo6lLaxMlpWK5Ettp3HfUd4O/lXpXD+I4WbCTjroooZITmwxKr1E4U5jCCblWYKQFFswuNSaopVSWuOz7N+82F6BkwFtcwC1pz6fdVCxl6l74hxxE4dwyWOSMz4aSBmjV1MgEUbqwZAcwB6tBt7wp30q4thP8AKeAxkWIiYBkSXK6nq0DjK72PZ7E0l7/Z8K8fOI1IXaioJ82jAjxqcMMbq/X8jNntcPTHCR8UnYzoYJcNCTIuZkE0LuAvZB1yNfTuFBcK6dYJJ+JGWRurnkVossbsWXqeqbS3Z9lfatvXkrxsK0kTGn/Qw+IN7Lp9HPTmDBJJBiVYxS2YlRmyvkCOGW/aVlCjTUW530L6S9OcCMCcBgEkWNjclwQFXrOtYLnZnYs2mtgATbkKof1K+4qN+GDlTT0rc9xykqovPRT6RcNDhTgsZh2niu2XKEYFWfrCrrIQDZySCD3aaXInTnp3HjjEsaGOGK5VWIzMxAW5y6KAoIABO58LUqXAsNQt/CuY5o1/eQn5g0ixbZ7nw/rQbtUW/jvTgYnB4bCGMRfV+qIlEhZmMULQg2yDL7Wbc2sKZ8e6eYvHQPAFw2RwubKH605WD6Fntuo92qQkeEfaVoz3Otx8RXY4JGdVxKeYtf8A3hVI4Y8Uk/qCx9wfpRxHBxmGLOEJJy9WHysdyuZTlJ3ttfW1BS4eeeQyz587as8pJkbuAUcuQFgB4UGuPljFkxpfll6vPfw7RNTjEY5h2j1anmEVCfPKLj41eChGV7efoK79Ri3VQDt2XwOrHxPdS2TEmS5jGgNCzcNK66lhrcm5vvemXCput7LWDAgk94219ba1e23T4JtUrNYhesgK321Hgw/OqnHK8Th42ZHU3VlJDKRzBG1Wx1aCSxHZPwIqv4rsSPzUNex2NuR8Kxa6FxTHxOgqDGZCVa1r727Q8qaQ8b0CRDKDpfdiT3eJpViUAkawFsxIB2sTcD4EU54T0kGEIaLCIH+3e3zC5vS4rHh1s0tvoaMumS9pdMO/yRi/9Xxf91L+VZUv/wBTMX9mD+7k/wCbWVb9XP4fcj4S9Bx9Gu+K/wDj+6h/pH/fxf8At/8AFW6yhH99i/8ABFJwvtt5t9wofC/v09furKyq6j9oMOx/UUlZWV5JYHeusJu3l+dZWVfR/voGT3AWb9038x/CluI9j1/KsrK9XJ0Sgc4KrI/sDy/GsrK7B7oZAQoqLasrK0xJnT7UIN6ysoy7OJE5frlRE/s+larKAUVjiO49fvofD+0PT76ysry5/ull7pbuB+0f5jT7Efu/SsrK9VdGeXZXRuKh4d/3hv5W/CsrKEvIZ9DvpB+6Sqhi9jWqys2r9wXF0Ez+1/TH/wDrWt4j2fWsrK+cfvs9p/tL6AlZWVlMQP/Z</t>
   </si>
   <si>
@@ -498,6 +492,63 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxITEhUREhMQFRUVFRUVEhIVEg8QDxUQFRUWFxUSFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGhAQFy0dHSUrKy0rLS0tLS0tLS0tLS0tLS0tLS0tKy0tLS0tLS0rLS0tLS0tLS0rNy0tLS0tLTctN//AABEIAToAoQMBIgACEQEDEQH/xAAbAAABBQEBAAAAAAAAAAAAAAADAAECBAUGB//EADcQAAEDAgQEBAUCBQUBAAAAAAEAAhEDIQQSMUEFUWFxBhMigZGhscHwMtEUQlJi4QcjcoLxFf/EABoBAAIDAQEAAAAAAAAAAAAAAAECAAMEBQb/xAAmEQACAgICAgEFAQEBAAAAAAAAAQIRAyEEEjFBBRMiMlFhgVIj/9oADAMBAAIRAxEAPwDPy9EI1ADDiB3srbf/ABM6k06gHuF57G4KSclaKl/S9w/gGLqkVKDCBYtqGAMw0Imy6HA4DiGGq+cK9J+e9f8AiHAif7HAyFhU+M1gAxr3gAQADAA5BZnFaf8AEWqvqOHLO4D4SujDk44fjaGUl+j0PF+OsIw5X1KZeBLvKJqgH3FvdeYcU45QfiXFnmP8yDnqPDqgef1DoOgVR3hfD7Zu0lSp+H6TSHAGdtUcvLxyjVMjki3n6olN0wALqLcIBzUm4feVzo9bsQ1cTXZgDTrPruDjoykGumdWnMIWVx3xlh6z21HMquADh6qubsWtEBpsdEsTg2VBDxI681l4rhWHH62tEfFdLHy41SRZFo1avGGVm0nNc5xbTDHF2sgkgdbEXTCv2WLQxeHb6Ggjrsr1HEUnWa4TyNlkzQk5OVPYrTLvnlJ1U8+yE2l1UnMWZpC2yYceqQqqJBTBqFECmqIUS8dFAD3SLUVRBw5O5wQzT3TQpohO34EkKOpSUpENRlEJ/LCZr/ZSa4lVeCEDSUcg6opP/ihKayEcqWWU5SgqWQYtTBinKQMwLorfgiVmNxXiTmHIwS7ZY7MKakue4zOk2Xo7PDNH9bzcgFVTweg0nLfuuliahHSOrh4yStnmnEyKYyxedRpCz2Yg6/ddj4vwdIMJaL815+58WWzHLstlOaPVnQYDi7mOBJkSBrYSu0whFRgeCL7dV5WK913Xg7EtNNwBMgiZWbl4o9eyRlyRR0IoiLp3YblqotJSfUPuuU9lQjhzsoOpx1Ug8pnTzQohFtNT8jqoF6RqmUSDeSkl5h5FJQll3ywonuiJFqrZAY9kgJRGt1SNMqJMBFoCQaCncxRiEQjZRujYLIx4c8+gGTPS6HNlKnSzkMMEOsbbHVWY/wAkPD8kb+I4lTqD0tzA8tANrrDx7SB6SB0m6yfEHCy+q1uHcWBoymCYMbwhnh+KzCS2BvJ0XQaVHc7SOf8AEVaoZBByrlqtDcLveKwWFpF/uuawuEZd1TNlGw5q/FNJbM2bG5SRzz2Qu18AUjkqOIsSI9li8UwVM5TSDhLg1zXaydCvQOEYMUaLWCxA9R5u3ScrMvp1+zDyIdH1YapTTNYiHvqmK5JnIhqY+ykT0UCOf+UrsJF45JgIRWtCdzgmSADk8kyJKSNEDHX8spiSpj4J2GDqkpkAhp2TvndFa8blOHCNVAorAHVPCO54US4IAINpnXkptL2glkZogTpdJlRTY6U0W0x4Pq0zn2Y6uKwzMazKYzAmHD3TcW4lUzGJA5IvF6LDWlr64kAlpAyTvBKpY/ENFjy3XUttI7PdpbM6pXJuUqTGvBaXQPmVSxOJ5IeHeSU6iLGds2eFcPz1gXfppwf+TtAuo6SsiljadJgdUJaHGM0HKCP6jstLD4hrxmY4OHMEFYc6m3daOdybeTZMkqN+anKRCzmcGXHdN1KIFPKpZCuSmKO4gclHMFLoAPImRc7UlOwdE991Mi2qDmSa5LsUJ9U881DOEs87BQJMVAFBx5J6boVbinEW0mydToE+LE8k1FEDl0C6qVOKMba/wsstvEy4ZjbogPfN5HuV6PD8ZihuWytyZoY7xG+IDAdgVyONxj6hzG14tpPJaFa15Wbh8c1mem8HI4zm1yvj6KZeMoK4m3HnlLTZOgCUemyFWo4lo0cCOcqT8cxplxnlF1k6t+jWmluzp6OIYKLhVEsIvNxK5Dh2OfSdLCWiTAmRlmwTYziT6oDRIYDMc0OgFswYdbMnIyKT0dxgOONeBnseey26eUiZB6rz7DPdsI7gLVwmNc3cfRJl+Kxz3jfVmPtTOtzRuhOeStHDcOw1Sg2qzG0Wvdbyqn+2M/8ATN/osqrSc0lrrEG9/mI1HVcTPx8mF1Ms8okTOyZwCG4nqmLiqGAlISQcndJCiFxx5JgU4CbMhQCeW3dIshQc4pg8qLRCbhG/suI4vjjVe8z6QcrOw3XS8dxnl0XHc+kdzr8pXB4XEgnKedl2fisK3NhNBrzEcoTBrjqVNjJmOfRXa3D6lPKHtc3MAWS0tzN3LZ1GmkruePInkq5ZkLMxbCFu1aBa2croOjoIaexVSt2Qkk0SLo5t1PoESnS6BaopA7QmbRE6KpYyzuVKdFXGZWiZCt4bhtSr+im90CTlaXH5KrW4a8Auh0AwSWuyg8idArHcRfIanWa7QoVfEZfsqLSGy7ZJ5BMnlZTuydUW244yGnlfr0W1w3jrgWU6hlmjHfzDoTuFyD3eqRorbasiPdU5YrNHpILil4PSGOBH5opHTZYfhjGZ6eUm7THtstl2i8vlxPHNxAmP5YTocH8KSSmSyz5ijmko4pqBSpshCbpXTnqmJITfwJzfi2vJZT/7H7LiNHnofkui4/is1Rx6x9lgV2w/5L0uCHTHFDI2KVUwALRuV6HwvxozE02YPH0WGl6GsqUyWVKJEDOJm685wrvSrLXWB3W1bWyu6Z0/jDEuFZ2FBIpUHltJkyLfz9S7Weq5uoU+JxTnuzPcXOMSTqYAAn2AVZ7rqeFQLCgJmhQbUTF6bRD1T/TIvp4WvUBMF9PLA9UgeqD2IXR4zEuFOsSMzfJLixzhVpvEHQxqF5r4Q8YU6NP+Gr5mtzZ2VW3LXGAQ4biy1+PeOcMxlRlOo6s5zCwWDaeUjUqZaphieTYupYnSTMbCdlBtS10PEVwRHzQ3usFlbLaJMdcouHqRf2Vaii0xdROgtHUeG62SrH8rxblK6oSuG4XVIc3oQu2uFyPkcfXImvZT7J5DySSzHmmXPtfsJezfn3TEpEqAJVSRCU9FX4nXDKTnmBAPz0Rb+yoceZNB4I5W91dx1eSKYTiXVA599NVT4mwhwPwKepTMnL8J+iqVid5svTt6SGSNTCmyOahVfBm3sp13QFbdIT2S82RIQqL9kKkbKBS9g0Xc0XKE+qquJrSAEE1SFOwVEs16un5dUqhupVTIlClVSbY6QN6lUOiZ6i4pAhGGAiU9boTVap0bSnSA2WqD4K7rhtYOptMnquBpuXUeGcROZnuPbVZufj74b9oqejoLJKOUcinXAoHZlxRhECYmyrsINzVneIK2WiepAWsfwwsfxLgvMpfqy5fUNIPILRxa+rGw6OQrYcFZuIpOGtxzU8TWqix26Kq7Fv5r00pJjxizSwB07J8W60IPDakwiY4xZO/xE9g6WyeoE9MelOUKCAIlAe3ZWCFGoAUrQyK7DBgqDhCnUbbqkbiUgQLlEp3JoSjB6RAvvyVoVJsqFN8Iza3T6plJCss0mA6lavBsRkqNO0wex1XOisZsr+Ce4kNi5IDe6M2pRaYko6PR/wDskqXlVf7vz2TLk/RiUm3GyZrUTKJ36d07rLk6LaIEH9lj+I3ltPY3gg/ZbbXDVYXi1wytAHMrZwF/7InU4LHPcf2VBy0MVqqRbNl33Vlq0X+EsNj1T48+pXaGAfQLW1AJcMwg7FZ+IdLp6lOpJxTRX7DUtE8KDESUxATgq83RwZVesEJBQ7vqgNsY5p8yes3dIEG8IYKMbiUFyRjkqbJPJaAosAuf8rPpsJ0CIaMfqPsLp4uvQrRYqPYLMA7q/wCG6AdVDnuAy3Am5KyabY0aT3V/A4dzntEASRMWckyK4sEvB31ufzTIf/zm/wB/xSXI6R/6KaNwXTbqJdATNK5vUeyTj80wwrXyXAHlIlTmRsieblpuPNaMFpto28SKc9nD8fwNOTDQO1lj8B4WX4hoglrTLjtZaHF8UXvyjWYA6rpuC4DyaYbubuPXkt087x49vbDy5JeDD8X1PW3T0sPzXLEaLd8X1JquHKAsM6Lo8ZVjRjQRqIFBsQpNWlAK8kFRqPkolVqDCUZAi1SYZspuahaFLVBINsYUagRazZuEN2iVhQ1NxGhIRW4hw5fBCpiSArdTCubq0juCFLoNN+gJquP+F0XhvhVQuZWLoa0yOoXPsF16RwWllpMb0CyczLLHDT8lcv0XPO/IKSJkHNOuH2l+xaC5Eiil351TNCQgNqHxNuWnrsVco0iSFHi+GJB7LXgWjp8KFRbOM8PYLPVdUdo2w7nddUEPh2EDKYAG0k9VayqrNNzmYcrcpM818Rvms7/kflZUFYx0uquj+o/VCe2F6XEqghBmBEBQ2ItTmrQDOGyrFsFWJUalOUAgw1QexEFtVOyjQSq3cIGit1WRdCqU5uq2gpjYNk1GjmQu0xbfTcbLmvDVDNVHIXXRcTqXjZYeRL7kkdDjxqNme3CNc4CNSuuosIAHIALB4NRmoDyuuk3WHkyvRj5L+6hsjuaZEkdUlkooLjTsmvP7JiCiUNRNxN0sVbAts3OCYKGGo4a6LPx1UOLo2lWOOY9zKIDZFoa1cxSpVG0nF7jmc76roRSSO5BLHGv4W8I8lo7fdTqO9JvsUqDcrQ0cvmo4l8Md/wAT9Fi8z/0482nJ0ecVKcEnck/VCdT5qzRcDqpPC9ZGP2ld7M8NgozL2RHU0M2Uolg3MhOFOs+B3QKTtkAoIWSoimpmyWcIslg3tsq1R0WRatRAylzgBeVXJjxVs1PD1YNLtLjXkjYjES4mfe8I2O4cBSblEOA237rMdWkEQZjTYLH9s3Zrl3xpL0dN4YxIL3s6AhdGVwPhXExiB1BC74kGFzeZDrMxzlcrIpkTy+idYxbLbUzXXTZPyUmj3SJ0wrTsDx7igMFrcwYZc2YMDcIYxNKvTY+m71B3qYdQOqhisBcvYYJ1abtP7Kpwrh+R5LmZf6SDIHSFv+rBwb9m+WeMoWnujZNQKGKLSx2n6T9EjCiR0H5ssSlTs59nm1J0SPgjtEo3iyn5Nb0MAa5oOls24BWQ3irh/KF6vBlUoJkcWaDiokSqJ4oP6fghvxw2lWOaB1YVx9XZCJuhtxTZ3+qc12JL2NRZp1BoUntHNV/PYl57UbJQqjhouh8H8KzF1UjSze/Nc0+oOS9D8JiKLWm0tkfErNnlSNfFjctixuFMaLNqcIDqdSB6shLe41HwW9ihcwdFUw7hmBJ/NFz4Nx2dHJTRxHAamWsxx5hekgDUQqtPh9FpltNg6wrB11/ZZ+XnWRql4OJL8mSk8gko5klksGjRDoUTUAP5KHMpBvxVYLDjrKgIQ84G6kABpqpRBPA7pmxr1STZlLAZn+oYaMAz0gk1fS7cWuPdeXL0HxzxAfw4oEGS4PadhH6gV5+QvS8d9saaLY+CAanqCAjUadpOir1nSVc9EIBWG0HckGk2TAV6m2bFxB+qMVZGANFw2UgOw7iEd1Mj+b5oDwP6imoFiDMxDfSJIHxXf4chpFIOBLaYkheeOeORPdaXAsYWl55t37rPnjaNPHyKLOgdiKnqglCpkt8tx0JQMDi8zjPU9NFPh2CfWy/0g69lif2rZoyZkjrm3AjkE7qai15AGimKk6rlyezmPbIQkngc0lLAX/K3SLFDzDCfPzVYCDRCcu/OikX20shgqeyBA4Dsk5vXVDLfgmd3Uohyvj6l6Kbv7iD8FxTXc16L4uoZ8M47sId7brzgc13OBO8Vfosj4FWqzbZCSTlbWMEwkZhK030jFyO6zMLGYTorrSHEgyBsFZCqFYMtaNyUzqp0DR901Q8rD5oRBPNRkQz53U8E05wBvb4pssan2W74QwGetnIsy/vsqMslGDbDdG3wrgRYXZyCC2BHXdbOEwjabA1ugVgCEsvX5Lz+TM5+RJSb8gnhRARixRulQovLSSzFMiHZeGqlqma8KTZ91RQFsY8kJzEUmLlO14/dEKIeXZRNBEt1TFh6piFLiVGaVQc2O+i8lI/ZezkAi/YryTimHyVX0/6XEfOy6fxsl90R4lEBM9THNDK6o5PDtlwCvVBuqGHPqCuVXSnj4EZHzW8iSh1Kh6DsimqIuEDyy46KNhGpMkr0TwjQAoBw1cST7WXAmAMoXpPCKYbRpt/sHxIkrn/IOsaQrNBzVFzOX+FCU7iuJ1BYrpwhlxCfNaSikQnl6pIOZvVJN1CXct9FIO2/IUg3dTc6yqFoGJ5ypKD3pOeUCCMzt1TmRoVDN+dU0lG2Qm06zdedeN2j+JcQIlrCe8H9l6E1cP49w0VGVRo5uUnk5uk9wVt+PaWX/Bos5R/JDKm5DK7tjkqJuFbcqTNVoAgCU0QMr1LKJe7mmLpunBnXRQhZ4bSzPaObgPnJXp8AAACwA+i4PwnRzV2uIsyXfYLvmvC5HyM7koiN7B5O6RdtdElM5c4FAZKccpU3sOyZzY1hNYSMDokm8pJSwGm6paFEOm6cbylCo9EsZ7hy1UcwUgzfZIsH+ESEX8lEgT1RS1RLEbICgrE8V0s2GfacsO7AG8e0rcNM9eip8UoE0qjRqWOjvCsxS6zTJWzyt6E5TKi5ekLhm6q082hV6Yui1Uy8AEWDc+yiL9lFTYpYGdP4Id/vOaN6ZIHVtz8l2JELiPA5jFsPR/zYV3AJXK+Tiu8X/CsRO4Sn25JBOG/nVc1BQp3ukQCEn07aqGUjqjQR5bzSUYPJJQBbafdHY7ogjREB+yoa0BBhU6J3O6BVn/dPTUCWZHJOKjVXKVHVQlhS8E7ITi3dQf8AdL9lEQ8y8VcO8mu6P0ulzfuPzmsQrvvHjR5dMwP1FcE7X3XpONNyxpssSC4VnNatLAh4sbrPYtng36h7oZJteC6EUzIrYUtMFO3APOgWzjh6/dW6GiCyvrZZ9JWyt4Ywj2Vg46Q4Rv6mkfddqR8Fg4T9XsuiO65/Nm5NWUZ4KLVAlIu7JnbKFRZChCz3TuOyg/VOzVGgks3QpkRJHqQ//9k=</t>
+  </si>
+  <si>
+    <t>Last Team</t>
+  </si>
+  <si>
+    <t>https://resources.premierleague.com/premierleague/photos/players/250x250/p1.png</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>AFC Bournemouth</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAkGBxMTERUTExMVFRUVGBUVFhUVFRcXFxcVFRUWFhcXFRUYHSggGBolGxUVITEhJSkrLi4uFx8zODMtNygtLisBCgoKDg0OGxAQGy0lICUrLS0rLS0tLS0tLS0tLS0tLS0tLS0tLTUtLS0tLS0tLS0tLS0tLS0tLS0tLS0tLS0tLf/AABEIAL4BCgMBIgACEQEDEQH/xAAcAAACAwEBAQEAAAAAAAAAAAAFBgMEBwIBAAj/xABDEAABAwIEBAQDAwoEBQUAAAABAgMRAAQFEiExBkFRYRMicYEykaFCYrEHFBUjUnKCwdHwM5KisiRDwuHxFjSTlOL/xAAaAQADAQEBAQAAAAAAAAAAAAADBAUCAQAG/8QALhEAAgICAgECBQMEAwEAAAAAAQIAEQMhBBIxEyIFQVGB8DJhcRRCoeEzkdEj/9oADAMBAAIRAxEAPwBBxNzxbggbTWhcLYN5RpSQ3a5Xp71r/CKPJrQuSCjFfpG+GQ6+p9YOxXCYTtWd4hjJYWU1t2ItgpNYjx7h/wCtKgKBjYXRh8qnrawRdY4tw71Nhl+Uq1oPbNRRO1aBIpzr7YgHPaaHgmJFQ0o7buSZpcwK2hINF3HMgmlfJqUCKW4U8UAzNWl3QjQ0mXGIkzBrqxulKBJWAkTJ321j1ojYoouT6wxiZzggamhlhhdwrUJKByK/KD6TvVPEMeDZhI+JJyrJAyqmIAj4tztRO2Wl5GUvKDhCfP8AFznzHSRqRtqNNJrarQgnezL1ndJQopU4FFMZsoUQJMCTEb0VTctqToQaXrbDYSVJW2SoKIyqGUqjVBSvaTqN4jXvFaZmm0jwfBcW7lWEnM3nzAmeYzIkgjSRyFcbEpm15DCGcP8A/cZT0rQLMDKKQkN+dDkEKSQhYJJ5aQdinuPfenW0c8oo+NKSKcnNbAy684AKTuJnQpChRLiG/wAiJmkkYh4unejEDHj7GBwk5noQM1mSK9tMUIXE0ZetBlpXdZyux1pPsHEqDtjIjpaXJUNDVPHMILwgmosDV5gKcWrcEUAN1aN9eyzJHsFLKvetD4aeAQAag4isARpQ/DXCnTpRMh7C4LGApqPgUFJpTx6xBCqIsXpAoXit2SkzWMSXCZD1FzMRCH1Ada1jhS+8grMTbZ3zHWtGwK3KUAVrkIRqA4zg3cbn8RhNJGMcSZV0wgEiDS5jeCBaSY1o3E5PpeYLl8T1RQlRjiuVRNGsKx4KVBNZBfZmXSk8jTXwi5mWDTuXmdl0Ihi4ao25teHXQIq0ViguHiEj0qcrNSmJJuURj1MYThSlLBArQ+HrdSUiar4ZZjpTAwzFTMvMbIxJlFcKYUCiSPCRSTxTw+HUk8+VPeWq1ywCKW9du1icRh+kz894nhymlwa4tlEEVpXGODAgkClG0wkkzX0fGf1cdyXyFGLJGPB3zlFS4u4SipcNw0gCrtxhRIphOLuDyczVRGYSqY3q/et+CyStRAVoPXlHuRTNY4D5pihf5ScPKW7YiYDpBHInw1KH0Sr60HKrK+4xjKtiJic9fgJ1zH6THLTX+epr2xxd5XlbmNNtNfXpVVLWY6mKN4Yy2kgSBQWyET2PCGhbhZu5SSHEKW2pITAVCQByIMyNdqMYlcNJ8j6QG3BlWSBClApyqOX4SIAzDUaGfKKnwhoQIWD2nt/4qlxRYKcEcxJI6jt9KGMpvc22AUa8yRjFUF0NodBGaAgxIg6gdvi02AMcq0XDpKR6VgvDtuE3zUdVfRCq/QGBmUCnFy9RURfjh9mLXG9ustHLSpwtbEnzVq+J2YWkyKU7eyDbunOg58xcVD8PGuN/5kr9gMtJ1xgS1PTyrR1gRVBeXeknyFBqP5FDCB7DBygg01WNvpVdlwFOtEMJuEmRWsF5BZgXy9BUHYzhuZMjel+yw/zGaebsiKXAAHCeVbLke0z2MdzchXY0ExnDlwYpuQsTU6rYKFD7sp1GiwqmmNWVuW7gZxoTWh2twAkRVbiTAwfMBqKis7RWSKaGQMNxP0SD7fEPNXCSR3qzdtpyGlhsrSsZhpRh258tDK2dQ3YAUZmfGGCqcdlIqHAGXLdwZgYrRUW4WZqLEsLBTtWgxGpw4lJ7QzheIIUBryq6XxSPgKFBwidBTLBrJuboCUsFdkUwN0g8O4oJiacWL0VMbjkNDuwcXCQrh6oF3ietcruARQcmLrBqpgPiDVBpawsJplxwgoNIuHPnxSnvVX4blpSDAc/D2oiaHbITlFELe3B2oFbJMb0z8PpnerWPMKJEjZ8DLVyyzhkUg/lZv0tpat8hK15nUq5J8NJSQRz0Wfp1rV0is4/LJhYU0zcc2lqbP7jydf8AUhA/iNAyZGYG5vCnQjepgb7roUDrBJ36cqasJwR1+2LiFQsEAA6ToefLaqFwGwdBr3p44PvmEW5StxCDmEFRgHQ8/ekshNalLCovcQWMOuvGCS4EKmPOpX4c/atHwNl/JD5BIG4JOnYnWKrO4223c5HNQrzJJ1BBO6TR64xJvLlbETvQXYkbh0QKdRXOFpZd8QqQlZcPhlZ0CToSlP2lebY8prQ/ye4oty2SXfjBUhUCAcqiJApPDTdwMiyCULJTB1zRonbQGNfanLAR4YCR/ZOp+pJreMknc5kC9KAje4qU0t3TPmmj6VSmqV21pRxgLSa2YI0FiSKDXqlJMUfaUBQfElDMTQ83H6eY6nI9QVAd5jKk6TVnCcbyigWLKlcJrhLKhrRcBVBqLZsbMY4ucRSK6slles0mISonWmvBHNqFmomxHOKpRdwg8kpO9GLF6UiaGXgMVExiAGk0DrcK5B1L+JxFfWDIKaFX99mEVewh6Ewa0qme7DrO8XtBlmlW5fUBFMuN3XlpJuHFEmn8VBdydyLLCoQwfEiFQaYLm6Ck0jqJmdjRu0UpSJmvBU8md9R6oSS1UEKPc0TF0OtKuIvKRrQ79OUs4AOozjJK7nmA2R+KmoE5YmlvAsRTG9MVu4FHQ0FyS0OqgJqU13S0kzUrOLmNaJ/ooKE0DxCxymuPgGUVBLmbEbMq4vjQynWqfDDYW5J51Sv8NJqbBMYYt1BDiCkkwl0KJBI3BG2ntWlwekup1eT6rbmmNWYAojhrgSaDNX4KNFAg7EbEdaHrxjITrW+OxUznJRXWpoabgRvS1xz+usrhpIzKLaikdVo86f8AUkUKZ4gEb1aw+/ClTTvZJMOF9T833FwSZEkETpvRbCcEK1DzpgajO6lKRtrJBjerPHHD6rG+IH+G7LjR+6Tqn+E6ekUOtMacbV5UJnqAPxigHxqMLV+6E+JG7gjzpzJbj9aFBQBVySqASevpVxjFjDYzapQAo9969xbFXHWAHFp9AdgOVDMFtPGdAE+GCCvv0T7/AIUKtWYUtTUvzmj8NMFLPiBOrisxMa6gEDt5SKZ7V+Iqfhy0CrePvK/BI/lX13blHpWO3YCHQBSYZbvhlFSPvjLSJeYmUkCYii7WIZ0DXlVLCR1EicpCHMjxa5I1BoW4244NKlxBcDei+CthSQaDy8pNLHeBjBBaK1vhSwuVa0W/NhFMlxbiNqWL66ykikbJlGgBORhwJ0q81ZFEEVJgjoXFHnrUFNeJMyGgsu6a0sY2ohWZHuKvYviXhnKrQ0IYuw4uK0ljc8aOoQwtla4Jmm+wszGtc4HZgJBjlRRawgUfGwJ3AZlrxBmJWIWkilprDokHlTM7eJBOtUEvpUTWsnnUFj8G4sO2gK6O2Fl5RXztqM2aidg3Q8qmGw5AAQYscS2EJPelL9FmtSxa0CxQj9DjpWAKE0Xs6mIYberBrTuDXSqJNLSOGikSKY+FGikxBmjZcermONls0ZoGQBNK+MvDNTS0wSnWkjisFCVq/ZBP8qAlqYbP1ZTUXsXxqVhDegmCrrG8H+9qHWGFG5SoFUBAUsiJJIk+0xvQO5xCEAAElJn5gj8a54exgt3CVKJykwRyg7zRHsiAx9RQjTwViillSEEhAICcxkwomJHoBRvHW8pJJgRMnQe55UJwBtqzbWWAp98uLSEoSpwhoE5fKkEx8MnvTjc2AcaS48mZhbjA1gRyIGpA1jWTsRROLjL5NeIPnZlx4gW83EVm/IV939rlHUnaKN2PHFm1ErKuuQTHeTGlE3uErNQlDY/eStaf9qgOlIvEfCgaSowVCZCoEgdFER33maoHgdtyfj+KJ+ka+0qce44q9WlSsoCQQ3l5JJmCeZ0H0pQBUKIhlY8pEp5Hl7GpGsPBMKXkVyCkmPcjUfI0J+M3lB9oUZh/cfvKtvncUEnQGJO+natSwbDmm20oQO5VzJO5JrPzYOtEFSYB+FYgpV6KGhPatA4dvwsJSd/6dqncgEajvHIO48cOYo20yvOSAhUkwT5VQkHTWJ07Vfubxp5BU0tKwNDlIMHoRyPY0GtrMFszMLBRpuQTqR7z/lpVxDhm7YeFwyuEpkKcRqSjfVvn6HTvT2LhK+NTdExQ89FyOrHxJMbZKnOlELBQDcA61YvrFS20LQtK1ORlBSEBR6BUwDQ1OE3ISVBGoMFGYZhpI2MGRXvQy4z4nm5PHzLph95XxK7IkE0Q4MxUxCjpypCxTElFwoUCkgwQQQQehB2NHcBuAkCgZvdC8b/53NNurwFNI2Mvys1bfxA5dNaXXLo5pNexYrms+aoycO3Phq12NP1u5mTvWX2lwFaCm/h+/MZSZig58ZU3D4XDCc8WYMHUHqNjSrgmGeG6JrSnBmFLr9rDkxzrCNqjNld6jbhgGQRXGKIOUxXeGAZRFXH0SKIQKsQRJvcyvES4FGSaitMQI0M0+YlhCVgmNaSsRscsgiuDILmvTJGoYtbkKgTR9lwACs1w95aVxqQKZEYtCfNTK00VcMu4xvugneugkUj/AKazOwDpTK3eaDXkKXz+06jnFXutmR22HgjUVcw7DkpVMVaw21OUE1ZdRlE1ToVUiDIQ0nQjSlfi3DA82tuYzpInoSND86OG6MQKqvAlMnepmY0aEsYRa7n5xvmltrUhWikkpUN9RofaqqEiRpTf+Va2S1doUBHiok91IMT65SkewpNQqtL9YBrBqapwI6lCZgABJHuogn8KYrzFAhAI3zKCR+0Q2XSj3SFx3ArKcLxRYASNpACRuTyHc0xPY0M1u2T/AIbxW4rl+raKlieg8SJ+7TXCHXKWPiorz6yYQnzu42W92lC24MpWlSexyha2lAchkQv2KOlEXkDzSJHMduf0NIWF3J/4NE6GZ/8AroSgfJdOGG3fiFfTIj2Kgv8AoKtqfnIGZOpirdNfmaspRLSiQToY3ykSDBid++9Sfo9a0hQyXDR2mEKHUCNAeopvubZDzakqAI0B/hP/AOxSaVOYc/HxMOH231/iFFBB/mZBYihC2GYQlST4RKeS2XRIPZSToR3ru04cS2+HUy3+038SD3Qrcehn1G1HGVpUEvI1Eb9uhq08CIWky2dxzSaWz4ky6cf+/wAQuHkZMRtDUsWqpTO2UGB0MQNesT86shZmAdFAqAIkTuR1686htVjIOhma6SYIn7C/9KgT/I0JlHiDs+TAbKAG3LZUpykqbO5SJlJEbgfyqWwxFS1oXuVJLTqejqBmHzBNWcTbBhxMgp2KkKSlQP2c6gAZ23pcfJavkrQTDqCop5KUgEeYftQAJ3B9wWFZXBI/PzzOHGRo6hXF+H2b5shcIebJSl4AFUASkL/bSUqSY+VJq+H7m3XlcSQmYzp1QekHv3inK3vP1xIOi0BXuhRST7hSflUl5iOZCUE/HCewClfF7ZZ9qVzcTsbEa4/MfH7TufYRhIUkSKmxPhJKknkaIYI8E+VWhH9yO1HblwFOlJs4HiU1QtszHHsPWw5B+dM2AIO9d8SMAmpcIeCQBS/IbsI7x16xqbV5apqgk9a8N8AmqCr4E0sAOsOHIeNuHoGUVO66BpQSzxQBO9DsYxsDY1sD2zmQ+6MiliKWeIUJ3qsxxICneg+K4yFGJpWjcaShO7K051xitnKTprU+E3HaiKjmVEUxgXs1QfJYKtzP7CxdDoMHenhtpUDTkKMW2EpGsVa8CncvFDHRk3B8Q9MEEQ1aJGUVFfpGU0HwLG0qRqa9xLERyNYLgbucXjNexPWVgVO2nMKVWcYGYg9aYsNuZIjY1OdrMqJiIER/yw8NqesvFQmV26s+g18MiHI9PKr0Qaw23cUSEgSTtX7CcaBFZfxjwpboCltMtoJMqyJCZneYouN9UYvkTtsTJ7BaWxJOZesxslOghP3jrJ9BsTXinyrnKj5fVS1Faz9UpNTY3h/hrOX4TBT2B3n3BoY1II+6ZHr1+g+VOIa8RFhs3G1jEAXkLEBKbhUHlkShpCT/AJUCmPh66VkWobKMk9hsB7Gs/tAZj6d6e+EXEusqSDCgCCnt6c/Y1X4735kvlJW4y4BchxpUGfM4gkfZKkgp/AVBiGDh1gwPjkqQownxBzQqDlJPMzM60E4Kvghd0ypQBJC0yYkoUUqGu5gj5U3YbeodSpKTqDsf2h/WjedxXu2I0PEUuCLlY8RsfGEkthW8IUQps+6TI604YTfofSsI0JBC2z8SVDWR1Gn1oFf24buG30iDm8/uAD9EivcetFMOi6Z0ghSgOaSa2UvXzmMjhmsfn7RiYeHhgcxVy4IzpJ+FUBXOYIVEc5AI96DvPpIS4j4HAFAdOo+dXFvZ2kKHr7g0J8d/e5xHo39IzOoEEFfmJWkTlyk6lAiJIKYmNd6SuJrFLb1stPwFaVJ+6HJC0xySCkEfvxyo2LxJSkLSo5CChSMuZJE5dF6GJ06bQRQviu6LjcoGQI8IISYJhKwokkSJPqdhSHFw5Meb9pV5HIxZMN2L/wAxQevi2qNyhMAHmApaRPv4ZPrXTN2rNbEk+Z1EnaUJSUk6bTnJ9+1LF9deJduJO3jLT7BZBP0oyrEUKUnLBUkZUInWTuT0AqpjbtdxLIhUivMebjw0NKcS4DkJ82bSJSMqpJEzO0DWY5GezxVYRrSm9iTHhptg6hShKndQZO430O6jHcUy8NWzSbdLJTOYlQI3EmT5uRAMfwidoqTmwq7np8pSw8psOMHLu/8AuV8Qf8QGaBpxHJIPKnFWClIiZB2V19RyNLWP4NCSRvQcYU+1o4xYr3Q6g9fFInIfnVu2xDMdKRLv44pq4XakiaWyKFaofGC4uNdswtY0JqniuBuETJp4wSyGUaURvrEZdqzOHzMOfbW2qNat2OFqWoKJNFOMLcIWPWjuF2o8NJHSsOaELjsme4dY5AJpgtrZOhiqBeSlOtW2r5OXQ0BXKm46yhlqFSNKqk1SaxME5Zrgvmn15QAkl+CC0T0gsmCdDXt3fk7a1PjLOcQP71q9hWB+QE60tlpTUoYnLLcV0lWYac6dsFWQBpUjWCJ3Io/Y2Sctd9DsLmTyQhozoPeSlPiR2Ummp9GkUt4nhxVMV3qE8wf/ACfpmR8RNyAfUfXT8aX/AAdadOKrAtjXbNPyBpUyQP73OppxBYBk3JasQZywMqkq7ij+F3H5regnRp2D2hWxnsaDPNeSfei79v49mlQ1W1Prl5/Lf509iseP5iWUg+fHiXeM8MDNwHkrCQ5qNyc3PKBqfbrXOB45kuQVK1WIUCCiVJ55VAHareEu/n1skEFT1slSSkKyrU2qIWhUjzCIIkSDQJasq4Ut5MH4XElQI6ZlJ/6jRg5GxMjCrJR8/n7GaNdXbLqMyVpM6xIJmubXEmnUllwhJjKJ0kUmGybW+2Utoyhtbq4SASCpKBJEHQzXGOMpbVKCcqWXHIKlHzKISiSSSdc0TtrR+3t2PEV/pVZgoJsi/H+40M2TzQLKiktpJKD9qFcvSi+Hvjw8oPwGPnSaniBz80SjwXFOIbjxMyDqU6GM2b4jAETpoOVc2uKuJktAqywlSglSgtYIlACQdwFebYEjrWjkUrRmRwspOq81H4ISrUjWCNzsf/NQvMJyka+YpBkk7ep0oQ7iBcbZU04psOOBvyhskEpWSFBaVapyKECOdWHXVttOBbhcyJCwpSUpPmCxByAA6o6c6HoNO+kwXZ+2/rUyEXBccWsGM6lKJkzClE8vWpHL8Mp8kZz8M/7iOnTv6UYXgaCf1asiTyImPQzr70IxzAyhYVKihURPIj7MjsP73pLK7IvUeZVVAxs+JX4Utgp4OOnQEkA65l7yeoB17mO9a9hOJpQAQroCDrPp3rI0nL26AUQtMUUgjWhesMGMqBZnmwf1DgsaE2YXgWJn012qpfP50lJPvzpQwbGs+k60Lv8AHFh1STyNRhkyF7vcujHiXGFA1OMawJ5CysDOiZzJ1j1G4orw9eZSJrjDsa2k0Qctm3PMmEL68j6gfiKOMoZvfMemVX2TRuH8SBAo7dXQy1kmF4itleVen4HuKbHcZBRvTWbEAoKxPGezEGLfGZBcT+9RaxvAEgClDivEQSDOoNeWWNpyxOtJUWEaFIY04lc5ilI5miVuwAnSlnCVFxwE7U+MMgJFCYVHcZ9sRcVuFsuhU6TrVsY73qHjqAgxyrOP0ketERQwi2c9GmiYRiHiq12mnq3eSE1kPDN4JOu1Nv6X03rjqS06jKFqNoxVAME70QYvQBWaWl0VuannTWm48kTTmPIFHUxTLh9Q9hCrmKJzRU7LebXrSd43n3ptwl+QKW5DhmFRrAhTH+8T/wAp+GRa+IB8K0z6EKH4lNZM4qZ7QPkJP1Jr9D8XWQfs3m4klBKf3k+dP+pIr86ncj7yv5U5xmtakzlr77hazbDlusc0Sfbf+avkKn4RuSnxBvl8xHVOyhHpUHDLoD2U7KEGvMNV+b3wSrbMUK9Faf0qinyP2kxx+pfvJ7wLsbpD7J8ivMnoUn4kH8PlTRi7SHWhf28FBBLyDtAEqCo5jWqxsUr8Szc5edpXSenagmB4i7h7ykOJzNKIDiORg6KT3GlE2h/aB1kH7j/IhbDG1hCX7eMqlKQplwSpCxmzIzDdHkJq2u3trpK0rQWVZSFEyUlKFKmCNYCkq07GiSLHJ/xNkUraWcymz8Mnf906n51PbN272dOXwnVTnbVAJzFRJB+0POR6RRATVGDLICWFg/7gROA5UqGfxJzAwSn4VFKtRBHmSoexqOz8qR5QlvLIKSAnIBMjXaNZ96ZWLLIFpVmhSQkqmdAI+ZlRJ6qJqK8bRlCZ0CwtJyg7GY0iN1D0MVoFvpPE4zrsav8ADKRw5laiMygrOl4hCgClzIUZojQkKM9d6rcVpDNmpCCoqdWgFSlFSj9rUnlCIgaa96JW7ULUrMCFZdPNukRmIJiToJAGiRMwKH8RpzqbTyEn3MD/AKT86HyCExloXj9suVUuxAGC261EaU4HBUuNlC06KEH+o7ipsEsgAIFNKGhl2r5nLyWYz6/DgRBUywcEMsBalkvLVpKhACeiUg6HvM+lLt1gYJ/VKH7qj+Cv6/OtS4jjKay65usrhjrW8ZZ9kwXIREAAEGqbdYWMyVIV35+h2PtXT9xnMkye9H28bQtHhugKB3B19x0PeqL2ALVK7cFxO+T7Y9B9r217GunXmAF1qB2LwpMUyYZiWo1pWW1rpoQYIPUaEHvXyLiD0NeZbnUyFfM0lD6XUwuOx0kehofiL7jKdTmRyUNvfoaWLbEyOdGcPxkKlK4IO4Osiu48jIKPibdVfY8wDiV4V71FZKMg0VxnATBcY8yeaBqR6dRQVhRFFsHxFmBB3NS4SggGnlS4TWT8IYpByk+lOy8XhO9Juh7SjjyjrFXjq+0IHOs0JNOvEa/EcJpfNjTWNOoiWfL3aFcFtVeIY50yP2awmavcK4eFaxTfc4anJtXdQZLCZbZ4lkXrprRlfFCQnqaEcY2aUEqToRSd45msldwiZdVNIwi8U6sHlT7YnKBSF+T9IVFaZ4ICaWybMoYxSiUbzGch1rCcRaCXHAnQBx2PQOFIHyArQeOb7IDB2rPvE8SVdQFf5kpJ+ppzgiyRJvxEdQJBbPFCkq6EGjvGNvPhXCdlpEn7yf8AtFACnT0pqwwfnNg41utrzp9E7/Saq4h5WRspoh5duLguWzF4j42/I5HbrRC9ZauUJc084n+Ibil3ge5Gddq58L4hJPJwDT51ewuW3V2rmkmU9ldqYU35ijr1JqWMNU9Zrlo5m17oOonmKPuW7N63LZ8N1GoSd0nnlPTtVCwXmKmXNDyJ+lc3tstoh5Bgp+IDmOoogX6QLGzucIv7ho5H8xG2YdPWrrNuD52yVA7pmr+H4kh1P6z15V47bNpMoUkdIgGtg7qDqcMtRrBqvi9sYSr0qy1cyrKYk8xR17D5EEVM+J5OqqJX+D47dm/PzUg4dUMutHHBpQ+wsvD32q7cvAJNfOVZn1JMT+JiQlVZLftnMVd61fGXgoGaQsSthrT2JOoiXIydjFND3mrQuBrvUetJC7YZqbuF0ZCD1r2VbE5x2Abc0bGOGLS7EuohyP8AFb8rnuYhX8QNIWL/AJLrhMm3Uh9P7JIbc9IUcp9cw9Kb04pA3ozhF/mNLKSsdbArixMDxXBri2VDzLjWsDOkpBO/lUdFexNV2lncV+o3XwpOVQBB0IIkH1BpOxT8ntjcElKCwo82SEj/AOMgp+QFG9QRQYWEzLAcXUIB15e1GMR4eRcpztkIX3GivWNqg4o4OXhymz4ocS6V5VBBRlyZdFCSJhXXWDoKprunGWkujzIJykj7J5T2P865dbE2o7ijBT9s9bKhxCkHkeR/dUND7VZ/9QGINH8I4ibeT4bwzA6ELAUNPWlXjLCvAfhsfq1gLRudNlCT0IPsRRFcMaIg8mIoLB1Pk4hmVNTZxS6yVCrXjmjAxYib5geHBsUWvVAJM182oTUl7bZk0ghYnUouq/3THON1zMUkt26p2rT+LsJI5c6E2GDiRIp0A1uJP1DahP8AJ6wobiK0lS/LvSjhTfhxFH2rgK50m/mVEI6iZ9x9aLWSEgmaULFrzFPdSfZASP79K266sEq5TWPk5Ln0WsfNZkfUinvh5tjJPxTwDKSGf1hR12q9wrffm90nN8KjkVPQ6V1xBbFt0KG2ihXOO2YKEXDfwrifuq5g/KqpWjr5SKG7Cj857xPhqra5OXQA5kEdJkUw4uPzu1bvWv8AFbgOAbyNzUq0i+sEL/5jYyKPcbE/IUD4OxU21wWnP8NzyLSeu1F/eB8ivmIdYdD7KXknzpgK9etGrJ4OoIMZgIUOo60vPs/mF1mHmtnte0Hf5TRO9aUwUvteZPbZSDy9RRVMXYSolstrI5TRAAESBNSYiErQl9GqVb9jVS3WCYjU8qIPEGZdwezK7hsRzzeyfMfwrRA2IpX4NaBWtwcgEj1UZP8At+tG7y7yHsa+f+JZO2Xr9J9J8KwkYe31kz7ehpJ4gxfwpBNMVxiYjekLiBsOujXWpaaMsUSKlVkuO+blVDFbNQFPGE4YMgFd3mBgyOtbbk9fM7/SAzMGMPJ1ii7DZSNKcrbh8DcVFiWFBA0FbTkgzD8WvET72+UBFN/B7xKQTSfijUHWmjgi3UoUR17DUziynG1NHVbule4c9mPvUisLVlqbAbaCZG1BOFrhWzp1M+x7AW7u3LLoMHVKk6KQoAgKSTz1I7gkVkmK4E7h6ghSkv27hyrBRAHTMkkxPWeXLSt6ilrizh8PoMcxBo3p/KJrlo3MIxnBQy8QysZSApIBnLmHw5tzHfXaaPpYFxYpzfGhR36jQ/SflVLGsLXbOZViByPar3C6pQtMAmSr7yQohP4lNZcdahsR739ICfwaBtQtWHnpWm3Fh5NqXl2mp0rK5plsNTSLMnMKamWxloJbMiQaNsq0o3HUdbEW52UhhFziixBExSpbtAb088QfAazm5vClRFNZR7AYrxX7MbhZ+4CRQ5jEyF71Cl7Pp1qf9EA6zU8kfOWgD8o34ZeJWmfnWH3j+ZwqJ1VKz6rUVkf6q0ly7Nsw6v4srayB1MaT2mKyppvMCSTO50705wV/UREPiZHtBjreMi4tEuDVSRr6c/6/OqfDcLDlm5ssEtk8ljUe3/evuBLslamDqFjTsa7u0htaHRulRSY6iIP1qwCGAafPsOpKzjhC+NrdKYd0SuULB5HYGp+NcEKFFxO43jmOShVnjOwDjablPlVAnvH86JYJc/nVkSr42RGb9pNaAo9Zgt4cfeU8GxFL9slt6MhOXMf+W5Eeb7qvpVrDro2i/wA2uASwvRCj9meU0Esmgy9ES095VI6HqmmO3YDoNm95hH6pz7SY1AV6da3WoJqvUihdm8UgeKw9JSIzT1AHWvlYjaqcCC2th0EQFgpnXvVSwv1MOG0fJcRPlUn4kHkpJPOrHFeFZkHMvMtqChyIJQr7Ko5gg614kicAs7jxw00W0LzHVSp/v5mo8fSVJ0oTwxiS1MIzGTET6aUxEBSda+Y5bXmb+Z9jwU6cdb+kzu8vVoBmg9niGd4a07cR4akoNZnhAi6joTXlUFbhO5VxNhwkQkVYulRQ6zdOQUKxjFlIUE9aSfCX8R7sAbMa21AgV9d2oUmDQPBcQKjFNDSJFKZS2LUyzAbEzPi3CFAggac6c+ALdOQVZxi0SpBBoFw7iBZXlG00/wADk9xRiXKxA+8TTYquAEr9agZxGUzFCLnEz4oNPhhdRToauM9fVDavZkg1NXSKmAbiZ+UbAQ9blaR5ka/1pJ4baKiCqCRoDAkfIVsd20FIUk7EEVmNjbBt5aByUaHlW1uM8ZqaoVuWRkNLC20yfWnZ5sZPalZyxEnXmaVUCNuZ/9k=</t>
   </si>
 </sst>
 </file>
@@ -859,158 +910,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB8984-64DD-4DAA-B3B9-3474948017C5}">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AE78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="1" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>1993</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>1994</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>1995</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>1996</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>1997</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>1998</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>1999</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2000</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2001</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2002</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2003</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2004</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2005</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>2006</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2007</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2008</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>2009</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>2010</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2011</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2012</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>2013</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>2014</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>2015</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>2016</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2017</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>2018</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>2019</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2">
+        <v>156</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>47</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>81</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>112</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>137</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>139</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>153</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>176</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>181</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>204</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>221</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>243</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>250</v>
-      </c>
-      <c r="P2">
-        <v>260</v>
       </c>
       <c r="Q2">
         <v>260</v>
@@ -1054,16 +1108,19 @@
       <c r="AD2">
         <v>260</v>
       </c>
+      <c r="AE2">
+        <v>260</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1090,55 +1147,55 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>6</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
       </c>
       <c r="N3">
         <v>15</v>
       </c>
       <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
         <v>26</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>42</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>56</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>68</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>80</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>106</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>117</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>144</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>156</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>173</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>185</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>193</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>198</v>
-      </c>
-      <c r="AB3">
-        <v>208</v>
       </c>
       <c r="AC3">
         <v>208</v>
@@ -1146,64 +1203,67 @@
       <c r="AD3">
         <v>208</v>
       </c>
+      <c r="AE3">
+        <v>208</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>34</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>43</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>55</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>72</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>87</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>104</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>123</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>132</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>136</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>145</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>152</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>163</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>175</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>184</v>
-      </c>
-      <c r="S4">
-        <v>187</v>
       </c>
       <c r="T4">
         <v>187</v>
@@ -1238,16 +1298,19 @@
       <c r="AD4">
         <v>187</v>
       </c>
+      <c r="AE4">
+        <v>187</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1304,42 +1367,45 @@
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>23</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>35</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>52</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>78</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>102</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>122</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>143</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>164</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1354,58 +1420,58 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>17</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>24</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>29</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>35</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>45</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>58</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>74</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>85</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>95</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>107</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>129</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>139</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>150</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>165</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>171</v>
-      </c>
-      <c r="Y6">
-        <v>177</v>
       </c>
       <c r="Z6">
         <v>177</v>
@@ -1422,16 +1488,19 @@
       <c r="AD6">
         <v>177</v>
       </c>
+      <c r="AE6">
+        <v>177</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1452,28 +1521,28 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>17</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>34</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>58</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>82</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>112</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>137</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>164</v>
-      </c>
-      <c r="Q7">
-        <v>174</v>
       </c>
       <c r="R7">
         <v>174</v>
@@ -1488,7 +1557,7 @@
         <v>174</v>
       </c>
       <c r="V7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W7">
         <v>175</v>
@@ -1514,61 +1583,64 @@
       <c r="AD7">
         <v>175</v>
       </c>
+      <c r="AE7">
+        <v>175</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>37</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>65</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>83</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>92</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>106</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>109</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>117</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>132</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>136</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>143</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>154</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>155</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>160</v>
-      </c>
-      <c r="R8">
-        <v>163</v>
       </c>
       <c r="S8">
         <v>163</v>
@@ -1606,16 +1678,19 @@
       <c r="AD8">
         <v>163</v>
       </c>
+      <c r="AE8">
+        <v>163</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1642,55 +1717,55 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>18</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>25</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>38</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>47</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>57</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>69</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>79</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>97</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>101</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>112</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>123</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>124</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>128</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>143</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>158</v>
-      </c>
-      <c r="AB9">
-        <v>162</v>
       </c>
       <c r="AC9">
         <v>162</v>
@@ -1698,16 +1773,19 @@
       <c r="AD9">
         <v>162</v>
       </c>
+      <c r="AE9">
+        <v>162</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1719,31 +1797,31 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>19</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>37</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>48</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>64</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>83</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>102</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>118</v>
-      </c>
-      <c r="O10">
-        <v>125</v>
       </c>
       <c r="P10">
         <v>125</v>
@@ -1752,22 +1830,22 @@
         <v>125</v>
       </c>
       <c r="R10">
+        <v>125</v>
+      </c>
+      <c r="S10">
         <v>136</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>144</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>147</v>
-      </c>
-      <c r="U10">
-        <v>149</v>
       </c>
       <c r="V10">
         <v>149</v>
       </c>
       <c r="W10">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X10">
         <v>150</v>
@@ -1790,52 +1868,55 @@
       <c r="AD10">
         <v>150</v>
       </c>
+      <c r="AE10">
+        <v>150</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>85</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>101</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>106</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>111</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>113</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>123</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>132</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>136</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>148</v>
-      </c>
-      <c r="O11">
-        <v>149</v>
       </c>
       <c r="P11">
         <v>149</v>
@@ -1882,58 +1963,61 @@
       <c r="AD11">
         <v>149</v>
       </c>
+      <c r="AE11">
+        <v>149</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
         <v>22</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>53</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>69</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>76</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>85</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>87</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>92</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>107</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>117</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>129</v>
-      </c>
-      <c r="N12">
-        <v>138</v>
       </c>
       <c r="O12">
         <v>138</v>
       </c>
       <c r="P12">
+        <v>138</v>
+      </c>
+      <c r="Q12">
         <v>144</v>
-      </c>
-      <c r="Q12">
-        <v>146</v>
       </c>
       <c r="R12">
         <v>146</v>
@@ -1974,16 +2058,19 @@
       <c r="AD12">
         <v>146</v>
       </c>
+      <c r="AE12">
+        <v>146</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2019,37 +2106,37 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>10</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>21</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>28</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>39</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>48</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>66</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>96</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>122</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>134</v>
-      </c>
-      <c r="Y13">
-        <v>144</v>
       </c>
       <c r="Z13">
         <v>144</v>
@@ -2066,16 +2153,19 @@
       <c r="AD13">
         <v>144</v>
       </c>
+      <c r="AE13">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2138,75 +2228,78 @@
         <v>0</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>3</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>24</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>49</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>78</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>108</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>125</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
         <v>91</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <v>34</v>
-      </c>
-      <c r="J15">
-        <v>57</v>
-      </c>
-      <c r="K15">
-        <v>80</v>
-      </c>
-      <c r="L15">
-        <v>91</v>
-      </c>
-      <c r="M15">
+      <c r="N15">
         <v>103</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>116</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>125</v>
-      </c>
-      <c r="P15">
-        <v>127</v>
       </c>
       <c r="Q15">
         <v>127</v>
@@ -2250,16 +2343,19 @@
       <c r="AD15">
         <v>127</v>
       </c>
+      <c r="AE15">
+        <v>127</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2280,43 +2376,43 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>12</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>21</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>24</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>25</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>38</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>52</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>63</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>79</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>90</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>105</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>110</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>116</v>
-      </c>
-      <c r="V16">
-        <v>126</v>
       </c>
       <c r="W16">
         <v>126</v>
@@ -2342,16 +2438,19 @@
       <c r="AD16">
         <v>126</v>
       </c>
+      <c r="AE16">
+        <v>126</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2366,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>6</v>
-      </c>
-      <c r="I17">
-        <v>23</v>
       </c>
       <c r="J17">
         <v>23</v>
@@ -2378,43 +2477,43 @@
         <v>23</v>
       </c>
       <c r="L17">
+        <v>23</v>
+      </c>
+      <c r="M17">
         <v>27</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>41</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>57</v>
-      </c>
-      <c r="O17">
-        <v>64</v>
       </c>
       <c r="P17">
         <v>64</v>
       </c>
       <c r="Q17">
+        <v>64</v>
+      </c>
+      <c r="R17">
         <v>75</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>86</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>105</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>116</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>122</v>
-      </c>
-      <c r="V17">
-        <v>123</v>
       </c>
       <c r="W17">
         <v>123</v>
       </c>
       <c r="X17">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y17">
         <v>125</v>
@@ -2434,16 +2533,19 @@
       <c r="AD17">
         <v>125</v>
       </c>
+      <c r="AE17">
+        <v>125</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2503,75 +2605,78 @@
         <v>0</v>
       </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>17</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>32</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>42</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>60</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>85</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>101</v>
-      </c>
-      <c r="AC18">
-        <v>125</v>
       </c>
       <c r="AD18">
         <v>125</v>
       </c>
+      <c r="AE18">
+        <v>125</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>14</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>31</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>48</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>60</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>78</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>98</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>107</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>108</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>116</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>120</v>
-      </c>
-      <c r="O19">
-        <v>122</v>
       </c>
       <c r="P19">
         <v>122</v>
@@ -2580,7 +2685,7 @@
         <v>122</v>
       </c>
       <c r="R19">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S19">
         <v>123</v>
@@ -2618,16 +2723,19 @@
       <c r="AD19">
         <v>123</v>
       </c>
+      <c r="AE19">
+        <v>123</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2648,52 +2756,52 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>11</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>16</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>20</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>27</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>37</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>44</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>55</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>71</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>80</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>84</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>89</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>98</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>111</v>
-      </c>
-      <c r="Y20">
-        <v>120</v>
       </c>
       <c r="Z20">
         <v>120</v>
@@ -2710,34 +2818,37 @@
       <c r="AD20">
         <v>120</v>
       </c>
+      <c r="AE20">
+        <v>120</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>38</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>56</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>71</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>94</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>104</v>
-      </c>
-      <c r="I21">
-        <v>113</v>
       </c>
       <c r="J21">
         <v>113</v>
@@ -2802,49 +2913,52 @@
       <c r="AD21">
         <v>113</v>
       </c>
+      <c r="AE21">
+        <v>113</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>74</v>
+      </c>
+      <c r="K22">
+        <v>86</v>
+      </c>
+      <c r="L22">
+        <v>94</v>
+      </c>
+      <c r="M22">
         <v>98</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>29</v>
-      </c>
-      <c r="G22">
-        <v>42</v>
-      </c>
-      <c r="H22">
-        <v>60</v>
-      </c>
-      <c r="I22">
-        <v>74</v>
-      </c>
-      <c r="J22">
-        <v>86</v>
-      </c>
-      <c r="K22">
-        <v>94</v>
-      </c>
-      <c r="L22">
-        <v>98</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
         <v>108</v>
-      </c>
-      <c r="N22">
-        <v>111</v>
       </c>
       <c r="O22">
         <v>111</v>
@@ -2894,16 +3008,19 @@
       <c r="AD22">
         <v>111</v>
       </c>
+      <c r="AE22">
+        <v>111</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2915,52 +3032,52 @@
         <v>0</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>20</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>26</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>36</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>50</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>59</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>65</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>72</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>82</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>86</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>94</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>98</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>103</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>106</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>109</v>
-      </c>
-      <c r="V23">
-        <v>110</v>
       </c>
       <c r="W23">
         <v>110</v>
@@ -2986,16 +3103,19 @@
       <c r="AD23">
         <v>110</v>
       </c>
+      <c r="AE23">
+        <v>110</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3022,55 +3142,55 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>2</v>
       </c>
       <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
         <v>6</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>18</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>26</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>35</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>40</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>51</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>59</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>63</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>73</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>80</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>88</v>
-      </c>
-      <c r="Y24">
-        <v>96</v>
       </c>
       <c r="Z24">
         <v>96</v>
       </c>
       <c r="AA24">
+        <v>96</v>
+      </c>
+      <c r="AB24">
         <v>103</v>
-      </c>
-      <c r="AB24">
-        <v>108</v>
       </c>
       <c r="AC24">
         <v>108</v>
@@ -3078,76 +3198,79 @@
       <c r="AD24">
         <v>108</v>
       </c>
+      <c r="AE24">
+        <v>108</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>26</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>41</v>
+      </c>
+      <c r="L25">
+        <v>47</v>
+      </c>
+      <c r="M25">
+        <v>55</v>
+      </c>
+      <c r="N25">
+        <v>69</v>
+      </c>
+      <c r="O25">
+        <v>78</v>
+      </c>
+      <c r="P25">
+        <v>87</v>
+      </c>
+      <c r="Q25">
+        <v>89</v>
+      </c>
+      <c r="R25">
+        <v>95</v>
+      </c>
+      <c r="S25">
+        <v>96</v>
+      </c>
+      <c r="T25">
+        <v>98</v>
+      </c>
+      <c r="U25">
         <v>101</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>18</v>
-      </c>
-      <c r="H25">
-        <v>26</v>
-      </c>
-      <c r="I25">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>41</v>
-      </c>
-      <c r="K25">
-        <v>47</v>
-      </c>
-      <c r="L25">
-        <v>55</v>
-      </c>
-      <c r="M25">
-        <v>69</v>
-      </c>
-      <c r="N25">
-        <v>78</v>
-      </c>
-      <c r="O25">
-        <v>87</v>
-      </c>
-      <c r="P25">
-        <v>89</v>
-      </c>
-      <c r="Q25">
-        <v>95</v>
-      </c>
-      <c r="R25">
-        <v>96</v>
-      </c>
-      <c r="S25">
-        <v>98</v>
-      </c>
-      <c r="T25">
-        <v>101</v>
-      </c>
-      <c r="U25">
+      <c r="V25">
         <v>102</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>106</v>
-      </c>
-      <c r="W25">
-        <v>107</v>
       </c>
       <c r="X25">
         <v>107</v>
@@ -3170,16 +3293,19 @@
       <c r="AD25">
         <v>107</v>
       </c>
+      <c r="AE25">
+        <v>107</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3206,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -3218,31 +3344,31 @@
         <v>1</v>
       </c>
       <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <v>19</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>32</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>38</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>50</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>74</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>91</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>100</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>103</v>
-      </c>
-      <c r="X26">
-        <v>106</v>
       </c>
       <c r="Y26">
         <v>106</v>
@@ -3262,16 +3388,19 @@
       <c r="AD26">
         <v>106</v>
       </c>
+      <c r="AE26">
+        <v>106</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3307,28 +3436,28 @@
         <v>0</v>
       </c>
       <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>10</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>22</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>42</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>50</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>55</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>84</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>95</v>
-      </c>
-      <c r="V27">
-        <v>100</v>
       </c>
       <c r="W27">
         <v>100</v>
@@ -3337,7 +3466,7 @@
         <v>100</v>
       </c>
       <c r="Y27">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Z27">
         <v>104</v>
@@ -3354,16 +3483,19 @@
       <c r="AD27">
         <v>104</v>
       </c>
+      <c r="AE27">
+        <v>104</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3423,63 +3555,66 @@
         <v>0</v>
       </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
         <v>9</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>23</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>37</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>41</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>57</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>69</v>
-      </c>
-      <c r="AC28">
-        <v>101</v>
       </c>
       <c r="AD28">
         <v>101</v>
       </c>
+      <c r="AE28">
+        <v>101</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29">
         <v>15</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>40</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>59</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>66</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>79</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>90</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>96</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>99</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
       </c>
       <c r="L29">
         <v>100</v>
@@ -3538,16 +3673,19 @@
       <c r="AD29">
         <v>100</v>
       </c>
+      <c r="AE29">
+        <v>100</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3586,37 +3724,37 @@
         <v>0</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>4</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>12</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>36</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>46</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>60</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>61</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>78</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>83</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>94</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>96</v>
-      </c>
-      <c r="Z30">
-        <v>97</v>
       </c>
       <c r="AA30">
         <v>97</v>
@@ -3630,16 +3768,19 @@
       <c r="AD30">
         <v>97</v>
       </c>
+      <c r="AE30">
+        <v>97</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3666,19 +3807,19 @@
         <v>0</v>
       </c>
       <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>23</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>48</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>68</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>74</v>
-      </c>
-      <c r="P31">
-        <v>95</v>
       </c>
       <c r="Q31">
         <v>95</v>
@@ -3722,16 +3863,19 @@
       <c r="AD31">
         <v>95</v>
       </c>
+      <c r="AE31">
+        <v>95</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>171</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3764,31 +3908,31 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>16</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>28</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>41</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>53</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>68</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>72</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>77</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>78</v>
-      </c>
-      <c r="V32">
-        <v>95</v>
       </c>
       <c r="W32">
         <v>95</v>
@@ -3814,16 +3958,19 @@
       <c r="AD32">
         <v>95</v>
       </c>
+      <c r="AE32">
+        <v>95</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3865,28 +4012,28 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>12</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>27</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>36</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>48</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>68</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>75</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>90</v>
-      </c>
-      <c r="X33">
-        <v>94</v>
       </c>
       <c r="Y33">
         <v>94</v>
@@ -3906,16 +4053,19 @@
       <c r="AD33">
         <v>94</v>
       </c>
+      <c r="AE33">
+        <v>94</v>
+      </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3936,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>30</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>44</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>55</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>61</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>73</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>83</v>
-      </c>
-      <c r="P34">
-        <v>87</v>
       </c>
       <c r="Q34">
         <v>87</v>
@@ -3966,10 +4116,10 @@
         <v>87</v>
       </c>
       <c r="T34">
+        <v>87</v>
+      </c>
+      <c r="U34">
         <v>91</v>
-      </c>
-      <c r="U34">
-        <v>92</v>
       </c>
       <c r="V34">
         <v>92</v>
@@ -3998,16 +4148,19 @@
       <c r="AD34">
         <v>92</v>
       </c>
+      <c r="AE34">
+        <v>92</v>
+      </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4031,28 +4184,28 @@
         <v>0</v>
       </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>17</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>28</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>48</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>59</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>64</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>71</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>85</v>
-      </c>
-      <c r="R35">
-        <v>92</v>
       </c>
       <c r="S35">
         <v>92</v>
@@ -4090,16 +4243,19 @@
       <c r="AD35">
         <v>92</v>
       </c>
+      <c r="AE35">
+        <v>92</v>
+      </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="B36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -4111,25 +4267,25 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>18</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>24</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>36</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>48</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>58</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>75</v>
-      </c>
-      <c r="M36">
-        <v>84</v>
       </c>
       <c r="N36">
         <v>84</v>
@@ -4141,7 +4297,7 @@
         <v>84</v>
       </c>
       <c r="Q36">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R36">
         <v>91</v>
@@ -4182,16 +4338,19 @@
       <c r="AD36">
         <v>91</v>
       </c>
+      <c r="AE36">
+        <v>91</v>
+      </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4209,40 +4368,40 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
         <v>16</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>28</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>51</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>65</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>69</v>
-      </c>
-      <c r="P37">
-        <v>79</v>
       </c>
       <c r="Q37">
         <v>79</v>
       </c>
       <c r="R37">
+        <v>79</v>
+      </c>
+      <c r="S37">
         <v>81</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>88</v>
-      </c>
-      <c r="T37">
-        <v>91</v>
       </c>
       <c r="U37">
         <v>91</v>
@@ -4274,16 +4433,19 @@
       <c r="AD37">
         <v>91</v>
       </c>
+      <c r="AE37">
+        <v>91</v>
+      </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4298,49 +4460,49 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>9</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>10</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>16</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>17</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>19</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>20</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>29</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>37</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>44</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>52</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>55</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>67</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>74</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>82</v>
-      </c>
-      <c r="V38">
-        <v>88</v>
       </c>
       <c r="W38">
         <v>88</v>
@@ -4366,16 +4528,19 @@
       <c r="AD38">
         <v>88</v>
       </c>
+      <c r="AE38">
+        <v>88</v>
+      </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4384,37 +4549,37 @@
         <v>0</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>11</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>23</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>39</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>51</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>57</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>60</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>69</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>73</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>77</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>85</v>
-      </c>
-      <c r="P39">
-        <v>87</v>
       </c>
       <c r="Q39">
         <v>87</v>
@@ -4458,16 +4623,19 @@
       <c r="AD39">
         <v>87</v>
       </c>
+      <c r="AE39">
+        <v>87</v>
+      </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4485,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4494,37 +4662,37 @@
         <v>1</v>
       </c>
       <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
         <v>9</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>14</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>34</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>35</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>42</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>50</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>55</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>61</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>74</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>81</v>
-      </c>
-      <c r="V40">
-        <v>85</v>
       </c>
       <c r="W40">
         <v>85</v>
@@ -4550,16 +4718,19 @@
       <c r="AD40">
         <v>85</v>
       </c>
+      <c r="AE40">
+        <v>85</v>
+      </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4604,25 +4775,25 @@
         <v>0</v>
       </c>
       <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>24</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>38</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>56</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>66</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>72</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>80</v>
-      </c>
-      <c r="X41">
-        <v>85</v>
       </c>
       <c r="Y41">
         <v>85</v>
@@ -4642,16 +4813,19 @@
       <c r="AD41">
         <v>85</v>
       </c>
+      <c r="AE41">
+        <v>85</v>
+      </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -4684,22 +4858,22 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>4</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>9</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>18</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>35</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>66</v>
-      </c>
-      <c r="S42">
-        <v>84</v>
       </c>
       <c r="T42">
         <v>84</v>
@@ -4734,37 +4908,40 @@
       <c r="AD42">
         <v>84</v>
       </c>
+      <c r="AE42">
+        <v>84</v>
+      </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>33</v>
-      </c>
-      <c r="E43">
-        <v>48</v>
       </c>
       <c r="F43">
         <v>48</v>
       </c>
       <c r="G43">
+        <v>48</v>
+      </c>
+      <c r="H43">
         <v>59</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>77</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>80</v>
-      </c>
-      <c r="J43">
-        <v>81</v>
       </c>
       <c r="K43">
         <v>81</v>
@@ -4782,10 +4959,10 @@
         <v>81</v>
       </c>
       <c r="P43">
+        <v>81</v>
+      </c>
+      <c r="Q43">
         <v>82</v>
-      </c>
-      <c r="Q43">
-        <v>83</v>
       </c>
       <c r="R43">
         <v>83</v>
@@ -4826,16 +5003,19 @@
       <c r="AD43">
         <v>83</v>
       </c>
+      <c r="AE43">
+        <v>83</v>
+      </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4859,46 +5039,46 @@
         <v>0</v>
       </c>
       <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
         <v>6</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>16</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>23</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>27</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>34</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>47</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>54</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>56</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>61</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>64</v>
-      </c>
-      <c r="U44">
-        <v>74</v>
       </c>
       <c r="V44">
         <v>74</v>
       </c>
       <c r="W44">
+        <v>74</v>
+      </c>
+      <c r="X44">
         <v>80</v>
-      </c>
-      <c r="X44">
-        <v>81</v>
       </c>
       <c r="Y44">
         <v>81</v>
@@ -4918,16 +5098,19 @@
       <c r="AD44">
         <v>81</v>
       </c>
+      <c r="AE44">
+        <v>81</v>
+      </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4987,60 +5170,60 @@
         <v>0</v>
       </c>
       <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
         <v>11</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>27</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>41</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>57</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>69</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>76</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>78</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46">
         <v>15</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>23</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>38</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>43</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>48</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>55</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>69</v>
-      </c>
-      <c r="J46">
-        <v>71</v>
       </c>
       <c r="K46">
         <v>71</v>
@@ -5102,43 +5285,43 @@
       <c r="AD46">
         <v>71</v>
       </c>
+      <c r="AE46">
+        <v>71</v>
+      </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47">
         <v>15</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>26</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>35</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>42</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>47</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>53</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>62</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>64</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>65</v>
-      </c>
-      <c r="L47">
-        <v>71</v>
       </c>
       <c r="M47">
         <v>71</v>
@@ -5194,120 +5377,121 @@
       <c r="AD47">
         <v>71</v>
       </c>
+      <c r="AE47">
+        <v>71</v>
+      </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>19</v>
+      </c>
+      <c r="Y48">
+        <v>29</v>
+      </c>
+      <c r="Z48">
+        <v>42</v>
+      </c>
+      <c r="AA48">
+        <v>51</v>
+      </c>
+      <c r="AB48">
+        <v>66</v>
+      </c>
+      <c r="AC48">
+        <v>69</v>
+      </c>
+      <c r="AD48">
+        <v>70</v>
+      </c>
+      <c r="AE48">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>124</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>19</v>
-      </c>
-      <c r="X48">
-        <v>29</v>
-      </c>
-      <c r="Y48">
-        <v>42</v>
-      </c>
-      <c r="Z48">
-        <v>51</v>
-      </c>
-      <c r="AA48">
-        <v>66</v>
-      </c>
-      <c r="AB48">
-        <v>69</v>
-      </c>
-      <c r="AC48">
-        <v>70</v>
-      </c>
-      <c r="AD48">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49">
         <v>15</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>33</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>45</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>59</v>
-      </c>
-      <c r="G49">
-        <v>70</v>
       </c>
       <c r="H49">
         <v>70</v>
@@ -5378,16 +5562,19 @@
       <c r="AD49">
         <v>70</v>
       </c>
+      <c r="AE49">
+        <v>70</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5441,16 +5628,16 @@
         <v>0</v>
       </c>
       <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
         <v>4</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>15</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>38</v>
-      </c>
-      <c r="X50">
-        <v>69</v>
       </c>
       <c r="Y50">
         <v>69</v>
@@ -5470,16 +5657,17 @@
       <c r="AD50">
         <v>69</v>
       </c>
+      <c r="AE50">
+        <v>69</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -5494,25 +5682,25 @@
         <v>0</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>12</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>19</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>35</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>44</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>53</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>62</v>
-      </c>
-      <c r="N51">
-        <v>66</v>
       </c>
       <c r="O51">
         <v>66</v>
@@ -5562,31 +5750,31 @@
       <c r="AD51">
         <v>66</v>
       </c>
+      <c r="AE51">
+        <v>66</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
-      <c r="B52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52">
         <v>19</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>36</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>43</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>53</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>58</v>
-      </c>
-      <c r="H52">
-        <v>61</v>
       </c>
       <c r="I52">
         <v>61</v>
@@ -5598,7 +5786,7 @@
         <v>61</v>
       </c>
       <c r="L52">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M52">
         <v>63</v>
@@ -5654,43 +5842,43 @@
       <c r="AD52">
         <v>63</v>
       </c>
+      <c r="AE52">
+        <v>63</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53">
         <v>15</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>27</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>35</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>43</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>51</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>60</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>61</v>
-      </c>
-      <c r="J53">
-        <v>62</v>
       </c>
       <c r="K53">
         <v>62</v>
       </c>
       <c r="L53">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M53">
         <v>63</v>
@@ -5746,40 +5934,40 @@
       <c r="AD53">
         <v>63</v>
       </c>
+      <c r="AE53">
+        <v>63</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
-      <c r="B54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="C54" t="s">
+        <v>129</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>22</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>36</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>48</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>54</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>55</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>59</v>
-      </c>
-      <c r="K54">
-        <v>62</v>
       </c>
       <c r="L54">
         <v>62</v>
@@ -5838,16 +6026,19 @@
       <c r="AD54">
         <v>62</v>
       </c>
+      <c r="AE54">
+        <v>62</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5871,22 +6062,22 @@
         <v>0</v>
       </c>
       <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>4</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>13</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>27</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>41</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>55</v>
-      </c>
-      <c r="P55">
-        <v>62</v>
       </c>
       <c r="Q55">
         <v>62</v>
@@ -5930,16 +6121,17 @@
       <c r="AD55">
         <v>62</v>
       </c>
+      <c r="AE55">
+        <v>62</v>
+      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5951,25 +6143,25 @@
         <v>0</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>8</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>16</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>29</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>33</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>42</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>45</v>
-      </c>
-      <c r="M56">
-        <v>59</v>
       </c>
       <c r="N56">
         <v>59</v>
@@ -6022,31 +6214,31 @@
       <c r="AD56">
         <v>59</v>
       </c>
+      <c r="AE56">
+        <v>59</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="B57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57">
         <v>10</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>31</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>43</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>51</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>56</v>
-      </c>
-      <c r="H57">
-        <v>58</v>
       </c>
       <c r="I57">
         <v>58</v>
@@ -6114,16 +6306,17 @@
       <c r="AD57">
         <v>58</v>
       </c>
+      <c r="AE57">
+        <v>58</v>
+      </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6138,34 +6331,34 @@
         <v>0</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>5</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>11</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>21</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>23</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>31</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>45</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>52</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>53</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>56</v>
-      </c>
-      <c r="Q58">
-        <v>57</v>
       </c>
       <c r="R58">
         <v>57</v>
@@ -6206,40 +6399,41 @@
       <c r="AD58">
         <v>57</v>
       </c>
+      <c r="AE58">
+        <v>57</v>
+      </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59">
         <v>11</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>18</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>19</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>21</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>31</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>47</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>52</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>54</v>
-      </c>
-      <c r="K59">
-        <v>56</v>
       </c>
       <c r="L59">
         <v>56</v>
@@ -6298,40 +6492,41 @@
       <c r="AD59">
         <v>56</v>
       </c>
+      <c r="AE59">
+        <v>56</v>
+      </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>7</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>11</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>19</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>34</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>40</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>49</v>
-      </c>
-      <c r="K60">
-        <v>55</v>
       </c>
       <c r="L60">
         <v>55</v>
@@ -6390,16 +6585,17 @@
       <c r="AD60">
         <v>55</v>
       </c>
+      <c r="AE60">
+        <v>55</v>
+      </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -6423,25 +6619,25 @@
         <v>0</v>
       </c>
       <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>10</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>24</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>34</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>40</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>52</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>54</v>
-      </c>
-      <c r="Q61">
-        <v>55</v>
       </c>
       <c r="R61">
         <v>55</v>
@@ -6482,16 +6678,17 @@
       <c r="AD61">
         <v>55</v>
       </c>
+      <c r="AE61">
+        <v>55</v>
+      </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -6506,25 +6703,25 @@
         <v>0</v>
       </c>
       <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>4</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>15</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>25</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>36</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>46</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>51</v>
-      </c>
-      <c r="N62">
-        <v>54</v>
       </c>
       <c r="O62">
         <v>54</v>
@@ -6574,31 +6771,31 @@
       <c r="AD62">
         <v>54</v>
       </c>
+      <c r="AE62">
+        <v>54</v>
+      </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63">
         <v>12</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>31</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>42</v>
-      </c>
-      <c r="F63">
-        <v>49</v>
       </c>
       <c r="G63">
         <v>49</v>
       </c>
       <c r="H63">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I63">
         <v>50</v>
@@ -6666,16 +6863,17 @@
       <c r="AD63">
         <v>50</v>
       </c>
+      <c r="AE63">
+        <v>50</v>
+      </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6687,25 +6885,25 @@
         <v>0</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>1</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>14</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>23</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>35</v>
-      </c>
-      <c r="K64">
-        <v>44</v>
       </c>
       <c r="L64">
         <v>44</v>
       </c>
       <c r="M64">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N64">
         <v>50</v>
@@ -6758,34 +6956,34 @@
       <c r="AD64">
         <v>50</v>
       </c>
+      <c r="AE64">
+        <v>50</v>
+      </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65">
         <v>7</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>24</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>28</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>29</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>32</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>42</v>
-      </c>
-      <c r="I65">
-        <v>45</v>
       </c>
       <c r="J65">
         <v>45</v>
@@ -6850,34 +7048,34 @@
       <c r="AD65">
         <v>45</v>
       </c>
+      <c r="AE65">
+        <v>45</v>
+      </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66">
         <v>14</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>24</v>
-      </c>
-      <c r="E66">
-        <v>39</v>
       </c>
       <c r="F66">
         <v>39</v>
       </c>
       <c r="G66">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>42</v>
       </c>
       <c r="I66">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>45</v>
@@ -6942,16 +7140,17 @@
       <c r="AD66">
         <v>45</v>
       </c>
+      <c r="AE66">
+        <v>45</v>
+      </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6969,28 +7168,28 @@
         <v>0</v>
       </c>
       <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>7</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>11</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>22</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>26</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>29</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>38</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>44</v>
-      </c>
-      <c r="P67">
-        <v>45</v>
       </c>
       <c r="Q67">
         <v>45</v>
@@ -7034,16 +7233,17 @@
       <c r="AD67">
         <v>45</v>
       </c>
+      <c r="AE67">
+        <v>45</v>
+      </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -7064,22 +7264,22 @@
         <v>0</v>
       </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <v>2</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>13</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>24</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>29</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>36</v>
-      </c>
-      <c r="O68">
-        <v>43</v>
       </c>
       <c r="P68">
         <v>43</v>
@@ -7126,28 +7326,28 @@
       <c r="AD68">
         <v>43</v>
       </c>
+      <c r="AE68">
+        <v>43</v>
+      </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="B69" t="s">
-        <v>146</v>
-      </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>9</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>23</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>38</v>
-      </c>
-      <c r="G69">
-        <v>42</v>
       </c>
       <c r="H69">
         <v>42</v>
@@ -7218,40 +7418,41 @@
       <c r="AD69">
         <v>42</v>
       </c>
+      <c r="AE69">
+        <v>42</v>
+      </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>4</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>7</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>15</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>29</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>35</v>
-      </c>
-      <c r="K70">
-        <v>42</v>
       </c>
       <c r="L70">
         <v>42</v>
@@ -7310,22 +7511,22 @@
       <c r="AD70">
         <v>42</v>
       </c>
+      <c r="AE70">
+        <v>42</v>
+      </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="s">
+        <v>146</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>20</v>
@@ -7334,7 +7535,7 @@
         <v>20</v>
       </c>
       <c r="H71">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I71">
         <v>29</v>
@@ -7402,25 +7603,25 @@
       <c r="AD71">
         <v>29</v>
       </c>
+      <c r="AE71">
+        <v>29</v>
+      </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
-      <c r="B72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
+      <c r="C72" t="s">
+        <v>147</v>
       </c>
       <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>5</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>20</v>
-      </c>
-      <c r="F72">
-        <v>29</v>
       </c>
       <c r="G72">
         <v>29</v>
@@ -7494,16 +7695,17 @@
       <c r="AD72">
         <v>29</v>
       </c>
+      <c r="AE72">
+        <v>29</v>
+      </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -7512,10 +7714,10 @@
         <v>0</v>
       </c>
       <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>2</v>
-      </c>
-      <c r="G73">
-        <v>14</v>
       </c>
       <c r="H73">
         <v>14</v>
@@ -7524,7 +7726,7 @@
         <v>14</v>
       </c>
       <c r="J73">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K73">
         <v>18</v>
@@ -7533,10 +7735,10 @@
         <v>18</v>
       </c>
       <c r="M73">
+        <v>18</v>
+      </c>
+      <c r="N73">
         <v>21</v>
-      </c>
-      <c r="N73">
-        <v>29</v>
       </c>
       <c r="O73">
         <v>29</v>
@@ -7586,28 +7788,28 @@
       <c r="AD73">
         <v>29</v>
       </c>
+      <c r="AE73">
+        <v>29</v>
+      </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74">
         <v>16</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>17</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>22</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>25</v>
-      </c>
-      <c r="G74">
-        <v>26</v>
       </c>
       <c r="H74">
         <v>26</v>
@@ -7678,19 +7880,19 @@
       <c r="AD74">
         <v>26</v>
       </c>
+      <c r="AE74">
+        <v>26</v>
+      </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
-      <c r="B75" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75">
         <v>17</v>
-      </c>
-      <c r="D75">
-        <v>25</v>
       </c>
       <c r="E75">
         <v>25</v>
@@ -7770,28 +7972,28 @@
       <c r="AD75">
         <v>25</v>
       </c>
+      <c r="AE75">
+        <v>25</v>
+      </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76">
         <v>14</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>15</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>19</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>24</v>
-      </c>
-      <c r="G76">
-        <v>25</v>
       </c>
       <c r="H76">
         <v>25</v>
@@ -7862,16 +8064,17 @@
       <c r="AD76">
         <v>25</v>
       </c>
+      <c r="AE76">
+        <v>25</v>
+      </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -7883,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>16</v>
@@ -7898,7 +8101,7 @@
         <v>16</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M77">
         <v>25</v>
@@ -7954,16 +8157,16 @@
       <c r="AD77">
         <v>25</v>
       </c>
+      <c r="AE77">
+        <v>25</v>
+      </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78">
-        <v>13</v>
+      <c r="C78" t="s">
+        <v>153</v>
       </c>
       <c r="D78">
         <v>13</v>
@@ -8046,10 +8249,13 @@
       <c r="AD78">
         <v>13</v>
       </c>
+      <c r="AE78">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AD87">
-    <sortCondition descending="1" ref="AD1"/>
+  <sortState ref="A2:AE87">
+    <sortCondition descending="1" ref="AE1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
